--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA452014-DB6D-4C77-B3F4-A78C11CDE7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BF7D4-DEED-4453-8185-5CDCE36EA151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Applications '!$A$1:$Y$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$Y$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$Z$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -284,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C4B022B-B11B-43B7-BBD3-3D8584E37FA3}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3C4B022B-B11B-43B7-BBD3-3D8584E37FA3}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B26EEC2-D932-453E-84C6-055A82AA2059}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3B26EEC2-D932-453E-84C6-055A82AA2059}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FA1004F5-1523-4436-8116-7071ED61C410}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FA1004F5-1523-4436-8116-7071ED61C410}">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{890FFF2E-5D79-4F03-B3F9-9E3A4BB8A8AD}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{890FFF2E-5D79-4F03-B3F9-9E3A4BB8A8AD}">
       <text>
         <r>
           <rPr>
@@ -663,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4A3820FA-946A-4DFE-966F-D7CD2DDD7714}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4A3820FA-946A-4DFE-966F-D7CD2DDD7714}">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
       <text>
         <r>
           <rPr>
@@ -833,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
       <text>
         <r>
           <rPr>
@@ -900,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
       <text>
         <r>
           <rPr>
@@ -1419,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
       <text>
         <r>
           <rPr>
@@ -1590,7 +1590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
       <text>
         <r>
           <rPr>
@@ -1678,7 +1678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
       <text>
         <r>
           <rPr>
@@ -1722,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
       <text>
         <r>
           <rPr>
@@ -1767,7 +1767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
       <text>
         <r>
           <rPr>
@@ -3592,7 +3592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -3766,6 +3766,9 @@
   </si>
   <si>
     <t>God!sgood1</t>
+  </si>
+  <si>
+    <t>Birth Day</t>
   </si>
 </sst>
 </file>
@@ -3896,7 +3899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3933,6 +3936,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4248,11 +4252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A335A-DF47-4048-BD00-1A46210CB849}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD100"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,1098 +4264,1098 @@
     <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="22.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="12" customWidth="1"/>
-    <col min="9" max="10" width="26.5703125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="15" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="13.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="12"/>
-    <col min="22" max="22" width="15.7109375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="22.7109375" style="12" customWidth="1"/>
-    <col min="257" max="257" width="25.7109375" customWidth="1"/>
-    <col min="258" max="259" width="20.7109375" customWidth="1"/>
-    <col min="260" max="260" width="20.28515625" customWidth="1"/>
-    <col min="262" max="262" width="22.7109375" customWidth="1"/>
-    <col min="263" max="263" width="15.7109375" customWidth="1"/>
-    <col min="264" max="264" width="18.7109375" customWidth="1"/>
-    <col min="265" max="266" width="26.5703125" customWidth="1"/>
-    <col min="267" max="267" width="15.7109375" customWidth="1"/>
-    <col min="268" max="268" width="20.140625" customWidth="1"/>
-    <col min="269" max="270" width="15.7109375" customWidth="1"/>
-    <col min="271" max="272" width="12.7109375" customWidth="1"/>
-    <col min="273" max="274" width="13.7109375" customWidth="1"/>
-    <col min="275" max="275" width="14.7109375" customWidth="1"/>
-    <col min="276" max="276" width="11.28515625" customWidth="1"/>
-    <col min="278" max="278" width="15.7109375" customWidth="1"/>
-    <col min="279" max="279" width="40" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="22.7109375" customWidth="1"/>
-    <col min="513" max="513" width="25.7109375" customWidth="1"/>
-    <col min="514" max="515" width="20.7109375" customWidth="1"/>
-    <col min="516" max="516" width="20.28515625" customWidth="1"/>
-    <col min="518" max="518" width="22.7109375" customWidth="1"/>
-    <col min="519" max="519" width="15.7109375" customWidth="1"/>
-    <col min="520" max="520" width="18.7109375" customWidth="1"/>
-    <col min="521" max="522" width="26.5703125" customWidth="1"/>
-    <col min="523" max="523" width="15.7109375" customWidth="1"/>
-    <col min="524" max="524" width="20.140625" customWidth="1"/>
-    <col min="525" max="526" width="15.7109375" customWidth="1"/>
-    <col min="527" max="528" width="12.7109375" customWidth="1"/>
-    <col min="529" max="530" width="13.7109375" customWidth="1"/>
-    <col min="531" max="531" width="14.7109375" customWidth="1"/>
-    <col min="532" max="532" width="11.28515625" customWidth="1"/>
-    <col min="534" max="534" width="15.7109375" customWidth="1"/>
-    <col min="535" max="535" width="40" bestFit="1" customWidth="1"/>
-    <col min="536" max="537" width="22.7109375" customWidth="1"/>
-    <col min="769" max="769" width="25.7109375" customWidth="1"/>
-    <col min="770" max="771" width="20.7109375" customWidth="1"/>
-    <col min="772" max="772" width="20.28515625" customWidth="1"/>
-    <col min="774" max="774" width="22.7109375" customWidth="1"/>
-    <col min="775" max="775" width="15.7109375" customWidth="1"/>
-    <col min="776" max="776" width="18.7109375" customWidth="1"/>
-    <col min="777" max="778" width="26.5703125" customWidth="1"/>
-    <col min="779" max="779" width="15.7109375" customWidth="1"/>
-    <col min="780" max="780" width="20.140625" customWidth="1"/>
-    <col min="781" max="782" width="15.7109375" customWidth="1"/>
-    <col min="783" max="784" width="12.7109375" customWidth="1"/>
-    <col min="785" max="786" width="13.7109375" customWidth="1"/>
-    <col min="787" max="787" width="14.7109375" customWidth="1"/>
-    <col min="788" max="788" width="11.28515625" customWidth="1"/>
-    <col min="790" max="790" width="15.7109375" customWidth="1"/>
-    <col min="791" max="791" width="40" bestFit="1" customWidth="1"/>
-    <col min="792" max="793" width="22.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="25.7109375" customWidth="1"/>
-    <col min="1026" max="1027" width="20.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="20.28515625" customWidth="1"/>
-    <col min="1030" max="1030" width="22.7109375" customWidth="1"/>
-    <col min="1031" max="1031" width="15.7109375" customWidth="1"/>
-    <col min="1032" max="1032" width="18.7109375" customWidth="1"/>
-    <col min="1033" max="1034" width="26.5703125" customWidth="1"/>
-    <col min="1035" max="1035" width="15.7109375" customWidth="1"/>
-    <col min="1036" max="1036" width="20.140625" customWidth="1"/>
-    <col min="1037" max="1038" width="15.7109375" customWidth="1"/>
-    <col min="1039" max="1040" width="12.7109375" customWidth="1"/>
-    <col min="1041" max="1042" width="13.7109375" customWidth="1"/>
-    <col min="1043" max="1043" width="14.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="11.28515625" customWidth="1"/>
-    <col min="1046" max="1046" width="15.7109375" customWidth="1"/>
-    <col min="1047" max="1047" width="40" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1049" width="22.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="25.7109375" customWidth="1"/>
-    <col min="1282" max="1283" width="20.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="20.28515625" customWidth="1"/>
-    <col min="1286" max="1286" width="22.7109375" customWidth="1"/>
-    <col min="1287" max="1287" width="15.7109375" customWidth="1"/>
-    <col min="1288" max="1288" width="18.7109375" customWidth="1"/>
-    <col min="1289" max="1290" width="26.5703125" customWidth="1"/>
-    <col min="1291" max="1291" width="15.7109375" customWidth="1"/>
-    <col min="1292" max="1292" width="20.140625" customWidth="1"/>
-    <col min="1293" max="1294" width="15.7109375" customWidth="1"/>
-    <col min="1295" max="1296" width="12.7109375" customWidth="1"/>
-    <col min="1297" max="1298" width="13.7109375" customWidth="1"/>
-    <col min="1299" max="1299" width="14.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="11.28515625" customWidth="1"/>
-    <col min="1302" max="1302" width="15.7109375" customWidth="1"/>
-    <col min="1303" max="1303" width="40" bestFit="1" customWidth="1"/>
-    <col min="1304" max="1305" width="22.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="25.7109375" customWidth="1"/>
-    <col min="1538" max="1539" width="20.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="20.28515625" customWidth="1"/>
-    <col min="1542" max="1542" width="22.7109375" customWidth="1"/>
-    <col min="1543" max="1543" width="15.7109375" customWidth="1"/>
-    <col min="1544" max="1544" width="18.7109375" customWidth="1"/>
-    <col min="1545" max="1546" width="26.5703125" customWidth="1"/>
-    <col min="1547" max="1547" width="15.7109375" customWidth="1"/>
-    <col min="1548" max="1548" width="20.140625" customWidth="1"/>
-    <col min="1549" max="1550" width="15.7109375" customWidth="1"/>
-    <col min="1551" max="1552" width="12.7109375" customWidth="1"/>
-    <col min="1553" max="1554" width="13.7109375" customWidth="1"/>
-    <col min="1555" max="1555" width="14.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="11.28515625" customWidth="1"/>
-    <col min="1558" max="1558" width="15.7109375" customWidth="1"/>
-    <col min="1559" max="1559" width="40" bestFit="1" customWidth="1"/>
-    <col min="1560" max="1561" width="22.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="25.7109375" customWidth="1"/>
-    <col min="1794" max="1795" width="20.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="20.28515625" customWidth="1"/>
-    <col min="1798" max="1798" width="22.7109375" customWidth="1"/>
-    <col min="1799" max="1799" width="15.7109375" customWidth="1"/>
-    <col min="1800" max="1800" width="18.7109375" customWidth="1"/>
-    <col min="1801" max="1802" width="26.5703125" customWidth="1"/>
-    <col min="1803" max="1803" width="15.7109375" customWidth="1"/>
-    <col min="1804" max="1804" width="20.140625" customWidth="1"/>
-    <col min="1805" max="1806" width="15.7109375" customWidth="1"/>
-    <col min="1807" max="1808" width="12.7109375" customWidth="1"/>
-    <col min="1809" max="1810" width="13.7109375" customWidth="1"/>
-    <col min="1811" max="1811" width="14.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="11.28515625" customWidth="1"/>
-    <col min="1814" max="1814" width="15.7109375" customWidth="1"/>
-    <col min="1815" max="1815" width="40" bestFit="1" customWidth="1"/>
-    <col min="1816" max="1817" width="22.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="25.7109375" customWidth="1"/>
-    <col min="2050" max="2051" width="20.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="20.28515625" customWidth="1"/>
-    <col min="2054" max="2054" width="22.7109375" customWidth="1"/>
-    <col min="2055" max="2055" width="15.7109375" customWidth="1"/>
-    <col min="2056" max="2056" width="18.7109375" customWidth="1"/>
-    <col min="2057" max="2058" width="26.5703125" customWidth="1"/>
-    <col min="2059" max="2059" width="15.7109375" customWidth="1"/>
-    <col min="2060" max="2060" width="20.140625" customWidth="1"/>
-    <col min="2061" max="2062" width="15.7109375" customWidth="1"/>
-    <col min="2063" max="2064" width="12.7109375" customWidth="1"/>
-    <col min="2065" max="2066" width="13.7109375" customWidth="1"/>
-    <col min="2067" max="2067" width="14.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="11.28515625" customWidth="1"/>
-    <col min="2070" max="2070" width="15.7109375" customWidth="1"/>
-    <col min="2071" max="2071" width="40" bestFit="1" customWidth="1"/>
-    <col min="2072" max="2073" width="22.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="25.7109375" customWidth="1"/>
-    <col min="2306" max="2307" width="20.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="20.28515625" customWidth="1"/>
-    <col min="2310" max="2310" width="22.7109375" customWidth="1"/>
-    <col min="2311" max="2311" width="15.7109375" customWidth="1"/>
-    <col min="2312" max="2312" width="18.7109375" customWidth="1"/>
-    <col min="2313" max="2314" width="26.5703125" customWidth="1"/>
-    <col min="2315" max="2315" width="15.7109375" customWidth="1"/>
-    <col min="2316" max="2316" width="20.140625" customWidth="1"/>
-    <col min="2317" max="2318" width="15.7109375" customWidth="1"/>
-    <col min="2319" max="2320" width="12.7109375" customWidth="1"/>
-    <col min="2321" max="2322" width="13.7109375" customWidth="1"/>
-    <col min="2323" max="2323" width="14.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="11.28515625" customWidth="1"/>
-    <col min="2326" max="2326" width="15.7109375" customWidth="1"/>
-    <col min="2327" max="2327" width="40" bestFit="1" customWidth="1"/>
-    <col min="2328" max="2329" width="22.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="25.7109375" customWidth="1"/>
-    <col min="2562" max="2563" width="20.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="20.28515625" customWidth="1"/>
-    <col min="2566" max="2566" width="22.7109375" customWidth="1"/>
-    <col min="2567" max="2567" width="15.7109375" customWidth="1"/>
-    <col min="2568" max="2568" width="18.7109375" customWidth="1"/>
-    <col min="2569" max="2570" width="26.5703125" customWidth="1"/>
-    <col min="2571" max="2571" width="15.7109375" customWidth="1"/>
-    <col min="2572" max="2572" width="20.140625" customWidth="1"/>
-    <col min="2573" max="2574" width="15.7109375" customWidth="1"/>
-    <col min="2575" max="2576" width="12.7109375" customWidth="1"/>
-    <col min="2577" max="2578" width="13.7109375" customWidth="1"/>
-    <col min="2579" max="2579" width="14.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="11.28515625" customWidth="1"/>
-    <col min="2582" max="2582" width="15.7109375" customWidth="1"/>
-    <col min="2583" max="2583" width="40" bestFit="1" customWidth="1"/>
-    <col min="2584" max="2585" width="22.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="25.7109375" customWidth="1"/>
-    <col min="2818" max="2819" width="20.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="20.28515625" customWidth="1"/>
-    <col min="2822" max="2822" width="22.7109375" customWidth="1"/>
-    <col min="2823" max="2823" width="15.7109375" customWidth="1"/>
-    <col min="2824" max="2824" width="18.7109375" customWidth="1"/>
-    <col min="2825" max="2826" width="26.5703125" customWidth="1"/>
-    <col min="2827" max="2827" width="15.7109375" customWidth="1"/>
-    <col min="2828" max="2828" width="20.140625" customWidth="1"/>
-    <col min="2829" max="2830" width="15.7109375" customWidth="1"/>
-    <col min="2831" max="2832" width="12.7109375" customWidth="1"/>
-    <col min="2833" max="2834" width="13.7109375" customWidth="1"/>
-    <col min="2835" max="2835" width="14.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="11.28515625" customWidth="1"/>
-    <col min="2838" max="2838" width="15.7109375" customWidth="1"/>
-    <col min="2839" max="2839" width="40" bestFit="1" customWidth="1"/>
-    <col min="2840" max="2841" width="22.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="25.7109375" customWidth="1"/>
-    <col min="3074" max="3075" width="20.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="20.28515625" customWidth="1"/>
-    <col min="3078" max="3078" width="22.7109375" customWidth="1"/>
-    <col min="3079" max="3079" width="15.7109375" customWidth="1"/>
-    <col min="3080" max="3080" width="18.7109375" customWidth="1"/>
-    <col min="3081" max="3082" width="26.5703125" customWidth="1"/>
-    <col min="3083" max="3083" width="15.7109375" customWidth="1"/>
-    <col min="3084" max="3084" width="20.140625" customWidth="1"/>
-    <col min="3085" max="3086" width="15.7109375" customWidth="1"/>
-    <col min="3087" max="3088" width="12.7109375" customWidth="1"/>
-    <col min="3089" max="3090" width="13.7109375" customWidth="1"/>
-    <col min="3091" max="3091" width="14.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="11.28515625" customWidth="1"/>
-    <col min="3094" max="3094" width="15.7109375" customWidth="1"/>
-    <col min="3095" max="3095" width="40" bestFit="1" customWidth="1"/>
-    <col min="3096" max="3097" width="22.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="25.7109375" customWidth="1"/>
-    <col min="3330" max="3331" width="20.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="20.28515625" customWidth="1"/>
-    <col min="3334" max="3334" width="22.7109375" customWidth="1"/>
-    <col min="3335" max="3335" width="15.7109375" customWidth="1"/>
-    <col min="3336" max="3336" width="18.7109375" customWidth="1"/>
-    <col min="3337" max="3338" width="26.5703125" customWidth="1"/>
-    <col min="3339" max="3339" width="15.7109375" customWidth="1"/>
-    <col min="3340" max="3340" width="20.140625" customWidth="1"/>
-    <col min="3341" max="3342" width="15.7109375" customWidth="1"/>
-    <col min="3343" max="3344" width="12.7109375" customWidth="1"/>
-    <col min="3345" max="3346" width="13.7109375" customWidth="1"/>
-    <col min="3347" max="3347" width="14.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="11.28515625" customWidth="1"/>
-    <col min="3350" max="3350" width="15.7109375" customWidth="1"/>
-    <col min="3351" max="3351" width="40" bestFit="1" customWidth="1"/>
-    <col min="3352" max="3353" width="22.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="25.7109375" customWidth="1"/>
-    <col min="3586" max="3587" width="20.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="20.28515625" customWidth="1"/>
-    <col min="3590" max="3590" width="22.7109375" customWidth="1"/>
-    <col min="3591" max="3591" width="15.7109375" customWidth="1"/>
-    <col min="3592" max="3592" width="18.7109375" customWidth="1"/>
-    <col min="3593" max="3594" width="26.5703125" customWidth="1"/>
-    <col min="3595" max="3595" width="15.7109375" customWidth="1"/>
-    <col min="3596" max="3596" width="20.140625" customWidth="1"/>
-    <col min="3597" max="3598" width="15.7109375" customWidth="1"/>
-    <col min="3599" max="3600" width="12.7109375" customWidth="1"/>
-    <col min="3601" max="3602" width="13.7109375" customWidth="1"/>
-    <col min="3603" max="3603" width="14.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="11.28515625" customWidth="1"/>
-    <col min="3606" max="3606" width="15.7109375" customWidth="1"/>
-    <col min="3607" max="3607" width="40" bestFit="1" customWidth="1"/>
-    <col min="3608" max="3609" width="22.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="25.7109375" customWidth="1"/>
-    <col min="3842" max="3843" width="20.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="20.28515625" customWidth="1"/>
-    <col min="3846" max="3846" width="22.7109375" customWidth="1"/>
-    <col min="3847" max="3847" width="15.7109375" customWidth="1"/>
-    <col min="3848" max="3848" width="18.7109375" customWidth="1"/>
-    <col min="3849" max="3850" width="26.5703125" customWidth="1"/>
-    <col min="3851" max="3851" width="15.7109375" customWidth="1"/>
-    <col min="3852" max="3852" width="20.140625" customWidth="1"/>
-    <col min="3853" max="3854" width="15.7109375" customWidth="1"/>
-    <col min="3855" max="3856" width="12.7109375" customWidth="1"/>
-    <col min="3857" max="3858" width="13.7109375" customWidth="1"/>
-    <col min="3859" max="3859" width="14.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="11.28515625" customWidth="1"/>
-    <col min="3862" max="3862" width="15.7109375" customWidth="1"/>
-    <col min="3863" max="3863" width="40" bestFit="1" customWidth="1"/>
-    <col min="3864" max="3865" width="22.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="25.7109375" customWidth="1"/>
-    <col min="4098" max="4099" width="20.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="20.28515625" customWidth="1"/>
-    <col min="4102" max="4102" width="22.7109375" customWidth="1"/>
-    <col min="4103" max="4103" width="15.7109375" customWidth="1"/>
-    <col min="4104" max="4104" width="18.7109375" customWidth="1"/>
-    <col min="4105" max="4106" width="26.5703125" customWidth="1"/>
-    <col min="4107" max="4107" width="15.7109375" customWidth="1"/>
-    <col min="4108" max="4108" width="20.140625" customWidth="1"/>
-    <col min="4109" max="4110" width="15.7109375" customWidth="1"/>
-    <col min="4111" max="4112" width="12.7109375" customWidth="1"/>
-    <col min="4113" max="4114" width="13.7109375" customWidth="1"/>
-    <col min="4115" max="4115" width="14.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="11.28515625" customWidth="1"/>
-    <col min="4118" max="4118" width="15.7109375" customWidth="1"/>
-    <col min="4119" max="4119" width="40" bestFit="1" customWidth="1"/>
-    <col min="4120" max="4121" width="22.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="25.7109375" customWidth="1"/>
-    <col min="4354" max="4355" width="20.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="20.28515625" customWidth="1"/>
-    <col min="4358" max="4358" width="22.7109375" customWidth="1"/>
-    <col min="4359" max="4359" width="15.7109375" customWidth="1"/>
-    <col min="4360" max="4360" width="18.7109375" customWidth="1"/>
-    <col min="4361" max="4362" width="26.5703125" customWidth="1"/>
-    <col min="4363" max="4363" width="15.7109375" customWidth="1"/>
-    <col min="4364" max="4364" width="20.140625" customWidth="1"/>
-    <col min="4365" max="4366" width="15.7109375" customWidth="1"/>
-    <col min="4367" max="4368" width="12.7109375" customWidth="1"/>
-    <col min="4369" max="4370" width="13.7109375" customWidth="1"/>
-    <col min="4371" max="4371" width="14.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="11.28515625" customWidth="1"/>
-    <col min="4374" max="4374" width="15.7109375" customWidth="1"/>
-    <col min="4375" max="4375" width="40" bestFit="1" customWidth="1"/>
-    <col min="4376" max="4377" width="22.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="25.7109375" customWidth="1"/>
-    <col min="4610" max="4611" width="20.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="20.28515625" customWidth="1"/>
-    <col min="4614" max="4614" width="22.7109375" customWidth="1"/>
-    <col min="4615" max="4615" width="15.7109375" customWidth="1"/>
-    <col min="4616" max="4616" width="18.7109375" customWidth="1"/>
-    <col min="4617" max="4618" width="26.5703125" customWidth="1"/>
-    <col min="4619" max="4619" width="15.7109375" customWidth="1"/>
-    <col min="4620" max="4620" width="20.140625" customWidth="1"/>
-    <col min="4621" max="4622" width="15.7109375" customWidth="1"/>
-    <col min="4623" max="4624" width="12.7109375" customWidth="1"/>
-    <col min="4625" max="4626" width="13.7109375" customWidth="1"/>
-    <col min="4627" max="4627" width="14.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="11.28515625" customWidth="1"/>
-    <col min="4630" max="4630" width="15.7109375" customWidth="1"/>
-    <col min="4631" max="4631" width="40" bestFit="1" customWidth="1"/>
-    <col min="4632" max="4633" width="22.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="25.7109375" customWidth="1"/>
-    <col min="4866" max="4867" width="20.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="20.28515625" customWidth="1"/>
-    <col min="4870" max="4870" width="22.7109375" customWidth="1"/>
-    <col min="4871" max="4871" width="15.7109375" customWidth="1"/>
-    <col min="4872" max="4872" width="18.7109375" customWidth="1"/>
-    <col min="4873" max="4874" width="26.5703125" customWidth="1"/>
-    <col min="4875" max="4875" width="15.7109375" customWidth="1"/>
-    <col min="4876" max="4876" width="20.140625" customWidth="1"/>
-    <col min="4877" max="4878" width="15.7109375" customWidth="1"/>
-    <col min="4879" max="4880" width="12.7109375" customWidth="1"/>
-    <col min="4881" max="4882" width="13.7109375" customWidth="1"/>
-    <col min="4883" max="4883" width="14.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="11.28515625" customWidth="1"/>
-    <col min="4886" max="4886" width="15.7109375" customWidth="1"/>
-    <col min="4887" max="4887" width="40" bestFit="1" customWidth="1"/>
-    <col min="4888" max="4889" width="22.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="25.7109375" customWidth="1"/>
-    <col min="5122" max="5123" width="20.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="20.28515625" customWidth="1"/>
-    <col min="5126" max="5126" width="22.7109375" customWidth="1"/>
-    <col min="5127" max="5127" width="15.7109375" customWidth="1"/>
-    <col min="5128" max="5128" width="18.7109375" customWidth="1"/>
-    <col min="5129" max="5130" width="26.5703125" customWidth="1"/>
-    <col min="5131" max="5131" width="15.7109375" customWidth="1"/>
-    <col min="5132" max="5132" width="20.140625" customWidth="1"/>
-    <col min="5133" max="5134" width="15.7109375" customWidth="1"/>
-    <col min="5135" max="5136" width="12.7109375" customWidth="1"/>
-    <col min="5137" max="5138" width="13.7109375" customWidth="1"/>
-    <col min="5139" max="5139" width="14.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="11.28515625" customWidth="1"/>
-    <col min="5142" max="5142" width="15.7109375" customWidth="1"/>
-    <col min="5143" max="5143" width="40" bestFit="1" customWidth="1"/>
-    <col min="5144" max="5145" width="22.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="25.7109375" customWidth="1"/>
-    <col min="5378" max="5379" width="20.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="20.28515625" customWidth="1"/>
-    <col min="5382" max="5382" width="22.7109375" customWidth="1"/>
-    <col min="5383" max="5383" width="15.7109375" customWidth="1"/>
-    <col min="5384" max="5384" width="18.7109375" customWidth="1"/>
-    <col min="5385" max="5386" width="26.5703125" customWidth="1"/>
-    <col min="5387" max="5387" width="15.7109375" customWidth="1"/>
-    <col min="5388" max="5388" width="20.140625" customWidth="1"/>
-    <col min="5389" max="5390" width="15.7109375" customWidth="1"/>
-    <col min="5391" max="5392" width="12.7109375" customWidth="1"/>
-    <col min="5393" max="5394" width="13.7109375" customWidth="1"/>
-    <col min="5395" max="5395" width="14.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="11.28515625" customWidth="1"/>
-    <col min="5398" max="5398" width="15.7109375" customWidth="1"/>
-    <col min="5399" max="5399" width="40" bestFit="1" customWidth="1"/>
-    <col min="5400" max="5401" width="22.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="25.7109375" customWidth="1"/>
-    <col min="5634" max="5635" width="20.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="20.28515625" customWidth="1"/>
-    <col min="5638" max="5638" width="22.7109375" customWidth="1"/>
-    <col min="5639" max="5639" width="15.7109375" customWidth="1"/>
-    <col min="5640" max="5640" width="18.7109375" customWidth="1"/>
-    <col min="5641" max="5642" width="26.5703125" customWidth="1"/>
-    <col min="5643" max="5643" width="15.7109375" customWidth="1"/>
-    <col min="5644" max="5644" width="20.140625" customWidth="1"/>
-    <col min="5645" max="5646" width="15.7109375" customWidth="1"/>
-    <col min="5647" max="5648" width="12.7109375" customWidth="1"/>
-    <col min="5649" max="5650" width="13.7109375" customWidth="1"/>
-    <col min="5651" max="5651" width="14.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="11.28515625" customWidth="1"/>
-    <col min="5654" max="5654" width="15.7109375" customWidth="1"/>
-    <col min="5655" max="5655" width="40" bestFit="1" customWidth="1"/>
-    <col min="5656" max="5657" width="22.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="25.7109375" customWidth="1"/>
-    <col min="5890" max="5891" width="20.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="20.28515625" customWidth="1"/>
-    <col min="5894" max="5894" width="22.7109375" customWidth="1"/>
-    <col min="5895" max="5895" width="15.7109375" customWidth="1"/>
-    <col min="5896" max="5896" width="18.7109375" customWidth="1"/>
-    <col min="5897" max="5898" width="26.5703125" customWidth="1"/>
-    <col min="5899" max="5899" width="15.7109375" customWidth="1"/>
-    <col min="5900" max="5900" width="20.140625" customWidth="1"/>
-    <col min="5901" max="5902" width="15.7109375" customWidth="1"/>
-    <col min="5903" max="5904" width="12.7109375" customWidth="1"/>
-    <col min="5905" max="5906" width="13.7109375" customWidth="1"/>
-    <col min="5907" max="5907" width="14.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="11.28515625" customWidth="1"/>
-    <col min="5910" max="5910" width="15.7109375" customWidth="1"/>
-    <col min="5911" max="5911" width="40" bestFit="1" customWidth="1"/>
-    <col min="5912" max="5913" width="22.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="25.7109375" customWidth="1"/>
-    <col min="6146" max="6147" width="20.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="20.28515625" customWidth="1"/>
-    <col min="6150" max="6150" width="22.7109375" customWidth="1"/>
-    <col min="6151" max="6151" width="15.7109375" customWidth="1"/>
-    <col min="6152" max="6152" width="18.7109375" customWidth="1"/>
-    <col min="6153" max="6154" width="26.5703125" customWidth="1"/>
-    <col min="6155" max="6155" width="15.7109375" customWidth="1"/>
-    <col min="6156" max="6156" width="20.140625" customWidth="1"/>
-    <col min="6157" max="6158" width="15.7109375" customWidth="1"/>
-    <col min="6159" max="6160" width="12.7109375" customWidth="1"/>
-    <col min="6161" max="6162" width="13.7109375" customWidth="1"/>
-    <col min="6163" max="6163" width="14.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="11.28515625" customWidth="1"/>
-    <col min="6166" max="6166" width="15.7109375" customWidth="1"/>
-    <col min="6167" max="6167" width="40" bestFit="1" customWidth="1"/>
-    <col min="6168" max="6169" width="22.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="25.7109375" customWidth="1"/>
-    <col min="6402" max="6403" width="20.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="20.28515625" customWidth="1"/>
-    <col min="6406" max="6406" width="22.7109375" customWidth="1"/>
-    <col min="6407" max="6407" width="15.7109375" customWidth="1"/>
-    <col min="6408" max="6408" width="18.7109375" customWidth="1"/>
-    <col min="6409" max="6410" width="26.5703125" customWidth="1"/>
-    <col min="6411" max="6411" width="15.7109375" customWidth="1"/>
-    <col min="6412" max="6412" width="20.140625" customWidth="1"/>
-    <col min="6413" max="6414" width="15.7109375" customWidth="1"/>
-    <col min="6415" max="6416" width="12.7109375" customWidth="1"/>
-    <col min="6417" max="6418" width="13.7109375" customWidth="1"/>
-    <col min="6419" max="6419" width="14.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="11.28515625" customWidth="1"/>
-    <col min="6422" max="6422" width="15.7109375" customWidth="1"/>
-    <col min="6423" max="6423" width="40" bestFit="1" customWidth="1"/>
-    <col min="6424" max="6425" width="22.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="25.7109375" customWidth="1"/>
-    <col min="6658" max="6659" width="20.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="20.28515625" customWidth="1"/>
-    <col min="6662" max="6662" width="22.7109375" customWidth="1"/>
-    <col min="6663" max="6663" width="15.7109375" customWidth="1"/>
-    <col min="6664" max="6664" width="18.7109375" customWidth="1"/>
-    <col min="6665" max="6666" width="26.5703125" customWidth="1"/>
-    <col min="6667" max="6667" width="15.7109375" customWidth="1"/>
-    <col min="6668" max="6668" width="20.140625" customWidth="1"/>
-    <col min="6669" max="6670" width="15.7109375" customWidth="1"/>
-    <col min="6671" max="6672" width="12.7109375" customWidth="1"/>
-    <col min="6673" max="6674" width="13.7109375" customWidth="1"/>
-    <col min="6675" max="6675" width="14.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="11.28515625" customWidth="1"/>
-    <col min="6678" max="6678" width="15.7109375" customWidth="1"/>
-    <col min="6679" max="6679" width="40" bestFit="1" customWidth="1"/>
-    <col min="6680" max="6681" width="22.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="25.7109375" customWidth="1"/>
-    <col min="6914" max="6915" width="20.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="20.28515625" customWidth="1"/>
-    <col min="6918" max="6918" width="22.7109375" customWidth="1"/>
-    <col min="6919" max="6919" width="15.7109375" customWidth="1"/>
-    <col min="6920" max="6920" width="18.7109375" customWidth="1"/>
-    <col min="6921" max="6922" width="26.5703125" customWidth="1"/>
-    <col min="6923" max="6923" width="15.7109375" customWidth="1"/>
-    <col min="6924" max="6924" width="20.140625" customWidth="1"/>
-    <col min="6925" max="6926" width="15.7109375" customWidth="1"/>
-    <col min="6927" max="6928" width="12.7109375" customWidth="1"/>
-    <col min="6929" max="6930" width="13.7109375" customWidth="1"/>
-    <col min="6931" max="6931" width="14.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="11.28515625" customWidth="1"/>
-    <col min="6934" max="6934" width="15.7109375" customWidth="1"/>
-    <col min="6935" max="6935" width="40" bestFit="1" customWidth="1"/>
-    <col min="6936" max="6937" width="22.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="25.7109375" customWidth="1"/>
-    <col min="7170" max="7171" width="20.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="20.28515625" customWidth="1"/>
-    <col min="7174" max="7174" width="22.7109375" customWidth="1"/>
-    <col min="7175" max="7175" width="15.7109375" customWidth="1"/>
-    <col min="7176" max="7176" width="18.7109375" customWidth="1"/>
-    <col min="7177" max="7178" width="26.5703125" customWidth="1"/>
-    <col min="7179" max="7179" width="15.7109375" customWidth="1"/>
-    <col min="7180" max="7180" width="20.140625" customWidth="1"/>
-    <col min="7181" max="7182" width="15.7109375" customWidth="1"/>
-    <col min="7183" max="7184" width="12.7109375" customWidth="1"/>
-    <col min="7185" max="7186" width="13.7109375" customWidth="1"/>
-    <col min="7187" max="7187" width="14.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="11.28515625" customWidth="1"/>
-    <col min="7190" max="7190" width="15.7109375" customWidth="1"/>
-    <col min="7191" max="7191" width="40" bestFit="1" customWidth="1"/>
-    <col min="7192" max="7193" width="22.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="25.7109375" customWidth="1"/>
-    <col min="7426" max="7427" width="20.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="20.28515625" customWidth="1"/>
-    <col min="7430" max="7430" width="22.7109375" customWidth="1"/>
-    <col min="7431" max="7431" width="15.7109375" customWidth="1"/>
-    <col min="7432" max="7432" width="18.7109375" customWidth="1"/>
-    <col min="7433" max="7434" width="26.5703125" customWidth="1"/>
-    <col min="7435" max="7435" width="15.7109375" customWidth="1"/>
-    <col min="7436" max="7436" width="20.140625" customWidth="1"/>
-    <col min="7437" max="7438" width="15.7109375" customWidth="1"/>
-    <col min="7439" max="7440" width="12.7109375" customWidth="1"/>
-    <col min="7441" max="7442" width="13.7109375" customWidth="1"/>
-    <col min="7443" max="7443" width="14.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="11.28515625" customWidth="1"/>
-    <col min="7446" max="7446" width="15.7109375" customWidth="1"/>
-    <col min="7447" max="7447" width="40" bestFit="1" customWidth="1"/>
-    <col min="7448" max="7449" width="22.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="25.7109375" customWidth="1"/>
-    <col min="7682" max="7683" width="20.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="20.28515625" customWidth="1"/>
-    <col min="7686" max="7686" width="22.7109375" customWidth="1"/>
-    <col min="7687" max="7687" width="15.7109375" customWidth="1"/>
-    <col min="7688" max="7688" width="18.7109375" customWidth="1"/>
-    <col min="7689" max="7690" width="26.5703125" customWidth="1"/>
-    <col min="7691" max="7691" width="15.7109375" customWidth="1"/>
-    <col min="7692" max="7692" width="20.140625" customWidth="1"/>
-    <col min="7693" max="7694" width="15.7109375" customWidth="1"/>
-    <col min="7695" max="7696" width="12.7109375" customWidth="1"/>
-    <col min="7697" max="7698" width="13.7109375" customWidth="1"/>
-    <col min="7699" max="7699" width="14.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="11.28515625" customWidth="1"/>
-    <col min="7702" max="7702" width="15.7109375" customWidth="1"/>
-    <col min="7703" max="7703" width="40" bestFit="1" customWidth="1"/>
-    <col min="7704" max="7705" width="22.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="25.7109375" customWidth="1"/>
-    <col min="7938" max="7939" width="20.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="20.28515625" customWidth="1"/>
-    <col min="7942" max="7942" width="22.7109375" customWidth="1"/>
-    <col min="7943" max="7943" width="15.7109375" customWidth="1"/>
-    <col min="7944" max="7944" width="18.7109375" customWidth="1"/>
-    <col min="7945" max="7946" width="26.5703125" customWidth="1"/>
-    <col min="7947" max="7947" width="15.7109375" customWidth="1"/>
-    <col min="7948" max="7948" width="20.140625" customWidth="1"/>
-    <col min="7949" max="7950" width="15.7109375" customWidth="1"/>
-    <col min="7951" max="7952" width="12.7109375" customWidth="1"/>
-    <col min="7953" max="7954" width="13.7109375" customWidth="1"/>
-    <col min="7955" max="7955" width="14.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="11.28515625" customWidth="1"/>
-    <col min="7958" max="7958" width="15.7109375" customWidth="1"/>
-    <col min="7959" max="7959" width="40" bestFit="1" customWidth="1"/>
-    <col min="7960" max="7961" width="22.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="25.7109375" customWidth="1"/>
-    <col min="8194" max="8195" width="20.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="20.28515625" customWidth="1"/>
-    <col min="8198" max="8198" width="22.7109375" customWidth="1"/>
-    <col min="8199" max="8199" width="15.7109375" customWidth="1"/>
-    <col min="8200" max="8200" width="18.7109375" customWidth="1"/>
-    <col min="8201" max="8202" width="26.5703125" customWidth="1"/>
-    <col min="8203" max="8203" width="15.7109375" customWidth="1"/>
-    <col min="8204" max="8204" width="20.140625" customWidth="1"/>
-    <col min="8205" max="8206" width="15.7109375" customWidth="1"/>
-    <col min="8207" max="8208" width="12.7109375" customWidth="1"/>
-    <col min="8209" max="8210" width="13.7109375" customWidth="1"/>
-    <col min="8211" max="8211" width="14.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="11.28515625" customWidth="1"/>
-    <col min="8214" max="8214" width="15.7109375" customWidth="1"/>
-    <col min="8215" max="8215" width="40" bestFit="1" customWidth="1"/>
-    <col min="8216" max="8217" width="22.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="25.7109375" customWidth="1"/>
-    <col min="8450" max="8451" width="20.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="20.28515625" customWidth="1"/>
-    <col min="8454" max="8454" width="22.7109375" customWidth="1"/>
-    <col min="8455" max="8455" width="15.7109375" customWidth="1"/>
-    <col min="8456" max="8456" width="18.7109375" customWidth="1"/>
-    <col min="8457" max="8458" width="26.5703125" customWidth="1"/>
-    <col min="8459" max="8459" width="15.7109375" customWidth="1"/>
-    <col min="8460" max="8460" width="20.140625" customWidth="1"/>
-    <col min="8461" max="8462" width="15.7109375" customWidth="1"/>
-    <col min="8463" max="8464" width="12.7109375" customWidth="1"/>
-    <col min="8465" max="8466" width="13.7109375" customWidth="1"/>
-    <col min="8467" max="8467" width="14.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="11.28515625" customWidth="1"/>
-    <col min="8470" max="8470" width="15.7109375" customWidth="1"/>
-    <col min="8471" max="8471" width="40" bestFit="1" customWidth="1"/>
-    <col min="8472" max="8473" width="22.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="25.7109375" customWidth="1"/>
-    <col min="8706" max="8707" width="20.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="20.28515625" customWidth="1"/>
-    <col min="8710" max="8710" width="22.7109375" customWidth="1"/>
-    <col min="8711" max="8711" width="15.7109375" customWidth="1"/>
-    <col min="8712" max="8712" width="18.7109375" customWidth="1"/>
-    <col min="8713" max="8714" width="26.5703125" customWidth="1"/>
-    <col min="8715" max="8715" width="15.7109375" customWidth="1"/>
-    <col min="8716" max="8716" width="20.140625" customWidth="1"/>
-    <col min="8717" max="8718" width="15.7109375" customWidth="1"/>
-    <col min="8719" max="8720" width="12.7109375" customWidth="1"/>
-    <col min="8721" max="8722" width="13.7109375" customWidth="1"/>
-    <col min="8723" max="8723" width="14.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="11.28515625" customWidth="1"/>
-    <col min="8726" max="8726" width="15.7109375" customWidth="1"/>
-    <col min="8727" max="8727" width="40" bestFit="1" customWidth="1"/>
-    <col min="8728" max="8729" width="22.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="25.7109375" customWidth="1"/>
-    <col min="8962" max="8963" width="20.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="20.28515625" customWidth="1"/>
-    <col min="8966" max="8966" width="22.7109375" customWidth="1"/>
-    <col min="8967" max="8967" width="15.7109375" customWidth="1"/>
-    <col min="8968" max="8968" width="18.7109375" customWidth="1"/>
-    <col min="8969" max="8970" width="26.5703125" customWidth="1"/>
-    <col min="8971" max="8971" width="15.7109375" customWidth="1"/>
-    <col min="8972" max="8972" width="20.140625" customWidth="1"/>
-    <col min="8973" max="8974" width="15.7109375" customWidth="1"/>
-    <col min="8975" max="8976" width="12.7109375" customWidth="1"/>
-    <col min="8977" max="8978" width="13.7109375" customWidth="1"/>
-    <col min="8979" max="8979" width="14.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="11.28515625" customWidth="1"/>
-    <col min="8982" max="8982" width="15.7109375" customWidth="1"/>
-    <col min="8983" max="8983" width="40" bestFit="1" customWidth="1"/>
-    <col min="8984" max="8985" width="22.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="25.7109375" customWidth="1"/>
-    <col min="9218" max="9219" width="20.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="20.28515625" customWidth="1"/>
-    <col min="9222" max="9222" width="22.7109375" customWidth="1"/>
-    <col min="9223" max="9223" width="15.7109375" customWidth="1"/>
-    <col min="9224" max="9224" width="18.7109375" customWidth="1"/>
-    <col min="9225" max="9226" width="26.5703125" customWidth="1"/>
-    <col min="9227" max="9227" width="15.7109375" customWidth="1"/>
-    <col min="9228" max="9228" width="20.140625" customWidth="1"/>
-    <col min="9229" max="9230" width="15.7109375" customWidth="1"/>
-    <col min="9231" max="9232" width="12.7109375" customWidth="1"/>
-    <col min="9233" max="9234" width="13.7109375" customWidth="1"/>
-    <col min="9235" max="9235" width="14.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="11.28515625" customWidth="1"/>
-    <col min="9238" max="9238" width="15.7109375" customWidth="1"/>
-    <col min="9239" max="9239" width="40" bestFit="1" customWidth="1"/>
-    <col min="9240" max="9241" width="22.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="25.7109375" customWidth="1"/>
-    <col min="9474" max="9475" width="20.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="20.28515625" customWidth="1"/>
-    <col min="9478" max="9478" width="22.7109375" customWidth="1"/>
-    <col min="9479" max="9479" width="15.7109375" customWidth="1"/>
-    <col min="9480" max="9480" width="18.7109375" customWidth="1"/>
-    <col min="9481" max="9482" width="26.5703125" customWidth="1"/>
-    <col min="9483" max="9483" width="15.7109375" customWidth="1"/>
-    <col min="9484" max="9484" width="20.140625" customWidth="1"/>
-    <col min="9485" max="9486" width="15.7109375" customWidth="1"/>
-    <col min="9487" max="9488" width="12.7109375" customWidth="1"/>
-    <col min="9489" max="9490" width="13.7109375" customWidth="1"/>
-    <col min="9491" max="9491" width="14.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="11.28515625" customWidth="1"/>
-    <col min="9494" max="9494" width="15.7109375" customWidth="1"/>
-    <col min="9495" max="9495" width="40" bestFit="1" customWidth="1"/>
-    <col min="9496" max="9497" width="22.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="25.7109375" customWidth="1"/>
-    <col min="9730" max="9731" width="20.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="20.28515625" customWidth="1"/>
-    <col min="9734" max="9734" width="22.7109375" customWidth="1"/>
-    <col min="9735" max="9735" width="15.7109375" customWidth="1"/>
-    <col min="9736" max="9736" width="18.7109375" customWidth="1"/>
-    <col min="9737" max="9738" width="26.5703125" customWidth="1"/>
-    <col min="9739" max="9739" width="15.7109375" customWidth="1"/>
-    <col min="9740" max="9740" width="20.140625" customWidth="1"/>
-    <col min="9741" max="9742" width="15.7109375" customWidth="1"/>
-    <col min="9743" max="9744" width="12.7109375" customWidth="1"/>
-    <col min="9745" max="9746" width="13.7109375" customWidth="1"/>
-    <col min="9747" max="9747" width="14.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="11.28515625" customWidth="1"/>
-    <col min="9750" max="9750" width="15.7109375" customWidth="1"/>
-    <col min="9751" max="9751" width="40" bestFit="1" customWidth="1"/>
-    <col min="9752" max="9753" width="22.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="25.7109375" customWidth="1"/>
-    <col min="9986" max="9987" width="20.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="20.28515625" customWidth="1"/>
-    <col min="9990" max="9990" width="22.7109375" customWidth="1"/>
-    <col min="9991" max="9991" width="15.7109375" customWidth="1"/>
-    <col min="9992" max="9992" width="18.7109375" customWidth="1"/>
-    <col min="9993" max="9994" width="26.5703125" customWidth="1"/>
-    <col min="9995" max="9995" width="15.7109375" customWidth="1"/>
-    <col min="9996" max="9996" width="20.140625" customWidth="1"/>
-    <col min="9997" max="9998" width="15.7109375" customWidth="1"/>
-    <col min="9999" max="10000" width="12.7109375" customWidth="1"/>
-    <col min="10001" max="10002" width="13.7109375" customWidth="1"/>
-    <col min="10003" max="10003" width="14.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="11.28515625" customWidth="1"/>
-    <col min="10006" max="10006" width="15.7109375" customWidth="1"/>
-    <col min="10007" max="10007" width="40" bestFit="1" customWidth="1"/>
-    <col min="10008" max="10009" width="22.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="25.7109375" customWidth="1"/>
-    <col min="10242" max="10243" width="20.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="20.28515625" customWidth="1"/>
-    <col min="10246" max="10246" width="22.7109375" customWidth="1"/>
-    <col min="10247" max="10247" width="15.7109375" customWidth="1"/>
-    <col min="10248" max="10248" width="18.7109375" customWidth="1"/>
-    <col min="10249" max="10250" width="26.5703125" customWidth="1"/>
-    <col min="10251" max="10251" width="15.7109375" customWidth="1"/>
-    <col min="10252" max="10252" width="20.140625" customWidth="1"/>
-    <col min="10253" max="10254" width="15.7109375" customWidth="1"/>
-    <col min="10255" max="10256" width="12.7109375" customWidth="1"/>
-    <col min="10257" max="10258" width="13.7109375" customWidth="1"/>
-    <col min="10259" max="10259" width="14.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="11.28515625" customWidth="1"/>
-    <col min="10262" max="10262" width="15.7109375" customWidth="1"/>
-    <col min="10263" max="10263" width="40" bestFit="1" customWidth="1"/>
-    <col min="10264" max="10265" width="22.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="25.7109375" customWidth="1"/>
-    <col min="10498" max="10499" width="20.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="20.28515625" customWidth="1"/>
-    <col min="10502" max="10502" width="22.7109375" customWidth="1"/>
-    <col min="10503" max="10503" width="15.7109375" customWidth="1"/>
-    <col min="10504" max="10504" width="18.7109375" customWidth="1"/>
-    <col min="10505" max="10506" width="26.5703125" customWidth="1"/>
-    <col min="10507" max="10507" width="15.7109375" customWidth="1"/>
-    <col min="10508" max="10508" width="20.140625" customWidth="1"/>
-    <col min="10509" max="10510" width="15.7109375" customWidth="1"/>
-    <col min="10511" max="10512" width="12.7109375" customWidth="1"/>
-    <col min="10513" max="10514" width="13.7109375" customWidth="1"/>
-    <col min="10515" max="10515" width="14.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="11.28515625" customWidth="1"/>
-    <col min="10518" max="10518" width="15.7109375" customWidth="1"/>
-    <col min="10519" max="10519" width="40" bestFit="1" customWidth="1"/>
-    <col min="10520" max="10521" width="22.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="25.7109375" customWidth="1"/>
-    <col min="10754" max="10755" width="20.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="20.28515625" customWidth="1"/>
-    <col min="10758" max="10758" width="22.7109375" customWidth="1"/>
-    <col min="10759" max="10759" width="15.7109375" customWidth="1"/>
-    <col min="10760" max="10760" width="18.7109375" customWidth="1"/>
-    <col min="10761" max="10762" width="26.5703125" customWidth="1"/>
-    <col min="10763" max="10763" width="15.7109375" customWidth="1"/>
-    <col min="10764" max="10764" width="20.140625" customWidth="1"/>
-    <col min="10765" max="10766" width="15.7109375" customWidth="1"/>
-    <col min="10767" max="10768" width="12.7109375" customWidth="1"/>
-    <col min="10769" max="10770" width="13.7109375" customWidth="1"/>
-    <col min="10771" max="10771" width="14.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="11.28515625" customWidth="1"/>
-    <col min="10774" max="10774" width="15.7109375" customWidth="1"/>
-    <col min="10775" max="10775" width="40" bestFit="1" customWidth="1"/>
-    <col min="10776" max="10777" width="22.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="25.7109375" customWidth="1"/>
-    <col min="11010" max="11011" width="20.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="20.28515625" customWidth="1"/>
-    <col min="11014" max="11014" width="22.7109375" customWidth="1"/>
-    <col min="11015" max="11015" width="15.7109375" customWidth="1"/>
-    <col min="11016" max="11016" width="18.7109375" customWidth="1"/>
-    <col min="11017" max="11018" width="26.5703125" customWidth="1"/>
-    <col min="11019" max="11019" width="15.7109375" customWidth="1"/>
-    <col min="11020" max="11020" width="20.140625" customWidth="1"/>
-    <col min="11021" max="11022" width="15.7109375" customWidth="1"/>
-    <col min="11023" max="11024" width="12.7109375" customWidth="1"/>
-    <col min="11025" max="11026" width="13.7109375" customWidth="1"/>
-    <col min="11027" max="11027" width="14.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="11.28515625" customWidth="1"/>
-    <col min="11030" max="11030" width="15.7109375" customWidth="1"/>
-    <col min="11031" max="11031" width="40" bestFit="1" customWidth="1"/>
-    <col min="11032" max="11033" width="22.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="25.7109375" customWidth="1"/>
-    <col min="11266" max="11267" width="20.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="20.28515625" customWidth="1"/>
-    <col min="11270" max="11270" width="22.7109375" customWidth="1"/>
-    <col min="11271" max="11271" width="15.7109375" customWidth="1"/>
-    <col min="11272" max="11272" width="18.7109375" customWidth="1"/>
-    <col min="11273" max="11274" width="26.5703125" customWidth="1"/>
-    <col min="11275" max="11275" width="15.7109375" customWidth="1"/>
-    <col min="11276" max="11276" width="20.140625" customWidth="1"/>
-    <col min="11277" max="11278" width="15.7109375" customWidth="1"/>
-    <col min="11279" max="11280" width="12.7109375" customWidth="1"/>
-    <col min="11281" max="11282" width="13.7109375" customWidth="1"/>
-    <col min="11283" max="11283" width="14.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="11.28515625" customWidth="1"/>
-    <col min="11286" max="11286" width="15.7109375" customWidth="1"/>
-    <col min="11287" max="11287" width="40" bestFit="1" customWidth="1"/>
-    <col min="11288" max="11289" width="22.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="25.7109375" customWidth="1"/>
-    <col min="11522" max="11523" width="20.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="20.28515625" customWidth="1"/>
-    <col min="11526" max="11526" width="22.7109375" customWidth="1"/>
-    <col min="11527" max="11527" width="15.7109375" customWidth="1"/>
-    <col min="11528" max="11528" width="18.7109375" customWidth="1"/>
-    <col min="11529" max="11530" width="26.5703125" customWidth="1"/>
-    <col min="11531" max="11531" width="15.7109375" customWidth="1"/>
-    <col min="11532" max="11532" width="20.140625" customWidth="1"/>
-    <col min="11533" max="11534" width="15.7109375" customWidth="1"/>
-    <col min="11535" max="11536" width="12.7109375" customWidth="1"/>
-    <col min="11537" max="11538" width="13.7109375" customWidth="1"/>
-    <col min="11539" max="11539" width="14.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="11.28515625" customWidth="1"/>
-    <col min="11542" max="11542" width="15.7109375" customWidth="1"/>
-    <col min="11543" max="11543" width="40" bestFit="1" customWidth="1"/>
-    <col min="11544" max="11545" width="22.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="25.7109375" customWidth="1"/>
-    <col min="11778" max="11779" width="20.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="20.28515625" customWidth="1"/>
-    <col min="11782" max="11782" width="22.7109375" customWidth="1"/>
-    <col min="11783" max="11783" width="15.7109375" customWidth="1"/>
-    <col min="11784" max="11784" width="18.7109375" customWidth="1"/>
-    <col min="11785" max="11786" width="26.5703125" customWidth="1"/>
-    <col min="11787" max="11787" width="15.7109375" customWidth="1"/>
-    <col min="11788" max="11788" width="20.140625" customWidth="1"/>
-    <col min="11789" max="11790" width="15.7109375" customWidth="1"/>
-    <col min="11791" max="11792" width="12.7109375" customWidth="1"/>
-    <col min="11793" max="11794" width="13.7109375" customWidth="1"/>
-    <col min="11795" max="11795" width="14.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="11.28515625" customWidth="1"/>
-    <col min="11798" max="11798" width="15.7109375" customWidth="1"/>
-    <col min="11799" max="11799" width="40" bestFit="1" customWidth="1"/>
-    <col min="11800" max="11801" width="22.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="25.7109375" customWidth="1"/>
-    <col min="12034" max="12035" width="20.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="20.28515625" customWidth="1"/>
-    <col min="12038" max="12038" width="22.7109375" customWidth="1"/>
-    <col min="12039" max="12039" width="15.7109375" customWidth="1"/>
-    <col min="12040" max="12040" width="18.7109375" customWidth="1"/>
-    <col min="12041" max="12042" width="26.5703125" customWidth="1"/>
-    <col min="12043" max="12043" width="15.7109375" customWidth="1"/>
-    <col min="12044" max="12044" width="20.140625" customWidth="1"/>
-    <col min="12045" max="12046" width="15.7109375" customWidth="1"/>
-    <col min="12047" max="12048" width="12.7109375" customWidth="1"/>
-    <col min="12049" max="12050" width="13.7109375" customWidth="1"/>
-    <col min="12051" max="12051" width="14.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="11.28515625" customWidth="1"/>
-    <col min="12054" max="12054" width="15.7109375" customWidth="1"/>
-    <col min="12055" max="12055" width="40" bestFit="1" customWidth="1"/>
-    <col min="12056" max="12057" width="22.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="25.7109375" customWidth="1"/>
-    <col min="12290" max="12291" width="20.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="20.28515625" customWidth="1"/>
-    <col min="12294" max="12294" width="22.7109375" customWidth="1"/>
-    <col min="12295" max="12295" width="15.7109375" customWidth="1"/>
-    <col min="12296" max="12296" width="18.7109375" customWidth="1"/>
-    <col min="12297" max="12298" width="26.5703125" customWidth="1"/>
-    <col min="12299" max="12299" width="15.7109375" customWidth="1"/>
-    <col min="12300" max="12300" width="20.140625" customWidth="1"/>
-    <col min="12301" max="12302" width="15.7109375" customWidth="1"/>
-    <col min="12303" max="12304" width="12.7109375" customWidth="1"/>
-    <col min="12305" max="12306" width="13.7109375" customWidth="1"/>
-    <col min="12307" max="12307" width="14.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="11.28515625" customWidth="1"/>
-    <col min="12310" max="12310" width="15.7109375" customWidth="1"/>
-    <col min="12311" max="12311" width="40" bestFit="1" customWidth="1"/>
-    <col min="12312" max="12313" width="22.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="25.7109375" customWidth="1"/>
-    <col min="12546" max="12547" width="20.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="20.28515625" customWidth="1"/>
-    <col min="12550" max="12550" width="22.7109375" customWidth="1"/>
-    <col min="12551" max="12551" width="15.7109375" customWidth="1"/>
-    <col min="12552" max="12552" width="18.7109375" customWidth="1"/>
-    <col min="12553" max="12554" width="26.5703125" customWidth="1"/>
-    <col min="12555" max="12555" width="15.7109375" customWidth="1"/>
-    <col min="12556" max="12556" width="20.140625" customWidth="1"/>
-    <col min="12557" max="12558" width="15.7109375" customWidth="1"/>
-    <col min="12559" max="12560" width="12.7109375" customWidth="1"/>
-    <col min="12561" max="12562" width="13.7109375" customWidth="1"/>
-    <col min="12563" max="12563" width="14.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="11.28515625" customWidth="1"/>
-    <col min="12566" max="12566" width="15.7109375" customWidth="1"/>
-    <col min="12567" max="12567" width="40" bestFit="1" customWidth="1"/>
-    <col min="12568" max="12569" width="22.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="25.7109375" customWidth="1"/>
-    <col min="12802" max="12803" width="20.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="20.28515625" customWidth="1"/>
-    <col min="12806" max="12806" width="22.7109375" customWidth="1"/>
-    <col min="12807" max="12807" width="15.7109375" customWidth="1"/>
-    <col min="12808" max="12808" width="18.7109375" customWidth="1"/>
-    <col min="12809" max="12810" width="26.5703125" customWidth="1"/>
-    <col min="12811" max="12811" width="15.7109375" customWidth="1"/>
-    <col min="12812" max="12812" width="20.140625" customWidth="1"/>
-    <col min="12813" max="12814" width="15.7109375" customWidth="1"/>
-    <col min="12815" max="12816" width="12.7109375" customWidth="1"/>
-    <col min="12817" max="12818" width="13.7109375" customWidth="1"/>
-    <col min="12819" max="12819" width="14.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="11.28515625" customWidth="1"/>
-    <col min="12822" max="12822" width="15.7109375" customWidth="1"/>
-    <col min="12823" max="12823" width="40" bestFit="1" customWidth="1"/>
-    <col min="12824" max="12825" width="22.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="25.7109375" customWidth="1"/>
-    <col min="13058" max="13059" width="20.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="20.28515625" customWidth="1"/>
-    <col min="13062" max="13062" width="22.7109375" customWidth="1"/>
-    <col min="13063" max="13063" width="15.7109375" customWidth="1"/>
-    <col min="13064" max="13064" width="18.7109375" customWidth="1"/>
-    <col min="13065" max="13066" width="26.5703125" customWidth="1"/>
-    <col min="13067" max="13067" width="15.7109375" customWidth="1"/>
-    <col min="13068" max="13068" width="20.140625" customWidth="1"/>
-    <col min="13069" max="13070" width="15.7109375" customWidth="1"/>
-    <col min="13071" max="13072" width="12.7109375" customWidth="1"/>
-    <col min="13073" max="13074" width="13.7109375" customWidth="1"/>
-    <col min="13075" max="13075" width="14.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="11.28515625" customWidth="1"/>
-    <col min="13078" max="13078" width="15.7109375" customWidth="1"/>
-    <col min="13079" max="13079" width="40" bestFit="1" customWidth="1"/>
-    <col min="13080" max="13081" width="22.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="25.7109375" customWidth="1"/>
-    <col min="13314" max="13315" width="20.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="20.28515625" customWidth="1"/>
-    <col min="13318" max="13318" width="22.7109375" customWidth="1"/>
-    <col min="13319" max="13319" width="15.7109375" customWidth="1"/>
-    <col min="13320" max="13320" width="18.7109375" customWidth="1"/>
-    <col min="13321" max="13322" width="26.5703125" customWidth="1"/>
-    <col min="13323" max="13323" width="15.7109375" customWidth="1"/>
-    <col min="13324" max="13324" width="20.140625" customWidth="1"/>
-    <col min="13325" max="13326" width="15.7109375" customWidth="1"/>
-    <col min="13327" max="13328" width="12.7109375" customWidth="1"/>
-    <col min="13329" max="13330" width="13.7109375" customWidth="1"/>
-    <col min="13331" max="13331" width="14.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="11.28515625" customWidth="1"/>
-    <col min="13334" max="13334" width="15.7109375" customWidth="1"/>
-    <col min="13335" max="13335" width="40" bestFit="1" customWidth="1"/>
-    <col min="13336" max="13337" width="22.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="25.7109375" customWidth="1"/>
-    <col min="13570" max="13571" width="20.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="20.28515625" customWidth="1"/>
-    <col min="13574" max="13574" width="22.7109375" customWidth="1"/>
-    <col min="13575" max="13575" width="15.7109375" customWidth="1"/>
-    <col min="13576" max="13576" width="18.7109375" customWidth="1"/>
-    <col min="13577" max="13578" width="26.5703125" customWidth="1"/>
-    <col min="13579" max="13579" width="15.7109375" customWidth="1"/>
-    <col min="13580" max="13580" width="20.140625" customWidth="1"/>
-    <col min="13581" max="13582" width="15.7109375" customWidth="1"/>
-    <col min="13583" max="13584" width="12.7109375" customWidth="1"/>
-    <col min="13585" max="13586" width="13.7109375" customWidth="1"/>
-    <col min="13587" max="13587" width="14.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="11.28515625" customWidth="1"/>
-    <col min="13590" max="13590" width="15.7109375" customWidth="1"/>
-    <col min="13591" max="13591" width="40" bestFit="1" customWidth="1"/>
-    <col min="13592" max="13593" width="22.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="25.7109375" customWidth="1"/>
-    <col min="13826" max="13827" width="20.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="20.28515625" customWidth="1"/>
-    <col min="13830" max="13830" width="22.7109375" customWidth="1"/>
-    <col min="13831" max="13831" width="15.7109375" customWidth="1"/>
-    <col min="13832" max="13832" width="18.7109375" customWidth="1"/>
-    <col min="13833" max="13834" width="26.5703125" customWidth="1"/>
-    <col min="13835" max="13835" width="15.7109375" customWidth="1"/>
-    <col min="13836" max="13836" width="20.140625" customWidth="1"/>
-    <col min="13837" max="13838" width="15.7109375" customWidth="1"/>
-    <col min="13839" max="13840" width="12.7109375" customWidth="1"/>
-    <col min="13841" max="13842" width="13.7109375" customWidth="1"/>
-    <col min="13843" max="13843" width="14.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="11.28515625" customWidth="1"/>
-    <col min="13846" max="13846" width="15.7109375" customWidth="1"/>
-    <col min="13847" max="13847" width="40" bestFit="1" customWidth="1"/>
-    <col min="13848" max="13849" width="22.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="25.7109375" customWidth="1"/>
-    <col min="14082" max="14083" width="20.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="20.28515625" customWidth="1"/>
-    <col min="14086" max="14086" width="22.7109375" customWidth="1"/>
-    <col min="14087" max="14087" width="15.7109375" customWidth="1"/>
-    <col min="14088" max="14088" width="18.7109375" customWidth="1"/>
-    <col min="14089" max="14090" width="26.5703125" customWidth="1"/>
-    <col min="14091" max="14091" width="15.7109375" customWidth="1"/>
-    <col min="14092" max="14092" width="20.140625" customWidth="1"/>
-    <col min="14093" max="14094" width="15.7109375" customWidth="1"/>
-    <col min="14095" max="14096" width="12.7109375" customWidth="1"/>
-    <col min="14097" max="14098" width="13.7109375" customWidth="1"/>
-    <col min="14099" max="14099" width="14.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="11.28515625" customWidth="1"/>
-    <col min="14102" max="14102" width="15.7109375" customWidth="1"/>
-    <col min="14103" max="14103" width="40" bestFit="1" customWidth="1"/>
-    <col min="14104" max="14105" width="22.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="25.7109375" customWidth="1"/>
-    <col min="14338" max="14339" width="20.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="20.28515625" customWidth="1"/>
-    <col min="14342" max="14342" width="22.7109375" customWidth="1"/>
-    <col min="14343" max="14343" width="15.7109375" customWidth="1"/>
-    <col min="14344" max="14344" width="18.7109375" customWidth="1"/>
-    <col min="14345" max="14346" width="26.5703125" customWidth="1"/>
-    <col min="14347" max="14347" width="15.7109375" customWidth="1"/>
-    <col min="14348" max="14348" width="20.140625" customWidth="1"/>
-    <col min="14349" max="14350" width="15.7109375" customWidth="1"/>
-    <col min="14351" max="14352" width="12.7109375" customWidth="1"/>
-    <col min="14353" max="14354" width="13.7109375" customWidth="1"/>
-    <col min="14355" max="14355" width="14.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="11.28515625" customWidth="1"/>
-    <col min="14358" max="14358" width="15.7109375" customWidth="1"/>
-    <col min="14359" max="14359" width="40" bestFit="1" customWidth="1"/>
-    <col min="14360" max="14361" width="22.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="25.7109375" customWidth="1"/>
-    <col min="14594" max="14595" width="20.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="20.28515625" customWidth="1"/>
-    <col min="14598" max="14598" width="22.7109375" customWidth="1"/>
-    <col min="14599" max="14599" width="15.7109375" customWidth="1"/>
-    <col min="14600" max="14600" width="18.7109375" customWidth="1"/>
-    <col min="14601" max="14602" width="26.5703125" customWidth="1"/>
-    <col min="14603" max="14603" width="15.7109375" customWidth="1"/>
-    <col min="14604" max="14604" width="20.140625" customWidth="1"/>
-    <col min="14605" max="14606" width="15.7109375" customWidth="1"/>
-    <col min="14607" max="14608" width="12.7109375" customWidth="1"/>
-    <col min="14609" max="14610" width="13.7109375" customWidth="1"/>
-    <col min="14611" max="14611" width="14.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="11.28515625" customWidth="1"/>
-    <col min="14614" max="14614" width="15.7109375" customWidth="1"/>
-    <col min="14615" max="14615" width="40" bestFit="1" customWidth="1"/>
-    <col min="14616" max="14617" width="22.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="25.7109375" customWidth="1"/>
-    <col min="14850" max="14851" width="20.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="20.28515625" customWidth="1"/>
-    <col min="14854" max="14854" width="22.7109375" customWidth="1"/>
-    <col min="14855" max="14855" width="15.7109375" customWidth="1"/>
-    <col min="14856" max="14856" width="18.7109375" customWidth="1"/>
-    <col min="14857" max="14858" width="26.5703125" customWidth="1"/>
-    <col min="14859" max="14859" width="15.7109375" customWidth="1"/>
-    <col min="14860" max="14860" width="20.140625" customWidth="1"/>
-    <col min="14861" max="14862" width="15.7109375" customWidth="1"/>
-    <col min="14863" max="14864" width="12.7109375" customWidth="1"/>
-    <col min="14865" max="14866" width="13.7109375" customWidth="1"/>
-    <col min="14867" max="14867" width="14.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="11.28515625" customWidth="1"/>
-    <col min="14870" max="14870" width="15.7109375" customWidth="1"/>
-    <col min="14871" max="14871" width="40" bestFit="1" customWidth="1"/>
-    <col min="14872" max="14873" width="22.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="25.7109375" customWidth="1"/>
-    <col min="15106" max="15107" width="20.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="20.28515625" customWidth="1"/>
-    <col min="15110" max="15110" width="22.7109375" customWidth="1"/>
-    <col min="15111" max="15111" width="15.7109375" customWidth="1"/>
-    <col min="15112" max="15112" width="18.7109375" customWidth="1"/>
-    <col min="15113" max="15114" width="26.5703125" customWidth="1"/>
-    <col min="15115" max="15115" width="15.7109375" customWidth="1"/>
-    <col min="15116" max="15116" width="20.140625" customWidth="1"/>
-    <col min="15117" max="15118" width="15.7109375" customWidth="1"/>
-    <col min="15119" max="15120" width="12.7109375" customWidth="1"/>
-    <col min="15121" max="15122" width="13.7109375" customWidth="1"/>
-    <col min="15123" max="15123" width="14.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="11.28515625" customWidth="1"/>
-    <col min="15126" max="15126" width="15.7109375" customWidth="1"/>
-    <col min="15127" max="15127" width="40" bestFit="1" customWidth="1"/>
-    <col min="15128" max="15129" width="22.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="25.7109375" customWidth="1"/>
-    <col min="15362" max="15363" width="20.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="20.28515625" customWidth="1"/>
-    <col min="15366" max="15366" width="22.7109375" customWidth="1"/>
-    <col min="15367" max="15367" width="15.7109375" customWidth="1"/>
-    <col min="15368" max="15368" width="18.7109375" customWidth="1"/>
-    <col min="15369" max="15370" width="26.5703125" customWidth="1"/>
-    <col min="15371" max="15371" width="15.7109375" customWidth="1"/>
-    <col min="15372" max="15372" width="20.140625" customWidth="1"/>
-    <col min="15373" max="15374" width="15.7109375" customWidth="1"/>
-    <col min="15375" max="15376" width="12.7109375" customWidth="1"/>
-    <col min="15377" max="15378" width="13.7109375" customWidth="1"/>
-    <col min="15379" max="15379" width="14.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="11.28515625" customWidth="1"/>
-    <col min="15382" max="15382" width="15.7109375" customWidth="1"/>
-    <col min="15383" max="15383" width="40" bestFit="1" customWidth="1"/>
-    <col min="15384" max="15385" width="22.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="25.7109375" customWidth="1"/>
-    <col min="15618" max="15619" width="20.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="20.28515625" customWidth="1"/>
-    <col min="15622" max="15622" width="22.7109375" customWidth="1"/>
-    <col min="15623" max="15623" width="15.7109375" customWidth="1"/>
-    <col min="15624" max="15624" width="18.7109375" customWidth="1"/>
-    <col min="15625" max="15626" width="26.5703125" customWidth="1"/>
-    <col min="15627" max="15627" width="15.7109375" customWidth="1"/>
-    <col min="15628" max="15628" width="20.140625" customWidth="1"/>
-    <col min="15629" max="15630" width="15.7109375" customWidth="1"/>
-    <col min="15631" max="15632" width="12.7109375" customWidth="1"/>
-    <col min="15633" max="15634" width="13.7109375" customWidth="1"/>
-    <col min="15635" max="15635" width="14.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="11.28515625" customWidth="1"/>
-    <col min="15638" max="15638" width="15.7109375" customWidth="1"/>
-    <col min="15639" max="15639" width="40" bestFit="1" customWidth="1"/>
-    <col min="15640" max="15641" width="22.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="25.7109375" customWidth="1"/>
-    <col min="15874" max="15875" width="20.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="20.28515625" customWidth="1"/>
-    <col min="15878" max="15878" width="22.7109375" customWidth="1"/>
-    <col min="15879" max="15879" width="15.7109375" customWidth="1"/>
-    <col min="15880" max="15880" width="18.7109375" customWidth="1"/>
-    <col min="15881" max="15882" width="26.5703125" customWidth="1"/>
-    <col min="15883" max="15883" width="15.7109375" customWidth="1"/>
-    <col min="15884" max="15884" width="20.140625" customWidth="1"/>
-    <col min="15885" max="15886" width="15.7109375" customWidth="1"/>
-    <col min="15887" max="15888" width="12.7109375" customWidth="1"/>
-    <col min="15889" max="15890" width="13.7109375" customWidth="1"/>
-    <col min="15891" max="15891" width="14.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="11.28515625" customWidth="1"/>
-    <col min="15894" max="15894" width="15.7109375" customWidth="1"/>
-    <col min="15895" max="15895" width="40" bestFit="1" customWidth="1"/>
-    <col min="15896" max="15897" width="22.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="25.7109375" customWidth="1"/>
-    <col min="16130" max="16131" width="20.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="20.28515625" customWidth="1"/>
-    <col min="16134" max="16134" width="22.7109375" customWidth="1"/>
-    <col min="16135" max="16135" width="15.7109375" customWidth="1"/>
-    <col min="16136" max="16136" width="18.7109375" customWidth="1"/>
-    <col min="16137" max="16138" width="26.5703125" customWidth="1"/>
-    <col min="16139" max="16139" width="15.7109375" customWidth="1"/>
-    <col min="16140" max="16140" width="20.140625" customWidth="1"/>
-    <col min="16141" max="16142" width="15.7109375" customWidth="1"/>
-    <col min="16143" max="16144" width="12.7109375" customWidth="1"/>
-    <col min="16145" max="16146" width="13.7109375" customWidth="1"/>
-    <col min="16147" max="16147" width="14.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="11.28515625" customWidth="1"/>
-    <col min="16150" max="16150" width="15.7109375" customWidth="1"/>
-    <col min="16151" max="16151" width="40" bestFit="1" customWidth="1"/>
-    <col min="16152" max="16153" width="22.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="22.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="12" customWidth="1"/>
+    <col min="10" max="11" width="26.5703125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="15" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="12" customWidth="1"/>
+    <col min="18" max="19" width="13.7109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="12"/>
+    <col min="23" max="23" width="15.7109375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="22.7109375" style="12" customWidth="1"/>
+    <col min="258" max="258" width="25.7109375" customWidth="1"/>
+    <col min="259" max="260" width="20.7109375" customWidth="1"/>
+    <col min="261" max="261" width="20.28515625" customWidth="1"/>
+    <col min="263" max="263" width="22.7109375" customWidth="1"/>
+    <col min="264" max="264" width="15.7109375" customWidth="1"/>
+    <col min="265" max="265" width="18.7109375" customWidth="1"/>
+    <col min="266" max="267" width="26.5703125" customWidth="1"/>
+    <col min="268" max="268" width="15.7109375" customWidth="1"/>
+    <col min="269" max="269" width="20.140625" customWidth="1"/>
+    <col min="270" max="271" width="15.7109375" customWidth="1"/>
+    <col min="272" max="273" width="12.7109375" customWidth="1"/>
+    <col min="274" max="275" width="13.7109375" customWidth="1"/>
+    <col min="276" max="276" width="14.7109375" customWidth="1"/>
+    <col min="277" max="277" width="11.28515625" customWidth="1"/>
+    <col min="279" max="279" width="15.7109375" customWidth="1"/>
+    <col min="280" max="280" width="40" bestFit="1" customWidth="1"/>
+    <col min="281" max="282" width="22.7109375" customWidth="1"/>
+    <col min="514" max="514" width="25.7109375" customWidth="1"/>
+    <col min="515" max="516" width="20.7109375" customWidth="1"/>
+    <col min="517" max="517" width="20.28515625" customWidth="1"/>
+    <col min="519" max="519" width="22.7109375" customWidth="1"/>
+    <col min="520" max="520" width="15.7109375" customWidth="1"/>
+    <col min="521" max="521" width="18.7109375" customWidth="1"/>
+    <col min="522" max="523" width="26.5703125" customWidth="1"/>
+    <col min="524" max="524" width="15.7109375" customWidth="1"/>
+    <col min="525" max="525" width="20.140625" customWidth="1"/>
+    <col min="526" max="527" width="15.7109375" customWidth="1"/>
+    <col min="528" max="529" width="12.7109375" customWidth="1"/>
+    <col min="530" max="531" width="13.7109375" customWidth="1"/>
+    <col min="532" max="532" width="14.7109375" customWidth="1"/>
+    <col min="533" max="533" width="11.28515625" customWidth="1"/>
+    <col min="535" max="535" width="15.7109375" customWidth="1"/>
+    <col min="536" max="536" width="40" bestFit="1" customWidth="1"/>
+    <col min="537" max="538" width="22.7109375" customWidth="1"/>
+    <col min="770" max="770" width="25.7109375" customWidth="1"/>
+    <col min="771" max="772" width="20.7109375" customWidth="1"/>
+    <col min="773" max="773" width="20.28515625" customWidth="1"/>
+    <col min="775" max="775" width="22.7109375" customWidth="1"/>
+    <col min="776" max="776" width="15.7109375" customWidth="1"/>
+    <col min="777" max="777" width="18.7109375" customWidth="1"/>
+    <col min="778" max="779" width="26.5703125" customWidth="1"/>
+    <col min="780" max="780" width="15.7109375" customWidth="1"/>
+    <col min="781" max="781" width="20.140625" customWidth="1"/>
+    <col min="782" max="783" width="15.7109375" customWidth="1"/>
+    <col min="784" max="785" width="12.7109375" customWidth="1"/>
+    <col min="786" max="787" width="13.7109375" customWidth="1"/>
+    <col min="788" max="788" width="14.7109375" customWidth="1"/>
+    <col min="789" max="789" width="11.28515625" customWidth="1"/>
+    <col min="791" max="791" width="15.7109375" customWidth="1"/>
+    <col min="792" max="792" width="40" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="22.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="25.7109375" customWidth="1"/>
+    <col min="1027" max="1028" width="20.7109375" customWidth="1"/>
+    <col min="1029" max="1029" width="20.28515625" customWidth="1"/>
+    <col min="1031" max="1031" width="22.7109375" customWidth="1"/>
+    <col min="1032" max="1032" width="15.7109375" customWidth="1"/>
+    <col min="1033" max="1033" width="18.7109375" customWidth="1"/>
+    <col min="1034" max="1035" width="26.5703125" customWidth="1"/>
+    <col min="1036" max="1036" width="15.7109375" customWidth="1"/>
+    <col min="1037" max="1037" width="20.140625" customWidth="1"/>
+    <col min="1038" max="1039" width="15.7109375" customWidth="1"/>
+    <col min="1040" max="1041" width="12.7109375" customWidth="1"/>
+    <col min="1042" max="1043" width="13.7109375" customWidth="1"/>
+    <col min="1044" max="1044" width="14.7109375" customWidth="1"/>
+    <col min="1045" max="1045" width="11.28515625" customWidth="1"/>
+    <col min="1047" max="1047" width="15.7109375" customWidth="1"/>
+    <col min="1048" max="1048" width="40" bestFit="1" customWidth="1"/>
+    <col min="1049" max="1050" width="22.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="25.7109375" customWidth="1"/>
+    <col min="1283" max="1284" width="20.7109375" customWidth="1"/>
+    <col min="1285" max="1285" width="20.28515625" customWidth="1"/>
+    <col min="1287" max="1287" width="22.7109375" customWidth="1"/>
+    <col min="1288" max="1288" width="15.7109375" customWidth="1"/>
+    <col min="1289" max="1289" width="18.7109375" customWidth="1"/>
+    <col min="1290" max="1291" width="26.5703125" customWidth="1"/>
+    <col min="1292" max="1292" width="15.7109375" customWidth="1"/>
+    <col min="1293" max="1293" width="20.140625" customWidth="1"/>
+    <col min="1294" max="1295" width="15.7109375" customWidth="1"/>
+    <col min="1296" max="1297" width="12.7109375" customWidth="1"/>
+    <col min="1298" max="1299" width="13.7109375" customWidth="1"/>
+    <col min="1300" max="1300" width="14.7109375" customWidth="1"/>
+    <col min="1301" max="1301" width="11.28515625" customWidth="1"/>
+    <col min="1303" max="1303" width="15.7109375" customWidth="1"/>
+    <col min="1304" max="1304" width="40" bestFit="1" customWidth="1"/>
+    <col min="1305" max="1306" width="22.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="25.7109375" customWidth="1"/>
+    <col min="1539" max="1540" width="20.7109375" customWidth="1"/>
+    <col min="1541" max="1541" width="20.28515625" customWidth="1"/>
+    <col min="1543" max="1543" width="22.7109375" customWidth="1"/>
+    <col min="1544" max="1544" width="15.7109375" customWidth="1"/>
+    <col min="1545" max="1545" width="18.7109375" customWidth="1"/>
+    <col min="1546" max="1547" width="26.5703125" customWidth="1"/>
+    <col min="1548" max="1548" width="15.7109375" customWidth="1"/>
+    <col min="1549" max="1549" width="20.140625" customWidth="1"/>
+    <col min="1550" max="1551" width="15.7109375" customWidth="1"/>
+    <col min="1552" max="1553" width="12.7109375" customWidth="1"/>
+    <col min="1554" max="1555" width="13.7109375" customWidth="1"/>
+    <col min="1556" max="1556" width="14.7109375" customWidth="1"/>
+    <col min="1557" max="1557" width="11.28515625" customWidth="1"/>
+    <col min="1559" max="1559" width="15.7109375" customWidth="1"/>
+    <col min="1560" max="1560" width="40" bestFit="1" customWidth="1"/>
+    <col min="1561" max="1562" width="22.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="25.7109375" customWidth="1"/>
+    <col min="1795" max="1796" width="20.7109375" customWidth="1"/>
+    <col min="1797" max="1797" width="20.28515625" customWidth="1"/>
+    <col min="1799" max="1799" width="22.7109375" customWidth="1"/>
+    <col min="1800" max="1800" width="15.7109375" customWidth="1"/>
+    <col min="1801" max="1801" width="18.7109375" customWidth="1"/>
+    <col min="1802" max="1803" width="26.5703125" customWidth="1"/>
+    <col min="1804" max="1804" width="15.7109375" customWidth="1"/>
+    <col min="1805" max="1805" width="20.140625" customWidth="1"/>
+    <col min="1806" max="1807" width="15.7109375" customWidth="1"/>
+    <col min="1808" max="1809" width="12.7109375" customWidth="1"/>
+    <col min="1810" max="1811" width="13.7109375" customWidth="1"/>
+    <col min="1812" max="1812" width="14.7109375" customWidth="1"/>
+    <col min="1813" max="1813" width="11.28515625" customWidth="1"/>
+    <col min="1815" max="1815" width="15.7109375" customWidth="1"/>
+    <col min="1816" max="1816" width="40" bestFit="1" customWidth="1"/>
+    <col min="1817" max="1818" width="22.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="25.7109375" customWidth="1"/>
+    <col min="2051" max="2052" width="20.7109375" customWidth="1"/>
+    <col min="2053" max="2053" width="20.28515625" customWidth="1"/>
+    <col min="2055" max="2055" width="22.7109375" customWidth="1"/>
+    <col min="2056" max="2056" width="15.7109375" customWidth="1"/>
+    <col min="2057" max="2057" width="18.7109375" customWidth="1"/>
+    <col min="2058" max="2059" width="26.5703125" customWidth="1"/>
+    <col min="2060" max="2060" width="15.7109375" customWidth="1"/>
+    <col min="2061" max="2061" width="20.140625" customWidth="1"/>
+    <col min="2062" max="2063" width="15.7109375" customWidth="1"/>
+    <col min="2064" max="2065" width="12.7109375" customWidth="1"/>
+    <col min="2066" max="2067" width="13.7109375" customWidth="1"/>
+    <col min="2068" max="2068" width="14.7109375" customWidth="1"/>
+    <col min="2069" max="2069" width="11.28515625" customWidth="1"/>
+    <col min="2071" max="2071" width="15.7109375" customWidth="1"/>
+    <col min="2072" max="2072" width="40" bestFit="1" customWidth="1"/>
+    <col min="2073" max="2074" width="22.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="25.7109375" customWidth="1"/>
+    <col min="2307" max="2308" width="20.7109375" customWidth="1"/>
+    <col min="2309" max="2309" width="20.28515625" customWidth="1"/>
+    <col min="2311" max="2311" width="22.7109375" customWidth="1"/>
+    <col min="2312" max="2312" width="15.7109375" customWidth="1"/>
+    <col min="2313" max="2313" width="18.7109375" customWidth="1"/>
+    <col min="2314" max="2315" width="26.5703125" customWidth="1"/>
+    <col min="2316" max="2316" width="15.7109375" customWidth="1"/>
+    <col min="2317" max="2317" width="20.140625" customWidth="1"/>
+    <col min="2318" max="2319" width="15.7109375" customWidth="1"/>
+    <col min="2320" max="2321" width="12.7109375" customWidth="1"/>
+    <col min="2322" max="2323" width="13.7109375" customWidth="1"/>
+    <col min="2324" max="2324" width="14.7109375" customWidth="1"/>
+    <col min="2325" max="2325" width="11.28515625" customWidth="1"/>
+    <col min="2327" max="2327" width="15.7109375" customWidth="1"/>
+    <col min="2328" max="2328" width="40" bestFit="1" customWidth="1"/>
+    <col min="2329" max="2330" width="22.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="25.7109375" customWidth="1"/>
+    <col min="2563" max="2564" width="20.7109375" customWidth="1"/>
+    <col min="2565" max="2565" width="20.28515625" customWidth="1"/>
+    <col min="2567" max="2567" width="22.7109375" customWidth="1"/>
+    <col min="2568" max="2568" width="15.7109375" customWidth="1"/>
+    <col min="2569" max="2569" width="18.7109375" customWidth="1"/>
+    <col min="2570" max="2571" width="26.5703125" customWidth="1"/>
+    <col min="2572" max="2572" width="15.7109375" customWidth="1"/>
+    <col min="2573" max="2573" width="20.140625" customWidth="1"/>
+    <col min="2574" max="2575" width="15.7109375" customWidth="1"/>
+    <col min="2576" max="2577" width="12.7109375" customWidth="1"/>
+    <col min="2578" max="2579" width="13.7109375" customWidth="1"/>
+    <col min="2580" max="2580" width="14.7109375" customWidth="1"/>
+    <col min="2581" max="2581" width="11.28515625" customWidth="1"/>
+    <col min="2583" max="2583" width="15.7109375" customWidth="1"/>
+    <col min="2584" max="2584" width="40" bestFit="1" customWidth="1"/>
+    <col min="2585" max="2586" width="22.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="25.7109375" customWidth="1"/>
+    <col min="2819" max="2820" width="20.7109375" customWidth="1"/>
+    <col min="2821" max="2821" width="20.28515625" customWidth="1"/>
+    <col min="2823" max="2823" width="22.7109375" customWidth="1"/>
+    <col min="2824" max="2824" width="15.7109375" customWidth="1"/>
+    <col min="2825" max="2825" width="18.7109375" customWidth="1"/>
+    <col min="2826" max="2827" width="26.5703125" customWidth="1"/>
+    <col min="2828" max="2828" width="15.7109375" customWidth="1"/>
+    <col min="2829" max="2829" width="20.140625" customWidth="1"/>
+    <col min="2830" max="2831" width="15.7109375" customWidth="1"/>
+    <col min="2832" max="2833" width="12.7109375" customWidth="1"/>
+    <col min="2834" max="2835" width="13.7109375" customWidth="1"/>
+    <col min="2836" max="2836" width="14.7109375" customWidth="1"/>
+    <col min="2837" max="2837" width="11.28515625" customWidth="1"/>
+    <col min="2839" max="2839" width="15.7109375" customWidth="1"/>
+    <col min="2840" max="2840" width="40" bestFit="1" customWidth="1"/>
+    <col min="2841" max="2842" width="22.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="25.7109375" customWidth="1"/>
+    <col min="3075" max="3076" width="20.7109375" customWidth="1"/>
+    <col min="3077" max="3077" width="20.28515625" customWidth="1"/>
+    <col min="3079" max="3079" width="22.7109375" customWidth="1"/>
+    <col min="3080" max="3080" width="15.7109375" customWidth="1"/>
+    <col min="3081" max="3081" width="18.7109375" customWidth="1"/>
+    <col min="3082" max="3083" width="26.5703125" customWidth="1"/>
+    <col min="3084" max="3084" width="15.7109375" customWidth="1"/>
+    <col min="3085" max="3085" width="20.140625" customWidth="1"/>
+    <col min="3086" max="3087" width="15.7109375" customWidth="1"/>
+    <col min="3088" max="3089" width="12.7109375" customWidth="1"/>
+    <col min="3090" max="3091" width="13.7109375" customWidth="1"/>
+    <col min="3092" max="3092" width="14.7109375" customWidth="1"/>
+    <col min="3093" max="3093" width="11.28515625" customWidth="1"/>
+    <col min="3095" max="3095" width="15.7109375" customWidth="1"/>
+    <col min="3096" max="3096" width="40" bestFit="1" customWidth="1"/>
+    <col min="3097" max="3098" width="22.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="25.7109375" customWidth="1"/>
+    <col min="3331" max="3332" width="20.7109375" customWidth="1"/>
+    <col min="3333" max="3333" width="20.28515625" customWidth="1"/>
+    <col min="3335" max="3335" width="22.7109375" customWidth="1"/>
+    <col min="3336" max="3336" width="15.7109375" customWidth="1"/>
+    <col min="3337" max="3337" width="18.7109375" customWidth="1"/>
+    <col min="3338" max="3339" width="26.5703125" customWidth="1"/>
+    <col min="3340" max="3340" width="15.7109375" customWidth="1"/>
+    <col min="3341" max="3341" width="20.140625" customWidth="1"/>
+    <col min="3342" max="3343" width="15.7109375" customWidth="1"/>
+    <col min="3344" max="3345" width="12.7109375" customWidth="1"/>
+    <col min="3346" max="3347" width="13.7109375" customWidth="1"/>
+    <col min="3348" max="3348" width="14.7109375" customWidth="1"/>
+    <col min="3349" max="3349" width="11.28515625" customWidth="1"/>
+    <col min="3351" max="3351" width="15.7109375" customWidth="1"/>
+    <col min="3352" max="3352" width="40" bestFit="1" customWidth="1"/>
+    <col min="3353" max="3354" width="22.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="25.7109375" customWidth="1"/>
+    <col min="3587" max="3588" width="20.7109375" customWidth="1"/>
+    <col min="3589" max="3589" width="20.28515625" customWidth="1"/>
+    <col min="3591" max="3591" width="22.7109375" customWidth="1"/>
+    <col min="3592" max="3592" width="15.7109375" customWidth="1"/>
+    <col min="3593" max="3593" width="18.7109375" customWidth="1"/>
+    <col min="3594" max="3595" width="26.5703125" customWidth="1"/>
+    <col min="3596" max="3596" width="15.7109375" customWidth="1"/>
+    <col min="3597" max="3597" width="20.140625" customWidth="1"/>
+    <col min="3598" max="3599" width="15.7109375" customWidth="1"/>
+    <col min="3600" max="3601" width="12.7109375" customWidth="1"/>
+    <col min="3602" max="3603" width="13.7109375" customWidth="1"/>
+    <col min="3604" max="3604" width="14.7109375" customWidth="1"/>
+    <col min="3605" max="3605" width="11.28515625" customWidth="1"/>
+    <col min="3607" max="3607" width="15.7109375" customWidth="1"/>
+    <col min="3608" max="3608" width="40" bestFit="1" customWidth="1"/>
+    <col min="3609" max="3610" width="22.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="25.7109375" customWidth="1"/>
+    <col min="3843" max="3844" width="20.7109375" customWidth="1"/>
+    <col min="3845" max="3845" width="20.28515625" customWidth="1"/>
+    <col min="3847" max="3847" width="22.7109375" customWidth="1"/>
+    <col min="3848" max="3848" width="15.7109375" customWidth="1"/>
+    <col min="3849" max="3849" width="18.7109375" customWidth="1"/>
+    <col min="3850" max="3851" width="26.5703125" customWidth="1"/>
+    <col min="3852" max="3852" width="15.7109375" customWidth="1"/>
+    <col min="3853" max="3853" width="20.140625" customWidth="1"/>
+    <col min="3854" max="3855" width="15.7109375" customWidth="1"/>
+    <col min="3856" max="3857" width="12.7109375" customWidth="1"/>
+    <col min="3858" max="3859" width="13.7109375" customWidth="1"/>
+    <col min="3860" max="3860" width="14.7109375" customWidth="1"/>
+    <col min="3861" max="3861" width="11.28515625" customWidth="1"/>
+    <col min="3863" max="3863" width="15.7109375" customWidth="1"/>
+    <col min="3864" max="3864" width="40" bestFit="1" customWidth="1"/>
+    <col min="3865" max="3866" width="22.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="25.7109375" customWidth="1"/>
+    <col min="4099" max="4100" width="20.7109375" customWidth="1"/>
+    <col min="4101" max="4101" width="20.28515625" customWidth="1"/>
+    <col min="4103" max="4103" width="22.7109375" customWidth="1"/>
+    <col min="4104" max="4104" width="15.7109375" customWidth="1"/>
+    <col min="4105" max="4105" width="18.7109375" customWidth="1"/>
+    <col min="4106" max="4107" width="26.5703125" customWidth="1"/>
+    <col min="4108" max="4108" width="15.7109375" customWidth="1"/>
+    <col min="4109" max="4109" width="20.140625" customWidth="1"/>
+    <col min="4110" max="4111" width="15.7109375" customWidth="1"/>
+    <col min="4112" max="4113" width="12.7109375" customWidth="1"/>
+    <col min="4114" max="4115" width="13.7109375" customWidth="1"/>
+    <col min="4116" max="4116" width="14.7109375" customWidth="1"/>
+    <col min="4117" max="4117" width="11.28515625" customWidth="1"/>
+    <col min="4119" max="4119" width="15.7109375" customWidth="1"/>
+    <col min="4120" max="4120" width="40" bestFit="1" customWidth="1"/>
+    <col min="4121" max="4122" width="22.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="25.7109375" customWidth="1"/>
+    <col min="4355" max="4356" width="20.7109375" customWidth="1"/>
+    <col min="4357" max="4357" width="20.28515625" customWidth="1"/>
+    <col min="4359" max="4359" width="22.7109375" customWidth="1"/>
+    <col min="4360" max="4360" width="15.7109375" customWidth="1"/>
+    <col min="4361" max="4361" width="18.7109375" customWidth="1"/>
+    <col min="4362" max="4363" width="26.5703125" customWidth="1"/>
+    <col min="4364" max="4364" width="15.7109375" customWidth="1"/>
+    <col min="4365" max="4365" width="20.140625" customWidth="1"/>
+    <col min="4366" max="4367" width="15.7109375" customWidth="1"/>
+    <col min="4368" max="4369" width="12.7109375" customWidth="1"/>
+    <col min="4370" max="4371" width="13.7109375" customWidth="1"/>
+    <col min="4372" max="4372" width="14.7109375" customWidth="1"/>
+    <col min="4373" max="4373" width="11.28515625" customWidth="1"/>
+    <col min="4375" max="4375" width="15.7109375" customWidth="1"/>
+    <col min="4376" max="4376" width="40" bestFit="1" customWidth="1"/>
+    <col min="4377" max="4378" width="22.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="25.7109375" customWidth="1"/>
+    <col min="4611" max="4612" width="20.7109375" customWidth="1"/>
+    <col min="4613" max="4613" width="20.28515625" customWidth="1"/>
+    <col min="4615" max="4615" width="22.7109375" customWidth="1"/>
+    <col min="4616" max="4616" width="15.7109375" customWidth="1"/>
+    <col min="4617" max="4617" width="18.7109375" customWidth="1"/>
+    <col min="4618" max="4619" width="26.5703125" customWidth="1"/>
+    <col min="4620" max="4620" width="15.7109375" customWidth="1"/>
+    <col min="4621" max="4621" width="20.140625" customWidth="1"/>
+    <col min="4622" max="4623" width="15.7109375" customWidth="1"/>
+    <col min="4624" max="4625" width="12.7109375" customWidth="1"/>
+    <col min="4626" max="4627" width="13.7109375" customWidth="1"/>
+    <col min="4628" max="4628" width="14.7109375" customWidth="1"/>
+    <col min="4629" max="4629" width="11.28515625" customWidth="1"/>
+    <col min="4631" max="4631" width="15.7109375" customWidth="1"/>
+    <col min="4632" max="4632" width="40" bestFit="1" customWidth="1"/>
+    <col min="4633" max="4634" width="22.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="25.7109375" customWidth="1"/>
+    <col min="4867" max="4868" width="20.7109375" customWidth="1"/>
+    <col min="4869" max="4869" width="20.28515625" customWidth="1"/>
+    <col min="4871" max="4871" width="22.7109375" customWidth="1"/>
+    <col min="4872" max="4872" width="15.7109375" customWidth="1"/>
+    <col min="4873" max="4873" width="18.7109375" customWidth="1"/>
+    <col min="4874" max="4875" width="26.5703125" customWidth="1"/>
+    <col min="4876" max="4876" width="15.7109375" customWidth="1"/>
+    <col min="4877" max="4877" width="20.140625" customWidth="1"/>
+    <col min="4878" max="4879" width="15.7109375" customWidth="1"/>
+    <col min="4880" max="4881" width="12.7109375" customWidth="1"/>
+    <col min="4882" max="4883" width="13.7109375" customWidth="1"/>
+    <col min="4884" max="4884" width="14.7109375" customWidth="1"/>
+    <col min="4885" max="4885" width="11.28515625" customWidth="1"/>
+    <col min="4887" max="4887" width="15.7109375" customWidth="1"/>
+    <col min="4888" max="4888" width="40" bestFit="1" customWidth="1"/>
+    <col min="4889" max="4890" width="22.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="25.7109375" customWidth="1"/>
+    <col min="5123" max="5124" width="20.7109375" customWidth="1"/>
+    <col min="5125" max="5125" width="20.28515625" customWidth="1"/>
+    <col min="5127" max="5127" width="22.7109375" customWidth="1"/>
+    <col min="5128" max="5128" width="15.7109375" customWidth="1"/>
+    <col min="5129" max="5129" width="18.7109375" customWidth="1"/>
+    <col min="5130" max="5131" width="26.5703125" customWidth="1"/>
+    <col min="5132" max="5132" width="15.7109375" customWidth="1"/>
+    <col min="5133" max="5133" width="20.140625" customWidth="1"/>
+    <col min="5134" max="5135" width="15.7109375" customWidth="1"/>
+    <col min="5136" max="5137" width="12.7109375" customWidth="1"/>
+    <col min="5138" max="5139" width="13.7109375" customWidth="1"/>
+    <col min="5140" max="5140" width="14.7109375" customWidth="1"/>
+    <col min="5141" max="5141" width="11.28515625" customWidth="1"/>
+    <col min="5143" max="5143" width="15.7109375" customWidth="1"/>
+    <col min="5144" max="5144" width="40" bestFit="1" customWidth="1"/>
+    <col min="5145" max="5146" width="22.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="25.7109375" customWidth="1"/>
+    <col min="5379" max="5380" width="20.7109375" customWidth="1"/>
+    <col min="5381" max="5381" width="20.28515625" customWidth="1"/>
+    <col min="5383" max="5383" width="22.7109375" customWidth="1"/>
+    <col min="5384" max="5384" width="15.7109375" customWidth="1"/>
+    <col min="5385" max="5385" width="18.7109375" customWidth="1"/>
+    <col min="5386" max="5387" width="26.5703125" customWidth="1"/>
+    <col min="5388" max="5388" width="15.7109375" customWidth="1"/>
+    <col min="5389" max="5389" width="20.140625" customWidth="1"/>
+    <col min="5390" max="5391" width="15.7109375" customWidth="1"/>
+    <col min="5392" max="5393" width="12.7109375" customWidth="1"/>
+    <col min="5394" max="5395" width="13.7109375" customWidth="1"/>
+    <col min="5396" max="5396" width="14.7109375" customWidth="1"/>
+    <col min="5397" max="5397" width="11.28515625" customWidth="1"/>
+    <col min="5399" max="5399" width="15.7109375" customWidth="1"/>
+    <col min="5400" max="5400" width="40" bestFit="1" customWidth="1"/>
+    <col min="5401" max="5402" width="22.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="25.7109375" customWidth="1"/>
+    <col min="5635" max="5636" width="20.7109375" customWidth="1"/>
+    <col min="5637" max="5637" width="20.28515625" customWidth="1"/>
+    <col min="5639" max="5639" width="22.7109375" customWidth="1"/>
+    <col min="5640" max="5640" width="15.7109375" customWidth="1"/>
+    <col min="5641" max="5641" width="18.7109375" customWidth="1"/>
+    <col min="5642" max="5643" width="26.5703125" customWidth="1"/>
+    <col min="5644" max="5644" width="15.7109375" customWidth="1"/>
+    <col min="5645" max="5645" width="20.140625" customWidth="1"/>
+    <col min="5646" max="5647" width="15.7109375" customWidth="1"/>
+    <col min="5648" max="5649" width="12.7109375" customWidth="1"/>
+    <col min="5650" max="5651" width="13.7109375" customWidth="1"/>
+    <col min="5652" max="5652" width="14.7109375" customWidth="1"/>
+    <col min="5653" max="5653" width="11.28515625" customWidth="1"/>
+    <col min="5655" max="5655" width="15.7109375" customWidth="1"/>
+    <col min="5656" max="5656" width="40" bestFit="1" customWidth="1"/>
+    <col min="5657" max="5658" width="22.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="25.7109375" customWidth="1"/>
+    <col min="5891" max="5892" width="20.7109375" customWidth="1"/>
+    <col min="5893" max="5893" width="20.28515625" customWidth="1"/>
+    <col min="5895" max="5895" width="22.7109375" customWidth="1"/>
+    <col min="5896" max="5896" width="15.7109375" customWidth="1"/>
+    <col min="5897" max="5897" width="18.7109375" customWidth="1"/>
+    <col min="5898" max="5899" width="26.5703125" customWidth="1"/>
+    <col min="5900" max="5900" width="15.7109375" customWidth="1"/>
+    <col min="5901" max="5901" width="20.140625" customWidth="1"/>
+    <col min="5902" max="5903" width="15.7109375" customWidth="1"/>
+    <col min="5904" max="5905" width="12.7109375" customWidth="1"/>
+    <col min="5906" max="5907" width="13.7109375" customWidth="1"/>
+    <col min="5908" max="5908" width="14.7109375" customWidth="1"/>
+    <col min="5909" max="5909" width="11.28515625" customWidth="1"/>
+    <col min="5911" max="5911" width="15.7109375" customWidth="1"/>
+    <col min="5912" max="5912" width="40" bestFit="1" customWidth="1"/>
+    <col min="5913" max="5914" width="22.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="25.7109375" customWidth="1"/>
+    <col min="6147" max="6148" width="20.7109375" customWidth="1"/>
+    <col min="6149" max="6149" width="20.28515625" customWidth="1"/>
+    <col min="6151" max="6151" width="22.7109375" customWidth="1"/>
+    <col min="6152" max="6152" width="15.7109375" customWidth="1"/>
+    <col min="6153" max="6153" width="18.7109375" customWidth="1"/>
+    <col min="6154" max="6155" width="26.5703125" customWidth="1"/>
+    <col min="6156" max="6156" width="15.7109375" customWidth="1"/>
+    <col min="6157" max="6157" width="20.140625" customWidth="1"/>
+    <col min="6158" max="6159" width="15.7109375" customWidth="1"/>
+    <col min="6160" max="6161" width="12.7109375" customWidth="1"/>
+    <col min="6162" max="6163" width="13.7109375" customWidth="1"/>
+    <col min="6164" max="6164" width="14.7109375" customWidth="1"/>
+    <col min="6165" max="6165" width="11.28515625" customWidth="1"/>
+    <col min="6167" max="6167" width="15.7109375" customWidth="1"/>
+    <col min="6168" max="6168" width="40" bestFit="1" customWidth="1"/>
+    <col min="6169" max="6170" width="22.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="25.7109375" customWidth="1"/>
+    <col min="6403" max="6404" width="20.7109375" customWidth="1"/>
+    <col min="6405" max="6405" width="20.28515625" customWidth="1"/>
+    <col min="6407" max="6407" width="22.7109375" customWidth="1"/>
+    <col min="6408" max="6408" width="15.7109375" customWidth="1"/>
+    <col min="6409" max="6409" width="18.7109375" customWidth="1"/>
+    <col min="6410" max="6411" width="26.5703125" customWidth="1"/>
+    <col min="6412" max="6412" width="15.7109375" customWidth="1"/>
+    <col min="6413" max="6413" width="20.140625" customWidth="1"/>
+    <col min="6414" max="6415" width="15.7109375" customWidth="1"/>
+    <col min="6416" max="6417" width="12.7109375" customWidth="1"/>
+    <col min="6418" max="6419" width="13.7109375" customWidth="1"/>
+    <col min="6420" max="6420" width="14.7109375" customWidth="1"/>
+    <col min="6421" max="6421" width="11.28515625" customWidth="1"/>
+    <col min="6423" max="6423" width="15.7109375" customWidth="1"/>
+    <col min="6424" max="6424" width="40" bestFit="1" customWidth="1"/>
+    <col min="6425" max="6426" width="22.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="25.7109375" customWidth="1"/>
+    <col min="6659" max="6660" width="20.7109375" customWidth="1"/>
+    <col min="6661" max="6661" width="20.28515625" customWidth="1"/>
+    <col min="6663" max="6663" width="22.7109375" customWidth="1"/>
+    <col min="6664" max="6664" width="15.7109375" customWidth="1"/>
+    <col min="6665" max="6665" width="18.7109375" customWidth="1"/>
+    <col min="6666" max="6667" width="26.5703125" customWidth="1"/>
+    <col min="6668" max="6668" width="15.7109375" customWidth="1"/>
+    <col min="6669" max="6669" width="20.140625" customWidth="1"/>
+    <col min="6670" max="6671" width="15.7109375" customWidth="1"/>
+    <col min="6672" max="6673" width="12.7109375" customWidth="1"/>
+    <col min="6674" max="6675" width="13.7109375" customWidth="1"/>
+    <col min="6676" max="6676" width="14.7109375" customWidth="1"/>
+    <col min="6677" max="6677" width="11.28515625" customWidth="1"/>
+    <col min="6679" max="6679" width="15.7109375" customWidth="1"/>
+    <col min="6680" max="6680" width="40" bestFit="1" customWidth="1"/>
+    <col min="6681" max="6682" width="22.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="25.7109375" customWidth="1"/>
+    <col min="6915" max="6916" width="20.7109375" customWidth="1"/>
+    <col min="6917" max="6917" width="20.28515625" customWidth="1"/>
+    <col min="6919" max="6919" width="22.7109375" customWidth="1"/>
+    <col min="6920" max="6920" width="15.7109375" customWidth="1"/>
+    <col min="6921" max="6921" width="18.7109375" customWidth="1"/>
+    <col min="6922" max="6923" width="26.5703125" customWidth="1"/>
+    <col min="6924" max="6924" width="15.7109375" customWidth="1"/>
+    <col min="6925" max="6925" width="20.140625" customWidth="1"/>
+    <col min="6926" max="6927" width="15.7109375" customWidth="1"/>
+    <col min="6928" max="6929" width="12.7109375" customWidth="1"/>
+    <col min="6930" max="6931" width="13.7109375" customWidth="1"/>
+    <col min="6932" max="6932" width="14.7109375" customWidth="1"/>
+    <col min="6933" max="6933" width="11.28515625" customWidth="1"/>
+    <col min="6935" max="6935" width="15.7109375" customWidth="1"/>
+    <col min="6936" max="6936" width="40" bestFit="1" customWidth="1"/>
+    <col min="6937" max="6938" width="22.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="25.7109375" customWidth="1"/>
+    <col min="7171" max="7172" width="20.7109375" customWidth="1"/>
+    <col min="7173" max="7173" width="20.28515625" customWidth="1"/>
+    <col min="7175" max="7175" width="22.7109375" customWidth="1"/>
+    <col min="7176" max="7176" width="15.7109375" customWidth="1"/>
+    <col min="7177" max="7177" width="18.7109375" customWidth="1"/>
+    <col min="7178" max="7179" width="26.5703125" customWidth="1"/>
+    <col min="7180" max="7180" width="15.7109375" customWidth="1"/>
+    <col min="7181" max="7181" width="20.140625" customWidth="1"/>
+    <col min="7182" max="7183" width="15.7109375" customWidth="1"/>
+    <col min="7184" max="7185" width="12.7109375" customWidth="1"/>
+    <col min="7186" max="7187" width="13.7109375" customWidth="1"/>
+    <col min="7188" max="7188" width="14.7109375" customWidth="1"/>
+    <col min="7189" max="7189" width="11.28515625" customWidth="1"/>
+    <col min="7191" max="7191" width="15.7109375" customWidth="1"/>
+    <col min="7192" max="7192" width="40" bestFit="1" customWidth="1"/>
+    <col min="7193" max="7194" width="22.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="25.7109375" customWidth="1"/>
+    <col min="7427" max="7428" width="20.7109375" customWidth="1"/>
+    <col min="7429" max="7429" width="20.28515625" customWidth="1"/>
+    <col min="7431" max="7431" width="22.7109375" customWidth="1"/>
+    <col min="7432" max="7432" width="15.7109375" customWidth="1"/>
+    <col min="7433" max="7433" width="18.7109375" customWidth="1"/>
+    <col min="7434" max="7435" width="26.5703125" customWidth="1"/>
+    <col min="7436" max="7436" width="15.7109375" customWidth="1"/>
+    <col min="7437" max="7437" width="20.140625" customWidth="1"/>
+    <col min="7438" max="7439" width="15.7109375" customWidth="1"/>
+    <col min="7440" max="7441" width="12.7109375" customWidth="1"/>
+    <col min="7442" max="7443" width="13.7109375" customWidth="1"/>
+    <col min="7444" max="7444" width="14.7109375" customWidth="1"/>
+    <col min="7445" max="7445" width="11.28515625" customWidth="1"/>
+    <col min="7447" max="7447" width="15.7109375" customWidth="1"/>
+    <col min="7448" max="7448" width="40" bestFit="1" customWidth="1"/>
+    <col min="7449" max="7450" width="22.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="25.7109375" customWidth="1"/>
+    <col min="7683" max="7684" width="20.7109375" customWidth="1"/>
+    <col min="7685" max="7685" width="20.28515625" customWidth="1"/>
+    <col min="7687" max="7687" width="22.7109375" customWidth="1"/>
+    <col min="7688" max="7688" width="15.7109375" customWidth="1"/>
+    <col min="7689" max="7689" width="18.7109375" customWidth="1"/>
+    <col min="7690" max="7691" width="26.5703125" customWidth="1"/>
+    <col min="7692" max="7692" width="15.7109375" customWidth="1"/>
+    <col min="7693" max="7693" width="20.140625" customWidth="1"/>
+    <col min="7694" max="7695" width="15.7109375" customWidth="1"/>
+    <col min="7696" max="7697" width="12.7109375" customWidth="1"/>
+    <col min="7698" max="7699" width="13.7109375" customWidth="1"/>
+    <col min="7700" max="7700" width="14.7109375" customWidth="1"/>
+    <col min="7701" max="7701" width="11.28515625" customWidth="1"/>
+    <col min="7703" max="7703" width="15.7109375" customWidth="1"/>
+    <col min="7704" max="7704" width="40" bestFit="1" customWidth="1"/>
+    <col min="7705" max="7706" width="22.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="25.7109375" customWidth="1"/>
+    <col min="7939" max="7940" width="20.7109375" customWidth="1"/>
+    <col min="7941" max="7941" width="20.28515625" customWidth="1"/>
+    <col min="7943" max="7943" width="22.7109375" customWidth="1"/>
+    <col min="7944" max="7944" width="15.7109375" customWidth="1"/>
+    <col min="7945" max="7945" width="18.7109375" customWidth="1"/>
+    <col min="7946" max="7947" width="26.5703125" customWidth="1"/>
+    <col min="7948" max="7948" width="15.7109375" customWidth="1"/>
+    <col min="7949" max="7949" width="20.140625" customWidth="1"/>
+    <col min="7950" max="7951" width="15.7109375" customWidth="1"/>
+    <col min="7952" max="7953" width="12.7109375" customWidth="1"/>
+    <col min="7954" max="7955" width="13.7109375" customWidth="1"/>
+    <col min="7956" max="7956" width="14.7109375" customWidth="1"/>
+    <col min="7957" max="7957" width="11.28515625" customWidth="1"/>
+    <col min="7959" max="7959" width="15.7109375" customWidth="1"/>
+    <col min="7960" max="7960" width="40" bestFit="1" customWidth="1"/>
+    <col min="7961" max="7962" width="22.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="25.7109375" customWidth="1"/>
+    <col min="8195" max="8196" width="20.7109375" customWidth="1"/>
+    <col min="8197" max="8197" width="20.28515625" customWidth="1"/>
+    <col min="8199" max="8199" width="22.7109375" customWidth="1"/>
+    <col min="8200" max="8200" width="15.7109375" customWidth="1"/>
+    <col min="8201" max="8201" width="18.7109375" customWidth="1"/>
+    <col min="8202" max="8203" width="26.5703125" customWidth="1"/>
+    <col min="8204" max="8204" width="15.7109375" customWidth="1"/>
+    <col min="8205" max="8205" width="20.140625" customWidth="1"/>
+    <col min="8206" max="8207" width="15.7109375" customWidth="1"/>
+    <col min="8208" max="8209" width="12.7109375" customWidth="1"/>
+    <col min="8210" max="8211" width="13.7109375" customWidth="1"/>
+    <col min="8212" max="8212" width="14.7109375" customWidth="1"/>
+    <col min="8213" max="8213" width="11.28515625" customWidth="1"/>
+    <col min="8215" max="8215" width="15.7109375" customWidth="1"/>
+    <col min="8216" max="8216" width="40" bestFit="1" customWidth="1"/>
+    <col min="8217" max="8218" width="22.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="25.7109375" customWidth="1"/>
+    <col min="8451" max="8452" width="20.7109375" customWidth="1"/>
+    <col min="8453" max="8453" width="20.28515625" customWidth="1"/>
+    <col min="8455" max="8455" width="22.7109375" customWidth="1"/>
+    <col min="8456" max="8456" width="15.7109375" customWidth="1"/>
+    <col min="8457" max="8457" width="18.7109375" customWidth="1"/>
+    <col min="8458" max="8459" width="26.5703125" customWidth="1"/>
+    <col min="8460" max="8460" width="15.7109375" customWidth="1"/>
+    <col min="8461" max="8461" width="20.140625" customWidth="1"/>
+    <col min="8462" max="8463" width="15.7109375" customWidth="1"/>
+    <col min="8464" max="8465" width="12.7109375" customWidth="1"/>
+    <col min="8466" max="8467" width="13.7109375" customWidth="1"/>
+    <col min="8468" max="8468" width="14.7109375" customWidth="1"/>
+    <col min="8469" max="8469" width="11.28515625" customWidth="1"/>
+    <col min="8471" max="8471" width="15.7109375" customWidth="1"/>
+    <col min="8472" max="8472" width="40" bestFit="1" customWidth="1"/>
+    <col min="8473" max="8474" width="22.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="25.7109375" customWidth="1"/>
+    <col min="8707" max="8708" width="20.7109375" customWidth="1"/>
+    <col min="8709" max="8709" width="20.28515625" customWidth="1"/>
+    <col min="8711" max="8711" width="22.7109375" customWidth="1"/>
+    <col min="8712" max="8712" width="15.7109375" customWidth="1"/>
+    <col min="8713" max="8713" width="18.7109375" customWidth="1"/>
+    <col min="8714" max="8715" width="26.5703125" customWidth="1"/>
+    <col min="8716" max="8716" width="15.7109375" customWidth="1"/>
+    <col min="8717" max="8717" width="20.140625" customWidth="1"/>
+    <col min="8718" max="8719" width="15.7109375" customWidth="1"/>
+    <col min="8720" max="8721" width="12.7109375" customWidth="1"/>
+    <col min="8722" max="8723" width="13.7109375" customWidth="1"/>
+    <col min="8724" max="8724" width="14.7109375" customWidth="1"/>
+    <col min="8725" max="8725" width="11.28515625" customWidth="1"/>
+    <col min="8727" max="8727" width="15.7109375" customWidth="1"/>
+    <col min="8728" max="8728" width="40" bestFit="1" customWidth="1"/>
+    <col min="8729" max="8730" width="22.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="25.7109375" customWidth="1"/>
+    <col min="8963" max="8964" width="20.7109375" customWidth="1"/>
+    <col min="8965" max="8965" width="20.28515625" customWidth="1"/>
+    <col min="8967" max="8967" width="22.7109375" customWidth="1"/>
+    <col min="8968" max="8968" width="15.7109375" customWidth="1"/>
+    <col min="8969" max="8969" width="18.7109375" customWidth="1"/>
+    <col min="8970" max="8971" width="26.5703125" customWidth="1"/>
+    <col min="8972" max="8972" width="15.7109375" customWidth="1"/>
+    <col min="8973" max="8973" width="20.140625" customWidth="1"/>
+    <col min="8974" max="8975" width="15.7109375" customWidth="1"/>
+    <col min="8976" max="8977" width="12.7109375" customWidth="1"/>
+    <col min="8978" max="8979" width="13.7109375" customWidth="1"/>
+    <col min="8980" max="8980" width="14.7109375" customWidth="1"/>
+    <col min="8981" max="8981" width="11.28515625" customWidth="1"/>
+    <col min="8983" max="8983" width="15.7109375" customWidth="1"/>
+    <col min="8984" max="8984" width="40" bestFit="1" customWidth="1"/>
+    <col min="8985" max="8986" width="22.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="25.7109375" customWidth="1"/>
+    <col min="9219" max="9220" width="20.7109375" customWidth="1"/>
+    <col min="9221" max="9221" width="20.28515625" customWidth="1"/>
+    <col min="9223" max="9223" width="22.7109375" customWidth="1"/>
+    <col min="9224" max="9224" width="15.7109375" customWidth="1"/>
+    <col min="9225" max="9225" width="18.7109375" customWidth="1"/>
+    <col min="9226" max="9227" width="26.5703125" customWidth="1"/>
+    <col min="9228" max="9228" width="15.7109375" customWidth="1"/>
+    <col min="9229" max="9229" width="20.140625" customWidth="1"/>
+    <col min="9230" max="9231" width="15.7109375" customWidth="1"/>
+    <col min="9232" max="9233" width="12.7109375" customWidth="1"/>
+    <col min="9234" max="9235" width="13.7109375" customWidth="1"/>
+    <col min="9236" max="9236" width="14.7109375" customWidth="1"/>
+    <col min="9237" max="9237" width="11.28515625" customWidth="1"/>
+    <col min="9239" max="9239" width="15.7109375" customWidth="1"/>
+    <col min="9240" max="9240" width="40" bestFit="1" customWidth="1"/>
+    <col min="9241" max="9242" width="22.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="25.7109375" customWidth="1"/>
+    <col min="9475" max="9476" width="20.7109375" customWidth="1"/>
+    <col min="9477" max="9477" width="20.28515625" customWidth="1"/>
+    <col min="9479" max="9479" width="22.7109375" customWidth="1"/>
+    <col min="9480" max="9480" width="15.7109375" customWidth="1"/>
+    <col min="9481" max="9481" width="18.7109375" customWidth="1"/>
+    <col min="9482" max="9483" width="26.5703125" customWidth="1"/>
+    <col min="9484" max="9484" width="15.7109375" customWidth="1"/>
+    <col min="9485" max="9485" width="20.140625" customWidth="1"/>
+    <col min="9486" max="9487" width="15.7109375" customWidth="1"/>
+    <col min="9488" max="9489" width="12.7109375" customWidth="1"/>
+    <col min="9490" max="9491" width="13.7109375" customWidth="1"/>
+    <col min="9492" max="9492" width="14.7109375" customWidth="1"/>
+    <col min="9493" max="9493" width="11.28515625" customWidth="1"/>
+    <col min="9495" max="9495" width="15.7109375" customWidth="1"/>
+    <col min="9496" max="9496" width="40" bestFit="1" customWidth="1"/>
+    <col min="9497" max="9498" width="22.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="25.7109375" customWidth="1"/>
+    <col min="9731" max="9732" width="20.7109375" customWidth="1"/>
+    <col min="9733" max="9733" width="20.28515625" customWidth="1"/>
+    <col min="9735" max="9735" width="22.7109375" customWidth="1"/>
+    <col min="9736" max="9736" width="15.7109375" customWidth="1"/>
+    <col min="9737" max="9737" width="18.7109375" customWidth="1"/>
+    <col min="9738" max="9739" width="26.5703125" customWidth="1"/>
+    <col min="9740" max="9740" width="15.7109375" customWidth="1"/>
+    <col min="9741" max="9741" width="20.140625" customWidth="1"/>
+    <col min="9742" max="9743" width="15.7109375" customWidth="1"/>
+    <col min="9744" max="9745" width="12.7109375" customWidth="1"/>
+    <col min="9746" max="9747" width="13.7109375" customWidth="1"/>
+    <col min="9748" max="9748" width="14.7109375" customWidth="1"/>
+    <col min="9749" max="9749" width="11.28515625" customWidth="1"/>
+    <col min="9751" max="9751" width="15.7109375" customWidth="1"/>
+    <col min="9752" max="9752" width="40" bestFit="1" customWidth="1"/>
+    <col min="9753" max="9754" width="22.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="25.7109375" customWidth="1"/>
+    <col min="9987" max="9988" width="20.7109375" customWidth="1"/>
+    <col min="9989" max="9989" width="20.28515625" customWidth="1"/>
+    <col min="9991" max="9991" width="22.7109375" customWidth="1"/>
+    <col min="9992" max="9992" width="15.7109375" customWidth="1"/>
+    <col min="9993" max="9993" width="18.7109375" customWidth="1"/>
+    <col min="9994" max="9995" width="26.5703125" customWidth="1"/>
+    <col min="9996" max="9996" width="15.7109375" customWidth="1"/>
+    <col min="9997" max="9997" width="20.140625" customWidth="1"/>
+    <col min="9998" max="9999" width="15.7109375" customWidth="1"/>
+    <col min="10000" max="10001" width="12.7109375" customWidth="1"/>
+    <col min="10002" max="10003" width="13.7109375" customWidth="1"/>
+    <col min="10004" max="10004" width="14.7109375" customWidth="1"/>
+    <col min="10005" max="10005" width="11.28515625" customWidth="1"/>
+    <col min="10007" max="10007" width="15.7109375" customWidth="1"/>
+    <col min="10008" max="10008" width="40" bestFit="1" customWidth="1"/>
+    <col min="10009" max="10010" width="22.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="25.7109375" customWidth="1"/>
+    <col min="10243" max="10244" width="20.7109375" customWidth="1"/>
+    <col min="10245" max="10245" width="20.28515625" customWidth="1"/>
+    <col min="10247" max="10247" width="22.7109375" customWidth="1"/>
+    <col min="10248" max="10248" width="15.7109375" customWidth="1"/>
+    <col min="10249" max="10249" width="18.7109375" customWidth="1"/>
+    <col min="10250" max="10251" width="26.5703125" customWidth="1"/>
+    <col min="10252" max="10252" width="15.7109375" customWidth="1"/>
+    <col min="10253" max="10253" width="20.140625" customWidth="1"/>
+    <col min="10254" max="10255" width="15.7109375" customWidth="1"/>
+    <col min="10256" max="10257" width="12.7109375" customWidth="1"/>
+    <col min="10258" max="10259" width="13.7109375" customWidth="1"/>
+    <col min="10260" max="10260" width="14.7109375" customWidth="1"/>
+    <col min="10261" max="10261" width="11.28515625" customWidth="1"/>
+    <col min="10263" max="10263" width="15.7109375" customWidth="1"/>
+    <col min="10264" max="10264" width="40" bestFit="1" customWidth="1"/>
+    <col min="10265" max="10266" width="22.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="25.7109375" customWidth="1"/>
+    <col min="10499" max="10500" width="20.7109375" customWidth="1"/>
+    <col min="10501" max="10501" width="20.28515625" customWidth="1"/>
+    <col min="10503" max="10503" width="22.7109375" customWidth="1"/>
+    <col min="10504" max="10504" width="15.7109375" customWidth="1"/>
+    <col min="10505" max="10505" width="18.7109375" customWidth="1"/>
+    <col min="10506" max="10507" width="26.5703125" customWidth="1"/>
+    <col min="10508" max="10508" width="15.7109375" customWidth="1"/>
+    <col min="10509" max="10509" width="20.140625" customWidth="1"/>
+    <col min="10510" max="10511" width="15.7109375" customWidth="1"/>
+    <col min="10512" max="10513" width="12.7109375" customWidth="1"/>
+    <col min="10514" max="10515" width="13.7109375" customWidth="1"/>
+    <col min="10516" max="10516" width="14.7109375" customWidth="1"/>
+    <col min="10517" max="10517" width="11.28515625" customWidth="1"/>
+    <col min="10519" max="10519" width="15.7109375" customWidth="1"/>
+    <col min="10520" max="10520" width="40" bestFit="1" customWidth="1"/>
+    <col min="10521" max="10522" width="22.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="25.7109375" customWidth="1"/>
+    <col min="10755" max="10756" width="20.7109375" customWidth="1"/>
+    <col min="10757" max="10757" width="20.28515625" customWidth="1"/>
+    <col min="10759" max="10759" width="22.7109375" customWidth="1"/>
+    <col min="10760" max="10760" width="15.7109375" customWidth="1"/>
+    <col min="10761" max="10761" width="18.7109375" customWidth="1"/>
+    <col min="10762" max="10763" width="26.5703125" customWidth="1"/>
+    <col min="10764" max="10764" width="15.7109375" customWidth="1"/>
+    <col min="10765" max="10765" width="20.140625" customWidth="1"/>
+    <col min="10766" max="10767" width="15.7109375" customWidth="1"/>
+    <col min="10768" max="10769" width="12.7109375" customWidth="1"/>
+    <col min="10770" max="10771" width="13.7109375" customWidth="1"/>
+    <col min="10772" max="10772" width="14.7109375" customWidth="1"/>
+    <col min="10773" max="10773" width="11.28515625" customWidth="1"/>
+    <col min="10775" max="10775" width="15.7109375" customWidth="1"/>
+    <col min="10776" max="10776" width="40" bestFit="1" customWidth="1"/>
+    <col min="10777" max="10778" width="22.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="25.7109375" customWidth="1"/>
+    <col min="11011" max="11012" width="20.7109375" customWidth="1"/>
+    <col min="11013" max="11013" width="20.28515625" customWidth="1"/>
+    <col min="11015" max="11015" width="22.7109375" customWidth="1"/>
+    <col min="11016" max="11016" width="15.7109375" customWidth="1"/>
+    <col min="11017" max="11017" width="18.7109375" customWidth="1"/>
+    <col min="11018" max="11019" width="26.5703125" customWidth="1"/>
+    <col min="11020" max="11020" width="15.7109375" customWidth="1"/>
+    <col min="11021" max="11021" width="20.140625" customWidth="1"/>
+    <col min="11022" max="11023" width="15.7109375" customWidth="1"/>
+    <col min="11024" max="11025" width="12.7109375" customWidth="1"/>
+    <col min="11026" max="11027" width="13.7109375" customWidth="1"/>
+    <col min="11028" max="11028" width="14.7109375" customWidth="1"/>
+    <col min="11029" max="11029" width="11.28515625" customWidth="1"/>
+    <col min="11031" max="11031" width="15.7109375" customWidth="1"/>
+    <col min="11032" max="11032" width="40" bestFit="1" customWidth="1"/>
+    <col min="11033" max="11034" width="22.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="25.7109375" customWidth="1"/>
+    <col min="11267" max="11268" width="20.7109375" customWidth="1"/>
+    <col min="11269" max="11269" width="20.28515625" customWidth="1"/>
+    <col min="11271" max="11271" width="22.7109375" customWidth="1"/>
+    <col min="11272" max="11272" width="15.7109375" customWidth="1"/>
+    <col min="11273" max="11273" width="18.7109375" customWidth="1"/>
+    <col min="11274" max="11275" width="26.5703125" customWidth="1"/>
+    <col min="11276" max="11276" width="15.7109375" customWidth="1"/>
+    <col min="11277" max="11277" width="20.140625" customWidth="1"/>
+    <col min="11278" max="11279" width="15.7109375" customWidth="1"/>
+    <col min="11280" max="11281" width="12.7109375" customWidth="1"/>
+    <col min="11282" max="11283" width="13.7109375" customWidth="1"/>
+    <col min="11284" max="11284" width="14.7109375" customWidth="1"/>
+    <col min="11285" max="11285" width="11.28515625" customWidth="1"/>
+    <col min="11287" max="11287" width="15.7109375" customWidth="1"/>
+    <col min="11288" max="11288" width="40" bestFit="1" customWidth="1"/>
+    <col min="11289" max="11290" width="22.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="25.7109375" customWidth="1"/>
+    <col min="11523" max="11524" width="20.7109375" customWidth="1"/>
+    <col min="11525" max="11525" width="20.28515625" customWidth="1"/>
+    <col min="11527" max="11527" width="22.7109375" customWidth="1"/>
+    <col min="11528" max="11528" width="15.7109375" customWidth="1"/>
+    <col min="11529" max="11529" width="18.7109375" customWidth="1"/>
+    <col min="11530" max="11531" width="26.5703125" customWidth="1"/>
+    <col min="11532" max="11532" width="15.7109375" customWidth="1"/>
+    <col min="11533" max="11533" width="20.140625" customWidth="1"/>
+    <col min="11534" max="11535" width="15.7109375" customWidth="1"/>
+    <col min="11536" max="11537" width="12.7109375" customWidth="1"/>
+    <col min="11538" max="11539" width="13.7109375" customWidth="1"/>
+    <col min="11540" max="11540" width="14.7109375" customWidth="1"/>
+    <col min="11541" max="11541" width="11.28515625" customWidth="1"/>
+    <col min="11543" max="11543" width="15.7109375" customWidth="1"/>
+    <col min="11544" max="11544" width="40" bestFit="1" customWidth="1"/>
+    <col min="11545" max="11546" width="22.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="25.7109375" customWidth="1"/>
+    <col min="11779" max="11780" width="20.7109375" customWidth="1"/>
+    <col min="11781" max="11781" width="20.28515625" customWidth="1"/>
+    <col min="11783" max="11783" width="22.7109375" customWidth="1"/>
+    <col min="11784" max="11784" width="15.7109375" customWidth="1"/>
+    <col min="11785" max="11785" width="18.7109375" customWidth="1"/>
+    <col min="11786" max="11787" width="26.5703125" customWidth="1"/>
+    <col min="11788" max="11788" width="15.7109375" customWidth="1"/>
+    <col min="11789" max="11789" width="20.140625" customWidth="1"/>
+    <col min="11790" max="11791" width="15.7109375" customWidth="1"/>
+    <col min="11792" max="11793" width="12.7109375" customWidth="1"/>
+    <col min="11794" max="11795" width="13.7109375" customWidth="1"/>
+    <col min="11796" max="11796" width="14.7109375" customWidth="1"/>
+    <col min="11797" max="11797" width="11.28515625" customWidth="1"/>
+    <col min="11799" max="11799" width="15.7109375" customWidth="1"/>
+    <col min="11800" max="11800" width="40" bestFit="1" customWidth="1"/>
+    <col min="11801" max="11802" width="22.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="25.7109375" customWidth="1"/>
+    <col min="12035" max="12036" width="20.7109375" customWidth="1"/>
+    <col min="12037" max="12037" width="20.28515625" customWidth="1"/>
+    <col min="12039" max="12039" width="22.7109375" customWidth="1"/>
+    <col min="12040" max="12040" width="15.7109375" customWidth="1"/>
+    <col min="12041" max="12041" width="18.7109375" customWidth="1"/>
+    <col min="12042" max="12043" width="26.5703125" customWidth="1"/>
+    <col min="12044" max="12044" width="15.7109375" customWidth="1"/>
+    <col min="12045" max="12045" width="20.140625" customWidth="1"/>
+    <col min="12046" max="12047" width="15.7109375" customWidth="1"/>
+    <col min="12048" max="12049" width="12.7109375" customWidth="1"/>
+    <col min="12050" max="12051" width="13.7109375" customWidth="1"/>
+    <col min="12052" max="12052" width="14.7109375" customWidth="1"/>
+    <col min="12053" max="12053" width="11.28515625" customWidth="1"/>
+    <col min="12055" max="12055" width="15.7109375" customWidth="1"/>
+    <col min="12056" max="12056" width="40" bestFit="1" customWidth="1"/>
+    <col min="12057" max="12058" width="22.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="25.7109375" customWidth="1"/>
+    <col min="12291" max="12292" width="20.7109375" customWidth="1"/>
+    <col min="12293" max="12293" width="20.28515625" customWidth="1"/>
+    <col min="12295" max="12295" width="22.7109375" customWidth="1"/>
+    <col min="12296" max="12296" width="15.7109375" customWidth="1"/>
+    <col min="12297" max="12297" width="18.7109375" customWidth="1"/>
+    <col min="12298" max="12299" width="26.5703125" customWidth="1"/>
+    <col min="12300" max="12300" width="15.7109375" customWidth="1"/>
+    <col min="12301" max="12301" width="20.140625" customWidth="1"/>
+    <col min="12302" max="12303" width="15.7109375" customWidth="1"/>
+    <col min="12304" max="12305" width="12.7109375" customWidth="1"/>
+    <col min="12306" max="12307" width="13.7109375" customWidth="1"/>
+    <col min="12308" max="12308" width="14.7109375" customWidth="1"/>
+    <col min="12309" max="12309" width="11.28515625" customWidth="1"/>
+    <col min="12311" max="12311" width="15.7109375" customWidth="1"/>
+    <col min="12312" max="12312" width="40" bestFit="1" customWidth="1"/>
+    <col min="12313" max="12314" width="22.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="25.7109375" customWidth="1"/>
+    <col min="12547" max="12548" width="20.7109375" customWidth="1"/>
+    <col min="12549" max="12549" width="20.28515625" customWidth="1"/>
+    <col min="12551" max="12551" width="22.7109375" customWidth="1"/>
+    <col min="12552" max="12552" width="15.7109375" customWidth="1"/>
+    <col min="12553" max="12553" width="18.7109375" customWidth="1"/>
+    <col min="12554" max="12555" width="26.5703125" customWidth="1"/>
+    <col min="12556" max="12556" width="15.7109375" customWidth="1"/>
+    <col min="12557" max="12557" width="20.140625" customWidth="1"/>
+    <col min="12558" max="12559" width="15.7109375" customWidth="1"/>
+    <col min="12560" max="12561" width="12.7109375" customWidth="1"/>
+    <col min="12562" max="12563" width="13.7109375" customWidth="1"/>
+    <col min="12564" max="12564" width="14.7109375" customWidth="1"/>
+    <col min="12565" max="12565" width="11.28515625" customWidth="1"/>
+    <col min="12567" max="12567" width="15.7109375" customWidth="1"/>
+    <col min="12568" max="12568" width="40" bestFit="1" customWidth="1"/>
+    <col min="12569" max="12570" width="22.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="25.7109375" customWidth="1"/>
+    <col min="12803" max="12804" width="20.7109375" customWidth="1"/>
+    <col min="12805" max="12805" width="20.28515625" customWidth="1"/>
+    <col min="12807" max="12807" width="22.7109375" customWidth="1"/>
+    <col min="12808" max="12808" width="15.7109375" customWidth="1"/>
+    <col min="12809" max="12809" width="18.7109375" customWidth="1"/>
+    <col min="12810" max="12811" width="26.5703125" customWidth="1"/>
+    <col min="12812" max="12812" width="15.7109375" customWidth="1"/>
+    <col min="12813" max="12813" width="20.140625" customWidth="1"/>
+    <col min="12814" max="12815" width="15.7109375" customWidth="1"/>
+    <col min="12816" max="12817" width="12.7109375" customWidth="1"/>
+    <col min="12818" max="12819" width="13.7109375" customWidth="1"/>
+    <col min="12820" max="12820" width="14.7109375" customWidth="1"/>
+    <col min="12821" max="12821" width="11.28515625" customWidth="1"/>
+    <col min="12823" max="12823" width="15.7109375" customWidth="1"/>
+    <col min="12824" max="12824" width="40" bestFit="1" customWidth="1"/>
+    <col min="12825" max="12826" width="22.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="25.7109375" customWidth="1"/>
+    <col min="13059" max="13060" width="20.7109375" customWidth="1"/>
+    <col min="13061" max="13061" width="20.28515625" customWidth="1"/>
+    <col min="13063" max="13063" width="22.7109375" customWidth="1"/>
+    <col min="13064" max="13064" width="15.7109375" customWidth="1"/>
+    <col min="13065" max="13065" width="18.7109375" customWidth="1"/>
+    <col min="13066" max="13067" width="26.5703125" customWidth="1"/>
+    <col min="13068" max="13068" width="15.7109375" customWidth="1"/>
+    <col min="13069" max="13069" width="20.140625" customWidth="1"/>
+    <col min="13070" max="13071" width="15.7109375" customWidth="1"/>
+    <col min="13072" max="13073" width="12.7109375" customWidth="1"/>
+    <col min="13074" max="13075" width="13.7109375" customWidth="1"/>
+    <col min="13076" max="13076" width="14.7109375" customWidth="1"/>
+    <col min="13077" max="13077" width="11.28515625" customWidth="1"/>
+    <col min="13079" max="13079" width="15.7109375" customWidth="1"/>
+    <col min="13080" max="13080" width="40" bestFit="1" customWidth="1"/>
+    <col min="13081" max="13082" width="22.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="25.7109375" customWidth="1"/>
+    <col min="13315" max="13316" width="20.7109375" customWidth="1"/>
+    <col min="13317" max="13317" width="20.28515625" customWidth="1"/>
+    <col min="13319" max="13319" width="22.7109375" customWidth="1"/>
+    <col min="13320" max="13320" width="15.7109375" customWidth="1"/>
+    <col min="13321" max="13321" width="18.7109375" customWidth="1"/>
+    <col min="13322" max="13323" width="26.5703125" customWidth="1"/>
+    <col min="13324" max="13324" width="15.7109375" customWidth="1"/>
+    <col min="13325" max="13325" width="20.140625" customWidth="1"/>
+    <col min="13326" max="13327" width="15.7109375" customWidth="1"/>
+    <col min="13328" max="13329" width="12.7109375" customWidth="1"/>
+    <col min="13330" max="13331" width="13.7109375" customWidth="1"/>
+    <col min="13332" max="13332" width="14.7109375" customWidth="1"/>
+    <col min="13333" max="13333" width="11.28515625" customWidth="1"/>
+    <col min="13335" max="13335" width="15.7109375" customWidth="1"/>
+    <col min="13336" max="13336" width="40" bestFit="1" customWidth="1"/>
+    <col min="13337" max="13338" width="22.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="25.7109375" customWidth="1"/>
+    <col min="13571" max="13572" width="20.7109375" customWidth="1"/>
+    <col min="13573" max="13573" width="20.28515625" customWidth="1"/>
+    <col min="13575" max="13575" width="22.7109375" customWidth="1"/>
+    <col min="13576" max="13576" width="15.7109375" customWidth="1"/>
+    <col min="13577" max="13577" width="18.7109375" customWidth="1"/>
+    <col min="13578" max="13579" width="26.5703125" customWidth="1"/>
+    <col min="13580" max="13580" width="15.7109375" customWidth="1"/>
+    <col min="13581" max="13581" width="20.140625" customWidth="1"/>
+    <col min="13582" max="13583" width="15.7109375" customWidth="1"/>
+    <col min="13584" max="13585" width="12.7109375" customWidth="1"/>
+    <col min="13586" max="13587" width="13.7109375" customWidth="1"/>
+    <col min="13588" max="13588" width="14.7109375" customWidth="1"/>
+    <col min="13589" max="13589" width="11.28515625" customWidth="1"/>
+    <col min="13591" max="13591" width="15.7109375" customWidth="1"/>
+    <col min="13592" max="13592" width="40" bestFit="1" customWidth="1"/>
+    <col min="13593" max="13594" width="22.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="25.7109375" customWidth="1"/>
+    <col min="13827" max="13828" width="20.7109375" customWidth="1"/>
+    <col min="13829" max="13829" width="20.28515625" customWidth="1"/>
+    <col min="13831" max="13831" width="22.7109375" customWidth="1"/>
+    <col min="13832" max="13832" width="15.7109375" customWidth="1"/>
+    <col min="13833" max="13833" width="18.7109375" customWidth="1"/>
+    <col min="13834" max="13835" width="26.5703125" customWidth="1"/>
+    <col min="13836" max="13836" width="15.7109375" customWidth="1"/>
+    <col min="13837" max="13837" width="20.140625" customWidth="1"/>
+    <col min="13838" max="13839" width="15.7109375" customWidth="1"/>
+    <col min="13840" max="13841" width="12.7109375" customWidth="1"/>
+    <col min="13842" max="13843" width="13.7109375" customWidth="1"/>
+    <col min="13844" max="13844" width="14.7109375" customWidth="1"/>
+    <col min="13845" max="13845" width="11.28515625" customWidth="1"/>
+    <col min="13847" max="13847" width="15.7109375" customWidth="1"/>
+    <col min="13848" max="13848" width="40" bestFit="1" customWidth="1"/>
+    <col min="13849" max="13850" width="22.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="25.7109375" customWidth="1"/>
+    <col min="14083" max="14084" width="20.7109375" customWidth="1"/>
+    <col min="14085" max="14085" width="20.28515625" customWidth="1"/>
+    <col min="14087" max="14087" width="22.7109375" customWidth="1"/>
+    <col min="14088" max="14088" width="15.7109375" customWidth="1"/>
+    <col min="14089" max="14089" width="18.7109375" customWidth="1"/>
+    <col min="14090" max="14091" width="26.5703125" customWidth="1"/>
+    <col min="14092" max="14092" width="15.7109375" customWidth="1"/>
+    <col min="14093" max="14093" width="20.140625" customWidth="1"/>
+    <col min="14094" max="14095" width="15.7109375" customWidth="1"/>
+    <col min="14096" max="14097" width="12.7109375" customWidth="1"/>
+    <col min="14098" max="14099" width="13.7109375" customWidth="1"/>
+    <col min="14100" max="14100" width="14.7109375" customWidth="1"/>
+    <col min="14101" max="14101" width="11.28515625" customWidth="1"/>
+    <col min="14103" max="14103" width="15.7109375" customWidth="1"/>
+    <col min="14104" max="14104" width="40" bestFit="1" customWidth="1"/>
+    <col min="14105" max="14106" width="22.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="25.7109375" customWidth="1"/>
+    <col min="14339" max="14340" width="20.7109375" customWidth="1"/>
+    <col min="14341" max="14341" width="20.28515625" customWidth="1"/>
+    <col min="14343" max="14343" width="22.7109375" customWidth="1"/>
+    <col min="14344" max="14344" width="15.7109375" customWidth="1"/>
+    <col min="14345" max="14345" width="18.7109375" customWidth="1"/>
+    <col min="14346" max="14347" width="26.5703125" customWidth="1"/>
+    <col min="14348" max="14348" width="15.7109375" customWidth="1"/>
+    <col min="14349" max="14349" width="20.140625" customWidth="1"/>
+    <col min="14350" max="14351" width="15.7109375" customWidth="1"/>
+    <col min="14352" max="14353" width="12.7109375" customWidth="1"/>
+    <col min="14354" max="14355" width="13.7109375" customWidth="1"/>
+    <col min="14356" max="14356" width="14.7109375" customWidth="1"/>
+    <col min="14357" max="14357" width="11.28515625" customWidth="1"/>
+    <col min="14359" max="14359" width="15.7109375" customWidth="1"/>
+    <col min="14360" max="14360" width="40" bestFit="1" customWidth="1"/>
+    <col min="14361" max="14362" width="22.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="25.7109375" customWidth="1"/>
+    <col min="14595" max="14596" width="20.7109375" customWidth="1"/>
+    <col min="14597" max="14597" width="20.28515625" customWidth="1"/>
+    <col min="14599" max="14599" width="22.7109375" customWidth="1"/>
+    <col min="14600" max="14600" width="15.7109375" customWidth="1"/>
+    <col min="14601" max="14601" width="18.7109375" customWidth="1"/>
+    <col min="14602" max="14603" width="26.5703125" customWidth="1"/>
+    <col min="14604" max="14604" width="15.7109375" customWidth="1"/>
+    <col min="14605" max="14605" width="20.140625" customWidth="1"/>
+    <col min="14606" max="14607" width="15.7109375" customWidth="1"/>
+    <col min="14608" max="14609" width="12.7109375" customWidth="1"/>
+    <col min="14610" max="14611" width="13.7109375" customWidth="1"/>
+    <col min="14612" max="14612" width="14.7109375" customWidth="1"/>
+    <col min="14613" max="14613" width="11.28515625" customWidth="1"/>
+    <col min="14615" max="14615" width="15.7109375" customWidth="1"/>
+    <col min="14616" max="14616" width="40" bestFit="1" customWidth="1"/>
+    <col min="14617" max="14618" width="22.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="25.7109375" customWidth="1"/>
+    <col min="14851" max="14852" width="20.7109375" customWidth="1"/>
+    <col min="14853" max="14853" width="20.28515625" customWidth="1"/>
+    <col min="14855" max="14855" width="22.7109375" customWidth="1"/>
+    <col min="14856" max="14856" width="15.7109375" customWidth="1"/>
+    <col min="14857" max="14857" width="18.7109375" customWidth="1"/>
+    <col min="14858" max="14859" width="26.5703125" customWidth="1"/>
+    <col min="14860" max="14860" width="15.7109375" customWidth="1"/>
+    <col min="14861" max="14861" width="20.140625" customWidth="1"/>
+    <col min="14862" max="14863" width="15.7109375" customWidth="1"/>
+    <col min="14864" max="14865" width="12.7109375" customWidth="1"/>
+    <col min="14866" max="14867" width="13.7109375" customWidth="1"/>
+    <col min="14868" max="14868" width="14.7109375" customWidth="1"/>
+    <col min="14869" max="14869" width="11.28515625" customWidth="1"/>
+    <col min="14871" max="14871" width="15.7109375" customWidth="1"/>
+    <col min="14872" max="14872" width="40" bestFit="1" customWidth="1"/>
+    <col min="14873" max="14874" width="22.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="25.7109375" customWidth="1"/>
+    <col min="15107" max="15108" width="20.7109375" customWidth="1"/>
+    <col min="15109" max="15109" width="20.28515625" customWidth="1"/>
+    <col min="15111" max="15111" width="22.7109375" customWidth="1"/>
+    <col min="15112" max="15112" width="15.7109375" customWidth="1"/>
+    <col min="15113" max="15113" width="18.7109375" customWidth="1"/>
+    <col min="15114" max="15115" width="26.5703125" customWidth="1"/>
+    <col min="15116" max="15116" width="15.7109375" customWidth="1"/>
+    <col min="15117" max="15117" width="20.140625" customWidth="1"/>
+    <col min="15118" max="15119" width="15.7109375" customWidth="1"/>
+    <col min="15120" max="15121" width="12.7109375" customWidth="1"/>
+    <col min="15122" max="15123" width="13.7109375" customWidth="1"/>
+    <col min="15124" max="15124" width="14.7109375" customWidth="1"/>
+    <col min="15125" max="15125" width="11.28515625" customWidth="1"/>
+    <col min="15127" max="15127" width="15.7109375" customWidth="1"/>
+    <col min="15128" max="15128" width="40" bestFit="1" customWidth="1"/>
+    <col min="15129" max="15130" width="22.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="25.7109375" customWidth="1"/>
+    <col min="15363" max="15364" width="20.7109375" customWidth="1"/>
+    <col min="15365" max="15365" width="20.28515625" customWidth="1"/>
+    <col min="15367" max="15367" width="22.7109375" customWidth="1"/>
+    <col min="15368" max="15368" width="15.7109375" customWidth="1"/>
+    <col min="15369" max="15369" width="18.7109375" customWidth="1"/>
+    <col min="15370" max="15371" width="26.5703125" customWidth="1"/>
+    <col min="15372" max="15372" width="15.7109375" customWidth="1"/>
+    <col min="15373" max="15373" width="20.140625" customWidth="1"/>
+    <col min="15374" max="15375" width="15.7109375" customWidth="1"/>
+    <col min="15376" max="15377" width="12.7109375" customWidth="1"/>
+    <col min="15378" max="15379" width="13.7109375" customWidth="1"/>
+    <col min="15380" max="15380" width="14.7109375" customWidth="1"/>
+    <col min="15381" max="15381" width="11.28515625" customWidth="1"/>
+    <col min="15383" max="15383" width="15.7109375" customWidth="1"/>
+    <col min="15384" max="15384" width="40" bestFit="1" customWidth="1"/>
+    <col min="15385" max="15386" width="22.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="25.7109375" customWidth="1"/>
+    <col min="15619" max="15620" width="20.7109375" customWidth="1"/>
+    <col min="15621" max="15621" width="20.28515625" customWidth="1"/>
+    <col min="15623" max="15623" width="22.7109375" customWidth="1"/>
+    <col min="15624" max="15624" width="15.7109375" customWidth="1"/>
+    <col min="15625" max="15625" width="18.7109375" customWidth="1"/>
+    <col min="15626" max="15627" width="26.5703125" customWidth="1"/>
+    <col min="15628" max="15628" width="15.7109375" customWidth="1"/>
+    <col min="15629" max="15629" width="20.140625" customWidth="1"/>
+    <col min="15630" max="15631" width="15.7109375" customWidth="1"/>
+    <col min="15632" max="15633" width="12.7109375" customWidth="1"/>
+    <col min="15634" max="15635" width="13.7109375" customWidth="1"/>
+    <col min="15636" max="15636" width="14.7109375" customWidth="1"/>
+    <col min="15637" max="15637" width="11.28515625" customWidth="1"/>
+    <col min="15639" max="15639" width="15.7109375" customWidth="1"/>
+    <col min="15640" max="15640" width="40" bestFit="1" customWidth="1"/>
+    <col min="15641" max="15642" width="22.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="25.7109375" customWidth="1"/>
+    <col min="15875" max="15876" width="20.7109375" customWidth="1"/>
+    <col min="15877" max="15877" width="20.28515625" customWidth="1"/>
+    <col min="15879" max="15879" width="22.7109375" customWidth="1"/>
+    <col min="15880" max="15880" width="15.7109375" customWidth="1"/>
+    <col min="15881" max="15881" width="18.7109375" customWidth="1"/>
+    <col min="15882" max="15883" width="26.5703125" customWidth="1"/>
+    <col min="15884" max="15884" width="15.7109375" customWidth="1"/>
+    <col min="15885" max="15885" width="20.140625" customWidth="1"/>
+    <col min="15886" max="15887" width="15.7109375" customWidth="1"/>
+    <col min="15888" max="15889" width="12.7109375" customWidth="1"/>
+    <col min="15890" max="15891" width="13.7109375" customWidth="1"/>
+    <col min="15892" max="15892" width="14.7109375" customWidth="1"/>
+    <col min="15893" max="15893" width="11.28515625" customWidth="1"/>
+    <col min="15895" max="15895" width="15.7109375" customWidth="1"/>
+    <col min="15896" max="15896" width="40" bestFit="1" customWidth="1"/>
+    <col min="15897" max="15898" width="22.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="25.7109375" customWidth="1"/>
+    <col min="16131" max="16132" width="20.7109375" customWidth="1"/>
+    <col min="16133" max="16133" width="20.28515625" customWidth="1"/>
+    <col min="16135" max="16135" width="22.7109375" customWidth="1"/>
+    <col min="16136" max="16136" width="15.7109375" customWidth="1"/>
+    <col min="16137" max="16137" width="18.7109375" customWidth="1"/>
+    <col min="16138" max="16139" width="26.5703125" customWidth="1"/>
+    <col min="16140" max="16140" width="15.7109375" customWidth="1"/>
+    <col min="16141" max="16141" width="20.140625" customWidth="1"/>
+    <col min="16142" max="16143" width="15.7109375" customWidth="1"/>
+    <col min="16144" max="16145" width="12.7109375" customWidth="1"/>
+    <col min="16146" max="16147" width="13.7109375" customWidth="1"/>
+    <col min="16148" max="16148" width="14.7109375" customWidth="1"/>
+    <col min="16149" max="16149" width="11.28515625" customWidth="1"/>
+    <col min="16151" max="16151" width="15.7109375" customWidth="1"/>
+    <col min="16152" max="16152" width="40" bestFit="1" customWidth="1"/>
+    <col min="16153" max="16154" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5364,71 +5368,74 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -5441,98 +5448,101 @@
       <c r="D2" s="11">
         <v>29690</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>210311007</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>43901</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>47553</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>43901</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="O2" s="9"/>
       <c r="P2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="9">
+      <c r="V2" s="9">
         <v>22031</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="9">
         <v>7035805862</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
+  <autoFilter ref="A1:Z2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 JJ2 TF2 ADB2 AMX2 AWT2 BGP2 BQL2 CAH2 CKD2 CTZ2 DDV2 DNR2 DXN2 EHJ2 ERF2 FBB2 FKX2 FUT2 GEP2 GOL2 GYH2 HID2 HRZ2 IBV2 ILR2 IVN2 JFJ2 JPF2 JZB2 KIX2 KST2 LCP2 LML2 LWH2 MGD2 MPZ2 MZV2 NJR2 NTN2 ODJ2 ONF2 OXB2 PGX2 PQT2 QAP2 QKL2 QUH2 RED2 RNZ2 RXV2 SHR2 SRN2 TBJ2 TLF2 TVB2 UEX2 UOT2 UYP2 VIL2 VSH2 WCD2 WLZ2 WVV2 N65440:N65538 JJ65440:JJ65538 TF65440:TF65538 ADB65440:ADB65538 AMX65440:AMX65538 AWT65440:AWT65538 BGP65440:BGP65538 BQL65440:BQL65538 CAH65440:CAH65538 CKD65440:CKD65538 CTZ65440:CTZ65538 DDV65440:DDV65538 DNR65440:DNR65538 DXN65440:DXN65538 EHJ65440:EHJ65538 ERF65440:ERF65538 FBB65440:FBB65538 FKX65440:FKX65538 FUT65440:FUT65538 GEP65440:GEP65538 GOL65440:GOL65538 GYH65440:GYH65538 HID65440:HID65538 HRZ65440:HRZ65538 IBV65440:IBV65538 ILR65440:ILR65538 IVN65440:IVN65538 JFJ65440:JFJ65538 JPF65440:JPF65538 JZB65440:JZB65538 KIX65440:KIX65538 KST65440:KST65538 LCP65440:LCP65538 LML65440:LML65538 LWH65440:LWH65538 MGD65440:MGD65538 MPZ65440:MPZ65538 MZV65440:MZV65538 NJR65440:NJR65538 NTN65440:NTN65538 ODJ65440:ODJ65538 ONF65440:ONF65538 OXB65440:OXB65538 PGX65440:PGX65538 PQT65440:PQT65538 QAP65440:QAP65538 QKL65440:QKL65538 QUH65440:QUH65538 RED65440:RED65538 RNZ65440:RNZ65538 RXV65440:RXV65538 SHR65440:SHR65538 SRN65440:SRN65538 TBJ65440:TBJ65538 TLF65440:TLF65538 TVB65440:TVB65538 UEX65440:UEX65538 UOT65440:UOT65538 UYP65440:UYP65538 VIL65440:VIL65538 VSH65440:VSH65538 WCD65440:WCD65538 WLZ65440:WLZ65538 WVV65440:WVV65538 N130976:N131074 JJ130976:JJ131074 TF130976:TF131074 ADB130976:ADB131074 AMX130976:AMX131074 AWT130976:AWT131074 BGP130976:BGP131074 BQL130976:BQL131074 CAH130976:CAH131074 CKD130976:CKD131074 CTZ130976:CTZ131074 DDV130976:DDV131074 DNR130976:DNR131074 DXN130976:DXN131074 EHJ130976:EHJ131074 ERF130976:ERF131074 FBB130976:FBB131074 FKX130976:FKX131074 FUT130976:FUT131074 GEP130976:GEP131074 GOL130976:GOL131074 GYH130976:GYH131074 HID130976:HID131074 HRZ130976:HRZ131074 IBV130976:IBV131074 ILR130976:ILR131074 IVN130976:IVN131074 JFJ130976:JFJ131074 JPF130976:JPF131074 JZB130976:JZB131074 KIX130976:KIX131074 KST130976:KST131074 LCP130976:LCP131074 LML130976:LML131074 LWH130976:LWH131074 MGD130976:MGD131074 MPZ130976:MPZ131074 MZV130976:MZV131074 NJR130976:NJR131074 NTN130976:NTN131074 ODJ130976:ODJ131074 ONF130976:ONF131074 OXB130976:OXB131074 PGX130976:PGX131074 PQT130976:PQT131074 QAP130976:QAP131074 QKL130976:QKL131074 QUH130976:QUH131074 RED130976:RED131074 RNZ130976:RNZ131074 RXV130976:RXV131074 SHR130976:SHR131074 SRN130976:SRN131074 TBJ130976:TBJ131074 TLF130976:TLF131074 TVB130976:TVB131074 UEX130976:UEX131074 UOT130976:UOT131074 UYP130976:UYP131074 VIL130976:VIL131074 VSH130976:VSH131074 WCD130976:WCD131074 WLZ130976:WLZ131074 WVV130976:WVV131074 N196512:N196610 JJ196512:JJ196610 TF196512:TF196610 ADB196512:ADB196610 AMX196512:AMX196610 AWT196512:AWT196610 BGP196512:BGP196610 BQL196512:BQL196610 CAH196512:CAH196610 CKD196512:CKD196610 CTZ196512:CTZ196610 DDV196512:DDV196610 DNR196512:DNR196610 DXN196512:DXN196610 EHJ196512:EHJ196610 ERF196512:ERF196610 FBB196512:FBB196610 FKX196512:FKX196610 FUT196512:FUT196610 GEP196512:GEP196610 GOL196512:GOL196610 GYH196512:GYH196610 HID196512:HID196610 HRZ196512:HRZ196610 IBV196512:IBV196610 ILR196512:ILR196610 IVN196512:IVN196610 JFJ196512:JFJ196610 JPF196512:JPF196610 JZB196512:JZB196610 KIX196512:KIX196610 KST196512:KST196610 LCP196512:LCP196610 LML196512:LML196610 LWH196512:LWH196610 MGD196512:MGD196610 MPZ196512:MPZ196610 MZV196512:MZV196610 NJR196512:NJR196610 NTN196512:NTN196610 ODJ196512:ODJ196610 ONF196512:ONF196610 OXB196512:OXB196610 PGX196512:PGX196610 PQT196512:PQT196610 QAP196512:QAP196610 QKL196512:QKL196610 QUH196512:QUH196610 RED196512:RED196610 RNZ196512:RNZ196610 RXV196512:RXV196610 SHR196512:SHR196610 SRN196512:SRN196610 TBJ196512:TBJ196610 TLF196512:TLF196610 TVB196512:TVB196610 UEX196512:UEX196610 UOT196512:UOT196610 UYP196512:UYP196610 VIL196512:VIL196610 VSH196512:VSH196610 WCD196512:WCD196610 WLZ196512:WLZ196610 WVV196512:WVV196610 N262048:N262146 JJ262048:JJ262146 TF262048:TF262146 ADB262048:ADB262146 AMX262048:AMX262146 AWT262048:AWT262146 BGP262048:BGP262146 BQL262048:BQL262146 CAH262048:CAH262146 CKD262048:CKD262146 CTZ262048:CTZ262146 DDV262048:DDV262146 DNR262048:DNR262146 DXN262048:DXN262146 EHJ262048:EHJ262146 ERF262048:ERF262146 FBB262048:FBB262146 FKX262048:FKX262146 FUT262048:FUT262146 GEP262048:GEP262146 GOL262048:GOL262146 GYH262048:GYH262146 HID262048:HID262146 HRZ262048:HRZ262146 IBV262048:IBV262146 ILR262048:ILR262146 IVN262048:IVN262146 JFJ262048:JFJ262146 JPF262048:JPF262146 JZB262048:JZB262146 KIX262048:KIX262146 KST262048:KST262146 LCP262048:LCP262146 LML262048:LML262146 LWH262048:LWH262146 MGD262048:MGD262146 MPZ262048:MPZ262146 MZV262048:MZV262146 NJR262048:NJR262146 NTN262048:NTN262146 ODJ262048:ODJ262146 ONF262048:ONF262146 OXB262048:OXB262146 PGX262048:PGX262146 PQT262048:PQT262146 QAP262048:QAP262146 QKL262048:QKL262146 QUH262048:QUH262146 RED262048:RED262146 RNZ262048:RNZ262146 RXV262048:RXV262146 SHR262048:SHR262146 SRN262048:SRN262146 TBJ262048:TBJ262146 TLF262048:TLF262146 TVB262048:TVB262146 UEX262048:UEX262146 UOT262048:UOT262146 UYP262048:UYP262146 VIL262048:VIL262146 VSH262048:VSH262146 WCD262048:WCD262146 WLZ262048:WLZ262146 WVV262048:WVV262146 N327584:N327682 JJ327584:JJ327682 TF327584:TF327682 ADB327584:ADB327682 AMX327584:AMX327682 AWT327584:AWT327682 BGP327584:BGP327682 BQL327584:BQL327682 CAH327584:CAH327682 CKD327584:CKD327682 CTZ327584:CTZ327682 DDV327584:DDV327682 DNR327584:DNR327682 DXN327584:DXN327682 EHJ327584:EHJ327682 ERF327584:ERF327682 FBB327584:FBB327682 FKX327584:FKX327682 FUT327584:FUT327682 GEP327584:GEP327682 GOL327584:GOL327682 GYH327584:GYH327682 HID327584:HID327682 HRZ327584:HRZ327682 IBV327584:IBV327682 ILR327584:ILR327682 IVN327584:IVN327682 JFJ327584:JFJ327682 JPF327584:JPF327682 JZB327584:JZB327682 KIX327584:KIX327682 KST327584:KST327682 LCP327584:LCP327682 LML327584:LML327682 LWH327584:LWH327682 MGD327584:MGD327682 MPZ327584:MPZ327682 MZV327584:MZV327682 NJR327584:NJR327682 NTN327584:NTN327682 ODJ327584:ODJ327682 ONF327584:ONF327682 OXB327584:OXB327682 PGX327584:PGX327682 PQT327584:PQT327682 QAP327584:QAP327682 QKL327584:QKL327682 QUH327584:QUH327682 RED327584:RED327682 RNZ327584:RNZ327682 RXV327584:RXV327682 SHR327584:SHR327682 SRN327584:SRN327682 TBJ327584:TBJ327682 TLF327584:TLF327682 TVB327584:TVB327682 UEX327584:UEX327682 UOT327584:UOT327682 UYP327584:UYP327682 VIL327584:VIL327682 VSH327584:VSH327682 WCD327584:WCD327682 WLZ327584:WLZ327682 WVV327584:WVV327682 N393120:N393218 JJ393120:JJ393218 TF393120:TF393218 ADB393120:ADB393218 AMX393120:AMX393218 AWT393120:AWT393218 BGP393120:BGP393218 BQL393120:BQL393218 CAH393120:CAH393218 CKD393120:CKD393218 CTZ393120:CTZ393218 DDV393120:DDV393218 DNR393120:DNR393218 DXN393120:DXN393218 EHJ393120:EHJ393218 ERF393120:ERF393218 FBB393120:FBB393218 FKX393120:FKX393218 FUT393120:FUT393218 GEP393120:GEP393218 GOL393120:GOL393218 GYH393120:GYH393218 HID393120:HID393218 HRZ393120:HRZ393218 IBV393120:IBV393218 ILR393120:ILR393218 IVN393120:IVN393218 JFJ393120:JFJ393218 JPF393120:JPF393218 JZB393120:JZB393218 KIX393120:KIX393218 KST393120:KST393218 LCP393120:LCP393218 LML393120:LML393218 LWH393120:LWH393218 MGD393120:MGD393218 MPZ393120:MPZ393218 MZV393120:MZV393218 NJR393120:NJR393218 NTN393120:NTN393218 ODJ393120:ODJ393218 ONF393120:ONF393218 OXB393120:OXB393218 PGX393120:PGX393218 PQT393120:PQT393218 QAP393120:QAP393218 QKL393120:QKL393218 QUH393120:QUH393218 RED393120:RED393218 RNZ393120:RNZ393218 RXV393120:RXV393218 SHR393120:SHR393218 SRN393120:SRN393218 TBJ393120:TBJ393218 TLF393120:TLF393218 TVB393120:TVB393218 UEX393120:UEX393218 UOT393120:UOT393218 UYP393120:UYP393218 VIL393120:VIL393218 VSH393120:VSH393218 WCD393120:WCD393218 WLZ393120:WLZ393218 WVV393120:WVV393218 N458656:N458754 JJ458656:JJ458754 TF458656:TF458754 ADB458656:ADB458754 AMX458656:AMX458754 AWT458656:AWT458754 BGP458656:BGP458754 BQL458656:BQL458754 CAH458656:CAH458754 CKD458656:CKD458754 CTZ458656:CTZ458754 DDV458656:DDV458754 DNR458656:DNR458754 DXN458656:DXN458754 EHJ458656:EHJ458754 ERF458656:ERF458754 FBB458656:FBB458754 FKX458656:FKX458754 FUT458656:FUT458754 GEP458656:GEP458754 GOL458656:GOL458754 GYH458656:GYH458754 HID458656:HID458754 HRZ458656:HRZ458754 IBV458656:IBV458754 ILR458656:ILR458754 IVN458656:IVN458754 JFJ458656:JFJ458754 JPF458656:JPF458754 JZB458656:JZB458754 KIX458656:KIX458754 KST458656:KST458754 LCP458656:LCP458754 LML458656:LML458754 LWH458656:LWH458754 MGD458656:MGD458754 MPZ458656:MPZ458754 MZV458656:MZV458754 NJR458656:NJR458754 NTN458656:NTN458754 ODJ458656:ODJ458754 ONF458656:ONF458754 OXB458656:OXB458754 PGX458656:PGX458754 PQT458656:PQT458754 QAP458656:QAP458754 QKL458656:QKL458754 QUH458656:QUH458754 RED458656:RED458754 RNZ458656:RNZ458754 RXV458656:RXV458754 SHR458656:SHR458754 SRN458656:SRN458754 TBJ458656:TBJ458754 TLF458656:TLF458754 TVB458656:TVB458754 UEX458656:UEX458754 UOT458656:UOT458754 UYP458656:UYP458754 VIL458656:VIL458754 VSH458656:VSH458754 WCD458656:WCD458754 WLZ458656:WLZ458754 WVV458656:WVV458754 N524192:N524290 JJ524192:JJ524290 TF524192:TF524290 ADB524192:ADB524290 AMX524192:AMX524290 AWT524192:AWT524290 BGP524192:BGP524290 BQL524192:BQL524290 CAH524192:CAH524290 CKD524192:CKD524290 CTZ524192:CTZ524290 DDV524192:DDV524290 DNR524192:DNR524290 DXN524192:DXN524290 EHJ524192:EHJ524290 ERF524192:ERF524290 FBB524192:FBB524290 FKX524192:FKX524290 FUT524192:FUT524290 GEP524192:GEP524290 GOL524192:GOL524290 GYH524192:GYH524290 HID524192:HID524290 HRZ524192:HRZ524290 IBV524192:IBV524290 ILR524192:ILR524290 IVN524192:IVN524290 JFJ524192:JFJ524290 JPF524192:JPF524290 JZB524192:JZB524290 KIX524192:KIX524290 KST524192:KST524290 LCP524192:LCP524290 LML524192:LML524290 LWH524192:LWH524290 MGD524192:MGD524290 MPZ524192:MPZ524290 MZV524192:MZV524290 NJR524192:NJR524290 NTN524192:NTN524290 ODJ524192:ODJ524290 ONF524192:ONF524290 OXB524192:OXB524290 PGX524192:PGX524290 PQT524192:PQT524290 QAP524192:QAP524290 QKL524192:QKL524290 QUH524192:QUH524290 RED524192:RED524290 RNZ524192:RNZ524290 RXV524192:RXV524290 SHR524192:SHR524290 SRN524192:SRN524290 TBJ524192:TBJ524290 TLF524192:TLF524290 TVB524192:TVB524290 UEX524192:UEX524290 UOT524192:UOT524290 UYP524192:UYP524290 VIL524192:VIL524290 VSH524192:VSH524290 WCD524192:WCD524290 WLZ524192:WLZ524290 WVV524192:WVV524290 N589728:N589826 JJ589728:JJ589826 TF589728:TF589826 ADB589728:ADB589826 AMX589728:AMX589826 AWT589728:AWT589826 BGP589728:BGP589826 BQL589728:BQL589826 CAH589728:CAH589826 CKD589728:CKD589826 CTZ589728:CTZ589826 DDV589728:DDV589826 DNR589728:DNR589826 DXN589728:DXN589826 EHJ589728:EHJ589826 ERF589728:ERF589826 FBB589728:FBB589826 FKX589728:FKX589826 FUT589728:FUT589826 GEP589728:GEP589826 GOL589728:GOL589826 GYH589728:GYH589826 HID589728:HID589826 HRZ589728:HRZ589826 IBV589728:IBV589826 ILR589728:ILR589826 IVN589728:IVN589826 JFJ589728:JFJ589826 JPF589728:JPF589826 JZB589728:JZB589826 KIX589728:KIX589826 KST589728:KST589826 LCP589728:LCP589826 LML589728:LML589826 LWH589728:LWH589826 MGD589728:MGD589826 MPZ589728:MPZ589826 MZV589728:MZV589826 NJR589728:NJR589826 NTN589728:NTN589826 ODJ589728:ODJ589826 ONF589728:ONF589826 OXB589728:OXB589826 PGX589728:PGX589826 PQT589728:PQT589826 QAP589728:QAP589826 QKL589728:QKL589826 QUH589728:QUH589826 RED589728:RED589826 RNZ589728:RNZ589826 RXV589728:RXV589826 SHR589728:SHR589826 SRN589728:SRN589826 TBJ589728:TBJ589826 TLF589728:TLF589826 TVB589728:TVB589826 UEX589728:UEX589826 UOT589728:UOT589826 UYP589728:UYP589826 VIL589728:VIL589826 VSH589728:VSH589826 WCD589728:WCD589826 WLZ589728:WLZ589826 WVV589728:WVV589826 N655264:N655362 JJ655264:JJ655362 TF655264:TF655362 ADB655264:ADB655362 AMX655264:AMX655362 AWT655264:AWT655362 BGP655264:BGP655362 BQL655264:BQL655362 CAH655264:CAH655362 CKD655264:CKD655362 CTZ655264:CTZ655362 DDV655264:DDV655362 DNR655264:DNR655362 DXN655264:DXN655362 EHJ655264:EHJ655362 ERF655264:ERF655362 FBB655264:FBB655362 FKX655264:FKX655362 FUT655264:FUT655362 GEP655264:GEP655362 GOL655264:GOL655362 GYH655264:GYH655362 HID655264:HID655362 HRZ655264:HRZ655362 IBV655264:IBV655362 ILR655264:ILR655362 IVN655264:IVN655362 JFJ655264:JFJ655362 JPF655264:JPF655362 JZB655264:JZB655362 KIX655264:KIX655362 KST655264:KST655362 LCP655264:LCP655362 LML655264:LML655362 LWH655264:LWH655362 MGD655264:MGD655362 MPZ655264:MPZ655362 MZV655264:MZV655362 NJR655264:NJR655362 NTN655264:NTN655362 ODJ655264:ODJ655362 ONF655264:ONF655362 OXB655264:OXB655362 PGX655264:PGX655362 PQT655264:PQT655362 QAP655264:QAP655362 QKL655264:QKL655362 QUH655264:QUH655362 RED655264:RED655362 RNZ655264:RNZ655362 RXV655264:RXV655362 SHR655264:SHR655362 SRN655264:SRN655362 TBJ655264:TBJ655362 TLF655264:TLF655362 TVB655264:TVB655362 UEX655264:UEX655362 UOT655264:UOT655362 UYP655264:UYP655362 VIL655264:VIL655362 VSH655264:VSH655362 WCD655264:WCD655362 WLZ655264:WLZ655362 WVV655264:WVV655362 N720800:N720898 JJ720800:JJ720898 TF720800:TF720898 ADB720800:ADB720898 AMX720800:AMX720898 AWT720800:AWT720898 BGP720800:BGP720898 BQL720800:BQL720898 CAH720800:CAH720898 CKD720800:CKD720898 CTZ720800:CTZ720898 DDV720800:DDV720898 DNR720800:DNR720898 DXN720800:DXN720898 EHJ720800:EHJ720898 ERF720800:ERF720898 FBB720800:FBB720898 FKX720800:FKX720898 FUT720800:FUT720898 GEP720800:GEP720898 GOL720800:GOL720898 GYH720800:GYH720898 HID720800:HID720898 HRZ720800:HRZ720898 IBV720800:IBV720898 ILR720800:ILR720898 IVN720800:IVN720898 JFJ720800:JFJ720898 JPF720800:JPF720898 JZB720800:JZB720898 KIX720800:KIX720898 KST720800:KST720898 LCP720800:LCP720898 LML720800:LML720898 LWH720800:LWH720898 MGD720800:MGD720898 MPZ720800:MPZ720898 MZV720800:MZV720898 NJR720800:NJR720898 NTN720800:NTN720898 ODJ720800:ODJ720898 ONF720800:ONF720898 OXB720800:OXB720898 PGX720800:PGX720898 PQT720800:PQT720898 QAP720800:QAP720898 QKL720800:QKL720898 QUH720800:QUH720898 RED720800:RED720898 RNZ720800:RNZ720898 RXV720800:RXV720898 SHR720800:SHR720898 SRN720800:SRN720898 TBJ720800:TBJ720898 TLF720800:TLF720898 TVB720800:TVB720898 UEX720800:UEX720898 UOT720800:UOT720898 UYP720800:UYP720898 VIL720800:VIL720898 VSH720800:VSH720898 WCD720800:WCD720898 WLZ720800:WLZ720898 WVV720800:WVV720898 N786336:N786434 JJ786336:JJ786434 TF786336:TF786434 ADB786336:ADB786434 AMX786336:AMX786434 AWT786336:AWT786434 BGP786336:BGP786434 BQL786336:BQL786434 CAH786336:CAH786434 CKD786336:CKD786434 CTZ786336:CTZ786434 DDV786336:DDV786434 DNR786336:DNR786434 DXN786336:DXN786434 EHJ786336:EHJ786434 ERF786336:ERF786434 FBB786336:FBB786434 FKX786336:FKX786434 FUT786336:FUT786434 GEP786336:GEP786434 GOL786336:GOL786434 GYH786336:GYH786434 HID786336:HID786434 HRZ786336:HRZ786434 IBV786336:IBV786434 ILR786336:ILR786434 IVN786336:IVN786434 JFJ786336:JFJ786434 JPF786336:JPF786434 JZB786336:JZB786434 KIX786336:KIX786434 KST786336:KST786434 LCP786336:LCP786434 LML786336:LML786434 LWH786336:LWH786434 MGD786336:MGD786434 MPZ786336:MPZ786434 MZV786336:MZV786434 NJR786336:NJR786434 NTN786336:NTN786434 ODJ786336:ODJ786434 ONF786336:ONF786434 OXB786336:OXB786434 PGX786336:PGX786434 PQT786336:PQT786434 QAP786336:QAP786434 QKL786336:QKL786434 QUH786336:QUH786434 RED786336:RED786434 RNZ786336:RNZ786434 RXV786336:RXV786434 SHR786336:SHR786434 SRN786336:SRN786434 TBJ786336:TBJ786434 TLF786336:TLF786434 TVB786336:TVB786434 UEX786336:UEX786434 UOT786336:UOT786434 UYP786336:UYP786434 VIL786336:VIL786434 VSH786336:VSH786434 WCD786336:WCD786434 WLZ786336:WLZ786434 WVV786336:WVV786434 N851872:N851970 JJ851872:JJ851970 TF851872:TF851970 ADB851872:ADB851970 AMX851872:AMX851970 AWT851872:AWT851970 BGP851872:BGP851970 BQL851872:BQL851970 CAH851872:CAH851970 CKD851872:CKD851970 CTZ851872:CTZ851970 DDV851872:DDV851970 DNR851872:DNR851970 DXN851872:DXN851970 EHJ851872:EHJ851970 ERF851872:ERF851970 FBB851872:FBB851970 FKX851872:FKX851970 FUT851872:FUT851970 GEP851872:GEP851970 GOL851872:GOL851970 GYH851872:GYH851970 HID851872:HID851970 HRZ851872:HRZ851970 IBV851872:IBV851970 ILR851872:ILR851970 IVN851872:IVN851970 JFJ851872:JFJ851970 JPF851872:JPF851970 JZB851872:JZB851970 KIX851872:KIX851970 KST851872:KST851970 LCP851872:LCP851970 LML851872:LML851970 LWH851872:LWH851970 MGD851872:MGD851970 MPZ851872:MPZ851970 MZV851872:MZV851970 NJR851872:NJR851970 NTN851872:NTN851970 ODJ851872:ODJ851970 ONF851872:ONF851970 OXB851872:OXB851970 PGX851872:PGX851970 PQT851872:PQT851970 QAP851872:QAP851970 QKL851872:QKL851970 QUH851872:QUH851970 RED851872:RED851970 RNZ851872:RNZ851970 RXV851872:RXV851970 SHR851872:SHR851970 SRN851872:SRN851970 TBJ851872:TBJ851970 TLF851872:TLF851970 TVB851872:TVB851970 UEX851872:UEX851970 UOT851872:UOT851970 UYP851872:UYP851970 VIL851872:VIL851970 VSH851872:VSH851970 WCD851872:WCD851970 WLZ851872:WLZ851970 WVV851872:WVV851970 N917408:N917506 JJ917408:JJ917506 TF917408:TF917506 ADB917408:ADB917506 AMX917408:AMX917506 AWT917408:AWT917506 BGP917408:BGP917506 BQL917408:BQL917506 CAH917408:CAH917506 CKD917408:CKD917506 CTZ917408:CTZ917506 DDV917408:DDV917506 DNR917408:DNR917506 DXN917408:DXN917506 EHJ917408:EHJ917506 ERF917408:ERF917506 FBB917408:FBB917506 FKX917408:FKX917506 FUT917408:FUT917506 GEP917408:GEP917506 GOL917408:GOL917506 GYH917408:GYH917506 HID917408:HID917506 HRZ917408:HRZ917506 IBV917408:IBV917506 ILR917408:ILR917506 IVN917408:IVN917506 JFJ917408:JFJ917506 JPF917408:JPF917506 JZB917408:JZB917506 KIX917408:KIX917506 KST917408:KST917506 LCP917408:LCP917506 LML917408:LML917506 LWH917408:LWH917506 MGD917408:MGD917506 MPZ917408:MPZ917506 MZV917408:MZV917506 NJR917408:NJR917506 NTN917408:NTN917506 ODJ917408:ODJ917506 ONF917408:ONF917506 OXB917408:OXB917506 PGX917408:PGX917506 PQT917408:PQT917506 QAP917408:QAP917506 QKL917408:QKL917506 QUH917408:QUH917506 RED917408:RED917506 RNZ917408:RNZ917506 RXV917408:RXV917506 SHR917408:SHR917506 SRN917408:SRN917506 TBJ917408:TBJ917506 TLF917408:TLF917506 TVB917408:TVB917506 UEX917408:UEX917506 UOT917408:UOT917506 UYP917408:UYP917506 VIL917408:VIL917506 VSH917408:VSH917506 WCD917408:WCD917506 WLZ917408:WLZ917506 WVV917408:WVV917506 N982944:N983042 JJ982944:JJ983042 TF982944:TF983042 ADB982944:ADB983042 AMX982944:AMX983042 AWT982944:AWT983042 BGP982944:BGP983042 BQL982944:BQL983042 CAH982944:CAH983042 CKD982944:CKD983042 CTZ982944:CTZ983042 DDV982944:DDV983042 DNR982944:DNR983042 DXN982944:DXN983042 EHJ982944:EHJ983042 ERF982944:ERF983042 FBB982944:FBB983042 FKX982944:FKX983042 FUT982944:FUT983042 GEP982944:GEP983042 GOL982944:GOL983042 GYH982944:GYH983042 HID982944:HID983042 HRZ982944:HRZ983042 IBV982944:IBV983042 ILR982944:ILR983042 IVN982944:IVN983042 JFJ982944:JFJ983042 JPF982944:JPF983042 JZB982944:JZB983042 KIX982944:KIX983042 KST982944:KST983042 LCP982944:LCP983042 LML982944:LML983042 LWH982944:LWH983042 MGD982944:MGD983042 MPZ982944:MPZ983042 MZV982944:MZV983042 NJR982944:NJR983042 NTN982944:NTN983042 ODJ982944:ODJ983042 ONF982944:ONF983042 OXB982944:OXB983042 PGX982944:PGX983042 PQT982944:PQT983042 QAP982944:QAP983042 QKL982944:QKL983042 QUH982944:QUH983042 RED982944:RED983042 RNZ982944:RNZ983042 RXV982944:RXV983042 SHR982944:SHR983042 SRN982944:SRN983042 TBJ982944:TBJ983042 TLF982944:TLF983042 TVB982944:TVB983042 UEX982944:UEX983042 UOT982944:UOT983042 UYP982944:UYP983042 VIL982944:VIL983042 VSH982944:VSH983042 WCD982944:WCD983042 WLZ982944:WLZ983042 WVV982944:WVV983042" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 JK2 TG2 ADC2 AMY2 AWU2 BGQ2 BQM2 CAI2 CKE2 CUA2 DDW2 DNS2 DXO2 EHK2 ERG2 FBC2 FKY2 FUU2 GEQ2 GOM2 GYI2 HIE2 HSA2 IBW2 ILS2 IVO2 JFK2 JPG2 JZC2 KIY2 KSU2 LCQ2 LMM2 LWI2 MGE2 MQA2 MZW2 NJS2 NTO2 ODK2 ONG2 OXC2 PGY2 PQU2 QAQ2 QKM2 QUI2 REE2 ROA2 RXW2 SHS2 SRO2 TBK2 TLG2 TVC2 UEY2 UOU2 UYQ2 VIM2 VSI2 WCE2 WMA2 WVW2 O65440:O65538 JK65440:JK65538 TG65440:TG65538 ADC65440:ADC65538 AMY65440:AMY65538 AWU65440:AWU65538 BGQ65440:BGQ65538 BQM65440:BQM65538 CAI65440:CAI65538 CKE65440:CKE65538 CUA65440:CUA65538 DDW65440:DDW65538 DNS65440:DNS65538 DXO65440:DXO65538 EHK65440:EHK65538 ERG65440:ERG65538 FBC65440:FBC65538 FKY65440:FKY65538 FUU65440:FUU65538 GEQ65440:GEQ65538 GOM65440:GOM65538 GYI65440:GYI65538 HIE65440:HIE65538 HSA65440:HSA65538 IBW65440:IBW65538 ILS65440:ILS65538 IVO65440:IVO65538 JFK65440:JFK65538 JPG65440:JPG65538 JZC65440:JZC65538 KIY65440:KIY65538 KSU65440:KSU65538 LCQ65440:LCQ65538 LMM65440:LMM65538 LWI65440:LWI65538 MGE65440:MGE65538 MQA65440:MQA65538 MZW65440:MZW65538 NJS65440:NJS65538 NTO65440:NTO65538 ODK65440:ODK65538 ONG65440:ONG65538 OXC65440:OXC65538 PGY65440:PGY65538 PQU65440:PQU65538 QAQ65440:QAQ65538 QKM65440:QKM65538 QUI65440:QUI65538 REE65440:REE65538 ROA65440:ROA65538 RXW65440:RXW65538 SHS65440:SHS65538 SRO65440:SRO65538 TBK65440:TBK65538 TLG65440:TLG65538 TVC65440:TVC65538 UEY65440:UEY65538 UOU65440:UOU65538 UYQ65440:UYQ65538 VIM65440:VIM65538 VSI65440:VSI65538 WCE65440:WCE65538 WMA65440:WMA65538 WVW65440:WVW65538 O130976:O131074 JK130976:JK131074 TG130976:TG131074 ADC130976:ADC131074 AMY130976:AMY131074 AWU130976:AWU131074 BGQ130976:BGQ131074 BQM130976:BQM131074 CAI130976:CAI131074 CKE130976:CKE131074 CUA130976:CUA131074 DDW130976:DDW131074 DNS130976:DNS131074 DXO130976:DXO131074 EHK130976:EHK131074 ERG130976:ERG131074 FBC130976:FBC131074 FKY130976:FKY131074 FUU130976:FUU131074 GEQ130976:GEQ131074 GOM130976:GOM131074 GYI130976:GYI131074 HIE130976:HIE131074 HSA130976:HSA131074 IBW130976:IBW131074 ILS130976:ILS131074 IVO130976:IVO131074 JFK130976:JFK131074 JPG130976:JPG131074 JZC130976:JZC131074 KIY130976:KIY131074 KSU130976:KSU131074 LCQ130976:LCQ131074 LMM130976:LMM131074 LWI130976:LWI131074 MGE130976:MGE131074 MQA130976:MQA131074 MZW130976:MZW131074 NJS130976:NJS131074 NTO130976:NTO131074 ODK130976:ODK131074 ONG130976:ONG131074 OXC130976:OXC131074 PGY130976:PGY131074 PQU130976:PQU131074 QAQ130976:QAQ131074 QKM130976:QKM131074 QUI130976:QUI131074 REE130976:REE131074 ROA130976:ROA131074 RXW130976:RXW131074 SHS130976:SHS131074 SRO130976:SRO131074 TBK130976:TBK131074 TLG130976:TLG131074 TVC130976:TVC131074 UEY130976:UEY131074 UOU130976:UOU131074 UYQ130976:UYQ131074 VIM130976:VIM131074 VSI130976:VSI131074 WCE130976:WCE131074 WMA130976:WMA131074 WVW130976:WVW131074 O196512:O196610 JK196512:JK196610 TG196512:TG196610 ADC196512:ADC196610 AMY196512:AMY196610 AWU196512:AWU196610 BGQ196512:BGQ196610 BQM196512:BQM196610 CAI196512:CAI196610 CKE196512:CKE196610 CUA196512:CUA196610 DDW196512:DDW196610 DNS196512:DNS196610 DXO196512:DXO196610 EHK196512:EHK196610 ERG196512:ERG196610 FBC196512:FBC196610 FKY196512:FKY196610 FUU196512:FUU196610 GEQ196512:GEQ196610 GOM196512:GOM196610 GYI196512:GYI196610 HIE196512:HIE196610 HSA196512:HSA196610 IBW196512:IBW196610 ILS196512:ILS196610 IVO196512:IVO196610 JFK196512:JFK196610 JPG196512:JPG196610 JZC196512:JZC196610 KIY196512:KIY196610 KSU196512:KSU196610 LCQ196512:LCQ196610 LMM196512:LMM196610 LWI196512:LWI196610 MGE196512:MGE196610 MQA196512:MQA196610 MZW196512:MZW196610 NJS196512:NJS196610 NTO196512:NTO196610 ODK196512:ODK196610 ONG196512:ONG196610 OXC196512:OXC196610 PGY196512:PGY196610 PQU196512:PQU196610 QAQ196512:QAQ196610 QKM196512:QKM196610 QUI196512:QUI196610 REE196512:REE196610 ROA196512:ROA196610 RXW196512:RXW196610 SHS196512:SHS196610 SRO196512:SRO196610 TBK196512:TBK196610 TLG196512:TLG196610 TVC196512:TVC196610 UEY196512:UEY196610 UOU196512:UOU196610 UYQ196512:UYQ196610 VIM196512:VIM196610 VSI196512:VSI196610 WCE196512:WCE196610 WMA196512:WMA196610 WVW196512:WVW196610 O262048:O262146 JK262048:JK262146 TG262048:TG262146 ADC262048:ADC262146 AMY262048:AMY262146 AWU262048:AWU262146 BGQ262048:BGQ262146 BQM262048:BQM262146 CAI262048:CAI262146 CKE262048:CKE262146 CUA262048:CUA262146 DDW262048:DDW262146 DNS262048:DNS262146 DXO262048:DXO262146 EHK262048:EHK262146 ERG262048:ERG262146 FBC262048:FBC262146 FKY262048:FKY262146 FUU262048:FUU262146 GEQ262048:GEQ262146 GOM262048:GOM262146 GYI262048:GYI262146 HIE262048:HIE262146 HSA262048:HSA262146 IBW262048:IBW262146 ILS262048:ILS262146 IVO262048:IVO262146 JFK262048:JFK262146 JPG262048:JPG262146 JZC262048:JZC262146 KIY262048:KIY262146 KSU262048:KSU262146 LCQ262048:LCQ262146 LMM262048:LMM262146 LWI262048:LWI262146 MGE262048:MGE262146 MQA262048:MQA262146 MZW262048:MZW262146 NJS262048:NJS262146 NTO262048:NTO262146 ODK262048:ODK262146 ONG262048:ONG262146 OXC262048:OXC262146 PGY262048:PGY262146 PQU262048:PQU262146 QAQ262048:QAQ262146 QKM262048:QKM262146 QUI262048:QUI262146 REE262048:REE262146 ROA262048:ROA262146 RXW262048:RXW262146 SHS262048:SHS262146 SRO262048:SRO262146 TBK262048:TBK262146 TLG262048:TLG262146 TVC262048:TVC262146 UEY262048:UEY262146 UOU262048:UOU262146 UYQ262048:UYQ262146 VIM262048:VIM262146 VSI262048:VSI262146 WCE262048:WCE262146 WMA262048:WMA262146 WVW262048:WVW262146 O327584:O327682 JK327584:JK327682 TG327584:TG327682 ADC327584:ADC327682 AMY327584:AMY327682 AWU327584:AWU327682 BGQ327584:BGQ327682 BQM327584:BQM327682 CAI327584:CAI327682 CKE327584:CKE327682 CUA327584:CUA327682 DDW327584:DDW327682 DNS327584:DNS327682 DXO327584:DXO327682 EHK327584:EHK327682 ERG327584:ERG327682 FBC327584:FBC327682 FKY327584:FKY327682 FUU327584:FUU327682 GEQ327584:GEQ327682 GOM327584:GOM327682 GYI327584:GYI327682 HIE327584:HIE327682 HSA327584:HSA327682 IBW327584:IBW327682 ILS327584:ILS327682 IVO327584:IVO327682 JFK327584:JFK327682 JPG327584:JPG327682 JZC327584:JZC327682 KIY327584:KIY327682 KSU327584:KSU327682 LCQ327584:LCQ327682 LMM327584:LMM327682 LWI327584:LWI327682 MGE327584:MGE327682 MQA327584:MQA327682 MZW327584:MZW327682 NJS327584:NJS327682 NTO327584:NTO327682 ODK327584:ODK327682 ONG327584:ONG327682 OXC327584:OXC327682 PGY327584:PGY327682 PQU327584:PQU327682 QAQ327584:QAQ327682 QKM327584:QKM327682 QUI327584:QUI327682 REE327584:REE327682 ROA327584:ROA327682 RXW327584:RXW327682 SHS327584:SHS327682 SRO327584:SRO327682 TBK327584:TBK327682 TLG327584:TLG327682 TVC327584:TVC327682 UEY327584:UEY327682 UOU327584:UOU327682 UYQ327584:UYQ327682 VIM327584:VIM327682 VSI327584:VSI327682 WCE327584:WCE327682 WMA327584:WMA327682 WVW327584:WVW327682 O393120:O393218 JK393120:JK393218 TG393120:TG393218 ADC393120:ADC393218 AMY393120:AMY393218 AWU393120:AWU393218 BGQ393120:BGQ393218 BQM393120:BQM393218 CAI393120:CAI393218 CKE393120:CKE393218 CUA393120:CUA393218 DDW393120:DDW393218 DNS393120:DNS393218 DXO393120:DXO393218 EHK393120:EHK393218 ERG393120:ERG393218 FBC393120:FBC393218 FKY393120:FKY393218 FUU393120:FUU393218 GEQ393120:GEQ393218 GOM393120:GOM393218 GYI393120:GYI393218 HIE393120:HIE393218 HSA393120:HSA393218 IBW393120:IBW393218 ILS393120:ILS393218 IVO393120:IVO393218 JFK393120:JFK393218 JPG393120:JPG393218 JZC393120:JZC393218 KIY393120:KIY393218 KSU393120:KSU393218 LCQ393120:LCQ393218 LMM393120:LMM393218 LWI393120:LWI393218 MGE393120:MGE393218 MQA393120:MQA393218 MZW393120:MZW393218 NJS393120:NJS393218 NTO393120:NTO393218 ODK393120:ODK393218 ONG393120:ONG393218 OXC393120:OXC393218 PGY393120:PGY393218 PQU393120:PQU393218 QAQ393120:QAQ393218 QKM393120:QKM393218 QUI393120:QUI393218 REE393120:REE393218 ROA393120:ROA393218 RXW393120:RXW393218 SHS393120:SHS393218 SRO393120:SRO393218 TBK393120:TBK393218 TLG393120:TLG393218 TVC393120:TVC393218 UEY393120:UEY393218 UOU393120:UOU393218 UYQ393120:UYQ393218 VIM393120:VIM393218 VSI393120:VSI393218 WCE393120:WCE393218 WMA393120:WMA393218 WVW393120:WVW393218 O458656:O458754 JK458656:JK458754 TG458656:TG458754 ADC458656:ADC458754 AMY458656:AMY458754 AWU458656:AWU458754 BGQ458656:BGQ458754 BQM458656:BQM458754 CAI458656:CAI458754 CKE458656:CKE458754 CUA458656:CUA458754 DDW458656:DDW458754 DNS458656:DNS458754 DXO458656:DXO458754 EHK458656:EHK458754 ERG458656:ERG458754 FBC458656:FBC458754 FKY458656:FKY458754 FUU458656:FUU458754 GEQ458656:GEQ458754 GOM458656:GOM458754 GYI458656:GYI458754 HIE458656:HIE458754 HSA458656:HSA458754 IBW458656:IBW458754 ILS458656:ILS458754 IVO458656:IVO458754 JFK458656:JFK458754 JPG458656:JPG458754 JZC458656:JZC458754 KIY458656:KIY458754 KSU458656:KSU458754 LCQ458656:LCQ458754 LMM458656:LMM458754 LWI458656:LWI458754 MGE458656:MGE458754 MQA458656:MQA458754 MZW458656:MZW458754 NJS458656:NJS458754 NTO458656:NTO458754 ODK458656:ODK458754 ONG458656:ONG458754 OXC458656:OXC458754 PGY458656:PGY458754 PQU458656:PQU458754 QAQ458656:QAQ458754 QKM458656:QKM458754 QUI458656:QUI458754 REE458656:REE458754 ROA458656:ROA458754 RXW458656:RXW458754 SHS458656:SHS458754 SRO458656:SRO458754 TBK458656:TBK458754 TLG458656:TLG458754 TVC458656:TVC458754 UEY458656:UEY458754 UOU458656:UOU458754 UYQ458656:UYQ458754 VIM458656:VIM458754 VSI458656:VSI458754 WCE458656:WCE458754 WMA458656:WMA458754 WVW458656:WVW458754 O524192:O524290 JK524192:JK524290 TG524192:TG524290 ADC524192:ADC524290 AMY524192:AMY524290 AWU524192:AWU524290 BGQ524192:BGQ524290 BQM524192:BQM524290 CAI524192:CAI524290 CKE524192:CKE524290 CUA524192:CUA524290 DDW524192:DDW524290 DNS524192:DNS524290 DXO524192:DXO524290 EHK524192:EHK524290 ERG524192:ERG524290 FBC524192:FBC524290 FKY524192:FKY524290 FUU524192:FUU524290 GEQ524192:GEQ524290 GOM524192:GOM524290 GYI524192:GYI524290 HIE524192:HIE524290 HSA524192:HSA524290 IBW524192:IBW524290 ILS524192:ILS524290 IVO524192:IVO524290 JFK524192:JFK524290 JPG524192:JPG524290 JZC524192:JZC524290 KIY524192:KIY524290 KSU524192:KSU524290 LCQ524192:LCQ524290 LMM524192:LMM524290 LWI524192:LWI524290 MGE524192:MGE524290 MQA524192:MQA524290 MZW524192:MZW524290 NJS524192:NJS524290 NTO524192:NTO524290 ODK524192:ODK524290 ONG524192:ONG524290 OXC524192:OXC524290 PGY524192:PGY524290 PQU524192:PQU524290 QAQ524192:QAQ524290 QKM524192:QKM524290 QUI524192:QUI524290 REE524192:REE524290 ROA524192:ROA524290 RXW524192:RXW524290 SHS524192:SHS524290 SRO524192:SRO524290 TBK524192:TBK524290 TLG524192:TLG524290 TVC524192:TVC524290 UEY524192:UEY524290 UOU524192:UOU524290 UYQ524192:UYQ524290 VIM524192:VIM524290 VSI524192:VSI524290 WCE524192:WCE524290 WMA524192:WMA524290 WVW524192:WVW524290 O589728:O589826 JK589728:JK589826 TG589728:TG589826 ADC589728:ADC589826 AMY589728:AMY589826 AWU589728:AWU589826 BGQ589728:BGQ589826 BQM589728:BQM589826 CAI589728:CAI589826 CKE589728:CKE589826 CUA589728:CUA589826 DDW589728:DDW589826 DNS589728:DNS589826 DXO589728:DXO589826 EHK589728:EHK589826 ERG589728:ERG589826 FBC589728:FBC589826 FKY589728:FKY589826 FUU589728:FUU589826 GEQ589728:GEQ589826 GOM589728:GOM589826 GYI589728:GYI589826 HIE589728:HIE589826 HSA589728:HSA589826 IBW589728:IBW589826 ILS589728:ILS589826 IVO589728:IVO589826 JFK589728:JFK589826 JPG589728:JPG589826 JZC589728:JZC589826 KIY589728:KIY589826 KSU589728:KSU589826 LCQ589728:LCQ589826 LMM589728:LMM589826 LWI589728:LWI589826 MGE589728:MGE589826 MQA589728:MQA589826 MZW589728:MZW589826 NJS589728:NJS589826 NTO589728:NTO589826 ODK589728:ODK589826 ONG589728:ONG589826 OXC589728:OXC589826 PGY589728:PGY589826 PQU589728:PQU589826 QAQ589728:QAQ589826 QKM589728:QKM589826 QUI589728:QUI589826 REE589728:REE589826 ROA589728:ROA589826 RXW589728:RXW589826 SHS589728:SHS589826 SRO589728:SRO589826 TBK589728:TBK589826 TLG589728:TLG589826 TVC589728:TVC589826 UEY589728:UEY589826 UOU589728:UOU589826 UYQ589728:UYQ589826 VIM589728:VIM589826 VSI589728:VSI589826 WCE589728:WCE589826 WMA589728:WMA589826 WVW589728:WVW589826 O655264:O655362 JK655264:JK655362 TG655264:TG655362 ADC655264:ADC655362 AMY655264:AMY655362 AWU655264:AWU655362 BGQ655264:BGQ655362 BQM655264:BQM655362 CAI655264:CAI655362 CKE655264:CKE655362 CUA655264:CUA655362 DDW655264:DDW655362 DNS655264:DNS655362 DXO655264:DXO655362 EHK655264:EHK655362 ERG655264:ERG655362 FBC655264:FBC655362 FKY655264:FKY655362 FUU655264:FUU655362 GEQ655264:GEQ655362 GOM655264:GOM655362 GYI655264:GYI655362 HIE655264:HIE655362 HSA655264:HSA655362 IBW655264:IBW655362 ILS655264:ILS655362 IVO655264:IVO655362 JFK655264:JFK655362 JPG655264:JPG655362 JZC655264:JZC655362 KIY655264:KIY655362 KSU655264:KSU655362 LCQ655264:LCQ655362 LMM655264:LMM655362 LWI655264:LWI655362 MGE655264:MGE655362 MQA655264:MQA655362 MZW655264:MZW655362 NJS655264:NJS655362 NTO655264:NTO655362 ODK655264:ODK655362 ONG655264:ONG655362 OXC655264:OXC655362 PGY655264:PGY655362 PQU655264:PQU655362 QAQ655264:QAQ655362 QKM655264:QKM655362 QUI655264:QUI655362 REE655264:REE655362 ROA655264:ROA655362 RXW655264:RXW655362 SHS655264:SHS655362 SRO655264:SRO655362 TBK655264:TBK655362 TLG655264:TLG655362 TVC655264:TVC655362 UEY655264:UEY655362 UOU655264:UOU655362 UYQ655264:UYQ655362 VIM655264:VIM655362 VSI655264:VSI655362 WCE655264:WCE655362 WMA655264:WMA655362 WVW655264:WVW655362 O720800:O720898 JK720800:JK720898 TG720800:TG720898 ADC720800:ADC720898 AMY720800:AMY720898 AWU720800:AWU720898 BGQ720800:BGQ720898 BQM720800:BQM720898 CAI720800:CAI720898 CKE720800:CKE720898 CUA720800:CUA720898 DDW720800:DDW720898 DNS720800:DNS720898 DXO720800:DXO720898 EHK720800:EHK720898 ERG720800:ERG720898 FBC720800:FBC720898 FKY720800:FKY720898 FUU720800:FUU720898 GEQ720800:GEQ720898 GOM720800:GOM720898 GYI720800:GYI720898 HIE720800:HIE720898 HSA720800:HSA720898 IBW720800:IBW720898 ILS720800:ILS720898 IVO720800:IVO720898 JFK720800:JFK720898 JPG720800:JPG720898 JZC720800:JZC720898 KIY720800:KIY720898 KSU720800:KSU720898 LCQ720800:LCQ720898 LMM720800:LMM720898 LWI720800:LWI720898 MGE720800:MGE720898 MQA720800:MQA720898 MZW720800:MZW720898 NJS720800:NJS720898 NTO720800:NTO720898 ODK720800:ODK720898 ONG720800:ONG720898 OXC720800:OXC720898 PGY720800:PGY720898 PQU720800:PQU720898 QAQ720800:QAQ720898 QKM720800:QKM720898 QUI720800:QUI720898 REE720800:REE720898 ROA720800:ROA720898 RXW720800:RXW720898 SHS720800:SHS720898 SRO720800:SRO720898 TBK720800:TBK720898 TLG720800:TLG720898 TVC720800:TVC720898 UEY720800:UEY720898 UOU720800:UOU720898 UYQ720800:UYQ720898 VIM720800:VIM720898 VSI720800:VSI720898 WCE720800:WCE720898 WMA720800:WMA720898 WVW720800:WVW720898 O786336:O786434 JK786336:JK786434 TG786336:TG786434 ADC786336:ADC786434 AMY786336:AMY786434 AWU786336:AWU786434 BGQ786336:BGQ786434 BQM786336:BQM786434 CAI786336:CAI786434 CKE786336:CKE786434 CUA786336:CUA786434 DDW786336:DDW786434 DNS786336:DNS786434 DXO786336:DXO786434 EHK786336:EHK786434 ERG786336:ERG786434 FBC786336:FBC786434 FKY786336:FKY786434 FUU786336:FUU786434 GEQ786336:GEQ786434 GOM786336:GOM786434 GYI786336:GYI786434 HIE786336:HIE786434 HSA786336:HSA786434 IBW786336:IBW786434 ILS786336:ILS786434 IVO786336:IVO786434 JFK786336:JFK786434 JPG786336:JPG786434 JZC786336:JZC786434 KIY786336:KIY786434 KSU786336:KSU786434 LCQ786336:LCQ786434 LMM786336:LMM786434 LWI786336:LWI786434 MGE786336:MGE786434 MQA786336:MQA786434 MZW786336:MZW786434 NJS786336:NJS786434 NTO786336:NTO786434 ODK786336:ODK786434 ONG786336:ONG786434 OXC786336:OXC786434 PGY786336:PGY786434 PQU786336:PQU786434 QAQ786336:QAQ786434 QKM786336:QKM786434 QUI786336:QUI786434 REE786336:REE786434 ROA786336:ROA786434 RXW786336:RXW786434 SHS786336:SHS786434 SRO786336:SRO786434 TBK786336:TBK786434 TLG786336:TLG786434 TVC786336:TVC786434 UEY786336:UEY786434 UOU786336:UOU786434 UYQ786336:UYQ786434 VIM786336:VIM786434 VSI786336:VSI786434 WCE786336:WCE786434 WMA786336:WMA786434 WVW786336:WVW786434 O851872:O851970 JK851872:JK851970 TG851872:TG851970 ADC851872:ADC851970 AMY851872:AMY851970 AWU851872:AWU851970 BGQ851872:BGQ851970 BQM851872:BQM851970 CAI851872:CAI851970 CKE851872:CKE851970 CUA851872:CUA851970 DDW851872:DDW851970 DNS851872:DNS851970 DXO851872:DXO851970 EHK851872:EHK851970 ERG851872:ERG851970 FBC851872:FBC851970 FKY851872:FKY851970 FUU851872:FUU851970 GEQ851872:GEQ851970 GOM851872:GOM851970 GYI851872:GYI851970 HIE851872:HIE851970 HSA851872:HSA851970 IBW851872:IBW851970 ILS851872:ILS851970 IVO851872:IVO851970 JFK851872:JFK851970 JPG851872:JPG851970 JZC851872:JZC851970 KIY851872:KIY851970 KSU851872:KSU851970 LCQ851872:LCQ851970 LMM851872:LMM851970 LWI851872:LWI851970 MGE851872:MGE851970 MQA851872:MQA851970 MZW851872:MZW851970 NJS851872:NJS851970 NTO851872:NTO851970 ODK851872:ODK851970 ONG851872:ONG851970 OXC851872:OXC851970 PGY851872:PGY851970 PQU851872:PQU851970 QAQ851872:QAQ851970 QKM851872:QKM851970 QUI851872:QUI851970 REE851872:REE851970 ROA851872:ROA851970 RXW851872:RXW851970 SHS851872:SHS851970 SRO851872:SRO851970 TBK851872:TBK851970 TLG851872:TLG851970 TVC851872:TVC851970 UEY851872:UEY851970 UOU851872:UOU851970 UYQ851872:UYQ851970 VIM851872:VIM851970 VSI851872:VSI851970 WCE851872:WCE851970 WMA851872:WMA851970 WVW851872:WVW851970 O917408:O917506 JK917408:JK917506 TG917408:TG917506 ADC917408:ADC917506 AMY917408:AMY917506 AWU917408:AWU917506 BGQ917408:BGQ917506 BQM917408:BQM917506 CAI917408:CAI917506 CKE917408:CKE917506 CUA917408:CUA917506 DDW917408:DDW917506 DNS917408:DNS917506 DXO917408:DXO917506 EHK917408:EHK917506 ERG917408:ERG917506 FBC917408:FBC917506 FKY917408:FKY917506 FUU917408:FUU917506 GEQ917408:GEQ917506 GOM917408:GOM917506 GYI917408:GYI917506 HIE917408:HIE917506 HSA917408:HSA917506 IBW917408:IBW917506 ILS917408:ILS917506 IVO917408:IVO917506 JFK917408:JFK917506 JPG917408:JPG917506 JZC917408:JZC917506 KIY917408:KIY917506 KSU917408:KSU917506 LCQ917408:LCQ917506 LMM917408:LMM917506 LWI917408:LWI917506 MGE917408:MGE917506 MQA917408:MQA917506 MZW917408:MZW917506 NJS917408:NJS917506 NTO917408:NTO917506 ODK917408:ODK917506 ONG917408:ONG917506 OXC917408:OXC917506 PGY917408:PGY917506 PQU917408:PQU917506 QAQ917408:QAQ917506 QKM917408:QKM917506 QUI917408:QUI917506 REE917408:REE917506 ROA917408:ROA917506 RXW917408:RXW917506 SHS917408:SHS917506 SRO917408:SRO917506 TBK917408:TBK917506 TLG917408:TLG917506 TVC917408:TVC917506 UEY917408:UEY917506 UOU917408:UOU917506 UYQ917408:UYQ917506 VIM917408:VIM917506 VSI917408:VSI917506 WCE917408:WCE917506 WMA917408:WMA917506 WVW917408:WVW917506 O982944:O983042 JK982944:JK983042 TG982944:TG983042 ADC982944:ADC983042 AMY982944:AMY983042 AWU982944:AWU983042 BGQ982944:BGQ983042 BQM982944:BQM983042 CAI982944:CAI983042 CKE982944:CKE983042 CUA982944:CUA983042 DDW982944:DDW983042 DNS982944:DNS983042 DXO982944:DXO983042 EHK982944:EHK983042 ERG982944:ERG983042 FBC982944:FBC983042 FKY982944:FKY983042 FUU982944:FUU983042 GEQ982944:GEQ983042 GOM982944:GOM983042 GYI982944:GYI983042 HIE982944:HIE983042 HSA982944:HSA983042 IBW982944:IBW983042 ILS982944:ILS983042 IVO982944:IVO983042 JFK982944:JFK983042 JPG982944:JPG983042 JZC982944:JZC983042 KIY982944:KIY983042 KSU982944:KSU983042 LCQ982944:LCQ983042 LMM982944:LMM983042 LWI982944:LWI983042 MGE982944:MGE983042 MQA982944:MQA983042 MZW982944:MZW983042 NJS982944:NJS983042 NTO982944:NTO983042 ODK982944:ODK983042 ONG982944:ONG983042 OXC982944:OXC983042 PGY982944:PGY983042 PQU982944:PQU983042 QAQ982944:QAQ983042 QKM982944:QKM983042 QUI982944:QUI983042 REE982944:REE983042 ROA982944:ROA983042 RXW982944:RXW983042 SHS982944:SHS983042 SRO982944:SRO983042 TBK982944:TBK983042 TLG982944:TLG983042 TVC982944:TVC983042 UEY982944:UEY983042 UOU982944:UOU983042 UYQ982944:UYQ983042 VIM982944:VIM983042 VSI982944:VSI983042 WCE982944:WCE983042 WMA982944:WMA983042 WVW982944:WVW983042" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
       <formula1>0</formula1>
       <formula2>11</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 JG2 TC2 ACY2 AMU2 AWQ2 BGM2 BQI2 CAE2 CKA2 CTW2 DDS2 DNO2 DXK2 EHG2 ERC2 FAY2 FKU2 FUQ2 GEM2 GOI2 GYE2 HIA2 HRW2 IBS2 ILO2 IVK2 JFG2 JPC2 JYY2 KIU2 KSQ2 LCM2 LMI2 LWE2 MGA2 MPW2 MZS2 NJO2 NTK2 ODG2 ONC2 OWY2 PGU2 PQQ2 QAM2 QKI2 QUE2 REA2 RNW2 RXS2 SHO2 SRK2 TBG2 TLC2 TUY2 UEU2 UOQ2 UYM2 VII2 VSE2 WCA2 WLW2 WVS2 K65440:K65538 JG65440:JG65538 TC65440:TC65538 ACY65440:ACY65538 AMU65440:AMU65538 AWQ65440:AWQ65538 BGM65440:BGM65538 BQI65440:BQI65538 CAE65440:CAE65538 CKA65440:CKA65538 CTW65440:CTW65538 DDS65440:DDS65538 DNO65440:DNO65538 DXK65440:DXK65538 EHG65440:EHG65538 ERC65440:ERC65538 FAY65440:FAY65538 FKU65440:FKU65538 FUQ65440:FUQ65538 GEM65440:GEM65538 GOI65440:GOI65538 GYE65440:GYE65538 HIA65440:HIA65538 HRW65440:HRW65538 IBS65440:IBS65538 ILO65440:ILO65538 IVK65440:IVK65538 JFG65440:JFG65538 JPC65440:JPC65538 JYY65440:JYY65538 KIU65440:KIU65538 KSQ65440:KSQ65538 LCM65440:LCM65538 LMI65440:LMI65538 LWE65440:LWE65538 MGA65440:MGA65538 MPW65440:MPW65538 MZS65440:MZS65538 NJO65440:NJO65538 NTK65440:NTK65538 ODG65440:ODG65538 ONC65440:ONC65538 OWY65440:OWY65538 PGU65440:PGU65538 PQQ65440:PQQ65538 QAM65440:QAM65538 QKI65440:QKI65538 QUE65440:QUE65538 REA65440:REA65538 RNW65440:RNW65538 RXS65440:RXS65538 SHO65440:SHO65538 SRK65440:SRK65538 TBG65440:TBG65538 TLC65440:TLC65538 TUY65440:TUY65538 UEU65440:UEU65538 UOQ65440:UOQ65538 UYM65440:UYM65538 VII65440:VII65538 VSE65440:VSE65538 WCA65440:WCA65538 WLW65440:WLW65538 WVS65440:WVS65538 K130976:K131074 JG130976:JG131074 TC130976:TC131074 ACY130976:ACY131074 AMU130976:AMU131074 AWQ130976:AWQ131074 BGM130976:BGM131074 BQI130976:BQI131074 CAE130976:CAE131074 CKA130976:CKA131074 CTW130976:CTW131074 DDS130976:DDS131074 DNO130976:DNO131074 DXK130976:DXK131074 EHG130976:EHG131074 ERC130976:ERC131074 FAY130976:FAY131074 FKU130976:FKU131074 FUQ130976:FUQ131074 GEM130976:GEM131074 GOI130976:GOI131074 GYE130976:GYE131074 HIA130976:HIA131074 HRW130976:HRW131074 IBS130976:IBS131074 ILO130976:ILO131074 IVK130976:IVK131074 JFG130976:JFG131074 JPC130976:JPC131074 JYY130976:JYY131074 KIU130976:KIU131074 KSQ130976:KSQ131074 LCM130976:LCM131074 LMI130976:LMI131074 LWE130976:LWE131074 MGA130976:MGA131074 MPW130976:MPW131074 MZS130976:MZS131074 NJO130976:NJO131074 NTK130976:NTK131074 ODG130976:ODG131074 ONC130976:ONC131074 OWY130976:OWY131074 PGU130976:PGU131074 PQQ130976:PQQ131074 QAM130976:QAM131074 QKI130976:QKI131074 QUE130976:QUE131074 REA130976:REA131074 RNW130976:RNW131074 RXS130976:RXS131074 SHO130976:SHO131074 SRK130976:SRK131074 TBG130976:TBG131074 TLC130976:TLC131074 TUY130976:TUY131074 UEU130976:UEU131074 UOQ130976:UOQ131074 UYM130976:UYM131074 VII130976:VII131074 VSE130976:VSE131074 WCA130976:WCA131074 WLW130976:WLW131074 WVS130976:WVS131074 K196512:K196610 JG196512:JG196610 TC196512:TC196610 ACY196512:ACY196610 AMU196512:AMU196610 AWQ196512:AWQ196610 BGM196512:BGM196610 BQI196512:BQI196610 CAE196512:CAE196610 CKA196512:CKA196610 CTW196512:CTW196610 DDS196512:DDS196610 DNO196512:DNO196610 DXK196512:DXK196610 EHG196512:EHG196610 ERC196512:ERC196610 FAY196512:FAY196610 FKU196512:FKU196610 FUQ196512:FUQ196610 GEM196512:GEM196610 GOI196512:GOI196610 GYE196512:GYE196610 HIA196512:HIA196610 HRW196512:HRW196610 IBS196512:IBS196610 ILO196512:ILO196610 IVK196512:IVK196610 JFG196512:JFG196610 JPC196512:JPC196610 JYY196512:JYY196610 KIU196512:KIU196610 KSQ196512:KSQ196610 LCM196512:LCM196610 LMI196512:LMI196610 LWE196512:LWE196610 MGA196512:MGA196610 MPW196512:MPW196610 MZS196512:MZS196610 NJO196512:NJO196610 NTK196512:NTK196610 ODG196512:ODG196610 ONC196512:ONC196610 OWY196512:OWY196610 PGU196512:PGU196610 PQQ196512:PQQ196610 QAM196512:QAM196610 QKI196512:QKI196610 QUE196512:QUE196610 REA196512:REA196610 RNW196512:RNW196610 RXS196512:RXS196610 SHO196512:SHO196610 SRK196512:SRK196610 TBG196512:TBG196610 TLC196512:TLC196610 TUY196512:TUY196610 UEU196512:UEU196610 UOQ196512:UOQ196610 UYM196512:UYM196610 VII196512:VII196610 VSE196512:VSE196610 WCA196512:WCA196610 WLW196512:WLW196610 WVS196512:WVS196610 K262048:K262146 JG262048:JG262146 TC262048:TC262146 ACY262048:ACY262146 AMU262048:AMU262146 AWQ262048:AWQ262146 BGM262048:BGM262146 BQI262048:BQI262146 CAE262048:CAE262146 CKA262048:CKA262146 CTW262048:CTW262146 DDS262048:DDS262146 DNO262048:DNO262146 DXK262048:DXK262146 EHG262048:EHG262146 ERC262048:ERC262146 FAY262048:FAY262146 FKU262048:FKU262146 FUQ262048:FUQ262146 GEM262048:GEM262146 GOI262048:GOI262146 GYE262048:GYE262146 HIA262048:HIA262146 HRW262048:HRW262146 IBS262048:IBS262146 ILO262048:ILO262146 IVK262048:IVK262146 JFG262048:JFG262146 JPC262048:JPC262146 JYY262048:JYY262146 KIU262048:KIU262146 KSQ262048:KSQ262146 LCM262048:LCM262146 LMI262048:LMI262146 LWE262048:LWE262146 MGA262048:MGA262146 MPW262048:MPW262146 MZS262048:MZS262146 NJO262048:NJO262146 NTK262048:NTK262146 ODG262048:ODG262146 ONC262048:ONC262146 OWY262048:OWY262146 PGU262048:PGU262146 PQQ262048:PQQ262146 QAM262048:QAM262146 QKI262048:QKI262146 QUE262048:QUE262146 REA262048:REA262146 RNW262048:RNW262146 RXS262048:RXS262146 SHO262048:SHO262146 SRK262048:SRK262146 TBG262048:TBG262146 TLC262048:TLC262146 TUY262048:TUY262146 UEU262048:UEU262146 UOQ262048:UOQ262146 UYM262048:UYM262146 VII262048:VII262146 VSE262048:VSE262146 WCA262048:WCA262146 WLW262048:WLW262146 WVS262048:WVS262146 K327584:K327682 JG327584:JG327682 TC327584:TC327682 ACY327584:ACY327682 AMU327584:AMU327682 AWQ327584:AWQ327682 BGM327584:BGM327682 BQI327584:BQI327682 CAE327584:CAE327682 CKA327584:CKA327682 CTW327584:CTW327682 DDS327584:DDS327682 DNO327584:DNO327682 DXK327584:DXK327682 EHG327584:EHG327682 ERC327584:ERC327682 FAY327584:FAY327682 FKU327584:FKU327682 FUQ327584:FUQ327682 GEM327584:GEM327682 GOI327584:GOI327682 GYE327584:GYE327682 HIA327584:HIA327682 HRW327584:HRW327682 IBS327584:IBS327682 ILO327584:ILO327682 IVK327584:IVK327682 JFG327584:JFG327682 JPC327584:JPC327682 JYY327584:JYY327682 KIU327584:KIU327682 KSQ327584:KSQ327682 LCM327584:LCM327682 LMI327584:LMI327682 LWE327584:LWE327682 MGA327584:MGA327682 MPW327584:MPW327682 MZS327584:MZS327682 NJO327584:NJO327682 NTK327584:NTK327682 ODG327584:ODG327682 ONC327584:ONC327682 OWY327584:OWY327682 PGU327584:PGU327682 PQQ327584:PQQ327682 QAM327584:QAM327682 QKI327584:QKI327682 QUE327584:QUE327682 REA327584:REA327682 RNW327584:RNW327682 RXS327584:RXS327682 SHO327584:SHO327682 SRK327584:SRK327682 TBG327584:TBG327682 TLC327584:TLC327682 TUY327584:TUY327682 UEU327584:UEU327682 UOQ327584:UOQ327682 UYM327584:UYM327682 VII327584:VII327682 VSE327584:VSE327682 WCA327584:WCA327682 WLW327584:WLW327682 WVS327584:WVS327682 K393120:K393218 JG393120:JG393218 TC393120:TC393218 ACY393120:ACY393218 AMU393120:AMU393218 AWQ393120:AWQ393218 BGM393120:BGM393218 BQI393120:BQI393218 CAE393120:CAE393218 CKA393120:CKA393218 CTW393120:CTW393218 DDS393120:DDS393218 DNO393120:DNO393218 DXK393120:DXK393218 EHG393120:EHG393218 ERC393120:ERC393218 FAY393120:FAY393218 FKU393120:FKU393218 FUQ393120:FUQ393218 GEM393120:GEM393218 GOI393120:GOI393218 GYE393120:GYE393218 HIA393120:HIA393218 HRW393120:HRW393218 IBS393120:IBS393218 ILO393120:ILO393218 IVK393120:IVK393218 JFG393120:JFG393218 JPC393120:JPC393218 JYY393120:JYY393218 KIU393120:KIU393218 KSQ393120:KSQ393218 LCM393120:LCM393218 LMI393120:LMI393218 LWE393120:LWE393218 MGA393120:MGA393218 MPW393120:MPW393218 MZS393120:MZS393218 NJO393120:NJO393218 NTK393120:NTK393218 ODG393120:ODG393218 ONC393120:ONC393218 OWY393120:OWY393218 PGU393120:PGU393218 PQQ393120:PQQ393218 QAM393120:QAM393218 QKI393120:QKI393218 QUE393120:QUE393218 REA393120:REA393218 RNW393120:RNW393218 RXS393120:RXS393218 SHO393120:SHO393218 SRK393120:SRK393218 TBG393120:TBG393218 TLC393120:TLC393218 TUY393120:TUY393218 UEU393120:UEU393218 UOQ393120:UOQ393218 UYM393120:UYM393218 VII393120:VII393218 VSE393120:VSE393218 WCA393120:WCA393218 WLW393120:WLW393218 WVS393120:WVS393218 K458656:K458754 JG458656:JG458754 TC458656:TC458754 ACY458656:ACY458754 AMU458656:AMU458754 AWQ458656:AWQ458754 BGM458656:BGM458754 BQI458656:BQI458754 CAE458656:CAE458754 CKA458656:CKA458754 CTW458656:CTW458754 DDS458656:DDS458754 DNO458656:DNO458754 DXK458656:DXK458754 EHG458656:EHG458754 ERC458656:ERC458754 FAY458656:FAY458754 FKU458656:FKU458754 FUQ458656:FUQ458754 GEM458656:GEM458754 GOI458656:GOI458754 GYE458656:GYE458754 HIA458656:HIA458754 HRW458656:HRW458754 IBS458656:IBS458754 ILO458656:ILO458754 IVK458656:IVK458754 JFG458656:JFG458754 JPC458656:JPC458754 JYY458656:JYY458754 KIU458656:KIU458754 KSQ458656:KSQ458754 LCM458656:LCM458754 LMI458656:LMI458754 LWE458656:LWE458754 MGA458656:MGA458754 MPW458656:MPW458754 MZS458656:MZS458754 NJO458656:NJO458754 NTK458656:NTK458754 ODG458656:ODG458754 ONC458656:ONC458754 OWY458656:OWY458754 PGU458656:PGU458754 PQQ458656:PQQ458754 QAM458656:QAM458754 QKI458656:QKI458754 QUE458656:QUE458754 REA458656:REA458754 RNW458656:RNW458754 RXS458656:RXS458754 SHO458656:SHO458754 SRK458656:SRK458754 TBG458656:TBG458754 TLC458656:TLC458754 TUY458656:TUY458754 UEU458656:UEU458754 UOQ458656:UOQ458754 UYM458656:UYM458754 VII458656:VII458754 VSE458656:VSE458754 WCA458656:WCA458754 WLW458656:WLW458754 WVS458656:WVS458754 K524192:K524290 JG524192:JG524290 TC524192:TC524290 ACY524192:ACY524290 AMU524192:AMU524290 AWQ524192:AWQ524290 BGM524192:BGM524290 BQI524192:BQI524290 CAE524192:CAE524290 CKA524192:CKA524290 CTW524192:CTW524290 DDS524192:DDS524290 DNO524192:DNO524290 DXK524192:DXK524290 EHG524192:EHG524290 ERC524192:ERC524290 FAY524192:FAY524290 FKU524192:FKU524290 FUQ524192:FUQ524290 GEM524192:GEM524290 GOI524192:GOI524290 GYE524192:GYE524290 HIA524192:HIA524290 HRW524192:HRW524290 IBS524192:IBS524290 ILO524192:ILO524290 IVK524192:IVK524290 JFG524192:JFG524290 JPC524192:JPC524290 JYY524192:JYY524290 KIU524192:KIU524290 KSQ524192:KSQ524290 LCM524192:LCM524290 LMI524192:LMI524290 LWE524192:LWE524290 MGA524192:MGA524290 MPW524192:MPW524290 MZS524192:MZS524290 NJO524192:NJO524290 NTK524192:NTK524290 ODG524192:ODG524290 ONC524192:ONC524290 OWY524192:OWY524290 PGU524192:PGU524290 PQQ524192:PQQ524290 QAM524192:QAM524290 QKI524192:QKI524290 QUE524192:QUE524290 REA524192:REA524290 RNW524192:RNW524290 RXS524192:RXS524290 SHO524192:SHO524290 SRK524192:SRK524290 TBG524192:TBG524290 TLC524192:TLC524290 TUY524192:TUY524290 UEU524192:UEU524290 UOQ524192:UOQ524290 UYM524192:UYM524290 VII524192:VII524290 VSE524192:VSE524290 WCA524192:WCA524290 WLW524192:WLW524290 WVS524192:WVS524290 K589728:K589826 JG589728:JG589826 TC589728:TC589826 ACY589728:ACY589826 AMU589728:AMU589826 AWQ589728:AWQ589826 BGM589728:BGM589826 BQI589728:BQI589826 CAE589728:CAE589826 CKA589728:CKA589826 CTW589728:CTW589826 DDS589728:DDS589826 DNO589728:DNO589826 DXK589728:DXK589826 EHG589728:EHG589826 ERC589728:ERC589826 FAY589728:FAY589826 FKU589728:FKU589826 FUQ589728:FUQ589826 GEM589728:GEM589826 GOI589728:GOI589826 GYE589728:GYE589826 HIA589728:HIA589826 HRW589728:HRW589826 IBS589728:IBS589826 ILO589728:ILO589826 IVK589728:IVK589826 JFG589728:JFG589826 JPC589728:JPC589826 JYY589728:JYY589826 KIU589728:KIU589826 KSQ589728:KSQ589826 LCM589728:LCM589826 LMI589728:LMI589826 LWE589728:LWE589826 MGA589728:MGA589826 MPW589728:MPW589826 MZS589728:MZS589826 NJO589728:NJO589826 NTK589728:NTK589826 ODG589728:ODG589826 ONC589728:ONC589826 OWY589728:OWY589826 PGU589728:PGU589826 PQQ589728:PQQ589826 QAM589728:QAM589826 QKI589728:QKI589826 QUE589728:QUE589826 REA589728:REA589826 RNW589728:RNW589826 RXS589728:RXS589826 SHO589728:SHO589826 SRK589728:SRK589826 TBG589728:TBG589826 TLC589728:TLC589826 TUY589728:TUY589826 UEU589728:UEU589826 UOQ589728:UOQ589826 UYM589728:UYM589826 VII589728:VII589826 VSE589728:VSE589826 WCA589728:WCA589826 WLW589728:WLW589826 WVS589728:WVS589826 K655264:K655362 JG655264:JG655362 TC655264:TC655362 ACY655264:ACY655362 AMU655264:AMU655362 AWQ655264:AWQ655362 BGM655264:BGM655362 BQI655264:BQI655362 CAE655264:CAE655362 CKA655264:CKA655362 CTW655264:CTW655362 DDS655264:DDS655362 DNO655264:DNO655362 DXK655264:DXK655362 EHG655264:EHG655362 ERC655264:ERC655362 FAY655264:FAY655362 FKU655264:FKU655362 FUQ655264:FUQ655362 GEM655264:GEM655362 GOI655264:GOI655362 GYE655264:GYE655362 HIA655264:HIA655362 HRW655264:HRW655362 IBS655264:IBS655362 ILO655264:ILO655362 IVK655264:IVK655362 JFG655264:JFG655362 JPC655264:JPC655362 JYY655264:JYY655362 KIU655264:KIU655362 KSQ655264:KSQ655362 LCM655264:LCM655362 LMI655264:LMI655362 LWE655264:LWE655362 MGA655264:MGA655362 MPW655264:MPW655362 MZS655264:MZS655362 NJO655264:NJO655362 NTK655264:NTK655362 ODG655264:ODG655362 ONC655264:ONC655362 OWY655264:OWY655362 PGU655264:PGU655362 PQQ655264:PQQ655362 QAM655264:QAM655362 QKI655264:QKI655362 QUE655264:QUE655362 REA655264:REA655362 RNW655264:RNW655362 RXS655264:RXS655362 SHO655264:SHO655362 SRK655264:SRK655362 TBG655264:TBG655362 TLC655264:TLC655362 TUY655264:TUY655362 UEU655264:UEU655362 UOQ655264:UOQ655362 UYM655264:UYM655362 VII655264:VII655362 VSE655264:VSE655362 WCA655264:WCA655362 WLW655264:WLW655362 WVS655264:WVS655362 K720800:K720898 JG720800:JG720898 TC720800:TC720898 ACY720800:ACY720898 AMU720800:AMU720898 AWQ720800:AWQ720898 BGM720800:BGM720898 BQI720800:BQI720898 CAE720800:CAE720898 CKA720800:CKA720898 CTW720800:CTW720898 DDS720800:DDS720898 DNO720800:DNO720898 DXK720800:DXK720898 EHG720800:EHG720898 ERC720800:ERC720898 FAY720800:FAY720898 FKU720800:FKU720898 FUQ720800:FUQ720898 GEM720800:GEM720898 GOI720800:GOI720898 GYE720800:GYE720898 HIA720800:HIA720898 HRW720800:HRW720898 IBS720800:IBS720898 ILO720800:ILO720898 IVK720800:IVK720898 JFG720800:JFG720898 JPC720800:JPC720898 JYY720800:JYY720898 KIU720800:KIU720898 KSQ720800:KSQ720898 LCM720800:LCM720898 LMI720800:LMI720898 LWE720800:LWE720898 MGA720800:MGA720898 MPW720800:MPW720898 MZS720800:MZS720898 NJO720800:NJO720898 NTK720800:NTK720898 ODG720800:ODG720898 ONC720800:ONC720898 OWY720800:OWY720898 PGU720800:PGU720898 PQQ720800:PQQ720898 QAM720800:QAM720898 QKI720800:QKI720898 QUE720800:QUE720898 REA720800:REA720898 RNW720800:RNW720898 RXS720800:RXS720898 SHO720800:SHO720898 SRK720800:SRK720898 TBG720800:TBG720898 TLC720800:TLC720898 TUY720800:TUY720898 UEU720800:UEU720898 UOQ720800:UOQ720898 UYM720800:UYM720898 VII720800:VII720898 VSE720800:VSE720898 WCA720800:WCA720898 WLW720800:WLW720898 WVS720800:WVS720898 K786336:K786434 JG786336:JG786434 TC786336:TC786434 ACY786336:ACY786434 AMU786336:AMU786434 AWQ786336:AWQ786434 BGM786336:BGM786434 BQI786336:BQI786434 CAE786336:CAE786434 CKA786336:CKA786434 CTW786336:CTW786434 DDS786336:DDS786434 DNO786336:DNO786434 DXK786336:DXK786434 EHG786336:EHG786434 ERC786336:ERC786434 FAY786336:FAY786434 FKU786336:FKU786434 FUQ786336:FUQ786434 GEM786336:GEM786434 GOI786336:GOI786434 GYE786336:GYE786434 HIA786336:HIA786434 HRW786336:HRW786434 IBS786336:IBS786434 ILO786336:ILO786434 IVK786336:IVK786434 JFG786336:JFG786434 JPC786336:JPC786434 JYY786336:JYY786434 KIU786336:KIU786434 KSQ786336:KSQ786434 LCM786336:LCM786434 LMI786336:LMI786434 LWE786336:LWE786434 MGA786336:MGA786434 MPW786336:MPW786434 MZS786336:MZS786434 NJO786336:NJO786434 NTK786336:NTK786434 ODG786336:ODG786434 ONC786336:ONC786434 OWY786336:OWY786434 PGU786336:PGU786434 PQQ786336:PQQ786434 QAM786336:QAM786434 QKI786336:QKI786434 QUE786336:QUE786434 REA786336:REA786434 RNW786336:RNW786434 RXS786336:RXS786434 SHO786336:SHO786434 SRK786336:SRK786434 TBG786336:TBG786434 TLC786336:TLC786434 TUY786336:TUY786434 UEU786336:UEU786434 UOQ786336:UOQ786434 UYM786336:UYM786434 VII786336:VII786434 VSE786336:VSE786434 WCA786336:WCA786434 WLW786336:WLW786434 WVS786336:WVS786434 K851872:K851970 JG851872:JG851970 TC851872:TC851970 ACY851872:ACY851970 AMU851872:AMU851970 AWQ851872:AWQ851970 BGM851872:BGM851970 BQI851872:BQI851970 CAE851872:CAE851970 CKA851872:CKA851970 CTW851872:CTW851970 DDS851872:DDS851970 DNO851872:DNO851970 DXK851872:DXK851970 EHG851872:EHG851970 ERC851872:ERC851970 FAY851872:FAY851970 FKU851872:FKU851970 FUQ851872:FUQ851970 GEM851872:GEM851970 GOI851872:GOI851970 GYE851872:GYE851970 HIA851872:HIA851970 HRW851872:HRW851970 IBS851872:IBS851970 ILO851872:ILO851970 IVK851872:IVK851970 JFG851872:JFG851970 JPC851872:JPC851970 JYY851872:JYY851970 KIU851872:KIU851970 KSQ851872:KSQ851970 LCM851872:LCM851970 LMI851872:LMI851970 LWE851872:LWE851970 MGA851872:MGA851970 MPW851872:MPW851970 MZS851872:MZS851970 NJO851872:NJO851970 NTK851872:NTK851970 ODG851872:ODG851970 ONC851872:ONC851970 OWY851872:OWY851970 PGU851872:PGU851970 PQQ851872:PQQ851970 QAM851872:QAM851970 QKI851872:QKI851970 QUE851872:QUE851970 REA851872:REA851970 RNW851872:RNW851970 RXS851872:RXS851970 SHO851872:SHO851970 SRK851872:SRK851970 TBG851872:TBG851970 TLC851872:TLC851970 TUY851872:TUY851970 UEU851872:UEU851970 UOQ851872:UOQ851970 UYM851872:UYM851970 VII851872:VII851970 VSE851872:VSE851970 WCA851872:WCA851970 WLW851872:WLW851970 WVS851872:WVS851970 K917408:K917506 JG917408:JG917506 TC917408:TC917506 ACY917408:ACY917506 AMU917408:AMU917506 AWQ917408:AWQ917506 BGM917408:BGM917506 BQI917408:BQI917506 CAE917408:CAE917506 CKA917408:CKA917506 CTW917408:CTW917506 DDS917408:DDS917506 DNO917408:DNO917506 DXK917408:DXK917506 EHG917408:EHG917506 ERC917408:ERC917506 FAY917408:FAY917506 FKU917408:FKU917506 FUQ917408:FUQ917506 GEM917408:GEM917506 GOI917408:GOI917506 GYE917408:GYE917506 HIA917408:HIA917506 HRW917408:HRW917506 IBS917408:IBS917506 ILO917408:ILO917506 IVK917408:IVK917506 JFG917408:JFG917506 JPC917408:JPC917506 JYY917408:JYY917506 KIU917408:KIU917506 KSQ917408:KSQ917506 LCM917408:LCM917506 LMI917408:LMI917506 LWE917408:LWE917506 MGA917408:MGA917506 MPW917408:MPW917506 MZS917408:MZS917506 NJO917408:NJO917506 NTK917408:NTK917506 ODG917408:ODG917506 ONC917408:ONC917506 OWY917408:OWY917506 PGU917408:PGU917506 PQQ917408:PQQ917506 QAM917408:QAM917506 QKI917408:QKI917506 QUE917408:QUE917506 REA917408:REA917506 RNW917408:RNW917506 RXS917408:RXS917506 SHO917408:SHO917506 SRK917408:SRK917506 TBG917408:TBG917506 TLC917408:TLC917506 TUY917408:TUY917506 UEU917408:UEU917506 UOQ917408:UOQ917506 UYM917408:UYM917506 VII917408:VII917506 VSE917408:VSE917506 WCA917408:WCA917506 WLW917408:WLW917506 WVS917408:WVS917506 K982944:K983042 JG982944:JG983042 TC982944:TC983042 ACY982944:ACY983042 AMU982944:AMU983042 AWQ982944:AWQ983042 BGM982944:BGM983042 BQI982944:BQI983042 CAE982944:CAE983042 CKA982944:CKA983042 CTW982944:CTW983042 DDS982944:DDS983042 DNO982944:DNO983042 DXK982944:DXK983042 EHG982944:EHG983042 ERC982944:ERC983042 FAY982944:FAY983042 FKU982944:FKU983042 FUQ982944:FUQ983042 GEM982944:GEM983042 GOI982944:GOI983042 GYE982944:GYE983042 HIA982944:HIA983042 HRW982944:HRW983042 IBS982944:IBS983042 ILO982944:ILO983042 IVK982944:IVK983042 JFG982944:JFG983042 JPC982944:JPC983042 JYY982944:JYY983042 KIU982944:KIU983042 KSQ982944:KSQ983042 LCM982944:LCM983042 LMI982944:LMI983042 LWE982944:LWE983042 MGA982944:MGA983042 MPW982944:MPW983042 MZS982944:MZS983042 NJO982944:NJO983042 NTK982944:NTK983042 ODG982944:ODG983042 ONC982944:ONC983042 OWY982944:OWY983042 PGU982944:PGU983042 PQQ982944:PQQ983042 QAM982944:QAM983042 QKI982944:QKI983042 QUE982944:QUE983042 REA982944:REA983042 RNW982944:RNW983042 RXS982944:RXS983042 SHO982944:SHO983042 SRK982944:SRK983042 TBG982944:TBG983042 TLC982944:TLC983042 TUY982944:TUY983042 UEU982944:UEU983042 UOQ982944:UOQ983042 UYM982944:UYM983042 VII982944:VII983042 VSE982944:VSE983042 WCA982944:WCA983042 WLW982944:WLW983042 WVS982944:WVS983042" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 JH2 TD2 ACZ2 AMV2 AWR2 BGN2 BQJ2 CAF2 CKB2 CTX2 DDT2 DNP2 DXL2 EHH2 ERD2 FAZ2 FKV2 FUR2 GEN2 GOJ2 GYF2 HIB2 HRX2 IBT2 ILP2 IVL2 JFH2 JPD2 JYZ2 KIV2 KSR2 LCN2 LMJ2 LWF2 MGB2 MPX2 MZT2 NJP2 NTL2 ODH2 OND2 OWZ2 PGV2 PQR2 QAN2 QKJ2 QUF2 REB2 RNX2 RXT2 SHP2 SRL2 TBH2 TLD2 TUZ2 UEV2 UOR2 UYN2 VIJ2 VSF2 WCB2 WLX2 WVT2 L65440:L65538 JH65440:JH65538 TD65440:TD65538 ACZ65440:ACZ65538 AMV65440:AMV65538 AWR65440:AWR65538 BGN65440:BGN65538 BQJ65440:BQJ65538 CAF65440:CAF65538 CKB65440:CKB65538 CTX65440:CTX65538 DDT65440:DDT65538 DNP65440:DNP65538 DXL65440:DXL65538 EHH65440:EHH65538 ERD65440:ERD65538 FAZ65440:FAZ65538 FKV65440:FKV65538 FUR65440:FUR65538 GEN65440:GEN65538 GOJ65440:GOJ65538 GYF65440:GYF65538 HIB65440:HIB65538 HRX65440:HRX65538 IBT65440:IBT65538 ILP65440:ILP65538 IVL65440:IVL65538 JFH65440:JFH65538 JPD65440:JPD65538 JYZ65440:JYZ65538 KIV65440:KIV65538 KSR65440:KSR65538 LCN65440:LCN65538 LMJ65440:LMJ65538 LWF65440:LWF65538 MGB65440:MGB65538 MPX65440:MPX65538 MZT65440:MZT65538 NJP65440:NJP65538 NTL65440:NTL65538 ODH65440:ODH65538 OND65440:OND65538 OWZ65440:OWZ65538 PGV65440:PGV65538 PQR65440:PQR65538 QAN65440:QAN65538 QKJ65440:QKJ65538 QUF65440:QUF65538 REB65440:REB65538 RNX65440:RNX65538 RXT65440:RXT65538 SHP65440:SHP65538 SRL65440:SRL65538 TBH65440:TBH65538 TLD65440:TLD65538 TUZ65440:TUZ65538 UEV65440:UEV65538 UOR65440:UOR65538 UYN65440:UYN65538 VIJ65440:VIJ65538 VSF65440:VSF65538 WCB65440:WCB65538 WLX65440:WLX65538 WVT65440:WVT65538 L130976:L131074 JH130976:JH131074 TD130976:TD131074 ACZ130976:ACZ131074 AMV130976:AMV131074 AWR130976:AWR131074 BGN130976:BGN131074 BQJ130976:BQJ131074 CAF130976:CAF131074 CKB130976:CKB131074 CTX130976:CTX131074 DDT130976:DDT131074 DNP130976:DNP131074 DXL130976:DXL131074 EHH130976:EHH131074 ERD130976:ERD131074 FAZ130976:FAZ131074 FKV130976:FKV131074 FUR130976:FUR131074 GEN130976:GEN131074 GOJ130976:GOJ131074 GYF130976:GYF131074 HIB130976:HIB131074 HRX130976:HRX131074 IBT130976:IBT131074 ILP130976:ILP131074 IVL130976:IVL131074 JFH130976:JFH131074 JPD130976:JPD131074 JYZ130976:JYZ131074 KIV130976:KIV131074 KSR130976:KSR131074 LCN130976:LCN131074 LMJ130976:LMJ131074 LWF130976:LWF131074 MGB130976:MGB131074 MPX130976:MPX131074 MZT130976:MZT131074 NJP130976:NJP131074 NTL130976:NTL131074 ODH130976:ODH131074 OND130976:OND131074 OWZ130976:OWZ131074 PGV130976:PGV131074 PQR130976:PQR131074 QAN130976:QAN131074 QKJ130976:QKJ131074 QUF130976:QUF131074 REB130976:REB131074 RNX130976:RNX131074 RXT130976:RXT131074 SHP130976:SHP131074 SRL130976:SRL131074 TBH130976:TBH131074 TLD130976:TLD131074 TUZ130976:TUZ131074 UEV130976:UEV131074 UOR130976:UOR131074 UYN130976:UYN131074 VIJ130976:VIJ131074 VSF130976:VSF131074 WCB130976:WCB131074 WLX130976:WLX131074 WVT130976:WVT131074 L196512:L196610 JH196512:JH196610 TD196512:TD196610 ACZ196512:ACZ196610 AMV196512:AMV196610 AWR196512:AWR196610 BGN196512:BGN196610 BQJ196512:BQJ196610 CAF196512:CAF196610 CKB196512:CKB196610 CTX196512:CTX196610 DDT196512:DDT196610 DNP196512:DNP196610 DXL196512:DXL196610 EHH196512:EHH196610 ERD196512:ERD196610 FAZ196512:FAZ196610 FKV196512:FKV196610 FUR196512:FUR196610 GEN196512:GEN196610 GOJ196512:GOJ196610 GYF196512:GYF196610 HIB196512:HIB196610 HRX196512:HRX196610 IBT196512:IBT196610 ILP196512:ILP196610 IVL196512:IVL196610 JFH196512:JFH196610 JPD196512:JPD196610 JYZ196512:JYZ196610 KIV196512:KIV196610 KSR196512:KSR196610 LCN196512:LCN196610 LMJ196512:LMJ196610 LWF196512:LWF196610 MGB196512:MGB196610 MPX196512:MPX196610 MZT196512:MZT196610 NJP196512:NJP196610 NTL196512:NTL196610 ODH196512:ODH196610 OND196512:OND196610 OWZ196512:OWZ196610 PGV196512:PGV196610 PQR196512:PQR196610 QAN196512:QAN196610 QKJ196512:QKJ196610 QUF196512:QUF196610 REB196512:REB196610 RNX196512:RNX196610 RXT196512:RXT196610 SHP196512:SHP196610 SRL196512:SRL196610 TBH196512:TBH196610 TLD196512:TLD196610 TUZ196512:TUZ196610 UEV196512:UEV196610 UOR196512:UOR196610 UYN196512:UYN196610 VIJ196512:VIJ196610 VSF196512:VSF196610 WCB196512:WCB196610 WLX196512:WLX196610 WVT196512:WVT196610 L262048:L262146 JH262048:JH262146 TD262048:TD262146 ACZ262048:ACZ262146 AMV262048:AMV262146 AWR262048:AWR262146 BGN262048:BGN262146 BQJ262048:BQJ262146 CAF262048:CAF262146 CKB262048:CKB262146 CTX262048:CTX262146 DDT262048:DDT262146 DNP262048:DNP262146 DXL262048:DXL262146 EHH262048:EHH262146 ERD262048:ERD262146 FAZ262048:FAZ262146 FKV262048:FKV262146 FUR262048:FUR262146 GEN262048:GEN262146 GOJ262048:GOJ262146 GYF262048:GYF262146 HIB262048:HIB262146 HRX262048:HRX262146 IBT262048:IBT262146 ILP262048:ILP262146 IVL262048:IVL262146 JFH262048:JFH262146 JPD262048:JPD262146 JYZ262048:JYZ262146 KIV262048:KIV262146 KSR262048:KSR262146 LCN262048:LCN262146 LMJ262048:LMJ262146 LWF262048:LWF262146 MGB262048:MGB262146 MPX262048:MPX262146 MZT262048:MZT262146 NJP262048:NJP262146 NTL262048:NTL262146 ODH262048:ODH262146 OND262048:OND262146 OWZ262048:OWZ262146 PGV262048:PGV262146 PQR262048:PQR262146 QAN262048:QAN262146 QKJ262048:QKJ262146 QUF262048:QUF262146 REB262048:REB262146 RNX262048:RNX262146 RXT262048:RXT262146 SHP262048:SHP262146 SRL262048:SRL262146 TBH262048:TBH262146 TLD262048:TLD262146 TUZ262048:TUZ262146 UEV262048:UEV262146 UOR262048:UOR262146 UYN262048:UYN262146 VIJ262048:VIJ262146 VSF262048:VSF262146 WCB262048:WCB262146 WLX262048:WLX262146 WVT262048:WVT262146 L327584:L327682 JH327584:JH327682 TD327584:TD327682 ACZ327584:ACZ327682 AMV327584:AMV327682 AWR327584:AWR327682 BGN327584:BGN327682 BQJ327584:BQJ327682 CAF327584:CAF327682 CKB327584:CKB327682 CTX327584:CTX327682 DDT327584:DDT327682 DNP327584:DNP327682 DXL327584:DXL327682 EHH327584:EHH327682 ERD327584:ERD327682 FAZ327584:FAZ327682 FKV327584:FKV327682 FUR327584:FUR327682 GEN327584:GEN327682 GOJ327584:GOJ327682 GYF327584:GYF327682 HIB327584:HIB327682 HRX327584:HRX327682 IBT327584:IBT327682 ILP327584:ILP327682 IVL327584:IVL327682 JFH327584:JFH327682 JPD327584:JPD327682 JYZ327584:JYZ327682 KIV327584:KIV327682 KSR327584:KSR327682 LCN327584:LCN327682 LMJ327584:LMJ327682 LWF327584:LWF327682 MGB327584:MGB327682 MPX327584:MPX327682 MZT327584:MZT327682 NJP327584:NJP327682 NTL327584:NTL327682 ODH327584:ODH327682 OND327584:OND327682 OWZ327584:OWZ327682 PGV327584:PGV327682 PQR327584:PQR327682 QAN327584:QAN327682 QKJ327584:QKJ327682 QUF327584:QUF327682 REB327584:REB327682 RNX327584:RNX327682 RXT327584:RXT327682 SHP327584:SHP327682 SRL327584:SRL327682 TBH327584:TBH327682 TLD327584:TLD327682 TUZ327584:TUZ327682 UEV327584:UEV327682 UOR327584:UOR327682 UYN327584:UYN327682 VIJ327584:VIJ327682 VSF327584:VSF327682 WCB327584:WCB327682 WLX327584:WLX327682 WVT327584:WVT327682 L393120:L393218 JH393120:JH393218 TD393120:TD393218 ACZ393120:ACZ393218 AMV393120:AMV393218 AWR393120:AWR393218 BGN393120:BGN393218 BQJ393120:BQJ393218 CAF393120:CAF393218 CKB393120:CKB393218 CTX393120:CTX393218 DDT393120:DDT393218 DNP393120:DNP393218 DXL393120:DXL393218 EHH393120:EHH393218 ERD393120:ERD393218 FAZ393120:FAZ393218 FKV393120:FKV393218 FUR393120:FUR393218 GEN393120:GEN393218 GOJ393120:GOJ393218 GYF393120:GYF393218 HIB393120:HIB393218 HRX393120:HRX393218 IBT393120:IBT393218 ILP393120:ILP393218 IVL393120:IVL393218 JFH393120:JFH393218 JPD393120:JPD393218 JYZ393120:JYZ393218 KIV393120:KIV393218 KSR393120:KSR393218 LCN393120:LCN393218 LMJ393120:LMJ393218 LWF393120:LWF393218 MGB393120:MGB393218 MPX393120:MPX393218 MZT393120:MZT393218 NJP393120:NJP393218 NTL393120:NTL393218 ODH393120:ODH393218 OND393120:OND393218 OWZ393120:OWZ393218 PGV393120:PGV393218 PQR393120:PQR393218 QAN393120:QAN393218 QKJ393120:QKJ393218 QUF393120:QUF393218 REB393120:REB393218 RNX393120:RNX393218 RXT393120:RXT393218 SHP393120:SHP393218 SRL393120:SRL393218 TBH393120:TBH393218 TLD393120:TLD393218 TUZ393120:TUZ393218 UEV393120:UEV393218 UOR393120:UOR393218 UYN393120:UYN393218 VIJ393120:VIJ393218 VSF393120:VSF393218 WCB393120:WCB393218 WLX393120:WLX393218 WVT393120:WVT393218 L458656:L458754 JH458656:JH458754 TD458656:TD458754 ACZ458656:ACZ458754 AMV458656:AMV458754 AWR458656:AWR458754 BGN458656:BGN458754 BQJ458656:BQJ458754 CAF458656:CAF458754 CKB458656:CKB458754 CTX458656:CTX458754 DDT458656:DDT458754 DNP458656:DNP458754 DXL458656:DXL458754 EHH458656:EHH458754 ERD458656:ERD458754 FAZ458656:FAZ458754 FKV458656:FKV458754 FUR458656:FUR458754 GEN458656:GEN458754 GOJ458656:GOJ458754 GYF458656:GYF458754 HIB458656:HIB458754 HRX458656:HRX458754 IBT458656:IBT458754 ILP458656:ILP458754 IVL458656:IVL458754 JFH458656:JFH458754 JPD458656:JPD458754 JYZ458656:JYZ458754 KIV458656:KIV458754 KSR458656:KSR458754 LCN458656:LCN458754 LMJ458656:LMJ458754 LWF458656:LWF458754 MGB458656:MGB458754 MPX458656:MPX458754 MZT458656:MZT458754 NJP458656:NJP458754 NTL458656:NTL458754 ODH458656:ODH458754 OND458656:OND458754 OWZ458656:OWZ458754 PGV458656:PGV458754 PQR458656:PQR458754 QAN458656:QAN458754 QKJ458656:QKJ458754 QUF458656:QUF458754 REB458656:REB458754 RNX458656:RNX458754 RXT458656:RXT458754 SHP458656:SHP458754 SRL458656:SRL458754 TBH458656:TBH458754 TLD458656:TLD458754 TUZ458656:TUZ458754 UEV458656:UEV458754 UOR458656:UOR458754 UYN458656:UYN458754 VIJ458656:VIJ458754 VSF458656:VSF458754 WCB458656:WCB458754 WLX458656:WLX458754 WVT458656:WVT458754 L524192:L524290 JH524192:JH524290 TD524192:TD524290 ACZ524192:ACZ524290 AMV524192:AMV524290 AWR524192:AWR524290 BGN524192:BGN524290 BQJ524192:BQJ524290 CAF524192:CAF524290 CKB524192:CKB524290 CTX524192:CTX524290 DDT524192:DDT524290 DNP524192:DNP524290 DXL524192:DXL524290 EHH524192:EHH524290 ERD524192:ERD524290 FAZ524192:FAZ524290 FKV524192:FKV524290 FUR524192:FUR524290 GEN524192:GEN524290 GOJ524192:GOJ524290 GYF524192:GYF524290 HIB524192:HIB524290 HRX524192:HRX524290 IBT524192:IBT524290 ILP524192:ILP524290 IVL524192:IVL524290 JFH524192:JFH524290 JPD524192:JPD524290 JYZ524192:JYZ524290 KIV524192:KIV524290 KSR524192:KSR524290 LCN524192:LCN524290 LMJ524192:LMJ524290 LWF524192:LWF524290 MGB524192:MGB524290 MPX524192:MPX524290 MZT524192:MZT524290 NJP524192:NJP524290 NTL524192:NTL524290 ODH524192:ODH524290 OND524192:OND524290 OWZ524192:OWZ524290 PGV524192:PGV524290 PQR524192:PQR524290 QAN524192:QAN524290 QKJ524192:QKJ524290 QUF524192:QUF524290 REB524192:REB524290 RNX524192:RNX524290 RXT524192:RXT524290 SHP524192:SHP524290 SRL524192:SRL524290 TBH524192:TBH524290 TLD524192:TLD524290 TUZ524192:TUZ524290 UEV524192:UEV524290 UOR524192:UOR524290 UYN524192:UYN524290 VIJ524192:VIJ524290 VSF524192:VSF524290 WCB524192:WCB524290 WLX524192:WLX524290 WVT524192:WVT524290 L589728:L589826 JH589728:JH589826 TD589728:TD589826 ACZ589728:ACZ589826 AMV589728:AMV589826 AWR589728:AWR589826 BGN589728:BGN589826 BQJ589728:BQJ589826 CAF589728:CAF589826 CKB589728:CKB589826 CTX589728:CTX589826 DDT589728:DDT589826 DNP589728:DNP589826 DXL589728:DXL589826 EHH589728:EHH589826 ERD589728:ERD589826 FAZ589728:FAZ589826 FKV589728:FKV589826 FUR589728:FUR589826 GEN589728:GEN589826 GOJ589728:GOJ589826 GYF589728:GYF589826 HIB589728:HIB589826 HRX589728:HRX589826 IBT589728:IBT589826 ILP589728:ILP589826 IVL589728:IVL589826 JFH589728:JFH589826 JPD589728:JPD589826 JYZ589728:JYZ589826 KIV589728:KIV589826 KSR589728:KSR589826 LCN589728:LCN589826 LMJ589728:LMJ589826 LWF589728:LWF589826 MGB589728:MGB589826 MPX589728:MPX589826 MZT589728:MZT589826 NJP589728:NJP589826 NTL589728:NTL589826 ODH589728:ODH589826 OND589728:OND589826 OWZ589728:OWZ589826 PGV589728:PGV589826 PQR589728:PQR589826 QAN589728:QAN589826 QKJ589728:QKJ589826 QUF589728:QUF589826 REB589728:REB589826 RNX589728:RNX589826 RXT589728:RXT589826 SHP589728:SHP589826 SRL589728:SRL589826 TBH589728:TBH589826 TLD589728:TLD589826 TUZ589728:TUZ589826 UEV589728:UEV589826 UOR589728:UOR589826 UYN589728:UYN589826 VIJ589728:VIJ589826 VSF589728:VSF589826 WCB589728:WCB589826 WLX589728:WLX589826 WVT589728:WVT589826 L655264:L655362 JH655264:JH655362 TD655264:TD655362 ACZ655264:ACZ655362 AMV655264:AMV655362 AWR655264:AWR655362 BGN655264:BGN655362 BQJ655264:BQJ655362 CAF655264:CAF655362 CKB655264:CKB655362 CTX655264:CTX655362 DDT655264:DDT655362 DNP655264:DNP655362 DXL655264:DXL655362 EHH655264:EHH655362 ERD655264:ERD655362 FAZ655264:FAZ655362 FKV655264:FKV655362 FUR655264:FUR655362 GEN655264:GEN655362 GOJ655264:GOJ655362 GYF655264:GYF655362 HIB655264:HIB655362 HRX655264:HRX655362 IBT655264:IBT655362 ILP655264:ILP655362 IVL655264:IVL655362 JFH655264:JFH655362 JPD655264:JPD655362 JYZ655264:JYZ655362 KIV655264:KIV655362 KSR655264:KSR655362 LCN655264:LCN655362 LMJ655264:LMJ655362 LWF655264:LWF655362 MGB655264:MGB655362 MPX655264:MPX655362 MZT655264:MZT655362 NJP655264:NJP655362 NTL655264:NTL655362 ODH655264:ODH655362 OND655264:OND655362 OWZ655264:OWZ655362 PGV655264:PGV655362 PQR655264:PQR655362 QAN655264:QAN655362 QKJ655264:QKJ655362 QUF655264:QUF655362 REB655264:REB655362 RNX655264:RNX655362 RXT655264:RXT655362 SHP655264:SHP655362 SRL655264:SRL655362 TBH655264:TBH655362 TLD655264:TLD655362 TUZ655264:TUZ655362 UEV655264:UEV655362 UOR655264:UOR655362 UYN655264:UYN655362 VIJ655264:VIJ655362 VSF655264:VSF655362 WCB655264:WCB655362 WLX655264:WLX655362 WVT655264:WVT655362 L720800:L720898 JH720800:JH720898 TD720800:TD720898 ACZ720800:ACZ720898 AMV720800:AMV720898 AWR720800:AWR720898 BGN720800:BGN720898 BQJ720800:BQJ720898 CAF720800:CAF720898 CKB720800:CKB720898 CTX720800:CTX720898 DDT720800:DDT720898 DNP720800:DNP720898 DXL720800:DXL720898 EHH720800:EHH720898 ERD720800:ERD720898 FAZ720800:FAZ720898 FKV720800:FKV720898 FUR720800:FUR720898 GEN720800:GEN720898 GOJ720800:GOJ720898 GYF720800:GYF720898 HIB720800:HIB720898 HRX720800:HRX720898 IBT720800:IBT720898 ILP720800:ILP720898 IVL720800:IVL720898 JFH720800:JFH720898 JPD720800:JPD720898 JYZ720800:JYZ720898 KIV720800:KIV720898 KSR720800:KSR720898 LCN720800:LCN720898 LMJ720800:LMJ720898 LWF720800:LWF720898 MGB720800:MGB720898 MPX720800:MPX720898 MZT720800:MZT720898 NJP720800:NJP720898 NTL720800:NTL720898 ODH720800:ODH720898 OND720800:OND720898 OWZ720800:OWZ720898 PGV720800:PGV720898 PQR720800:PQR720898 QAN720800:QAN720898 QKJ720800:QKJ720898 QUF720800:QUF720898 REB720800:REB720898 RNX720800:RNX720898 RXT720800:RXT720898 SHP720800:SHP720898 SRL720800:SRL720898 TBH720800:TBH720898 TLD720800:TLD720898 TUZ720800:TUZ720898 UEV720800:UEV720898 UOR720800:UOR720898 UYN720800:UYN720898 VIJ720800:VIJ720898 VSF720800:VSF720898 WCB720800:WCB720898 WLX720800:WLX720898 WVT720800:WVT720898 L786336:L786434 JH786336:JH786434 TD786336:TD786434 ACZ786336:ACZ786434 AMV786336:AMV786434 AWR786336:AWR786434 BGN786336:BGN786434 BQJ786336:BQJ786434 CAF786336:CAF786434 CKB786336:CKB786434 CTX786336:CTX786434 DDT786336:DDT786434 DNP786336:DNP786434 DXL786336:DXL786434 EHH786336:EHH786434 ERD786336:ERD786434 FAZ786336:FAZ786434 FKV786336:FKV786434 FUR786336:FUR786434 GEN786336:GEN786434 GOJ786336:GOJ786434 GYF786336:GYF786434 HIB786336:HIB786434 HRX786336:HRX786434 IBT786336:IBT786434 ILP786336:ILP786434 IVL786336:IVL786434 JFH786336:JFH786434 JPD786336:JPD786434 JYZ786336:JYZ786434 KIV786336:KIV786434 KSR786336:KSR786434 LCN786336:LCN786434 LMJ786336:LMJ786434 LWF786336:LWF786434 MGB786336:MGB786434 MPX786336:MPX786434 MZT786336:MZT786434 NJP786336:NJP786434 NTL786336:NTL786434 ODH786336:ODH786434 OND786336:OND786434 OWZ786336:OWZ786434 PGV786336:PGV786434 PQR786336:PQR786434 QAN786336:QAN786434 QKJ786336:QKJ786434 QUF786336:QUF786434 REB786336:REB786434 RNX786336:RNX786434 RXT786336:RXT786434 SHP786336:SHP786434 SRL786336:SRL786434 TBH786336:TBH786434 TLD786336:TLD786434 TUZ786336:TUZ786434 UEV786336:UEV786434 UOR786336:UOR786434 UYN786336:UYN786434 VIJ786336:VIJ786434 VSF786336:VSF786434 WCB786336:WCB786434 WLX786336:WLX786434 WVT786336:WVT786434 L851872:L851970 JH851872:JH851970 TD851872:TD851970 ACZ851872:ACZ851970 AMV851872:AMV851970 AWR851872:AWR851970 BGN851872:BGN851970 BQJ851872:BQJ851970 CAF851872:CAF851970 CKB851872:CKB851970 CTX851872:CTX851970 DDT851872:DDT851970 DNP851872:DNP851970 DXL851872:DXL851970 EHH851872:EHH851970 ERD851872:ERD851970 FAZ851872:FAZ851970 FKV851872:FKV851970 FUR851872:FUR851970 GEN851872:GEN851970 GOJ851872:GOJ851970 GYF851872:GYF851970 HIB851872:HIB851970 HRX851872:HRX851970 IBT851872:IBT851970 ILP851872:ILP851970 IVL851872:IVL851970 JFH851872:JFH851970 JPD851872:JPD851970 JYZ851872:JYZ851970 KIV851872:KIV851970 KSR851872:KSR851970 LCN851872:LCN851970 LMJ851872:LMJ851970 LWF851872:LWF851970 MGB851872:MGB851970 MPX851872:MPX851970 MZT851872:MZT851970 NJP851872:NJP851970 NTL851872:NTL851970 ODH851872:ODH851970 OND851872:OND851970 OWZ851872:OWZ851970 PGV851872:PGV851970 PQR851872:PQR851970 QAN851872:QAN851970 QKJ851872:QKJ851970 QUF851872:QUF851970 REB851872:REB851970 RNX851872:RNX851970 RXT851872:RXT851970 SHP851872:SHP851970 SRL851872:SRL851970 TBH851872:TBH851970 TLD851872:TLD851970 TUZ851872:TUZ851970 UEV851872:UEV851970 UOR851872:UOR851970 UYN851872:UYN851970 VIJ851872:VIJ851970 VSF851872:VSF851970 WCB851872:WCB851970 WLX851872:WLX851970 WVT851872:WVT851970 L917408:L917506 JH917408:JH917506 TD917408:TD917506 ACZ917408:ACZ917506 AMV917408:AMV917506 AWR917408:AWR917506 BGN917408:BGN917506 BQJ917408:BQJ917506 CAF917408:CAF917506 CKB917408:CKB917506 CTX917408:CTX917506 DDT917408:DDT917506 DNP917408:DNP917506 DXL917408:DXL917506 EHH917408:EHH917506 ERD917408:ERD917506 FAZ917408:FAZ917506 FKV917408:FKV917506 FUR917408:FUR917506 GEN917408:GEN917506 GOJ917408:GOJ917506 GYF917408:GYF917506 HIB917408:HIB917506 HRX917408:HRX917506 IBT917408:IBT917506 ILP917408:ILP917506 IVL917408:IVL917506 JFH917408:JFH917506 JPD917408:JPD917506 JYZ917408:JYZ917506 KIV917408:KIV917506 KSR917408:KSR917506 LCN917408:LCN917506 LMJ917408:LMJ917506 LWF917408:LWF917506 MGB917408:MGB917506 MPX917408:MPX917506 MZT917408:MZT917506 NJP917408:NJP917506 NTL917408:NTL917506 ODH917408:ODH917506 OND917408:OND917506 OWZ917408:OWZ917506 PGV917408:PGV917506 PQR917408:PQR917506 QAN917408:QAN917506 QKJ917408:QKJ917506 QUF917408:QUF917506 REB917408:REB917506 RNX917408:RNX917506 RXT917408:RXT917506 SHP917408:SHP917506 SRL917408:SRL917506 TBH917408:TBH917506 TLD917408:TLD917506 TUZ917408:TUZ917506 UEV917408:UEV917506 UOR917408:UOR917506 UYN917408:UYN917506 VIJ917408:VIJ917506 VSF917408:VSF917506 WCB917408:WCB917506 WLX917408:WLX917506 WVT917408:WVT917506 L982944:L983042 JH982944:JH983042 TD982944:TD983042 ACZ982944:ACZ983042 AMV982944:AMV983042 AWR982944:AWR983042 BGN982944:BGN983042 BQJ982944:BQJ983042 CAF982944:CAF983042 CKB982944:CKB983042 CTX982944:CTX983042 DDT982944:DDT983042 DNP982944:DNP983042 DXL982944:DXL983042 EHH982944:EHH983042 ERD982944:ERD983042 FAZ982944:FAZ983042 FKV982944:FKV983042 FUR982944:FUR983042 GEN982944:GEN983042 GOJ982944:GOJ983042 GYF982944:GYF983042 HIB982944:HIB983042 HRX982944:HRX983042 IBT982944:IBT983042 ILP982944:ILP983042 IVL982944:IVL983042 JFH982944:JFH983042 JPD982944:JPD983042 JYZ982944:JYZ983042 KIV982944:KIV983042 KSR982944:KSR983042 LCN982944:LCN983042 LMJ982944:LMJ983042 LWF982944:LWF983042 MGB982944:MGB983042 MPX982944:MPX983042 MZT982944:MZT983042 NJP982944:NJP983042 NTL982944:NTL983042 ODH982944:ODH983042 OND982944:OND983042 OWZ982944:OWZ983042 PGV982944:PGV983042 PQR982944:PQR983042 QAN982944:QAN983042 QKJ982944:QKJ983042 QUF982944:QUF983042 REB982944:REB983042 RNX982944:RNX983042 RXT982944:RXT983042 SHP982944:SHP983042 SRL982944:SRL983042 TBH982944:TBH983042 TLD982944:TLD983042 TUZ982944:TUZ983042 UEV982944:UEV983042 UOR982944:UOR983042 UYN982944:UYN983042 VIJ982944:VIJ983042 VSF982944:VSF983042 WCB982944:WCB983042 WLX982944:WLX983042 WVT982944:WVT983042" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
       <formula1>0</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 IW2 SS2 ACO2 AMK2 AWG2 BGC2 BPY2 BZU2 CJQ2 CTM2 DDI2 DNE2 DXA2 EGW2 EQS2 FAO2 FKK2 FUG2 GEC2 GNY2 GXU2 HHQ2 HRM2 IBI2 ILE2 IVA2 JEW2 JOS2 JYO2 KIK2 KSG2 LCC2 LLY2 LVU2 MFQ2 MPM2 MZI2 NJE2 NTA2 OCW2 OMS2 OWO2 PGK2 PQG2 QAC2 QJY2 QTU2 RDQ2 RNM2 RXI2 SHE2 SRA2 TAW2 TKS2 TUO2 UEK2 UOG2 UYC2 VHY2 VRU2 WBQ2 WLM2 WVI2 A65440:A65538 IW65440:IW65538 SS65440:SS65538 ACO65440:ACO65538 AMK65440:AMK65538 AWG65440:AWG65538 BGC65440:BGC65538 BPY65440:BPY65538 BZU65440:BZU65538 CJQ65440:CJQ65538 CTM65440:CTM65538 DDI65440:DDI65538 DNE65440:DNE65538 DXA65440:DXA65538 EGW65440:EGW65538 EQS65440:EQS65538 FAO65440:FAO65538 FKK65440:FKK65538 FUG65440:FUG65538 GEC65440:GEC65538 GNY65440:GNY65538 GXU65440:GXU65538 HHQ65440:HHQ65538 HRM65440:HRM65538 IBI65440:IBI65538 ILE65440:ILE65538 IVA65440:IVA65538 JEW65440:JEW65538 JOS65440:JOS65538 JYO65440:JYO65538 KIK65440:KIK65538 KSG65440:KSG65538 LCC65440:LCC65538 LLY65440:LLY65538 LVU65440:LVU65538 MFQ65440:MFQ65538 MPM65440:MPM65538 MZI65440:MZI65538 NJE65440:NJE65538 NTA65440:NTA65538 OCW65440:OCW65538 OMS65440:OMS65538 OWO65440:OWO65538 PGK65440:PGK65538 PQG65440:PQG65538 QAC65440:QAC65538 QJY65440:QJY65538 QTU65440:QTU65538 RDQ65440:RDQ65538 RNM65440:RNM65538 RXI65440:RXI65538 SHE65440:SHE65538 SRA65440:SRA65538 TAW65440:TAW65538 TKS65440:TKS65538 TUO65440:TUO65538 UEK65440:UEK65538 UOG65440:UOG65538 UYC65440:UYC65538 VHY65440:VHY65538 VRU65440:VRU65538 WBQ65440:WBQ65538 WLM65440:WLM65538 WVI65440:WVI65538 A130976:A131074 IW130976:IW131074 SS130976:SS131074 ACO130976:ACO131074 AMK130976:AMK131074 AWG130976:AWG131074 BGC130976:BGC131074 BPY130976:BPY131074 BZU130976:BZU131074 CJQ130976:CJQ131074 CTM130976:CTM131074 DDI130976:DDI131074 DNE130976:DNE131074 DXA130976:DXA131074 EGW130976:EGW131074 EQS130976:EQS131074 FAO130976:FAO131074 FKK130976:FKK131074 FUG130976:FUG131074 GEC130976:GEC131074 GNY130976:GNY131074 GXU130976:GXU131074 HHQ130976:HHQ131074 HRM130976:HRM131074 IBI130976:IBI131074 ILE130976:ILE131074 IVA130976:IVA131074 JEW130976:JEW131074 JOS130976:JOS131074 JYO130976:JYO131074 KIK130976:KIK131074 KSG130976:KSG131074 LCC130976:LCC131074 LLY130976:LLY131074 LVU130976:LVU131074 MFQ130976:MFQ131074 MPM130976:MPM131074 MZI130976:MZI131074 NJE130976:NJE131074 NTA130976:NTA131074 OCW130976:OCW131074 OMS130976:OMS131074 OWO130976:OWO131074 PGK130976:PGK131074 PQG130976:PQG131074 QAC130976:QAC131074 QJY130976:QJY131074 QTU130976:QTU131074 RDQ130976:RDQ131074 RNM130976:RNM131074 RXI130976:RXI131074 SHE130976:SHE131074 SRA130976:SRA131074 TAW130976:TAW131074 TKS130976:TKS131074 TUO130976:TUO131074 UEK130976:UEK131074 UOG130976:UOG131074 UYC130976:UYC131074 VHY130976:VHY131074 VRU130976:VRU131074 WBQ130976:WBQ131074 WLM130976:WLM131074 WVI130976:WVI131074 A196512:A196610 IW196512:IW196610 SS196512:SS196610 ACO196512:ACO196610 AMK196512:AMK196610 AWG196512:AWG196610 BGC196512:BGC196610 BPY196512:BPY196610 BZU196512:BZU196610 CJQ196512:CJQ196610 CTM196512:CTM196610 DDI196512:DDI196610 DNE196512:DNE196610 DXA196512:DXA196610 EGW196512:EGW196610 EQS196512:EQS196610 FAO196512:FAO196610 FKK196512:FKK196610 FUG196512:FUG196610 GEC196512:GEC196610 GNY196512:GNY196610 GXU196512:GXU196610 HHQ196512:HHQ196610 HRM196512:HRM196610 IBI196512:IBI196610 ILE196512:ILE196610 IVA196512:IVA196610 JEW196512:JEW196610 JOS196512:JOS196610 JYO196512:JYO196610 KIK196512:KIK196610 KSG196512:KSG196610 LCC196512:LCC196610 LLY196512:LLY196610 LVU196512:LVU196610 MFQ196512:MFQ196610 MPM196512:MPM196610 MZI196512:MZI196610 NJE196512:NJE196610 NTA196512:NTA196610 OCW196512:OCW196610 OMS196512:OMS196610 OWO196512:OWO196610 PGK196512:PGK196610 PQG196512:PQG196610 QAC196512:QAC196610 QJY196512:QJY196610 QTU196512:QTU196610 RDQ196512:RDQ196610 RNM196512:RNM196610 RXI196512:RXI196610 SHE196512:SHE196610 SRA196512:SRA196610 TAW196512:TAW196610 TKS196512:TKS196610 TUO196512:TUO196610 UEK196512:UEK196610 UOG196512:UOG196610 UYC196512:UYC196610 VHY196512:VHY196610 VRU196512:VRU196610 WBQ196512:WBQ196610 WLM196512:WLM196610 WVI196512:WVI196610 A262048:A262146 IW262048:IW262146 SS262048:SS262146 ACO262048:ACO262146 AMK262048:AMK262146 AWG262048:AWG262146 BGC262048:BGC262146 BPY262048:BPY262146 BZU262048:BZU262146 CJQ262048:CJQ262146 CTM262048:CTM262146 DDI262048:DDI262146 DNE262048:DNE262146 DXA262048:DXA262146 EGW262048:EGW262146 EQS262048:EQS262146 FAO262048:FAO262146 FKK262048:FKK262146 FUG262048:FUG262146 GEC262048:GEC262146 GNY262048:GNY262146 GXU262048:GXU262146 HHQ262048:HHQ262146 HRM262048:HRM262146 IBI262048:IBI262146 ILE262048:ILE262146 IVA262048:IVA262146 JEW262048:JEW262146 JOS262048:JOS262146 JYO262048:JYO262146 KIK262048:KIK262146 KSG262048:KSG262146 LCC262048:LCC262146 LLY262048:LLY262146 LVU262048:LVU262146 MFQ262048:MFQ262146 MPM262048:MPM262146 MZI262048:MZI262146 NJE262048:NJE262146 NTA262048:NTA262146 OCW262048:OCW262146 OMS262048:OMS262146 OWO262048:OWO262146 PGK262048:PGK262146 PQG262048:PQG262146 QAC262048:QAC262146 QJY262048:QJY262146 QTU262048:QTU262146 RDQ262048:RDQ262146 RNM262048:RNM262146 RXI262048:RXI262146 SHE262048:SHE262146 SRA262048:SRA262146 TAW262048:TAW262146 TKS262048:TKS262146 TUO262048:TUO262146 UEK262048:UEK262146 UOG262048:UOG262146 UYC262048:UYC262146 VHY262048:VHY262146 VRU262048:VRU262146 WBQ262048:WBQ262146 WLM262048:WLM262146 WVI262048:WVI262146 A327584:A327682 IW327584:IW327682 SS327584:SS327682 ACO327584:ACO327682 AMK327584:AMK327682 AWG327584:AWG327682 BGC327584:BGC327682 BPY327584:BPY327682 BZU327584:BZU327682 CJQ327584:CJQ327682 CTM327584:CTM327682 DDI327584:DDI327682 DNE327584:DNE327682 DXA327584:DXA327682 EGW327584:EGW327682 EQS327584:EQS327682 FAO327584:FAO327682 FKK327584:FKK327682 FUG327584:FUG327682 GEC327584:GEC327682 GNY327584:GNY327682 GXU327584:GXU327682 HHQ327584:HHQ327682 HRM327584:HRM327682 IBI327584:IBI327682 ILE327584:ILE327682 IVA327584:IVA327682 JEW327584:JEW327682 JOS327584:JOS327682 JYO327584:JYO327682 KIK327584:KIK327682 KSG327584:KSG327682 LCC327584:LCC327682 LLY327584:LLY327682 LVU327584:LVU327682 MFQ327584:MFQ327682 MPM327584:MPM327682 MZI327584:MZI327682 NJE327584:NJE327682 NTA327584:NTA327682 OCW327584:OCW327682 OMS327584:OMS327682 OWO327584:OWO327682 PGK327584:PGK327682 PQG327584:PQG327682 QAC327584:QAC327682 QJY327584:QJY327682 QTU327584:QTU327682 RDQ327584:RDQ327682 RNM327584:RNM327682 RXI327584:RXI327682 SHE327584:SHE327682 SRA327584:SRA327682 TAW327584:TAW327682 TKS327584:TKS327682 TUO327584:TUO327682 UEK327584:UEK327682 UOG327584:UOG327682 UYC327584:UYC327682 VHY327584:VHY327682 VRU327584:VRU327682 WBQ327584:WBQ327682 WLM327584:WLM327682 WVI327584:WVI327682 A393120:A393218 IW393120:IW393218 SS393120:SS393218 ACO393120:ACO393218 AMK393120:AMK393218 AWG393120:AWG393218 BGC393120:BGC393218 BPY393120:BPY393218 BZU393120:BZU393218 CJQ393120:CJQ393218 CTM393120:CTM393218 DDI393120:DDI393218 DNE393120:DNE393218 DXA393120:DXA393218 EGW393120:EGW393218 EQS393120:EQS393218 FAO393120:FAO393218 FKK393120:FKK393218 FUG393120:FUG393218 GEC393120:GEC393218 GNY393120:GNY393218 GXU393120:GXU393218 HHQ393120:HHQ393218 HRM393120:HRM393218 IBI393120:IBI393218 ILE393120:ILE393218 IVA393120:IVA393218 JEW393120:JEW393218 JOS393120:JOS393218 JYO393120:JYO393218 KIK393120:KIK393218 KSG393120:KSG393218 LCC393120:LCC393218 LLY393120:LLY393218 LVU393120:LVU393218 MFQ393120:MFQ393218 MPM393120:MPM393218 MZI393120:MZI393218 NJE393120:NJE393218 NTA393120:NTA393218 OCW393120:OCW393218 OMS393120:OMS393218 OWO393120:OWO393218 PGK393120:PGK393218 PQG393120:PQG393218 QAC393120:QAC393218 QJY393120:QJY393218 QTU393120:QTU393218 RDQ393120:RDQ393218 RNM393120:RNM393218 RXI393120:RXI393218 SHE393120:SHE393218 SRA393120:SRA393218 TAW393120:TAW393218 TKS393120:TKS393218 TUO393120:TUO393218 UEK393120:UEK393218 UOG393120:UOG393218 UYC393120:UYC393218 VHY393120:VHY393218 VRU393120:VRU393218 WBQ393120:WBQ393218 WLM393120:WLM393218 WVI393120:WVI393218 A458656:A458754 IW458656:IW458754 SS458656:SS458754 ACO458656:ACO458754 AMK458656:AMK458754 AWG458656:AWG458754 BGC458656:BGC458754 BPY458656:BPY458754 BZU458656:BZU458754 CJQ458656:CJQ458754 CTM458656:CTM458754 DDI458656:DDI458754 DNE458656:DNE458754 DXA458656:DXA458754 EGW458656:EGW458754 EQS458656:EQS458754 FAO458656:FAO458754 FKK458656:FKK458754 FUG458656:FUG458754 GEC458656:GEC458754 GNY458656:GNY458754 GXU458656:GXU458754 HHQ458656:HHQ458754 HRM458656:HRM458754 IBI458656:IBI458754 ILE458656:ILE458754 IVA458656:IVA458754 JEW458656:JEW458754 JOS458656:JOS458754 JYO458656:JYO458754 KIK458656:KIK458754 KSG458656:KSG458754 LCC458656:LCC458754 LLY458656:LLY458754 LVU458656:LVU458754 MFQ458656:MFQ458754 MPM458656:MPM458754 MZI458656:MZI458754 NJE458656:NJE458754 NTA458656:NTA458754 OCW458656:OCW458754 OMS458656:OMS458754 OWO458656:OWO458754 PGK458656:PGK458754 PQG458656:PQG458754 QAC458656:QAC458754 QJY458656:QJY458754 QTU458656:QTU458754 RDQ458656:RDQ458754 RNM458656:RNM458754 RXI458656:RXI458754 SHE458656:SHE458754 SRA458656:SRA458754 TAW458656:TAW458754 TKS458656:TKS458754 TUO458656:TUO458754 UEK458656:UEK458754 UOG458656:UOG458754 UYC458656:UYC458754 VHY458656:VHY458754 VRU458656:VRU458754 WBQ458656:WBQ458754 WLM458656:WLM458754 WVI458656:WVI458754 A524192:A524290 IW524192:IW524290 SS524192:SS524290 ACO524192:ACO524290 AMK524192:AMK524290 AWG524192:AWG524290 BGC524192:BGC524290 BPY524192:BPY524290 BZU524192:BZU524290 CJQ524192:CJQ524290 CTM524192:CTM524290 DDI524192:DDI524290 DNE524192:DNE524290 DXA524192:DXA524290 EGW524192:EGW524290 EQS524192:EQS524290 FAO524192:FAO524290 FKK524192:FKK524290 FUG524192:FUG524290 GEC524192:GEC524290 GNY524192:GNY524290 GXU524192:GXU524290 HHQ524192:HHQ524290 HRM524192:HRM524290 IBI524192:IBI524290 ILE524192:ILE524290 IVA524192:IVA524290 JEW524192:JEW524290 JOS524192:JOS524290 JYO524192:JYO524290 KIK524192:KIK524290 KSG524192:KSG524290 LCC524192:LCC524290 LLY524192:LLY524290 LVU524192:LVU524290 MFQ524192:MFQ524290 MPM524192:MPM524290 MZI524192:MZI524290 NJE524192:NJE524290 NTA524192:NTA524290 OCW524192:OCW524290 OMS524192:OMS524290 OWO524192:OWO524290 PGK524192:PGK524290 PQG524192:PQG524290 QAC524192:QAC524290 QJY524192:QJY524290 QTU524192:QTU524290 RDQ524192:RDQ524290 RNM524192:RNM524290 RXI524192:RXI524290 SHE524192:SHE524290 SRA524192:SRA524290 TAW524192:TAW524290 TKS524192:TKS524290 TUO524192:TUO524290 UEK524192:UEK524290 UOG524192:UOG524290 UYC524192:UYC524290 VHY524192:VHY524290 VRU524192:VRU524290 WBQ524192:WBQ524290 WLM524192:WLM524290 WVI524192:WVI524290 A589728:A589826 IW589728:IW589826 SS589728:SS589826 ACO589728:ACO589826 AMK589728:AMK589826 AWG589728:AWG589826 BGC589728:BGC589826 BPY589728:BPY589826 BZU589728:BZU589826 CJQ589728:CJQ589826 CTM589728:CTM589826 DDI589728:DDI589826 DNE589728:DNE589826 DXA589728:DXA589826 EGW589728:EGW589826 EQS589728:EQS589826 FAO589728:FAO589826 FKK589728:FKK589826 FUG589728:FUG589826 GEC589728:GEC589826 GNY589728:GNY589826 GXU589728:GXU589826 HHQ589728:HHQ589826 HRM589728:HRM589826 IBI589728:IBI589826 ILE589728:ILE589826 IVA589728:IVA589826 JEW589728:JEW589826 JOS589728:JOS589826 JYO589728:JYO589826 KIK589728:KIK589826 KSG589728:KSG589826 LCC589728:LCC589826 LLY589728:LLY589826 LVU589728:LVU589826 MFQ589728:MFQ589826 MPM589728:MPM589826 MZI589728:MZI589826 NJE589728:NJE589826 NTA589728:NTA589826 OCW589728:OCW589826 OMS589728:OMS589826 OWO589728:OWO589826 PGK589728:PGK589826 PQG589728:PQG589826 QAC589728:QAC589826 QJY589728:QJY589826 QTU589728:QTU589826 RDQ589728:RDQ589826 RNM589728:RNM589826 RXI589728:RXI589826 SHE589728:SHE589826 SRA589728:SRA589826 TAW589728:TAW589826 TKS589728:TKS589826 TUO589728:TUO589826 UEK589728:UEK589826 UOG589728:UOG589826 UYC589728:UYC589826 VHY589728:VHY589826 VRU589728:VRU589826 WBQ589728:WBQ589826 WLM589728:WLM589826 WVI589728:WVI589826 A655264:A655362 IW655264:IW655362 SS655264:SS655362 ACO655264:ACO655362 AMK655264:AMK655362 AWG655264:AWG655362 BGC655264:BGC655362 BPY655264:BPY655362 BZU655264:BZU655362 CJQ655264:CJQ655362 CTM655264:CTM655362 DDI655264:DDI655362 DNE655264:DNE655362 DXA655264:DXA655362 EGW655264:EGW655362 EQS655264:EQS655362 FAO655264:FAO655362 FKK655264:FKK655362 FUG655264:FUG655362 GEC655264:GEC655362 GNY655264:GNY655362 GXU655264:GXU655362 HHQ655264:HHQ655362 HRM655264:HRM655362 IBI655264:IBI655362 ILE655264:ILE655362 IVA655264:IVA655362 JEW655264:JEW655362 JOS655264:JOS655362 JYO655264:JYO655362 KIK655264:KIK655362 KSG655264:KSG655362 LCC655264:LCC655362 LLY655264:LLY655362 LVU655264:LVU655362 MFQ655264:MFQ655362 MPM655264:MPM655362 MZI655264:MZI655362 NJE655264:NJE655362 NTA655264:NTA655362 OCW655264:OCW655362 OMS655264:OMS655362 OWO655264:OWO655362 PGK655264:PGK655362 PQG655264:PQG655362 QAC655264:QAC655362 QJY655264:QJY655362 QTU655264:QTU655362 RDQ655264:RDQ655362 RNM655264:RNM655362 RXI655264:RXI655362 SHE655264:SHE655362 SRA655264:SRA655362 TAW655264:TAW655362 TKS655264:TKS655362 TUO655264:TUO655362 UEK655264:UEK655362 UOG655264:UOG655362 UYC655264:UYC655362 VHY655264:VHY655362 VRU655264:VRU655362 WBQ655264:WBQ655362 WLM655264:WLM655362 WVI655264:WVI655362 A720800:A720898 IW720800:IW720898 SS720800:SS720898 ACO720800:ACO720898 AMK720800:AMK720898 AWG720800:AWG720898 BGC720800:BGC720898 BPY720800:BPY720898 BZU720800:BZU720898 CJQ720800:CJQ720898 CTM720800:CTM720898 DDI720800:DDI720898 DNE720800:DNE720898 DXA720800:DXA720898 EGW720800:EGW720898 EQS720800:EQS720898 FAO720800:FAO720898 FKK720800:FKK720898 FUG720800:FUG720898 GEC720800:GEC720898 GNY720800:GNY720898 GXU720800:GXU720898 HHQ720800:HHQ720898 HRM720800:HRM720898 IBI720800:IBI720898 ILE720800:ILE720898 IVA720800:IVA720898 JEW720800:JEW720898 JOS720800:JOS720898 JYO720800:JYO720898 KIK720800:KIK720898 KSG720800:KSG720898 LCC720800:LCC720898 LLY720800:LLY720898 LVU720800:LVU720898 MFQ720800:MFQ720898 MPM720800:MPM720898 MZI720800:MZI720898 NJE720800:NJE720898 NTA720800:NTA720898 OCW720800:OCW720898 OMS720800:OMS720898 OWO720800:OWO720898 PGK720800:PGK720898 PQG720800:PQG720898 QAC720800:QAC720898 QJY720800:QJY720898 QTU720800:QTU720898 RDQ720800:RDQ720898 RNM720800:RNM720898 RXI720800:RXI720898 SHE720800:SHE720898 SRA720800:SRA720898 TAW720800:TAW720898 TKS720800:TKS720898 TUO720800:TUO720898 UEK720800:UEK720898 UOG720800:UOG720898 UYC720800:UYC720898 VHY720800:VHY720898 VRU720800:VRU720898 WBQ720800:WBQ720898 WLM720800:WLM720898 WVI720800:WVI720898 A786336:A786434 IW786336:IW786434 SS786336:SS786434 ACO786336:ACO786434 AMK786336:AMK786434 AWG786336:AWG786434 BGC786336:BGC786434 BPY786336:BPY786434 BZU786336:BZU786434 CJQ786336:CJQ786434 CTM786336:CTM786434 DDI786336:DDI786434 DNE786336:DNE786434 DXA786336:DXA786434 EGW786336:EGW786434 EQS786336:EQS786434 FAO786336:FAO786434 FKK786336:FKK786434 FUG786336:FUG786434 GEC786336:GEC786434 GNY786336:GNY786434 GXU786336:GXU786434 HHQ786336:HHQ786434 HRM786336:HRM786434 IBI786336:IBI786434 ILE786336:ILE786434 IVA786336:IVA786434 JEW786336:JEW786434 JOS786336:JOS786434 JYO786336:JYO786434 KIK786336:KIK786434 KSG786336:KSG786434 LCC786336:LCC786434 LLY786336:LLY786434 LVU786336:LVU786434 MFQ786336:MFQ786434 MPM786336:MPM786434 MZI786336:MZI786434 NJE786336:NJE786434 NTA786336:NTA786434 OCW786336:OCW786434 OMS786336:OMS786434 OWO786336:OWO786434 PGK786336:PGK786434 PQG786336:PQG786434 QAC786336:QAC786434 QJY786336:QJY786434 QTU786336:QTU786434 RDQ786336:RDQ786434 RNM786336:RNM786434 RXI786336:RXI786434 SHE786336:SHE786434 SRA786336:SRA786434 TAW786336:TAW786434 TKS786336:TKS786434 TUO786336:TUO786434 UEK786336:UEK786434 UOG786336:UOG786434 UYC786336:UYC786434 VHY786336:VHY786434 VRU786336:VRU786434 WBQ786336:WBQ786434 WLM786336:WLM786434 WVI786336:WVI786434 A851872:A851970 IW851872:IW851970 SS851872:SS851970 ACO851872:ACO851970 AMK851872:AMK851970 AWG851872:AWG851970 BGC851872:BGC851970 BPY851872:BPY851970 BZU851872:BZU851970 CJQ851872:CJQ851970 CTM851872:CTM851970 DDI851872:DDI851970 DNE851872:DNE851970 DXA851872:DXA851970 EGW851872:EGW851970 EQS851872:EQS851970 FAO851872:FAO851970 FKK851872:FKK851970 FUG851872:FUG851970 GEC851872:GEC851970 GNY851872:GNY851970 GXU851872:GXU851970 HHQ851872:HHQ851970 HRM851872:HRM851970 IBI851872:IBI851970 ILE851872:ILE851970 IVA851872:IVA851970 JEW851872:JEW851970 JOS851872:JOS851970 JYO851872:JYO851970 KIK851872:KIK851970 KSG851872:KSG851970 LCC851872:LCC851970 LLY851872:LLY851970 LVU851872:LVU851970 MFQ851872:MFQ851970 MPM851872:MPM851970 MZI851872:MZI851970 NJE851872:NJE851970 NTA851872:NTA851970 OCW851872:OCW851970 OMS851872:OMS851970 OWO851872:OWO851970 PGK851872:PGK851970 PQG851872:PQG851970 QAC851872:QAC851970 QJY851872:QJY851970 QTU851872:QTU851970 RDQ851872:RDQ851970 RNM851872:RNM851970 RXI851872:RXI851970 SHE851872:SHE851970 SRA851872:SRA851970 TAW851872:TAW851970 TKS851872:TKS851970 TUO851872:TUO851970 UEK851872:UEK851970 UOG851872:UOG851970 UYC851872:UYC851970 VHY851872:VHY851970 VRU851872:VRU851970 WBQ851872:WBQ851970 WLM851872:WLM851970 WVI851872:WVI851970 A917408:A917506 IW917408:IW917506 SS917408:SS917506 ACO917408:ACO917506 AMK917408:AMK917506 AWG917408:AWG917506 BGC917408:BGC917506 BPY917408:BPY917506 BZU917408:BZU917506 CJQ917408:CJQ917506 CTM917408:CTM917506 DDI917408:DDI917506 DNE917408:DNE917506 DXA917408:DXA917506 EGW917408:EGW917506 EQS917408:EQS917506 FAO917408:FAO917506 FKK917408:FKK917506 FUG917408:FUG917506 GEC917408:GEC917506 GNY917408:GNY917506 GXU917408:GXU917506 HHQ917408:HHQ917506 HRM917408:HRM917506 IBI917408:IBI917506 ILE917408:ILE917506 IVA917408:IVA917506 JEW917408:JEW917506 JOS917408:JOS917506 JYO917408:JYO917506 KIK917408:KIK917506 KSG917408:KSG917506 LCC917408:LCC917506 LLY917408:LLY917506 LVU917408:LVU917506 MFQ917408:MFQ917506 MPM917408:MPM917506 MZI917408:MZI917506 NJE917408:NJE917506 NTA917408:NTA917506 OCW917408:OCW917506 OMS917408:OMS917506 OWO917408:OWO917506 PGK917408:PGK917506 PQG917408:PQG917506 QAC917408:QAC917506 QJY917408:QJY917506 QTU917408:QTU917506 RDQ917408:RDQ917506 RNM917408:RNM917506 RXI917408:RXI917506 SHE917408:SHE917506 SRA917408:SRA917506 TAW917408:TAW917506 TKS917408:TKS917506 TUO917408:TUO917506 UEK917408:UEK917506 UOG917408:UOG917506 UYC917408:UYC917506 VHY917408:VHY917506 VRU917408:VRU917506 WBQ917408:WBQ917506 WLM917408:WLM917506 WVI917408:WVI917506 A982944:A983042 IW982944:IW983042 SS982944:SS983042 ACO982944:ACO983042 AMK982944:AMK983042 AWG982944:AWG983042 BGC982944:BGC983042 BPY982944:BPY983042 BZU982944:BZU983042 CJQ982944:CJQ983042 CTM982944:CTM983042 DDI982944:DDI983042 DNE982944:DNE983042 DXA982944:DXA983042 EGW982944:EGW983042 EQS982944:EQS983042 FAO982944:FAO983042 FKK982944:FKK983042 FUG982944:FUG983042 GEC982944:GEC983042 GNY982944:GNY983042 GXU982944:GXU983042 HHQ982944:HHQ983042 HRM982944:HRM983042 IBI982944:IBI983042 ILE982944:ILE983042 IVA982944:IVA983042 JEW982944:JEW983042 JOS982944:JOS983042 JYO982944:JYO983042 KIK982944:KIK983042 KSG982944:KSG983042 LCC982944:LCC983042 LLY982944:LLY983042 LVU982944:LVU983042 MFQ982944:MFQ983042 MPM982944:MPM983042 MZI982944:MZI983042 NJE982944:NJE983042 NTA982944:NTA983042 OCW982944:OCW983042 OMS982944:OMS983042 OWO982944:OWO983042 PGK982944:PGK983042 PQG982944:PQG983042 QAC982944:QAC983042 QJY982944:QJY983042 QTU982944:QTU983042 RDQ982944:RDQ983042 RNM982944:RNM983042 RXI982944:RXI983042 SHE982944:SHE983042 SRA982944:SRA983042 TAW982944:TAW983042 TKS982944:TKS983042 TUO982944:TUO983042 UEK982944:UEK983042 UOG982944:UOG983042 UYC982944:UYC983042 VHY982944:VHY983042 VRU982944:VRU983042 WBQ982944:WBQ983042 WLM982944:WLM983042 WVI982944:WVI983042" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 IX2 ST2 ACP2 AML2 AWH2 BGD2 BPZ2 BZV2 CJR2 CTN2 DDJ2 DNF2 DXB2 EGX2 EQT2 FAP2 FKL2 FUH2 GED2 GNZ2 GXV2 HHR2 HRN2 IBJ2 ILF2 IVB2 JEX2 JOT2 JYP2 KIL2 KSH2 LCD2 LLZ2 LVV2 MFR2 MPN2 MZJ2 NJF2 NTB2 OCX2 OMT2 OWP2 PGL2 PQH2 QAD2 QJZ2 QTV2 RDR2 RNN2 RXJ2 SHF2 SRB2 TAX2 TKT2 TUP2 UEL2 UOH2 UYD2 VHZ2 VRV2 WBR2 WLN2 WVJ2 A65440:A65538 IX65440:IX65538 ST65440:ST65538 ACP65440:ACP65538 AML65440:AML65538 AWH65440:AWH65538 BGD65440:BGD65538 BPZ65440:BPZ65538 BZV65440:BZV65538 CJR65440:CJR65538 CTN65440:CTN65538 DDJ65440:DDJ65538 DNF65440:DNF65538 DXB65440:DXB65538 EGX65440:EGX65538 EQT65440:EQT65538 FAP65440:FAP65538 FKL65440:FKL65538 FUH65440:FUH65538 GED65440:GED65538 GNZ65440:GNZ65538 GXV65440:GXV65538 HHR65440:HHR65538 HRN65440:HRN65538 IBJ65440:IBJ65538 ILF65440:ILF65538 IVB65440:IVB65538 JEX65440:JEX65538 JOT65440:JOT65538 JYP65440:JYP65538 KIL65440:KIL65538 KSH65440:KSH65538 LCD65440:LCD65538 LLZ65440:LLZ65538 LVV65440:LVV65538 MFR65440:MFR65538 MPN65440:MPN65538 MZJ65440:MZJ65538 NJF65440:NJF65538 NTB65440:NTB65538 OCX65440:OCX65538 OMT65440:OMT65538 OWP65440:OWP65538 PGL65440:PGL65538 PQH65440:PQH65538 QAD65440:QAD65538 QJZ65440:QJZ65538 QTV65440:QTV65538 RDR65440:RDR65538 RNN65440:RNN65538 RXJ65440:RXJ65538 SHF65440:SHF65538 SRB65440:SRB65538 TAX65440:TAX65538 TKT65440:TKT65538 TUP65440:TUP65538 UEL65440:UEL65538 UOH65440:UOH65538 UYD65440:UYD65538 VHZ65440:VHZ65538 VRV65440:VRV65538 WBR65440:WBR65538 WLN65440:WLN65538 WVJ65440:WVJ65538 A130976:A131074 IX130976:IX131074 ST130976:ST131074 ACP130976:ACP131074 AML130976:AML131074 AWH130976:AWH131074 BGD130976:BGD131074 BPZ130976:BPZ131074 BZV130976:BZV131074 CJR130976:CJR131074 CTN130976:CTN131074 DDJ130976:DDJ131074 DNF130976:DNF131074 DXB130976:DXB131074 EGX130976:EGX131074 EQT130976:EQT131074 FAP130976:FAP131074 FKL130976:FKL131074 FUH130976:FUH131074 GED130976:GED131074 GNZ130976:GNZ131074 GXV130976:GXV131074 HHR130976:HHR131074 HRN130976:HRN131074 IBJ130976:IBJ131074 ILF130976:ILF131074 IVB130976:IVB131074 JEX130976:JEX131074 JOT130976:JOT131074 JYP130976:JYP131074 KIL130976:KIL131074 KSH130976:KSH131074 LCD130976:LCD131074 LLZ130976:LLZ131074 LVV130976:LVV131074 MFR130976:MFR131074 MPN130976:MPN131074 MZJ130976:MZJ131074 NJF130976:NJF131074 NTB130976:NTB131074 OCX130976:OCX131074 OMT130976:OMT131074 OWP130976:OWP131074 PGL130976:PGL131074 PQH130976:PQH131074 QAD130976:QAD131074 QJZ130976:QJZ131074 QTV130976:QTV131074 RDR130976:RDR131074 RNN130976:RNN131074 RXJ130976:RXJ131074 SHF130976:SHF131074 SRB130976:SRB131074 TAX130976:TAX131074 TKT130976:TKT131074 TUP130976:TUP131074 UEL130976:UEL131074 UOH130976:UOH131074 UYD130976:UYD131074 VHZ130976:VHZ131074 VRV130976:VRV131074 WBR130976:WBR131074 WLN130976:WLN131074 WVJ130976:WVJ131074 A196512:A196610 IX196512:IX196610 ST196512:ST196610 ACP196512:ACP196610 AML196512:AML196610 AWH196512:AWH196610 BGD196512:BGD196610 BPZ196512:BPZ196610 BZV196512:BZV196610 CJR196512:CJR196610 CTN196512:CTN196610 DDJ196512:DDJ196610 DNF196512:DNF196610 DXB196512:DXB196610 EGX196512:EGX196610 EQT196512:EQT196610 FAP196512:FAP196610 FKL196512:FKL196610 FUH196512:FUH196610 GED196512:GED196610 GNZ196512:GNZ196610 GXV196512:GXV196610 HHR196512:HHR196610 HRN196512:HRN196610 IBJ196512:IBJ196610 ILF196512:ILF196610 IVB196512:IVB196610 JEX196512:JEX196610 JOT196512:JOT196610 JYP196512:JYP196610 KIL196512:KIL196610 KSH196512:KSH196610 LCD196512:LCD196610 LLZ196512:LLZ196610 LVV196512:LVV196610 MFR196512:MFR196610 MPN196512:MPN196610 MZJ196512:MZJ196610 NJF196512:NJF196610 NTB196512:NTB196610 OCX196512:OCX196610 OMT196512:OMT196610 OWP196512:OWP196610 PGL196512:PGL196610 PQH196512:PQH196610 QAD196512:QAD196610 QJZ196512:QJZ196610 QTV196512:QTV196610 RDR196512:RDR196610 RNN196512:RNN196610 RXJ196512:RXJ196610 SHF196512:SHF196610 SRB196512:SRB196610 TAX196512:TAX196610 TKT196512:TKT196610 TUP196512:TUP196610 UEL196512:UEL196610 UOH196512:UOH196610 UYD196512:UYD196610 VHZ196512:VHZ196610 VRV196512:VRV196610 WBR196512:WBR196610 WLN196512:WLN196610 WVJ196512:WVJ196610 A262048:A262146 IX262048:IX262146 ST262048:ST262146 ACP262048:ACP262146 AML262048:AML262146 AWH262048:AWH262146 BGD262048:BGD262146 BPZ262048:BPZ262146 BZV262048:BZV262146 CJR262048:CJR262146 CTN262048:CTN262146 DDJ262048:DDJ262146 DNF262048:DNF262146 DXB262048:DXB262146 EGX262048:EGX262146 EQT262048:EQT262146 FAP262048:FAP262146 FKL262048:FKL262146 FUH262048:FUH262146 GED262048:GED262146 GNZ262048:GNZ262146 GXV262048:GXV262146 HHR262048:HHR262146 HRN262048:HRN262146 IBJ262048:IBJ262146 ILF262048:ILF262146 IVB262048:IVB262146 JEX262048:JEX262146 JOT262048:JOT262146 JYP262048:JYP262146 KIL262048:KIL262146 KSH262048:KSH262146 LCD262048:LCD262146 LLZ262048:LLZ262146 LVV262048:LVV262146 MFR262048:MFR262146 MPN262048:MPN262146 MZJ262048:MZJ262146 NJF262048:NJF262146 NTB262048:NTB262146 OCX262048:OCX262146 OMT262048:OMT262146 OWP262048:OWP262146 PGL262048:PGL262146 PQH262048:PQH262146 QAD262048:QAD262146 QJZ262048:QJZ262146 QTV262048:QTV262146 RDR262048:RDR262146 RNN262048:RNN262146 RXJ262048:RXJ262146 SHF262048:SHF262146 SRB262048:SRB262146 TAX262048:TAX262146 TKT262048:TKT262146 TUP262048:TUP262146 UEL262048:UEL262146 UOH262048:UOH262146 UYD262048:UYD262146 VHZ262048:VHZ262146 VRV262048:VRV262146 WBR262048:WBR262146 WLN262048:WLN262146 WVJ262048:WVJ262146 A327584:A327682 IX327584:IX327682 ST327584:ST327682 ACP327584:ACP327682 AML327584:AML327682 AWH327584:AWH327682 BGD327584:BGD327682 BPZ327584:BPZ327682 BZV327584:BZV327682 CJR327584:CJR327682 CTN327584:CTN327682 DDJ327584:DDJ327682 DNF327584:DNF327682 DXB327584:DXB327682 EGX327584:EGX327682 EQT327584:EQT327682 FAP327584:FAP327682 FKL327584:FKL327682 FUH327584:FUH327682 GED327584:GED327682 GNZ327584:GNZ327682 GXV327584:GXV327682 HHR327584:HHR327682 HRN327584:HRN327682 IBJ327584:IBJ327682 ILF327584:ILF327682 IVB327584:IVB327682 JEX327584:JEX327682 JOT327584:JOT327682 JYP327584:JYP327682 KIL327584:KIL327682 KSH327584:KSH327682 LCD327584:LCD327682 LLZ327584:LLZ327682 LVV327584:LVV327682 MFR327584:MFR327682 MPN327584:MPN327682 MZJ327584:MZJ327682 NJF327584:NJF327682 NTB327584:NTB327682 OCX327584:OCX327682 OMT327584:OMT327682 OWP327584:OWP327682 PGL327584:PGL327682 PQH327584:PQH327682 QAD327584:QAD327682 QJZ327584:QJZ327682 QTV327584:QTV327682 RDR327584:RDR327682 RNN327584:RNN327682 RXJ327584:RXJ327682 SHF327584:SHF327682 SRB327584:SRB327682 TAX327584:TAX327682 TKT327584:TKT327682 TUP327584:TUP327682 UEL327584:UEL327682 UOH327584:UOH327682 UYD327584:UYD327682 VHZ327584:VHZ327682 VRV327584:VRV327682 WBR327584:WBR327682 WLN327584:WLN327682 WVJ327584:WVJ327682 A393120:A393218 IX393120:IX393218 ST393120:ST393218 ACP393120:ACP393218 AML393120:AML393218 AWH393120:AWH393218 BGD393120:BGD393218 BPZ393120:BPZ393218 BZV393120:BZV393218 CJR393120:CJR393218 CTN393120:CTN393218 DDJ393120:DDJ393218 DNF393120:DNF393218 DXB393120:DXB393218 EGX393120:EGX393218 EQT393120:EQT393218 FAP393120:FAP393218 FKL393120:FKL393218 FUH393120:FUH393218 GED393120:GED393218 GNZ393120:GNZ393218 GXV393120:GXV393218 HHR393120:HHR393218 HRN393120:HRN393218 IBJ393120:IBJ393218 ILF393120:ILF393218 IVB393120:IVB393218 JEX393120:JEX393218 JOT393120:JOT393218 JYP393120:JYP393218 KIL393120:KIL393218 KSH393120:KSH393218 LCD393120:LCD393218 LLZ393120:LLZ393218 LVV393120:LVV393218 MFR393120:MFR393218 MPN393120:MPN393218 MZJ393120:MZJ393218 NJF393120:NJF393218 NTB393120:NTB393218 OCX393120:OCX393218 OMT393120:OMT393218 OWP393120:OWP393218 PGL393120:PGL393218 PQH393120:PQH393218 QAD393120:QAD393218 QJZ393120:QJZ393218 QTV393120:QTV393218 RDR393120:RDR393218 RNN393120:RNN393218 RXJ393120:RXJ393218 SHF393120:SHF393218 SRB393120:SRB393218 TAX393120:TAX393218 TKT393120:TKT393218 TUP393120:TUP393218 UEL393120:UEL393218 UOH393120:UOH393218 UYD393120:UYD393218 VHZ393120:VHZ393218 VRV393120:VRV393218 WBR393120:WBR393218 WLN393120:WLN393218 WVJ393120:WVJ393218 A458656:A458754 IX458656:IX458754 ST458656:ST458754 ACP458656:ACP458754 AML458656:AML458754 AWH458656:AWH458754 BGD458656:BGD458754 BPZ458656:BPZ458754 BZV458656:BZV458754 CJR458656:CJR458754 CTN458656:CTN458754 DDJ458656:DDJ458754 DNF458656:DNF458754 DXB458656:DXB458754 EGX458656:EGX458754 EQT458656:EQT458754 FAP458656:FAP458754 FKL458656:FKL458754 FUH458656:FUH458754 GED458656:GED458754 GNZ458656:GNZ458754 GXV458656:GXV458754 HHR458656:HHR458754 HRN458656:HRN458754 IBJ458656:IBJ458754 ILF458656:ILF458754 IVB458656:IVB458754 JEX458656:JEX458754 JOT458656:JOT458754 JYP458656:JYP458754 KIL458656:KIL458754 KSH458656:KSH458754 LCD458656:LCD458754 LLZ458656:LLZ458754 LVV458656:LVV458754 MFR458656:MFR458754 MPN458656:MPN458754 MZJ458656:MZJ458754 NJF458656:NJF458754 NTB458656:NTB458754 OCX458656:OCX458754 OMT458656:OMT458754 OWP458656:OWP458754 PGL458656:PGL458754 PQH458656:PQH458754 QAD458656:QAD458754 QJZ458656:QJZ458754 QTV458656:QTV458754 RDR458656:RDR458754 RNN458656:RNN458754 RXJ458656:RXJ458754 SHF458656:SHF458754 SRB458656:SRB458754 TAX458656:TAX458754 TKT458656:TKT458754 TUP458656:TUP458754 UEL458656:UEL458754 UOH458656:UOH458754 UYD458656:UYD458754 VHZ458656:VHZ458754 VRV458656:VRV458754 WBR458656:WBR458754 WLN458656:WLN458754 WVJ458656:WVJ458754 A524192:A524290 IX524192:IX524290 ST524192:ST524290 ACP524192:ACP524290 AML524192:AML524290 AWH524192:AWH524290 BGD524192:BGD524290 BPZ524192:BPZ524290 BZV524192:BZV524290 CJR524192:CJR524290 CTN524192:CTN524290 DDJ524192:DDJ524290 DNF524192:DNF524290 DXB524192:DXB524290 EGX524192:EGX524290 EQT524192:EQT524290 FAP524192:FAP524290 FKL524192:FKL524290 FUH524192:FUH524290 GED524192:GED524290 GNZ524192:GNZ524290 GXV524192:GXV524290 HHR524192:HHR524290 HRN524192:HRN524290 IBJ524192:IBJ524290 ILF524192:ILF524290 IVB524192:IVB524290 JEX524192:JEX524290 JOT524192:JOT524290 JYP524192:JYP524290 KIL524192:KIL524290 KSH524192:KSH524290 LCD524192:LCD524290 LLZ524192:LLZ524290 LVV524192:LVV524290 MFR524192:MFR524290 MPN524192:MPN524290 MZJ524192:MZJ524290 NJF524192:NJF524290 NTB524192:NTB524290 OCX524192:OCX524290 OMT524192:OMT524290 OWP524192:OWP524290 PGL524192:PGL524290 PQH524192:PQH524290 QAD524192:QAD524290 QJZ524192:QJZ524290 QTV524192:QTV524290 RDR524192:RDR524290 RNN524192:RNN524290 RXJ524192:RXJ524290 SHF524192:SHF524290 SRB524192:SRB524290 TAX524192:TAX524290 TKT524192:TKT524290 TUP524192:TUP524290 UEL524192:UEL524290 UOH524192:UOH524290 UYD524192:UYD524290 VHZ524192:VHZ524290 VRV524192:VRV524290 WBR524192:WBR524290 WLN524192:WLN524290 WVJ524192:WVJ524290 A589728:A589826 IX589728:IX589826 ST589728:ST589826 ACP589728:ACP589826 AML589728:AML589826 AWH589728:AWH589826 BGD589728:BGD589826 BPZ589728:BPZ589826 BZV589728:BZV589826 CJR589728:CJR589826 CTN589728:CTN589826 DDJ589728:DDJ589826 DNF589728:DNF589826 DXB589728:DXB589826 EGX589728:EGX589826 EQT589728:EQT589826 FAP589728:FAP589826 FKL589728:FKL589826 FUH589728:FUH589826 GED589728:GED589826 GNZ589728:GNZ589826 GXV589728:GXV589826 HHR589728:HHR589826 HRN589728:HRN589826 IBJ589728:IBJ589826 ILF589728:ILF589826 IVB589728:IVB589826 JEX589728:JEX589826 JOT589728:JOT589826 JYP589728:JYP589826 KIL589728:KIL589826 KSH589728:KSH589826 LCD589728:LCD589826 LLZ589728:LLZ589826 LVV589728:LVV589826 MFR589728:MFR589826 MPN589728:MPN589826 MZJ589728:MZJ589826 NJF589728:NJF589826 NTB589728:NTB589826 OCX589728:OCX589826 OMT589728:OMT589826 OWP589728:OWP589826 PGL589728:PGL589826 PQH589728:PQH589826 QAD589728:QAD589826 QJZ589728:QJZ589826 QTV589728:QTV589826 RDR589728:RDR589826 RNN589728:RNN589826 RXJ589728:RXJ589826 SHF589728:SHF589826 SRB589728:SRB589826 TAX589728:TAX589826 TKT589728:TKT589826 TUP589728:TUP589826 UEL589728:UEL589826 UOH589728:UOH589826 UYD589728:UYD589826 VHZ589728:VHZ589826 VRV589728:VRV589826 WBR589728:WBR589826 WLN589728:WLN589826 WVJ589728:WVJ589826 A655264:A655362 IX655264:IX655362 ST655264:ST655362 ACP655264:ACP655362 AML655264:AML655362 AWH655264:AWH655362 BGD655264:BGD655362 BPZ655264:BPZ655362 BZV655264:BZV655362 CJR655264:CJR655362 CTN655264:CTN655362 DDJ655264:DDJ655362 DNF655264:DNF655362 DXB655264:DXB655362 EGX655264:EGX655362 EQT655264:EQT655362 FAP655264:FAP655362 FKL655264:FKL655362 FUH655264:FUH655362 GED655264:GED655362 GNZ655264:GNZ655362 GXV655264:GXV655362 HHR655264:HHR655362 HRN655264:HRN655362 IBJ655264:IBJ655362 ILF655264:ILF655362 IVB655264:IVB655362 JEX655264:JEX655362 JOT655264:JOT655362 JYP655264:JYP655362 KIL655264:KIL655362 KSH655264:KSH655362 LCD655264:LCD655362 LLZ655264:LLZ655362 LVV655264:LVV655362 MFR655264:MFR655362 MPN655264:MPN655362 MZJ655264:MZJ655362 NJF655264:NJF655362 NTB655264:NTB655362 OCX655264:OCX655362 OMT655264:OMT655362 OWP655264:OWP655362 PGL655264:PGL655362 PQH655264:PQH655362 QAD655264:QAD655362 QJZ655264:QJZ655362 QTV655264:QTV655362 RDR655264:RDR655362 RNN655264:RNN655362 RXJ655264:RXJ655362 SHF655264:SHF655362 SRB655264:SRB655362 TAX655264:TAX655362 TKT655264:TKT655362 TUP655264:TUP655362 UEL655264:UEL655362 UOH655264:UOH655362 UYD655264:UYD655362 VHZ655264:VHZ655362 VRV655264:VRV655362 WBR655264:WBR655362 WLN655264:WLN655362 WVJ655264:WVJ655362 A720800:A720898 IX720800:IX720898 ST720800:ST720898 ACP720800:ACP720898 AML720800:AML720898 AWH720800:AWH720898 BGD720800:BGD720898 BPZ720800:BPZ720898 BZV720800:BZV720898 CJR720800:CJR720898 CTN720800:CTN720898 DDJ720800:DDJ720898 DNF720800:DNF720898 DXB720800:DXB720898 EGX720800:EGX720898 EQT720800:EQT720898 FAP720800:FAP720898 FKL720800:FKL720898 FUH720800:FUH720898 GED720800:GED720898 GNZ720800:GNZ720898 GXV720800:GXV720898 HHR720800:HHR720898 HRN720800:HRN720898 IBJ720800:IBJ720898 ILF720800:ILF720898 IVB720800:IVB720898 JEX720800:JEX720898 JOT720800:JOT720898 JYP720800:JYP720898 KIL720800:KIL720898 KSH720800:KSH720898 LCD720800:LCD720898 LLZ720800:LLZ720898 LVV720800:LVV720898 MFR720800:MFR720898 MPN720800:MPN720898 MZJ720800:MZJ720898 NJF720800:NJF720898 NTB720800:NTB720898 OCX720800:OCX720898 OMT720800:OMT720898 OWP720800:OWP720898 PGL720800:PGL720898 PQH720800:PQH720898 QAD720800:QAD720898 QJZ720800:QJZ720898 QTV720800:QTV720898 RDR720800:RDR720898 RNN720800:RNN720898 RXJ720800:RXJ720898 SHF720800:SHF720898 SRB720800:SRB720898 TAX720800:TAX720898 TKT720800:TKT720898 TUP720800:TUP720898 UEL720800:UEL720898 UOH720800:UOH720898 UYD720800:UYD720898 VHZ720800:VHZ720898 VRV720800:VRV720898 WBR720800:WBR720898 WLN720800:WLN720898 WVJ720800:WVJ720898 A786336:A786434 IX786336:IX786434 ST786336:ST786434 ACP786336:ACP786434 AML786336:AML786434 AWH786336:AWH786434 BGD786336:BGD786434 BPZ786336:BPZ786434 BZV786336:BZV786434 CJR786336:CJR786434 CTN786336:CTN786434 DDJ786336:DDJ786434 DNF786336:DNF786434 DXB786336:DXB786434 EGX786336:EGX786434 EQT786336:EQT786434 FAP786336:FAP786434 FKL786336:FKL786434 FUH786336:FUH786434 GED786336:GED786434 GNZ786336:GNZ786434 GXV786336:GXV786434 HHR786336:HHR786434 HRN786336:HRN786434 IBJ786336:IBJ786434 ILF786336:ILF786434 IVB786336:IVB786434 JEX786336:JEX786434 JOT786336:JOT786434 JYP786336:JYP786434 KIL786336:KIL786434 KSH786336:KSH786434 LCD786336:LCD786434 LLZ786336:LLZ786434 LVV786336:LVV786434 MFR786336:MFR786434 MPN786336:MPN786434 MZJ786336:MZJ786434 NJF786336:NJF786434 NTB786336:NTB786434 OCX786336:OCX786434 OMT786336:OMT786434 OWP786336:OWP786434 PGL786336:PGL786434 PQH786336:PQH786434 QAD786336:QAD786434 QJZ786336:QJZ786434 QTV786336:QTV786434 RDR786336:RDR786434 RNN786336:RNN786434 RXJ786336:RXJ786434 SHF786336:SHF786434 SRB786336:SRB786434 TAX786336:TAX786434 TKT786336:TKT786434 TUP786336:TUP786434 UEL786336:UEL786434 UOH786336:UOH786434 UYD786336:UYD786434 VHZ786336:VHZ786434 VRV786336:VRV786434 WBR786336:WBR786434 WLN786336:WLN786434 WVJ786336:WVJ786434 A851872:A851970 IX851872:IX851970 ST851872:ST851970 ACP851872:ACP851970 AML851872:AML851970 AWH851872:AWH851970 BGD851872:BGD851970 BPZ851872:BPZ851970 BZV851872:BZV851970 CJR851872:CJR851970 CTN851872:CTN851970 DDJ851872:DDJ851970 DNF851872:DNF851970 DXB851872:DXB851970 EGX851872:EGX851970 EQT851872:EQT851970 FAP851872:FAP851970 FKL851872:FKL851970 FUH851872:FUH851970 GED851872:GED851970 GNZ851872:GNZ851970 GXV851872:GXV851970 HHR851872:HHR851970 HRN851872:HRN851970 IBJ851872:IBJ851970 ILF851872:ILF851970 IVB851872:IVB851970 JEX851872:JEX851970 JOT851872:JOT851970 JYP851872:JYP851970 KIL851872:KIL851970 KSH851872:KSH851970 LCD851872:LCD851970 LLZ851872:LLZ851970 LVV851872:LVV851970 MFR851872:MFR851970 MPN851872:MPN851970 MZJ851872:MZJ851970 NJF851872:NJF851970 NTB851872:NTB851970 OCX851872:OCX851970 OMT851872:OMT851970 OWP851872:OWP851970 PGL851872:PGL851970 PQH851872:PQH851970 QAD851872:QAD851970 QJZ851872:QJZ851970 QTV851872:QTV851970 RDR851872:RDR851970 RNN851872:RNN851970 RXJ851872:RXJ851970 SHF851872:SHF851970 SRB851872:SRB851970 TAX851872:TAX851970 TKT851872:TKT851970 TUP851872:TUP851970 UEL851872:UEL851970 UOH851872:UOH851970 UYD851872:UYD851970 VHZ851872:VHZ851970 VRV851872:VRV851970 WBR851872:WBR851970 WLN851872:WLN851970 WVJ851872:WVJ851970 A917408:A917506 IX917408:IX917506 ST917408:ST917506 ACP917408:ACP917506 AML917408:AML917506 AWH917408:AWH917506 BGD917408:BGD917506 BPZ917408:BPZ917506 BZV917408:BZV917506 CJR917408:CJR917506 CTN917408:CTN917506 DDJ917408:DDJ917506 DNF917408:DNF917506 DXB917408:DXB917506 EGX917408:EGX917506 EQT917408:EQT917506 FAP917408:FAP917506 FKL917408:FKL917506 FUH917408:FUH917506 GED917408:GED917506 GNZ917408:GNZ917506 GXV917408:GXV917506 HHR917408:HHR917506 HRN917408:HRN917506 IBJ917408:IBJ917506 ILF917408:ILF917506 IVB917408:IVB917506 JEX917408:JEX917506 JOT917408:JOT917506 JYP917408:JYP917506 KIL917408:KIL917506 KSH917408:KSH917506 LCD917408:LCD917506 LLZ917408:LLZ917506 LVV917408:LVV917506 MFR917408:MFR917506 MPN917408:MPN917506 MZJ917408:MZJ917506 NJF917408:NJF917506 NTB917408:NTB917506 OCX917408:OCX917506 OMT917408:OMT917506 OWP917408:OWP917506 PGL917408:PGL917506 PQH917408:PQH917506 QAD917408:QAD917506 QJZ917408:QJZ917506 QTV917408:QTV917506 RDR917408:RDR917506 RNN917408:RNN917506 RXJ917408:RXJ917506 SHF917408:SHF917506 SRB917408:SRB917506 TAX917408:TAX917506 TKT917408:TKT917506 TUP917408:TUP917506 UEL917408:UEL917506 UOH917408:UOH917506 UYD917408:UYD917506 VHZ917408:VHZ917506 VRV917408:VRV917506 WBR917408:WBR917506 WLN917408:WLN917506 WVJ917408:WVJ917506 A982944:A983042 IX982944:IX983042 ST982944:ST983042 ACP982944:ACP983042 AML982944:AML983042 AWH982944:AWH983042 BGD982944:BGD983042 BPZ982944:BPZ983042 BZV982944:BZV983042 CJR982944:CJR983042 CTN982944:CTN983042 DDJ982944:DDJ983042 DNF982944:DNF983042 DXB982944:DXB983042 EGX982944:EGX983042 EQT982944:EQT983042 FAP982944:FAP983042 FKL982944:FKL983042 FUH982944:FUH983042 GED982944:GED983042 GNZ982944:GNZ983042 GXV982944:GXV983042 HHR982944:HHR983042 HRN982944:HRN983042 IBJ982944:IBJ983042 ILF982944:ILF983042 IVB982944:IVB983042 JEX982944:JEX983042 JOT982944:JOT983042 JYP982944:JYP983042 KIL982944:KIL983042 KSH982944:KSH983042 LCD982944:LCD983042 LLZ982944:LLZ983042 LVV982944:LVV983042 MFR982944:MFR983042 MPN982944:MPN983042 MZJ982944:MZJ983042 NJF982944:NJF983042 NTB982944:NTB983042 OCX982944:OCX983042 OMT982944:OMT983042 OWP982944:OWP983042 PGL982944:PGL983042 PQH982944:PQH983042 QAD982944:QAD983042 QJZ982944:QJZ983042 QTV982944:QTV983042 RDR982944:RDR983042 RNN982944:RNN983042 RXJ982944:RXJ983042 SHF982944:SHF983042 SRB982944:SRB983042 TAX982944:TAX983042 TKT982944:TKT983042 TUP982944:TUP983042 UEL982944:UEL983042 UOH982944:UOH983042 UYD982944:UYD983042 VHZ982944:VHZ983042 VRV982944:VRV983042 WBR982944:WBR983042 WLN982944:WLN983042 WVJ982944:WVJ983042" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 JR2 TN2 ADJ2 ANF2 AXB2 BGX2 BQT2 CAP2 CKL2 CUH2 DED2 DNZ2 DXV2 EHR2 ERN2 FBJ2 FLF2 FVB2 GEX2 GOT2 GYP2 HIL2 HSH2 ICD2 ILZ2 IVV2 JFR2 JPN2 JZJ2 KJF2 KTB2 LCX2 LMT2 LWP2 MGL2 MQH2 NAD2 NJZ2 NTV2 ODR2 ONN2 OXJ2 PHF2 PRB2 QAX2 QKT2 QUP2 REL2 ROH2 RYD2 SHZ2 SRV2 TBR2 TLN2 TVJ2 UFF2 UPB2 UYX2 VIT2 VSP2 WCL2 WMH2 WWD2 V65440:V65538 JR65440:JR65538 TN65440:TN65538 ADJ65440:ADJ65538 ANF65440:ANF65538 AXB65440:AXB65538 BGX65440:BGX65538 BQT65440:BQT65538 CAP65440:CAP65538 CKL65440:CKL65538 CUH65440:CUH65538 DED65440:DED65538 DNZ65440:DNZ65538 DXV65440:DXV65538 EHR65440:EHR65538 ERN65440:ERN65538 FBJ65440:FBJ65538 FLF65440:FLF65538 FVB65440:FVB65538 GEX65440:GEX65538 GOT65440:GOT65538 GYP65440:GYP65538 HIL65440:HIL65538 HSH65440:HSH65538 ICD65440:ICD65538 ILZ65440:ILZ65538 IVV65440:IVV65538 JFR65440:JFR65538 JPN65440:JPN65538 JZJ65440:JZJ65538 KJF65440:KJF65538 KTB65440:KTB65538 LCX65440:LCX65538 LMT65440:LMT65538 LWP65440:LWP65538 MGL65440:MGL65538 MQH65440:MQH65538 NAD65440:NAD65538 NJZ65440:NJZ65538 NTV65440:NTV65538 ODR65440:ODR65538 ONN65440:ONN65538 OXJ65440:OXJ65538 PHF65440:PHF65538 PRB65440:PRB65538 QAX65440:QAX65538 QKT65440:QKT65538 QUP65440:QUP65538 REL65440:REL65538 ROH65440:ROH65538 RYD65440:RYD65538 SHZ65440:SHZ65538 SRV65440:SRV65538 TBR65440:TBR65538 TLN65440:TLN65538 TVJ65440:TVJ65538 UFF65440:UFF65538 UPB65440:UPB65538 UYX65440:UYX65538 VIT65440:VIT65538 VSP65440:VSP65538 WCL65440:WCL65538 WMH65440:WMH65538 WWD65440:WWD65538 V130976:V131074 JR130976:JR131074 TN130976:TN131074 ADJ130976:ADJ131074 ANF130976:ANF131074 AXB130976:AXB131074 BGX130976:BGX131074 BQT130976:BQT131074 CAP130976:CAP131074 CKL130976:CKL131074 CUH130976:CUH131074 DED130976:DED131074 DNZ130976:DNZ131074 DXV130976:DXV131074 EHR130976:EHR131074 ERN130976:ERN131074 FBJ130976:FBJ131074 FLF130976:FLF131074 FVB130976:FVB131074 GEX130976:GEX131074 GOT130976:GOT131074 GYP130976:GYP131074 HIL130976:HIL131074 HSH130976:HSH131074 ICD130976:ICD131074 ILZ130976:ILZ131074 IVV130976:IVV131074 JFR130976:JFR131074 JPN130976:JPN131074 JZJ130976:JZJ131074 KJF130976:KJF131074 KTB130976:KTB131074 LCX130976:LCX131074 LMT130976:LMT131074 LWP130976:LWP131074 MGL130976:MGL131074 MQH130976:MQH131074 NAD130976:NAD131074 NJZ130976:NJZ131074 NTV130976:NTV131074 ODR130976:ODR131074 ONN130976:ONN131074 OXJ130976:OXJ131074 PHF130976:PHF131074 PRB130976:PRB131074 QAX130976:QAX131074 QKT130976:QKT131074 QUP130976:QUP131074 REL130976:REL131074 ROH130976:ROH131074 RYD130976:RYD131074 SHZ130976:SHZ131074 SRV130976:SRV131074 TBR130976:TBR131074 TLN130976:TLN131074 TVJ130976:TVJ131074 UFF130976:UFF131074 UPB130976:UPB131074 UYX130976:UYX131074 VIT130976:VIT131074 VSP130976:VSP131074 WCL130976:WCL131074 WMH130976:WMH131074 WWD130976:WWD131074 V196512:V196610 JR196512:JR196610 TN196512:TN196610 ADJ196512:ADJ196610 ANF196512:ANF196610 AXB196512:AXB196610 BGX196512:BGX196610 BQT196512:BQT196610 CAP196512:CAP196610 CKL196512:CKL196610 CUH196512:CUH196610 DED196512:DED196610 DNZ196512:DNZ196610 DXV196512:DXV196610 EHR196512:EHR196610 ERN196512:ERN196610 FBJ196512:FBJ196610 FLF196512:FLF196610 FVB196512:FVB196610 GEX196512:GEX196610 GOT196512:GOT196610 GYP196512:GYP196610 HIL196512:HIL196610 HSH196512:HSH196610 ICD196512:ICD196610 ILZ196512:ILZ196610 IVV196512:IVV196610 JFR196512:JFR196610 JPN196512:JPN196610 JZJ196512:JZJ196610 KJF196512:KJF196610 KTB196512:KTB196610 LCX196512:LCX196610 LMT196512:LMT196610 LWP196512:LWP196610 MGL196512:MGL196610 MQH196512:MQH196610 NAD196512:NAD196610 NJZ196512:NJZ196610 NTV196512:NTV196610 ODR196512:ODR196610 ONN196512:ONN196610 OXJ196512:OXJ196610 PHF196512:PHF196610 PRB196512:PRB196610 QAX196512:QAX196610 QKT196512:QKT196610 QUP196512:QUP196610 REL196512:REL196610 ROH196512:ROH196610 RYD196512:RYD196610 SHZ196512:SHZ196610 SRV196512:SRV196610 TBR196512:TBR196610 TLN196512:TLN196610 TVJ196512:TVJ196610 UFF196512:UFF196610 UPB196512:UPB196610 UYX196512:UYX196610 VIT196512:VIT196610 VSP196512:VSP196610 WCL196512:WCL196610 WMH196512:WMH196610 WWD196512:WWD196610 V262048:V262146 JR262048:JR262146 TN262048:TN262146 ADJ262048:ADJ262146 ANF262048:ANF262146 AXB262048:AXB262146 BGX262048:BGX262146 BQT262048:BQT262146 CAP262048:CAP262146 CKL262048:CKL262146 CUH262048:CUH262146 DED262048:DED262146 DNZ262048:DNZ262146 DXV262048:DXV262146 EHR262048:EHR262146 ERN262048:ERN262146 FBJ262048:FBJ262146 FLF262048:FLF262146 FVB262048:FVB262146 GEX262048:GEX262146 GOT262048:GOT262146 GYP262048:GYP262146 HIL262048:HIL262146 HSH262048:HSH262146 ICD262048:ICD262146 ILZ262048:ILZ262146 IVV262048:IVV262146 JFR262048:JFR262146 JPN262048:JPN262146 JZJ262048:JZJ262146 KJF262048:KJF262146 KTB262048:KTB262146 LCX262048:LCX262146 LMT262048:LMT262146 LWP262048:LWP262146 MGL262048:MGL262146 MQH262048:MQH262146 NAD262048:NAD262146 NJZ262048:NJZ262146 NTV262048:NTV262146 ODR262048:ODR262146 ONN262048:ONN262146 OXJ262048:OXJ262146 PHF262048:PHF262146 PRB262048:PRB262146 QAX262048:QAX262146 QKT262048:QKT262146 QUP262048:QUP262146 REL262048:REL262146 ROH262048:ROH262146 RYD262048:RYD262146 SHZ262048:SHZ262146 SRV262048:SRV262146 TBR262048:TBR262146 TLN262048:TLN262146 TVJ262048:TVJ262146 UFF262048:UFF262146 UPB262048:UPB262146 UYX262048:UYX262146 VIT262048:VIT262146 VSP262048:VSP262146 WCL262048:WCL262146 WMH262048:WMH262146 WWD262048:WWD262146 V327584:V327682 JR327584:JR327682 TN327584:TN327682 ADJ327584:ADJ327682 ANF327584:ANF327682 AXB327584:AXB327682 BGX327584:BGX327682 BQT327584:BQT327682 CAP327584:CAP327682 CKL327584:CKL327682 CUH327584:CUH327682 DED327584:DED327682 DNZ327584:DNZ327682 DXV327584:DXV327682 EHR327584:EHR327682 ERN327584:ERN327682 FBJ327584:FBJ327682 FLF327584:FLF327682 FVB327584:FVB327682 GEX327584:GEX327682 GOT327584:GOT327682 GYP327584:GYP327682 HIL327584:HIL327682 HSH327584:HSH327682 ICD327584:ICD327682 ILZ327584:ILZ327682 IVV327584:IVV327682 JFR327584:JFR327682 JPN327584:JPN327682 JZJ327584:JZJ327682 KJF327584:KJF327682 KTB327584:KTB327682 LCX327584:LCX327682 LMT327584:LMT327682 LWP327584:LWP327682 MGL327584:MGL327682 MQH327584:MQH327682 NAD327584:NAD327682 NJZ327584:NJZ327682 NTV327584:NTV327682 ODR327584:ODR327682 ONN327584:ONN327682 OXJ327584:OXJ327682 PHF327584:PHF327682 PRB327584:PRB327682 QAX327584:QAX327682 QKT327584:QKT327682 QUP327584:QUP327682 REL327584:REL327682 ROH327584:ROH327682 RYD327584:RYD327682 SHZ327584:SHZ327682 SRV327584:SRV327682 TBR327584:TBR327682 TLN327584:TLN327682 TVJ327584:TVJ327682 UFF327584:UFF327682 UPB327584:UPB327682 UYX327584:UYX327682 VIT327584:VIT327682 VSP327584:VSP327682 WCL327584:WCL327682 WMH327584:WMH327682 WWD327584:WWD327682 V393120:V393218 JR393120:JR393218 TN393120:TN393218 ADJ393120:ADJ393218 ANF393120:ANF393218 AXB393120:AXB393218 BGX393120:BGX393218 BQT393120:BQT393218 CAP393120:CAP393218 CKL393120:CKL393218 CUH393120:CUH393218 DED393120:DED393218 DNZ393120:DNZ393218 DXV393120:DXV393218 EHR393120:EHR393218 ERN393120:ERN393218 FBJ393120:FBJ393218 FLF393120:FLF393218 FVB393120:FVB393218 GEX393120:GEX393218 GOT393120:GOT393218 GYP393120:GYP393218 HIL393120:HIL393218 HSH393120:HSH393218 ICD393120:ICD393218 ILZ393120:ILZ393218 IVV393120:IVV393218 JFR393120:JFR393218 JPN393120:JPN393218 JZJ393120:JZJ393218 KJF393120:KJF393218 KTB393120:KTB393218 LCX393120:LCX393218 LMT393120:LMT393218 LWP393120:LWP393218 MGL393120:MGL393218 MQH393120:MQH393218 NAD393120:NAD393218 NJZ393120:NJZ393218 NTV393120:NTV393218 ODR393120:ODR393218 ONN393120:ONN393218 OXJ393120:OXJ393218 PHF393120:PHF393218 PRB393120:PRB393218 QAX393120:QAX393218 QKT393120:QKT393218 QUP393120:QUP393218 REL393120:REL393218 ROH393120:ROH393218 RYD393120:RYD393218 SHZ393120:SHZ393218 SRV393120:SRV393218 TBR393120:TBR393218 TLN393120:TLN393218 TVJ393120:TVJ393218 UFF393120:UFF393218 UPB393120:UPB393218 UYX393120:UYX393218 VIT393120:VIT393218 VSP393120:VSP393218 WCL393120:WCL393218 WMH393120:WMH393218 WWD393120:WWD393218 V458656:V458754 JR458656:JR458754 TN458656:TN458754 ADJ458656:ADJ458754 ANF458656:ANF458754 AXB458656:AXB458754 BGX458656:BGX458754 BQT458656:BQT458754 CAP458656:CAP458754 CKL458656:CKL458754 CUH458656:CUH458754 DED458656:DED458754 DNZ458656:DNZ458754 DXV458656:DXV458754 EHR458656:EHR458754 ERN458656:ERN458754 FBJ458656:FBJ458754 FLF458656:FLF458754 FVB458656:FVB458754 GEX458656:GEX458754 GOT458656:GOT458754 GYP458656:GYP458754 HIL458656:HIL458754 HSH458656:HSH458754 ICD458656:ICD458754 ILZ458656:ILZ458754 IVV458656:IVV458754 JFR458656:JFR458754 JPN458656:JPN458754 JZJ458656:JZJ458754 KJF458656:KJF458754 KTB458656:KTB458754 LCX458656:LCX458754 LMT458656:LMT458754 LWP458656:LWP458754 MGL458656:MGL458754 MQH458656:MQH458754 NAD458656:NAD458754 NJZ458656:NJZ458754 NTV458656:NTV458754 ODR458656:ODR458754 ONN458656:ONN458754 OXJ458656:OXJ458754 PHF458656:PHF458754 PRB458656:PRB458754 QAX458656:QAX458754 QKT458656:QKT458754 QUP458656:QUP458754 REL458656:REL458754 ROH458656:ROH458754 RYD458656:RYD458754 SHZ458656:SHZ458754 SRV458656:SRV458754 TBR458656:TBR458754 TLN458656:TLN458754 TVJ458656:TVJ458754 UFF458656:UFF458754 UPB458656:UPB458754 UYX458656:UYX458754 VIT458656:VIT458754 VSP458656:VSP458754 WCL458656:WCL458754 WMH458656:WMH458754 WWD458656:WWD458754 V524192:V524290 JR524192:JR524290 TN524192:TN524290 ADJ524192:ADJ524290 ANF524192:ANF524290 AXB524192:AXB524290 BGX524192:BGX524290 BQT524192:BQT524290 CAP524192:CAP524290 CKL524192:CKL524290 CUH524192:CUH524290 DED524192:DED524290 DNZ524192:DNZ524290 DXV524192:DXV524290 EHR524192:EHR524290 ERN524192:ERN524290 FBJ524192:FBJ524290 FLF524192:FLF524290 FVB524192:FVB524290 GEX524192:GEX524290 GOT524192:GOT524290 GYP524192:GYP524290 HIL524192:HIL524290 HSH524192:HSH524290 ICD524192:ICD524290 ILZ524192:ILZ524290 IVV524192:IVV524290 JFR524192:JFR524290 JPN524192:JPN524290 JZJ524192:JZJ524290 KJF524192:KJF524290 KTB524192:KTB524290 LCX524192:LCX524290 LMT524192:LMT524290 LWP524192:LWP524290 MGL524192:MGL524290 MQH524192:MQH524290 NAD524192:NAD524290 NJZ524192:NJZ524290 NTV524192:NTV524290 ODR524192:ODR524290 ONN524192:ONN524290 OXJ524192:OXJ524290 PHF524192:PHF524290 PRB524192:PRB524290 QAX524192:QAX524290 QKT524192:QKT524290 QUP524192:QUP524290 REL524192:REL524290 ROH524192:ROH524290 RYD524192:RYD524290 SHZ524192:SHZ524290 SRV524192:SRV524290 TBR524192:TBR524290 TLN524192:TLN524290 TVJ524192:TVJ524290 UFF524192:UFF524290 UPB524192:UPB524290 UYX524192:UYX524290 VIT524192:VIT524290 VSP524192:VSP524290 WCL524192:WCL524290 WMH524192:WMH524290 WWD524192:WWD524290 V589728:V589826 JR589728:JR589826 TN589728:TN589826 ADJ589728:ADJ589826 ANF589728:ANF589826 AXB589728:AXB589826 BGX589728:BGX589826 BQT589728:BQT589826 CAP589728:CAP589826 CKL589728:CKL589826 CUH589728:CUH589826 DED589728:DED589826 DNZ589728:DNZ589826 DXV589728:DXV589826 EHR589728:EHR589826 ERN589728:ERN589826 FBJ589728:FBJ589826 FLF589728:FLF589826 FVB589728:FVB589826 GEX589728:GEX589826 GOT589728:GOT589826 GYP589728:GYP589826 HIL589728:HIL589826 HSH589728:HSH589826 ICD589728:ICD589826 ILZ589728:ILZ589826 IVV589728:IVV589826 JFR589728:JFR589826 JPN589728:JPN589826 JZJ589728:JZJ589826 KJF589728:KJF589826 KTB589728:KTB589826 LCX589728:LCX589826 LMT589728:LMT589826 LWP589728:LWP589826 MGL589728:MGL589826 MQH589728:MQH589826 NAD589728:NAD589826 NJZ589728:NJZ589826 NTV589728:NTV589826 ODR589728:ODR589826 ONN589728:ONN589826 OXJ589728:OXJ589826 PHF589728:PHF589826 PRB589728:PRB589826 QAX589728:QAX589826 QKT589728:QKT589826 QUP589728:QUP589826 REL589728:REL589826 ROH589728:ROH589826 RYD589728:RYD589826 SHZ589728:SHZ589826 SRV589728:SRV589826 TBR589728:TBR589826 TLN589728:TLN589826 TVJ589728:TVJ589826 UFF589728:UFF589826 UPB589728:UPB589826 UYX589728:UYX589826 VIT589728:VIT589826 VSP589728:VSP589826 WCL589728:WCL589826 WMH589728:WMH589826 WWD589728:WWD589826 V655264:V655362 JR655264:JR655362 TN655264:TN655362 ADJ655264:ADJ655362 ANF655264:ANF655362 AXB655264:AXB655362 BGX655264:BGX655362 BQT655264:BQT655362 CAP655264:CAP655362 CKL655264:CKL655362 CUH655264:CUH655362 DED655264:DED655362 DNZ655264:DNZ655362 DXV655264:DXV655362 EHR655264:EHR655362 ERN655264:ERN655362 FBJ655264:FBJ655362 FLF655264:FLF655362 FVB655264:FVB655362 GEX655264:GEX655362 GOT655264:GOT655362 GYP655264:GYP655362 HIL655264:HIL655362 HSH655264:HSH655362 ICD655264:ICD655362 ILZ655264:ILZ655362 IVV655264:IVV655362 JFR655264:JFR655362 JPN655264:JPN655362 JZJ655264:JZJ655362 KJF655264:KJF655362 KTB655264:KTB655362 LCX655264:LCX655362 LMT655264:LMT655362 LWP655264:LWP655362 MGL655264:MGL655362 MQH655264:MQH655362 NAD655264:NAD655362 NJZ655264:NJZ655362 NTV655264:NTV655362 ODR655264:ODR655362 ONN655264:ONN655362 OXJ655264:OXJ655362 PHF655264:PHF655362 PRB655264:PRB655362 QAX655264:QAX655362 QKT655264:QKT655362 QUP655264:QUP655362 REL655264:REL655362 ROH655264:ROH655362 RYD655264:RYD655362 SHZ655264:SHZ655362 SRV655264:SRV655362 TBR655264:TBR655362 TLN655264:TLN655362 TVJ655264:TVJ655362 UFF655264:UFF655362 UPB655264:UPB655362 UYX655264:UYX655362 VIT655264:VIT655362 VSP655264:VSP655362 WCL655264:WCL655362 WMH655264:WMH655362 WWD655264:WWD655362 V720800:V720898 JR720800:JR720898 TN720800:TN720898 ADJ720800:ADJ720898 ANF720800:ANF720898 AXB720800:AXB720898 BGX720800:BGX720898 BQT720800:BQT720898 CAP720800:CAP720898 CKL720800:CKL720898 CUH720800:CUH720898 DED720800:DED720898 DNZ720800:DNZ720898 DXV720800:DXV720898 EHR720800:EHR720898 ERN720800:ERN720898 FBJ720800:FBJ720898 FLF720800:FLF720898 FVB720800:FVB720898 GEX720800:GEX720898 GOT720800:GOT720898 GYP720800:GYP720898 HIL720800:HIL720898 HSH720800:HSH720898 ICD720800:ICD720898 ILZ720800:ILZ720898 IVV720800:IVV720898 JFR720800:JFR720898 JPN720800:JPN720898 JZJ720800:JZJ720898 KJF720800:KJF720898 KTB720800:KTB720898 LCX720800:LCX720898 LMT720800:LMT720898 LWP720800:LWP720898 MGL720800:MGL720898 MQH720800:MQH720898 NAD720800:NAD720898 NJZ720800:NJZ720898 NTV720800:NTV720898 ODR720800:ODR720898 ONN720800:ONN720898 OXJ720800:OXJ720898 PHF720800:PHF720898 PRB720800:PRB720898 QAX720800:QAX720898 QKT720800:QKT720898 QUP720800:QUP720898 REL720800:REL720898 ROH720800:ROH720898 RYD720800:RYD720898 SHZ720800:SHZ720898 SRV720800:SRV720898 TBR720800:TBR720898 TLN720800:TLN720898 TVJ720800:TVJ720898 UFF720800:UFF720898 UPB720800:UPB720898 UYX720800:UYX720898 VIT720800:VIT720898 VSP720800:VSP720898 WCL720800:WCL720898 WMH720800:WMH720898 WWD720800:WWD720898 V786336:V786434 JR786336:JR786434 TN786336:TN786434 ADJ786336:ADJ786434 ANF786336:ANF786434 AXB786336:AXB786434 BGX786336:BGX786434 BQT786336:BQT786434 CAP786336:CAP786434 CKL786336:CKL786434 CUH786336:CUH786434 DED786336:DED786434 DNZ786336:DNZ786434 DXV786336:DXV786434 EHR786336:EHR786434 ERN786336:ERN786434 FBJ786336:FBJ786434 FLF786336:FLF786434 FVB786336:FVB786434 GEX786336:GEX786434 GOT786336:GOT786434 GYP786336:GYP786434 HIL786336:HIL786434 HSH786336:HSH786434 ICD786336:ICD786434 ILZ786336:ILZ786434 IVV786336:IVV786434 JFR786336:JFR786434 JPN786336:JPN786434 JZJ786336:JZJ786434 KJF786336:KJF786434 KTB786336:KTB786434 LCX786336:LCX786434 LMT786336:LMT786434 LWP786336:LWP786434 MGL786336:MGL786434 MQH786336:MQH786434 NAD786336:NAD786434 NJZ786336:NJZ786434 NTV786336:NTV786434 ODR786336:ODR786434 ONN786336:ONN786434 OXJ786336:OXJ786434 PHF786336:PHF786434 PRB786336:PRB786434 QAX786336:QAX786434 QKT786336:QKT786434 QUP786336:QUP786434 REL786336:REL786434 ROH786336:ROH786434 RYD786336:RYD786434 SHZ786336:SHZ786434 SRV786336:SRV786434 TBR786336:TBR786434 TLN786336:TLN786434 TVJ786336:TVJ786434 UFF786336:UFF786434 UPB786336:UPB786434 UYX786336:UYX786434 VIT786336:VIT786434 VSP786336:VSP786434 WCL786336:WCL786434 WMH786336:WMH786434 WWD786336:WWD786434 V851872:V851970 JR851872:JR851970 TN851872:TN851970 ADJ851872:ADJ851970 ANF851872:ANF851970 AXB851872:AXB851970 BGX851872:BGX851970 BQT851872:BQT851970 CAP851872:CAP851970 CKL851872:CKL851970 CUH851872:CUH851970 DED851872:DED851970 DNZ851872:DNZ851970 DXV851872:DXV851970 EHR851872:EHR851970 ERN851872:ERN851970 FBJ851872:FBJ851970 FLF851872:FLF851970 FVB851872:FVB851970 GEX851872:GEX851970 GOT851872:GOT851970 GYP851872:GYP851970 HIL851872:HIL851970 HSH851872:HSH851970 ICD851872:ICD851970 ILZ851872:ILZ851970 IVV851872:IVV851970 JFR851872:JFR851970 JPN851872:JPN851970 JZJ851872:JZJ851970 KJF851872:KJF851970 KTB851872:KTB851970 LCX851872:LCX851970 LMT851872:LMT851970 LWP851872:LWP851970 MGL851872:MGL851970 MQH851872:MQH851970 NAD851872:NAD851970 NJZ851872:NJZ851970 NTV851872:NTV851970 ODR851872:ODR851970 ONN851872:ONN851970 OXJ851872:OXJ851970 PHF851872:PHF851970 PRB851872:PRB851970 QAX851872:QAX851970 QKT851872:QKT851970 QUP851872:QUP851970 REL851872:REL851970 ROH851872:ROH851970 RYD851872:RYD851970 SHZ851872:SHZ851970 SRV851872:SRV851970 TBR851872:TBR851970 TLN851872:TLN851970 TVJ851872:TVJ851970 UFF851872:UFF851970 UPB851872:UPB851970 UYX851872:UYX851970 VIT851872:VIT851970 VSP851872:VSP851970 WCL851872:WCL851970 WMH851872:WMH851970 WWD851872:WWD851970 V917408:V917506 JR917408:JR917506 TN917408:TN917506 ADJ917408:ADJ917506 ANF917408:ANF917506 AXB917408:AXB917506 BGX917408:BGX917506 BQT917408:BQT917506 CAP917408:CAP917506 CKL917408:CKL917506 CUH917408:CUH917506 DED917408:DED917506 DNZ917408:DNZ917506 DXV917408:DXV917506 EHR917408:EHR917506 ERN917408:ERN917506 FBJ917408:FBJ917506 FLF917408:FLF917506 FVB917408:FVB917506 GEX917408:GEX917506 GOT917408:GOT917506 GYP917408:GYP917506 HIL917408:HIL917506 HSH917408:HSH917506 ICD917408:ICD917506 ILZ917408:ILZ917506 IVV917408:IVV917506 JFR917408:JFR917506 JPN917408:JPN917506 JZJ917408:JZJ917506 KJF917408:KJF917506 KTB917408:KTB917506 LCX917408:LCX917506 LMT917408:LMT917506 LWP917408:LWP917506 MGL917408:MGL917506 MQH917408:MQH917506 NAD917408:NAD917506 NJZ917408:NJZ917506 NTV917408:NTV917506 ODR917408:ODR917506 ONN917408:ONN917506 OXJ917408:OXJ917506 PHF917408:PHF917506 PRB917408:PRB917506 QAX917408:QAX917506 QKT917408:QKT917506 QUP917408:QUP917506 REL917408:REL917506 ROH917408:ROH917506 RYD917408:RYD917506 SHZ917408:SHZ917506 SRV917408:SRV917506 TBR917408:TBR917506 TLN917408:TLN917506 TVJ917408:TVJ917506 UFF917408:UFF917506 UPB917408:UPB917506 UYX917408:UYX917506 VIT917408:VIT917506 VSP917408:VSP917506 WCL917408:WCL917506 WMH917408:WMH917506 WWD917408:WWD917506 V982944:V983042 JR982944:JR983042 TN982944:TN983042 ADJ982944:ADJ983042 ANF982944:ANF983042 AXB982944:AXB983042 BGX982944:BGX983042 BQT982944:BQT983042 CAP982944:CAP983042 CKL982944:CKL983042 CUH982944:CUH983042 DED982944:DED983042 DNZ982944:DNZ983042 DXV982944:DXV983042 EHR982944:EHR983042 ERN982944:ERN983042 FBJ982944:FBJ983042 FLF982944:FLF983042 FVB982944:FVB983042 GEX982944:GEX983042 GOT982944:GOT983042 GYP982944:GYP983042 HIL982944:HIL983042 HSH982944:HSH983042 ICD982944:ICD983042 ILZ982944:ILZ983042 IVV982944:IVV983042 JFR982944:JFR983042 JPN982944:JPN983042 JZJ982944:JZJ983042 KJF982944:KJF983042 KTB982944:KTB983042 LCX982944:LCX983042 LMT982944:LMT983042 LWP982944:LWP983042 MGL982944:MGL983042 MQH982944:MQH983042 NAD982944:NAD983042 NJZ982944:NJZ983042 NTV982944:NTV983042 ODR982944:ODR983042 ONN982944:ONN983042 OXJ982944:OXJ983042 PHF982944:PHF983042 PRB982944:PRB983042 QAX982944:QAX983042 QKT982944:QKT983042 QUP982944:QUP983042 REL982944:REL983042 ROH982944:ROH983042 RYD982944:RYD983042 SHZ982944:SHZ983042 SRV982944:SRV983042 TBR982944:TBR983042 TLN982944:TLN983042 TVJ982944:TVJ983042 UFF982944:UFF983042 UPB982944:UPB983042 UYX982944:UYX983042 VIT982944:VIT983042 VSP982944:VSP983042 WCL982944:WCL983042 WMH982944:WMH983042 WWD982944:WWD983042 G2 JC2 SY2 ACU2 AMQ2 AWM2 BGI2 BQE2 CAA2 CJW2 CTS2 DDO2 DNK2 DXG2 EHC2 EQY2 FAU2 FKQ2 FUM2 GEI2 GOE2 GYA2 HHW2 HRS2 IBO2 ILK2 IVG2 JFC2 JOY2 JYU2 KIQ2 KSM2 LCI2 LME2 LWA2 MFW2 MPS2 MZO2 NJK2 NTG2 ODC2 OMY2 OWU2 PGQ2 PQM2 QAI2 QKE2 QUA2 RDW2 RNS2 RXO2 SHK2 SRG2 TBC2 TKY2 TUU2 UEQ2 UOM2 UYI2 VIE2 VSA2 WBW2 WLS2 WVO2 G65440:G65538 JC65440:JC65538 SY65440:SY65538 ACU65440:ACU65538 AMQ65440:AMQ65538 AWM65440:AWM65538 BGI65440:BGI65538 BQE65440:BQE65538 CAA65440:CAA65538 CJW65440:CJW65538 CTS65440:CTS65538 DDO65440:DDO65538 DNK65440:DNK65538 DXG65440:DXG65538 EHC65440:EHC65538 EQY65440:EQY65538 FAU65440:FAU65538 FKQ65440:FKQ65538 FUM65440:FUM65538 GEI65440:GEI65538 GOE65440:GOE65538 GYA65440:GYA65538 HHW65440:HHW65538 HRS65440:HRS65538 IBO65440:IBO65538 ILK65440:ILK65538 IVG65440:IVG65538 JFC65440:JFC65538 JOY65440:JOY65538 JYU65440:JYU65538 KIQ65440:KIQ65538 KSM65440:KSM65538 LCI65440:LCI65538 LME65440:LME65538 LWA65440:LWA65538 MFW65440:MFW65538 MPS65440:MPS65538 MZO65440:MZO65538 NJK65440:NJK65538 NTG65440:NTG65538 ODC65440:ODC65538 OMY65440:OMY65538 OWU65440:OWU65538 PGQ65440:PGQ65538 PQM65440:PQM65538 QAI65440:QAI65538 QKE65440:QKE65538 QUA65440:QUA65538 RDW65440:RDW65538 RNS65440:RNS65538 RXO65440:RXO65538 SHK65440:SHK65538 SRG65440:SRG65538 TBC65440:TBC65538 TKY65440:TKY65538 TUU65440:TUU65538 UEQ65440:UEQ65538 UOM65440:UOM65538 UYI65440:UYI65538 VIE65440:VIE65538 VSA65440:VSA65538 WBW65440:WBW65538 WLS65440:WLS65538 WVO65440:WVO65538 G130976:G131074 JC130976:JC131074 SY130976:SY131074 ACU130976:ACU131074 AMQ130976:AMQ131074 AWM130976:AWM131074 BGI130976:BGI131074 BQE130976:BQE131074 CAA130976:CAA131074 CJW130976:CJW131074 CTS130976:CTS131074 DDO130976:DDO131074 DNK130976:DNK131074 DXG130976:DXG131074 EHC130976:EHC131074 EQY130976:EQY131074 FAU130976:FAU131074 FKQ130976:FKQ131074 FUM130976:FUM131074 GEI130976:GEI131074 GOE130976:GOE131074 GYA130976:GYA131074 HHW130976:HHW131074 HRS130976:HRS131074 IBO130976:IBO131074 ILK130976:ILK131074 IVG130976:IVG131074 JFC130976:JFC131074 JOY130976:JOY131074 JYU130976:JYU131074 KIQ130976:KIQ131074 KSM130976:KSM131074 LCI130976:LCI131074 LME130976:LME131074 LWA130976:LWA131074 MFW130976:MFW131074 MPS130976:MPS131074 MZO130976:MZO131074 NJK130976:NJK131074 NTG130976:NTG131074 ODC130976:ODC131074 OMY130976:OMY131074 OWU130976:OWU131074 PGQ130976:PGQ131074 PQM130976:PQM131074 QAI130976:QAI131074 QKE130976:QKE131074 QUA130976:QUA131074 RDW130976:RDW131074 RNS130976:RNS131074 RXO130976:RXO131074 SHK130976:SHK131074 SRG130976:SRG131074 TBC130976:TBC131074 TKY130976:TKY131074 TUU130976:TUU131074 UEQ130976:UEQ131074 UOM130976:UOM131074 UYI130976:UYI131074 VIE130976:VIE131074 VSA130976:VSA131074 WBW130976:WBW131074 WLS130976:WLS131074 WVO130976:WVO131074 G196512:G196610 JC196512:JC196610 SY196512:SY196610 ACU196512:ACU196610 AMQ196512:AMQ196610 AWM196512:AWM196610 BGI196512:BGI196610 BQE196512:BQE196610 CAA196512:CAA196610 CJW196512:CJW196610 CTS196512:CTS196610 DDO196512:DDO196610 DNK196512:DNK196610 DXG196512:DXG196610 EHC196512:EHC196610 EQY196512:EQY196610 FAU196512:FAU196610 FKQ196512:FKQ196610 FUM196512:FUM196610 GEI196512:GEI196610 GOE196512:GOE196610 GYA196512:GYA196610 HHW196512:HHW196610 HRS196512:HRS196610 IBO196512:IBO196610 ILK196512:ILK196610 IVG196512:IVG196610 JFC196512:JFC196610 JOY196512:JOY196610 JYU196512:JYU196610 KIQ196512:KIQ196610 KSM196512:KSM196610 LCI196512:LCI196610 LME196512:LME196610 LWA196512:LWA196610 MFW196512:MFW196610 MPS196512:MPS196610 MZO196512:MZO196610 NJK196512:NJK196610 NTG196512:NTG196610 ODC196512:ODC196610 OMY196512:OMY196610 OWU196512:OWU196610 PGQ196512:PGQ196610 PQM196512:PQM196610 QAI196512:QAI196610 QKE196512:QKE196610 QUA196512:QUA196610 RDW196512:RDW196610 RNS196512:RNS196610 RXO196512:RXO196610 SHK196512:SHK196610 SRG196512:SRG196610 TBC196512:TBC196610 TKY196512:TKY196610 TUU196512:TUU196610 UEQ196512:UEQ196610 UOM196512:UOM196610 UYI196512:UYI196610 VIE196512:VIE196610 VSA196512:VSA196610 WBW196512:WBW196610 WLS196512:WLS196610 WVO196512:WVO196610 G262048:G262146 JC262048:JC262146 SY262048:SY262146 ACU262048:ACU262146 AMQ262048:AMQ262146 AWM262048:AWM262146 BGI262048:BGI262146 BQE262048:BQE262146 CAA262048:CAA262146 CJW262048:CJW262146 CTS262048:CTS262146 DDO262048:DDO262146 DNK262048:DNK262146 DXG262048:DXG262146 EHC262048:EHC262146 EQY262048:EQY262146 FAU262048:FAU262146 FKQ262048:FKQ262146 FUM262048:FUM262146 GEI262048:GEI262146 GOE262048:GOE262146 GYA262048:GYA262146 HHW262048:HHW262146 HRS262048:HRS262146 IBO262048:IBO262146 ILK262048:ILK262146 IVG262048:IVG262146 JFC262048:JFC262146 JOY262048:JOY262146 JYU262048:JYU262146 KIQ262048:KIQ262146 KSM262048:KSM262146 LCI262048:LCI262146 LME262048:LME262146 LWA262048:LWA262146 MFW262048:MFW262146 MPS262048:MPS262146 MZO262048:MZO262146 NJK262048:NJK262146 NTG262048:NTG262146 ODC262048:ODC262146 OMY262048:OMY262146 OWU262048:OWU262146 PGQ262048:PGQ262146 PQM262048:PQM262146 QAI262048:QAI262146 QKE262048:QKE262146 QUA262048:QUA262146 RDW262048:RDW262146 RNS262048:RNS262146 RXO262048:RXO262146 SHK262048:SHK262146 SRG262048:SRG262146 TBC262048:TBC262146 TKY262048:TKY262146 TUU262048:TUU262146 UEQ262048:UEQ262146 UOM262048:UOM262146 UYI262048:UYI262146 VIE262048:VIE262146 VSA262048:VSA262146 WBW262048:WBW262146 WLS262048:WLS262146 WVO262048:WVO262146 G327584:G327682 JC327584:JC327682 SY327584:SY327682 ACU327584:ACU327682 AMQ327584:AMQ327682 AWM327584:AWM327682 BGI327584:BGI327682 BQE327584:BQE327682 CAA327584:CAA327682 CJW327584:CJW327682 CTS327584:CTS327682 DDO327584:DDO327682 DNK327584:DNK327682 DXG327584:DXG327682 EHC327584:EHC327682 EQY327584:EQY327682 FAU327584:FAU327682 FKQ327584:FKQ327682 FUM327584:FUM327682 GEI327584:GEI327682 GOE327584:GOE327682 GYA327584:GYA327682 HHW327584:HHW327682 HRS327584:HRS327682 IBO327584:IBO327682 ILK327584:ILK327682 IVG327584:IVG327682 JFC327584:JFC327682 JOY327584:JOY327682 JYU327584:JYU327682 KIQ327584:KIQ327682 KSM327584:KSM327682 LCI327584:LCI327682 LME327584:LME327682 LWA327584:LWA327682 MFW327584:MFW327682 MPS327584:MPS327682 MZO327584:MZO327682 NJK327584:NJK327682 NTG327584:NTG327682 ODC327584:ODC327682 OMY327584:OMY327682 OWU327584:OWU327682 PGQ327584:PGQ327682 PQM327584:PQM327682 QAI327584:QAI327682 QKE327584:QKE327682 QUA327584:QUA327682 RDW327584:RDW327682 RNS327584:RNS327682 RXO327584:RXO327682 SHK327584:SHK327682 SRG327584:SRG327682 TBC327584:TBC327682 TKY327584:TKY327682 TUU327584:TUU327682 UEQ327584:UEQ327682 UOM327584:UOM327682 UYI327584:UYI327682 VIE327584:VIE327682 VSA327584:VSA327682 WBW327584:WBW327682 WLS327584:WLS327682 WVO327584:WVO327682 G393120:G393218 JC393120:JC393218 SY393120:SY393218 ACU393120:ACU393218 AMQ393120:AMQ393218 AWM393120:AWM393218 BGI393120:BGI393218 BQE393120:BQE393218 CAA393120:CAA393218 CJW393120:CJW393218 CTS393120:CTS393218 DDO393120:DDO393218 DNK393120:DNK393218 DXG393120:DXG393218 EHC393120:EHC393218 EQY393120:EQY393218 FAU393120:FAU393218 FKQ393120:FKQ393218 FUM393120:FUM393218 GEI393120:GEI393218 GOE393120:GOE393218 GYA393120:GYA393218 HHW393120:HHW393218 HRS393120:HRS393218 IBO393120:IBO393218 ILK393120:ILK393218 IVG393120:IVG393218 JFC393120:JFC393218 JOY393120:JOY393218 JYU393120:JYU393218 KIQ393120:KIQ393218 KSM393120:KSM393218 LCI393120:LCI393218 LME393120:LME393218 LWA393120:LWA393218 MFW393120:MFW393218 MPS393120:MPS393218 MZO393120:MZO393218 NJK393120:NJK393218 NTG393120:NTG393218 ODC393120:ODC393218 OMY393120:OMY393218 OWU393120:OWU393218 PGQ393120:PGQ393218 PQM393120:PQM393218 QAI393120:QAI393218 QKE393120:QKE393218 QUA393120:QUA393218 RDW393120:RDW393218 RNS393120:RNS393218 RXO393120:RXO393218 SHK393120:SHK393218 SRG393120:SRG393218 TBC393120:TBC393218 TKY393120:TKY393218 TUU393120:TUU393218 UEQ393120:UEQ393218 UOM393120:UOM393218 UYI393120:UYI393218 VIE393120:VIE393218 VSA393120:VSA393218 WBW393120:WBW393218 WLS393120:WLS393218 WVO393120:WVO393218 G458656:G458754 JC458656:JC458754 SY458656:SY458754 ACU458656:ACU458754 AMQ458656:AMQ458754 AWM458656:AWM458754 BGI458656:BGI458754 BQE458656:BQE458754 CAA458656:CAA458754 CJW458656:CJW458754 CTS458656:CTS458754 DDO458656:DDO458754 DNK458656:DNK458754 DXG458656:DXG458754 EHC458656:EHC458754 EQY458656:EQY458754 FAU458656:FAU458754 FKQ458656:FKQ458754 FUM458656:FUM458754 GEI458656:GEI458754 GOE458656:GOE458754 GYA458656:GYA458754 HHW458656:HHW458754 HRS458656:HRS458754 IBO458656:IBO458754 ILK458656:ILK458754 IVG458656:IVG458754 JFC458656:JFC458754 JOY458656:JOY458754 JYU458656:JYU458754 KIQ458656:KIQ458754 KSM458656:KSM458754 LCI458656:LCI458754 LME458656:LME458754 LWA458656:LWA458754 MFW458656:MFW458754 MPS458656:MPS458754 MZO458656:MZO458754 NJK458656:NJK458754 NTG458656:NTG458754 ODC458656:ODC458754 OMY458656:OMY458754 OWU458656:OWU458754 PGQ458656:PGQ458754 PQM458656:PQM458754 QAI458656:QAI458754 QKE458656:QKE458754 QUA458656:QUA458754 RDW458656:RDW458754 RNS458656:RNS458754 RXO458656:RXO458754 SHK458656:SHK458754 SRG458656:SRG458754 TBC458656:TBC458754 TKY458656:TKY458754 TUU458656:TUU458754 UEQ458656:UEQ458754 UOM458656:UOM458754 UYI458656:UYI458754 VIE458656:VIE458754 VSA458656:VSA458754 WBW458656:WBW458754 WLS458656:WLS458754 WVO458656:WVO458754 G524192:G524290 JC524192:JC524290 SY524192:SY524290 ACU524192:ACU524290 AMQ524192:AMQ524290 AWM524192:AWM524290 BGI524192:BGI524290 BQE524192:BQE524290 CAA524192:CAA524290 CJW524192:CJW524290 CTS524192:CTS524290 DDO524192:DDO524290 DNK524192:DNK524290 DXG524192:DXG524290 EHC524192:EHC524290 EQY524192:EQY524290 FAU524192:FAU524290 FKQ524192:FKQ524290 FUM524192:FUM524290 GEI524192:GEI524290 GOE524192:GOE524290 GYA524192:GYA524290 HHW524192:HHW524290 HRS524192:HRS524290 IBO524192:IBO524290 ILK524192:ILK524290 IVG524192:IVG524290 JFC524192:JFC524290 JOY524192:JOY524290 JYU524192:JYU524290 KIQ524192:KIQ524290 KSM524192:KSM524290 LCI524192:LCI524290 LME524192:LME524290 LWA524192:LWA524290 MFW524192:MFW524290 MPS524192:MPS524290 MZO524192:MZO524290 NJK524192:NJK524290 NTG524192:NTG524290 ODC524192:ODC524290 OMY524192:OMY524290 OWU524192:OWU524290 PGQ524192:PGQ524290 PQM524192:PQM524290 QAI524192:QAI524290 QKE524192:QKE524290 QUA524192:QUA524290 RDW524192:RDW524290 RNS524192:RNS524290 RXO524192:RXO524290 SHK524192:SHK524290 SRG524192:SRG524290 TBC524192:TBC524290 TKY524192:TKY524290 TUU524192:TUU524290 UEQ524192:UEQ524290 UOM524192:UOM524290 UYI524192:UYI524290 VIE524192:VIE524290 VSA524192:VSA524290 WBW524192:WBW524290 WLS524192:WLS524290 WVO524192:WVO524290 G589728:G589826 JC589728:JC589826 SY589728:SY589826 ACU589728:ACU589826 AMQ589728:AMQ589826 AWM589728:AWM589826 BGI589728:BGI589826 BQE589728:BQE589826 CAA589728:CAA589826 CJW589728:CJW589826 CTS589728:CTS589826 DDO589728:DDO589826 DNK589728:DNK589826 DXG589728:DXG589826 EHC589728:EHC589826 EQY589728:EQY589826 FAU589728:FAU589826 FKQ589728:FKQ589826 FUM589728:FUM589826 GEI589728:GEI589826 GOE589728:GOE589826 GYA589728:GYA589826 HHW589728:HHW589826 HRS589728:HRS589826 IBO589728:IBO589826 ILK589728:ILK589826 IVG589728:IVG589826 JFC589728:JFC589826 JOY589728:JOY589826 JYU589728:JYU589826 KIQ589728:KIQ589826 KSM589728:KSM589826 LCI589728:LCI589826 LME589728:LME589826 LWA589728:LWA589826 MFW589728:MFW589826 MPS589728:MPS589826 MZO589728:MZO589826 NJK589728:NJK589826 NTG589728:NTG589826 ODC589728:ODC589826 OMY589728:OMY589826 OWU589728:OWU589826 PGQ589728:PGQ589826 PQM589728:PQM589826 QAI589728:QAI589826 QKE589728:QKE589826 QUA589728:QUA589826 RDW589728:RDW589826 RNS589728:RNS589826 RXO589728:RXO589826 SHK589728:SHK589826 SRG589728:SRG589826 TBC589728:TBC589826 TKY589728:TKY589826 TUU589728:TUU589826 UEQ589728:UEQ589826 UOM589728:UOM589826 UYI589728:UYI589826 VIE589728:VIE589826 VSA589728:VSA589826 WBW589728:WBW589826 WLS589728:WLS589826 WVO589728:WVO589826 G655264:G655362 JC655264:JC655362 SY655264:SY655362 ACU655264:ACU655362 AMQ655264:AMQ655362 AWM655264:AWM655362 BGI655264:BGI655362 BQE655264:BQE655362 CAA655264:CAA655362 CJW655264:CJW655362 CTS655264:CTS655362 DDO655264:DDO655362 DNK655264:DNK655362 DXG655264:DXG655362 EHC655264:EHC655362 EQY655264:EQY655362 FAU655264:FAU655362 FKQ655264:FKQ655362 FUM655264:FUM655362 GEI655264:GEI655362 GOE655264:GOE655362 GYA655264:GYA655362 HHW655264:HHW655362 HRS655264:HRS655362 IBO655264:IBO655362 ILK655264:ILK655362 IVG655264:IVG655362 JFC655264:JFC655362 JOY655264:JOY655362 JYU655264:JYU655362 KIQ655264:KIQ655362 KSM655264:KSM655362 LCI655264:LCI655362 LME655264:LME655362 LWA655264:LWA655362 MFW655264:MFW655362 MPS655264:MPS655362 MZO655264:MZO655362 NJK655264:NJK655362 NTG655264:NTG655362 ODC655264:ODC655362 OMY655264:OMY655362 OWU655264:OWU655362 PGQ655264:PGQ655362 PQM655264:PQM655362 QAI655264:QAI655362 QKE655264:QKE655362 QUA655264:QUA655362 RDW655264:RDW655362 RNS655264:RNS655362 RXO655264:RXO655362 SHK655264:SHK655362 SRG655264:SRG655362 TBC655264:TBC655362 TKY655264:TKY655362 TUU655264:TUU655362 UEQ655264:UEQ655362 UOM655264:UOM655362 UYI655264:UYI655362 VIE655264:VIE655362 VSA655264:VSA655362 WBW655264:WBW655362 WLS655264:WLS655362 WVO655264:WVO655362 G720800:G720898 JC720800:JC720898 SY720800:SY720898 ACU720800:ACU720898 AMQ720800:AMQ720898 AWM720800:AWM720898 BGI720800:BGI720898 BQE720800:BQE720898 CAA720800:CAA720898 CJW720800:CJW720898 CTS720800:CTS720898 DDO720800:DDO720898 DNK720800:DNK720898 DXG720800:DXG720898 EHC720800:EHC720898 EQY720800:EQY720898 FAU720800:FAU720898 FKQ720800:FKQ720898 FUM720800:FUM720898 GEI720800:GEI720898 GOE720800:GOE720898 GYA720800:GYA720898 HHW720800:HHW720898 HRS720800:HRS720898 IBO720800:IBO720898 ILK720800:ILK720898 IVG720800:IVG720898 JFC720800:JFC720898 JOY720800:JOY720898 JYU720800:JYU720898 KIQ720800:KIQ720898 KSM720800:KSM720898 LCI720800:LCI720898 LME720800:LME720898 LWA720800:LWA720898 MFW720800:MFW720898 MPS720800:MPS720898 MZO720800:MZO720898 NJK720800:NJK720898 NTG720800:NTG720898 ODC720800:ODC720898 OMY720800:OMY720898 OWU720800:OWU720898 PGQ720800:PGQ720898 PQM720800:PQM720898 QAI720800:QAI720898 QKE720800:QKE720898 QUA720800:QUA720898 RDW720800:RDW720898 RNS720800:RNS720898 RXO720800:RXO720898 SHK720800:SHK720898 SRG720800:SRG720898 TBC720800:TBC720898 TKY720800:TKY720898 TUU720800:TUU720898 UEQ720800:UEQ720898 UOM720800:UOM720898 UYI720800:UYI720898 VIE720800:VIE720898 VSA720800:VSA720898 WBW720800:WBW720898 WLS720800:WLS720898 WVO720800:WVO720898 G786336:G786434 JC786336:JC786434 SY786336:SY786434 ACU786336:ACU786434 AMQ786336:AMQ786434 AWM786336:AWM786434 BGI786336:BGI786434 BQE786336:BQE786434 CAA786336:CAA786434 CJW786336:CJW786434 CTS786336:CTS786434 DDO786336:DDO786434 DNK786336:DNK786434 DXG786336:DXG786434 EHC786336:EHC786434 EQY786336:EQY786434 FAU786336:FAU786434 FKQ786336:FKQ786434 FUM786336:FUM786434 GEI786336:GEI786434 GOE786336:GOE786434 GYA786336:GYA786434 HHW786336:HHW786434 HRS786336:HRS786434 IBO786336:IBO786434 ILK786336:ILK786434 IVG786336:IVG786434 JFC786336:JFC786434 JOY786336:JOY786434 JYU786336:JYU786434 KIQ786336:KIQ786434 KSM786336:KSM786434 LCI786336:LCI786434 LME786336:LME786434 LWA786336:LWA786434 MFW786336:MFW786434 MPS786336:MPS786434 MZO786336:MZO786434 NJK786336:NJK786434 NTG786336:NTG786434 ODC786336:ODC786434 OMY786336:OMY786434 OWU786336:OWU786434 PGQ786336:PGQ786434 PQM786336:PQM786434 QAI786336:QAI786434 QKE786336:QKE786434 QUA786336:QUA786434 RDW786336:RDW786434 RNS786336:RNS786434 RXO786336:RXO786434 SHK786336:SHK786434 SRG786336:SRG786434 TBC786336:TBC786434 TKY786336:TKY786434 TUU786336:TUU786434 UEQ786336:UEQ786434 UOM786336:UOM786434 UYI786336:UYI786434 VIE786336:VIE786434 VSA786336:VSA786434 WBW786336:WBW786434 WLS786336:WLS786434 WVO786336:WVO786434 G851872:G851970 JC851872:JC851970 SY851872:SY851970 ACU851872:ACU851970 AMQ851872:AMQ851970 AWM851872:AWM851970 BGI851872:BGI851970 BQE851872:BQE851970 CAA851872:CAA851970 CJW851872:CJW851970 CTS851872:CTS851970 DDO851872:DDO851970 DNK851872:DNK851970 DXG851872:DXG851970 EHC851872:EHC851970 EQY851872:EQY851970 FAU851872:FAU851970 FKQ851872:FKQ851970 FUM851872:FUM851970 GEI851872:GEI851970 GOE851872:GOE851970 GYA851872:GYA851970 HHW851872:HHW851970 HRS851872:HRS851970 IBO851872:IBO851970 ILK851872:ILK851970 IVG851872:IVG851970 JFC851872:JFC851970 JOY851872:JOY851970 JYU851872:JYU851970 KIQ851872:KIQ851970 KSM851872:KSM851970 LCI851872:LCI851970 LME851872:LME851970 LWA851872:LWA851970 MFW851872:MFW851970 MPS851872:MPS851970 MZO851872:MZO851970 NJK851872:NJK851970 NTG851872:NTG851970 ODC851872:ODC851970 OMY851872:OMY851970 OWU851872:OWU851970 PGQ851872:PGQ851970 PQM851872:PQM851970 QAI851872:QAI851970 QKE851872:QKE851970 QUA851872:QUA851970 RDW851872:RDW851970 RNS851872:RNS851970 RXO851872:RXO851970 SHK851872:SHK851970 SRG851872:SRG851970 TBC851872:TBC851970 TKY851872:TKY851970 TUU851872:TUU851970 UEQ851872:UEQ851970 UOM851872:UOM851970 UYI851872:UYI851970 VIE851872:VIE851970 VSA851872:VSA851970 WBW851872:WBW851970 WLS851872:WLS851970 WVO851872:WVO851970 G917408:G917506 JC917408:JC917506 SY917408:SY917506 ACU917408:ACU917506 AMQ917408:AMQ917506 AWM917408:AWM917506 BGI917408:BGI917506 BQE917408:BQE917506 CAA917408:CAA917506 CJW917408:CJW917506 CTS917408:CTS917506 DDO917408:DDO917506 DNK917408:DNK917506 DXG917408:DXG917506 EHC917408:EHC917506 EQY917408:EQY917506 FAU917408:FAU917506 FKQ917408:FKQ917506 FUM917408:FUM917506 GEI917408:GEI917506 GOE917408:GOE917506 GYA917408:GYA917506 HHW917408:HHW917506 HRS917408:HRS917506 IBO917408:IBO917506 ILK917408:ILK917506 IVG917408:IVG917506 JFC917408:JFC917506 JOY917408:JOY917506 JYU917408:JYU917506 KIQ917408:KIQ917506 KSM917408:KSM917506 LCI917408:LCI917506 LME917408:LME917506 LWA917408:LWA917506 MFW917408:MFW917506 MPS917408:MPS917506 MZO917408:MZO917506 NJK917408:NJK917506 NTG917408:NTG917506 ODC917408:ODC917506 OMY917408:OMY917506 OWU917408:OWU917506 PGQ917408:PGQ917506 PQM917408:PQM917506 QAI917408:QAI917506 QKE917408:QKE917506 QUA917408:QUA917506 RDW917408:RDW917506 RNS917408:RNS917506 RXO917408:RXO917506 SHK917408:SHK917506 SRG917408:SRG917506 TBC917408:TBC917506 TKY917408:TKY917506 TUU917408:TUU917506 UEQ917408:UEQ917506 UOM917408:UOM917506 UYI917408:UYI917506 VIE917408:VIE917506 VSA917408:VSA917506 WBW917408:WBW917506 WLS917408:WLS917506 WVO917408:WVO917506 G982944:G983042 JC982944:JC983042 SY982944:SY983042 ACU982944:ACU983042 AMQ982944:AMQ983042 AWM982944:AWM983042 BGI982944:BGI983042 BQE982944:BQE983042 CAA982944:CAA983042 CJW982944:CJW983042 CTS982944:CTS983042 DDO982944:DDO983042 DNK982944:DNK983042 DXG982944:DXG983042 EHC982944:EHC983042 EQY982944:EQY983042 FAU982944:FAU983042 FKQ982944:FKQ983042 FUM982944:FUM983042 GEI982944:GEI983042 GOE982944:GOE983042 GYA982944:GYA983042 HHW982944:HHW983042 HRS982944:HRS983042 IBO982944:IBO983042 ILK982944:ILK983042 IVG982944:IVG983042 JFC982944:JFC983042 JOY982944:JOY983042 JYU982944:JYU983042 KIQ982944:KIQ983042 KSM982944:KSM983042 LCI982944:LCI983042 LME982944:LME983042 LWA982944:LWA983042 MFW982944:MFW983042 MPS982944:MPS983042 MZO982944:MZO983042 NJK982944:NJK983042 NTG982944:NTG983042 ODC982944:ODC983042 OMY982944:OMY983042 OWU982944:OWU983042 PGQ982944:PGQ983042 PQM982944:PQM983042 QAI982944:QAI983042 QKE982944:QKE983042 QUA982944:QUA983042 RDW982944:RDW983042 RNS982944:RNS983042 RXO982944:RXO983042 SHK982944:SHK983042 SRG982944:SRG983042 TBC982944:TBC983042 TKY982944:TKY983042 TUU982944:TUU983042 UEQ982944:UEQ983042 UOM982944:UOM983042 UYI982944:UYI983042 VIE982944:VIE983042 VSA982944:VSA983042 WBW982944:WBW983042 WLS982944:WLS983042 WVO982944:WVO983042" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 JS2 TO2 ADK2 ANG2 AXC2 BGY2 BQU2 CAQ2 CKM2 CUI2 DEE2 DOA2 DXW2 EHS2 ERO2 FBK2 FLG2 FVC2 GEY2 GOU2 GYQ2 HIM2 HSI2 ICE2 IMA2 IVW2 JFS2 JPO2 JZK2 KJG2 KTC2 LCY2 LMU2 LWQ2 MGM2 MQI2 NAE2 NKA2 NTW2 ODS2 ONO2 OXK2 PHG2 PRC2 QAY2 QKU2 QUQ2 REM2 ROI2 RYE2 SIA2 SRW2 TBS2 TLO2 TVK2 UFG2 UPC2 UYY2 VIU2 VSQ2 WCM2 WMI2 WWE2 W65440:W65538 JS65440:JS65538 TO65440:TO65538 ADK65440:ADK65538 ANG65440:ANG65538 AXC65440:AXC65538 BGY65440:BGY65538 BQU65440:BQU65538 CAQ65440:CAQ65538 CKM65440:CKM65538 CUI65440:CUI65538 DEE65440:DEE65538 DOA65440:DOA65538 DXW65440:DXW65538 EHS65440:EHS65538 ERO65440:ERO65538 FBK65440:FBK65538 FLG65440:FLG65538 FVC65440:FVC65538 GEY65440:GEY65538 GOU65440:GOU65538 GYQ65440:GYQ65538 HIM65440:HIM65538 HSI65440:HSI65538 ICE65440:ICE65538 IMA65440:IMA65538 IVW65440:IVW65538 JFS65440:JFS65538 JPO65440:JPO65538 JZK65440:JZK65538 KJG65440:KJG65538 KTC65440:KTC65538 LCY65440:LCY65538 LMU65440:LMU65538 LWQ65440:LWQ65538 MGM65440:MGM65538 MQI65440:MQI65538 NAE65440:NAE65538 NKA65440:NKA65538 NTW65440:NTW65538 ODS65440:ODS65538 ONO65440:ONO65538 OXK65440:OXK65538 PHG65440:PHG65538 PRC65440:PRC65538 QAY65440:QAY65538 QKU65440:QKU65538 QUQ65440:QUQ65538 REM65440:REM65538 ROI65440:ROI65538 RYE65440:RYE65538 SIA65440:SIA65538 SRW65440:SRW65538 TBS65440:TBS65538 TLO65440:TLO65538 TVK65440:TVK65538 UFG65440:UFG65538 UPC65440:UPC65538 UYY65440:UYY65538 VIU65440:VIU65538 VSQ65440:VSQ65538 WCM65440:WCM65538 WMI65440:WMI65538 WWE65440:WWE65538 W130976:W131074 JS130976:JS131074 TO130976:TO131074 ADK130976:ADK131074 ANG130976:ANG131074 AXC130976:AXC131074 BGY130976:BGY131074 BQU130976:BQU131074 CAQ130976:CAQ131074 CKM130976:CKM131074 CUI130976:CUI131074 DEE130976:DEE131074 DOA130976:DOA131074 DXW130976:DXW131074 EHS130976:EHS131074 ERO130976:ERO131074 FBK130976:FBK131074 FLG130976:FLG131074 FVC130976:FVC131074 GEY130976:GEY131074 GOU130976:GOU131074 GYQ130976:GYQ131074 HIM130976:HIM131074 HSI130976:HSI131074 ICE130976:ICE131074 IMA130976:IMA131074 IVW130976:IVW131074 JFS130976:JFS131074 JPO130976:JPO131074 JZK130976:JZK131074 KJG130976:KJG131074 KTC130976:KTC131074 LCY130976:LCY131074 LMU130976:LMU131074 LWQ130976:LWQ131074 MGM130976:MGM131074 MQI130976:MQI131074 NAE130976:NAE131074 NKA130976:NKA131074 NTW130976:NTW131074 ODS130976:ODS131074 ONO130976:ONO131074 OXK130976:OXK131074 PHG130976:PHG131074 PRC130976:PRC131074 QAY130976:QAY131074 QKU130976:QKU131074 QUQ130976:QUQ131074 REM130976:REM131074 ROI130976:ROI131074 RYE130976:RYE131074 SIA130976:SIA131074 SRW130976:SRW131074 TBS130976:TBS131074 TLO130976:TLO131074 TVK130976:TVK131074 UFG130976:UFG131074 UPC130976:UPC131074 UYY130976:UYY131074 VIU130976:VIU131074 VSQ130976:VSQ131074 WCM130976:WCM131074 WMI130976:WMI131074 WWE130976:WWE131074 W196512:W196610 JS196512:JS196610 TO196512:TO196610 ADK196512:ADK196610 ANG196512:ANG196610 AXC196512:AXC196610 BGY196512:BGY196610 BQU196512:BQU196610 CAQ196512:CAQ196610 CKM196512:CKM196610 CUI196512:CUI196610 DEE196512:DEE196610 DOA196512:DOA196610 DXW196512:DXW196610 EHS196512:EHS196610 ERO196512:ERO196610 FBK196512:FBK196610 FLG196512:FLG196610 FVC196512:FVC196610 GEY196512:GEY196610 GOU196512:GOU196610 GYQ196512:GYQ196610 HIM196512:HIM196610 HSI196512:HSI196610 ICE196512:ICE196610 IMA196512:IMA196610 IVW196512:IVW196610 JFS196512:JFS196610 JPO196512:JPO196610 JZK196512:JZK196610 KJG196512:KJG196610 KTC196512:KTC196610 LCY196512:LCY196610 LMU196512:LMU196610 LWQ196512:LWQ196610 MGM196512:MGM196610 MQI196512:MQI196610 NAE196512:NAE196610 NKA196512:NKA196610 NTW196512:NTW196610 ODS196512:ODS196610 ONO196512:ONO196610 OXK196512:OXK196610 PHG196512:PHG196610 PRC196512:PRC196610 QAY196512:QAY196610 QKU196512:QKU196610 QUQ196512:QUQ196610 REM196512:REM196610 ROI196512:ROI196610 RYE196512:RYE196610 SIA196512:SIA196610 SRW196512:SRW196610 TBS196512:TBS196610 TLO196512:TLO196610 TVK196512:TVK196610 UFG196512:UFG196610 UPC196512:UPC196610 UYY196512:UYY196610 VIU196512:VIU196610 VSQ196512:VSQ196610 WCM196512:WCM196610 WMI196512:WMI196610 WWE196512:WWE196610 W262048:W262146 JS262048:JS262146 TO262048:TO262146 ADK262048:ADK262146 ANG262048:ANG262146 AXC262048:AXC262146 BGY262048:BGY262146 BQU262048:BQU262146 CAQ262048:CAQ262146 CKM262048:CKM262146 CUI262048:CUI262146 DEE262048:DEE262146 DOA262048:DOA262146 DXW262048:DXW262146 EHS262048:EHS262146 ERO262048:ERO262146 FBK262048:FBK262146 FLG262048:FLG262146 FVC262048:FVC262146 GEY262048:GEY262146 GOU262048:GOU262146 GYQ262048:GYQ262146 HIM262048:HIM262146 HSI262048:HSI262146 ICE262048:ICE262146 IMA262048:IMA262146 IVW262048:IVW262146 JFS262048:JFS262146 JPO262048:JPO262146 JZK262048:JZK262146 KJG262048:KJG262146 KTC262048:KTC262146 LCY262048:LCY262146 LMU262048:LMU262146 LWQ262048:LWQ262146 MGM262048:MGM262146 MQI262048:MQI262146 NAE262048:NAE262146 NKA262048:NKA262146 NTW262048:NTW262146 ODS262048:ODS262146 ONO262048:ONO262146 OXK262048:OXK262146 PHG262048:PHG262146 PRC262048:PRC262146 QAY262048:QAY262146 QKU262048:QKU262146 QUQ262048:QUQ262146 REM262048:REM262146 ROI262048:ROI262146 RYE262048:RYE262146 SIA262048:SIA262146 SRW262048:SRW262146 TBS262048:TBS262146 TLO262048:TLO262146 TVK262048:TVK262146 UFG262048:UFG262146 UPC262048:UPC262146 UYY262048:UYY262146 VIU262048:VIU262146 VSQ262048:VSQ262146 WCM262048:WCM262146 WMI262048:WMI262146 WWE262048:WWE262146 W327584:W327682 JS327584:JS327682 TO327584:TO327682 ADK327584:ADK327682 ANG327584:ANG327682 AXC327584:AXC327682 BGY327584:BGY327682 BQU327584:BQU327682 CAQ327584:CAQ327682 CKM327584:CKM327682 CUI327584:CUI327682 DEE327584:DEE327682 DOA327584:DOA327682 DXW327584:DXW327682 EHS327584:EHS327682 ERO327584:ERO327682 FBK327584:FBK327682 FLG327584:FLG327682 FVC327584:FVC327682 GEY327584:GEY327682 GOU327584:GOU327682 GYQ327584:GYQ327682 HIM327584:HIM327682 HSI327584:HSI327682 ICE327584:ICE327682 IMA327584:IMA327682 IVW327584:IVW327682 JFS327584:JFS327682 JPO327584:JPO327682 JZK327584:JZK327682 KJG327584:KJG327682 KTC327584:KTC327682 LCY327584:LCY327682 LMU327584:LMU327682 LWQ327584:LWQ327682 MGM327584:MGM327682 MQI327584:MQI327682 NAE327584:NAE327682 NKA327584:NKA327682 NTW327584:NTW327682 ODS327584:ODS327682 ONO327584:ONO327682 OXK327584:OXK327682 PHG327584:PHG327682 PRC327584:PRC327682 QAY327584:QAY327682 QKU327584:QKU327682 QUQ327584:QUQ327682 REM327584:REM327682 ROI327584:ROI327682 RYE327584:RYE327682 SIA327584:SIA327682 SRW327584:SRW327682 TBS327584:TBS327682 TLO327584:TLO327682 TVK327584:TVK327682 UFG327584:UFG327682 UPC327584:UPC327682 UYY327584:UYY327682 VIU327584:VIU327682 VSQ327584:VSQ327682 WCM327584:WCM327682 WMI327584:WMI327682 WWE327584:WWE327682 W393120:W393218 JS393120:JS393218 TO393120:TO393218 ADK393120:ADK393218 ANG393120:ANG393218 AXC393120:AXC393218 BGY393120:BGY393218 BQU393120:BQU393218 CAQ393120:CAQ393218 CKM393120:CKM393218 CUI393120:CUI393218 DEE393120:DEE393218 DOA393120:DOA393218 DXW393120:DXW393218 EHS393120:EHS393218 ERO393120:ERO393218 FBK393120:FBK393218 FLG393120:FLG393218 FVC393120:FVC393218 GEY393120:GEY393218 GOU393120:GOU393218 GYQ393120:GYQ393218 HIM393120:HIM393218 HSI393120:HSI393218 ICE393120:ICE393218 IMA393120:IMA393218 IVW393120:IVW393218 JFS393120:JFS393218 JPO393120:JPO393218 JZK393120:JZK393218 KJG393120:KJG393218 KTC393120:KTC393218 LCY393120:LCY393218 LMU393120:LMU393218 LWQ393120:LWQ393218 MGM393120:MGM393218 MQI393120:MQI393218 NAE393120:NAE393218 NKA393120:NKA393218 NTW393120:NTW393218 ODS393120:ODS393218 ONO393120:ONO393218 OXK393120:OXK393218 PHG393120:PHG393218 PRC393120:PRC393218 QAY393120:QAY393218 QKU393120:QKU393218 QUQ393120:QUQ393218 REM393120:REM393218 ROI393120:ROI393218 RYE393120:RYE393218 SIA393120:SIA393218 SRW393120:SRW393218 TBS393120:TBS393218 TLO393120:TLO393218 TVK393120:TVK393218 UFG393120:UFG393218 UPC393120:UPC393218 UYY393120:UYY393218 VIU393120:VIU393218 VSQ393120:VSQ393218 WCM393120:WCM393218 WMI393120:WMI393218 WWE393120:WWE393218 W458656:W458754 JS458656:JS458754 TO458656:TO458754 ADK458656:ADK458754 ANG458656:ANG458754 AXC458656:AXC458754 BGY458656:BGY458754 BQU458656:BQU458754 CAQ458656:CAQ458754 CKM458656:CKM458754 CUI458656:CUI458754 DEE458656:DEE458754 DOA458656:DOA458754 DXW458656:DXW458754 EHS458656:EHS458754 ERO458656:ERO458754 FBK458656:FBK458754 FLG458656:FLG458754 FVC458656:FVC458754 GEY458656:GEY458754 GOU458656:GOU458754 GYQ458656:GYQ458754 HIM458656:HIM458754 HSI458656:HSI458754 ICE458656:ICE458754 IMA458656:IMA458754 IVW458656:IVW458754 JFS458656:JFS458754 JPO458656:JPO458754 JZK458656:JZK458754 KJG458656:KJG458754 KTC458656:KTC458754 LCY458656:LCY458754 LMU458656:LMU458754 LWQ458656:LWQ458754 MGM458656:MGM458754 MQI458656:MQI458754 NAE458656:NAE458754 NKA458656:NKA458754 NTW458656:NTW458754 ODS458656:ODS458754 ONO458656:ONO458754 OXK458656:OXK458754 PHG458656:PHG458754 PRC458656:PRC458754 QAY458656:QAY458754 QKU458656:QKU458754 QUQ458656:QUQ458754 REM458656:REM458754 ROI458656:ROI458754 RYE458656:RYE458754 SIA458656:SIA458754 SRW458656:SRW458754 TBS458656:TBS458754 TLO458656:TLO458754 TVK458656:TVK458754 UFG458656:UFG458754 UPC458656:UPC458754 UYY458656:UYY458754 VIU458656:VIU458754 VSQ458656:VSQ458754 WCM458656:WCM458754 WMI458656:WMI458754 WWE458656:WWE458754 W524192:W524290 JS524192:JS524290 TO524192:TO524290 ADK524192:ADK524290 ANG524192:ANG524290 AXC524192:AXC524290 BGY524192:BGY524290 BQU524192:BQU524290 CAQ524192:CAQ524290 CKM524192:CKM524290 CUI524192:CUI524290 DEE524192:DEE524290 DOA524192:DOA524290 DXW524192:DXW524290 EHS524192:EHS524290 ERO524192:ERO524290 FBK524192:FBK524290 FLG524192:FLG524290 FVC524192:FVC524290 GEY524192:GEY524290 GOU524192:GOU524290 GYQ524192:GYQ524290 HIM524192:HIM524290 HSI524192:HSI524290 ICE524192:ICE524290 IMA524192:IMA524290 IVW524192:IVW524290 JFS524192:JFS524290 JPO524192:JPO524290 JZK524192:JZK524290 KJG524192:KJG524290 KTC524192:KTC524290 LCY524192:LCY524290 LMU524192:LMU524290 LWQ524192:LWQ524290 MGM524192:MGM524290 MQI524192:MQI524290 NAE524192:NAE524290 NKA524192:NKA524290 NTW524192:NTW524290 ODS524192:ODS524290 ONO524192:ONO524290 OXK524192:OXK524290 PHG524192:PHG524290 PRC524192:PRC524290 QAY524192:QAY524290 QKU524192:QKU524290 QUQ524192:QUQ524290 REM524192:REM524290 ROI524192:ROI524290 RYE524192:RYE524290 SIA524192:SIA524290 SRW524192:SRW524290 TBS524192:TBS524290 TLO524192:TLO524290 TVK524192:TVK524290 UFG524192:UFG524290 UPC524192:UPC524290 UYY524192:UYY524290 VIU524192:VIU524290 VSQ524192:VSQ524290 WCM524192:WCM524290 WMI524192:WMI524290 WWE524192:WWE524290 W589728:W589826 JS589728:JS589826 TO589728:TO589826 ADK589728:ADK589826 ANG589728:ANG589826 AXC589728:AXC589826 BGY589728:BGY589826 BQU589728:BQU589826 CAQ589728:CAQ589826 CKM589728:CKM589826 CUI589728:CUI589826 DEE589728:DEE589826 DOA589728:DOA589826 DXW589728:DXW589826 EHS589728:EHS589826 ERO589728:ERO589826 FBK589728:FBK589826 FLG589728:FLG589826 FVC589728:FVC589826 GEY589728:GEY589826 GOU589728:GOU589826 GYQ589728:GYQ589826 HIM589728:HIM589826 HSI589728:HSI589826 ICE589728:ICE589826 IMA589728:IMA589826 IVW589728:IVW589826 JFS589728:JFS589826 JPO589728:JPO589826 JZK589728:JZK589826 KJG589728:KJG589826 KTC589728:KTC589826 LCY589728:LCY589826 LMU589728:LMU589826 LWQ589728:LWQ589826 MGM589728:MGM589826 MQI589728:MQI589826 NAE589728:NAE589826 NKA589728:NKA589826 NTW589728:NTW589826 ODS589728:ODS589826 ONO589728:ONO589826 OXK589728:OXK589826 PHG589728:PHG589826 PRC589728:PRC589826 QAY589728:QAY589826 QKU589728:QKU589826 QUQ589728:QUQ589826 REM589728:REM589826 ROI589728:ROI589826 RYE589728:RYE589826 SIA589728:SIA589826 SRW589728:SRW589826 TBS589728:TBS589826 TLO589728:TLO589826 TVK589728:TVK589826 UFG589728:UFG589826 UPC589728:UPC589826 UYY589728:UYY589826 VIU589728:VIU589826 VSQ589728:VSQ589826 WCM589728:WCM589826 WMI589728:WMI589826 WWE589728:WWE589826 W655264:W655362 JS655264:JS655362 TO655264:TO655362 ADK655264:ADK655362 ANG655264:ANG655362 AXC655264:AXC655362 BGY655264:BGY655362 BQU655264:BQU655362 CAQ655264:CAQ655362 CKM655264:CKM655362 CUI655264:CUI655362 DEE655264:DEE655362 DOA655264:DOA655362 DXW655264:DXW655362 EHS655264:EHS655362 ERO655264:ERO655362 FBK655264:FBK655362 FLG655264:FLG655362 FVC655264:FVC655362 GEY655264:GEY655362 GOU655264:GOU655362 GYQ655264:GYQ655362 HIM655264:HIM655362 HSI655264:HSI655362 ICE655264:ICE655362 IMA655264:IMA655362 IVW655264:IVW655362 JFS655264:JFS655362 JPO655264:JPO655362 JZK655264:JZK655362 KJG655264:KJG655362 KTC655264:KTC655362 LCY655264:LCY655362 LMU655264:LMU655362 LWQ655264:LWQ655362 MGM655264:MGM655362 MQI655264:MQI655362 NAE655264:NAE655362 NKA655264:NKA655362 NTW655264:NTW655362 ODS655264:ODS655362 ONO655264:ONO655362 OXK655264:OXK655362 PHG655264:PHG655362 PRC655264:PRC655362 QAY655264:QAY655362 QKU655264:QKU655362 QUQ655264:QUQ655362 REM655264:REM655362 ROI655264:ROI655362 RYE655264:RYE655362 SIA655264:SIA655362 SRW655264:SRW655362 TBS655264:TBS655362 TLO655264:TLO655362 TVK655264:TVK655362 UFG655264:UFG655362 UPC655264:UPC655362 UYY655264:UYY655362 VIU655264:VIU655362 VSQ655264:VSQ655362 WCM655264:WCM655362 WMI655264:WMI655362 WWE655264:WWE655362 W720800:W720898 JS720800:JS720898 TO720800:TO720898 ADK720800:ADK720898 ANG720800:ANG720898 AXC720800:AXC720898 BGY720800:BGY720898 BQU720800:BQU720898 CAQ720800:CAQ720898 CKM720800:CKM720898 CUI720800:CUI720898 DEE720800:DEE720898 DOA720800:DOA720898 DXW720800:DXW720898 EHS720800:EHS720898 ERO720800:ERO720898 FBK720800:FBK720898 FLG720800:FLG720898 FVC720800:FVC720898 GEY720800:GEY720898 GOU720800:GOU720898 GYQ720800:GYQ720898 HIM720800:HIM720898 HSI720800:HSI720898 ICE720800:ICE720898 IMA720800:IMA720898 IVW720800:IVW720898 JFS720800:JFS720898 JPO720800:JPO720898 JZK720800:JZK720898 KJG720800:KJG720898 KTC720800:KTC720898 LCY720800:LCY720898 LMU720800:LMU720898 LWQ720800:LWQ720898 MGM720800:MGM720898 MQI720800:MQI720898 NAE720800:NAE720898 NKA720800:NKA720898 NTW720800:NTW720898 ODS720800:ODS720898 ONO720800:ONO720898 OXK720800:OXK720898 PHG720800:PHG720898 PRC720800:PRC720898 QAY720800:QAY720898 QKU720800:QKU720898 QUQ720800:QUQ720898 REM720800:REM720898 ROI720800:ROI720898 RYE720800:RYE720898 SIA720800:SIA720898 SRW720800:SRW720898 TBS720800:TBS720898 TLO720800:TLO720898 TVK720800:TVK720898 UFG720800:UFG720898 UPC720800:UPC720898 UYY720800:UYY720898 VIU720800:VIU720898 VSQ720800:VSQ720898 WCM720800:WCM720898 WMI720800:WMI720898 WWE720800:WWE720898 W786336:W786434 JS786336:JS786434 TO786336:TO786434 ADK786336:ADK786434 ANG786336:ANG786434 AXC786336:AXC786434 BGY786336:BGY786434 BQU786336:BQU786434 CAQ786336:CAQ786434 CKM786336:CKM786434 CUI786336:CUI786434 DEE786336:DEE786434 DOA786336:DOA786434 DXW786336:DXW786434 EHS786336:EHS786434 ERO786336:ERO786434 FBK786336:FBK786434 FLG786336:FLG786434 FVC786336:FVC786434 GEY786336:GEY786434 GOU786336:GOU786434 GYQ786336:GYQ786434 HIM786336:HIM786434 HSI786336:HSI786434 ICE786336:ICE786434 IMA786336:IMA786434 IVW786336:IVW786434 JFS786336:JFS786434 JPO786336:JPO786434 JZK786336:JZK786434 KJG786336:KJG786434 KTC786336:KTC786434 LCY786336:LCY786434 LMU786336:LMU786434 LWQ786336:LWQ786434 MGM786336:MGM786434 MQI786336:MQI786434 NAE786336:NAE786434 NKA786336:NKA786434 NTW786336:NTW786434 ODS786336:ODS786434 ONO786336:ONO786434 OXK786336:OXK786434 PHG786336:PHG786434 PRC786336:PRC786434 QAY786336:QAY786434 QKU786336:QKU786434 QUQ786336:QUQ786434 REM786336:REM786434 ROI786336:ROI786434 RYE786336:RYE786434 SIA786336:SIA786434 SRW786336:SRW786434 TBS786336:TBS786434 TLO786336:TLO786434 TVK786336:TVK786434 UFG786336:UFG786434 UPC786336:UPC786434 UYY786336:UYY786434 VIU786336:VIU786434 VSQ786336:VSQ786434 WCM786336:WCM786434 WMI786336:WMI786434 WWE786336:WWE786434 W851872:W851970 JS851872:JS851970 TO851872:TO851970 ADK851872:ADK851970 ANG851872:ANG851970 AXC851872:AXC851970 BGY851872:BGY851970 BQU851872:BQU851970 CAQ851872:CAQ851970 CKM851872:CKM851970 CUI851872:CUI851970 DEE851872:DEE851970 DOA851872:DOA851970 DXW851872:DXW851970 EHS851872:EHS851970 ERO851872:ERO851970 FBK851872:FBK851970 FLG851872:FLG851970 FVC851872:FVC851970 GEY851872:GEY851970 GOU851872:GOU851970 GYQ851872:GYQ851970 HIM851872:HIM851970 HSI851872:HSI851970 ICE851872:ICE851970 IMA851872:IMA851970 IVW851872:IVW851970 JFS851872:JFS851970 JPO851872:JPO851970 JZK851872:JZK851970 KJG851872:KJG851970 KTC851872:KTC851970 LCY851872:LCY851970 LMU851872:LMU851970 LWQ851872:LWQ851970 MGM851872:MGM851970 MQI851872:MQI851970 NAE851872:NAE851970 NKA851872:NKA851970 NTW851872:NTW851970 ODS851872:ODS851970 ONO851872:ONO851970 OXK851872:OXK851970 PHG851872:PHG851970 PRC851872:PRC851970 QAY851872:QAY851970 QKU851872:QKU851970 QUQ851872:QUQ851970 REM851872:REM851970 ROI851872:ROI851970 RYE851872:RYE851970 SIA851872:SIA851970 SRW851872:SRW851970 TBS851872:TBS851970 TLO851872:TLO851970 TVK851872:TVK851970 UFG851872:UFG851970 UPC851872:UPC851970 UYY851872:UYY851970 VIU851872:VIU851970 VSQ851872:VSQ851970 WCM851872:WCM851970 WMI851872:WMI851970 WWE851872:WWE851970 W917408:W917506 JS917408:JS917506 TO917408:TO917506 ADK917408:ADK917506 ANG917408:ANG917506 AXC917408:AXC917506 BGY917408:BGY917506 BQU917408:BQU917506 CAQ917408:CAQ917506 CKM917408:CKM917506 CUI917408:CUI917506 DEE917408:DEE917506 DOA917408:DOA917506 DXW917408:DXW917506 EHS917408:EHS917506 ERO917408:ERO917506 FBK917408:FBK917506 FLG917408:FLG917506 FVC917408:FVC917506 GEY917408:GEY917506 GOU917408:GOU917506 GYQ917408:GYQ917506 HIM917408:HIM917506 HSI917408:HSI917506 ICE917408:ICE917506 IMA917408:IMA917506 IVW917408:IVW917506 JFS917408:JFS917506 JPO917408:JPO917506 JZK917408:JZK917506 KJG917408:KJG917506 KTC917408:KTC917506 LCY917408:LCY917506 LMU917408:LMU917506 LWQ917408:LWQ917506 MGM917408:MGM917506 MQI917408:MQI917506 NAE917408:NAE917506 NKA917408:NKA917506 NTW917408:NTW917506 ODS917408:ODS917506 ONO917408:ONO917506 OXK917408:OXK917506 PHG917408:PHG917506 PRC917408:PRC917506 QAY917408:QAY917506 QKU917408:QKU917506 QUQ917408:QUQ917506 REM917408:REM917506 ROI917408:ROI917506 RYE917408:RYE917506 SIA917408:SIA917506 SRW917408:SRW917506 TBS917408:TBS917506 TLO917408:TLO917506 TVK917408:TVK917506 UFG917408:UFG917506 UPC917408:UPC917506 UYY917408:UYY917506 VIU917408:VIU917506 VSQ917408:VSQ917506 WCM917408:WCM917506 WMI917408:WMI917506 WWE917408:WWE917506 W982944:W983042 JS982944:JS983042 TO982944:TO983042 ADK982944:ADK983042 ANG982944:ANG983042 AXC982944:AXC983042 BGY982944:BGY983042 BQU982944:BQU983042 CAQ982944:CAQ983042 CKM982944:CKM983042 CUI982944:CUI983042 DEE982944:DEE983042 DOA982944:DOA983042 DXW982944:DXW983042 EHS982944:EHS983042 ERO982944:ERO983042 FBK982944:FBK983042 FLG982944:FLG983042 FVC982944:FVC983042 GEY982944:GEY983042 GOU982944:GOU983042 GYQ982944:GYQ983042 HIM982944:HIM983042 HSI982944:HSI983042 ICE982944:ICE983042 IMA982944:IMA983042 IVW982944:IVW983042 JFS982944:JFS983042 JPO982944:JPO983042 JZK982944:JZK983042 KJG982944:KJG983042 KTC982944:KTC983042 LCY982944:LCY983042 LMU982944:LMU983042 LWQ982944:LWQ983042 MGM982944:MGM983042 MQI982944:MQI983042 NAE982944:NAE983042 NKA982944:NKA983042 NTW982944:NTW983042 ODS982944:ODS983042 ONO982944:ONO983042 OXK982944:OXK983042 PHG982944:PHG983042 PRC982944:PRC983042 QAY982944:QAY983042 QKU982944:QKU983042 QUQ982944:QUQ983042 REM982944:REM983042 ROI982944:ROI983042 RYE982944:RYE983042 SIA982944:SIA983042 SRW982944:SRW983042 TBS982944:TBS983042 TLO982944:TLO983042 TVK982944:TVK983042 UFG982944:UFG983042 UPC982944:UPC983042 UYY982944:UYY983042 VIU982944:VIU983042 VSQ982944:VSQ983042 WCM982944:WCM983042 WMI982944:WMI983042 WWE982944:WWE983042 H2 JD2 SZ2 ACV2 AMR2 AWN2 BGJ2 BQF2 CAB2 CJX2 CTT2 DDP2 DNL2 DXH2 EHD2 EQZ2 FAV2 FKR2 FUN2 GEJ2 GOF2 GYB2 HHX2 HRT2 IBP2 ILL2 IVH2 JFD2 JOZ2 JYV2 KIR2 KSN2 LCJ2 LMF2 LWB2 MFX2 MPT2 MZP2 NJL2 NTH2 ODD2 OMZ2 OWV2 PGR2 PQN2 QAJ2 QKF2 QUB2 RDX2 RNT2 RXP2 SHL2 SRH2 TBD2 TKZ2 TUV2 UER2 UON2 UYJ2 VIF2 VSB2 WBX2 WLT2 WVP2 H65440:H65538 JD65440:JD65538 SZ65440:SZ65538 ACV65440:ACV65538 AMR65440:AMR65538 AWN65440:AWN65538 BGJ65440:BGJ65538 BQF65440:BQF65538 CAB65440:CAB65538 CJX65440:CJX65538 CTT65440:CTT65538 DDP65440:DDP65538 DNL65440:DNL65538 DXH65440:DXH65538 EHD65440:EHD65538 EQZ65440:EQZ65538 FAV65440:FAV65538 FKR65440:FKR65538 FUN65440:FUN65538 GEJ65440:GEJ65538 GOF65440:GOF65538 GYB65440:GYB65538 HHX65440:HHX65538 HRT65440:HRT65538 IBP65440:IBP65538 ILL65440:ILL65538 IVH65440:IVH65538 JFD65440:JFD65538 JOZ65440:JOZ65538 JYV65440:JYV65538 KIR65440:KIR65538 KSN65440:KSN65538 LCJ65440:LCJ65538 LMF65440:LMF65538 LWB65440:LWB65538 MFX65440:MFX65538 MPT65440:MPT65538 MZP65440:MZP65538 NJL65440:NJL65538 NTH65440:NTH65538 ODD65440:ODD65538 OMZ65440:OMZ65538 OWV65440:OWV65538 PGR65440:PGR65538 PQN65440:PQN65538 QAJ65440:QAJ65538 QKF65440:QKF65538 QUB65440:QUB65538 RDX65440:RDX65538 RNT65440:RNT65538 RXP65440:RXP65538 SHL65440:SHL65538 SRH65440:SRH65538 TBD65440:TBD65538 TKZ65440:TKZ65538 TUV65440:TUV65538 UER65440:UER65538 UON65440:UON65538 UYJ65440:UYJ65538 VIF65440:VIF65538 VSB65440:VSB65538 WBX65440:WBX65538 WLT65440:WLT65538 WVP65440:WVP65538 H130976:H131074 JD130976:JD131074 SZ130976:SZ131074 ACV130976:ACV131074 AMR130976:AMR131074 AWN130976:AWN131074 BGJ130976:BGJ131074 BQF130976:BQF131074 CAB130976:CAB131074 CJX130976:CJX131074 CTT130976:CTT131074 DDP130976:DDP131074 DNL130976:DNL131074 DXH130976:DXH131074 EHD130976:EHD131074 EQZ130976:EQZ131074 FAV130976:FAV131074 FKR130976:FKR131074 FUN130976:FUN131074 GEJ130976:GEJ131074 GOF130976:GOF131074 GYB130976:GYB131074 HHX130976:HHX131074 HRT130976:HRT131074 IBP130976:IBP131074 ILL130976:ILL131074 IVH130976:IVH131074 JFD130976:JFD131074 JOZ130976:JOZ131074 JYV130976:JYV131074 KIR130976:KIR131074 KSN130976:KSN131074 LCJ130976:LCJ131074 LMF130976:LMF131074 LWB130976:LWB131074 MFX130976:MFX131074 MPT130976:MPT131074 MZP130976:MZP131074 NJL130976:NJL131074 NTH130976:NTH131074 ODD130976:ODD131074 OMZ130976:OMZ131074 OWV130976:OWV131074 PGR130976:PGR131074 PQN130976:PQN131074 QAJ130976:QAJ131074 QKF130976:QKF131074 QUB130976:QUB131074 RDX130976:RDX131074 RNT130976:RNT131074 RXP130976:RXP131074 SHL130976:SHL131074 SRH130976:SRH131074 TBD130976:TBD131074 TKZ130976:TKZ131074 TUV130976:TUV131074 UER130976:UER131074 UON130976:UON131074 UYJ130976:UYJ131074 VIF130976:VIF131074 VSB130976:VSB131074 WBX130976:WBX131074 WLT130976:WLT131074 WVP130976:WVP131074 H196512:H196610 JD196512:JD196610 SZ196512:SZ196610 ACV196512:ACV196610 AMR196512:AMR196610 AWN196512:AWN196610 BGJ196512:BGJ196610 BQF196512:BQF196610 CAB196512:CAB196610 CJX196512:CJX196610 CTT196512:CTT196610 DDP196512:DDP196610 DNL196512:DNL196610 DXH196512:DXH196610 EHD196512:EHD196610 EQZ196512:EQZ196610 FAV196512:FAV196610 FKR196512:FKR196610 FUN196512:FUN196610 GEJ196512:GEJ196610 GOF196512:GOF196610 GYB196512:GYB196610 HHX196512:HHX196610 HRT196512:HRT196610 IBP196512:IBP196610 ILL196512:ILL196610 IVH196512:IVH196610 JFD196512:JFD196610 JOZ196512:JOZ196610 JYV196512:JYV196610 KIR196512:KIR196610 KSN196512:KSN196610 LCJ196512:LCJ196610 LMF196512:LMF196610 LWB196512:LWB196610 MFX196512:MFX196610 MPT196512:MPT196610 MZP196512:MZP196610 NJL196512:NJL196610 NTH196512:NTH196610 ODD196512:ODD196610 OMZ196512:OMZ196610 OWV196512:OWV196610 PGR196512:PGR196610 PQN196512:PQN196610 QAJ196512:QAJ196610 QKF196512:QKF196610 QUB196512:QUB196610 RDX196512:RDX196610 RNT196512:RNT196610 RXP196512:RXP196610 SHL196512:SHL196610 SRH196512:SRH196610 TBD196512:TBD196610 TKZ196512:TKZ196610 TUV196512:TUV196610 UER196512:UER196610 UON196512:UON196610 UYJ196512:UYJ196610 VIF196512:VIF196610 VSB196512:VSB196610 WBX196512:WBX196610 WLT196512:WLT196610 WVP196512:WVP196610 H262048:H262146 JD262048:JD262146 SZ262048:SZ262146 ACV262048:ACV262146 AMR262048:AMR262146 AWN262048:AWN262146 BGJ262048:BGJ262146 BQF262048:BQF262146 CAB262048:CAB262146 CJX262048:CJX262146 CTT262048:CTT262146 DDP262048:DDP262146 DNL262048:DNL262146 DXH262048:DXH262146 EHD262048:EHD262146 EQZ262048:EQZ262146 FAV262048:FAV262146 FKR262048:FKR262146 FUN262048:FUN262146 GEJ262048:GEJ262146 GOF262048:GOF262146 GYB262048:GYB262146 HHX262048:HHX262146 HRT262048:HRT262146 IBP262048:IBP262146 ILL262048:ILL262146 IVH262048:IVH262146 JFD262048:JFD262146 JOZ262048:JOZ262146 JYV262048:JYV262146 KIR262048:KIR262146 KSN262048:KSN262146 LCJ262048:LCJ262146 LMF262048:LMF262146 LWB262048:LWB262146 MFX262048:MFX262146 MPT262048:MPT262146 MZP262048:MZP262146 NJL262048:NJL262146 NTH262048:NTH262146 ODD262048:ODD262146 OMZ262048:OMZ262146 OWV262048:OWV262146 PGR262048:PGR262146 PQN262048:PQN262146 QAJ262048:QAJ262146 QKF262048:QKF262146 QUB262048:QUB262146 RDX262048:RDX262146 RNT262048:RNT262146 RXP262048:RXP262146 SHL262048:SHL262146 SRH262048:SRH262146 TBD262048:TBD262146 TKZ262048:TKZ262146 TUV262048:TUV262146 UER262048:UER262146 UON262048:UON262146 UYJ262048:UYJ262146 VIF262048:VIF262146 VSB262048:VSB262146 WBX262048:WBX262146 WLT262048:WLT262146 WVP262048:WVP262146 H327584:H327682 JD327584:JD327682 SZ327584:SZ327682 ACV327584:ACV327682 AMR327584:AMR327682 AWN327584:AWN327682 BGJ327584:BGJ327682 BQF327584:BQF327682 CAB327584:CAB327682 CJX327584:CJX327682 CTT327584:CTT327682 DDP327584:DDP327682 DNL327584:DNL327682 DXH327584:DXH327682 EHD327584:EHD327682 EQZ327584:EQZ327682 FAV327584:FAV327682 FKR327584:FKR327682 FUN327584:FUN327682 GEJ327584:GEJ327682 GOF327584:GOF327682 GYB327584:GYB327682 HHX327584:HHX327682 HRT327584:HRT327682 IBP327584:IBP327682 ILL327584:ILL327682 IVH327584:IVH327682 JFD327584:JFD327682 JOZ327584:JOZ327682 JYV327584:JYV327682 KIR327584:KIR327682 KSN327584:KSN327682 LCJ327584:LCJ327682 LMF327584:LMF327682 LWB327584:LWB327682 MFX327584:MFX327682 MPT327584:MPT327682 MZP327584:MZP327682 NJL327584:NJL327682 NTH327584:NTH327682 ODD327584:ODD327682 OMZ327584:OMZ327682 OWV327584:OWV327682 PGR327584:PGR327682 PQN327584:PQN327682 QAJ327584:QAJ327682 QKF327584:QKF327682 QUB327584:QUB327682 RDX327584:RDX327682 RNT327584:RNT327682 RXP327584:RXP327682 SHL327584:SHL327682 SRH327584:SRH327682 TBD327584:TBD327682 TKZ327584:TKZ327682 TUV327584:TUV327682 UER327584:UER327682 UON327584:UON327682 UYJ327584:UYJ327682 VIF327584:VIF327682 VSB327584:VSB327682 WBX327584:WBX327682 WLT327584:WLT327682 WVP327584:WVP327682 H393120:H393218 JD393120:JD393218 SZ393120:SZ393218 ACV393120:ACV393218 AMR393120:AMR393218 AWN393120:AWN393218 BGJ393120:BGJ393218 BQF393120:BQF393218 CAB393120:CAB393218 CJX393120:CJX393218 CTT393120:CTT393218 DDP393120:DDP393218 DNL393120:DNL393218 DXH393120:DXH393218 EHD393120:EHD393218 EQZ393120:EQZ393218 FAV393120:FAV393218 FKR393120:FKR393218 FUN393120:FUN393218 GEJ393120:GEJ393218 GOF393120:GOF393218 GYB393120:GYB393218 HHX393120:HHX393218 HRT393120:HRT393218 IBP393120:IBP393218 ILL393120:ILL393218 IVH393120:IVH393218 JFD393120:JFD393218 JOZ393120:JOZ393218 JYV393120:JYV393218 KIR393120:KIR393218 KSN393120:KSN393218 LCJ393120:LCJ393218 LMF393120:LMF393218 LWB393120:LWB393218 MFX393120:MFX393218 MPT393120:MPT393218 MZP393120:MZP393218 NJL393120:NJL393218 NTH393120:NTH393218 ODD393120:ODD393218 OMZ393120:OMZ393218 OWV393120:OWV393218 PGR393120:PGR393218 PQN393120:PQN393218 QAJ393120:QAJ393218 QKF393120:QKF393218 QUB393120:QUB393218 RDX393120:RDX393218 RNT393120:RNT393218 RXP393120:RXP393218 SHL393120:SHL393218 SRH393120:SRH393218 TBD393120:TBD393218 TKZ393120:TKZ393218 TUV393120:TUV393218 UER393120:UER393218 UON393120:UON393218 UYJ393120:UYJ393218 VIF393120:VIF393218 VSB393120:VSB393218 WBX393120:WBX393218 WLT393120:WLT393218 WVP393120:WVP393218 H458656:H458754 JD458656:JD458754 SZ458656:SZ458754 ACV458656:ACV458754 AMR458656:AMR458754 AWN458656:AWN458754 BGJ458656:BGJ458754 BQF458656:BQF458754 CAB458656:CAB458754 CJX458656:CJX458754 CTT458656:CTT458754 DDP458656:DDP458754 DNL458656:DNL458754 DXH458656:DXH458754 EHD458656:EHD458754 EQZ458656:EQZ458754 FAV458656:FAV458754 FKR458656:FKR458754 FUN458656:FUN458754 GEJ458656:GEJ458754 GOF458656:GOF458754 GYB458656:GYB458754 HHX458656:HHX458754 HRT458656:HRT458754 IBP458656:IBP458754 ILL458656:ILL458754 IVH458656:IVH458754 JFD458656:JFD458754 JOZ458656:JOZ458754 JYV458656:JYV458754 KIR458656:KIR458754 KSN458656:KSN458754 LCJ458656:LCJ458754 LMF458656:LMF458754 LWB458656:LWB458754 MFX458656:MFX458754 MPT458656:MPT458754 MZP458656:MZP458754 NJL458656:NJL458754 NTH458656:NTH458754 ODD458656:ODD458754 OMZ458656:OMZ458754 OWV458656:OWV458754 PGR458656:PGR458754 PQN458656:PQN458754 QAJ458656:QAJ458754 QKF458656:QKF458754 QUB458656:QUB458754 RDX458656:RDX458754 RNT458656:RNT458754 RXP458656:RXP458754 SHL458656:SHL458754 SRH458656:SRH458754 TBD458656:TBD458754 TKZ458656:TKZ458754 TUV458656:TUV458754 UER458656:UER458754 UON458656:UON458754 UYJ458656:UYJ458754 VIF458656:VIF458754 VSB458656:VSB458754 WBX458656:WBX458754 WLT458656:WLT458754 WVP458656:WVP458754 H524192:H524290 JD524192:JD524290 SZ524192:SZ524290 ACV524192:ACV524290 AMR524192:AMR524290 AWN524192:AWN524290 BGJ524192:BGJ524290 BQF524192:BQF524290 CAB524192:CAB524290 CJX524192:CJX524290 CTT524192:CTT524290 DDP524192:DDP524290 DNL524192:DNL524290 DXH524192:DXH524290 EHD524192:EHD524290 EQZ524192:EQZ524290 FAV524192:FAV524290 FKR524192:FKR524290 FUN524192:FUN524290 GEJ524192:GEJ524290 GOF524192:GOF524290 GYB524192:GYB524290 HHX524192:HHX524290 HRT524192:HRT524290 IBP524192:IBP524290 ILL524192:ILL524290 IVH524192:IVH524290 JFD524192:JFD524290 JOZ524192:JOZ524290 JYV524192:JYV524290 KIR524192:KIR524290 KSN524192:KSN524290 LCJ524192:LCJ524290 LMF524192:LMF524290 LWB524192:LWB524290 MFX524192:MFX524290 MPT524192:MPT524290 MZP524192:MZP524290 NJL524192:NJL524290 NTH524192:NTH524290 ODD524192:ODD524290 OMZ524192:OMZ524290 OWV524192:OWV524290 PGR524192:PGR524290 PQN524192:PQN524290 QAJ524192:QAJ524290 QKF524192:QKF524290 QUB524192:QUB524290 RDX524192:RDX524290 RNT524192:RNT524290 RXP524192:RXP524290 SHL524192:SHL524290 SRH524192:SRH524290 TBD524192:TBD524290 TKZ524192:TKZ524290 TUV524192:TUV524290 UER524192:UER524290 UON524192:UON524290 UYJ524192:UYJ524290 VIF524192:VIF524290 VSB524192:VSB524290 WBX524192:WBX524290 WLT524192:WLT524290 WVP524192:WVP524290 H589728:H589826 JD589728:JD589826 SZ589728:SZ589826 ACV589728:ACV589826 AMR589728:AMR589826 AWN589728:AWN589826 BGJ589728:BGJ589826 BQF589728:BQF589826 CAB589728:CAB589826 CJX589728:CJX589826 CTT589728:CTT589826 DDP589728:DDP589826 DNL589728:DNL589826 DXH589728:DXH589826 EHD589728:EHD589826 EQZ589728:EQZ589826 FAV589728:FAV589826 FKR589728:FKR589826 FUN589728:FUN589826 GEJ589728:GEJ589826 GOF589728:GOF589826 GYB589728:GYB589826 HHX589728:HHX589826 HRT589728:HRT589826 IBP589728:IBP589826 ILL589728:ILL589826 IVH589728:IVH589826 JFD589728:JFD589826 JOZ589728:JOZ589826 JYV589728:JYV589826 KIR589728:KIR589826 KSN589728:KSN589826 LCJ589728:LCJ589826 LMF589728:LMF589826 LWB589728:LWB589826 MFX589728:MFX589826 MPT589728:MPT589826 MZP589728:MZP589826 NJL589728:NJL589826 NTH589728:NTH589826 ODD589728:ODD589826 OMZ589728:OMZ589826 OWV589728:OWV589826 PGR589728:PGR589826 PQN589728:PQN589826 QAJ589728:QAJ589826 QKF589728:QKF589826 QUB589728:QUB589826 RDX589728:RDX589826 RNT589728:RNT589826 RXP589728:RXP589826 SHL589728:SHL589826 SRH589728:SRH589826 TBD589728:TBD589826 TKZ589728:TKZ589826 TUV589728:TUV589826 UER589728:UER589826 UON589728:UON589826 UYJ589728:UYJ589826 VIF589728:VIF589826 VSB589728:VSB589826 WBX589728:WBX589826 WLT589728:WLT589826 WVP589728:WVP589826 H655264:H655362 JD655264:JD655362 SZ655264:SZ655362 ACV655264:ACV655362 AMR655264:AMR655362 AWN655264:AWN655362 BGJ655264:BGJ655362 BQF655264:BQF655362 CAB655264:CAB655362 CJX655264:CJX655362 CTT655264:CTT655362 DDP655264:DDP655362 DNL655264:DNL655362 DXH655264:DXH655362 EHD655264:EHD655362 EQZ655264:EQZ655362 FAV655264:FAV655362 FKR655264:FKR655362 FUN655264:FUN655362 GEJ655264:GEJ655362 GOF655264:GOF655362 GYB655264:GYB655362 HHX655264:HHX655362 HRT655264:HRT655362 IBP655264:IBP655362 ILL655264:ILL655362 IVH655264:IVH655362 JFD655264:JFD655362 JOZ655264:JOZ655362 JYV655264:JYV655362 KIR655264:KIR655362 KSN655264:KSN655362 LCJ655264:LCJ655362 LMF655264:LMF655362 LWB655264:LWB655362 MFX655264:MFX655362 MPT655264:MPT655362 MZP655264:MZP655362 NJL655264:NJL655362 NTH655264:NTH655362 ODD655264:ODD655362 OMZ655264:OMZ655362 OWV655264:OWV655362 PGR655264:PGR655362 PQN655264:PQN655362 QAJ655264:QAJ655362 QKF655264:QKF655362 QUB655264:QUB655362 RDX655264:RDX655362 RNT655264:RNT655362 RXP655264:RXP655362 SHL655264:SHL655362 SRH655264:SRH655362 TBD655264:TBD655362 TKZ655264:TKZ655362 TUV655264:TUV655362 UER655264:UER655362 UON655264:UON655362 UYJ655264:UYJ655362 VIF655264:VIF655362 VSB655264:VSB655362 WBX655264:WBX655362 WLT655264:WLT655362 WVP655264:WVP655362 H720800:H720898 JD720800:JD720898 SZ720800:SZ720898 ACV720800:ACV720898 AMR720800:AMR720898 AWN720800:AWN720898 BGJ720800:BGJ720898 BQF720800:BQF720898 CAB720800:CAB720898 CJX720800:CJX720898 CTT720800:CTT720898 DDP720800:DDP720898 DNL720800:DNL720898 DXH720800:DXH720898 EHD720800:EHD720898 EQZ720800:EQZ720898 FAV720800:FAV720898 FKR720800:FKR720898 FUN720800:FUN720898 GEJ720800:GEJ720898 GOF720800:GOF720898 GYB720800:GYB720898 HHX720800:HHX720898 HRT720800:HRT720898 IBP720800:IBP720898 ILL720800:ILL720898 IVH720800:IVH720898 JFD720800:JFD720898 JOZ720800:JOZ720898 JYV720800:JYV720898 KIR720800:KIR720898 KSN720800:KSN720898 LCJ720800:LCJ720898 LMF720800:LMF720898 LWB720800:LWB720898 MFX720800:MFX720898 MPT720800:MPT720898 MZP720800:MZP720898 NJL720800:NJL720898 NTH720800:NTH720898 ODD720800:ODD720898 OMZ720800:OMZ720898 OWV720800:OWV720898 PGR720800:PGR720898 PQN720800:PQN720898 QAJ720800:QAJ720898 QKF720800:QKF720898 QUB720800:QUB720898 RDX720800:RDX720898 RNT720800:RNT720898 RXP720800:RXP720898 SHL720800:SHL720898 SRH720800:SRH720898 TBD720800:TBD720898 TKZ720800:TKZ720898 TUV720800:TUV720898 UER720800:UER720898 UON720800:UON720898 UYJ720800:UYJ720898 VIF720800:VIF720898 VSB720800:VSB720898 WBX720800:WBX720898 WLT720800:WLT720898 WVP720800:WVP720898 H786336:H786434 JD786336:JD786434 SZ786336:SZ786434 ACV786336:ACV786434 AMR786336:AMR786434 AWN786336:AWN786434 BGJ786336:BGJ786434 BQF786336:BQF786434 CAB786336:CAB786434 CJX786336:CJX786434 CTT786336:CTT786434 DDP786336:DDP786434 DNL786336:DNL786434 DXH786336:DXH786434 EHD786336:EHD786434 EQZ786336:EQZ786434 FAV786336:FAV786434 FKR786336:FKR786434 FUN786336:FUN786434 GEJ786336:GEJ786434 GOF786336:GOF786434 GYB786336:GYB786434 HHX786336:HHX786434 HRT786336:HRT786434 IBP786336:IBP786434 ILL786336:ILL786434 IVH786336:IVH786434 JFD786336:JFD786434 JOZ786336:JOZ786434 JYV786336:JYV786434 KIR786336:KIR786434 KSN786336:KSN786434 LCJ786336:LCJ786434 LMF786336:LMF786434 LWB786336:LWB786434 MFX786336:MFX786434 MPT786336:MPT786434 MZP786336:MZP786434 NJL786336:NJL786434 NTH786336:NTH786434 ODD786336:ODD786434 OMZ786336:OMZ786434 OWV786336:OWV786434 PGR786336:PGR786434 PQN786336:PQN786434 QAJ786336:QAJ786434 QKF786336:QKF786434 QUB786336:QUB786434 RDX786336:RDX786434 RNT786336:RNT786434 RXP786336:RXP786434 SHL786336:SHL786434 SRH786336:SRH786434 TBD786336:TBD786434 TKZ786336:TKZ786434 TUV786336:TUV786434 UER786336:UER786434 UON786336:UON786434 UYJ786336:UYJ786434 VIF786336:VIF786434 VSB786336:VSB786434 WBX786336:WBX786434 WLT786336:WLT786434 WVP786336:WVP786434 H851872:H851970 JD851872:JD851970 SZ851872:SZ851970 ACV851872:ACV851970 AMR851872:AMR851970 AWN851872:AWN851970 BGJ851872:BGJ851970 BQF851872:BQF851970 CAB851872:CAB851970 CJX851872:CJX851970 CTT851872:CTT851970 DDP851872:DDP851970 DNL851872:DNL851970 DXH851872:DXH851970 EHD851872:EHD851970 EQZ851872:EQZ851970 FAV851872:FAV851970 FKR851872:FKR851970 FUN851872:FUN851970 GEJ851872:GEJ851970 GOF851872:GOF851970 GYB851872:GYB851970 HHX851872:HHX851970 HRT851872:HRT851970 IBP851872:IBP851970 ILL851872:ILL851970 IVH851872:IVH851970 JFD851872:JFD851970 JOZ851872:JOZ851970 JYV851872:JYV851970 KIR851872:KIR851970 KSN851872:KSN851970 LCJ851872:LCJ851970 LMF851872:LMF851970 LWB851872:LWB851970 MFX851872:MFX851970 MPT851872:MPT851970 MZP851872:MZP851970 NJL851872:NJL851970 NTH851872:NTH851970 ODD851872:ODD851970 OMZ851872:OMZ851970 OWV851872:OWV851970 PGR851872:PGR851970 PQN851872:PQN851970 QAJ851872:QAJ851970 QKF851872:QKF851970 QUB851872:QUB851970 RDX851872:RDX851970 RNT851872:RNT851970 RXP851872:RXP851970 SHL851872:SHL851970 SRH851872:SRH851970 TBD851872:TBD851970 TKZ851872:TKZ851970 TUV851872:TUV851970 UER851872:UER851970 UON851872:UON851970 UYJ851872:UYJ851970 VIF851872:VIF851970 VSB851872:VSB851970 WBX851872:WBX851970 WLT851872:WLT851970 WVP851872:WVP851970 H917408:H917506 JD917408:JD917506 SZ917408:SZ917506 ACV917408:ACV917506 AMR917408:AMR917506 AWN917408:AWN917506 BGJ917408:BGJ917506 BQF917408:BQF917506 CAB917408:CAB917506 CJX917408:CJX917506 CTT917408:CTT917506 DDP917408:DDP917506 DNL917408:DNL917506 DXH917408:DXH917506 EHD917408:EHD917506 EQZ917408:EQZ917506 FAV917408:FAV917506 FKR917408:FKR917506 FUN917408:FUN917506 GEJ917408:GEJ917506 GOF917408:GOF917506 GYB917408:GYB917506 HHX917408:HHX917506 HRT917408:HRT917506 IBP917408:IBP917506 ILL917408:ILL917506 IVH917408:IVH917506 JFD917408:JFD917506 JOZ917408:JOZ917506 JYV917408:JYV917506 KIR917408:KIR917506 KSN917408:KSN917506 LCJ917408:LCJ917506 LMF917408:LMF917506 LWB917408:LWB917506 MFX917408:MFX917506 MPT917408:MPT917506 MZP917408:MZP917506 NJL917408:NJL917506 NTH917408:NTH917506 ODD917408:ODD917506 OMZ917408:OMZ917506 OWV917408:OWV917506 PGR917408:PGR917506 PQN917408:PQN917506 QAJ917408:QAJ917506 QKF917408:QKF917506 QUB917408:QUB917506 RDX917408:RDX917506 RNT917408:RNT917506 RXP917408:RXP917506 SHL917408:SHL917506 SRH917408:SRH917506 TBD917408:TBD917506 TKZ917408:TKZ917506 TUV917408:TUV917506 UER917408:UER917506 UON917408:UON917506 UYJ917408:UYJ917506 VIF917408:VIF917506 VSB917408:VSB917506 WBX917408:WBX917506 WLT917408:WLT917506 WVP917408:WVP917506 H982944:H983042 JD982944:JD983042 SZ982944:SZ983042 ACV982944:ACV983042 AMR982944:AMR983042 AWN982944:AWN983042 BGJ982944:BGJ983042 BQF982944:BQF983042 CAB982944:CAB983042 CJX982944:CJX983042 CTT982944:CTT983042 DDP982944:DDP983042 DNL982944:DNL983042 DXH982944:DXH983042 EHD982944:EHD983042 EQZ982944:EQZ983042 FAV982944:FAV983042 FKR982944:FKR983042 FUN982944:FUN983042 GEJ982944:GEJ983042 GOF982944:GOF983042 GYB982944:GYB983042 HHX982944:HHX983042 HRT982944:HRT983042 IBP982944:IBP983042 ILL982944:ILL983042 IVH982944:IVH983042 JFD982944:JFD983042 JOZ982944:JOZ983042 JYV982944:JYV983042 KIR982944:KIR983042 KSN982944:KSN983042 LCJ982944:LCJ983042 LMF982944:LMF983042 LWB982944:LWB983042 MFX982944:MFX983042 MPT982944:MPT983042 MZP982944:MZP983042 NJL982944:NJL983042 NTH982944:NTH983042 ODD982944:ODD983042 OMZ982944:OMZ983042 OWV982944:OWV983042 PGR982944:PGR983042 PQN982944:PQN983042 QAJ982944:QAJ983042 QKF982944:QKF983042 QUB982944:QUB983042 RDX982944:RDX983042 RNT982944:RNT983042 RXP982944:RXP983042 SHL982944:SHL983042 SRH982944:SRH983042 TBD982944:TBD983042 TKZ982944:TKZ983042 TUV982944:TUV983042 UER982944:UER983042 UON982944:UON983042 UYJ982944:UYJ983042 VIF982944:VIF983042 VSB982944:VSB983042 WBX982944:WBX983042 WLT982944:WLT983042 WVP982944:WVP983042" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 JS2 TO2 ADK2 ANG2 AXC2 BGY2 BQU2 CAQ2 CKM2 CUI2 DEE2 DOA2 DXW2 EHS2 ERO2 FBK2 FLG2 FVC2 GEY2 GOU2 GYQ2 HIM2 HSI2 ICE2 IMA2 IVW2 JFS2 JPO2 JZK2 KJG2 KTC2 LCY2 LMU2 LWQ2 MGM2 MQI2 NAE2 NKA2 NTW2 ODS2 ONO2 OXK2 PHG2 PRC2 QAY2 QKU2 QUQ2 REM2 ROI2 RYE2 SIA2 SRW2 TBS2 TLO2 TVK2 UFG2 UPC2 UYY2 VIU2 VSQ2 WCM2 WMI2 WWE2 W65440:W65538 JS65440:JS65538 TO65440:TO65538 ADK65440:ADK65538 ANG65440:ANG65538 AXC65440:AXC65538 BGY65440:BGY65538 BQU65440:BQU65538 CAQ65440:CAQ65538 CKM65440:CKM65538 CUI65440:CUI65538 DEE65440:DEE65538 DOA65440:DOA65538 DXW65440:DXW65538 EHS65440:EHS65538 ERO65440:ERO65538 FBK65440:FBK65538 FLG65440:FLG65538 FVC65440:FVC65538 GEY65440:GEY65538 GOU65440:GOU65538 GYQ65440:GYQ65538 HIM65440:HIM65538 HSI65440:HSI65538 ICE65440:ICE65538 IMA65440:IMA65538 IVW65440:IVW65538 JFS65440:JFS65538 JPO65440:JPO65538 JZK65440:JZK65538 KJG65440:KJG65538 KTC65440:KTC65538 LCY65440:LCY65538 LMU65440:LMU65538 LWQ65440:LWQ65538 MGM65440:MGM65538 MQI65440:MQI65538 NAE65440:NAE65538 NKA65440:NKA65538 NTW65440:NTW65538 ODS65440:ODS65538 ONO65440:ONO65538 OXK65440:OXK65538 PHG65440:PHG65538 PRC65440:PRC65538 QAY65440:QAY65538 QKU65440:QKU65538 QUQ65440:QUQ65538 REM65440:REM65538 ROI65440:ROI65538 RYE65440:RYE65538 SIA65440:SIA65538 SRW65440:SRW65538 TBS65440:TBS65538 TLO65440:TLO65538 TVK65440:TVK65538 UFG65440:UFG65538 UPC65440:UPC65538 UYY65440:UYY65538 VIU65440:VIU65538 VSQ65440:VSQ65538 WCM65440:WCM65538 WMI65440:WMI65538 WWE65440:WWE65538 W130976:W131074 JS130976:JS131074 TO130976:TO131074 ADK130976:ADK131074 ANG130976:ANG131074 AXC130976:AXC131074 BGY130976:BGY131074 BQU130976:BQU131074 CAQ130976:CAQ131074 CKM130976:CKM131074 CUI130976:CUI131074 DEE130976:DEE131074 DOA130976:DOA131074 DXW130976:DXW131074 EHS130976:EHS131074 ERO130976:ERO131074 FBK130976:FBK131074 FLG130976:FLG131074 FVC130976:FVC131074 GEY130976:GEY131074 GOU130976:GOU131074 GYQ130976:GYQ131074 HIM130976:HIM131074 HSI130976:HSI131074 ICE130976:ICE131074 IMA130976:IMA131074 IVW130976:IVW131074 JFS130976:JFS131074 JPO130976:JPO131074 JZK130976:JZK131074 KJG130976:KJG131074 KTC130976:KTC131074 LCY130976:LCY131074 LMU130976:LMU131074 LWQ130976:LWQ131074 MGM130976:MGM131074 MQI130976:MQI131074 NAE130976:NAE131074 NKA130976:NKA131074 NTW130976:NTW131074 ODS130976:ODS131074 ONO130976:ONO131074 OXK130976:OXK131074 PHG130976:PHG131074 PRC130976:PRC131074 QAY130976:QAY131074 QKU130976:QKU131074 QUQ130976:QUQ131074 REM130976:REM131074 ROI130976:ROI131074 RYE130976:RYE131074 SIA130976:SIA131074 SRW130976:SRW131074 TBS130976:TBS131074 TLO130976:TLO131074 TVK130976:TVK131074 UFG130976:UFG131074 UPC130976:UPC131074 UYY130976:UYY131074 VIU130976:VIU131074 VSQ130976:VSQ131074 WCM130976:WCM131074 WMI130976:WMI131074 WWE130976:WWE131074 W196512:W196610 JS196512:JS196610 TO196512:TO196610 ADK196512:ADK196610 ANG196512:ANG196610 AXC196512:AXC196610 BGY196512:BGY196610 BQU196512:BQU196610 CAQ196512:CAQ196610 CKM196512:CKM196610 CUI196512:CUI196610 DEE196512:DEE196610 DOA196512:DOA196610 DXW196512:DXW196610 EHS196512:EHS196610 ERO196512:ERO196610 FBK196512:FBK196610 FLG196512:FLG196610 FVC196512:FVC196610 GEY196512:GEY196610 GOU196512:GOU196610 GYQ196512:GYQ196610 HIM196512:HIM196610 HSI196512:HSI196610 ICE196512:ICE196610 IMA196512:IMA196610 IVW196512:IVW196610 JFS196512:JFS196610 JPO196512:JPO196610 JZK196512:JZK196610 KJG196512:KJG196610 KTC196512:KTC196610 LCY196512:LCY196610 LMU196512:LMU196610 LWQ196512:LWQ196610 MGM196512:MGM196610 MQI196512:MQI196610 NAE196512:NAE196610 NKA196512:NKA196610 NTW196512:NTW196610 ODS196512:ODS196610 ONO196512:ONO196610 OXK196512:OXK196610 PHG196512:PHG196610 PRC196512:PRC196610 QAY196512:QAY196610 QKU196512:QKU196610 QUQ196512:QUQ196610 REM196512:REM196610 ROI196512:ROI196610 RYE196512:RYE196610 SIA196512:SIA196610 SRW196512:SRW196610 TBS196512:TBS196610 TLO196512:TLO196610 TVK196512:TVK196610 UFG196512:UFG196610 UPC196512:UPC196610 UYY196512:UYY196610 VIU196512:VIU196610 VSQ196512:VSQ196610 WCM196512:WCM196610 WMI196512:WMI196610 WWE196512:WWE196610 W262048:W262146 JS262048:JS262146 TO262048:TO262146 ADK262048:ADK262146 ANG262048:ANG262146 AXC262048:AXC262146 BGY262048:BGY262146 BQU262048:BQU262146 CAQ262048:CAQ262146 CKM262048:CKM262146 CUI262048:CUI262146 DEE262048:DEE262146 DOA262048:DOA262146 DXW262048:DXW262146 EHS262048:EHS262146 ERO262048:ERO262146 FBK262048:FBK262146 FLG262048:FLG262146 FVC262048:FVC262146 GEY262048:GEY262146 GOU262048:GOU262146 GYQ262048:GYQ262146 HIM262048:HIM262146 HSI262048:HSI262146 ICE262048:ICE262146 IMA262048:IMA262146 IVW262048:IVW262146 JFS262048:JFS262146 JPO262048:JPO262146 JZK262048:JZK262146 KJG262048:KJG262146 KTC262048:KTC262146 LCY262048:LCY262146 LMU262048:LMU262146 LWQ262048:LWQ262146 MGM262048:MGM262146 MQI262048:MQI262146 NAE262048:NAE262146 NKA262048:NKA262146 NTW262048:NTW262146 ODS262048:ODS262146 ONO262048:ONO262146 OXK262048:OXK262146 PHG262048:PHG262146 PRC262048:PRC262146 QAY262048:QAY262146 QKU262048:QKU262146 QUQ262048:QUQ262146 REM262048:REM262146 ROI262048:ROI262146 RYE262048:RYE262146 SIA262048:SIA262146 SRW262048:SRW262146 TBS262048:TBS262146 TLO262048:TLO262146 TVK262048:TVK262146 UFG262048:UFG262146 UPC262048:UPC262146 UYY262048:UYY262146 VIU262048:VIU262146 VSQ262048:VSQ262146 WCM262048:WCM262146 WMI262048:WMI262146 WWE262048:WWE262146 W327584:W327682 JS327584:JS327682 TO327584:TO327682 ADK327584:ADK327682 ANG327584:ANG327682 AXC327584:AXC327682 BGY327584:BGY327682 BQU327584:BQU327682 CAQ327584:CAQ327682 CKM327584:CKM327682 CUI327584:CUI327682 DEE327584:DEE327682 DOA327584:DOA327682 DXW327584:DXW327682 EHS327584:EHS327682 ERO327584:ERO327682 FBK327584:FBK327682 FLG327584:FLG327682 FVC327584:FVC327682 GEY327584:GEY327682 GOU327584:GOU327682 GYQ327584:GYQ327682 HIM327584:HIM327682 HSI327584:HSI327682 ICE327584:ICE327682 IMA327584:IMA327682 IVW327584:IVW327682 JFS327584:JFS327682 JPO327584:JPO327682 JZK327584:JZK327682 KJG327584:KJG327682 KTC327584:KTC327682 LCY327584:LCY327682 LMU327584:LMU327682 LWQ327584:LWQ327682 MGM327584:MGM327682 MQI327584:MQI327682 NAE327584:NAE327682 NKA327584:NKA327682 NTW327584:NTW327682 ODS327584:ODS327682 ONO327584:ONO327682 OXK327584:OXK327682 PHG327584:PHG327682 PRC327584:PRC327682 QAY327584:QAY327682 QKU327584:QKU327682 QUQ327584:QUQ327682 REM327584:REM327682 ROI327584:ROI327682 RYE327584:RYE327682 SIA327584:SIA327682 SRW327584:SRW327682 TBS327584:TBS327682 TLO327584:TLO327682 TVK327584:TVK327682 UFG327584:UFG327682 UPC327584:UPC327682 UYY327584:UYY327682 VIU327584:VIU327682 VSQ327584:VSQ327682 WCM327584:WCM327682 WMI327584:WMI327682 WWE327584:WWE327682 W393120:W393218 JS393120:JS393218 TO393120:TO393218 ADK393120:ADK393218 ANG393120:ANG393218 AXC393120:AXC393218 BGY393120:BGY393218 BQU393120:BQU393218 CAQ393120:CAQ393218 CKM393120:CKM393218 CUI393120:CUI393218 DEE393120:DEE393218 DOA393120:DOA393218 DXW393120:DXW393218 EHS393120:EHS393218 ERO393120:ERO393218 FBK393120:FBK393218 FLG393120:FLG393218 FVC393120:FVC393218 GEY393120:GEY393218 GOU393120:GOU393218 GYQ393120:GYQ393218 HIM393120:HIM393218 HSI393120:HSI393218 ICE393120:ICE393218 IMA393120:IMA393218 IVW393120:IVW393218 JFS393120:JFS393218 JPO393120:JPO393218 JZK393120:JZK393218 KJG393120:KJG393218 KTC393120:KTC393218 LCY393120:LCY393218 LMU393120:LMU393218 LWQ393120:LWQ393218 MGM393120:MGM393218 MQI393120:MQI393218 NAE393120:NAE393218 NKA393120:NKA393218 NTW393120:NTW393218 ODS393120:ODS393218 ONO393120:ONO393218 OXK393120:OXK393218 PHG393120:PHG393218 PRC393120:PRC393218 QAY393120:QAY393218 QKU393120:QKU393218 QUQ393120:QUQ393218 REM393120:REM393218 ROI393120:ROI393218 RYE393120:RYE393218 SIA393120:SIA393218 SRW393120:SRW393218 TBS393120:TBS393218 TLO393120:TLO393218 TVK393120:TVK393218 UFG393120:UFG393218 UPC393120:UPC393218 UYY393120:UYY393218 VIU393120:VIU393218 VSQ393120:VSQ393218 WCM393120:WCM393218 WMI393120:WMI393218 WWE393120:WWE393218 W458656:W458754 JS458656:JS458754 TO458656:TO458754 ADK458656:ADK458754 ANG458656:ANG458754 AXC458656:AXC458754 BGY458656:BGY458754 BQU458656:BQU458754 CAQ458656:CAQ458754 CKM458656:CKM458754 CUI458656:CUI458754 DEE458656:DEE458754 DOA458656:DOA458754 DXW458656:DXW458754 EHS458656:EHS458754 ERO458656:ERO458754 FBK458656:FBK458754 FLG458656:FLG458754 FVC458656:FVC458754 GEY458656:GEY458754 GOU458656:GOU458754 GYQ458656:GYQ458754 HIM458656:HIM458754 HSI458656:HSI458754 ICE458656:ICE458754 IMA458656:IMA458754 IVW458656:IVW458754 JFS458656:JFS458754 JPO458656:JPO458754 JZK458656:JZK458754 KJG458656:KJG458754 KTC458656:KTC458754 LCY458656:LCY458754 LMU458656:LMU458754 LWQ458656:LWQ458754 MGM458656:MGM458754 MQI458656:MQI458754 NAE458656:NAE458754 NKA458656:NKA458754 NTW458656:NTW458754 ODS458656:ODS458754 ONO458656:ONO458754 OXK458656:OXK458754 PHG458656:PHG458754 PRC458656:PRC458754 QAY458656:QAY458754 QKU458656:QKU458754 QUQ458656:QUQ458754 REM458656:REM458754 ROI458656:ROI458754 RYE458656:RYE458754 SIA458656:SIA458754 SRW458656:SRW458754 TBS458656:TBS458754 TLO458656:TLO458754 TVK458656:TVK458754 UFG458656:UFG458754 UPC458656:UPC458754 UYY458656:UYY458754 VIU458656:VIU458754 VSQ458656:VSQ458754 WCM458656:WCM458754 WMI458656:WMI458754 WWE458656:WWE458754 W524192:W524290 JS524192:JS524290 TO524192:TO524290 ADK524192:ADK524290 ANG524192:ANG524290 AXC524192:AXC524290 BGY524192:BGY524290 BQU524192:BQU524290 CAQ524192:CAQ524290 CKM524192:CKM524290 CUI524192:CUI524290 DEE524192:DEE524290 DOA524192:DOA524290 DXW524192:DXW524290 EHS524192:EHS524290 ERO524192:ERO524290 FBK524192:FBK524290 FLG524192:FLG524290 FVC524192:FVC524290 GEY524192:GEY524290 GOU524192:GOU524290 GYQ524192:GYQ524290 HIM524192:HIM524290 HSI524192:HSI524290 ICE524192:ICE524290 IMA524192:IMA524290 IVW524192:IVW524290 JFS524192:JFS524290 JPO524192:JPO524290 JZK524192:JZK524290 KJG524192:KJG524290 KTC524192:KTC524290 LCY524192:LCY524290 LMU524192:LMU524290 LWQ524192:LWQ524290 MGM524192:MGM524290 MQI524192:MQI524290 NAE524192:NAE524290 NKA524192:NKA524290 NTW524192:NTW524290 ODS524192:ODS524290 ONO524192:ONO524290 OXK524192:OXK524290 PHG524192:PHG524290 PRC524192:PRC524290 QAY524192:QAY524290 QKU524192:QKU524290 QUQ524192:QUQ524290 REM524192:REM524290 ROI524192:ROI524290 RYE524192:RYE524290 SIA524192:SIA524290 SRW524192:SRW524290 TBS524192:TBS524290 TLO524192:TLO524290 TVK524192:TVK524290 UFG524192:UFG524290 UPC524192:UPC524290 UYY524192:UYY524290 VIU524192:VIU524290 VSQ524192:VSQ524290 WCM524192:WCM524290 WMI524192:WMI524290 WWE524192:WWE524290 W589728:W589826 JS589728:JS589826 TO589728:TO589826 ADK589728:ADK589826 ANG589728:ANG589826 AXC589728:AXC589826 BGY589728:BGY589826 BQU589728:BQU589826 CAQ589728:CAQ589826 CKM589728:CKM589826 CUI589728:CUI589826 DEE589728:DEE589826 DOA589728:DOA589826 DXW589728:DXW589826 EHS589728:EHS589826 ERO589728:ERO589826 FBK589728:FBK589826 FLG589728:FLG589826 FVC589728:FVC589826 GEY589728:GEY589826 GOU589728:GOU589826 GYQ589728:GYQ589826 HIM589728:HIM589826 HSI589728:HSI589826 ICE589728:ICE589826 IMA589728:IMA589826 IVW589728:IVW589826 JFS589728:JFS589826 JPO589728:JPO589826 JZK589728:JZK589826 KJG589728:KJG589826 KTC589728:KTC589826 LCY589728:LCY589826 LMU589728:LMU589826 LWQ589728:LWQ589826 MGM589728:MGM589826 MQI589728:MQI589826 NAE589728:NAE589826 NKA589728:NKA589826 NTW589728:NTW589826 ODS589728:ODS589826 ONO589728:ONO589826 OXK589728:OXK589826 PHG589728:PHG589826 PRC589728:PRC589826 QAY589728:QAY589826 QKU589728:QKU589826 QUQ589728:QUQ589826 REM589728:REM589826 ROI589728:ROI589826 RYE589728:RYE589826 SIA589728:SIA589826 SRW589728:SRW589826 TBS589728:TBS589826 TLO589728:TLO589826 TVK589728:TVK589826 UFG589728:UFG589826 UPC589728:UPC589826 UYY589728:UYY589826 VIU589728:VIU589826 VSQ589728:VSQ589826 WCM589728:WCM589826 WMI589728:WMI589826 WWE589728:WWE589826 W655264:W655362 JS655264:JS655362 TO655264:TO655362 ADK655264:ADK655362 ANG655264:ANG655362 AXC655264:AXC655362 BGY655264:BGY655362 BQU655264:BQU655362 CAQ655264:CAQ655362 CKM655264:CKM655362 CUI655264:CUI655362 DEE655264:DEE655362 DOA655264:DOA655362 DXW655264:DXW655362 EHS655264:EHS655362 ERO655264:ERO655362 FBK655264:FBK655362 FLG655264:FLG655362 FVC655264:FVC655362 GEY655264:GEY655362 GOU655264:GOU655362 GYQ655264:GYQ655362 HIM655264:HIM655362 HSI655264:HSI655362 ICE655264:ICE655362 IMA655264:IMA655362 IVW655264:IVW655362 JFS655264:JFS655362 JPO655264:JPO655362 JZK655264:JZK655362 KJG655264:KJG655362 KTC655264:KTC655362 LCY655264:LCY655362 LMU655264:LMU655362 LWQ655264:LWQ655362 MGM655264:MGM655362 MQI655264:MQI655362 NAE655264:NAE655362 NKA655264:NKA655362 NTW655264:NTW655362 ODS655264:ODS655362 ONO655264:ONO655362 OXK655264:OXK655362 PHG655264:PHG655362 PRC655264:PRC655362 QAY655264:QAY655362 QKU655264:QKU655362 QUQ655264:QUQ655362 REM655264:REM655362 ROI655264:ROI655362 RYE655264:RYE655362 SIA655264:SIA655362 SRW655264:SRW655362 TBS655264:TBS655362 TLO655264:TLO655362 TVK655264:TVK655362 UFG655264:UFG655362 UPC655264:UPC655362 UYY655264:UYY655362 VIU655264:VIU655362 VSQ655264:VSQ655362 WCM655264:WCM655362 WMI655264:WMI655362 WWE655264:WWE655362 W720800:W720898 JS720800:JS720898 TO720800:TO720898 ADK720800:ADK720898 ANG720800:ANG720898 AXC720800:AXC720898 BGY720800:BGY720898 BQU720800:BQU720898 CAQ720800:CAQ720898 CKM720800:CKM720898 CUI720800:CUI720898 DEE720800:DEE720898 DOA720800:DOA720898 DXW720800:DXW720898 EHS720800:EHS720898 ERO720800:ERO720898 FBK720800:FBK720898 FLG720800:FLG720898 FVC720800:FVC720898 GEY720800:GEY720898 GOU720800:GOU720898 GYQ720800:GYQ720898 HIM720800:HIM720898 HSI720800:HSI720898 ICE720800:ICE720898 IMA720800:IMA720898 IVW720800:IVW720898 JFS720800:JFS720898 JPO720800:JPO720898 JZK720800:JZK720898 KJG720800:KJG720898 KTC720800:KTC720898 LCY720800:LCY720898 LMU720800:LMU720898 LWQ720800:LWQ720898 MGM720800:MGM720898 MQI720800:MQI720898 NAE720800:NAE720898 NKA720800:NKA720898 NTW720800:NTW720898 ODS720800:ODS720898 ONO720800:ONO720898 OXK720800:OXK720898 PHG720800:PHG720898 PRC720800:PRC720898 QAY720800:QAY720898 QKU720800:QKU720898 QUQ720800:QUQ720898 REM720800:REM720898 ROI720800:ROI720898 RYE720800:RYE720898 SIA720800:SIA720898 SRW720800:SRW720898 TBS720800:TBS720898 TLO720800:TLO720898 TVK720800:TVK720898 UFG720800:UFG720898 UPC720800:UPC720898 UYY720800:UYY720898 VIU720800:VIU720898 VSQ720800:VSQ720898 WCM720800:WCM720898 WMI720800:WMI720898 WWE720800:WWE720898 W786336:W786434 JS786336:JS786434 TO786336:TO786434 ADK786336:ADK786434 ANG786336:ANG786434 AXC786336:AXC786434 BGY786336:BGY786434 BQU786336:BQU786434 CAQ786336:CAQ786434 CKM786336:CKM786434 CUI786336:CUI786434 DEE786336:DEE786434 DOA786336:DOA786434 DXW786336:DXW786434 EHS786336:EHS786434 ERO786336:ERO786434 FBK786336:FBK786434 FLG786336:FLG786434 FVC786336:FVC786434 GEY786336:GEY786434 GOU786336:GOU786434 GYQ786336:GYQ786434 HIM786336:HIM786434 HSI786336:HSI786434 ICE786336:ICE786434 IMA786336:IMA786434 IVW786336:IVW786434 JFS786336:JFS786434 JPO786336:JPO786434 JZK786336:JZK786434 KJG786336:KJG786434 KTC786336:KTC786434 LCY786336:LCY786434 LMU786336:LMU786434 LWQ786336:LWQ786434 MGM786336:MGM786434 MQI786336:MQI786434 NAE786336:NAE786434 NKA786336:NKA786434 NTW786336:NTW786434 ODS786336:ODS786434 ONO786336:ONO786434 OXK786336:OXK786434 PHG786336:PHG786434 PRC786336:PRC786434 QAY786336:QAY786434 QKU786336:QKU786434 QUQ786336:QUQ786434 REM786336:REM786434 ROI786336:ROI786434 RYE786336:RYE786434 SIA786336:SIA786434 SRW786336:SRW786434 TBS786336:TBS786434 TLO786336:TLO786434 TVK786336:TVK786434 UFG786336:UFG786434 UPC786336:UPC786434 UYY786336:UYY786434 VIU786336:VIU786434 VSQ786336:VSQ786434 WCM786336:WCM786434 WMI786336:WMI786434 WWE786336:WWE786434 W851872:W851970 JS851872:JS851970 TO851872:TO851970 ADK851872:ADK851970 ANG851872:ANG851970 AXC851872:AXC851970 BGY851872:BGY851970 BQU851872:BQU851970 CAQ851872:CAQ851970 CKM851872:CKM851970 CUI851872:CUI851970 DEE851872:DEE851970 DOA851872:DOA851970 DXW851872:DXW851970 EHS851872:EHS851970 ERO851872:ERO851970 FBK851872:FBK851970 FLG851872:FLG851970 FVC851872:FVC851970 GEY851872:GEY851970 GOU851872:GOU851970 GYQ851872:GYQ851970 HIM851872:HIM851970 HSI851872:HSI851970 ICE851872:ICE851970 IMA851872:IMA851970 IVW851872:IVW851970 JFS851872:JFS851970 JPO851872:JPO851970 JZK851872:JZK851970 KJG851872:KJG851970 KTC851872:KTC851970 LCY851872:LCY851970 LMU851872:LMU851970 LWQ851872:LWQ851970 MGM851872:MGM851970 MQI851872:MQI851970 NAE851872:NAE851970 NKA851872:NKA851970 NTW851872:NTW851970 ODS851872:ODS851970 ONO851872:ONO851970 OXK851872:OXK851970 PHG851872:PHG851970 PRC851872:PRC851970 QAY851872:QAY851970 QKU851872:QKU851970 QUQ851872:QUQ851970 REM851872:REM851970 ROI851872:ROI851970 RYE851872:RYE851970 SIA851872:SIA851970 SRW851872:SRW851970 TBS851872:TBS851970 TLO851872:TLO851970 TVK851872:TVK851970 UFG851872:UFG851970 UPC851872:UPC851970 UYY851872:UYY851970 VIU851872:VIU851970 VSQ851872:VSQ851970 WCM851872:WCM851970 WMI851872:WMI851970 WWE851872:WWE851970 W917408:W917506 JS917408:JS917506 TO917408:TO917506 ADK917408:ADK917506 ANG917408:ANG917506 AXC917408:AXC917506 BGY917408:BGY917506 BQU917408:BQU917506 CAQ917408:CAQ917506 CKM917408:CKM917506 CUI917408:CUI917506 DEE917408:DEE917506 DOA917408:DOA917506 DXW917408:DXW917506 EHS917408:EHS917506 ERO917408:ERO917506 FBK917408:FBK917506 FLG917408:FLG917506 FVC917408:FVC917506 GEY917408:GEY917506 GOU917408:GOU917506 GYQ917408:GYQ917506 HIM917408:HIM917506 HSI917408:HSI917506 ICE917408:ICE917506 IMA917408:IMA917506 IVW917408:IVW917506 JFS917408:JFS917506 JPO917408:JPO917506 JZK917408:JZK917506 KJG917408:KJG917506 KTC917408:KTC917506 LCY917408:LCY917506 LMU917408:LMU917506 LWQ917408:LWQ917506 MGM917408:MGM917506 MQI917408:MQI917506 NAE917408:NAE917506 NKA917408:NKA917506 NTW917408:NTW917506 ODS917408:ODS917506 ONO917408:ONO917506 OXK917408:OXK917506 PHG917408:PHG917506 PRC917408:PRC917506 QAY917408:QAY917506 QKU917408:QKU917506 QUQ917408:QUQ917506 REM917408:REM917506 ROI917408:ROI917506 RYE917408:RYE917506 SIA917408:SIA917506 SRW917408:SRW917506 TBS917408:TBS917506 TLO917408:TLO917506 TVK917408:TVK917506 UFG917408:UFG917506 UPC917408:UPC917506 UYY917408:UYY917506 VIU917408:VIU917506 VSQ917408:VSQ917506 WCM917408:WCM917506 WMI917408:WMI917506 WWE917408:WWE917506 W982944:W983042 JS982944:JS983042 TO982944:TO983042 ADK982944:ADK983042 ANG982944:ANG983042 AXC982944:AXC983042 BGY982944:BGY983042 BQU982944:BQU983042 CAQ982944:CAQ983042 CKM982944:CKM983042 CUI982944:CUI983042 DEE982944:DEE983042 DOA982944:DOA983042 DXW982944:DXW983042 EHS982944:EHS983042 ERO982944:ERO983042 FBK982944:FBK983042 FLG982944:FLG983042 FVC982944:FVC983042 GEY982944:GEY983042 GOU982944:GOU983042 GYQ982944:GYQ983042 HIM982944:HIM983042 HSI982944:HSI983042 ICE982944:ICE983042 IMA982944:IMA983042 IVW982944:IVW983042 JFS982944:JFS983042 JPO982944:JPO983042 JZK982944:JZK983042 KJG982944:KJG983042 KTC982944:KTC983042 LCY982944:LCY983042 LMU982944:LMU983042 LWQ982944:LWQ983042 MGM982944:MGM983042 MQI982944:MQI983042 NAE982944:NAE983042 NKA982944:NKA983042 NTW982944:NTW983042 ODS982944:ODS983042 ONO982944:ONO983042 OXK982944:OXK983042 PHG982944:PHG983042 PRC982944:PRC983042 QAY982944:QAY983042 QKU982944:QKU983042 QUQ982944:QUQ983042 REM982944:REM983042 ROI982944:ROI983042 RYE982944:RYE983042 SIA982944:SIA983042 SRW982944:SRW983042 TBS982944:TBS983042 TLO982944:TLO983042 TVK982944:TVK983042 UFG982944:UFG983042 UPC982944:UPC983042 UYY982944:UYY983042 VIU982944:VIU983042 VSQ982944:VSQ983042 WCM982944:WCM983042 WMI982944:WMI983042 WWE982944:WWE983042" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 JT2 TP2 ADL2 ANH2 AXD2 BGZ2 BQV2 CAR2 CKN2 CUJ2 DEF2 DOB2 DXX2 EHT2 ERP2 FBL2 FLH2 FVD2 GEZ2 GOV2 GYR2 HIN2 HSJ2 ICF2 IMB2 IVX2 JFT2 JPP2 JZL2 KJH2 KTD2 LCZ2 LMV2 LWR2 MGN2 MQJ2 NAF2 NKB2 NTX2 ODT2 ONP2 OXL2 PHH2 PRD2 QAZ2 QKV2 QUR2 REN2 ROJ2 RYF2 SIB2 SRX2 TBT2 TLP2 TVL2 UFH2 UPD2 UYZ2 VIV2 VSR2 WCN2 WMJ2 WWF2 X65440:X65538 JT65440:JT65538 TP65440:TP65538 ADL65440:ADL65538 ANH65440:ANH65538 AXD65440:AXD65538 BGZ65440:BGZ65538 BQV65440:BQV65538 CAR65440:CAR65538 CKN65440:CKN65538 CUJ65440:CUJ65538 DEF65440:DEF65538 DOB65440:DOB65538 DXX65440:DXX65538 EHT65440:EHT65538 ERP65440:ERP65538 FBL65440:FBL65538 FLH65440:FLH65538 FVD65440:FVD65538 GEZ65440:GEZ65538 GOV65440:GOV65538 GYR65440:GYR65538 HIN65440:HIN65538 HSJ65440:HSJ65538 ICF65440:ICF65538 IMB65440:IMB65538 IVX65440:IVX65538 JFT65440:JFT65538 JPP65440:JPP65538 JZL65440:JZL65538 KJH65440:KJH65538 KTD65440:KTD65538 LCZ65440:LCZ65538 LMV65440:LMV65538 LWR65440:LWR65538 MGN65440:MGN65538 MQJ65440:MQJ65538 NAF65440:NAF65538 NKB65440:NKB65538 NTX65440:NTX65538 ODT65440:ODT65538 ONP65440:ONP65538 OXL65440:OXL65538 PHH65440:PHH65538 PRD65440:PRD65538 QAZ65440:QAZ65538 QKV65440:QKV65538 QUR65440:QUR65538 REN65440:REN65538 ROJ65440:ROJ65538 RYF65440:RYF65538 SIB65440:SIB65538 SRX65440:SRX65538 TBT65440:TBT65538 TLP65440:TLP65538 TVL65440:TVL65538 UFH65440:UFH65538 UPD65440:UPD65538 UYZ65440:UYZ65538 VIV65440:VIV65538 VSR65440:VSR65538 WCN65440:WCN65538 WMJ65440:WMJ65538 WWF65440:WWF65538 X130976:X131074 JT130976:JT131074 TP130976:TP131074 ADL130976:ADL131074 ANH130976:ANH131074 AXD130976:AXD131074 BGZ130976:BGZ131074 BQV130976:BQV131074 CAR130976:CAR131074 CKN130976:CKN131074 CUJ130976:CUJ131074 DEF130976:DEF131074 DOB130976:DOB131074 DXX130976:DXX131074 EHT130976:EHT131074 ERP130976:ERP131074 FBL130976:FBL131074 FLH130976:FLH131074 FVD130976:FVD131074 GEZ130976:GEZ131074 GOV130976:GOV131074 GYR130976:GYR131074 HIN130976:HIN131074 HSJ130976:HSJ131074 ICF130976:ICF131074 IMB130976:IMB131074 IVX130976:IVX131074 JFT130976:JFT131074 JPP130976:JPP131074 JZL130976:JZL131074 KJH130976:KJH131074 KTD130976:KTD131074 LCZ130976:LCZ131074 LMV130976:LMV131074 LWR130976:LWR131074 MGN130976:MGN131074 MQJ130976:MQJ131074 NAF130976:NAF131074 NKB130976:NKB131074 NTX130976:NTX131074 ODT130976:ODT131074 ONP130976:ONP131074 OXL130976:OXL131074 PHH130976:PHH131074 PRD130976:PRD131074 QAZ130976:QAZ131074 QKV130976:QKV131074 QUR130976:QUR131074 REN130976:REN131074 ROJ130976:ROJ131074 RYF130976:RYF131074 SIB130976:SIB131074 SRX130976:SRX131074 TBT130976:TBT131074 TLP130976:TLP131074 TVL130976:TVL131074 UFH130976:UFH131074 UPD130976:UPD131074 UYZ130976:UYZ131074 VIV130976:VIV131074 VSR130976:VSR131074 WCN130976:WCN131074 WMJ130976:WMJ131074 WWF130976:WWF131074 X196512:X196610 JT196512:JT196610 TP196512:TP196610 ADL196512:ADL196610 ANH196512:ANH196610 AXD196512:AXD196610 BGZ196512:BGZ196610 BQV196512:BQV196610 CAR196512:CAR196610 CKN196512:CKN196610 CUJ196512:CUJ196610 DEF196512:DEF196610 DOB196512:DOB196610 DXX196512:DXX196610 EHT196512:EHT196610 ERP196512:ERP196610 FBL196512:FBL196610 FLH196512:FLH196610 FVD196512:FVD196610 GEZ196512:GEZ196610 GOV196512:GOV196610 GYR196512:GYR196610 HIN196512:HIN196610 HSJ196512:HSJ196610 ICF196512:ICF196610 IMB196512:IMB196610 IVX196512:IVX196610 JFT196512:JFT196610 JPP196512:JPP196610 JZL196512:JZL196610 KJH196512:KJH196610 KTD196512:KTD196610 LCZ196512:LCZ196610 LMV196512:LMV196610 LWR196512:LWR196610 MGN196512:MGN196610 MQJ196512:MQJ196610 NAF196512:NAF196610 NKB196512:NKB196610 NTX196512:NTX196610 ODT196512:ODT196610 ONP196512:ONP196610 OXL196512:OXL196610 PHH196512:PHH196610 PRD196512:PRD196610 QAZ196512:QAZ196610 QKV196512:QKV196610 QUR196512:QUR196610 REN196512:REN196610 ROJ196512:ROJ196610 RYF196512:RYF196610 SIB196512:SIB196610 SRX196512:SRX196610 TBT196512:TBT196610 TLP196512:TLP196610 TVL196512:TVL196610 UFH196512:UFH196610 UPD196512:UPD196610 UYZ196512:UYZ196610 VIV196512:VIV196610 VSR196512:VSR196610 WCN196512:WCN196610 WMJ196512:WMJ196610 WWF196512:WWF196610 X262048:X262146 JT262048:JT262146 TP262048:TP262146 ADL262048:ADL262146 ANH262048:ANH262146 AXD262048:AXD262146 BGZ262048:BGZ262146 BQV262048:BQV262146 CAR262048:CAR262146 CKN262048:CKN262146 CUJ262048:CUJ262146 DEF262048:DEF262146 DOB262048:DOB262146 DXX262048:DXX262146 EHT262048:EHT262146 ERP262048:ERP262146 FBL262048:FBL262146 FLH262048:FLH262146 FVD262048:FVD262146 GEZ262048:GEZ262146 GOV262048:GOV262146 GYR262048:GYR262146 HIN262048:HIN262146 HSJ262048:HSJ262146 ICF262048:ICF262146 IMB262048:IMB262146 IVX262048:IVX262146 JFT262048:JFT262146 JPP262048:JPP262146 JZL262048:JZL262146 KJH262048:KJH262146 KTD262048:KTD262146 LCZ262048:LCZ262146 LMV262048:LMV262146 LWR262048:LWR262146 MGN262048:MGN262146 MQJ262048:MQJ262146 NAF262048:NAF262146 NKB262048:NKB262146 NTX262048:NTX262146 ODT262048:ODT262146 ONP262048:ONP262146 OXL262048:OXL262146 PHH262048:PHH262146 PRD262048:PRD262146 QAZ262048:QAZ262146 QKV262048:QKV262146 QUR262048:QUR262146 REN262048:REN262146 ROJ262048:ROJ262146 RYF262048:RYF262146 SIB262048:SIB262146 SRX262048:SRX262146 TBT262048:TBT262146 TLP262048:TLP262146 TVL262048:TVL262146 UFH262048:UFH262146 UPD262048:UPD262146 UYZ262048:UYZ262146 VIV262048:VIV262146 VSR262048:VSR262146 WCN262048:WCN262146 WMJ262048:WMJ262146 WWF262048:WWF262146 X327584:X327682 JT327584:JT327682 TP327584:TP327682 ADL327584:ADL327682 ANH327584:ANH327682 AXD327584:AXD327682 BGZ327584:BGZ327682 BQV327584:BQV327682 CAR327584:CAR327682 CKN327584:CKN327682 CUJ327584:CUJ327682 DEF327584:DEF327682 DOB327584:DOB327682 DXX327584:DXX327682 EHT327584:EHT327682 ERP327584:ERP327682 FBL327584:FBL327682 FLH327584:FLH327682 FVD327584:FVD327682 GEZ327584:GEZ327682 GOV327584:GOV327682 GYR327584:GYR327682 HIN327584:HIN327682 HSJ327584:HSJ327682 ICF327584:ICF327682 IMB327584:IMB327682 IVX327584:IVX327682 JFT327584:JFT327682 JPP327584:JPP327682 JZL327584:JZL327682 KJH327584:KJH327682 KTD327584:KTD327682 LCZ327584:LCZ327682 LMV327584:LMV327682 LWR327584:LWR327682 MGN327584:MGN327682 MQJ327584:MQJ327682 NAF327584:NAF327682 NKB327584:NKB327682 NTX327584:NTX327682 ODT327584:ODT327682 ONP327584:ONP327682 OXL327584:OXL327682 PHH327584:PHH327682 PRD327584:PRD327682 QAZ327584:QAZ327682 QKV327584:QKV327682 QUR327584:QUR327682 REN327584:REN327682 ROJ327584:ROJ327682 RYF327584:RYF327682 SIB327584:SIB327682 SRX327584:SRX327682 TBT327584:TBT327682 TLP327584:TLP327682 TVL327584:TVL327682 UFH327584:UFH327682 UPD327584:UPD327682 UYZ327584:UYZ327682 VIV327584:VIV327682 VSR327584:VSR327682 WCN327584:WCN327682 WMJ327584:WMJ327682 WWF327584:WWF327682 X393120:X393218 JT393120:JT393218 TP393120:TP393218 ADL393120:ADL393218 ANH393120:ANH393218 AXD393120:AXD393218 BGZ393120:BGZ393218 BQV393120:BQV393218 CAR393120:CAR393218 CKN393120:CKN393218 CUJ393120:CUJ393218 DEF393120:DEF393218 DOB393120:DOB393218 DXX393120:DXX393218 EHT393120:EHT393218 ERP393120:ERP393218 FBL393120:FBL393218 FLH393120:FLH393218 FVD393120:FVD393218 GEZ393120:GEZ393218 GOV393120:GOV393218 GYR393120:GYR393218 HIN393120:HIN393218 HSJ393120:HSJ393218 ICF393120:ICF393218 IMB393120:IMB393218 IVX393120:IVX393218 JFT393120:JFT393218 JPP393120:JPP393218 JZL393120:JZL393218 KJH393120:KJH393218 KTD393120:KTD393218 LCZ393120:LCZ393218 LMV393120:LMV393218 LWR393120:LWR393218 MGN393120:MGN393218 MQJ393120:MQJ393218 NAF393120:NAF393218 NKB393120:NKB393218 NTX393120:NTX393218 ODT393120:ODT393218 ONP393120:ONP393218 OXL393120:OXL393218 PHH393120:PHH393218 PRD393120:PRD393218 QAZ393120:QAZ393218 QKV393120:QKV393218 QUR393120:QUR393218 REN393120:REN393218 ROJ393120:ROJ393218 RYF393120:RYF393218 SIB393120:SIB393218 SRX393120:SRX393218 TBT393120:TBT393218 TLP393120:TLP393218 TVL393120:TVL393218 UFH393120:UFH393218 UPD393120:UPD393218 UYZ393120:UYZ393218 VIV393120:VIV393218 VSR393120:VSR393218 WCN393120:WCN393218 WMJ393120:WMJ393218 WWF393120:WWF393218 X458656:X458754 JT458656:JT458754 TP458656:TP458754 ADL458656:ADL458754 ANH458656:ANH458754 AXD458656:AXD458754 BGZ458656:BGZ458754 BQV458656:BQV458754 CAR458656:CAR458754 CKN458656:CKN458754 CUJ458656:CUJ458754 DEF458656:DEF458754 DOB458656:DOB458754 DXX458656:DXX458754 EHT458656:EHT458754 ERP458656:ERP458754 FBL458656:FBL458754 FLH458656:FLH458754 FVD458656:FVD458754 GEZ458656:GEZ458754 GOV458656:GOV458754 GYR458656:GYR458754 HIN458656:HIN458754 HSJ458656:HSJ458754 ICF458656:ICF458754 IMB458656:IMB458754 IVX458656:IVX458754 JFT458656:JFT458754 JPP458656:JPP458754 JZL458656:JZL458754 KJH458656:KJH458754 KTD458656:KTD458754 LCZ458656:LCZ458754 LMV458656:LMV458754 LWR458656:LWR458754 MGN458656:MGN458754 MQJ458656:MQJ458754 NAF458656:NAF458754 NKB458656:NKB458754 NTX458656:NTX458754 ODT458656:ODT458754 ONP458656:ONP458754 OXL458656:OXL458754 PHH458656:PHH458754 PRD458656:PRD458754 QAZ458656:QAZ458754 QKV458656:QKV458754 QUR458656:QUR458754 REN458656:REN458754 ROJ458656:ROJ458754 RYF458656:RYF458754 SIB458656:SIB458754 SRX458656:SRX458754 TBT458656:TBT458754 TLP458656:TLP458754 TVL458656:TVL458754 UFH458656:UFH458754 UPD458656:UPD458754 UYZ458656:UYZ458754 VIV458656:VIV458754 VSR458656:VSR458754 WCN458656:WCN458754 WMJ458656:WMJ458754 WWF458656:WWF458754 X524192:X524290 JT524192:JT524290 TP524192:TP524290 ADL524192:ADL524290 ANH524192:ANH524290 AXD524192:AXD524290 BGZ524192:BGZ524290 BQV524192:BQV524290 CAR524192:CAR524290 CKN524192:CKN524290 CUJ524192:CUJ524290 DEF524192:DEF524290 DOB524192:DOB524290 DXX524192:DXX524290 EHT524192:EHT524290 ERP524192:ERP524290 FBL524192:FBL524290 FLH524192:FLH524290 FVD524192:FVD524290 GEZ524192:GEZ524290 GOV524192:GOV524290 GYR524192:GYR524290 HIN524192:HIN524290 HSJ524192:HSJ524290 ICF524192:ICF524290 IMB524192:IMB524290 IVX524192:IVX524290 JFT524192:JFT524290 JPP524192:JPP524290 JZL524192:JZL524290 KJH524192:KJH524290 KTD524192:KTD524290 LCZ524192:LCZ524290 LMV524192:LMV524290 LWR524192:LWR524290 MGN524192:MGN524290 MQJ524192:MQJ524290 NAF524192:NAF524290 NKB524192:NKB524290 NTX524192:NTX524290 ODT524192:ODT524290 ONP524192:ONP524290 OXL524192:OXL524290 PHH524192:PHH524290 PRD524192:PRD524290 QAZ524192:QAZ524290 QKV524192:QKV524290 QUR524192:QUR524290 REN524192:REN524290 ROJ524192:ROJ524290 RYF524192:RYF524290 SIB524192:SIB524290 SRX524192:SRX524290 TBT524192:TBT524290 TLP524192:TLP524290 TVL524192:TVL524290 UFH524192:UFH524290 UPD524192:UPD524290 UYZ524192:UYZ524290 VIV524192:VIV524290 VSR524192:VSR524290 WCN524192:WCN524290 WMJ524192:WMJ524290 WWF524192:WWF524290 X589728:X589826 JT589728:JT589826 TP589728:TP589826 ADL589728:ADL589826 ANH589728:ANH589826 AXD589728:AXD589826 BGZ589728:BGZ589826 BQV589728:BQV589826 CAR589728:CAR589826 CKN589728:CKN589826 CUJ589728:CUJ589826 DEF589728:DEF589826 DOB589728:DOB589826 DXX589728:DXX589826 EHT589728:EHT589826 ERP589728:ERP589826 FBL589728:FBL589826 FLH589728:FLH589826 FVD589728:FVD589826 GEZ589728:GEZ589826 GOV589728:GOV589826 GYR589728:GYR589826 HIN589728:HIN589826 HSJ589728:HSJ589826 ICF589728:ICF589826 IMB589728:IMB589826 IVX589728:IVX589826 JFT589728:JFT589826 JPP589728:JPP589826 JZL589728:JZL589826 KJH589728:KJH589826 KTD589728:KTD589826 LCZ589728:LCZ589826 LMV589728:LMV589826 LWR589728:LWR589826 MGN589728:MGN589826 MQJ589728:MQJ589826 NAF589728:NAF589826 NKB589728:NKB589826 NTX589728:NTX589826 ODT589728:ODT589826 ONP589728:ONP589826 OXL589728:OXL589826 PHH589728:PHH589826 PRD589728:PRD589826 QAZ589728:QAZ589826 QKV589728:QKV589826 QUR589728:QUR589826 REN589728:REN589826 ROJ589728:ROJ589826 RYF589728:RYF589826 SIB589728:SIB589826 SRX589728:SRX589826 TBT589728:TBT589826 TLP589728:TLP589826 TVL589728:TVL589826 UFH589728:UFH589826 UPD589728:UPD589826 UYZ589728:UYZ589826 VIV589728:VIV589826 VSR589728:VSR589826 WCN589728:WCN589826 WMJ589728:WMJ589826 WWF589728:WWF589826 X655264:X655362 JT655264:JT655362 TP655264:TP655362 ADL655264:ADL655362 ANH655264:ANH655362 AXD655264:AXD655362 BGZ655264:BGZ655362 BQV655264:BQV655362 CAR655264:CAR655362 CKN655264:CKN655362 CUJ655264:CUJ655362 DEF655264:DEF655362 DOB655264:DOB655362 DXX655264:DXX655362 EHT655264:EHT655362 ERP655264:ERP655362 FBL655264:FBL655362 FLH655264:FLH655362 FVD655264:FVD655362 GEZ655264:GEZ655362 GOV655264:GOV655362 GYR655264:GYR655362 HIN655264:HIN655362 HSJ655264:HSJ655362 ICF655264:ICF655362 IMB655264:IMB655362 IVX655264:IVX655362 JFT655264:JFT655362 JPP655264:JPP655362 JZL655264:JZL655362 KJH655264:KJH655362 KTD655264:KTD655362 LCZ655264:LCZ655362 LMV655264:LMV655362 LWR655264:LWR655362 MGN655264:MGN655362 MQJ655264:MQJ655362 NAF655264:NAF655362 NKB655264:NKB655362 NTX655264:NTX655362 ODT655264:ODT655362 ONP655264:ONP655362 OXL655264:OXL655362 PHH655264:PHH655362 PRD655264:PRD655362 QAZ655264:QAZ655362 QKV655264:QKV655362 QUR655264:QUR655362 REN655264:REN655362 ROJ655264:ROJ655362 RYF655264:RYF655362 SIB655264:SIB655362 SRX655264:SRX655362 TBT655264:TBT655362 TLP655264:TLP655362 TVL655264:TVL655362 UFH655264:UFH655362 UPD655264:UPD655362 UYZ655264:UYZ655362 VIV655264:VIV655362 VSR655264:VSR655362 WCN655264:WCN655362 WMJ655264:WMJ655362 WWF655264:WWF655362 X720800:X720898 JT720800:JT720898 TP720800:TP720898 ADL720800:ADL720898 ANH720800:ANH720898 AXD720800:AXD720898 BGZ720800:BGZ720898 BQV720800:BQV720898 CAR720800:CAR720898 CKN720800:CKN720898 CUJ720800:CUJ720898 DEF720800:DEF720898 DOB720800:DOB720898 DXX720800:DXX720898 EHT720800:EHT720898 ERP720800:ERP720898 FBL720800:FBL720898 FLH720800:FLH720898 FVD720800:FVD720898 GEZ720800:GEZ720898 GOV720800:GOV720898 GYR720800:GYR720898 HIN720800:HIN720898 HSJ720800:HSJ720898 ICF720800:ICF720898 IMB720800:IMB720898 IVX720800:IVX720898 JFT720800:JFT720898 JPP720800:JPP720898 JZL720800:JZL720898 KJH720800:KJH720898 KTD720800:KTD720898 LCZ720800:LCZ720898 LMV720800:LMV720898 LWR720800:LWR720898 MGN720800:MGN720898 MQJ720800:MQJ720898 NAF720800:NAF720898 NKB720800:NKB720898 NTX720800:NTX720898 ODT720800:ODT720898 ONP720800:ONP720898 OXL720800:OXL720898 PHH720800:PHH720898 PRD720800:PRD720898 QAZ720800:QAZ720898 QKV720800:QKV720898 QUR720800:QUR720898 REN720800:REN720898 ROJ720800:ROJ720898 RYF720800:RYF720898 SIB720800:SIB720898 SRX720800:SRX720898 TBT720800:TBT720898 TLP720800:TLP720898 TVL720800:TVL720898 UFH720800:UFH720898 UPD720800:UPD720898 UYZ720800:UYZ720898 VIV720800:VIV720898 VSR720800:VSR720898 WCN720800:WCN720898 WMJ720800:WMJ720898 WWF720800:WWF720898 X786336:X786434 JT786336:JT786434 TP786336:TP786434 ADL786336:ADL786434 ANH786336:ANH786434 AXD786336:AXD786434 BGZ786336:BGZ786434 BQV786336:BQV786434 CAR786336:CAR786434 CKN786336:CKN786434 CUJ786336:CUJ786434 DEF786336:DEF786434 DOB786336:DOB786434 DXX786336:DXX786434 EHT786336:EHT786434 ERP786336:ERP786434 FBL786336:FBL786434 FLH786336:FLH786434 FVD786336:FVD786434 GEZ786336:GEZ786434 GOV786336:GOV786434 GYR786336:GYR786434 HIN786336:HIN786434 HSJ786336:HSJ786434 ICF786336:ICF786434 IMB786336:IMB786434 IVX786336:IVX786434 JFT786336:JFT786434 JPP786336:JPP786434 JZL786336:JZL786434 KJH786336:KJH786434 KTD786336:KTD786434 LCZ786336:LCZ786434 LMV786336:LMV786434 LWR786336:LWR786434 MGN786336:MGN786434 MQJ786336:MQJ786434 NAF786336:NAF786434 NKB786336:NKB786434 NTX786336:NTX786434 ODT786336:ODT786434 ONP786336:ONP786434 OXL786336:OXL786434 PHH786336:PHH786434 PRD786336:PRD786434 QAZ786336:QAZ786434 QKV786336:QKV786434 QUR786336:QUR786434 REN786336:REN786434 ROJ786336:ROJ786434 RYF786336:RYF786434 SIB786336:SIB786434 SRX786336:SRX786434 TBT786336:TBT786434 TLP786336:TLP786434 TVL786336:TVL786434 UFH786336:UFH786434 UPD786336:UPD786434 UYZ786336:UYZ786434 VIV786336:VIV786434 VSR786336:VSR786434 WCN786336:WCN786434 WMJ786336:WMJ786434 WWF786336:WWF786434 X851872:X851970 JT851872:JT851970 TP851872:TP851970 ADL851872:ADL851970 ANH851872:ANH851970 AXD851872:AXD851970 BGZ851872:BGZ851970 BQV851872:BQV851970 CAR851872:CAR851970 CKN851872:CKN851970 CUJ851872:CUJ851970 DEF851872:DEF851970 DOB851872:DOB851970 DXX851872:DXX851970 EHT851872:EHT851970 ERP851872:ERP851970 FBL851872:FBL851970 FLH851872:FLH851970 FVD851872:FVD851970 GEZ851872:GEZ851970 GOV851872:GOV851970 GYR851872:GYR851970 HIN851872:HIN851970 HSJ851872:HSJ851970 ICF851872:ICF851970 IMB851872:IMB851970 IVX851872:IVX851970 JFT851872:JFT851970 JPP851872:JPP851970 JZL851872:JZL851970 KJH851872:KJH851970 KTD851872:KTD851970 LCZ851872:LCZ851970 LMV851872:LMV851970 LWR851872:LWR851970 MGN851872:MGN851970 MQJ851872:MQJ851970 NAF851872:NAF851970 NKB851872:NKB851970 NTX851872:NTX851970 ODT851872:ODT851970 ONP851872:ONP851970 OXL851872:OXL851970 PHH851872:PHH851970 PRD851872:PRD851970 QAZ851872:QAZ851970 QKV851872:QKV851970 QUR851872:QUR851970 REN851872:REN851970 ROJ851872:ROJ851970 RYF851872:RYF851970 SIB851872:SIB851970 SRX851872:SRX851970 TBT851872:TBT851970 TLP851872:TLP851970 TVL851872:TVL851970 UFH851872:UFH851970 UPD851872:UPD851970 UYZ851872:UYZ851970 VIV851872:VIV851970 VSR851872:VSR851970 WCN851872:WCN851970 WMJ851872:WMJ851970 WWF851872:WWF851970 X917408:X917506 JT917408:JT917506 TP917408:TP917506 ADL917408:ADL917506 ANH917408:ANH917506 AXD917408:AXD917506 BGZ917408:BGZ917506 BQV917408:BQV917506 CAR917408:CAR917506 CKN917408:CKN917506 CUJ917408:CUJ917506 DEF917408:DEF917506 DOB917408:DOB917506 DXX917408:DXX917506 EHT917408:EHT917506 ERP917408:ERP917506 FBL917408:FBL917506 FLH917408:FLH917506 FVD917408:FVD917506 GEZ917408:GEZ917506 GOV917408:GOV917506 GYR917408:GYR917506 HIN917408:HIN917506 HSJ917408:HSJ917506 ICF917408:ICF917506 IMB917408:IMB917506 IVX917408:IVX917506 JFT917408:JFT917506 JPP917408:JPP917506 JZL917408:JZL917506 KJH917408:KJH917506 KTD917408:KTD917506 LCZ917408:LCZ917506 LMV917408:LMV917506 LWR917408:LWR917506 MGN917408:MGN917506 MQJ917408:MQJ917506 NAF917408:NAF917506 NKB917408:NKB917506 NTX917408:NTX917506 ODT917408:ODT917506 ONP917408:ONP917506 OXL917408:OXL917506 PHH917408:PHH917506 PRD917408:PRD917506 QAZ917408:QAZ917506 QKV917408:QKV917506 QUR917408:QUR917506 REN917408:REN917506 ROJ917408:ROJ917506 RYF917408:RYF917506 SIB917408:SIB917506 SRX917408:SRX917506 TBT917408:TBT917506 TLP917408:TLP917506 TVL917408:TVL917506 UFH917408:UFH917506 UPD917408:UPD917506 UYZ917408:UYZ917506 VIV917408:VIV917506 VSR917408:VSR917506 WCN917408:WCN917506 WMJ917408:WMJ917506 WWF917408:WWF917506 X982944:X983042 JT982944:JT983042 TP982944:TP983042 ADL982944:ADL983042 ANH982944:ANH983042 AXD982944:AXD983042 BGZ982944:BGZ983042 BQV982944:BQV983042 CAR982944:CAR983042 CKN982944:CKN983042 CUJ982944:CUJ983042 DEF982944:DEF983042 DOB982944:DOB983042 DXX982944:DXX983042 EHT982944:EHT983042 ERP982944:ERP983042 FBL982944:FBL983042 FLH982944:FLH983042 FVD982944:FVD983042 GEZ982944:GEZ983042 GOV982944:GOV983042 GYR982944:GYR983042 HIN982944:HIN983042 HSJ982944:HSJ983042 ICF982944:ICF983042 IMB982944:IMB983042 IVX982944:IVX983042 JFT982944:JFT983042 JPP982944:JPP983042 JZL982944:JZL983042 KJH982944:KJH983042 KTD982944:KTD983042 LCZ982944:LCZ983042 LMV982944:LMV983042 LWR982944:LWR983042 MGN982944:MGN983042 MQJ982944:MQJ983042 NAF982944:NAF983042 NKB982944:NKB983042 NTX982944:NTX983042 ODT982944:ODT983042 ONP982944:ONP983042 OXL982944:OXL983042 PHH982944:PHH983042 PRD982944:PRD983042 QAZ982944:QAZ983042 QKV982944:QKV983042 QUR982944:QUR983042 REN982944:REN983042 ROJ982944:ROJ983042 RYF982944:RYF983042 SIB982944:SIB983042 SRX982944:SRX983042 TBT982944:TBT983042 TLP982944:TLP983042 TVL982944:TVL983042 UFH982944:UFH983042 UPD982944:UPD983042 UYZ982944:UYZ983042 VIV982944:VIV983042 VSR982944:VSR983042 WCN982944:WCN983042 WMJ982944:WMJ983042 WWF982944:WWF983042" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2 JQ2 TM2 ADI2 ANE2 AXA2 BGW2 BQS2 CAO2 CKK2 CUG2 DEC2 DNY2 DXU2 EHQ2 ERM2 FBI2 FLE2 FVA2 GEW2 GOS2 GYO2 HIK2 HSG2 ICC2 ILY2 IVU2 JFQ2 JPM2 JZI2 KJE2 KTA2 LCW2 LMS2 LWO2 MGK2 MQG2 NAC2 NJY2 NTU2 ODQ2 ONM2 OXI2 PHE2 PRA2 QAW2 QKS2 QUO2 REK2 ROG2 RYC2 SHY2 SRU2 TBQ2 TLM2 TVI2 UFE2 UPA2 UYW2 VIS2 VSO2 WCK2 WMG2 WWC2 U65440:U65538 JQ65440:JQ65538 TM65440:TM65538 ADI65440:ADI65538 ANE65440:ANE65538 AXA65440:AXA65538 BGW65440:BGW65538 BQS65440:BQS65538 CAO65440:CAO65538 CKK65440:CKK65538 CUG65440:CUG65538 DEC65440:DEC65538 DNY65440:DNY65538 DXU65440:DXU65538 EHQ65440:EHQ65538 ERM65440:ERM65538 FBI65440:FBI65538 FLE65440:FLE65538 FVA65440:FVA65538 GEW65440:GEW65538 GOS65440:GOS65538 GYO65440:GYO65538 HIK65440:HIK65538 HSG65440:HSG65538 ICC65440:ICC65538 ILY65440:ILY65538 IVU65440:IVU65538 JFQ65440:JFQ65538 JPM65440:JPM65538 JZI65440:JZI65538 KJE65440:KJE65538 KTA65440:KTA65538 LCW65440:LCW65538 LMS65440:LMS65538 LWO65440:LWO65538 MGK65440:MGK65538 MQG65440:MQG65538 NAC65440:NAC65538 NJY65440:NJY65538 NTU65440:NTU65538 ODQ65440:ODQ65538 ONM65440:ONM65538 OXI65440:OXI65538 PHE65440:PHE65538 PRA65440:PRA65538 QAW65440:QAW65538 QKS65440:QKS65538 QUO65440:QUO65538 REK65440:REK65538 ROG65440:ROG65538 RYC65440:RYC65538 SHY65440:SHY65538 SRU65440:SRU65538 TBQ65440:TBQ65538 TLM65440:TLM65538 TVI65440:TVI65538 UFE65440:UFE65538 UPA65440:UPA65538 UYW65440:UYW65538 VIS65440:VIS65538 VSO65440:VSO65538 WCK65440:WCK65538 WMG65440:WMG65538 WWC65440:WWC65538 U130976:U131074 JQ130976:JQ131074 TM130976:TM131074 ADI130976:ADI131074 ANE130976:ANE131074 AXA130976:AXA131074 BGW130976:BGW131074 BQS130976:BQS131074 CAO130976:CAO131074 CKK130976:CKK131074 CUG130976:CUG131074 DEC130976:DEC131074 DNY130976:DNY131074 DXU130976:DXU131074 EHQ130976:EHQ131074 ERM130976:ERM131074 FBI130976:FBI131074 FLE130976:FLE131074 FVA130976:FVA131074 GEW130976:GEW131074 GOS130976:GOS131074 GYO130976:GYO131074 HIK130976:HIK131074 HSG130976:HSG131074 ICC130976:ICC131074 ILY130976:ILY131074 IVU130976:IVU131074 JFQ130976:JFQ131074 JPM130976:JPM131074 JZI130976:JZI131074 KJE130976:KJE131074 KTA130976:KTA131074 LCW130976:LCW131074 LMS130976:LMS131074 LWO130976:LWO131074 MGK130976:MGK131074 MQG130976:MQG131074 NAC130976:NAC131074 NJY130976:NJY131074 NTU130976:NTU131074 ODQ130976:ODQ131074 ONM130976:ONM131074 OXI130976:OXI131074 PHE130976:PHE131074 PRA130976:PRA131074 QAW130976:QAW131074 QKS130976:QKS131074 QUO130976:QUO131074 REK130976:REK131074 ROG130976:ROG131074 RYC130976:RYC131074 SHY130976:SHY131074 SRU130976:SRU131074 TBQ130976:TBQ131074 TLM130976:TLM131074 TVI130976:TVI131074 UFE130976:UFE131074 UPA130976:UPA131074 UYW130976:UYW131074 VIS130976:VIS131074 VSO130976:VSO131074 WCK130976:WCK131074 WMG130976:WMG131074 WWC130976:WWC131074 U196512:U196610 JQ196512:JQ196610 TM196512:TM196610 ADI196512:ADI196610 ANE196512:ANE196610 AXA196512:AXA196610 BGW196512:BGW196610 BQS196512:BQS196610 CAO196512:CAO196610 CKK196512:CKK196610 CUG196512:CUG196610 DEC196512:DEC196610 DNY196512:DNY196610 DXU196512:DXU196610 EHQ196512:EHQ196610 ERM196512:ERM196610 FBI196512:FBI196610 FLE196512:FLE196610 FVA196512:FVA196610 GEW196512:GEW196610 GOS196512:GOS196610 GYO196512:GYO196610 HIK196512:HIK196610 HSG196512:HSG196610 ICC196512:ICC196610 ILY196512:ILY196610 IVU196512:IVU196610 JFQ196512:JFQ196610 JPM196512:JPM196610 JZI196512:JZI196610 KJE196512:KJE196610 KTA196512:KTA196610 LCW196512:LCW196610 LMS196512:LMS196610 LWO196512:LWO196610 MGK196512:MGK196610 MQG196512:MQG196610 NAC196512:NAC196610 NJY196512:NJY196610 NTU196512:NTU196610 ODQ196512:ODQ196610 ONM196512:ONM196610 OXI196512:OXI196610 PHE196512:PHE196610 PRA196512:PRA196610 QAW196512:QAW196610 QKS196512:QKS196610 QUO196512:QUO196610 REK196512:REK196610 ROG196512:ROG196610 RYC196512:RYC196610 SHY196512:SHY196610 SRU196512:SRU196610 TBQ196512:TBQ196610 TLM196512:TLM196610 TVI196512:TVI196610 UFE196512:UFE196610 UPA196512:UPA196610 UYW196512:UYW196610 VIS196512:VIS196610 VSO196512:VSO196610 WCK196512:WCK196610 WMG196512:WMG196610 WWC196512:WWC196610 U262048:U262146 JQ262048:JQ262146 TM262048:TM262146 ADI262048:ADI262146 ANE262048:ANE262146 AXA262048:AXA262146 BGW262048:BGW262146 BQS262048:BQS262146 CAO262048:CAO262146 CKK262048:CKK262146 CUG262048:CUG262146 DEC262048:DEC262146 DNY262048:DNY262146 DXU262048:DXU262146 EHQ262048:EHQ262146 ERM262048:ERM262146 FBI262048:FBI262146 FLE262048:FLE262146 FVA262048:FVA262146 GEW262048:GEW262146 GOS262048:GOS262146 GYO262048:GYO262146 HIK262048:HIK262146 HSG262048:HSG262146 ICC262048:ICC262146 ILY262048:ILY262146 IVU262048:IVU262146 JFQ262048:JFQ262146 JPM262048:JPM262146 JZI262048:JZI262146 KJE262048:KJE262146 KTA262048:KTA262146 LCW262048:LCW262146 LMS262048:LMS262146 LWO262048:LWO262146 MGK262048:MGK262146 MQG262048:MQG262146 NAC262048:NAC262146 NJY262048:NJY262146 NTU262048:NTU262146 ODQ262048:ODQ262146 ONM262048:ONM262146 OXI262048:OXI262146 PHE262048:PHE262146 PRA262048:PRA262146 QAW262048:QAW262146 QKS262048:QKS262146 QUO262048:QUO262146 REK262048:REK262146 ROG262048:ROG262146 RYC262048:RYC262146 SHY262048:SHY262146 SRU262048:SRU262146 TBQ262048:TBQ262146 TLM262048:TLM262146 TVI262048:TVI262146 UFE262048:UFE262146 UPA262048:UPA262146 UYW262048:UYW262146 VIS262048:VIS262146 VSO262048:VSO262146 WCK262048:WCK262146 WMG262048:WMG262146 WWC262048:WWC262146 U327584:U327682 JQ327584:JQ327682 TM327584:TM327682 ADI327584:ADI327682 ANE327584:ANE327682 AXA327584:AXA327682 BGW327584:BGW327682 BQS327584:BQS327682 CAO327584:CAO327682 CKK327584:CKK327682 CUG327584:CUG327682 DEC327584:DEC327682 DNY327584:DNY327682 DXU327584:DXU327682 EHQ327584:EHQ327682 ERM327584:ERM327682 FBI327584:FBI327682 FLE327584:FLE327682 FVA327584:FVA327682 GEW327584:GEW327682 GOS327584:GOS327682 GYO327584:GYO327682 HIK327584:HIK327682 HSG327584:HSG327682 ICC327584:ICC327682 ILY327584:ILY327682 IVU327584:IVU327682 JFQ327584:JFQ327682 JPM327584:JPM327682 JZI327584:JZI327682 KJE327584:KJE327682 KTA327584:KTA327682 LCW327584:LCW327682 LMS327584:LMS327682 LWO327584:LWO327682 MGK327584:MGK327682 MQG327584:MQG327682 NAC327584:NAC327682 NJY327584:NJY327682 NTU327584:NTU327682 ODQ327584:ODQ327682 ONM327584:ONM327682 OXI327584:OXI327682 PHE327584:PHE327682 PRA327584:PRA327682 QAW327584:QAW327682 QKS327584:QKS327682 QUO327584:QUO327682 REK327584:REK327682 ROG327584:ROG327682 RYC327584:RYC327682 SHY327584:SHY327682 SRU327584:SRU327682 TBQ327584:TBQ327682 TLM327584:TLM327682 TVI327584:TVI327682 UFE327584:UFE327682 UPA327584:UPA327682 UYW327584:UYW327682 VIS327584:VIS327682 VSO327584:VSO327682 WCK327584:WCK327682 WMG327584:WMG327682 WWC327584:WWC327682 U393120:U393218 JQ393120:JQ393218 TM393120:TM393218 ADI393120:ADI393218 ANE393120:ANE393218 AXA393120:AXA393218 BGW393120:BGW393218 BQS393120:BQS393218 CAO393120:CAO393218 CKK393120:CKK393218 CUG393120:CUG393218 DEC393120:DEC393218 DNY393120:DNY393218 DXU393120:DXU393218 EHQ393120:EHQ393218 ERM393120:ERM393218 FBI393120:FBI393218 FLE393120:FLE393218 FVA393120:FVA393218 GEW393120:GEW393218 GOS393120:GOS393218 GYO393120:GYO393218 HIK393120:HIK393218 HSG393120:HSG393218 ICC393120:ICC393218 ILY393120:ILY393218 IVU393120:IVU393218 JFQ393120:JFQ393218 JPM393120:JPM393218 JZI393120:JZI393218 KJE393120:KJE393218 KTA393120:KTA393218 LCW393120:LCW393218 LMS393120:LMS393218 LWO393120:LWO393218 MGK393120:MGK393218 MQG393120:MQG393218 NAC393120:NAC393218 NJY393120:NJY393218 NTU393120:NTU393218 ODQ393120:ODQ393218 ONM393120:ONM393218 OXI393120:OXI393218 PHE393120:PHE393218 PRA393120:PRA393218 QAW393120:QAW393218 QKS393120:QKS393218 QUO393120:QUO393218 REK393120:REK393218 ROG393120:ROG393218 RYC393120:RYC393218 SHY393120:SHY393218 SRU393120:SRU393218 TBQ393120:TBQ393218 TLM393120:TLM393218 TVI393120:TVI393218 UFE393120:UFE393218 UPA393120:UPA393218 UYW393120:UYW393218 VIS393120:VIS393218 VSO393120:VSO393218 WCK393120:WCK393218 WMG393120:WMG393218 WWC393120:WWC393218 U458656:U458754 JQ458656:JQ458754 TM458656:TM458754 ADI458656:ADI458754 ANE458656:ANE458754 AXA458656:AXA458754 BGW458656:BGW458754 BQS458656:BQS458754 CAO458656:CAO458754 CKK458656:CKK458754 CUG458656:CUG458754 DEC458656:DEC458754 DNY458656:DNY458754 DXU458656:DXU458754 EHQ458656:EHQ458754 ERM458656:ERM458754 FBI458656:FBI458754 FLE458656:FLE458754 FVA458656:FVA458754 GEW458656:GEW458754 GOS458656:GOS458754 GYO458656:GYO458754 HIK458656:HIK458754 HSG458656:HSG458754 ICC458656:ICC458754 ILY458656:ILY458754 IVU458656:IVU458754 JFQ458656:JFQ458754 JPM458656:JPM458754 JZI458656:JZI458754 KJE458656:KJE458754 KTA458656:KTA458754 LCW458656:LCW458754 LMS458656:LMS458754 LWO458656:LWO458754 MGK458656:MGK458754 MQG458656:MQG458754 NAC458656:NAC458754 NJY458656:NJY458754 NTU458656:NTU458754 ODQ458656:ODQ458754 ONM458656:ONM458754 OXI458656:OXI458754 PHE458656:PHE458754 PRA458656:PRA458754 QAW458656:QAW458754 QKS458656:QKS458754 QUO458656:QUO458754 REK458656:REK458754 ROG458656:ROG458754 RYC458656:RYC458754 SHY458656:SHY458754 SRU458656:SRU458754 TBQ458656:TBQ458754 TLM458656:TLM458754 TVI458656:TVI458754 UFE458656:UFE458754 UPA458656:UPA458754 UYW458656:UYW458754 VIS458656:VIS458754 VSO458656:VSO458754 WCK458656:WCK458754 WMG458656:WMG458754 WWC458656:WWC458754 U524192:U524290 JQ524192:JQ524290 TM524192:TM524290 ADI524192:ADI524290 ANE524192:ANE524290 AXA524192:AXA524290 BGW524192:BGW524290 BQS524192:BQS524290 CAO524192:CAO524290 CKK524192:CKK524290 CUG524192:CUG524290 DEC524192:DEC524290 DNY524192:DNY524290 DXU524192:DXU524290 EHQ524192:EHQ524290 ERM524192:ERM524290 FBI524192:FBI524290 FLE524192:FLE524290 FVA524192:FVA524290 GEW524192:GEW524290 GOS524192:GOS524290 GYO524192:GYO524290 HIK524192:HIK524290 HSG524192:HSG524290 ICC524192:ICC524290 ILY524192:ILY524290 IVU524192:IVU524290 JFQ524192:JFQ524290 JPM524192:JPM524290 JZI524192:JZI524290 KJE524192:KJE524290 KTA524192:KTA524290 LCW524192:LCW524290 LMS524192:LMS524290 LWO524192:LWO524290 MGK524192:MGK524290 MQG524192:MQG524290 NAC524192:NAC524290 NJY524192:NJY524290 NTU524192:NTU524290 ODQ524192:ODQ524290 ONM524192:ONM524290 OXI524192:OXI524290 PHE524192:PHE524290 PRA524192:PRA524290 QAW524192:QAW524290 QKS524192:QKS524290 QUO524192:QUO524290 REK524192:REK524290 ROG524192:ROG524290 RYC524192:RYC524290 SHY524192:SHY524290 SRU524192:SRU524290 TBQ524192:TBQ524290 TLM524192:TLM524290 TVI524192:TVI524290 UFE524192:UFE524290 UPA524192:UPA524290 UYW524192:UYW524290 VIS524192:VIS524290 VSO524192:VSO524290 WCK524192:WCK524290 WMG524192:WMG524290 WWC524192:WWC524290 U589728:U589826 JQ589728:JQ589826 TM589728:TM589826 ADI589728:ADI589826 ANE589728:ANE589826 AXA589728:AXA589826 BGW589728:BGW589826 BQS589728:BQS589826 CAO589728:CAO589826 CKK589728:CKK589826 CUG589728:CUG589826 DEC589728:DEC589826 DNY589728:DNY589826 DXU589728:DXU589826 EHQ589728:EHQ589826 ERM589728:ERM589826 FBI589728:FBI589826 FLE589728:FLE589826 FVA589728:FVA589826 GEW589728:GEW589826 GOS589728:GOS589826 GYO589728:GYO589826 HIK589728:HIK589826 HSG589728:HSG589826 ICC589728:ICC589826 ILY589728:ILY589826 IVU589728:IVU589826 JFQ589728:JFQ589826 JPM589728:JPM589826 JZI589728:JZI589826 KJE589728:KJE589826 KTA589728:KTA589826 LCW589728:LCW589826 LMS589728:LMS589826 LWO589728:LWO589826 MGK589728:MGK589826 MQG589728:MQG589826 NAC589728:NAC589826 NJY589728:NJY589826 NTU589728:NTU589826 ODQ589728:ODQ589826 ONM589728:ONM589826 OXI589728:OXI589826 PHE589728:PHE589826 PRA589728:PRA589826 QAW589728:QAW589826 QKS589728:QKS589826 QUO589728:QUO589826 REK589728:REK589826 ROG589728:ROG589826 RYC589728:RYC589826 SHY589728:SHY589826 SRU589728:SRU589826 TBQ589728:TBQ589826 TLM589728:TLM589826 TVI589728:TVI589826 UFE589728:UFE589826 UPA589728:UPA589826 UYW589728:UYW589826 VIS589728:VIS589826 VSO589728:VSO589826 WCK589728:WCK589826 WMG589728:WMG589826 WWC589728:WWC589826 U655264:U655362 JQ655264:JQ655362 TM655264:TM655362 ADI655264:ADI655362 ANE655264:ANE655362 AXA655264:AXA655362 BGW655264:BGW655362 BQS655264:BQS655362 CAO655264:CAO655362 CKK655264:CKK655362 CUG655264:CUG655362 DEC655264:DEC655362 DNY655264:DNY655362 DXU655264:DXU655362 EHQ655264:EHQ655362 ERM655264:ERM655362 FBI655264:FBI655362 FLE655264:FLE655362 FVA655264:FVA655362 GEW655264:GEW655362 GOS655264:GOS655362 GYO655264:GYO655362 HIK655264:HIK655362 HSG655264:HSG655362 ICC655264:ICC655362 ILY655264:ILY655362 IVU655264:IVU655362 JFQ655264:JFQ655362 JPM655264:JPM655362 JZI655264:JZI655362 KJE655264:KJE655362 KTA655264:KTA655362 LCW655264:LCW655362 LMS655264:LMS655362 LWO655264:LWO655362 MGK655264:MGK655362 MQG655264:MQG655362 NAC655264:NAC655362 NJY655264:NJY655362 NTU655264:NTU655362 ODQ655264:ODQ655362 ONM655264:ONM655362 OXI655264:OXI655362 PHE655264:PHE655362 PRA655264:PRA655362 QAW655264:QAW655362 QKS655264:QKS655362 QUO655264:QUO655362 REK655264:REK655362 ROG655264:ROG655362 RYC655264:RYC655362 SHY655264:SHY655362 SRU655264:SRU655362 TBQ655264:TBQ655362 TLM655264:TLM655362 TVI655264:TVI655362 UFE655264:UFE655362 UPA655264:UPA655362 UYW655264:UYW655362 VIS655264:VIS655362 VSO655264:VSO655362 WCK655264:WCK655362 WMG655264:WMG655362 WWC655264:WWC655362 U720800:U720898 JQ720800:JQ720898 TM720800:TM720898 ADI720800:ADI720898 ANE720800:ANE720898 AXA720800:AXA720898 BGW720800:BGW720898 BQS720800:BQS720898 CAO720800:CAO720898 CKK720800:CKK720898 CUG720800:CUG720898 DEC720800:DEC720898 DNY720800:DNY720898 DXU720800:DXU720898 EHQ720800:EHQ720898 ERM720800:ERM720898 FBI720800:FBI720898 FLE720800:FLE720898 FVA720800:FVA720898 GEW720800:GEW720898 GOS720800:GOS720898 GYO720800:GYO720898 HIK720800:HIK720898 HSG720800:HSG720898 ICC720800:ICC720898 ILY720800:ILY720898 IVU720800:IVU720898 JFQ720800:JFQ720898 JPM720800:JPM720898 JZI720800:JZI720898 KJE720800:KJE720898 KTA720800:KTA720898 LCW720800:LCW720898 LMS720800:LMS720898 LWO720800:LWO720898 MGK720800:MGK720898 MQG720800:MQG720898 NAC720800:NAC720898 NJY720800:NJY720898 NTU720800:NTU720898 ODQ720800:ODQ720898 ONM720800:ONM720898 OXI720800:OXI720898 PHE720800:PHE720898 PRA720800:PRA720898 QAW720800:QAW720898 QKS720800:QKS720898 QUO720800:QUO720898 REK720800:REK720898 ROG720800:ROG720898 RYC720800:RYC720898 SHY720800:SHY720898 SRU720800:SRU720898 TBQ720800:TBQ720898 TLM720800:TLM720898 TVI720800:TVI720898 UFE720800:UFE720898 UPA720800:UPA720898 UYW720800:UYW720898 VIS720800:VIS720898 VSO720800:VSO720898 WCK720800:WCK720898 WMG720800:WMG720898 WWC720800:WWC720898 U786336:U786434 JQ786336:JQ786434 TM786336:TM786434 ADI786336:ADI786434 ANE786336:ANE786434 AXA786336:AXA786434 BGW786336:BGW786434 BQS786336:BQS786434 CAO786336:CAO786434 CKK786336:CKK786434 CUG786336:CUG786434 DEC786336:DEC786434 DNY786336:DNY786434 DXU786336:DXU786434 EHQ786336:EHQ786434 ERM786336:ERM786434 FBI786336:FBI786434 FLE786336:FLE786434 FVA786336:FVA786434 GEW786336:GEW786434 GOS786336:GOS786434 GYO786336:GYO786434 HIK786336:HIK786434 HSG786336:HSG786434 ICC786336:ICC786434 ILY786336:ILY786434 IVU786336:IVU786434 JFQ786336:JFQ786434 JPM786336:JPM786434 JZI786336:JZI786434 KJE786336:KJE786434 KTA786336:KTA786434 LCW786336:LCW786434 LMS786336:LMS786434 LWO786336:LWO786434 MGK786336:MGK786434 MQG786336:MQG786434 NAC786336:NAC786434 NJY786336:NJY786434 NTU786336:NTU786434 ODQ786336:ODQ786434 ONM786336:ONM786434 OXI786336:OXI786434 PHE786336:PHE786434 PRA786336:PRA786434 QAW786336:QAW786434 QKS786336:QKS786434 QUO786336:QUO786434 REK786336:REK786434 ROG786336:ROG786434 RYC786336:RYC786434 SHY786336:SHY786434 SRU786336:SRU786434 TBQ786336:TBQ786434 TLM786336:TLM786434 TVI786336:TVI786434 UFE786336:UFE786434 UPA786336:UPA786434 UYW786336:UYW786434 VIS786336:VIS786434 VSO786336:VSO786434 WCK786336:WCK786434 WMG786336:WMG786434 WWC786336:WWC786434 U851872:U851970 JQ851872:JQ851970 TM851872:TM851970 ADI851872:ADI851970 ANE851872:ANE851970 AXA851872:AXA851970 BGW851872:BGW851970 BQS851872:BQS851970 CAO851872:CAO851970 CKK851872:CKK851970 CUG851872:CUG851970 DEC851872:DEC851970 DNY851872:DNY851970 DXU851872:DXU851970 EHQ851872:EHQ851970 ERM851872:ERM851970 FBI851872:FBI851970 FLE851872:FLE851970 FVA851872:FVA851970 GEW851872:GEW851970 GOS851872:GOS851970 GYO851872:GYO851970 HIK851872:HIK851970 HSG851872:HSG851970 ICC851872:ICC851970 ILY851872:ILY851970 IVU851872:IVU851970 JFQ851872:JFQ851970 JPM851872:JPM851970 JZI851872:JZI851970 KJE851872:KJE851970 KTA851872:KTA851970 LCW851872:LCW851970 LMS851872:LMS851970 LWO851872:LWO851970 MGK851872:MGK851970 MQG851872:MQG851970 NAC851872:NAC851970 NJY851872:NJY851970 NTU851872:NTU851970 ODQ851872:ODQ851970 ONM851872:ONM851970 OXI851872:OXI851970 PHE851872:PHE851970 PRA851872:PRA851970 QAW851872:QAW851970 QKS851872:QKS851970 QUO851872:QUO851970 REK851872:REK851970 ROG851872:ROG851970 RYC851872:RYC851970 SHY851872:SHY851970 SRU851872:SRU851970 TBQ851872:TBQ851970 TLM851872:TLM851970 TVI851872:TVI851970 UFE851872:UFE851970 UPA851872:UPA851970 UYW851872:UYW851970 VIS851872:VIS851970 VSO851872:VSO851970 WCK851872:WCK851970 WMG851872:WMG851970 WWC851872:WWC851970 U917408:U917506 JQ917408:JQ917506 TM917408:TM917506 ADI917408:ADI917506 ANE917408:ANE917506 AXA917408:AXA917506 BGW917408:BGW917506 BQS917408:BQS917506 CAO917408:CAO917506 CKK917408:CKK917506 CUG917408:CUG917506 DEC917408:DEC917506 DNY917408:DNY917506 DXU917408:DXU917506 EHQ917408:EHQ917506 ERM917408:ERM917506 FBI917408:FBI917506 FLE917408:FLE917506 FVA917408:FVA917506 GEW917408:GEW917506 GOS917408:GOS917506 GYO917408:GYO917506 HIK917408:HIK917506 HSG917408:HSG917506 ICC917408:ICC917506 ILY917408:ILY917506 IVU917408:IVU917506 JFQ917408:JFQ917506 JPM917408:JPM917506 JZI917408:JZI917506 KJE917408:KJE917506 KTA917408:KTA917506 LCW917408:LCW917506 LMS917408:LMS917506 LWO917408:LWO917506 MGK917408:MGK917506 MQG917408:MQG917506 NAC917408:NAC917506 NJY917408:NJY917506 NTU917408:NTU917506 ODQ917408:ODQ917506 ONM917408:ONM917506 OXI917408:OXI917506 PHE917408:PHE917506 PRA917408:PRA917506 QAW917408:QAW917506 QKS917408:QKS917506 QUO917408:QUO917506 REK917408:REK917506 ROG917408:ROG917506 RYC917408:RYC917506 SHY917408:SHY917506 SRU917408:SRU917506 TBQ917408:TBQ917506 TLM917408:TLM917506 TVI917408:TVI917506 UFE917408:UFE917506 UPA917408:UPA917506 UYW917408:UYW917506 VIS917408:VIS917506 VSO917408:VSO917506 WCK917408:WCK917506 WMG917408:WMG917506 WWC917408:WWC917506 U982944:U983042 JQ982944:JQ983042 TM982944:TM983042 ADI982944:ADI983042 ANE982944:ANE983042 AXA982944:AXA983042 BGW982944:BGW983042 BQS982944:BQS983042 CAO982944:CAO983042 CKK982944:CKK983042 CUG982944:CUG983042 DEC982944:DEC983042 DNY982944:DNY983042 DXU982944:DXU983042 EHQ982944:EHQ983042 ERM982944:ERM983042 FBI982944:FBI983042 FLE982944:FLE983042 FVA982944:FVA983042 GEW982944:GEW983042 GOS982944:GOS983042 GYO982944:GYO983042 HIK982944:HIK983042 HSG982944:HSG983042 ICC982944:ICC983042 ILY982944:ILY983042 IVU982944:IVU983042 JFQ982944:JFQ983042 JPM982944:JPM983042 JZI982944:JZI983042 KJE982944:KJE983042 KTA982944:KTA983042 LCW982944:LCW983042 LMS982944:LMS983042 LWO982944:LWO983042 MGK982944:MGK983042 MQG982944:MQG983042 NAC982944:NAC983042 NJY982944:NJY983042 NTU982944:NTU983042 ODQ982944:ODQ983042 ONM982944:ONM983042 OXI982944:OXI983042 PHE982944:PHE983042 PRA982944:PRA983042 QAW982944:QAW983042 QKS982944:QKS983042 QUO982944:QUO983042 REK982944:REK983042 ROG982944:ROG983042 RYC982944:RYC983042 SHY982944:SHY983042 SRU982944:SRU983042 TBQ982944:TBQ983042 TLM982944:TLM983042 TVI982944:TVI983042 UFE982944:UFE983042 UPA982944:UPA983042 UYW982944:UYW983042 VIS982944:VIS983042 VSO982944:VSO983042 WCK982944:WCK983042 WMG982944:WMG983042 WWC982944:WWC983042" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 JR2 TN2 ADJ2 ANF2 AXB2 BGX2 BQT2 CAP2 CKL2 CUH2 DED2 DNZ2 DXV2 EHR2 ERN2 FBJ2 FLF2 FVB2 GEX2 GOT2 GYP2 HIL2 HSH2 ICD2 ILZ2 IVV2 JFR2 JPN2 JZJ2 KJF2 KTB2 LCX2 LMT2 LWP2 MGL2 MQH2 NAD2 NJZ2 NTV2 ODR2 ONN2 OXJ2 PHF2 PRB2 QAX2 QKT2 QUP2 REL2 ROH2 RYD2 SHZ2 SRV2 TBR2 TLN2 TVJ2 UFF2 UPB2 UYX2 VIT2 VSP2 WCL2 WMH2 WWD2 V65440:V65538 JR65440:JR65538 TN65440:TN65538 ADJ65440:ADJ65538 ANF65440:ANF65538 AXB65440:AXB65538 BGX65440:BGX65538 BQT65440:BQT65538 CAP65440:CAP65538 CKL65440:CKL65538 CUH65440:CUH65538 DED65440:DED65538 DNZ65440:DNZ65538 DXV65440:DXV65538 EHR65440:EHR65538 ERN65440:ERN65538 FBJ65440:FBJ65538 FLF65440:FLF65538 FVB65440:FVB65538 GEX65440:GEX65538 GOT65440:GOT65538 GYP65440:GYP65538 HIL65440:HIL65538 HSH65440:HSH65538 ICD65440:ICD65538 ILZ65440:ILZ65538 IVV65440:IVV65538 JFR65440:JFR65538 JPN65440:JPN65538 JZJ65440:JZJ65538 KJF65440:KJF65538 KTB65440:KTB65538 LCX65440:LCX65538 LMT65440:LMT65538 LWP65440:LWP65538 MGL65440:MGL65538 MQH65440:MQH65538 NAD65440:NAD65538 NJZ65440:NJZ65538 NTV65440:NTV65538 ODR65440:ODR65538 ONN65440:ONN65538 OXJ65440:OXJ65538 PHF65440:PHF65538 PRB65440:PRB65538 QAX65440:QAX65538 QKT65440:QKT65538 QUP65440:QUP65538 REL65440:REL65538 ROH65440:ROH65538 RYD65440:RYD65538 SHZ65440:SHZ65538 SRV65440:SRV65538 TBR65440:TBR65538 TLN65440:TLN65538 TVJ65440:TVJ65538 UFF65440:UFF65538 UPB65440:UPB65538 UYX65440:UYX65538 VIT65440:VIT65538 VSP65440:VSP65538 WCL65440:WCL65538 WMH65440:WMH65538 WWD65440:WWD65538 V130976:V131074 JR130976:JR131074 TN130976:TN131074 ADJ130976:ADJ131074 ANF130976:ANF131074 AXB130976:AXB131074 BGX130976:BGX131074 BQT130976:BQT131074 CAP130976:CAP131074 CKL130976:CKL131074 CUH130976:CUH131074 DED130976:DED131074 DNZ130976:DNZ131074 DXV130976:DXV131074 EHR130976:EHR131074 ERN130976:ERN131074 FBJ130976:FBJ131074 FLF130976:FLF131074 FVB130976:FVB131074 GEX130976:GEX131074 GOT130976:GOT131074 GYP130976:GYP131074 HIL130976:HIL131074 HSH130976:HSH131074 ICD130976:ICD131074 ILZ130976:ILZ131074 IVV130976:IVV131074 JFR130976:JFR131074 JPN130976:JPN131074 JZJ130976:JZJ131074 KJF130976:KJF131074 KTB130976:KTB131074 LCX130976:LCX131074 LMT130976:LMT131074 LWP130976:LWP131074 MGL130976:MGL131074 MQH130976:MQH131074 NAD130976:NAD131074 NJZ130976:NJZ131074 NTV130976:NTV131074 ODR130976:ODR131074 ONN130976:ONN131074 OXJ130976:OXJ131074 PHF130976:PHF131074 PRB130976:PRB131074 QAX130976:QAX131074 QKT130976:QKT131074 QUP130976:QUP131074 REL130976:REL131074 ROH130976:ROH131074 RYD130976:RYD131074 SHZ130976:SHZ131074 SRV130976:SRV131074 TBR130976:TBR131074 TLN130976:TLN131074 TVJ130976:TVJ131074 UFF130976:UFF131074 UPB130976:UPB131074 UYX130976:UYX131074 VIT130976:VIT131074 VSP130976:VSP131074 WCL130976:WCL131074 WMH130976:WMH131074 WWD130976:WWD131074 V196512:V196610 JR196512:JR196610 TN196512:TN196610 ADJ196512:ADJ196610 ANF196512:ANF196610 AXB196512:AXB196610 BGX196512:BGX196610 BQT196512:BQT196610 CAP196512:CAP196610 CKL196512:CKL196610 CUH196512:CUH196610 DED196512:DED196610 DNZ196512:DNZ196610 DXV196512:DXV196610 EHR196512:EHR196610 ERN196512:ERN196610 FBJ196512:FBJ196610 FLF196512:FLF196610 FVB196512:FVB196610 GEX196512:GEX196610 GOT196512:GOT196610 GYP196512:GYP196610 HIL196512:HIL196610 HSH196512:HSH196610 ICD196512:ICD196610 ILZ196512:ILZ196610 IVV196512:IVV196610 JFR196512:JFR196610 JPN196512:JPN196610 JZJ196512:JZJ196610 KJF196512:KJF196610 KTB196512:KTB196610 LCX196512:LCX196610 LMT196512:LMT196610 LWP196512:LWP196610 MGL196512:MGL196610 MQH196512:MQH196610 NAD196512:NAD196610 NJZ196512:NJZ196610 NTV196512:NTV196610 ODR196512:ODR196610 ONN196512:ONN196610 OXJ196512:OXJ196610 PHF196512:PHF196610 PRB196512:PRB196610 QAX196512:QAX196610 QKT196512:QKT196610 QUP196512:QUP196610 REL196512:REL196610 ROH196512:ROH196610 RYD196512:RYD196610 SHZ196512:SHZ196610 SRV196512:SRV196610 TBR196512:TBR196610 TLN196512:TLN196610 TVJ196512:TVJ196610 UFF196512:UFF196610 UPB196512:UPB196610 UYX196512:UYX196610 VIT196512:VIT196610 VSP196512:VSP196610 WCL196512:WCL196610 WMH196512:WMH196610 WWD196512:WWD196610 V262048:V262146 JR262048:JR262146 TN262048:TN262146 ADJ262048:ADJ262146 ANF262048:ANF262146 AXB262048:AXB262146 BGX262048:BGX262146 BQT262048:BQT262146 CAP262048:CAP262146 CKL262048:CKL262146 CUH262048:CUH262146 DED262048:DED262146 DNZ262048:DNZ262146 DXV262048:DXV262146 EHR262048:EHR262146 ERN262048:ERN262146 FBJ262048:FBJ262146 FLF262048:FLF262146 FVB262048:FVB262146 GEX262048:GEX262146 GOT262048:GOT262146 GYP262048:GYP262146 HIL262048:HIL262146 HSH262048:HSH262146 ICD262048:ICD262146 ILZ262048:ILZ262146 IVV262048:IVV262146 JFR262048:JFR262146 JPN262048:JPN262146 JZJ262048:JZJ262146 KJF262048:KJF262146 KTB262048:KTB262146 LCX262048:LCX262146 LMT262048:LMT262146 LWP262048:LWP262146 MGL262048:MGL262146 MQH262048:MQH262146 NAD262048:NAD262146 NJZ262048:NJZ262146 NTV262048:NTV262146 ODR262048:ODR262146 ONN262048:ONN262146 OXJ262048:OXJ262146 PHF262048:PHF262146 PRB262048:PRB262146 QAX262048:QAX262146 QKT262048:QKT262146 QUP262048:QUP262146 REL262048:REL262146 ROH262048:ROH262146 RYD262048:RYD262146 SHZ262048:SHZ262146 SRV262048:SRV262146 TBR262048:TBR262146 TLN262048:TLN262146 TVJ262048:TVJ262146 UFF262048:UFF262146 UPB262048:UPB262146 UYX262048:UYX262146 VIT262048:VIT262146 VSP262048:VSP262146 WCL262048:WCL262146 WMH262048:WMH262146 WWD262048:WWD262146 V327584:V327682 JR327584:JR327682 TN327584:TN327682 ADJ327584:ADJ327682 ANF327584:ANF327682 AXB327584:AXB327682 BGX327584:BGX327682 BQT327584:BQT327682 CAP327584:CAP327682 CKL327584:CKL327682 CUH327584:CUH327682 DED327584:DED327682 DNZ327584:DNZ327682 DXV327584:DXV327682 EHR327584:EHR327682 ERN327584:ERN327682 FBJ327584:FBJ327682 FLF327584:FLF327682 FVB327584:FVB327682 GEX327584:GEX327682 GOT327584:GOT327682 GYP327584:GYP327682 HIL327584:HIL327682 HSH327584:HSH327682 ICD327584:ICD327682 ILZ327584:ILZ327682 IVV327584:IVV327682 JFR327584:JFR327682 JPN327584:JPN327682 JZJ327584:JZJ327682 KJF327584:KJF327682 KTB327584:KTB327682 LCX327584:LCX327682 LMT327584:LMT327682 LWP327584:LWP327682 MGL327584:MGL327682 MQH327584:MQH327682 NAD327584:NAD327682 NJZ327584:NJZ327682 NTV327584:NTV327682 ODR327584:ODR327682 ONN327584:ONN327682 OXJ327584:OXJ327682 PHF327584:PHF327682 PRB327584:PRB327682 QAX327584:QAX327682 QKT327584:QKT327682 QUP327584:QUP327682 REL327584:REL327682 ROH327584:ROH327682 RYD327584:RYD327682 SHZ327584:SHZ327682 SRV327584:SRV327682 TBR327584:TBR327682 TLN327584:TLN327682 TVJ327584:TVJ327682 UFF327584:UFF327682 UPB327584:UPB327682 UYX327584:UYX327682 VIT327584:VIT327682 VSP327584:VSP327682 WCL327584:WCL327682 WMH327584:WMH327682 WWD327584:WWD327682 V393120:V393218 JR393120:JR393218 TN393120:TN393218 ADJ393120:ADJ393218 ANF393120:ANF393218 AXB393120:AXB393218 BGX393120:BGX393218 BQT393120:BQT393218 CAP393120:CAP393218 CKL393120:CKL393218 CUH393120:CUH393218 DED393120:DED393218 DNZ393120:DNZ393218 DXV393120:DXV393218 EHR393120:EHR393218 ERN393120:ERN393218 FBJ393120:FBJ393218 FLF393120:FLF393218 FVB393120:FVB393218 GEX393120:GEX393218 GOT393120:GOT393218 GYP393120:GYP393218 HIL393120:HIL393218 HSH393120:HSH393218 ICD393120:ICD393218 ILZ393120:ILZ393218 IVV393120:IVV393218 JFR393120:JFR393218 JPN393120:JPN393218 JZJ393120:JZJ393218 KJF393120:KJF393218 KTB393120:KTB393218 LCX393120:LCX393218 LMT393120:LMT393218 LWP393120:LWP393218 MGL393120:MGL393218 MQH393120:MQH393218 NAD393120:NAD393218 NJZ393120:NJZ393218 NTV393120:NTV393218 ODR393120:ODR393218 ONN393120:ONN393218 OXJ393120:OXJ393218 PHF393120:PHF393218 PRB393120:PRB393218 QAX393120:QAX393218 QKT393120:QKT393218 QUP393120:QUP393218 REL393120:REL393218 ROH393120:ROH393218 RYD393120:RYD393218 SHZ393120:SHZ393218 SRV393120:SRV393218 TBR393120:TBR393218 TLN393120:TLN393218 TVJ393120:TVJ393218 UFF393120:UFF393218 UPB393120:UPB393218 UYX393120:UYX393218 VIT393120:VIT393218 VSP393120:VSP393218 WCL393120:WCL393218 WMH393120:WMH393218 WWD393120:WWD393218 V458656:V458754 JR458656:JR458754 TN458656:TN458754 ADJ458656:ADJ458754 ANF458656:ANF458754 AXB458656:AXB458754 BGX458656:BGX458754 BQT458656:BQT458754 CAP458656:CAP458754 CKL458656:CKL458754 CUH458656:CUH458754 DED458656:DED458754 DNZ458656:DNZ458754 DXV458656:DXV458754 EHR458656:EHR458754 ERN458656:ERN458754 FBJ458656:FBJ458754 FLF458656:FLF458754 FVB458656:FVB458754 GEX458656:GEX458754 GOT458656:GOT458754 GYP458656:GYP458754 HIL458656:HIL458754 HSH458656:HSH458754 ICD458656:ICD458754 ILZ458656:ILZ458754 IVV458656:IVV458754 JFR458656:JFR458754 JPN458656:JPN458754 JZJ458656:JZJ458754 KJF458656:KJF458754 KTB458656:KTB458754 LCX458656:LCX458754 LMT458656:LMT458754 LWP458656:LWP458754 MGL458656:MGL458754 MQH458656:MQH458754 NAD458656:NAD458754 NJZ458656:NJZ458754 NTV458656:NTV458754 ODR458656:ODR458754 ONN458656:ONN458754 OXJ458656:OXJ458754 PHF458656:PHF458754 PRB458656:PRB458754 QAX458656:QAX458754 QKT458656:QKT458754 QUP458656:QUP458754 REL458656:REL458754 ROH458656:ROH458754 RYD458656:RYD458754 SHZ458656:SHZ458754 SRV458656:SRV458754 TBR458656:TBR458754 TLN458656:TLN458754 TVJ458656:TVJ458754 UFF458656:UFF458754 UPB458656:UPB458754 UYX458656:UYX458754 VIT458656:VIT458754 VSP458656:VSP458754 WCL458656:WCL458754 WMH458656:WMH458754 WWD458656:WWD458754 V524192:V524290 JR524192:JR524290 TN524192:TN524290 ADJ524192:ADJ524290 ANF524192:ANF524290 AXB524192:AXB524290 BGX524192:BGX524290 BQT524192:BQT524290 CAP524192:CAP524290 CKL524192:CKL524290 CUH524192:CUH524290 DED524192:DED524290 DNZ524192:DNZ524290 DXV524192:DXV524290 EHR524192:EHR524290 ERN524192:ERN524290 FBJ524192:FBJ524290 FLF524192:FLF524290 FVB524192:FVB524290 GEX524192:GEX524290 GOT524192:GOT524290 GYP524192:GYP524290 HIL524192:HIL524290 HSH524192:HSH524290 ICD524192:ICD524290 ILZ524192:ILZ524290 IVV524192:IVV524290 JFR524192:JFR524290 JPN524192:JPN524290 JZJ524192:JZJ524290 KJF524192:KJF524290 KTB524192:KTB524290 LCX524192:LCX524290 LMT524192:LMT524290 LWP524192:LWP524290 MGL524192:MGL524290 MQH524192:MQH524290 NAD524192:NAD524290 NJZ524192:NJZ524290 NTV524192:NTV524290 ODR524192:ODR524290 ONN524192:ONN524290 OXJ524192:OXJ524290 PHF524192:PHF524290 PRB524192:PRB524290 QAX524192:QAX524290 QKT524192:QKT524290 QUP524192:QUP524290 REL524192:REL524290 ROH524192:ROH524290 RYD524192:RYD524290 SHZ524192:SHZ524290 SRV524192:SRV524290 TBR524192:TBR524290 TLN524192:TLN524290 TVJ524192:TVJ524290 UFF524192:UFF524290 UPB524192:UPB524290 UYX524192:UYX524290 VIT524192:VIT524290 VSP524192:VSP524290 WCL524192:WCL524290 WMH524192:WMH524290 WWD524192:WWD524290 V589728:V589826 JR589728:JR589826 TN589728:TN589826 ADJ589728:ADJ589826 ANF589728:ANF589826 AXB589728:AXB589826 BGX589728:BGX589826 BQT589728:BQT589826 CAP589728:CAP589826 CKL589728:CKL589826 CUH589728:CUH589826 DED589728:DED589826 DNZ589728:DNZ589826 DXV589728:DXV589826 EHR589728:EHR589826 ERN589728:ERN589826 FBJ589728:FBJ589826 FLF589728:FLF589826 FVB589728:FVB589826 GEX589728:GEX589826 GOT589728:GOT589826 GYP589728:GYP589826 HIL589728:HIL589826 HSH589728:HSH589826 ICD589728:ICD589826 ILZ589728:ILZ589826 IVV589728:IVV589826 JFR589728:JFR589826 JPN589728:JPN589826 JZJ589728:JZJ589826 KJF589728:KJF589826 KTB589728:KTB589826 LCX589728:LCX589826 LMT589728:LMT589826 LWP589728:LWP589826 MGL589728:MGL589826 MQH589728:MQH589826 NAD589728:NAD589826 NJZ589728:NJZ589826 NTV589728:NTV589826 ODR589728:ODR589826 ONN589728:ONN589826 OXJ589728:OXJ589826 PHF589728:PHF589826 PRB589728:PRB589826 QAX589728:QAX589826 QKT589728:QKT589826 QUP589728:QUP589826 REL589728:REL589826 ROH589728:ROH589826 RYD589728:RYD589826 SHZ589728:SHZ589826 SRV589728:SRV589826 TBR589728:TBR589826 TLN589728:TLN589826 TVJ589728:TVJ589826 UFF589728:UFF589826 UPB589728:UPB589826 UYX589728:UYX589826 VIT589728:VIT589826 VSP589728:VSP589826 WCL589728:WCL589826 WMH589728:WMH589826 WWD589728:WWD589826 V655264:V655362 JR655264:JR655362 TN655264:TN655362 ADJ655264:ADJ655362 ANF655264:ANF655362 AXB655264:AXB655362 BGX655264:BGX655362 BQT655264:BQT655362 CAP655264:CAP655362 CKL655264:CKL655362 CUH655264:CUH655362 DED655264:DED655362 DNZ655264:DNZ655362 DXV655264:DXV655362 EHR655264:EHR655362 ERN655264:ERN655362 FBJ655264:FBJ655362 FLF655264:FLF655362 FVB655264:FVB655362 GEX655264:GEX655362 GOT655264:GOT655362 GYP655264:GYP655362 HIL655264:HIL655362 HSH655264:HSH655362 ICD655264:ICD655362 ILZ655264:ILZ655362 IVV655264:IVV655362 JFR655264:JFR655362 JPN655264:JPN655362 JZJ655264:JZJ655362 KJF655264:KJF655362 KTB655264:KTB655362 LCX655264:LCX655362 LMT655264:LMT655362 LWP655264:LWP655362 MGL655264:MGL655362 MQH655264:MQH655362 NAD655264:NAD655362 NJZ655264:NJZ655362 NTV655264:NTV655362 ODR655264:ODR655362 ONN655264:ONN655362 OXJ655264:OXJ655362 PHF655264:PHF655362 PRB655264:PRB655362 QAX655264:QAX655362 QKT655264:QKT655362 QUP655264:QUP655362 REL655264:REL655362 ROH655264:ROH655362 RYD655264:RYD655362 SHZ655264:SHZ655362 SRV655264:SRV655362 TBR655264:TBR655362 TLN655264:TLN655362 TVJ655264:TVJ655362 UFF655264:UFF655362 UPB655264:UPB655362 UYX655264:UYX655362 VIT655264:VIT655362 VSP655264:VSP655362 WCL655264:WCL655362 WMH655264:WMH655362 WWD655264:WWD655362 V720800:V720898 JR720800:JR720898 TN720800:TN720898 ADJ720800:ADJ720898 ANF720800:ANF720898 AXB720800:AXB720898 BGX720800:BGX720898 BQT720800:BQT720898 CAP720800:CAP720898 CKL720800:CKL720898 CUH720800:CUH720898 DED720800:DED720898 DNZ720800:DNZ720898 DXV720800:DXV720898 EHR720800:EHR720898 ERN720800:ERN720898 FBJ720800:FBJ720898 FLF720800:FLF720898 FVB720800:FVB720898 GEX720800:GEX720898 GOT720800:GOT720898 GYP720800:GYP720898 HIL720800:HIL720898 HSH720800:HSH720898 ICD720800:ICD720898 ILZ720800:ILZ720898 IVV720800:IVV720898 JFR720800:JFR720898 JPN720800:JPN720898 JZJ720800:JZJ720898 KJF720800:KJF720898 KTB720800:KTB720898 LCX720800:LCX720898 LMT720800:LMT720898 LWP720800:LWP720898 MGL720800:MGL720898 MQH720800:MQH720898 NAD720800:NAD720898 NJZ720800:NJZ720898 NTV720800:NTV720898 ODR720800:ODR720898 ONN720800:ONN720898 OXJ720800:OXJ720898 PHF720800:PHF720898 PRB720800:PRB720898 QAX720800:QAX720898 QKT720800:QKT720898 QUP720800:QUP720898 REL720800:REL720898 ROH720800:ROH720898 RYD720800:RYD720898 SHZ720800:SHZ720898 SRV720800:SRV720898 TBR720800:TBR720898 TLN720800:TLN720898 TVJ720800:TVJ720898 UFF720800:UFF720898 UPB720800:UPB720898 UYX720800:UYX720898 VIT720800:VIT720898 VSP720800:VSP720898 WCL720800:WCL720898 WMH720800:WMH720898 WWD720800:WWD720898 V786336:V786434 JR786336:JR786434 TN786336:TN786434 ADJ786336:ADJ786434 ANF786336:ANF786434 AXB786336:AXB786434 BGX786336:BGX786434 BQT786336:BQT786434 CAP786336:CAP786434 CKL786336:CKL786434 CUH786336:CUH786434 DED786336:DED786434 DNZ786336:DNZ786434 DXV786336:DXV786434 EHR786336:EHR786434 ERN786336:ERN786434 FBJ786336:FBJ786434 FLF786336:FLF786434 FVB786336:FVB786434 GEX786336:GEX786434 GOT786336:GOT786434 GYP786336:GYP786434 HIL786336:HIL786434 HSH786336:HSH786434 ICD786336:ICD786434 ILZ786336:ILZ786434 IVV786336:IVV786434 JFR786336:JFR786434 JPN786336:JPN786434 JZJ786336:JZJ786434 KJF786336:KJF786434 KTB786336:KTB786434 LCX786336:LCX786434 LMT786336:LMT786434 LWP786336:LWP786434 MGL786336:MGL786434 MQH786336:MQH786434 NAD786336:NAD786434 NJZ786336:NJZ786434 NTV786336:NTV786434 ODR786336:ODR786434 ONN786336:ONN786434 OXJ786336:OXJ786434 PHF786336:PHF786434 PRB786336:PRB786434 QAX786336:QAX786434 QKT786336:QKT786434 QUP786336:QUP786434 REL786336:REL786434 ROH786336:ROH786434 RYD786336:RYD786434 SHZ786336:SHZ786434 SRV786336:SRV786434 TBR786336:TBR786434 TLN786336:TLN786434 TVJ786336:TVJ786434 UFF786336:UFF786434 UPB786336:UPB786434 UYX786336:UYX786434 VIT786336:VIT786434 VSP786336:VSP786434 WCL786336:WCL786434 WMH786336:WMH786434 WWD786336:WWD786434 V851872:V851970 JR851872:JR851970 TN851872:TN851970 ADJ851872:ADJ851970 ANF851872:ANF851970 AXB851872:AXB851970 BGX851872:BGX851970 BQT851872:BQT851970 CAP851872:CAP851970 CKL851872:CKL851970 CUH851872:CUH851970 DED851872:DED851970 DNZ851872:DNZ851970 DXV851872:DXV851970 EHR851872:EHR851970 ERN851872:ERN851970 FBJ851872:FBJ851970 FLF851872:FLF851970 FVB851872:FVB851970 GEX851872:GEX851970 GOT851872:GOT851970 GYP851872:GYP851970 HIL851872:HIL851970 HSH851872:HSH851970 ICD851872:ICD851970 ILZ851872:ILZ851970 IVV851872:IVV851970 JFR851872:JFR851970 JPN851872:JPN851970 JZJ851872:JZJ851970 KJF851872:KJF851970 KTB851872:KTB851970 LCX851872:LCX851970 LMT851872:LMT851970 LWP851872:LWP851970 MGL851872:MGL851970 MQH851872:MQH851970 NAD851872:NAD851970 NJZ851872:NJZ851970 NTV851872:NTV851970 ODR851872:ODR851970 ONN851872:ONN851970 OXJ851872:OXJ851970 PHF851872:PHF851970 PRB851872:PRB851970 QAX851872:QAX851970 QKT851872:QKT851970 QUP851872:QUP851970 REL851872:REL851970 ROH851872:ROH851970 RYD851872:RYD851970 SHZ851872:SHZ851970 SRV851872:SRV851970 TBR851872:TBR851970 TLN851872:TLN851970 TVJ851872:TVJ851970 UFF851872:UFF851970 UPB851872:UPB851970 UYX851872:UYX851970 VIT851872:VIT851970 VSP851872:VSP851970 WCL851872:WCL851970 WMH851872:WMH851970 WWD851872:WWD851970 V917408:V917506 JR917408:JR917506 TN917408:TN917506 ADJ917408:ADJ917506 ANF917408:ANF917506 AXB917408:AXB917506 BGX917408:BGX917506 BQT917408:BQT917506 CAP917408:CAP917506 CKL917408:CKL917506 CUH917408:CUH917506 DED917408:DED917506 DNZ917408:DNZ917506 DXV917408:DXV917506 EHR917408:EHR917506 ERN917408:ERN917506 FBJ917408:FBJ917506 FLF917408:FLF917506 FVB917408:FVB917506 GEX917408:GEX917506 GOT917408:GOT917506 GYP917408:GYP917506 HIL917408:HIL917506 HSH917408:HSH917506 ICD917408:ICD917506 ILZ917408:ILZ917506 IVV917408:IVV917506 JFR917408:JFR917506 JPN917408:JPN917506 JZJ917408:JZJ917506 KJF917408:KJF917506 KTB917408:KTB917506 LCX917408:LCX917506 LMT917408:LMT917506 LWP917408:LWP917506 MGL917408:MGL917506 MQH917408:MQH917506 NAD917408:NAD917506 NJZ917408:NJZ917506 NTV917408:NTV917506 ODR917408:ODR917506 ONN917408:ONN917506 OXJ917408:OXJ917506 PHF917408:PHF917506 PRB917408:PRB917506 QAX917408:QAX917506 QKT917408:QKT917506 QUP917408:QUP917506 REL917408:REL917506 ROH917408:ROH917506 RYD917408:RYD917506 SHZ917408:SHZ917506 SRV917408:SRV917506 TBR917408:TBR917506 TLN917408:TLN917506 TVJ917408:TVJ917506 UFF917408:UFF917506 UPB917408:UPB917506 UYX917408:UYX917506 VIT917408:VIT917506 VSP917408:VSP917506 WCL917408:WCL917506 WMH917408:WMH917506 WWD917408:WWD917506 V982944:V983042 JR982944:JR983042 TN982944:TN983042 ADJ982944:ADJ983042 ANF982944:ANF983042 AXB982944:AXB983042 BGX982944:BGX983042 BQT982944:BQT983042 CAP982944:CAP983042 CKL982944:CKL983042 CUH982944:CUH983042 DED982944:DED983042 DNZ982944:DNZ983042 DXV982944:DXV983042 EHR982944:EHR983042 ERN982944:ERN983042 FBJ982944:FBJ983042 FLF982944:FLF983042 FVB982944:FVB983042 GEX982944:GEX983042 GOT982944:GOT983042 GYP982944:GYP983042 HIL982944:HIL983042 HSH982944:HSH983042 ICD982944:ICD983042 ILZ982944:ILZ983042 IVV982944:IVV983042 JFR982944:JFR983042 JPN982944:JPN983042 JZJ982944:JZJ983042 KJF982944:KJF983042 KTB982944:KTB983042 LCX982944:LCX983042 LMT982944:LMT983042 LWP982944:LWP983042 MGL982944:MGL983042 MQH982944:MQH983042 NAD982944:NAD983042 NJZ982944:NJZ983042 NTV982944:NTV983042 ODR982944:ODR983042 ONN982944:ONN983042 OXJ982944:OXJ983042 PHF982944:PHF983042 PRB982944:PRB983042 QAX982944:QAX983042 QKT982944:QKT983042 QUP982944:QUP983042 REL982944:REL983042 ROH982944:ROH983042 RYD982944:RYD983042 SHZ982944:SHZ983042 SRV982944:SRV983042 TBR982944:TBR983042 TLN982944:TLN983042 TVJ982944:TVJ983042 UFF982944:UFF983042 UPB982944:UPB983042 UYX982944:UYX983042 VIT982944:VIT983042 VSP982944:VSP983042 WCL982944:WCL983042 WMH982944:WMH983042 WWD982944:WWD983042" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 JM2 TI2 ADE2 ANA2 AWW2 BGS2 BQO2 CAK2 CKG2 CUC2 DDY2 DNU2 DXQ2 EHM2 ERI2 FBE2 FLA2 FUW2 GES2 GOO2 GYK2 HIG2 HSC2 IBY2 ILU2 IVQ2 JFM2 JPI2 JZE2 KJA2 KSW2 LCS2 LMO2 LWK2 MGG2 MQC2 MZY2 NJU2 NTQ2 ODM2 ONI2 OXE2 PHA2 PQW2 QAS2 QKO2 QUK2 REG2 ROC2 RXY2 SHU2 SRQ2 TBM2 TLI2 TVE2 UFA2 UOW2 UYS2 VIO2 VSK2 WCG2 WMC2 WVY2 Q65440:Q65538 JM65440:JM65538 TI65440:TI65538 ADE65440:ADE65538 ANA65440:ANA65538 AWW65440:AWW65538 BGS65440:BGS65538 BQO65440:BQO65538 CAK65440:CAK65538 CKG65440:CKG65538 CUC65440:CUC65538 DDY65440:DDY65538 DNU65440:DNU65538 DXQ65440:DXQ65538 EHM65440:EHM65538 ERI65440:ERI65538 FBE65440:FBE65538 FLA65440:FLA65538 FUW65440:FUW65538 GES65440:GES65538 GOO65440:GOO65538 GYK65440:GYK65538 HIG65440:HIG65538 HSC65440:HSC65538 IBY65440:IBY65538 ILU65440:ILU65538 IVQ65440:IVQ65538 JFM65440:JFM65538 JPI65440:JPI65538 JZE65440:JZE65538 KJA65440:KJA65538 KSW65440:KSW65538 LCS65440:LCS65538 LMO65440:LMO65538 LWK65440:LWK65538 MGG65440:MGG65538 MQC65440:MQC65538 MZY65440:MZY65538 NJU65440:NJU65538 NTQ65440:NTQ65538 ODM65440:ODM65538 ONI65440:ONI65538 OXE65440:OXE65538 PHA65440:PHA65538 PQW65440:PQW65538 QAS65440:QAS65538 QKO65440:QKO65538 QUK65440:QUK65538 REG65440:REG65538 ROC65440:ROC65538 RXY65440:RXY65538 SHU65440:SHU65538 SRQ65440:SRQ65538 TBM65440:TBM65538 TLI65440:TLI65538 TVE65440:TVE65538 UFA65440:UFA65538 UOW65440:UOW65538 UYS65440:UYS65538 VIO65440:VIO65538 VSK65440:VSK65538 WCG65440:WCG65538 WMC65440:WMC65538 WVY65440:WVY65538 Q130976:Q131074 JM130976:JM131074 TI130976:TI131074 ADE130976:ADE131074 ANA130976:ANA131074 AWW130976:AWW131074 BGS130976:BGS131074 BQO130976:BQO131074 CAK130976:CAK131074 CKG130976:CKG131074 CUC130976:CUC131074 DDY130976:DDY131074 DNU130976:DNU131074 DXQ130976:DXQ131074 EHM130976:EHM131074 ERI130976:ERI131074 FBE130976:FBE131074 FLA130976:FLA131074 FUW130976:FUW131074 GES130976:GES131074 GOO130976:GOO131074 GYK130976:GYK131074 HIG130976:HIG131074 HSC130976:HSC131074 IBY130976:IBY131074 ILU130976:ILU131074 IVQ130976:IVQ131074 JFM130976:JFM131074 JPI130976:JPI131074 JZE130976:JZE131074 KJA130976:KJA131074 KSW130976:KSW131074 LCS130976:LCS131074 LMO130976:LMO131074 LWK130976:LWK131074 MGG130976:MGG131074 MQC130976:MQC131074 MZY130976:MZY131074 NJU130976:NJU131074 NTQ130976:NTQ131074 ODM130976:ODM131074 ONI130976:ONI131074 OXE130976:OXE131074 PHA130976:PHA131074 PQW130976:PQW131074 QAS130976:QAS131074 QKO130976:QKO131074 QUK130976:QUK131074 REG130976:REG131074 ROC130976:ROC131074 RXY130976:RXY131074 SHU130976:SHU131074 SRQ130976:SRQ131074 TBM130976:TBM131074 TLI130976:TLI131074 TVE130976:TVE131074 UFA130976:UFA131074 UOW130976:UOW131074 UYS130976:UYS131074 VIO130976:VIO131074 VSK130976:VSK131074 WCG130976:WCG131074 WMC130976:WMC131074 WVY130976:WVY131074 Q196512:Q196610 JM196512:JM196610 TI196512:TI196610 ADE196512:ADE196610 ANA196512:ANA196610 AWW196512:AWW196610 BGS196512:BGS196610 BQO196512:BQO196610 CAK196512:CAK196610 CKG196512:CKG196610 CUC196512:CUC196610 DDY196512:DDY196610 DNU196512:DNU196610 DXQ196512:DXQ196610 EHM196512:EHM196610 ERI196512:ERI196610 FBE196512:FBE196610 FLA196512:FLA196610 FUW196512:FUW196610 GES196512:GES196610 GOO196512:GOO196610 GYK196512:GYK196610 HIG196512:HIG196610 HSC196512:HSC196610 IBY196512:IBY196610 ILU196512:ILU196610 IVQ196512:IVQ196610 JFM196512:JFM196610 JPI196512:JPI196610 JZE196512:JZE196610 KJA196512:KJA196610 KSW196512:KSW196610 LCS196512:LCS196610 LMO196512:LMO196610 LWK196512:LWK196610 MGG196512:MGG196610 MQC196512:MQC196610 MZY196512:MZY196610 NJU196512:NJU196610 NTQ196512:NTQ196610 ODM196512:ODM196610 ONI196512:ONI196610 OXE196512:OXE196610 PHA196512:PHA196610 PQW196512:PQW196610 QAS196512:QAS196610 QKO196512:QKO196610 QUK196512:QUK196610 REG196512:REG196610 ROC196512:ROC196610 RXY196512:RXY196610 SHU196512:SHU196610 SRQ196512:SRQ196610 TBM196512:TBM196610 TLI196512:TLI196610 TVE196512:TVE196610 UFA196512:UFA196610 UOW196512:UOW196610 UYS196512:UYS196610 VIO196512:VIO196610 VSK196512:VSK196610 WCG196512:WCG196610 WMC196512:WMC196610 WVY196512:WVY196610 Q262048:Q262146 JM262048:JM262146 TI262048:TI262146 ADE262048:ADE262146 ANA262048:ANA262146 AWW262048:AWW262146 BGS262048:BGS262146 BQO262048:BQO262146 CAK262048:CAK262146 CKG262048:CKG262146 CUC262048:CUC262146 DDY262048:DDY262146 DNU262048:DNU262146 DXQ262048:DXQ262146 EHM262048:EHM262146 ERI262048:ERI262146 FBE262048:FBE262146 FLA262048:FLA262146 FUW262048:FUW262146 GES262048:GES262146 GOO262048:GOO262146 GYK262048:GYK262146 HIG262048:HIG262146 HSC262048:HSC262146 IBY262048:IBY262146 ILU262048:ILU262146 IVQ262048:IVQ262146 JFM262048:JFM262146 JPI262048:JPI262146 JZE262048:JZE262146 KJA262048:KJA262146 KSW262048:KSW262146 LCS262048:LCS262146 LMO262048:LMO262146 LWK262048:LWK262146 MGG262048:MGG262146 MQC262048:MQC262146 MZY262048:MZY262146 NJU262048:NJU262146 NTQ262048:NTQ262146 ODM262048:ODM262146 ONI262048:ONI262146 OXE262048:OXE262146 PHA262048:PHA262146 PQW262048:PQW262146 QAS262048:QAS262146 QKO262048:QKO262146 QUK262048:QUK262146 REG262048:REG262146 ROC262048:ROC262146 RXY262048:RXY262146 SHU262048:SHU262146 SRQ262048:SRQ262146 TBM262048:TBM262146 TLI262048:TLI262146 TVE262048:TVE262146 UFA262048:UFA262146 UOW262048:UOW262146 UYS262048:UYS262146 VIO262048:VIO262146 VSK262048:VSK262146 WCG262048:WCG262146 WMC262048:WMC262146 WVY262048:WVY262146 Q327584:Q327682 JM327584:JM327682 TI327584:TI327682 ADE327584:ADE327682 ANA327584:ANA327682 AWW327584:AWW327682 BGS327584:BGS327682 BQO327584:BQO327682 CAK327584:CAK327682 CKG327584:CKG327682 CUC327584:CUC327682 DDY327584:DDY327682 DNU327584:DNU327682 DXQ327584:DXQ327682 EHM327584:EHM327682 ERI327584:ERI327682 FBE327584:FBE327682 FLA327584:FLA327682 FUW327584:FUW327682 GES327584:GES327682 GOO327584:GOO327682 GYK327584:GYK327682 HIG327584:HIG327682 HSC327584:HSC327682 IBY327584:IBY327682 ILU327584:ILU327682 IVQ327584:IVQ327682 JFM327584:JFM327682 JPI327584:JPI327682 JZE327584:JZE327682 KJA327584:KJA327682 KSW327584:KSW327682 LCS327584:LCS327682 LMO327584:LMO327682 LWK327584:LWK327682 MGG327584:MGG327682 MQC327584:MQC327682 MZY327584:MZY327682 NJU327584:NJU327682 NTQ327584:NTQ327682 ODM327584:ODM327682 ONI327584:ONI327682 OXE327584:OXE327682 PHA327584:PHA327682 PQW327584:PQW327682 QAS327584:QAS327682 QKO327584:QKO327682 QUK327584:QUK327682 REG327584:REG327682 ROC327584:ROC327682 RXY327584:RXY327682 SHU327584:SHU327682 SRQ327584:SRQ327682 TBM327584:TBM327682 TLI327584:TLI327682 TVE327584:TVE327682 UFA327584:UFA327682 UOW327584:UOW327682 UYS327584:UYS327682 VIO327584:VIO327682 VSK327584:VSK327682 WCG327584:WCG327682 WMC327584:WMC327682 WVY327584:WVY327682 Q393120:Q393218 JM393120:JM393218 TI393120:TI393218 ADE393120:ADE393218 ANA393120:ANA393218 AWW393120:AWW393218 BGS393120:BGS393218 BQO393120:BQO393218 CAK393120:CAK393218 CKG393120:CKG393218 CUC393120:CUC393218 DDY393120:DDY393218 DNU393120:DNU393218 DXQ393120:DXQ393218 EHM393120:EHM393218 ERI393120:ERI393218 FBE393120:FBE393218 FLA393120:FLA393218 FUW393120:FUW393218 GES393120:GES393218 GOO393120:GOO393218 GYK393120:GYK393218 HIG393120:HIG393218 HSC393120:HSC393218 IBY393120:IBY393218 ILU393120:ILU393218 IVQ393120:IVQ393218 JFM393120:JFM393218 JPI393120:JPI393218 JZE393120:JZE393218 KJA393120:KJA393218 KSW393120:KSW393218 LCS393120:LCS393218 LMO393120:LMO393218 LWK393120:LWK393218 MGG393120:MGG393218 MQC393120:MQC393218 MZY393120:MZY393218 NJU393120:NJU393218 NTQ393120:NTQ393218 ODM393120:ODM393218 ONI393120:ONI393218 OXE393120:OXE393218 PHA393120:PHA393218 PQW393120:PQW393218 QAS393120:QAS393218 QKO393120:QKO393218 QUK393120:QUK393218 REG393120:REG393218 ROC393120:ROC393218 RXY393120:RXY393218 SHU393120:SHU393218 SRQ393120:SRQ393218 TBM393120:TBM393218 TLI393120:TLI393218 TVE393120:TVE393218 UFA393120:UFA393218 UOW393120:UOW393218 UYS393120:UYS393218 VIO393120:VIO393218 VSK393120:VSK393218 WCG393120:WCG393218 WMC393120:WMC393218 WVY393120:WVY393218 Q458656:Q458754 JM458656:JM458754 TI458656:TI458754 ADE458656:ADE458754 ANA458656:ANA458754 AWW458656:AWW458754 BGS458656:BGS458754 BQO458656:BQO458754 CAK458656:CAK458754 CKG458656:CKG458754 CUC458656:CUC458754 DDY458656:DDY458754 DNU458656:DNU458754 DXQ458656:DXQ458754 EHM458656:EHM458754 ERI458656:ERI458754 FBE458656:FBE458754 FLA458656:FLA458754 FUW458656:FUW458754 GES458656:GES458754 GOO458656:GOO458754 GYK458656:GYK458754 HIG458656:HIG458754 HSC458656:HSC458754 IBY458656:IBY458754 ILU458656:ILU458754 IVQ458656:IVQ458754 JFM458656:JFM458754 JPI458656:JPI458754 JZE458656:JZE458754 KJA458656:KJA458754 KSW458656:KSW458754 LCS458656:LCS458754 LMO458656:LMO458754 LWK458656:LWK458754 MGG458656:MGG458754 MQC458656:MQC458754 MZY458656:MZY458754 NJU458656:NJU458754 NTQ458656:NTQ458754 ODM458656:ODM458754 ONI458656:ONI458754 OXE458656:OXE458754 PHA458656:PHA458754 PQW458656:PQW458754 QAS458656:QAS458754 QKO458656:QKO458754 QUK458656:QUK458754 REG458656:REG458754 ROC458656:ROC458754 RXY458656:RXY458754 SHU458656:SHU458754 SRQ458656:SRQ458754 TBM458656:TBM458754 TLI458656:TLI458754 TVE458656:TVE458754 UFA458656:UFA458754 UOW458656:UOW458754 UYS458656:UYS458754 VIO458656:VIO458754 VSK458656:VSK458754 WCG458656:WCG458754 WMC458656:WMC458754 WVY458656:WVY458754 Q524192:Q524290 JM524192:JM524290 TI524192:TI524290 ADE524192:ADE524290 ANA524192:ANA524290 AWW524192:AWW524290 BGS524192:BGS524290 BQO524192:BQO524290 CAK524192:CAK524290 CKG524192:CKG524290 CUC524192:CUC524290 DDY524192:DDY524290 DNU524192:DNU524290 DXQ524192:DXQ524290 EHM524192:EHM524290 ERI524192:ERI524290 FBE524192:FBE524290 FLA524192:FLA524290 FUW524192:FUW524290 GES524192:GES524290 GOO524192:GOO524290 GYK524192:GYK524290 HIG524192:HIG524290 HSC524192:HSC524290 IBY524192:IBY524290 ILU524192:ILU524290 IVQ524192:IVQ524290 JFM524192:JFM524290 JPI524192:JPI524290 JZE524192:JZE524290 KJA524192:KJA524290 KSW524192:KSW524290 LCS524192:LCS524290 LMO524192:LMO524290 LWK524192:LWK524290 MGG524192:MGG524290 MQC524192:MQC524290 MZY524192:MZY524290 NJU524192:NJU524290 NTQ524192:NTQ524290 ODM524192:ODM524290 ONI524192:ONI524290 OXE524192:OXE524290 PHA524192:PHA524290 PQW524192:PQW524290 QAS524192:QAS524290 QKO524192:QKO524290 QUK524192:QUK524290 REG524192:REG524290 ROC524192:ROC524290 RXY524192:RXY524290 SHU524192:SHU524290 SRQ524192:SRQ524290 TBM524192:TBM524290 TLI524192:TLI524290 TVE524192:TVE524290 UFA524192:UFA524290 UOW524192:UOW524290 UYS524192:UYS524290 VIO524192:VIO524290 VSK524192:VSK524290 WCG524192:WCG524290 WMC524192:WMC524290 WVY524192:WVY524290 Q589728:Q589826 JM589728:JM589826 TI589728:TI589826 ADE589728:ADE589826 ANA589728:ANA589826 AWW589728:AWW589826 BGS589728:BGS589826 BQO589728:BQO589826 CAK589728:CAK589826 CKG589728:CKG589826 CUC589728:CUC589826 DDY589728:DDY589826 DNU589728:DNU589826 DXQ589728:DXQ589826 EHM589728:EHM589826 ERI589728:ERI589826 FBE589728:FBE589826 FLA589728:FLA589826 FUW589728:FUW589826 GES589728:GES589826 GOO589728:GOO589826 GYK589728:GYK589826 HIG589728:HIG589826 HSC589728:HSC589826 IBY589728:IBY589826 ILU589728:ILU589826 IVQ589728:IVQ589826 JFM589728:JFM589826 JPI589728:JPI589826 JZE589728:JZE589826 KJA589728:KJA589826 KSW589728:KSW589826 LCS589728:LCS589826 LMO589728:LMO589826 LWK589728:LWK589826 MGG589728:MGG589826 MQC589728:MQC589826 MZY589728:MZY589826 NJU589728:NJU589826 NTQ589728:NTQ589826 ODM589728:ODM589826 ONI589728:ONI589826 OXE589728:OXE589826 PHA589728:PHA589826 PQW589728:PQW589826 QAS589728:QAS589826 QKO589728:QKO589826 QUK589728:QUK589826 REG589728:REG589826 ROC589728:ROC589826 RXY589728:RXY589826 SHU589728:SHU589826 SRQ589728:SRQ589826 TBM589728:TBM589826 TLI589728:TLI589826 TVE589728:TVE589826 UFA589728:UFA589826 UOW589728:UOW589826 UYS589728:UYS589826 VIO589728:VIO589826 VSK589728:VSK589826 WCG589728:WCG589826 WMC589728:WMC589826 WVY589728:WVY589826 Q655264:Q655362 JM655264:JM655362 TI655264:TI655362 ADE655264:ADE655362 ANA655264:ANA655362 AWW655264:AWW655362 BGS655264:BGS655362 BQO655264:BQO655362 CAK655264:CAK655362 CKG655264:CKG655362 CUC655264:CUC655362 DDY655264:DDY655362 DNU655264:DNU655362 DXQ655264:DXQ655362 EHM655264:EHM655362 ERI655264:ERI655362 FBE655264:FBE655362 FLA655264:FLA655362 FUW655264:FUW655362 GES655264:GES655362 GOO655264:GOO655362 GYK655264:GYK655362 HIG655264:HIG655362 HSC655264:HSC655362 IBY655264:IBY655362 ILU655264:ILU655362 IVQ655264:IVQ655362 JFM655264:JFM655362 JPI655264:JPI655362 JZE655264:JZE655362 KJA655264:KJA655362 KSW655264:KSW655362 LCS655264:LCS655362 LMO655264:LMO655362 LWK655264:LWK655362 MGG655264:MGG655362 MQC655264:MQC655362 MZY655264:MZY655362 NJU655264:NJU655362 NTQ655264:NTQ655362 ODM655264:ODM655362 ONI655264:ONI655362 OXE655264:OXE655362 PHA655264:PHA655362 PQW655264:PQW655362 QAS655264:QAS655362 QKO655264:QKO655362 QUK655264:QUK655362 REG655264:REG655362 ROC655264:ROC655362 RXY655264:RXY655362 SHU655264:SHU655362 SRQ655264:SRQ655362 TBM655264:TBM655362 TLI655264:TLI655362 TVE655264:TVE655362 UFA655264:UFA655362 UOW655264:UOW655362 UYS655264:UYS655362 VIO655264:VIO655362 VSK655264:VSK655362 WCG655264:WCG655362 WMC655264:WMC655362 WVY655264:WVY655362 Q720800:Q720898 JM720800:JM720898 TI720800:TI720898 ADE720800:ADE720898 ANA720800:ANA720898 AWW720800:AWW720898 BGS720800:BGS720898 BQO720800:BQO720898 CAK720800:CAK720898 CKG720800:CKG720898 CUC720800:CUC720898 DDY720800:DDY720898 DNU720800:DNU720898 DXQ720800:DXQ720898 EHM720800:EHM720898 ERI720800:ERI720898 FBE720800:FBE720898 FLA720800:FLA720898 FUW720800:FUW720898 GES720800:GES720898 GOO720800:GOO720898 GYK720800:GYK720898 HIG720800:HIG720898 HSC720800:HSC720898 IBY720800:IBY720898 ILU720800:ILU720898 IVQ720800:IVQ720898 JFM720800:JFM720898 JPI720800:JPI720898 JZE720800:JZE720898 KJA720800:KJA720898 KSW720800:KSW720898 LCS720800:LCS720898 LMO720800:LMO720898 LWK720800:LWK720898 MGG720800:MGG720898 MQC720800:MQC720898 MZY720800:MZY720898 NJU720800:NJU720898 NTQ720800:NTQ720898 ODM720800:ODM720898 ONI720800:ONI720898 OXE720800:OXE720898 PHA720800:PHA720898 PQW720800:PQW720898 QAS720800:QAS720898 QKO720800:QKO720898 QUK720800:QUK720898 REG720800:REG720898 ROC720800:ROC720898 RXY720800:RXY720898 SHU720800:SHU720898 SRQ720800:SRQ720898 TBM720800:TBM720898 TLI720800:TLI720898 TVE720800:TVE720898 UFA720800:UFA720898 UOW720800:UOW720898 UYS720800:UYS720898 VIO720800:VIO720898 VSK720800:VSK720898 WCG720800:WCG720898 WMC720800:WMC720898 WVY720800:WVY720898 Q786336:Q786434 JM786336:JM786434 TI786336:TI786434 ADE786336:ADE786434 ANA786336:ANA786434 AWW786336:AWW786434 BGS786336:BGS786434 BQO786336:BQO786434 CAK786336:CAK786434 CKG786336:CKG786434 CUC786336:CUC786434 DDY786336:DDY786434 DNU786336:DNU786434 DXQ786336:DXQ786434 EHM786336:EHM786434 ERI786336:ERI786434 FBE786336:FBE786434 FLA786336:FLA786434 FUW786336:FUW786434 GES786336:GES786434 GOO786336:GOO786434 GYK786336:GYK786434 HIG786336:HIG786434 HSC786336:HSC786434 IBY786336:IBY786434 ILU786336:ILU786434 IVQ786336:IVQ786434 JFM786336:JFM786434 JPI786336:JPI786434 JZE786336:JZE786434 KJA786336:KJA786434 KSW786336:KSW786434 LCS786336:LCS786434 LMO786336:LMO786434 LWK786336:LWK786434 MGG786336:MGG786434 MQC786336:MQC786434 MZY786336:MZY786434 NJU786336:NJU786434 NTQ786336:NTQ786434 ODM786336:ODM786434 ONI786336:ONI786434 OXE786336:OXE786434 PHA786336:PHA786434 PQW786336:PQW786434 QAS786336:QAS786434 QKO786336:QKO786434 QUK786336:QUK786434 REG786336:REG786434 ROC786336:ROC786434 RXY786336:RXY786434 SHU786336:SHU786434 SRQ786336:SRQ786434 TBM786336:TBM786434 TLI786336:TLI786434 TVE786336:TVE786434 UFA786336:UFA786434 UOW786336:UOW786434 UYS786336:UYS786434 VIO786336:VIO786434 VSK786336:VSK786434 WCG786336:WCG786434 WMC786336:WMC786434 WVY786336:WVY786434 Q851872:Q851970 JM851872:JM851970 TI851872:TI851970 ADE851872:ADE851970 ANA851872:ANA851970 AWW851872:AWW851970 BGS851872:BGS851970 BQO851872:BQO851970 CAK851872:CAK851970 CKG851872:CKG851970 CUC851872:CUC851970 DDY851872:DDY851970 DNU851872:DNU851970 DXQ851872:DXQ851970 EHM851872:EHM851970 ERI851872:ERI851970 FBE851872:FBE851970 FLA851872:FLA851970 FUW851872:FUW851970 GES851872:GES851970 GOO851872:GOO851970 GYK851872:GYK851970 HIG851872:HIG851970 HSC851872:HSC851970 IBY851872:IBY851970 ILU851872:ILU851970 IVQ851872:IVQ851970 JFM851872:JFM851970 JPI851872:JPI851970 JZE851872:JZE851970 KJA851872:KJA851970 KSW851872:KSW851970 LCS851872:LCS851970 LMO851872:LMO851970 LWK851872:LWK851970 MGG851872:MGG851970 MQC851872:MQC851970 MZY851872:MZY851970 NJU851872:NJU851970 NTQ851872:NTQ851970 ODM851872:ODM851970 ONI851872:ONI851970 OXE851872:OXE851970 PHA851872:PHA851970 PQW851872:PQW851970 QAS851872:QAS851970 QKO851872:QKO851970 QUK851872:QUK851970 REG851872:REG851970 ROC851872:ROC851970 RXY851872:RXY851970 SHU851872:SHU851970 SRQ851872:SRQ851970 TBM851872:TBM851970 TLI851872:TLI851970 TVE851872:TVE851970 UFA851872:UFA851970 UOW851872:UOW851970 UYS851872:UYS851970 VIO851872:VIO851970 VSK851872:VSK851970 WCG851872:WCG851970 WMC851872:WMC851970 WVY851872:WVY851970 Q917408:Q917506 JM917408:JM917506 TI917408:TI917506 ADE917408:ADE917506 ANA917408:ANA917506 AWW917408:AWW917506 BGS917408:BGS917506 BQO917408:BQO917506 CAK917408:CAK917506 CKG917408:CKG917506 CUC917408:CUC917506 DDY917408:DDY917506 DNU917408:DNU917506 DXQ917408:DXQ917506 EHM917408:EHM917506 ERI917408:ERI917506 FBE917408:FBE917506 FLA917408:FLA917506 FUW917408:FUW917506 GES917408:GES917506 GOO917408:GOO917506 GYK917408:GYK917506 HIG917408:HIG917506 HSC917408:HSC917506 IBY917408:IBY917506 ILU917408:ILU917506 IVQ917408:IVQ917506 JFM917408:JFM917506 JPI917408:JPI917506 JZE917408:JZE917506 KJA917408:KJA917506 KSW917408:KSW917506 LCS917408:LCS917506 LMO917408:LMO917506 LWK917408:LWK917506 MGG917408:MGG917506 MQC917408:MQC917506 MZY917408:MZY917506 NJU917408:NJU917506 NTQ917408:NTQ917506 ODM917408:ODM917506 ONI917408:ONI917506 OXE917408:OXE917506 PHA917408:PHA917506 PQW917408:PQW917506 QAS917408:QAS917506 QKO917408:QKO917506 QUK917408:QUK917506 REG917408:REG917506 ROC917408:ROC917506 RXY917408:RXY917506 SHU917408:SHU917506 SRQ917408:SRQ917506 TBM917408:TBM917506 TLI917408:TLI917506 TVE917408:TVE917506 UFA917408:UFA917506 UOW917408:UOW917506 UYS917408:UYS917506 VIO917408:VIO917506 VSK917408:VSK917506 WCG917408:WCG917506 WMC917408:WMC917506 WVY917408:WVY917506 Q982944:Q983042 JM982944:JM983042 TI982944:TI983042 ADE982944:ADE983042 ANA982944:ANA983042 AWW982944:AWW983042 BGS982944:BGS983042 BQO982944:BQO983042 CAK982944:CAK983042 CKG982944:CKG983042 CUC982944:CUC983042 DDY982944:DDY983042 DNU982944:DNU983042 DXQ982944:DXQ983042 EHM982944:EHM983042 ERI982944:ERI983042 FBE982944:FBE983042 FLA982944:FLA983042 FUW982944:FUW983042 GES982944:GES983042 GOO982944:GOO983042 GYK982944:GYK983042 HIG982944:HIG983042 HSC982944:HSC983042 IBY982944:IBY983042 ILU982944:ILU983042 IVQ982944:IVQ983042 JFM982944:JFM983042 JPI982944:JPI983042 JZE982944:JZE983042 KJA982944:KJA983042 KSW982944:KSW983042 LCS982944:LCS983042 LMO982944:LMO983042 LWK982944:LWK983042 MGG982944:MGG983042 MQC982944:MQC983042 MZY982944:MZY983042 NJU982944:NJU983042 NTQ982944:NTQ983042 ODM982944:ODM983042 ONI982944:ONI983042 OXE982944:OXE983042 PHA982944:PHA983042 PQW982944:PQW983042 QAS982944:QAS983042 QKO982944:QKO983042 QUK982944:QUK983042 REG982944:REG983042 ROC982944:ROC983042 RXY982944:RXY983042 SHU982944:SHU983042 SRQ982944:SRQ983042 TBM982944:TBM983042 TLI982944:TLI983042 TVE982944:TVE983042 UFA982944:UFA983042 UOW982944:UOW983042 UYS982944:UYS983042 VIO982944:VIO983042 VSK982944:VSK983042 WCG982944:WCG983042 WMC982944:WMC983042 WVY982944:WVY983042" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 JN2 TJ2 ADF2 ANB2 AWX2 BGT2 BQP2 CAL2 CKH2 CUD2 DDZ2 DNV2 DXR2 EHN2 ERJ2 FBF2 FLB2 FUX2 GET2 GOP2 GYL2 HIH2 HSD2 IBZ2 ILV2 IVR2 JFN2 JPJ2 JZF2 KJB2 KSX2 LCT2 LMP2 LWL2 MGH2 MQD2 MZZ2 NJV2 NTR2 ODN2 ONJ2 OXF2 PHB2 PQX2 QAT2 QKP2 QUL2 REH2 ROD2 RXZ2 SHV2 SRR2 TBN2 TLJ2 TVF2 UFB2 UOX2 UYT2 VIP2 VSL2 WCH2 WMD2 WVZ2 R65440:R65538 JN65440:JN65538 TJ65440:TJ65538 ADF65440:ADF65538 ANB65440:ANB65538 AWX65440:AWX65538 BGT65440:BGT65538 BQP65440:BQP65538 CAL65440:CAL65538 CKH65440:CKH65538 CUD65440:CUD65538 DDZ65440:DDZ65538 DNV65440:DNV65538 DXR65440:DXR65538 EHN65440:EHN65538 ERJ65440:ERJ65538 FBF65440:FBF65538 FLB65440:FLB65538 FUX65440:FUX65538 GET65440:GET65538 GOP65440:GOP65538 GYL65440:GYL65538 HIH65440:HIH65538 HSD65440:HSD65538 IBZ65440:IBZ65538 ILV65440:ILV65538 IVR65440:IVR65538 JFN65440:JFN65538 JPJ65440:JPJ65538 JZF65440:JZF65538 KJB65440:KJB65538 KSX65440:KSX65538 LCT65440:LCT65538 LMP65440:LMP65538 LWL65440:LWL65538 MGH65440:MGH65538 MQD65440:MQD65538 MZZ65440:MZZ65538 NJV65440:NJV65538 NTR65440:NTR65538 ODN65440:ODN65538 ONJ65440:ONJ65538 OXF65440:OXF65538 PHB65440:PHB65538 PQX65440:PQX65538 QAT65440:QAT65538 QKP65440:QKP65538 QUL65440:QUL65538 REH65440:REH65538 ROD65440:ROD65538 RXZ65440:RXZ65538 SHV65440:SHV65538 SRR65440:SRR65538 TBN65440:TBN65538 TLJ65440:TLJ65538 TVF65440:TVF65538 UFB65440:UFB65538 UOX65440:UOX65538 UYT65440:UYT65538 VIP65440:VIP65538 VSL65440:VSL65538 WCH65440:WCH65538 WMD65440:WMD65538 WVZ65440:WVZ65538 R130976:R131074 JN130976:JN131074 TJ130976:TJ131074 ADF130976:ADF131074 ANB130976:ANB131074 AWX130976:AWX131074 BGT130976:BGT131074 BQP130976:BQP131074 CAL130976:CAL131074 CKH130976:CKH131074 CUD130976:CUD131074 DDZ130976:DDZ131074 DNV130976:DNV131074 DXR130976:DXR131074 EHN130976:EHN131074 ERJ130976:ERJ131074 FBF130976:FBF131074 FLB130976:FLB131074 FUX130976:FUX131074 GET130976:GET131074 GOP130976:GOP131074 GYL130976:GYL131074 HIH130976:HIH131074 HSD130976:HSD131074 IBZ130976:IBZ131074 ILV130976:ILV131074 IVR130976:IVR131074 JFN130976:JFN131074 JPJ130976:JPJ131074 JZF130976:JZF131074 KJB130976:KJB131074 KSX130976:KSX131074 LCT130976:LCT131074 LMP130976:LMP131074 LWL130976:LWL131074 MGH130976:MGH131074 MQD130976:MQD131074 MZZ130976:MZZ131074 NJV130976:NJV131074 NTR130976:NTR131074 ODN130976:ODN131074 ONJ130976:ONJ131074 OXF130976:OXF131074 PHB130976:PHB131074 PQX130976:PQX131074 QAT130976:QAT131074 QKP130976:QKP131074 QUL130976:QUL131074 REH130976:REH131074 ROD130976:ROD131074 RXZ130976:RXZ131074 SHV130976:SHV131074 SRR130976:SRR131074 TBN130976:TBN131074 TLJ130976:TLJ131074 TVF130976:TVF131074 UFB130976:UFB131074 UOX130976:UOX131074 UYT130976:UYT131074 VIP130976:VIP131074 VSL130976:VSL131074 WCH130976:WCH131074 WMD130976:WMD131074 WVZ130976:WVZ131074 R196512:R196610 JN196512:JN196610 TJ196512:TJ196610 ADF196512:ADF196610 ANB196512:ANB196610 AWX196512:AWX196610 BGT196512:BGT196610 BQP196512:BQP196610 CAL196512:CAL196610 CKH196512:CKH196610 CUD196512:CUD196610 DDZ196512:DDZ196610 DNV196512:DNV196610 DXR196512:DXR196610 EHN196512:EHN196610 ERJ196512:ERJ196610 FBF196512:FBF196610 FLB196512:FLB196610 FUX196512:FUX196610 GET196512:GET196610 GOP196512:GOP196610 GYL196512:GYL196610 HIH196512:HIH196610 HSD196512:HSD196610 IBZ196512:IBZ196610 ILV196512:ILV196610 IVR196512:IVR196610 JFN196512:JFN196610 JPJ196512:JPJ196610 JZF196512:JZF196610 KJB196512:KJB196610 KSX196512:KSX196610 LCT196512:LCT196610 LMP196512:LMP196610 LWL196512:LWL196610 MGH196512:MGH196610 MQD196512:MQD196610 MZZ196512:MZZ196610 NJV196512:NJV196610 NTR196512:NTR196610 ODN196512:ODN196610 ONJ196512:ONJ196610 OXF196512:OXF196610 PHB196512:PHB196610 PQX196512:PQX196610 QAT196512:QAT196610 QKP196512:QKP196610 QUL196512:QUL196610 REH196512:REH196610 ROD196512:ROD196610 RXZ196512:RXZ196610 SHV196512:SHV196610 SRR196512:SRR196610 TBN196512:TBN196610 TLJ196512:TLJ196610 TVF196512:TVF196610 UFB196512:UFB196610 UOX196512:UOX196610 UYT196512:UYT196610 VIP196512:VIP196610 VSL196512:VSL196610 WCH196512:WCH196610 WMD196512:WMD196610 WVZ196512:WVZ196610 R262048:R262146 JN262048:JN262146 TJ262048:TJ262146 ADF262048:ADF262146 ANB262048:ANB262146 AWX262048:AWX262146 BGT262048:BGT262146 BQP262048:BQP262146 CAL262048:CAL262146 CKH262048:CKH262146 CUD262048:CUD262146 DDZ262048:DDZ262146 DNV262048:DNV262146 DXR262048:DXR262146 EHN262048:EHN262146 ERJ262048:ERJ262146 FBF262048:FBF262146 FLB262048:FLB262146 FUX262048:FUX262146 GET262048:GET262146 GOP262048:GOP262146 GYL262048:GYL262146 HIH262048:HIH262146 HSD262048:HSD262146 IBZ262048:IBZ262146 ILV262048:ILV262146 IVR262048:IVR262146 JFN262048:JFN262146 JPJ262048:JPJ262146 JZF262048:JZF262146 KJB262048:KJB262146 KSX262048:KSX262146 LCT262048:LCT262146 LMP262048:LMP262146 LWL262048:LWL262146 MGH262048:MGH262146 MQD262048:MQD262146 MZZ262048:MZZ262146 NJV262048:NJV262146 NTR262048:NTR262146 ODN262048:ODN262146 ONJ262048:ONJ262146 OXF262048:OXF262146 PHB262048:PHB262146 PQX262048:PQX262146 QAT262048:QAT262146 QKP262048:QKP262146 QUL262048:QUL262146 REH262048:REH262146 ROD262048:ROD262146 RXZ262048:RXZ262146 SHV262048:SHV262146 SRR262048:SRR262146 TBN262048:TBN262146 TLJ262048:TLJ262146 TVF262048:TVF262146 UFB262048:UFB262146 UOX262048:UOX262146 UYT262048:UYT262146 VIP262048:VIP262146 VSL262048:VSL262146 WCH262048:WCH262146 WMD262048:WMD262146 WVZ262048:WVZ262146 R327584:R327682 JN327584:JN327682 TJ327584:TJ327682 ADF327584:ADF327682 ANB327584:ANB327682 AWX327584:AWX327682 BGT327584:BGT327682 BQP327584:BQP327682 CAL327584:CAL327682 CKH327584:CKH327682 CUD327584:CUD327682 DDZ327584:DDZ327682 DNV327584:DNV327682 DXR327584:DXR327682 EHN327584:EHN327682 ERJ327584:ERJ327682 FBF327584:FBF327682 FLB327584:FLB327682 FUX327584:FUX327682 GET327584:GET327682 GOP327584:GOP327682 GYL327584:GYL327682 HIH327584:HIH327682 HSD327584:HSD327682 IBZ327584:IBZ327682 ILV327584:ILV327682 IVR327584:IVR327682 JFN327584:JFN327682 JPJ327584:JPJ327682 JZF327584:JZF327682 KJB327584:KJB327682 KSX327584:KSX327682 LCT327584:LCT327682 LMP327584:LMP327682 LWL327584:LWL327682 MGH327584:MGH327682 MQD327584:MQD327682 MZZ327584:MZZ327682 NJV327584:NJV327682 NTR327584:NTR327682 ODN327584:ODN327682 ONJ327584:ONJ327682 OXF327584:OXF327682 PHB327584:PHB327682 PQX327584:PQX327682 QAT327584:QAT327682 QKP327584:QKP327682 QUL327584:QUL327682 REH327584:REH327682 ROD327584:ROD327682 RXZ327584:RXZ327682 SHV327584:SHV327682 SRR327584:SRR327682 TBN327584:TBN327682 TLJ327584:TLJ327682 TVF327584:TVF327682 UFB327584:UFB327682 UOX327584:UOX327682 UYT327584:UYT327682 VIP327584:VIP327682 VSL327584:VSL327682 WCH327584:WCH327682 WMD327584:WMD327682 WVZ327584:WVZ327682 R393120:R393218 JN393120:JN393218 TJ393120:TJ393218 ADF393120:ADF393218 ANB393120:ANB393218 AWX393120:AWX393218 BGT393120:BGT393218 BQP393120:BQP393218 CAL393120:CAL393218 CKH393120:CKH393218 CUD393120:CUD393218 DDZ393120:DDZ393218 DNV393120:DNV393218 DXR393120:DXR393218 EHN393120:EHN393218 ERJ393120:ERJ393218 FBF393120:FBF393218 FLB393120:FLB393218 FUX393120:FUX393218 GET393120:GET393218 GOP393120:GOP393218 GYL393120:GYL393218 HIH393120:HIH393218 HSD393120:HSD393218 IBZ393120:IBZ393218 ILV393120:ILV393218 IVR393120:IVR393218 JFN393120:JFN393218 JPJ393120:JPJ393218 JZF393120:JZF393218 KJB393120:KJB393218 KSX393120:KSX393218 LCT393120:LCT393218 LMP393120:LMP393218 LWL393120:LWL393218 MGH393120:MGH393218 MQD393120:MQD393218 MZZ393120:MZZ393218 NJV393120:NJV393218 NTR393120:NTR393218 ODN393120:ODN393218 ONJ393120:ONJ393218 OXF393120:OXF393218 PHB393120:PHB393218 PQX393120:PQX393218 QAT393120:QAT393218 QKP393120:QKP393218 QUL393120:QUL393218 REH393120:REH393218 ROD393120:ROD393218 RXZ393120:RXZ393218 SHV393120:SHV393218 SRR393120:SRR393218 TBN393120:TBN393218 TLJ393120:TLJ393218 TVF393120:TVF393218 UFB393120:UFB393218 UOX393120:UOX393218 UYT393120:UYT393218 VIP393120:VIP393218 VSL393120:VSL393218 WCH393120:WCH393218 WMD393120:WMD393218 WVZ393120:WVZ393218 R458656:R458754 JN458656:JN458754 TJ458656:TJ458754 ADF458656:ADF458754 ANB458656:ANB458754 AWX458656:AWX458754 BGT458656:BGT458754 BQP458656:BQP458754 CAL458656:CAL458754 CKH458656:CKH458754 CUD458656:CUD458754 DDZ458656:DDZ458754 DNV458656:DNV458754 DXR458656:DXR458754 EHN458656:EHN458754 ERJ458656:ERJ458754 FBF458656:FBF458754 FLB458656:FLB458754 FUX458656:FUX458754 GET458656:GET458754 GOP458656:GOP458754 GYL458656:GYL458754 HIH458656:HIH458754 HSD458656:HSD458754 IBZ458656:IBZ458754 ILV458656:ILV458754 IVR458656:IVR458754 JFN458656:JFN458754 JPJ458656:JPJ458754 JZF458656:JZF458754 KJB458656:KJB458754 KSX458656:KSX458754 LCT458656:LCT458754 LMP458656:LMP458754 LWL458656:LWL458754 MGH458656:MGH458754 MQD458656:MQD458754 MZZ458656:MZZ458754 NJV458656:NJV458754 NTR458656:NTR458754 ODN458656:ODN458754 ONJ458656:ONJ458754 OXF458656:OXF458754 PHB458656:PHB458754 PQX458656:PQX458754 QAT458656:QAT458754 QKP458656:QKP458754 QUL458656:QUL458754 REH458656:REH458754 ROD458656:ROD458754 RXZ458656:RXZ458754 SHV458656:SHV458754 SRR458656:SRR458754 TBN458656:TBN458754 TLJ458656:TLJ458754 TVF458656:TVF458754 UFB458656:UFB458754 UOX458656:UOX458754 UYT458656:UYT458754 VIP458656:VIP458754 VSL458656:VSL458754 WCH458656:WCH458754 WMD458656:WMD458754 WVZ458656:WVZ458754 R524192:R524290 JN524192:JN524290 TJ524192:TJ524290 ADF524192:ADF524290 ANB524192:ANB524290 AWX524192:AWX524290 BGT524192:BGT524290 BQP524192:BQP524290 CAL524192:CAL524290 CKH524192:CKH524290 CUD524192:CUD524290 DDZ524192:DDZ524290 DNV524192:DNV524290 DXR524192:DXR524290 EHN524192:EHN524290 ERJ524192:ERJ524290 FBF524192:FBF524290 FLB524192:FLB524290 FUX524192:FUX524290 GET524192:GET524290 GOP524192:GOP524290 GYL524192:GYL524290 HIH524192:HIH524290 HSD524192:HSD524290 IBZ524192:IBZ524290 ILV524192:ILV524290 IVR524192:IVR524290 JFN524192:JFN524290 JPJ524192:JPJ524290 JZF524192:JZF524290 KJB524192:KJB524290 KSX524192:KSX524290 LCT524192:LCT524290 LMP524192:LMP524290 LWL524192:LWL524290 MGH524192:MGH524290 MQD524192:MQD524290 MZZ524192:MZZ524290 NJV524192:NJV524290 NTR524192:NTR524290 ODN524192:ODN524290 ONJ524192:ONJ524290 OXF524192:OXF524290 PHB524192:PHB524290 PQX524192:PQX524290 QAT524192:QAT524290 QKP524192:QKP524290 QUL524192:QUL524290 REH524192:REH524290 ROD524192:ROD524290 RXZ524192:RXZ524290 SHV524192:SHV524290 SRR524192:SRR524290 TBN524192:TBN524290 TLJ524192:TLJ524290 TVF524192:TVF524290 UFB524192:UFB524290 UOX524192:UOX524290 UYT524192:UYT524290 VIP524192:VIP524290 VSL524192:VSL524290 WCH524192:WCH524290 WMD524192:WMD524290 WVZ524192:WVZ524290 R589728:R589826 JN589728:JN589826 TJ589728:TJ589826 ADF589728:ADF589826 ANB589728:ANB589826 AWX589728:AWX589826 BGT589728:BGT589826 BQP589728:BQP589826 CAL589728:CAL589826 CKH589728:CKH589826 CUD589728:CUD589826 DDZ589728:DDZ589826 DNV589728:DNV589826 DXR589728:DXR589826 EHN589728:EHN589826 ERJ589728:ERJ589826 FBF589728:FBF589826 FLB589728:FLB589826 FUX589728:FUX589826 GET589728:GET589826 GOP589728:GOP589826 GYL589728:GYL589826 HIH589728:HIH589826 HSD589728:HSD589826 IBZ589728:IBZ589826 ILV589728:ILV589826 IVR589728:IVR589826 JFN589728:JFN589826 JPJ589728:JPJ589826 JZF589728:JZF589826 KJB589728:KJB589826 KSX589728:KSX589826 LCT589728:LCT589826 LMP589728:LMP589826 LWL589728:LWL589826 MGH589728:MGH589826 MQD589728:MQD589826 MZZ589728:MZZ589826 NJV589728:NJV589826 NTR589728:NTR589826 ODN589728:ODN589826 ONJ589728:ONJ589826 OXF589728:OXF589826 PHB589728:PHB589826 PQX589728:PQX589826 QAT589728:QAT589826 QKP589728:QKP589826 QUL589728:QUL589826 REH589728:REH589826 ROD589728:ROD589826 RXZ589728:RXZ589826 SHV589728:SHV589826 SRR589728:SRR589826 TBN589728:TBN589826 TLJ589728:TLJ589826 TVF589728:TVF589826 UFB589728:UFB589826 UOX589728:UOX589826 UYT589728:UYT589826 VIP589728:VIP589826 VSL589728:VSL589826 WCH589728:WCH589826 WMD589728:WMD589826 WVZ589728:WVZ589826 R655264:R655362 JN655264:JN655362 TJ655264:TJ655362 ADF655264:ADF655362 ANB655264:ANB655362 AWX655264:AWX655362 BGT655264:BGT655362 BQP655264:BQP655362 CAL655264:CAL655362 CKH655264:CKH655362 CUD655264:CUD655362 DDZ655264:DDZ655362 DNV655264:DNV655362 DXR655264:DXR655362 EHN655264:EHN655362 ERJ655264:ERJ655362 FBF655264:FBF655362 FLB655264:FLB655362 FUX655264:FUX655362 GET655264:GET655362 GOP655264:GOP655362 GYL655264:GYL655362 HIH655264:HIH655362 HSD655264:HSD655362 IBZ655264:IBZ655362 ILV655264:ILV655362 IVR655264:IVR655362 JFN655264:JFN655362 JPJ655264:JPJ655362 JZF655264:JZF655362 KJB655264:KJB655362 KSX655264:KSX655362 LCT655264:LCT655362 LMP655264:LMP655362 LWL655264:LWL655362 MGH655264:MGH655362 MQD655264:MQD655362 MZZ655264:MZZ655362 NJV655264:NJV655362 NTR655264:NTR655362 ODN655264:ODN655362 ONJ655264:ONJ655362 OXF655264:OXF655362 PHB655264:PHB655362 PQX655264:PQX655362 QAT655264:QAT655362 QKP655264:QKP655362 QUL655264:QUL655362 REH655264:REH655362 ROD655264:ROD655362 RXZ655264:RXZ655362 SHV655264:SHV655362 SRR655264:SRR655362 TBN655264:TBN655362 TLJ655264:TLJ655362 TVF655264:TVF655362 UFB655264:UFB655362 UOX655264:UOX655362 UYT655264:UYT655362 VIP655264:VIP655362 VSL655264:VSL655362 WCH655264:WCH655362 WMD655264:WMD655362 WVZ655264:WVZ655362 R720800:R720898 JN720800:JN720898 TJ720800:TJ720898 ADF720800:ADF720898 ANB720800:ANB720898 AWX720800:AWX720898 BGT720800:BGT720898 BQP720800:BQP720898 CAL720800:CAL720898 CKH720800:CKH720898 CUD720800:CUD720898 DDZ720800:DDZ720898 DNV720800:DNV720898 DXR720800:DXR720898 EHN720800:EHN720898 ERJ720800:ERJ720898 FBF720800:FBF720898 FLB720800:FLB720898 FUX720800:FUX720898 GET720800:GET720898 GOP720800:GOP720898 GYL720800:GYL720898 HIH720800:HIH720898 HSD720800:HSD720898 IBZ720800:IBZ720898 ILV720800:ILV720898 IVR720800:IVR720898 JFN720800:JFN720898 JPJ720800:JPJ720898 JZF720800:JZF720898 KJB720800:KJB720898 KSX720800:KSX720898 LCT720800:LCT720898 LMP720800:LMP720898 LWL720800:LWL720898 MGH720800:MGH720898 MQD720800:MQD720898 MZZ720800:MZZ720898 NJV720800:NJV720898 NTR720800:NTR720898 ODN720800:ODN720898 ONJ720800:ONJ720898 OXF720800:OXF720898 PHB720800:PHB720898 PQX720800:PQX720898 QAT720800:QAT720898 QKP720800:QKP720898 QUL720800:QUL720898 REH720800:REH720898 ROD720800:ROD720898 RXZ720800:RXZ720898 SHV720800:SHV720898 SRR720800:SRR720898 TBN720800:TBN720898 TLJ720800:TLJ720898 TVF720800:TVF720898 UFB720800:UFB720898 UOX720800:UOX720898 UYT720800:UYT720898 VIP720800:VIP720898 VSL720800:VSL720898 WCH720800:WCH720898 WMD720800:WMD720898 WVZ720800:WVZ720898 R786336:R786434 JN786336:JN786434 TJ786336:TJ786434 ADF786336:ADF786434 ANB786336:ANB786434 AWX786336:AWX786434 BGT786336:BGT786434 BQP786336:BQP786434 CAL786336:CAL786434 CKH786336:CKH786434 CUD786336:CUD786434 DDZ786336:DDZ786434 DNV786336:DNV786434 DXR786336:DXR786434 EHN786336:EHN786434 ERJ786336:ERJ786434 FBF786336:FBF786434 FLB786336:FLB786434 FUX786336:FUX786434 GET786336:GET786434 GOP786336:GOP786434 GYL786336:GYL786434 HIH786336:HIH786434 HSD786336:HSD786434 IBZ786336:IBZ786434 ILV786336:ILV786434 IVR786336:IVR786434 JFN786336:JFN786434 JPJ786336:JPJ786434 JZF786336:JZF786434 KJB786336:KJB786434 KSX786336:KSX786434 LCT786336:LCT786434 LMP786336:LMP786434 LWL786336:LWL786434 MGH786336:MGH786434 MQD786336:MQD786434 MZZ786336:MZZ786434 NJV786336:NJV786434 NTR786336:NTR786434 ODN786336:ODN786434 ONJ786336:ONJ786434 OXF786336:OXF786434 PHB786336:PHB786434 PQX786336:PQX786434 QAT786336:QAT786434 QKP786336:QKP786434 QUL786336:QUL786434 REH786336:REH786434 ROD786336:ROD786434 RXZ786336:RXZ786434 SHV786336:SHV786434 SRR786336:SRR786434 TBN786336:TBN786434 TLJ786336:TLJ786434 TVF786336:TVF786434 UFB786336:UFB786434 UOX786336:UOX786434 UYT786336:UYT786434 VIP786336:VIP786434 VSL786336:VSL786434 WCH786336:WCH786434 WMD786336:WMD786434 WVZ786336:WVZ786434 R851872:R851970 JN851872:JN851970 TJ851872:TJ851970 ADF851872:ADF851970 ANB851872:ANB851970 AWX851872:AWX851970 BGT851872:BGT851970 BQP851872:BQP851970 CAL851872:CAL851970 CKH851872:CKH851970 CUD851872:CUD851970 DDZ851872:DDZ851970 DNV851872:DNV851970 DXR851872:DXR851970 EHN851872:EHN851970 ERJ851872:ERJ851970 FBF851872:FBF851970 FLB851872:FLB851970 FUX851872:FUX851970 GET851872:GET851970 GOP851872:GOP851970 GYL851872:GYL851970 HIH851872:HIH851970 HSD851872:HSD851970 IBZ851872:IBZ851970 ILV851872:ILV851970 IVR851872:IVR851970 JFN851872:JFN851970 JPJ851872:JPJ851970 JZF851872:JZF851970 KJB851872:KJB851970 KSX851872:KSX851970 LCT851872:LCT851970 LMP851872:LMP851970 LWL851872:LWL851970 MGH851872:MGH851970 MQD851872:MQD851970 MZZ851872:MZZ851970 NJV851872:NJV851970 NTR851872:NTR851970 ODN851872:ODN851970 ONJ851872:ONJ851970 OXF851872:OXF851970 PHB851872:PHB851970 PQX851872:PQX851970 QAT851872:QAT851970 QKP851872:QKP851970 QUL851872:QUL851970 REH851872:REH851970 ROD851872:ROD851970 RXZ851872:RXZ851970 SHV851872:SHV851970 SRR851872:SRR851970 TBN851872:TBN851970 TLJ851872:TLJ851970 TVF851872:TVF851970 UFB851872:UFB851970 UOX851872:UOX851970 UYT851872:UYT851970 VIP851872:VIP851970 VSL851872:VSL851970 WCH851872:WCH851970 WMD851872:WMD851970 WVZ851872:WVZ851970 R917408:R917506 JN917408:JN917506 TJ917408:TJ917506 ADF917408:ADF917506 ANB917408:ANB917506 AWX917408:AWX917506 BGT917408:BGT917506 BQP917408:BQP917506 CAL917408:CAL917506 CKH917408:CKH917506 CUD917408:CUD917506 DDZ917408:DDZ917506 DNV917408:DNV917506 DXR917408:DXR917506 EHN917408:EHN917506 ERJ917408:ERJ917506 FBF917408:FBF917506 FLB917408:FLB917506 FUX917408:FUX917506 GET917408:GET917506 GOP917408:GOP917506 GYL917408:GYL917506 HIH917408:HIH917506 HSD917408:HSD917506 IBZ917408:IBZ917506 ILV917408:ILV917506 IVR917408:IVR917506 JFN917408:JFN917506 JPJ917408:JPJ917506 JZF917408:JZF917506 KJB917408:KJB917506 KSX917408:KSX917506 LCT917408:LCT917506 LMP917408:LMP917506 LWL917408:LWL917506 MGH917408:MGH917506 MQD917408:MQD917506 MZZ917408:MZZ917506 NJV917408:NJV917506 NTR917408:NTR917506 ODN917408:ODN917506 ONJ917408:ONJ917506 OXF917408:OXF917506 PHB917408:PHB917506 PQX917408:PQX917506 QAT917408:QAT917506 QKP917408:QKP917506 QUL917408:QUL917506 REH917408:REH917506 ROD917408:ROD917506 RXZ917408:RXZ917506 SHV917408:SHV917506 SRR917408:SRR917506 TBN917408:TBN917506 TLJ917408:TLJ917506 TVF917408:TVF917506 UFB917408:UFB917506 UOX917408:UOX917506 UYT917408:UYT917506 VIP917408:VIP917506 VSL917408:VSL917506 WCH917408:WCH917506 WMD917408:WMD917506 WVZ917408:WVZ917506 R982944:R983042 JN982944:JN983042 TJ982944:TJ983042 ADF982944:ADF983042 ANB982944:ANB983042 AWX982944:AWX983042 BGT982944:BGT983042 BQP982944:BQP983042 CAL982944:CAL983042 CKH982944:CKH983042 CUD982944:CUD983042 DDZ982944:DDZ983042 DNV982944:DNV983042 DXR982944:DXR983042 EHN982944:EHN983042 ERJ982944:ERJ983042 FBF982944:FBF983042 FLB982944:FLB983042 FUX982944:FUX983042 GET982944:GET983042 GOP982944:GOP983042 GYL982944:GYL983042 HIH982944:HIH983042 HSD982944:HSD983042 IBZ982944:IBZ983042 ILV982944:ILV983042 IVR982944:IVR983042 JFN982944:JFN983042 JPJ982944:JPJ983042 JZF982944:JZF983042 KJB982944:KJB983042 KSX982944:KSX983042 LCT982944:LCT983042 LMP982944:LMP983042 LWL982944:LWL983042 MGH982944:MGH983042 MQD982944:MQD983042 MZZ982944:MZZ983042 NJV982944:NJV983042 NTR982944:NTR983042 ODN982944:ODN983042 ONJ982944:ONJ983042 OXF982944:OXF983042 PHB982944:PHB983042 PQX982944:PQX983042 QAT982944:QAT983042 QKP982944:QKP983042 QUL982944:QUL983042 REH982944:REH983042 ROD982944:ROD983042 RXZ982944:RXZ983042 SHV982944:SHV983042 SRR982944:SRR983042 TBN982944:TBN983042 TLJ982944:TLJ983042 TVF982944:TVF983042 UFB982944:UFB983042 UOX982944:UOX983042 UYT982944:UYT983042 VIP982944:VIP983042 VSL982944:VSL983042 WCH982944:WCH983042 WMD982944:WMD983042 WVZ982944:WVZ983042" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 JD2 SZ2 ACV2 AMR2 AWN2 BGJ2 BQF2 CAB2 CJX2 CTT2 DDP2 DNL2 DXH2 EHD2 EQZ2 FAV2 FKR2 FUN2 GEJ2 GOF2 GYB2 HHX2 HRT2 IBP2 ILL2 IVH2 JFD2 JOZ2 JYV2 KIR2 KSN2 LCJ2 LMF2 LWB2 MFX2 MPT2 MZP2 NJL2 NTH2 ODD2 OMZ2 OWV2 PGR2 PQN2 QAJ2 QKF2 QUB2 RDX2 RNT2 RXP2 SHL2 SRH2 TBD2 TKZ2 TUV2 UER2 UON2 UYJ2 VIF2 VSB2 WBX2 WLT2 WVP2 H65440:H65538 JD65440:JD65538 SZ65440:SZ65538 ACV65440:ACV65538 AMR65440:AMR65538 AWN65440:AWN65538 BGJ65440:BGJ65538 BQF65440:BQF65538 CAB65440:CAB65538 CJX65440:CJX65538 CTT65440:CTT65538 DDP65440:DDP65538 DNL65440:DNL65538 DXH65440:DXH65538 EHD65440:EHD65538 EQZ65440:EQZ65538 FAV65440:FAV65538 FKR65440:FKR65538 FUN65440:FUN65538 GEJ65440:GEJ65538 GOF65440:GOF65538 GYB65440:GYB65538 HHX65440:HHX65538 HRT65440:HRT65538 IBP65440:IBP65538 ILL65440:ILL65538 IVH65440:IVH65538 JFD65440:JFD65538 JOZ65440:JOZ65538 JYV65440:JYV65538 KIR65440:KIR65538 KSN65440:KSN65538 LCJ65440:LCJ65538 LMF65440:LMF65538 LWB65440:LWB65538 MFX65440:MFX65538 MPT65440:MPT65538 MZP65440:MZP65538 NJL65440:NJL65538 NTH65440:NTH65538 ODD65440:ODD65538 OMZ65440:OMZ65538 OWV65440:OWV65538 PGR65440:PGR65538 PQN65440:PQN65538 QAJ65440:QAJ65538 QKF65440:QKF65538 QUB65440:QUB65538 RDX65440:RDX65538 RNT65440:RNT65538 RXP65440:RXP65538 SHL65440:SHL65538 SRH65440:SRH65538 TBD65440:TBD65538 TKZ65440:TKZ65538 TUV65440:TUV65538 UER65440:UER65538 UON65440:UON65538 UYJ65440:UYJ65538 VIF65440:VIF65538 VSB65440:VSB65538 WBX65440:WBX65538 WLT65440:WLT65538 WVP65440:WVP65538 H130976:H131074 JD130976:JD131074 SZ130976:SZ131074 ACV130976:ACV131074 AMR130976:AMR131074 AWN130976:AWN131074 BGJ130976:BGJ131074 BQF130976:BQF131074 CAB130976:CAB131074 CJX130976:CJX131074 CTT130976:CTT131074 DDP130976:DDP131074 DNL130976:DNL131074 DXH130976:DXH131074 EHD130976:EHD131074 EQZ130976:EQZ131074 FAV130976:FAV131074 FKR130976:FKR131074 FUN130976:FUN131074 GEJ130976:GEJ131074 GOF130976:GOF131074 GYB130976:GYB131074 HHX130976:HHX131074 HRT130976:HRT131074 IBP130976:IBP131074 ILL130976:ILL131074 IVH130976:IVH131074 JFD130976:JFD131074 JOZ130976:JOZ131074 JYV130976:JYV131074 KIR130976:KIR131074 KSN130976:KSN131074 LCJ130976:LCJ131074 LMF130976:LMF131074 LWB130976:LWB131074 MFX130976:MFX131074 MPT130976:MPT131074 MZP130976:MZP131074 NJL130976:NJL131074 NTH130976:NTH131074 ODD130976:ODD131074 OMZ130976:OMZ131074 OWV130976:OWV131074 PGR130976:PGR131074 PQN130976:PQN131074 QAJ130976:QAJ131074 QKF130976:QKF131074 QUB130976:QUB131074 RDX130976:RDX131074 RNT130976:RNT131074 RXP130976:RXP131074 SHL130976:SHL131074 SRH130976:SRH131074 TBD130976:TBD131074 TKZ130976:TKZ131074 TUV130976:TUV131074 UER130976:UER131074 UON130976:UON131074 UYJ130976:UYJ131074 VIF130976:VIF131074 VSB130976:VSB131074 WBX130976:WBX131074 WLT130976:WLT131074 WVP130976:WVP131074 H196512:H196610 JD196512:JD196610 SZ196512:SZ196610 ACV196512:ACV196610 AMR196512:AMR196610 AWN196512:AWN196610 BGJ196512:BGJ196610 BQF196512:BQF196610 CAB196512:CAB196610 CJX196512:CJX196610 CTT196512:CTT196610 DDP196512:DDP196610 DNL196512:DNL196610 DXH196512:DXH196610 EHD196512:EHD196610 EQZ196512:EQZ196610 FAV196512:FAV196610 FKR196512:FKR196610 FUN196512:FUN196610 GEJ196512:GEJ196610 GOF196512:GOF196610 GYB196512:GYB196610 HHX196512:HHX196610 HRT196512:HRT196610 IBP196512:IBP196610 ILL196512:ILL196610 IVH196512:IVH196610 JFD196512:JFD196610 JOZ196512:JOZ196610 JYV196512:JYV196610 KIR196512:KIR196610 KSN196512:KSN196610 LCJ196512:LCJ196610 LMF196512:LMF196610 LWB196512:LWB196610 MFX196512:MFX196610 MPT196512:MPT196610 MZP196512:MZP196610 NJL196512:NJL196610 NTH196512:NTH196610 ODD196512:ODD196610 OMZ196512:OMZ196610 OWV196512:OWV196610 PGR196512:PGR196610 PQN196512:PQN196610 QAJ196512:QAJ196610 QKF196512:QKF196610 QUB196512:QUB196610 RDX196512:RDX196610 RNT196512:RNT196610 RXP196512:RXP196610 SHL196512:SHL196610 SRH196512:SRH196610 TBD196512:TBD196610 TKZ196512:TKZ196610 TUV196512:TUV196610 UER196512:UER196610 UON196512:UON196610 UYJ196512:UYJ196610 VIF196512:VIF196610 VSB196512:VSB196610 WBX196512:WBX196610 WLT196512:WLT196610 WVP196512:WVP196610 H262048:H262146 JD262048:JD262146 SZ262048:SZ262146 ACV262048:ACV262146 AMR262048:AMR262146 AWN262048:AWN262146 BGJ262048:BGJ262146 BQF262048:BQF262146 CAB262048:CAB262146 CJX262048:CJX262146 CTT262048:CTT262146 DDP262048:DDP262146 DNL262048:DNL262146 DXH262048:DXH262146 EHD262048:EHD262146 EQZ262048:EQZ262146 FAV262048:FAV262146 FKR262048:FKR262146 FUN262048:FUN262146 GEJ262048:GEJ262146 GOF262048:GOF262146 GYB262048:GYB262146 HHX262048:HHX262146 HRT262048:HRT262146 IBP262048:IBP262146 ILL262048:ILL262146 IVH262048:IVH262146 JFD262048:JFD262146 JOZ262048:JOZ262146 JYV262048:JYV262146 KIR262048:KIR262146 KSN262048:KSN262146 LCJ262048:LCJ262146 LMF262048:LMF262146 LWB262048:LWB262146 MFX262048:MFX262146 MPT262048:MPT262146 MZP262048:MZP262146 NJL262048:NJL262146 NTH262048:NTH262146 ODD262048:ODD262146 OMZ262048:OMZ262146 OWV262048:OWV262146 PGR262048:PGR262146 PQN262048:PQN262146 QAJ262048:QAJ262146 QKF262048:QKF262146 QUB262048:QUB262146 RDX262048:RDX262146 RNT262048:RNT262146 RXP262048:RXP262146 SHL262048:SHL262146 SRH262048:SRH262146 TBD262048:TBD262146 TKZ262048:TKZ262146 TUV262048:TUV262146 UER262048:UER262146 UON262048:UON262146 UYJ262048:UYJ262146 VIF262048:VIF262146 VSB262048:VSB262146 WBX262048:WBX262146 WLT262048:WLT262146 WVP262048:WVP262146 H327584:H327682 JD327584:JD327682 SZ327584:SZ327682 ACV327584:ACV327682 AMR327584:AMR327682 AWN327584:AWN327682 BGJ327584:BGJ327682 BQF327584:BQF327682 CAB327584:CAB327682 CJX327584:CJX327682 CTT327584:CTT327682 DDP327584:DDP327682 DNL327584:DNL327682 DXH327584:DXH327682 EHD327584:EHD327682 EQZ327584:EQZ327682 FAV327584:FAV327682 FKR327584:FKR327682 FUN327584:FUN327682 GEJ327584:GEJ327682 GOF327584:GOF327682 GYB327584:GYB327682 HHX327584:HHX327682 HRT327584:HRT327682 IBP327584:IBP327682 ILL327584:ILL327682 IVH327584:IVH327682 JFD327584:JFD327682 JOZ327584:JOZ327682 JYV327584:JYV327682 KIR327584:KIR327682 KSN327584:KSN327682 LCJ327584:LCJ327682 LMF327584:LMF327682 LWB327584:LWB327682 MFX327584:MFX327682 MPT327584:MPT327682 MZP327584:MZP327682 NJL327584:NJL327682 NTH327584:NTH327682 ODD327584:ODD327682 OMZ327584:OMZ327682 OWV327584:OWV327682 PGR327584:PGR327682 PQN327584:PQN327682 QAJ327584:QAJ327682 QKF327584:QKF327682 QUB327584:QUB327682 RDX327584:RDX327682 RNT327584:RNT327682 RXP327584:RXP327682 SHL327584:SHL327682 SRH327584:SRH327682 TBD327584:TBD327682 TKZ327584:TKZ327682 TUV327584:TUV327682 UER327584:UER327682 UON327584:UON327682 UYJ327584:UYJ327682 VIF327584:VIF327682 VSB327584:VSB327682 WBX327584:WBX327682 WLT327584:WLT327682 WVP327584:WVP327682 H393120:H393218 JD393120:JD393218 SZ393120:SZ393218 ACV393120:ACV393218 AMR393120:AMR393218 AWN393120:AWN393218 BGJ393120:BGJ393218 BQF393120:BQF393218 CAB393120:CAB393218 CJX393120:CJX393218 CTT393120:CTT393218 DDP393120:DDP393218 DNL393120:DNL393218 DXH393120:DXH393218 EHD393120:EHD393218 EQZ393120:EQZ393218 FAV393120:FAV393218 FKR393120:FKR393218 FUN393120:FUN393218 GEJ393120:GEJ393218 GOF393120:GOF393218 GYB393120:GYB393218 HHX393120:HHX393218 HRT393120:HRT393218 IBP393120:IBP393218 ILL393120:ILL393218 IVH393120:IVH393218 JFD393120:JFD393218 JOZ393120:JOZ393218 JYV393120:JYV393218 KIR393120:KIR393218 KSN393120:KSN393218 LCJ393120:LCJ393218 LMF393120:LMF393218 LWB393120:LWB393218 MFX393120:MFX393218 MPT393120:MPT393218 MZP393120:MZP393218 NJL393120:NJL393218 NTH393120:NTH393218 ODD393120:ODD393218 OMZ393120:OMZ393218 OWV393120:OWV393218 PGR393120:PGR393218 PQN393120:PQN393218 QAJ393120:QAJ393218 QKF393120:QKF393218 QUB393120:QUB393218 RDX393120:RDX393218 RNT393120:RNT393218 RXP393120:RXP393218 SHL393120:SHL393218 SRH393120:SRH393218 TBD393120:TBD393218 TKZ393120:TKZ393218 TUV393120:TUV393218 UER393120:UER393218 UON393120:UON393218 UYJ393120:UYJ393218 VIF393120:VIF393218 VSB393120:VSB393218 WBX393120:WBX393218 WLT393120:WLT393218 WVP393120:WVP393218 H458656:H458754 JD458656:JD458754 SZ458656:SZ458754 ACV458656:ACV458754 AMR458656:AMR458754 AWN458656:AWN458754 BGJ458656:BGJ458754 BQF458656:BQF458754 CAB458656:CAB458754 CJX458656:CJX458754 CTT458656:CTT458754 DDP458656:DDP458754 DNL458656:DNL458754 DXH458656:DXH458754 EHD458656:EHD458754 EQZ458656:EQZ458754 FAV458656:FAV458754 FKR458656:FKR458754 FUN458656:FUN458754 GEJ458656:GEJ458754 GOF458656:GOF458754 GYB458656:GYB458754 HHX458656:HHX458754 HRT458656:HRT458754 IBP458656:IBP458754 ILL458656:ILL458754 IVH458656:IVH458754 JFD458656:JFD458754 JOZ458656:JOZ458754 JYV458656:JYV458754 KIR458656:KIR458754 KSN458656:KSN458754 LCJ458656:LCJ458754 LMF458656:LMF458754 LWB458656:LWB458754 MFX458656:MFX458754 MPT458656:MPT458754 MZP458656:MZP458754 NJL458656:NJL458754 NTH458656:NTH458754 ODD458656:ODD458754 OMZ458656:OMZ458754 OWV458656:OWV458754 PGR458656:PGR458754 PQN458656:PQN458754 QAJ458656:QAJ458754 QKF458656:QKF458754 QUB458656:QUB458754 RDX458656:RDX458754 RNT458656:RNT458754 RXP458656:RXP458754 SHL458656:SHL458754 SRH458656:SRH458754 TBD458656:TBD458754 TKZ458656:TKZ458754 TUV458656:TUV458754 UER458656:UER458754 UON458656:UON458754 UYJ458656:UYJ458754 VIF458656:VIF458754 VSB458656:VSB458754 WBX458656:WBX458754 WLT458656:WLT458754 WVP458656:WVP458754 H524192:H524290 JD524192:JD524290 SZ524192:SZ524290 ACV524192:ACV524290 AMR524192:AMR524290 AWN524192:AWN524290 BGJ524192:BGJ524290 BQF524192:BQF524290 CAB524192:CAB524290 CJX524192:CJX524290 CTT524192:CTT524290 DDP524192:DDP524290 DNL524192:DNL524290 DXH524192:DXH524290 EHD524192:EHD524290 EQZ524192:EQZ524290 FAV524192:FAV524290 FKR524192:FKR524290 FUN524192:FUN524290 GEJ524192:GEJ524290 GOF524192:GOF524290 GYB524192:GYB524290 HHX524192:HHX524290 HRT524192:HRT524290 IBP524192:IBP524290 ILL524192:ILL524290 IVH524192:IVH524290 JFD524192:JFD524290 JOZ524192:JOZ524290 JYV524192:JYV524290 KIR524192:KIR524290 KSN524192:KSN524290 LCJ524192:LCJ524290 LMF524192:LMF524290 LWB524192:LWB524290 MFX524192:MFX524290 MPT524192:MPT524290 MZP524192:MZP524290 NJL524192:NJL524290 NTH524192:NTH524290 ODD524192:ODD524290 OMZ524192:OMZ524290 OWV524192:OWV524290 PGR524192:PGR524290 PQN524192:PQN524290 QAJ524192:QAJ524290 QKF524192:QKF524290 QUB524192:QUB524290 RDX524192:RDX524290 RNT524192:RNT524290 RXP524192:RXP524290 SHL524192:SHL524290 SRH524192:SRH524290 TBD524192:TBD524290 TKZ524192:TKZ524290 TUV524192:TUV524290 UER524192:UER524290 UON524192:UON524290 UYJ524192:UYJ524290 VIF524192:VIF524290 VSB524192:VSB524290 WBX524192:WBX524290 WLT524192:WLT524290 WVP524192:WVP524290 H589728:H589826 JD589728:JD589826 SZ589728:SZ589826 ACV589728:ACV589826 AMR589728:AMR589826 AWN589728:AWN589826 BGJ589728:BGJ589826 BQF589728:BQF589826 CAB589728:CAB589826 CJX589728:CJX589826 CTT589728:CTT589826 DDP589728:DDP589826 DNL589728:DNL589826 DXH589728:DXH589826 EHD589728:EHD589826 EQZ589728:EQZ589826 FAV589728:FAV589826 FKR589728:FKR589826 FUN589728:FUN589826 GEJ589728:GEJ589826 GOF589728:GOF589826 GYB589728:GYB589826 HHX589728:HHX589826 HRT589728:HRT589826 IBP589728:IBP589826 ILL589728:ILL589826 IVH589728:IVH589826 JFD589728:JFD589826 JOZ589728:JOZ589826 JYV589728:JYV589826 KIR589728:KIR589826 KSN589728:KSN589826 LCJ589728:LCJ589826 LMF589728:LMF589826 LWB589728:LWB589826 MFX589728:MFX589826 MPT589728:MPT589826 MZP589728:MZP589826 NJL589728:NJL589826 NTH589728:NTH589826 ODD589728:ODD589826 OMZ589728:OMZ589826 OWV589728:OWV589826 PGR589728:PGR589826 PQN589728:PQN589826 QAJ589728:QAJ589826 QKF589728:QKF589826 QUB589728:QUB589826 RDX589728:RDX589826 RNT589728:RNT589826 RXP589728:RXP589826 SHL589728:SHL589826 SRH589728:SRH589826 TBD589728:TBD589826 TKZ589728:TKZ589826 TUV589728:TUV589826 UER589728:UER589826 UON589728:UON589826 UYJ589728:UYJ589826 VIF589728:VIF589826 VSB589728:VSB589826 WBX589728:WBX589826 WLT589728:WLT589826 WVP589728:WVP589826 H655264:H655362 JD655264:JD655362 SZ655264:SZ655362 ACV655264:ACV655362 AMR655264:AMR655362 AWN655264:AWN655362 BGJ655264:BGJ655362 BQF655264:BQF655362 CAB655264:CAB655362 CJX655264:CJX655362 CTT655264:CTT655362 DDP655264:DDP655362 DNL655264:DNL655362 DXH655264:DXH655362 EHD655264:EHD655362 EQZ655264:EQZ655362 FAV655264:FAV655362 FKR655264:FKR655362 FUN655264:FUN655362 GEJ655264:GEJ655362 GOF655264:GOF655362 GYB655264:GYB655362 HHX655264:HHX655362 HRT655264:HRT655362 IBP655264:IBP655362 ILL655264:ILL655362 IVH655264:IVH655362 JFD655264:JFD655362 JOZ655264:JOZ655362 JYV655264:JYV655362 KIR655264:KIR655362 KSN655264:KSN655362 LCJ655264:LCJ655362 LMF655264:LMF655362 LWB655264:LWB655362 MFX655264:MFX655362 MPT655264:MPT655362 MZP655264:MZP655362 NJL655264:NJL655362 NTH655264:NTH655362 ODD655264:ODD655362 OMZ655264:OMZ655362 OWV655264:OWV655362 PGR655264:PGR655362 PQN655264:PQN655362 QAJ655264:QAJ655362 QKF655264:QKF655362 QUB655264:QUB655362 RDX655264:RDX655362 RNT655264:RNT655362 RXP655264:RXP655362 SHL655264:SHL655362 SRH655264:SRH655362 TBD655264:TBD655362 TKZ655264:TKZ655362 TUV655264:TUV655362 UER655264:UER655362 UON655264:UON655362 UYJ655264:UYJ655362 VIF655264:VIF655362 VSB655264:VSB655362 WBX655264:WBX655362 WLT655264:WLT655362 WVP655264:WVP655362 H720800:H720898 JD720800:JD720898 SZ720800:SZ720898 ACV720800:ACV720898 AMR720800:AMR720898 AWN720800:AWN720898 BGJ720800:BGJ720898 BQF720800:BQF720898 CAB720800:CAB720898 CJX720800:CJX720898 CTT720800:CTT720898 DDP720800:DDP720898 DNL720800:DNL720898 DXH720800:DXH720898 EHD720800:EHD720898 EQZ720800:EQZ720898 FAV720800:FAV720898 FKR720800:FKR720898 FUN720800:FUN720898 GEJ720800:GEJ720898 GOF720800:GOF720898 GYB720800:GYB720898 HHX720800:HHX720898 HRT720800:HRT720898 IBP720800:IBP720898 ILL720800:ILL720898 IVH720800:IVH720898 JFD720800:JFD720898 JOZ720800:JOZ720898 JYV720800:JYV720898 KIR720800:KIR720898 KSN720800:KSN720898 LCJ720800:LCJ720898 LMF720800:LMF720898 LWB720800:LWB720898 MFX720800:MFX720898 MPT720800:MPT720898 MZP720800:MZP720898 NJL720800:NJL720898 NTH720800:NTH720898 ODD720800:ODD720898 OMZ720800:OMZ720898 OWV720800:OWV720898 PGR720800:PGR720898 PQN720800:PQN720898 QAJ720800:QAJ720898 QKF720800:QKF720898 QUB720800:QUB720898 RDX720800:RDX720898 RNT720800:RNT720898 RXP720800:RXP720898 SHL720800:SHL720898 SRH720800:SRH720898 TBD720800:TBD720898 TKZ720800:TKZ720898 TUV720800:TUV720898 UER720800:UER720898 UON720800:UON720898 UYJ720800:UYJ720898 VIF720800:VIF720898 VSB720800:VSB720898 WBX720800:WBX720898 WLT720800:WLT720898 WVP720800:WVP720898 H786336:H786434 JD786336:JD786434 SZ786336:SZ786434 ACV786336:ACV786434 AMR786336:AMR786434 AWN786336:AWN786434 BGJ786336:BGJ786434 BQF786336:BQF786434 CAB786336:CAB786434 CJX786336:CJX786434 CTT786336:CTT786434 DDP786336:DDP786434 DNL786336:DNL786434 DXH786336:DXH786434 EHD786336:EHD786434 EQZ786336:EQZ786434 FAV786336:FAV786434 FKR786336:FKR786434 FUN786336:FUN786434 GEJ786336:GEJ786434 GOF786336:GOF786434 GYB786336:GYB786434 HHX786336:HHX786434 HRT786336:HRT786434 IBP786336:IBP786434 ILL786336:ILL786434 IVH786336:IVH786434 JFD786336:JFD786434 JOZ786336:JOZ786434 JYV786336:JYV786434 KIR786336:KIR786434 KSN786336:KSN786434 LCJ786336:LCJ786434 LMF786336:LMF786434 LWB786336:LWB786434 MFX786336:MFX786434 MPT786336:MPT786434 MZP786336:MZP786434 NJL786336:NJL786434 NTH786336:NTH786434 ODD786336:ODD786434 OMZ786336:OMZ786434 OWV786336:OWV786434 PGR786336:PGR786434 PQN786336:PQN786434 QAJ786336:QAJ786434 QKF786336:QKF786434 QUB786336:QUB786434 RDX786336:RDX786434 RNT786336:RNT786434 RXP786336:RXP786434 SHL786336:SHL786434 SRH786336:SRH786434 TBD786336:TBD786434 TKZ786336:TKZ786434 TUV786336:TUV786434 UER786336:UER786434 UON786336:UON786434 UYJ786336:UYJ786434 VIF786336:VIF786434 VSB786336:VSB786434 WBX786336:WBX786434 WLT786336:WLT786434 WVP786336:WVP786434 H851872:H851970 JD851872:JD851970 SZ851872:SZ851970 ACV851872:ACV851970 AMR851872:AMR851970 AWN851872:AWN851970 BGJ851872:BGJ851970 BQF851872:BQF851970 CAB851872:CAB851970 CJX851872:CJX851970 CTT851872:CTT851970 DDP851872:DDP851970 DNL851872:DNL851970 DXH851872:DXH851970 EHD851872:EHD851970 EQZ851872:EQZ851970 FAV851872:FAV851970 FKR851872:FKR851970 FUN851872:FUN851970 GEJ851872:GEJ851970 GOF851872:GOF851970 GYB851872:GYB851970 HHX851872:HHX851970 HRT851872:HRT851970 IBP851872:IBP851970 ILL851872:ILL851970 IVH851872:IVH851970 JFD851872:JFD851970 JOZ851872:JOZ851970 JYV851872:JYV851970 KIR851872:KIR851970 KSN851872:KSN851970 LCJ851872:LCJ851970 LMF851872:LMF851970 LWB851872:LWB851970 MFX851872:MFX851970 MPT851872:MPT851970 MZP851872:MZP851970 NJL851872:NJL851970 NTH851872:NTH851970 ODD851872:ODD851970 OMZ851872:OMZ851970 OWV851872:OWV851970 PGR851872:PGR851970 PQN851872:PQN851970 QAJ851872:QAJ851970 QKF851872:QKF851970 QUB851872:QUB851970 RDX851872:RDX851970 RNT851872:RNT851970 RXP851872:RXP851970 SHL851872:SHL851970 SRH851872:SRH851970 TBD851872:TBD851970 TKZ851872:TKZ851970 TUV851872:TUV851970 UER851872:UER851970 UON851872:UON851970 UYJ851872:UYJ851970 VIF851872:VIF851970 VSB851872:VSB851970 WBX851872:WBX851970 WLT851872:WLT851970 WVP851872:WVP851970 H917408:H917506 JD917408:JD917506 SZ917408:SZ917506 ACV917408:ACV917506 AMR917408:AMR917506 AWN917408:AWN917506 BGJ917408:BGJ917506 BQF917408:BQF917506 CAB917408:CAB917506 CJX917408:CJX917506 CTT917408:CTT917506 DDP917408:DDP917506 DNL917408:DNL917506 DXH917408:DXH917506 EHD917408:EHD917506 EQZ917408:EQZ917506 FAV917408:FAV917506 FKR917408:FKR917506 FUN917408:FUN917506 GEJ917408:GEJ917506 GOF917408:GOF917506 GYB917408:GYB917506 HHX917408:HHX917506 HRT917408:HRT917506 IBP917408:IBP917506 ILL917408:ILL917506 IVH917408:IVH917506 JFD917408:JFD917506 JOZ917408:JOZ917506 JYV917408:JYV917506 KIR917408:KIR917506 KSN917408:KSN917506 LCJ917408:LCJ917506 LMF917408:LMF917506 LWB917408:LWB917506 MFX917408:MFX917506 MPT917408:MPT917506 MZP917408:MZP917506 NJL917408:NJL917506 NTH917408:NTH917506 ODD917408:ODD917506 OMZ917408:OMZ917506 OWV917408:OWV917506 PGR917408:PGR917506 PQN917408:PQN917506 QAJ917408:QAJ917506 QKF917408:QKF917506 QUB917408:QUB917506 RDX917408:RDX917506 RNT917408:RNT917506 RXP917408:RXP917506 SHL917408:SHL917506 SRH917408:SRH917506 TBD917408:TBD917506 TKZ917408:TKZ917506 TUV917408:TUV917506 UER917408:UER917506 UON917408:UON917506 UYJ917408:UYJ917506 VIF917408:VIF917506 VSB917408:VSB917506 WBX917408:WBX917506 WLT917408:WLT917506 WVP917408:WVP917506 H982944:H983042 JD982944:JD983042 SZ982944:SZ983042 ACV982944:ACV983042 AMR982944:AMR983042 AWN982944:AWN983042 BGJ982944:BGJ983042 BQF982944:BQF983042 CAB982944:CAB983042 CJX982944:CJX983042 CTT982944:CTT983042 DDP982944:DDP983042 DNL982944:DNL983042 DXH982944:DXH983042 EHD982944:EHD983042 EQZ982944:EQZ983042 FAV982944:FAV983042 FKR982944:FKR983042 FUN982944:FUN983042 GEJ982944:GEJ983042 GOF982944:GOF983042 GYB982944:GYB983042 HHX982944:HHX983042 HRT982944:HRT983042 IBP982944:IBP983042 ILL982944:ILL983042 IVH982944:IVH983042 JFD982944:JFD983042 JOZ982944:JOZ983042 JYV982944:JYV983042 KIR982944:KIR983042 KSN982944:KSN983042 LCJ982944:LCJ983042 LMF982944:LMF983042 LWB982944:LWB983042 MFX982944:MFX983042 MPT982944:MPT983042 MZP982944:MZP983042 NJL982944:NJL983042 NTH982944:NTH983042 ODD982944:ODD983042 OMZ982944:OMZ983042 OWV982944:OWV983042 PGR982944:PGR983042 PQN982944:PQN983042 QAJ982944:QAJ983042 QKF982944:QKF983042 QUB982944:QUB983042 RDX982944:RDX983042 RNT982944:RNT983042 RXP982944:RXP983042 SHL982944:SHL983042 SRH982944:SRH983042 TBD982944:TBD983042 TKZ982944:TKZ983042 TUV982944:TUV983042 UER982944:UER983042 UON982944:UON983042 UYJ982944:UYJ983042 VIF982944:VIF983042 VSB982944:VSB983042 WBX982944:WBX983042 WLT982944:WLT983042 WVP982944:WVP983042 O2:P2 JK2:JL2 TG2:TH2 ADC2:ADD2 AMY2:AMZ2 AWU2:AWV2 BGQ2:BGR2 BQM2:BQN2 CAI2:CAJ2 CKE2:CKF2 CUA2:CUB2 DDW2:DDX2 DNS2:DNT2 DXO2:DXP2 EHK2:EHL2 ERG2:ERH2 FBC2:FBD2 FKY2:FKZ2 FUU2:FUV2 GEQ2:GER2 GOM2:GON2 GYI2:GYJ2 HIE2:HIF2 HSA2:HSB2 IBW2:IBX2 ILS2:ILT2 IVO2:IVP2 JFK2:JFL2 JPG2:JPH2 JZC2:JZD2 KIY2:KIZ2 KSU2:KSV2 LCQ2:LCR2 LMM2:LMN2 LWI2:LWJ2 MGE2:MGF2 MQA2:MQB2 MZW2:MZX2 NJS2:NJT2 NTO2:NTP2 ODK2:ODL2 ONG2:ONH2 OXC2:OXD2 PGY2:PGZ2 PQU2:PQV2 QAQ2:QAR2 QKM2:QKN2 QUI2:QUJ2 REE2:REF2 ROA2:ROB2 RXW2:RXX2 SHS2:SHT2 SRO2:SRP2 TBK2:TBL2 TLG2:TLH2 TVC2:TVD2 UEY2:UEZ2 UOU2:UOV2 UYQ2:UYR2 VIM2:VIN2 VSI2:VSJ2 WCE2:WCF2 WMA2:WMB2 WVW2:WVX2 O65440:P65538 JK65440:JL65538 TG65440:TH65538 ADC65440:ADD65538 AMY65440:AMZ65538 AWU65440:AWV65538 BGQ65440:BGR65538 BQM65440:BQN65538 CAI65440:CAJ65538 CKE65440:CKF65538 CUA65440:CUB65538 DDW65440:DDX65538 DNS65440:DNT65538 DXO65440:DXP65538 EHK65440:EHL65538 ERG65440:ERH65538 FBC65440:FBD65538 FKY65440:FKZ65538 FUU65440:FUV65538 GEQ65440:GER65538 GOM65440:GON65538 GYI65440:GYJ65538 HIE65440:HIF65538 HSA65440:HSB65538 IBW65440:IBX65538 ILS65440:ILT65538 IVO65440:IVP65538 JFK65440:JFL65538 JPG65440:JPH65538 JZC65440:JZD65538 KIY65440:KIZ65538 KSU65440:KSV65538 LCQ65440:LCR65538 LMM65440:LMN65538 LWI65440:LWJ65538 MGE65440:MGF65538 MQA65440:MQB65538 MZW65440:MZX65538 NJS65440:NJT65538 NTO65440:NTP65538 ODK65440:ODL65538 ONG65440:ONH65538 OXC65440:OXD65538 PGY65440:PGZ65538 PQU65440:PQV65538 QAQ65440:QAR65538 QKM65440:QKN65538 QUI65440:QUJ65538 REE65440:REF65538 ROA65440:ROB65538 RXW65440:RXX65538 SHS65440:SHT65538 SRO65440:SRP65538 TBK65440:TBL65538 TLG65440:TLH65538 TVC65440:TVD65538 UEY65440:UEZ65538 UOU65440:UOV65538 UYQ65440:UYR65538 VIM65440:VIN65538 VSI65440:VSJ65538 WCE65440:WCF65538 WMA65440:WMB65538 WVW65440:WVX65538 O130976:P131074 JK130976:JL131074 TG130976:TH131074 ADC130976:ADD131074 AMY130976:AMZ131074 AWU130976:AWV131074 BGQ130976:BGR131074 BQM130976:BQN131074 CAI130976:CAJ131074 CKE130976:CKF131074 CUA130976:CUB131074 DDW130976:DDX131074 DNS130976:DNT131074 DXO130976:DXP131074 EHK130976:EHL131074 ERG130976:ERH131074 FBC130976:FBD131074 FKY130976:FKZ131074 FUU130976:FUV131074 GEQ130976:GER131074 GOM130976:GON131074 GYI130976:GYJ131074 HIE130976:HIF131074 HSA130976:HSB131074 IBW130976:IBX131074 ILS130976:ILT131074 IVO130976:IVP131074 JFK130976:JFL131074 JPG130976:JPH131074 JZC130976:JZD131074 KIY130976:KIZ131074 KSU130976:KSV131074 LCQ130976:LCR131074 LMM130976:LMN131074 LWI130976:LWJ131074 MGE130976:MGF131074 MQA130976:MQB131074 MZW130976:MZX131074 NJS130976:NJT131074 NTO130976:NTP131074 ODK130976:ODL131074 ONG130976:ONH131074 OXC130976:OXD131074 PGY130976:PGZ131074 PQU130976:PQV131074 QAQ130976:QAR131074 QKM130976:QKN131074 QUI130976:QUJ131074 REE130976:REF131074 ROA130976:ROB131074 RXW130976:RXX131074 SHS130976:SHT131074 SRO130976:SRP131074 TBK130976:TBL131074 TLG130976:TLH131074 TVC130976:TVD131074 UEY130976:UEZ131074 UOU130976:UOV131074 UYQ130976:UYR131074 VIM130976:VIN131074 VSI130976:VSJ131074 WCE130976:WCF131074 WMA130976:WMB131074 WVW130976:WVX131074 O196512:P196610 JK196512:JL196610 TG196512:TH196610 ADC196512:ADD196610 AMY196512:AMZ196610 AWU196512:AWV196610 BGQ196512:BGR196610 BQM196512:BQN196610 CAI196512:CAJ196610 CKE196512:CKF196610 CUA196512:CUB196610 DDW196512:DDX196610 DNS196512:DNT196610 DXO196512:DXP196610 EHK196512:EHL196610 ERG196512:ERH196610 FBC196512:FBD196610 FKY196512:FKZ196610 FUU196512:FUV196610 GEQ196512:GER196610 GOM196512:GON196610 GYI196512:GYJ196610 HIE196512:HIF196610 HSA196512:HSB196610 IBW196512:IBX196610 ILS196512:ILT196610 IVO196512:IVP196610 JFK196512:JFL196610 JPG196512:JPH196610 JZC196512:JZD196610 KIY196512:KIZ196610 KSU196512:KSV196610 LCQ196512:LCR196610 LMM196512:LMN196610 LWI196512:LWJ196610 MGE196512:MGF196610 MQA196512:MQB196610 MZW196512:MZX196610 NJS196512:NJT196610 NTO196512:NTP196610 ODK196512:ODL196610 ONG196512:ONH196610 OXC196512:OXD196610 PGY196512:PGZ196610 PQU196512:PQV196610 QAQ196512:QAR196610 QKM196512:QKN196610 QUI196512:QUJ196610 REE196512:REF196610 ROA196512:ROB196610 RXW196512:RXX196610 SHS196512:SHT196610 SRO196512:SRP196610 TBK196512:TBL196610 TLG196512:TLH196610 TVC196512:TVD196610 UEY196512:UEZ196610 UOU196512:UOV196610 UYQ196512:UYR196610 VIM196512:VIN196610 VSI196512:VSJ196610 WCE196512:WCF196610 WMA196512:WMB196610 WVW196512:WVX196610 O262048:P262146 JK262048:JL262146 TG262048:TH262146 ADC262048:ADD262146 AMY262048:AMZ262146 AWU262048:AWV262146 BGQ262048:BGR262146 BQM262048:BQN262146 CAI262048:CAJ262146 CKE262048:CKF262146 CUA262048:CUB262146 DDW262048:DDX262146 DNS262048:DNT262146 DXO262048:DXP262146 EHK262048:EHL262146 ERG262048:ERH262146 FBC262048:FBD262146 FKY262048:FKZ262146 FUU262048:FUV262146 GEQ262048:GER262146 GOM262048:GON262146 GYI262048:GYJ262146 HIE262048:HIF262146 HSA262048:HSB262146 IBW262048:IBX262146 ILS262048:ILT262146 IVO262048:IVP262146 JFK262048:JFL262146 JPG262048:JPH262146 JZC262048:JZD262146 KIY262048:KIZ262146 KSU262048:KSV262146 LCQ262048:LCR262146 LMM262048:LMN262146 LWI262048:LWJ262146 MGE262048:MGF262146 MQA262048:MQB262146 MZW262048:MZX262146 NJS262048:NJT262146 NTO262048:NTP262146 ODK262048:ODL262146 ONG262048:ONH262146 OXC262048:OXD262146 PGY262048:PGZ262146 PQU262048:PQV262146 QAQ262048:QAR262146 QKM262048:QKN262146 QUI262048:QUJ262146 REE262048:REF262146 ROA262048:ROB262146 RXW262048:RXX262146 SHS262048:SHT262146 SRO262048:SRP262146 TBK262048:TBL262146 TLG262048:TLH262146 TVC262048:TVD262146 UEY262048:UEZ262146 UOU262048:UOV262146 UYQ262048:UYR262146 VIM262048:VIN262146 VSI262048:VSJ262146 WCE262048:WCF262146 WMA262048:WMB262146 WVW262048:WVX262146 O327584:P327682 JK327584:JL327682 TG327584:TH327682 ADC327584:ADD327682 AMY327584:AMZ327682 AWU327584:AWV327682 BGQ327584:BGR327682 BQM327584:BQN327682 CAI327584:CAJ327682 CKE327584:CKF327682 CUA327584:CUB327682 DDW327584:DDX327682 DNS327584:DNT327682 DXO327584:DXP327682 EHK327584:EHL327682 ERG327584:ERH327682 FBC327584:FBD327682 FKY327584:FKZ327682 FUU327584:FUV327682 GEQ327584:GER327682 GOM327584:GON327682 GYI327584:GYJ327682 HIE327584:HIF327682 HSA327584:HSB327682 IBW327584:IBX327682 ILS327584:ILT327682 IVO327584:IVP327682 JFK327584:JFL327682 JPG327584:JPH327682 JZC327584:JZD327682 KIY327584:KIZ327682 KSU327584:KSV327682 LCQ327584:LCR327682 LMM327584:LMN327682 LWI327584:LWJ327682 MGE327584:MGF327682 MQA327584:MQB327682 MZW327584:MZX327682 NJS327584:NJT327682 NTO327584:NTP327682 ODK327584:ODL327682 ONG327584:ONH327682 OXC327584:OXD327682 PGY327584:PGZ327682 PQU327584:PQV327682 QAQ327584:QAR327682 QKM327584:QKN327682 QUI327584:QUJ327682 REE327584:REF327682 ROA327584:ROB327682 RXW327584:RXX327682 SHS327584:SHT327682 SRO327584:SRP327682 TBK327584:TBL327682 TLG327584:TLH327682 TVC327584:TVD327682 UEY327584:UEZ327682 UOU327584:UOV327682 UYQ327584:UYR327682 VIM327584:VIN327682 VSI327584:VSJ327682 WCE327584:WCF327682 WMA327584:WMB327682 WVW327584:WVX327682 O393120:P393218 JK393120:JL393218 TG393120:TH393218 ADC393120:ADD393218 AMY393120:AMZ393218 AWU393120:AWV393218 BGQ393120:BGR393218 BQM393120:BQN393218 CAI393120:CAJ393218 CKE393120:CKF393218 CUA393120:CUB393218 DDW393120:DDX393218 DNS393120:DNT393218 DXO393120:DXP393218 EHK393120:EHL393218 ERG393120:ERH393218 FBC393120:FBD393218 FKY393120:FKZ393218 FUU393120:FUV393218 GEQ393120:GER393218 GOM393120:GON393218 GYI393120:GYJ393218 HIE393120:HIF393218 HSA393120:HSB393218 IBW393120:IBX393218 ILS393120:ILT393218 IVO393120:IVP393218 JFK393120:JFL393218 JPG393120:JPH393218 JZC393120:JZD393218 KIY393120:KIZ393218 KSU393120:KSV393218 LCQ393120:LCR393218 LMM393120:LMN393218 LWI393120:LWJ393218 MGE393120:MGF393218 MQA393120:MQB393218 MZW393120:MZX393218 NJS393120:NJT393218 NTO393120:NTP393218 ODK393120:ODL393218 ONG393120:ONH393218 OXC393120:OXD393218 PGY393120:PGZ393218 PQU393120:PQV393218 QAQ393120:QAR393218 QKM393120:QKN393218 QUI393120:QUJ393218 REE393120:REF393218 ROA393120:ROB393218 RXW393120:RXX393218 SHS393120:SHT393218 SRO393120:SRP393218 TBK393120:TBL393218 TLG393120:TLH393218 TVC393120:TVD393218 UEY393120:UEZ393218 UOU393120:UOV393218 UYQ393120:UYR393218 VIM393120:VIN393218 VSI393120:VSJ393218 WCE393120:WCF393218 WMA393120:WMB393218 WVW393120:WVX393218 O458656:P458754 JK458656:JL458754 TG458656:TH458754 ADC458656:ADD458754 AMY458656:AMZ458754 AWU458656:AWV458754 BGQ458656:BGR458754 BQM458656:BQN458754 CAI458656:CAJ458754 CKE458656:CKF458754 CUA458656:CUB458754 DDW458656:DDX458754 DNS458656:DNT458754 DXO458656:DXP458754 EHK458656:EHL458754 ERG458656:ERH458754 FBC458656:FBD458754 FKY458656:FKZ458754 FUU458656:FUV458754 GEQ458656:GER458754 GOM458656:GON458754 GYI458656:GYJ458754 HIE458656:HIF458754 HSA458656:HSB458754 IBW458656:IBX458754 ILS458656:ILT458754 IVO458656:IVP458754 JFK458656:JFL458754 JPG458656:JPH458754 JZC458656:JZD458754 KIY458656:KIZ458754 KSU458656:KSV458754 LCQ458656:LCR458754 LMM458656:LMN458754 LWI458656:LWJ458754 MGE458656:MGF458754 MQA458656:MQB458754 MZW458656:MZX458754 NJS458656:NJT458754 NTO458656:NTP458754 ODK458656:ODL458754 ONG458656:ONH458754 OXC458656:OXD458754 PGY458656:PGZ458754 PQU458656:PQV458754 QAQ458656:QAR458754 QKM458656:QKN458754 QUI458656:QUJ458754 REE458656:REF458754 ROA458656:ROB458754 RXW458656:RXX458754 SHS458656:SHT458754 SRO458656:SRP458754 TBK458656:TBL458754 TLG458656:TLH458754 TVC458656:TVD458754 UEY458656:UEZ458754 UOU458656:UOV458754 UYQ458656:UYR458754 VIM458656:VIN458754 VSI458656:VSJ458754 WCE458656:WCF458754 WMA458656:WMB458754 WVW458656:WVX458754 O524192:P524290 JK524192:JL524290 TG524192:TH524290 ADC524192:ADD524290 AMY524192:AMZ524290 AWU524192:AWV524290 BGQ524192:BGR524290 BQM524192:BQN524290 CAI524192:CAJ524290 CKE524192:CKF524290 CUA524192:CUB524290 DDW524192:DDX524290 DNS524192:DNT524290 DXO524192:DXP524290 EHK524192:EHL524290 ERG524192:ERH524290 FBC524192:FBD524290 FKY524192:FKZ524290 FUU524192:FUV524290 GEQ524192:GER524290 GOM524192:GON524290 GYI524192:GYJ524290 HIE524192:HIF524290 HSA524192:HSB524290 IBW524192:IBX524290 ILS524192:ILT524290 IVO524192:IVP524290 JFK524192:JFL524290 JPG524192:JPH524290 JZC524192:JZD524290 KIY524192:KIZ524290 KSU524192:KSV524290 LCQ524192:LCR524290 LMM524192:LMN524290 LWI524192:LWJ524290 MGE524192:MGF524290 MQA524192:MQB524290 MZW524192:MZX524290 NJS524192:NJT524290 NTO524192:NTP524290 ODK524192:ODL524290 ONG524192:ONH524290 OXC524192:OXD524290 PGY524192:PGZ524290 PQU524192:PQV524290 QAQ524192:QAR524290 QKM524192:QKN524290 QUI524192:QUJ524290 REE524192:REF524290 ROA524192:ROB524290 RXW524192:RXX524290 SHS524192:SHT524290 SRO524192:SRP524290 TBK524192:TBL524290 TLG524192:TLH524290 TVC524192:TVD524290 UEY524192:UEZ524290 UOU524192:UOV524290 UYQ524192:UYR524290 VIM524192:VIN524290 VSI524192:VSJ524290 WCE524192:WCF524290 WMA524192:WMB524290 WVW524192:WVX524290 O589728:P589826 JK589728:JL589826 TG589728:TH589826 ADC589728:ADD589826 AMY589728:AMZ589826 AWU589728:AWV589826 BGQ589728:BGR589826 BQM589728:BQN589826 CAI589728:CAJ589826 CKE589728:CKF589826 CUA589728:CUB589826 DDW589728:DDX589826 DNS589728:DNT589826 DXO589728:DXP589826 EHK589728:EHL589826 ERG589728:ERH589826 FBC589728:FBD589826 FKY589728:FKZ589826 FUU589728:FUV589826 GEQ589728:GER589826 GOM589728:GON589826 GYI589728:GYJ589826 HIE589728:HIF589826 HSA589728:HSB589826 IBW589728:IBX589826 ILS589728:ILT589826 IVO589728:IVP589826 JFK589728:JFL589826 JPG589728:JPH589826 JZC589728:JZD589826 KIY589728:KIZ589826 KSU589728:KSV589826 LCQ589728:LCR589826 LMM589728:LMN589826 LWI589728:LWJ589826 MGE589728:MGF589826 MQA589728:MQB589826 MZW589728:MZX589826 NJS589728:NJT589826 NTO589728:NTP589826 ODK589728:ODL589826 ONG589728:ONH589826 OXC589728:OXD589826 PGY589728:PGZ589826 PQU589728:PQV589826 QAQ589728:QAR589826 QKM589728:QKN589826 QUI589728:QUJ589826 REE589728:REF589826 ROA589728:ROB589826 RXW589728:RXX589826 SHS589728:SHT589826 SRO589728:SRP589826 TBK589728:TBL589826 TLG589728:TLH589826 TVC589728:TVD589826 UEY589728:UEZ589826 UOU589728:UOV589826 UYQ589728:UYR589826 VIM589728:VIN589826 VSI589728:VSJ589826 WCE589728:WCF589826 WMA589728:WMB589826 WVW589728:WVX589826 O655264:P655362 JK655264:JL655362 TG655264:TH655362 ADC655264:ADD655362 AMY655264:AMZ655362 AWU655264:AWV655362 BGQ655264:BGR655362 BQM655264:BQN655362 CAI655264:CAJ655362 CKE655264:CKF655362 CUA655264:CUB655362 DDW655264:DDX655362 DNS655264:DNT655362 DXO655264:DXP655362 EHK655264:EHL655362 ERG655264:ERH655362 FBC655264:FBD655362 FKY655264:FKZ655362 FUU655264:FUV655362 GEQ655264:GER655362 GOM655264:GON655362 GYI655264:GYJ655362 HIE655264:HIF655362 HSA655264:HSB655362 IBW655264:IBX655362 ILS655264:ILT655362 IVO655264:IVP655362 JFK655264:JFL655362 JPG655264:JPH655362 JZC655264:JZD655362 KIY655264:KIZ655362 KSU655264:KSV655362 LCQ655264:LCR655362 LMM655264:LMN655362 LWI655264:LWJ655362 MGE655264:MGF655362 MQA655264:MQB655362 MZW655264:MZX655362 NJS655264:NJT655362 NTO655264:NTP655362 ODK655264:ODL655362 ONG655264:ONH655362 OXC655264:OXD655362 PGY655264:PGZ655362 PQU655264:PQV655362 QAQ655264:QAR655362 QKM655264:QKN655362 QUI655264:QUJ655362 REE655264:REF655362 ROA655264:ROB655362 RXW655264:RXX655362 SHS655264:SHT655362 SRO655264:SRP655362 TBK655264:TBL655362 TLG655264:TLH655362 TVC655264:TVD655362 UEY655264:UEZ655362 UOU655264:UOV655362 UYQ655264:UYR655362 VIM655264:VIN655362 VSI655264:VSJ655362 WCE655264:WCF655362 WMA655264:WMB655362 WVW655264:WVX655362 O720800:P720898 JK720800:JL720898 TG720800:TH720898 ADC720800:ADD720898 AMY720800:AMZ720898 AWU720800:AWV720898 BGQ720800:BGR720898 BQM720800:BQN720898 CAI720800:CAJ720898 CKE720800:CKF720898 CUA720800:CUB720898 DDW720800:DDX720898 DNS720800:DNT720898 DXO720800:DXP720898 EHK720800:EHL720898 ERG720800:ERH720898 FBC720800:FBD720898 FKY720800:FKZ720898 FUU720800:FUV720898 GEQ720800:GER720898 GOM720800:GON720898 GYI720800:GYJ720898 HIE720800:HIF720898 HSA720800:HSB720898 IBW720800:IBX720898 ILS720800:ILT720898 IVO720800:IVP720898 JFK720800:JFL720898 JPG720800:JPH720898 JZC720800:JZD720898 KIY720800:KIZ720898 KSU720800:KSV720898 LCQ720800:LCR720898 LMM720800:LMN720898 LWI720800:LWJ720898 MGE720800:MGF720898 MQA720800:MQB720898 MZW720800:MZX720898 NJS720800:NJT720898 NTO720800:NTP720898 ODK720800:ODL720898 ONG720800:ONH720898 OXC720800:OXD720898 PGY720800:PGZ720898 PQU720800:PQV720898 QAQ720800:QAR720898 QKM720800:QKN720898 QUI720800:QUJ720898 REE720800:REF720898 ROA720800:ROB720898 RXW720800:RXX720898 SHS720800:SHT720898 SRO720800:SRP720898 TBK720800:TBL720898 TLG720800:TLH720898 TVC720800:TVD720898 UEY720800:UEZ720898 UOU720800:UOV720898 UYQ720800:UYR720898 VIM720800:VIN720898 VSI720800:VSJ720898 WCE720800:WCF720898 WMA720800:WMB720898 WVW720800:WVX720898 O786336:P786434 JK786336:JL786434 TG786336:TH786434 ADC786336:ADD786434 AMY786336:AMZ786434 AWU786336:AWV786434 BGQ786336:BGR786434 BQM786336:BQN786434 CAI786336:CAJ786434 CKE786336:CKF786434 CUA786336:CUB786434 DDW786336:DDX786434 DNS786336:DNT786434 DXO786336:DXP786434 EHK786336:EHL786434 ERG786336:ERH786434 FBC786336:FBD786434 FKY786336:FKZ786434 FUU786336:FUV786434 GEQ786336:GER786434 GOM786336:GON786434 GYI786336:GYJ786434 HIE786336:HIF786434 HSA786336:HSB786434 IBW786336:IBX786434 ILS786336:ILT786434 IVO786336:IVP786434 JFK786336:JFL786434 JPG786336:JPH786434 JZC786336:JZD786434 KIY786336:KIZ786434 KSU786336:KSV786434 LCQ786336:LCR786434 LMM786336:LMN786434 LWI786336:LWJ786434 MGE786336:MGF786434 MQA786336:MQB786434 MZW786336:MZX786434 NJS786336:NJT786434 NTO786336:NTP786434 ODK786336:ODL786434 ONG786336:ONH786434 OXC786336:OXD786434 PGY786336:PGZ786434 PQU786336:PQV786434 QAQ786336:QAR786434 QKM786336:QKN786434 QUI786336:QUJ786434 REE786336:REF786434 ROA786336:ROB786434 RXW786336:RXX786434 SHS786336:SHT786434 SRO786336:SRP786434 TBK786336:TBL786434 TLG786336:TLH786434 TVC786336:TVD786434 UEY786336:UEZ786434 UOU786336:UOV786434 UYQ786336:UYR786434 VIM786336:VIN786434 VSI786336:VSJ786434 WCE786336:WCF786434 WMA786336:WMB786434 WVW786336:WVX786434 O851872:P851970 JK851872:JL851970 TG851872:TH851970 ADC851872:ADD851970 AMY851872:AMZ851970 AWU851872:AWV851970 BGQ851872:BGR851970 BQM851872:BQN851970 CAI851872:CAJ851970 CKE851872:CKF851970 CUA851872:CUB851970 DDW851872:DDX851970 DNS851872:DNT851970 DXO851872:DXP851970 EHK851872:EHL851970 ERG851872:ERH851970 FBC851872:FBD851970 FKY851872:FKZ851970 FUU851872:FUV851970 GEQ851872:GER851970 GOM851872:GON851970 GYI851872:GYJ851970 HIE851872:HIF851970 HSA851872:HSB851970 IBW851872:IBX851970 ILS851872:ILT851970 IVO851872:IVP851970 JFK851872:JFL851970 JPG851872:JPH851970 JZC851872:JZD851970 KIY851872:KIZ851970 KSU851872:KSV851970 LCQ851872:LCR851970 LMM851872:LMN851970 LWI851872:LWJ851970 MGE851872:MGF851970 MQA851872:MQB851970 MZW851872:MZX851970 NJS851872:NJT851970 NTO851872:NTP851970 ODK851872:ODL851970 ONG851872:ONH851970 OXC851872:OXD851970 PGY851872:PGZ851970 PQU851872:PQV851970 QAQ851872:QAR851970 QKM851872:QKN851970 QUI851872:QUJ851970 REE851872:REF851970 ROA851872:ROB851970 RXW851872:RXX851970 SHS851872:SHT851970 SRO851872:SRP851970 TBK851872:TBL851970 TLG851872:TLH851970 TVC851872:TVD851970 UEY851872:UEZ851970 UOU851872:UOV851970 UYQ851872:UYR851970 VIM851872:VIN851970 VSI851872:VSJ851970 WCE851872:WCF851970 WMA851872:WMB851970 WVW851872:WVX851970 O917408:P917506 JK917408:JL917506 TG917408:TH917506 ADC917408:ADD917506 AMY917408:AMZ917506 AWU917408:AWV917506 BGQ917408:BGR917506 BQM917408:BQN917506 CAI917408:CAJ917506 CKE917408:CKF917506 CUA917408:CUB917506 DDW917408:DDX917506 DNS917408:DNT917506 DXO917408:DXP917506 EHK917408:EHL917506 ERG917408:ERH917506 FBC917408:FBD917506 FKY917408:FKZ917506 FUU917408:FUV917506 GEQ917408:GER917506 GOM917408:GON917506 GYI917408:GYJ917506 HIE917408:HIF917506 HSA917408:HSB917506 IBW917408:IBX917506 ILS917408:ILT917506 IVO917408:IVP917506 JFK917408:JFL917506 JPG917408:JPH917506 JZC917408:JZD917506 KIY917408:KIZ917506 KSU917408:KSV917506 LCQ917408:LCR917506 LMM917408:LMN917506 LWI917408:LWJ917506 MGE917408:MGF917506 MQA917408:MQB917506 MZW917408:MZX917506 NJS917408:NJT917506 NTO917408:NTP917506 ODK917408:ODL917506 ONG917408:ONH917506 OXC917408:OXD917506 PGY917408:PGZ917506 PQU917408:PQV917506 QAQ917408:QAR917506 QKM917408:QKN917506 QUI917408:QUJ917506 REE917408:REF917506 ROA917408:ROB917506 RXW917408:RXX917506 SHS917408:SHT917506 SRO917408:SRP917506 TBK917408:TBL917506 TLG917408:TLH917506 TVC917408:TVD917506 UEY917408:UEZ917506 UOU917408:UOV917506 UYQ917408:UYR917506 VIM917408:VIN917506 VSI917408:VSJ917506 WCE917408:WCF917506 WMA917408:WMB917506 WVW917408:WVX917506 O982944:P983042 JK982944:JL983042 TG982944:TH983042 ADC982944:ADD983042 AMY982944:AMZ983042 AWU982944:AWV983042 BGQ982944:BGR983042 BQM982944:BQN983042 CAI982944:CAJ983042 CKE982944:CKF983042 CUA982944:CUB983042 DDW982944:DDX983042 DNS982944:DNT983042 DXO982944:DXP983042 EHK982944:EHL983042 ERG982944:ERH983042 FBC982944:FBD983042 FKY982944:FKZ983042 FUU982944:FUV983042 GEQ982944:GER983042 GOM982944:GON983042 GYI982944:GYJ983042 HIE982944:HIF983042 HSA982944:HSB983042 IBW982944:IBX983042 ILS982944:ILT983042 IVO982944:IVP983042 JFK982944:JFL983042 JPG982944:JPH983042 JZC982944:JZD983042 KIY982944:KIZ983042 KSU982944:KSV983042 LCQ982944:LCR983042 LMM982944:LMN983042 LWI982944:LWJ983042 MGE982944:MGF983042 MQA982944:MQB983042 MZW982944:MZX983042 NJS982944:NJT983042 NTO982944:NTP983042 ODK982944:ODL983042 ONG982944:ONH983042 OXC982944:OXD983042 PGY982944:PGZ983042 PQU982944:PQV983042 QAQ982944:QAR983042 QKM982944:QKN983042 QUI982944:QUJ983042 REE982944:REF983042 ROA982944:ROB983042 RXW982944:RXX983042 SHS982944:SHT983042 SRO982944:SRP983042 TBK982944:TBL983042 TLG982944:TLH983042 TVC982944:TVD983042 UEY982944:UEZ983042 UOU982944:UOV983042 UYQ982944:UYR983042 VIM982944:VIN983042 VSI982944:VSJ983042 WCE982944:WCF983042 WMA982944:WMB983042 WVW982944:WVX983042" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 JE2 TA2 ACW2 AMS2 AWO2 BGK2 BQG2 CAC2 CJY2 CTU2 DDQ2 DNM2 DXI2 EHE2 ERA2 FAW2 FKS2 FUO2 GEK2 GOG2 GYC2 HHY2 HRU2 IBQ2 ILM2 IVI2 JFE2 JPA2 JYW2 KIS2 KSO2 LCK2 LMG2 LWC2 MFY2 MPU2 MZQ2 NJM2 NTI2 ODE2 ONA2 OWW2 PGS2 PQO2 QAK2 QKG2 QUC2 RDY2 RNU2 RXQ2 SHM2 SRI2 TBE2 TLA2 TUW2 UES2 UOO2 UYK2 VIG2 VSC2 WBY2 WLU2 WVQ2 I65440:I65538 JE65440:JE65538 TA65440:TA65538 ACW65440:ACW65538 AMS65440:AMS65538 AWO65440:AWO65538 BGK65440:BGK65538 BQG65440:BQG65538 CAC65440:CAC65538 CJY65440:CJY65538 CTU65440:CTU65538 DDQ65440:DDQ65538 DNM65440:DNM65538 DXI65440:DXI65538 EHE65440:EHE65538 ERA65440:ERA65538 FAW65440:FAW65538 FKS65440:FKS65538 FUO65440:FUO65538 GEK65440:GEK65538 GOG65440:GOG65538 GYC65440:GYC65538 HHY65440:HHY65538 HRU65440:HRU65538 IBQ65440:IBQ65538 ILM65440:ILM65538 IVI65440:IVI65538 JFE65440:JFE65538 JPA65440:JPA65538 JYW65440:JYW65538 KIS65440:KIS65538 KSO65440:KSO65538 LCK65440:LCK65538 LMG65440:LMG65538 LWC65440:LWC65538 MFY65440:MFY65538 MPU65440:MPU65538 MZQ65440:MZQ65538 NJM65440:NJM65538 NTI65440:NTI65538 ODE65440:ODE65538 ONA65440:ONA65538 OWW65440:OWW65538 PGS65440:PGS65538 PQO65440:PQO65538 QAK65440:QAK65538 QKG65440:QKG65538 QUC65440:QUC65538 RDY65440:RDY65538 RNU65440:RNU65538 RXQ65440:RXQ65538 SHM65440:SHM65538 SRI65440:SRI65538 TBE65440:TBE65538 TLA65440:TLA65538 TUW65440:TUW65538 UES65440:UES65538 UOO65440:UOO65538 UYK65440:UYK65538 VIG65440:VIG65538 VSC65440:VSC65538 WBY65440:WBY65538 WLU65440:WLU65538 WVQ65440:WVQ65538 I130976:I131074 JE130976:JE131074 TA130976:TA131074 ACW130976:ACW131074 AMS130976:AMS131074 AWO130976:AWO131074 BGK130976:BGK131074 BQG130976:BQG131074 CAC130976:CAC131074 CJY130976:CJY131074 CTU130976:CTU131074 DDQ130976:DDQ131074 DNM130976:DNM131074 DXI130976:DXI131074 EHE130976:EHE131074 ERA130976:ERA131074 FAW130976:FAW131074 FKS130976:FKS131074 FUO130976:FUO131074 GEK130976:GEK131074 GOG130976:GOG131074 GYC130976:GYC131074 HHY130976:HHY131074 HRU130976:HRU131074 IBQ130976:IBQ131074 ILM130976:ILM131074 IVI130976:IVI131074 JFE130976:JFE131074 JPA130976:JPA131074 JYW130976:JYW131074 KIS130976:KIS131074 KSO130976:KSO131074 LCK130976:LCK131074 LMG130976:LMG131074 LWC130976:LWC131074 MFY130976:MFY131074 MPU130976:MPU131074 MZQ130976:MZQ131074 NJM130976:NJM131074 NTI130976:NTI131074 ODE130976:ODE131074 ONA130976:ONA131074 OWW130976:OWW131074 PGS130976:PGS131074 PQO130976:PQO131074 QAK130976:QAK131074 QKG130976:QKG131074 QUC130976:QUC131074 RDY130976:RDY131074 RNU130976:RNU131074 RXQ130976:RXQ131074 SHM130976:SHM131074 SRI130976:SRI131074 TBE130976:TBE131074 TLA130976:TLA131074 TUW130976:TUW131074 UES130976:UES131074 UOO130976:UOO131074 UYK130976:UYK131074 VIG130976:VIG131074 VSC130976:VSC131074 WBY130976:WBY131074 WLU130976:WLU131074 WVQ130976:WVQ131074 I196512:I196610 JE196512:JE196610 TA196512:TA196610 ACW196512:ACW196610 AMS196512:AMS196610 AWO196512:AWO196610 BGK196512:BGK196610 BQG196512:BQG196610 CAC196512:CAC196610 CJY196512:CJY196610 CTU196512:CTU196610 DDQ196512:DDQ196610 DNM196512:DNM196610 DXI196512:DXI196610 EHE196512:EHE196610 ERA196512:ERA196610 FAW196512:FAW196610 FKS196512:FKS196610 FUO196512:FUO196610 GEK196512:GEK196610 GOG196512:GOG196610 GYC196512:GYC196610 HHY196512:HHY196610 HRU196512:HRU196610 IBQ196512:IBQ196610 ILM196512:ILM196610 IVI196512:IVI196610 JFE196512:JFE196610 JPA196512:JPA196610 JYW196512:JYW196610 KIS196512:KIS196610 KSO196512:KSO196610 LCK196512:LCK196610 LMG196512:LMG196610 LWC196512:LWC196610 MFY196512:MFY196610 MPU196512:MPU196610 MZQ196512:MZQ196610 NJM196512:NJM196610 NTI196512:NTI196610 ODE196512:ODE196610 ONA196512:ONA196610 OWW196512:OWW196610 PGS196512:PGS196610 PQO196512:PQO196610 QAK196512:QAK196610 QKG196512:QKG196610 QUC196512:QUC196610 RDY196512:RDY196610 RNU196512:RNU196610 RXQ196512:RXQ196610 SHM196512:SHM196610 SRI196512:SRI196610 TBE196512:TBE196610 TLA196512:TLA196610 TUW196512:TUW196610 UES196512:UES196610 UOO196512:UOO196610 UYK196512:UYK196610 VIG196512:VIG196610 VSC196512:VSC196610 WBY196512:WBY196610 WLU196512:WLU196610 WVQ196512:WVQ196610 I262048:I262146 JE262048:JE262146 TA262048:TA262146 ACW262048:ACW262146 AMS262048:AMS262146 AWO262048:AWO262146 BGK262048:BGK262146 BQG262048:BQG262146 CAC262048:CAC262146 CJY262048:CJY262146 CTU262048:CTU262146 DDQ262048:DDQ262146 DNM262048:DNM262146 DXI262048:DXI262146 EHE262048:EHE262146 ERA262048:ERA262146 FAW262048:FAW262146 FKS262048:FKS262146 FUO262048:FUO262146 GEK262048:GEK262146 GOG262048:GOG262146 GYC262048:GYC262146 HHY262048:HHY262146 HRU262048:HRU262146 IBQ262048:IBQ262146 ILM262048:ILM262146 IVI262048:IVI262146 JFE262048:JFE262146 JPA262048:JPA262146 JYW262048:JYW262146 KIS262048:KIS262146 KSO262048:KSO262146 LCK262048:LCK262146 LMG262048:LMG262146 LWC262048:LWC262146 MFY262048:MFY262146 MPU262048:MPU262146 MZQ262048:MZQ262146 NJM262048:NJM262146 NTI262048:NTI262146 ODE262048:ODE262146 ONA262048:ONA262146 OWW262048:OWW262146 PGS262048:PGS262146 PQO262048:PQO262146 QAK262048:QAK262146 QKG262048:QKG262146 QUC262048:QUC262146 RDY262048:RDY262146 RNU262048:RNU262146 RXQ262048:RXQ262146 SHM262048:SHM262146 SRI262048:SRI262146 TBE262048:TBE262146 TLA262048:TLA262146 TUW262048:TUW262146 UES262048:UES262146 UOO262048:UOO262146 UYK262048:UYK262146 VIG262048:VIG262146 VSC262048:VSC262146 WBY262048:WBY262146 WLU262048:WLU262146 WVQ262048:WVQ262146 I327584:I327682 JE327584:JE327682 TA327584:TA327682 ACW327584:ACW327682 AMS327584:AMS327682 AWO327584:AWO327682 BGK327584:BGK327682 BQG327584:BQG327682 CAC327584:CAC327682 CJY327584:CJY327682 CTU327584:CTU327682 DDQ327584:DDQ327682 DNM327584:DNM327682 DXI327584:DXI327682 EHE327584:EHE327682 ERA327584:ERA327682 FAW327584:FAW327682 FKS327584:FKS327682 FUO327584:FUO327682 GEK327584:GEK327682 GOG327584:GOG327682 GYC327584:GYC327682 HHY327584:HHY327682 HRU327584:HRU327682 IBQ327584:IBQ327682 ILM327584:ILM327682 IVI327584:IVI327682 JFE327584:JFE327682 JPA327584:JPA327682 JYW327584:JYW327682 KIS327584:KIS327682 KSO327584:KSO327682 LCK327584:LCK327682 LMG327584:LMG327682 LWC327584:LWC327682 MFY327584:MFY327682 MPU327584:MPU327682 MZQ327584:MZQ327682 NJM327584:NJM327682 NTI327584:NTI327682 ODE327584:ODE327682 ONA327584:ONA327682 OWW327584:OWW327682 PGS327584:PGS327682 PQO327584:PQO327682 QAK327584:QAK327682 QKG327584:QKG327682 QUC327584:QUC327682 RDY327584:RDY327682 RNU327584:RNU327682 RXQ327584:RXQ327682 SHM327584:SHM327682 SRI327584:SRI327682 TBE327584:TBE327682 TLA327584:TLA327682 TUW327584:TUW327682 UES327584:UES327682 UOO327584:UOO327682 UYK327584:UYK327682 VIG327584:VIG327682 VSC327584:VSC327682 WBY327584:WBY327682 WLU327584:WLU327682 WVQ327584:WVQ327682 I393120:I393218 JE393120:JE393218 TA393120:TA393218 ACW393120:ACW393218 AMS393120:AMS393218 AWO393120:AWO393218 BGK393120:BGK393218 BQG393120:BQG393218 CAC393120:CAC393218 CJY393120:CJY393218 CTU393120:CTU393218 DDQ393120:DDQ393218 DNM393120:DNM393218 DXI393120:DXI393218 EHE393120:EHE393218 ERA393120:ERA393218 FAW393120:FAW393218 FKS393120:FKS393218 FUO393120:FUO393218 GEK393120:GEK393218 GOG393120:GOG393218 GYC393120:GYC393218 HHY393120:HHY393218 HRU393120:HRU393218 IBQ393120:IBQ393218 ILM393120:ILM393218 IVI393120:IVI393218 JFE393120:JFE393218 JPA393120:JPA393218 JYW393120:JYW393218 KIS393120:KIS393218 KSO393120:KSO393218 LCK393120:LCK393218 LMG393120:LMG393218 LWC393120:LWC393218 MFY393120:MFY393218 MPU393120:MPU393218 MZQ393120:MZQ393218 NJM393120:NJM393218 NTI393120:NTI393218 ODE393120:ODE393218 ONA393120:ONA393218 OWW393120:OWW393218 PGS393120:PGS393218 PQO393120:PQO393218 QAK393120:QAK393218 QKG393120:QKG393218 QUC393120:QUC393218 RDY393120:RDY393218 RNU393120:RNU393218 RXQ393120:RXQ393218 SHM393120:SHM393218 SRI393120:SRI393218 TBE393120:TBE393218 TLA393120:TLA393218 TUW393120:TUW393218 UES393120:UES393218 UOO393120:UOO393218 UYK393120:UYK393218 VIG393120:VIG393218 VSC393120:VSC393218 WBY393120:WBY393218 WLU393120:WLU393218 WVQ393120:WVQ393218 I458656:I458754 JE458656:JE458754 TA458656:TA458754 ACW458656:ACW458754 AMS458656:AMS458754 AWO458656:AWO458754 BGK458656:BGK458754 BQG458656:BQG458754 CAC458656:CAC458754 CJY458656:CJY458754 CTU458656:CTU458754 DDQ458656:DDQ458754 DNM458656:DNM458754 DXI458656:DXI458754 EHE458656:EHE458754 ERA458656:ERA458754 FAW458656:FAW458754 FKS458656:FKS458754 FUO458656:FUO458754 GEK458656:GEK458754 GOG458656:GOG458754 GYC458656:GYC458754 HHY458656:HHY458754 HRU458656:HRU458754 IBQ458656:IBQ458754 ILM458656:ILM458754 IVI458656:IVI458754 JFE458656:JFE458754 JPA458656:JPA458754 JYW458656:JYW458754 KIS458656:KIS458754 KSO458656:KSO458754 LCK458656:LCK458754 LMG458656:LMG458754 LWC458656:LWC458754 MFY458656:MFY458754 MPU458656:MPU458754 MZQ458656:MZQ458754 NJM458656:NJM458754 NTI458656:NTI458754 ODE458656:ODE458754 ONA458656:ONA458754 OWW458656:OWW458754 PGS458656:PGS458754 PQO458656:PQO458754 QAK458656:QAK458754 QKG458656:QKG458754 QUC458656:QUC458754 RDY458656:RDY458754 RNU458656:RNU458754 RXQ458656:RXQ458754 SHM458656:SHM458754 SRI458656:SRI458754 TBE458656:TBE458754 TLA458656:TLA458754 TUW458656:TUW458754 UES458656:UES458754 UOO458656:UOO458754 UYK458656:UYK458754 VIG458656:VIG458754 VSC458656:VSC458754 WBY458656:WBY458754 WLU458656:WLU458754 WVQ458656:WVQ458754 I524192:I524290 JE524192:JE524290 TA524192:TA524290 ACW524192:ACW524290 AMS524192:AMS524290 AWO524192:AWO524290 BGK524192:BGK524290 BQG524192:BQG524290 CAC524192:CAC524290 CJY524192:CJY524290 CTU524192:CTU524290 DDQ524192:DDQ524290 DNM524192:DNM524290 DXI524192:DXI524290 EHE524192:EHE524290 ERA524192:ERA524290 FAW524192:FAW524290 FKS524192:FKS524290 FUO524192:FUO524290 GEK524192:GEK524290 GOG524192:GOG524290 GYC524192:GYC524290 HHY524192:HHY524290 HRU524192:HRU524290 IBQ524192:IBQ524290 ILM524192:ILM524290 IVI524192:IVI524290 JFE524192:JFE524290 JPA524192:JPA524290 JYW524192:JYW524290 KIS524192:KIS524290 KSO524192:KSO524290 LCK524192:LCK524290 LMG524192:LMG524290 LWC524192:LWC524290 MFY524192:MFY524290 MPU524192:MPU524290 MZQ524192:MZQ524290 NJM524192:NJM524290 NTI524192:NTI524290 ODE524192:ODE524290 ONA524192:ONA524290 OWW524192:OWW524290 PGS524192:PGS524290 PQO524192:PQO524290 QAK524192:QAK524290 QKG524192:QKG524290 QUC524192:QUC524290 RDY524192:RDY524290 RNU524192:RNU524290 RXQ524192:RXQ524290 SHM524192:SHM524290 SRI524192:SRI524290 TBE524192:TBE524290 TLA524192:TLA524290 TUW524192:TUW524290 UES524192:UES524290 UOO524192:UOO524290 UYK524192:UYK524290 VIG524192:VIG524290 VSC524192:VSC524290 WBY524192:WBY524290 WLU524192:WLU524290 WVQ524192:WVQ524290 I589728:I589826 JE589728:JE589826 TA589728:TA589826 ACW589728:ACW589826 AMS589728:AMS589826 AWO589728:AWO589826 BGK589728:BGK589826 BQG589728:BQG589826 CAC589728:CAC589826 CJY589728:CJY589826 CTU589728:CTU589826 DDQ589728:DDQ589826 DNM589728:DNM589826 DXI589728:DXI589826 EHE589728:EHE589826 ERA589728:ERA589826 FAW589728:FAW589826 FKS589728:FKS589826 FUO589728:FUO589826 GEK589728:GEK589826 GOG589728:GOG589826 GYC589728:GYC589826 HHY589728:HHY589826 HRU589728:HRU589826 IBQ589728:IBQ589826 ILM589728:ILM589826 IVI589728:IVI589826 JFE589728:JFE589826 JPA589728:JPA589826 JYW589728:JYW589826 KIS589728:KIS589826 KSO589728:KSO589826 LCK589728:LCK589826 LMG589728:LMG589826 LWC589728:LWC589826 MFY589728:MFY589826 MPU589728:MPU589826 MZQ589728:MZQ589826 NJM589728:NJM589826 NTI589728:NTI589826 ODE589728:ODE589826 ONA589728:ONA589826 OWW589728:OWW589826 PGS589728:PGS589826 PQO589728:PQO589826 QAK589728:QAK589826 QKG589728:QKG589826 QUC589728:QUC589826 RDY589728:RDY589826 RNU589728:RNU589826 RXQ589728:RXQ589826 SHM589728:SHM589826 SRI589728:SRI589826 TBE589728:TBE589826 TLA589728:TLA589826 TUW589728:TUW589826 UES589728:UES589826 UOO589728:UOO589826 UYK589728:UYK589826 VIG589728:VIG589826 VSC589728:VSC589826 WBY589728:WBY589826 WLU589728:WLU589826 WVQ589728:WVQ589826 I655264:I655362 JE655264:JE655362 TA655264:TA655362 ACW655264:ACW655362 AMS655264:AMS655362 AWO655264:AWO655362 BGK655264:BGK655362 BQG655264:BQG655362 CAC655264:CAC655362 CJY655264:CJY655362 CTU655264:CTU655362 DDQ655264:DDQ655362 DNM655264:DNM655362 DXI655264:DXI655362 EHE655264:EHE655362 ERA655264:ERA655362 FAW655264:FAW655362 FKS655264:FKS655362 FUO655264:FUO655362 GEK655264:GEK655362 GOG655264:GOG655362 GYC655264:GYC655362 HHY655264:HHY655362 HRU655264:HRU655362 IBQ655264:IBQ655362 ILM655264:ILM655362 IVI655264:IVI655362 JFE655264:JFE655362 JPA655264:JPA655362 JYW655264:JYW655362 KIS655264:KIS655362 KSO655264:KSO655362 LCK655264:LCK655362 LMG655264:LMG655362 LWC655264:LWC655362 MFY655264:MFY655362 MPU655264:MPU655362 MZQ655264:MZQ655362 NJM655264:NJM655362 NTI655264:NTI655362 ODE655264:ODE655362 ONA655264:ONA655362 OWW655264:OWW655362 PGS655264:PGS655362 PQO655264:PQO655362 QAK655264:QAK655362 QKG655264:QKG655362 QUC655264:QUC655362 RDY655264:RDY655362 RNU655264:RNU655362 RXQ655264:RXQ655362 SHM655264:SHM655362 SRI655264:SRI655362 TBE655264:TBE655362 TLA655264:TLA655362 TUW655264:TUW655362 UES655264:UES655362 UOO655264:UOO655362 UYK655264:UYK655362 VIG655264:VIG655362 VSC655264:VSC655362 WBY655264:WBY655362 WLU655264:WLU655362 WVQ655264:WVQ655362 I720800:I720898 JE720800:JE720898 TA720800:TA720898 ACW720800:ACW720898 AMS720800:AMS720898 AWO720800:AWO720898 BGK720800:BGK720898 BQG720800:BQG720898 CAC720800:CAC720898 CJY720800:CJY720898 CTU720800:CTU720898 DDQ720800:DDQ720898 DNM720800:DNM720898 DXI720800:DXI720898 EHE720800:EHE720898 ERA720800:ERA720898 FAW720800:FAW720898 FKS720800:FKS720898 FUO720800:FUO720898 GEK720800:GEK720898 GOG720800:GOG720898 GYC720800:GYC720898 HHY720800:HHY720898 HRU720800:HRU720898 IBQ720800:IBQ720898 ILM720800:ILM720898 IVI720800:IVI720898 JFE720800:JFE720898 JPA720800:JPA720898 JYW720800:JYW720898 KIS720800:KIS720898 KSO720800:KSO720898 LCK720800:LCK720898 LMG720800:LMG720898 LWC720800:LWC720898 MFY720800:MFY720898 MPU720800:MPU720898 MZQ720800:MZQ720898 NJM720800:NJM720898 NTI720800:NTI720898 ODE720800:ODE720898 ONA720800:ONA720898 OWW720800:OWW720898 PGS720800:PGS720898 PQO720800:PQO720898 QAK720800:QAK720898 QKG720800:QKG720898 QUC720800:QUC720898 RDY720800:RDY720898 RNU720800:RNU720898 RXQ720800:RXQ720898 SHM720800:SHM720898 SRI720800:SRI720898 TBE720800:TBE720898 TLA720800:TLA720898 TUW720800:TUW720898 UES720800:UES720898 UOO720800:UOO720898 UYK720800:UYK720898 VIG720800:VIG720898 VSC720800:VSC720898 WBY720800:WBY720898 WLU720800:WLU720898 WVQ720800:WVQ720898 I786336:I786434 JE786336:JE786434 TA786336:TA786434 ACW786336:ACW786434 AMS786336:AMS786434 AWO786336:AWO786434 BGK786336:BGK786434 BQG786336:BQG786434 CAC786336:CAC786434 CJY786336:CJY786434 CTU786336:CTU786434 DDQ786336:DDQ786434 DNM786336:DNM786434 DXI786336:DXI786434 EHE786336:EHE786434 ERA786336:ERA786434 FAW786336:FAW786434 FKS786336:FKS786434 FUO786336:FUO786434 GEK786336:GEK786434 GOG786336:GOG786434 GYC786336:GYC786434 HHY786336:HHY786434 HRU786336:HRU786434 IBQ786336:IBQ786434 ILM786336:ILM786434 IVI786336:IVI786434 JFE786336:JFE786434 JPA786336:JPA786434 JYW786336:JYW786434 KIS786336:KIS786434 KSO786336:KSO786434 LCK786336:LCK786434 LMG786336:LMG786434 LWC786336:LWC786434 MFY786336:MFY786434 MPU786336:MPU786434 MZQ786336:MZQ786434 NJM786336:NJM786434 NTI786336:NTI786434 ODE786336:ODE786434 ONA786336:ONA786434 OWW786336:OWW786434 PGS786336:PGS786434 PQO786336:PQO786434 QAK786336:QAK786434 QKG786336:QKG786434 QUC786336:QUC786434 RDY786336:RDY786434 RNU786336:RNU786434 RXQ786336:RXQ786434 SHM786336:SHM786434 SRI786336:SRI786434 TBE786336:TBE786434 TLA786336:TLA786434 TUW786336:TUW786434 UES786336:UES786434 UOO786336:UOO786434 UYK786336:UYK786434 VIG786336:VIG786434 VSC786336:VSC786434 WBY786336:WBY786434 WLU786336:WLU786434 WVQ786336:WVQ786434 I851872:I851970 JE851872:JE851970 TA851872:TA851970 ACW851872:ACW851970 AMS851872:AMS851970 AWO851872:AWO851970 BGK851872:BGK851970 BQG851872:BQG851970 CAC851872:CAC851970 CJY851872:CJY851970 CTU851872:CTU851970 DDQ851872:DDQ851970 DNM851872:DNM851970 DXI851872:DXI851970 EHE851872:EHE851970 ERA851872:ERA851970 FAW851872:FAW851970 FKS851872:FKS851970 FUO851872:FUO851970 GEK851872:GEK851970 GOG851872:GOG851970 GYC851872:GYC851970 HHY851872:HHY851970 HRU851872:HRU851970 IBQ851872:IBQ851970 ILM851872:ILM851970 IVI851872:IVI851970 JFE851872:JFE851970 JPA851872:JPA851970 JYW851872:JYW851970 KIS851872:KIS851970 KSO851872:KSO851970 LCK851872:LCK851970 LMG851872:LMG851970 LWC851872:LWC851970 MFY851872:MFY851970 MPU851872:MPU851970 MZQ851872:MZQ851970 NJM851872:NJM851970 NTI851872:NTI851970 ODE851872:ODE851970 ONA851872:ONA851970 OWW851872:OWW851970 PGS851872:PGS851970 PQO851872:PQO851970 QAK851872:QAK851970 QKG851872:QKG851970 QUC851872:QUC851970 RDY851872:RDY851970 RNU851872:RNU851970 RXQ851872:RXQ851970 SHM851872:SHM851970 SRI851872:SRI851970 TBE851872:TBE851970 TLA851872:TLA851970 TUW851872:TUW851970 UES851872:UES851970 UOO851872:UOO851970 UYK851872:UYK851970 VIG851872:VIG851970 VSC851872:VSC851970 WBY851872:WBY851970 WLU851872:WLU851970 WVQ851872:WVQ851970 I917408:I917506 JE917408:JE917506 TA917408:TA917506 ACW917408:ACW917506 AMS917408:AMS917506 AWO917408:AWO917506 BGK917408:BGK917506 BQG917408:BQG917506 CAC917408:CAC917506 CJY917408:CJY917506 CTU917408:CTU917506 DDQ917408:DDQ917506 DNM917408:DNM917506 DXI917408:DXI917506 EHE917408:EHE917506 ERA917408:ERA917506 FAW917408:FAW917506 FKS917408:FKS917506 FUO917408:FUO917506 GEK917408:GEK917506 GOG917408:GOG917506 GYC917408:GYC917506 HHY917408:HHY917506 HRU917408:HRU917506 IBQ917408:IBQ917506 ILM917408:ILM917506 IVI917408:IVI917506 JFE917408:JFE917506 JPA917408:JPA917506 JYW917408:JYW917506 KIS917408:KIS917506 KSO917408:KSO917506 LCK917408:LCK917506 LMG917408:LMG917506 LWC917408:LWC917506 MFY917408:MFY917506 MPU917408:MPU917506 MZQ917408:MZQ917506 NJM917408:NJM917506 NTI917408:NTI917506 ODE917408:ODE917506 ONA917408:ONA917506 OWW917408:OWW917506 PGS917408:PGS917506 PQO917408:PQO917506 QAK917408:QAK917506 QKG917408:QKG917506 QUC917408:QUC917506 RDY917408:RDY917506 RNU917408:RNU917506 RXQ917408:RXQ917506 SHM917408:SHM917506 SRI917408:SRI917506 TBE917408:TBE917506 TLA917408:TLA917506 TUW917408:TUW917506 UES917408:UES917506 UOO917408:UOO917506 UYK917408:UYK917506 VIG917408:VIG917506 VSC917408:VSC917506 WBY917408:WBY917506 WLU917408:WLU917506 WVQ917408:WVQ917506 I982944:I983042 JE982944:JE983042 TA982944:TA983042 ACW982944:ACW983042 AMS982944:AMS983042 AWO982944:AWO983042 BGK982944:BGK983042 BQG982944:BQG983042 CAC982944:CAC983042 CJY982944:CJY983042 CTU982944:CTU983042 DDQ982944:DDQ983042 DNM982944:DNM983042 DXI982944:DXI983042 EHE982944:EHE983042 ERA982944:ERA983042 FAW982944:FAW983042 FKS982944:FKS983042 FUO982944:FUO983042 GEK982944:GEK983042 GOG982944:GOG983042 GYC982944:GYC983042 HHY982944:HHY983042 HRU982944:HRU983042 IBQ982944:IBQ983042 ILM982944:ILM983042 IVI982944:IVI983042 JFE982944:JFE983042 JPA982944:JPA983042 JYW982944:JYW983042 KIS982944:KIS983042 KSO982944:KSO983042 LCK982944:LCK983042 LMG982944:LMG983042 LWC982944:LWC983042 MFY982944:MFY983042 MPU982944:MPU983042 MZQ982944:MZQ983042 NJM982944:NJM983042 NTI982944:NTI983042 ODE982944:ODE983042 ONA982944:ONA983042 OWW982944:OWW983042 PGS982944:PGS983042 PQO982944:PQO983042 QAK982944:QAK983042 QKG982944:QKG983042 QUC982944:QUC983042 RDY982944:RDY983042 RNU982944:RNU983042 RXQ982944:RXQ983042 SHM982944:SHM983042 SRI982944:SRI983042 TBE982944:TBE983042 TLA982944:TLA983042 TUW982944:TUW983042 UES982944:UES983042 UOO982944:UOO983042 UYK982944:UYK983042 VIG982944:VIG983042 VSC982944:VSC983042 WBY982944:WBY983042 WLU982944:WLU983042 WVQ982944:WVQ983042 P2:Q2 JL2:JM2 TH2:TI2 ADD2:ADE2 AMZ2:ANA2 AWV2:AWW2 BGR2:BGS2 BQN2:BQO2 CAJ2:CAK2 CKF2:CKG2 CUB2:CUC2 DDX2:DDY2 DNT2:DNU2 DXP2:DXQ2 EHL2:EHM2 ERH2:ERI2 FBD2:FBE2 FKZ2:FLA2 FUV2:FUW2 GER2:GES2 GON2:GOO2 GYJ2:GYK2 HIF2:HIG2 HSB2:HSC2 IBX2:IBY2 ILT2:ILU2 IVP2:IVQ2 JFL2:JFM2 JPH2:JPI2 JZD2:JZE2 KIZ2:KJA2 KSV2:KSW2 LCR2:LCS2 LMN2:LMO2 LWJ2:LWK2 MGF2:MGG2 MQB2:MQC2 MZX2:MZY2 NJT2:NJU2 NTP2:NTQ2 ODL2:ODM2 ONH2:ONI2 OXD2:OXE2 PGZ2:PHA2 PQV2:PQW2 QAR2:QAS2 QKN2:QKO2 QUJ2:QUK2 REF2:REG2 ROB2:ROC2 RXX2:RXY2 SHT2:SHU2 SRP2:SRQ2 TBL2:TBM2 TLH2:TLI2 TVD2:TVE2 UEZ2:UFA2 UOV2:UOW2 UYR2:UYS2 VIN2:VIO2 VSJ2:VSK2 WCF2:WCG2 WMB2:WMC2 WVX2:WVY2 P65440:Q65538 JL65440:JM65538 TH65440:TI65538 ADD65440:ADE65538 AMZ65440:ANA65538 AWV65440:AWW65538 BGR65440:BGS65538 BQN65440:BQO65538 CAJ65440:CAK65538 CKF65440:CKG65538 CUB65440:CUC65538 DDX65440:DDY65538 DNT65440:DNU65538 DXP65440:DXQ65538 EHL65440:EHM65538 ERH65440:ERI65538 FBD65440:FBE65538 FKZ65440:FLA65538 FUV65440:FUW65538 GER65440:GES65538 GON65440:GOO65538 GYJ65440:GYK65538 HIF65440:HIG65538 HSB65440:HSC65538 IBX65440:IBY65538 ILT65440:ILU65538 IVP65440:IVQ65538 JFL65440:JFM65538 JPH65440:JPI65538 JZD65440:JZE65538 KIZ65440:KJA65538 KSV65440:KSW65538 LCR65440:LCS65538 LMN65440:LMO65538 LWJ65440:LWK65538 MGF65440:MGG65538 MQB65440:MQC65538 MZX65440:MZY65538 NJT65440:NJU65538 NTP65440:NTQ65538 ODL65440:ODM65538 ONH65440:ONI65538 OXD65440:OXE65538 PGZ65440:PHA65538 PQV65440:PQW65538 QAR65440:QAS65538 QKN65440:QKO65538 QUJ65440:QUK65538 REF65440:REG65538 ROB65440:ROC65538 RXX65440:RXY65538 SHT65440:SHU65538 SRP65440:SRQ65538 TBL65440:TBM65538 TLH65440:TLI65538 TVD65440:TVE65538 UEZ65440:UFA65538 UOV65440:UOW65538 UYR65440:UYS65538 VIN65440:VIO65538 VSJ65440:VSK65538 WCF65440:WCG65538 WMB65440:WMC65538 WVX65440:WVY65538 P130976:Q131074 JL130976:JM131074 TH130976:TI131074 ADD130976:ADE131074 AMZ130976:ANA131074 AWV130976:AWW131074 BGR130976:BGS131074 BQN130976:BQO131074 CAJ130976:CAK131074 CKF130976:CKG131074 CUB130976:CUC131074 DDX130976:DDY131074 DNT130976:DNU131074 DXP130976:DXQ131074 EHL130976:EHM131074 ERH130976:ERI131074 FBD130976:FBE131074 FKZ130976:FLA131074 FUV130976:FUW131074 GER130976:GES131074 GON130976:GOO131074 GYJ130976:GYK131074 HIF130976:HIG131074 HSB130976:HSC131074 IBX130976:IBY131074 ILT130976:ILU131074 IVP130976:IVQ131074 JFL130976:JFM131074 JPH130976:JPI131074 JZD130976:JZE131074 KIZ130976:KJA131074 KSV130976:KSW131074 LCR130976:LCS131074 LMN130976:LMO131074 LWJ130976:LWK131074 MGF130976:MGG131074 MQB130976:MQC131074 MZX130976:MZY131074 NJT130976:NJU131074 NTP130976:NTQ131074 ODL130976:ODM131074 ONH130976:ONI131074 OXD130976:OXE131074 PGZ130976:PHA131074 PQV130976:PQW131074 QAR130976:QAS131074 QKN130976:QKO131074 QUJ130976:QUK131074 REF130976:REG131074 ROB130976:ROC131074 RXX130976:RXY131074 SHT130976:SHU131074 SRP130976:SRQ131074 TBL130976:TBM131074 TLH130976:TLI131074 TVD130976:TVE131074 UEZ130976:UFA131074 UOV130976:UOW131074 UYR130976:UYS131074 VIN130976:VIO131074 VSJ130976:VSK131074 WCF130976:WCG131074 WMB130976:WMC131074 WVX130976:WVY131074 P196512:Q196610 JL196512:JM196610 TH196512:TI196610 ADD196512:ADE196610 AMZ196512:ANA196610 AWV196512:AWW196610 BGR196512:BGS196610 BQN196512:BQO196610 CAJ196512:CAK196610 CKF196512:CKG196610 CUB196512:CUC196610 DDX196512:DDY196610 DNT196512:DNU196610 DXP196512:DXQ196610 EHL196512:EHM196610 ERH196512:ERI196610 FBD196512:FBE196610 FKZ196512:FLA196610 FUV196512:FUW196610 GER196512:GES196610 GON196512:GOO196610 GYJ196512:GYK196610 HIF196512:HIG196610 HSB196512:HSC196610 IBX196512:IBY196610 ILT196512:ILU196610 IVP196512:IVQ196610 JFL196512:JFM196610 JPH196512:JPI196610 JZD196512:JZE196610 KIZ196512:KJA196610 KSV196512:KSW196610 LCR196512:LCS196610 LMN196512:LMO196610 LWJ196512:LWK196610 MGF196512:MGG196610 MQB196512:MQC196610 MZX196512:MZY196610 NJT196512:NJU196610 NTP196512:NTQ196610 ODL196512:ODM196610 ONH196512:ONI196610 OXD196512:OXE196610 PGZ196512:PHA196610 PQV196512:PQW196610 QAR196512:QAS196610 QKN196512:QKO196610 QUJ196512:QUK196610 REF196512:REG196610 ROB196512:ROC196610 RXX196512:RXY196610 SHT196512:SHU196610 SRP196512:SRQ196610 TBL196512:TBM196610 TLH196512:TLI196610 TVD196512:TVE196610 UEZ196512:UFA196610 UOV196512:UOW196610 UYR196512:UYS196610 VIN196512:VIO196610 VSJ196512:VSK196610 WCF196512:WCG196610 WMB196512:WMC196610 WVX196512:WVY196610 P262048:Q262146 JL262048:JM262146 TH262048:TI262146 ADD262048:ADE262146 AMZ262048:ANA262146 AWV262048:AWW262146 BGR262048:BGS262146 BQN262048:BQO262146 CAJ262048:CAK262146 CKF262048:CKG262146 CUB262048:CUC262146 DDX262048:DDY262146 DNT262048:DNU262146 DXP262048:DXQ262146 EHL262048:EHM262146 ERH262048:ERI262146 FBD262048:FBE262146 FKZ262048:FLA262146 FUV262048:FUW262146 GER262048:GES262146 GON262048:GOO262146 GYJ262048:GYK262146 HIF262048:HIG262146 HSB262048:HSC262146 IBX262048:IBY262146 ILT262048:ILU262146 IVP262048:IVQ262146 JFL262048:JFM262146 JPH262048:JPI262146 JZD262048:JZE262146 KIZ262048:KJA262146 KSV262048:KSW262146 LCR262048:LCS262146 LMN262048:LMO262146 LWJ262048:LWK262146 MGF262048:MGG262146 MQB262048:MQC262146 MZX262048:MZY262146 NJT262048:NJU262146 NTP262048:NTQ262146 ODL262048:ODM262146 ONH262048:ONI262146 OXD262048:OXE262146 PGZ262048:PHA262146 PQV262048:PQW262146 QAR262048:QAS262146 QKN262048:QKO262146 QUJ262048:QUK262146 REF262048:REG262146 ROB262048:ROC262146 RXX262048:RXY262146 SHT262048:SHU262146 SRP262048:SRQ262146 TBL262048:TBM262146 TLH262048:TLI262146 TVD262048:TVE262146 UEZ262048:UFA262146 UOV262048:UOW262146 UYR262048:UYS262146 VIN262048:VIO262146 VSJ262048:VSK262146 WCF262048:WCG262146 WMB262048:WMC262146 WVX262048:WVY262146 P327584:Q327682 JL327584:JM327682 TH327584:TI327682 ADD327584:ADE327682 AMZ327584:ANA327682 AWV327584:AWW327682 BGR327584:BGS327682 BQN327584:BQO327682 CAJ327584:CAK327682 CKF327584:CKG327682 CUB327584:CUC327682 DDX327584:DDY327682 DNT327584:DNU327682 DXP327584:DXQ327682 EHL327584:EHM327682 ERH327584:ERI327682 FBD327584:FBE327682 FKZ327584:FLA327682 FUV327584:FUW327682 GER327584:GES327682 GON327584:GOO327682 GYJ327584:GYK327682 HIF327584:HIG327682 HSB327584:HSC327682 IBX327584:IBY327682 ILT327584:ILU327682 IVP327584:IVQ327682 JFL327584:JFM327682 JPH327584:JPI327682 JZD327584:JZE327682 KIZ327584:KJA327682 KSV327584:KSW327682 LCR327584:LCS327682 LMN327584:LMO327682 LWJ327584:LWK327682 MGF327584:MGG327682 MQB327584:MQC327682 MZX327584:MZY327682 NJT327584:NJU327682 NTP327584:NTQ327682 ODL327584:ODM327682 ONH327584:ONI327682 OXD327584:OXE327682 PGZ327584:PHA327682 PQV327584:PQW327682 QAR327584:QAS327682 QKN327584:QKO327682 QUJ327584:QUK327682 REF327584:REG327682 ROB327584:ROC327682 RXX327584:RXY327682 SHT327584:SHU327682 SRP327584:SRQ327682 TBL327584:TBM327682 TLH327584:TLI327682 TVD327584:TVE327682 UEZ327584:UFA327682 UOV327584:UOW327682 UYR327584:UYS327682 VIN327584:VIO327682 VSJ327584:VSK327682 WCF327584:WCG327682 WMB327584:WMC327682 WVX327584:WVY327682 P393120:Q393218 JL393120:JM393218 TH393120:TI393218 ADD393120:ADE393218 AMZ393120:ANA393218 AWV393120:AWW393218 BGR393120:BGS393218 BQN393120:BQO393218 CAJ393120:CAK393218 CKF393120:CKG393218 CUB393120:CUC393218 DDX393120:DDY393218 DNT393120:DNU393218 DXP393120:DXQ393218 EHL393120:EHM393218 ERH393120:ERI393218 FBD393120:FBE393218 FKZ393120:FLA393218 FUV393120:FUW393218 GER393120:GES393218 GON393120:GOO393218 GYJ393120:GYK393218 HIF393120:HIG393218 HSB393120:HSC393218 IBX393120:IBY393218 ILT393120:ILU393218 IVP393120:IVQ393218 JFL393120:JFM393218 JPH393120:JPI393218 JZD393120:JZE393218 KIZ393120:KJA393218 KSV393120:KSW393218 LCR393120:LCS393218 LMN393120:LMO393218 LWJ393120:LWK393218 MGF393120:MGG393218 MQB393120:MQC393218 MZX393120:MZY393218 NJT393120:NJU393218 NTP393120:NTQ393218 ODL393120:ODM393218 ONH393120:ONI393218 OXD393120:OXE393218 PGZ393120:PHA393218 PQV393120:PQW393218 QAR393120:QAS393218 QKN393120:QKO393218 QUJ393120:QUK393218 REF393120:REG393218 ROB393120:ROC393218 RXX393120:RXY393218 SHT393120:SHU393218 SRP393120:SRQ393218 TBL393120:TBM393218 TLH393120:TLI393218 TVD393120:TVE393218 UEZ393120:UFA393218 UOV393120:UOW393218 UYR393120:UYS393218 VIN393120:VIO393218 VSJ393120:VSK393218 WCF393120:WCG393218 WMB393120:WMC393218 WVX393120:WVY393218 P458656:Q458754 JL458656:JM458754 TH458656:TI458754 ADD458656:ADE458754 AMZ458656:ANA458754 AWV458656:AWW458754 BGR458656:BGS458754 BQN458656:BQO458754 CAJ458656:CAK458754 CKF458656:CKG458754 CUB458656:CUC458754 DDX458656:DDY458754 DNT458656:DNU458754 DXP458656:DXQ458754 EHL458656:EHM458754 ERH458656:ERI458754 FBD458656:FBE458754 FKZ458656:FLA458754 FUV458656:FUW458754 GER458656:GES458754 GON458656:GOO458754 GYJ458656:GYK458754 HIF458656:HIG458754 HSB458656:HSC458754 IBX458656:IBY458754 ILT458656:ILU458754 IVP458656:IVQ458754 JFL458656:JFM458754 JPH458656:JPI458754 JZD458656:JZE458754 KIZ458656:KJA458754 KSV458656:KSW458754 LCR458656:LCS458754 LMN458656:LMO458754 LWJ458656:LWK458754 MGF458656:MGG458754 MQB458656:MQC458754 MZX458656:MZY458754 NJT458656:NJU458754 NTP458656:NTQ458754 ODL458656:ODM458754 ONH458656:ONI458754 OXD458656:OXE458754 PGZ458656:PHA458754 PQV458656:PQW458754 QAR458656:QAS458754 QKN458656:QKO458754 QUJ458656:QUK458754 REF458656:REG458754 ROB458656:ROC458754 RXX458656:RXY458754 SHT458656:SHU458754 SRP458656:SRQ458754 TBL458656:TBM458754 TLH458656:TLI458754 TVD458656:TVE458754 UEZ458656:UFA458754 UOV458656:UOW458754 UYR458656:UYS458754 VIN458656:VIO458754 VSJ458656:VSK458754 WCF458656:WCG458754 WMB458656:WMC458754 WVX458656:WVY458754 P524192:Q524290 JL524192:JM524290 TH524192:TI524290 ADD524192:ADE524290 AMZ524192:ANA524290 AWV524192:AWW524290 BGR524192:BGS524290 BQN524192:BQO524290 CAJ524192:CAK524290 CKF524192:CKG524290 CUB524192:CUC524290 DDX524192:DDY524290 DNT524192:DNU524290 DXP524192:DXQ524290 EHL524192:EHM524290 ERH524192:ERI524290 FBD524192:FBE524290 FKZ524192:FLA524290 FUV524192:FUW524290 GER524192:GES524290 GON524192:GOO524290 GYJ524192:GYK524290 HIF524192:HIG524290 HSB524192:HSC524290 IBX524192:IBY524290 ILT524192:ILU524290 IVP524192:IVQ524290 JFL524192:JFM524290 JPH524192:JPI524290 JZD524192:JZE524290 KIZ524192:KJA524290 KSV524192:KSW524290 LCR524192:LCS524290 LMN524192:LMO524290 LWJ524192:LWK524290 MGF524192:MGG524290 MQB524192:MQC524290 MZX524192:MZY524290 NJT524192:NJU524290 NTP524192:NTQ524290 ODL524192:ODM524290 ONH524192:ONI524290 OXD524192:OXE524290 PGZ524192:PHA524290 PQV524192:PQW524290 QAR524192:QAS524290 QKN524192:QKO524290 QUJ524192:QUK524290 REF524192:REG524290 ROB524192:ROC524290 RXX524192:RXY524290 SHT524192:SHU524290 SRP524192:SRQ524290 TBL524192:TBM524290 TLH524192:TLI524290 TVD524192:TVE524290 UEZ524192:UFA524290 UOV524192:UOW524290 UYR524192:UYS524290 VIN524192:VIO524290 VSJ524192:VSK524290 WCF524192:WCG524290 WMB524192:WMC524290 WVX524192:WVY524290 P589728:Q589826 JL589728:JM589826 TH589728:TI589826 ADD589728:ADE589826 AMZ589728:ANA589826 AWV589728:AWW589826 BGR589728:BGS589826 BQN589728:BQO589826 CAJ589728:CAK589826 CKF589728:CKG589826 CUB589728:CUC589826 DDX589728:DDY589826 DNT589728:DNU589826 DXP589728:DXQ589826 EHL589728:EHM589826 ERH589728:ERI589826 FBD589728:FBE589826 FKZ589728:FLA589826 FUV589728:FUW589826 GER589728:GES589826 GON589728:GOO589826 GYJ589728:GYK589826 HIF589728:HIG589826 HSB589728:HSC589826 IBX589728:IBY589826 ILT589728:ILU589826 IVP589728:IVQ589826 JFL589728:JFM589826 JPH589728:JPI589826 JZD589728:JZE589826 KIZ589728:KJA589826 KSV589728:KSW589826 LCR589728:LCS589826 LMN589728:LMO589826 LWJ589728:LWK589826 MGF589728:MGG589826 MQB589728:MQC589826 MZX589728:MZY589826 NJT589728:NJU589826 NTP589728:NTQ589826 ODL589728:ODM589826 ONH589728:ONI589826 OXD589728:OXE589826 PGZ589728:PHA589826 PQV589728:PQW589826 QAR589728:QAS589826 QKN589728:QKO589826 QUJ589728:QUK589826 REF589728:REG589826 ROB589728:ROC589826 RXX589728:RXY589826 SHT589728:SHU589826 SRP589728:SRQ589826 TBL589728:TBM589826 TLH589728:TLI589826 TVD589728:TVE589826 UEZ589728:UFA589826 UOV589728:UOW589826 UYR589728:UYS589826 VIN589728:VIO589826 VSJ589728:VSK589826 WCF589728:WCG589826 WMB589728:WMC589826 WVX589728:WVY589826 P655264:Q655362 JL655264:JM655362 TH655264:TI655362 ADD655264:ADE655362 AMZ655264:ANA655362 AWV655264:AWW655362 BGR655264:BGS655362 BQN655264:BQO655362 CAJ655264:CAK655362 CKF655264:CKG655362 CUB655264:CUC655362 DDX655264:DDY655362 DNT655264:DNU655362 DXP655264:DXQ655362 EHL655264:EHM655362 ERH655264:ERI655362 FBD655264:FBE655362 FKZ655264:FLA655362 FUV655264:FUW655362 GER655264:GES655362 GON655264:GOO655362 GYJ655264:GYK655362 HIF655264:HIG655362 HSB655264:HSC655362 IBX655264:IBY655362 ILT655264:ILU655362 IVP655264:IVQ655362 JFL655264:JFM655362 JPH655264:JPI655362 JZD655264:JZE655362 KIZ655264:KJA655362 KSV655264:KSW655362 LCR655264:LCS655362 LMN655264:LMO655362 LWJ655264:LWK655362 MGF655264:MGG655362 MQB655264:MQC655362 MZX655264:MZY655362 NJT655264:NJU655362 NTP655264:NTQ655362 ODL655264:ODM655362 ONH655264:ONI655362 OXD655264:OXE655362 PGZ655264:PHA655362 PQV655264:PQW655362 QAR655264:QAS655362 QKN655264:QKO655362 QUJ655264:QUK655362 REF655264:REG655362 ROB655264:ROC655362 RXX655264:RXY655362 SHT655264:SHU655362 SRP655264:SRQ655362 TBL655264:TBM655362 TLH655264:TLI655362 TVD655264:TVE655362 UEZ655264:UFA655362 UOV655264:UOW655362 UYR655264:UYS655362 VIN655264:VIO655362 VSJ655264:VSK655362 WCF655264:WCG655362 WMB655264:WMC655362 WVX655264:WVY655362 P720800:Q720898 JL720800:JM720898 TH720800:TI720898 ADD720800:ADE720898 AMZ720800:ANA720898 AWV720800:AWW720898 BGR720800:BGS720898 BQN720800:BQO720898 CAJ720800:CAK720898 CKF720800:CKG720898 CUB720800:CUC720898 DDX720800:DDY720898 DNT720800:DNU720898 DXP720800:DXQ720898 EHL720800:EHM720898 ERH720800:ERI720898 FBD720800:FBE720898 FKZ720800:FLA720898 FUV720800:FUW720898 GER720800:GES720898 GON720800:GOO720898 GYJ720800:GYK720898 HIF720800:HIG720898 HSB720800:HSC720898 IBX720800:IBY720898 ILT720800:ILU720898 IVP720800:IVQ720898 JFL720800:JFM720898 JPH720800:JPI720898 JZD720800:JZE720898 KIZ720800:KJA720898 KSV720800:KSW720898 LCR720800:LCS720898 LMN720800:LMO720898 LWJ720800:LWK720898 MGF720800:MGG720898 MQB720800:MQC720898 MZX720800:MZY720898 NJT720800:NJU720898 NTP720800:NTQ720898 ODL720800:ODM720898 ONH720800:ONI720898 OXD720800:OXE720898 PGZ720800:PHA720898 PQV720800:PQW720898 QAR720800:QAS720898 QKN720800:QKO720898 QUJ720800:QUK720898 REF720800:REG720898 ROB720800:ROC720898 RXX720800:RXY720898 SHT720800:SHU720898 SRP720800:SRQ720898 TBL720800:TBM720898 TLH720800:TLI720898 TVD720800:TVE720898 UEZ720800:UFA720898 UOV720800:UOW720898 UYR720800:UYS720898 VIN720800:VIO720898 VSJ720800:VSK720898 WCF720800:WCG720898 WMB720800:WMC720898 WVX720800:WVY720898 P786336:Q786434 JL786336:JM786434 TH786336:TI786434 ADD786336:ADE786434 AMZ786336:ANA786434 AWV786336:AWW786434 BGR786336:BGS786434 BQN786336:BQO786434 CAJ786336:CAK786434 CKF786336:CKG786434 CUB786336:CUC786434 DDX786336:DDY786434 DNT786336:DNU786434 DXP786336:DXQ786434 EHL786336:EHM786434 ERH786336:ERI786434 FBD786336:FBE786434 FKZ786336:FLA786434 FUV786336:FUW786434 GER786336:GES786434 GON786336:GOO786434 GYJ786336:GYK786434 HIF786336:HIG786434 HSB786336:HSC786434 IBX786336:IBY786434 ILT786336:ILU786434 IVP786336:IVQ786434 JFL786336:JFM786434 JPH786336:JPI786434 JZD786336:JZE786434 KIZ786336:KJA786434 KSV786336:KSW786434 LCR786336:LCS786434 LMN786336:LMO786434 LWJ786336:LWK786434 MGF786336:MGG786434 MQB786336:MQC786434 MZX786336:MZY786434 NJT786336:NJU786434 NTP786336:NTQ786434 ODL786336:ODM786434 ONH786336:ONI786434 OXD786336:OXE786434 PGZ786336:PHA786434 PQV786336:PQW786434 QAR786336:QAS786434 QKN786336:QKO786434 QUJ786336:QUK786434 REF786336:REG786434 ROB786336:ROC786434 RXX786336:RXY786434 SHT786336:SHU786434 SRP786336:SRQ786434 TBL786336:TBM786434 TLH786336:TLI786434 TVD786336:TVE786434 UEZ786336:UFA786434 UOV786336:UOW786434 UYR786336:UYS786434 VIN786336:VIO786434 VSJ786336:VSK786434 WCF786336:WCG786434 WMB786336:WMC786434 WVX786336:WVY786434 P851872:Q851970 JL851872:JM851970 TH851872:TI851970 ADD851872:ADE851970 AMZ851872:ANA851970 AWV851872:AWW851970 BGR851872:BGS851970 BQN851872:BQO851970 CAJ851872:CAK851970 CKF851872:CKG851970 CUB851872:CUC851970 DDX851872:DDY851970 DNT851872:DNU851970 DXP851872:DXQ851970 EHL851872:EHM851970 ERH851872:ERI851970 FBD851872:FBE851970 FKZ851872:FLA851970 FUV851872:FUW851970 GER851872:GES851970 GON851872:GOO851970 GYJ851872:GYK851970 HIF851872:HIG851970 HSB851872:HSC851970 IBX851872:IBY851970 ILT851872:ILU851970 IVP851872:IVQ851970 JFL851872:JFM851970 JPH851872:JPI851970 JZD851872:JZE851970 KIZ851872:KJA851970 KSV851872:KSW851970 LCR851872:LCS851970 LMN851872:LMO851970 LWJ851872:LWK851970 MGF851872:MGG851970 MQB851872:MQC851970 MZX851872:MZY851970 NJT851872:NJU851970 NTP851872:NTQ851970 ODL851872:ODM851970 ONH851872:ONI851970 OXD851872:OXE851970 PGZ851872:PHA851970 PQV851872:PQW851970 QAR851872:QAS851970 QKN851872:QKO851970 QUJ851872:QUK851970 REF851872:REG851970 ROB851872:ROC851970 RXX851872:RXY851970 SHT851872:SHU851970 SRP851872:SRQ851970 TBL851872:TBM851970 TLH851872:TLI851970 TVD851872:TVE851970 UEZ851872:UFA851970 UOV851872:UOW851970 UYR851872:UYS851970 VIN851872:VIO851970 VSJ851872:VSK851970 WCF851872:WCG851970 WMB851872:WMC851970 WVX851872:WVY851970 P917408:Q917506 JL917408:JM917506 TH917408:TI917506 ADD917408:ADE917506 AMZ917408:ANA917506 AWV917408:AWW917506 BGR917408:BGS917506 BQN917408:BQO917506 CAJ917408:CAK917506 CKF917408:CKG917506 CUB917408:CUC917506 DDX917408:DDY917506 DNT917408:DNU917506 DXP917408:DXQ917506 EHL917408:EHM917506 ERH917408:ERI917506 FBD917408:FBE917506 FKZ917408:FLA917506 FUV917408:FUW917506 GER917408:GES917506 GON917408:GOO917506 GYJ917408:GYK917506 HIF917408:HIG917506 HSB917408:HSC917506 IBX917408:IBY917506 ILT917408:ILU917506 IVP917408:IVQ917506 JFL917408:JFM917506 JPH917408:JPI917506 JZD917408:JZE917506 KIZ917408:KJA917506 KSV917408:KSW917506 LCR917408:LCS917506 LMN917408:LMO917506 LWJ917408:LWK917506 MGF917408:MGG917506 MQB917408:MQC917506 MZX917408:MZY917506 NJT917408:NJU917506 NTP917408:NTQ917506 ODL917408:ODM917506 ONH917408:ONI917506 OXD917408:OXE917506 PGZ917408:PHA917506 PQV917408:PQW917506 QAR917408:QAS917506 QKN917408:QKO917506 QUJ917408:QUK917506 REF917408:REG917506 ROB917408:ROC917506 RXX917408:RXY917506 SHT917408:SHU917506 SRP917408:SRQ917506 TBL917408:TBM917506 TLH917408:TLI917506 TVD917408:TVE917506 UEZ917408:UFA917506 UOV917408:UOW917506 UYR917408:UYS917506 VIN917408:VIO917506 VSJ917408:VSK917506 WCF917408:WCG917506 WMB917408:WMC917506 WVX917408:WVY917506 P982944:Q983042 JL982944:JM983042 TH982944:TI983042 ADD982944:ADE983042 AMZ982944:ANA983042 AWV982944:AWW983042 BGR982944:BGS983042 BQN982944:BQO983042 CAJ982944:CAK983042 CKF982944:CKG983042 CUB982944:CUC983042 DDX982944:DDY983042 DNT982944:DNU983042 DXP982944:DXQ983042 EHL982944:EHM983042 ERH982944:ERI983042 FBD982944:FBE983042 FKZ982944:FLA983042 FUV982944:FUW983042 GER982944:GES983042 GON982944:GOO983042 GYJ982944:GYK983042 HIF982944:HIG983042 HSB982944:HSC983042 IBX982944:IBY983042 ILT982944:ILU983042 IVP982944:IVQ983042 JFL982944:JFM983042 JPH982944:JPI983042 JZD982944:JZE983042 KIZ982944:KJA983042 KSV982944:KSW983042 LCR982944:LCS983042 LMN982944:LMO983042 LWJ982944:LWK983042 MGF982944:MGG983042 MQB982944:MQC983042 MZX982944:MZY983042 NJT982944:NJU983042 NTP982944:NTQ983042 ODL982944:ODM983042 ONH982944:ONI983042 OXD982944:OXE983042 PGZ982944:PHA983042 PQV982944:PQW983042 QAR982944:QAS983042 QKN982944:QKO983042 QUJ982944:QUK983042 REF982944:REG983042 ROB982944:ROC983042 RXX982944:RXY983042 SHT982944:SHU983042 SRP982944:SRQ983042 TBL982944:TBM983042 TLH982944:TLI983042 TVD982944:TVE983042 UEZ982944:UFA983042 UOV982944:UOW983042 UYR982944:UYS983042 VIN982944:VIO983042 VSJ982944:VSK983042 WCF982944:WCG983042 WMB982944:WMC983042 WVX982944:WVY983042" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 IX2:IY2 ST2:SU2 ACP2:ACQ2 AML2:AMM2 AWH2:AWI2 BGD2:BGE2 BPZ2:BQA2 BZV2:BZW2 CJR2:CJS2 CTN2:CTO2 DDJ2:DDK2 DNF2:DNG2 DXB2:DXC2 EGX2:EGY2 EQT2:EQU2 FAP2:FAQ2 FKL2:FKM2 FUH2:FUI2 GED2:GEE2 GNZ2:GOA2 GXV2:GXW2 HHR2:HHS2 HRN2:HRO2 IBJ2:IBK2 ILF2:ILG2 IVB2:IVC2 JEX2:JEY2 JOT2:JOU2 JYP2:JYQ2 KIL2:KIM2 KSH2:KSI2 LCD2:LCE2 LLZ2:LMA2 LVV2:LVW2 MFR2:MFS2 MPN2:MPO2 MZJ2:MZK2 NJF2:NJG2 NTB2:NTC2 OCX2:OCY2 OMT2:OMU2 OWP2:OWQ2 PGL2:PGM2 PQH2:PQI2 QAD2:QAE2 QJZ2:QKA2 QTV2:QTW2 RDR2:RDS2 RNN2:RNO2 RXJ2:RXK2 SHF2:SHG2 SRB2:SRC2 TAX2:TAY2 TKT2:TKU2 TUP2:TUQ2 UEL2:UEM2 UOH2:UOI2 UYD2:UYE2 VHZ2:VIA2 VRV2:VRW2 WBR2:WBS2 WLN2:WLO2 WVJ2:WVK2 B65440:C65538 IX65440:IY65538 ST65440:SU65538 ACP65440:ACQ65538 AML65440:AMM65538 AWH65440:AWI65538 BGD65440:BGE65538 BPZ65440:BQA65538 BZV65440:BZW65538 CJR65440:CJS65538 CTN65440:CTO65538 DDJ65440:DDK65538 DNF65440:DNG65538 DXB65440:DXC65538 EGX65440:EGY65538 EQT65440:EQU65538 FAP65440:FAQ65538 FKL65440:FKM65538 FUH65440:FUI65538 GED65440:GEE65538 GNZ65440:GOA65538 GXV65440:GXW65538 HHR65440:HHS65538 HRN65440:HRO65538 IBJ65440:IBK65538 ILF65440:ILG65538 IVB65440:IVC65538 JEX65440:JEY65538 JOT65440:JOU65538 JYP65440:JYQ65538 KIL65440:KIM65538 KSH65440:KSI65538 LCD65440:LCE65538 LLZ65440:LMA65538 LVV65440:LVW65538 MFR65440:MFS65538 MPN65440:MPO65538 MZJ65440:MZK65538 NJF65440:NJG65538 NTB65440:NTC65538 OCX65440:OCY65538 OMT65440:OMU65538 OWP65440:OWQ65538 PGL65440:PGM65538 PQH65440:PQI65538 QAD65440:QAE65538 QJZ65440:QKA65538 QTV65440:QTW65538 RDR65440:RDS65538 RNN65440:RNO65538 RXJ65440:RXK65538 SHF65440:SHG65538 SRB65440:SRC65538 TAX65440:TAY65538 TKT65440:TKU65538 TUP65440:TUQ65538 UEL65440:UEM65538 UOH65440:UOI65538 UYD65440:UYE65538 VHZ65440:VIA65538 VRV65440:VRW65538 WBR65440:WBS65538 WLN65440:WLO65538 WVJ65440:WVK65538 B130976:C131074 IX130976:IY131074 ST130976:SU131074 ACP130976:ACQ131074 AML130976:AMM131074 AWH130976:AWI131074 BGD130976:BGE131074 BPZ130976:BQA131074 BZV130976:BZW131074 CJR130976:CJS131074 CTN130976:CTO131074 DDJ130976:DDK131074 DNF130976:DNG131074 DXB130976:DXC131074 EGX130976:EGY131074 EQT130976:EQU131074 FAP130976:FAQ131074 FKL130976:FKM131074 FUH130976:FUI131074 GED130976:GEE131074 GNZ130976:GOA131074 GXV130976:GXW131074 HHR130976:HHS131074 HRN130976:HRO131074 IBJ130976:IBK131074 ILF130976:ILG131074 IVB130976:IVC131074 JEX130976:JEY131074 JOT130976:JOU131074 JYP130976:JYQ131074 KIL130976:KIM131074 KSH130976:KSI131074 LCD130976:LCE131074 LLZ130976:LMA131074 LVV130976:LVW131074 MFR130976:MFS131074 MPN130976:MPO131074 MZJ130976:MZK131074 NJF130976:NJG131074 NTB130976:NTC131074 OCX130976:OCY131074 OMT130976:OMU131074 OWP130976:OWQ131074 PGL130976:PGM131074 PQH130976:PQI131074 QAD130976:QAE131074 QJZ130976:QKA131074 QTV130976:QTW131074 RDR130976:RDS131074 RNN130976:RNO131074 RXJ130976:RXK131074 SHF130976:SHG131074 SRB130976:SRC131074 TAX130976:TAY131074 TKT130976:TKU131074 TUP130976:TUQ131074 UEL130976:UEM131074 UOH130976:UOI131074 UYD130976:UYE131074 VHZ130976:VIA131074 VRV130976:VRW131074 WBR130976:WBS131074 WLN130976:WLO131074 WVJ130976:WVK131074 B196512:C196610 IX196512:IY196610 ST196512:SU196610 ACP196512:ACQ196610 AML196512:AMM196610 AWH196512:AWI196610 BGD196512:BGE196610 BPZ196512:BQA196610 BZV196512:BZW196610 CJR196512:CJS196610 CTN196512:CTO196610 DDJ196512:DDK196610 DNF196512:DNG196610 DXB196512:DXC196610 EGX196512:EGY196610 EQT196512:EQU196610 FAP196512:FAQ196610 FKL196512:FKM196610 FUH196512:FUI196610 GED196512:GEE196610 GNZ196512:GOA196610 GXV196512:GXW196610 HHR196512:HHS196610 HRN196512:HRO196610 IBJ196512:IBK196610 ILF196512:ILG196610 IVB196512:IVC196610 JEX196512:JEY196610 JOT196512:JOU196610 JYP196512:JYQ196610 KIL196512:KIM196610 KSH196512:KSI196610 LCD196512:LCE196610 LLZ196512:LMA196610 LVV196512:LVW196610 MFR196512:MFS196610 MPN196512:MPO196610 MZJ196512:MZK196610 NJF196512:NJG196610 NTB196512:NTC196610 OCX196512:OCY196610 OMT196512:OMU196610 OWP196512:OWQ196610 PGL196512:PGM196610 PQH196512:PQI196610 QAD196512:QAE196610 QJZ196512:QKA196610 QTV196512:QTW196610 RDR196512:RDS196610 RNN196512:RNO196610 RXJ196512:RXK196610 SHF196512:SHG196610 SRB196512:SRC196610 TAX196512:TAY196610 TKT196512:TKU196610 TUP196512:TUQ196610 UEL196512:UEM196610 UOH196512:UOI196610 UYD196512:UYE196610 VHZ196512:VIA196610 VRV196512:VRW196610 WBR196512:WBS196610 WLN196512:WLO196610 WVJ196512:WVK196610 B262048:C262146 IX262048:IY262146 ST262048:SU262146 ACP262048:ACQ262146 AML262048:AMM262146 AWH262048:AWI262146 BGD262048:BGE262146 BPZ262048:BQA262146 BZV262048:BZW262146 CJR262048:CJS262146 CTN262048:CTO262146 DDJ262048:DDK262146 DNF262048:DNG262146 DXB262048:DXC262146 EGX262048:EGY262146 EQT262048:EQU262146 FAP262048:FAQ262146 FKL262048:FKM262146 FUH262048:FUI262146 GED262048:GEE262146 GNZ262048:GOA262146 GXV262048:GXW262146 HHR262048:HHS262146 HRN262048:HRO262146 IBJ262048:IBK262146 ILF262048:ILG262146 IVB262048:IVC262146 JEX262048:JEY262146 JOT262048:JOU262146 JYP262048:JYQ262146 KIL262048:KIM262146 KSH262048:KSI262146 LCD262048:LCE262146 LLZ262048:LMA262146 LVV262048:LVW262146 MFR262048:MFS262146 MPN262048:MPO262146 MZJ262048:MZK262146 NJF262048:NJG262146 NTB262048:NTC262146 OCX262048:OCY262146 OMT262048:OMU262146 OWP262048:OWQ262146 PGL262048:PGM262146 PQH262048:PQI262146 QAD262048:QAE262146 QJZ262048:QKA262146 QTV262048:QTW262146 RDR262048:RDS262146 RNN262048:RNO262146 RXJ262048:RXK262146 SHF262048:SHG262146 SRB262048:SRC262146 TAX262048:TAY262146 TKT262048:TKU262146 TUP262048:TUQ262146 UEL262048:UEM262146 UOH262048:UOI262146 UYD262048:UYE262146 VHZ262048:VIA262146 VRV262048:VRW262146 WBR262048:WBS262146 WLN262048:WLO262146 WVJ262048:WVK262146 B327584:C327682 IX327584:IY327682 ST327584:SU327682 ACP327584:ACQ327682 AML327584:AMM327682 AWH327584:AWI327682 BGD327584:BGE327682 BPZ327584:BQA327682 BZV327584:BZW327682 CJR327584:CJS327682 CTN327584:CTO327682 DDJ327584:DDK327682 DNF327584:DNG327682 DXB327584:DXC327682 EGX327584:EGY327682 EQT327584:EQU327682 FAP327584:FAQ327682 FKL327584:FKM327682 FUH327584:FUI327682 GED327584:GEE327682 GNZ327584:GOA327682 GXV327584:GXW327682 HHR327584:HHS327682 HRN327584:HRO327682 IBJ327584:IBK327682 ILF327584:ILG327682 IVB327584:IVC327682 JEX327584:JEY327682 JOT327584:JOU327682 JYP327584:JYQ327682 KIL327584:KIM327682 KSH327584:KSI327682 LCD327584:LCE327682 LLZ327584:LMA327682 LVV327584:LVW327682 MFR327584:MFS327682 MPN327584:MPO327682 MZJ327584:MZK327682 NJF327584:NJG327682 NTB327584:NTC327682 OCX327584:OCY327682 OMT327584:OMU327682 OWP327584:OWQ327682 PGL327584:PGM327682 PQH327584:PQI327682 QAD327584:QAE327682 QJZ327584:QKA327682 QTV327584:QTW327682 RDR327584:RDS327682 RNN327584:RNO327682 RXJ327584:RXK327682 SHF327584:SHG327682 SRB327584:SRC327682 TAX327584:TAY327682 TKT327584:TKU327682 TUP327584:TUQ327682 UEL327584:UEM327682 UOH327584:UOI327682 UYD327584:UYE327682 VHZ327584:VIA327682 VRV327584:VRW327682 WBR327584:WBS327682 WLN327584:WLO327682 WVJ327584:WVK327682 B393120:C393218 IX393120:IY393218 ST393120:SU393218 ACP393120:ACQ393218 AML393120:AMM393218 AWH393120:AWI393218 BGD393120:BGE393218 BPZ393120:BQA393218 BZV393120:BZW393218 CJR393120:CJS393218 CTN393120:CTO393218 DDJ393120:DDK393218 DNF393120:DNG393218 DXB393120:DXC393218 EGX393120:EGY393218 EQT393120:EQU393218 FAP393120:FAQ393218 FKL393120:FKM393218 FUH393120:FUI393218 GED393120:GEE393218 GNZ393120:GOA393218 GXV393120:GXW393218 HHR393120:HHS393218 HRN393120:HRO393218 IBJ393120:IBK393218 ILF393120:ILG393218 IVB393120:IVC393218 JEX393120:JEY393218 JOT393120:JOU393218 JYP393120:JYQ393218 KIL393120:KIM393218 KSH393120:KSI393218 LCD393120:LCE393218 LLZ393120:LMA393218 LVV393120:LVW393218 MFR393120:MFS393218 MPN393120:MPO393218 MZJ393120:MZK393218 NJF393120:NJG393218 NTB393120:NTC393218 OCX393120:OCY393218 OMT393120:OMU393218 OWP393120:OWQ393218 PGL393120:PGM393218 PQH393120:PQI393218 QAD393120:QAE393218 QJZ393120:QKA393218 QTV393120:QTW393218 RDR393120:RDS393218 RNN393120:RNO393218 RXJ393120:RXK393218 SHF393120:SHG393218 SRB393120:SRC393218 TAX393120:TAY393218 TKT393120:TKU393218 TUP393120:TUQ393218 UEL393120:UEM393218 UOH393120:UOI393218 UYD393120:UYE393218 VHZ393120:VIA393218 VRV393120:VRW393218 WBR393120:WBS393218 WLN393120:WLO393218 WVJ393120:WVK393218 B458656:C458754 IX458656:IY458754 ST458656:SU458754 ACP458656:ACQ458754 AML458656:AMM458754 AWH458656:AWI458754 BGD458656:BGE458754 BPZ458656:BQA458754 BZV458656:BZW458754 CJR458656:CJS458754 CTN458656:CTO458754 DDJ458656:DDK458754 DNF458656:DNG458754 DXB458656:DXC458754 EGX458656:EGY458754 EQT458656:EQU458754 FAP458656:FAQ458754 FKL458656:FKM458754 FUH458656:FUI458754 GED458656:GEE458754 GNZ458656:GOA458754 GXV458656:GXW458754 HHR458656:HHS458754 HRN458656:HRO458754 IBJ458656:IBK458754 ILF458656:ILG458754 IVB458656:IVC458754 JEX458656:JEY458754 JOT458656:JOU458754 JYP458656:JYQ458754 KIL458656:KIM458754 KSH458656:KSI458754 LCD458656:LCE458754 LLZ458656:LMA458754 LVV458656:LVW458754 MFR458656:MFS458754 MPN458656:MPO458754 MZJ458656:MZK458754 NJF458656:NJG458754 NTB458656:NTC458754 OCX458656:OCY458754 OMT458656:OMU458754 OWP458656:OWQ458754 PGL458656:PGM458754 PQH458656:PQI458754 QAD458656:QAE458754 QJZ458656:QKA458754 QTV458656:QTW458754 RDR458656:RDS458754 RNN458656:RNO458754 RXJ458656:RXK458754 SHF458656:SHG458754 SRB458656:SRC458754 TAX458656:TAY458754 TKT458656:TKU458754 TUP458656:TUQ458754 UEL458656:UEM458754 UOH458656:UOI458754 UYD458656:UYE458754 VHZ458656:VIA458754 VRV458656:VRW458754 WBR458656:WBS458754 WLN458656:WLO458754 WVJ458656:WVK458754 B524192:C524290 IX524192:IY524290 ST524192:SU524290 ACP524192:ACQ524290 AML524192:AMM524290 AWH524192:AWI524290 BGD524192:BGE524290 BPZ524192:BQA524290 BZV524192:BZW524290 CJR524192:CJS524290 CTN524192:CTO524290 DDJ524192:DDK524290 DNF524192:DNG524290 DXB524192:DXC524290 EGX524192:EGY524290 EQT524192:EQU524290 FAP524192:FAQ524290 FKL524192:FKM524290 FUH524192:FUI524290 GED524192:GEE524290 GNZ524192:GOA524290 GXV524192:GXW524290 HHR524192:HHS524290 HRN524192:HRO524290 IBJ524192:IBK524290 ILF524192:ILG524290 IVB524192:IVC524290 JEX524192:JEY524290 JOT524192:JOU524290 JYP524192:JYQ524290 KIL524192:KIM524290 KSH524192:KSI524290 LCD524192:LCE524290 LLZ524192:LMA524290 LVV524192:LVW524290 MFR524192:MFS524290 MPN524192:MPO524290 MZJ524192:MZK524290 NJF524192:NJG524290 NTB524192:NTC524290 OCX524192:OCY524290 OMT524192:OMU524290 OWP524192:OWQ524290 PGL524192:PGM524290 PQH524192:PQI524290 QAD524192:QAE524290 QJZ524192:QKA524290 QTV524192:QTW524290 RDR524192:RDS524290 RNN524192:RNO524290 RXJ524192:RXK524290 SHF524192:SHG524290 SRB524192:SRC524290 TAX524192:TAY524290 TKT524192:TKU524290 TUP524192:TUQ524290 UEL524192:UEM524290 UOH524192:UOI524290 UYD524192:UYE524290 VHZ524192:VIA524290 VRV524192:VRW524290 WBR524192:WBS524290 WLN524192:WLO524290 WVJ524192:WVK524290 B589728:C589826 IX589728:IY589826 ST589728:SU589826 ACP589728:ACQ589826 AML589728:AMM589826 AWH589728:AWI589826 BGD589728:BGE589826 BPZ589728:BQA589826 BZV589728:BZW589826 CJR589728:CJS589826 CTN589728:CTO589826 DDJ589728:DDK589826 DNF589728:DNG589826 DXB589728:DXC589826 EGX589728:EGY589826 EQT589728:EQU589826 FAP589728:FAQ589826 FKL589728:FKM589826 FUH589728:FUI589826 GED589728:GEE589826 GNZ589728:GOA589826 GXV589728:GXW589826 HHR589728:HHS589826 HRN589728:HRO589826 IBJ589728:IBK589826 ILF589728:ILG589826 IVB589728:IVC589826 JEX589728:JEY589826 JOT589728:JOU589826 JYP589728:JYQ589826 KIL589728:KIM589826 KSH589728:KSI589826 LCD589728:LCE589826 LLZ589728:LMA589826 LVV589728:LVW589826 MFR589728:MFS589826 MPN589728:MPO589826 MZJ589728:MZK589826 NJF589728:NJG589826 NTB589728:NTC589826 OCX589728:OCY589826 OMT589728:OMU589826 OWP589728:OWQ589826 PGL589728:PGM589826 PQH589728:PQI589826 QAD589728:QAE589826 QJZ589728:QKA589826 QTV589728:QTW589826 RDR589728:RDS589826 RNN589728:RNO589826 RXJ589728:RXK589826 SHF589728:SHG589826 SRB589728:SRC589826 TAX589728:TAY589826 TKT589728:TKU589826 TUP589728:TUQ589826 UEL589728:UEM589826 UOH589728:UOI589826 UYD589728:UYE589826 VHZ589728:VIA589826 VRV589728:VRW589826 WBR589728:WBS589826 WLN589728:WLO589826 WVJ589728:WVK589826 B655264:C655362 IX655264:IY655362 ST655264:SU655362 ACP655264:ACQ655362 AML655264:AMM655362 AWH655264:AWI655362 BGD655264:BGE655362 BPZ655264:BQA655362 BZV655264:BZW655362 CJR655264:CJS655362 CTN655264:CTO655362 DDJ655264:DDK655362 DNF655264:DNG655362 DXB655264:DXC655362 EGX655264:EGY655362 EQT655264:EQU655362 FAP655264:FAQ655362 FKL655264:FKM655362 FUH655264:FUI655362 GED655264:GEE655362 GNZ655264:GOA655362 GXV655264:GXW655362 HHR655264:HHS655362 HRN655264:HRO655362 IBJ655264:IBK655362 ILF655264:ILG655362 IVB655264:IVC655362 JEX655264:JEY655362 JOT655264:JOU655362 JYP655264:JYQ655362 KIL655264:KIM655362 KSH655264:KSI655362 LCD655264:LCE655362 LLZ655264:LMA655362 LVV655264:LVW655362 MFR655264:MFS655362 MPN655264:MPO655362 MZJ655264:MZK655362 NJF655264:NJG655362 NTB655264:NTC655362 OCX655264:OCY655362 OMT655264:OMU655362 OWP655264:OWQ655362 PGL655264:PGM655362 PQH655264:PQI655362 QAD655264:QAE655362 QJZ655264:QKA655362 QTV655264:QTW655362 RDR655264:RDS655362 RNN655264:RNO655362 RXJ655264:RXK655362 SHF655264:SHG655362 SRB655264:SRC655362 TAX655264:TAY655362 TKT655264:TKU655362 TUP655264:TUQ655362 UEL655264:UEM655362 UOH655264:UOI655362 UYD655264:UYE655362 VHZ655264:VIA655362 VRV655264:VRW655362 WBR655264:WBS655362 WLN655264:WLO655362 WVJ655264:WVK655362 B720800:C720898 IX720800:IY720898 ST720800:SU720898 ACP720800:ACQ720898 AML720800:AMM720898 AWH720800:AWI720898 BGD720800:BGE720898 BPZ720800:BQA720898 BZV720800:BZW720898 CJR720800:CJS720898 CTN720800:CTO720898 DDJ720800:DDK720898 DNF720800:DNG720898 DXB720800:DXC720898 EGX720800:EGY720898 EQT720800:EQU720898 FAP720800:FAQ720898 FKL720800:FKM720898 FUH720800:FUI720898 GED720800:GEE720898 GNZ720800:GOA720898 GXV720800:GXW720898 HHR720800:HHS720898 HRN720800:HRO720898 IBJ720800:IBK720898 ILF720800:ILG720898 IVB720800:IVC720898 JEX720800:JEY720898 JOT720800:JOU720898 JYP720800:JYQ720898 KIL720800:KIM720898 KSH720800:KSI720898 LCD720800:LCE720898 LLZ720800:LMA720898 LVV720800:LVW720898 MFR720800:MFS720898 MPN720800:MPO720898 MZJ720800:MZK720898 NJF720800:NJG720898 NTB720800:NTC720898 OCX720800:OCY720898 OMT720800:OMU720898 OWP720800:OWQ720898 PGL720800:PGM720898 PQH720800:PQI720898 QAD720800:QAE720898 QJZ720800:QKA720898 QTV720800:QTW720898 RDR720800:RDS720898 RNN720800:RNO720898 RXJ720800:RXK720898 SHF720800:SHG720898 SRB720800:SRC720898 TAX720800:TAY720898 TKT720800:TKU720898 TUP720800:TUQ720898 UEL720800:UEM720898 UOH720800:UOI720898 UYD720800:UYE720898 VHZ720800:VIA720898 VRV720800:VRW720898 WBR720800:WBS720898 WLN720800:WLO720898 WVJ720800:WVK720898 B786336:C786434 IX786336:IY786434 ST786336:SU786434 ACP786336:ACQ786434 AML786336:AMM786434 AWH786336:AWI786434 BGD786336:BGE786434 BPZ786336:BQA786434 BZV786336:BZW786434 CJR786336:CJS786434 CTN786336:CTO786434 DDJ786336:DDK786434 DNF786336:DNG786434 DXB786336:DXC786434 EGX786336:EGY786434 EQT786336:EQU786434 FAP786336:FAQ786434 FKL786336:FKM786434 FUH786336:FUI786434 GED786336:GEE786434 GNZ786336:GOA786434 GXV786336:GXW786434 HHR786336:HHS786434 HRN786336:HRO786434 IBJ786336:IBK786434 ILF786336:ILG786434 IVB786336:IVC786434 JEX786336:JEY786434 JOT786336:JOU786434 JYP786336:JYQ786434 KIL786336:KIM786434 KSH786336:KSI786434 LCD786336:LCE786434 LLZ786336:LMA786434 LVV786336:LVW786434 MFR786336:MFS786434 MPN786336:MPO786434 MZJ786336:MZK786434 NJF786336:NJG786434 NTB786336:NTC786434 OCX786336:OCY786434 OMT786336:OMU786434 OWP786336:OWQ786434 PGL786336:PGM786434 PQH786336:PQI786434 QAD786336:QAE786434 QJZ786336:QKA786434 QTV786336:QTW786434 RDR786336:RDS786434 RNN786336:RNO786434 RXJ786336:RXK786434 SHF786336:SHG786434 SRB786336:SRC786434 TAX786336:TAY786434 TKT786336:TKU786434 TUP786336:TUQ786434 UEL786336:UEM786434 UOH786336:UOI786434 UYD786336:UYE786434 VHZ786336:VIA786434 VRV786336:VRW786434 WBR786336:WBS786434 WLN786336:WLO786434 WVJ786336:WVK786434 B851872:C851970 IX851872:IY851970 ST851872:SU851970 ACP851872:ACQ851970 AML851872:AMM851970 AWH851872:AWI851970 BGD851872:BGE851970 BPZ851872:BQA851970 BZV851872:BZW851970 CJR851872:CJS851970 CTN851872:CTO851970 DDJ851872:DDK851970 DNF851872:DNG851970 DXB851872:DXC851970 EGX851872:EGY851970 EQT851872:EQU851970 FAP851872:FAQ851970 FKL851872:FKM851970 FUH851872:FUI851970 GED851872:GEE851970 GNZ851872:GOA851970 GXV851872:GXW851970 HHR851872:HHS851970 HRN851872:HRO851970 IBJ851872:IBK851970 ILF851872:ILG851970 IVB851872:IVC851970 JEX851872:JEY851970 JOT851872:JOU851970 JYP851872:JYQ851970 KIL851872:KIM851970 KSH851872:KSI851970 LCD851872:LCE851970 LLZ851872:LMA851970 LVV851872:LVW851970 MFR851872:MFS851970 MPN851872:MPO851970 MZJ851872:MZK851970 NJF851872:NJG851970 NTB851872:NTC851970 OCX851872:OCY851970 OMT851872:OMU851970 OWP851872:OWQ851970 PGL851872:PGM851970 PQH851872:PQI851970 QAD851872:QAE851970 QJZ851872:QKA851970 QTV851872:QTW851970 RDR851872:RDS851970 RNN851872:RNO851970 RXJ851872:RXK851970 SHF851872:SHG851970 SRB851872:SRC851970 TAX851872:TAY851970 TKT851872:TKU851970 TUP851872:TUQ851970 UEL851872:UEM851970 UOH851872:UOI851970 UYD851872:UYE851970 VHZ851872:VIA851970 VRV851872:VRW851970 WBR851872:WBS851970 WLN851872:WLO851970 WVJ851872:WVK851970 B917408:C917506 IX917408:IY917506 ST917408:SU917506 ACP917408:ACQ917506 AML917408:AMM917506 AWH917408:AWI917506 BGD917408:BGE917506 BPZ917408:BQA917506 BZV917408:BZW917506 CJR917408:CJS917506 CTN917408:CTO917506 DDJ917408:DDK917506 DNF917408:DNG917506 DXB917408:DXC917506 EGX917408:EGY917506 EQT917408:EQU917506 FAP917408:FAQ917506 FKL917408:FKM917506 FUH917408:FUI917506 GED917408:GEE917506 GNZ917408:GOA917506 GXV917408:GXW917506 HHR917408:HHS917506 HRN917408:HRO917506 IBJ917408:IBK917506 ILF917408:ILG917506 IVB917408:IVC917506 JEX917408:JEY917506 JOT917408:JOU917506 JYP917408:JYQ917506 KIL917408:KIM917506 KSH917408:KSI917506 LCD917408:LCE917506 LLZ917408:LMA917506 LVV917408:LVW917506 MFR917408:MFS917506 MPN917408:MPO917506 MZJ917408:MZK917506 NJF917408:NJG917506 NTB917408:NTC917506 OCX917408:OCY917506 OMT917408:OMU917506 OWP917408:OWQ917506 PGL917408:PGM917506 PQH917408:PQI917506 QAD917408:QAE917506 QJZ917408:QKA917506 QTV917408:QTW917506 RDR917408:RDS917506 RNN917408:RNO917506 RXJ917408:RXK917506 SHF917408:SHG917506 SRB917408:SRC917506 TAX917408:TAY917506 TKT917408:TKU917506 TUP917408:TUQ917506 UEL917408:UEM917506 UOH917408:UOI917506 UYD917408:UYE917506 VHZ917408:VIA917506 VRV917408:VRW917506 WBR917408:WBS917506 WLN917408:WLO917506 WVJ917408:WVK917506 B982944:C983042 IX982944:IY983042 ST982944:SU983042 ACP982944:ACQ983042 AML982944:AMM983042 AWH982944:AWI983042 BGD982944:BGE983042 BPZ982944:BQA983042 BZV982944:BZW983042 CJR982944:CJS983042 CTN982944:CTO983042 DDJ982944:DDK983042 DNF982944:DNG983042 DXB982944:DXC983042 EGX982944:EGY983042 EQT982944:EQU983042 FAP982944:FAQ983042 FKL982944:FKM983042 FUH982944:FUI983042 GED982944:GEE983042 GNZ982944:GOA983042 GXV982944:GXW983042 HHR982944:HHS983042 HRN982944:HRO983042 IBJ982944:IBK983042 ILF982944:ILG983042 IVB982944:IVC983042 JEX982944:JEY983042 JOT982944:JOU983042 JYP982944:JYQ983042 KIL982944:KIM983042 KSH982944:KSI983042 LCD982944:LCE983042 LLZ982944:LMA983042 LVV982944:LVW983042 MFR982944:MFS983042 MPN982944:MPO983042 MZJ982944:MZK983042 NJF982944:NJG983042 NTB982944:NTC983042 OCX982944:OCY983042 OMT982944:OMU983042 OWP982944:OWQ983042 PGL982944:PGM983042 PQH982944:PQI983042 QAD982944:QAE983042 QJZ982944:QKA983042 QTV982944:QTW983042 RDR982944:RDS983042 RNN982944:RNO983042 RXJ982944:RXK983042 SHF982944:SHG983042 SRB982944:SRC983042 TAX982944:TAY983042 TKT982944:TKU983042 TUP982944:TUQ983042 UEL982944:UEM983042 UOH982944:UOI983042 UYD982944:UYE983042 VHZ982944:VIA983042 VRV982944:VRW983042 WBR982944:WBS983042 WLN982944:WLO983042 WVJ982944:WVK983042" xr:uid="{F700882C-73D7-4454-9A54-D8122D5EF7BC}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 IY2:IZ2 SU2:SV2 ACQ2:ACR2 AMM2:AMN2 AWI2:AWJ2 BGE2:BGF2 BQA2:BQB2 BZW2:BZX2 CJS2:CJT2 CTO2:CTP2 DDK2:DDL2 DNG2:DNH2 DXC2:DXD2 EGY2:EGZ2 EQU2:EQV2 FAQ2:FAR2 FKM2:FKN2 FUI2:FUJ2 GEE2:GEF2 GOA2:GOB2 GXW2:GXX2 HHS2:HHT2 HRO2:HRP2 IBK2:IBL2 ILG2:ILH2 IVC2:IVD2 JEY2:JEZ2 JOU2:JOV2 JYQ2:JYR2 KIM2:KIN2 KSI2:KSJ2 LCE2:LCF2 LMA2:LMB2 LVW2:LVX2 MFS2:MFT2 MPO2:MPP2 MZK2:MZL2 NJG2:NJH2 NTC2:NTD2 OCY2:OCZ2 OMU2:OMV2 OWQ2:OWR2 PGM2:PGN2 PQI2:PQJ2 QAE2:QAF2 QKA2:QKB2 QTW2:QTX2 RDS2:RDT2 RNO2:RNP2 RXK2:RXL2 SHG2:SHH2 SRC2:SRD2 TAY2:TAZ2 TKU2:TKV2 TUQ2:TUR2 UEM2:UEN2 UOI2:UOJ2 UYE2:UYF2 VIA2:VIB2 VRW2:VRX2 WBS2:WBT2 WLO2:WLP2 WVK2:WVL2 B65440:C65538 IY65440:IZ65538 SU65440:SV65538 ACQ65440:ACR65538 AMM65440:AMN65538 AWI65440:AWJ65538 BGE65440:BGF65538 BQA65440:BQB65538 BZW65440:BZX65538 CJS65440:CJT65538 CTO65440:CTP65538 DDK65440:DDL65538 DNG65440:DNH65538 DXC65440:DXD65538 EGY65440:EGZ65538 EQU65440:EQV65538 FAQ65440:FAR65538 FKM65440:FKN65538 FUI65440:FUJ65538 GEE65440:GEF65538 GOA65440:GOB65538 GXW65440:GXX65538 HHS65440:HHT65538 HRO65440:HRP65538 IBK65440:IBL65538 ILG65440:ILH65538 IVC65440:IVD65538 JEY65440:JEZ65538 JOU65440:JOV65538 JYQ65440:JYR65538 KIM65440:KIN65538 KSI65440:KSJ65538 LCE65440:LCF65538 LMA65440:LMB65538 LVW65440:LVX65538 MFS65440:MFT65538 MPO65440:MPP65538 MZK65440:MZL65538 NJG65440:NJH65538 NTC65440:NTD65538 OCY65440:OCZ65538 OMU65440:OMV65538 OWQ65440:OWR65538 PGM65440:PGN65538 PQI65440:PQJ65538 QAE65440:QAF65538 QKA65440:QKB65538 QTW65440:QTX65538 RDS65440:RDT65538 RNO65440:RNP65538 RXK65440:RXL65538 SHG65440:SHH65538 SRC65440:SRD65538 TAY65440:TAZ65538 TKU65440:TKV65538 TUQ65440:TUR65538 UEM65440:UEN65538 UOI65440:UOJ65538 UYE65440:UYF65538 VIA65440:VIB65538 VRW65440:VRX65538 WBS65440:WBT65538 WLO65440:WLP65538 WVK65440:WVL65538 B130976:C131074 IY130976:IZ131074 SU130976:SV131074 ACQ130976:ACR131074 AMM130976:AMN131074 AWI130976:AWJ131074 BGE130976:BGF131074 BQA130976:BQB131074 BZW130976:BZX131074 CJS130976:CJT131074 CTO130976:CTP131074 DDK130976:DDL131074 DNG130976:DNH131074 DXC130976:DXD131074 EGY130976:EGZ131074 EQU130976:EQV131074 FAQ130976:FAR131074 FKM130976:FKN131074 FUI130976:FUJ131074 GEE130976:GEF131074 GOA130976:GOB131074 GXW130976:GXX131074 HHS130976:HHT131074 HRO130976:HRP131074 IBK130976:IBL131074 ILG130976:ILH131074 IVC130976:IVD131074 JEY130976:JEZ131074 JOU130976:JOV131074 JYQ130976:JYR131074 KIM130976:KIN131074 KSI130976:KSJ131074 LCE130976:LCF131074 LMA130976:LMB131074 LVW130976:LVX131074 MFS130976:MFT131074 MPO130976:MPP131074 MZK130976:MZL131074 NJG130976:NJH131074 NTC130976:NTD131074 OCY130976:OCZ131074 OMU130976:OMV131074 OWQ130976:OWR131074 PGM130976:PGN131074 PQI130976:PQJ131074 QAE130976:QAF131074 QKA130976:QKB131074 QTW130976:QTX131074 RDS130976:RDT131074 RNO130976:RNP131074 RXK130976:RXL131074 SHG130976:SHH131074 SRC130976:SRD131074 TAY130976:TAZ131074 TKU130976:TKV131074 TUQ130976:TUR131074 UEM130976:UEN131074 UOI130976:UOJ131074 UYE130976:UYF131074 VIA130976:VIB131074 VRW130976:VRX131074 WBS130976:WBT131074 WLO130976:WLP131074 WVK130976:WVL131074 B196512:C196610 IY196512:IZ196610 SU196512:SV196610 ACQ196512:ACR196610 AMM196512:AMN196610 AWI196512:AWJ196610 BGE196512:BGF196610 BQA196512:BQB196610 BZW196512:BZX196610 CJS196512:CJT196610 CTO196512:CTP196610 DDK196512:DDL196610 DNG196512:DNH196610 DXC196512:DXD196610 EGY196512:EGZ196610 EQU196512:EQV196610 FAQ196512:FAR196610 FKM196512:FKN196610 FUI196512:FUJ196610 GEE196512:GEF196610 GOA196512:GOB196610 GXW196512:GXX196610 HHS196512:HHT196610 HRO196512:HRP196610 IBK196512:IBL196610 ILG196512:ILH196610 IVC196512:IVD196610 JEY196512:JEZ196610 JOU196512:JOV196610 JYQ196512:JYR196610 KIM196512:KIN196610 KSI196512:KSJ196610 LCE196512:LCF196610 LMA196512:LMB196610 LVW196512:LVX196610 MFS196512:MFT196610 MPO196512:MPP196610 MZK196512:MZL196610 NJG196512:NJH196610 NTC196512:NTD196610 OCY196512:OCZ196610 OMU196512:OMV196610 OWQ196512:OWR196610 PGM196512:PGN196610 PQI196512:PQJ196610 QAE196512:QAF196610 QKA196512:QKB196610 QTW196512:QTX196610 RDS196512:RDT196610 RNO196512:RNP196610 RXK196512:RXL196610 SHG196512:SHH196610 SRC196512:SRD196610 TAY196512:TAZ196610 TKU196512:TKV196610 TUQ196512:TUR196610 UEM196512:UEN196610 UOI196512:UOJ196610 UYE196512:UYF196610 VIA196512:VIB196610 VRW196512:VRX196610 WBS196512:WBT196610 WLO196512:WLP196610 WVK196512:WVL196610 B262048:C262146 IY262048:IZ262146 SU262048:SV262146 ACQ262048:ACR262146 AMM262048:AMN262146 AWI262048:AWJ262146 BGE262048:BGF262146 BQA262048:BQB262146 BZW262048:BZX262146 CJS262048:CJT262146 CTO262048:CTP262146 DDK262048:DDL262146 DNG262048:DNH262146 DXC262048:DXD262146 EGY262048:EGZ262146 EQU262048:EQV262146 FAQ262048:FAR262146 FKM262048:FKN262146 FUI262048:FUJ262146 GEE262048:GEF262146 GOA262048:GOB262146 GXW262048:GXX262146 HHS262048:HHT262146 HRO262048:HRP262146 IBK262048:IBL262146 ILG262048:ILH262146 IVC262048:IVD262146 JEY262048:JEZ262146 JOU262048:JOV262146 JYQ262048:JYR262146 KIM262048:KIN262146 KSI262048:KSJ262146 LCE262048:LCF262146 LMA262048:LMB262146 LVW262048:LVX262146 MFS262048:MFT262146 MPO262048:MPP262146 MZK262048:MZL262146 NJG262048:NJH262146 NTC262048:NTD262146 OCY262048:OCZ262146 OMU262048:OMV262146 OWQ262048:OWR262146 PGM262048:PGN262146 PQI262048:PQJ262146 QAE262048:QAF262146 QKA262048:QKB262146 QTW262048:QTX262146 RDS262048:RDT262146 RNO262048:RNP262146 RXK262048:RXL262146 SHG262048:SHH262146 SRC262048:SRD262146 TAY262048:TAZ262146 TKU262048:TKV262146 TUQ262048:TUR262146 UEM262048:UEN262146 UOI262048:UOJ262146 UYE262048:UYF262146 VIA262048:VIB262146 VRW262048:VRX262146 WBS262048:WBT262146 WLO262048:WLP262146 WVK262048:WVL262146 B327584:C327682 IY327584:IZ327682 SU327584:SV327682 ACQ327584:ACR327682 AMM327584:AMN327682 AWI327584:AWJ327682 BGE327584:BGF327682 BQA327584:BQB327682 BZW327584:BZX327682 CJS327584:CJT327682 CTO327584:CTP327682 DDK327584:DDL327682 DNG327584:DNH327682 DXC327584:DXD327682 EGY327584:EGZ327682 EQU327584:EQV327682 FAQ327584:FAR327682 FKM327584:FKN327682 FUI327584:FUJ327682 GEE327584:GEF327682 GOA327584:GOB327682 GXW327584:GXX327682 HHS327584:HHT327682 HRO327584:HRP327682 IBK327584:IBL327682 ILG327584:ILH327682 IVC327584:IVD327682 JEY327584:JEZ327682 JOU327584:JOV327682 JYQ327584:JYR327682 KIM327584:KIN327682 KSI327584:KSJ327682 LCE327584:LCF327682 LMA327584:LMB327682 LVW327584:LVX327682 MFS327584:MFT327682 MPO327584:MPP327682 MZK327584:MZL327682 NJG327584:NJH327682 NTC327584:NTD327682 OCY327584:OCZ327682 OMU327584:OMV327682 OWQ327584:OWR327682 PGM327584:PGN327682 PQI327584:PQJ327682 QAE327584:QAF327682 QKA327584:QKB327682 QTW327584:QTX327682 RDS327584:RDT327682 RNO327584:RNP327682 RXK327584:RXL327682 SHG327584:SHH327682 SRC327584:SRD327682 TAY327584:TAZ327682 TKU327584:TKV327682 TUQ327584:TUR327682 UEM327584:UEN327682 UOI327584:UOJ327682 UYE327584:UYF327682 VIA327584:VIB327682 VRW327584:VRX327682 WBS327584:WBT327682 WLO327584:WLP327682 WVK327584:WVL327682 B393120:C393218 IY393120:IZ393218 SU393120:SV393218 ACQ393120:ACR393218 AMM393120:AMN393218 AWI393120:AWJ393218 BGE393120:BGF393218 BQA393120:BQB393218 BZW393120:BZX393218 CJS393120:CJT393218 CTO393120:CTP393218 DDK393120:DDL393218 DNG393120:DNH393218 DXC393120:DXD393218 EGY393120:EGZ393218 EQU393120:EQV393218 FAQ393120:FAR393218 FKM393120:FKN393218 FUI393120:FUJ393218 GEE393120:GEF393218 GOA393120:GOB393218 GXW393120:GXX393218 HHS393120:HHT393218 HRO393120:HRP393218 IBK393120:IBL393218 ILG393120:ILH393218 IVC393120:IVD393218 JEY393120:JEZ393218 JOU393120:JOV393218 JYQ393120:JYR393218 KIM393120:KIN393218 KSI393120:KSJ393218 LCE393120:LCF393218 LMA393120:LMB393218 LVW393120:LVX393218 MFS393120:MFT393218 MPO393120:MPP393218 MZK393120:MZL393218 NJG393120:NJH393218 NTC393120:NTD393218 OCY393120:OCZ393218 OMU393120:OMV393218 OWQ393120:OWR393218 PGM393120:PGN393218 PQI393120:PQJ393218 QAE393120:QAF393218 QKA393120:QKB393218 QTW393120:QTX393218 RDS393120:RDT393218 RNO393120:RNP393218 RXK393120:RXL393218 SHG393120:SHH393218 SRC393120:SRD393218 TAY393120:TAZ393218 TKU393120:TKV393218 TUQ393120:TUR393218 UEM393120:UEN393218 UOI393120:UOJ393218 UYE393120:UYF393218 VIA393120:VIB393218 VRW393120:VRX393218 WBS393120:WBT393218 WLO393120:WLP393218 WVK393120:WVL393218 B458656:C458754 IY458656:IZ458754 SU458656:SV458754 ACQ458656:ACR458754 AMM458656:AMN458754 AWI458656:AWJ458754 BGE458656:BGF458754 BQA458656:BQB458754 BZW458656:BZX458754 CJS458656:CJT458754 CTO458656:CTP458754 DDK458656:DDL458754 DNG458656:DNH458754 DXC458656:DXD458754 EGY458656:EGZ458754 EQU458656:EQV458754 FAQ458656:FAR458754 FKM458656:FKN458754 FUI458656:FUJ458754 GEE458656:GEF458754 GOA458656:GOB458754 GXW458656:GXX458754 HHS458656:HHT458754 HRO458656:HRP458754 IBK458656:IBL458754 ILG458656:ILH458754 IVC458656:IVD458754 JEY458656:JEZ458754 JOU458656:JOV458754 JYQ458656:JYR458754 KIM458656:KIN458754 KSI458656:KSJ458754 LCE458656:LCF458754 LMA458656:LMB458754 LVW458656:LVX458754 MFS458656:MFT458754 MPO458656:MPP458754 MZK458656:MZL458754 NJG458656:NJH458754 NTC458656:NTD458754 OCY458656:OCZ458754 OMU458656:OMV458754 OWQ458656:OWR458754 PGM458656:PGN458754 PQI458656:PQJ458754 QAE458656:QAF458754 QKA458656:QKB458754 QTW458656:QTX458754 RDS458656:RDT458754 RNO458656:RNP458754 RXK458656:RXL458754 SHG458656:SHH458754 SRC458656:SRD458754 TAY458656:TAZ458754 TKU458656:TKV458754 TUQ458656:TUR458754 UEM458656:UEN458754 UOI458656:UOJ458754 UYE458656:UYF458754 VIA458656:VIB458754 VRW458656:VRX458754 WBS458656:WBT458754 WLO458656:WLP458754 WVK458656:WVL458754 B524192:C524290 IY524192:IZ524290 SU524192:SV524290 ACQ524192:ACR524290 AMM524192:AMN524290 AWI524192:AWJ524290 BGE524192:BGF524290 BQA524192:BQB524290 BZW524192:BZX524290 CJS524192:CJT524290 CTO524192:CTP524290 DDK524192:DDL524290 DNG524192:DNH524290 DXC524192:DXD524290 EGY524192:EGZ524290 EQU524192:EQV524290 FAQ524192:FAR524290 FKM524192:FKN524290 FUI524192:FUJ524290 GEE524192:GEF524290 GOA524192:GOB524290 GXW524192:GXX524290 HHS524192:HHT524290 HRO524192:HRP524290 IBK524192:IBL524290 ILG524192:ILH524290 IVC524192:IVD524290 JEY524192:JEZ524290 JOU524192:JOV524290 JYQ524192:JYR524290 KIM524192:KIN524290 KSI524192:KSJ524290 LCE524192:LCF524290 LMA524192:LMB524290 LVW524192:LVX524290 MFS524192:MFT524290 MPO524192:MPP524290 MZK524192:MZL524290 NJG524192:NJH524290 NTC524192:NTD524290 OCY524192:OCZ524290 OMU524192:OMV524290 OWQ524192:OWR524290 PGM524192:PGN524290 PQI524192:PQJ524290 QAE524192:QAF524290 QKA524192:QKB524290 QTW524192:QTX524290 RDS524192:RDT524290 RNO524192:RNP524290 RXK524192:RXL524290 SHG524192:SHH524290 SRC524192:SRD524290 TAY524192:TAZ524290 TKU524192:TKV524290 TUQ524192:TUR524290 UEM524192:UEN524290 UOI524192:UOJ524290 UYE524192:UYF524290 VIA524192:VIB524290 VRW524192:VRX524290 WBS524192:WBT524290 WLO524192:WLP524290 WVK524192:WVL524290 B589728:C589826 IY589728:IZ589826 SU589728:SV589826 ACQ589728:ACR589826 AMM589728:AMN589826 AWI589728:AWJ589826 BGE589728:BGF589826 BQA589728:BQB589826 BZW589728:BZX589826 CJS589728:CJT589826 CTO589728:CTP589826 DDK589728:DDL589826 DNG589728:DNH589826 DXC589728:DXD589826 EGY589728:EGZ589826 EQU589728:EQV589826 FAQ589728:FAR589826 FKM589728:FKN589826 FUI589728:FUJ589826 GEE589728:GEF589826 GOA589728:GOB589826 GXW589728:GXX589826 HHS589728:HHT589826 HRO589728:HRP589826 IBK589728:IBL589826 ILG589728:ILH589826 IVC589728:IVD589826 JEY589728:JEZ589826 JOU589728:JOV589826 JYQ589728:JYR589826 KIM589728:KIN589826 KSI589728:KSJ589826 LCE589728:LCF589826 LMA589728:LMB589826 LVW589728:LVX589826 MFS589728:MFT589826 MPO589728:MPP589826 MZK589728:MZL589826 NJG589728:NJH589826 NTC589728:NTD589826 OCY589728:OCZ589826 OMU589728:OMV589826 OWQ589728:OWR589826 PGM589728:PGN589826 PQI589728:PQJ589826 QAE589728:QAF589826 QKA589728:QKB589826 QTW589728:QTX589826 RDS589728:RDT589826 RNO589728:RNP589826 RXK589728:RXL589826 SHG589728:SHH589826 SRC589728:SRD589826 TAY589728:TAZ589826 TKU589728:TKV589826 TUQ589728:TUR589826 UEM589728:UEN589826 UOI589728:UOJ589826 UYE589728:UYF589826 VIA589728:VIB589826 VRW589728:VRX589826 WBS589728:WBT589826 WLO589728:WLP589826 WVK589728:WVL589826 B655264:C655362 IY655264:IZ655362 SU655264:SV655362 ACQ655264:ACR655362 AMM655264:AMN655362 AWI655264:AWJ655362 BGE655264:BGF655362 BQA655264:BQB655362 BZW655264:BZX655362 CJS655264:CJT655362 CTO655264:CTP655362 DDK655264:DDL655362 DNG655264:DNH655362 DXC655264:DXD655362 EGY655264:EGZ655362 EQU655264:EQV655362 FAQ655264:FAR655362 FKM655264:FKN655362 FUI655264:FUJ655362 GEE655264:GEF655362 GOA655264:GOB655362 GXW655264:GXX655362 HHS655264:HHT655362 HRO655264:HRP655362 IBK655264:IBL655362 ILG655264:ILH655362 IVC655264:IVD655362 JEY655264:JEZ655362 JOU655264:JOV655362 JYQ655264:JYR655362 KIM655264:KIN655362 KSI655264:KSJ655362 LCE655264:LCF655362 LMA655264:LMB655362 LVW655264:LVX655362 MFS655264:MFT655362 MPO655264:MPP655362 MZK655264:MZL655362 NJG655264:NJH655362 NTC655264:NTD655362 OCY655264:OCZ655362 OMU655264:OMV655362 OWQ655264:OWR655362 PGM655264:PGN655362 PQI655264:PQJ655362 QAE655264:QAF655362 QKA655264:QKB655362 QTW655264:QTX655362 RDS655264:RDT655362 RNO655264:RNP655362 RXK655264:RXL655362 SHG655264:SHH655362 SRC655264:SRD655362 TAY655264:TAZ655362 TKU655264:TKV655362 TUQ655264:TUR655362 UEM655264:UEN655362 UOI655264:UOJ655362 UYE655264:UYF655362 VIA655264:VIB655362 VRW655264:VRX655362 WBS655264:WBT655362 WLO655264:WLP655362 WVK655264:WVL655362 B720800:C720898 IY720800:IZ720898 SU720800:SV720898 ACQ720800:ACR720898 AMM720800:AMN720898 AWI720800:AWJ720898 BGE720800:BGF720898 BQA720800:BQB720898 BZW720800:BZX720898 CJS720800:CJT720898 CTO720800:CTP720898 DDK720800:DDL720898 DNG720800:DNH720898 DXC720800:DXD720898 EGY720800:EGZ720898 EQU720800:EQV720898 FAQ720800:FAR720898 FKM720800:FKN720898 FUI720800:FUJ720898 GEE720800:GEF720898 GOA720800:GOB720898 GXW720800:GXX720898 HHS720800:HHT720898 HRO720800:HRP720898 IBK720800:IBL720898 ILG720800:ILH720898 IVC720800:IVD720898 JEY720800:JEZ720898 JOU720800:JOV720898 JYQ720800:JYR720898 KIM720800:KIN720898 KSI720800:KSJ720898 LCE720800:LCF720898 LMA720800:LMB720898 LVW720800:LVX720898 MFS720800:MFT720898 MPO720800:MPP720898 MZK720800:MZL720898 NJG720800:NJH720898 NTC720800:NTD720898 OCY720800:OCZ720898 OMU720800:OMV720898 OWQ720800:OWR720898 PGM720800:PGN720898 PQI720800:PQJ720898 QAE720800:QAF720898 QKA720800:QKB720898 QTW720800:QTX720898 RDS720800:RDT720898 RNO720800:RNP720898 RXK720800:RXL720898 SHG720800:SHH720898 SRC720800:SRD720898 TAY720800:TAZ720898 TKU720800:TKV720898 TUQ720800:TUR720898 UEM720800:UEN720898 UOI720800:UOJ720898 UYE720800:UYF720898 VIA720800:VIB720898 VRW720800:VRX720898 WBS720800:WBT720898 WLO720800:WLP720898 WVK720800:WVL720898 B786336:C786434 IY786336:IZ786434 SU786336:SV786434 ACQ786336:ACR786434 AMM786336:AMN786434 AWI786336:AWJ786434 BGE786336:BGF786434 BQA786336:BQB786434 BZW786336:BZX786434 CJS786336:CJT786434 CTO786336:CTP786434 DDK786336:DDL786434 DNG786336:DNH786434 DXC786336:DXD786434 EGY786336:EGZ786434 EQU786336:EQV786434 FAQ786336:FAR786434 FKM786336:FKN786434 FUI786336:FUJ786434 GEE786336:GEF786434 GOA786336:GOB786434 GXW786336:GXX786434 HHS786336:HHT786434 HRO786336:HRP786434 IBK786336:IBL786434 ILG786336:ILH786434 IVC786336:IVD786434 JEY786336:JEZ786434 JOU786336:JOV786434 JYQ786336:JYR786434 KIM786336:KIN786434 KSI786336:KSJ786434 LCE786336:LCF786434 LMA786336:LMB786434 LVW786336:LVX786434 MFS786336:MFT786434 MPO786336:MPP786434 MZK786336:MZL786434 NJG786336:NJH786434 NTC786336:NTD786434 OCY786336:OCZ786434 OMU786336:OMV786434 OWQ786336:OWR786434 PGM786336:PGN786434 PQI786336:PQJ786434 QAE786336:QAF786434 QKA786336:QKB786434 QTW786336:QTX786434 RDS786336:RDT786434 RNO786336:RNP786434 RXK786336:RXL786434 SHG786336:SHH786434 SRC786336:SRD786434 TAY786336:TAZ786434 TKU786336:TKV786434 TUQ786336:TUR786434 UEM786336:UEN786434 UOI786336:UOJ786434 UYE786336:UYF786434 VIA786336:VIB786434 VRW786336:VRX786434 WBS786336:WBT786434 WLO786336:WLP786434 WVK786336:WVL786434 B851872:C851970 IY851872:IZ851970 SU851872:SV851970 ACQ851872:ACR851970 AMM851872:AMN851970 AWI851872:AWJ851970 BGE851872:BGF851970 BQA851872:BQB851970 BZW851872:BZX851970 CJS851872:CJT851970 CTO851872:CTP851970 DDK851872:DDL851970 DNG851872:DNH851970 DXC851872:DXD851970 EGY851872:EGZ851970 EQU851872:EQV851970 FAQ851872:FAR851970 FKM851872:FKN851970 FUI851872:FUJ851970 GEE851872:GEF851970 GOA851872:GOB851970 GXW851872:GXX851970 HHS851872:HHT851970 HRO851872:HRP851970 IBK851872:IBL851970 ILG851872:ILH851970 IVC851872:IVD851970 JEY851872:JEZ851970 JOU851872:JOV851970 JYQ851872:JYR851970 KIM851872:KIN851970 KSI851872:KSJ851970 LCE851872:LCF851970 LMA851872:LMB851970 LVW851872:LVX851970 MFS851872:MFT851970 MPO851872:MPP851970 MZK851872:MZL851970 NJG851872:NJH851970 NTC851872:NTD851970 OCY851872:OCZ851970 OMU851872:OMV851970 OWQ851872:OWR851970 PGM851872:PGN851970 PQI851872:PQJ851970 QAE851872:QAF851970 QKA851872:QKB851970 QTW851872:QTX851970 RDS851872:RDT851970 RNO851872:RNP851970 RXK851872:RXL851970 SHG851872:SHH851970 SRC851872:SRD851970 TAY851872:TAZ851970 TKU851872:TKV851970 TUQ851872:TUR851970 UEM851872:UEN851970 UOI851872:UOJ851970 UYE851872:UYF851970 VIA851872:VIB851970 VRW851872:VRX851970 WBS851872:WBT851970 WLO851872:WLP851970 WVK851872:WVL851970 B917408:C917506 IY917408:IZ917506 SU917408:SV917506 ACQ917408:ACR917506 AMM917408:AMN917506 AWI917408:AWJ917506 BGE917408:BGF917506 BQA917408:BQB917506 BZW917408:BZX917506 CJS917408:CJT917506 CTO917408:CTP917506 DDK917408:DDL917506 DNG917408:DNH917506 DXC917408:DXD917506 EGY917408:EGZ917506 EQU917408:EQV917506 FAQ917408:FAR917506 FKM917408:FKN917506 FUI917408:FUJ917506 GEE917408:GEF917506 GOA917408:GOB917506 GXW917408:GXX917506 HHS917408:HHT917506 HRO917408:HRP917506 IBK917408:IBL917506 ILG917408:ILH917506 IVC917408:IVD917506 JEY917408:JEZ917506 JOU917408:JOV917506 JYQ917408:JYR917506 KIM917408:KIN917506 KSI917408:KSJ917506 LCE917408:LCF917506 LMA917408:LMB917506 LVW917408:LVX917506 MFS917408:MFT917506 MPO917408:MPP917506 MZK917408:MZL917506 NJG917408:NJH917506 NTC917408:NTD917506 OCY917408:OCZ917506 OMU917408:OMV917506 OWQ917408:OWR917506 PGM917408:PGN917506 PQI917408:PQJ917506 QAE917408:QAF917506 QKA917408:QKB917506 QTW917408:QTX917506 RDS917408:RDT917506 RNO917408:RNP917506 RXK917408:RXL917506 SHG917408:SHH917506 SRC917408:SRD917506 TAY917408:TAZ917506 TKU917408:TKV917506 TUQ917408:TUR917506 UEM917408:UEN917506 UOI917408:UOJ917506 UYE917408:UYF917506 VIA917408:VIB917506 VRW917408:VRX917506 WBS917408:WBT917506 WLO917408:WLP917506 WVK917408:WVL917506 B982944:C983042 IY982944:IZ983042 SU982944:SV983042 ACQ982944:ACR983042 AMM982944:AMN983042 AWI982944:AWJ983042 BGE982944:BGF983042 BQA982944:BQB983042 BZW982944:BZX983042 CJS982944:CJT983042 CTO982944:CTP983042 DDK982944:DDL983042 DNG982944:DNH983042 DXC982944:DXD983042 EGY982944:EGZ983042 EQU982944:EQV983042 FAQ982944:FAR983042 FKM982944:FKN983042 FUI982944:FUJ983042 GEE982944:GEF983042 GOA982944:GOB983042 GXW982944:GXX983042 HHS982944:HHT983042 HRO982944:HRP983042 IBK982944:IBL983042 ILG982944:ILH983042 IVC982944:IVD983042 JEY982944:JEZ983042 JOU982944:JOV983042 JYQ982944:JYR983042 KIM982944:KIN983042 KSI982944:KSJ983042 LCE982944:LCF983042 LMA982944:LMB983042 LVW982944:LVX983042 MFS982944:MFT983042 MPO982944:MPP983042 MZK982944:MZL983042 NJG982944:NJH983042 NTC982944:NTD983042 OCY982944:OCZ983042 OMU982944:OMV983042 OWQ982944:OWR983042 PGM982944:PGN983042 PQI982944:PQJ983042 QAE982944:QAF983042 QKA982944:QKB983042 QTW982944:QTX983042 RDS982944:RDT983042 RNO982944:RNP983042 RXK982944:RXL983042 SHG982944:SHH983042 SRC982944:SRD983042 TAY982944:TAZ983042 TKU982944:TKV983042 TUQ982944:TUR983042 UEM982944:UEN983042 UOI982944:UOJ983042 UYE982944:UYF983042 VIA982944:VIB983042 VRW982944:VRX983042 WBS982944:WBT983042 WLO982944:WLP983042 WVK982944:WVL983042" xr:uid="{F700882C-73D7-4454-9A54-D8122D5EF7BC}">
       <formula1>0</formula1>
       <formula2>33</formula2>
     </dataValidation>

--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BF7D4-DEED-4453-8185-5CDCE36EA151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87368753-CE76-49CA-A772-AD9B495BBE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Applicationstest" sheetId="3" r:id="rId1"/>
@@ -4254,7 +4254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A335A-DF47-4048-BD00-1A46210CB849}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -5557,7 +5557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833B96B-2C0E-4E43-AF85-5C4893152894}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>

--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87368753-CE76-49CA-A772-AD9B495BBE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D07FC49F-A483-4C32-8C8E-3F8528F0F78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Applicationstest" sheetId="3" r:id="rId1"/>
@@ -19,21 +14,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Applications '!$A$1:$Y$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$AB$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -284,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3C4B022B-B11B-43B7-BBD3-3D8584E37FA3}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3C4B022B-B11B-43B7-BBD3-3D8584E37FA3}">
       <text>
         <r>
           <rPr>
@@ -340,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3B26EEC2-D932-453E-84C6-055A82AA2059}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3B26EEC2-D932-453E-84C6-055A82AA2059}">
       <text>
         <r>
           <rPr>
@@ -397,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FA1004F5-1523-4436-8116-7071ED61C410}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FA1004F5-1523-4436-8116-7071ED61C410}">
       <text>
         <r>
           <rPr>
@@ -530,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{890FFF2E-5D79-4F03-B3F9-9E3A4BB8A8AD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{890FFF2E-5D79-4F03-B3F9-9E3A4BB8A8AD}">
       <text>
         <r>
           <rPr>
@@ -663,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4A3820FA-946A-4DFE-966F-D7CD2DDD7714}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4A3820FA-946A-4DFE-966F-D7CD2DDD7714}">
       <text>
         <r>
           <rPr>
@@ -747,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
       <text>
         <r>
           <rPr>
@@ -833,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
       <text>
         <r>
           <rPr>
@@ -900,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
       <text>
         <r>
           <rPr>
@@ -1419,7 +1406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
       <text>
         <r>
           <rPr>
@@ -1590,7 +1577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
       <text>
         <r>
           <rPr>
@@ -1678,7 +1665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
       <text>
         <r>
           <rPr>
@@ -1722,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
       <text>
         <r>
           <rPr>
@@ -1767,7 +1754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
       <text>
         <r>
           <rPr>
@@ -3592,7 +3579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>UserName</t>
   </si>
@@ -3762,13 +3749,22 @@
     <t>SMITH</t>
   </si>
   <si>
-    <t>nlibuit@comcast.net</t>
+    <t>Birth Day</t>
   </si>
   <si>
-    <t>God!sgood1</t>
+    <t>xxxx@google.com</t>
   </si>
   <si>
-    <t>Birth Day</t>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Birth Month</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
   </si>
 </sst>
 </file>
@@ -4252,1110 +4248,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A335A-DF47-4048-BD00-1A46210CB849}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="22.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="12" customWidth="1"/>
-    <col min="10" max="11" width="26.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="15" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="12" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="12"/>
-    <col min="23" max="23" width="15.7109375" style="12" customWidth="1"/>
-    <col min="24" max="24" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="22.7109375" style="12" customWidth="1"/>
-    <col min="258" max="258" width="25.7109375" customWidth="1"/>
-    <col min="259" max="260" width="20.7109375" customWidth="1"/>
-    <col min="261" max="261" width="20.28515625" customWidth="1"/>
-    <col min="263" max="263" width="22.7109375" customWidth="1"/>
-    <col min="264" max="264" width="15.7109375" customWidth="1"/>
-    <col min="265" max="265" width="18.7109375" customWidth="1"/>
-    <col min="266" max="267" width="26.5703125" customWidth="1"/>
-    <col min="268" max="268" width="15.7109375" customWidth="1"/>
-    <col min="269" max="269" width="20.140625" customWidth="1"/>
-    <col min="270" max="271" width="15.7109375" customWidth="1"/>
-    <col min="272" max="273" width="12.7109375" customWidth="1"/>
-    <col min="274" max="275" width="13.7109375" customWidth="1"/>
-    <col min="276" max="276" width="14.7109375" customWidth="1"/>
-    <col min="277" max="277" width="11.28515625" customWidth="1"/>
-    <col min="279" max="279" width="15.7109375" customWidth="1"/>
-    <col min="280" max="280" width="40" bestFit="1" customWidth="1"/>
-    <col min="281" max="282" width="22.7109375" customWidth="1"/>
-    <col min="514" max="514" width="25.7109375" customWidth="1"/>
-    <col min="515" max="516" width="20.7109375" customWidth="1"/>
-    <col min="517" max="517" width="20.28515625" customWidth="1"/>
-    <col min="519" max="519" width="22.7109375" customWidth="1"/>
-    <col min="520" max="520" width="15.7109375" customWidth="1"/>
-    <col min="521" max="521" width="18.7109375" customWidth="1"/>
-    <col min="522" max="523" width="26.5703125" customWidth="1"/>
-    <col min="524" max="524" width="15.7109375" customWidth="1"/>
-    <col min="525" max="525" width="20.140625" customWidth="1"/>
-    <col min="526" max="527" width="15.7109375" customWidth="1"/>
-    <col min="528" max="529" width="12.7109375" customWidth="1"/>
-    <col min="530" max="531" width="13.7109375" customWidth="1"/>
-    <col min="532" max="532" width="14.7109375" customWidth="1"/>
-    <col min="533" max="533" width="11.28515625" customWidth="1"/>
-    <col min="535" max="535" width="15.7109375" customWidth="1"/>
-    <col min="536" max="536" width="40" bestFit="1" customWidth="1"/>
-    <col min="537" max="538" width="22.7109375" customWidth="1"/>
-    <col min="770" max="770" width="25.7109375" customWidth="1"/>
-    <col min="771" max="772" width="20.7109375" customWidth="1"/>
-    <col min="773" max="773" width="20.28515625" customWidth="1"/>
-    <col min="775" max="775" width="22.7109375" customWidth="1"/>
-    <col min="776" max="776" width="15.7109375" customWidth="1"/>
-    <col min="777" max="777" width="18.7109375" customWidth="1"/>
-    <col min="778" max="779" width="26.5703125" customWidth="1"/>
-    <col min="780" max="780" width="15.7109375" customWidth="1"/>
-    <col min="781" max="781" width="20.140625" customWidth="1"/>
-    <col min="782" max="783" width="15.7109375" customWidth="1"/>
-    <col min="784" max="785" width="12.7109375" customWidth="1"/>
-    <col min="786" max="787" width="13.7109375" customWidth="1"/>
-    <col min="788" max="788" width="14.7109375" customWidth="1"/>
-    <col min="789" max="789" width="11.28515625" customWidth="1"/>
-    <col min="791" max="791" width="15.7109375" customWidth="1"/>
-    <col min="792" max="792" width="40" bestFit="1" customWidth="1"/>
-    <col min="793" max="794" width="22.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="25.7109375" customWidth="1"/>
-    <col min="1027" max="1028" width="20.7109375" customWidth="1"/>
-    <col min="1029" max="1029" width="20.28515625" customWidth="1"/>
-    <col min="1031" max="1031" width="22.7109375" customWidth="1"/>
-    <col min="1032" max="1032" width="15.7109375" customWidth="1"/>
-    <col min="1033" max="1033" width="18.7109375" customWidth="1"/>
-    <col min="1034" max="1035" width="26.5703125" customWidth="1"/>
-    <col min="1036" max="1036" width="15.7109375" customWidth="1"/>
-    <col min="1037" max="1037" width="20.140625" customWidth="1"/>
-    <col min="1038" max="1039" width="15.7109375" customWidth="1"/>
-    <col min="1040" max="1041" width="12.7109375" customWidth="1"/>
-    <col min="1042" max="1043" width="13.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="14.7109375" customWidth="1"/>
-    <col min="1045" max="1045" width="11.28515625" customWidth="1"/>
-    <col min="1047" max="1047" width="15.7109375" customWidth="1"/>
-    <col min="1048" max="1048" width="40" bestFit="1" customWidth="1"/>
-    <col min="1049" max="1050" width="22.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="25.7109375" customWidth="1"/>
-    <col min="1283" max="1284" width="20.7109375" customWidth="1"/>
-    <col min="1285" max="1285" width="20.28515625" customWidth="1"/>
-    <col min="1287" max="1287" width="22.7109375" customWidth="1"/>
-    <col min="1288" max="1288" width="15.7109375" customWidth="1"/>
-    <col min="1289" max="1289" width="18.7109375" customWidth="1"/>
-    <col min="1290" max="1291" width="26.5703125" customWidth="1"/>
-    <col min="1292" max="1292" width="15.7109375" customWidth="1"/>
-    <col min="1293" max="1293" width="20.140625" customWidth="1"/>
-    <col min="1294" max="1295" width="15.7109375" customWidth="1"/>
-    <col min="1296" max="1297" width="12.7109375" customWidth="1"/>
-    <col min="1298" max="1299" width="13.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="14.7109375" customWidth="1"/>
-    <col min="1301" max="1301" width="11.28515625" customWidth="1"/>
-    <col min="1303" max="1303" width="15.7109375" customWidth="1"/>
-    <col min="1304" max="1304" width="40" bestFit="1" customWidth="1"/>
-    <col min="1305" max="1306" width="22.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="25.7109375" customWidth="1"/>
-    <col min="1539" max="1540" width="20.7109375" customWidth="1"/>
-    <col min="1541" max="1541" width="20.28515625" customWidth="1"/>
-    <col min="1543" max="1543" width="22.7109375" customWidth="1"/>
-    <col min="1544" max="1544" width="15.7109375" customWidth="1"/>
-    <col min="1545" max="1545" width="18.7109375" customWidth="1"/>
-    <col min="1546" max="1547" width="26.5703125" customWidth="1"/>
-    <col min="1548" max="1548" width="15.7109375" customWidth="1"/>
-    <col min="1549" max="1549" width="20.140625" customWidth="1"/>
-    <col min="1550" max="1551" width="15.7109375" customWidth="1"/>
-    <col min="1552" max="1553" width="12.7109375" customWidth="1"/>
-    <col min="1554" max="1555" width="13.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="14.7109375" customWidth="1"/>
-    <col min="1557" max="1557" width="11.28515625" customWidth="1"/>
-    <col min="1559" max="1559" width="15.7109375" customWidth="1"/>
-    <col min="1560" max="1560" width="40" bestFit="1" customWidth="1"/>
-    <col min="1561" max="1562" width="22.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="25.7109375" customWidth="1"/>
-    <col min="1795" max="1796" width="20.7109375" customWidth="1"/>
-    <col min="1797" max="1797" width="20.28515625" customWidth="1"/>
-    <col min="1799" max="1799" width="22.7109375" customWidth="1"/>
-    <col min="1800" max="1800" width="15.7109375" customWidth="1"/>
-    <col min="1801" max="1801" width="18.7109375" customWidth="1"/>
-    <col min="1802" max="1803" width="26.5703125" customWidth="1"/>
-    <col min="1804" max="1804" width="15.7109375" customWidth="1"/>
-    <col min="1805" max="1805" width="20.140625" customWidth="1"/>
-    <col min="1806" max="1807" width="15.7109375" customWidth="1"/>
-    <col min="1808" max="1809" width="12.7109375" customWidth="1"/>
-    <col min="1810" max="1811" width="13.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="14.7109375" customWidth="1"/>
-    <col min="1813" max="1813" width="11.28515625" customWidth="1"/>
-    <col min="1815" max="1815" width="15.7109375" customWidth="1"/>
-    <col min="1816" max="1816" width="40" bestFit="1" customWidth="1"/>
-    <col min="1817" max="1818" width="22.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="25.7109375" customWidth="1"/>
-    <col min="2051" max="2052" width="20.7109375" customWidth="1"/>
-    <col min="2053" max="2053" width="20.28515625" customWidth="1"/>
-    <col min="2055" max="2055" width="22.7109375" customWidth="1"/>
-    <col min="2056" max="2056" width="15.7109375" customWidth="1"/>
-    <col min="2057" max="2057" width="18.7109375" customWidth="1"/>
-    <col min="2058" max="2059" width="26.5703125" customWidth="1"/>
-    <col min="2060" max="2060" width="15.7109375" customWidth="1"/>
-    <col min="2061" max="2061" width="20.140625" customWidth="1"/>
-    <col min="2062" max="2063" width="15.7109375" customWidth="1"/>
-    <col min="2064" max="2065" width="12.7109375" customWidth="1"/>
-    <col min="2066" max="2067" width="13.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="14.7109375" customWidth="1"/>
-    <col min="2069" max="2069" width="11.28515625" customWidth="1"/>
-    <col min="2071" max="2071" width="15.7109375" customWidth="1"/>
-    <col min="2072" max="2072" width="40" bestFit="1" customWidth="1"/>
-    <col min="2073" max="2074" width="22.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="25.7109375" customWidth="1"/>
-    <col min="2307" max="2308" width="20.7109375" customWidth="1"/>
-    <col min="2309" max="2309" width="20.28515625" customWidth="1"/>
-    <col min="2311" max="2311" width="22.7109375" customWidth="1"/>
-    <col min="2312" max="2312" width="15.7109375" customWidth="1"/>
-    <col min="2313" max="2313" width="18.7109375" customWidth="1"/>
-    <col min="2314" max="2315" width="26.5703125" customWidth="1"/>
-    <col min="2316" max="2316" width="15.7109375" customWidth="1"/>
-    <col min="2317" max="2317" width="20.140625" customWidth="1"/>
-    <col min="2318" max="2319" width="15.7109375" customWidth="1"/>
-    <col min="2320" max="2321" width="12.7109375" customWidth="1"/>
-    <col min="2322" max="2323" width="13.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="14.7109375" customWidth="1"/>
-    <col min="2325" max="2325" width="11.28515625" customWidth="1"/>
-    <col min="2327" max="2327" width="15.7109375" customWidth="1"/>
-    <col min="2328" max="2328" width="40" bestFit="1" customWidth="1"/>
-    <col min="2329" max="2330" width="22.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="25.7109375" customWidth="1"/>
-    <col min="2563" max="2564" width="20.7109375" customWidth="1"/>
-    <col min="2565" max="2565" width="20.28515625" customWidth="1"/>
-    <col min="2567" max="2567" width="22.7109375" customWidth="1"/>
-    <col min="2568" max="2568" width="15.7109375" customWidth="1"/>
-    <col min="2569" max="2569" width="18.7109375" customWidth="1"/>
-    <col min="2570" max="2571" width="26.5703125" customWidth="1"/>
-    <col min="2572" max="2572" width="15.7109375" customWidth="1"/>
-    <col min="2573" max="2573" width="20.140625" customWidth="1"/>
-    <col min="2574" max="2575" width="15.7109375" customWidth="1"/>
-    <col min="2576" max="2577" width="12.7109375" customWidth="1"/>
-    <col min="2578" max="2579" width="13.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="14.7109375" customWidth="1"/>
-    <col min="2581" max="2581" width="11.28515625" customWidth="1"/>
-    <col min="2583" max="2583" width="15.7109375" customWidth="1"/>
-    <col min="2584" max="2584" width="40" bestFit="1" customWidth="1"/>
-    <col min="2585" max="2586" width="22.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="25.7109375" customWidth="1"/>
-    <col min="2819" max="2820" width="20.7109375" customWidth="1"/>
-    <col min="2821" max="2821" width="20.28515625" customWidth="1"/>
-    <col min="2823" max="2823" width="22.7109375" customWidth="1"/>
-    <col min="2824" max="2824" width="15.7109375" customWidth="1"/>
-    <col min="2825" max="2825" width="18.7109375" customWidth="1"/>
-    <col min="2826" max="2827" width="26.5703125" customWidth="1"/>
-    <col min="2828" max="2828" width="15.7109375" customWidth="1"/>
-    <col min="2829" max="2829" width="20.140625" customWidth="1"/>
-    <col min="2830" max="2831" width="15.7109375" customWidth="1"/>
-    <col min="2832" max="2833" width="12.7109375" customWidth="1"/>
-    <col min="2834" max="2835" width="13.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="14.7109375" customWidth="1"/>
-    <col min="2837" max="2837" width="11.28515625" customWidth="1"/>
-    <col min="2839" max="2839" width="15.7109375" customWidth="1"/>
-    <col min="2840" max="2840" width="40" bestFit="1" customWidth="1"/>
-    <col min="2841" max="2842" width="22.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="25.7109375" customWidth="1"/>
-    <col min="3075" max="3076" width="20.7109375" customWidth="1"/>
-    <col min="3077" max="3077" width="20.28515625" customWidth="1"/>
-    <col min="3079" max="3079" width="22.7109375" customWidth="1"/>
-    <col min="3080" max="3080" width="15.7109375" customWidth="1"/>
-    <col min="3081" max="3081" width="18.7109375" customWidth="1"/>
-    <col min="3082" max="3083" width="26.5703125" customWidth="1"/>
-    <col min="3084" max="3084" width="15.7109375" customWidth="1"/>
-    <col min="3085" max="3085" width="20.140625" customWidth="1"/>
-    <col min="3086" max="3087" width="15.7109375" customWidth="1"/>
-    <col min="3088" max="3089" width="12.7109375" customWidth="1"/>
-    <col min="3090" max="3091" width="13.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="14.7109375" customWidth="1"/>
-    <col min="3093" max="3093" width="11.28515625" customWidth="1"/>
-    <col min="3095" max="3095" width="15.7109375" customWidth="1"/>
-    <col min="3096" max="3096" width="40" bestFit="1" customWidth="1"/>
-    <col min="3097" max="3098" width="22.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="25.7109375" customWidth="1"/>
-    <col min="3331" max="3332" width="20.7109375" customWidth="1"/>
-    <col min="3333" max="3333" width="20.28515625" customWidth="1"/>
-    <col min="3335" max="3335" width="22.7109375" customWidth="1"/>
-    <col min="3336" max="3336" width="15.7109375" customWidth="1"/>
-    <col min="3337" max="3337" width="18.7109375" customWidth="1"/>
-    <col min="3338" max="3339" width="26.5703125" customWidth="1"/>
-    <col min="3340" max="3340" width="15.7109375" customWidth="1"/>
-    <col min="3341" max="3341" width="20.140625" customWidth="1"/>
-    <col min="3342" max="3343" width="15.7109375" customWidth="1"/>
-    <col min="3344" max="3345" width="12.7109375" customWidth="1"/>
-    <col min="3346" max="3347" width="13.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="14.7109375" customWidth="1"/>
-    <col min="3349" max="3349" width="11.28515625" customWidth="1"/>
-    <col min="3351" max="3351" width="15.7109375" customWidth="1"/>
-    <col min="3352" max="3352" width="40" bestFit="1" customWidth="1"/>
-    <col min="3353" max="3354" width="22.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="25.7109375" customWidth="1"/>
-    <col min="3587" max="3588" width="20.7109375" customWidth="1"/>
-    <col min="3589" max="3589" width="20.28515625" customWidth="1"/>
-    <col min="3591" max="3591" width="22.7109375" customWidth="1"/>
-    <col min="3592" max="3592" width="15.7109375" customWidth="1"/>
-    <col min="3593" max="3593" width="18.7109375" customWidth="1"/>
-    <col min="3594" max="3595" width="26.5703125" customWidth="1"/>
-    <col min="3596" max="3596" width="15.7109375" customWidth="1"/>
-    <col min="3597" max="3597" width="20.140625" customWidth="1"/>
-    <col min="3598" max="3599" width="15.7109375" customWidth="1"/>
-    <col min="3600" max="3601" width="12.7109375" customWidth="1"/>
-    <col min="3602" max="3603" width="13.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="14.7109375" customWidth="1"/>
-    <col min="3605" max="3605" width="11.28515625" customWidth="1"/>
-    <col min="3607" max="3607" width="15.7109375" customWidth="1"/>
-    <col min="3608" max="3608" width="40" bestFit="1" customWidth="1"/>
-    <col min="3609" max="3610" width="22.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="25.7109375" customWidth="1"/>
-    <col min="3843" max="3844" width="20.7109375" customWidth="1"/>
-    <col min="3845" max="3845" width="20.28515625" customWidth="1"/>
-    <col min="3847" max="3847" width="22.7109375" customWidth="1"/>
-    <col min="3848" max="3848" width="15.7109375" customWidth="1"/>
-    <col min="3849" max="3849" width="18.7109375" customWidth="1"/>
-    <col min="3850" max="3851" width="26.5703125" customWidth="1"/>
-    <col min="3852" max="3852" width="15.7109375" customWidth="1"/>
-    <col min="3853" max="3853" width="20.140625" customWidth="1"/>
-    <col min="3854" max="3855" width="15.7109375" customWidth="1"/>
-    <col min="3856" max="3857" width="12.7109375" customWidth="1"/>
-    <col min="3858" max="3859" width="13.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="14.7109375" customWidth="1"/>
-    <col min="3861" max="3861" width="11.28515625" customWidth="1"/>
-    <col min="3863" max="3863" width="15.7109375" customWidth="1"/>
-    <col min="3864" max="3864" width="40" bestFit="1" customWidth="1"/>
-    <col min="3865" max="3866" width="22.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="25.7109375" customWidth="1"/>
-    <col min="4099" max="4100" width="20.7109375" customWidth="1"/>
-    <col min="4101" max="4101" width="20.28515625" customWidth="1"/>
-    <col min="4103" max="4103" width="22.7109375" customWidth="1"/>
-    <col min="4104" max="4104" width="15.7109375" customWidth="1"/>
-    <col min="4105" max="4105" width="18.7109375" customWidth="1"/>
-    <col min="4106" max="4107" width="26.5703125" customWidth="1"/>
-    <col min="4108" max="4108" width="15.7109375" customWidth="1"/>
-    <col min="4109" max="4109" width="20.140625" customWidth="1"/>
-    <col min="4110" max="4111" width="15.7109375" customWidth="1"/>
-    <col min="4112" max="4113" width="12.7109375" customWidth="1"/>
-    <col min="4114" max="4115" width="13.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="14.7109375" customWidth="1"/>
-    <col min="4117" max="4117" width="11.28515625" customWidth="1"/>
-    <col min="4119" max="4119" width="15.7109375" customWidth="1"/>
-    <col min="4120" max="4120" width="40" bestFit="1" customWidth="1"/>
-    <col min="4121" max="4122" width="22.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="25.7109375" customWidth="1"/>
-    <col min="4355" max="4356" width="20.7109375" customWidth="1"/>
-    <col min="4357" max="4357" width="20.28515625" customWidth="1"/>
-    <col min="4359" max="4359" width="22.7109375" customWidth="1"/>
-    <col min="4360" max="4360" width="15.7109375" customWidth="1"/>
-    <col min="4361" max="4361" width="18.7109375" customWidth="1"/>
-    <col min="4362" max="4363" width="26.5703125" customWidth="1"/>
-    <col min="4364" max="4364" width="15.7109375" customWidth="1"/>
-    <col min="4365" max="4365" width="20.140625" customWidth="1"/>
-    <col min="4366" max="4367" width="15.7109375" customWidth="1"/>
-    <col min="4368" max="4369" width="12.7109375" customWidth="1"/>
-    <col min="4370" max="4371" width="13.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="14.7109375" customWidth="1"/>
-    <col min="4373" max="4373" width="11.28515625" customWidth="1"/>
-    <col min="4375" max="4375" width="15.7109375" customWidth="1"/>
-    <col min="4376" max="4376" width="40" bestFit="1" customWidth="1"/>
-    <col min="4377" max="4378" width="22.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="25.7109375" customWidth="1"/>
-    <col min="4611" max="4612" width="20.7109375" customWidth="1"/>
-    <col min="4613" max="4613" width="20.28515625" customWidth="1"/>
-    <col min="4615" max="4615" width="22.7109375" customWidth="1"/>
-    <col min="4616" max="4616" width="15.7109375" customWidth="1"/>
-    <col min="4617" max="4617" width="18.7109375" customWidth="1"/>
-    <col min="4618" max="4619" width="26.5703125" customWidth="1"/>
-    <col min="4620" max="4620" width="15.7109375" customWidth="1"/>
-    <col min="4621" max="4621" width="20.140625" customWidth="1"/>
-    <col min="4622" max="4623" width="15.7109375" customWidth="1"/>
-    <col min="4624" max="4625" width="12.7109375" customWidth="1"/>
-    <col min="4626" max="4627" width="13.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="14.7109375" customWidth="1"/>
-    <col min="4629" max="4629" width="11.28515625" customWidth="1"/>
-    <col min="4631" max="4631" width="15.7109375" customWidth="1"/>
-    <col min="4632" max="4632" width="40" bestFit="1" customWidth="1"/>
-    <col min="4633" max="4634" width="22.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="25.7109375" customWidth="1"/>
-    <col min="4867" max="4868" width="20.7109375" customWidth="1"/>
-    <col min="4869" max="4869" width="20.28515625" customWidth="1"/>
-    <col min="4871" max="4871" width="22.7109375" customWidth="1"/>
-    <col min="4872" max="4872" width="15.7109375" customWidth="1"/>
-    <col min="4873" max="4873" width="18.7109375" customWidth="1"/>
-    <col min="4874" max="4875" width="26.5703125" customWidth="1"/>
-    <col min="4876" max="4876" width="15.7109375" customWidth="1"/>
-    <col min="4877" max="4877" width="20.140625" customWidth="1"/>
-    <col min="4878" max="4879" width="15.7109375" customWidth="1"/>
-    <col min="4880" max="4881" width="12.7109375" customWidth="1"/>
-    <col min="4882" max="4883" width="13.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="14.7109375" customWidth="1"/>
-    <col min="4885" max="4885" width="11.28515625" customWidth="1"/>
-    <col min="4887" max="4887" width="15.7109375" customWidth="1"/>
-    <col min="4888" max="4888" width="40" bestFit="1" customWidth="1"/>
-    <col min="4889" max="4890" width="22.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="25.7109375" customWidth="1"/>
-    <col min="5123" max="5124" width="20.7109375" customWidth="1"/>
-    <col min="5125" max="5125" width="20.28515625" customWidth="1"/>
-    <col min="5127" max="5127" width="22.7109375" customWidth="1"/>
-    <col min="5128" max="5128" width="15.7109375" customWidth="1"/>
-    <col min="5129" max="5129" width="18.7109375" customWidth="1"/>
-    <col min="5130" max="5131" width="26.5703125" customWidth="1"/>
-    <col min="5132" max="5132" width="15.7109375" customWidth="1"/>
-    <col min="5133" max="5133" width="20.140625" customWidth="1"/>
-    <col min="5134" max="5135" width="15.7109375" customWidth="1"/>
-    <col min="5136" max="5137" width="12.7109375" customWidth="1"/>
-    <col min="5138" max="5139" width="13.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="14.7109375" customWidth="1"/>
-    <col min="5141" max="5141" width="11.28515625" customWidth="1"/>
-    <col min="5143" max="5143" width="15.7109375" customWidth="1"/>
-    <col min="5144" max="5144" width="40" bestFit="1" customWidth="1"/>
-    <col min="5145" max="5146" width="22.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="25.7109375" customWidth="1"/>
-    <col min="5379" max="5380" width="20.7109375" customWidth="1"/>
-    <col min="5381" max="5381" width="20.28515625" customWidth="1"/>
-    <col min="5383" max="5383" width="22.7109375" customWidth="1"/>
-    <col min="5384" max="5384" width="15.7109375" customWidth="1"/>
-    <col min="5385" max="5385" width="18.7109375" customWidth="1"/>
-    <col min="5386" max="5387" width="26.5703125" customWidth="1"/>
-    <col min="5388" max="5388" width="15.7109375" customWidth="1"/>
-    <col min="5389" max="5389" width="20.140625" customWidth="1"/>
-    <col min="5390" max="5391" width="15.7109375" customWidth="1"/>
-    <col min="5392" max="5393" width="12.7109375" customWidth="1"/>
-    <col min="5394" max="5395" width="13.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="14.7109375" customWidth="1"/>
-    <col min="5397" max="5397" width="11.28515625" customWidth="1"/>
-    <col min="5399" max="5399" width="15.7109375" customWidth="1"/>
-    <col min="5400" max="5400" width="40" bestFit="1" customWidth="1"/>
-    <col min="5401" max="5402" width="22.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="25.7109375" customWidth="1"/>
-    <col min="5635" max="5636" width="20.7109375" customWidth="1"/>
-    <col min="5637" max="5637" width="20.28515625" customWidth="1"/>
-    <col min="5639" max="5639" width="22.7109375" customWidth="1"/>
-    <col min="5640" max="5640" width="15.7109375" customWidth="1"/>
-    <col min="5641" max="5641" width="18.7109375" customWidth="1"/>
-    <col min="5642" max="5643" width="26.5703125" customWidth="1"/>
-    <col min="5644" max="5644" width="15.7109375" customWidth="1"/>
-    <col min="5645" max="5645" width="20.140625" customWidth="1"/>
-    <col min="5646" max="5647" width="15.7109375" customWidth="1"/>
-    <col min="5648" max="5649" width="12.7109375" customWidth="1"/>
-    <col min="5650" max="5651" width="13.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="14.7109375" customWidth="1"/>
-    <col min="5653" max="5653" width="11.28515625" customWidth="1"/>
-    <col min="5655" max="5655" width="15.7109375" customWidth="1"/>
-    <col min="5656" max="5656" width="40" bestFit="1" customWidth="1"/>
-    <col min="5657" max="5658" width="22.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="25.7109375" customWidth="1"/>
-    <col min="5891" max="5892" width="20.7109375" customWidth="1"/>
-    <col min="5893" max="5893" width="20.28515625" customWidth="1"/>
-    <col min="5895" max="5895" width="22.7109375" customWidth="1"/>
-    <col min="5896" max="5896" width="15.7109375" customWidth="1"/>
-    <col min="5897" max="5897" width="18.7109375" customWidth="1"/>
-    <col min="5898" max="5899" width="26.5703125" customWidth="1"/>
-    <col min="5900" max="5900" width="15.7109375" customWidth="1"/>
-    <col min="5901" max="5901" width="20.140625" customWidth="1"/>
-    <col min="5902" max="5903" width="15.7109375" customWidth="1"/>
-    <col min="5904" max="5905" width="12.7109375" customWidth="1"/>
-    <col min="5906" max="5907" width="13.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="14.7109375" customWidth="1"/>
-    <col min="5909" max="5909" width="11.28515625" customWidth="1"/>
-    <col min="5911" max="5911" width="15.7109375" customWidth="1"/>
-    <col min="5912" max="5912" width="40" bestFit="1" customWidth="1"/>
-    <col min="5913" max="5914" width="22.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="25.7109375" customWidth="1"/>
-    <col min="6147" max="6148" width="20.7109375" customWidth="1"/>
-    <col min="6149" max="6149" width="20.28515625" customWidth="1"/>
-    <col min="6151" max="6151" width="22.7109375" customWidth="1"/>
-    <col min="6152" max="6152" width="15.7109375" customWidth="1"/>
-    <col min="6153" max="6153" width="18.7109375" customWidth="1"/>
-    <col min="6154" max="6155" width="26.5703125" customWidth="1"/>
-    <col min="6156" max="6156" width="15.7109375" customWidth="1"/>
-    <col min="6157" max="6157" width="20.140625" customWidth="1"/>
-    <col min="6158" max="6159" width="15.7109375" customWidth="1"/>
-    <col min="6160" max="6161" width="12.7109375" customWidth="1"/>
-    <col min="6162" max="6163" width="13.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="14.7109375" customWidth="1"/>
-    <col min="6165" max="6165" width="11.28515625" customWidth="1"/>
-    <col min="6167" max="6167" width="15.7109375" customWidth="1"/>
-    <col min="6168" max="6168" width="40" bestFit="1" customWidth="1"/>
-    <col min="6169" max="6170" width="22.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="25.7109375" customWidth="1"/>
-    <col min="6403" max="6404" width="20.7109375" customWidth="1"/>
-    <col min="6405" max="6405" width="20.28515625" customWidth="1"/>
-    <col min="6407" max="6407" width="22.7109375" customWidth="1"/>
-    <col min="6408" max="6408" width="15.7109375" customWidth="1"/>
-    <col min="6409" max="6409" width="18.7109375" customWidth="1"/>
-    <col min="6410" max="6411" width="26.5703125" customWidth="1"/>
-    <col min="6412" max="6412" width="15.7109375" customWidth="1"/>
-    <col min="6413" max="6413" width="20.140625" customWidth="1"/>
-    <col min="6414" max="6415" width="15.7109375" customWidth="1"/>
-    <col min="6416" max="6417" width="12.7109375" customWidth="1"/>
-    <col min="6418" max="6419" width="13.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="14.7109375" customWidth="1"/>
-    <col min="6421" max="6421" width="11.28515625" customWidth="1"/>
-    <col min="6423" max="6423" width="15.7109375" customWidth="1"/>
-    <col min="6424" max="6424" width="40" bestFit="1" customWidth="1"/>
-    <col min="6425" max="6426" width="22.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="25.7109375" customWidth="1"/>
-    <col min="6659" max="6660" width="20.7109375" customWidth="1"/>
-    <col min="6661" max="6661" width="20.28515625" customWidth="1"/>
-    <col min="6663" max="6663" width="22.7109375" customWidth="1"/>
-    <col min="6664" max="6664" width="15.7109375" customWidth="1"/>
-    <col min="6665" max="6665" width="18.7109375" customWidth="1"/>
-    <col min="6666" max="6667" width="26.5703125" customWidth="1"/>
-    <col min="6668" max="6668" width="15.7109375" customWidth="1"/>
-    <col min="6669" max="6669" width="20.140625" customWidth="1"/>
-    <col min="6670" max="6671" width="15.7109375" customWidth="1"/>
-    <col min="6672" max="6673" width="12.7109375" customWidth="1"/>
-    <col min="6674" max="6675" width="13.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="14.7109375" customWidth="1"/>
-    <col min="6677" max="6677" width="11.28515625" customWidth="1"/>
-    <col min="6679" max="6679" width="15.7109375" customWidth="1"/>
-    <col min="6680" max="6680" width="40" bestFit="1" customWidth="1"/>
-    <col min="6681" max="6682" width="22.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="25.7109375" customWidth="1"/>
-    <col min="6915" max="6916" width="20.7109375" customWidth="1"/>
-    <col min="6917" max="6917" width="20.28515625" customWidth="1"/>
-    <col min="6919" max="6919" width="22.7109375" customWidth="1"/>
-    <col min="6920" max="6920" width="15.7109375" customWidth="1"/>
-    <col min="6921" max="6921" width="18.7109375" customWidth="1"/>
-    <col min="6922" max="6923" width="26.5703125" customWidth="1"/>
-    <col min="6924" max="6924" width="15.7109375" customWidth="1"/>
-    <col min="6925" max="6925" width="20.140625" customWidth="1"/>
-    <col min="6926" max="6927" width="15.7109375" customWidth="1"/>
-    <col min="6928" max="6929" width="12.7109375" customWidth="1"/>
-    <col min="6930" max="6931" width="13.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="14.7109375" customWidth="1"/>
-    <col min="6933" max="6933" width="11.28515625" customWidth="1"/>
-    <col min="6935" max="6935" width="15.7109375" customWidth="1"/>
-    <col min="6936" max="6936" width="40" bestFit="1" customWidth="1"/>
-    <col min="6937" max="6938" width="22.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="25.7109375" customWidth="1"/>
-    <col min="7171" max="7172" width="20.7109375" customWidth="1"/>
-    <col min="7173" max="7173" width="20.28515625" customWidth="1"/>
-    <col min="7175" max="7175" width="22.7109375" customWidth="1"/>
-    <col min="7176" max="7176" width="15.7109375" customWidth="1"/>
-    <col min="7177" max="7177" width="18.7109375" customWidth="1"/>
-    <col min="7178" max="7179" width="26.5703125" customWidth="1"/>
-    <col min="7180" max="7180" width="15.7109375" customWidth="1"/>
-    <col min="7181" max="7181" width="20.140625" customWidth="1"/>
-    <col min="7182" max="7183" width="15.7109375" customWidth="1"/>
-    <col min="7184" max="7185" width="12.7109375" customWidth="1"/>
-    <col min="7186" max="7187" width="13.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="14.7109375" customWidth="1"/>
-    <col min="7189" max="7189" width="11.28515625" customWidth="1"/>
-    <col min="7191" max="7191" width="15.7109375" customWidth="1"/>
-    <col min="7192" max="7192" width="40" bestFit="1" customWidth="1"/>
-    <col min="7193" max="7194" width="22.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="25.7109375" customWidth="1"/>
-    <col min="7427" max="7428" width="20.7109375" customWidth="1"/>
-    <col min="7429" max="7429" width="20.28515625" customWidth="1"/>
-    <col min="7431" max="7431" width="22.7109375" customWidth="1"/>
-    <col min="7432" max="7432" width="15.7109375" customWidth="1"/>
-    <col min="7433" max="7433" width="18.7109375" customWidth="1"/>
-    <col min="7434" max="7435" width="26.5703125" customWidth="1"/>
-    <col min="7436" max="7436" width="15.7109375" customWidth="1"/>
-    <col min="7437" max="7437" width="20.140625" customWidth="1"/>
-    <col min="7438" max="7439" width="15.7109375" customWidth="1"/>
-    <col min="7440" max="7441" width="12.7109375" customWidth="1"/>
-    <col min="7442" max="7443" width="13.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="14.7109375" customWidth="1"/>
-    <col min="7445" max="7445" width="11.28515625" customWidth="1"/>
-    <col min="7447" max="7447" width="15.7109375" customWidth="1"/>
-    <col min="7448" max="7448" width="40" bestFit="1" customWidth="1"/>
-    <col min="7449" max="7450" width="22.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="25.7109375" customWidth="1"/>
-    <col min="7683" max="7684" width="20.7109375" customWidth="1"/>
-    <col min="7685" max="7685" width="20.28515625" customWidth="1"/>
-    <col min="7687" max="7687" width="22.7109375" customWidth="1"/>
-    <col min="7688" max="7688" width="15.7109375" customWidth="1"/>
-    <col min="7689" max="7689" width="18.7109375" customWidth="1"/>
-    <col min="7690" max="7691" width="26.5703125" customWidth="1"/>
-    <col min="7692" max="7692" width="15.7109375" customWidth="1"/>
-    <col min="7693" max="7693" width="20.140625" customWidth="1"/>
-    <col min="7694" max="7695" width="15.7109375" customWidth="1"/>
-    <col min="7696" max="7697" width="12.7109375" customWidth="1"/>
-    <col min="7698" max="7699" width="13.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="14.7109375" customWidth="1"/>
-    <col min="7701" max="7701" width="11.28515625" customWidth="1"/>
-    <col min="7703" max="7703" width="15.7109375" customWidth="1"/>
-    <col min="7704" max="7704" width="40" bestFit="1" customWidth="1"/>
-    <col min="7705" max="7706" width="22.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="25.7109375" customWidth="1"/>
-    <col min="7939" max="7940" width="20.7109375" customWidth="1"/>
-    <col min="7941" max="7941" width="20.28515625" customWidth="1"/>
-    <col min="7943" max="7943" width="22.7109375" customWidth="1"/>
-    <col min="7944" max="7944" width="15.7109375" customWidth="1"/>
-    <col min="7945" max="7945" width="18.7109375" customWidth="1"/>
-    <col min="7946" max="7947" width="26.5703125" customWidth="1"/>
-    <col min="7948" max="7948" width="15.7109375" customWidth="1"/>
-    <col min="7949" max="7949" width="20.140625" customWidth="1"/>
-    <col min="7950" max="7951" width="15.7109375" customWidth="1"/>
-    <col min="7952" max="7953" width="12.7109375" customWidth="1"/>
-    <col min="7954" max="7955" width="13.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="14.7109375" customWidth="1"/>
-    <col min="7957" max="7957" width="11.28515625" customWidth="1"/>
-    <col min="7959" max="7959" width="15.7109375" customWidth="1"/>
-    <col min="7960" max="7960" width="40" bestFit="1" customWidth="1"/>
-    <col min="7961" max="7962" width="22.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="25.7109375" customWidth="1"/>
-    <col min="8195" max="8196" width="20.7109375" customWidth="1"/>
-    <col min="8197" max="8197" width="20.28515625" customWidth="1"/>
-    <col min="8199" max="8199" width="22.7109375" customWidth="1"/>
-    <col min="8200" max="8200" width="15.7109375" customWidth="1"/>
-    <col min="8201" max="8201" width="18.7109375" customWidth="1"/>
-    <col min="8202" max="8203" width="26.5703125" customWidth="1"/>
-    <col min="8204" max="8204" width="15.7109375" customWidth="1"/>
-    <col min="8205" max="8205" width="20.140625" customWidth="1"/>
-    <col min="8206" max="8207" width="15.7109375" customWidth="1"/>
-    <col min="8208" max="8209" width="12.7109375" customWidth="1"/>
-    <col min="8210" max="8211" width="13.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="14.7109375" customWidth="1"/>
-    <col min="8213" max="8213" width="11.28515625" customWidth="1"/>
-    <col min="8215" max="8215" width="15.7109375" customWidth="1"/>
-    <col min="8216" max="8216" width="40" bestFit="1" customWidth="1"/>
-    <col min="8217" max="8218" width="22.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="25.7109375" customWidth="1"/>
-    <col min="8451" max="8452" width="20.7109375" customWidth="1"/>
-    <col min="8453" max="8453" width="20.28515625" customWidth="1"/>
-    <col min="8455" max="8455" width="22.7109375" customWidth="1"/>
-    <col min="8456" max="8456" width="15.7109375" customWidth="1"/>
-    <col min="8457" max="8457" width="18.7109375" customWidth="1"/>
-    <col min="8458" max="8459" width="26.5703125" customWidth="1"/>
-    <col min="8460" max="8460" width="15.7109375" customWidth="1"/>
-    <col min="8461" max="8461" width="20.140625" customWidth="1"/>
-    <col min="8462" max="8463" width="15.7109375" customWidth="1"/>
-    <col min="8464" max="8465" width="12.7109375" customWidth="1"/>
-    <col min="8466" max="8467" width="13.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="14.7109375" customWidth="1"/>
-    <col min="8469" max="8469" width="11.28515625" customWidth="1"/>
-    <col min="8471" max="8471" width="15.7109375" customWidth="1"/>
-    <col min="8472" max="8472" width="40" bestFit="1" customWidth="1"/>
-    <col min="8473" max="8474" width="22.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="25.7109375" customWidth="1"/>
-    <col min="8707" max="8708" width="20.7109375" customWidth="1"/>
-    <col min="8709" max="8709" width="20.28515625" customWidth="1"/>
-    <col min="8711" max="8711" width="22.7109375" customWidth="1"/>
-    <col min="8712" max="8712" width="15.7109375" customWidth="1"/>
-    <col min="8713" max="8713" width="18.7109375" customWidth="1"/>
-    <col min="8714" max="8715" width="26.5703125" customWidth="1"/>
-    <col min="8716" max="8716" width="15.7109375" customWidth="1"/>
-    <col min="8717" max="8717" width="20.140625" customWidth="1"/>
-    <col min="8718" max="8719" width="15.7109375" customWidth="1"/>
-    <col min="8720" max="8721" width="12.7109375" customWidth="1"/>
-    <col min="8722" max="8723" width="13.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="14.7109375" customWidth="1"/>
-    <col min="8725" max="8725" width="11.28515625" customWidth="1"/>
-    <col min="8727" max="8727" width="15.7109375" customWidth="1"/>
-    <col min="8728" max="8728" width="40" bestFit="1" customWidth="1"/>
-    <col min="8729" max="8730" width="22.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="25.7109375" customWidth="1"/>
-    <col min="8963" max="8964" width="20.7109375" customWidth="1"/>
-    <col min="8965" max="8965" width="20.28515625" customWidth="1"/>
-    <col min="8967" max="8967" width="22.7109375" customWidth="1"/>
-    <col min="8968" max="8968" width="15.7109375" customWidth="1"/>
-    <col min="8969" max="8969" width="18.7109375" customWidth="1"/>
-    <col min="8970" max="8971" width="26.5703125" customWidth="1"/>
-    <col min="8972" max="8972" width="15.7109375" customWidth="1"/>
-    <col min="8973" max="8973" width="20.140625" customWidth="1"/>
-    <col min="8974" max="8975" width="15.7109375" customWidth="1"/>
-    <col min="8976" max="8977" width="12.7109375" customWidth="1"/>
-    <col min="8978" max="8979" width="13.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="14.7109375" customWidth="1"/>
-    <col min="8981" max="8981" width="11.28515625" customWidth="1"/>
-    <col min="8983" max="8983" width="15.7109375" customWidth="1"/>
-    <col min="8984" max="8984" width="40" bestFit="1" customWidth="1"/>
-    <col min="8985" max="8986" width="22.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="25.7109375" customWidth="1"/>
-    <col min="9219" max="9220" width="20.7109375" customWidth="1"/>
-    <col min="9221" max="9221" width="20.28515625" customWidth="1"/>
-    <col min="9223" max="9223" width="22.7109375" customWidth="1"/>
-    <col min="9224" max="9224" width="15.7109375" customWidth="1"/>
-    <col min="9225" max="9225" width="18.7109375" customWidth="1"/>
-    <col min="9226" max="9227" width="26.5703125" customWidth="1"/>
-    <col min="9228" max="9228" width="15.7109375" customWidth="1"/>
-    <col min="9229" max="9229" width="20.140625" customWidth="1"/>
-    <col min="9230" max="9231" width="15.7109375" customWidth="1"/>
-    <col min="9232" max="9233" width="12.7109375" customWidth="1"/>
-    <col min="9234" max="9235" width="13.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="14.7109375" customWidth="1"/>
-    <col min="9237" max="9237" width="11.28515625" customWidth="1"/>
-    <col min="9239" max="9239" width="15.7109375" customWidth="1"/>
-    <col min="9240" max="9240" width="40" bestFit="1" customWidth="1"/>
-    <col min="9241" max="9242" width="22.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="25.7109375" customWidth="1"/>
-    <col min="9475" max="9476" width="20.7109375" customWidth="1"/>
-    <col min="9477" max="9477" width="20.28515625" customWidth="1"/>
-    <col min="9479" max="9479" width="22.7109375" customWidth="1"/>
-    <col min="9480" max="9480" width="15.7109375" customWidth="1"/>
-    <col min="9481" max="9481" width="18.7109375" customWidth="1"/>
-    <col min="9482" max="9483" width="26.5703125" customWidth="1"/>
-    <col min="9484" max="9484" width="15.7109375" customWidth="1"/>
-    <col min="9485" max="9485" width="20.140625" customWidth="1"/>
-    <col min="9486" max="9487" width="15.7109375" customWidth="1"/>
-    <col min="9488" max="9489" width="12.7109375" customWidth="1"/>
-    <col min="9490" max="9491" width="13.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="14.7109375" customWidth="1"/>
-    <col min="9493" max="9493" width="11.28515625" customWidth="1"/>
-    <col min="9495" max="9495" width="15.7109375" customWidth="1"/>
-    <col min="9496" max="9496" width="40" bestFit="1" customWidth="1"/>
-    <col min="9497" max="9498" width="22.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="25.7109375" customWidth="1"/>
-    <col min="9731" max="9732" width="20.7109375" customWidth="1"/>
-    <col min="9733" max="9733" width="20.28515625" customWidth="1"/>
-    <col min="9735" max="9735" width="22.7109375" customWidth="1"/>
-    <col min="9736" max="9736" width="15.7109375" customWidth="1"/>
-    <col min="9737" max="9737" width="18.7109375" customWidth="1"/>
-    <col min="9738" max="9739" width="26.5703125" customWidth="1"/>
-    <col min="9740" max="9740" width="15.7109375" customWidth="1"/>
-    <col min="9741" max="9741" width="20.140625" customWidth="1"/>
-    <col min="9742" max="9743" width="15.7109375" customWidth="1"/>
-    <col min="9744" max="9745" width="12.7109375" customWidth="1"/>
-    <col min="9746" max="9747" width="13.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="14.7109375" customWidth="1"/>
-    <col min="9749" max="9749" width="11.28515625" customWidth="1"/>
-    <col min="9751" max="9751" width="15.7109375" customWidth="1"/>
-    <col min="9752" max="9752" width="40" bestFit="1" customWidth="1"/>
-    <col min="9753" max="9754" width="22.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="25.7109375" customWidth="1"/>
-    <col min="9987" max="9988" width="20.7109375" customWidth="1"/>
-    <col min="9989" max="9989" width="20.28515625" customWidth="1"/>
-    <col min="9991" max="9991" width="22.7109375" customWidth="1"/>
-    <col min="9992" max="9992" width="15.7109375" customWidth="1"/>
-    <col min="9993" max="9993" width="18.7109375" customWidth="1"/>
-    <col min="9994" max="9995" width="26.5703125" customWidth="1"/>
-    <col min="9996" max="9996" width="15.7109375" customWidth="1"/>
-    <col min="9997" max="9997" width="20.140625" customWidth="1"/>
-    <col min="9998" max="9999" width="15.7109375" customWidth="1"/>
-    <col min="10000" max="10001" width="12.7109375" customWidth="1"/>
-    <col min="10002" max="10003" width="13.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="14.7109375" customWidth="1"/>
-    <col min="10005" max="10005" width="11.28515625" customWidth="1"/>
-    <col min="10007" max="10007" width="15.7109375" customWidth="1"/>
-    <col min="10008" max="10008" width="40" bestFit="1" customWidth="1"/>
-    <col min="10009" max="10010" width="22.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="25.7109375" customWidth="1"/>
-    <col min="10243" max="10244" width="20.7109375" customWidth="1"/>
-    <col min="10245" max="10245" width="20.28515625" customWidth="1"/>
-    <col min="10247" max="10247" width="22.7109375" customWidth="1"/>
-    <col min="10248" max="10248" width="15.7109375" customWidth="1"/>
-    <col min="10249" max="10249" width="18.7109375" customWidth="1"/>
-    <col min="10250" max="10251" width="26.5703125" customWidth="1"/>
-    <col min="10252" max="10252" width="15.7109375" customWidth="1"/>
-    <col min="10253" max="10253" width="20.140625" customWidth="1"/>
-    <col min="10254" max="10255" width="15.7109375" customWidth="1"/>
-    <col min="10256" max="10257" width="12.7109375" customWidth="1"/>
-    <col min="10258" max="10259" width="13.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="14.7109375" customWidth="1"/>
-    <col min="10261" max="10261" width="11.28515625" customWidth="1"/>
-    <col min="10263" max="10263" width="15.7109375" customWidth="1"/>
-    <col min="10264" max="10264" width="40" bestFit="1" customWidth="1"/>
-    <col min="10265" max="10266" width="22.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="25.7109375" customWidth="1"/>
-    <col min="10499" max="10500" width="20.7109375" customWidth="1"/>
-    <col min="10501" max="10501" width="20.28515625" customWidth="1"/>
-    <col min="10503" max="10503" width="22.7109375" customWidth="1"/>
-    <col min="10504" max="10504" width="15.7109375" customWidth="1"/>
-    <col min="10505" max="10505" width="18.7109375" customWidth="1"/>
-    <col min="10506" max="10507" width="26.5703125" customWidth="1"/>
-    <col min="10508" max="10508" width="15.7109375" customWidth="1"/>
-    <col min="10509" max="10509" width="20.140625" customWidth="1"/>
-    <col min="10510" max="10511" width="15.7109375" customWidth="1"/>
-    <col min="10512" max="10513" width="12.7109375" customWidth="1"/>
-    <col min="10514" max="10515" width="13.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="14.7109375" customWidth="1"/>
-    <col min="10517" max="10517" width="11.28515625" customWidth="1"/>
-    <col min="10519" max="10519" width="15.7109375" customWidth="1"/>
-    <col min="10520" max="10520" width="40" bestFit="1" customWidth="1"/>
-    <col min="10521" max="10522" width="22.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="25.7109375" customWidth="1"/>
-    <col min="10755" max="10756" width="20.7109375" customWidth="1"/>
-    <col min="10757" max="10757" width="20.28515625" customWidth="1"/>
-    <col min="10759" max="10759" width="22.7109375" customWidth="1"/>
-    <col min="10760" max="10760" width="15.7109375" customWidth="1"/>
-    <col min="10761" max="10761" width="18.7109375" customWidth="1"/>
-    <col min="10762" max="10763" width="26.5703125" customWidth="1"/>
-    <col min="10764" max="10764" width="15.7109375" customWidth="1"/>
-    <col min="10765" max="10765" width="20.140625" customWidth="1"/>
-    <col min="10766" max="10767" width="15.7109375" customWidth="1"/>
-    <col min="10768" max="10769" width="12.7109375" customWidth="1"/>
-    <col min="10770" max="10771" width="13.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="14.7109375" customWidth="1"/>
-    <col min="10773" max="10773" width="11.28515625" customWidth="1"/>
-    <col min="10775" max="10775" width="15.7109375" customWidth="1"/>
-    <col min="10776" max="10776" width="40" bestFit="1" customWidth="1"/>
-    <col min="10777" max="10778" width="22.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="25.7109375" customWidth="1"/>
-    <col min="11011" max="11012" width="20.7109375" customWidth="1"/>
-    <col min="11013" max="11013" width="20.28515625" customWidth="1"/>
-    <col min="11015" max="11015" width="22.7109375" customWidth="1"/>
-    <col min="11016" max="11016" width="15.7109375" customWidth="1"/>
-    <col min="11017" max="11017" width="18.7109375" customWidth="1"/>
-    <col min="11018" max="11019" width="26.5703125" customWidth="1"/>
-    <col min="11020" max="11020" width="15.7109375" customWidth="1"/>
-    <col min="11021" max="11021" width="20.140625" customWidth="1"/>
-    <col min="11022" max="11023" width="15.7109375" customWidth="1"/>
-    <col min="11024" max="11025" width="12.7109375" customWidth="1"/>
-    <col min="11026" max="11027" width="13.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="14.7109375" customWidth="1"/>
-    <col min="11029" max="11029" width="11.28515625" customWidth="1"/>
-    <col min="11031" max="11031" width="15.7109375" customWidth="1"/>
-    <col min="11032" max="11032" width="40" bestFit="1" customWidth="1"/>
-    <col min="11033" max="11034" width="22.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="25.7109375" customWidth="1"/>
-    <col min="11267" max="11268" width="20.7109375" customWidth="1"/>
-    <col min="11269" max="11269" width="20.28515625" customWidth="1"/>
-    <col min="11271" max="11271" width="22.7109375" customWidth="1"/>
-    <col min="11272" max="11272" width="15.7109375" customWidth="1"/>
-    <col min="11273" max="11273" width="18.7109375" customWidth="1"/>
-    <col min="11274" max="11275" width="26.5703125" customWidth="1"/>
-    <col min="11276" max="11276" width="15.7109375" customWidth="1"/>
-    <col min="11277" max="11277" width="20.140625" customWidth="1"/>
-    <col min="11278" max="11279" width="15.7109375" customWidth="1"/>
-    <col min="11280" max="11281" width="12.7109375" customWidth="1"/>
-    <col min="11282" max="11283" width="13.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="14.7109375" customWidth="1"/>
-    <col min="11285" max="11285" width="11.28515625" customWidth="1"/>
-    <col min="11287" max="11287" width="15.7109375" customWidth="1"/>
-    <col min="11288" max="11288" width="40" bestFit="1" customWidth="1"/>
-    <col min="11289" max="11290" width="22.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="25.7109375" customWidth="1"/>
-    <col min="11523" max="11524" width="20.7109375" customWidth="1"/>
-    <col min="11525" max="11525" width="20.28515625" customWidth="1"/>
-    <col min="11527" max="11527" width="22.7109375" customWidth="1"/>
-    <col min="11528" max="11528" width="15.7109375" customWidth="1"/>
-    <col min="11529" max="11529" width="18.7109375" customWidth="1"/>
-    <col min="11530" max="11531" width="26.5703125" customWidth="1"/>
-    <col min="11532" max="11532" width="15.7109375" customWidth="1"/>
-    <col min="11533" max="11533" width="20.140625" customWidth="1"/>
-    <col min="11534" max="11535" width="15.7109375" customWidth="1"/>
-    <col min="11536" max="11537" width="12.7109375" customWidth="1"/>
-    <col min="11538" max="11539" width="13.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="14.7109375" customWidth="1"/>
-    <col min="11541" max="11541" width="11.28515625" customWidth="1"/>
-    <col min="11543" max="11543" width="15.7109375" customWidth="1"/>
-    <col min="11544" max="11544" width="40" bestFit="1" customWidth="1"/>
-    <col min="11545" max="11546" width="22.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="25.7109375" customWidth="1"/>
-    <col min="11779" max="11780" width="20.7109375" customWidth="1"/>
-    <col min="11781" max="11781" width="20.28515625" customWidth="1"/>
-    <col min="11783" max="11783" width="22.7109375" customWidth="1"/>
-    <col min="11784" max="11784" width="15.7109375" customWidth="1"/>
-    <col min="11785" max="11785" width="18.7109375" customWidth="1"/>
-    <col min="11786" max="11787" width="26.5703125" customWidth="1"/>
-    <col min="11788" max="11788" width="15.7109375" customWidth="1"/>
-    <col min="11789" max="11789" width="20.140625" customWidth="1"/>
-    <col min="11790" max="11791" width="15.7109375" customWidth="1"/>
-    <col min="11792" max="11793" width="12.7109375" customWidth="1"/>
-    <col min="11794" max="11795" width="13.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="14.7109375" customWidth="1"/>
-    <col min="11797" max="11797" width="11.28515625" customWidth="1"/>
-    <col min="11799" max="11799" width="15.7109375" customWidth="1"/>
-    <col min="11800" max="11800" width="40" bestFit="1" customWidth="1"/>
-    <col min="11801" max="11802" width="22.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="25.7109375" customWidth="1"/>
-    <col min="12035" max="12036" width="20.7109375" customWidth="1"/>
-    <col min="12037" max="12037" width="20.28515625" customWidth="1"/>
-    <col min="12039" max="12039" width="22.7109375" customWidth="1"/>
-    <col min="12040" max="12040" width="15.7109375" customWidth="1"/>
-    <col min="12041" max="12041" width="18.7109375" customWidth="1"/>
-    <col min="12042" max="12043" width="26.5703125" customWidth="1"/>
-    <col min="12044" max="12044" width="15.7109375" customWidth="1"/>
-    <col min="12045" max="12045" width="20.140625" customWidth="1"/>
-    <col min="12046" max="12047" width="15.7109375" customWidth="1"/>
-    <col min="12048" max="12049" width="12.7109375" customWidth="1"/>
-    <col min="12050" max="12051" width="13.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="14.7109375" customWidth="1"/>
-    <col min="12053" max="12053" width="11.28515625" customWidth="1"/>
-    <col min="12055" max="12055" width="15.7109375" customWidth="1"/>
-    <col min="12056" max="12056" width="40" bestFit="1" customWidth="1"/>
-    <col min="12057" max="12058" width="22.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="25.7109375" customWidth="1"/>
-    <col min="12291" max="12292" width="20.7109375" customWidth="1"/>
-    <col min="12293" max="12293" width="20.28515625" customWidth="1"/>
-    <col min="12295" max="12295" width="22.7109375" customWidth="1"/>
-    <col min="12296" max="12296" width="15.7109375" customWidth="1"/>
-    <col min="12297" max="12297" width="18.7109375" customWidth="1"/>
-    <col min="12298" max="12299" width="26.5703125" customWidth="1"/>
-    <col min="12300" max="12300" width="15.7109375" customWidth="1"/>
-    <col min="12301" max="12301" width="20.140625" customWidth="1"/>
-    <col min="12302" max="12303" width="15.7109375" customWidth="1"/>
-    <col min="12304" max="12305" width="12.7109375" customWidth="1"/>
-    <col min="12306" max="12307" width="13.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="14.7109375" customWidth="1"/>
-    <col min="12309" max="12309" width="11.28515625" customWidth="1"/>
-    <col min="12311" max="12311" width="15.7109375" customWidth="1"/>
-    <col min="12312" max="12312" width="40" bestFit="1" customWidth="1"/>
-    <col min="12313" max="12314" width="22.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="25.7109375" customWidth="1"/>
-    <col min="12547" max="12548" width="20.7109375" customWidth="1"/>
-    <col min="12549" max="12549" width="20.28515625" customWidth="1"/>
-    <col min="12551" max="12551" width="22.7109375" customWidth="1"/>
-    <col min="12552" max="12552" width="15.7109375" customWidth="1"/>
-    <col min="12553" max="12553" width="18.7109375" customWidth="1"/>
-    <col min="12554" max="12555" width="26.5703125" customWidth="1"/>
-    <col min="12556" max="12556" width="15.7109375" customWidth="1"/>
-    <col min="12557" max="12557" width="20.140625" customWidth="1"/>
-    <col min="12558" max="12559" width="15.7109375" customWidth="1"/>
-    <col min="12560" max="12561" width="12.7109375" customWidth="1"/>
-    <col min="12562" max="12563" width="13.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="14.7109375" customWidth="1"/>
-    <col min="12565" max="12565" width="11.28515625" customWidth="1"/>
-    <col min="12567" max="12567" width="15.7109375" customWidth="1"/>
-    <col min="12568" max="12568" width="40" bestFit="1" customWidth="1"/>
-    <col min="12569" max="12570" width="22.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="25.7109375" customWidth="1"/>
-    <col min="12803" max="12804" width="20.7109375" customWidth="1"/>
-    <col min="12805" max="12805" width="20.28515625" customWidth="1"/>
-    <col min="12807" max="12807" width="22.7109375" customWidth="1"/>
-    <col min="12808" max="12808" width="15.7109375" customWidth="1"/>
-    <col min="12809" max="12809" width="18.7109375" customWidth="1"/>
-    <col min="12810" max="12811" width="26.5703125" customWidth="1"/>
-    <col min="12812" max="12812" width="15.7109375" customWidth="1"/>
-    <col min="12813" max="12813" width="20.140625" customWidth="1"/>
-    <col min="12814" max="12815" width="15.7109375" customWidth="1"/>
-    <col min="12816" max="12817" width="12.7109375" customWidth="1"/>
-    <col min="12818" max="12819" width="13.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="14.7109375" customWidth="1"/>
-    <col min="12821" max="12821" width="11.28515625" customWidth="1"/>
-    <col min="12823" max="12823" width="15.7109375" customWidth="1"/>
-    <col min="12824" max="12824" width="40" bestFit="1" customWidth="1"/>
-    <col min="12825" max="12826" width="22.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="25.7109375" customWidth="1"/>
-    <col min="13059" max="13060" width="20.7109375" customWidth="1"/>
-    <col min="13061" max="13061" width="20.28515625" customWidth="1"/>
-    <col min="13063" max="13063" width="22.7109375" customWidth="1"/>
-    <col min="13064" max="13064" width="15.7109375" customWidth="1"/>
-    <col min="13065" max="13065" width="18.7109375" customWidth="1"/>
-    <col min="13066" max="13067" width="26.5703125" customWidth="1"/>
-    <col min="13068" max="13068" width="15.7109375" customWidth="1"/>
-    <col min="13069" max="13069" width="20.140625" customWidth="1"/>
-    <col min="13070" max="13071" width="15.7109375" customWidth="1"/>
-    <col min="13072" max="13073" width="12.7109375" customWidth="1"/>
-    <col min="13074" max="13075" width="13.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="14.7109375" customWidth="1"/>
-    <col min="13077" max="13077" width="11.28515625" customWidth="1"/>
-    <col min="13079" max="13079" width="15.7109375" customWidth="1"/>
-    <col min="13080" max="13080" width="40" bestFit="1" customWidth="1"/>
-    <col min="13081" max="13082" width="22.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="25.7109375" customWidth="1"/>
-    <col min="13315" max="13316" width="20.7109375" customWidth="1"/>
-    <col min="13317" max="13317" width="20.28515625" customWidth="1"/>
-    <col min="13319" max="13319" width="22.7109375" customWidth="1"/>
-    <col min="13320" max="13320" width="15.7109375" customWidth="1"/>
-    <col min="13321" max="13321" width="18.7109375" customWidth="1"/>
-    <col min="13322" max="13323" width="26.5703125" customWidth="1"/>
-    <col min="13324" max="13324" width="15.7109375" customWidth="1"/>
-    <col min="13325" max="13325" width="20.140625" customWidth="1"/>
-    <col min="13326" max="13327" width="15.7109375" customWidth="1"/>
-    <col min="13328" max="13329" width="12.7109375" customWidth="1"/>
-    <col min="13330" max="13331" width="13.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="14.7109375" customWidth="1"/>
-    <col min="13333" max="13333" width="11.28515625" customWidth="1"/>
-    <col min="13335" max="13335" width="15.7109375" customWidth="1"/>
-    <col min="13336" max="13336" width="40" bestFit="1" customWidth="1"/>
-    <col min="13337" max="13338" width="22.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="25.7109375" customWidth="1"/>
-    <col min="13571" max="13572" width="20.7109375" customWidth="1"/>
-    <col min="13573" max="13573" width="20.28515625" customWidth="1"/>
-    <col min="13575" max="13575" width="22.7109375" customWidth="1"/>
-    <col min="13576" max="13576" width="15.7109375" customWidth="1"/>
-    <col min="13577" max="13577" width="18.7109375" customWidth="1"/>
-    <col min="13578" max="13579" width="26.5703125" customWidth="1"/>
-    <col min="13580" max="13580" width="15.7109375" customWidth="1"/>
-    <col min="13581" max="13581" width="20.140625" customWidth="1"/>
-    <col min="13582" max="13583" width="15.7109375" customWidth="1"/>
-    <col min="13584" max="13585" width="12.7109375" customWidth="1"/>
-    <col min="13586" max="13587" width="13.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="14.7109375" customWidth="1"/>
-    <col min="13589" max="13589" width="11.28515625" customWidth="1"/>
-    <col min="13591" max="13591" width="15.7109375" customWidth="1"/>
-    <col min="13592" max="13592" width="40" bestFit="1" customWidth="1"/>
-    <col min="13593" max="13594" width="22.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="25.7109375" customWidth="1"/>
-    <col min="13827" max="13828" width="20.7109375" customWidth="1"/>
-    <col min="13829" max="13829" width="20.28515625" customWidth="1"/>
-    <col min="13831" max="13831" width="22.7109375" customWidth="1"/>
-    <col min="13832" max="13832" width="15.7109375" customWidth="1"/>
-    <col min="13833" max="13833" width="18.7109375" customWidth="1"/>
-    <col min="13834" max="13835" width="26.5703125" customWidth="1"/>
-    <col min="13836" max="13836" width="15.7109375" customWidth="1"/>
-    <col min="13837" max="13837" width="20.140625" customWidth="1"/>
-    <col min="13838" max="13839" width="15.7109375" customWidth="1"/>
-    <col min="13840" max="13841" width="12.7109375" customWidth="1"/>
-    <col min="13842" max="13843" width="13.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="14.7109375" customWidth="1"/>
-    <col min="13845" max="13845" width="11.28515625" customWidth="1"/>
-    <col min="13847" max="13847" width="15.7109375" customWidth="1"/>
-    <col min="13848" max="13848" width="40" bestFit="1" customWidth="1"/>
-    <col min="13849" max="13850" width="22.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="25.7109375" customWidth="1"/>
-    <col min="14083" max="14084" width="20.7109375" customWidth="1"/>
-    <col min="14085" max="14085" width="20.28515625" customWidth="1"/>
-    <col min="14087" max="14087" width="22.7109375" customWidth="1"/>
-    <col min="14088" max="14088" width="15.7109375" customWidth="1"/>
-    <col min="14089" max="14089" width="18.7109375" customWidth="1"/>
-    <col min="14090" max="14091" width="26.5703125" customWidth="1"/>
-    <col min="14092" max="14092" width="15.7109375" customWidth="1"/>
-    <col min="14093" max="14093" width="20.140625" customWidth="1"/>
-    <col min="14094" max="14095" width="15.7109375" customWidth="1"/>
-    <col min="14096" max="14097" width="12.7109375" customWidth="1"/>
-    <col min="14098" max="14099" width="13.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="14.7109375" customWidth="1"/>
-    <col min="14101" max="14101" width="11.28515625" customWidth="1"/>
-    <col min="14103" max="14103" width="15.7109375" customWidth="1"/>
-    <col min="14104" max="14104" width="40" bestFit="1" customWidth="1"/>
-    <col min="14105" max="14106" width="22.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="25.7109375" customWidth="1"/>
-    <col min="14339" max="14340" width="20.7109375" customWidth="1"/>
-    <col min="14341" max="14341" width="20.28515625" customWidth="1"/>
-    <col min="14343" max="14343" width="22.7109375" customWidth="1"/>
-    <col min="14344" max="14344" width="15.7109375" customWidth="1"/>
-    <col min="14345" max="14345" width="18.7109375" customWidth="1"/>
-    <col min="14346" max="14347" width="26.5703125" customWidth="1"/>
-    <col min="14348" max="14348" width="15.7109375" customWidth="1"/>
-    <col min="14349" max="14349" width="20.140625" customWidth="1"/>
-    <col min="14350" max="14351" width="15.7109375" customWidth="1"/>
-    <col min="14352" max="14353" width="12.7109375" customWidth="1"/>
-    <col min="14354" max="14355" width="13.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="14.7109375" customWidth="1"/>
-    <col min="14357" max="14357" width="11.28515625" customWidth="1"/>
-    <col min="14359" max="14359" width="15.7109375" customWidth="1"/>
-    <col min="14360" max="14360" width="40" bestFit="1" customWidth="1"/>
-    <col min="14361" max="14362" width="22.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="25.7109375" customWidth="1"/>
-    <col min="14595" max="14596" width="20.7109375" customWidth="1"/>
-    <col min="14597" max="14597" width="20.28515625" customWidth="1"/>
-    <col min="14599" max="14599" width="22.7109375" customWidth="1"/>
-    <col min="14600" max="14600" width="15.7109375" customWidth="1"/>
-    <col min="14601" max="14601" width="18.7109375" customWidth="1"/>
-    <col min="14602" max="14603" width="26.5703125" customWidth="1"/>
-    <col min="14604" max="14604" width="15.7109375" customWidth="1"/>
-    <col min="14605" max="14605" width="20.140625" customWidth="1"/>
-    <col min="14606" max="14607" width="15.7109375" customWidth="1"/>
-    <col min="14608" max="14609" width="12.7109375" customWidth="1"/>
-    <col min="14610" max="14611" width="13.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="14.7109375" customWidth="1"/>
-    <col min="14613" max="14613" width="11.28515625" customWidth="1"/>
-    <col min="14615" max="14615" width="15.7109375" customWidth="1"/>
-    <col min="14616" max="14616" width="40" bestFit="1" customWidth="1"/>
-    <col min="14617" max="14618" width="22.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="25.7109375" customWidth="1"/>
-    <col min="14851" max="14852" width="20.7109375" customWidth="1"/>
-    <col min="14853" max="14853" width="20.28515625" customWidth="1"/>
-    <col min="14855" max="14855" width="22.7109375" customWidth="1"/>
-    <col min="14856" max="14856" width="15.7109375" customWidth="1"/>
-    <col min="14857" max="14857" width="18.7109375" customWidth="1"/>
-    <col min="14858" max="14859" width="26.5703125" customWidth="1"/>
-    <col min="14860" max="14860" width="15.7109375" customWidth="1"/>
-    <col min="14861" max="14861" width="20.140625" customWidth="1"/>
-    <col min="14862" max="14863" width="15.7109375" customWidth="1"/>
-    <col min="14864" max="14865" width="12.7109375" customWidth="1"/>
-    <col min="14866" max="14867" width="13.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="14.7109375" customWidth="1"/>
-    <col min="14869" max="14869" width="11.28515625" customWidth="1"/>
-    <col min="14871" max="14871" width="15.7109375" customWidth="1"/>
-    <col min="14872" max="14872" width="40" bestFit="1" customWidth="1"/>
-    <col min="14873" max="14874" width="22.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="25.7109375" customWidth="1"/>
-    <col min="15107" max="15108" width="20.7109375" customWidth="1"/>
-    <col min="15109" max="15109" width="20.28515625" customWidth="1"/>
-    <col min="15111" max="15111" width="22.7109375" customWidth="1"/>
-    <col min="15112" max="15112" width="15.7109375" customWidth="1"/>
-    <col min="15113" max="15113" width="18.7109375" customWidth="1"/>
-    <col min="15114" max="15115" width="26.5703125" customWidth="1"/>
-    <col min="15116" max="15116" width="15.7109375" customWidth="1"/>
-    <col min="15117" max="15117" width="20.140625" customWidth="1"/>
-    <col min="15118" max="15119" width="15.7109375" customWidth="1"/>
-    <col min="15120" max="15121" width="12.7109375" customWidth="1"/>
-    <col min="15122" max="15123" width="13.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="14.7109375" customWidth="1"/>
-    <col min="15125" max="15125" width="11.28515625" customWidth="1"/>
-    <col min="15127" max="15127" width="15.7109375" customWidth="1"/>
-    <col min="15128" max="15128" width="40" bestFit="1" customWidth="1"/>
-    <col min="15129" max="15130" width="22.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="25.7109375" customWidth="1"/>
-    <col min="15363" max="15364" width="20.7109375" customWidth="1"/>
-    <col min="15365" max="15365" width="20.28515625" customWidth="1"/>
-    <col min="15367" max="15367" width="22.7109375" customWidth="1"/>
-    <col min="15368" max="15368" width="15.7109375" customWidth="1"/>
-    <col min="15369" max="15369" width="18.7109375" customWidth="1"/>
-    <col min="15370" max="15371" width="26.5703125" customWidth="1"/>
-    <col min="15372" max="15372" width="15.7109375" customWidth="1"/>
-    <col min="15373" max="15373" width="20.140625" customWidth="1"/>
-    <col min="15374" max="15375" width="15.7109375" customWidth="1"/>
-    <col min="15376" max="15377" width="12.7109375" customWidth="1"/>
-    <col min="15378" max="15379" width="13.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="14.7109375" customWidth="1"/>
-    <col min="15381" max="15381" width="11.28515625" customWidth="1"/>
-    <col min="15383" max="15383" width="15.7109375" customWidth="1"/>
-    <col min="15384" max="15384" width="40" bestFit="1" customWidth="1"/>
-    <col min="15385" max="15386" width="22.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="25.7109375" customWidth="1"/>
-    <col min="15619" max="15620" width="20.7109375" customWidth="1"/>
-    <col min="15621" max="15621" width="20.28515625" customWidth="1"/>
-    <col min="15623" max="15623" width="22.7109375" customWidth="1"/>
-    <col min="15624" max="15624" width="15.7109375" customWidth="1"/>
-    <col min="15625" max="15625" width="18.7109375" customWidth="1"/>
-    <col min="15626" max="15627" width="26.5703125" customWidth="1"/>
-    <col min="15628" max="15628" width="15.7109375" customWidth="1"/>
-    <col min="15629" max="15629" width="20.140625" customWidth="1"/>
-    <col min="15630" max="15631" width="15.7109375" customWidth="1"/>
-    <col min="15632" max="15633" width="12.7109375" customWidth="1"/>
-    <col min="15634" max="15635" width="13.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="14.7109375" customWidth="1"/>
-    <col min="15637" max="15637" width="11.28515625" customWidth="1"/>
-    <col min="15639" max="15639" width="15.7109375" customWidth="1"/>
-    <col min="15640" max="15640" width="40" bestFit="1" customWidth="1"/>
-    <col min="15641" max="15642" width="22.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="25.7109375" customWidth="1"/>
-    <col min="15875" max="15876" width="20.7109375" customWidth="1"/>
-    <col min="15877" max="15877" width="20.28515625" customWidth="1"/>
-    <col min="15879" max="15879" width="22.7109375" customWidth="1"/>
-    <col min="15880" max="15880" width="15.7109375" customWidth="1"/>
-    <col min="15881" max="15881" width="18.7109375" customWidth="1"/>
-    <col min="15882" max="15883" width="26.5703125" customWidth="1"/>
-    <col min="15884" max="15884" width="15.7109375" customWidth="1"/>
-    <col min="15885" max="15885" width="20.140625" customWidth="1"/>
-    <col min="15886" max="15887" width="15.7109375" customWidth="1"/>
-    <col min="15888" max="15889" width="12.7109375" customWidth="1"/>
-    <col min="15890" max="15891" width="13.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="14.7109375" customWidth="1"/>
-    <col min="15893" max="15893" width="11.28515625" customWidth="1"/>
-    <col min="15895" max="15895" width="15.7109375" customWidth="1"/>
-    <col min="15896" max="15896" width="40" bestFit="1" customWidth="1"/>
-    <col min="15897" max="15898" width="22.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="25.7109375" customWidth="1"/>
-    <col min="16131" max="16132" width="20.7109375" customWidth="1"/>
-    <col min="16133" max="16133" width="20.28515625" customWidth="1"/>
-    <col min="16135" max="16135" width="22.7109375" customWidth="1"/>
-    <col min="16136" max="16136" width="15.7109375" customWidth="1"/>
-    <col min="16137" max="16137" width="18.7109375" customWidth="1"/>
-    <col min="16138" max="16139" width="26.5703125" customWidth="1"/>
-    <col min="16140" max="16140" width="15.7109375" customWidth="1"/>
-    <col min="16141" max="16141" width="20.140625" customWidth="1"/>
-    <col min="16142" max="16143" width="15.7109375" customWidth="1"/>
-    <col min="16144" max="16145" width="12.7109375" customWidth="1"/>
-    <col min="16146" max="16147" width="13.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="14.7109375" customWidth="1"/>
-    <col min="16149" max="16149" width="11.28515625" customWidth="1"/>
-    <col min="16151" max="16151" width="15.7109375" customWidth="1"/>
-    <col min="16152" max="16152" width="40" bestFit="1" customWidth="1"/>
-    <col min="16153" max="16154" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="14" customWidth="1"/>
+    <col min="4" max="7" width="20.26953125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="12"/>
+    <col min="9" max="9" width="22.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" style="12" customWidth="1"/>
+    <col min="12" max="13" width="26.54296875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" style="15" customWidth="1"/>
+    <col min="18" max="19" width="12.7265625" style="12" customWidth="1"/>
+    <col min="20" max="21" width="13.7265625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="11.26953125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="12"/>
+    <col min="25" max="25" width="15.7265625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="22.7265625" style="12" customWidth="1"/>
+    <col min="260" max="260" width="25.7265625" customWidth="1"/>
+    <col min="261" max="262" width="20.7265625" customWidth="1"/>
+    <col min="263" max="263" width="20.26953125" customWidth="1"/>
+    <col min="265" max="265" width="22.7265625" customWidth="1"/>
+    <col min="266" max="266" width="15.7265625" customWidth="1"/>
+    <col min="267" max="267" width="18.7265625" customWidth="1"/>
+    <col min="268" max="269" width="26.54296875" customWidth="1"/>
+    <col min="270" max="270" width="15.7265625" customWidth="1"/>
+    <col min="271" max="271" width="20.1796875" customWidth="1"/>
+    <col min="272" max="273" width="15.7265625" customWidth="1"/>
+    <col min="274" max="275" width="12.7265625" customWidth="1"/>
+    <col min="276" max="277" width="13.7265625" customWidth="1"/>
+    <col min="278" max="278" width="14.7265625" customWidth="1"/>
+    <col min="279" max="279" width="11.26953125" customWidth="1"/>
+    <col min="281" max="281" width="15.7265625" customWidth="1"/>
+    <col min="282" max="282" width="40" bestFit="1" customWidth="1"/>
+    <col min="283" max="284" width="22.7265625" customWidth="1"/>
+    <col min="516" max="516" width="25.7265625" customWidth="1"/>
+    <col min="517" max="518" width="20.7265625" customWidth="1"/>
+    <col min="519" max="519" width="20.26953125" customWidth="1"/>
+    <col min="521" max="521" width="22.7265625" customWidth="1"/>
+    <col min="522" max="522" width="15.7265625" customWidth="1"/>
+    <col min="523" max="523" width="18.7265625" customWidth="1"/>
+    <col min="524" max="525" width="26.54296875" customWidth="1"/>
+    <col min="526" max="526" width="15.7265625" customWidth="1"/>
+    <col min="527" max="527" width="20.1796875" customWidth="1"/>
+    <col min="528" max="529" width="15.7265625" customWidth="1"/>
+    <col min="530" max="531" width="12.7265625" customWidth="1"/>
+    <col min="532" max="533" width="13.7265625" customWidth="1"/>
+    <col min="534" max="534" width="14.7265625" customWidth="1"/>
+    <col min="535" max="535" width="11.26953125" customWidth="1"/>
+    <col min="537" max="537" width="15.7265625" customWidth="1"/>
+    <col min="538" max="538" width="40" bestFit="1" customWidth="1"/>
+    <col min="539" max="540" width="22.7265625" customWidth="1"/>
+    <col min="772" max="772" width="25.7265625" customWidth="1"/>
+    <col min="773" max="774" width="20.7265625" customWidth="1"/>
+    <col min="775" max="775" width="20.26953125" customWidth="1"/>
+    <col min="777" max="777" width="22.7265625" customWidth="1"/>
+    <col min="778" max="778" width="15.7265625" customWidth="1"/>
+    <col min="779" max="779" width="18.7265625" customWidth="1"/>
+    <col min="780" max="781" width="26.54296875" customWidth="1"/>
+    <col min="782" max="782" width="15.7265625" customWidth="1"/>
+    <col min="783" max="783" width="20.1796875" customWidth="1"/>
+    <col min="784" max="785" width="15.7265625" customWidth="1"/>
+    <col min="786" max="787" width="12.7265625" customWidth="1"/>
+    <col min="788" max="789" width="13.7265625" customWidth="1"/>
+    <col min="790" max="790" width="14.7265625" customWidth="1"/>
+    <col min="791" max="791" width="11.26953125" customWidth="1"/>
+    <col min="793" max="793" width="15.7265625" customWidth="1"/>
+    <col min="794" max="794" width="40" bestFit="1" customWidth="1"/>
+    <col min="795" max="796" width="22.7265625" customWidth="1"/>
+    <col min="1028" max="1028" width="25.7265625" customWidth="1"/>
+    <col min="1029" max="1030" width="20.7265625" customWidth="1"/>
+    <col min="1031" max="1031" width="20.26953125" customWidth="1"/>
+    <col min="1033" max="1033" width="22.7265625" customWidth="1"/>
+    <col min="1034" max="1034" width="15.7265625" customWidth="1"/>
+    <col min="1035" max="1035" width="18.7265625" customWidth="1"/>
+    <col min="1036" max="1037" width="26.54296875" customWidth="1"/>
+    <col min="1038" max="1038" width="15.7265625" customWidth="1"/>
+    <col min="1039" max="1039" width="20.1796875" customWidth="1"/>
+    <col min="1040" max="1041" width="15.7265625" customWidth="1"/>
+    <col min="1042" max="1043" width="12.7265625" customWidth="1"/>
+    <col min="1044" max="1045" width="13.7265625" customWidth="1"/>
+    <col min="1046" max="1046" width="14.7265625" customWidth="1"/>
+    <col min="1047" max="1047" width="11.26953125" customWidth="1"/>
+    <col min="1049" max="1049" width="15.7265625" customWidth="1"/>
+    <col min="1050" max="1050" width="40" bestFit="1" customWidth="1"/>
+    <col min="1051" max="1052" width="22.7265625" customWidth="1"/>
+    <col min="1284" max="1284" width="25.7265625" customWidth="1"/>
+    <col min="1285" max="1286" width="20.7265625" customWidth="1"/>
+    <col min="1287" max="1287" width="20.26953125" customWidth="1"/>
+    <col min="1289" max="1289" width="22.7265625" customWidth="1"/>
+    <col min="1290" max="1290" width="15.7265625" customWidth="1"/>
+    <col min="1291" max="1291" width="18.7265625" customWidth="1"/>
+    <col min="1292" max="1293" width="26.54296875" customWidth="1"/>
+    <col min="1294" max="1294" width="15.7265625" customWidth="1"/>
+    <col min="1295" max="1295" width="20.1796875" customWidth="1"/>
+    <col min="1296" max="1297" width="15.7265625" customWidth="1"/>
+    <col min="1298" max="1299" width="12.7265625" customWidth="1"/>
+    <col min="1300" max="1301" width="13.7265625" customWidth="1"/>
+    <col min="1302" max="1302" width="14.7265625" customWidth="1"/>
+    <col min="1303" max="1303" width="11.26953125" customWidth="1"/>
+    <col min="1305" max="1305" width="15.7265625" customWidth="1"/>
+    <col min="1306" max="1306" width="40" bestFit="1" customWidth="1"/>
+    <col min="1307" max="1308" width="22.7265625" customWidth="1"/>
+    <col min="1540" max="1540" width="25.7265625" customWidth="1"/>
+    <col min="1541" max="1542" width="20.7265625" customWidth="1"/>
+    <col min="1543" max="1543" width="20.26953125" customWidth="1"/>
+    <col min="1545" max="1545" width="22.7265625" customWidth="1"/>
+    <col min="1546" max="1546" width="15.7265625" customWidth="1"/>
+    <col min="1547" max="1547" width="18.7265625" customWidth="1"/>
+    <col min="1548" max="1549" width="26.54296875" customWidth="1"/>
+    <col min="1550" max="1550" width="15.7265625" customWidth="1"/>
+    <col min="1551" max="1551" width="20.1796875" customWidth="1"/>
+    <col min="1552" max="1553" width="15.7265625" customWidth="1"/>
+    <col min="1554" max="1555" width="12.7265625" customWidth="1"/>
+    <col min="1556" max="1557" width="13.7265625" customWidth="1"/>
+    <col min="1558" max="1558" width="14.7265625" customWidth="1"/>
+    <col min="1559" max="1559" width="11.26953125" customWidth="1"/>
+    <col min="1561" max="1561" width="15.7265625" customWidth="1"/>
+    <col min="1562" max="1562" width="40" bestFit="1" customWidth="1"/>
+    <col min="1563" max="1564" width="22.7265625" customWidth="1"/>
+    <col min="1796" max="1796" width="25.7265625" customWidth="1"/>
+    <col min="1797" max="1798" width="20.7265625" customWidth="1"/>
+    <col min="1799" max="1799" width="20.26953125" customWidth="1"/>
+    <col min="1801" max="1801" width="22.7265625" customWidth="1"/>
+    <col min="1802" max="1802" width="15.7265625" customWidth="1"/>
+    <col min="1803" max="1803" width="18.7265625" customWidth="1"/>
+    <col min="1804" max="1805" width="26.54296875" customWidth="1"/>
+    <col min="1806" max="1806" width="15.7265625" customWidth="1"/>
+    <col min="1807" max="1807" width="20.1796875" customWidth="1"/>
+    <col min="1808" max="1809" width="15.7265625" customWidth="1"/>
+    <col min="1810" max="1811" width="12.7265625" customWidth="1"/>
+    <col min="1812" max="1813" width="13.7265625" customWidth="1"/>
+    <col min="1814" max="1814" width="14.7265625" customWidth="1"/>
+    <col min="1815" max="1815" width="11.26953125" customWidth="1"/>
+    <col min="1817" max="1817" width="15.7265625" customWidth="1"/>
+    <col min="1818" max="1818" width="40" bestFit="1" customWidth="1"/>
+    <col min="1819" max="1820" width="22.7265625" customWidth="1"/>
+    <col min="2052" max="2052" width="25.7265625" customWidth="1"/>
+    <col min="2053" max="2054" width="20.7265625" customWidth="1"/>
+    <col min="2055" max="2055" width="20.26953125" customWidth="1"/>
+    <col min="2057" max="2057" width="22.7265625" customWidth="1"/>
+    <col min="2058" max="2058" width="15.7265625" customWidth="1"/>
+    <col min="2059" max="2059" width="18.7265625" customWidth="1"/>
+    <col min="2060" max="2061" width="26.54296875" customWidth="1"/>
+    <col min="2062" max="2062" width="15.7265625" customWidth="1"/>
+    <col min="2063" max="2063" width="20.1796875" customWidth="1"/>
+    <col min="2064" max="2065" width="15.7265625" customWidth="1"/>
+    <col min="2066" max="2067" width="12.7265625" customWidth="1"/>
+    <col min="2068" max="2069" width="13.7265625" customWidth="1"/>
+    <col min="2070" max="2070" width="14.7265625" customWidth="1"/>
+    <col min="2071" max="2071" width="11.26953125" customWidth="1"/>
+    <col min="2073" max="2073" width="15.7265625" customWidth="1"/>
+    <col min="2074" max="2074" width="40" bestFit="1" customWidth="1"/>
+    <col min="2075" max="2076" width="22.7265625" customWidth="1"/>
+    <col min="2308" max="2308" width="25.7265625" customWidth="1"/>
+    <col min="2309" max="2310" width="20.7265625" customWidth="1"/>
+    <col min="2311" max="2311" width="20.26953125" customWidth="1"/>
+    <col min="2313" max="2313" width="22.7265625" customWidth="1"/>
+    <col min="2314" max="2314" width="15.7265625" customWidth="1"/>
+    <col min="2315" max="2315" width="18.7265625" customWidth="1"/>
+    <col min="2316" max="2317" width="26.54296875" customWidth="1"/>
+    <col min="2318" max="2318" width="15.7265625" customWidth="1"/>
+    <col min="2319" max="2319" width="20.1796875" customWidth="1"/>
+    <col min="2320" max="2321" width="15.7265625" customWidth="1"/>
+    <col min="2322" max="2323" width="12.7265625" customWidth="1"/>
+    <col min="2324" max="2325" width="13.7265625" customWidth="1"/>
+    <col min="2326" max="2326" width="14.7265625" customWidth="1"/>
+    <col min="2327" max="2327" width="11.26953125" customWidth="1"/>
+    <col min="2329" max="2329" width="15.7265625" customWidth="1"/>
+    <col min="2330" max="2330" width="40" bestFit="1" customWidth="1"/>
+    <col min="2331" max="2332" width="22.7265625" customWidth="1"/>
+    <col min="2564" max="2564" width="25.7265625" customWidth="1"/>
+    <col min="2565" max="2566" width="20.7265625" customWidth="1"/>
+    <col min="2567" max="2567" width="20.26953125" customWidth="1"/>
+    <col min="2569" max="2569" width="22.7265625" customWidth="1"/>
+    <col min="2570" max="2570" width="15.7265625" customWidth="1"/>
+    <col min="2571" max="2571" width="18.7265625" customWidth="1"/>
+    <col min="2572" max="2573" width="26.54296875" customWidth="1"/>
+    <col min="2574" max="2574" width="15.7265625" customWidth="1"/>
+    <col min="2575" max="2575" width="20.1796875" customWidth="1"/>
+    <col min="2576" max="2577" width="15.7265625" customWidth="1"/>
+    <col min="2578" max="2579" width="12.7265625" customWidth="1"/>
+    <col min="2580" max="2581" width="13.7265625" customWidth="1"/>
+    <col min="2582" max="2582" width="14.7265625" customWidth="1"/>
+    <col min="2583" max="2583" width="11.26953125" customWidth="1"/>
+    <col min="2585" max="2585" width="15.7265625" customWidth="1"/>
+    <col min="2586" max="2586" width="40" bestFit="1" customWidth="1"/>
+    <col min="2587" max="2588" width="22.7265625" customWidth="1"/>
+    <col min="2820" max="2820" width="25.7265625" customWidth="1"/>
+    <col min="2821" max="2822" width="20.7265625" customWidth="1"/>
+    <col min="2823" max="2823" width="20.26953125" customWidth="1"/>
+    <col min="2825" max="2825" width="22.7265625" customWidth="1"/>
+    <col min="2826" max="2826" width="15.7265625" customWidth="1"/>
+    <col min="2827" max="2827" width="18.7265625" customWidth="1"/>
+    <col min="2828" max="2829" width="26.54296875" customWidth="1"/>
+    <col min="2830" max="2830" width="15.7265625" customWidth="1"/>
+    <col min="2831" max="2831" width="20.1796875" customWidth="1"/>
+    <col min="2832" max="2833" width="15.7265625" customWidth="1"/>
+    <col min="2834" max="2835" width="12.7265625" customWidth="1"/>
+    <col min="2836" max="2837" width="13.7265625" customWidth="1"/>
+    <col min="2838" max="2838" width="14.7265625" customWidth="1"/>
+    <col min="2839" max="2839" width="11.26953125" customWidth="1"/>
+    <col min="2841" max="2841" width="15.7265625" customWidth="1"/>
+    <col min="2842" max="2842" width="40" bestFit="1" customWidth="1"/>
+    <col min="2843" max="2844" width="22.7265625" customWidth="1"/>
+    <col min="3076" max="3076" width="25.7265625" customWidth="1"/>
+    <col min="3077" max="3078" width="20.7265625" customWidth="1"/>
+    <col min="3079" max="3079" width="20.26953125" customWidth="1"/>
+    <col min="3081" max="3081" width="22.7265625" customWidth="1"/>
+    <col min="3082" max="3082" width="15.7265625" customWidth="1"/>
+    <col min="3083" max="3083" width="18.7265625" customWidth="1"/>
+    <col min="3084" max="3085" width="26.54296875" customWidth="1"/>
+    <col min="3086" max="3086" width="15.7265625" customWidth="1"/>
+    <col min="3087" max="3087" width="20.1796875" customWidth="1"/>
+    <col min="3088" max="3089" width="15.7265625" customWidth="1"/>
+    <col min="3090" max="3091" width="12.7265625" customWidth="1"/>
+    <col min="3092" max="3093" width="13.7265625" customWidth="1"/>
+    <col min="3094" max="3094" width="14.7265625" customWidth="1"/>
+    <col min="3095" max="3095" width="11.26953125" customWidth="1"/>
+    <col min="3097" max="3097" width="15.7265625" customWidth="1"/>
+    <col min="3098" max="3098" width="40" bestFit="1" customWidth="1"/>
+    <col min="3099" max="3100" width="22.7265625" customWidth="1"/>
+    <col min="3332" max="3332" width="25.7265625" customWidth="1"/>
+    <col min="3333" max="3334" width="20.7265625" customWidth="1"/>
+    <col min="3335" max="3335" width="20.26953125" customWidth="1"/>
+    <col min="3337" max="3337" width="22.7265625" customWidth="1"/>
+    <col min="3338" max="3338" width="15.7265625" customWidth="1"/>
+    <col min="3339" max="3339" width="18.7265625" customWidth="1"/>
+    <col min="3340" max="3341" width="26.54296875" customWidth="1"/>
+    <col min="3342" max="3342" width="15.7265625" customWidth="1"/>
+    <col min="3343" max="3343" width="20.1796875" customWidth="1"/>
+    <col min="3344" max="3345" width="15.7265625" customWidth="1"/>
+    <col min="3346" max="3347" width="12.7265625" customWidth="1"/>
+    <col min="3348" max="3349" width="13.7265625" customWidth="1"/>
+    <col min="3350" max="3350" width="14.7265625" customWidth="1"/>
+    <col min="3351" max="3351" width="11.26953125" customWidth="1"/>
+    <col min="3353" max="3353" width="15.7265625" customWidth="1"/>
+    <col min="3354" max="3354" width="40" bestFit="1" customWidth="1"/>
+    <col min="3355" max="3356" width="22.7265625" customWidth="1"/>
+    <col min="3588" max="3588" width="25.7265625" customWidth="1"/>
+    <col min="3589" max="3590" width="20.7265625" customWidth="1"/>
+    <col min="3591" max="3591" width="20.26953125" customWidth="1"/>
+    <col min="3593" max="3593" width="22.7265625" customWidth="1"/>
+    <col min="3594" max="3594" width="15.7265625" customWidth="1"/>
+    <col min="3595" max="3595" width="18.7265625" customWidth="1"/>
+    <col min="3596" max="3597" width="26.54296875" customWidth="1"/>
+    <col min="3598" max="3598" width="15.7265625" customWidth="1"/>
+    <col min="3599" max="3599" width="20.1796875" customWidth="1"/>
+    <col min="3600" max="3601" width="15.7265625" customWidth="1"/>
+    <col min="3602" max="3603" width="12.7265625" customWidth="1"/>
+    <col min="3604" max="3605" width="13.7265625" customWidth="1"/>
+    <col min="3606" max="3606" width="14.7265625" customWidth="1"/>
+    <col min="3607" max="3607" width="11.26953125" customWidth="1"/>
+    <col min="3609" max="3609" width="15.7265625" customWidth="1"/>
+    <col min="3610" max="3610" width="40" bestFit="1" customWidth="1"/>
+    <col min="3611" max="3612" width="22.7265625" customWidth="1"/>
+    <col min="3844" max="3844" width="25.7265625" customWidth="1"/>
+    <col min="3845" max="3846" width="20.7265625" customWidth="1"/>
+    <col min="3847" max="3847" width="20.26953125" customWidth="1"/>
+    <col min="3849" max="3849" width="22.7265625" customWidth="1"/>
+    <col min="3850" max="3850" width="15.7265625" customWidth="1"/>
+    <col min="3851" max="3851" width="18.7265625" customWidth="1"/>
+    <col min="3852" max="3853" width="26.54296875" customWidth="1"/>
+    <col min="3854" max="3854" width="15.7265625" customWidth="1"/>
+    <col min="3855" max="3855" width="20.1796875" customWidth="1"/>
+    <col min="3856" max="3857" width="15.7265625" customWidth="1"/>
+    <col min="3858" max="3859" width="12.7265625" customWidth="1"/>
+    <col min="3860" max="3861" width="13.7265625" customWidth="1"/>
+    <col min="3862" max="3862" width="14.7265625" customWidth="1"/>
+    <col min="3863" max="3863" width="11.26953125" customWidth="1"/>
+    <col min="3865" max="3865" width="15.7265625" customWidth="1"/>
+    <col min="3866" max="3866" width="40" bestFit="1" customWidth="1"/>
+    <col min="3867" max="3868" width="22.7265625" customWidth="1"/>
+    <col min="4100" max="4100" width="25.7265625" customWidth="1"/>
+    <col min="4101" max="4102" width="20.7265625" customWidth="1"/>
+    <col min="4103" max="4103" width="20.26953125" customWidth="1"/>
+    <col min="4105" max="4105" width="22.7265625" customWidth="1"/>
+    <col min="4106" max="4106" width="15.7265625" customWidth="1"/>
+    <col min="4107" max="4107" width="18.7265625" customWidth="1"/>
+    <col min="4108" max="4109" width="26.54296875" customWidth="1"/>
+    <col min="4110" max="4110" width="15.7265625" customWidth="1"/>
+    <col min="4111" max="4111" width="20.1796875" customWidth="1"/>
+    <col min="4112" max="4113" width="15.7265625" customWidth="1"/>
+    <col min="4114" max="4115" width="12.7265625" customWidth="1"/>
+    <col min="4116" max="4117" width="13.7265625" customWidth="1"/>
+    <col min="4118" max="4118" width="14.7265625" customWidth="1"/>
+    <col min="4119" max="4119" width="11.26953125" customWidth="1"/>
+    <col min="4121" max="4121" width="15.7265625" customWidth="1"/>
+    <col min="4122" max="4122" width="40" bestFit="1" customWidth="1"/>
+    <col min="4123" max="4124" width="22.7265625" customWidth="1"/>
+    <col min="4356" max="4356" width="25.7265625" customWidth="1"/>
+    <col min="4357" max="4358" width="20.7265625" customWidth="1"/>
+    <col min="4359" max="4359" width="20.26953125" customWidth="1"/>
+    <col min="4361" max="4361" width="22.7265625" customWidth="1"/>
+    <col min="4362" max="4362" width="15.7265625" customWidth="1"/>
+    <col min="4363" max="4363" width="18.7265625" customWidth="1"/>
+    <col min="4364" max="4365" width="26.54296875" customWidth="1"/>
+    <col min="4366" max="4366" width="15.7265625" customWidth="1"/>
+    <col min="4367" max="4367" width="20.1796875" customWidth="1"/>
+    <col min="4368" max="4369" width="15.7265625" customWidth="1"/>
+    <col min="4370" max="4371" width="12.7265625" customWidth="1"/>
+    <col min="4372" max="4373" width="13.7265625" customWidth="1"/>
+    <col min="4374" max="4374" width="14.7265625" customWidth="1"/>
+    <col min="4375" max="4375" width="11.26953125" customWidth="1"/>
+    <col min="4377" max="4377" width="15.7265625" customWidth="1"/>
+    <col min="4378" max="4378" width="40" bestFit="1" customWidth="1"/>
+    <col min="4379" max="4380" width="22.7265625" customWidth="1"/>
+    <col min="4612" max="4612" width="25.7265625" customWidth="1"/>
+    <col min="4613" max="4614" width="20.7265625" customWidth="1"/>
+    <col min="4615" max="4615" width="20.26953125" customWidth="1"/>
+    <col min="4617" max="4617" width="22.7265625" customWidth="1"/>
+    <col min="4618" max="4618" width="15.7265625" customWidth="1"/>
+    <col min="4619" max="4619" width="18.7265625" customWidth="1"/>
+    <col min="4620" max="4621" width="26.54296875" customWidth="1"/>
+    <col min="4622" max="4622" width="15.7265625" customWidth="1"/>
+    <col min="4623" max="4623" width="20.1796875" customWidth="1"/>
+    <col min="4624" max="4625" width="15.7265625" customWidth="1"/>
+    <col min="4626" max="4627" width="12.7265625" customWidth="1"/>
+    <col min="4628" max="4629" width="13.7265625" customWidth="1"/>
+    <col min="4630" max="4630" width="14.7265625" customWidth="1"/>
+    <col min="4631" max="4631" width="11.26953125" customWidth="1"/>
+    <col min="4633" max="4633" width="15.7265625" customWidth="1"/>
+    <col min="4634" max="4634" width="40" bestFit="1" customWidth="1"/>
+    <col min="4635" max="4636" width="22.7265625" customWidth="1"/>
+    <col min="4868" max="4868" width="25.7265625" customWidth="1"/>
+    <col min="4869" max="4870" width="20.7265625" customWidth="1"/>
+    <col min="4871" max="4871" width="20.26953125" customWidth="1"/>
+    <col min="4873" max="4873" width="22.7265625" customWidth="1"/>
+    <col min="4874" max="4874" width="15.7265625" customWidth="1"/>
+    <col min="4875" max="4875" width="18.7265625" customWidth="1"/>
+    <col min="4876" max="4877" width="26.54296875" customWidth="1"/>
+    <col min="4878" max="4878" width="15.7265625" customWidth="1"/>
+    <col min="4879" max="4879" width="20.1796875" customWidth="1"/>
+    <col min="4880" max="4881" width="15.7265625" customWidth="1"/>
+    <col min="4882" max="4883" width="12.7265625" customWidth="1"/>
+    <col min="4884" max="4885" width="13.7265625" customWidth="1"/>
+    <col min="4886" max="4886" width="14.7265625" customWidth="1"/>
+    <col min="4887" max="4887" width="11.26953125" customWidth="1"/>
+    <col min="4889" max="4889" width="15.7265625" customWidth="1"/>
+    <col min="4890" max="4890" width="40" bestFit="1" customWidth="1"/>
+    <col min="4891" max="4892" width="22.7265625" customWidth="1"/>
+    <col min="5124" max="5124" width="25.7265625" customWidth="1"/>
+    <col min="5125" max="5126" width="20.7265625" customWidth="1"/>
+    <col min="5127" max="5127" width="20.26953125" customWidth="1"/>
+    <col min="5129" max="5129" width="22.7265625" customWidth="1"/>
+    <col min="5130" max="5130" width="15.7265625" customWidth="1"/>
+    <col min="5131" max="5131" width="18.7265625" customWidth="1"/>
+    <col min="5132" max="5133" width="26.54296875" customWidth="1"/>
+    <col min="5134" max="5134" width="15.7265625" customWidth="1"/>
+    <col min="5135" max="5135" width="20.1796875" customWidth="1"/>
+    <col min="5136" max="5137" width="15.7265625" customWidth="1"/>
+    <col min="5138" max="5139" width="12.7265625" customWidth="1"/>
+    <col min="5140" max="5141" width="13.7265625" customWidth="1"/>
+    <col min="5142" max="5142" width="14.7265625" customWidth="1"/>
+    <col min="5143" max="5143" width="11.26953125" customWidth="1"/>
+    <col min="5145" max="5145" width="15.7265625" customWidth="1"/>
+    <col min="5146" max="5146" width="40" bestFit="1" customWidth="1"/>
+    <col min="5147" max="5148" width="22.7265625" customWidth="1"/>
+    <col min="5380" max="5380" width="25.7265625" customWidth="1"/>
+    <col min="5381" max="5382" width="20.7265625" customWidth="1"/>
+    <col min="5383" max="5383" width="20.26953125" customWidth="1"/>
+    <col min="5385" max="5385" width="22.7265625" customWidth="1"/>
+    <col min="5386" max="5386" width="15.7265625" customWidth="1"/>
+    <col min="5387" max="5387" width="18.7265625" customWidth="1"/>
+    <col min="5388" max="5389" width="26.54296875" customWidth="1"/>
+    <col min="5390" max="5390" width="15.7265625" customWidth="1"/>
+    <col min="5391" max="5391" width="20.1796875" customWidth="1"/>
+    <col min="5392" max="5393" width="15.7265625" customWidth="1"/>
+    <col min="5394" max="5395" width="12.7265625" customWidth="1"/>
+    <col min="5396" max="5397" width="13.7265625" customWidth="1"/>
+    <col min="5398" max="5398" width="14.7265625" customWidth="1"/>
+    <col min="5399" max="5399" width="11.26953125" customWidth="1"/>
+    <col min="5401" max="5401" width="15.7265625" customWidth="1"/>
+    <col min="5402" max="5402" width="40" bestFit="1" customWidth="1"/>
+    <col min="5403" max="5404" width="22.7265625" customWidth="1"/>
+    <col min="5636" max="5636" width="25.7265625" customWidth="1"/>
+    <col min="5637" max="5638" width="20.7265625" customWidth="1"/>
+    <col min="5639" max="5639" width="20.26953125" customWidth="1"/>
+    <col min="5641" max="5641" width="22.7265625" customWidth="1"/>
+    <col min="5642" max="5642" width="15.7265625" customWidth="1"/>
+    <col min="5643" max="5643" width="18.7265625" customWidth="1"/>
+    <col min="5644" max="5645" width="26.54296875" customWidth="1"/>
+    <col min="5646" max="5646" width="15.7265625" customWidth="1"/>
+    <col min="5647" max="5647" width="20.1796875" customWidth="1"/>
+    <col min="5648" max="5649" width="15.7265625" customWidth="1"/>
+    <col min="5650" max="5651" width="12.7265625" customWidth="1"/>
+    <col min="5652" max="5653" width="13.7265625" customWidth="1"/>
+    <col min="5654" max="5654" width="14.7265625" customWidth="1"/>
+    <col min="5655" max="5655" width="11.26953125" customWidth="1"/>
+    <col min="5657" max="5657" width="15.7265625" customWidth="1"/>
+    <col min="5658" max="5658" width="40" bestFit="1" customWidth="1"/>
+    <col min="5659" max="5660" width="22.7265625" customWidth="1"/>
+    <col min="5892" max="5892" width="25.7265625" customWidth="1"/>
+    <col min="5893" max="5894" width="20.7265625" customWidth="1"/>
+    <col min="5895" max="5895" width="20.26953125" customWidth="1"/>
+    <col min="5897" max="5897" width="22.7265625" customWidth="1"/>
+    <col min="5898" max="5898" width="15.7265625" customWidth="1"/>
+    <col min="5899" max="5899" width="18.7265625" customWidth="1"/>
+    <col min="5900" max="5901" width="26.54296875" customWidth="1"/>
+    <col min="5902" max="5902" width="15.7265625" customWidth="1"/>
+    <col min="5903" max="5903" width="20.1796875" customWidth="1"/>
+    <col min="5904" max="5905" width="15.7265625" customWidth="1"/>
+    <col min="5906" max="5907" width="12.7265625" customWidth="1"/>
+    <col min="5908" max="5909" width="13.7265625" customWidth="1"/>
+    <col min="5910" max="5910" width="14.7265625" customWidth="1"/>
+    <col min="5911" max="5911" width="11.26953125" customWidth="1"/>
+    <col min="5913" max="5913" width="15.7265625" customWidth="1"/>
+    <col min="5914" max="5914" width="40" bestFit="1" customWidth="1"/>
+    <col min="5915" max="5916" width="22.7265625" customWidth="1"/>
+    <col min="6148" max="6148" width="25.7265625" customWidth="1"/>
+    <col min="6149" max="6150" width="20.7265625" customWidth="1"/>
+    <col min="6151" max="6151" width="20.26953125" customWidth="1"/>
+    <col min="6153" max="6153" width="22.7265625" customWidth="1"/>
+    <col min="6154" max="6154" width="15.7265625" customWidth="1"/>
+    <col min="6155" max="6155" width="18.7265625" customWidth="1"/>
+    <col min="6156" max="6157" width="26.54296875" customWidth="1"/>
+    <col min="6158" max="6158" width="15.7265625" customWidth="1"/>
+    <col min="6159" max="6159" width="20.1796875" customWidth="1"/>
+    <col min="6160" max="6161" width="15.7265625" customWidth="1"/>
+    <col min="6162" max="6163" width="12.7265625" customWidth="1"/>
+    <col min="6164" max="6165" width="13.7265625" customWidth="1"/>
+    <col min="6166" max="6166" width="14.7265625" customWidth="1"/>
+    <col min="6167" max="6167" width="11.26953125" customWidth="1"/>
+    <col min="6169" max="6169" width="15.7265625" customWidth="1"/>
+    <col min="6170" max="6170" width="40" bestFit="1" customWidth="1"/>
+    <col min="6171" max="6172" width="22.7265625" customWidth="1"/>
+    <col min="6404" max="6404" width="25.7265625" customWidth="1"/>
+    <col min="6405" max="6406" width="20.7265625" customWidth="1"/>
+    <col min="6407" max="6407" width="20.26953125" customWidth="1"/>
+    <col min="6409" max="6409" width="22.7265625" customWidth="1"/>
+    <col min="6410" max="6410" width="15.7265625" customWidth="1"/>
+    <col min="6411" max="6411" width="18.7265625" customWidth="1"/>
+    <col min="6412" max="6413" width="26.54296875" customWidth="1"/>
+    <col min="6414" max="6414" width="15.7265625" customWidth="1"/>
+    <col min="6415" max="6415" width="20.1796875" customWidth="1"/>
+    <col min="6416" max="6417" width="15.7265625" customWidth="1"/>
+    <col min="6418" max="6419" width="12.7265625" customWidth="1"/>
+    <col min="6420" max="6421" width="13.7265625" customWidth="1"/>
+    <col min="6422" max="6422" width="14.7265625" customWidth="1"/>
+    <col min="6423" max="6423" width="11.26953125" customWidth="1"/>
+    <col min="6425" max="6425" width="15.7265625" customWidth="1"/>
+    <col min="6426" max="6426" width="40" bestFit="1" customWidth="1"/>
+    <col min="6427" max="6428" width="22.7265625" customWidth="1"/>
+    <col min="6660" max="6660" width="25.7265625" customWidth="1"/>
+    <col min="6661" max="6662" width="20.7265625" customWidth="1"/>
+    <col min="6663" max="6663" width="20.26953125" customWidth="1"/>
+    <col min="6665" max="6665" width="22.7265625" customWidth="1"/>
+    <col min="6666" max="6666" width="15.7265625" customWidth="1"/>
+    <col min="6667" max="6667" width="18.7265625" customWidth="1"/>
+    <col min="6668" max="6669" width="26.54296875" customWidth="1"/>
+    <col min="6670" max="6670" width="15.7265625" customWidth="1"/>
+    <col min="6671" max="6671" width="20.1796875" customWidth="1"/>
+    <col min="6672" max="6673" width="15.7265625" customWidth="1"/>
+    <col min="6674" max="6675" width="12.7265625" customWidth="1"/>
+    <col min="6676" max="6677" width="13.7265625" customWidth="1"/>
+    <col min="6678" max="6678" width="14.7265625" customWidth="1"/>
+    <col min="6679" max="6679" width="11.26953125" customWidth="1"/>
+    <col min="6681" max="6681" width="15.7265625" customWidth="1"/>
+    <col min="6682" max="6682" width="40" bestFit="1" customWidth="1"/>
+    <col min="6683" max="6684" width="22.7265625" customWidth="1"/>
+    <col min="6916" max="6916" width="25.7265625" customWidth="1"/>
+    <col min="6917" max="6918" width="20.7265625" customWidth="1"/>
+    <col min="6919" max="6919" width="20.26953125" customWidth="1"/>
+    <col min="6921" max="6921" width="22.7265625" customWidth="1"/>
+    <col min="6922" max="6922" width="15.7265625" customWidth="1"/>
+    <col min="6923" max="6923" width="18.7265625" customWidth="1"/>
+    <col min="6924" max="6925" width="26.54296875" customWidth="1"/>
+    <col min="6926" max="6926" width="15.7265625" customWidth="1"/>
+    <col min="6927" max="6927" width="20.1796875" customWidth="1"/>
+    <col min="6928" max="6929" width="15.7265625" customWidth="1"/>
+    <col min="6930" max="6931" width="12.7265625" customWidth="1"/>
+    <col min="6932" max="6933" width="13.7265625" customWidth="1"/>
+    <col min="6934" max="6934" width="14.7265625" customWidth="1"/>
+    <col min="6935" max="6935" width="11.26953125" customWidth="1"/>
+    <col min="6937" max="6937" width="15.7265625" customWidth="1"/>
+    <col min="6938" max="6938" width="40" bestFit="1" customWidth="1"/>
+    <col min="6939" max="6940" width="22.7265625" customWidth="1"/>
+    <col min="7172" max="7172" width="25.7265625" customWidth="1"/>
+    <col min="7173" max="7174" width="20.7265625" customWidth="1"/>
+    <col min="7175" max="7175" width="20.26953125" customWidth="1"/>
+    <col min="7177" max="7177" width="22.7265625" customWidth="1"/>
+    <col min="7178" max="7178" width="15.7265625" customWidth="1"/>
+    <col min="7179" max="7179" width="18.7265625" customWidth="1"/>
+    <col min="7180" max="7181" width="26.54296875" customWidth="1"/>
+    <col min="7182" max="7182" width="15.7265625" customWidth="1"/>
+    <col min="7183" max="7183" width="20.1796875" customWidth="1"/>
+    <col min="7184" max="7185" width="15.7265625" customWidth="1"/>
+    <col min="7186" max="7187" width="12.7265625" customWidth="1"/>
+    <col min="7188" max="7189" width="13.7265625" customWidth="1"/>
+    <col min="7190" max="7190" width="14.7265625" customWidth="1"/>
+    <col min="7191" max="7191" width="11.26953125" customWidth="1"/>
+    <col min="7193" max="7193" width="15.7265625" customWidth="1"/>
+    <col min="7194" max="7194" width="40" bestFit="1" customWidth="1"/>
+    <col min="7195" max="7196" width="22.7265625" customWidth="1"/>
+    <col min="7428" max="7428" width="25.7265625" customWidth="1"/>
+    <col min="7429" max="7430" width="20.7265625" customWidth="1"/>
+    <col min="7431" max="7431" width="20.26953125" customWidth="1"/>
+    <col min="7433" max="7433" width="22.7265625" customWidth="1"/>
+    <col min="7434" max="7434" width="15.7265625" customWidth="1"/>
+    <col min="7435" max="7435" width="18.7265625" customWidth="1"/>
+    <col min="7436" max="7437" width="26.54296875" customWidth="1"/>
+    <col min="7438" max="7438" width="15.7265625" customWidth="1"/>
+    <col min="7439" max="7439" width="20.1796875" customWidth="1"/>
+    <col min="7440" max="7441" width="15.7265625" customWidth="1"/>
+    <col min="7442" max="7443" width="12.7265625" customWidth="1"/>
+    <col min="7444" max="7445" width="13.7265625" customWidth="1"/>
+    <col min="7446" max="7446" width="14.7265625" customWidth="1"/>
+    <col min="7447" max="7447" width="11.26953125" customWidth="1"/>
+    <col min="7449" max="7449" width="15.7265625" customWidth="1"/>
+    <col min="7450" max="7450" width="40" bestFit="1" customWidth="1"/>
+    <col min="7451" max="7452" width="22.7265625" customWidth="1"/>
+    <col min="7684" max="7684" width="25.7265625" customWidth="1"/>
+    <col min="7685" max="7686" width="20.7265625" customWidth="1"/>
+    <col min="7687" max="7687" width="20.26953125" customWidth="1"/>
+    <col min="7689" max="7689" width="22.7265625" customWidth="1"/>
+    <col min="7690" max="7690" width="15.7265625" customWidth="1"/>
+    <col min="7691" max="7691" width="18.7265625" customWidth="1"/>
+    <col min="7692" max="7693" width="26.54296875" customWidth="1"/>
+    <col min="7694" max="7694" width="15.7265625" customWidth="1"/>
+    <col min="7695" max="7695" width="20.1796875" customWidth="1"/>
+    <col min="7696" max="7697" width="15.7265625" customWidth="1"/>
+    <col min="7698" max="7699" width="12.7265625" customWidth="1"/>
+    <col min="7700" max="7701" width="13.7265625" customWidth="1"/>
+    <col min="7702" max="7702" width="14.7265625" customWidth="1"/>
+    <col min="7703" max="7703" width="11.26953125" customWidth="1"/>
+    <col min="7705" max="7705" width="15.7265625" customWidth="1"/>
+    <col min="7706" max="7706" width="40" bestFit="1" customWidth="1"/>
+    <col min="7707" max="7708" width="22.7265625" customWidth="1"/>
+    <col min="7940" max="7940" width="25.7265625" customWidth="1"/>
+    <col min="7941" max="7942" width="20.7265625" customWidth="1"/>
+    <col min="7943" max="7943" width="20.26953125" customWidth="1"/>
+    <col min="7945" max="7945" width="22.7265625" customWidth="1"/>
+    <col min="7946" max="7946" width="15.7265625" customWidth="1"/>
+    <col min="7947" max="7947" width="18.7265625" customWidth="1"/>
+    <col min="7948" max="7949" width="26.54296875" customWidth="1"/>
+    <col min="7950" max="7950" width="15.7265625" customWidth="1"/>
+    <col min="7951" max="7951" width="20.1796875" customWidth="1"/>
+    <col min="7952" max="7953" width="15.7265625" customWidth="1"/>
+    <col min="7954" max="7955" width="12.7265625" customWidth="1"/>
+    <col min="7956" max="7957" width="13.7265625" customWidth="1"/>
+    <col min="7958" max="7958" width="14.7265625" customWidth="1"/>
+    <col min="7959" max="7959" width="11.26953125" customWidth="1"/>
+    <col min="7961" max="7961" width="15.7265625" customWidth="1"/>
+    <col min="7962" max="7962" width="40" bestFit="1" customWidth="1"/>
+    <col min="7963" max="7964" width="22.7265625" customWidth="1"/>
+    <col min="8196" max="8196" width="25.7265625" customWidth="1"/>
+    <col min="8197" max="8198" width="20.7265625" customWidth="1"/>
+    <col min="8199" max="8199" width="20.26953125" customWidth="1"/>
+    <col min="8201" max="8201" width="22.7265625" customWidth="1"/>
+    <col min="8202" max="8202" width="15.7265625" customWidth="1"/>
+    <col min="8203" max="8203" width="18.7265625" customWidth="1"/>
+    <col min="8204" max="8205" width="26.54296875" customWidth="1"/>
+    <col min="8206" max="8206" width="15.7265625" customWidth="1"/>
+    <col min="8207" max="8207" width="20.1796875" customWidth="1"/>
+    <col min="8208" max="8209" width="15.7265625" customWidth="1"/>
+    <col min="8210" max="8211" width="12.7265625" customWidth="1"/>
+    <col min="8212" max="8213" width="13.7265625" customWidth="1"/>
+    <col min="8214" max="8214" width="14.7265625" customWidth="1"/>
+    <col min="8215" max="8215" width="11.26953125" customWidth="1"/>
+    <col min="8217" max="8217" width="15.7265625" customWidth="1"/>
+    <col min="8218" max="8218" width="40" bestFit="1" customWidth="1"/>
+    <col min="8219" max="8220" width="22.7265625" customWidth="1"/>
+    <col min="8452" max="8452" width="25.7265625" customWidth="1"/>
+    <col min="8453" max="8454" width="20.7265625" customWidth="1"/>
+    <col min="8455" max="8455" width="20.26953125" customWidth="1"/>
+    <col min="8457" max="8457" width="22.7265625" customWidth="1"/>
+    <col min="8458" max="8458" width="15.7265625" customWidth="1"/>
+    <col min="8459" max="8459" width="18.7265625" customWidth="1"/>
+    <col min="8460" max="8461" width="26.54296875" customWidth="1"/>
+    <col min="8462" max="8462" width="15.7265625" customWidth="1"/>
+    <col min="8463" max="8463" width="20.1796875" customWidth="1"/>
+    <col min="8464" max="8465" width="15.7265625" customWidth="1"/>
+    <col min="8466" max="8467" width="12.7265625" customWidth="1"/>
+    <col min="8468" max="8469" width="13.7265625" customWidth="1"/>
+    <col min="8470" max="8470" width="14.7265625" customWidth="1"/>
+    <col min="8471" max="8471" width="11.26953125" customWidth="1"/>
+    <col min="8473" max="8473" width="15.7265625" customWidth="1"/>
+    <col min="8474" max="8474" width="40" bestFit="1" customWidth="1"/>
+    <col min="8475" max="8476" width="22.7265625" customWidth="1"/>
+    <col min="8708" max="8708" width="25.7265625" customWidth="1"/>
+    <col min="8709" max="8710" width="20.7265625" customWidth="1"/>
+    <col min="8711" max="8711" width="20.26953125" customWidth="1"/>
+    <col min="8713" max="8713" width="22.7265625" customWidth="1"/>
+    <col min="8714" max="8714" width="15.7265625" customWidth="1"/>
+    <col min="8715" max="8715" width="18.7265625" customWidth="1"/>
+    <col min="8716" max="8717" width="26.54296875" customWidth="1"/>
+    <col min="8718" max="8718" width="15.7265625" customWidth="1"/>
+    <col min="8719" max="8719" width="20.1796875" customWidth="1"/>
+    <col min="8720" max="8721" width="15.7265625" customWidth="1"/>
+    <col min="8722" max="8723" width="12.7265625" customWidth="1"/>
+    <col min="8724" max="8725" width="13.7265625" customWidth="1"/>
+    <col min="8726" max="8726" width="14.7265625" customWidth="1"/>
+    <col min="8727" max="8727" width="11.26953125" customWidth="1"/>
+    <col min="8729" max="8729" width="15.7265625" customWidth="1"/>
+    <col min="8730" max="8730" width="40" bestFit="1" customWidth="1"/>
+    <col min="8731" max="8732" width="22.7265625" customWidth="1"/>
+    <col min="8964" max="8964" width="25.7265625" customWidth="1"/>
+    <col min="8965" max="8966" width="20.7265625" customWidth="1"/>
+    <col min="8967" max="8967" width="20.26953125" customWidth="1"/>
+    <col min="8969" max="8969" width="22.7265625" customWidth="1"/>
+    <col min="8970" max="8970" width="15.7265625" customWidth="1"/>
+    <col min="8971" max="8971" width="18.7265625" customWidth="1"/>
+    <col min="8972" max="8973" width="26.54296875" customWidth="1"/>
+    <col min="8974" max="8974" width="15.7265625" customWidth="1"/>
+    <col min="8975" max="8975" width="20.1796875" customWidth="1"/>
+    <col min="8976" max="8977" width="15.7265625" customWidth="1"/>
+    <col min="8978" max="8979" width="12.7265625" customWidth="1"/>
+    <col min="8980" max="8981" width="13.7265625" customWidth="1"/>
+    <col min="8982" max="8982" width="14.7265625" customWidth="1"/>
+    <col min="8983" max="8983" width="11.26953125" customWidth="1"/>
+    <col min="8985" max="8985" width="15.7265625" customWidth="1"/>
+    <col min="8986" max="8986" width="40" bestFit="1" customWidth="1"/>
+    <col min="8987" max="8988" width="22.7265625" customWidth="1"/>
+    <col min="9220" max="9220" width="25.7265625" customWidth="1"/>
+    <col min="9221" max="9222" width="20.7265625" customWidth="1"/>
+    <col min="9223" max="9223" width="20.26953125" customWidth="1"/>
+    <col min="9225" max="9225" width="22.7265625" customWidth="1"/>
+    <col min="9226" max="9226" width="15.7265625" customWidth="1"/>
+    <col min="9227" max="9227" width="18.7265625" customWidth="1"/>
+    <col min="9228" max="9229" width="26.54296875" customWidth="1"/>
+    <col min="9230" max="9230" width="15.7265625" customWidth="1"/>
+    <col min="9231" max="9231" width="20.1796875" customWidth="1"/>
+    <col min="9232" max="9233" width="15.7265625" customWidth="1"/>
+    <col min="9234" max="9235" width="12.7265625" customWidth="1"/>
+    <col min="9236" max="9237" width="13.7265625" customWidth="1"/>
+    <col min="9238" max="9238" width="14.7265625" customWidth="1"/>
+    <col min="9239" max="9239" width="11.26953125" customWidth="1"/>
+    <col min="9241" max="9241" width="15.7265625" customWidth="1"/>
+    <col min="9242" max="9242" width="40" bestFit="1" customWidth="1"/>
+    <col min="9243" max="9244" width="22.7265625" customWidth="1"/>
+    <col min="9476" max="9476" width="25.7265625" customWidth="1"/>
+    <col min="9477" max="9478" width="20.7265625" customWidth="1"/>
+    <col min="9479" max="9479" width="20.26953125" customWidth="1"/>
+    <col min="9481" max="9481" width="22.7265625" customWidth="1"/>
+    <col min="9482" max="9482" width="15.7265625" customWidth="1"/>
+    <col min="9483" max="9483" width="18.7265625" customWidth="1"/>
+    <col min="9484" max="9485" width="26.54296875" customWidth="1"/>
+    <col min="9486" max="9486" width="15.7265625" customWidth="1"/>
+    <col min="9487" max="9487" width="20.1796875" customWidth="1"/>
+    <col min="9488" max="9489" width="15.7265625" customWidth="1"/>
+    <col min="9490" max="9491" width="12.7265625" customWidth="1"/>
+    <col min="9492" max="9493" width="13.7265625" customWidth="1"/>
+    <col min="9494" max="9494" width="14.7265625" customWidth="1"/>
+    <col min="9495" max="9495" width="11.26953125" customWidth="1"/>
+    <col min="9497" max="9497" width="15.7265625" customWidth="1"/>
+    <col min="9498" max="9498" width="40" bestFit="1" customWidth="1"/>
+    <col min="9499" max="9500" width="22.7265625" customWidth="1"/>
+    <col min="9732" max="9732" width="25.7265625" customWidth="1"/>
+    <col min="9733" max="9734" width="20.7265625" customWidth="1"/>
+    <col min="9735" max="9735" width="20.26953125" customWidth="1"/>
+    <col min="9737" max="9737" width="22.7265625" customWidth="1"/>
+    <col min="9738" max="9738" width="15.7265625" customWidth="1"/>
+    <col min="9739" max="9739" width="18.7265625" customWidth="1"/>
+    <col min="9740" max="9741" width="26.54296875" customWidth="1"/>
+    <col min="9742" max="9742" width="15.7265625" customWidth="1"/>
+    <col min="9743" max="9743" width="20.1796875" customWidth="1"/>
+    <col min="9744" max="9745" width="15.7265625" customWidth="1"/>
+    <col min="9746" max="9747" width="12.7265625" customWidth="1"/>
+    <col min="9748" max="9749" width="13.7265625" customWidth="1"/>
+    <col min="9750" max="9750" width="14.7265625" customWidth="1"/>
+    <col min="9751" max="9751" width="11.26953125" customWidth="1"/>
+    <col min="9753" max="9753" width="15.7265625" customWidth="1"/>
+    <col min="9754" max="9754" width="40" bestFit="1" customWidth="1"/>
+    <col min="9755" max="9756" width="22.7265625" customWidth="1"/>
+    <col min="9988" max="9988" width="25.7265625" customWidth="1"/>
+    <col min="9989" max="9990" width="20.7265625" customWidth="1"/>
+    <col min="9991" max="9991" width="20.26953125" customWidth="1"/>
+    <col min="9993" max="9993" width="22.7265625" customWidth="1"/>
+    <col min="9994" max="9994" width="15.7265625" customWidth="1"/>
+    <col min="9995" max="9995" width="18.7265625" customWidth="1"/>
+    <col min="9996" max="9997" width="26.54296875" customWidth="1"/>
+    <col min="9998" max="9998" width="15.7265625" customWidth="1"/>
+    <col min="9999" max="9999" width="20.1796875" customWidth="1"/>
+    <col min="10000" max="10001" width="15.7265625" customWidth="1"/>
+    <col min="10002" max="10003" width="12.7265625" customWidth="1"/>
+    <col min="10004" max="10005" width="13.7265625" customWidth="1"/>
+    <col min="10006" max="10006" width="14.7265625" customWidth="1"/>
+    <col min="10007" max="10007" width="11.26953125" customWidth="1"/>
+    <col min="10009" max="10009" width="15.7265625" customWidth="1"/>
+    <col min="10010" max="10010" width="40" bestFit="1" customWidth="1"/>
+    <col min="10011" max="10012" width="22.7265625" customWidth="1"/>
+    <col min="10244" max="10244" width="25.7265625" customWidth="1"/>
+    <col min="10245" max="10246" width="20.7265625" customWidth="1"/>
+    <col min="10247" max="10247" width="20.26953125" customWidth="1"/>
+    <col min="10249" max="10249" width="22.7265625" customWidth="1"/>
+    <col min="10250" max="10250" width="15.7265625" customWidth="1"/>
+    <col min="10251" max="10251" width="18.7265625" customWidth="1"/>
+    <col min="10252" max="10253" width="26.54296875" customWidth="1"/>
+    <col min="10254" max="10254" width="15.7265625" customWidth="1"/>
+    <col min="10255" max="10255" width="20.1796875" customWidth="1"/>
+    <col min="10256" max="10257" width="15.7265625" customWidth="1"/>
+    <col min="10258" max="10259" width="12.7265625" customWidth="1"/>
+    <col min="10260" max="10261" width="13.7265625" customWidth="1"/>
+    <col min="10262" max="10262" width="14.7265625" customWidth="1"/>
+    <col min="10263" max="10263" width="11.26953125" customWidth="1"/>
+    <col min="10265" max="10265" width="15.7265625" customWidth="1"/>
+    <col min="10266" max="10266" width="40" bestFit="1" customWidth="1"/>
+    <col min="10267" max="10268" width="22.7265625" customWidth="1"/>
+    <col min="10500" max="10500" width="25.7265625" customWidth="1"/>
+    <col min="10501" max="10502" width="20.7265625" customWidth="1"/>
+    <col min="10503" max="10503" width="20.26953125" customWidth="1"/>
+    <col min="10505" max="10505" width="22.7265625" customWidth="1"/>
+    <col min="10506" max="10506" width="15.7265625" customWidth="1"/>
+    <col min="10507" max="10507" width="18.7265625" customWidth="1"/>
+    <col min="10508" max="10509" width="26.54296875" customWidth="1"/>
+    <col min="10510" max="10510" width="15.7265625" customWidth="1"/>
+    <col min="10511" max="10511" width="20.1796875" customWidth="1"/>
+    <col min="10512" max="10513" width="15.7265625" customWidth="1"/>
+    <col min="10514" max="10515" width="12.7265625" customWidth="1"/>
+    <col min="10516" max="10517" width="13.7265625" customWidth="1"/>
+    <col min="10518" max="10518" width="14.7265625" customWidth="1"/>
+    <col min="10519" max="10519" width="11.26953125" customWidth="1"/>
+    <col min="10521" max="10521" width="15.7265625" customWidth="1"/>
+    <col min="10522" max="10522" width="40" bestFit="1" customWidth="1"/>
+    <col min="10523" max="10524" width="22.7265625" customWidth="1"/>
+    <col min="10756" max="10756" width="25.7265625" customWidth="1"/>
+    <col min="10757" max="10758" width="20.7265625" customWidth="1"/>
+    <col min="10759" max="10759" width="20.26953125" customWidth="1"/>
+    <col min="10761" max="10761" width="22.7265625" customWidth="1"/>
+    <col min="10762" max="10762" width="15.7265625" customWidth="1"/>
+    <col min="10763" max="10763" width="18.7265625" customWidth="1"/>
+    <col min="10764" max="10765" width="26.54296875" customWidth="1"/>
+    <col min="10766" max="10766" width="15.7265625" customWidth="1"/>
+    <col min="10767" max="10767" width="20.1796875" customWidth="1"/>
+    <col min="10768" max="10769" width="15.7265625" customWidth="1"/>
+    <col min="10770" max="10771" width="12.7265625" customWidth="1"/>
+    <col min="10772" max="10773" width="13.7265625" customWidth="1"/>
+    <col min="10774" max="10774" width="14.7265625" customWidth="1"/>
+    <col min="10775" max="10775" width="11.26953125" customWidth="1"/>
+    <col min="10777" max="10777" width="15.7265625" customWidth="1"/>
+    <col min="10778" max="10778" width="40" bestFit="1" customWidth="1"/>
+    <col min="10779" max="10780" width="22.7265625" customWidth="1"/>
+    <col min="11012" max="11012" width="25.7265625" customWidth="1"/>
+    <col min="11013" max="11014" width="20.7265625" customWidth="1"/>
+    <col min="11015" max="11015" width="20.26953125" customWidth="1"/>
+    <col min="11017" max="11017" width="22.7265625" customWidth="1"/>
+    <col min="11018" max="11018" width="15.7265625" customWidth="1"/>
+    <col min="11019" max="11019" width="18.7265625" customWidth="1"/>
+    <col min="11020" max="11021" width="26.54296875" customWidth="1"/>
+    <col min="11022" max="11022" width="15.7265625" customWidth="1"/>
+    <col min="11023" max="11023" width="20.1796875" customWidth="1"/>
+    <col min="11024" max="11025" width="15.7265625" customWidth="1"/>
+    <col min="11026" max="11027" width="12.7265625" customWidth="1"/>
+    <col min="11028" max="11029" width="13.7265625" customWidth="1"/>
+    <col min="11030" max="11030" width="14.7265625" customWidth="1"/>
+    <col min="11031" max="11031" width="11.26953125" customWidth="1"/>
+    <col min="11033" max="11033" width="15.7265625" customWidth="1"/>
+    <col min="11034" max="11034" width="40" bestFit="1" customWidth="1"/>
+    <col min="11035" max="11036" width="22.7265625" customWidth="1"/>
+    <col min="11268" max="11268" width="25.7265625" customWidth="1"/>
+    <col min="11269" max="11270" width="20.7265625" customWidth="1"/>
+    <col min="11271" max="11271" width="20.26953125" customWidth="1"/>
+    <col min="11273" max="11273" width="22.7265625" customWidth="1"/>
+    <col min="11274" max="11274" width="15.7265625" customWidth="1"/>
+    <col min="11275" max="11275" width="18.7265625" customWidth="1"/>
+    <col min="11276" max="11277" width="26.54296875" customWidth="1"/>
+    <col min="11278" max="11278" width="15.7265625" customWidth="1"/>
+    <col min="11279" max="11279" width="20.1796875" customWidth="1"/>
+    <col min="11280" max="11281" width="15.7265625" customWidth="1"/>
+    <col min="11282" max="11283" width="12.7265625" customWidth="1"/>
+    <col min="11284" max="11285" width="13.7265625" customWidth="1"/>
+    <col min="11286" max="11286" width="14.7265625" customWidth="1"/>
+    <col min="11287" max="11287" width="11.26953125" customWidth="1"/>
+    <col min="11289" max="11289" width="15.7265625" customWidth="1"/>
+    <col min="11290" max="11290" width="40" bestFit="1" customWidth="1"/>
+    <col min="11291" max="11292" width="22.7265625" customWidth="1"/>
+    <col min="11524" max="11524" width="25.7265625" customWidth="1"/>
+    <col min="11525" max="11526" width="20.7265625" customWidth="1"/>
+    <col min="11527" max="11527" width="20.26953125" customWidth="1"/>
+    <col min="11529" max="11529" width="22.7265625" customWidth="1"/>
+    <col min="11530" max="11530" width="15.7265625" customWidth="1"/>
+    <col min="11531" max="11531" width="18.7265625" customWidth="1"/>
+    <col min="11532" max="11533" width="26.54296875" customWidth="1"/>
+    <col min="11534" max="11534" width="15.7265625" customWidth="1"/>
+    <col min="11535" max="11535" width="20.1796875" customWidth="1"/>
+    <col min="11536" max="11537" width="15.7265625" customWidth="1"/>
+    <col min="11538" max="11539" width="12.7265625" customWidth="1"/>
+    <col min="11540" max="11541" width="13.7265625" customWidth="1"/>
+    <col min="11542" max="11542" width="14.7265625" customWidth="1"/>
+    <col min="11543" max="11543" width="11.26953125" customWidth="1"/>
+    <col min="11545" max="11545" width="15.7265625" customWidth="1"/>
+    <col min="11546" max="11546" width="40" bestFit="1" customWidth="1"/>
+    <col min="11547" max="11548" width="22.7265625" customWidth="1"/>
+    <col min="11780" max="11780" width="25.7265625" customWidth="1"/>
+    <col min="11781" max="11782" width="20.7265625" customWidth="1"/>
+    <col min="11783" max="11783" width="20.26953125" customWidth="1"/>
+    <col min="11785" max="11785" width="22.7265625" customWidth="1"/>
+    <col min="11786" max="11786" width="15.7265625" customWidth="1"/>
+    <col min="11787" max="11787" width="18.7265625" customWidth="1"/>
+    <col min="11788" max="11789" width="26.54296875" customWidth="1"/>
+    <col min="11790" max="11790" width="15.7265625" customWidth="1"/>
+    <col min="11791" max="11791" width="20.1796875" customWidth="1"/>
+    <col min="11792" max="11793" width="15.7265625" customWidth="1"/>
+    <col min="11794" max="11795" width="12.7265625" customWidth="1"/>
+    <col min="11796" max="11797" width="13.7265625" customWidth="1"/>
+    <col min="11798" max="11798" width="14.7265625" customWidth="1"/>
+    <col min="11799" max="11799" width="11.26953125" customWidth="1"/>
+    <col min="11801" max="11801" width="15.7265625" customWidth="1"/>
+    <col min="11802" max="11802" width="40" bestFit="1" customWidth="1"/>
+    <col min="11803" max="11804" width="22.7265625" customWidth="1"/>
+    <col min="12036" max="12036" width="25.7265625" customWidth="1"/>
+    <col min="12037" max="12038" width="20.7265625" customWidth="1"/>
+    <col min="12039" max="12039" width="20.26953125" customWidth="1"/>
+    <col min="12041" max="12041" width="22.7265625" customWidth="1"/>
+    <col min="12042" max="12042" width="15.7265625" customWidth="1"/>
+    <col min="12043" max="12043" width="18.7265625" customWidth="1"/>
+    <col min="12044" max="12045" width="26.54296875" customWidth="1"/>
+    <col min="12046" max="12046" width="15.7265625" customWidth="1"/>
+    <col min="12047" max="12047" width="20.1796875" customWidth="1"/>
+    <col min="12048" max="12049" width="15.7265625" customWidth="1"/>
+    <col min="12050" max="12051" width="12.7265625" customWidth="1"/>
+    <col min="12052" max="12053" width="13.7265625" customWidth="1"/>
+    <col min="12054" max="12054" width="14.7265625" customWidth="1"/>
+    <col min="12055" max="12055" width="11.26953125" customWidth="1"/>
+    <col min="12057" max="12057" width="15.7265625" customWidth="1"/>
+    <col min="12058" max="12058" width="40" bestFit="1" customWidth="1"/>
+    <col min="12059" max="12060" width="22.7265625" customWidth="1"/>
+    <col min="12292" max="12292" width="25.7265625" customWidth="1"/>
+    <col min="12293" max="12294" width="20.7265625" customWidth="1"/>
+    <col min="12295" max="12295" width="20.26953125" customWidth="1"/>
+    <col min="12297" max="12297" width="22.7265625" customWidth="1"/>
+    <col min="12298" max="12298" width="15.7265625" customWidth="1"/>
+    <col min="12299" max="12299" width="18.7265625" customWidth="1"/>
+    <col min="12300" max="12301" width="26.54296875" customWidth="1"/>
+    <col min="12302" max="12302" width="15.7265625" customWidth="1"/>
+    <col min="12303" max="12303" width="20.1796875" customWidth="1"/>
+    <col min="12304" max="12305" width="15.7265625" customWidth="1"/>
+    <col min="12306" max="12307" width="12.7265625" customWidth="1"/>
+    <col min="12308" max="12309" width="13.7265625" customWidth="1"/>
+    <col min="12310" max="12310" width="14.7265625" customWidth="1"/>
+    <col min="12311" max="12311" width="11.26953125" customWidth="1"/>
+    <col min="12313" max="12313" width="15.7265625" customWidth="1"/>
+    <col min="12314" max="12314" width="40" bestFit="1" customWidth="1"/>
+    <col min="12315" max="12316" width="22.7265625" customWidth="1"/>
+    <col min="12548" max="12548" width="25.7265625" customWidth="1"/>
+    <col min="12549" max="12550" width="20.7265625" customWidth="1"/>
+    <col min="12551" max="12551" width="20.26953125" customWidth="1"/>
+    <col min="12553" max="12553" width="22.7265625" customWidth="1"/>
+    <col min="12554" max="12554" width="15.7265625" customWidth="1"/>
+    <col min="12555" max="12555" width="18.7265625" customWidth="1"/>
+    <col min="12556" max="12557" width="26.54296875" customWidth="1"/>
+    <col min="12558" max="12558" width="15.7265625" customWidth="1"/>
+    <col min="12559" max="12559" width="20.1796875" customWidth="1"/>
+    <col min="12560" max="12561" width="15.7265625" customWidth="1"/>
+    <col min="12562" max="12563" width="12.7265625" customWidth="1"/>
+    <col min="12564" max="12565" width="13.7265625" customWidth="1"/>
+    <col min="12566" max="12566" width="14.7265625" customWidth="1"/>
+    <col min="12567" max="12567" width="11.26953125" customWidth="1"/>
+    <col min="12569" max="12569" width="15.7265625" customWidth="1"/>
+    <col min="12570" max="12570" width="40" bestFit="1" customWidth="1"/>
+    <col min="12571" max="12572" width="22.7265625" customWidth="1"/>
+    <col min="12804" max="12804" width="25.7265625" customWidth="1"/>
+    <col min="12805" max="12806" width="20.7265625" customWidth="1"/>
+    <col min="12807" max="12807" width="20.26953125" customWidth="1"/>
+    <col min="12809" max="12809" width="22.7265625" customWidth="1"/>
+    <col min="12810" max="12810" width="15.7265625" customWidth="1"/>
+    <col min="12811" max="12811" width="18.7265625" customWidth="1"/>
+    <col min="12812" max="12813" width="26.54296875" customWidth="1"/>
+    <col min="12814" max="12814" width="15.7265625" customWidth="1"/>
+    <col min="12815" max="12815" width="20.1796875" customWidth="1"/>
+    <col min="12816" max="12817" width="15.7265625" customWidth="1"/>
+    <col min="12818" max="12819" width="12.7265625" customWidth="1"/>
+    <col min="12820" max="12821" width="13.7265625" customWidth="1"/>
+    <col min="12822" max="12822" width="14.7265625" customWidth="1"/>
+    <col min="12823" max="12823" width="11.26953125" customWidth="1"/>
+    <col min="12825" max="12825" width="15.7265625" customWidth="1"/>
+    <col min="12826" max="12826" width="40" bestFit="1" customWidth="1"/>
+    <col min="12827" max="12828" width="22.7265625" customWidth="1"/>
+    <col min="13060" max="13060" width="25.7265625" customWidth="1"/>
+    <col min="13061" max="13062" width="20.7265625" customWidth="1"/>
+    <col min="13063" max="13063" width="20.26953125" customWidth="1"/>
+    <col min="13065" max="13065" width="22.7265625" customWidth="1"/>
+    <col min="13066" max="13066" width="15.7265625" customWidth="1"/>
+    <col min="13067" max="13067" width="18.7265625" customWidth="1"/>
+    <col min="13068" max="13069" width="26.54296875" customWidth="1"/>
+    <col min="13070" max="13070" width="15.7265625" customWidth="1"/>
+    <col min="13071" max="13071" width="20.1796875" customWidth="1"/>
+    <col min="13072" max="13073" width="15.7265625" customWidth="1"/>
+    <col min="13074" max="13075" width="12.7265625" customWidth="1"/>
+    <col min="13076" max="13077" width="13.7265625" customWidth="1"/>
+    <col min="13078" max="13078" width="14.7265625" customWidth="1"/>
+    <col min="13079" max="13079" width="11.26953125" customWidth="1"/>
+    <col min="13081" max="13081" width="15.7265625" customWidth="1"/>
+    <col min="13082" max="13082" width="40" bestFit="1" customWidth="1"/>
+    <col min="13083" max="13084" width="22.7265625" customWidth="1"/>
+    <col min="13316" max="13316" width="25.7265625" customWidth="1"/>
+    <col min="13317" max="13318" width="20.7265625" customWidth="1"/>
+    <col min="13319" max="13319" width="20.26953125" customWidth="1"/>
+    <col min="13321" max="13321" width="22.7265625" customWidth="1"/>
+    <col min="13322" max="13322" width="15.7265625" customWidth="1"/>
+    <col min="13323" max="13323" width="18.7265625" customWidth="1"/>
+    <col min="13324" max="13325" width="26.54296875" customWidth="1"/>
+    <col min="13326" max="13326" width="15.7265625" customWidth="1"/>
+    <col min="13327" max="13327" width="20.1796875" customWidth="1"/>
+    <col min="13328" max="13329" width="15.7265625" customWidth="1"/>
+    <col min="13330" max="13331" width="12.7265625" customWidth="1"/>
+    <col min="13332" max="13333" width="13.7265625" customWidth="1"/>
+    <col min="13334" max="13334" width="14.7265625" customWidth="1"/>
+    <col min="13335" max="13335" width="11.26953125" customWidth="1"/>
+    <col min="13337" max="13337" width="15.7265625" customWidth="1"/>
+    <col min="13338" max="13338" width="40" bestFit="1" customWidth="1"/>
+    <col min="13339" max="13340" width="22.7265625" customWidth="1"/>
+    <col min="13572" max="13572" width="25.7265625" customWidth="1"/>
+    <col min="13573" max="13574" width="20.7265625" customWidth="1"/>
+    <col min="13575" max="13575" width="20.26953125" customWidth="1"/>
+    <col min="13577" max="13577" width="22.7265625" customWidth="1"/>
+    <col min="13578" max="13578" width="15.7265625" customWidth="1"/>
+    <col min="13579" max="13579" width="18.7265625" customWidth="1"/>
+    <col min="13580" max="13581" width="26.54296875" customWidth="1"/>
+    <col min="13582" max="13582" width="15.7265625" customWidth="1"/>
+    <col min="13583" max="13583" width="20.1796875" customWidth="1"/>
+    <col min="13584" max="13585" width="15.7265625" customWidth="1"/>
+    <col min="13586" max="13587" width="12.7265625" customWidth="1"/>
+    <col min="13588" max="13589" width="13.7265625" customWidth="1"/>
+    <col min="13590" max="13590" width="14.7265625" customWidth="1"/>
+    <col min="13591" max="13591" width="11.26953125" customWidth="1"/>
+    <col min="13593" max="13593" width="15.7265625" customWidth="1"/>
+    <col min="13594" max="13594" width="40" bestFit="1" customWidth="1"/>
+    <col min="13595" max="13596" width="22.7265625" customWidth="1"/>
+    <col min="13828" max="13828" width="25.7265625" customWidth="1"/>
+    <col min="13829" max="13830" width="20.7265625" customWidth="1"/>
+    <col min="13831" max="13831" width="20.26953125" customWidth="1"/>
+    <col min="13833" max="13833" width="22.7265625" customWidth="1"/>
+    <col min="13834" max="13834" width="15.7265625" customWidth="1"/>
+    <col min="13835" max="13835" width="18.7265625" customWidth="1"/>
+    <col min="13836" max="13837" width="26.54296875" customWidth="1"/>
+    <col min="13838" max="13838" width="15.7265625" customWidth="1"/>
+    <col min="13839" max="13839" width="20.1796875" customWidth="1"/>
+    <col min="13840" max="13841" width="15.7265625" customWidth="1"/>
+    <col min="13842" max="13843" width="12.7265625" customWidth="1"/>
+    <col min="13844" max="13845" width="13.7265625" customWidth="1"/>
+    <col min="13846" max="13846" width="14.7265625" customWidth="1"/>
+    <col min="13847" max="13847" width="11.26953125" customWidth="1"/>
+    <col min="13849" max="13849" width="15.7265625" customWidth="1"/>
+    <col min="13850" max="13850" width="40" bestFit="1" customWidth="1"/>
+    <col min="13851" max="13852" width="22.7265625" customWidth="1"/>
+    <col min="14084" max="14084" width="25.7265625" customWidth="1"/>
+    <col min="14085" max="14086" width="20.7265625" customWidth="1"/>
+    <col min="14087" max="14087" width="20.26953125" customWidth="1"/>
+    <col min="14089" max="14089" width="22.7265625" customWidth="1"/>
+    <col min="14090" max="14090" width="15.7265625" customWidth="1"/>
+    <col min="14091" max="14091" width="18.7265625" customWidth="1"/>
+    <col min="14092" max="14093" width="26.54296875" customWidth="1"/>
+    <col min="14094" max="14094" width="15.7265625" customWidth="1"/>
+    <col min="14095" max="14095" width="20.1796875" customWidth="1"/>
+    <col min="14096" max="14097" width="15.7265625" customWidth="1"/>
+    <col min="14098" max="14099" width="12.7265625" customWidth="1"/>
+    <col min="14100" max="14101" width="13.7265625" customWidth="1"/>
+    <col min="14102" max="14102" width="14.7265625" customWidth="1"/>
+    <col min="14103" max="14103" width="11.26953125" customWidth="1"/>
+    <col min="14105" max="14105" width="15.7265625" customWidth="1"/>
+    <col min="14106" max="14106" width="40" bestFit="1" customWidth="1"/>
+    <col min="14107" max="14108" width="22.7265625" customWidth="1"/>
+    <col min="14340" max="14340" width="25.7265625" customWidth="1"/>
+    <col min="14341" max="14342" width="20.7265625" customWidth="1"/>
+    <col min="14343" max="14343" width="20.26953125" customWidth="1"/>
+    <col min="14345" max="14345" width="22.7265625" customWidth="1"/>
+    <col min="14346" max="14346" width="15.7265625" customWidth="1"/>
+    <col min="14347" max="14347" width="18.7265625" customWidth="1"/>
+    <col min="14348" max="14349" width="26.54296875" customWidth="1"/>
+    <col min="14350" max="14350" width="15.7265625" customWidth="1"/>
+    <col min="14351" max="14351" width="20.1796875" customWidth="1"/>
+    <col min="14352" max="14353" width="15.7265625" customWidth="1"/>
+    <col min="14354" max="14355" width="12.7265625" customWidth="1"/>
+    <col min="14356" max="14357" width="13.7265625" customWidth="1"/>
+    <col min="14358" max="14358" width="14.7265625" customWidth="1"/>
+    <col min="14359" max="14359" width="11.26953125" customWidth="1"/>
+    <col min="14361" max="14361" width="15.7265625" customWidth="1"/>
+    <col min="14362" max="14362" width="40" bestFit="1" customWidth="1"/>
+    <col min="14363" max="14364" width="22.7265625" customWidth="1"/>
+    <col min="14596" max="14596" width="25.7265625" customWidth="1"/>
+    <col min="14597" max="14598" width="20.7265625" customWidth="1"/>
+    <col min="14599" max="14599" width="20.26953125" customWidth="1"/>
+    <col min="14601" max="14601" width="22.7265625" customWidth="1"/>
+    <col min="14602" max="14602" width="15.7265625" customWidth="1"/>
+    <col min="14603" max="14603" width="18.7265625" customWidth="1"/>
+    <col min="14604" max="14605" width="26.54296875" customWidth="1"/>
+    <col min="14606" max="14606" width="15.7265625" customWidth="1"/>
+    <col min="14607" max="14607" width="20.1796875" customWidth="1"/>
+    <col min="14608" max="14609" width="15.7265625" customWidth="1"/>
+    <col min="14610" max="14611" width="12.7265625" customWidth="1"/>
+    <col min="14612" max="14613" width="13.7265625" customWidth="1"/>
+    <col min="14614" max="14614" width="14.7265625" customWidth="1"/>
+    <col min="14615" max="14615" width="11.26953125" customWidth="1"/>
+    <col min="14617" max="14617" width="15.7265625" customWidth="1"/>
+    <col min="14618" max="14618" width="40" bestFit="1" customWidth="1"/>
+    <col min="14619" max="14620" width="22.7265625" customWidth="1"/>
+    <col min="14852" max="14852" width="25.7265625" customWidth="1"/>
+    <col min="14853" max="14854" width="20.7265625" customWidth="1"/>
+    <col min="14855" max="14855" width="20.26953125" customWidth="1"/>
+    <col min="14857" max="14857" width="22.7265625" customWidth="1"/>
+    <col min="14858" max="14858" width="15.7265625" customWidth="1"/>
+    <col min="14859" max="14859" width="18.7265625" customWidth="1"/>
+    <col min="14860" max="14861" width="26.54296875" customWidth="1"/>
+    <col min="14862" max="14862" width="15.7265625" customWidth="1"/>
+    <col min="14863" max="14863" width="20.1796875" customWidth="1"/>
+    <col min="14864" max="14865" width="15.7265625" customWidth="1"/>
+    <col min="14866" max="14867" width="12.7265625" customWidth="1"/>
+    <col min="14868" max="14869" width="13.7265625" customWidth="1"/>
+    <col min="14870" max="14870" width="14.7265625" customWidth="1"/>
+    <col min="14871" max="14871" width="11.26953125" customWidth="1"/>
+    <col min="14873" max="14873" width="15.7265625" customWidth="1"/>
+    <col min="14874" max="14874" width="40" bestFit="1" customWidth="1"/>
+    <col min="14875" max="14876" width="22.7265625" customWidth="1"/>
+    <col min="15108" max="15108" width="25.7265625" customWidth="1"/>
+    <col min="15109" max="15110" width="20.7265625" customWidth="1"/>
+    <col min="15111" max="15111" width="20.26953125" customWidth="1"/>
+    <col min="15113" max="15113" width="22.7265625" customWidth="1"/>
+    <col min="15114" max="15114" width="15.7265625" customWidth="1"/>
+    <col min="15115" max="15115" width="18.7265625" customWidth="1"/>
+    <col min="15116" max="15117" width="26.54296875" customWidth="1"/>
+    <col min="15118" max="15118" width="15.7265625" customWidth="1"/>
+    <col min="15119" max="15119" width="20.1796875" customWidth="1"/>
+    <col min="15120" max="15121" width="15.7265625" customWidth="1"/>
+    <col min="15122" max="15123" width="12.7265625" customWidth="1"/>
+    <col min="15124" max="15125" width="13.7265625" customWidth="1"/>
+    <col min="15126" max="15126" width="14.7265625" customWidth="1"/>
+    <col min="15127" max="15127" width="11.26953125" customWidth="1"/>
+    <col min="15129" max="15129" width="15.7265625" customWidth="1"/>
+    <col min="15130" max="15130" width="40" bestFit="1" customWidth="1"/>
+    <col min="15131" max="15132" width="22.7265625" customWidth="1"/>
+    <col min="15364" max="15364" width="25.7265625" customWidth="1"/>
+    <col min="15365" max="15366" width="20.7265625" customWidth="1"/>
+    <col min="15367" max="15367" width="20.26953125" customWidth="1"/>
+    <col min="15369" max="15369" width="22.7265625" customWidth="1"/>
+    <col min="15370" max="15370" width="15.7265625" customWidth="1"/>
+    <col min="15371" max="15371" width="18.7265625" customWidth="1"/>
+    <col min="15372" max="15373" width="26.54296875" customWidth="1"/>
+    <col min="15374" max="15374" width="15.7265625" customWidth="1"/>
+    <col min="15375" max="15375" width="20.1796875" customWidth="1"/>
+    <col min="15376" max="15377" width="15.7265625" customWidth="1"/>
+    <col min="15378" max="15379" width="12.7265625" customWidth="1"/>
+    <col min="15380" max="15381" width="13.7265625" customWidth="1"/>
+    <col min="15382" max="15382" width="14.7265625" customWidth="1"/>
+    <col min="15383" max="15383" width="11.26953125" customWidth="1"/>
+    <col min="15385" max="15385" width="15.7265625" customWidth="1"/>
+    <col min="15386" max="15386" width="40" bestFit="1" customWidth="1"/>
+    <col min="15387" max="15388" width="22.7265625" customWidth="1"/>
+    <col min="15620" max="15620" width="25.7265625" customWidth="1"/>
+    <col min="15621" max="15622" width="20.7265625" customWidth="1"/>
+    <col min="15623" max="15623" width="20.26953125" customWidth="1"/>
+    <col min="15625" max="15625" width="22.7265625" customWidth="1"/>
+    <col min="15626" max="15626" width="15.7265625" customWidth="1"/>
+    <col min="15627" max="15627" width="18.7265625" customWidth="1"/>
+    <col min="15628" max="15629" width="26.54296875" customWidth="1"/>
+    <col min="15630" max="15630" width="15.7265625" customWidth="1"/>
+    <col min="15631" max="15631" width="20.1796875" customWidth="1"/>
+    <col min="15632" max="15633" width="15.7265625" customWidth="1"/>
+    <col min="15634" max="15635" width="12.7265625" customWidth="1"/>
+    <col min="15636" max="15637" width="13.7265625" customWidth="1"/>
+    <col min="15638" max="15638" width="14.7265625" customWidth="1"/>
+    <col min="15639" max="15639" width="11.26953125" customWidth="1"/>
+    <col min="15641" max="15641" width="15.7265625" customWidth="1"/>
+    <col min="15642" max="15642" width="40" bestFit="1" customWidth="1"/>
+    <col min="15643" max="15644" width="22.7265625" customWidth="1"/>
+    <col min="15876" max="15876" width="25.7265625" customWidth="1"/>
+    <col min="15877" max="15878" width="20.7265625" customWidth="1"/>
+    <col min="15879" max="15879" width="20.26953125" customWidth="1"/>
+    <col min="15881" max="15881" width="22.7265625" customWidth="1"/>
+    <col min="15882" max="15882" width="15.7265625" customWidth="1"/>
+    <col min="15883" max="15883" width="18.7265625" customWidth="1"/>
+    <col min="15884" max="15885" width="26.54296875" customWidth="1"/>
+    <col min="15886" max="15886" width="15.7265625" customWidth="1"/>
+    <col min="15887" max="15887" width="20.1796875" customWidth="1"/>
+    <col min="15888" max="15889" width="15.7265625" customWidth="1"/>
+    <col min="15890" max="15891" width="12.7265625" customWidth="1"/>
+    <col min="15892" max="15893" width="13.7265625" customWidth="1"/>
+    <col min="15894" max="15894" width="14.7265625" customWidth="1"/>
+    <col min="15895" max="15895" width="11.26953125" customWidth="1"/>
+    <col min="15897" max="15897" width="15.7265625" customWidth="1"/>
+    <col min="15898" max="15898" width="40" bestFit="1" customWidth="1"/>
+    <col min="15899" max="15900" width="22.7265625" customWidth="1"/>
+    <col min="16132" max="16132" width="25.7265625" customWidth="1"/>
+    <col min="16133" max="16134" width="20.7265625" customWidth="1"/>
+    <col min="16135" max="16135" width="20.26953125" customWidth="1"/>
+    <col min="16137" max="16137" width="22.7265625" customWidth="1"/>
+    <col min="16138" max="16138" width="15.7265625" customWidth="1"/>
+    <col min="16139" max="16139" width="18.7265625" customWidth="1"/>
+    <col min="16140" max="16141" width="26.54296875" customWidth="1"/>
+    <col min="16142" max="16142" width="15.7265625" customWidth="1"/>
+    <col min="16143" max="16143" width="20.1796875" customWidth="1"/>
+    <col min="16144" max="16145" width="15.7265625" customWidth="1"/>
+    <col min="16146" max="16147" width="12.7265625" customWidth="1"/>
+    <col min="16148" max="16149" width="13.7265625" customWidth="1"/>
+    <col min="16150" max="16150" width="14.7265625" customWidth="1"/>
+    <col min="16151" max="16151" width="11.26953125" customWidth="1"/>
+    <col min="16153" max="16153" width="15.7265625" customWidth="1"/>
+    <col min="16154" max="16154" width="40" bestFit="1" customWidth="1"/>
+    <col min="16155" max="16156" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5369,73 +5365,79 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -5451,98 +5453,104 @@
       <c r="E2" s="16">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1981</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" s="9">
         <v>210311007</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="14">
+      <c r="L2" s="14">
         <v>43901</v>
       </c>
-      <c r="K2" s="11">
+      <c r="M2" s="11">
         <v>47553</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="11">
+      <c r="O2" s="11">
         <v>43901</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="9">
+      <c r="X2" s="9">
         <v>22031</v>
       </c>
-      <c r="W2" s="9">
+      <c r="Y2" s="9">
         <v>7035805862</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
+  <autoFilter ref="A1:AB2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 JK2 TG2 ADC2 AMY2 AWU2 BGQ2 BQM2 CAI2 CKE2 CUA2 DDW2 DNS2 DXO2 EHK2 ERG2 FBC2 FKY2 FUU2 GEQ2 GOM2 GYI2 HIE2 HSA2 IBW2 ILS2 IVO2 JFK2 JPG2 JZC2 KIY2 KSU2 LCQ2 LMM2 LWI2 MGE2 MQA2 MZW2 NJS2 NTO2 ODK2 ONG2 OXC2 PGY2 PQU2 QAQ2 QKM2 QUI2 REE2 ROA2 RXW2 SHS2 SRO2 TBK2 TLG2 TVC2 UEY2 UOU2 UYQ2 VIM2 VSI2 WCE2 WMA2 WVW2 O65440:O65538 JK65440:JK65538 TG65440:TG65538 ADC65440:ADC65538 AMY65440:AMY65538 AWU65440:AWU65538 BGQ65440:BGQ65538 BQM65440:BQM65538 CAI65440:CAI65538 CKE65440:CKE65538 CUA65440:CUA65538 DDW65440:DDW65538 DNS65440:DNS65538 DXO65440:DXO65538 EHK65440:EHK65538 ERG65440:ERG65538 FBC65440:FBC65538 FKY65440:FKY65538 FUU65440:FUU65538 GEQ65440:GEQ65538 GOM65440:GOM65538 GYI65440:GYI65538 HIE65440:HIE65538 HSA65440:HSA65538 IBW65440:IBW65538 ILS65440:ILS65538 IVO65440:IVO65538 JFK65440:JFK65538 JPG65440:JPG65538 JZC65440:JZC65538 KIY65440:KIY65538 KSU65440:KSU65538 LCQ65440:LCQ65538 LMM65440:LMM65538 LWI65440:LWI65538 MGE65440:MGE65538 MQA65440:MQA65538 MZW65440:MZW65538 NJS65440:NJS65538 NTO65440:NTO65538 ODK65440:ODK65538 ONG65440:ONG65538 OXC65440:OXC65538 PGY65440:PGY65538 PQU65440:PQU65538 QAQ65440:QAQ65538 QKM65440:QKM65538 QUI65440:QUI65538 REE65440:REE65538 ROA65440:ROA65538 RXW65440:RXW65538 SHS65440:SHS65538 SRO65440:SRO65538 TBK65440:TBK65538 TLG65440:TLG65538 TVC65440:TVC65538 UEY65440:UEY65538 UOU65440:UOU65538 UYQ65440:UYQ65538 VIM65440:VIM65538 VSI65440:VSI65538 WCE65440:WCE65538 WMA65440:WMA65538 WVW65440:WVW65538 O130976:O131074 JK130976:JK131074 TG130976:TG131074 ADC130976:ADC131074 AMY130976:AMY131074 AWU130976:AWU131074 BGQ130976:BGQ131074 BQM130976:BQM131074 CAI130976:CAI131074 CKE130976:CKE131074 CUA130976:CUA131074 DDW130976:DDW131074 DNS130976:DNS131074 DXO130976:DXO131074 EHK130976:EHK131074 ERG130976:ERG131074 FBC130976:FBC131074 FKY130976:FKY131074 FUU130976:FUU131074 GEQ130976:GEQ131074 GOM130976:GOM131074 GYI130976:GYI131074 HIE130976:HIE131074 HSA130976:HSA131074 IBW130976:IBW131074 ILS130976:ILS131074 IVO130976:IVO131074 JFK130976:JFK131074 JPG130976:JPG131074 JZC130976:JZC131074 KIY130976:KIY131074 KSU130976:KSU131074 LCQ130976:LCQ131074 LMM130976:LMM131074 LWI130976:LWI131074 MGE130976:MGE131074 MQA130976:MQA131074 MZW130976:MZW131074 NJS130976:NJS131074 NTO130976:NTO131074 ODK130976:ODK131074 ONG130976:ONG131074 OXC130976:OXC131074 PGY130976:PGY131074 PQU130976:PQU131074 QAQ130976:QAQ131074 QKM130976:QKM131074 QUI130976:QUI131074 REE130976:REE131074 ROA130976:ROA131074 RXW130976:RXW131074 SHS130976:SHS131074 SRO130976:SRO131074 TBK130976:TBK131074 TLG130976:TLG131074 TVC130976:TVC131074 UEY130976:UEY131074 UOU130976:UOU131074 UYQ130976:UYQ131074 VIM130976:VIM131074 VSI130976:VSI131074 WCE130976:WCE131074 WMA130976:WMA131074 WVW130976:WVW131074 O196512:O196610 JK196512:JK196610 TG196512:TG196610 ADC196512:ADC196610 AMY196512:AMY196610 AWU196512:AWU196610 BGQ196512:BGQ196610 BQM196512:BQM196610 CAI196512:CAI196610 CKE196512:CKE196610 CUA196512:CUA196610 DDW196512:DDW196610 DNS196512:DNS196610 DXO196512:DXO196610 EHK196512:EHK196610 ERG196512:ERG196610 FBC196512:FBC196610 FKY196512:FKY196610 FUU196512:FUU196610 GEQ196512:GEQ196610 GOM196512:GOM196610 GYI196512:GYI196610 HIE196512:HIE196610 HSA196512:HSA196610 IBW196512:IBW196610 ILS196512:ILS196610 IVO196512:IVO196610 JFK196512:JFK196610 JPG196512:JPG196610 JZC196512:JZC196610 KIY196512:KIY196610 KSU196512:KSU196610 LCQ196512:LCQ196610 LMM196512:LMM196610 LWI196512:LWI196610 MGE196512:MGE196610 MQA196512:MQA196610 MZW196512:MZW196610 NJS196512:NJS196610 NTO196512:NTO196610 ODK196512:ODK196610 ONG196512:ONG196610 OXC196512:OXC196610 PGY196512:PGY196610 PQU196512:PQU196610 QAQ196512:QAQ196610 QKM196512:QKM196610 QUI196512:QUI196610 REE196512:REE196610 ROA196512:ROA196610 RXW196512:RXW196610 SHS196512:SHS196610 SRO196512:SRO196610 TBK196512:TBK196610 TLG196512:TLG196610 TVC196512:TVC196610 UEY196512:UEY196610 UOU196512:UOU196610 UYQ196512:UYQ196610 VIM196512:VIM196610 VSI196512:VSI196610 WCE196512:WCE196610 WMA196512:WMA196610 WVW196512:WVW196610 O262048:O262146 JK262048:JK262146 TG262048:TG262146 ADC262048:ADC262146 AMY262048:AMY262146 AWU262048:AWU262146 BGQ262048:BGQ262146 BQM262048:BQM262146 CAI262048:CAI262146 CKE262048:CKE262146 CUA262048:CUA262146 DDW262048:DDW262146 DNS262048:DNS262146 DXO262048:DXO262146 EHK262048:EHK262146 ERG262048:ERG262146 FBC262048:FBC262146 FKY262048:FKY262146 FUU262048:FUU262146 GEQ262048:GEQ262146 GOM262048:GOM262146 GYI262048:GYI262146 HIE262048:HIE262146 HSA262048:HSA262146 IBW262048:IBW262146 ILS262048:ILS262146 IVO262048:IVO262146 JFK262048:JFK262146 JPG262048:JPG262146 JZC262048:JZC262146 KIY262048:KIY262146 KSU262048:KSU262146 LCQ262048:LCQ262146 LMM262048:LMM262146 LWI262048:LWI262146 MGE262048:MGE262146 MQA262048:MQA262146 MZW262048:MZW262146 NJS262048:NJS262146 NTO262048:NTO262146 ODK262048:ODK262146 ONG262048:ONG262146 OXC262048:OXC262146 PGY262048:PGY262146 PQU262048:PQU262146 QAQ262048:QAQ262146 QKM262048:QKM262146 QUI262048:QUI262146 REE262048:REE262146 ROA262048:ROA262146 RXW262048:RXW262146 SHS262048:SHS262146 SRO262048:SRO262146 TBK262048:TBK262146 TLG262048:TLG262146 TVC262048:TVC262146 UEY262048:UEY262146 UOU262048:UOU262146 UYQ262048:UYQ262146 VIM262048:VIM262146 VSI262048:VSI262146 WCE262048:WCE262146 WMA262048:WMA262146 WVW262048:WVW262146 O327584:O327682 JK327584:JK327682 TG327584:TG327682 ADC327584:ADC327682 AMY327584:AMY327682 AWU327584:AWU327682 BGQ327584:BGQ327682 BQM327584:BQM327682 CAI327584:CAI327682 CKE327584:CKE327682 CUA327584:CUA327682 DDW327584:DDW327682 DNS327584:DNS327682 DXO327584:DXO327682 EHK327584:EHK327682 ERG327584:ERG327682 FBC327584:FBC327682 FKY327584:FKY327682 FUU327584:FUU327682 GEQ327584:GEQ327682 GOM327584:GOM327682 GYI327584:GYI327682 HIE327584:HIE327682 HSA327584:HSA327682 IBW327584:IBW327682 ILS327584:ILS327682 IVO327584:IVO327682 JFK327584:JFK327682 JPG327584:JPG327682 JZC327584:JZC327682 KIY327584:KIY327682 KSU327584:KSU327682 LCQ327584:LCQ327682 LMM327584:LMM327682 LWI327584:LWI327682 MGE327584:MGE327682 MQA327584:MQA327682 MZW327584:MZW327682 NJS327584:NJS327682 NTO327584:NTO327682 ODK327584:ODK327682 ONG327584:ONG327682 OXC327584:OXC327682 PGY327584:PGY327682 PQU327584:PQU327682 QAQ327584:QAQ327682 QKM327584:QKM327682 QUI327584:QUI327682 REE327584:REE327682 ROA327584:ROA327682 RXW327584:RXW327682 SHS327584:SHS327682 SRO327584:SRO327682 TBK327584:TBK327682 TLG327584:TLG327682 TVC327584:TVC327682 UEY327584:UEY327682 UOU327584:UOU327682 UYQ327584:UYQ327682 VIM327584:VIM327682 VSI327584:VSI327682 WCE327584:WCE327682 WMA327584:WMA327682 WVW327584:WVW327682 O393120:O393218 JK393120:JK393218 TG393120:TG393218 ADC393120:ADC393218 AMY393120:AMY393218 AWU393120:AWU393218 BGQ393120:BGQ393218 BQM393120:BQM393218 CAI393120:CAI393218 CKE393120:CKE393218 CUA393120:CUA393218 DDW393120:DDW393218 DNS393120:DNS393218 DXO393120:DXO393218 EHK393120:EHK393218 ERG393120:ERG393218 FBC393120:FBC393218 FKY393120:FKY393218 FUU393120:FUU393218 GEQ393120:GEQ393218 GOM393120:GOM393218 GYI393120:GYI393218 HIE393120:HIE393218 HSA393120:HSA393218 IBW393120:IBW393218 ILS393120:ILS393218 IVO393120:IVO393218 JFK393120:JFK393218 JPG393120:JPG393218 JZC393120:JZC393218 KIY393120:KIY393218 KSU393120:KSU393218 LCQ393120:LCQ393218 LMM393120:LMM393218 LWI393120:LWI393218 MGE393120:MGE393218 MQA393120:MQA393218 MZW393120:MZW393218 NJS393120:NJS393218 NTO393120:NTO393218 ODK393120:ODK393218 ONG393120:ONG393218 OXC393120:OXC393218 PGY393120:PGY393218 PQU393120:PQU393218 QAQ393120:QAQ393218 QKM393120:QKM393218 QUI393120:QUI393218 REE393120:REE393218 ROA393120:ROA393218 RXW393120:RXW393218 SHS393120:SHS393218 SRO393120:SRO393218 TBK393120:TBK393218 TLG393120:TLG393218 TVC393120:TVC393218 UEY393120:UEY393218 UOU393120:UOU393218 UYQ393120:UYQ393218 VIM393120:VIM393218 VSI393120:VSI393218 WCE393120:WCE393218 WMA393120:WMA393218 WVW393120:WVW393218 O458656:O458754 JK458656:JK458754 TG458656:TG458754 ADC458656:ADC458754 AMY458656:AMY458754 AWU458656:AWU458754 BGQ458656:BGQ458754 BQM458656:BQM458754 CAI458656:CAI458754 CKE458656:CKE458754 CUA458656:CUA458754 DDW458656:DDW458754 DNS458656:DNS458754 DXO458656:DXO458754 EHK458656:EHK458754 ERG458656:ERG458754 FBC458656:FBC458754 FKY458656:FKY458754 FUU458656:FUU458754 GEQ458656:GEQ458754 GOM458656:GOM458754 GYI458656:GYI458754 HIE458656:HIE458754 HSA458656:HSA458754 IBW458656:IBW458754 ILS458656:ILS458754 IVO458656:IVO458754 JFK458656:JFK458754 JPG458656:JPG458754 JZC458656:JZC458754 KIY458656:KIY458754 KSU458656:KSU458754 LCQ458656:LCQ458754 LMM458656:LMM458754 LWI458656:LWI458754 MGE458656:MGE458754 MQA458656:MQA458754 MZW458656:MZW458754 NJS458656:NJS458754 NTO458656:NTO458754 ODK458656:ODK458754 ONG458656:ONG458754 OXC458656:OXC458754 PGY458656:PGY458754 PQU458656:PQU458754 QAQ458656:QAQ458754 QKM458656:QKM458754 QUI458656:QUI458754 REE458656:REE458754 ROA458656:ROA458754 RXW458656:RXW458754 SHS458656:SHS458754 SRO458656:SRO458754 TBK458656:TBK458754 TLG458656:TLG458754 TVC458656:TVC458754 UEY458656:UEY458754 UOU458656:UOU458754 UYQ458656:UYQ458754 VIM458656:VIM458754 VSI458656:VSI458754 WCE458656:WCE458754 WMA458656:WMA458754 WVW458656:WVW458754 O524192:O524290 JK524192:JK524290 TG524192:TG524290 ADC524192:ADC524290 AMY524192:AMY524290 AWU524192:AWU524290 BGQ524192:BGQ524290 BQM524192:BQM524290 CAI524192:CAI524290 CKE524192:CKE524290 CUA524192:CUA524290 DDW524192:DDW524290 DNS524192:DNS524290 DXO524192:DXO524290 EHK524192:EHK524290 ERG524192:ERG524290 FBC524192:FBC524290 FKY524192:FKY524290 FUU524192:FUU524290 GEQ524192:GEQ524290 GOM524192:GOM524290 GYI524192:GYI524290 HIE524192:HIE524290 HSA524192:HSA524290 IBW524192:IBW524290 ILS524192:ILS524290 IVO524192:IVO524290 JFK524192:JFK524290 JPG524192:JPG524290 JZC524192:JZC524290 KIY524192:KIY524290 KSU524192:KSU524290 LCQ524192:LCQ524290 LMM524192:LMM524290 LWI524192:LWI524290 MGE524192:MGE524290 MQA524192:MQA524290 MZW524192:MZW524290 NJS524192:NJS524290 NTO524192:NTO524290 ODK524192:ODK524290 ONG524192:ONG524290 OXC524192:OXC524290 PGY524192:PGY524290 PQU524192:PQU524290 QAQ524192:QAQ524290 QKM524192:QKM524290 QUI524192:QUI524290 REE524192:REE524290 ROA524192:ROA524290 RXW524192:RXW524290 SHS524192:SHS524290 SRO524192:SRO524290 TBK524192:TBK524290 TLG524192:TLG524290 TVC524192:TVC524290 UEY524192:UEY524290 UOU524192:UOU524290 UYQ524192:UYQ524290 VIM524192:VIM524290 VSI524192:VSI524290 WCE524192:WCE524290 WMA524192:WMA524290 WVW524192:WVW524290 O589728:O589826 JK589728:JK589826 TG589728:TG589826 ADC589728:ADC589826 AMY589728:AMY589826 AWU589728:AWU589826 BGQ589728:BGQ589826 BQM589728:BQM589826 CAI589728:CAI589826 CKE589728:CKE589826 CUA589728:CUA589826 DDW589728:DDW589826 DNS589728:DNS589826 DXO589728:DXO589826 EHK589728:EHK589826 ERG589728:ERG589826 FBC589728:FBC589826 FKY589728:FKY589826 FUU589728:FUU589826 GEQ589728:GEQ589826 GOM589728:GOM589826 GYI589728:GYI589826 HIE589728:HIE589826 HSA589728:HSA589826 IBW589728:IBW589826 ILS589728:ILS589826 IVO589728:IVO589826 JFK589728:JFK589826 JPG589728:JPG589826 JZC589728:JZC589826 KIY589728:KIY589826 KSU589728:KSU589826 LCQ589728:LCQ589826 LMM589728:LMM589826 LWI589728:LWI589826 MGE589728:MGE589826 MQA589728:MQA589826 MZW589728:MZW589826 NJS589728:NJS589826 NTO589728:NTO589826 ODK589728:ODK589826 ONG589728:ONG589826 OXC589728:OXC589826 PGY589728:PGY589826 PQU589728:PQU589826 QAQ589728:QAQ589826 QKM589728:QKM589826 QUI589728:QUI589826 REE589728:REE589826 ROA589728:ROA589826 RXW589728:RXW589826 SHS589728:SHS589826 SRO589728:SRO589826 TBK589728:TBK589826 TLG589728:TLG589826 TVC589728:TVC589826 UEY589728:UEY589826 UOU589728:UOU589826 UYQ589728:UYQ589826 VIM589728:VIM589826 VSI589728:VSI589826 WCE589728:WCE589826 WMA589728:WMA589826 WVW589728:WVW589826 O655264:O655362 JK655264:JK655362 TG655264:TG655362 ADC655264:ADC655362 AMY655264:AMY655362 AWU655264:AWU655362 BGQ655264:BGQ655362 BQM655264:BQM655362 CAI655264:CAI655362 CKE655264:CKE655362 CUA655264:CUA655362 DDW655264:DDW655362 DNS655264:DNS655362 DXO655264:DXO655362 EHK655264:EHK655362 ERG655264:ERG655362 FBC655264:FBC655362 FKY655264:FKY655362 FUU655264:FUU655362 GEQ655264:GEQ655362 GOM655264:GOM655362 GYI655264:GYI655362 HIE655264:HIE655362 HSA655264:HSA655362 IBW655264:IBW655362 ILS655264:ILS655362 IVO655264:IVO655362 JFK655264:JFK655362 JPG655264:JPG655362 JZC655264:JZC655362 KIY655264:KIY655362 KSU655264:KSU655362 LCQ655264:LCQ655362 LMM655264:LMM655362 LWI655264:LWI655362 MGE655264:MGE655362 MQA655264:MQA655362 MZW655264:MZW655362 NJS655264:NJS655362 NTO655264:NTO655362 ODK655264:ODK655362 ONG655264:ONG655362 OXC655264:OXC655362 PGY655264:PGY655362 PQU655264:PQU655362 QAQ655264:QAQ655362 QKM655264:QKM655362 QUI655264:QUI655362 REE655264:REE655362 ROA655264:ROA655362 RXW655264:RXW655362 SHS655264:SHS655362 SRO655264:SRO655362 TBK655264:TBK655362 TLG655264:TLG655362 TVC655264:TVC655362 UEY655264:UEY655362 UOU655264:UOU655362 UYQ655264:UYQ655362 VIM655264:VIM655362 VSI655264:VSI655362 WCE655264:WCE655362 WMA655264:WMA655362 WVW655264:WVW655362 O720800:O720898 JK720800:JK720898 TG720800:TG720898 ADC720800:ADC720898 AMY720800:AMY720898 AWU720800:AWU720898 BGQ720800:BGQ720898 BQM720800:BQM720898 CAI720800:CAI720898 CKE720800:CKE720898 CUA720800:CUA720898 DDW720800:DDW720898 DNS720800:DNS720898 DXO720800:DXO720898 EHK720800:EHK720898 ERG720800:ERG720898 FBC720800:FBC720898 FKY720800:FKY720898 FUU720800:FUU720898 GEQ720800:GEQ720898 GOM720800:GOM720898 GYI720800:GYI720898 HIE720800:HIE720898 HSA720800:HSA720898 IBW720800:IBW720898 ILS720800:ILS720898 IVO720800:IVO720898 JFK720800:JFK720898 JPG720800:JPG720898 JZC720800:JZC720898 KIY720800:KIY720898 KSU720800:KSU720898 LCQ720800:LCQ720898 LMM720800:LMM720898 LWI720800:LWI720898 MGE720800:MGE720898 MQA720800:MQA720898 MZW720800:MZW720898 NJS720800:NJS720898 NTO720800:NTO720898 ODK720800:ODK720898 ONG720800:ONG720898 OXC720800:OXC720898 PGY720800:PGY720898 PQU720800:PQU720898 QAQ720800:QAQ720898 QKM720800:QKM720898 QUI720800:QUI720898 REE720800:REE720898 ROA720800:ROA720898 RXW720800:RXW720898 SHS720800:SHS720898 SRO720800:SRO720898 TBK720800:TBK720898 TLG720800:TLG720898 TVC720800:TVC720898 UEY720800:UEY720898 UOU720800:UOU720898 UYQ720800:UYQ720898 VIM720800:VIM720898 VSI720800:VSI720898 WCE720800:WCE720898 WMA720800:WMA720898 WVW720800:WVW720898 O786336:O786434 JK786336:JK786434 TG786336:TG786434 ADC786336:ADC786434 AMY786336:AMY786434 AWU786336:AWU786434 BGQ786336:BGQ786434 BQM786336:BQM786434 CAI786336:CAI786434 CKE786336:CKE786434 CUA786336:CUA786434 DDW786336:DDW786434 DNS786336:DNS786434 DXO786336:DXO786434 EHK786336:EHK786434 ERG786336:ERG786434 FBC786336:FBC786434 FKY786336:FKY786434 FUU786336:FUU786434 GEQ786336:GEQ786434 GOM786336:GOM786434 GYI786336:GYI786434 HIE786336:HIE786434 HSA786336:HSA786434 IBW786336:IBW786434 ILS786336:ILS786434 IVO786336:IVO786434 JFK786336:JFK786434 JPG786336:JPG786434 JZC786336:JZC786434 KIY786336:KIY786434 KSU786336:KSU786434 LCQ786336:LCQ786434 LMM786336:LMM786434 LWI786336:LWI786434 MGE786336:MGE786434 MQA786336:MQA786434 MZW786336:MZW786434 NJS786336:NJS786434 NTO786336:NTO786434 ODK786336:ODK786434 ONG786336:ONG786434 OXC786336:OXC786434 PGY786336:PGY786434 PQU786336:PQU786434 QAQ786336:QAQ786434 QKM786336:QKM786434 QUI786336:QUI786434 REE786336:REE786434 ROA786336:ROA786434 RXW786336:RXW786434 SHS786336:SHS786434 SRO786336:SRO786434 TBK786336:TBK786434 TLG786336:TLG786434 TVC786336:TVC786434 UEY786336:UEY786434 UOU786336:UOU786434 UYQ786336:UYQ786434 VIM786336:VIM786434 VSI786336:VSI786434 WCE786336:WCE786434 WMA786336:WMA786434 WVW786336:WVW786434 O851872:O851970 JK851872:JK851970 TG851872:TG851970 ADC851872:ADC851970 AMY851872:AMY851970 AWU851872:AWU851970 BGQ851872:BGQ851970 BQM851872:BQM851970 CAI851872:CAI851970 CKE851872:CKE851970 CUA851872:CUA851970 DDW851872:DDW851970 DNS851872:DNS851970 DXO851872:DXO851970 EHK851872:EHK851970 ERG851872:ERG851970 FBC851872:FBC851970 FKY851872:FKY851970 FUU851872:FUU851970 GEQ851872:GEQ851970 GOM851872:GOM851970 GYI851872:GYI851970 HIE851872:HIE851970 HSA851872:HSA851970 IBW851872:IBW851970 ILS851872:ILS851970 IVO851872:IVO851970 JFK851872:JFK851970 JPG851872:JPG851970 JZC851872:JZC851970 KIY851872:KIY851970 KSU851872:KSU851970 LCQ851872:LCQ851970 LMM851872:LMM851970 LWI851872:LWI851970 MGE851872:MGE851970 MQA851872:MQA851970 MZW851872:MZW851970 NJS851872:NJS851970 NTO851872:NTO851970 ODK851872:ODK851970 ONG851872:ONG851970 OXC851872:OXC851970 PGY851872:PGY851970 PQU851872:PQU851970 QAQ851872:QAQ851970 QKM851872:QKM851970 QUI851872:QUI851970 REE851872:REE851970 ROA851872:ROA851970 RXW851872:RXW851970 SHS851872:SHS851970 SRO851872:SRO851970 TBK851872:TBK851970 TLG851872:TLG851970 TVC851872:TVC851970 UEY851872:UEY851970 UOU851872:UOU851970 UYQ851872:UYQ851970 VIM851872:VIM851970 VSI851872:VSI851970 WCE851872:WCE851970 WMA851872:WMA851970 WVW851872:WVW851970 O917408:O917506 JK917408:JK917506 TG917408:TG917506 ADC917408:ADC917506 AMY917408:AMY917506 AWU917408:AWU917506 BGQ917408:BGQ917506 BQM917408:BQM917506 CAI917408:CAI917506 CKE917408:CKE917506 CUA917408:CUA917506 DDW917408:DDW917506 DNS917408:DNS917506 DXO917408:DXO917506 EHK917408:EHK917506 ERG917408:ERG917506 FBC917408:FBC917506 FKY917408:FKY917506 FUU917408:FUU917506 GEQ917408:GEQ917506 GOM917408:GOM917506 GYI917408:GYI917506 HIE917408:HIE917506 HSA917408:HSA917506 IBW917408:IBW917506 ILS917408:ILS917506 IVO917408:IVO917506 JFK917408:JFK917506 JPG917408:JPG917506 JZC917408:JZC917506 KIY917408:KIY917506 KSU917408:KSU917506 LCQ917408:LCQ917506 LMM917408:LMM917506 LWI917408:LWI917506 MGE917408:MGE917506 MQA917408:MQA917506 MZW917408:MZW917506 NJS917408:NJS917506 NTO917408:NTO917506 ODK917408:ODK917506 ONG917408:ONG917506 OXC917408:OXC917506 PGY917408:PGY917506 PQU917408:PQU917506 QAQ917408:QAQ917506 QKM917408:QKM917506 QUI917408:QUI917506 REE917408:REE917506 ROA917408:ROA917506 RXW917408:RXW917506 SHS917408:SHS917506 SRO917408:SRO917506 TBK917408:TBK917506 TLG917408:TLG917506 TVC917408:TVC917506 UEY917408:UEY917506 UOU917408:UOU917506 UYQ917408:UYQ917506 VIM917408:VIM917506 VSI917408:VSI917506 WCE917408:WCE917506 WMA917408:WMA917506 WVW917408:WVW917506 O982944:O983042 JK982944:JK983042 TG982944:TG983042 ADC982944:ADC983042 AMY982944:AMY983042 AWU982944:AWU983042 BGQ982944:BGQ983042 BQM982944:BQM983042 CAI982944:CAI983042 CKE982944:CKE983042 CUA982944:CUA983042 DDW982944:DDW983042 DNS982944:DNS983042 DXO982944:DXO983042 EHK982944:EHK983042 ERG982944:ERG983042 FBC982944:FBC983042 FKY982944:FKY983042 FUU982944:FUU983042 GEQ982944:GEQ983042 GOM982944:GOM983042 GYI982944:GYI983042 HIE982944:HIE983042 HSA982944:HSA983042 IBW982944:IBW983042 ILS982944:ILS983042 IVO982944:IVO983042 JFK982944:JFK983042 JPG982944:JPG983042 JZC982944:JZC983042 KIY982944:KIY983042 KSU982944:KSU983042 LCQ982944:LCQ983042 LMM982944:LMM983042 LWI982944:LWI983042 MGE982944:MGE983042 MQA982944:MQA983042 MZW982944:MZW983042 NJS982944:NJS983042 NTO982944:NTO983042 ODK982944:ODK983042 ONG982944:ONG983042 OXC982944:OXC983042 PGY982944:PGY983042 PQU982944:PQU983042 QAQ982944:QAQ983042 QKM982944:QKM983042 QUI982944:QUI983042 REE982944:REE983042 ROA982944:ROA983042 RXW982944:RXW983042 SHS982944:SHS983042 SRO982944:SRO983042 TBK982944:TBK983042 TLG982944:TLG983042 TVC982944:TVC983042 UEY982944:UEY983042 UOU982944:UOU983042 UYQ982944:UYQ983042 VIM982944:VIM983042 VSI982944:VSI983042 WCE982944:WCE983042 WMA982944:WMA983042 WVW982944:WVW983042" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 JM2 TI2 ADE2 ANA2 AWW2 BGS2 BQO2 CAK2 CKG2 CUC2 DDY2 DNU2 DXQ2 EHM2 ERI2 FBE2 FLA2 FUW2 GES2 GOO2 GYK2 HIG2 HSC2 IBY2 ILU2 IVQ2 JFM2 JPI2 JZE2 KJA2 KSW2 LCS2 LMO2 LWK2 MGG2 MQC2 MZY2 NJU2 NTQ2 ODM2 ONI2 OXE2 PHA2 PQW2 QAS2 QKO2 QUK2 REG2 ROC2 RXY2 SHU2 SRQ2 TBM2 TLI2 TVE2 UFA2 UOW2 UYS2 VIO2 VSK2 WCG2 WMC2 WVY2 Q65440:Q65538 JM65440:JM65538 TI65440:TI65538 ADE65440:ADE65538 ANA65440:ANA65538 AWW65440:AWW65538 BGS65440:BGS65538 BQO65440:BQO65538 CAK65440:CAK65538 CKG65440:CKG65538 CUC65440:CUC65538 DDY65440:DDY65538 DNU65440:DNU65538 DXQ65440:DXQ65538 EHM65440:EHM65538 ERI65440:ERI65538 FBE65440:FBE65538 FLA65440:FLA65538 FUW65440:FUW65538 GES65440:GES65538 GOO65440:GOO65538 GYK65440:GYK65538 HIG65440:HIG65538 HSC65440:HSC65538 IBY65440:IBY65538 ILU65440:ILU65538 IVQ65440:IVQ65538 JFM65440:JFM65538 JPI65440:JPI65538 JZE65440:JZE65538 KJA65440:KJA65538 KSW65440:KSW65538 LCS65440:LCS65538 LMO65440:LMO65538 LWK65440:LWK65538 MGG65440:MGG65538 MQC65440:MQC65538 MZY65440:MZY65538 NJU65440:NJU65538 NTQ65440:NTQ65538 ODM65440:ODM65538 ONI65440:ONI65538 OXE65440:OXE65538 PHA65440:PHA65538 PQW65440:PQW65538 QAS65440:QAS65538 QKO65440:QKO65538 QUK65440:QUK65538 REG65440:REG65538 ROC65440:ROC65538 RXY65440:RXY65538 SHU65440:SHU65538 SRQ65440:SRQ65538 TBM65440:TBM65538 TLI65440:TLI65538 TVE65440:TVE65538 UFA65440:UFA65538 UOW65440:UOW65538 UYS65440:UYS65538 VIO65440:VIO65538 VSK65440:VSK65538 WCG65440:WCG65538 WMC65440:WMC65538 WVY65440:WVY65538 Q130976:Q131074 JM130976:JM131074 TI130976:TI131074 ADE130976:ADE131074 ANA130976:ANA131074 AWW130976:AWW131074 BGS130976:BGS131074 BQO130976:BQO131074 CAK130976:CAK131074 CKG130976:CKG131074 CUC130976:CUC131074 DDY130976:DDY131074 DNU130976:DNU131074 DXQ130976:DXQ131074 EHM130976:EHM131074 ERI130976:ERI131074 FBE130976:FBE131074 FLA130976:FLA131074 FUW130976:FUW131074 GES130976:GES131074 GOO130976:GOO131074 GYK130976:GYK131074 HIG130976:HIG131074 HSC130976:HSC131074 IBY130976:IBY131074 ILU130976:ILU131074 IVQ130976:IVQ131074 JFM130976:JFM131074 JPI130976:JPI131074 JZE130976:JZE131074 KJA130976:KJA131074 KSW130976:KSW131074 LCS130976:LCS131074 LMO130976:LMO131074 LWK130976:LWK131074 MGG130976:MGG131074 MQC130976:MQC131074 MZY130976:MZY131074 NJU130976:NJU131074 NTQ130976:NTQ131074 ODM130976:ODM131074 ONI130976:ONI131074 OXE130976:OXE131074 PHA130976:PHA131074 PQW130976:PQW131074 QAS130976:QAS131074 QKO130976:QKO131074 QUK130976:QUK131074 REG130976:REG131074 ROC130976:ROC131074 RXY130976:RXY131074 SHU130976:SHU131074 SRQ130976:SRQ131074 TBM130976:TBM131074 TLI130976:TLI131074 TVE130976:TVE131074 UFA130976:UFA131074 UOW130976:UOW131074 UYS130976:UYS131074 VIO130976:VIO131074 VSK130976:VSK131074 WCG130976:WCG131074 WMC130976:WMC131074 WVY130976:WVY131074 Q196512:Q196610 JM196512:JM196610 TI196512:TI196610 ADE196512:ADE196610 ANA196512:ANA196610 AWW196512:AWW196610 BGS196512:BGS196610 BQO196512:BQO196610 CAK196512:CAK196610 CKG196512:CKG196610 CUC196512:CUC196610 DDY196512:DDY196610 DNU196512:DNU196610 DXQ196512:DXQ196610 EHM196512:EHM196610 ERI196512:ERI196610 FBE196512:FBE196610 FLA196512:FLA196610 FUW196512:FUW196610 GES196512:GES196610 GOO196512:GOO196610 GYK196512:GYK196610 HIG196512:HIG196610 HSC196512:HSC196610 IBY196512:IBY196610 ILU196512:ILU196610 IVQ196512:IVQ196610 JFM196512:JFM196610 JPI196512:JPI196610 JZE196512:JZE196610 KJA196512:KJA196610 KSW196512:KSW196610 LCS196512:LCS196610 LMO196512:LMO196610 LWK196512:LWK196610 MGG196512:MGG196610 MQC196512:MQC196610 MZY196512:MZY196610 NJU196512:NJU196610 NTQ196512:NTQ196610 ODM196512:ODM196610 ONI196512:ONI196610 OXE196512:OXE196610 PHA196512:PHA196610 PQW196512:PQW196610 QAS196512:QAS196610 QKO196512:QKO196610 QUK196512:QUK196610 REG196512:REG196610 ROC196512:ROC196610 RXY196512:RXY196610 SHU196512:SHU196610 SRQ196512:SRQ196610 TBM196512:TBM196610 TLI196512:TLI196610 TVE196512:TVE196610 UFA196512:UFA196610 UOW196512:UOW196610 UYS196512:UYS196610 VIO196512:VIO196610 VSK196512:VSK196610 WCG196512:WCG196610 WMC196512:WMC196610 WVY196512:WVY196610 Q262048:Q262146 JM262048:JM262146 TI262048:TI262146 ADE262048:ADE262146 ANA262048:ANA262146 AWW262048:AWW262146 BGS262048:BGS262146 BQO262048:BQO262146 CAK262048:CAK262146 CKG262048:CKG262146 CUC262048:CUC262146 DDY262048:DDY262146 DNU262048:DNU262146 DXQ262048:DXQ262146 EHM262048:EHM262146 ERI262048:ERI262146 FBE262048:FBE262146 FLA262048:FLA262146 FUW262048:FUW262146 GES262048:GES262146 GOO262048:GOO262146 GYK262048:GYK262146 HIG262048:HIG262146 HSC262048:HSC262146 IBY262048:IBY262146 ILU262048:ILU262146 IVQ262048:IVQ262146 JFM262048:JFM262146 JPI262048:JPI262146 JZE262048:JZE262146 KJA262048:KJA262146 KSW262048:KSW262146 LCS262048:LCS262146 LMO262048:LMO262146 LWK262048:LWK262146 MGG262048:MGG262146 MQC262048:MQC262146 MZY262048:MZY262146 NJU262048:NJU262146 NTQ262048:NTQ262146 ODM262048:ODM262146 ONI262048:ONI262146 OXE262048:OXE262146 PHA262048:PHA262146 PQW262048:PQW262146 QAS262048:QAS262146 QKO262048:QKO262146 QUK262048:QUK262146 REG262048:REG262146 ROC262048:ROC262146 RXY262048:RXY262146 SHU262048:SHU262146 SRQ262048:SRQ262146 TBM262048:TBM262146 TLI262048:TLI262146 TVE262048:TVE262146 UFA262048:UFA262146 UOW262048:UOW262146 UYS262048:UYS262146 VIO262048:VIO262146 VSK262048:VSK262146 WCG262048:WCG262146 WMC262048:WMC262146 WVY262048:WVY262146 Q327584:Q327682 JM327584:JM327682 TI327584:TI327682 ADE327584:ADE327682 ANA327584:ANA327682 AWW327584:AWW327682 BGS327584:BGS327682 BQO327584:BQO327682 CAK327584:CAK327682 CKG327584:CKG327682 CUC327584:CUC327682 DDY327584:DDY327682 DNU327584:DNU327682 DXQ327584:DXQ327682 EHM327584:EHM327682 ERI327584:ERI327682 FBE327584:FBE327682 FLA327584:FLA327682 FUW327584:FUW327682 GES327584:GES327682 GOO327584:GOO327682 GYK327584:GYK327682 HIG327584:HIG327682 HSC327584:HSC327682 IBY327584:IBY327682 ILU327584:ILU327682 IVQ327584:IVQ327682 JFM327584:JFM327682 JPI327584:JPI327682 JZE327584:JZE327682 KJA327584:KJA327682 KSW327584:KSW327682 LCS327584:LCS327682 LMO327584:LMO327682 LWK327584:LWK327682 MGG327584:MGG327682 MQC327584:MQC327682 MZY327584:MZY327682 NJU327584:NJU327682 NTQ327584:NTQ327682 ODM327584:ODM327682 ONI327584:ONI327682 OXE327584:OXE327682 PHA327584:PHA327682 PQW327584:PQW327682 QAS327584:QAS327682 QKO327584:QKO327682 QUK327584:QUK327682 REG327584:REG327682 ROC327584:ROC327682 RXY327584:RXY327682 SHU327584:SHU327682 SRQ327584:SRQ327682 TBM327584:TBM327682 TLI327584:TLI327682 TVE327584:TVE327682 UFA327584:UFA327682 UOW327584:UOW327682 UYS327584:UYS327682 VIO327584:VIO327682 VSK327584:VSK327682 WCG327584:WCG327682 WMC327584:WMC327682 WVY327584:WVY327682 Q393120:Q393218 JM393120:JM393218 TI393120:TI393218 ADE393120:ADE393218 ANA393120:ANA393218 AWW393120:AWW393218 BGS393120:BGS393218 BQO393120:BQO393218 CAK393120:CAK393218 CKG393120:CKG393218 CUC393120:CUC393218 DDY393120:DDY393218 DNU393120:DNU393218 DXQ393120:DXQ393218 EHM393120:EHM393218 ERI393120:ERI393218 FBE393120:FBE393218 FLA393120:FLA393218 FUW393120:FUW393218 GES393120:GES393218 GOO393120:GOO393218 GYK393120:GYK393218 HIG393120:HIG393218 HSC393120:HSC393218 IBY393120:IBY393218 ILU393120:ILU393218 IVQ393120:IVQ393218 JFM393120:JFM393218 JPI393120:JPI393218 JZE393120:JZE393218 KJA393120:KJA393218 KSW393120:KSW393218 LCS393120:LCS393218 LMO393120:LMO393218 LWK393120:LWK393218 MGG393120:MGG393218 MQC393120:MQC393218 MZY393120:MZY393218 NJU393120:NJU393218 NTQ393120:NTQ393218 ODM393120:ODM393218 ONI393120:ONI393218 OXE393120:OXE393218 PHA393120:PHA393218 PQW393120:PQW393218 QAS393120:QAS393218 QKO393120:QKO393218 QUK393120:QUK393218 REG393120:REG393218 ROC393120:ROC393218 RXY393120:RXY393218 SHU393120:SHU393218 SRQ393120:SRQ393218 TBM393120:TBM393218 TLI393120:TLI393218 TVE393120:TVE393218 UFA393120:UFA393218 UOW393120:UOW393218 UYS393120:UYS393218 VIO393120:VIO393218 VSK393120:VSK393218 WCG393120:WCG393218 WMC393120:WMC393218 WVY393120:WVY393218 Q458656:Q458754 JM458656:JM458754 TI458656:TI458754 ADE458656:ADE458754 ANA458656:ANA458754 AWW458656:AWW458754 BGS458656:BGS458754 BQO458656:BQO458754 CAK458656:CAK458754 CKG458656:CKG458754 CUC458656:CUC458754 DDY458656:DDY458754 DNU458656:DNU458754 DXQ458656:DXQ458754 EHM458656:EHM458754 ERI458656:ERI458754 FBE458656:FBE458754 FLA458656:FLA458754 FUW458656:FUW458754 GES458656:GES458754 GOO458656:GOO458754 GYK458656:GYK458754 HIG458656:HIG458754 HSC458656:HSC458754 IBY458656:IBY458754 ILU458656:ILU458754 IVQ458656:IVQ458754 JFM458656:JFM458754 JPI458656:JPI458754 JZE458656:JZE458754 KJA458656:KJA458754 KSW458656:KSW458754 LCS458656:LCS458754 LMO458656:LMO458754 LWK458656:LWK458754 MGG458656:MGG458754 MQC458656:MQC458754 MZY458656:MZY458754 NJU458656:NJU458754 NTQ458656:NTQ458754 ODM458656:ODM458754 ONI458656:ONI458754 OXE458656:OXE458754 PHA458656:PHA458754 PQW458656:PQW458754 QAS458656:QAS458754 QKO458656:QKO458754 QUK458656:QUK458754 REG458656:REG458754 ROC458656:ROC458754 RXY458656:RXY458754 SHU458656:SHU458754 SRQ458656:SRQ458754 TBM458656:TBM458754 TLI458656:TLI458754 TVE458656:TVE458754 UFA458656:UFA458754 UOW458656:UOW458754 UYS458656:UYS458754 VIO458656:VIO458754 VSK458656:VSK458754 WCG458656:WCG458754 WMC458656:WMC458754 WVY458656:WVY458754 Q524192:Q524290 JM524192:JM524290 TI524192:TI524290 ADE524192:ADE524290 ANA524192:ANA524290 AWW524192:AWW524290 BGS524192:BGS524290 BQO524192:BQO524290 CAK524192:CAK524290 CKG524192:CKG524290 CUC524192:CUC524290 DDY524192:DDY524290 DNU524192:DNU524290 DXQ524192:DXQ524290 EHM524192:EHM524290 ERI524192:ERI524290 FBE524192:FBE524290 FLA524192:FLA524290 FUW524192:FUW524290 GES524192:GES524290 GOO524192:GOO524290 GYK524192:GYK524290 HIG524192:HIG524290 HSC524192:HSC524290 IBY524192:IBY524290 ILU524192:ILU524290 IVQ524192:IVQ524290 JFM524192:JFM524290 JPI524192:JPI524290 JZE524192:JZE524290 KJA524192:KJA524290 KSW524192:KSW524290 LCS524192:LCS524290 LMO524192:LMO524290 LWK524192:LWK524290 MGG524192:MGG524290 MQC524192:MQC524290 MZY524192:MZY524290 NJU524192:NJU524290 NTQ524192:NTQ524290 ODM524192:ODM524290 ONI524192:ONI524290 OXE524192:OXE524290 PHA524192:PHA524290 PQW524192:PQW524290 QAS524192:QAS524290 QKO524192:QKO524290 QUK524192:QUK524290 REG524192:REG524290 ROC524192:ROC524290 RXY524192:RXY524290 SHU524192:SHU524290 SRQ524192:SRQ524290 TBM524192:TBM524290 TLI524192:TLI524290 TVE524192:TVE524290 UFA524192:UFA524290 UOW524192:UOW524290 UYS524192:UYS524290 VIO524192:VIO524290 VSK524192:VSK524290 WCG524192:WCG524290 WMC524192:WMC524290 WVY524192:WVY524290 Q589728:Q589826 JM589728:JM589826 TI589728:TI589826 ADE589728:ADE589826 ANA589728:ANA589826 AWW589728:AWW589826 BGS589728:BGS589826 BQO589728:BQO589826 CAK589728:CAK589826 CKG589728:CKG589826 CUC589728:CUC589826 DDY589728:DDY589826 DNU589728:DNU589826 DXQ589728:DXQ589826 EHM589728:EHM589826 ERI589728:ERI589826 FBE589728:FBE589826 FLA589728:FLA589826 FUW589728:FUW589826 GES589728:GES589826 GOO589728:GOO589826 GYK589728:GYK589826 HIG589728:HIG589826 HSC589728:HSC589826 IBY589728:IBY589826 ILU589728:ILU589826 IVQ589728:IVQ589826 JFM589728:JFM589826 JPI589728:JPI589826 JZE589728:JZE589826 KJA589728:KJA589826 KSW589728:KSW589826 LCS589728:LCS589826 LMO589728:LMO589826 LWK589728:LWK589826 MGG589728:MGG589826 MQC589728:MQC589826 MZY589728:MZY589826 NJU589728:NJU589826 NTQ589728:NTQ589826 ODM589728:ODM589826 ONI589728:ONI589826 OXE589728:OXE589826 PHA589728:PHA589826 PQW589728:PQW589826 QAS589728:QAS589826 QKO589728:QKO589826 QUK589728:QUK589826 REG589728:REG589826 ROC589728:ROC589826 RXY589728:RXY589826 SHU589728:SHU589826 SRQ589728:SRQ589826 TBM589728:TBM589826 TLI589728:TLI589826 TVE589728:TVE589826 UFA589728:UFA589826 UOW589728:UOW589826 UYS589728:UYS589826 VIO589728:VIO589826 VSK589728:VSK589826 WCG589728:WCG589826 WMC589728:WMC589826 WVY589728:WVY589826 Q655264:Q655362 JM655264:JM655362 TI655264:TI655362 ADE655264:ADE655362 ANA655264:ANA655362 AWW655264:AWW655362 BGS655264:BGS655362 BQO655264:BQO655362 CAK655264:CAK655362 CKG655264:CKG655362 CUC655264:CUC655362 DDY655264:DDY655362 DNU655264:DNU655362 DXQ655264:DXQ655362 EHM655264:EHM655362 ERI655264:ERI655362 FBE655264:FBE655362 FLA655264:FLA655362 FUW655264:FUW655362 GES655264:GES655362 GOO655264:GOO655362 GYK655264:GYK655362 HIG655264:HIG655362 HSC655264:HSC655362 IBY655264:IBY655362 ILU655264:ILU655362 IVQ655264:IVQ655362 JFM655264:JFM655362 JPI655264:JPI655362 JZE655264:JZE655362 KJA655264:KJA655362 KSW655264:KSW655362 LCS655264:LCS655362 LMO655264:LMO655362 LWK655264:LWK655362 MGG655264:MGG655362 MQC655264:MQC655362 MZY655264:MZY655362 NJU655264:NJU655362 NTQ655264:NTQ655362 ODM655264:ODM655362 ONI655264:ONI655362 OXE655264:OXE655362 PHA655264:PHA655362 PQW655264:PQW655362 QAS655264:QAS655362 QKO655264:QKO655362 QUK655264:QUK655362 REG655264:REG655362 ROC655264:ROC655362 RXY655264:RXY655362 SHU655264:SHU655362 SRQ655264:SRQ655362 TBM655264:TBM655362 TLI655264:TLI655362 TVE655264:TVE655362 UFA655264:UFA655362 UOW655264:UOW655362 UYS655264:UYS655362 VIO655264:VIO655362 VSK655264:VSK655362 WCG655264:WCG655362 WMC655264:WMC655362 WVY655264:WVY655362 Q720800:Q720898 JM720800:JM720898 TI720800:TI720898 ADE720800:ADE720898 ANA720800:ANA720898 AWW720800:AWW720898 BGS720800:BGS720898 BQO720800:BQO720898 CAK720800:CAK720898 CKG720800:CKG720898 CUC720800:CUC720898 DDY720800:DDY720898 DNU720800:DNU720898 DXQ720800:DXQ720898 EHM720800:EHM720898 ERI720800:ERI720898 FBE720800:FBE720898 FLA720800:FLA720898 FUW720800:FUW720898 GES720800:GES720898 GOO720800:GOO720898 GYK720800:GYK720898 HIG720800:HIG720898 HSC720800:HSC720898 IBY720800:IBY720898 ILU720800:ILU720898 IVQ720800:IVQ720898 JFM720800:JFM720898 JPI720800:JPI720898 JZE720800:JZE720898 KJA720800:KJA720898 KSW720800:KSW720898 LCS720800:LCS720898 LMO720800:LMO720898 LWK720800:LWK720898 MGG720800:MGG720898 MQC720800:MQC720898 MZY720800:MZY720898 NJU720800:NJU720898 NTQ720800:NTQ720898 ODM720800:ODM720898 ONI720800:ONI720898 OXE720800:OXE720898 PHA720800:PHA720898 PQW720800:PQW720898 QAS720800:QAS720898 QKO720800:QKO720898 QUK720800:QUK720898 REG720800:REG720898 ROC720800:ROC720898 RXY720800:RXY720898 SHU720800:SHU720898 SRQ720800:SRQ720898 TBM720800:TBM720898 TLI720800:TLI720898 TVE720800:TVE720898 UFA720800:UFA720898 UOW720800:UOW720898 UYS720800:UYS720898 VIO720800:VIO720898 VSK720800:VSK720898 WCG720800:WCG720898 WMC720800:WMC720898 WVY720800:WVY720898 Q786336:Q786434 JM786336:JM786434 TI786336:TI786434 ADE786336:ADE786434 ANA786336:ANA786434 AWW786336:AWW786434 BGS786336:BGS786434 BQO786336:BQO786434 CAK786336:CAK786434 CKG786336:CKG786434 CUC786336:CUC786434 DDY786336:DDY786434 DNU786336:DNU786434 DXQ786336:DXQ786434 EHM786336:EHM786434 ERI786336:ERI786434 FBE786336:FBE786434 FLA786336:FLA786434 FUW786336:FUW786434 GES786336:GES786434 GOO786336:GOO786434 GYK786336:GYK786434 HIG786336:HIG786434 HSC786336:HSC786434 IBY786336:IBY786434 ILU786336:ILU786434 IVQ786336:IVQ786434 JFM786336:JFM786434 JPI786336:JPI786434 JZE786336:JZE786434 KJA786336:KJA786434 KSW786336:KSW786434 LCS786336:LCS786434 LMO786336:LMO786434 LWK786336:LWK786434 MGG786336:MGG786434 MQC786336:MQC786434 MZY786336:MZY786434 NJU786336:NJU786434 NTQ786336:NTQ786434 ODM786336:ODM786434 ONI786336:ONI786434 OXE786336:OXE786434 PHA786336:PHA786434 PQW786336:PQW786434 QAS786336:QAS786434 QKO786336:QKO786434 QUK786336:QUK786434 REG786336:REG786434 ROC786336:ROC786434 RXY786336:RXY786434 SHU786336:SHU786434 SRQ786336:SRQ786434 TBM786336:TBM786434 TLI786336:TLI786434 TVE786336:TVE786434 UFA786336:UFA786434 UOW786336:UOW786434 UYS786336:UYS786434 VIO786336:VIO786434 VSK786336:VSK786434 WCG786336:WCG786434 WMC786336:WMC786434 WVY786336:WVY786434 Q851872:Q851970 JM851872:JM851970 TI851872:TI851970 ADE851872:ADE851970 ANA851872:ANA851970 AWW851872:AWW851970 BGS851872:BGS851970 BQO851872:BQO851970 CAK851872:CAK851970 CKG851872:CKG851970 CUC851872:CUC851970 DDY851872:DDY851970 DNU851872:DNU851970 DXQ851872:DXQ851970 EHM851872:EHM851970 ERI851872:ERI851970 FBE851872:FBE851970 FLA851872:FLA851970 FUW851872:FUW851970 GES851872:GES851970 GOO851872:GOO851970 GYK851872:GYK851970 HIG851872:HIG851970 HSC851872:HSC851970 IBY851872:IBY851970 ILU851872:ILU851970 IVQ851872:IVQ851970 JFM851872:JFM851970 JPI851872:JPI851970 JZE851872:JZE851970 KJA851872:KJA851970 KSW851872:KSW851970 LCS851872:LCS851970 LMO851872:LMO851970 LWK851872:LWK851970 MGG851872:MGG851970 MQC851872:MQC851970 MZY851872:MZY851970 NJU851872:NJU851970 NTQ851872:NTQ851970 ODM851872:ODM851970 ONI851872:ONI851970 OXE851872:OXE851970 PHA851872:PHA851970 PQW851872:PQW851970 QAS851872:QAS851970 QKO851872:QKO851970 QUK851872:QUK851970 REG851872:REG851970 ROC851872:ROC851970 RXY851872:RXY851970 SHU851872:SHU851970 SRQ851872:SRQ851970 TBM851872:TBM851970 TLI851872:TLI851970 TVE851872:TVE851970 UFA851872:UFA851970 UOW851872:UOW851970 UYS851872:UYS851970 VIO851872:VIO851970 VSK851872:VSK851970 WCG851872:WCG851970 WMC851872:WMC851970 WVY851872:WVY851970 Q917408:Q917506 JM917408:JM917506 TI917408:TI917506 ADE917408:ADE917506 ANA917408:ANA917506 AWW917408:AWW917506 BGS917408:BGS917506 BQO917408:BQO917506 CAK917408:CAK917506 CKG917408:CKG917506 CUC917408:CUC917506 DDY917408:DDY917506 DNU917408:DNU917506 DXQ917408:DXQ917506 EHM917408:EHM917506 ERI917408:ERI917506 FBE917408:FBE917506 FLA917408:FLA917506 FUW917408:FUW917506 GES917408:GES917506 GOO917408:GOO917506 GYK917408:GYK917506 HIG917408:HIG917506 HSC917408:HSC917506 IBY917408:IBY917506 ILU917408:ILU917506 IVQ917408:IVQ917506 JFM917408:JFM917506 JPI917408:JPI917506 JZE917408:JZE917506 KJA917408:KJA917506 KSW917408:KSW917506 LCS917408:LCS917506 LMO917408:LMO917506 LWK917408:LWK917506 MGG917408:MGG917506 MQC917408:MQC917506 MZY917408:MZY917506 NJU917408:NJU917506 NTQ917408:NTQ917506 ODM917408:ODM917506 ONI917408:ONI917506 OXE917408:OXE917506 PHA917408:PHA917506 PQW917408:PQW917506 QAS917408:QAS917506 QKO917408:QKO917506 QUK917408:QUK917506 REG917408:REG917506 ROC917408:ROC917506 RXY917408:RXY917506 SHU917408:SHU917506 SRQ917408:SRQ917506 TBM917408:TBM917506 TLI917408:TLI917506 TVE917408:TVE917506 UFA917408:UFA917506 UOW917408:UOW917506 UYS917408:UYS917506 VIO917408:VIO917506 VSK917408:VSK917506 WCG917408:WCG917506 WMC917408:WMC917506 WVY917408:WVY917506 Q982944:Q983042 JM982944:JM983042 TI982944:TI983042 ADE982944:ADE983042 ANA982944:ANA983042 AWW982944:AWW983042 BGS982944:BGS983042 BQO982944:BQO983042 CAK982944:CAK983042 CKG982944:CKG983042 CUC982944:CUC983042 DDY982944:DDY983042 DNU982944:DNU983042 DXQ982944:DXQ983042 EHM982944:EHM983042 ERI982944:ERI983042 FBE982944:FBE983042 FLA982944:FLA983042 FUW982944:FUW983042 GES982944:GES983042 GOO982944:GOO983042 GYK982944:GYK983042 HIG982944:HIG983042 HSC982944:HSC983042 IBY982944:IBY983042 ILU982944:ILU983042 IVQ982944:IVQ983042 JFM982944:JFM983042 JPI982944:JPI983042 JZE982944:JZE983042 KJA982944:KJA983042 KSW982944:KSW983042 LCS982944:LCS983042 LMO982944:LMO983042 LWK982944:LWK983042 MGG982944:MGG983042 MQC982944:MQC983042 MZY982944:MZY983042 NJU982944:NJU983042 NTQ982944:NTQ983042 ODM982944:ODM983042 ONI982944:ONI983042 OXE982944:OXE983042 PHA982944:PHA983042 PQW982944:PQW983042 QAS982944:QAS983042 QKO982944:QKO983042 QUK982944:QUK983042 REG982944:REG983042 ROC982944:ROC983042 RXY982944:RXY983042 SHU982944:SHU983042 SRQ982944:SRQ983042 TBM982944:TBM983042 TLI982944:TLI983042 TVE982944:TVE983042 UFA982944:UFA983042 UOW982944:UOW983042 UYS982944:UYS983042 VIO982944:VIO983042 VSK982944:VSK983042 WCG982944:WCG983042 WMC982944:WMC983042 WVY982944:WVY983042" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
       <formula1>0</formula1>
       <formula2>11</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 JH2 TD2 ACZ2 AMV2 AWR2 BGN2 BQJ2 CAF2 CKB2 CTX2 DDT2 DNP2 DXL2 EHH2 ERD2 FAZ2 FKV2 FUR2 GEN2 GOJ2 GYF2 HIB2 HRX2 IBT2 ILP2 IVL2 JFH2 JPD2 JYZ2 KIV2 KSR2 LCN2 LMJ2 LWF2 MGB2 MPX2 MZT2 NJP2 NTL2 ODH2 OND2 OWZ2 PGV2 PQR2 QAN2 QKJ2 QUF2 REB2 RNX2 RXT2 SHP2 SRL2 TBH2 TLD2 TUZ2 UEV2 UOR2 UYN2 VIJ2 VSF2 WCB2 WLX2 WVT2 L65440:L65538 JH65440:JH65538 TD65440:TD65538 ACZ65440:ACZ65538 AMV65440:AMV65538 AWR65440:AWR65538 BGN65440:BGN65538 BQJ65440:BQJ65538 CAF65440:CAF65538 CKB65440:CKB65538 CTX65440:CTX65538 DDT65440:DDT65538 DNP65440:DNP65538 DXL65440:DXL65538 EHH65440:EHH65538 ERD65440:ERD65538 FAZ65440:FAZ65538 FKV65440:FKV65538 FUR65440:FUR65538 GEN65440:GEN65538 GOJ65440:GOJ65538 GYF65440:GYF65538 HIB65440:HIB65538 HRX65440:HRX65538 IBT65440:IBT65538 ILP65440:ILP65538 IVL65440:IVL65538 JFH65440:JFH65538 JPD65440:JPD65538 JYZ65440:JYZ65538 KIV65440:KIV65538 KSR65440:KSR65538 LCN65440:LCN65538 LMJ65440:LMJ65538 LWF65440:LWF65538 MGB65440:MGB65538 MPX65440:MPX65538 MZT65440:MZT65538 NJP65440:NJP65538 NTL65440:NTL65538 ODH65440:ODH65538 OND65440:OND65538 OWZ65440:OWZ65538 PGV65440:PGV65538 PQR65440:PQR65538 QAN65440:QAN65538 QKJ65440:QKJ65538 QUF65440:QUF65538 REB65440:REB65538 RNX65440:RNX65538 RXT65440:RXT65538 SHP65440:SHP65538 SRL65440:SRL65538 TBH65440:TBH65538 TLD65440:TLD65538 TUZ65440:TUZ65538 UEV65440:UEV65538 UOR65440:UOR65538 UYN65440:UYN65538 VIJ65440:VIJ65538 VSF65440:VSF65538 WCB65440:WCB65538 WLX65440:WLX65538 WVT65440:WVT65538 L130976:L131074 JH130976:JH131074 TD130976:TD131074 ACZ130976:ACZ131074 AMV130976:AMV131074 AWR130976:AWR131074 BGN130976:BGN131074 BQJ130976:BQJ131074 CAF130976:CAF131074 CKB130976:CKB131074 CTX130976:CTX131074 DDT130976:DDT131074 DNP130976:DNP131074 DXL130976:DXL131074 EHH130976:EHH131074 ERD130976:ERD131074 FAZ130976:FAZ131074 FKV130976:FKV131074 FUR130976:FUR131074 GEN130976:GEN131074 GOJ130976:GOJ131074 GYF130976:GYF131074 HIB130976:HIB131074 HRX130976:HRX131074 IBT130976:IBT131074 ILP130976:ILP131074 IVL130976:IVL131074 JFH130976:JFH131074 JPD130976:JPD131074 JYZ130976:JYZ131074 KIV130976:KIV131074 KSR130976:KSR131074 LCN130976:LCN131074 LMJ130976:LMJ131074 LWF130976:LWF131074 MGB130976:MGB131074 MPX130976:MPX131074 MZT130976:MZT131074 NJP130976:NJP131074 NTL130976:NTL131074 ODH130976:ODH131074 OND130976:OND131074 OWZ130976:OWZ131074 PGV130976:PGV131074 PQR130976:PQR131074 QAN130976:QAN131074 QKJ130976:QKJ131074 QUF130976:QUF131074 REB130976:REB131074 RNX130976:RNX131074 RXT130976:RXT131074 SHP130976:SHP131074 SRL130976:SRL131074 TBH130976:TBH131074 TLD130976:TLD131074 TUZ130976:TUZ131074 UEV130976:UEV131074 UOR130976:UOR131074 UYN130976:UYN131074 VIJ130976:VIJ131074 VSF130976:VSF131074 WCB130976:WCB131074 WLX130976:WLX131074 WVT130976:WVT131074 L196512:L196610 JH196512:JH196610 TD196512:TD196610 ACZ196512:ACZ196610 AMV196512:AMV196610 AWR196512:AWR196610 BGN196512:BGN196610 BQJ196512:BQJ196610 CAF196512:CAF196610 CKB196512:CKB196610 CTX196512:CTX196610 DDT196512:DDT196610 DNP196512:DNP196610 DXL196512:DXL196610 EHH196512:EHH196610 ERD196512:ERD196610 FAZ196512:FAZ196610 FKV196512:FKV196610 FUR196512:FUR196610 GEN196512:GEN196610 GOJ196512:GOJ196610 GYF196512:GYF196610 HIB196512:HIB196610 HRX196512:HRX196610 IBT196512:IBT196610 ILP196512:ILP196610 IVL196512:IVL196610 JFH196512:JFH196610 JPD196512:JPD196610 JYZ196512:JYZ196610 KIV196512:KIV196610 KSR196512:KSR196610 LCN196512:LCN196610 LMJ196512:LMJ196610 LWF196512:LWF196610 MGB196512:MGB196610 MPX196512:MPX196610 MZT196512:MZT196610 NJP196512:NJP196610 NTL196512:NTL196610 ODH196512:ODH196610 OND196512:OND196610 OWZ196512:OWZ196610 PGV196512:PGV196610 PQR196512:PQR196610 QAN196512:QAN196610 QKJ196512:QKJ196610 QUF196512:QUF196610 REB196512:REB196610 RNX196512:RNX196610 RXT196512:RXT196610 SHP196512:SHP196610 SRL196512:SRL196610 TBH196512:TBH196610 TLD196512:TLD196610 TUZ196512:TUZ196610 UEV196512:UEV196610 UOR196512:UOR196610 UYN196512:UYN196610 VIJ196512:VIJ196610 VSF196512:VSF196610 WCB196512:WCB196610 WLX196512:WLX196610 WVT196512:WVT196610 L262048:L262146 JH262048:JH262146 TD262048:TD262146 ACZ262048:ACZ262146 AMV262048:AMV262146 AWR262048:AWR262146 BGN262048:BGN262146 BQJ262048:BQJ262146 CAF262048:CAF262146 CKB262048:CKB262146 CTX262048:CTX262146 DDT262048:DDT262146 DNP262048:DNP262146 DXL262048:DXL262146 EHH262048:EHH262146 ERD262048:ERD262146 FAZ262048:FAZ262146 FKV262048:FKV262146 FUR262048:FUR262146 GEN262048:GEN262146 GOJ262048:GOJ262146 GYF262048:GYF262146 HIB262048:HIB262146 HRX262048:HRX262146 IBT262048:IBT262146 ILP262048:ILP262146 IVL262048:IVL262146 JFH262048:JFH262146 JPD262048:JPD262146 JYZ262048:JYZ262146 KIV262048:KIV262146 KSR262048:KSR262146 LCN262048:LCN262146 LMJ262048:LMJ262146 LWF262048:LWF262146 MGB262048:MGB262146 MPX262048:MPX262146 MZT262048:MZT262146 NJP262048:NJP262146 NTL262048:NTL262146 ODH262048:ODH262146 OND262048:OND262146 OWZ262048:OWZ262146 PGV262048:PGV262146 PQR262048:PQR262146 QAN262048:QAN262146 QKJ262048:QKJ262146 QUF262048:QUF262146 REB262048:REB262146 RNX262048:RNX262146 RXT262048:RXT262146 SHP262048:SHP262146 SRL262048:SRL262146 TBH262048:TBH262146 TLD262048:TLD262146 TUZ262048:TUZ262146 UEV262048:UEV262146 UOR262048:UOR262146 UYN262048:UYN262146 VIJ262048:VIJ262146 VSF262048:VSF262146 WCB262048:WCB262146 WLX262048:WLX262146 WVT262048:WVT262146 L327584:L327682 JH327584:JH327682 TD327584:TD327682 ACZ327584:ACZ327682 AMV327584:AMV327682 AWR327584:AWR327682 BGN327584:BGN327682 BQJ327584:BQJ327682 CAF327584:CAF327682 CKB327584:CKB327682 CTX327584:CTX327682 DDT327584:DDT327682 DNP327584:DNP327682 DXL327584:DXL327682 EHH327584:EHH327682 ERD327584:ERD327682 FAZ327584:FAZ327682 FKV327584:FKV327682 FUR327584:FUR327682 GEN327584:GEN327682 GOJ327584:GOJ327682 GYF327584:GYF327682 HIB327584:HIB327682 HRX327584:HRX327682 IBT327584:IBT327682 ILP327584:ILP327682 IVL327584:IVL327682 JFH327584:JFH327682 JPD327584:JPD327682 JYZ327584:JYZ327682 KIV327584:KIV327682 KSR327584:KSR327682 LCN327584:LCN327682 LMJ327584:LMJ327682 LWF327584:LWF327682 MGB327584:MGB327682 MPX327584:MPX327682 MZT327584:MZT327682 NJP327584:NJP327682 NTL327584:NTL327682 ODH327584:ODH327682 OND327584:OND327682 OWZ327584:OWZ327682 PGV327584:PGV327682 PQR327584:PQR327682 QAN327584:QAN327682 QKJ327584:QKJ327682 QUF327584:QUF327682 REB327584:REB327682 RNX327584:RNX327682 RXT327584:RXT327682 SHP327584:SHP327682 SRL327584:SRL327682 TBH327584:TBH327682 TLD327584:TLD327682 TUZ327584:TUZ327682 UEV327584:UEV327682 UOR327584:UOR327682 UYN327584:UYN327682 VIJ327584:VIJ327682 VSF327584:VSF327682 WCB327584:WCB327682 WLX327584:WLX327682 WVT327584:WVT327682 L393120:L393218 JH393120:JH393218 TD393120:TD393218 ACZ393120:ACZ393218 AMV393120:AMV393218 AWR393120:AWR393218 BGN393120:BGN393218 BQJ393120:BQJ393218 CAF393120:CAF393218 CKB393120:CKB393218 CTX393120:CTX393218 DDT393120:DDT393218 DNP393120:DNP393218 DXL393120:DXL393218 EHH393120:EHH393218 ERD393120:ERD393218 FAZ393120:FAZ393218 FKV393120:FKV393218 FUR393120:FUR393218 GEN393120:GEN393218 GOJ393120:GOJ393218 GYF393120:GYF393218 HIB393120:HIB393218 HRX393120:HRX393218 IBT393120:IBT393218 ILP393120:ILP393218 IVL393120:IVL393218 JFH393120:JFH393218 JPD393120:JPD393218 JYZ393120:JYZ393218 KIV393120:KIV393218 KSR393120:KSR393218 LCN393120:LCN393218 LMJ393120:LMJ393218 LWF393120:LWF393218 MGB393120:MGB393218 MPX393120:MPX393218 MZT393120:MZT393218 NJP393120:NJP393218 NTL393120:NTL393218 ODH393120:ODH393218 OND393120:OND393218 OWZ393120:OWZ393218 PGV393120:PGV393218 PQR393120:PQR393218 QAN393120:QAN393218 QKJ393120:QKJ393218 QUF393120:QUF393218 REB393120:REB393218 RNX393120:RNX393218 RXT393120:RXT393218 SHP393120:SHP393218 SRL393120:SRL393218 TBH393120:TBH393218 TLD393120:TLD393218 TUZ393120:TUZ393218 UEV393120:UEV393218 UOR393120:UOR393218 UYN393120:UYN393218 VIJ393120:VIJ393218 VSF393120:VSF393218 WCB393120:WCB393218 WLX393120:WLX393218 WVT393120:WVT393218 L458656:L458754 JH458656:JH458754 TD458656:TD458754 ACZ458656:ACZ458754 AMV458656:AMV458754 AWR458656:AWR458754 BGN458656:BGN458754 BQJ458656:BQJ458754 CAF458656:CAF458754 CKB458656:CKB458754 CTX458656:CTX458754 DDT458656:DDT458754 DNP458656:DNP458754 DXL458656:DXL458754 EHH458656:EHH458754 ERD458656:ERD458754 FAZ458656:FAZ458754 FKV458656:FKV458754 FUR458656:FUR458754 GEN458656:GEN458754 GOJ458656:GOJ458754 GYF458656:GYF458754 HIB458656:HIB458754 HRX458656:HRX458754 IBT458656:IBT458754 ILP458656:ILP458754 IVL458656:IVL458754 JFH458656:JFH458754 JPD458656:JPD458754 JYZ458656:JYZ458754 KIV458656:KIV458754 KSR458656:KSR458754 LCN458656:LCN458754 LMJ458656:LMJ458754 LWF458656:LWF458754 MGB458656:MGB458754 MPX458656:MPX458754 MZT458656:MZT458754 NJP458656:NJP458754 NTL458656:NTL458754 ODH458656:ODH458754 OND458656:OND458754 OWZ458656:OWZ458754 PGV458656:PGV458754 PQR458656:PQR458754 QAN458656:QAN458754 QKJ458656:QKJ458754 QUF458656:QUF458754 REB458656:REB458754 RNX458656:RNX458754 RXT458656:RXT458754 SHP458656:SHP458754 SRL458656:SRL458754 TBH458656:TBH458754 TLD458656:TLD458754 TUZ458656:TUZ458754 UEV458656:UEV458754 UOR458656:UOR458754 UYN458656:UYN458754 VIJ458656:VIJ458754 VSF458656:VSF458754 WCB458656:WCB458754 WLX458656:WLX458754 WVT458656:WVT458754 L524192:L524290 JH524192:JH524290 TD524192:TD524290 ACZ524192:ACZ524290 AMV524192:AMV524290 AWR524192:AWR524290 BGN524192:BGN524290 BQJ524192:BQJ524290 CAF524192:CAF524290 CKB524192:CKB524290 CTX524192:CTX524290 DDT524192:DDT524290 DNP524192:DNP524290 DXL524192:DXL524290 EHH524192:EHH524290 ERD524192:ERD524290 FAZ524192:FAZ524290 FKV524192:FKV524290 FUR524192:FUR524290 GEN524192:GEN524290 GOJ524192:GOJ524290 GYF524192:GYF524290 HIB524192:HIB524290 HRX524192:HRX524290 IBT524192:IBT524290 ILP524192:ILP524290 IVL524192:IVL524290 JFH524192:JFH524290 JPD524192:JPD524290 JYZ524192:JYZ524290 KIV524192:KIV524290 KSR524192:KSR524290 LCN524192:LCN524290 LMJ524192:LMJ524290 LWF524192:LWF524290 MGB524192:MGB524290 MPX524192:MPX524290 MZT524192:MZT524290 NJP524192:NJP524290 NTL524192:NTL524290 ODH524192:ODH524290 OND524192:OND524290 OWZ524192:OWZ524290 PGV524192:PGV524290 PQR524192:PQR524290 QAN524192:QAN524290 QKJ524192:QKJ524290 QUF524192:QUF524290 REB524192:REB524290 RNX524192:RNX524290 RXT524192:RXT524290 SHP524192:SHP524290 SRL524192:SRL524290 TBH524192:TBH524290 TLD524192:TLD524290 TUZ524192:TUZ524290 UEV524192:UEV524290 UOR524192:UOR524290 UYN524192:UYN524290 VIJ524192:VIJ524290 VSF524192:VSF524290 WCB524192:WCB524290 WLX524192:WLX524290 WVT524192:WVT524290 L589728:L589826 JH589728:JH589826 TD589728:TD589826 ACZ589728:ACZ589826 AMV589728:AMV589826 AWR589728:AWR589826 BGN589728:BGN589826 BQJ589728:BQJ589826 CAF589728:CAF589826 CKB589728:CKB589826 CTX589728:CTX589826 DDT589728:DDT589826 DNP589728:DNP589826 DXL589728:DXL589826 EHH589728:EHH589826 ERD589728:ERD589826 FAZ589728:FAZ589826 FKV589728:FKV589826 FUR589728:FUR589826 GEN589728:GEN589826 GOJ589728:GOJ589826 GYF589728:GYF589826 HIB589728:HIB589826 HRX589728:HRX589826 IBT589728:IBT589826 ILP589728:ILP589826 IVL589728:IVL589826 JFH589728:JFH589826 JPD589728:JPD589826 JYZ589728:JYZ589826 KIV589728:KIV589826 KSR589728:KSR589826 LCN589728:LCN589826 LMJ589728:LMJ589826 LWF589728:LWF589826 MGB589728:MGB589826 MPX589728:MPX589826 MZT589728:MZT589826 NJP589728:NJP589826 NTL589728:NTL589826 ODH589728:ODH589826 OND589728:OND589826 OWZ589728:OWZ589826 PGV589728:PGV589826 PQR589728:PQR589826 QAN589728:QAN589826 QKJ589728:QKJ589826 QUF589728:QUF589826 REB589728:REB589826 RNX589728:RNX589826 RXT589728:RXT589826 SHP589728:SHP589826 SRL589728:SRL589826 TBH589728:TBH589826 TLD589728:TLD589826 TUZ589728:TUZ589826 UEV589728:UEV589826 UOR589728:UOR589826 UYN589728:UYN589826 VIJ589728:VIJ589826 VSF589728:VSF589826 WCB589728:WCB589826 WLX589728:WLX589826 WVT589728:WVT589826 L655264:L655362 JH655264:JH655362 TD655264:TD655362 ACZ655264:ACZ655362 AMV655264:AMV655362 AWR655264:AWR655362 BGN655264:BGN655362 BQJ655264:BQJ655362 CAF655264:CAF655362 CKB655264:CKB655362 CTX655264:CTX655362 DDT655264:DDT655362 DNP655264:DNP655362 DXL655264:DXL655362 EHH655264:EHH655362 ERD655264:ERD655362 FAZ655264:FAZ655362 FKV655264:FKV655362 FUR655264:FUR655362 GEN655264:GEN655362 GOJ655264:GOJ655362 GYF655264:GYF655362 HIB655264:HIB655362 HRX655264:HRX655362 IBT655264:IBT655362 ILP655264:ILP655362 IVL655264:IVL655362 JFH655264:JFH655362 JPD655264:JPD655362 JYZ655264:JYZ655362 KIV655264:KIV655362 KSR655264:KSR655362 LCN655264:LCN655362 LMJ655264:LMJ655362 LWF655264:LWF655362 MGB655264:MGB655362 MPX655264:MPX655362 MZT655264:MZT655362 NJP655264:NJP655362 NTL655264:NTL655362 ODH655264:ODH655362 OND655264:OND655362 OWZ655264:OWZ655362 PGV655264:PGV655362 PQR655264:PQR655362 QAN655264:QAN655362 QKJ655264:QKJ655362 QUF655264:QUF655362 REB655264:REB655362 RNX655264:RNX655362 RXT655264:RXT655362 SHP655264:SHP655362 SRL655264:SRL655362 TBH655264:TBH655362 TLD655264:TLD655362 TUZ655264:TUZ655362 UEV655264:UEV655362 UOR655264:UOR655362 UYN655264:UYN655362 VIJ655264:VIJ655362 VSF655264:VSF655362 WCB655264:WCB655362 WLX655264:WLX655362 WVT655264:WVT655362 L720800:L720898 JH720800:JH720898 TD720800:TD720898 ACZ720800:ACZ720898 AMV720800:AMV720898 AWR720800:AWR720898 BGN720800:BGN720898 BQJ720800:BQJ720898 CAF720800:CAF720898 CKB720800:CKB720898 CTX720800:CTX720898 DDT720800:DDT720898 DNP720800:DNP720898 DXL720800:DXL720898 EHH720800:EHH720898 ERD720800:ERD720898 FAZ720800:FAZ720898 FKV720800:FKV720898 FUR720800:FUR720898 GEN720800:GEN720898 GOJ720800:GOJ720898 GYF720800:GYF720898 HIB720800:HIB720898 HRX720800:HRX720898 IBT720800:IBT720898 ILP720800:ILP720898 IVL720800:IVL720898 JFH720800:JFH720898 JPD720800:JPD720898 JYZ720800:JYZ720898 KIV720800:KIV720898 KSR720800:KSR720898 LCN720800:LCN720898 LMJ720800:LMJ720898 LWF720800:LWF720898 MGB720800:MGB720898 MPX720800:MPX720898 MZT720800:MZT720898 NJP720800:NJP720898 NTL720800:NTL720898 ODH720800:ODH720898 OND720800:OND720898 OWZ720800:OWZ720898 PGV720800:PGV720898 PQR720800:PQR720898 QAN720800:QAN720898 QKJ720800:QKJ720898 QUF720800:QUF720898 REB720800:REB720898 RNX720800:RNX720898 RXT720800:RXT720898 SHP720800:SHP720898 SRL720800:SRL720898 TBH720800:TBH720898 TLD720800:TLD720898 TUZ720800:TUZ720898 UEV720800:UEV720898 UOR720800:UOR720898 UYN720800:UYN720898 VIJ720800:VIJ720898 VSF720800:VSF720898 WCB720800:WCB720898 WLX720800:WLX720898 WVT720800:WVT720898 L786336:L786434 JH786336:JH786434 TD786336:TD786434 ACZ786336:ACZ786434 AMV786336:AMV786434 AWR786336:AWR786434 BGN786336:BGN786434 BQJ786336:BQJ786434 CAF786336:CAF786434 CKB786336:CKB786434 CTX786336:CTX786434 DDT786336:DDT786434 DNP786336:DNP786434 DXL786336:DXL786434 EHH786336:EHH786434 ERD786336:ERD786434 FAZ786336:FAZ786434 FKV786336:FKV786434 FUR786336:FUR786434 GEN786336:GEN786434 GOJ786336:GOJ786434 GYF786336:GYF786434 HIB786336:HIB786434 HRX786336:HRX786434 IBT786336:IBT786434 ILP786336:ILP786434 IVL786336:IVL786434 JFH786336:JFH786434 JPD786336:JPD786434 JYZ786336:JYZ786434 KIV786336:KIV786434 KSR786336:KSR786434 LCN786336:LCN786434 LMJ786336:LMJ786434 LWF786336:LWF786434 MGB786336:MGB786434 MPX786336:MPX786434 MZT786336:MZT786434 NJP786336:NJP786434 NTL786336:NTL786434 ODH786336:ODH786434 OND786336:OND786434 OWZ786336:OWZ786434 PGV786336:PGV786434 PQR786336:PQR786434 QAN786336:QAN786434 QKJ786336:QKJ786434 QUF786336:QUF786434 REB786336:REB786434 RNX786336:RNX786434 RXT786336:RXT786434 SHP786336:SHP786434 SRL786336:SRL786434 TBH786336:TBH786434 TLD786336:TLD786434 TUZ786336:TUZ786434 UEV786336:UEV786434 UOR786336:UOR786434 UYN786336:UYN786434 VIJ786336:VIJ786434 VSF786336:VSF786434 WCB786336:WCB786434 WLX786336:WLX786434 WVT786336:WVT786434 L851872:L851970 JH851872:JH851970 TD851872:TD851970 ACZ851872:ACZ851970 AMV851872:AMV851970 AWR851872:AWR851970 BGN851872:BGN851970 BQJ851872:BQJ851970 CAF851872:CAF851970 CKB851872:CKB851970 CTX851872:CTX851970 DDT851872:DDT851970 DNP851872:DNP851970 DXL851872:DXL851970 EHH851872:EHH851970 ERD851872:ERD851970 FAZ851872:FAZ851970 FKV851872:FKV851970 FUR851872:FUR851970 GEN851872:GEN851970 GOJ851872:GOJ851970 GYF851872:GYF851970 HIB851872:HIB851970 HRX851872:HRX851970 IBT851872:IBT851970 ILP851872:ILP851970 IVL851872:IVL851970 JFH851872:JFH851970 JPD851872:JPD851970 JYZ851872:JYZ851970 KIV851872:KIV851970 KSR851872:KSR851970 LCN851872:LCN851970 LMJ851872:LMJ851970 LWF851872:LWF851970 MGB851872:MGB851970 MPX851872:MPX851970 MZT851872:MZT851970 NJP851872:NJP851970 NTL851872:NTL851970 ODH851872:ODH851970 OND851872:OND851970 OWZ851872:OWZ851970 PGV851872:PGV851970 PQR851872:PQR851970 QAN851872:QAN851970 QKJ851872:QKJ851970 QUF851872:QUF851970 REB851872:REB851970 RNX851872:RNX851970 RXT851872:RXT851970 SHP851872:SHP851970 SRL851872:SRL851970 TBH851872:TBH851970 TLD851872:TLD851970 TUZ851872:TUZ851970 UEV851872:UEV851970 UOR851872:UOR851970 UYN851872:UYN851970 VIJ851872:VIJ851970 VSF851872:VSF851970 WCB851872:WCB851970 WLX851872:WLX851970 WVT851872:WVT851970 L917408:L917506 JH917408:JH917506 TD917408:TD917506 ACZ917408:ACZ917506 AMV917408:AMV917506 AWR917408:AWR917506 BGN917408:BGN917506 BQJ917408:BQJ917506 CAF917408:CAF917506 CKB917408:CKB917506 CTX917408:CTX917506 DDT917408:DDT917506 DNP917408:DNP917506 DXL917408:DXL917506 EHH917408:EHH917506 ERD917408:ERD917506 FAZ917408:FAZ917506 FKV917408:FKV917506 FUR917408:FUR917506 GEN917408:GEN917506 GOJ917408:GOJ917506 GYF917408:GYF917506 HIB917408:HIB917506 HRX917408:HRX917506 IBT917408:IBT917506 ILP917408:ILP917506 IVL917408:IVL917506 JFH917408:JFH917506 JPD917408:JPD917506 JYZ917408:JYZ917506 KIV917408:KIV917506 KSR917408:KSR917506 LCN917408:LCN917506 LMJ917408:LMJ917506 LWF917408:LWF917506 MGB917408:MGB917506 MPX917408:MPX917506 MZT917408:MZT917506 NJP917408:NJP917506 NTL917408:NTL917506 ODH917408:ODH917506 OND917408:OND917506 OWZ917408:OWZ917506 PGV917408:PGV917506 PQR917408:PQR917506 QAN917408:QAN917506 QKJ917408:QKJ917506 QUF917408:QUF917506 REB917408:REB917506 RNX917408:RNX917506 RXT917408:RXT917506 SHP917408:SHP917506 SRL917408:SRL917506 TBH917408:TBH917506 TLD917408:TLD917506 TUZ917408:TUZ917506 UEV917408:UEV917506 UOR917408:UOR917506 UYN917408:UYN917506 VIJ917408:VIJ917506 VSF917408:VSF917506 WCB917408:WCB917506 WLX917408:WLX917506 WVT917408:WVT917506 L982944:L983042 JH982944:JH983042 TD982944:TD983042 ACZ982944:ACZ983042 AMV982944:AMV983042 AWR982944:AWR983042 BGN982944:BGN983042 BQJ982944:BQJ983042 CAF982944:CAF983042 CKB982944:CKB983042 CTX982944:CTX983042 DDT982944:DDT983042 DNP982944:DNP983042 DXL982944:DXL983042 EHH982944:EHH983042 ERD982944:ERD983042 FAZ982944:FAZ983042 FKV982944:FKV983042 FUR982944:FUR983042 GEN982944:GEN983042 GOJ982944:GOJ983042 GYF982944:GYF983042 HIB982944:HIB983042 HRX982944:HRX983042 IBT982944:IBT983042 ILP982944:ILP983042 IVL982944:IVL983042 JFH982944:JFH983042 JPD982944:JPD983042 JYZ982944:JYZ983042 KIV982944:KIV983042 KSR982944:KSR983042 LCN982944:LCN983042 LMJ982944:LMJ983042 LWF982944:LWF983042 MGB982944:MGB983042 MPX982944:MPX983042 MZT982944:MZT983042 NJP982944:NJP983042 NTL982944:NTL983042 ODH982944:ODH983042 OND982944:OND983042 OWZ982944:OWZ983042 PGV982944:PGV983042 PQR982944:PQR983042 QAN982944:QAN983042 QKJ982944:QKJ983042 QUF982944:QUF983042 REB982944:REB983042 RNX982944:RNX983042 RXT982944:RXT983042 SHP982944:SHP983042 SRL982944:SRL983042 TBH982944:TBH983042 TLD982944:TLD983042 TUZ982944:TUZ983042 UEV982944:UEV983042 UOR982944:UOR983042 UYN982944:UYN983042 VIJ982944:VIJ983042 VSF982944:VSF983042 WCB982944:WCB983042 WLX982944:WLX983042 WVT982944:WVT983042" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 JJ2 TF2 ADB2 AMX2 AWT2 BGP2 BQL2 CAH2 CKD2 CTZ2 DDV2 DNR2 DXN2 EHJ2 ERF2 FBB2 FKX2 FUT2 GEP2 GOL2 GYH2 HID2 HRZ2 IBV2 ILR2 IVN2 JFJ2 JPF2 JZB2 KIX2 KST2 LCP2 LML2 LWH2 MGD2 MPZ2 MZV2 NJR2 NTN2 ODJ2 ONF2 OXB2 PGX2 PQT2 QAP2 QKL2 QUH2 RED2 RNZ2 RXV2 SHR2 SRN2 TBJ2 TLF2 TVB2 UEX2 UOT2 UYP2 VIL2 VSH2 WCD2 WLZ2 WVV2 N65440:N65538 JJ65440:JJ65538 TF65440:TF65538 ADB65440:ADB65538 AMX65440:AMX65538 AWT65440:AWT65538 BGP65440:BGP65538 BQL65440:BQL65538 CAH65440:CAH65538 CKD65440:CKD65538 CTZ65440:CTZ65538 DDV65440:DDV65538 DNR65440:DNR65538 DXN65440:DXN65538 EHJ65440:EHJ65538 ERF65440:ERF65538 FBB65440:FBB65538 FKX65440:FKX65538 FUT65440:FUT65538 GEP65440:GEP65538 GOL65440:GOL65538 GYH65440:GYH65538 HID65440:HID65538 HRZ65440:HRZ65538 IBV65440:IBV65538 ILR65440:ILR65538 IVN65440:IVN65538 JFJ65440:JFJ65538 JPF65440:JPF65538 JZB65440:JZB65538 KIX65440:KIX65538 KST65440:KST65538 LCP65440:LCP65538 LML65440:LML65538 LWH65440:LWH65538 MGD65440:MGD65538 MPZ65440:MPZ65538 MZV65440:MZV65538 NJR65440:NJR65538 NTN65440:NTN65538 ODJ65440:ODJ65538 ONF65440:ONF65538 OXB65440:OXB65538 PGX65440:PGX65538 PQT65440:PQT65538 QAP65440:QAP65538 QKL65440:QKL65538 QUH65440:QUH65538 RED65440:RED65538 RNZ65440:RNZ65538 RXV65440:RXV65538 SHR65440:SHR65538 SRN65440:SRN65538 TBJ65440:TBJ65538 TLF65440:TLF65538 TVB65440:TVB65538 UEX65440:UEX65538 UOT65440:UOT65538 UYP65440:UYP65538 VIL65440:VIL65538 VSH65440:VSH65538 WCD65440:WCD65538 WLZ65440:WLZ65538 WVV65440:WVV65538 N130976:N131074 JJ130976:JJ131074 TF130976:TF131074 ADB130976:ADB131074 AMX130976:AMX131074 AWT130976:AWT131074 BGP130976:BGP131074 BQL130976:BQL131074 CAH130976:CAH131074 CKD130976:CKD131074 CTZ130976:CTZ131074 DDV130976:DDV131074 DNR130976:DNR131074 DXN130976:DXN131074 EHJ130976:EHJ131074 ERF130976:ERF131074 FBB130976:FBB131074 FKX130976:FKX131074 FUT130976:FUT131074 GEP130976:GEP131074 GOL130976:GOL131074 GYH130976:GYH131074 HID130976:HID131074 HRZ130976:HRZ131074 IBV130976:IBV131074 ILR130976:ILR131074 IVN130976:IVN131074 JFJ130976:JFJ131074 JPF130976:JPF131074 JZB130976:JZB131074 KIX130976:KIX131074 KST130976:KST131074 LCP130976:LCP131074 LML130976:LML131074 LWH130976:LWH131074 MGD130976:MGD131074 MPZ130976:MPZ131074 MZV130976:MZV131074 NJR130976:NJR131074 NTN130976:NTN131074 ODJ130976:ODJ131074 ONF130976:ONF131074 OXB130976:OXB131074 PGX130976:PGX131074 PQT130976:PQT131074 QAP130976:QAP131074 QKL130976:QKL131074 QUH130976:QUH131074 RED130976:RED131074 RNZ130976:RNZ131074 RXV130976:RXV131074 SHR130976:SHR131074 SRN130976:SRN131074 TBJ130976:TBJ131074 TLF130976:TLF131074 TVB130976:TVB131074 UEX130976:UEX131074 UOT130976:UOT131074 UYP130976:UYP131074 VIL130976:VIL131074 VSH130976:VSH131074 WCD130976:WCD131074 WLZ130976:WLZ131074 WVV130976:WVV131074 N196512:N196610 JJ196512:JJ196610 TF196512:TF196610 ADB196512:ADB196610 AMX196512:AMX196610 AWT196512:AWT196610 BGP196512:BGP196610 BQL196512:BQL196610 CAH196512:CAH196610 CKD196512:CKD196610 CTZ196512:CTZ196610 DDV196512:DDV196610 DNR196512:DNR196610 DXN196512:DXN196610 EHJ196512:EHJ196610 ERF196512:ERF196610 FBB196512:FBB196610 FKX196512:FKX196610 FUT196512:FUT196610 GEP196512:GEP196610 GOL196512:GOL196610 GYH196512:GYH196610 HID196512:HID196610 HRZ196512:HRZ196610 IBV196512:IBV196610 ILR196512:ILR196610 IVN196512:IVN196610 JFJ196512:JFJ196610 JPF196512:JPF196610 JZB196512:JZB196610 KIX196512:KIX196610 KST196512:KST196610 LCP196512:LCP196610 LML196512:LML196610 LWH196512:LWH196610 MGD196512:MGD196610 MPZ196512:MPZ196610 MZV196512:MZV196610 NJR196512:NJR196610 NTN196512:NTN196610 ODJ196512:ODJ196610 ONF196512:ONF196610 OXB196512:OXB196610 PGX196512:PGX196610 PQT196512:PQT196610 QAP196512:QAP196610 QKL196512:QKL196610 QUH196512:QUH196610 RED196512:RED196610 RNZ196512:RNZ196610 RXV196512:RXV196610 SHR196512:SHR196610 SRN196512:SRN196610 TBJ196512:TBJ196610 TLF196512:TLF196610 TVB196512:TVB196610 UEX196512:UEX196610 UOT196512:UOT196610 UYP196512:UYP196610 VIL196512:VIL196610 VSH196512:VSH196610 WCD196512:WCD196610 WLZ196512:WLZ196610 WVV196512:WVV196610 N262048:N262146 JJ262048:JJ262146 TF262048:TF262146 ADB262048:ADB262146 AMX262048:AMX262146 AWT262048:AWT262146 BGP262048:BGP262146 BQL262048:BQL262146 CAH262048:CAH262146 CKD262048:CKD262146 CTZ262048:CTZ262146 DDV262048:DDV262146 DNR262048:DNR262146 DXN262048:DXN262146 EHJ262048:EHJ262146 ERF262048:ERF262146 FBB262048:FBB262146 FKX262048:FKX262146 FUT262048:FUT262146 GEP262048:GEP262146 GOL262048:GOL262146 GYH262048:GYH262146 HID262048:HID262146 HRZ262048:HRZ262146 IBV262048:IBV262146 ILR262048:ILR262146 IVN262048:IVN262146 JFJ262048:JFJ262146 JPF262048:JPF262146 JZB262048:JZB262146 KIX262048:KIX262146 KST262048:KST262146 LCP262048:LCP262146 LML262048:LML262146 LWH262048:LWH262146 MGD262048:MGD262146 MPZ262048:MPZ262146 MZV262048:MZV262146 NJR262048:NJR262146 NTN262048:NTN262146 ODJ262048:ODJ262146 ONF262048:ONF262146 OXB262048:OXB262146 PGX262048:PGX262146 PQT262048:PQT262146 QAP262048:QAP262146 QKL262048:QKL262146 QUH262048:QUH262146 RED262048:RED262146 RNZ262048:RNZ262146 RXV262048:RXV262146 SHR262048:SHR262146 SRN262048:SRN262146 TBJ262048:TBJ262146 TLF262048:TLF262146 TVB262048:TVB262146 UEX262048:UEX262146 UOT262048:UOT262146 UYP262048:UYP262146 VIL262048:VIL262146 VSH262048:VSH262146 WCD262048:WCD262146 WLZ262048:WLZ262146 WVV262048:WVV262146 N327584:N327682 JJ327584:JJ327682 TF327584:TF327682 ADB327584:ADB327682 AMX327584:AMX327682 AWT327584:AWT327682 BGP327584:BGP327682 BQL327584:BQL327682 CAH327584:CAH327682 CKD327584:CKD327682 CTZ327584:CTZ327682 DDV327584:DDV327682 DNR327584:DNR327682 DXN327584:DXN327682 EHJ327584:EHJ327682 ERF327584:ERF327682 FBB327584:FBB327682 FKX327584:FKX327682 FUT327584:FUT327682 GEP327584:GEP327682 GOL327584:GOL327682 GYH327584:GYH327682 HID327584:HID327682 HRZ327584:HRZ327682 IBV327584:IBV327682 ILR327584:ILR327682 IVN327584:IVN327682 JFJ327584:JFJ327682 JPF327584:JPF327682 JZB327584:JZB327682 KIX327584:KIX327682 KST327584:KST327682 LCP327584:LCP327682 LML327584:LML327682 LWH327584:LWH327682 MGD327584:MGD327682 MPZ327584:MPZ327682 MZV327584:MZV327682 NJR327584:NJR327682 NTN327584:NTN327682 ODJ327584:ODJ327682 ONF327584:ONF327682 OXB327584:OXB327682 PGX327584:PGX327682 PQT327584:PQT327682 QAP327584:QAP327682 QKL327584:QKL327682 QUH327584:QUH327682 RED327584:RED327682 RNZ327584:RNZ327682 RXV327584:RXV327682 SHR327584:SHR327682 SRN327584:SRN327682 TBJ327584:TBJ327682 TLF327584:TLF327682 TVB327584:TVB327682 UEX327584:UEX327682 UOT327584:UOT327682 UYP327584:UYP327682 VIL327584:VIL327682 VSH327584:VSH327682 WCD327584:WCD327682 WLZ327584:WLZ327682 WVV327584:WVV327682 N393120:N393218 JJ393120:JJ393218 TF393120:TF393218 ADB393120:ADB393218 AMX393120:AMX393218 AWT393120:AWT393218 BGP393120:BGP393218 BQL393120:BQL393218 CAH393120:CAH393218 CKD393120:CKD393218 CTZ393120:CTZ393218 DDV393120:DDV393218 DNR393120:DNR393218 DXN393120:DXN393218 EHJ393120:EHJ393218 ERF393120:ERF393218 FBB393120:FBB393218 FKX393120:FKX393218 FUT393120:FUT393218 GEP393120:GEP393218 GOL393120:GOL393218 GYH393120:GYH393218 HID393120:HID393218 HRZ393120:HRZ393218 IBV393120:IBV393218 ILR393120:ILR393218 IVN393120:IVN393218 JFJ393120:JFJ393218 JPF393120:JPF393218 JZB393120:JZB393218 KIX393120:KIX393218 KST393120:KST393218 LCP393120:LCP393218 LML393120:LML393218 LWH393120:LWH393218 MGD393120:MGD393218 MPZ393120:MPZ393218 MZV393120:MZV393218 NJR393120:NJR393218 NTN393120:NTN393218 ODJ393120:ODJ393218 ONF393120:ONF393218 OXB393120:OXB393218 PGX393120:PGX393218 PQT393120:PQT393218 QAP393120:QAP393218 QKL393120:QKL393218 QUH393120:QUH393218 RED393120:RED393218 RNZ393120:RNZ393218 RXV393120:RXV393218 SHR393120:SHR393218 SRN393120:SRN393218 TBJ393120:TBJ393218 TLF393120:TLF393218 TVB393120:TVB393218 UEX393120:UEX393218 UOT393120:UOT393218 UYP393120:UYP393218 VIL393120:VIL393218 VSH393120:VSH393218 WCD393120:WCD393218 WLZ393120:WLZ393218 WVV393120:WVV393218 N458656:N458754 JJ458656:JJ458754 TF458656:TF458754 ADB458656:ADB458754 AMX458656:AMX458754 AWT458656:AWT458754 BGP458656:BGP458754 BQL458656:BQL458754 CAH458656:CAH458754 CKD458656:CKD458754 CTZ458656:CTZ458754 DDV458656:DDV458754 DNR458656:DNR458754 DXN458656:DXN458754 EHJ458656:EHJ458754 ERF458656:ERF458754 FBB458656:FBB458754 FKX458656:FKX458754 FUT458656:FUT458754 GEP458656:GEP458754 GOL458656:GOL458754 GYH458656:GYH458754 HID458656:HID458754 HRZ458656:HRZ458754 IBV458656:IBV458754 ILR458656:ILR458754 IVN458656:IVN458754 JFJ458656:JFJ458754 JPF458656:JPF458754 JZB458656:JZB458754 KIX458656:KIX458754 KST458656:KST458754 LCP458656:LCP458754 LML458656:LML458754 LWH458656:LWH458754 MGD458656:MGD458754 MPZ458656:MPZ458754 MZV458656:MZV458754 NJR458656:NJR458754 NTN458656:NTN458754 ODJ458656:ODJ458754 ONF458656:ONF458754 OXB458656:OXB458754 PGX458656:PGX458754 PQT458656:PQT458754 QAP458656:QAP458754 QKL458656:QKL458754 QUH458656:QUH458754 RED458656:RED458754 RNZ458656:RNZ458754 RXV458656:RXV458754 SHR458656:SHR458754 SRN458656:SRN458754 TBJ458656:TBJ458754 TLF458656:TLF458754 TVB458656:TVB458754 UEX458656:UEX458754 UOT458656:UOT458754 UYP458656:UYP458754 VIL458656:VIL458754 VSH458656:VSH458754 WCD458656:WCD458754 WLZ458656:WLZ458754 WVV458656:WVV458754 N524192:N524290 JJ524192:JJ524290 TF524192:TF524290 ADB524192:ADB524290 AMX524192:AMX524290 AWT524192:AWT524290 BGP524192:BGP524290 BQL524192:BQL524290 CAH524192:CAH524290 CKD524192:CKD524290 CTZ524192:CTZ524290 DDV524192:DDV524290 DNR524192:DNR524290 DXN524192:DXN524290 EHJ524192:EHJ524290 ERF524192:ERF524290 FBB524192:FBB524290 FKX524192:FKX524290 FUT524192:FUT524290 GEP524192:GEP524290 GOL524192:GOL524290 GYH524192:GYH524290 HID524192:HID524290 HRZ524192:HRZ524290 IBV524192:IBV524290 ILR524192:ILR524290 IVN524192:IVN524290 JFJ524192:JFJ524290 JPF524192:JPF524290 JZB524192:JZB524290 KIX524192:KIX524290 KST524192:KST524290 LCP524192:LCP524290 LML524192:LML524290 LWH524192:LWH524290 MGD524192:MGD524290 MPZ524192:MPZ524290 MZV524192:MZV524290 NJR524192:NJR524290 NTN524192:NTN524290 ODJ524192:ODJ524290 ONF524192:ONF524290 OXB524192:OXB524290 PGX524192:PGX524290 PQT524192:PQT524290 QAP524192:QAP524290 QKL524192:QKL524290 QUH524192:QUH524290 RED524192:RED524290 RNZ524192:RNZ524290 RXV524192:RXV524290 SHR524192:SHR524290 SRN524192:SRN524290 TBJ524192:TBJ524290 TLF524192:TLF524290 TVB524192:TVB524290 UEX524192:UEX524290 UOT524192:UOT524290 UYP524192:UYP524290 VIL524192:VIL524290 VSH524192:VSH524290 WCD524192:WCD524290 WLZ524192:WLZ524290 WVV524192:WVV524290 N589728:N589826 JJ589728:JJ589826 TF589728:TF589826 ADB589728:ADB589826 AMX589728:AMX589826 AWT589728:AWT589826 BGP589728:BGP589826 BQL589728:BQL589826 CAH589728:CAH589826 CKD589728:CKD589826 CTZ589728:CTZ589826 DDV589728:DDV589826 DNR589728:DNR589826 DXN589728:DXN589826 EHJ589728:EHJ589826 ERF589728:ERF589826 FBB589728:FBB589826 FKX589728:FKX589826 FUT589728:FUT589826 GEP589728:GEP589826 GOL589728:GOL589826 GYH589728:GYH589826 HID589728:HID589826 HRZ589728:HRZ589826 IBV589728:IBV589826 ILR589728:ILR589826 IVN589728:IVN589826 JFJ589728:JFJ589826 JPF589728:JPF589826 JZB589728:JZB589826 KIX589728:KIX589826 KST589728:KST589826 LCP589728:LCP589826 LML589728:LML589826 LWH589728:LWH589826 MGD589728:MGD589826 MPZ589728:MPZ589826 MZV589728:MZV589826 NJR589728:NJR589826 NTN589728:NTN589826 ODJ589728:ODJ589826 ONF589728:ONF589826 OXB589728:OXB589826 PGX589728:PGX589826 PQT589728:PQT589826 QAP589728:QAP589826 QKL589728:QKL589826 QUH589728:QUH589826 RED589728:RED589826 RNZ589728:RNZ589826 RXV589728:RXV589826 SHR589728:SHR589826 SRN589728:SRN589826 TBJ589728:TBJ589826 TLF589728:TLF589826 TVB589728:TVB589826 UEX589728:UEX589826 UOT589728:UOT589826 UYP589728:UYP589826 VIL589728:VIL589826 VSH589728:VSH589826 WCD589728:WCD589826 WLZ589728:WLZ589826 WVV589728:WVV589826 N655264:N655362 JJ655264:JJ655362 TF655264:TF655362 ADB655264:ADB655362 AMX655264:AMX655362 AWT655264:AWT655362 BGP655264:BGP655362 BQL655264:BQL655362 CAH655264:CAH655362 CKD655264:CKD655362 CTZ655264:CTZ655362 DDV655264:DDV655362 DNR655264:DNR655362 DXN655264:DXN655362 EHJ655264:EHJ655362 ERF655264:ERF655362 FBB655264:FBB655362 FKX655264:FKX655362 FUT655264:FUT655362 GEP655264:GEP655362 GOL655264:GOL655362 GYH655264:GYH655362 HID655264:HID655362 HRZ655264:HRZ655362 IBV655264:IBV655362 ILR655264:ILR655362 IVN655264:IVN655362 JFJ655264:JFJ655362 JPF655264:JPF655362 JZB655264:JZB655362 KIX655264:KIX655362 KST655264:KST655362 LCP655264:LCP655362 LML655264:LML655362 LWH655264:LWH655362 MGD655264:MGD655362 MPZ655264:MPZ655362 MZV655264:MZV655362 NJR655264:NJR655362 NTN655264:NTN655362 ODJ655264:ODJ655362 ONF655264:ONF655362 OXB655264:OXB655362 PGX655264:PGX655362 PQT655264:PQT655362 QAP655264:QAP655362 QKL655264:QKL655362 QUH655264:QUH655362 RED655264:RED655362 RNZ655264:RNZ655362 RXV655264:RXV655362 SHR655264:SHR655362 SRN655264:SRN655362 TBJ655264:TBJ655362 TLF655264:TLF655362 TVB655264:TVB655362 UEX655264:UEX655362 UOT655264:UOT655362 UYP655264:UYP655362 VIL655264:VIL655362 VSH655264:VSH655362 WCD655264:WCD655362 WLZ655264:WLZ655362 WVV655264:WVV655362 N720800:N720898 JJ720800:JJ720898 TF720800:TF720898 ADB720800:ADB720898 AMX720800:AMX720898 AWT720800:AWT720898 BGP720800:BGP720898 BQL720800:BQL720898 CAH720800:CAH720898 CKD720800:CKD720898 CTZ720800:CTZ720898 DDV720800:DDV720898 DNR720800:DNR720898 DXN720800:DXN720898 EHJ720800:EHJ720898 ERF720800:ERF720898 FBB720800:FBB720898 FKX720800:FKX720898 FUT720800:FUT720898 GEP720800:GEP720898 GOL720800:GOL720898 GYH720800:GYH720898 HID720800:HID720898 HRZ720800:HRZ720898 IBV720800:IBV720898 ILR720800:ILR720898 IVN720800:IVN720898 JFJ720800:JFJ720898 JPF720800:JPF720898 JZB720800:JZB720898 KIX720800:KIX720898 KST720800:KST720898 LCP720800:LCP720898 LML720800:LML720898 LWH720800:LWH720898 MGD720800:MGD720898 MPZ720800:MPZ720898 MZV720800:MZV720898 NJR720800:NJR720898 NTN720800:NTN720898 ODJ720800:ODJ720898 ONF720800:ONF720898 OXB720800:OXB720898 PGX720800:PGX720898 PQT720800:PQT720898 QAP720800:QAP720898 QKL720800:QKL720898 QUH720800:QUH720898 RED720800:RED720898 RNZ720800:RNZ720898 RXV720800:RXV720898 SHR720800:SHR720898 SRN720800:SRN720898 TBJ720800:TBJ720898 TLF720800:TLF720898 TVB720800:TVB720898 UEX720800:UEX720898 UOT720800:UOT720898 UYP720800:UYP720898 VIL720800:VIL720898 VSH720800:VSH720898 WCD720800:WCD720898 WLZ720800:WLZ720898 WVV720800:WVV720898 N786336:N786434 JJ786336:JJ786434 TF786336:TF786434 ADB786336:ADB786434 AMX786336:AMX786434 AWT786336:AWT786434 BGP786336:BGP786434 BQL786336:BQL786434 CAH786336:CAH786434 CKD786336:CKD786434 CTZ786336:CTZ786434 DDV786336:DDV786434 DNR786336:DNR786434 DXN786336:DXN786434 EHJ786336:EHJ786434 ERF786336:ERF786434 FBB786336:FBB786434 FKX786336:FKX786434 FUT786336:FUT786434 GEP786336:GEP786434 GOL786336:GOL786434 GYH786336:GYH786434 HID786336:HID786434 HRZ786336:HRZ786434 IBV786336:IBV786434 ILR786336:ILR786434 IVN786336:IVN786434 JFJ786336:JFJ786434 JPF786336:JPF786434 JZB786336:JZB786434 KIX786336:KIX786434 KST786336:KST786434 LCP786336:LCP786434 LML786336:LML786434 LWH786336:LWH786434 MGD786336:MGD786434 MPZ786336:MPZ786434 MZV786336:MZV786434 NJR786336:NJR786434 NTN786336:NTN786434 ODJ786336:ODJ786434 ONF786336:ONF786434 OXB786336:OXB786434 PGX786336:PGX786434 PQT786336:PQT786434 QAP786336:QAP786434 QKL786336:QKL786434 QUH786336:QUH786434 RED786336:RED786434 RNZ786336:RNZ786434 RXV786336:RXV786434 SHR786336:SHR786434 SRN786336:SRN786434 TBJ786336:TBJ786434 TLF786336:TLF786434 TVB786336:TVB786434 UEX786336:UEX786434 UOT786336:UOT786434 UYP786336:UYP786434 VIL786336:VIL786434 VSH786336:VSH786434 WCD786336:WCD786434 WLZ786336:WLZ786434 WVV786336:WVV786434 N851872:N851970 JJ851872:JJ851970 TF851872:TF851970 ADB851872:ADB851970 AMX851872:AMX851970 AWT851872:AWT851970 BGP851872:BGP851970 BQL851872:BQL851970 CAH851872:CAH851970 CKD851872:CKD851970 CTZ851872:CTZ851970 DDV851872:DDV851970 DNR851872:DNR851970 DXN851872:DXN851970 EHJ851872:EHJ851970 ERF851872:ERF851970 FBB851872:FBB851970 FKX851872:FKX851970 FUT851872:FUT851970 GEP851872:GEP851970 GOL851872:GOL851970 GYH851872:GYH851970 HID851872:HID851970 HRZ851872:HRZ851970 IBV851872:IBV851970 ILR851872:ILR851970 IVN851872:IVN851970 JFJ851872:JFJ851970 JPF851872:JPF851970 JZB851872:JZB851970 KIX851872:KIX851970 KST851872:KST851970 LCP851872:LCP851970 LML851872:LML851970 LWH851872:LWH851970 MGD851872:MGD851970 MPZ851872:MPZ851970 MZV851872:MZV851970 NJR851872:NJR851970 NTN851872:NTN851970 ODJ851872:ODJ851970 ONF851872:ONF851970 OXB851872:OXB851970 PGX851872:PGX851970 PQT851872:PQT851970 QAP851872:QAP851970 QKL851872:QKL851970 QUH851872:QUH851970 RED851872:RED851970 RNZ851872:RNZ851970 RXV851872:RXV851970 SHR851872:SHR851970 SRN851872:SRN851970 TBJ851872:TBJ851970 TLF851872:TLF851970 TVB851872:TVB851970 UEX851872:UEX851970 UOT851872:UOT851970 UYP851872:UYP851970 VIL851872:VIL851970 VSH851872:VSH851970 WCD851872:WCD851970 WLZ851872:WLZ851970 WVV851872:WVV851970 N917408:N917506 JJ917408:JJ917506 TF917408:TF917506 ADB917408:ADB917506 AMX917408:AMX917506 AWT917408:AWT917506 BGP917408:BGP917506 BQL917408:BQL917506 CAH917408:CAH917506 CKD917408:CKD917506 CTZ917408:CTZ917506 DDV917408:DDV917506 DNR917408:DNR917506 DXN917408:DXN917506 EHJ917408:EHJ917506 ERF917408:ERF917506 FBB917408:FBB917506 FKX917408:FKX917506 FUT917408:FUT917506 GEP917408:GEP917506 GOL917408:GOL917506 GYH917408:GYH917506 HID917408:HID917506 HRZ917408:HRZ917506 IBV917408:IBV917506 ILR917408:ILR917506 IVN917408:IVN917506 JFJ917408:JFJ917506 JPF917408:JPF917506 JZB917408:JZB917506 KIX917408:KIX917506 KST917408:KST917506 LCP917408:LCP917506 LML917408:LML917506 LWH917408:LWH917506 MGD917408:MGD917506 MPZ917408:MPZ917506 MZV917408:MZV917506 NJR917408:NJR917506 NTN917408:NTN917506 ODJ917408:ODJ917506 ONF917408:ONF917506 OXB917408:OXB917506 PGX917408:PGX917506 PQT917408:PQT917506 QAP917408:QAP917506 QKL917408:QKL917506 QUH917408:QUH917506 RED917408:RED917506 RNZ917408:RNZ917506 RXV917408:RXV917506 SHR917408:SHR917506 SRN917408:SRN917506 TBJ917408:TBJ917506 TLF917408:TLF917506 TVB917408:TVB917506 UEX917408:UEX917506 UOT917408:UOT917506 UYP917408:UYP917506 VIL917408:VIL917506 VSH917408:VSH917506 WCD917408:WCD917506 WLZ917408:WLZ917506 WVV917408:WVV917506 N982944:N983042 JJ982944:JJ983042 TF982944:TF983042 ADB982944:ADB983042 AMX982944:AMX983042 AWT982944:AWT983042 BGP982944:BGP983042 BQL982944:BQL983042 CAH982944:CAH983042 CKD982944:CKD983042 CTZ982944:CTZ983042 DDV982944:DDV983042 DNR982944:DNR983042 DXN982944:DXN983042 EHJ982944:EHJ983042 ERF982944:ERF983042 FBB982944:FBB983042 FKX982944:FKX983042 FUT982944:FUT983042 GEP982944:GEP983042 GOL982944:GOL983042 GYH982944:GYH983042 HID982944:HID983042 HRZ982944:HRZ983042 IBV982944:IBV983042 ILR982944:ILR983042 IVN982944:IVN983042 JFJ982944:JFJ983042 JPF982944:JPF983042 JZB982944:JZB983042 KIX982944:KIX983042 KST982944:KST983042 LCP982944:LCP983042 LML982944:LML983042 LWH982944:LWH983042 MGD982944:MGD983042 MPZ982944:MPZ983042 MZV982944:MZV983042 NJR982944:NJR983042 NTN982944:NTN983042 ODJ982944:ODJ983042 ONF982944:ONF983042 OXB982944:OXB983042 PGX982944:PGX983042 PQT982944:PQT983042 QAP982944:QAP983042 QKL982944:QKL983042 QUH982944:QUH983042 RED982944:RED983042 RNZ982944:RNZ983042 RXV982944:RXV983042 SHR982944:SHR983042 SRN982944:SRN983042 TBJ982944:TBJ983042 TLF982944:TLF983042 TVB982944:TVB983042 UEX982944:UEX983042 UOT982944:UOT983042 UYP982944:UYP983042 VIL982944:VIL983042 VSH982944:VSH983042 WCD982944:WCD983042 WLZ982944:WLZ983042 WVV982944:WVV983042" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
       <formula1>0</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 IX2 ST2 ACP2 AML2 AWH2 BGD2 BPZ2 BZV2 CJR2 CTN2 DDJ2 DNF2 DXB2 EGX2 EQT2 FAP2 FKL2 FUH2 GED2 GNZ2 GXV2 HHR2 HRN2 IBJ2 ILF2 IVB2 JEX2 JOT2 JYP2 KIL2 KSH2 LCD2 LLZ2 LVV2 MFR2 MPN2 MZJ2 NJF2 NTB2 OCX2 OMT2 OWP2 PGL2 PQH2 QAD2 QJZ2 QTV2 RDR2 RNN2 RXJ2 SHF2 SRB2 TAX2 TKT2 TUP2 UEL2 UOH2 UYD2 VHZ2 VRV2 WBR2 WLN2 WVJ2 A65440:A65538 IX65440:IX65538 ST65440:ST65538 ACP65440:ACP65538 AML65440:AML65538 AWH65440:AWH65538 BGD65440:BGD65538 BPZ65440:BPZ65538 BZV65440:BZV65538 CJR65440:CJR65538 CTN65440:CTN65538 DDJ65440:DDJ65538 DNF65440:DNF65538 DXB65440:DXB65538 EGX65440:EGX65538 EQT65440:EQT65538 FAP65440:FAP65538 FKL65440:FKL65538 FUH65440:FUH65538 GED65440:GED65538 GNZ65440:GNZ65538 GXV65440:GXV65538 HHR65440:HHR65538 HRN65440:HRN65538 IBJ65440:IBJ65538 ILF65440:ILF65538 IVB65440:IVB65538 JEX65440:JEX65538 JOT65440:JOT65538 JYP65440:JYP65538 KIL65440:KIL65538 KSH65440:KSH65538 LCD65440:LCD65538 LLZ65440:LLZ65538 LVV65440:LVV65538 MFR65440:MFR65538 MPN65440:MPN65538 MZJ65440:MZJ65538 NJF65440:NJF65538 NTB65440:NTB65538 OCX65440:OCX65538 OMT65440:OMT65538 OWP65440:OWP65538 PGL65440:PGL65538 PQH65440:PQH65538 QAD65440:QAD65538 QJZ65440:QJZ65538 QTV65440:QTV65538 RDR65440:RDR65538 RNN65440:RNN65538 RXJ65440:RXJ65538 SHF65440:SHF65538 SRB65440:SRB65538 TAX65440:TAX65538 TKT65440:TKT65538 TUP65440:TUP65538 UEL65440:UEL65538 UOH65440:UOH65538 UYD65440:UYD65538 VHZ65440:VHZ65538 VRV65440:VRV65538 WBR65440:WBR65538 WLN65440:WLN65538 WVJ65440:WVJ65538 A130976:A131074 IX130976:IX131074 ST130976:ST131074 ACP130976:ACP131074 AML130976:AML131074 AWH130976:AWH131074 BGD130976:BGD131074 BPZ130976:BPZ131074 BZV130976:BZV131074 CJR130976:CJR131074 CTN130976:CTN131074 DDJ130976:DDJ131074 DNF130976:DNF131074 DXB130976:DXB131074 EGX130976:EGX131074 EQT130976:EQT131074 FAP130976:FAP131074 FKL130976:FKL131074 FUH130976:FUH131074 GED130976:GED131074 GNZ130976:GNZ131074 GXV130976:GXV131074 HHR130976:HHR131074 HRN130976:HRN131074 IBJ130976:IBJ131074 ILF130976:ILF131074 IVB130976:IVB131074 JEX130976:JEX131074 JOT130976:JOT131074 JYP130976:JYP131074 KIL130976:KIL131074 KSH130976:KSH131074 LCD130976:LCD131074 LLZ130976:LLZ131074 LVV130976:LVV131074 MFR130976:MFR131074 MPN130976:MPN131074 MZJ130976:MZJ131074 NJF130976:NJF131074 NTB130976:NTB131074 OCX130976:OCX131074 OMT130976:OMT131074 OWP130976:OWP131074 PGL130976:PGL131074 PQH130976:PQH131074 QAD130976:QAD131074 QJZ130976:QJZ131074 QTV130976:QTV131074 RDR130976:RDR131074 RNN130976:RNN131074 RXJ130976:RXJ131074 SHF130976:SHF131074 SRB130976:SRB131074 TAX130976:TAX131074 TKT130976:TKT131074 TUP130976:TUP131074 UEL130976:UEL131074 UOH130976:UOH131074 UYD130976:UYD131074 VHZ130976:VHZ131074 VRV130976:VRV131074 WBR130976:WBR131074 WLN130976:WLN131074 WVJ130976:WVJ131074 A196512:A196610 IX196512:IX196610 ST196512:ST196610 ACP196512:ACP196610 AML196512:AML196610 AWH196512:AWH196610 BGD196512:BGD196610 BPZ196512:BPZ196610 BZV196512:BZV196610 CJR196512:CJR196610 CTN196512:CTN196610 DDJ196512:DDJ196610 DNF196512:DNF196610 DXB196512:DXB196610 EGX196512:EGX196610 EQT196512:EQT196610 FAP196512:FAP196610 FKL196512:FKL196610 FUH196512:FUH196610 GED196512:GED196610 GNZ196512:GNZ196610 GXV196512:GXV196610 HHR196512:HHR196610 HRN196512:HRN196610 IBJ196512:IBJ196610 ILF196512:ILF196610 IVB196512:IVB196610 JEX196512:JEX196610 JOT196512:JOT196610 JYP196512:JYP196610 KIL196512:KIL196610 KSH196512:KSH196610 LCD196512:LCD196610 LLZ196512:LLZ196610 LVV196512:LVV196610 MFR196512:MFR196610 MPN196512:MPN196610 MZJ196512:MZJ196610 NJF196512:NJF196610 NTB196512:NTB196610 OCX196512:OCX196610 OMT196512:OMT196610 OWP196512:OWP196610 PGL196512:PGL196610 PQH196512:PQH196610 QAD196512:QAD196610 QJZ196512:QJZ196610 QTV196512:QTV196610 RDR196512:RDR196610 RNN196512:RNN196610 RXJ196512:RXJ196610 SHF196512:SHF196610 SRB196512:SRB196610 TAX196512:TAX196610 TKT196512:TKT196610 TUP196512:TUP196610 UEL196512:UEL196610 UOH196512:UOH196610 UYD196512:UYD196610 VHZ196512:VHZ196610 VRV196512:VRV196610 WBR196512:WBR196610 WLN196512:WLN196610 WVJ196512:WVJ196610 A262048:A262146 IX262048:IX262146 ST262048:ST262146 ACP262048:ACP262146 AML262048:AML262146 AWH262048:AWH262146 BGD262048:BGD262146 BPZ262048:BPZ262146 BZV262048:BZV262146 CJR262048:CJR262146 CTN262048:CTN262146 DDJ262048:DDJ262146 DNF262048:DNF262146 DXB262048:DXB262146 EGX262048:EGX262146 EQT262048:EQT262146 FAP262048:FAP262146 FKL262048:FKL262146 FUH262048:FUH262146 GED262048:GED262146 GNZ262048:GNZ262146 GXV262048:GXV262146 HHR262048:HHR262146 HRN262048:HRN262146 IBJ262048:IBJ262146 ILF262048:ILF262146 IVB262048:IVB262146 JEX262048:JEX262146 JOT262048:JOT262146 JYP262048:JYP262146 KIL262048:KIL262146 KSH262048:KSH262146 LCD262048:LCD262146 LLZ262048:LLZ262146 LVV262048:LVV262146 MFR262048:MFR262146 MPN262048:MPN262146 MZJ262048:MZJ262146 NJF262048:NJF262146 NTB262048:NTB262146 OCX262048:OCX262146 OMT262048:OMT262146 OWP262048:OWP262146 PGL262048:PGL262146 PQH262048:PQH262146 QAD262048:QAD262146 QJZ262048:QJZ262146 QTV262048:QTV262146 RDR262048:RDR262146 RNN262048:RNN262146 RXJ262048:RXJ262146 SHF262048:SHF262146 SRB262048:SRB262146 TAX262048:TAX262146 TKT262048:TKT262146 TUP262048:TUP262146 UEL262048:UEL262146 UOH262048:UOH262146 UYD262048:UYD262146 VHZ262048:VHZ262146 VRV262048:VRV262146 WBR262048:WBR262146 WLN262048:WLN262146 WVJ262048:WVJ262146 A327584:A327682 IX327584:IX327682 ST327584:ST327682 ACP327584:ACP327682 AML327584:AML327682 AWH327584:AWH327682 BGD327584:BGD327682 BPZ327584:BPZ327682 BZV327584:BZV327682 CJR327584:CJR327682 CTN327584:CTN327682 DDJ327584:DDJ327682 DNF327584:DNF327682 DXB327584:DXB327682 EGX327584:EGX327682 EQT327584:EQT327682 FAP327584:FAP327682 FKL327584:FKL327682 FUH327584:FUH327682 GED327584:GED327682 GNZ327584:GNZ327682 GXV327584:GXV327682 HHR327584:HHR327682 HRN327584:HRN327682 IBJ327584:IBJ327682 ILF327584:ILF327682 IVB327584:IVB327682 JEX327584:JEX327682 JOT327584:JOT327682 JYP327584:JYP327682 KIL327584:KIL327682 KSH327584:KSH327682 LCD327584:LCD327682 LLZ327584:LLZ327682 LVV327584:LVV327682 MFR327584:MFR327682 MPN327584:MPN327682 MZJ327584:MZJ327682 NJF327584:NJF327682 NTB327584:NTB327682 OCX327584:OCX327682 OMT327584:OMT327682 OWP327584:OWP327682 PGL327584:PGL327682 PQH327584:PQH327682 QAD327584:QAD327682 QJZ327584:QJZ327682 QTV327584:QTV327682 RDR327584:RDR327682 RNN327584:RNN327682 RXJ327584:RXJ327682 SHF327584:SHF327682 SRB327584:SRB327682 TAX327584:TAX327682 TKT327584:TKT327682 TUP327584:TUP327682 UEL327584:UEL327682 UOH327584:UOH327682 UYD327584:UYD327682 VHZ327584:VHZ327682 VRV327584:VRV327682 WBR327584:WBR327682 WLN327584:WLN327682 WVJ327584:WVJ327682 A393120:A393218 IX393120:IX393218 ST393120:ST393218 ACP393120:ACP393218 AML393120:AML393218 AWH393120:AWH393218 BGD393120:BGD393218 BPZ393120:BPZ393218 BZV393120:BZV393218 CJR393120:CJR393218 CTN393120:CTN393218 DDJ393120:DDJ393218 DNF393120:DNF393218 DXB393120:DXB393218 EGX393120:EGX393218 EQT393120:EQT393218 FAP393120:FAP393218 FKL393120:FKL393218 FUH393120:FUH393218 GED393120:GED393218 GNZ393120:GNZ393218 GXV393120:GXV393218 HHR393120:HHR393218 HRN393120:HRN393218 IBJ393120:IBJ393218 ILF393120:ILF393218 IVB393120:IVB393218 JEX393120:JEX393218 JOT393120:JOT393218 JYP393120:JYP393218 KIL393120:KIL393218 KSH393120:KSH393218 LCD393120:LCD393218 LLZ393120:LLZ393218 LVV393120:LVV393218 MFR393120:MFR393218 MPN393120:MPN393218 MZJ393120:MZJ393218 NJF393120:NJF393218 NTB393120:NTB393218 OCX393120:OCX393218 OMT393120:OMT393218 OWP393120:OWP393218 PGL393120:PGL393218 PQH393120:PQH393218 QAD393120:QAD393218 QJZ393120:QJZ393218 QTV393120:QTV393218 RDR393120:RDR393218 RNN393120:RNN393218 RXJ393120:RXJ393218 SHF393120:SHF393218 SRB393120:SRB393218 TAX393120:TAX393218 TKT393120:TKT393218 TUP393120:TUP393218 UEL393120:UEL393218 UOH393120:UOH393218 UYD393120:UYD393218 VHZ393120:VHZ393218 VRV393120:VRV393218 WBR393120:WBR393218 WLN393120:WLN393218 WVJ393120:WVJ393218 A458656:A458754 IX458656:IX458754 ST458656:ST458754 ACP458656:ACP458754 AML458656:AML458754 AWH458656:AWH458754 BGD458656:BGD458754 BPZ458656:BPZ458754 BZV458656:BZV458754 CJR458656:CJR458754 CTN458656:CTN458754 DDJ458656:DDJ458754 DNF458656:DNF458754 DXB458656:DXB458754 EGX458656:EGX458754 EQT458656:EQT458754 FAP458656:FAP458754 FKL458656:FKL458754 FUH458656:FUH458754 GED458656:GED458754 GNZ458656:GNZ458754 GXV458656:GXV458754 HHR458656:HHR458754 HRN458656:HRN458754 IBJ458656:IBJ458754 ILF458656:ILF458754 IVB458656:IVB458754 JEX458656:JEX458754 JOT458656:JOT458754 JYP458656:JYP458754 KIL458656:KIL458754 KSH458656:KSH458754 LCD458656:LCD458754 LLZ458656:LLZ458754 LVV458656:LVV458754 MFR458656:MFR458754 MPN458656:MPN458754 MZJ458656:MZJ458754 NJF458656:NJF458754 NTB458656:NTB458754 OCX458656:OCX458754 OMT458656:OMT458754 OWP458656:OWP458754 PGL458656:PGL458754 PQH458656:PQH458754 QAD458656:QAD458754 QJZ458656:QJZ458754 QTV458656:QTV458754 RDR458656:RDR458754 RNN458656:RNN458754 RXJ458656:RXJ458754 SHF458656:SHF458754 SRB458656:SRB458754 TAX458656:TAX458754 TKT458656:TKT458754 TUP458656:TUP458754 UEL458656:UEL458754 UOH458656:UOH458754 UYD458656:UYD458754 VHZ458656:VHZ458754 VRV458656:VRV458754 WBR458656:WBR458754 WLN458656:WLN458754 WVJ458656:WVJ458754 A524192:A524290 IX524192:IX524290 ST524192:ST524290 ACP524192:ACP524290 AML524192:AML524290 AWH524192:AWH524290 BGD524192:BGD524290 BPZ524192:BPZ524290 BZV524192:BZV524290 CJR524192:CJR524290 CTN524192:CTN524290 DDJ524192:DDJ524290 DNF524192:DNF524290 DXB524192:DXB524290 EGX524192:EGX524290 EQT524192:EQT524290 FAP524192:FAP524290 FKL524192:FKL524290 FUH524192:FUH524290 GED524192:GED524290 GNZ524192:GNZ524290 GXV524192:GXV524290 HHR524192:HHR524290 HRN524192:HRN524290 IBJ524192:IBJ524290 ILF524192:ILF524290 IVB524192:IVB524290 JEX524192:JEX524290 JOT524192:JOT524290 JYP524192:JYP524290 KIL524192:KIL524290 KSH524192:KSH524290 LCD524192:LCD524290 LLZ524192:LLZ524290 LVV524192:LVV524290 MFR524192:MFR524290 MPN524192:MPN524290 MZJ524192:MZJ524290 NJF524192:NJF524290 NTB524192:NTB524290 OCX524192:OCX524290 OMT524192:OMT524290 OWP524192:OWP524290 PGL524192:PGL524290 PQH524192:PQH524290 QAD524192:QAD524290 QJZ524192:QJZ524290 QTV524192:QTV524290 RDR524192:RDR524290 RNN524192:RNN524290 RXJ524192:RXJ524290 SHF524192:SHF524290 SRB524192:SRB524290 TAX524192:TAX524290 TKT524192:TKT524290 TUP524192:TUP524290 UEL524192:UEL524290 UOH524192:UOH524290 UYD524192:UYD524290 VHZ524192:VHZ524290 VRV524192:VRV524290 WBR524192:WBR524290 WLN524192:WLN524290 WVJ524192:WVJ524290 A589728:A589826 IX589728:IX589826 ST589728:ST589826 ACP589728:ACP589826 AML589728:AML589826 AWH589728:AWH589826 BGD589728:BGD589826 BPZ589728:BPZ589826 BZV589728:BZV589826 CJR589728:CJR589826 CTN589728:CTN589826 DDJ589728:DDJ589826 DNF589728:DNF589826 DXB589728:DXB589826 EGX589728:EGX589826 EQT589728:EQT589826 FAP589728:FAP589826 FKL589728:FKL589826 FUH589728:FUH589826 GED589728:GED589826 GNZ589728:GNZ589826 GXV589728:GXV589826 HHR589728:HHR589826 HRN589728:HRN589826 IBJ589728:IBJ589826 ILF589728:ILF589826 IVB589728:IVB589826 JEX589728:JEX589826 JOT589728:JOT589826 JYP589728:JYP589826 KIL589728:KIL589826 KSH589728:KSH589826 LCD589728:LCD589826 LLZ589728:LLZ589826 LVV589728:LVV589826 MFR589728:MFR589826 MPN589728:MPN589826 MZJ589728:MZJ589826 NJF589728:NJF589826 NTB589728:NTB589826 OCX589728:OCX589826 OMT589728:OMT589826 OWP589728:OWP589826 PGL589728:PGL589826 PQH589728:PQH589826 QAD589728:QAD589826 QJZ589728:QJZ589826 QTV589728:QTV589826 RDR589728:RDR589826 RNN589728:RNN589826 RXJ589728:RXJ589826 SHF589728:SHF589826 SRB589728:SRB589826 TAX589728:TAX589826 TKT589728:TKT589826 TUP589728:TUP589826 UEL589728:UEL589826 UOH589728:UOH589826 UYD589728:UYD589826 VHZ589728:VHZ589826 VRV589728:VRV589826 WBR589728:WBR589826 WLN589728:WLN589826 WVJ589728:WVJ589826 A655264:A655362 IX655264:IX655362 ST655264:ST655362 ACP655264:ACP655362 AML655264:AML655362 AWH655264:AWH655362 BGD655264:BGD655362 BPZ655264:BPZ655362 BZV655264:BZV655362 CJR655264:CJR655362 CTN655264:CTN655362 DDJ655264:DDJ655362 DNF655264:DNF655362 DXB655264:DXB655362 EGX655264:EGX655362 EQT655264:EQT655362 FAP655264:FAP655362 FKL655264:FKL655362 FUH655264:FUH655362 GED655264:GED655362 GNZ655264:GNZ655362 GXV655264:GXV655362 HHR655264:HHR655362 HRN655264:HRN655362 IBJ655264:IBJ655362 ILF655264:ILF655362 IVB655264:IVB655362 JEX655264:JEX655362 JOT655264:JOT655362 JYP655264:JYP655362 KIL655264:KIL655362 KSH655264:KSH655362 LCD655264:LCD655362 LLZ655264:LLZ655362 LVV655264:LVV655362 MFR655264:MFR655362 MPN655264:MPN655362 MZJ655264:MZJ655362 NJF655264:NJF655362 NTB655264:NTB655362 OCX655264:OCX655362 OMT655264:OMT655362 OWP655264:OWP655362 PGL655264:PGL655362 PQH655264:PQH655362 QAD655264:QAD655362 QJZ655264:QJZ655362 QTV655264:QTV655362 RDR655264:RDR655362 RNN655264:RNN655362 RXJ655264:RXJ655362 SHF655264:SHF655362 SRB655264:SRB655362 TAX655264:TAX655362 TKT655264:TKT655362 TUP655264:TUP655362 UEL655264:UEL655362 UOH655264:UOH655362 UYD655264:UYD655362 VHZ655264:VHZ655362 VRV655264:VRV655362 WBR655264:WBR655362 WLN655264:WLN655362 WVJ655264:WVJ655362 A720800:A720898 IX720800:IX720898 ST720800:ST720898 ACP720800:ACP720898 AML720800:AML720898 AWH720800:AWH720898 BGD720800:BGD720898 BPZ720800:BPZ720898 BZV720800:BZV720898 CJR720800:CJR720898 CTN720800:CTN720898 DDJ720800:DDJ720898 DNF720800:DNF720898 DXB720800:DXB720898 EGX720800:EGX720898 EQT720800:EQT720898 FAP720800:FAP720898 FKL720800:FKL720898 FUH720800:FUH720898 GED720800:GED720898 GNZ720800:GNZ720898 GXV720800:GXV720898 HHR720800:HHR720898 HRN720800:HRN720898 IBJ720800:IBJ720898 ILF720800:ILF720898 IVB720800:IVB720898 JEX720800:JEX720898 JOT720800:JOT720898 JYP720800:JYP720898 KIL720800:KIL720898 KSH720800:KSH720898 LCD720800:LCD720898 LLZ720800:LLZ720898 LVV720800:LVV720898 MFR720800:MFR720898 MPN720800:MPN720898 MZJ720800:MZJ720898 NJF720800:NJF720898 NTB720800:NTB720898 OCX720800:OCX720898 OMT720800:OMT720898 OWP720800:OWP720898 PGL720800:PGL720898 PQH720800:PQH720898 QAD720800:QAD720898 QJZ720800:QJZ720898 QTV720800:QTV720898 RDR720800:RDR720898 RNN720800:RNN720898 RXJ720800:RXJ720898 SHF720800:SHF720898 SRB720800:SRB720898 TAX720800:TAX720898 TKT720800:TKT720898 TUP720800:TUP720898 UEL720800:UEL720898 UOH720800:UOH720898 UYD720800:UYD720898 VHZ720800:VHZ720898 VRV720800:VRV720898 WBR720800:WBR720898 WLN720800:WLN720898 WVJ720800:WVJ720898 A786336:A786434 IX786336:IX786434 ST786336:ST786434 ACP786336:ACP786434 AML786336:AML786434 AWH786336:AWH786434 BGD786336:BGD786434 BPZ786336:BPZ786434 BZV786336:BZV786434 CJR786336:CJR786434 CTN786336:CTN786434 DDJ786336:DDJ786434 DNF786336:DNF786434 DXB786336:DXB786434 EGX786336:EGX786434 EQT786336:EQT786434 FAP786336:FAP786434 FKL786336:FKL786434 FUH786336:FUH786434 GED786336:GED786434 GNZ786336:GNZ786434 GXV786336:GXV786434 HHR786336:HHR786434 HRN786336:HRN786434 IBJ786336:IBJ786434 ILF786336:ILF786434 IVB786336:IVB786434 JEX786336:JEX786434 JOT786336:JOT786434 JYP786336:JYP786434 KIL786336:KIL786434 KSH786336:KSH786434 LCD786336:LCD786434 LLZ786336:LLZ786434 LVV786336:LVV786434 MFR786336:MFR786434 MPN786336:MPN786434 MZJ786336:MZJ786434 NJF786336:NJF786434 NTB786336:NTB786434 OCX786336:OCX786434 OMT786336:OMT786434 OWP786336:OWP786434 PGL786336:PGL786434 PQH786336:PQH786434 QAD786336:QAD786434 QJZ786336:QJZ786434 QTV786336:QTV786434 RDR786336:RDR786434 RNN786336:RNN786434 RXJ786336:RXJ786434 SHF786336:SHF786434 SRB786336:SRB786434 TAX786336:TAX786434 TKT786336:TKT786434 TUP786336:TUP786434 UEL786336:UEL786434 UOH786336:UOH786434 UYD786336:UYD786434 VHZ786336:VHZ786434 VRV786336:VRV786434 WBR786336:WBR786434 WLN786336:WLN786434 WVJ786336:WVJ786434 A851872:A851970 IX851872:IX851970 ST851872:ST851970 ACP851872:ACP851970 AML851872:AML851970 AWH851872:AWH851970 BGD851872:BGD851970 BPZ851872:BPZ851970 BZV851872:BZV851970 CJR851872:CJR851970 CTN851872:CTN851970 DDJ851872:DDJ851970 DNF851872:DNF851970 DXB851872:DXB851970 EGX851872:EGX851970 EQT851872:EQT851970 FAP851872:FAP851970 FKL851872:FKL851970 FUH851872:FUH851970 GED851872:GED851970 GNZ851872:GNZ851970 GXV851872:GXV851970 HHR851872:HHR851970 HRN851872:HRN851970 IBJ851872:IBJ851970 ILF851872:ILF851970 IVB851872:IVB851970 JEX851872:JEX851970 JOT851872:JOT851970 JYP851872:JYP851970 KIL851872:KIL851970 KSH851872:KSH851970 LCD851872:LCD851970 LLZ851872:LLZ851970 LVV851872:LVV851970 MFR851872:MFR851970 MPN851872:MPN851970 MZJ851872:MZJ851970 NJF851872:NJF851970 NTB851872:NTB851970 OCX851872:OCX851970 OMT851872:OMT851970 OWP851872:OWP851970 PGL851872:PGL851970 PQH851872:PQH851970 QAD851872:QAD851970 QJZ851872:QJZ851970 QTV851872:QTV851970 RDR851872:RDR851970 RNN851872:RNN851970 RXJ851872:RXJ851970 SHF851872:SHF851970 SRB851872:SRB851970 TAX851872:TAX851970 TKT851872:TKT851970 TUP851872:TUP851970 UEL851872:UEL851970 UOH851872:UOH851970 UYD851872:UYD851970 VHZ851872:VHZ851970 VRV851872:VRV851970 WBR851872:WBR851970 WLN851872:WLN851970 WVJ851872:WVJ851970 A917408:A917506 IX917408:IX917506 ST917408:ST917506 ACP917408:ACP917506 AML917408:AML917506 AWH917408:AWH917506 BGD917408:BGD917506 BPZ917408:BPZ917506 BZV917408:BZV917506 CJR917408:CJR917506 CTN917408:CTN917506 DDJ917408:DDJ917506 DNF917408:DNF917506 DXB917408:DXB917506 EGX917408:EGX917506 EQT917408:EQT917506 FAP917408:FAP917506 FKL917408:FKL917506 FUH917408:FUH917506 GED917408:GED917506 GNZ917408:GNZ917506 GXV917408:GXV917506 HHR917408:HHR917506 HRN917408:HRN917506 IBJ917408:IBJ917506 ILF917408:ILF917506 IVB917408:IVB917506 JEX917408:JEX917506 JOT917408:JOT917506 JYP917408:JYP917506 KIL917408:KIL917506 KSH917408:KSH917506 LCD917408:LCD917506 LLZ917408:LLZ917506 LVV917408:LVV917506 MFR917408:MFR917506 MPN917408:MPN917506 MZJ917408:MZJ917506 NJF917408:NJF917506 NTB917408:NTB917506 OCX917408:OCX917506 OMT917408:OMT917506 OWP917408:OWP917506 PGL917408:PGL917506 PQH917408:PQH917506 QAD917408:QAD917506 QJZ917408:QJZ917506 QTV917408:QTV917506 RDR917408:RDR917506 RNN917408:RNN917506 RXJ917408:RXJ917506 SHF917408:SHF917506 SRB917408:SRB917506 TAX917408:TAX917506 TKT917408:TKT917506 TUP917408:TUP917506 UEL917408:UEL917506 UOH917408:UOH917506 UYD917408:UYD917506 VHZ917408:VHZ917506 VRV917408:VRV917506 WBR917408:WBR917506 WLN917408:WLN917506 WVJ917408:WVJ917506 A982944:A983042 IX982944:IX983042 ST982944:ST983042 ACP982944:ACP983042 AML982944:AML983042 AWH982944:AWH983042 BGD982944:BGD983042 BPZ982944:BPZ983042 BZV982944:BZV983042 CJR982944:CJR983042 CTN982944:CTN983042 DDJ982944:DDJ983042 DNF982944:DNF983042 DXB982944:DXB983042 EGX982944:EGX983042 EQT982944:EQT983042 FAP982944:FAP983042 FKL982944:FKL983042 FUH982944:FUH983042 GED982944:GED983042 GNZ982944:GNZ983042 GXV982944:GXV983042 HHR982944:HHR983042 HRN982944:HRN983042 IBJ982944:IBJ983042 ILF982944:ILF983042 IVB982944:IVB983042 JEX982944:JEX983042 JOT982944:JOT983042 JYP982944:JYP983042 KIL982944:KIL983042 KSH982944:KSH983042 LCD982944:LCD983042 LLZ982944:LLZ983042 LVV982944:LVV983042 MFR982944:MFR983042 MPN982944:MPN983042 MZJ982944:MZJ983042 NJF982944:NJF983042 NTB982944:NTB983042 OCX982944:OCX983042 OMT982944:OMT983042 OWP982944:OWP983042 PGL982944:PGL983042 PQH982944:PQH983042 QAD982944:QAD983042 QJZ982944:QJZ983042 QTV982944:QTV983042 RDR982944:RDR983042 RNN982944:RNN983042 RXJ982944:RXJ983042 SHF982944:SHF983042 SRB982944:SRB983042 TAX982944:TAX983042 TKT982944:TKT983042 TUP982944:TUP983042 UEL982944:UEL983042 UOH982944:UOH983042 UYD982944:UYD983042 VHZ982944:VHZ983042 VRV982944:VRV983042 WBR982944:WBR983042 WLN982944:WLN983042 WVJ982944:WVJ983042" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 IZ2 SV2 ACR2 AMN2 AWJ2 BGF2 BQB2 BZX2 CJT2 CTP2 DDL2 DNH2 DXD2 EGZ2 EQV2 FAR2 FKN2 FUJ2 GEF2 GOB2 GXX2 HHT2 HRP2 IBL2 ILH2 IVD2 JEZ2 JOV2 JYR2 KIN2 KSJ2 LCF2 LMB2 LVX2 MFT2 MPP2 MZL2 NJH2 NTD2 OCZ2 OMV2 OWR2 PGN2 PQJ2 QAF2 QKB2 QTX2 RDT2 RNP2 RXL2 SHH2 SRD2 TAZ2 TKV2 TUR2 UEN2 UOJ2 UYF2 VIB2 VRX2 WBT2 WLP2 WVL2 A65440:A65538 IZ65440:IZ65538 SV65440:SV65538 ACR65440:ACR65538 AMN65440:AMN65538 AWJ65440:AWJ65538 BGF65440:BGF65538 BQB65440:BQB65538 BZX65440:BZX65538 CJT65440:CJT65538 CTP65440:CTP65538 DDL65440:DDL65538 DNH65440:DNH65538 DXD65440:DXD65538 EGZ65440:EGZ65538 EQV65440:EQV65538 FAR65440:FAR65538 FKN65440:FKN65538 FUJ65440:FUJ65538 GEF65440:GEF65538 GOB65440:GOB65538 GXX65440:GXX65538 HHT65440:HHT65538 HRP65440:HRP65538 IBL65440:IBL65538 ILH65440:ILH65538 IVD65440:IVD65538 JEZ65440:JEZ65538 JOV65440:JOV65538 JYR65440:JYR65538 KIN65440:KIN65538 KSJ65440:KSJ65538 LCF65440:LCF65538 LMB65440:LMB65538 LVX65440:LVX65538 MFT65440:MFT65538 MPP65440:MPP65538 MZL65440:MZL65538 NJH65440:NJH65538 NTD65440:NTD65538 OCZ65440:OCZ65538 OMV65440:OMV65538 OWR65440:OWR65538 PGN65440:PGN65538 PQJ65440:PQJ65538 QAF65440:QAF65538 QKB65440:QKB65538 QTX65440:QTX65538 RDT65440:RDT65538 RNP65440:RNP65538 RXL65440:RXL65538 SHH65440:SHH65538 SRD65440:SRD65538 TAZ65440:TAZ65538 TKV65440:TKV65538 TUR65440:TUR65538 UEN65440:UEN65538 UOJ65440:UOJ65538 UYF65440:UYF65538 VIB65440:VIB65538 VRX65440:VRX65538 WBT65440:WBT65538 WLP65440:WLP65538 WVL65440:WVL65538 A130976:A131074 IZ130976:IZ131074 SV130976:SV131074 ACR130976:ACR131074 AMN130976:AMN131074 AWJ130976:AWJ131074 BGF130976:BGF131074 BQB130976:BQB131074 BZX130976:BZX131074 CJT130976:CJT131074 CTP130976:CTP131074 DDL130976:DDL131074 DNH130976:DNH131074 DXD130976:DXD131074 EGZ130976:EGZ131074 EQV130976:EQV131074 FAR130976:FAR131074 FKN130976:FKN131074 FUJ130976:FUJ131074 GEF130976:GEF131074 GOB130976:GOB131074 GXX130976:GXX131074 HHT130976:HHT131074 HRP130976:HRP131074 IBL130976:IBL131074 ILH130976:ILH131074 IVD130976:IVD131074 JEZ130976:JEZ131074 JOV130976:JOV131074 JYR130976:JYR131074 KIN130976:KIN131074 KSJ130976:KSJ131074 LCF130976:LCF131074 LMB130976:LMB131074 LVX130976:LVX131074 MFT130976:MFT131074 MPP130976:MPP131074 MZL130976:MZL131074 NJH130976:NJH131074 NTD130976:NTD131074 OCZ130976:OCZ131074 OMV130976:OMV131074 OWR130976:OWR131074 PGN130976:PGN131074 PQJ130976:PQJ131074 QAF130976:QAF131074 QKB130976:QKB131074 QTX130976:QTX131074 RDT130976:RDT131074 RNP130976:RNP131074 RXL130976:RXL131074 SHH130976:SHH131074 SRD130976:SRD131074 TAZ130976:TAZ131074 TKV130976:TKV131074 TUR130976:TUR131074 UEN130976:UEN131074 UOJ130976:UOJ131074 UYF130976:UYF131074 VIB130976:VIB131074 VRX130976:VRX131074 WBT130976:WBT131074 WLP130976:WLP131074 WVL130976:WVL131074 A196512:A196610 IZ196512:IZ196610 SV196512:SV196610 ACR196512:ACR196610 AMN196512:AMN196610 AWJ196512:AWJ196610 BGF196512:BGF196610 BQB196512:BQB196610 BZX196512:BZX196610 CJT196512:CJT196610 CTP196512:CTP196610 DDL196512:DDL196610 DNH196512:DNH196610 DXD196512:DXD196610 EGZ196512:EGZ196610 EQV196512:EQV196610 FAR196512:FAR196610 FKN196512:FKN196610 FUJ196512:FUJ196610 GEF196512:GEF196610 GOB196512:GOB196610 GXX196512:GXX196610 HHT196512:HHT196610 HRP196512:HRP196610 IBL196512:IBL196610 ILH196512:ILH196610 IVD196512:IVD196610 JEZ196512:JEZ196610 JOV196512:JOV196610 JYR196512:JYR196610 KIN196512:KIN196610 KSJ196512:KSJ196610 LCF196512:LCF196610 LMB196512:LMB196610 LVX196512:LVX196610 MFT196512:MFT196610 MPP196512:MPP196610 MZL196512:MZL196610 NJH196512:NJH196610 NTD196512:NTD196610 OCZ196512:OCZ196610 OMV196512:OMV196610 OWR196512:OWR196610 PGN196512:PGN196610 PQJ196512:PQJ196610 QAF196512:QAF196610 QKB196512:QKB196610 QTX196512:QTX196610 RDT196512:RDT196610 RNP196512:RNP196610 RXL196512:RXL196610 SHH196512:SHH196610 SRD196512:SRD196610 TAZ196512:TAZ196610 TKV196512:TKV196610 TUR196512:TUR196610 UEN196512:UEN196610 UOJ196512:UOJ196610 UYF196512:UYF196610 VIB196512:VIB196610 VRX196512:VRX196610 WBT196512:WBT196610 WLP196512:WLP196610 WVL196512:WVL196610 A262048:A262146 IZ262048:IZ262146 SV262048:SV262146 ACR262048:ACR262146 AMN262048:AMN262146 AWJ262048:AWJ262146 BGF262048:BGF262146 BQB262048:BQB262146 BZX262048:BZX262146 CJT262048:CJT262146 CTP262048:CTP262146 DDL262048:DDL262146 DNH262048:DNH262146 DXD262048:DXD262146 EGZ262048:EGZ262146 EQV262048:EQV262146 FAR262048:FAR262146 FKN262048:FKN262146 FUJ262048:FUJ262146 GEF262048:GEF262146 GOB262048:GOB262146 GXX262048:GXX262146 HHT262048:HHT262146 HRP262048:HRP262146 IBL262048:IBL262146 ILH262048:ILH262146 IVD262048:IVD262146 JEZ262048:JEZ262146 JOV262048:JOV262146 JYR262048:JYR262146 KIN262048:KIN262146 KSJ262048:KSJ262146 LCF262048:LCF262146 LMB262048:LMB262146 LVX262048:LVX262146 MFT262048:MFT262146 MPP262048:MPP262146 MZL262048:MZL262146 NJH262048:NJH262146 NTD262048:NTD262146 OCZ262048:OCZ262146 OMV262048:OMV262146 OWR262048:OWR262146 PGN262048:PGN262146 PQJ262048:PQJ262146 QAF262048:QAF262146 QKB262048:QKB262146 QTX262048:QTX262146 RDT262048:RDT262146 RNP262048:RNP262146 RXL262048:RXL262146 SHH262048:SHH262146 SRD262048:SRD262146 TAZ262048:TAZ262146 TKV262048:TKV262146 TUR262048:TUR262146 UEN262048:UEN262146 UOJ262048:UOJ262146 UYF262048:UYF262146 VIB262048:VIB262146 VRX262048:VRX262146 WBT262048:WBT262146 WLP262048:WLP262146 WVL262048:WVL262146 A327584:A327682 IZ327584:IZ327682 SV327584:SV327682 ACR327584:ACR327682 AMN327584:AMN327682 AWJ327584:AWJ327682 BGF327584:BGF327682 BQB327584:BQB327682 BZX327584:BZX327682 CJT327584:CJT327682 CTP327584:CTP327682 DDL327584:DDL327682 DNH327584:DNH327682 DXD327584:DXD327682 EGZ327584:EGZ327682 EQV327584:EQV327682 FAR327584:FAR327682 FKN327584:FKN327682 FUJ327584:FUJ327682 GEF327584:GEF327682 GOB327584:GOB327682 GXX327584:GXX327682 HHT327584:HHT327682 HRP327584:HRP327682 IBL327584:IBL327682 ILH327584:ILH327682 IVD327584:IVD327682 JEZ327584:JEZ327682 JOV327584:JOV327682 JYR327584:JYR327682 KIN327584:KIN327682 KSJ327584:KSJ327682 LCF327584:LCF327682 LMB327584:LMB327682 LVX327584:LVX327682 MFT327584:MFT327682 MPP327584:MPP327682 MZL327584:MZL327682 NJH327584:NJH327682 NTD327584:NTD327682 OCZ327584:OCZ327682 OMV327584:OMV327682 OWR327584:OWR327682 PGN327584:PGN327682 PQJ327584:PQJ327682 QAF327584:QAF327682 QKB327584:QKB327682 QTX327584:QTX327682 RDT327584:RDT327682 RNP327584:RNP327682 RXL327584:RXL327682 SHH327584:SHH327682 SRD327584:SRD327682 TAZ327584:TAZ327682 TKV327584:TKV327682 TUR327584:TUR327682 UEN327584:UEN327682 UOJ327584:UOJ327682 UYF327584:UYF327682 VIB327584:VIB327682 VRX327584:VRX327682 WBT327584:WBT327682 WLP327584:WLP327682 WVL327584:WVL327682 A393120:A393218 IZ393120:IZ393218 SV393120:SV393218 ACR393120:ACR393218 AMN393120:AMN393218 AWJ393120:AWJ393218 BGF393120:BGF393218 BQB393120:BQB393218 BZX393120:BZX393218 CJT393120:CJT393218 CTP393120:CTP393218 DDL393120:DDL393218 DNH393120:DNH393218 DXD393120:DXD393218 EGZ393120:EGZ393218 EQV393120:EQV393218 FAR393120:FAR393218 FKN393120:FKN393218 FUJ393120:FUJ393218 GEF393120:GEF393218 GOB393120:GOB393218 GXX393120:GXX393218 HHT393120:HHT393218 HRP393120:HRP393218 IBL393120:IBL393218 ILH393120:ILH393218 IVD393120:IVD393218 JEZ393120:JEZ393218 JOV393120:JOV393218 JYR393120:JYR393218 KIN393120:KIN393218 KSJ393120:KSJ393218 LCF393120:LCF393218 LMB393120:LMB393218 LVX393120:LVX393218 MFT393120:MFT393218 MPP393120:MPP393218 MZL393120:MZL393218 NJH393120:NJH393218 NTD393120:NTD393218 OCZ393120:OCZ393218 OMV393120:OMV393218 OWR393120:OWR393218 PGN393120:PGN393218 PQJ393120:PQJ393218 QAF393120:QAF393218 QKB393120:QKB393218 QTX393120:QTX393218 RDT393120:RDT393218 RNP393120:RNP393218 RXL393120:RXL393218 SHH393120:SHH393218 SRD393120:SRD393218 TAZ393120:TAZ393218 TKV393120:TKV393218 TUR393120:TUR393218 UEN393120:UEN393218 UOJ393120:UOJ393218 UYF393120:UYF393218 VIB393120:VIB393218 VRX393120:VRX393218 WBT393120:WBT393218 WLP393120:WLP393218 WVL393120:WVL393218 A458656:A458754 IZ458656:IZ458754 SV458656:SV458754 ACR458656:ACR458754 AMN458656:AMN458754 AWJ458656:AWJ458754 BGF458656:BGF458754 BQB458656:BQB458754 BZX458656:BZX458754 CJT458656:CJT458754 CTP458656:CTP458754 DDL458656:DDL458754 DNH458656:DNH458754 DXD458656:DXD458754 EGZ458656:EGZ458754 EQV458656:EQV458754 FAR458656:FAR458754 FKN458656:FKN458754 FUJ458656:FUJ458754 GEF458656:GEF458754 GOB458656:GOB458754 GXX458656:GXX458754 HHT458656:HHT458754 HRP458656:HRP458754 IBL458656:IBL458754 ILH458656:ILH458754 IVD458656:IVD458754 JEZ458656:JEZ458754 JOV458656:JOV458754 JYR458656:JYR458754 KIN458656:KIN458754 KSJ458656:KSJ458754 LCF458656:LCF458754 LMB458656:LMB458754 LVX458656:LVX458754 MFT458656:MFT458754 MPP458656:MPP458754 MZL458656:MZL458754 NJH458656:NJH458754 NTD458656:NTD458754 OCZ458656:OCZ458754 OMV458656:OMV458754 OWR458656:OWR458754 PGN458656:PGN458754 PQJ458656:PQJ458754 QAF458656:QAF458754 QKB458656:QKB458754 QTX458656:QTX458754 RDT458656:RDT458754 RNP458656:RNP458754 RXL458656:RXL458754 SHH458656:SHH458754 SRD458656:SRD458754 TAZ458656:TAZ458754 TKV458656:TKV458754 TUR458656:TUR458754 UEN458656:UEN458754 UOJ458656:UOJ458754 UYF458656:UYF458754 VIB458656:VIB458754 VRX458656:VRX458754 WBT458656:WBT458754 WLP458656:WLP458754 WVL458656:WVL458754 A524192:A524290 IZ524192:IZ524290 SV524192:SV524290 ACR524192:ACR524290 AMN524192:AMN524290 AWJ524192:AWJ524290 BGF524192:BGF524290 BQB524192:BQB524290 BZX524192:BZX524290 CJT524192:CJT524290 CTP524192:CTP524290 DDL524192:DDL524290 DNH524192:DNH524290 DXD524192:DXD524290 EGZ524192:EGZ524290 EQV524192:EQV524290 FAR524192:FAR524290 FKN524192:FKN524290 FUJ524192:FUJ524290 GEF524192:GEF524290 GOB524192:GOB524290 GXX524192:GXX524290 HHT524192:HHT524290 HRP524192:HRP524290 IBL524192:IBL524290 ILH524192:ILH524290 IVD524192:IVD524290 JEZ524192:JEZ524290 JOV524192:JOV524290 JYR524192:JYR524290 KIN524192:KIN524290 KSJ524192:KSJ524290 LCF524192:LCF524290 LMB524192:LMB524290 LVX524192:LVX524290 MFT524192:MFT524290 MPP524192:MPP524290 MZL524192:MZL524290 NJH524192:NJH524290 NTD524192:NTD524290 OCZ524192:OCZ524290 OMV524192:OMV524290 OWR524192:OWR524290 PGN524192:PGN524290 PQJ524192:PQJ524290 QAF524192:QAF524290 QKB524192:QKB524290 QTX524192:QTX524290 RDT524192:RDT524290 RNP524192:RNP524290 RXL524192:RXL524290 SHH524192:SHH524290 SRD524192:SRD524290 TAZ524192:TAZ524290 TKV524192:TKV524290 TUR524192:TUR524290 UEN524192:UEN524290 UOJ524192:UOJ524290 UYF524192:UYF524290 VIB524192:VIB524290 VRX524192:VRX524290 WBT524192:WBT524290 WLP524192:WLP524290 WVL524192:WVL524290 A589728:A589826 IZ589728:IZ589826 SV589728:SV589826 ACR589728:ACR589826 AMN589728:AMN589826 AWJ589728:AWJ589826 BGF589728:BGF589826 BQB589728:BQB589826 BZX589728:BZX589826 CJT589728:CJT589826 CTP589728:CTP589826 DDL589728:DDL589826 DNH589728:DNH589826 DXD589728:DXD589826 EGZ589728:EGZ589826 EQV589728:EQV589826 FAR589728:FAR589826 FKN589728:FKN589826 FUJ589728:FUJ589826 GEF589728:GEF589826 GOB589728:GOB589826 GXX589728:GXX589826 HHT589728:HHT589826 HRP589728:HRP589826 IBL589728:IBL589826 ILH589728:ILH589826 IVD589728:IVD589826 JEZ589728:JEZ589826 JOV589728:JOV589826 JYR589728:JYR589826 KIN589728:KIN589826 KSJ589728:KSJ589826 LCF589728:LCF589826 LMB589728:LMB589826 LVX589728:LVX589826 MFT589728:MFT589826 MPP589728:MPP589826 MZL589728:MZL589826 NJH589728:NJH589826 NTD589728:NTD589826 OCZ589728:OCZ589826 OMV589728:OMV589826 OWR589728:OWR589826 PGN589728:PGN589826 PQJ589728:PQJ589826 QAF589728:QAF589826 QKB589728:QKB589826 QTX589728:QTX589826 RDT589728:RDT589826 RNP589728:RNP589826 RXL589728:RXL589826 SHH589728:SHH589826 SRD589728:SRD589826 TAZ589728:TAZ589826 TKV589728:TKV589826 TUR589728:TUR589826 UEN589728:UEN589826 UOJ589728:UOJ589826 UYF589728:UYF589826 VIB589728:VIB589826 VRX589728:VRX589826 WBT589728:WBT589826 WLP589728:WLP589826 WVL589728:WVL589826 A655264:A655362 IZ655264:IZ655362 SV655264:SV655362 ACR655264:ACR655362 AMN655264:AMN655362 AWJ655264:AWJ655362 BGF655264:BGF655362 BQB655264:BQB655362 BZX655264:BZX655362 CJT655264:CJT655362 CTP655264:CTP655362 DDL655264:DDL655362 DNH655264:DNH655362 DXD655264:DXD655362 EGZ655264:EGZ655362 EQV655264:EQV655362 FAR655264:FAR655362 FKN655264:FKN655362 FUJ655264:FUJ655362 GEF655264:GEF655362 GOB655264:GOB655362 GXX655264:GXX655362 HHT655264:HHT655362 HRP655264:HRP655362 IBL655264:IBL655362 ILH655264:ILH655362 IVD655264:IVD655362 JEZ655264:JEZ655362 JOV655264:JOV655362 JYR655264:JYR655362 KIN655264:KIN655362 KSJ655264:KSJ655362 LCF655264:LCF655362 LMB655264:LMB655362 LVX655264:LVX655362 MFT655264:MFT655362 MPP655264:MPP655362 MZL655264:MZL655362 NJH655264:NJH655362 NTD655264:NTD655362 OCZ655264:OCZ655362 OMV655264:OMV655362 OWR655264:OWR655362 PGN655264:PGN655362 PQJ655264:PQJ655362 QAF655264:QAF655362 QKB655264:QKB655362 QTX655264:QTX655362 RDT655264:RDT655362 RNP655264:RNP655362 RXL655264:RXL655362 SHH655264:SHH655362 SRD655264:SRD655362 TAZ655264:TAZ655362 TKV655264:TKV655362 TUR655264:TUR655362 UEN655264:UEN655362 UOJ655264:UOJ655362 UYF655264:UYF655362 VIB655264:VIB655362 VRX655264:VRX655362 WBT655264:WBT655362 WLP655264:WLP655362 WVL655264:WVL655362 A720800:A720898 IZ720800:IZ720898 SV720800:SV720898 ACR720800:ACR720898 AMN720800:AMN720898 AWJ720800:AWJ720898 BGF720800:BGF720898 BQB720800:BQB720898 BZX720800:BZX720898 CJT720800:CJT720898 CTP720800:CTP720898 DDL720800:DDL720898 DNH720800:DNH720898 DXD720800:DXD720898 EGZ720800:EGZ720898 EQV720800:EQV720898 FAR720800:FAR720898 FKN720800:FKN720898 FUJ720800:FUJ720898 GEF720800:GEF720898 GOB720800:GOB720898 GXX720800:GXX720898 HHT720800:HHT720898 HRP720800:HRP720898 IBL720800:IBL720898 ILH720800:ILH720898 IVD720800:IVD720898 JEZ720800:JEZ720898 JOV720800:JOV720898 JYR720800:JYR720898 KIN720800:KIN720898 KSJ720800:KSJ720898 LCF720800:LCF720898 LMB720800:LMB720898 LVX720800:LVX720898 MFT720800:MFT720898 MPP720800:MPP720898 MZL720800:MZL720898 NJH720800:NJH720898 NTD720800:NTD720898 OCZ720800:OCZ720898 OMV720800:OMV720898 OWR720800:OWR720898 PGN720800:PGN720898 PQJ720800:PQJ720898 QAF720800:QAF720898 QKB720800:QKB720898 QTX720800:QTX720898 RDT720800:RDT720898 RNP720800:RNP720898 RXL720800:RXL720898 SHH720800:SHH720898 SRD720800:SRD720898 TAZ720800:TAZ720898 TKV720800:TKV720898 TUR720800:TUR720898 UEN720800:UEN720898 UOJ720800:UOJ720898 UYF720800:UYF720898 VIB720800:VIB720898 VRX720800:VRX720898 WBT720800:WBT720898 WLP720800:WLP720898 WVL720800:WVL720898 A786336:A786434 IZ786336:IZ786434 SV786336:SV786434 ACR786336:ACR786434 AMN786336:AMN786434 AWJ786336:AWJ786434 BGF786336:BGF786434 BQB786336:BQB786434 BZX786336:BZX786434 CJT786336:CJT786434 CTP786336:CTP786434 DDL786336:DDL786434 DNH786336:DNH786434 DXD786336:DXD786434 EGZ786336:EGZ786434 EQV786336:EQV786434 FAR786336:FAR786434 FKN786336:FKN786434 FUJ786336:FUJ786434 GEF786336:GEF786434 GOB786336:GOB786434 GXX786336:GXX786434 HHT786336:HHT786434 HRP786336:HRP786434 IBL786336:IBL786434 ILH786336:ILH786434 IVD786336:IVD786434 JEZ786336:JEZ786434 JOV786336:JOV786434 JYR786336:JYR786434 KIN786336:KIN786434 KSJ786336:KSJ786434 LCF786336:LCF786434 LMB786336:LMB786434 LVX786336:LVX786434 MFT786336:MFT786434 MPP786336:MPP786434 MZL786336:MZL786434 NJH786336:NJH786434 NTD786336:NTD786434 OCZ786336:OCZ786434 OMV786336:OMV786434 OWR786336:OWR786434 PGN786336:PGN786434 PQJ786336:PQJ786434 QAF786336:QAF786434 QKB786336:QKB786434 QTX786336:QTX786434 RDT786336:RDT786434 RNP786336:RNP786434 RXL786336:RXL786434 SHH786336:SHH786434 SRD786336:SRD786434 TAZ786336:TAZ786434 TKV786336:TKV786434 TUR786336:TUR786434 UEN786336:UEN786434 UOJ786336:UOJ786434 UYF786336:UYF786434 VIB786336:VIB786434 VRX786336:VRX786434 WBT786336:WBT786434 WLP786336:WLP786434 WVL786336:WVL786434 A851872:A851970 IZ851872:IZ851970 SV851872:SV851970 ACR851872:ACR851970 AMN851872:AMN851970 AWJ851872:AWJ851970 BGF851872:BGF851970 BQB851872:BQB851970 BZX851872:BZX851970 CJT851872:CJT851970 CTP851872:CTP851970 DDL851872:DDL851970 DNH851872:DNH851970 DXD851872:DXD851970 EGZ851872:EGZ851970 EQV851872:EQV851970 FAR851872:FAR851970 FKN851872:FKN851970 FUJ851872:FUJ851970 GEF851872:GEF851970 GOB851872:GOB851970 GXX851872:GXX851970 HHT851872:HHT851970 HRP851872:HRP851970 IBL851872:IBL851970 ILH851872:ILH851970 IVD851872:IVD851970 JEZ851872:JEZ851970 JOV851872:JOV851970 JYR851872:JYR851970 KIN851872:KIN851970 KSJ851872:KSJ851970 LCF851872:LCF851970 LMB851872:LMB851970 LVX851872:LVX851970 MFT851872:MFT851970 MPP851872:MPP851970 MZL851872:MZL851970 NJH851872:NJH851970 NTD851872:NTD851970 OCZ851872:OCZ851970 OMV851872:OMV851970 OWR851872:OWR851970 PGN851872:PGN851970 PQJ851872:PQJ851970 QAF851872:QAF851970 QKB851872:QKB851970 QTX851872:QTX851970 RDT851872:RDT851970 RNP851872:RNP851970 RXL851872:RXL851970 SHH851872:SHH851970 SRD851872:SRD851970 TAZ851872:TAZ851970 TKV851872:TKV851970 TUR851872:TUR851970 UEN851872:UEN851970 UOJ851872:UOJ851970 UYF851872:UYF851970 VIB851872:VIB851970 VRX851872:VRX851970 WBT851872:WBT851970 WLP851872:WLP851970 WVL851872:WVL851970 A917408:A917506 IZ917408:IZ917506 SV917408:SV917506 ACR917408:ACR917506 AMN917408:AMN917506 AWJ917408:AWJ917506 BGF917408:BGF917506 BQB917408:BQB917506 BZX917408:BZX917506 CJT917408:CJT917506 CTP917408:CTP917506 DDL917408:DDL917506 DNH917408:DNH917506 DXD917408:DXD917506 EGZ917408:EGZ917506 EQV917408:EQV917506 FAR917408:FAR917506 FKN917408:FKN917506 FUJ917408:FUJ917506 GEF917408:GEF917506 GOB917408:GOB917506 GXX917408:GXX917506 HHT917408:HHT917506 HRP917408:HRP917506 IBL917408:IBL917506 ILH917408:ILH917506 IVD917408:IVD917506 JEZ917408:JEZ917506 JOV917408:JOV917506 JYR917408:JYR917506 KIN917408:KIN917506 KSJ917408:KSJ917506 LCF917408:LCF917506 LMB917408:LMB917506 LVX917408:LVX917506 MFT917408:MFT917506 MPP917408:MPP917506 MZL917408:MZL917506 NJH917408:NJH917506 NTD917408:NTD917506 OCZ917408:OCZ917506 OMV917408:OMV917506 OWR917408:OWR917506 PGN917408:PGN917506 PQJ917408:PQJ917506 QAF917408:QAF917506 QKB917408:QKB917506 QTX917408:QTX917506 RDT917408:RDT917506 RNP917408:RNP917506 RXL917408:RXL917506 SHH917408:SHH917506 SRD917408:SRD917506 TAZ917408:TAZ917506 TKV917408:TKV917506 TUR917408:TUR917506 UEN917408:UEN917506 UOJ917408:UOJ917506 UYF917408:UYF917506 VIB917408:VIB917506 VRX917408:VRX917506 WBT917408:WBT917506 WLP917408:WLP917506 WVL917408:WVL917506 A982944:A983042 IZ982944:IZ983042 SV982944:SV983042 ACR982944:ACR983042 AMN982944:AMN983042 AWJ982944:AWJ983042 BGF982944:BGF983042 BQB982944:BQB983042 BZX982944:BZX983042 CJT982944:CJT983042 CTP982944:CTP983042 DDL982944:DDL983042 DNH982944:DNH983042 DXD982944:DXD983042 EGZ982944:EGZ983042 EQV982944:EQV983042 FAR982944:FAR983042 FKN982944:FKN983042 FUJ982944:FUJ983042 GEF982944:GEF983042 GOB982944:GOB983042 GXX982944:GXX983042 HHT982944:HHT983042 HRP982944:HRP983042 IBL982944:IBL983042 ILH982944:ILH983042 IVD982944:IVD983042 JEZ982944:JEZ983042 JOV982944:JOV983042 JYR982944:JYR983042 KIN982944:KIN983042 KSJ982944:KSJ983042 LCF982944:LCF983042 LMB982944:LMB983042 LVX982944:LVX983042 MFT982944:MFT983042 MPP982944:MPP983042 MZL982944:MZL983042 NJH982944:NJH983042 NTD982944:NTD983042 OCZ982944:OCZ983042 OMV982944:OMV983042 OWR982944:OWR983042 PGN982944:PGN983042 PQJ982944:PQJ983042 QAF982944:QAF983042 QKB982944:QKB983042 QTX982944:QTX983042 RDT982944:RDT983042 RNP982944:RNP983042 RXL982944:RXL983042 SHH982944:SHH983042 SRD982944:SRD983042 TAZ982944:TAZ983042 TKV982944:TKV983042 TUR982944:TUR983042 UEN982944:UEN983042 UOJ982944:UOJ983042 UYF982944:UYF983042 VIB982944:VIB983042 VRX982944:VRX983042 WBT982944:WBT983042 WLP982944:WLP983042 WVL982944:WVL983042" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 JS2 TO2 ADK2 ANG2 AXC2 BGY2 BQU2 CAQ2 CKM2 CUI2 DEE2 DOA2 DXW2 EHS2 ERO2 FBK2 FLG2 FVC2 GEY2 GOU2 GYQ2 HIM2 HSI2 ICE2 IMA2 IVW2 JFS2 JPO2 JZK2 KJG2 KTC2 LCY2 LMU2 LWQ2 MGM2 MQI2 NAE2 NKA2 NTW2 ODS2 ONO2 OXK2 PHG2 PRC2 QAY2 QKU2 QUQ2 REM2 ROI2 RYE2 SIA2 SRW2 TBS2 TLO2 TVK2 UFG2 UPC2 UYY2 VIU2 VSQ2 WCM2 WMI2 WWE2 W65440:W65538 JS65440:JS65538 TO65440:TO65538 ADK65440:ADK65538 ANG65440:ANG65538 AXC65440:AXC65538 BGY65440:BGY65538 BQU65440:BQU65538 CAQ65440:CAQ65538 CKM65440:CKM65538 CUI65440:CUI65538 DEE65440:DEE65538 DOA65440:DOA65538 DXW65440:DXW65538 EHS65440:EHS65538 ERO65440:ERO65538 FBK65440:FBK65538 FLG65440:FLG65538 FVC65440:FVC65538 GEY65440:GEY65538 GOU65440:GOU65538 GYQ65440:GYQ65538 HIM65440:HIM65538 HSI65440:HSI65538 ICE65440:ICE65538 IMA65440:IMA65538 IVW65440:IVW65538 JFS65440:JFS65538 JPO65440:JPO65538 JZK65440:JZK65538 KJG65440:KJG65538 KTC65440:KTC65538 LCY65440:LCY65538 LMU65440:LMU65538 LWQ65440:LWQ65538 MGM65440:MGM65538 MQI65440:MQI65538 NAE65440:NAE65538 NKA65440:NKA65538 NTW65440:NTW65538 ODS65440:ODS65538 ONO65440:ONO65538 OXK65440:OXK65538 PHG65440:PHG65538 PRC65440:PRC65538 QAY65440:QAY65538 QKU65440:QKU65538 QUQ65440:QUQ65538 REM65440:REM65538 ROI65440:ROI65538 RYE65440:RYE65538 SIA65440:SIA65538 SRW65440:SRW65538 TBS65440:TBS65538 TLO65440:TLO65538 TVK65440:TVK65538 UFG65440:UFG65538 UPC65440:UPC65538 UYY65440:UYY65538 VIU65440:VIU65538 VSQ65440:VSQ65538 WCM65440:WCM65538 WMI65440:WMI65538 WWE65440:WWE65538 W130976:W131074 JS130976:JS131074 TO130976:TO131074 ADK130976:ADK131074 ANG130976:ANG131074 AXC130976:AXC131074 BGY130976:BGY131074 BQU130976:BQU131074 CAQ130976:CAQ131074 CKM130976:CKM131074 CUI130976:CUI131074 DEE130976:DEE131074 DOA130976:DOA131074 DXW130976:DXW131074 EHS130976:EHS131074 ERO130976:ERO131074 FBK130976:FBK131074 FLG130976:FLG131074 FVC130976:FVC131074 GEY130976:GEY131074 GOU130976:GOU131074 GYQ130976:GYQ131074 HIM130976:HIM131074 HSI130976:HSI131074 ICE130976:ICE131074 IMA130976:IMA131074 IVW130976:IVW131074 JFS130976:JFS131074 JPO130976:JPO131074 JZK130976:JZK131074 KJG130976:KJG131074 KTC130976:KTC131074 LCY130976:LCY131074 LMU130976:LMU131074 LWQ130976:LWQ131074 MGM130976:MGM131074 MQI130976:MQI131074 NAE130976:NAE131074 NKA130976:NKA131074 NTW130976:NTW131074 ODS130976:ODS131074 ONO130976:ONO131074 OXK130976:OXK131074 PHG130976:PHG131074 PRC130976:PRC131074 QAY130976:QAY131074 QKU130976:QKU131074 QUQ130976:QUQ131074 REM130976:REM131074 ROI130976:ROI131074 RYE130976:RYE131074 SIA130976:SIA131074 SRW130976:SRW131074 TBS130976:TBS131074 TLO130976:TLO131074 TVK130976:TVK131074 UFG130976:UFG131074 UPC130976:UPC131074 UYY130976:UYY131074 VIU130976:VIU131074 VSQ130976:VSQ131074 WCM130976:WCM131074 WMI130976:WMI131074 WWE130976:WWE131074 W196512:W196610 JS196512:JS196610 TO196512:TO196610 ADK196512:ADK196610 ANG196512:ANG196610 AXC196512:AXC196610 BGY196512:BGY196610 BQU196512:BQU196610 CAQ196512:CAQ196610 CKM196512:CKM196610 CUI196512:CUI196610 DEE196512:DEE196610 DOA196512:DOA196610 DXW196512:DXW196610 EHS196512:EHS196610 ERO196512:ERO196610 FBK196512:FBK196610 FLG196512:FLG196610 FVC196512:FVC196610 GEY196512:GEY196610 GOU196512:GOU196610 GYQ196512:GYQ196610 HIM196512:HIM196610 HSI196512:HSI196610 ICE196512:ICE196610 IMA196512:IMA196610 IVW196512:IVW196610 JFS196512:JFS196610 JPO196512:JPO196610 JZK196512:JZK196610 KJG196512:KJG196610 KTC196512:KTC196610 LCY196512:LCY196610 LMU196512:LMU196610 LWQ196512:LWQ196610 MGM196512:MGM196610 MQI196512:MQI196610 NAE196512:NAE196610 NKA196512:NKA196610 NTW196512:NTW196610 ODS196512:ODS196610 ONO196512:ONO196610 OXK196512:OXK196610 PHG196512:PHG196610 PRC196512:PRC196610 QAY196512:QAY196610 QKU196512:QKU196610 QUQ196512:QUQ196610 REM196512:REM196610 ROI196512:ROI196610 RYE196512:RYE196610 SIA196512:SIA196610 SRW196512:SRW196610 TBS196512:TBS196610 TLO196512:TLO196610 TVK196512:TVK196610 UFG196512:UFG196610 UPC196512:UPC196610 UYY196512:UYY196610 VIU196512:VIU196610 VSQ196512:VSQ196610 WCM196512:WCM196610 WMI196512:WMI196610 WWE196512:WWE196610 W262048:W262146 JS262048:JS262146 TO262048:TO262146 ADK262048:ADK262146 ANG262048:ANG262146 AXC262048:AXC262146 BGY262048:BGY262146 BQU262048:BQU262146 CAQ262048:CAQ262146 CKM262048:CKM262146 CUI262048:CUI262146 DEE262048:DEE262146 DOA262048:DOA262146 DXW262048:DXW262146 EHS262048:EHS262146 ERO262048:ERO262146 FBK262048:FBK262146 FLG262048:FLG262146 FVC262048:FVC262146 GEY262048:GEY262146 GOU262048:GOU262146 GYQ262048:GYQ262146 HIM262048:HIM262146 HSI262048:HSI262146 ICE262048:ICE262146 IMA262048:IMA262146 IVW262048:IVW262146 JFS262048:JFS262146 JPO262048:JPO262146 JZK262048:JZK262146 KJG262048:KJG262146 KTC262048:KTC262146 LCY262048:LCY262146 LMU262048:LMU262146 LWQ262048:LWQ262146 MGM262048:MGM262146 MQI262048:MQI262146 NAE262048:NAE262146 NKA262048:NKA262146 NTW262048:NTW262146 ODS262048:ODS262146 ONO262048:ONO262146 OXK262048:OXK262146 PHG262048:PHG262146 PRC262048:PRC262146 QAY262048:QAY262146 QKU262048:QKU262146 QUQ262048:QUQ262146 REM262048:REM262146 ROI262048:ROI262146 RYE262048:RYE262146 SIA262048:SIA262146 SRW262048:SRW262146 TBS262048:TBS262146 TLO262048:TLO262146 TVK262048:TVK262146 UFG262048:UFG262146 UPC262048:UPC262146 UYY262048:UYY262146 VIU262048:VIU262146 VSQ262048:VSQ262146 WCM262048:WCM262146 WMI262048:WMI262146 WWE262048:WWE262146 W327584:W327682 JS327584:JS327682 TO327584:TO327682 ADK327584:ADK327682 ANG327584:ANG327682 AXC327584:AXC327682 BGY327584:BGY327682 BQU327584:BQU327682 CAQ327584:CAQ327682 CKM327584:CKM327682 CUI327584:CUI327682 DEE327584:DEE327682 DOA327584:DOA327682 DXW327584:DXW327682 EHS327584:EHS327682 ERO327584:ERO327682 FBK327584:FBK327682 FLG327584:FLG327682 FVC327584:FVC327682 GEY327584:GEY327682 GOU327584:GOU327682 GYQ327584:GYQ327682 HIM327584:HIM327682 HSI327584:HSI327682 ICE327584:ICE327682 IMA327584:IMA327682 IVW327584:IVW327682 JFS327584:JFS327682 JPO327584:JPO327682 JZK327584:JZK327682 KJG327584:KJG327682 KTC327584:KTC327682 LCY327584:LCY327682 LMU327584:LMU327682 LWQ327584:LWQ327682 MGM327584:MGM327682 MQI327584:MQI327682 NAE327584:NAE327682 NKA327584:NKA327682 NTW327584:NTW327682 ODS327584:ODS327682 ONO327584:ONO327682 OXK327584:OXK327682 PHG327584:PHG327682 PRC327584:PRC327682 QAY327584:QAY327682 QKU327584:QKU327682 QUQ327584:QUQ327682 REM327584:REM327682 ROI327584:ROI327682 RYE327584:RYE327682 SIA327584:SIA327682 SRW327584:SRW327682 TBS327584:TBS327682 TLO327584:TLO327682 TVK327584:TVK327682 UFG327584:UFG327682 UPC327584:UPC327682 UYY327584:UYY327682 VIU327584:VIU327682 VSQ327584:VSQ327682 WCM327584:WCM327682 WMI327584:WMI327682 WWE327584:WWE327682 W393120:W393218 JS393120:JS393218 TO393120:TO393218 ADK393120:ADK393218 ANG393120:ANG393218 AXC393120:AXC393218 BGY393120:BGY393218 BQU393120:BQU393218 CAQ393120:CAQ393218 CKM393120:CKM393218 CUI393120:CUI393218 DEE393120:DEE393218 DOA393120:DOA393218 DXW393120:DXW393218 EHS393120:EHS393218 ERO393120:ERO393218 FBK393120:FBK393218 FLG393120:FLG393218 FVC393120:FVC393218 GEY393120:GEY393218 GOU393120:GOU393218 GYQ393120:GYQ393218 HIM393120:HIM393218 HSI393120:HSI393218 ICE393120:ICE393218 IMA393120:IMA393218 IVW393120:IVW393218 JFS393120:JFS393218 JPO393120:JPO393218 JZK393120:JZK393218 KJG393120:KJG393218 KTC393120:KTC393218 LCY393120:LCY393218 LMU393120:LMU393218 LWQ393120:LWQ393218 MGM393120:MGM393218 MQI393120:MQI393218 NAE393120:NAE393218 NKA393120:NKA393218 NTW393120:NTW393218 ODS393120:ODS393218 ONO393120:ONO393218 OXK393120:OXK393218 PHG393120:PHG393218 PRC393120:PRC393218 QAY393120:QAY393218 QKU393120:QKU393218 QUQ393120:QUQ393218 REM393120:REM393218 ROI393120:ROI393218 RYE393120:RYE393218 SIA393120:SIA393218 SRW393120:SRW393218 TBS393120:TBS393218 TLO393120:TLO393218 TVK393120:TVK393218 UFG393120:UFG393218 UPC393120:UPC393218 UYY393120:UYY393218 VIU393120:VIU393218 VSQ393120:VSQ393218 WCM393120:WCM393218 WMI393120:WMI393218 WWE393120:WWE393218 W458656:W458754 JS458656:JS458754 TO458656:TO458754 ADK458656:ADK458754 ANG458656:ANG458754 AXC458656:AXC458754 BGY458656:BGY458754 BQU458656:BQU458754 CAQ458656:CAQ458754 CKM458656:CKM458754 CUI458656:CUI458754 DEE458656:DEE458754 DOA458656:DOA458754 DXW458656:DXW458754 EHS458656:EHS458754 ERO458656:ERO458754 FBK458656:FBK458754 FLG458656:FLG458754 FVC458656:FVC458754 GEY458656:GEY458754 GOU458656:GOU458754 GYQ458656:GYQ458754 HIM458656:HIM458754 HSI458656:HSI458754 ICE458656:ICE458754 IMA458656:IMA458754 IVW458656:IVW458754 JFS458656:JFS458754 JPO458656:JPO458754 JZK458656:JZK458754 KJG458656:KJG458754 KTC458656:KTC458754 LCY458656:LCY458754 LMU458656:LMU458754 LWQ458656:LWQ458754 MGM458656:MGM458754 MQI458656:MQI458754 NAE458656:NAE458754 NKA458656:NKA458754 NTW458656:NTW458754 ODS458656:ODS458754 ONO458656:ONO458754 OXK458656:OXK458754 PHG458656:PHG458754 PRC458656:PRC458754 QAY458656:QAY458754 QKU458656:QKU458754 QUQ458656:QUQ458754 REM458656:REM458754 ROI458656:ROI458754 RYE458656:RYE458754 SIA458656:SIA458754 SRW458656:SRW458754 TBS458656:TBS458754 TLO458656:TLO458754 TVK458656:TVK458754 UFG458656:UFG458754 UPC458656:UPC458754 UYY458656:UYY458754 VIU458656:VIU458754 VSQ458656:VSQ458754 WCM458656:WCM458754 WMI458656:WMI458754 WWE458656:WWE458754 W524192:W524290 JS524192:JS524290 TO524192:TO524290 ADK524192:ADK524290 ANG524192:ANG524290 AXC524192:AXC524290 BGY524192:BGY524290 BQU524192:BQU524290 CAQ524192:CAQ524290 CKM524192:CKM524290 CUI524192:CUI524290 DEE524192:DEE524290 DOA524192:DOA524290 DXW524192:DXW524290 EHS524192:EHS524290 ERO524192:ERO524290 FBK524192:FBK524290 FLG524192:FLG524290 FVC524192:FVC524290 GEY524192:GEY524290 GOU524192:GOU524290 GYQ524192:GYQ524290 HIM524192:HIM524290 HSI524192:HSI524290 ICE524192:ICE524290 IMA524192:IMA524290 IVW524192:IVW524290 JFS524192:JFS524290 JPO524192:JPO524290 JZK524192:JZK524290 KJG524192:KJG524290 KTC524192:KTC524290 LCY524192:LCY524290 LMU524192:LMU524290 LWQ524192:LWQ524290 MGM524192:MGM524290 MQI524192:MQI524290 NAE524192:NAE524290 NKA524192:NKA524290 NTW524192:NTW524290 ODS524192:ODS524290 ONO524192:ONO524290 OXK524192:OXK524290 PHG524192:PHG524290 PRC524192:PRC524290 QAY524192:QAY524290 QKU524192:QKU524290 QUQ524192:QUQ524290 REM524192:REM524290 ROI524192:ROI524290 RYE524192:RYE524290 SIA524192:SIA524290 SRW524192:SRW524290 TBS524192:TBS524290 TLO524192:TLO524290 TVK524192:TVK524290 UFG524192:UFG524290 UPC524192:UPC524290 UYY524192:UYY524290 VIU524192:VIU524290 VSQ524192:VSQ524290 WCM524192:WCM524290 WMI524192:WMI524290 WWE524192:WWE524290 W589728:W589826 JS589728:JS589826 TO589728:TO589826 ADK589728:ADK589826 ANG589728:ANG589826 AXC589728:AXC589826 BGY589728:BGY589826 BQU589728:BQU589826 CAQ589728:CAQ589826 CKM589728:CKM589826 CUI589728:CUI589826 DEE589728:DEE589826 DOA589728:DOA589826 DXW589728:DXW589826 EHS589728:EHS589826 ERO589728:ERO589826 FBK589728:FBK589826 FLG589728:FLG589826 FVC589728:FVC589826 GEY589728:GEY589826 GOU589728:GOU589826 GYQ589728:GYQ589826 HIM589728:HIM589826 HSI589728:HSI589826 ICE589728:ICE589826 IMA589728:IMA589826 IVW589728:IVW589826 JFS589728:JFS589826 JPO589728:JPO589826 JZK589728:JZK589826 KJG589728:KJG589826 KTC589728:KTC589826 LCY589728:LCY589826 LMU589728:LMU589826 LWQ589728:LWQ589826 MGM589728:MGM589826 MQI589728:MQI589826 NAE589728:NAE589826 NKA589728:NKA589826 NTW589728:NTW589826 ODS589728:ODS589826 ONO589728:ONO589826 OXK589728:OXK589826 PHG589728:PHG589826 PRC589728:PRC589826 QAY589728:QAY589826 QKU589728:QKU589826 QUQ589728:QUQ589826 REM589728:REM589826 ROI589728:ROI589826 RYE589728:RYE589826 SIA589728:SIA589826 SRW589728:SRW589826 TBS589728:TBS589826 TLO589728:TLO589826 TVK589728:TVK589826 UFG589728:UFG589826 UPC589728:UPC589826 UYY589728:UYY589826 VIU589728:VIU589826 VSQ589728:VSQ589826 WCM589728:WCM589826 WMI589728:WMI589826 WWE589728:WWE589826 W655264:W655362 JS655264:JS655362 TO655264:TO655362 ADK655264:ADK655362 ANG655264:ANG655362 AXC655264:AXC655362 BGY655264:BGY655362 BQU655264:BQU655362 CAQ655264:CAQ655362 CKM655264:CKM655362 CUI655264:CUI655362 DEE655264:DEE655362 DOA655264:DOA655362 DXW655264:DXW655362 EHS655264:EHS655362 ERO655264:ERO655362 FBK655264:FBK655362 FLG655264:FLG655362 FVC655264:FVC655362 GEY655264:GEY655362 GOU655264:GOU655362 GYQ655264:GYQ655362 HIM655264:HIM655362 HSI655264:HSI655362 ICE655264:ICE655362 IMA655264:IMA655362 IVW655264:IVW655362 JFS655264:JFS655362 JPO655264:JPO655362 JZK655264:JZK655362 KJG655264:KJG655362 KTC655264:KTC655362 LCY655264:LCY655362 LMU655264:LMU655362 LWQ655264:LWQ655362 MGM655264:MGM655362 MQI655264:MQI655362 NAE655264:NAE655362 NKA655264:NKA655362 NTW655264:NTW655362 ODS655264:ODS655362 ONO655264:ONO655362 OXK655264:OXK655362 PHG655264:PHG655362 PRC655264:PRC655362 QAY655264:QAY655362 QKU655264:QKU655362 QUQ655264:QUQ655362 REM655264:REM655362 ROI655264:ROI655362 RYE655264:RYE655362 SIA655264:SIA655362 SRW655264:SRW655362 TBS655264:TBS655362 TLO655264:TLO655362 TVK655264:TVK655362 UFG655264:UFG655362 UPC655264:UPC655362 UYY655264:UYY655362 VIU655264:VIU655362 VSQ655264:VSQ655362 WCM655264:WCM655362 WMI655264:WMI655362 WWE655264:WWE655362 W720800:W720898 JS720800:JS720898 TO720800:TO720898 ADK720800:ADK720898 ANG720800:ANG720898 AXC720800:AXC720898 BGY720800:BGY720898 BQU720800:BQU720898 CAQ720800:CAQ720898 CKM720800:CKM720898 CUI720800:CUI720898 DEE720800:DEE720898 DOA720800:DOA720898 DXW720800:DXW720898 EHS720800:EHS720898 ERO720800:ERO720898 FBK720800:FBK720898 FLG720800:FLG720898 FVC720800:FVC720898 GEY720800:GEY720898 GOU720800:GOU720898 GYQ720800:GYQ720898 HIM720800:HIM720898 HSI720800:HSI720898 ICE720800:ICE720898 IMA720800:IMA720898 IVW720800:IVW720898 JFS720800:JFS720898 JPO720800:JPO720898 JZK720800:JZK720898 KJG720800:KJG720898 KTC720800:KTC720898 LCY720800:LCY720898 LMU720800:LMU720898 LWQ720800:LWQ720898 MGM720800:MGM720898 MQI720800:MQI720898 NAE720800:NAE720898 NKA720800:NKA720898 NTW720800:NTW720898 ODS720800:ODS720898 ONO720800:ONO720898 OXK720800:OXK720898 PHG720800:PHG720898 PRC720800:PRC720898 QAY720800:QAY720898 QKU720800:QKU720898 QUQ720800:QUQ720898 REM720800:REM720898 ROI720800:ROI720898 RYE720800:RYE720898 SIA720800:SIA720898 SRW720800:SRW720898 TBS720800:TBS720898 TLO720800:TLO720898 TVK720800:TVK720898 UFG720800:UFG720898 UPC720800:UPC720898 UYY720800:UYY720898 VIU720800:VIU720898 VSQ720800:VSQ720898 WCM720800:WCM720898 WMI720800:WMI720898 WWE720800:WWE720898 W786336:W786434 JS786336:JS786434 TO786336:TO786434 ADK786336:ADK786434 ANG786336:ANG786434 AXC786336:AXC786434 BGY786336:BGY786434 BQU786336:BQU786434 CAQ786336:CAQ786434 CKM786336:CKM786434 CUI786336:CUI786434 DEE786336:DEE786434 DOA786336:DOA786434 DXW786336:DXW786434 EHS786336:EHS786434 ERO786336:ERO786434 FBK786336:FBK786434 FLG786336:FLG786434 FVC786336:FVC786434 GEY786336:GEY786434 GOU786336:GOU786434 GYQ786336:GYQ786434 HIM786336:HIM786434 HSI786336:HSI786434 ICE786336:ICE786434 IMA786336:IMA786434 IVW786336:IVW786434 JFS786336:JFS786434 JPO786336:JPO786434 JZK786336:JZK786434 KJG786336:KJG786434 KTC786336:KTC786434 LCY786336:LCY786434 LMU786336:LMU786434 LWQ786336:LWQ786434 MGM786336:MGM786434 MQI786336:MQI786434 NAE786336:NAE786434 NKA786336:NKA786434 NTW786336:NTW786434 ODS786336:ODS786434 ONO786336:ONO786434 OXK786336:OXK786434 PHG786336:PHG786434 PRC786336:PRC786434 QAY786336:QAY786434 QKU786336:QKU786434 QUQ786336:QUQ786434 REM786336:REM786434 ROI786336:ROI786434 RYE786336:RYE786434 SIA786336:SIA786434 SRW786336:SRW786434 TBS786336:TBS786434 TLO786336:TLO786434 TVK786336:TVK786434 UFG786336:UFG786434 UPC786336:UPC786434 UYY786336:UYY786434 VIU786336:VIU786434 VSQ786336:VSQ786434 WCM786336:WCM786434 WMI786336:WMI786434 WWE786336:WWE786434 W851872:W851970 JS851872:JS851970 TO851872:TO851970 ADK851872:ADK851970 ANG851872:ANG851970 AXC851872:AXC851970 BGY851872:BGY851970 BQU851872:BQU851970 CAQ851872:CAQ851970 CKM851872:CKM851970 CUI851872:CUI851970 DEE851872:DEE851970 DOA851872:DOA851970 DXW851872:DXW851970 EHS851872:EHS851970 ERO851872:ERO851970 FBK851872:FBK851970 FLG851872:FLG851970 FVC851872:FVC851970 GEY851872:GEY851970 GOU851872:GOU851970 GYQ851872:GYQ851970 HIM851872:HIM851970 HSI851872:HSI851970 ICE851872:ICE851970 IMA851872:IMA851970 IVW851872:IVW851970 JFS851872:JFS851970 JPO851872:JPO851970 JZK851872:JZK851970 KJG851872:KJG851970 KTC851872:KTC851970 LCY851872:LCY851970 LMU851872:LMU851970 LWQ851872:LWQ851970 MGM851872:MGM851970 MQI851872:MQI851970 NAE851872:NAE851970 NKA851872:NKA851970 NTW851872:NTW851970 ODS851872:ODS851970 ONO851872:ONO851970 OXK851872:OXK851970 PHG851872:PHG851970 PRC851872:PRC851970 QAY851872:QAY851970 QKU851872:QKU851970 QUQ851872:QUQ851970 REM851872:REM851970 ROI851872:ROI851970 RYE851872:RYE851970 SIA851872:SIA851970 SRW851872:SRW851970 TBS851872:TBS851970 TLO851872:TLO851970 TVK851872:TVK851970 UFG851872:UFG851970 UPC851872:UPC851970 UYY851872:UYY851970 VIU851872:VIU851970 VSQ851872:VSQ851970 WCM851872:WCM851970 WMI851872:WMI851970 WWE851872:WWE851970 W917408:W917506 JS917408:JS917506 TO917408:TO917506 ADK917408:ADK917506 ANG917408:ANG917506 AXC917408:AXC917506 BGY917408:BGY917506 BQU917408:BQU917506 CAQ917408:CAQ917506 CKM917408:CKM917506 CUI917408:CUI917506 DEE917408:DEE917506 DOA917408:DOA917506 DXW917408:DXW917506 EHS917408:EHS917506 ERO917408:ERO917506 FBK917408:FBK917506 FLG917408:FLG917506 FVC917408:FVC917506 GEY917408:GEY917506 GOU917408:GOU917506 GYQ917408:GYQ917506 HIM917408:HIM917506 HSI917408:HSI917506 ICE917408:ICE917506 IMA917408:IMA917506 IVW917408:IVW917506 JFS917408:JFS917506 JPO917408:JPO917506 JZK917408:JZK917506 KJG917408:KJG917506 KTC917408:KTC917506 LCY917408:LCY917506 LMU917408:LMU917506 LWQ917408:LWQ917506 MGM917408:MGM917506 MQI917408:MQI917506 NAE917408:NAE917506 NKA917408:NKA917506 NTW917408:NTW917506 ODS917408:ODS917506 ONO917408:ONO917506 OXK917408:OXK917506 PHG917408:PHG917506 PRC917408:PRC917506 QAY917408:QAY917506 QKU917408:QKU917506 QUQ917408:QUQ917506 REM917408:REM917506 ROI917408:ROI917506 RYE917408:RYE917506 SIA917408:SIA917506 SRW917408:SRW917506 TBS917408:TBS917506 TLO917408:TLO917506 TVK917408:TVK917506 UFG917408:UFG917506 UPC917408:UPC917506 UYY917408:UYY917506 VIU917408:VIU917506 VSQ917408:VSQ917506 WCM917408:WCM917506 WMI917408:WMI917506 WWE917408:WWE917506 W982944:W983042 JS982944:JS983042 TO982944:TO983042 ADK982944:ADK983042 ANG982944:ANG983042 AXC982944:AXC983042 BGY982944:BGY983042 BQU982944:BQU983042 CAQ982944:CAQ983042 CKM982944:CKM983042 CUI982944:CUI983042 DEE982944:DEE983042 DOA982944:DOA983042 DXW982944:DXW983042 EHS982944:EHS983042 ERO982944:ERO983042 FBK982944:FBK983042 FLG982944:FLG983042 FVC982944:FVC983042 GEY982944:GEY983042 GOU982944:GOU983042 GYQ982944:GYQ983042 HIM982944:HIM983042 HSI982944:HSI983042 ICE982944:ICE983042 IMA982944:IMA983042 IVW982944:IVW983042 JFS982944:JFS983042 JPO982944:JPO983042 JZK982944:JZK983042 KJG982944:KJG983042 KTC982944:KTC983042 LCY982944:LCY983042 LMU982944:LMU983042 LWQ982944:LWQ983042 MGM982944:MGM983042 MQI982944:MQI983042 NAE982944:NAE983042 NKA982944:NKA983042 NTW982944:NTW983042 ODS982944:ODS983042 ONO982944:ONO983042 OXK982944:OXK983042 PHG982944:PHG983042 PRC982944:PRC983042 QAY982944:QAY983042 QKU982944:QKU983042 QUQ982944:QUQ983042 REM982944:REM983042 ROI982944:ROI983042 RYE982944:RYE983042 SIA982944:SIA983042 SRW982944:SRW983042 TBS982944:TBS983042 TLO982944:TLO983042 TVK982944:TVK983042 UFG982944:UFG983042 UPC982944:UPC983042 UYY982944:UYY983042 VIU982944:VIU983042 VSQ982944:VSQ983042 WCM982944:WCM983042 WMI982944:WMI983042 WWE982944:WWE983042 H2 JD2 SZ2 ACV2 AMR2 AWN2 BGJ2 BQF2 CAB2 CJX2 CTT2 DDP2 DNL2 DXH2 EHD2 EQZ2 FAV2 FKR2 FUN2 GEJ2 GOF2 GYB2 HHX2 HRT2 IBP2 ILL2 IVH2 JFD2 JOZ2 JYV2 KIR2 KSN2 LCJ2 LMF2 LWB2 MFX2 MPT2 MZP2 NJL2 NTH2 ODD2 OMZ2 OWV2 PGR2 PQN2 QAJ2 QKF2 QUB2 RDX2 RNT2 RXP2 SHL2 SRH2 TBD2 TKZ2 TUV2 UER2 UON2 UYJ2 VIF2 VSB2 WBX2 WLT2 WVP2 H65440:H65538 JD65440:JD65538 SZ65440:SZ65538 ACV65440:ACV65538 AMR65440:AMR65538 AWN65440:AWN65538 BGJ65440:BGJ65538 BQF65440:BQF65538 CAB65440:CAB65538 CJX65440:CJX65538 CTT65440:CTT65538 DDP65440:DDP65538 DNL65440:DNL65538 DXH65440:DXH65538 EHD65440:EHD65538 EQZ65440:EQZ65538 FAV65440:FAV65538 FKR65440:FKR65538 FUN65440:FUN65538 GEJ65440:GEJ65538 GOF65440:GOF65538 GYB65440:GYB65538 HHX65440:HHX65538 HRT65440:HRT65538 IBP65440:IBP65538 ILL65440:ILL65538 IVH65440:IVH65538 JFD65440:JFD65538 JOZ65440:JOZ65538 JYV65440:JYV65538 KIR65440:KIR65538 KSN65440:KSN65538 LCJ65440:LCJ65538 LMF65440:LMF65538 LWB65440:LWB65538 MFX65440:MFX65538 MPT65440:MPT65538 MZP65440:MZP65538 NJL65440:NJL65538 NTH65440:NTH65538 ODD65440:ODD65538 OMZ65440:OMZ65538 OWV65440:OWV65538 PGR65440:PGR65538 PQN65440:PQN65538 QAJ65440:QAJ65538 QKF65440:QKF65538 QUB65440:QUB65538 RDX65440:RDX65538 RNT65440:RNT65538 RXP65440:RXP65538 SHL65440:SHL65538 SRH65440:SRH65538 TBD65440:TBD65538 TKZ65440:TKZ65538 TUV65440:TUV65538 UER65440:UER65538 UON65440:UON65538 UYJ65440:UYJ65538 VIF65440:VIF65538 VSB65440:VSB65538 WBX65440:WBX65538 WLT65440:WLT65538 WVP65440:WVP65538 H130976:H131074 JD130976:JD131074 SZ130976:SZ131074 ACV130976:ACV131074 AMR130976:AMR131074 AWN130976:AWN131074 BGJ130976:BGJ131074 BQF130976:BQF131074 CAB130976:CAB131074 CJX130976:CJX131074 CTT130976:CTT131074 DDP130976:DDP131074 DNL130976:DNL131074 DXH130976:DXH131074 EHD130976:EHD131074 EQZ130976:EQZ131074 FAV130976:FAV131074 FKR130976:FKR131074 FUN130976:FUN131074 GEJ130976:GEJ131074 GOF130976:GOF131074 GYB130976:GYB131074 HHX130976:HHX131074 HRT130976:HRT131074 IBP130976:IBP131074 ILL130976:ILL131074 IVH130976:IVH131074 JFD130976:JFD131074 JOZ130976:JOZ131074 JYV130976:JYV131074 KIR130976:KIR131074 KSN130976:KSN131074 LCJ130976:LCJ131074 LMF130976:LMF131074 LWB130976:LWB131074 MFX130976:MFX131074 MPT130976:MPT131074 MZP130976:MZP131074 NJL130976:NJL131074 NTH130976:NTH131074 ODD130976:ODD131074 OMZ130976:OMZ131074 OWV130976:OWV131074 PGR130976:PGR131074 PQN130976:PQN131074 QAJ130976:QAJ131074 QKF130976:QKF131074 QUB130976:QUB131074 RDX130976:RDX131074 RNT130976:RNT131074 RXP130976:RXP131074 SHL130976:SHL131074 SRH130976:SRH131074 TBD130976:TBD131074 TKZ130976:TKZ131074 TUV130976:TUV131074 UER130976:UER131074 UON130976:UON131074 UYJ130976:UYJ131074 VIF130976:VIF131074 VSB130976:VSB131074 WBX130976:WBX131074 WLT130976:WLT131074 WVP130976:WVP131074 H196512:H196610 JD196512:JD196610 SZ196512:SZ196610 ACV196512:ACV196610 AMR196512:AMR196610 AWN196512:AWN196610 BGJ196512:BGJ196610 BQF196512:BQF196610 CAB196512:CAB196610 CJX196512:CJX196610 CTT196512:CTT196610 DDP196512:DDP196610 DNL196512:DNL196610 DXH196512:DXH196610 EHD196512:EHD196610 EQZ196512:EQZ196610 FAV196512:FAV196610 FKR196512:FKR196610 FUN196512:FUN196610 GEJ196512:GEJ196610 GOF196512:GOF196610 GYB196512:GYB196610 HHX196512:HHX196610 HRT196512:HRT196610 IBP196512:IBP196610 ILL196512:ILL196610 IVH196512:IVH196610 JFD196512:JFD196610 JOZ196512:JOZ196610 JYV196512:JYV196610 KIR196512:KIR196610 KSN196512:KSN196610 LCJ196512:LCJ196610 LMF196512:LMF196610 LWB196512:LWB196610 MFX196512:MFX196610 MPT196512:MPT196610 MZP196512:MZP196610 NJL196512:NJL196610 NTH196512:NTH196610 ODD196512:ODD196610 OMZ196512:OMZ196610 OWV196512:OWV196610 PGR196512:PGR196610 PQN196512:PQN196610 QAJ196512:QAJ196610 QKF196512:QKF196610 QUB196512:QUB196610 RDX196512:RDX196610 RNT196512:RNT196610 RXP196512:RXP196610 SHL196512:SHL196610 SRH196512:SRH196610 TBD196512:TBD196610 TKZ196512:TKZ196610 TUV196512:TUV196610 UER196512:UER196610 UON196512:UON196610 UYJ196512:UYJ196610 VIF196512:VIF196610 VSB196512:VSB196610 WBX196512:WBX196610 WLT196512:WLT196610 WVP196512:WVP196610 H262048:H262146 JD262048:JD262146 SZ262048:SZ262146 ACV262048:ACV262146 AMR262048:AMR262146 AWN262048:AWN262146 BGJ262048:BGJ262146 BQF262048:BQF262146 CAB262048:CAB262146 CJX262048:CJX262146 CTT262048:CTT262146 DDP262048:DDP262146 DNL262048:DNL262146 DXH262048:DXH262146 EHD262048:EHD262146 EQZ262048:EQZ262146 FAV262048:FAV262146 FKR262048:FKR262146 FUN262048:FUN262146 GEJ262048:GEJ262146 GOF262048:GOF262146 GYB262048:GYB262146 HHX262048:HHX262146 HRT262048:HRT262146 IBP262048:IBP262146 ILL262048:ILL262146 IVH262048:IVH262146 JFD262048:JFD262146 JOZ262048:JOZ262146 JYV262048:JYV262146 KIR262048:KIR262146 KSN262048:KSN262146 LCJ262048:LCJ262146 LMF262048:LMF262146 LWB262048:LWB262146 MFX262048:MFX262146 MPT262048:MPT262146 MZP262048:MZP262146 NJL262048:NJL262146 NTH262048:NTH262146 ODD262048:ODD262146 OMZ262048:OMZ262146 OWV262048:OWV262146 PGR262048:PGR262146 PQN262048:PQN262146 QAJ262048:QAJ262146 QKF262048:QKF262146 QUB262048:QUB262146 RDX262048:RDX262146 RNT262048:RNT262146 RXP262048:RXP262146 SHL262048:SHL262146 SRH262048:SRH262146 TBD262048:TBD262146 TKZ262048:TKZ262146 TUV262048:TUV262146 UER262048:UER262146 UON262048:UON262146 UYJ262048:UYJ262146 VIF262048:VIF262146 VSB262048:VSB262146 WBX262048:WBX262146 WLT262048:WLT262146 WVP262048:WVP262146 H327584:H327682 JD327584:JD327682 SZ327584:SZ327682 ACV327584:ACV327682 AMR327584:AMR327682 AWN327584:AWN327682 BGJ327584:BGJ327682 BQF327584:BQF327682 CAB327584:CAB327682 CJX327584:CJX327682 CTT327584:CTT327682 DDP327584:DDP327682 DNL327584:DNL327682 DXH327584:DXH327682 EHD327584:EHD327682 EQZ327584:EQZ327682 FAV327584:FAV327682 FKR327584:FKR327682 FUN327584:FUN327682 GEJ327584:GEJ327682 GOF327584:GOF327682 GYB327584:GYB327682 HHX327584:HHX327682 HRT327584:HRT327682 IBP327584:IBP327682 ILL327584:ILL327682 IVH327584:IVH327682 JFD327584:JFD327682 JOZ327584:JOZ327682 JYV327584:JYV327682 KIR327584:KIR327682 KSN327584:KSN327682 LCJ327584:LCJ327682 LMF327584:LMF327682 LWB327584:LWB327682 MFX327584:MFX327682 MPT327584:MPT327682 MZP327584:MZP327682 NJL327584:NJL327682 NTH327584:NTH327682 ODD327584:ODD327682 OMZ327584:OMZ327682 OWV327584:OWV327682 PGR327584:PGR327682 PQN327584:PQN327682 QAJ327584:QAJ327682 QKF327584:QKF327682 QUB327584:QUB327682 RDX327584:RDX327682 RNT327584:RNT327682 RXP327584:RXP327682 SHL327584:SHL327682 SRH327584:SRH327682 TBD327584:TBD327682 TKZ327584:TKZ327682 TUV327584:TUV327682 UER327584:UER327682 UON327584:UON327682 UYJ327584:UYJ327682 VIF327584:VIF327682 VSB327584:VSB327682 WBX327584:WBX327682 WLT327584:WLT327682 WVP327584:WVP327682 H393120:H393218 JD393120:JD393218 SZ393120:SZ393218 ACV393120:ACV393218 AMR393120:AMR393218 AWN393120:AWN393218 BGJ393120:BGJ393218 BQF393120:BQF393218 CAB393120:CAB393218 CJX393120:CJX393218 CTT393120:CTT393218 DDP393120:DDP393218 DNL393120:DNL393218 DXH393120:DXH393218 EHD393120:EHD393218 EQZ393120:EQZ393218 FAV393120:FAV393218 FKR393120:FKR393218 FUN393120:FUN393218 GEJ393120:GEJ393218 GOF393120:GOF393218 GYB393120:GYB393218 HHX393120:HHX393218 HRT393120:HRT393218 IBP393120:IBP393218 ILL393120:ILL393218 IVH393120:IVH393218 JFD393120:JFD393218 JOZ393120:JOZ393218 JYV393120:JYV393218 KIR393120:KIR393218 KSN393120:KSN393218 LCJ393120:LCJ393218 LMF393120:LMF393218 LWB393120:LWB393218 MFX393120:MFX393218 MPT393120:MPT393218 MZP393120:MZP393218 NJL393120:NJL393218 NTH393120:NTH393218 ODD393120:ODD393218 OMZ393120:OMZ393218 OWV393120:OWV393218 PGR393120:PGR393218 PQN393120:PQN393218 QAJ393120:QAJ393218 QKF393120:QKF393218 QUB393120:QUB393218 RDX393120:RDX393218 RNT393120:RNT393218 RXP393120:RXP393218 SHL393120:SHL393218 SRH393120:SRH393218 TBD393120:TBD393218 TKZ393120:TKZ393218 TUV393120:TUV393218 UER393120:UER393218 UON393120:UON393218 UYJ393120:UYJ393218 VIF393120:VIF393218 VSB393120:VSB393218 WBX393120:WBX393218 WLT393120:WLT393218 WVP393120:WVP393218 H458656:H458754 JD458656:JD458754 SZ458656:SZ458754 ACV458656:ACV458754 AMR458656:AMR458754 AWN458656:AWN458754 BGJ458656:BGJ458754 BQF458656:BQF458754 CAB458656:CAB458754 CJX458656:CJX458754 CTT458656:CTT458754 DDP458656:DDP458754 DNL458656:DNL458754 DXH458656:DXH458754 EHD458656:EHD458754 EQZ458656:EQZ458754 FAV458656:FAV458754 FKR458656:FKR458754 FUN458656:FUN458754 GEJ458656:GEJ458754 GOF458656:GOF458754 GYB458656:GYB458754 HHX458656:HHX458754 HRT458656:HRT458754 IBP458656:IBP458754 ILL458656:ILL458754 IVH458656:IVH458754 JFD458656:JFD458754 JOZ458656:JOZ458754 JYV458656:JYV458754 KIR458656:KIR458754 KSN458656:KSN458754 LCJ458656:LCJ458754 LMF458656:LMF458754 LWB458656:LWB458754 MFX458656:MFX458754 MPT458656:MPT458754 MZP458656:MZP458754 NJL458656:NJL458754 NTH458656:NTH458754 ODD458656:ODD458754 OMZ458656:OMZ458754 OWV458656:OWV458754 PGR458656:PGR458754 PQN458656:PQN458754 QAJ458656:QAJ458754 QKF458656:QKF458754 QUB458656:QUB458754 RDX458656:RDX458754 RNT458656:RNT458754 RXP458656:RXP458754 SHL458656:SHL458754 SRH458656:SRH458754 TBD458656:TBD458754 TKZ458656:TKZ458754 TUV458656:TUV458754 UER458656:UER458754 UON458656:UON458754 UYJ458656:UYJ458754 VIF458656:VIF458754 VSB458656:VSB458754 WBX458656:WBX458754 WLT458656:WLT458754 WVP458656:WVP458754 H524192:H524290 JD524192:JD524290 SZ524192:SZ524290 ACV524192:ACV524290 AMR524192:AMR524290 AWN524192:AWN524290 BGJ524192:BGJ524290 BQF524192:BQF524290 CAB524192:CAB524290 CJX524192:CJX524290 CTT524192:CTT524290 DDP524192:DDP524290 DNL524192:DNL524290 DXH524192:DXH524290 EHD524192:EHD524290 EQZ524192:EQZ524290 FAV524192:FAV524290 FKR524192:FKR524290 FUN524192:FUN524290 GEJ524192:GEJ524290 GOF524192:GOF524290 GYB524192:GYB524290 HHX524192:HHX524290 HRT524192:HRT524290 IBP524192:IBP524290 ILL524192:ILL524290 IVH524192:IVH524290 JFD524192:JFD524290 JOZ524192:JOZ524290 JYV524192:JYV524290 KIR524192:KIR524290 KSN524192:KSN524290 LCJ524192:LCJ524290 LMF524192:LMF524290 LWB524192:LWB524290 MFX524192:MFX524290 MPT524192:MPT524290 MZP524192:MZP524290 NJL524192:NJL524290 NTH524192:NTH524290 ODD524192:ODD524290 OMZ524192:OMZ524290 OWV524192:OWV524290 PGR524192:PGR524290 PQN524192:PQN524290 QAJ524192:QAJ524290 QKF524192:QKF524290 QUB524192:QUB524290 RDX524192:RDX524290 RNT524192:RNT524290 RXP524192:RXP524290 SHL524192:SHL524290 SRH524192:SRH524290 TBD524192:TBD524290 TKZ524192:TKZ524290 TUV524192:TUV524290 UER524192:UER524290 UON524192:UON524290 UYJ524192:UYJ524290 VIF524192:VIF524290 VSB524192:VSB524290 WBX524192:WBX524290 WLT524192:WLT524290 WVP524192:WVP524290 H589728:H589826 JD589728:JD589826 SZ589728:SZ589826 ACV589728:ACV589826 AMR589728:AMR589826 AWN589728:AWN589826 BGJ589728:BGJ589826 BQF589728:BQF589826 CAB589728:CAB589826 CJX589728:CJX589826 CTT589728:CTT589826 DDP589728:DDP589826 DNL589728:DNL589826 DXH589728:DXH589826 EHD589728:EHD589826 EQZ589728:EQZ589826 FAV589728:FAV589826 FKR589728:FKR589826 FUN589728:FUN589826 GEJ589728:GEJ589826 GOF589728:GOF589826 GYB589728:GYB589826 HHX589728:HHX589826 HRT589728:HRT589826 IBP589728:IBP589826 ILL589728:ILL589826 IVH589728:IVH589826 JFD589728:JFD589826 JOZ589728:JOZ589826 JYV589728:JYV589826 KIR589728:KIR589826 KSN589728:KSN589826 LCJ589728:LCJ589826 LMF589728:LMF589826 LWB589728:LWB589826 MFX589728:MFX589826 MPT589728:MPT589826 MZP589728:MZP589826 NJL589728:NJL589826 NTH589728:NTH589826 ODD589728:ODD589826 OMZ589728:OMZ589826 OWV589728:OWV589826 PGR589728:PGR589826 PQN589728:PQN589826 QAJ589728:QAJ589826 QKF589728:QKF589826 QUB589728:QUB589826 RDX589728:RDX589826 RNT589728:RNT589826 RXP589728:RXP589826 SHL589728:SHL589826 SRH589728:SRH589826 TBD589728:TBD589826 TKZ589728:TKZ589826 TUV589728:TUV589826 UER589728:UER589826 UON589728:UON589826 UYJ589728:UYJ589826 VIF589728:VIF589826 VSB589728:VSB589826 WBX589728:WBX589826 WLT589728:WLT589826 WVP589728:WVP589826 H655264:H655362 JD655264:JD655362 SZ655264:SZ655362 ACV655264:ACV655362 AMR655264:AMR655362 AWN655264:AWN655362 BGJ655264:BGJ655362 BQF655264:BQF655362 CAB655264:CAB655362 CJX655264:CJX655362 CTT655264:CTT655362 DDP655264:DDP655362 DNL655264:DNL655362 DXH655264:DXH655362 EHD655264:EHD655362 EQZ655264:EQZ655362 FAV655264:FAV655362 FKR655264:FKR655362 FUN655264:FUN655362 GEJ655264:GEJ655362 GOF655264:GOF655362 GYB655264:GYB655362 HHX655264:HHX655362 HRT655264:HRT655362 IBP655264:IBP655362 ILL655264:ILL655362 IVH655264:IVH655362 JFD655264:JFD655362 JOZ655264:JOZ655362 JYV655264:JYV655362 KIR655264:KIR655362 KSN655264:KSN655362 LCJ655264:LCJ655362 LMF655264:LMF655362 LWB655264:LWB655362 MFX655264:MFX655362 MPT655264:MPT655362 MZP655264:MZP655362 NJL655264:NJL655362 NTH655264:NTH655362 ODD655264:ODD655362 OMZ655264:OMZ655362 OWV655264:OWV655362 PGR655264:PGR655362 PQN655264:PQN655362 QAJ655264:QAJ655362 QKF655264:QKF655362 QUB655264:QUB655362 RDX655264:RDX655362 RNT655264:RNT655362 RXP655264:RXP655362 SHL655264:SHL655362 SRH655264:SRH655362 TBD655264:TBD655362 TKZ655264:TKZ655362 TUV655264:TUV655362 UER655264:UER655362 UON655264:UON655362 UYJ655264:UYJ655362 VIF655264:VIF655362 VSB655264:VSB655362 WBX655264:WBX655362 WLT655264:WLT655362 WVP655264:WVP655362 H720800:H720898 JD720800:JD720898 SZ720800:SZ720898 ACV720800:ACV720898 AMR720800:AMR720898 AWN720800:AWN720898 BGJ720800:BGJ720898 BQF720800:BQF720898 CAB720800:CAB720898 CJX720800:CJX720898 CTT720800:CTT720898 DDP720800:DDP720898 DNL720800:DNL720898 DXH720800:DXH720898 EHD720800:EHD720898 EQZ720800:EQZ720898 FAV720800:FAV720898 FKR720800:FKR720898 FUN720800:FUN720898 GEJ720800:GEJ720898 GOF720800:GOF720898 GYB720800:GYB720898 HHX720800:HHX720898 HRT720800:HRT720898 IBP720800:IBP720898 ILL720800:ILL720898 IVH720800:IVH720898 JFD720800:JFD720898 JOZ720800:JOZ720898 JYV720800:JYV720898 KIR720800:KIR720898 KSN720800:KSN720898 LCJ720800:LCJ720898 LMF720800:LMF720898 LWB720800:LWB720898 MFX720800:MFX720898 MPT720800:MPT720898 MZP720800:MZP720898 NJL720800:NJL720898 NTH720800:NTH720898 ODD720800:ODD720898 OMZ720800:OMZ720898 OWV720800:OWV720898 PGR720800:PGR720898 PQN720800:PQN720898 QAJ720800:QAJ720898 QKF720800:QKF720898 QUB720800:QUB720898 RDX720800:RDX720898 RNT720800:RNT720898 RXP720800:RXP720898 SHL720800:SHL720898 SRH720800:SRH720898 TBD720800:TBD720898 TKZ720800:TKZ720898 TUV720800:TUV720898 UER720800:UER720898 UON720800:UON720898 UYJ720800:UYJ720898 VIF720800:VIF720898 VSB720800:VSB720898 WBX720800:WBX720898 WLT720800:WLT720898 WVP720800:WVP720898 H786336:H786434 JD786336:JD786434 SZ786336:SZ786434 ACV786336:ACV786434 AMR786336:AMR786434 AWN786336:AWN786434 BGJ786336:BGJ786434 BQF786336:BQF786434 CAB786336:CAB786434 CJX786336:CJX786434 CTT786336:CTT786434 DDP786336:DDP786434 DNL786336:DNL786434 DXH786336:DXH786434 EHD786336:EHD786434 EQZ786336:EQZ786434 FAV786336:FAV786434 FKR786336:FKR786434 FUN786336:FUN786434 GEJ786336:GEJ786434 GOF786336:GOF786434 GYB786336:GYB786434 HHX786336:HHX786434 HRT786336:HRT786434 IBP786336:IBP786434 ILL786336:ILL786434 IVH786336:IVH786434 JFD786336:JFD786434 JOZ786336:JOZ786434 JYV786336:JYV786434 KIR786336:KIR786434 KSN786336:KSN786434 LCJ786336:LCJ786434 LMF786336:LMF786434 LWB786336:LWB786434 MFX786336:MFX786434 MPT786336:MPT786434 MZP786336:MZP786434 NJL786336:NJL786434 NTH786336:NTH786434 ODD786336:ODD786434 OMZ786336:OMZ786434 OWV786336:OWV786434 PGR786336:PGR786434 PQN786336:PQN786434 QAJ786336:QAJ786434 QKF786336:QKF786434 QUB786336:QUB786434 RDX786336:RDX786434 RNT786336:RNT786434 RXP786336:RXP786434 SHL786336:SHL786434 SRH786336:SRH786434 TBD786336:TBD786434 TKZ786336:TKZ786434 TUV786336:TUV786434 UER786336:UER786434 UON786336:UON786434 UYJ786336:UYJ786434 VIF786336:VIF786434 VSB786336:VSB786434 WBX786336:WBX786434 WLT786336:WLT786434 WVP786336:WVP786434 H851872:H851970 JD851872:JD851970 SZ851872:SZ851970 ACV851872:ACV851970 AMR851872:AMR851970 AWN851872:AWN851970 BGJ851872:BGJ851970 BQF851872:BQF851970 CAB851872:CAB851970 CJX851872:CJX851970 CTT851872:CTT851970 DDP851872:DDP851970 DNL851872:DNL851970 DXH851872:DXH851970 EHD851872:EHD851970 EQZ851872:EQZ851970 FAV851872:FAV851970 FKR851872:FKR851970 FUN851872:FUN851970 GEJ851872:GEJ851970 GOF851872:GOF851970 GYB851872:GYB851970 HHX851872:HHX851970 HRT851872:HRT851970 IBP851872:IBP851970 ILL851872:ILL851970 IVH851872:IVH851970 JFD851872:JFD851970 JOZ851872:JOZ851970 JYV851872:JYV851970 KIR851872:KIR851970 KSN851872:KSN851970 LCJ851872:LCJ851970 LMF851872:LMF851970 LWB851872:LWB851970 MFX851872:MFX851970 MPT851872:MPT851970 MZP851872:MZP851970 NJL851872:NJL851970 NTH851872:NTH851970 ODD851872:ODD851970 OMZ851872:OMZ851970 OWV851872:OWV851970 PGR851872:PGR851970 PQN851872:PQN851970 QAJ851872:QAJ851970 QKF851872:QKF851970 QUB851872:QUB851970 RDX851872:RDX851970 RNT851872:RNT851970 RXP851872:RXP851970 SHL851872:SHL851970 SRH851872:SRH851970 TBD851872:TBD851970 TKZ851872:TKZ851970 TUV851872:TUV851970 UER851872:UER851970 UON851872:UON851970 UYJ851872:UYJ851970 VIF851872:VIF851970 VSB851872:VSB851970 WBX851872:WBX851970 WLT851872:WLT851970 WVP851872:WVP851970 H917408:H917506 JD917408:JD917506 SZ917408:SZ917506 ACV917408:ACV917506 AMR917408:AMR917506 AWN917408:AWN917506 BGJ917408:BGJ917506 BQF917408:BQF917506 CAB917408:CAB917506 CJX917408:CJX917506 CTT917408:CTT917506 DDP917408:DDP917506 DNL917408:DNL917506 DXH917408:DXH917506 EHD917408:EHD917506 EQZ917408:EQZ917506 FAV917408:FAV917506 FKR917408:FKR917506 FUN917408:FUN917506 GEJ917408:GEJ917506 GOF917408:GOF917506 GYB917408:GYB917506 HHX917408:HHX917506 HRT917408:HRT917506 IBP917408:IBP917506 ILL917408:ILL917506 IVH917408:IVH917506 JFD917408:JFD917506 JOZ917408:JOZ917506 JYV917408:JYV917506 KIR917408:KIR917506 KSN917408:KSN917506 LCJ917408:LCJ917506 LMF917408:LMF917506 LWB917408:LWB917506 MFX917408:MFX917506 MPT917408:MPT917506 MZP917408:MZP917506 NJL917408:NJL917506 NTH917408:NTH917506 ODD917408:ODD917506 OMZ917408:OMZ917506 OWV917408:OWV917506 PGR917408:PGR917506 PQN917408:PQN917506 QAJ917408:QAJ917506 QKF917408:QKF917506 QUB917408:QUB917506 RDX917408:RDX917506 RNT917408:RNT917506 RXP917408:RXP917506 SHL917408:SHL917506 SRH917408:SRH917506 TBD917408:TBD917506 TKZ917408:TKZ917506 TUV917408:TUV917506 UER917408:UER917506 UON917408:UON917506 UYJ917408:UYJ917506 VIF917408:VIF917506 VSB917408:VSB917506 WBX917408:WBX917506 WLT917408:WLT917506 WVP917408:WVP917506 H982944:H983042 JD982944:JD983042 SZ982944:SZ983042 ACV982944:ACV983042 AMR982944:AMR983042 AWN982944:AWN983042 BGJ982944:BGJ983042 BQF982944:BQF983042 CAB982944:CAB983042 CJX982944:CJX983042 CTT982944:CTT983042 DDP982944:DDP983042 DNL982944:DNL983042 DXH982944:DXH983042 EHD982944:EHD983042 EQZ982944:EQZ983042 FAV982944:FAV983042 FKR982944:FKR983042 FUN982944:FUN983042 GEJ982944:GEJ983042 GOF982944:GOF983042 GYB982944:GYB983042 HHX982944:HHX983042 HRT982944:HRT983042 IBP982944:IBP983042 ILL982944:ILL983042 IVH982944:IVH983042 JFD982944:JFD983042 JOZ982944:JOZ983042 JYV982944:JYV983042 KIR982944:KIR983042 KSN982944:KSN983042 LCJ982944:LCJ983042 LMF982944:LMF983042 LWB982944:LWB983042 MFX982944:MFX983042 MPT982944:MPT983042 MZP982944:MZP983042 NJL982944:NJL983042 NTH982944:NTH983042 ODD982944:ODD983042 OMZ982944:OMZ983042 OWV982944:OWV983042 PGR982944:PGR983042 PQN982944:PQN983042 QAJ982944:QAJ983042 QKF982944:QKF983042 QUB982944:QUB983042 RDX982944:RDX983042 RNT982944:RNT983042 RXP982944:RXP983042 SHL982944:SHL983042 SRH982944:SRH983042 TBD982944:TBD983042 TKZ982944:TKZ983042 TUV982944:TUV983042 UER982944:UER983042 UON982944:UON983042 UYJ982944:UYJ983042 VIF982944:VIF983042 VSB982944:VSB983042 WBX982944:WBX983042 WLT982944:WLT983042 WVP982944:WVP983042" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 JU2 TQ2 ADM2 ANI2 AXE2 BHA2 BQW2 CAS2 CKO2 CUK2 DEG2 DOC2 DXY2 EHU2 ERQ2 FBM2 FLI2 FVE2 GFA2 GOW2 GYS2 HIO2 HSK2 ICG2 IMC2 IVY2 JFU2 JPQ2 JZM2 KJI2 KTE2 LDA2 LMW2 LWS2 MGO2 MQK2 NAG2 NKC2 NTY2 ODU2 ONQ2 OXM2 PHI2 PRE2 QBA2 QKW2 QUS2 REO2 ROK2 RYG2 SIC2 SRY2 TBU2 TLQ2 TVM2 UFI2 UPE2 UZA2 VIW2 VSS2 WCO2 WMK2 WWG2 Y65440:Y65538 JU65440:JU65538 TQ65440:TQ65538 ADM65440:ADM65538 ANI65440:ANI65538 AXE65440:AXE65538 BHA65440:BHA65538 BQW65440:BQW65538 CAS65440:CAS65538 CKO65440:CKO65538 CUK65440:CUK65538 DEG65440:DEG65538 DOC65440:DOC65538 DXY65440:DXY65538 EHU65440:EHU65538 ERQ65440:ERQ65538 FBM65440:FBM65538 FLI65440:FLI65538 FVE65440:FVE65538 GFA65440:GFA65538 GOW65440:GOW65538 GYS65440:GYS65538 HIO65440:HIO65538 HSK65440:HSK65538 ICG65440:ICG65538 IMC65440:IMC65538 IVY65440:IVY65538 JFU65440:JFU65538 JPQ65440:JPQ65538 JZM65440:JZM65538 KJI65440:KJI65538 KTE65440:KTE65538 LDA65440:LDA65538 LMW65440:LMW65538 LWS65440:LWS65538 MGO65440:MGO65538 MQK65440:MQK65538 NAG65440:NAG65538 NKC65440:NKC65538 NTY65440:NTY65538 ODU65440:ODU65538 ONQ65440:ONQ65538 OXM65440:OXM65538 PHI65440:PHI65538 PRE65440:PRE65538 QBA65440:QBA65538 QKW65440:QKW65538 QUS65440:QUS65538 REO65440:REO65538 ROK65440:ROK65538 RYG65440:RYG65538 SIC65440:SIC65538 SRY65440:SRY65538 TBU65440:TBU65538 TLQ65440:TLQ65538 TVM65440:TVM65538 UFI65440:UFI65538 UPE65440:UPE65538 UZA65440:UZA65538 VIW65440:VIW65538 VSS65440:VSS65538 WCO65440:WCO65538 WMK65440:WMK65538 WWG65440:WWG65538 Y130976:Y131074 JU130976:JU131074 TQ130976:TQ131074 ADM130976:ADM131074 ANI130976:ANI131074 AXE130976:AXE131074 BHA130976:BHA131074 BQW130976:BQW131074 CAS130976:CAS131074 CKO130976:CKO131074 CUK130976:CUK131074 DEG130976:DEG131074 DOC130976:DOC131074 DXY130976:DXY131074 EHU130976:EHU131074 ERQ130976:ERQ131074 FBM130976:FBM131074 FLI130976:FLI131074 FVE130976:FVE131074 GFA130976:GFA131074 GOW130976:GOW131074 GYS130976:GYS131074 HIO130976:HIO131074 HSK130976:HSK131074 ICG130976:ICG131074 IMC130976:IMC131074 IVY130976:IVY131074 JFU130976:JFU131074 JPQ130976:JPQ131074 JZM130976:JZM131074 KJI130976:KJI131074 KTE130976:KTE131074 LDA130976:LDA131074 LMW130976:LMW131074 LWS130976:LWS131074 MGO130976:MGO131074 MQK130976:MQK131074 NAG130976:NAG131074 NKC130976:NKC131074 NTY130976:NTY131074 ODU130976:ODU131074 ONQ130976:ONQ131074 OXM130976:OXM131074 PHI130976:PHI131074 PRE130976:PRE131074 QBA130976:QBA131074 QKW130976:QKW131074 QUS130976:QUS131074 REO130976:REO131074 ROK130976:ROK131074 RYG130976:RYG131074 SIC130976:SIC131074 SRY130976:SRY131074 TBU130976:TBU131074 TLQ130976:TLQ131074 TVM130976:TVM131074 UFI130976:UFI131074 UPE130976:UPE131074 UZA130976:UZA131074 VIW130976:VIW131074 VSS130976:VSS131074 WCO130976:WCO131074 WMK130976:WMK131074 WWG130976:WWG131074 Y196512:Y196610 JU196512:JU196610 TQ196512:TQ196610 ADM196512:ADM196610 ANI196512:ANI196610 AXE196512:AXE196610 BHA196512:BHA196610 BQW196512:BQW196610 CAS196512:CAS196610 CKO196512:CKO196610 CUK196512:CUK196610 DEG196512:DEG196610 DOC196512:DOC196610 DXY196512:DXY196610 EHU196512:EHU196610 ERQ196512:ERQ196610 FBM196512:FBM196610 FLI196512:FLI196610 FVE196512:FVE196610 GFA196512:GFA196610 GOW196512:GOW196610 GYS196512:GYS196610 HIO196512:HIO196610 HSK196512:HSK196610 ICG196512:ICG196610 IMC196512:IMC196610 IVY196512:IVY196610 JFU196512:JFU196610 JPQ196512:JPQ196610 JZM196512:JZM196610 KJI196512:KJI196610 KTE196512:KTE196610 LDA196512:LDA196610 LMW196512:LMW196610 LWS196512:LWS196610 MGO196512:MGO196610 MQK196512:MQK196610 NAG196512:NAG196610 NKC196512:NKC196610 NTY196512:NTY196610 ODU196512:ODU196610 ONQ196512:ONQ196610 OXM196512:OXM196610 PHI196512:PHI196610 PRE196512:PRE196610 QBA196512:QBA196610 QKW196512:QKW196610 QUS196512:QUS196610 REO196512:REO196610 ROK196512:ROK196610 RYG196512:RYG196610 SIC196512:SIC196610 SRY196512:SRY196610 TBU196512:TBU196610 TLQ196512:TLQ196610 TVM196512:TVM196610 UFI196512:UFI196610 UPE196512:UPE196610 UZA196512:UZA196610 VIW196512:VIW196610 VSS196512:VSS196610 WCO196512:WCO196610 WMK196512:WMK196610 WWG196512:WWG196610 Y262048:Y262146 JU262048:JU262146 TQ262048:TQ262146 ADM262048:ADM262146 ANI262048:ANI262146 AXE262048:AXE262146 BHA262048:BHA262146 BQW262048:BQW262146 CAS262048:CAS262146 CKO262048:CKO262146 CUK262048:CUK262146 DEG262048:DEG262146 DOC262048:DOC262146 DXY262048:DXY262146 EHU262048:EHU262146 ERQ262048:ERQ262146 FBM262048:FBM262146 FLI262048:FLI262146 FVE262048:FVE262146 GFA262048:GFA262146 GOW262048:GOW262146 GYS262048:GYS262146 HIO262048:HIO262146 HSK262048:HSK262146 ICG262048:ICG262146 IMC262048:IMC262146 IVY262048:IVY262146 JFU262048:JFU262146 JPQ262048:JPQ262146 JZM262048:JZM262146 KJI262048:KJI262146 KTE262048:KTE262146 LDA262048:LDA262146 LMW262048:LMW262146 LWS262048:LWS262146 MGO262048:MGO262146 MQK262048:MQK262146 NAG262048:NAG262146 NKC262048:NKC262146 NTY262048:NTY262146 ODU262048:ODU262146 ONQ262048:ONQ262146 OXM262048:OXM262146 PHI262048:PHI262146 PRE262048:PRE262146 QBA262048:QBA262146 QKW262048:QKW262146 QUS262048:QUS262146 REO262048:REO262146 ROK262048:ROK262146 RYG262048:RYG262146 SIC262048:SIC262146 SRY262048:SRY262146 TBU262048:TBU262146 TLQ262048:TLQ262146 TVM262048:TVM262146 UFI262048:UFI262146 UPE262048:UPE262146 UZA262048:UZA262146 VIW262048:VIW262146 VSS262048:VSS262146 WCO262048:WCO262146 WMK262048:WMK262146 WWG262048:WWG262146 Y327584:Y327682 JU327584:JU327682 TQ327584:TQ327682 ADM327584:ADM327682 ANI327584:ANI327682 AXE327584:AXE327682 BHA327584:BHA327682 BQW327584:BQW327682 CAS327584:CAS327682 CKO327584:CKO327682 CUK327584:CUK327682 DEG327584:DEG327682 DOC327584:DOC327682 DXY327584:DXY327682 EHU327584:EHU327682 ERQ327584:ERQ327682 FBM327584:FBM327682 FLI327584:FLI327682 FVE327584:FVE327682 GFA327584:GFA327682 GOW327584:GOW327682 GYS327584:GYS327682 HIO327584:HIO327682 HSK327584:HSK327682 ICG327584:ICG327682 IMC327584:IMC327682 IVY327584:IVY327682 JFU327584:JFU327682 JPQ327584:JPQ327682 JZM327584:JZM327682 KJI327584:KJI327682 KTE327584:KTE327682 LDA327584:LDA327682 LMW327584:LMW327682 LWS327584:LWS327682 MGO327584:MGO327682 MQK327584:MQK327682 NAG327584:NAG327682 NKC327584:NKC327682 NTY327584:NTY327682 ODU327584:ODU327682 ONQ327584:ONQ327682 OXM327584:OXM327682 PHI327584:PHI327682 PRE327584:PRE327682 QBA327584:QBA327682 QKW327584:QKW327682 QUS327584:QUS327682 REO327584:REO327682 ROK327584:ROK327682 RYG327584:RYG327682 SIC327584:SIC327682 SRY327584:SRY327682 TBU327584:TBU327682 TLQ327584:TLQ327682 TVM327584:TVM327682 UFI327584:UFI327682 UPE327584:UPE327682 UZA327584:UZA327682 VIW327584:VIW327682 VSS327584:VSS327682 WCO327584:WCO327682 WMK327584:WMK327682 WWG327584:WWG327682 Y393120:Y393218 JU393120:JU393218 TQ393120:TQ393218 ADM393120:ADM393218 ANI393120:ANI393218 AXE393120:AXE393218 BHA393120:BHA393218 BQW393120:BQW393218 CAS393120:CAS393218 CKO393120:CKO393218 CUK393120:CUK393218 DEG393120:DEG393218 DOC393120:DOC393218 DXY393120:DXY393218 EHU393120:EHU393218 ERQ393120:ERQ393218 FBM393120:FBM393218 FLI393120:FLI393218 FVE393120:FVE393218 GFA393120:GFA393218 GOW393120:GOW393218 GYS393120:GYS393218 HIO393120:HIO393218 HSK393120:HSK393218 ICG393120:ICG393218 IMC393120:IMC393218 IVY393120:IVY393218 JFU393120:JFU393218 JPQ393120:JPQ393218 JZM393120:JZM393218 KJI393120:KJI393218 KTE393120:KTE393218 LDA393120:LDA393218 LMW393120:LMW393218 LWS393120:LWS393218 MGO393120:MGO393218 MQK393120:MQK393218 NAG393120:NAG393218 NKC393120:NKC393218 NTY393120:NTY393218 ODU393120:ODU393218 ONQ393120:ONQ393218 OXM393120:OXM393218 PHI393120:PHI393218 PRE393120:PRE393218 QBA393120:QBA393218 QKW393120:QKW393218 QUS393120:QUS393218 REO393120:REO393218 ROK393120:ROK393218 RYG393120:RYG393218 SIC393120:SIC393218 SRY393120:SRY393218 TBU393120:TBU393218 TLQ393120:TLQ393218 TVM393120:TVM393218 UFI393120:UFI393218 UPE393120:UPE393218 UZA393120:UZA393218 VIW393120:VIW393218 VSS393120:VSS393218 WCO393120:WCO393218 WMK393120:WMK393218 WWG393120:WWG393218 Y458656:Y458754 JU458656:JU458754 TQ458656:TQ458754 ADM458656:ADM458754 ANI458656:ANI458754 AXE458656:AXE458754 BHA458656:BHA458754 BQW458656:BQW458754 CAS458656:CAS458754 CKO458656:CKO458754 CUK458656:CUK458754 DEG458656:DEG458754 DOC458656:DOC458754 DXY458656:DXY458754 EHU458656:EHU458754 ERQ458656:ERQ458754 FBM458656:FBM458754 FLI458656:FLI458754 FVE458656:FVE458754 GFA458656:GFA458754 GOW458656:GOW458754 GYS458656:GYS458754 HIO458656:HIO458754 HSK458656:HSK458754 ICG458656:ICG458754 IMC458656:IMC458754 IVY458656:IVY458754 JFU458656:JFU458754 JPQ458656:JPQ458754 JZM458656:JZM458754 KJI458656:KJI458754 KTE458656:KTE458754 LDA458656:LDA458754 LMW458656:LMW458754 LWS458656:LWS458754 MGO458656:MGO458754 MQK458656:MQK458754 NAG458656:NAG458754 NKC458656:NKC458754 NTY458656:NTY458754 ODU458656:ODU458754 ONQ458656:ONQ458754 OXM458656:OXM458754 PHI458656:PHI458754 PRE458656:PRE458754 QBA458656:QBA458754 QKW458656:QKW458754 QUS458656:QUS458754 REO458656:REO458754 ROK458656:ROK458754 RYG458656:RYG458754 SIC458656:SIC458754 SRY458656:SRY458754 TBU458656:TBU458754 TLQ458656:TLQ458754 TVM458656:TVM458754 UFI458656:UFI458754 UPE458656:UPE458754 UZA458656:UZA458754 VIW458656:VIW458754 VSS458656:VSS458754 WCO458656:WCO458754 WMK458656:WMK458754 WWG458656:WWG458754 Y524192:Y524290 JU524192:JU524290 TQ524192:TQ524290 ADM524192:ADM524290 ANI524192:ANI524290 AXE524192:AXE524290 BHA524192:BHA524290 BQW524192:BQW524290 CAS524192:CAS524290 CKO524192:CKO524290 CUK524192:CUK524290 DEG524192:DEG524290 DOC524192:DOC524290 DXY524192:DXY524290 EHU524192:EHU524290 ERQ524192:ERQ524290 FBM524192:FBM524290 FLI524192:FLI524290 FVE524192:FVE524290 GFA524192:GFA524290 GOW524192:GOW524290 GYS524192:GYS524290 HIO524192:HIO524290 HSK524192:HSK524290 ICG524192:ICG524290 IMC524192:IMC524290 IVY524192:IVY524290 JFU524192:JFU524290 JPQ524192:JPQ524290 JZM524192:JZM524290 KJI524192:KJI524290 KTE524192:KTE524290 LDA524192:LDA524290 LMW524192:LMW524290 LWS524192:LWS524290 MGO524192:MGO524290 MQK524192:MQK524290 NAG524192:NAG524290 NKC524192:NKC524290 NTY524192:NTY524290 ODU524192:ODU524290 ONQ524192:ONQ524290 OXM524192:OXM524290 PHI524192:PHI524290 PRE524192:PRE524290 QBA524192:QBA524290 QKW524192:QKW524290 QUS524192:QUS524290 REO524192:REO524290 ROK524192:ROK524290 RYG524192:RYG524290 SIC524192:SIC524290 SRY524192:SRY524290 TBU524192:TBU524290 TLQ524192:TLQ524290 TVM524192:TVM524290 UFI524192:UFI524290 UPE524192:UPE524290 UZA524192:UZA524290 VIW524192:VIW524290 VSS524192:VSS524290 WCO524192:WCO524290 WMK524192:WMK524290 WWG524192:WWG524290 Y589728:Y589826 JU589728:JU589826 TQ589728:TQ589826 ADM589728:ADM589826 ANI589728:ANI589826 AXE589728:AXE589826 BHA589728:BHA589826 BQW589728:BQW589826 CAS589728:CAS589826 CKO589728:CKO589826 CUK589728:CUK589826 DEG589728:DEG589826 DOC589728:DOC589826 DXY589728:DXY589826 EHU589728:EHU589826 ERQ589728:ERQ589826 FBM589728:FBM589826 FLI589728:FLI589826 FVE589728:FVE589826 GFA589728:GFA589826 GOW589728:GOW589826 GYS589728:GYS589826 HIO589728:HIO589826 HSK589728:HSK589826 ICG589728:ICG589826 IMC589728:IMC589826 IVY589728:IVY589826 JFU589728:JFU589826 JPQ589728:JPQ589826 JZM589728:JZM589826 KJI589728:KJI589826 KTE589728:KTE589826 LDA589728:LDA589826 LMW589728:LMW589826 LWS589728:LWS589826 MGO589728:MGO589826 MQK589728:MQK589826 NAG589728:NAG589826 NKC589728:NKC589826 NTY589728:NTY589826 ODU589728:ODU589826 ONQ589728:ONQ589826 OXM589728:OXM589826 PHI589728:PHI589826 PRE589728:PRE589826 QBA589728:QBA589826 QKW589728:QKW589826 QUS589728:QUS589826 REO589728:REO589826 ROK589728:ROK589826 RYG589728:RYG589826 SIC589728:SIC589826 SRY589728:SRY589826 TBU589728:TBU589826 TLQ589728:TLQ589826 TVM589728:TVM589826 UFI589728:UFI589826 UPE589728:UPE589826 UZA589728:UZA589826 VIW589728:VIW589826 VSS589728:VSS589826 WCO589728:WCO589826 WMK589728:WMK589826 WWG589728:WWG589826 Y655264:Y655362 JU655264:JU655362 TQ655264:TQ655362 ADM655264:ADM655362 ANI655264:ANI655362 AXE655264:AXE655362 BHA655264:BHA655362 BQW655264:BQW655362 CAS655264:CAS655362 CKO655264:CKO655362 CUK655264:CUK655362 DEG655264:DEG655362 DOC655264:DOC655362 DXY655264:DXY655362 EHU655264:EHU655362 ERQ655264:ERQ655362 FBM655264:FBM655362 FLI655264:FLI655362 FVE655264:FVE655362 GFA655264:GFA655362 GOW655264:GOW655362 GYS655264:GYS655362 HIO655264:HIO655362 HSK655264:HSK655362 ICG655264:ICG655362 IMC655264:IMC655362 IVY655264:IVY655362 JFU655264:JFU655362 JPQ655264:JPQ655362 JZM655264:JZM655362 KJI655264:KJI655362 KTE655264:KTE655362 LDA655264:LDA655362 LMW655264:LMW655362 LWS655264:LWS655362 MGO655264:MGO655362 MQK655264:MQK655362 NAG655264:NAG655362 NKC655264:NKC655362 NTY655264:NTY655362 ODU655264:ODU655362 ONQ655264:ONQ655362 OXM655264:OXM655362 PHI655264:PHI655362 PRE655264:PRE655362 QBA655264:QBA655362 QKW655264:QKW655362 QUS655264:QUS655362 REO655264:REO655362 ROK655264:ROK655362 RYG655264:RYG655362 SIC655264:SIC655362 SRY655264:SRY655362 TBU655264:TBU655362 TLQ655264:TLQ655362 TVM655264:TVM655362 UFI655264:UFI655362 UPE655264:UPE655362 UZA655264:UZA655362 VIW655264:VIW655362 VSS655264:VSS655362 WCO655264:WCO655362 WMK655264:WMK655362 WWG655264:WWG655362 Y720800:Y720898 JU720800:JU720898 TQ720800:TQ720898 ADM720800:ADM720898 ANI720800:ANI720898 AXE720800:AXE720898 BHA720800:BHA720898 BQW720800:BQW720898 CAS720800:CAS720898 CKO720800:CKO720898 CUK720800:CUK720898 DEG720800:DEG720898 DOC720800:DOC720898 DXY720800:DXY720898 EHU720800:EHU720898 ERQ720800:ERQ720898 FBM720800:FBM720898 FLI720800:FLI720898 FVE720800:FVE720898 GFA720800:GFA720898 GOW720800:GOW720898 GYS720800:GYS720898 HIO720800:HIO720898 HSK720800:HSK720898 ICG720800:ICG720898 IMC720800:IMC720898 IVY720800:IVY720898 JFU720800:JFU720898 JPQ720800:JPQ720898 JZM720800:JZM720898 KJI720800:KJI720898 KTE720800:KTE720898 LDA720800:LDA720898 LMW720800:LMW720898 LWS720800:LWS720898 MGO720800:MGO720898 MQK720800:MQK720898 NAG720800:NAG720898 NKC720800:NKC720898 NTY720800:NTY720898 ODU720800:ODU720898 ONQ720800:ONQ720898 OXM720800:OXM720898 PHI720800:PHI720898 PRE720800:PRE720898 QBA720800:QBA720898 QKW720800:QKW720898 QUS720800:QUS720898 REO720800:REO720898 ROK720800:ROK720898 RYG720800:RYG720898 SIC720800:SIC720898 SRY720800:SRY720898 TBU720800:TBU720898 TLQ720800:TLQ720898 TVM720800:TVM720898 UFI720800:UFI720898 UPE720800:UPE720898 UZA720800:UZA720898 VIW720800:VIW720898 VSS720800:VSS720898 WCO720800:WCO720898 WMK720800:WMK720898 WWG720800:WWG720898 Y786336:Y786434 JU786336:JU786434 TQ786336:TQ786434 ADM786336:ADM786434 ANI786336:ANI786434 AXE786336:AXE786434 BHA786336:BHA786434 BQW786336:BQW786434 CAS786336:CAS786434 CKO786336:CKO786434 CUK786336:CUK786434 DEG786336:DEG786434 DOC786336:DOC786434 DXY786336:DXY786434 EHU786336:EHU786434 ERQ786336:ERQ786434 FBM786336:FBM786434 FLI786336:FLI786434 FVE786336:FVE786434 GFA786336:GFA786434 GOW786336:GOW786434 GYS786336:GYS786434 HIO786336:HIO786434 HSK786336:HSK786434 ICG786336:ICG786434 IMC786336:IMC786434 IVY786336:IVY786434 JFU786336:JFU786434 JPQ786336:JPQ786434 JZM786336:JZM786434 KJI786336:KJI786434 KTE786336:KTE786434 LDA786336:LDA786434 LMW786336:LMW786434 LWS786336:LWS786434 MGO786336:MGO786434 MQK786336:MQK786434 NAG786336:NAG786434 NKC786336:NKC786434 NTY786336:NTY786434 ODU786336:ODU786434 ONQ786336:ONQ786434 OXM786336:OXM786434 PHI786336:PHI786434 PRE786336:PRE786434 QBA786336:QBA786434 QKW786336:QKW786434 QUS786336:QUS786434 REO786336:REO786434 ROK786336:ROK786434 RYG786336:RYG786434 SIC786336:SIC786434 SRY786336:SRY786434 TBU786336:TBU786434 TLQ786336:TLQ786434 TVM786336:TVM786434 UFI786336:UFI786434 UPE786336:UPE786434 UZA786336:UZA786434 VIW786336:VIW786434 VSS786336:VSS786434 WCO786336:WCO786434 WMK786336:WMK786434 WWG786336:WWG786434 Y851872:Y851970 JU851872:JU851970 TQ851872:TQ851970 ADM851872:ADM851970 ANI851872:ANI851970 AXE851872:AXE851970 BHA851872:BHA851970 BQW851872:BQW851970 CAS851872:CAS851970 CKO851872:CKO851970 CUK851872:CUK851970 DEG851872:DEG851970 DOC851872:DOC851970 DXY851872:DXY851970 EHU851872:EHU851970 ERQ851872:ERQ851970 FBM851872:FBM851970 FLI851872:FLI851970 FVE851872:FVE851970 GFA851872:GFA851970 GOW851872:GOW851970 GYS851872:GYS851970 HIO851872:HIO851970 HSK851872:HSK851970 ICG851872:ICG851970 IMC851872:IMC851970 IVY851872:IVY851970 JFU851872:JFU851970 JPQ851872:JPQ851970 JZM851872:JZM851970 KJI851872:KJI851970 KTE851872:KTE851970 LDA851872:LDA851970 LMW851872:LMW851970 LWS851872:LWS851970 MGO851872:MGO851970 MQK851872:MQK851970 NAG851872:NAG851970 NKC851872:NKC851970 NTY851872:NTY851970 ODU851872:ODU851970 ONQ851872:ONQ851970 OXM851872:OXM851970 PHI851872:PHI851970 PRE851872:PRE851970 QBA851872:QBA851970 QKW851872:QKW851970 QUS851872:QUS851970 REO851872:REO851970 ROK851872:ROK851970 RYG851872:RYG851970 SIC851872:SIC851970 SRY851872:SRY851970 TBU851872:TBU851970 TLQ851872:TLQ851970 TVM851872:TVM851970 UFI851872:UFI851970 UPE851872:UPE851970 UZA851872:UZA851970 VIW851872:VIW851970 VSS851872:VSS851970 WCO851872:WCO851970 WMK851872:WMK851970 WWG851872:WWG851970 Y917408:Y917506 JU917408:JU917506 TQ917408:TQ917506 ADM917408:ADM917506 ANI917408:ANI917506 AXE917408:AXE917506 BHA917408:BHA917506 BQW917408:BQW917506 CAS917408:CAS917506 CKO917408:CKO917506 CUK917408:CUK917506 DEG917408:DEG917506 DOC917408:DOC917506 DXY917408:DXY917506 EHU917408:EHU917506 ERQ917408:ERQ917506 FBM917408:FBM917506 FLI917408:FLI917506 FVE917408:FVE917506 GFA917408:GFA917506 GOW917408:GOW917506 GYS917408:GYS917506 HIO917408:HIO917506 HSK917408:HSK917506 ICG917408:ICG917506 IMC917408:IMC917506 IVY917408:IVY917506 JFU917408:JFU917506 JPQ917408:JPQ917506 JZM917408:JZM917506 KJI917408:KJI917506 KTE917408:KTE917506 LDA917408:LDA917506 LMW917408:LMW917506 LWS917408:LWS917506 MGO917408:MGO917506 MQK917408:MQK917506 NAG917408:NAG917506 NKC917408:NKC917506 NTY917408:NTY917506 ODU917408:ODU917506 ONQ917408:ONQ917506 OXM917408:OXM917506 PHI917408:PHI917506 PRE917408:PRE917506 QBA917408:QBA917506 QKW917408:QKW917506 QUS917408:QUS917506 REO917408:REO917506 ROK917408:ROK917506 RYG917408:RYG917506 SIC917408:SIC917506 SRY917408:SRY917506 TBU917408:TBU917506 TLQ917408:TLQ917506 TVM917408:TVM917506 UFI917408:UFI917506 UPE917408:UPE917506 UZA917408:UZA917506 VIW917408:VIW917506 VSS917408:VSS917506 WCO917408:WCO917506 WMK917408:WMK917506 WWG917408:WWG917506 Y982944:Y983042 JU982944:JU983042 TQ982944:TQ983042 ADM982944:ADM983042 ANI982944:ANI983042 AXE982944:AXE983042 BHA982944:BHA983042 BQW982944:BQW983042 CAS982944:CAS983042 CKO982944:CKO983042 CUK982944:CUK983042 DEG982944:DEG983042 DOC982944:DOC983042 DXY982944:DXY983042 EHU982944:EHU983042 ERQ982944:ERQ983042 FBM982944:FBM983042 FLI982944:FLI983042 FVE982944:FVE983042 GFA982944:GFA983042 GOW982944:GOW983042 GYS982944:GYS983042 HIO982944:HIO983042 HSK982944:HSK983042 ICG982944:ICG983042 IMC982944:IMC983042 IVY982944:IVY983042 JFU982944:JFU983042 JPQ982944:JPQ983042 JZM982944:JZM983042 KJI982944:KJI983042 KTE982944:KTE983042 LDA982944:LDA983042 LMW982944:LMW983042 LWS982944:LWS983042 MGO982944:MGO983042 MQK982944:MQK983042 NAG982944:NAG983042 NKC982944:NKC983042 NTY982944:NTY983042 ODU982944:ODU983042 ONQ982944:ONQ983042 OXM982944:OXM983042 PHI982944:PHI983042 PRE982944:PRE983042 QBA982944:QBA983042 QKW982944:QKW983042 QUS982944:QUS983042 REO982944:REO983042 ROK982944:ROK983042 RYG982944:RYG983042 SIC982944:SIC983042 SRY982944:SRY983042 TBU982944:TBU983042 TLQ982944:TLQ983042 TVM982944:TVM983042 UFI982944:UFI983042 UPE982944:UPE983042 UZA982944:UZA983042 VIW982944:VIW983042 VSS982944:VSS983042 WCO982944:WCO983042 WMK982944:WMK983042 WWG982944:WWG983042 J2 JF2 TB2 ACX2 AMT2 AWP2 BGL2 BQH2 CAD2 CJZ2 CTV2 DDR2 DNN2 DXJ2 EHF2 ERB2 FAX2 FKT2 FUP2 GEL2 GOH2 GYD2 HHZ2 HRV2 IBR2 ILN2 IVJ2 JFF2 JPB2 JYX2 KIT2 KSP2 LCL2 LMH2 LWD2 MFZ2 MPV2 MZR2 NJN2 NTJ2 ODF2 ONB2 OWX2 PGT2 PQP2 QAL2 QKH2 QUD2 RDZ2 RNV2 RXR2 SHN2 SRJ2 TBF2 TLB2 TUX2 UET2 UOP2 UYL2 VIH2 VSD2 WBZ2 WLV2 WVR2 J65440:J65538 JF65440:JF65538 TB65440:TB65538 ACX65440:ACX65538 AMT65440:AMT65538 AWP65440:AWP65538 BGL65440:BGL65538 BQH65440:BQH65538 CAD65440:CAD65538 CJZ65440:CJZ65538 CTV65440:CTV65538 DDR65440:DDR65538 DNN65440:DNN65538 DXJ65440:DXJ65538 EHF65440:EHF65538 ERB65440:ERB65538 FAX65440:FAX65538 FKT65440:FKT65538 FUP65440:FUP65538 GEL65440:GEL65538 GOH65440:GOH65538 GYD65440:GYD65538 HHZ65440:HHZ65538 HRV65440:HRV65538 IBR65440:IBR65538 ILN65440:ILN65538 IVJ65440:IVJ65538 JFF65440:JFF65538 JPB65440:JPB65538 JYX65440:JYX65538 KIT65440:KIT65538 KSP65440:KSP65538 LCL65440:LCL65538 LMH65440:LMH65538 LWD65440:LWD65538 MFZ65440:MFZ65538 MPV65440:MPV65538 MZR65440:MZR65538 NJN65440:NJN65538 NTJ65440:NTJ65538 ODF65440:ODF65538 ONB65440:ONB65538 OWX65440:OWX65538 PGT65440:PGT65538 PQP65440:PQP65538 QAL65440:QAL65538 QKH65440:QKH65538 QUD65440:QUD65538 RDZ65440:RDZ65538 RNV65440:RNV65538 RXR65440:RXR65538 SHN65440:SHN65538 SRJ65440:SRJ65538 TBF65440:TBF65538 TLB65440:TLB65538 TUX65440:TUX65538 UET65440:UET65538 UOP65440:UOP65538 UYL65440:UYL65538 VIH65440:VIH65538 VSD65440:VSD65538 WBZ65440:WBZ65538 WLV65440:WLV65538 WVR65440:WVR65538 J130976:J131074 JF130976:JF131074 TB130976:TB131074 ACX130976:ACX131074 AMT130976:AMT131074 AWP130976:AWP131074 BGL130976:BGL131074 BQH130976:BQH131074 CAD130976:CAD131074 CJZ130976:CJZ131074 CTV130976:CTV131074 DDR130976:DDR131074 DNN130976:DNN131074 DXJ130976:DXJ131074 EHF130976:EHF131074 ERB130976:ERB131074 FAX130976:FAX131074 FKT130976:FKT131074 FUP130976:FUP131074 GEL130976:GEL131074 GOH130976:GOH131074 GYD130976:GYD131074 HHZ130976:HHZ131074 HRV130976:HRV131074 IBR130976:IBR131074 ILN130976:ILN131074 IVJ130976:IVJ131074 JFF130976:JFF131074 JPB130976:JPB131074 JYX130976:JYX131074 KIT130976:KIT131074 KSP130976:KSP131074 LCL130976:LCL131074 LMH130976:LMH131074 LWD130976:LWD131074 MFZ130976:MFZ131074 MPV130976:MPV131074 MZR130976:MZR131074 NJN130976:NJN131074 NTJ130976:NTJ131074 ODF130976:ODF131074 ONB130976:ONB131074 OWX130976:OWX131074 PGT130976:PGT131074 PQP130976:PQP131074 QAL130976:QAL131074 QKH130976:QKH131074 QUD130976:QUD131074 RDZ130976:RDZ131074 RNV130976:RNV131074 RXR130976:RXR131074 SHN130976:SHN131074 SRJ130976:SRJ131074 TBF130976:TBF131074 TLB130976:TLB131074 TUX130976:TUX131074 UET130976:UET131074 UOP130976:UOP131074 UYL130976:UYL131074 VIH130976:VIH131074 VSD130976:VSD131074 WBZ130976:WBZ131074 WLV130976:WLV131074 WVR130976:WVR131074 J196512:J196610 JF196512:JF196610 TB196512:TB196610 ACX196512:ACX196610 AMT196512:AMT196610 AWP196512:AWP196610 BGL196512:BGL196610 BQH196512:BQH196610 CAD196512:CAD196610 CJZ196512:CJZ196610 CTV196512:CTV196610 DDR196512:DDR196610 DNN196512:DNN196610 DXJ196512:DXJ196610 EHF196512:EHF196610 ERB196512:ERB196610 FAX196512:FAX196610 FKT196512:FKT196610 FUP196512:FUP196610 GEL196512:GEL196610 GOH196512:GOH196610 GYD196512:GYD196610 HHZ196512:HHZ196610 HRV196512:HRV196610 IBR196512:IBR196610 ILN196512:ILN196610 IVJ196512:IVJ196610 JFF196512:JFF196610 JPB196512:JPB196610 JYX196512:JYX196610 KIT196512:KIT196610 KSP196512:KSP196610 LCL196512:LCL196610 LMH196512:LMH196610 LWD196512:LWD196610 MFZ196512:MFZ196610 MPV196512:MPV196610 MZR196512:MZR196610 NJN196512:NJN196610 NTJ196512:NTJ196610 ODF196512:ODF196610 ONB196512:ONB196610 OWX196512:OWX196610 PGT196512:PGT196610 PQP196512:PQP196610 QAL196512:QAL196610 QKH196512:QKH196610 QUD196512:QUD196610 RDZ196512:RDZ196610 RNV196512:RNV196610 RXR196512:RXR196610 SHN196512:SHN196610 SRJ196512:SRJ196610 TBF196512:TBF196610 TLB196512:TLB196610 TUX196512:TUX196610 UET196512:UET196610 UOP196512:UOP196610 UYL196512:UYL196610 VIH196512:VIH196610 VSD196512:VSD196610 WBZ196512:WBZ196610 WLV196512:WLV196610 WVR196512:WVR196610 J262048:J262146 JF262048:JF262146 TB262048:TB262146 ACX262048:ACX262146 AMT262048:AMT262146 AWP262048:AWP262146 BGL262048:BGL262146 BQH262048:BQH262146 CAD262048:CAD262146 CJZ262048:CJZ262146 CTV262048:CTV262146 DDR262048:DDR262146 DNN262048:DNN262146 DXJ262048:DXJ262146 EHF262048:EHF262146 ERB262048:ERB262146 FAX262048:FAX262146 FKT262048:FKT262146 FUP262048:FUP262146 GEL262048:GEL262146 GOH262048:GOH262146 GYD262048:GYD262146 HHZ262048:HHZ262146 HRV262048:HRV262146 IBR262048:IBR262146 ILN262048:ILN262146 IVJ262048:IVJ262146 JFF262048:JFF262146 JPB262048:JPB262146 JYX262048:JYX262146 KIT262048:KIT262146 KSP262048:KSP262146 LCL262048:LCL262146 LMH262048:LMH262146 LWD262048:LWD262146 MFZ262048:MFZ262146 MPV262048:MPV262146 MZR262048:MZR262146 NJN262048:NJN262146 NTJ262048:NTJ262146 ODF262048:ODF262146 ONB262048:ONB262146 OWX262048:OWX262146 PGT262048:PGT262146 PQP262048:PQP262146 QAL262048:QAL262146 QKH262048:QKH262146 QUD262048:QUD262146 RDZ262048:RDZ262146 RNV262048:RNV262146 RXR262048:RXR262146 SHN262048:SHN262146 SRJ262048:SRJ262146 TBF262048:TBF262146 TLB262048:TLB262146 TUX262048:TUX262146 UET262048:UET262146 UOP262048:UOP262146 UYL262048:UYL262146 VIH262048:VIH262146 VSD262048:VSD262146 WBZ262048:WBZ262146 WLV262048:WLV262146 WVR262048:WVR262146 J327584:J327682 JF327584:JF327682 TB327584:TB327682 ACX327584:ACX327682 AMT327584:AMT327682 AWP327584:AWP327682 BGL327584:BGL327682 BQH327584:BQH327682 CAD327584:CAD327682 CJZ327584:CJZ327682 CTV327584:CTV327682 DDR327584:DDR327682 DNN327584:DNN327682 DXJ327584:DXJ327682 EHF327584:EHF327682 ERB327584:ERB327682 FAX327584:FAX327682 FKT327584:FKT327682 FUP327584:FUP327682 GEL327584:GEL327682 GOH327584:GOH327682 GYD327584:GYD327682 HHZ327584:HHZ327682 HRV327584:HRV327682 IBR327584:IBR327682 ILN327584:ILN327682 IVJ327584:IVJ327682 JFF327584:JFF327682 JPB327584:JPB327682 JYX327584:JYX327682 KIT327584:KIT327682 KSP327584:KSP327682 LCL327584:LCL327682 LMH327584:LMH327682 LWD327584:LWD327682 MFZ327584:MFZ327682 MPV327584:MPV327682 MZR327584:MZR327682 NJN327584:NJN327682 NTJ327584:NTJ327682 ODF327584:ODF327682 ONB327584:ONB327682 OWX327584:OWX327682 PGT327584:PGT327682 PQP327584:PQP327682 QAL327584:QAL327682 QKH327584:QKH327682 QUD327584:QUD327682 RDZ327584:RDZ327682 RNV327584:RNV327682 RXR327584:RXR327682 SHN327584:SHN327682 SRJ327584:SRJ327682 TBF327584:TBF327682 TLB327584:TLB327682 TUX327584:TUX327682 UET327584:UET327682 UOP327584:UOP327682 UYL327584:UYL327682 VIH327584:VIH327682 VSD327584:VSD327682 WBZ327584:WBZ327682 WLV327584:WLV327682 WVR327584:WVR327682 J393120:J393218 JF393120:JF393218 TB393120:TB393218 ACX393120:ACX393218 AMT393120:AMT393218 AWP393120:AWP393218 BGL393120:BGL393218 BQH393120:BQH393218 CAD393120:CAD393218 CJZ393120:CJZ393218 CTV393120:CTV393218 DDR393120:DDR393218 DNN393120:DNN393218 DXJ393120:DXJ393218 EHF393120:EHF393218 ERB393120:ERB393218 FAX393120:FAX393218 FKT393120:FKT393218 FUP393120:FUP393218 GEL393120:GEL393218 GOH393120:GOH393218 GYD393120:GYD393218 HHZ393120:HHZ393218 HRV393120:HRV393218 IBR393120:IBR393218 ILN393120:ILN393218 IVJ393120:IVJ393218 JFF393120:JFF393218 JPB393120:JPB393218 JYX393120:JYX393218 KIT393120:KIT393218 KSP393120:KSP393218 LCL393120:LCL393218 LMH393120:LMH393218 LWD393120:LWD393218 MFZ393120:MFZ393218 MPV393120:MPV393218 MZR393120:MZR393218 NJN393120:NJN393218 NTJ393120:NTJ393218 ODF393120:ODF393218 ONB393120:ONB393218 OWX393120:OWX393218 PGT393120:PGT393218 PQP393120:PQP393218 QAL393120:QAL393218 QKH393120:QKH393218 QUD393120:QUD393218 RDZ393120:RDZ393218 RNV393120:RNV393218 RXR393120:RXR393218 SHN393120:SHN393218 SRJ393120:SRJ393218 TBF393120:TBF393218 TLB393120:TLB393218 TUX393120:TUX393218 UET393120:UET393218 UOP393120:UOP393218 UYL393120:UYL393218 VIH393120:VIH393218 VSD393120:VSD393218 WBZ393120:WBZ393218 WLV393120:WLV393218 WVR393120:WVR393218 J458656:J458754 JF458656:JF458754 TB458656:TB458754 ACX458656:ACX458754 AMT458656:AMT458754 AWP458656:AWP458754 BGL458656:BGL458754 BQH458656:BQH458754 CAD458656:CAD458754 CJZ458656:CJZ458754 CTV458656:CTV458754 DDR458656:DDR458754 DNN458656:DNN458754 DXJ458656:DXJ458754 EHF458656:EHF458754 ERB458656:ERB458754 FAX458656:FAX458754 FKT458656:FKT458754 FUP458656:FUP458754 GEL458656:GEL458754 GOH458656:GOH458754 GYD458656:GYD458754 HHZ458656:HHZ458754 HRV458656:HRV458754 IBR458656:IBR458754 ILN458656:ILN458754 IVJ458656:IVJ458754 JFF458656:JFF458754 JPB458656:JPB458754 JYX458656:JYX458754 KIT458656:KIT458754 KSP458656:KSP458754 LCL458656:LCL458754 LMH458656:LMH458754 LWD458656:LWD458754 MFZ458656:MFZ458754 MPV458656:MPV458754 MZR458656:MZR458754 NJN458656:NJN458754 NTJ458656:NTJ458754 ODF458656:ODF458754 ONB458656:ONB458754 OWX458656:OWX458754 PGT458656:PGT458754 PQP458656:PQP458754 QAL458656:QAL458754 QKH458656:QKH458754 QUD458656:QUD458754 RDZ458656:RDZ458754 RNV458656:RNV458754 RXR458656:RXR458754 SHN458656:SHN458754 SRJ458656:SRJ458754 TBF458656:TBF458754 TLB458656:TLB458754 TUX458656:TUX458754 UET458656:UET458754 UOP458656:UOP458754 UYL458656:UYL458754 VIH458656:VIH458754 VSD458656:VSD458754 WBZ458656:WBZ458754 WLV458656:WLV458754 WVR458656:WVR458754 J524192:J524290 JF524192:JF524290 TB524192:TB524290 ACX524192:ACX524290 AMT524192:AMT524290 AWP524192:AWP524290 BGL524192:BGL524290 BQH524192:BQH524290 CAD524192:CAD524290 CJZ524192:CJZ524290 CTV524192:CTV524290 DDR524192:DDR524290 DNN524192:DNN524290 DXJ524192:DXJ524290 EHF524192:EHF524290 ERB524192:ERB524290 FAX524192:FAX524290 FKT524192:FKT524290 FUP524192:FUP524290 GEL524192:GEL524290 GOH524192:GOH524290 GYD524192:GYD524290 HHZ524192:HHZ524290 HRV524192:HRV524290 IBR524192:IBR524290 ILN524192:ILN524290 IVJ524192:IVJ524290 JFF524192:JFF524290 JPB524192:JPB524290 JYX524192:JYX524290 KIT524192:KIT524290 KSP524192:KSP524290 LCL524192:LCL524290 LMH524192:LMH524290 LWD524192:LWD524290 MFZ524192:MFZ524290 MPV524192:MPV524290 MZR524192:MZR524290 NJN524192:NJN524290 NTJ524192:NTJ524290 ODF524192:ODF524290 ONB524192:ONB524290 OWX524192:OWX524290 PGT524192:PGT524290 PQP524192:PQP524290 QAL524192:QAL524290 QKH524192:QKH524290 QUD524192:QUD524290 RDZ524192:RDZ524290 RNV524192:RNV524290 RXR524192:RXR524290 SHN524192:SHN524290 SRJ524192:SRJ524290 TBF524192:TBF524290 TLB524192:TLB524290 TUX524192:TUX524290 UET524192:UET524290 UOP524192:UOP524290 UYL524192:UYL524290 VIH524192:VIH524290 VSD524192:VSD524290 WBZ524192:WBZ524290 WLV524192:WLV524290 WVR524192:WVR524290 J589728:J589826 JF589728:JF589826 TB589728:TB589826 ACX589728:ACX589826 AMT589728:AMT589826 AWP589728:AWP589826 BGL589728:BGL589826 BQH589728:BQH589826 CAD589728:CAD589826 CJZ589728:CJZ589826 CTV589728:CTV589826 DDR589728:DDR589826 DNN589728:DNN589826 DXJ589728:DXJ589826 EHF589728:EHF589826 ERB589728:ERB589826 FAX589728:FAX589826 FKT589728:FKT589826 FUP589728:FUP589826 GEL589728:GEL589826 GOH589728:GOH589826 GYD589728:GYD589826 HHZ589728:HHZ589826 HRV589728:HRV589826 IBR589728:IBR589826 ILN589728:ILN589826 IVJ589728:IVJ589826 JFF589728:JFF589826 JPB589728:JPB589826 JYX589728:JYX589826 KIT589728:KIT589826 KSP589728:KSP589826 LCL589728:LCL589826 LMH589728:LMH589826 LWD589728:LWD589826 MFZ589728:MFZ589826 MPV589728:MPV589826 MZR589728:MZR589826 NJN589728:NJN589826 NTJ589728:NTJ589826 ODF589728:ODF589826 ONB589728:ONB589826 OWX589728:OWX589826 PGT589728:PGT589826 PQP589728:PQP589826 QAL589728:QAL589826 QKH589728:QKH589826 QUD589728:QUD589826 RDZ589728:RDZ589826 RNV589728:RNV589826 RXR589728:RXR589826 SHN589728:SHN589826 SRJ589728:SRJ589826 TBF589728:TBF589826 TLB589728:TLB589826 TUX589728:TUX589826 UET589728:UET589826 UOP589728:UOP589826 UYL589728:UYL589826 VIH589728:VIH589826 VSD589728:VSD589826 WBZ589728:WBZ589826 WLV589728:WLV589826 WVR589728:WVR589826 J655264:J655362 JF655264:JF655362 TB655264:TB655362 ACX655264:ACX655362 AMT655264:AMT655362 AWP655264:AWP655362 BGL655264:BGL655362 BQH655264:BQH655362 CAD655264:CAD655362 CJZ655264:CJZ655362 CTV655264:CTV655362 DDR655264:DDR655362 DNN655264:DNN655362 DXJ655264:DXJ655362 EHF655264:EHF655362 ERB655264:ERB655362 FAX655264:FAX655362 FKT655264:FKT655362 FUP655264:FUP655362 GEL655264:GEL655362 GOH655264:GOH655362 GYD655264:GYD655362 HHZ655264:HHZ655362 HRV655264:HRV655362 IBR655264:IBR655362 ILN655264:ILN655362 IVJ655264:IVJ655362 JFF655264:JFF655362 JPB655264:JPB655362 JYX655264:JYX655362 KIT655264:KIT655362 KSP655264:KSP655362 LCL655264:LCL655362 LMH655264:LMH655362 LWD655264:LWD655362 MFZ655264:MFZ655362 MPV655264:MPV655362 MZR655264:MZR655362 NJN655264:NJN655362 NTJ655264:NTJ655362 ODF655264:ODF655362 ONB655264:ONB655362 OWX655264:OWX655362 PGT655264:PGT655362 PQP655264:PQP655362 QAL655264:QAL655362 QKH655264:QKH655362 QUD655264:QUD655362 RDZ655264:RDZ655362 RNV655264:RNV655362 RXR655264:RXR655362 SHN655264:SHN655362 SRJ655264:SRJ655362 TBF655264:TBF655362 TLB655264:TLB655362 TUX655264:TUX655362 UET655264:UET655362 UOP655264:UOP655362 UYL655264:UYL655362 VIH655264:VIH655362 VSD655264:VSD655362 WBZ655264:WBZ655362 WLV655264:WLV655362 WVR655264:WVR655362 J720800:J720898 JF720800:JF720898 TB720800:TB720898 ACX720800:ACX720898 AMT720800:AMT720898 AWP720800:AWP720898 BGL720800:BGL720898 BQH720800:BQH720898 CAD720800:CAD720898 CJZ720800:CJZ720898 CTV720800:CTV720898 DDR720800:DDR720898 DNN720800:DNN720898 DXJ720800:DXJ720898 EHF720800:EHF720898 ERB720800:ERB720898 FAX720800:FAX720898 FKT720800:FKT720898 FUP720800:FUP720898 GEL720800:GEL720898 GOH720800:GOH720898 GYD720800:GYD720898 HHZ720800:HHZ720898 HRV720800:HRV720898 IBR720800:IBR720898 ILN720800:ILN720898 IVJ720800:IVJ720898 JFF720800:JFF720898 JPB720800:JPB720898 JYX720800:JYX720898 KIT720800:KIT720898 KSP720800:KSP720898 LCL720800:LCL720898 LMH720800:LMH720898 LWD720800:LWD720898 MFZ720800:MFZ720898 MPV720800:MPV720898 MZR720800:MZR720898 NJN720800:NJN720898 NTJ720800:NTJ720898 ODF720800:ODF720898 ONB720800:ONB720898 OWX720800:OWX720898 PGT720800:PGT720898 PQP720800:PQP720898 QAL720800:QAL720898 QKH720800:QKH720898 QUD720800:QUD720898 RDZ720800:RDZ720898 RNV720800:RNV720898 RXR720800:RXR720898 SHN720800:SHN720898 SRJ720800:SRJ720898 TBF720800:TBF720898 TLB720800:TLB720898 TUX720800:TUX720898 UET720800:UET720898 UOP720800:UOP720898 UYL720800:UYL720898 VIH720800:VIH720898 VSD720800:VSD720898 WBZ720800:WBZ720898 WLV720800:WLV720898 WVR720800:WVR720898 J786336:J786434 JF786336:JF786434 TB786336:TB786434 ACX786336:ACX786434 AMT786336:AMT786434 AWP786336:AWP786434 BGL786336:BGL786434 BQH786336:BQH786434 CAD786336:CAD786434 CJZ786336:CJZ786434 CTV786336:CTV786434 DDR786336:DDR786434 DNN786336:DNN786434 DXJ786336:DXJ786434 EHF786336:EHF786434 ERB786336:ERB786434 FAX786336:FAX786434 FKT786336:FKT786434 FUP786336:FUP786434 GEL786336:GEL786434 GOH786336:GOH786434 GYD786336:GYD786434 HHZ786336:HHZ786434 HRV786336:HRV786434 IBR786336:IBR786434 ILN786336:ILN786434 IVJ786336:IVJ786434 JFF786336:JFF786434 JPB786336:JPB786434 JYX786336:JYX786434 KIT786336:KIT786434 KSP786336:KSP786434 LCL786336:LCL786434 LMH786336:LMH786434 LWD786336:LWD786434 MFZ786336:MFZ786434 MPV786336:MPV786434 MZR786336:MZR786434 NJN786336:NJN786434 NTJ786336:NTJ786434 ODF786336:ODF786434 ONB786336:ONB786434 OWX786336:OWX786434 PGT786336:PGT786434 PQP786336:PQP786434 QAL786336:QAL786434 QKH786336:QKH786434 QUD786336:QUD786434 RDZ786336:RDZ786434 RNV786336:RNV786434 RXR786336:RXR786434 SHN786336:SHN786434 SRJ786336:SRJ786434 TBF786336:TBF786434 TLB786336:TLB786434 TUX786336:TUX786434 UET786336:UET786434 UOP786336:UOP786434 UYL786336:UYL786434 VIH786336:VIH786434 VSD786336:VSD786434 WBZ786336:WBZ786434 WLV786336:WLV786434 WVR786336:WVR786434 J851872:J851970 JF851872:JF851970 TB851872:TB851970 ACX851872:ACX851970 AMT851872:AMT851970 AWP851872:AWP851970 BGL851872:BGL851970 BQH851872:BQH851970 CAD851872:CAD851970 CJZ851872:CJZ851970 CTV851872:CTV851970 DDR851872:DDR851970 DNN851872:DNN851970 DXJ851872:DXJ851970 EHF851872:EHF851970 ERB851872:ERB851970 FAX851872:FAX851970 FKT851872:FKT851970 FUP851872:FUP851970 GEL851872:GEL851970 GOH851872:GOH851970 GYD851872:GYD851970 HHZ851872:HHZ851970 HRV851872:HRV851970 IBR851872:IBR851970 ILN851872:ILN851970 IVJ851872:IVJ851970 JFF851872:JFF851970 JPB851872:JPB851970 JYX851872:JYX851970 KIT851872:KIT851970 KSP851872:KSP851970 LCL851872:LCL851970 LMH851872:LMH851970 LWD851872:LWD851970 MFZ851872:MFZ851970 MPV851872:MPV851970 MZR851872:MZR851970 NJN851872:NJN851970 NTJ851872:NTJ851970 ODF851872:ODF851970 ONB851872:ONB851970 OWX851872:OWX851970 PGT851872:PGT851970 PQP851872:PQP851970 QAL851872:QAL851970 QKH851872:QKH851970 QUD851872:QUD851970 RDZ851872:RDZ851970 RNV851872:RNV851970 RXR851872:RXR851970 SHN851872:SHN851970 SRJ851872:SRJ851970 TBF851872:TBF851970 TLB851872:TLB851970 TUX851872:TUX851970 UET851872:UET851970 UOP851872:UOP851970 UYL851872:UYL851970 VIH851872:VIH851970 VSD851872:VSD851970 WBZ851872:WBZ851970 WLV851872:WLV851970 WVR851872:WVR851970 J917408:J917506 JF917408:JF917506 TB917408:TB917506 ACX917408:ACX917506 AMT917408:AMT917506 AWP917408:AWP917506 BGL917408:BGL917506 BQH917408:BQH917506 CAD917408:CAD917506 CJZ917408:CJZ917506 CTV917408:CTV917506 DDR917408:DDR917506 DNN917408:DNN917506 DXJ917408:DXJ917506 EHF917408:EHF917506 ERB917408:ERB917506 FAX917408:FAX917506 FKT917408:FKT917506 FUP917408:FUP917506 GEL917408:GEL917506 GOH917408:GOH917506 GYD917408:GYD917506 HHZ917408:HHZ917506 HRV917408:HRV917506 IBR917408:IBR917506 ILN917408:ILN917506 IVJ917408:IVJ917506 JFF917408:JFF917506 JPB917408:JPB917506 JYX917408:JYX917506 KIT917408:KIT917506 KSP917408:KSP917506 LCL917408:LCL917506 LMH917408:LMH917506 LWD917408:LWD917506 MFZ917408:MFZ917506 MPV917408:MPV917506 MZR917408:MZR917506 NJN917408:NJN917506 NTJ917408:NTJ917506 ODF917408:ODF917506 ONB917408:ONB917506 OWX917408:OWX917506 PGT917408:PGT917506 PQP917408:PQP917506 QAL917408:QAL917506 QKH917408:QKH917506 QUD917408:QUD917506 RDZ917408:RDZ917506 RNV917408:RNV917506 RXR917408:RXR917506 SHN917408:SHN917506 SRJ917408:SRJ917506 TBF917408:TBF917506 TLB917408:TLB917506 TUX917408:TUX917506 UET917408:UET917506 UOP917408:UOP917506 UYL917408:UYL917506 VIH917408:VIH917506 VSD917408:VSD917506 WBZ917408:WBZ917506 WLV917408:WLV917506 WVR917408:WVR917506 J982944:J983042 JF982944:JF983042 TB982944:TB983042 ACX982944:ACX983042 AMT982944:AMT983042 AWP982944:AWP983042 BGL982944:BGL983042 BQH982944:BQH983042 CAD982944:CAD983042 CJZ982944:CJZ983042 CTV982944:CTV983042 DDR982944:DDR983042 DNN982944:DNN983042 DXJ982944:DXJ983042 EHF982944:EHF983042 ERB982944:ERB983042 FAX982944:FAX983042 FKT982944:FKT983042 FUP982944:FUP983042 GEL982944:GEL983042 GOH982944:GOH983042 GYD982944:GYD983042 HHZ982944:HHZ983042 HRV982944:HRV983042 IBR982944:IBR983042 ILN982944:ILN983042 IVJ982944:IVJ983042 JFF982944:JFF983042 JPB982944:JPB983042 JYX982944:JYX983042 KIT982944:KIT983042 KSP982944:KSP983042 LCL982944:LCL983042 LMH982944:LMH983042 LWD982944:LWD983042 MFZ982944:MFZ983042 MPV982944:MPV983042 MZR982944:MZR983042 NJN982944:NJN983042 NTJ982944:NTJ983042 ODF982944:ODF983042 ONB982944:ONB983042 OWX982944:OWX983042 PGT982944:PGT983042 PQP982944:PQP983042 QAL982944:QAL983042 QKH982944:QKH983042 QUD982944:QUD983042 RDZ982944:RDZ983042 RNV982944:RNV983042 RXR982944:RXR983042 SHN982944:SHN983042 SRJ982944:SRJ983042 TBF982944:TBF983042 TLB982944:TLB983042 TUX982944:TUX983042 UET982944:UET983042 UOP982944:UOP983042 UYL982944:UYL983042 VIH982944:VIH983042 VSD982944:VSD983042 WBZ982944:WBZ983042 WLV982944:WLV983042 WVR982944:WVR983042" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 JT2 TP2 ADL2 ANH2 AXD2 BGZ2 BQV2 CAR2 CKN2 CUJ2 DEF2 DOB2 DXX2 EHT2 ERP2 FBL2 FLH2 FVD2 GEZ2 GOV2 GYR2 HIN2 HSJ2 ICF2 IMB2 IVX2 JFT2 JPP2 JZL2 KJH2 KTD2 LCZ2 LMV2 LWR2 MGN2 MQJ2 NAF2 NKB2 NTX2 ODT2 ONP2 OXL2 PHH2 PRD2 QAZ2 QKV2 QUR2 REN2 ROJ2 RYF2 SIB2 SRX2 TBT2 TLP2 TVL2 UFH2 UPD2 UYZ2 VIV2 VSR2 WCN2 WMJ2 WWF2 X65440:X65538 JT65440:JT65538 TP65440:TP65538 ADL65440:ADL65538 ANH65440:ANH65538 AXD65440:AXD65538 BGZ65440:BGZ65538 BQV65440:BQV65538 CAR65440:CAR65538 CKN65440:CKN65538 CUJ65440:CUJ65538 DEF65440:DEF65538 DOB65440:DOB65538 DXX65440:DXX65538 EHT65440:EHT65538 ERP65440:ERP65538 FBL65440:FBL65538 FLH65440:FLH65538 FVD65440:FVD65538 GEZ65440:GEZ65538 GOV65440:GOV65538 GYR65440:GYR65538 HIN65440:HIN65538 HSJ65440:HSJ65538 ICF65440:ICF65538 IMB65440:IMB65538 IVX65440:IVX65538 JFT65440:JFT65538 JPP65440:JPP65538 JZL65440:JZL65538 KJH65440:KJH65538 KTD65440:KTD65538 LCZ65440:LCZ65538 LMV65440:LMV65538 LWR65440:LWR65538 MGN65440:MGN65538 MQJ65440:MQJ65538 NAF65440:NAF65538 NKB65440:NKB65538 NTX65440:NTX65538 ODT65440:ODT65538 ONP65440:ONP65538 OXL65440:OXL65538 PHH65440:PHH65538 PRD65440:PRD65538 QAZ65440:QAZ65538 QKV65440:QKV65538 QUR65440:QUR65538 REN65440:REN65538 ROJ65440:ROJ65538 RYF65440:RYF65538 SIB65440:SIB65538 SRX65440:SRX65538 TBT65440:TBT65538 TLP65440:TLP65538 TVL65440:TVL65538 UFH65440:UFH65538 UPD65440:UPD65538 UYZ65440:UYZ65538 VIV65440:VIV65538 VSR65440:VSR65538 WCN65440:WCN65538 WMJ65440:WMJ65538 WWF65440:WWF65538 X130976:X131074 JT130976:JT131074 TP130976:TP131074 ADL130976:ADL131074 ANH130976:ANH131074 AXD130976:AXD131074 BGZ130976:BGZ131074 BQV130976:BQV131074 CAR130976:CAR131074 CKN130976:CKN131074 CUJ130976:CUJ131074 DEF130976:DEF131074 DOB130976:DOB131074 DXX130976:DXX131074 EHT130976:EHT131074 ERP130976:ERP131074 FBL130976:FBL131074 FLH130976:FLH131074 FVD130976:FVD131074 GEZ130976:GEZ131074 GOV130976:GOV131074 GYR130976:GYR131074 HIN130976:HIN131074 HSJ130976:HSJ131074 ICF130976:ICF131074 IMB130976:IMB131074 IVX130976:IVX131074 JFT130976:JFT131074 JPP130976:JPP131074 JZL130976:JZL131074 KJH130976:KJH131074 KTD130976:KTD131074 LCZ130976:LCZ131074 LMV130976:LMV131074 LWR130976:LWR131074 MGN130976:MGN131074 MQJ130976:MQJ131074 NAF130976:NAF131074 NKB130976:NKB131074 NTX130976:NTX131074 ODT130976:ODT131074 ONP130976:ONP131074 OXL130976:OXL131074 PHH130976:PHH131074 PRD130976:PRD131074 QAZ130976:QAZ131074 QKV130976:QKV131074 QUR130976:QUR131074 REN130976:REN131074 ROJ130976:ROJ131074 RYF130976:RYF131074 SIB130976:SIB131074 SRX130976:SRX131074 TBT130976:TBT131074 TLP130976:TLP131074 TVL130976:TVL131074 UFH130976:UFH131074 UPD130976:UPD131074 UYZ130976:UYZ131074 VIV130976:VIV131074 VSR130976:VSR131074 WCN130976:WCN131074 WMJ130976:WMJ131074 WWF130976:WWF131074 X196512:X196610 JT196512:JT196610 TP196512:TP196610 ADL196512:ADL196610 ANH196512:ANH196610 AXD196512:AXD196610 BGZ196512:BGZ196610 BQV196512:BQV196610 CAR196512:CAR196610 CKN196512:CKN196610 CUJ196512:CUJ196610 DEF196512:DEF196610 DOB196512:DOB196610 DXX196512:DXX196610 EHT196512:EHT196610 ERP196512:ERP196610 FBL196512:FBL196610 FLH196512:FLH196610 FVD196512:FVD196610 GEZ196512:GEZ196610 GOV196512:GOV196610 GYR196512:GYR196610 HIN196512:HIN196610 HSJ196512:HSJ196610 ICF196512:ICF196610 IMB196512:IMB196610 IVX196512:IVX196610 JFT196512:JFT196610 JPP196512:JPP196610 JZL196512:JZL196610 KJH196512:KJH196610 KTD196512:KTD196610 LCZ196512:LCZ196610 LMV196512:LMV196610 LWR196512:LWR196610 MGN196512:MGN196610 MQJ196512:MQJ196610 NAF196512:NAF196610 NKB196512:NKB196610 NTX196512:NTX196610 ODT196512:ODT196610 ONP196512:ONP196610 OXL196512:OXL196610 PHH196512:PHH196610 PRD196512:PRD196610 QAZ196512:QAZ196610 QKV196512:QKV196610 QUR196512:QUR196610 REN196512:REN196610 ROJ196512:ROJ196610 RYF196512:RYF196610 SIB196512:SIB196610 SRX196512:SRX196610 TBT196512:TBT196610 TLP196512:TLP196610 TVL196512:TVL196610 UFH196512:UFH196610 UPD196512:UPD196610 UYZ196512:UYZ196610 VIV196512:VIV196610 VSR196512:VSR196610 WCN196512:WCN196610 WMJ196512:WMJ196610 WWF196512:WWF196610 X262048:X262146 JT262048:JT262146 TP262048:TP262146 ADL262048:ADL262146 ANH262048:ANH262146 AXD262048:AXD262146 BGZ262048:BGZ262146 BQV262048:BQV262146 CAR262048:CAR262146 CKN262048:CKN262146 CUJ262048:CUJ262146 DEF262048:DEF262146 DOB262048:DOB262146 DXX262048:DXX262146 EHT262048:EHT262146 ERP262048:ERP262146 FBL262048:FBL262146 FLH262048:FLH262146 FVD262048:FVD262146 GEZ262048:GEZ262146 GOV262048:GOV262146 GYR262048:GYR262146 HIN262048:HIN262146 HSJ262048:HSJ262146 ICF262048:ICF262146 IMB262048:IMB262146 IVX262048:IVX262146 JFT262048:JFT262146 JPP262048:JPP262146 JZL262048:JZL262146 KJH262048:KJH262146 KTD262048:KTD262146 LCZ262048:LCZ262146 LMV262048:LMV262146 LWR262048:LWR262146 MGN262048:MGN262146 MQJ262048:MQJ262146 NAF262048:NAF262146 NKB262048:NKB262146 NTX262048:NTX262146 ODT262048:ODT262146 ONP262048:ONP262146 OXL262048:OXL262146 PHH262048:PHH262146 PRD262048:PRD262146 QAZ262048:QAZ262146 QKV262048:QKV262146 QUR262048:QUR262146 REN262048:REN262146 ROJ262048:ROJ262146 RYF262048:RYF262146 SIB262048:SIB262146 SRX262048:SRX262146 TBT262048:TBT262146 TLP262048:TLP262146 TVL262048:TVL262146 UFH262048:UFH262146 UPD262048:UPD262146 UYZ262048:UYZ262146 VIV262048:VIV262146 VSR262048:VSR262146 WCN262048:WCN262146 WMJ262048:WMJ262146 WWF262048:WWF262146 X327584:X327682 JT327584:JT327682 TP327584:TP327682 ADL327584:ADL327682 ANH327584:ANH327682 AXD327584:AXD327682 BGZ327584:BGZ327682 BQV327584:BQV327682 CAR327584:CAR327682 CKN327584:CKN327682 CUJ327584:CUJ327682 DEF327584:DEF327682 DOB327584:DOB327682 DXX327584:DXX327682 EHT327584:EHT327682 ERP327584:ERP327682 FBL327584:FBL327682 FLH327584:FLH327682 FVD327584:FVD327682 GEZ327584:GEZ327682 GOV327584:GOV327682 GYR327584:GYR327682 HIN327584:HIN327682 HSJ327584:HSJ327682 ICF327584:ICF327682 IMB327584:IMB327682 IVX327584:IVX327682 JFT327584:JFT327682 JPP327584:JPP327682 JZL327584:JZL327682 KJH327584:KJH327682 KTD327584:KTD327682 LCZ327584:LCZ327682 LMV327584:LMV327682 LWR327584:LWR327682 MGN327584:MGN327682 MQJ327584:MQJ327682 NAF327584:NAF327682 NKB327584:NKB327682 NTX327584:NTX327682 ODT327584:ODT327682 ONP327584:ONP327682 OXL327584:OXL327682 PHH327584:PHH327682 PRD327584:PRD327682 QAZ327584:QAZ327682 QKV327584:QKV327682 QUR327584:QUR327682 REN327584:REN327682 ROJ327584:ROJ327682 RYF327584:RYF327682 SIB327584:SIB327682 SRX327584:SRX327682 TBT327584:TBT327682 TLP327584:TLP327682 TVL327584:TVL327682 UFH327584:UFH327682 UPD327584:UPD327682 UYZ327584:UYZ327682 VIV327584:VIV327682 VSR327584:VSR327682 WCN327584:WCN327682 WMJ327584:WMJ327682 WWF327584:WWF327682 X393120:X393218 JT393120:JT393218 TP393120:TP393218 ADL393120:ADL393218 ANH393120:ANH393218 AXD393120:AXD393218 BGZ393120:BGZ393218 BQV393120:BQV393218 CAR393120:CAR393218 CKN393120:CKN393218 CUJ393120:CUJ393218 DEF393120:DEF393218 DOB393120:DOB393218 DXX393120:DXX393218 EHT393120:EHT393218 ERP393120:ERP393218 FBL393120:FBL393218 FLH393120:FLH393218 FVD393120:FVD393218 GEZ393120:GEZ393218 GOV393120:GOV393218 GYR393120:GYR393218 HIN393120:HIN393218 HSJ393120:HSJ393218 ICF393120:ICF393218 IMB393120:IMB393218 IVX393120:IVX393218 JFT393120:JFT393218 JPP393120:JPP393218 JZL393120:JZL393218 KJH393120:KJH393218 KTD393120:KTD393218 LCZ393120:LCZ393218 LMV393120:LMV393218 LWR393120:LWR393218 MGN393120:MGN393218 MQJ393120:MQJ393218 NAF393120:NAF393218 NKB393120:NKB393218 NTX393120:NTX393218 ODT393120:ODT393218 ONP393120:ONP393218 OXL393120:OXL393218 PHH393120:PHH393218 PRD393120:PRD393218 QAZ393120:QAZ393218 QKV393120:QKV393218 QUR393120:QUR393218 REN393120:REN393218 ROJ393120:ROJ393218 RYF393120:RYF393218 SIB393120:SIB393218 SRX393120:SRX393218 TBT393120:TBT393218 TLP393120:TLP393218 TVL393120:TVL393218 UFH393120:UFH393218 UPD393120:UPD393218 UYZ393120:UYZ393218 VIV393120:VIV393218 VSR393120:VSR393218 WCN393120:WCN393218 WMJ393120:WMJ393218 WWF393120:WWF393218 X458656:X458754 JT458656:JT458754 TP458656:TP458754 ADL458656:ADL458754 ANH458656:ANH458754 AXD458656:AXD458754 BGZ458656:BGZ458754 BQV458656:BQV458754 CAR458656:CAR458754 CKN458656:CKN458754 CUJ458656:CUJ458754 DEF458656:DEF458754 DOB458656:DOB458754 DXX458656:DXX458754 EHT458656:EHT458754 ERP458656:ERP458754 FBL458656:FBL458754 FLH458656:FLH458754 FVD458656:FVD458754 GEZ458656:GEZ458754 GOV458656:GOV458754 GYR458656:GYR458754 HIN458656:HIN458754 HSJ458656:HSJ458754 ICF458656:ICF458754 IMB458656:IMB458754 IVX458656:IVX458754 JFT458656:JFT458754 JPP458656:JPP458754 JZL458656:JZL458754 KJH458656:KJH458754 KTD458656:KTD458754 LCZ458656:LCZ458754 LMV458656:LMV458754 LWR458656:LWR458754 MGN458656:MGN458754 MQJ458656:MQJ458754 NAF458656:NAF458754 NKB458656:NKB458754 NTX458656:NTX458754 ODT458656:ODT458754 ONP458656:ONP458754 OXL458656:OXL458754 PHH458656:PHH458754 PRD458656:PRD458754 QAZ458656:QAZ458754 QKV458656:QKV458754 QUR458656:QUR458754 REN458656:REN458754 ROJ458656:ROJ458754 RYF458656:RYF458754 SIB458656:SIB458754 SRX458656:SRX458754 TBT458656:TBT458754 TLP458656:TLP458754 TVL458656:TVL458754 UFH458656:UFH458754 UPD458656:UPD458754 UYZ458656:UYZ458754 VIV458656:VIV458754 VSR458656:VSR458754 WCN458656:WCN458754 WMJ458656:WMJ458754 WWF458656:WWF458754 X524192:X524290 JT524192:JT524290 TP524192:TP524290 ADL524192:ADL524290 ANH524192:ANH524290 AXD524192:AXD524290 BGZ524192:BGZ524290 BQV524192:BQV524290 CAR524192:CAR524290 CKN524192:CKN524290 CUJ524192:CUJ524290 DEF524192:DEF524290 DOB524192:DOB524290 DXX524192:DXX524290 EHT524192:EHT524290 ERP524192:ERP524290 FBL524192:FBL524290 FLH524192:FLH524290 FVD524192:FVD524290 GEZ524192:GEZ524290 GOV524192:GOV524290 GYR524192:GYR524290 HIN524192:HIN524290 HSJ524192:HSJ524290 ICF524192:ICF524290 IMB524192:IMB524290 IVX524192:IVX524290 JFT524192:JFT524290 JPP524192:JPP524290 JZL524192:JZL524290 KJH524192:KJH524290 KTD524192:KTD524290 LCZ524192:LCZ524290 LMV524192:LMV524290 LWR524192:LWR524290 MGN524192:MGN524290 MQJ524192:MQJ524290 NAF524192:NAF524290 NKB524192:NKB524290 NTX524192:NTX524290 ODT524192:ODT524290 ONP524192:ONP524290 OXL524192:OXL524290 PHH524192:PHH524290 PRD524192:PRD524290 QAZ524192:QAZ524290 QKV524192:QKV524290 QUR524192:QUR524290 REN524192:REN524290 ROJ524192:ROJ524290 RYF524192:RYF524290 SIB524192:SIB524290 SRX524192:SRX524290 TBT524192:TBT524290 TLP524192:TLP524290 TVL524192:TVL524290 UFH524192:UFH524290 UPD524192:UPD524290 UYZ524192:UYZ524290 VIV524192:VIV524290 VSR524192:VSR524290 WCN524192:WCN524290 WMJ524192:WMJ524290 WWF524192:WWF524290 X589728:X589826 JT589728:JT589826 TP589728:TP589826 ADL589728:ADL589826 ANH589728:ANH589826 AXD589728:AXD589826 BGZ589728:BGZ589826 BQV589728:BQV589826 CAR589728:CAR589826 CKN589728:CKN589826 CUJ589728:CUJ589826 DEF589728:DEF589826 DOB589728:DOB589826 DXX589728:DXX589826 EHT589728:EHT589826 ERP589728:ERP589826 FBL589728:FBL589826 FLH589728:FLH589826 FVD589728:FVD589826 GEZ589728:GEZ589826 GOV589728:GOV589826 GYR589728:GYR589826 HIN589728:HIN589826 HSJ589728:HSJ589826 ICF589728:ICF589826 IMB589728:IMB589826 IVX589728:IVX589826 JFT589728:JFT589826 JPP589728:JPP589826 JZL589728:JZL589826 KJH589728:KJH589826 KTD589728:KTD589826 LCZ589728:LCZ589826 LMV589728:LMV589826 LWR589728:LWR589826 MGN589728:MGN589826 MQJ589728:MQJ589826 NAF589728:NAF589826 NKB589728:NKB589826 NTX589728:NTX589826 ODT589728:ODT589826 ONP589728:ONP589826 OXL589728:OXL589826 PHH589728:PHH589826 PRD589728:PRD589826 QAZ589728:QAZ589826 QKV589728:QKV589826 QUR589728:QUR589826 REN589728:REN589826 ROJ589728:ROJ589826 RYF589728:RYF589826 SIB589728:SIB589826 SRX589728:SRX589826 TBT589728:TBT589826 TLP589728:TLP589826 TVL589728:TVL589826 UFH589728:UFH589826 UPD589728:UPD589826 UYZ589728:UYZ589826 VIV589728:VIV589826 VSR589728:VSR589826 WCN589728:WCN589826 WMJ589728:WMJ589826 WWF589728:WWF589826 X655264:X655362 JT655264:JT655362 TP655264:TP655362 ADL655264:ADL655362 ANH655264:ANH655362 AXD655264:AXD655362 BGZ655264:BGZ655362 BQV655264:BQV655362 CAR655264:CAR655362 CKN655264:CKN655362 CUJ655264:CUJ655362 DEF655264:DEF655362 DOB655264:DOB655362 DXX655264:DXX655362 EHT655264:EHT655362 ERP655264:ERP655362 FBL655264:FBL655362 FLH655264:FLH655362 FVD655264:FVD655362 GEZ655264:GEZ655362 GOV655264:GOV655362 GYR655264:GYR655362 HIN655264:HIN655362 HSJ655264:HSJ655362 ICF655264:ICF655362 IMB655264:IMB655362 IVX655264:IVX655362 JFT655264:JFT655362 JPP655264:JPP655362 JZL655264:JZL655362 KJH655264:KJH655362 KTD655264:KTD655362 LCZ655264:LCZ655362 LMV655264:LMV655362 LWR655264:LWR655362 MGN655264:MGN655362 MQJ655264:MQJ655362 NAF655264:NAF655362 NKB655264:NKB655362 NTX655264:NTX655362 ODT655264:ODT655362 ONP655264:ONP655362 OXL655264:OXL655362 PHH655264:PHH655362 PRD655264:PRD655362 QAZ655264:QAZ655362 QKV655264:QKV655362 QUR655264:QUR655362 REN655264:REN655362 ROJ655264:ROJ655362 RYF655264:RYF655362 SIB655264:SIB655362 SRX655264:SRX655362 TBT655264:TBT655362 TLP655264:TLP655362 TVL655264:TVL655362 UFH655264:UFH655362 UPD655264:UPD655362 UYZ655264:UYZ655362 VIV655264:VIV655362 VSR655264:VSR655362 WCN655264:WCN655362 WMJ655264:WMJ655362 WWF655264:WWF655362 X720800:X720898 JT720800:JT720898 TP720800:TP720898 ADL720800:ADL720898 ANH720800:ANH720898 AXD720800:AXD720898 BGZ720800:BGZ720898 BQV720800:BQV720898 CAR720800:CAR720898 CKN720800:CKN720898 CUJ720800:CUJ720898 DEF720800:DEF720898 DOB720800:DOB720898 DXX720800:DXX720898 EHT720800:EHT720898 ERP720800:ERP720898 FBL720800:FBL720898 FLH720800:FLH720898 FVD720800:FVD720898 GEZ720800:GEZ720898 GOV720800:GOV720898 GYR720800:GYR720898 HIN720800:HIN720898 HSJ720800:HSJ720898 ICF720800:ICF720898 IMB720800:IMB720898 IVX720800:IVX720898 JFT720800:JFT720898 JPP720800:JPP720898 JZL720800:JZL720898 KJH720800:KJH720898 KTD720800:KTD720898 LCZ720800:LCZ720898 LMV720800:LMV720898 LWR720800:LWR720898 MGN720800:MGN720898 MQJ720800:MQJ720898 NAF720800:NAF720898 NKB720800:NKB720898 NTX720800:NTX720898 ODT720800:ODT720898 ONP720800:ONP720898 OXL720800:OXL720898 PHH720800:PHH720898 PRD720800:PRD720898 QAZ720800:QAZ720898 QKV720800:QKV720898 QUR720800:QUR720898 REN720800:REN720898 ROJ720800:ROJ720898 RYF720800:RYF720898 SIB720800:SIB720898 SRX720800:SRX720898 TBT720800:TBT720898 TLP720800:TLP720898 TVL720800:TVL720898 UFH720800:UFH720898 UPD720800:UPD720898 UYZ720800:UYZ720898 VIV720800:VIV720898 VSR720800:VSR720898 WCN720800:WCN720898 WMJ720800:WMJ720898 WWF720800:WWF720898 X786336:X786434 JT786336:JT786434 TP786336:TP786434 ADL786336:ADL786434 ANH786336:ANH786434 AXD786336:AXD786434 BGZ786336:BGZ786434 BQV786336:BQV786434 CAR786336:CAR786434 CKN786336:CKN786434 CUJ786336:CUJ786434 DEF786336:DEF786434 DOB786336:DOB786434 DXX786336:DXX786434 EHT786336:EHT786434 ERP786336:ERP786434 FBL786336:FBL786434 FLH786336:FLH786434 FVD786336:FVD786434 GEZ786336:GEZ786434 GOV786336:GOV786434 GYR786336:GYR786434 HIN786336:HIN786434 HSJ786336:HSJ786434 ICF786336:ICF786434 IMB786336:IMB786434 IVX786336:IVX786434 JFT786336:JFT786434 JPP786336:JPP786434 JZL786336:JZL786434 KJH786336:KJH786434 KTD786336:KTD786434 LCZ786336:LCZ786434 LMV786336:LMV786434 LWR786336:LWR786434 MGN786336:MGN786434 MQJ786336:MQJ786434 NAF786336:NAF786434 NKB786336:NKB786434 NTX786336:NTX786434 ODT786336:ODT786434 ONP786336:ONP786434 OXL786336:OXL786434 PHH786336:PHH786434 PRD786336:PRD786434 QAZ786336:QAZ786434 QKV786336:QKV786434 QUR786336:QUR786434 REN786336:REN786434 ROJ786336:ROJ786434 RYF786336:RYF786434 SIB786336:SIB786434 SRX786336:SRX786434 TBT786336:TBT786434 TLP786336:TLP786434 TVL786336:TVL786434 UFH786336:UFH786434 UPD786336:UPD786434 UYZ786336:UYZ786434 VIV786336:VIV786434 VSR786336:VSR786434 WCN786336:WCN786434 WMJ786336:WMJ786434 WWF786336:WWF786434 X851872:X851970 JT851872:JT851970 TP851872:TP851970 ADL851872:ADL851970 ANH851872:ANH851970 AXD851872:AXD851970 BGZ851872:BGZ851970 BQV851872:BQV851970 CAR851872:CAR851970 CKN851872:CKN851970 CUJ851872:CUJ851970 DEF851872:DEF851970 DOB851872:DOB851970 DXX851872:DXX851970 EHT851872:EHT851970 ERP851872:ERP851970 FBL851872:FBL851970 FLH851872:FLH851970 FVD851872:FVD851970 GEZ851872:GEZ851970 GOV851872:GOV851970 GYR851872:GYR851970 HIN851872:HIN851970 HSJ851872:HSJ851970 ICF851872:ICF851970 IMB851872:IMB851970 IVX851872:IVX851970 JFT851872:JFT851970 JPP851872:JPP851970 JZL851872:JZL851970 KJH851872:KJH851970 KTD851872:KTD851970 LCZ851872:LCZ851970 LMV851872:LMV851970 LWR851872:LWR851970 MGN851872:MGN851970 MQJ851872:MQJ851970 NAF851872:NAF851970 NKB851872:NKB851970 NTX851872:NTX851970 ODT851872:ODT851970 ONP851872:ONP851970 OXL851872:OXL851970 PHH851872:PHH851970 PRD851872:PRD851970 QAZ851872:QAZ851970 QKV851872:QKV851970 QUR851872:QUR851970 REN851872:REN851970 ROJ851872:ROJ851970 RYF851872:RYF851970 SIB851872:SIB851970 SRX851872:SRX851970 TBT851872:TBT851970 TLP851872:TLP851970 TVL851872:TVL851970 UFH851872:UFH851970 UPD851872:UPD851970 UYZ851872:UYZ851970 VIV851872:VIV851970 VSR851872:VSR851970 WCN851872:WCN851970 WMJ851872:WMJ851970 WWF851872:WWF851970 X917408:X917506 JT917408:JT917506 TP917408:TP917506 ADL917408:ADL917506 ANH917408:ANH917506 AXD917408:AXD917506 BGZ917408:BGZ917506 BQV917408:BQV917506 CAR917408:CAR917506 CKN917408:CKN917506 CUJ917408:CUJ917506 DEF917408:DEF917506 DOB917408:DOB917506 DXX917408:DXX917506 EHT917408:EHT917506 ERP917408:ERP917506 FBL917408:FBL917506 FLH917408:FLH917506 FVD917408:FVD917506 GEZ917408:GEZ917506 GOV917408:GOV917506 GYR917408:GYR917506 HIN917408:HIN917506 HSJ917408:HSJ917506 ICF917408:ICF917506 IMB917408:IMB917506 IVX917408:IVX917506 JFT917408:JFT917506 JPP917408:JPP917506 JZL917408:JZL917506 KJH917408:KJH917506 KTD917408:KTD917506 LCZ917408:LCZ917506 LMV917408:LMV917506 LWR917408:LWR917506 MGN917408:MGN917506 MQJ917408:MQJ917506 NAF917408:NAF917506 NKB917408:NKB917506 NTX917408:NTX917506 ODT917408:ODT917506 ONP917408:ONP917506 OXL917408:OXL917506 PHH917408:PHH917506 PRD917408:PRD917506 QAZ917408:QAZ917506 QKV917408:QKV917506 QUR917408:QUR917506 REN917408:REN917506 ROJ917408:ROJ917506 RYF917408:RYF917506 SIB917408:SIB917506 SRX917408:SRX917506 TBT917408:TBT917506 TLP917408:TLP917506 TVL917408:TVL917506 UFH917408:UFH917506 UPD917408:UPD917506 UYZ917408:UYZ917506 VIV917408:VIV917506 VSR917408:VSR917506 WCN917408:WCN917506 WMJ917408:WMJ917506 WWF917408:WWF917506 X982944:X983042 JT982944:JT983042 TP982944:TP983042 ADL982944:ADL983042 ANH982944:ANH983042 AXD982944:AXD983042 BGZ982944:BGZ983042 BQV982944:BQV983042 CAR982944:CAR983042 CKN982944:CKN983042 CUJ982944:CUJ983042 DEF982944:DEF983042 DOB982944:DOB983042 DXX982944:DXX983042 EHT982944:EHT983042 ERP982944:ERP983042 FBL982944:FBL983042 FLH982944:FLH983042 FVD982944:FVD983042 GEZ982944:GEZ983042 GOV982944:GOV983042 GYR982944:GYR983042 HIN982944:HIN983042 HSJ982944:HSJ983042 ICF982944:ICF983042 IMB982944:IMB983042 IVX982944:IVX983042 JFT982944:JFT983042 JPP982944:JPP983042 JZL982944:JZL983042 KJH982944:KJH983042 KTD982944:KTD983042 LCZ982944:LCZ983042 LMV982944:LMV983042 LWR982944:LWR983042 MGN982944:MGN983042 MQJ982944:MQJ983042 NAF982944:NAF983042 NKB982944:NKB983042 NTX982944:NTX983042 ODT982944:ODT983042 ONP982944:ONP983042 OXL982944:OXL983042 PHH982944:PHH983042 PRD982944:PRD983042 QAZ982944:QAZ983042 QKV982944:QKV983042 QUR982944:QUR983042 REN982944:REN983042 ROJ982944:ROJ983042 RYF982944:RYF983042 SIB982944:SIB983042 SRX982944:SRX983042 TBT982944:TBT983042 TLP982944:TLP983042 TVL982944:TVL983042 UFH982944:UFH983042 UPD982944:UPD983042 UYZ982944:UYZ983042 VIV982944:VIV983042 VSR982944:VSR983042 WCN982944:WCN983042 WMJ982944:WMJ983042 WWF982944:WWF983042" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 JV2 TR2 ADN2 ANJ2 AXF2 BHB2 BQX2 CAT2 CKP2 CUL2 DEH2 DOD2 DXZ2 EHV2 ERR2 FBN2 FLJ2 FVF2 GFB2 GOX2 GYT2 HIP2 HSL2 ICH2 IMD2 IVZ2 JFV2 JPR2 JZN2 KJJ2 KTF2 LDB2 LMX2 LWT2 MGP2 MQL2 NAH2 NKD2 NTZ2 ODV2 ONR2 OXN2 PHJ2 PRF2 QBB2 QKX2 QUT2 REP2 ROL2 RYH2 SID2 SRZ2 TBV2 TLR2 TVN2 UFJ2 UPF2 UZB2 VIX2 VST2 WCP2 WML2 WWH2 Z65440:Z65538 JV65440:JV65538 TR65440:TR65538 ADN65440:ADN65538 ANJ65440:ANJ65538 AXF65440:AXF65538 BHB65440:BHB65538 BQX65440:BQX65538 CAT65440:CAT65538 CKP65440:CKP65538 CUL65440:CUL65538 DEH65440:DEH65538 DOD65440:DOD65538 DXZ65440:DXZ65538 EHV65440:EHV65538 ERR65440:ERR65538 FBN65440:FBN65538 FLJ65440:FLJ65538 FVF65440:FVF65538 GFB65440:GFB65538 GOX65440:GOX65538 GYT65440:GYT65538 HIP65440:HIP65538 HSL65440:HSL65538 ICH65440:ICH65538 IMD65440:IMD65538 IVZ65440:IVZ65538 JFV65440:JFV65538 JPR65440:JPR65538 JZN65440:JZN65538 KJJ65440:KJJ65538 KTF65440:KTF65538 LDB65440:LDB65538 LMX65440:LMX65538 LWT65440:LWT65538 MGP65440:MGP65538 MQL65440:MQL65538 NAH65440:NAH65538 NKD65440:NKD65538 NTZ65440:NTZ65538 ODV65440:ODV65538 ONR65440:ONR65538 OXN65440:OXN65538 PHJ65440:PHJ65538 PRF65440:PRF65538 QBB65440:QBB65538 QKX65440:QKX65538 QUT65440:QUT65538 REP65440:REP65538 ROL65440:ROL65538 RYH65440:RYH65538 SID65440:SID65538 SRZ65440:SRZ65538 TBV65440:TBV65538 TLR65440:TLR65538 TVN65440:TVN65538 UFJ65440:UFJ65538 UPF65440:UPF65538 UZB65440:UZB65538 VIX65440:VIX65538 VST65440:VST65538 WCP65440:WCP65538 WML65440:WML65538 WWH65440:WWH65538 Z130976:Z131074 JV130976:JV131074 TR130976:TR131074 ADN130976:ADN131074 ANJ130976:ANJ131074 AXF130976:AXF131074 BHB130976:BHB131074 BQX130976:BQX131074 CAT130976:CAT131074 CKP130976:CKP131074 CUL130976:CUL131074 DEH130976:DEH131074 DOD130976:DOD131074 DXZ130976:DXZ131074 EHV130976:EHV131074 ERR130976:ERR131074 FBN130976:FBN131074 FLJ130976:FLJ131074 FVF130976:FVF131074 GFB130976:GFB131074 GOX130976:GOX131074 GYT130976:GYT131074 HIP130976:HIP131074 HSL130976:HSL131074 ICH130976:ICH131074 IMD130976:IMD131074 IVZ130976:IVZ131074 JFV130976:JFV131074 JPR130976:JPR131074 JZN130976:JZN131074 KJJ130976:KJJ131074 KTF130976:KTF131074 LDB130976:LDB131074 LMX130976:LMX131074 LWT130976:LWT131074 MGP130976:MGP131074 MQL130976:MQL131074 NAH130976:NAH131074 NKD130976:NKD131074 NTZ130976:NTZ131074 ODV130976:ODV131074 ONR130976:ONR131074 OXN130976:OXN131074 PHJ130976:PHJ131074 PRF130976:PRF131074 QBB130976:QBB131074 QKX130976:QKX131074 QUT130976:QUT131074 REP130976:REP131074 ROL130976:ROL131074 RYH130976:RYH131074 SID130976:SID131074 SRZ130976:SRZ131074 TBV130976:TBV131074 TLR130976:TLR131074 TVN130976:TVN131074 UFJ130976:UFJ131074 UPF130976:UPF131074 UZB130976:UZB131074 VIX130976:VIX131074 VST130976:VST131074 WCP130976:WCP131074 WML130976:WML131074 WWH130976:WWH131074 Z196512:Z196610 JV196512:JV196610 TR196512:TR196610 ADN196512:ADN196610 ANJ196512:ANJ196610 AXF196512:AXF196610 BHB196512:BHB196610 BQX196512:BQX196610 CAT196512:CAT196610 CKP196512:CKP196610 CUL196512:CUL196610 DEH196512:DEH196610 DOD196512:DOD196610 DXZ196512:DXZ196610 EHV196512:EHV196610 ERR196512:ERR196610 FBN196512:FBN196610 FLJ196512:FLJ196610 FVF196512:FVF196610 GFB196512:GFB196610 GOX196512:GOX196610 GYT196512:GYT196610 HIP196512:HIP196610 HSL196512:HSL196610 ICH196512:ICH196610 IMD196512:IMD196610 IVZ196512:IVZ196610 JFV196512:JFV196610 JPR196512:JPR196610 JZN196512:JZN196610 KJJ196512:KJJ196610 KTF196512:KTF196610 LDB196512:LDB196610 LMX196512:LMX196610 LWT196512:LWT196610 MGP196512:MGP196610 MQL196512:MQL196610 NAH196512:NAH196610 NKD196512:NKD196610 NTZ196512:NTZ196610 ODV196512:ODV196610 ONR196512:ONR196610 OXN196512:OXN196610 PHJ196512:PHJ196610 PRF196512:PRF196610 QBB196512:QBB196610 QKX196512:QKX196610 QUT196512:QUT196610 REP196512:REP196610 ROL196512:ROL196610 RYH196512:RYH196610 SID196512:SID196610 SRZ196512:SRZ196610 TBV196512:TBV196610 TLR196512:TLR196610 TVN196512:TVN196610 UFJ196512:UFJ196610 UPF196512:UPF196610 UZB196512:UZB196610 VIX196512:VIX196610 VST196512:VST196610 WCP196512:WCP196610 WML196512:WML196610 WWH196512:WWH196610 Z262048:Z262146 JV262048:JV262146 TR262048:TR262146 ADN262048:ADN262146 ANJ262048:ANJ262146 AXF262048:AXF262146 BHB262048:BHB262146 BQX262048:BQX262146 CAT262048:CAT262146 CKP262048:CKP262146 CUL262048:CUL262146 DEH262048:DEH262146 DOD262048:DOD262146 DXZ262048:DXZ262146 EHV262048:EHV262146 ERR262048:ERR262146 FBN262048:FBN262146 FLJ262048:FLJ262146 FVF262048:FVF262146 GFB262048:GFB262146 GOX262048:GOX262146 GYT262048:GYT262146 HIP262048:HIP262146 HSL262048:HSL262146 ICH262048:ICH262146 IMD262048:IMD262146 IVZ262048:IVZ262146 JFV262048:JFV262146 JPR262048:JPR262146 JZN262048:JZN262146 KJJ262048:KJJ262146 KTF262048:KTF262146 LDB262048:LDB262146 LMX262048:LMX262146 LWT262048:LWT262146 MGP262048:MGP262146 MQL262048:MQL262146 NAH262048:NAH262146 NKD262048:NKD262146 NTZ262048:NTZ262146 ODV262048:ODV262146 ONR262048:ONR262146 OXN262048:OXN262146 PHJ262048:PHJ262146 PRF262048:PRF262146 QBB262048:QBB262146 QKX262048:QKX262146 QUT262048:QUT262146 REP262048:REP262146 ROL262048:ROL262146 RYH262048:RYH262146 SID262048:SID262146 SRZ262048:SRZ262146 TBV262048:TBV262146 TLR262048:TLR262146 TVN262048:TVN262146 UFJ262048:UFJ262146 UPF262048:UPF262146 UZB262048:UZB262146 VIX262048:VIX262146 VST262048:VST262146 WCP262048:WCP262146 WML262048:WML262146 WWH262048:WWH262146 Z327584:Z327682 JV327584:JV327682 TR327584:TR327682 ADN327584:ADN327682 ANJ327584:ANJ327682 AXF327584:AXF327682 BHB327584:BHB327682 BQX327584:BQX327682 CAT327584:CAT327682 CKP327584:CKP327682 CUL327584:CUL327682 DEH327584:DEH327682 DOD327584:DOD327682 DXZ327584:DXZ327682 EHV327584:EHV327682 ERR327584:ERR327682 FBN327584:FBN327682 FLJ327584:FLJ327682 FVF327584:FVF327682 GFB327584:GFB327682 GOX327584:GOX327682 GYT327584:GYT327682 HIP327584:HIP327682 HSL327584:HSL327682 ICH327584:ICH327682 IMD327584:IMD327682 IVZ327584:IVZ327682 JFV327584:JFV327682 JPR327584:JPR327682 JZN327584:JZN327682 KJJ327584:KJJ327682 KTF327584:KTF327682 LDB327584:LDB327682 LMX327584:LMX327682 LWT327584:LWT327682 MGP327584:MGP327682 MQL327584:MQL327682 NAH327584:NAH327682 NKD327584:NKD327682 NTZ327584:NTZ327682 ODV327584:ODV327682 ONR327584:ONR327682 OXN327584:OXN327682 PHJ327584:PHJ327682 PRF327584:PRF327682 QBB327584:QBB327682 QKX327584:QKX327682 QUT327584:QUT327682 REP327584:REP327682 ROL327584:ROL327682 RYH327584:RYH327682 SID327584:SID327682 SRZ327584:SRZ327682 TBV327584:TBV327682 TLR327584:TLR327682 TVN327584:TVN327682 UFJ327584:UFJ327682 UPF327584:UPF327682 UZB327584:UZB327682 VIX327584:VIX327682 VST327584:VST327682 WCP327584:WCP327682 WML327584:WML327682 WWH327584:WWH327682 Z393120:Z393218 JV393120:JV393218 TR393120:TR393218 ADN393120:ADN393218 ANJ393120:ANJ393218 AXF393120:AXF393218 BHB393120:BHB393218 BQX393120:BQX393218 CAT393120:CAT393218 CKP393120:CKP393218 CUL393120:CUL393218 DEH393120:DEH393218 DOD393120:DOD393218 DXZ393120:DXZ393218 EHV393120:EHV393218 ERR393120:ERR393218 FBN393120:FBN393218 FLJ393120:FLJ393218 FVF393120:FVF393218 GFB393120:GFB393218 GOX393120:GOX393218 GYT393120:GYT393218 HIP393120:HIP393218 HSL393120:HSL393218 ICH393120:ICH393218 IMD393120:IMD393218 IVZ393120:IVZ393218 JFV393120:JFV393218 JPR393120:JPR393218 JZN393120:JZN393218 KJJ393120:KJJ393218 KTF393120:KTF393218 LDB393120:LDB393218 LMX393120:LMX393218 LWT393120:LWT393218 MGP393120:MGP393218 MQL393120:MQL393218 NAH393120:NAH393218 NKD393120:NKD393218 NTZ393120:NTZ393218 ODV393120:ODV393218 ONR393120:ONR393218 OXN393120:OXN393218 PHJ393120:PHJ393218 PRF393120:PRF393218 QBB393120:QBB393218 QKX393120:QKX393218 QUT393120:QUT393218 REP393120:REP393218 ROL393120:ROL393218 RYH393120:RYH393218 SID393120:SID393218 SRZ393120:SRZ393218 TBV393120:TBV393218 TLR393120:TLR393218 TVN393120:TVN393218 UFJ393120:UFJ393218 UPF393120:UPF393218 UZB393120:UZB393218 VIX393120:VIX393218 VST393120:VST393218 WCP393120:WCP393218 WML393120:WML393218 WWH393120:WWH393218 Z458656:Z458754 JV458656:JV458754 TR458656:TR458754 ADN458656:ADN458754 ANJ458656:ANJ458754 AXF458656:AXF458754 BHB458656:BHB458754 BQX458656:BQX458754 CAT458656:CAT458754 CKP458656:CKP458754 CUL458656:CUL458754 DEH458656:DEH458754 DOD458656:DOD458754 DXZ458656:DXZ458754 EHV458656:EHV458754 ERR458656:ERR458754 FBN458656:FBN458754 FLJ458656:FLJ458754 FVF458656:FVF458754 GFB458656:GFB458754 GOX458656:GOX458754 GYT458656:GYT458754 HIP458656:HIP458754 HSL458656:HSL458754 ICH458656:ICH458754 IMD458656:IMD458754 IVZ458656:IVZ458754 JFV458656:JFV458754 JPR458656:JPR458754 JZN458656:JZN458754 KJJ458656:KJJ458754 KTF458656:KTF458754 LDB458656:LDB458754 LMX458656:LMX458754 LWT458656:LWT458754 MGP458656:MGP458754 MQL458656:MQL458754 NAH458656:NAH458754 NKD458656:NKD458754 NTZ458656:NTZ458754 ODV458656:ODV458754 ONR458656:ONR458754 OXN458656:OXN458754 PHJ458656:PHJ458754 PRF458656:PRF458754 QBB458656:QBB458754 QKX458656:QKX458754 QUT458656:QUT458754 REP458656:REP458754 ROL458656:ROL458754 RYH458656:RYH458754 SID458656:SID458754 SRZ458656:SRZ458754 TBV458656:TBV458754 TLR458656:TLR458754 TVN458656:TVN458754 UFJ458656:UFJ458754 UPF458656:UPF458754 UZB458656:UZB458754 VIX458656:VIX458754 VST458656:VST458754 WCP458656:WCP458754 WML458656:WML458754 WWH458656:WWH458754 Z524192:Z524290 JV524192:JV524290 TR524192:TR524290 ADN524192:ADN524290 ANJ524192:ANJ524290 AXF524192:AXF524290 BHB524192:BHB524290 BQX524192:BQX524290 CAT524192:CAT524290 CKP524192:CKP524290 CUL524192:CUL524290 DEH524192:DEH524290 DOD524192:DOD524290 DXZ524192:DXZ524290 EHV524192:EHV524290 ERR524192:ERR524290 FBN524192:FBN524290 FLJ524192:FLJ524290 FVF524192:FVF524290 GFB524192:GFB524290 GOX524192:GOX524290 GYT524192:GYT524290 HIP524192:HIP524290 HSL524192:HSL524290 ICH524192:ICH524290 IMD524192:IMD524290 IVZ524192:IVZ524290 JFV524192:JFV524290 JPR524192:JPR524290 JZN524192:JZN524290 KJJ524192:KJJ524290 KTF524192:KTF524290 LDB524192:LDB524290 LMX524192:LMX524290 LWT524192:LWT524290 MGP524192:MGP524290 MQL524192:MQL524290 NAH524192:NAH524290 NKD524192:NKD524290 NTZ524192:NTZ524290 ODV524192:ODV524290 ONR524192:ONR524290 OXN524192:OXN524290 PHJ524192:PHJ524290 PRF524192:PRF524290 QBB524192:QBB524290 QKX524192:QKX524290 QUT524192:QUT524290 REP524192:REP524290 ROL524192:ROL524290 RYH524192:RYH524290 SID524192:SID524290 SRZ524192:SRZ524290 TBV524192:TBV524290 TLR524192:TLR524290 TVN524192:TVN524290 UFJ524192:UFJ524290 UPF524192:UPF524290 UZB524192:UZB524290 VIX524192:VIX524290 VST524192:VST524290 WCP524192:WCP524290 WML524192:WML524290 WWH524192:WWH524290 Z589728:Z589826 JV589728:JV589826 TR589728:TR589826 ADN589728:ADN589826 ANJ589728:ANJ589826 AXF589728:AXF589826 BHB589728:BHB589826 BQX589728:BQX589826 CAT589728:CAT589826 CKP589728:CKP589826 CUL589728:CUL589826 DEH589728:DEH589826 DOD589728:DOD589826 DXZ589728:DXZ589826 EHV589728:EHV589826 ERR589728:ERR589826 FBN589728:FBN589826 FLJ589728:FLJ589826 FVF589728:FVF589826 GFB589728:GFB589826 GOX589728:GOX589826 GYT589728:GYT589826 HIP589728:HIP589826 HSL589728:HSL589826 ICH589728:ICH589826 IMD589728:IMD589826 IVZ589728:IVZ589826 JFV589728:JFV589826 JPR589728:JPR589826 JZN589728:JZN589826 KJJ589728:KJJ589826 KTF589728:KTF589826 LDB589728:LDB589826 LMX589728:LMX589826 LWT589728:LWT589826 MGP589728:MGP589826 MQL589728:MQL589826 NAH589728:NAH589826 NKD589728:NKD589826 NTZ589728:NTZ589826 ODV589728:ODV589826 ONR589728:ONR589826 OXN589728:OXN589826 PHJ589728:PHJ589826 PRF589728:PRF589826 QBB589728:QBB589826 QKX589728:QKX589826 QUT589728:QUT589826 REP589728:REP589826 ROL589728:ROL589826 RYH589728:RYH589826 SID589728:SID589826 SRZ589728:SRZ589826 TBV589728:TBV589826 TLR589728:TLR589826 TVN589728:TVN589826 UFJ589728:UFJ589826 UPF589728:UPF589826 UZB589728:UZB589826 VIX589728:VIX589826 VST589728:VST589826 WCP589728:WCP589826 WML589728:WML589826 WWH589728:WWH589826 Z655264:Z655362 JV655264:JV655362 TR655264:TR655362 ADN655264:ADN655362 ANJ655264:ANJ655362 AXF655264:AXF655362 BHB655264:BHB655362 BQX655264:BQX655362 CAT655264:CAT655362 CKP655264:CKP655362 CUL655264:CUL655362 DEH655264:DEH655362 DOD655264:DOD655362 DXZ655264:DXZ655362 EHV655264:EHV655362 ERR655264:ERR655362 FBN655264:FBN655362 FLJ655264:FLJ655362 FVF655264:FVF655362 GFB655264:GFB655362 GOX655264:GOX655362 GYT655264:GYT655362 HIP655264:HIP655362 HSL655264:HSL655362 ICH655264:ICH655362 IMD655264:IMD655362 IVZ655264:IVZ655362 JFV655264:JFV655362 JPR655264:JPR655362 JZN655264:JZN655362 KJJ655264:KJJ655362 KTF655264:KTF655362 LDB655264:LDB655362 LMX655264:LMX655362 LWT655264:LWT655362 MGP655264:MGP655362 MQL655264:MQL655362 NAH655264:NAH655362 NKD655264:NKD655362 NTZ655264:NTZ655362 ODV655264:ODV655362 ONR655264:ONR655362 OXN655264:OXN655362 PHJ655264:PHJ655362 PRF655264:PRF655362 QBB655264:QBB655362 QKX655264:QKX655362 QUT655264:QUT655362 REP655264:REP655362 ROL655264:ROL655362 RYH655264:RYH655362 SID655264:SID655362 SRZ655264:SRZ655362 TBV655264:TBV655362 TLR655264:TLR655362 TVN655264:TVN655362 UFJ655264:UFJ655362 UPF655264:UPF655362 UZB655264:UZB655362 VIX655264:VIX655362 VST655264:VST655362 WCP655264:WCP655362 WML655264:WML655362 WWH655264:WWH655362 Z720800:Z720898 JV720800:JV720898 TR720800:TR720898 ADN720800:ADN720898 ANJ720800:ANJ720898 AXF720800:AXF720898 BHB720800:BHB720898 BQX720800:BQX720898 CAT720800:CAT720898 CKP720800:CKP720898 CUL720800:CUL720898 DEH720800:DEH720898 DOD720800:DOD720898 DXZ720800:DXZ720898 EHV720800:EHV720898 ERR720800:ERR720898 FBN720800:FBN720898 FLJ720800:FLJ720898 FVF720800:FVF720898 GFB720800:GFB720898 GOX720800:GOX720898 GYT720800:GYT720898 HIP720800:HIP720898 HSL720800:HSL720898 ICH720800:ICH720898 IMD720800:IMD720898 IVZ720800:IVZ720898 JFV720800:JFV720898 JPR720800:JPR720898 JZN720800:JZN720898 KJJ720800:KJJ720898 KTF720800:KTF720898 LDB720800:LDB720898 LMX720800:LMX720898 LWT720800:LWT720898 MGP720800:MGP720898 MQL720800:MQL720898 NAH720800:NAH720898 NKD720800:NKD720898 NTZ720800:NTZ720898 ODV720800:ODV720898 ONR720800:ONR720898 OXN720800:OXN720898 PHJ720800:PHJ720898 PRF720800:PRF720898 QBB720800:QBB720898 QKX720800:QKX720898 QUT720800:QUT720898 REP720800:REP720898 ROL720800:ROL720898 RYH720800:RYH720898 SID720800:SID720898 SRZ720800:SRZ720898 TBV720800:TBV720898 TLR720800:TLR720898 TVN720800:TVN720898 UFJ720800:UFJ720898 UPF720800:UPF720898 UZB720800:UZB720898 VIX720800:VIX720898 VST720800:VST720898 WCP720800:WCP720898 WML720800:WML720898 WWH720800:WWH720898 Z786336:Z786434 JV786336:JV786434 TR786336:TR786434 ADN786336:ADN786434 ANJ786336:ANJ786434 AXF786336:AXF786434 BHB786336:BHB786434 BQX786336:BQX786434 CAT786336:CAT786434 CKP786336:CKP786434 CUL786336:CUL786434 DEH786336:DEH786434 DOD786336:DOD786434 DXZ786336:DXZ786434 EHV786336:EHV786434 ERR786336:ERR786434 FBN786336:FBN786434 FLJ786336:FLJ786434 FVF786336:FVF786434 GFB786336:GFB786434 GOX786336:GOX786434 GYT786336:GYT786434 HIP786336:HIP786434 HSL786336:HSL786434 ICH786336:ICH786434 IMD786336:IMD786434 IVZ786336:IVZ786434 JFV786336:JFV786434 JPR786336:JPR786434 JZN786336:JZN786434 KJJ786336:KJJ786434 KTF786336:KTF786434 LDB786336:LDB786434 LMX786336:LMX786434 LWT786336:LWT786434 MGP786336:MGP786434 MQL786336:MQL786434 NAH786336:NAH786434 NKD786336:NKD786434 NTZ786336:NTZ786434 ODV786336:ODV786434 ONR786336:ONR786434 OXN786336:OXN786434 PHJ786336:PHJ786434 PRF786336:PRF786434 QBB786336:QBB786434 QKX786336:QKX786434 QUT786336:QUT786434 REP786336:REP786434 ROL786336:ROL786434 RYH786336:RYH786434 SID786336:SID786434 SRZ786336:SRZ786434 TBV786336:TBV786434 TLR786336:TLR786434 TVN786336:TVN786434 UFJ786336:UFJ786434 UPF786336:UPF786434 UZB786336:UZB786434 VIX786336:VIX786434 VST786336:VST786434 WCP786336:WCP786434 WML786336:WML786434 WWH786336:WWH786434 Z851872:Z851970 JV851872:JV851970 TR851872:TR851970 ADN851872:ADN851970 ANJ851872:ANJ851970 AXF851872:AXF851970 BHB851872:BHB851970 BQX851872:BQX851970 CAT851872:CAT851970 CKP851872:CKP851970 CUL851872:CUL851970 DEH851872:DEH851970 DOD851872:DOD851970 DXZ851872:DXZ851970 EHV851872:EHV851970 ERR851872:ERR851970 FBN851872:FBN851970 FLJ851872:FLJ851970 FVF851872:FVF851970 GFB851872:GFB851970 GOX851872:GOX851970 GYT851872:GYT851970 HIP851872:HIP851970 HSL851872:HSL851970 ICH851872:ICH851970 IMD851872:IMD851970 IVZ851872:IVZ851970 JFV851872:JFV851970 JPR851872:JPR851970 JZN851872:JZN851970 KJJ851872:KJJ851970 KTF851872:KTF851970 LDB851872:LDB851970 LMX851872:LMX851970 LWT851872:LWT851970 MGP851872:MGP851970 MQL851872:MQL851970 NAH851872:NAH851970 NKD851872:NKD851970 NTZ851872:NTZ851970 ODV851872:ODV851970 ONR851872:ONR851970 OXN851872:OXN851970 PHJ851872:PHJ851970 PRF851872:PRF851970 QBB851872:QBB851970 QKX851872:QKX851970 QUT851872:QUT851970 REP851872:REP851970 ROL851872:ROL851970 RYH851872:RYH851970 SID851872:SID851970 SRZ851872:SRZ851970 TBV851872:TBV851970 TLR851872:TLR851970 TVN851872:TVN851970 UFJ851872:UFJ851970 UPF851872:UPF851970 UZB851872:UZB851970 VIX851872:VIX851970 VST851872:VST851970 WCP851872:WCP851970 WML851872:WML851970 WWH851872:WWH851970 Z917408:Z917506 JV917408:JV917506 TR917408:TR917506 ADN917408:ADN917506 ANJ917408:ANJ917506 AXF917408:AXF917506 BHB917408:BHB917506 BQX917408:BQX917506 CAT917408:CAT917506 CKP917408:CKP917506 CUL917408:CUL917506 DEH917408:DEH917506 DOD917408:DOD917506 DXZ917408:DXZ917506 EHV917408:EHV917506 ERR917408:ERR917506 FBN917408:FBN917506 FLJ917408:FLJ917506 FVF917408:FVF917506 GFB917408:GFB917506 GOX917408:GOX917506 GYT917408:GYT917506 HIP917408:HIP917506 HSL917408:HSL917506 ICH917408:ICH917506 IMD917408:IMD917506 IVZ917408:IVZ917506 JFV917408:JFV917506 JPR917408:JPR917506 JZN917408:JZN917506 KJJ917408:KJJ917506 KTF917408:KTF917506 LDB917408:LDB917506 LMX917408:LMX917506 LWT917408:LWT917506 MGP917408:MGP917506 MQL917408:MQL917506 NAH917408:NAH917506 NKD917408:NKD917506 NTZ917408:NTZ917506 ODV917408:ODV917506 ONR917408:ONR917506 OXN917408:OXN917506 PHJ917408:PHJ917506 PRF917408:PRF917506 QBB917408:QBB917506 QKX917408:QKX917506 QUT917408:QUT917506 REP917408:REP917506 ROL917408:ROL917506 RYH917408:RYH917506 SID917408:SID917506 SRZ917408:SRZ917506 TBV917408:TBV917506 TLR917408:TLR917506 TVN917408:TVN917506 UFJ917408:UFJ917506 UPF917408:UPF917506 UZB917408:UZB917506 VIX917408:VIX917506 VST917408:VST917506 WCP917408:WCP917506 WML917408:WML917506 WWH917408:WWH917506 Z982944:Z983042 JV982944:JV983042 TR982944:TR983042 ADN982944:ADN983042 ANJ982944:ANJ983042 AXF982944:AXF983042 BHB982944:BHB983042 BQX982944:BQX983042 CAT982944:CAT983042 CKP982944:CKP983042 CUL982944:CUL983042 DEH982944:DEH983042 DOD982944:DOD983042 DXZ982944:DXZ983042 EHV982944:EHV983042 ERR982944:ERR983042 FBN982944:FBN983042 FLJ982944:FLJ983042 FVF982944:FVF983042 GFB982944:GFB983042 GOX982944:GOX983042 GYT982944:GYT983042 HIP982944:HIP983042 HSL982944:HSL983042 ICH982944:ICH983042 IMD982944:IMD983042 IVZ982944:IVZ983042 JFV982944:JFV983042 JPR982944:JPR983042 JZN982944:JZN983042 KJJ982944:KJJ983042 KTF982944:KTF983042 LDB982944:LDB983042 LMX982944:LMX983042 LWT982944:LWT983042 MGP982944:MGP983042 MQL982944:MQL983042 NAH982944:NAH983042 NKD982944:NKD983042 NTZ982944:NTZ983042 ODV982944:ODV983042 ONR982944:ONR983042 OXN982944:OXN983042 PHJ982944:PHJ983042 PRF982944:PRF983042 QBB982944:QBB983042 QKX982944:QKX983042 QUT982944:QUT983042 REP982944:REP983042 ROL982944:ROL983042 RYH982944:RYH983042 SID982944:SID983042 SRZ982944:SRZ983042 TBV982944:TBV983042 TLR982944:TLR983042 TVN982944:TVN983042 UFJ982944:UFJ983042 UPF982944:UPF983042 UZB982944:UZB983042 VIX982944:VIX983042 VST982944:VST983042 WCP982944:WCP983042 WML982944:WML983042 WWH982944:WWH983042" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 JR2 TN2 ADJ2 ANF2 AXB2 BGX2 BQT2 CAP2 CKL2 CUH2 DED2 DNZ2 DXV2 EHR2 ERN2 FBJ2 FLF2 FVB2 GEX2 GOT2 GYP2 HIL2 HSH2 ICD2 ILZ2 IVV2 JFR2 JPN2 JZJ2 KJF2 KTB2 LCX2 LMT2 LWP2 MGL2 MQH2 NAD2 NJZ2 NTV2 ODR2 ONN2 OXJ2 PHF2 PRB2 QAX2 QKT2 QUP2 REL2 ROH2 RYD2 SHZ2 SRV2 TBR2 TLN2 TVJ2 UFF2 UPB2 UYX2 VIT2 VSP2 WCL2 WMH2 WWD2 V65440:V65538 JR65440:JR65538 TN65440:TN65538 ADJ65440:ADJ65538 ANF65440:ANF65538 AXB65440:AXB65538 BGX65440:BGX65538 BQT65440:BQT65538 CAP65440:CAP65538 CKL65440:CKL65538 CUH65440:CUH65538 DED65440:DED65538 DNZ65440:DNZ65538 DXV65440:DXV65538 EHR65440:EHR65538 ERN65440:ERN65538 FBJ65440:FBJ65538 FLF65440:FLF65538 FVB65440:FVB65538 GEX65440:GEX65538 GOT65440:GOT65538 GYP65440:GYP65538 HIL65440:HIL65538 HSH65440:HSH65538 ICD65440:ICD65538 ILZ65440:ILZ65538 IVV65440:IVV65538 JFR65440:JFR65538 JPN65440:JPN65538 JZJ65440:JZJ65538 KJF65440:KJF65538 KTB65440:KTB65538 LCX65440:LCX65538 LMT65440:LMT65538 LWP65440:LWP65538 MGL65440:MGL65538 MQH65440:MQH65538 NAD65440:NAD65538 NJZ65440:NJZ65538 NTV65440:NTV65538 ODR65440:ODR65538 ONN65440:ONN65538 OXJ65440:OXJ65538 PHF65440:PHF65538 PRB65440:PRB65538 QAX65440:QAX65538 QKT65440:QKT65538 QUP65440:QUP65538 REL65440:REL65538 ROH65440:ROH65538 RYD65440:RYD65538 SHZ65440:SHZ65538 SRV65440:SRV65538 TBR65440:TBR65538 TLN65440:TLN65538 TVJ65440:TVJ65538 UFF65440:UFF65538 UPB65440:UPB65538 UYX65440:UYX65538 VIT65440:VIT65538 VSP65440:VSP65538 WCL65440:WCL65538 WMH65440:WMH65538 WWD65440:WWD65538 V130976:V131074 JR130976:JR131074 TN130976:TN131074 ADJ130976:ADJ131074 ANF130976:ANF131074 AXB130976:AXB131074 BGX130976:BGX131074 BQT130976:BQT131074 CAP130976:CAP131074 CKL130976:CKL131074 CUH130976:CUH131074 DED130976:DED131074 DNZ130976:DNZ131074 DXV130976:DXV131074 EHR130976:EHR131074 ERN130976:ERN131074 FBJ130976:FBJ131074 FLF130976:FLF131074 FVB130976:FVB131074 GEX130976:GEX131074 GOT130976:GOT131074 GYP130976:GYP131074 HIL130976:HIL131074 HSH130976:HSH131074 ICD130976:ICD131074 ILZ130976:ILZ131074 IVV130976:IVV131074 JFR130976:JFR131074 JPN130976:JPN131074 JZJ130976:JZJ131074 KJF130976:KJF131074 KTB130976:KTB131074 LCX130976:LCX131074 LMT130976:LMT131074 LWP130976:LWP131074 MGL130976:MGL131074 MQH130976:MQH131074 NAD130976:NAD131074 NJZ130976:NJZ131074 NTV130976:NTV131074 ODR130976:ODR131074 ONN130976:ONN131074 OXJ130976:OXJ131074 PHF130976:PHF131074 PRB130976:PRB131074 QAX130976:QAX131074 QKT130976:QKT131074 QUP130976:QUP131074 REL130976:REL131074 ROH130976:ROH131074 RYD130976:RYD131074 SHZ130976:SHZ131074 SRV130976:SRV131074 TBR130976:TBR131074 TLN130976:TLN131074 TVJ130976:TVJ131074 UFF130976:UFF131074 UPB130976:UPB131074 UYX130976:UYX131074 VIT130976:VIT131074 VSP130976:VSP131074 WCL130976:WCL131074 WMH130976:WMH131074 WWD130976:WWD131074 V196512:V196610 JR196512:JR196610 TN196512:TN196610 ADJ196512:ADJ196610 ANF196512:ANF196610 AXB196512:AXB196610 BGX196512:BGX196610 BQT196512:BQT196610 CAP196512:CAP196610 CKL196512:CKL196610 CUH196512:CUH196610 DED196512:DED196610 DNZ196512:DNZ196610 DXV196512:DXV196610 EHR196512:EHR196610 ERN196512:ERN196610 FBJ196512:FBJ196610 FLF196512:FLF196610 FVB196512:FVB196610 GEX196512:GEX196610 GOT196512:GOT196610 GYP196512:GYP196610 HIL196512:HIL196610 HSH196512:HSH196610 ICD196512:ICD196610 ILZ196512:ILZ196610 IVV196512:IVV196610 JFR196512:JFR196610 JPN196512:JPN196610 JZJ196512:JZJ196610 KJF196512:KJF196610 KTB196512:KTB196610 LCX196512:LCX196610 LMT196512:LMT196610 LWP196512:LWP196610 MGL196512:MGL196610 MQH196512:MQH196610 NAD196512:NAD196610 NJZ196512:NJZ196610 NTV196512:NTV196610 ODR196512:ODR196610 ONN196512:ONN196610 OXJ196512:OXJ196610 PHF196512:PHF196610 PRB196512:PRB196610 QAX196512:QAX196610 QKT196512:QKT196610 QUP196512:QUP196610 REL196512:REL196610 ROH196512:ROH196610 RYD196512:RYD196610 SHZ196512:SHZ196610 SRV196512:SRV196610 TBR196512:TBR196610 TLN196512:TLN196610 TVJ196512:TVJ196610 UFF196512:UFF196610 UPB196512:UPB196610 UYX196512:UYX196610 VIT196512:VIT196610 VSP196512:VSP196610 WCL196512:WCL196610 WMH196512:WMH196610 WWD196512:WWD196610 V262048:V262146 JR262048:JR262146 TN262048:TN262146 ADJ262048:ADJ262146 ANF262048:ANF262146 AXB262048:AXB262146 BGX262048:BGX262146 BQT262048:BQT262146 CAP262048:CAP262146 CKL262048:CKL262146 CUH262048:CUH262146 DED262048:DED262146 DNZ262048:DNZ262146 DXV262048:DXV262146 EHR262048:EHR262146 ERN262048:ERN262146 FBJ262048:FBJ262146 FLF262048:FLF262146 FVB262048:FVB262146 GEX262048:GEX262146 GOT262048:GOT262146 GYP262048:GYP262146 HIL262048:HIL262146 HSH262048:HSH262146 ICD262048:ICD262146 ILZ262048:ILZ262146 IVV262048:IVV262146 JFR262048:JFR262146 JPN262048:JPN262146 JZJ262048:JZJ262146 KJF262048:KJF262146 KTB262048:KTB262146 LCX262048:LCX262146 LMT262048:LMT262146 LWP262048:LWP262146 MGL262048:MGL262146 MQH262048:MQH262146 NAD262048:NAD262146 NJZ262048:NJZ262146 NTV262048:NTV262146 ODR262048:ODR262146 ONN262048:ONN262146 OXJ262048:OXJ262146 PHF262048:PHF262146 PRB262048:PRB262146 QAX262048:QAX262146 QKT262048:QKT262146 QUP262048:QUP262146 REL262048:REL262146 ROH262048:ROH262146 RYD262048:RYD262146 SHZ262048:SHZ262146 SRV262048:SRV262146 TBR262048:TBR262146 TLN262048:TLN262146 TVJ262048:TVJ262146 UFF262048:UFF262146 UPB262048:UPB262146 UYX262048:UYX262146 VIT262048:VIT262146 VSP262048:VSP262146 WCL262048:WCL262146 WMH262048:WMH262146 WWD262048:WWD262146 V327584:V327682 JR327584:JR327682 TN327584:TN327682 ADJ327584:ADJ327682 ANF327584:ANF327682 AXB327584:AXB327682 BGX327584:BGX327682 BQT327584:BQT327682 CAP327584:CAP327682 CKL327584:CKL327682 CUH327584:CUH327682 DED327584:DED327682 DNZ327584:DNZ327682 DXV327584:DXV327682 EHR327584:EHR327682 ERN327584:ERN327682 FBJ327584:FBJ327682 FLF327584:FLF327682 FVB327584:FVB327682 GEX327584:GEX327682 GOT327584:GOT327682 GYP327584:GYP327682 HIL327584:HIL327682 HSH327584:HSH327682 ICD327584:ICD327682 ILZ327584:ILZ327682 IVV327584:IVV327682 JFR327584:JFR327682 JPN327584:JPN327682 JZJ327584:JZJ327682 KJF327584:KJF327682 KTB327584:KTB327682 LCX327584:LCX327682 LMT327584:LMT327682 LWP327584:LWP327682 MGL327584:MGL327682 MQH327584:MQH327682 NAD327584:NAD327682 NJZ327584:NJZ327682 NTV327584:NTV327682 ODR327584:ODR327682 ONN327584:ONN327682 OXJ327584:OXJ327682 PHF327584:PHF327682 PRB327584:PRB327682 QAX327584:QAX327682 QKT327584:QKT327682 QUP327584:QUP327682 REL327584:REL327682 ROH327584:ROH327682 RYD327584:RYD327682 SHZ327584:SHZ327682 SRV327584:SRV327682 TBR327584:TBR327682 TLN327584:TLN327682 TVJ327584:TVJ327682 UFF327584:UFF327682 UPB327584:UPB327682 UYX327584:UYX327682 VIT327584:VIT327682 VSP327584:VSP327682 WCL327584:WCL327682 WMH327584:WMH327682 WWD327584:WWD327682 V393120:V393218 JR393120:JR393218 TN393120:TN393218 ADJ393120:ADJ393218 ANF393120:ANF393218 AXB393120:AXB393218 BGX393120:BGX393218 BQT393120:BQT393218 CAP393120:CAP393218 CKL393120:CKL393218 CUH393120:CUH393218 DED393120:DED393218 DNZ393120:DNZ393218 DXV393120:DXV393218 EHR393120:EHR393218 ERN393120:ERN393218 FBJ393120:FBJ393218 FLF393120:FLF393218 FVB393120:FVB393218 GEX393120:GEX393218 GOT393120:GOT393218 GYP393120:GYP393218 HIL393120:HIL393218 HSH393120:HSH393218 ICD393120:ICD393218 ILZ393120:ILZ393218 IVV393120:IVV393218 JFR393120:JFR393218 JPN393120:JPN393218 JZJ393120:JZJ393218 KJF393120:KJF393218 KTB393120:KTB393218 LCX393120:LCX393218 LMT393120:LMT393218 LWP393120:LWP393218 MGL393120:MGL393218 MQH393120:MQH393218 NAD393120:NAD393218 NJZ393120:NJZ393218 NTV393120:NTV393218 ODR393120:ODR393218 ONN393120:ONN393218 OXJ393120:OXJ393218 PHF393120:PHF393218 PRB393120:PRB393218 QAX393120:QAX393218 QKT393120:QKT393218 QUP393120:QUP393218 REL393120:REL393218 ROH393120:ROH393218 RYD393120:RYD393218 SHZ393120:SHZ393218 SRV393120:SRV393218 TBR393120:TBR393218 TLN393120:TLN393218 TVJ393120:TVJ393218 UFF393120:UFF393218 UPB393120:UPB393218 UYX393120:UYX393218 VIT393120:VIT393218 VSP393120:VSP393218 WCL393120:WCL393218 WMH393120:WMH393218 WWD393120:WWD393218 V458656:V458754 JR458656:JR458754 TN458656:TN458754 ADJ458656:ADJ458754 ANF458656:ANF458754 AXB458656:AXB458754 BGX458656:BGX458754 BQT458656:BQT458754 CAP458656:CAP458754 CKL458656:CKL458754 CUH458656:CUH458754 DED458656:DED458754 DNZ458656:DNZ458754 DXV458656:DXV458754 EHR458656:EHR458754 ERN458656:ERN458754 FBJ458656:FBJ458754 FLF458656:FLF458754 FVB458656:FVB458754 GEX458656:GEX458754 GOT458656:GOT458754 GYP458656:GYP458754 HIL458656:HIL458754 HSH458656:HSH458754 ICD458656:ICD458754 ILZ458656:ILZ458754 IVV458656:IVV458754 JFR458656:JFR458754 JPN458656:JPN458754 JZJ458656:JZJ458754 KJF458656:KJF458754 KTB458656:KTB458754 LCX458656:LCX458754 LMT458656:LMT458754 LWP458656:LWP458754 MGL458656:MGL458754 MQH458656:MQH458754 NAD458656:NAD458754 NJZ458656:NJZ458754 NTV458656:NTV458754 ODR458656:ODR458754 ONN458656:ONN458754 OXJ458656:OXJ458754 PHF458656:PHF458754 PRB458656:PRB458754 QAX458656:QAX458754 QKT458656:QKT458754 QUP458656:QUP458754 REL458656:REL458754 ROH458656:ROH458754 RYD458656:RYD458754 SHZ458656:SHZ458754 SRV458656:SRV458754 TBR458656:TBR458754 TLN458656:TLN458754 TVJ458656:TVJ458754 UFF458656:UFF458754 UPB458656:UPB458754 UYX458656:UYX458754 VIT458656:VIT458754 VSP458656:VSP458754 WCL458656:WCL458754 WMH458656:WMH458754 WWD458656:WWD458754 V524192:V524290 JR524192:JR524290 TN524192:TN524290 ADJ524192:ADJ524290 ANF524192:ANF524290 AXB524192:AXB524290 BGX524192:BGX524290 BQT524192:BQT524290 CAP524192:CAP524290 CKL524192:CKL524290 CUH524192:CUH524290 DED524192:DED524290 DNZ524192:DNZ524290 DXV524192:DXV524290 EHR524192:EHR524290 ERN524192:ERN524290 FBJ524192:FBJ524290 FLF524192:FLF524290 FVB524192:FVB524290 GEX524192:GEX524290 GOT524192:GOT524290 GYP524192:GYP524290 HIL524192:HIL524290 HSH524192:HSH524290 ICD524192:ICD524290 ILZ524192:ILZ524290 IVV524192:IVV524290 JFR524192:JFR524290 JPN524192:JPN524290 JZJ524192:JZJ524290 KJF524192:KJF524290 KTB524192:KTB524290 LCX524192:LCX524290 LMT524192:LMT524290 LWP524192:LWP524290 MGL524192:MGL524290 MQH524192:MQH524290 NAD524192:NAD524290 NJZ524192:NJZ524290 NTV524192:NTV524290 ODR524192:ODR524290 ONN524192:ONN524290 OXJ524192:OXJ524290 PHF524192:PHF524290 PRB524192:PRB524290 QAX524192:QAX524290 QKT524192:QKT524290 QUP524192:QUP524290 REL524192:REL524290 ROH524192:ROH524290 RYD524192:RYD524290 SHZ524192:SHZ524290 SRV524192:SRV524290 TBR524192:TBR524290 TLN524192:TLN524290 TVJ524192:TVJ524290 UFF524192:UFF524290 UPB524192:UPB524290 UYX524192:UYX524290 VIT524192:VIT524290 VSP524192:VSP524290 WCL524192:WCL524290 WMH524192:WMH524290 WWD524192:WWD524290 V589728:V589826 JR589728:JR589826 TN589728:TN589826 ADJ589728:ADJ589826 ANF589728:ANF589826 AXB589728:AXB589826 BGX589728:BGX589826 BQT589728:BQT589826 CAP589728:CAP589826 CKL589728:CKL589826 CUH589728:CUH589826 DED589728:DED589826 DNZ589728:DNZ589826 DXV589728:DXV589826 EHR589728:EHR589826 ERN589728:ERN589826 FBJ589728:FBJ589826 FLF589728:FLF589826 FVB589728:FVB589826 GEX589728:GEX589826 GOT589728:GOT589826 GYP589728:GYP589826 HIL589728:HIL589826 HSH589728:HSH589826 ICD589728:ICD589826 ILZ589728:ILZ589826 IVV589728:IVV589826 JFR589728:JFR589826 JPN589728:JPN589826 JZJ589728:JZJ589826 KJF589728:KJF589826 KTB589728:KTB589826 LCX589728:LCX589826 LMT589728:LMT589826 LWP589728:LWP589826 MGL589728:MGL589826 MQH589728:MQH589826 NAD589728:NAD589826 NJZ589728:NJZ589826 NTV589728:NTV589826 ODR589728:ODR589826 ONN589728:ONN589826 OXJ589728:OXJ589826 PHF589728:PHF589826 PRB589728:PRB589826 QAX589728:QAX589826 QKT589728:QKT589826 QUP589728:QUP589826 REL589728:REL589826 ROH589728:ROH589826 RYD589728:RYD589826 SHZ589728:SHZ589826 SRV589728:SRV589826 TBR589728:TBR589826 TLN589728:TLN589826 TVJ589728:TVJ589826 UFF589728:UFF589826 UPB589728:UPB589826 UYX589728:UYX589826 VIT589728:VIT589826 VSP589728:VSP589826 WCL589728:WCL589826 WMH589728:WMH589826 WWD589728:WWD589826 V655264:V655362 JR655264:JR655362 TN655264:TN655362 ADJ655264:ADJ655362 ANF655264:ANF655362 AXB655264:AXB655362 BGX655264:BGX655362 BQT655264:BQT655362 CAP655264:CAP655362 CKL655264:CKL655362 CUH655264:CUH655362 DED655264:DED655362 DNZ655264:DNZ655362 DXV655264:DXV655362 EHR655264:EHR655362 ERN655264:ERN655362 FBJ655264:FBJ655362 FLF655264:FLF655362 FVB655264:FVB655362 GEX655264:GEX655362 GOT655264:GOT655362 GYP655264:GYP655362 HIL655264:HIL655362 HSH655264:HSH655362 ICD655264:ICD655362 ILZ655264:ILZ655362 IVV655264:IVV655362 JFR655264:JFR655362 JPN655264:JPN655362 JZJ655264:JZJ655362 KJF655264:KJF655362 KTB655264:KTB655362 LCX655264:LCX655362 LMT655264:LMT655362 LWP655264:LWP655362 MGL655264:MGL655362 MQH655264:MQH655362 NAD655264:NAD655362 NJZ655264:NJZ655362 NTV655264:NTV655362 ODR655264:ODR655362 ONN655264:ONN655362 OXJ655264:OXJ655362 PHF655264:PHF655362 PRB655264:PRB655362 QAX655264:QAX655362 QKT655264:QKT655362 QUP655264:QUP655362 REL655264:REL655362 ROH655264:ROH655362 RYD655264:RYD655362 SHZ655264:SHZ655362 SRV655264:SRV655362 TBR655264:TBR655362 TLN655264:TLN655362 TVJ655264:TVJ655362 UFF655264:UFF655362 UPB655264:UPB655362 UYX655264:UYX655362 VIT655264:VIT655362 VSP655264:VSP655362 WCL655264:WCL655362 WMH655264:WMH655362 WWD655264:WWD655362 V720800:V720898 JR720800:JR720898 TN720800:TN720898 ADJ720800:ADJ720898 ANF720800:ANF720898 AXB720800:AXB720898 BGX720800:BGX720898 BQT720800:BQT720898 CAP720800:CAP720898 CKL720800:CKL720898 CUH720800:CUH720898 DED720800:DED720898 DNZ720800:DNZ720898 DXV720800:DXV720898 EHR720800:EHR720898 ERN720800:ERN720898 FBJ720800:FBJ720898 FLF720800:FLF720898 FVB720800:FVB720898 GEX720800:GEX720898 GOT720800:GOT720898 GYP720800:GYP720898 HIL720800:HIL720898 HSH720800:HSH720898 ICD720800:ICD720898 ILZ720800:ILZ720898 IVV720800:IVV720898 JFR720800:JFR720898 JPN720800:JPN720898 JZJ720800:JZJ720898 KJF720800:KJF720898 KTB720800:KTB720898 LCX720800:LCX720898 LMT720800:LMT720898 LWP720800:LWP720898 MGL720800:MGL720898 MQH720800:MQH720898 NAD720800:NAD720898 NJZ720800:NJZ720898 NTV720800:NTV720898 ODR720800:ODR720898 ONN720800:ONN720898 OXJ720800:OXJ720898 PHF720800:PHF720898 PRB720800:PRB720898 QAX720800:QAX720898 QKT720800:QKT720898 QUP720800:QUP720898 REL720800:REL720898 ROH720800:ROH720898 RYD720800:RYD720898 SHZ720800:SHZ720898 SRV720800:SRV720898 TBR720800:TBR720898 TLN720800:TLN720898 TVJ720800:TVJ720898 UFF720800:UFF720898 UPB720800:UPB720898 UYX720800:UYX720898 VIT720800:VIT720898 VSP720800:VSP720898 WCL720800:WCL720898 WMH720800:WMH720898 WWD720800:WWD720898 V786336:V786434 JR786336:JR786434 TN786336:TN786434 ADJ786336:ADJ786434 ANF786336:ANF786434 AXB786336:AXB786434 BGX786336:BGX786434 BQT786336:BQT786434 CAP786336:CAP786434 CKL786336:CKL786434 CUH786336:CUH786434 DED786336:DED786434 DNZ786336:DNZ786434 DXV786336:DXV786434 EHR786336:EHR786434 ERN786336:ERN786434 FBJ786336:FBJ786434 FLF786336:FLF786434 FVB786336:FVB786434 GEX786336:GEX786434 GOT786336:GOT786434 GYP786336:GYP786434 HIL786336:HIL786434 HSH786336:HSH786434 ICD786336:ICD786434 ILZ786336:ILZ786434 IVV786336:IVV786434 JFR786336:JFR786434 JPN786336:JPN786434 JZJ786336:JZJ786434 KJF786336:KJF786434 KTB786336:KTB786434 LCX786336:LCX786434 LMT786336:LMT786434 LWP786336:LWP786434 MGL786336:MGL786434 MQH786336:MQH786434 NAD786336:NAD786434 NJZ786336:NJZ786434 NTV786336:NTV786434 ODR786336:ODR786434 ONN786336:ONN786434 OXJ786336:OXJ786434 PHF786336:PHF786434 PRB786336:PRB786434 QAX786336:QAX786434 QKT786336:QKT786434 QUP786336:QUP786434 REL786336:REL786434 ROH786336:ROH786434 RYD786336:RYD786434 SHZ786336:SHZ786434 SRV786336:SRV786434 TBR786336:TBR786434 TLN786336:TLN786434 TVJ786336:TVJ786434 UFF786336:UFF786434 UPB786336:UPB786434 UYX786336:UYX786434 VIT786336:VIT786434 VSP786336:VSP786434 WCL786336:WCL786434 WMH786336:WMH786434 WWD786336:WWD786434 V851872:V851970 JR851872:JR851970 TN851872:TN851970 ADJ851872:ADJ851970 ANF851872:ANF851970 AXB851872:AXB851970 BGX851872:BGX851970 BQT851872:BQT851970 CAP851872:CAP851970 CKL851872:CKL851970 CUH851872:CUH851970 DED851872:DED851970 DNZ851872:DNZ851970 DXV851872:DXV851970 EHR851872:EHR851970 ERN851872:ERN851970 FBJ851872:FBJ851970 FLF851872:FLF851970 FVB851872:FVB851970 GEX851872:GEX851970 GOT851872:GOT851970 GYP851872:GYP851970 HIL851872:HIL851970 HSH851872:HSH851970 ICD851872:ICD851970 ILZ851872:ILZ851970 IVV851872:IVV851970 JFR851872:JFR851970 JPN851872:JPN851970 JZJ851872:JZJ851970 KJF851872:KJF851970 KTB851872:KTB851970 LCX851872:LCX851970 LMT851872:LMT851970 LWP851872:LWP851970 MGL851872:MGL851970 MQH851872:MQH851970 NAD851872:NAD851970 NJZ851872:NJZ851970 NTV851872:NTV851970 ODR851872:ODR851970 ONN851872:ONN851970 OXJ851872:OXJ851970 PHF851872:PHF851970 PRB851872:PRB851970 QAX851872:QAX851970 QKT851872:QKT851970 QUP851872:QUP851970 REL851872:REL851970 ROH851872:ROH851970 RYD851872:RYD851970 SHZ851872:SHZ851970 SRV851872:SRV851970 TBR851872:TBR851970 TLN851872:TLN851970 TVJ851872:TVJ851970 UFF851872:UFF851970 UPB851872:UPB851970 UYX851872:UYX851970 VIT851872:VIT851970 VSP851872:VSP851970 WCL851872:WCL851970 WMH851872:WMH851970 WWD851872:WWD851970 V917408:V917506 JR917408:JR917506 TN917408:TN917506 ADJ917408:ADJ917506 ANF917408:ANF917506 AXB917408:AXB917506 BGX917408:BGX917506 BQT917408:BQT917506 CAP917408:CAP917506 CKL917408:CKL917506 CUH917408:CUH917506 DED917408:DED917506 DNZ917408:DNZ917506 DXV917408:DXV917506 EHR917408:EHR917506 ERN917408:ERN917506 FBJ917408:FBJ917506 FLF917408:FLF917506 FVB917408:FVB917506 GEX917408:GEX917506 GOT917408:GOT917506 GYP917408:GYP917506 HIL917408:HIL917506 HSH917408:HSH917506 ICD917408:ICD917506 ILZ917408:ILZ917506 IVV917408:IVV917506 JFR917408:JFR917506 JPN917408:JPN917506 JZJ917408:JZJ917506 KJF917408:KJF917506 KTB917408:KTB917506 LCX917408:LCX917506 LMT917408:LMT917506 LWP917408:LWP917506 MGL917408:MGL917506 MQH917408:MQH917506 NAD917408:NAD917506 NJZ917408:NJZ917506 NTV917408:NTV917506 ODR917408:ODR917506 ONN917408:ONN917506 OXJ917408:OXJ917506 PHF917408:PHF917506 PRB917408:PRB917506 QAX917408:QAX917506 QKT917408:QKT917506 QUP917408:QUP917506 REL917408:REL917506 ROH917408:ROH917506 RYD917408:RYD917506 SHZ917408:SHZ917506 SRV917408:SRV917506 TBR917408:TBR917506 TLN917408:TLN917506 TVJ917408:TVJ917506 UFF917408:UFF917506 UPB917408:UPB917506 UYX917408:UYX917506 VIT917408:VIT917506 VSP917408:VSP917506 WCL917408:WCL917506 WMH917408:WMH917506 WWD917408:WWD917506 V982944:V983042 JR982944:JR983042 TN982944:TN983042 ADJ982944:ADJ983042 ANF982944:ANF983042 AXB982944:AXB983042 BGX982944:BGX983042 BQT982944:BQT983042 CAP982944:CAP983042 CKL982944:CKL983042 CUH982944:CUH983042 DED982944:DED983042 DNZ982944:DNZ983042 DXV982944:DXV983042 EHR982944:EHR983042 ERN982944:ERN983042 FBJ982944:FBJ983042 FLF982944:FLF983042 FVB982944:FVB983042 GEX982944:GEX983042 GOT982944:GOT983042 GYP982944:GYP983042 HIL982944:HIL983042 HSH982944:HSH983042 ICD982944:ICD983042 ILZ982944:ILZ983042 IVV982944:IVV983042 JFR982944:JFR983042 JPN982944:JPN983042 JZJ982944:JZJ983042 KJF982944:KJF983042 KTB982944:KTB983042 LCX982944:LCX983042 LMT982944:LMT983042 LWP982944:LWP983042 MGL982944:MGL983042 MQH982944:MQH983042 NAD982944:NAD983042 NJZ982944:NJZ983042 NTV982944:NTV983042 ODR982944:ODR983042 ONN982944:ONN983042 OXJ982944:OXJ983042 PHF982944:PHF983042 PRB982944:PRB983042 QAX982944:QAX983042 QKT982944:QKT983042 QUP982944:QUP983042 REL982944:REL983042 ROH982944:ROH983042 RYD982944:RYD983042 SHZ982944:SHZ983042 SRV982944:SRV983042 TBR982944:TBR983042 TLN982944:TLN983042 TVJ982944:TVJ983042 UFF982944:UFF983042 UPB982944:UPB983042 UYX982944:UYX983042 VIT982944:VIT983042 VSP982944:VSP983042 WCL982944:WCL983042 WMH982944:WMH983042 WWD982944:WWD983042" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 JT2 TP2 ADL2 ANH2 AXD2 BGZ2 BQV2 CAR2 CKN2 CUJ2 DEF2 DOB2 DXX2 EHT2 ERP2 FBL2 FLH2 FVD2 GEZ2 GOV2 GYR2 HIN2 HSJ2 ICF2 IMB2 IVX2 JFT2 JPP2 JZL2 KJH2 KTD2 LCZ2 LMV2 LWR2 MGN2 MQJ2 NAF2 NKB2 NTX2 ODT2 ONP2 OXL2 PHH2 PRD2 QAZ2 QKV2 QUR2 REN2 ROJ2 RYF2 SIB2 SRX2 TBT2 TLP2 TVL2 UFH2 UPD2 UYZ2 VIV2 VSR2 WCN2 WMJ2 WWF2 X65440:X65538 JT65440:JT65538 TP65440:TP65538 ADL65440:ADL65538 ANH65440:ANH65538 AXD65440:AXD65538 BGZ65440:BGZ65538 BQV65440:BQV65538 CAR65440:CAR65538 CKN65440:CKN65538 CUJ65440:CUJ65538 DEF65440:DEF65538 DOB65440:DOB65538 DXX65440:DXX65538 EHT65440:EHT65538 ERP65440:ERP65538 FBL65440:FBL65538 FLH65440:FLH65538 FVD65440:FVD65538 GEZ65440:GEZ65538 GOV65440:GOV65538 GYR65440:GYR65538 HIN65440:HIN65538 HSJ65440:HSJ65538 ICF65440:ICF65538 IMB65440:IMB65538 IVX65440:IVX65538 JFT65440:JFT65538 JPP65440:JPP65538 JZL65440:JZL65538 KJH65440:KJH65538 KTD65440:KTD65538 LCZ65440:LCZ65538 LMV65440:LMV65538 LWR65440:LWR65538 MGN65440:MGN65538 MQJ65440:MQJ65538 NAF65440:NAF65538 NKB65440:NKB65538 NTX65440:NTX65538 ODT65440:ODT65538 ONP65440:ONP65538 OXL65440:OXL65538 PHH65440:PHH65538 PRD65440:PRD65538 QAZ65440:QAZ65538 QKV65440:QKV65538 QUR65440:QUR65538 REN65440:REN65538 ROJ65440:ROJ65538 RYF65440:RYF65538 SIB65440:SIB65538 SRX65440:SRX65538 TBT65440:TBT65538 TLP65440:TLP65538 TVL65440:TVL65538 UFH65440:UFH65538 UPD65440:UPD65538 UYZ65440:UYZ65538 VIV65440:VIV65538 VSR65440:VSR65538 WCN65440:WCN65538 WMJ65440:WMJ65538 WWF65440:WWF65538 X130976:X131074 JT130976:JT131074 TP130976:TP131074 ADL130976:ADL131074 ANH130976:ANH131074 AXD130976:AXD131074 BGZ130976:BGZ131074 BQV130976:BQV131074 CAR130976:CAR131074 CKN130976:CKN131074 CUJ130976:CUJ131074 DEF130976:DEF131074 DOB130976:DOB131074 DXX130976:DXX131074 EHT130976:EHT131074 ERP130976:ERP131074 FBL130976:FBL131074 FLH130976:FLH131074 FVD130976:FVD131074 GEZ130976:GEZ131074 GOV130976:GOV131074 GYR130976:GYR131074 HIN130976:HIN131074 HSJ130976:HSJ131074 ICF130976:ICF131074 IMB130976:IMB131074 IVX130976:IVX131074 JFT130976:JFT131074 JPP130976:JPP131074 JZL130976:JZL131074 KJH130976:KJH131074 KTD130976:KTD131074 LCZ130976:LCZ131074 LMV130976:LMV131074 LWR130976:LWR131074 MGN130976:MGN131074 MQJ130976:MQJ131074 NAF130976:NAF131074 NKB130976:NKB131074 NTX130976:NTX131074 ODT130976:ODT131074 ONP130976:ONP131074 OXL130976:OXL131074 PHH130976:PHH131074 PRD130976:PRD131074 QAZ130976:QAZ131074 QKV130976:QKV131074 QUR130976:QUR131074 REN130976:REN131074 ROJ130976:ROJ131074 RYF130976:RYF131074 SIB130976:SIB131074 SRX130976:SRX131074 TBT130976:TBT131074 TLP130976:TLP131074 TVL130976:TVL131074 UFH130976:UFH131074 UPD130976:UPD131074 UYZ130976:UYZ131074 VIV130976:VIV131074 VSR130976:VSR131074 WCN130976:WCN131074 WMJ130976:WMJ131074 WWF130976:WWF131074 X196512:X196610 JT196512:JT196610 TP196512:TP196610 ADL196512:ADL196610 ANH196512:ANH196610 AXD196512:AXD196610 BGZ196512:BGZ196610 BQV196512:BQV196610 CAR196512:CAR196610 CKN196512:CKN196610 CUJ196512:CUJ196610 DEF196512:DEF196610 DOB196512:DOB196610 DXX196512:DXX196610 EHT196512:EHT196610 ERP196512:ERP196610 FBL196512:FBL196610 FLH196512:FLH196610 FVD196512:FVD196610 GEZ196512:GEZ196610 GOV196512:GOV196610 GYR196512:GYR196610 HIN196512:HIN196610 HSJ196512:HSJ196610 ICF196512:ICF196610 IMB196512:IMB196610 IVX196512:IVX196610 JFT196512:JFT196610 JPP196512:JPP196610 JZL196512:JZL196610 KJH196512:KJH196610 KTD196512:KTD196610 LCZ196512:LCZ196610 LMV196512:LMV196610 LWR196512:LWR196610 MGN196512:MGN196610 MQJ196512:MQJ196610 NAF196512:NAF196610 NKB196512:NKB196610 NTX196512:NTX196610 ODT196512:ODT196610 ONP196512:ONP196610 OXL196512:OXL196610 PHH196512:PHH196610 PRD196512:PRD196610 QAZ196512:QAZ196610 QKV196512:QKV196610 QUR196512:QUR196610 REN196512:REN196610 ROJ196512:ROJ196610 RYF196512:RYF196610 SIB196512:SIB196610 SRX196512:SRX196610 TBT196512:TBT196610 TLP196512:TLP196610 TVL196512:TVL196610 UFH196512:UFH196610 UPD196512:UPD196610 UYZ196512:UYZ196610 VIV196512:VIV196610 VSR196512:VSR196610 WCN196512:WCN196610 WMJ196512:WMJ196610 WWF196512:WWF196610 X262048:X262146 JT262048:JT262146 TP262048:TP262146 ADL262048:ADL262146 ANH262048:ANH262146 AXD262048:AXD262146 BGZ262048:BGZ262146 BQV262048:BQV262146 CAR262048:CAR262146 CKN262048:CKN262146 CUJ262048:CUJ262146 DEF262048:DEF262146 DOB262048:DOB262146 DXX262048:DXX262146 EHT262048:EHT262146 ERP262048:ERP262146 FBL262048:FBL262146 FLH262048:FLH262146 FVD262048:FVD262146 GEZ262048:GEZ262146 GOV262048:GOV262146 GYR262048:GYR262146 HIN262048:HIN262146 HSJ262048:HSJ262146 ICF262048:ICF262146 IMB262048:IMB262146 IVX262048:IVX262146 JFT262048:JFT262146 JPP262048:JPP262146 JZL262048:JZL262146 KJH262048:KJH262146 KTD262048:KTD262146 LCZ262048:LCZ262146 LMV262048:LMV262146 LWR262048:LWR262146 MGN262048:MGN262146 MQJ262048:MQJ262146 NAF262048:NAF262146 NKB262048:NKB262146 NTX262048:NTX262146 ODT262048:ODT262146 ONP262048:ONP262146 OXL262048:OXL262146 PHH262048:PHH262146 PRD262048:PRD262146 QAZ262048:QAZ262146 QKV262048:QKV262146 QUR262048:QUR262146 REN262048:REN262146 ROJ262048:ROJ262146 RYF262048:RYF262146 SIB262048:SIB262146 SRX262048:SRX262146 TBT262048:TBT262146 TLP262048:TLP262146 TVL262048:TVL262146 UFH262048:UFH262146 UPD262048:UPD262146 UYZ262048:UYZ262146 VIV262048:VIV262146 VSR262048:VSR262146 WCN262048:WCN262146 WMJ262048:WMJ262146 WWF262048:WWF262146 X327584:X327682 JT327584:JT327682 TP327584:TP327682 ADL327584:ADL327682 ANH327584:ANH327682 AXD327584:AXD327682 BGZ327584:BGZ327682 BQV327584:BQV327682 CAR327584:CAR327682 CKN327584:CKN327682 CUJ327584:CUJ327682 DEF327584:DEF327682 DOB327584:DOB327682 DXX327584:DXX327682 EHT327584:EHT327682 ERP327584:ERP327682 FBL327584:FBL327682 FLH327584:FLH327682 FVD327584:FVD327682 GEZ327584:GEZ327682 GOV327584:GOV327682 GYR327584:GYR327682 HIN327584:HIN327682 HSJ327584:HSJ327682 ICF327584:ICF327682 IMB327584:IMB327682 IVX327584:IVX327682 JFT327584:JFT327682 JPP327584:JPP327682 JZL327584:JZL327682 KJH327584:KJH327682 KTD327584:KTD327682 LCZ327584:LCZ327682 LMV327584:LMV327682 LWR327584:LWR327682 MGN327584:MGN327682 MQJ327584:MQJ327682 NAF327584:NAF327682 NKB327584:NKB327682 NTX327584:NTX327682 ODT327584:ODT327682 ONP327584:ONP327682 OXL327584:OXL327682 PHH327584:PHH327682 PRD327584:PRD327682 QAZ327584:QAZ327682 QKV327584:QKV327682 QUR327584:QUR327682 REN327584:REN327682 ROJ327584:ROJ327682 RYF327584:RYF327682 SIB327584:SIB327682 SRX327584:SRX327682 TBT327584:TBT327682 TLP327584:TLP327682 TVL327584:TVL327682 UFH327584:UFH327682 UPD327584:UPD327682 UYZ327584:UYZ327682 VIV327584:VIV327682 VSR327584:VSR327682 WCN327584:WCN327682 WMJ327584:WMJ327682 WWF327584:WWF327682 X393120:X393218 JT393120:JT393218 TP393120:TP393218 ADL393120:ADL393218 ANH393120:ANH393218 AXD393120:AXD393218 BGZ393120:BGZ393218 BQV393120:BQV393218 CAR393120:CAR393218 CKN393120:CKN393218 CUJ393120:CUJ393218 DEF393120:DEF393218 DOB393120:DOB393218 DXX393120:DXX393218 EHT393120:EHT393218 ERP393120:ERP393218 FBL393120:FBL393218 FLH393120:FLH393218 FVD393120:FVD393218 GEZ393120:GEZ393218 GOV393120:GOV393218 GYR393120:GYR393218 HIN393120:HIN393218 HSJ393120:HSJ393218 ICF393120:ICF393218 IMB393120:IMB393218 IVX393120:IVX393218 JFT393120:JFT393218 JPP393120:JPP393218 JZL393120:JZL393218 KJH393120:KJH393218 KTD393120:KTD393218 LCZ393120:LCZ393218 LMV393120:LMV393218 LWR393120:LWR393218 MGN393120:MGN393218 MQJ393120:MQJ393218 NAF393120:NAF393218 NKB393120:NKB393218 NTX393120:NTX393218 ODT393120:ODT393218 ONP393120:ONP393218 OXL393120:OXL393218 PHH393120:PHH393218 PRD393120:PRD393218 QAZ393120:QAZ393218 QKV393120:QKV393218 QUR393120:QUR393218 REN393120:REN393218 ROJ393120:ROJ393218 RYF393120:RYF393218 SIB393120:SIB393218 SRX393120:SRX393218 TBT393120:TBT393218 TLP393120:TLP393218 TVL393120:TVL393218 UFH393120:UFH393218 UPD393120:UPD393218 UYZ393120:UYZ393218 VIV393120:VIV393218 VSR393120:VSR393218 WCN393120:WCN393218 WMJ393120:WMJ393218 WWF393120:WWF393218 X458656:X458754 JT458656:JT458754 TP458656:TP458754 ADL458656:ADL458754 ANH458656:ANH458754 AXD458656:AXD458754 BGZ458656:BGZ458754 BQV458656:BQV458754 CAR458656:CAR458754 CKN458656:CKN458754 CUJ458656:CUJ458754 DEF458656:DEF458754 DOB458656:DOB458754 DXX458656:DXX458754 EHT458656:EHT458754 ERP458656:ERP458754 FBL458656:FBL458754 FLH458656:FLH458754 FVD458656:FVD458754 GEZ458656:GEZ458754 GOV458656:GOV458754 GYR458656:GYR458754 HIN458656:HIN458754 HSJ458656:HSJ458754 ICF458656:ICF458754 IMB458656:IMB458754 IVX458656:IVX458754 JFT458656:JFT458754 JPP458656:JPP458754 JZL458656:JZL458754 KJH458656:KJH458754 KTD458656:KTD458754 LCZ458656:LCZ458754 LMV458656:LMV458754 LWR458656:LWR458754 MGN458656:MGN458754 MQJ458656:MQJ458754 NAF458656:NAF458754 NKB458656:NKB458754 NTX458656:NTX458754 ODT458656:ODT458754 ONP458656:ONP458754 OXL458656:OXL458754 PHH458656:PHH458754 PRD458656:PRD458754 QAZ458656:QAZ458754 QKV458656:QKV458754 QUR458656:QUR458754 REN458656:REN458754 ROJ458656:ROJ458754 RYF458656:RYF458754 SIB458656:SIB458754 SRX458656:SRX458754 TBT458656:TBT458754 TLP458656:TLP458754 TVL458656:TVL458754 UFH458656:UFH458754 UPD458656:UPD458754 UYZ458656:UYZ458754 VIV458656:VIV458754 VSR458656:VSR458754 WCN458656:WCN458754 WMJ458656:WMJ458754 WWF458656:WWF458754 X524192:X524290 JT524192:JT524290 TP524192:TP524290 ADL524192:ADL524290 ANH524192:ANH524290 AXD524192:AXD524290 BGZ524192:BGZ524290 BQV524192:BQV524290 CAR524192:CAR524290 CKN524192:CKN524290 CUJ524192:CUJ524290 DEF524192:DEF524290 DOB524192:DOB524290 DXX524192:DXX524290 EHT524192:EHT524290 ERP524192:ERP524290 FBL524192:FBL524290 FLH524192:FLH524290 FVD524192:FVD524290 GEZ524192:GEZ524290 GOV524192:GOV524290 GYR524192:GYR524290 HIN524192:HIN524290 HSJ524192:HSJ524290 ICF524192:ICF524290 IMB524192:IMB524290 IVX524192:IVX524290 JFT524192:JFT524290 JPP524192:JPP524290 JZL524192:JZL524290 KJH524192:KJH524290 KTD524192:KTD524290 LCZ524192:LCZ524290 LMV524192:LMV524290 LWR524192:LWR524290 MGN524192:MGN524290 MQJ524192:MQJ524290 NAF524192:NAF524290 NKB524192:NKB524290 NTX524192:NTX524290 ODT524192:ODT524290 ONP524192:ONP524290 OXL524192:OXL524290 PHH524192:PHH524290 PRD524192:PRD524290 QAZ524192:QAZ524290 QKV524192:QKV524290 QUR524192:QUR524290 REN524192:REN524290 ROJ524192:ROJ524290 RYF524192:RYF524290 SIB524192:SIB524290 SRX524192:SRX524290 TBT524192:TBT524290 TLP524192:TLP524290 TVL524192:TVL524290 UFH524192:UFH524290 UPD524192:UPD524290 UYZ524192:UYZ524290 VIV524192:VIV524290 VSR524192:VSR524290 WCN524192:WCN524290 WMJ524192:WMJ524290 WWF524192:WWF524290 X589728:X589826 JT589728:JT589826 TP589728:TP589826 ADL589728:ADL589826 ANH589728:ANH589826 AXD589728:AXD589826 BGZ589728:BGZ589826 BQV589728:BQV589826 CAR589728:CAR589826 CKN589728:CKN589826 CUJ589728:CUJ589826 DEF589728:DEF589826 DOB589728:DOB589826 DXX589728:DXX589826 EHT589728:EHT589826 ERP589728:ERP589826 FBL589728:FBL589826 FLH589728:FLH589826 FVD589728:FVD589826 GEZ589728:GEZ589826 GOV589728:GOV589826 GYR589728:GYR589826 HIN589728:HIN589826 HSJ589728:HSJ589826 ICF589728:ICF589826 IMB589728:IMB589826 IVX589728:IVX589826 JFT589728:JFT589826 JPP589728:JPP589826 JZL589728:JZL589826 KJH589728:KJH589826 KTD589728:KTD589826 LCZ589728:LCZ589826 LMV589728:LMV589826 LWR589728:LWR589826 MGN589728:MGN589826 MQJ589728:MQJ589826 NAF589728:NAF589826 NKB589728:NKB589826 NTX589728:NTX589826 ODT589728:ODT589826 ONP589728:ONP589826 OXL589728:OXL589826 PHH589728:PHH589826 PRD589728:PRD589826 QAZ589728:QAZ589826 QKV589728:QKV589826 QUR589728:QUR589826 REN589728:REN589826 ROJ589728:ROJ589826 RYF589728:RYF589826 SIB589728:SIB589826 SRX589728:SRX589826 TBT589728:TBT589826 TLP589728:TLP589826 TVL589728:TVL589826 UFH589728:UFH589826 UPD589728:UPD589826 UYZ589728:UYZ589826 VIV589728:VIV589826 VSR589728:VSR589826 WCN589728:WCN589826 WMJ589728:WMJ589826 WWF589728:WWF589826 X655264:X655362 JT655264:JT655362 TP655264:TP655362 ADL655264:ADL655362 ANH655264:ANH655362 AXD655264:AXD655362 BGZ655264:BGZ655362 BQV655264:BQV655362 CAR655264:CAR655362 CKN655264:CKN655362 CUJ655264:CUJ655362 DEF655264:DEF655362 DOB655264:DOB655362 DXX655264:DXX655362 EHT655264:EHT655362 ERP655264:ERP655362 FBL655264:FBL655362 FLH655264:FLH655362 FVD655264:FVD655362 GEZ655264:GEZ655362 GOV655264:GOV655362 GYR655264:GYR655362 HIN655264:HIN655362 HSJ655264:HSJ655362 ICF655264:ICF655362 IMB655264:IMB655362 IVX655264:IVX655362 JFT655264:JFT655362 JPP655264:JPP655362 JZL655264:JZL655362 KJH655264:KJH655362 KTD655264:KTD655362 LCZ655264:LCZ655362 LMV655264:LMV655362 LWR655264:LWR655362 MGN655264:MGN655362 MQJ655264:MQJ655362 NAF655264:NAF655362 NKB655264:NKB655362 NTX655264:NTX655362 ODT655264:ODT655362 ONP655264:ONP655362 OXL655264:OXL655362 PHH655264:PHH655362 PRD655264:PRD655362 QAZ655264:QAZ655362 QKV655264:QKV655362 QUR655264:QUR655362 REN655264:REN655362 ROJ655264:ROJ655362 RYF655264:RYF655362 SIB655264:SIB655362 SRX655264:SRX655362 TBT655264:TBT655362 TLP655264:TLP655362 TVL655264:TVL655362 UFH655264:UFH655362 UPD655264:UPD655362 UYZ655264:UYZ655362 VIV655264:VIV655362 VSR655264:VSR655362 WCN655264:WCN655362 WMJ655264:WMJ655362 WWF655264:WWF655362 X720800:X720898 JT720800:JT720898 TP720800:TP720898 ADL720800:ADL720898 ANH720800:ANH720898 AXD720800:AXD720898 BGZ720800:BGZ720898 BQV720800:BQV720898 CAR720800:CAR720898 CKN720800:CKN720898 CUJ720800:CUJ720898 DEF720800:DEF720898 DOB720800:DOB720898 DXX720800:DXX720898 EHT720800:EHT720898 ERP720800:ERP720898 FBL720800:FBL720898 FLH720800:FLH720898 FVD720800:FVD720898 GEZ720800:GEZ720898 GOV720800:GOV720898 GYR720800:GYR720898 HIN720800:HIN720898 HSJ720800:HSJ720898 ICF720800:ICF720898 IMB720800:IMB720898 IVX720800:IVX720898 JFT720800:JFT720898 JPP720800:JPP720898 JZL720800:JZL720898 KJH720800:KJH720898 KTD720800:KTD720898 LCZ720800:LCZ720898 LMV720800:LMV720898 LWR720800:LWR720898 MGN720800:MGN720898 MQJ720800:MQJ720898 NAF720800:NAF720898 NKB720800:NKB720898 NTX720800:NTX720898 ODT720800:ODT720898 ONP720800:ONP720898 OXL720800:OXL720898 PHH720800:PHH720898 PRD720800:PRD720898 QAZ720800:QAZ720898 QKV720800:QKV720898 QUR720800:QUR720898 REN720800:REN720898 ROJ720800:ROJ720898 RYF720800:RYF720898 SIB720800:SIB720898 SRX720800:SRX720898 TBT720800:TBT720898 TLP720800:TLP720898 TVL720800:TVL720898 UFH720800:UFH720898 UPD720800:UPD720898 UYZ720800:UYZ720898 VIV720800:VIV720898 VSR720800:VSR720898 WCN720800:WCN720898 WMJ720800:WMJ720898 WWF720800:WWF720898 X786336:X786434 JT786336:JT786434 TP786336:TP786434 ADL786336:ADL786434 ANH786336:ANH786434 AXD786336:AXD786434 BGZ786336:BGZ786434 BQV786336:BQV786434 CAR786336:CAR786434 CKN786336:CKN786434 CUJ786336:CUJ786434 DEF786336:DEF786434 DOB786336:DOB786434 DXX786336:DXX786434 EHT786336:EHT786434 ERP786336:ERP786434 FBL786336:FBL786434 FLH786336:FLH786434 FVD786336:FVD786434 GEZ786336:GEZ786434 GOV786336:GOV786434 GYR786336:GYR786434 HIN786336:HIN786434 HSJ786336:HSJ786434 ICF786336:ICF786434 IMB786336:IMB786434 IVX786336:IVX786434 JFT786336:JFT786434 JPP786336:JPP786434 JZL786336:JZL786434 KJH786336:KJH786434 KTD786336:KTD786434 LCZ786336:LCZ786434 LMV786336:LMV786434 LWR786336:LWR786434 MGN786336:MGN786434 MQJ786336:MQJ786434 NAF786336:NAF786434 NKB786336:NKB786434 NTX786336:NTX786434 ODT786336:ODT786434 ONP786336:ONP786434 OXL786336:OXL786434 PHH786336:PHH786434 PRD786336:PRD786434 QAZ786336:QAZ786434 QKV786336:QKV786434 QUR786336:QUR786434 REN786336:REN786434 ROJ786336:ROJ786434 RYF786336:RYF786434 SIB786336:SIB786434 SRX786336:SRX786434 TBT786336:TBT786434 TLP786336:TLP786434 TVL786336:TVL786434 UFH786336:UFH786434 UPD786336:UPD786434 UYZ786336:UYZ786434 VIV786336:VIV786434 VSR786336:VSR786434 WCN786336:WCN786434 WMJ786336:WMJ786434 WWF786336:WWF786434 X851872:X851970 JT851872:JT851970 TP851872:TP851970 ADL851872:ADL851970 ANH851872:ANH851970 AXD851872:AXD851970 BGZ851872:BGZ851970 BQV851872:BQV851970 CAR851872:CAR851970 CKN851872:CKN851970 CUJ851872:CUJ851970 DEF851872:DEF851970 DOB851872:DOB851970 DXX851872:DXX851970 EHT851872:EHT851970 ERP851872:ERP851970 FBL851872:FBL851970 FLH851872:FLH851970 FVD851872:FVD851970 GEZ851872:GEZ851970 GOV851872:GOV851970 GYR851872:GYR851970 HIN851872:HIN851970 HSJ851872:HSJ851970 ICF851872:ICF851970 IMB851872:IMB851970 IVX851872:IVX851970 JFT851872:JFT851970 JPP851872:JPP851970 JZL851872:JZL851970 KJH851872:KJH851970 KTD851872:KTD851970 LCZ851872:LCZ851970 LMV851872:LMV851970 LWR851872:LWR851970 MGN851872:MGN851970 MQJ851872:MQJ851970 NAF851872:NAF851970 NKB851872:NKB851970 NTX851872:NTX851970 ODT851872:ODT851970 ONP851872:ONP851970 OXL851872:OXL851970 PHH851872:PHH851970 PRD851872:PRD851970 QAZ851872:QAZ851970 QKV851872:QKV851970 QUR851872:QUR851970 REN851872:REN851970 ROJ851872:ROJ851970 RYF851872:RYF851970 SIB851872:SIB851970 SRX851872:SRX851970 TBT851872:TBT851970 TLP851872:TLP851970 TVL851872:TVL851970 UFH851872:UFH851970 UPD851872:UPD851970 UYZ851872:UYZ851970 VIV851872:VIV851970 VSR851872:VSR851970 WCN851872:WCN851970 WMJ851872:WMJ851970 WWF851872:WWF851970 X917408:X917506 JT917408:JT917506 TP917408:TP917506 ADL917408:ADL917506 ANH917408:ANH917506 AXD917408:AXD917506 BGZ917408:BGZ917506 BQV917408:BQV917506 CAR917408:CAR917506 CKN917408:CKN917506 CUJ917408:CUJ917506 DEF917408:DEF917506 DOB917408:DOB917506 DXX917408:DXX917506 EHT917408:EHT917506 ERP917408:ERP917506 FBL917408:FBL917506 FLH917408:FLH917506 FVD917408:FVD917506 GEZ917408:GEZ917506 GOV917408:GOV917506 GYR917408:GYR917506 HIN917408:HIN917506 HSJ917408:HSJ917506 ICF917408:ICF917506 IMB917408:IMB917506 IVX917408:IVX917506 JFT917408:JFT917506 JPP917408:JPP917506 JZL917408:JZL917506 KJH917408:KJH917506 KTD917408:KTD917506 LCZ917408:LCZ917506 LMV917408:LMV917506 LWR917408:LWR917506 MGN917408:MGN917506 MQJ917408:MQJ917506 NAF917408:NAF917506 NKB917408:NKB917506 NTX917408:NTX917506 ODT917408:ODT917506 ONP917408:ONP917506 OXL917408:OXL917506 PHH917408:PHH917506 PRD917408:PRD917506 QAZ917408:QAZ917506 QKV917408:QKV917506 QUR917408:QUR917506 REN917408:REN917506 ROJ917408:ROJ917506 RYF917408:RYF917506 SIB917408:SIB917506 SRX917408:SRX917506 TBT917408:TBT917506 TLP917408:TLP917506 TVL917408:TVL917506 UFH917408:UFH917506 UPD917408:UPD917506 UYZ917408:UYZ917506 VIV917408:VIV917506 VSR917408:VSR917506 WCN917408:WCN917506 WMJ917408:WMJ917506 WWF917408:WWF917506 X982944:X983042 JT982944:JT983042 TP982944:TP983042 ADL982944:ADL983042 ANH982944:ANH983042 AXD982944:AXD983042 BGZ982944:BGZ983042 BQV982944:BQV983042 CAR982944:CAR983042 CKN982944:CKN983042 CUJ982944:CUJ983042 DEF982944:DEF983042 DOB982944:DOB983042 DXX982944:DXX983042 EHT982944:EHT983042 ERP982944:ERP983042 FBL982944:FBL983042 FLH982944:FLH983042 FVD982944:FVD983042 GEZ982944:GEZ983042 GOV982944:GOV983042 GYR982944:GYR983042 HIN982944:HIN983042 HSJ982944:HSJ983042 ICF982944:ICF983042 IMB982944:IMB983042 IVX982944:IVX983042 JFT982944:JFT983042 JPP982944:JPP983042 JZL982944:JZL983042 KJH982944:KJH983042 KTD982944:KTD983042 LCZ982944:LCZ983042 LMV982944:LMV983042 LWR982944:LWR983042 MGN982944:MGN983042 MQJ982944:MQJ983042 NAF982944:NAF983042 NKB982944:NKB983042 NTX982944:NTX983042 ODT982944:ODT983042 ONP982944:ONP983042 OXL982944:OXL983042 PHH982944:PHH983042 PRD982944:PRD983042 QAZ982944:QAZ983042 QKV982944:QKV983042 QUR982944:QUR983042 REN982944:REN983042 ROJ982944:ROJ983042 RYF982944:RYF983042 SIB982944:SIB983042 SRX982944:SRX983042 TBT982944:TBT983042 TLP982944:TLP983042 TVL982944:TVL983042 UFH982944:UFH983042 UPD982944:UPD983042 UYZ982944:UYZ983042 VIV982944:VIV983042 VSR982944:VSR983042 WCN982944:WCN983042 WMJ982944:WMJ983042 WWF982944:WWF983042" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 JN2 TJ2 ADF2 ANB2 AWX2 BGT2 BQP2 CAL2 CKH2 CUD2 DDZ2 DNV2 DXR2 EHN2 ERJ2 FBF2 FLB2 FUX2 GET2 GOP2 GYL2 HIH2 HSD2 IBZ2 ILV2 IVR2 JFN2 JPJ2 JZF2 KJB2 KSX2 LCT2 LMP2 LWL2 MGH2 MQD2 MZZ2 NJV2 NTR2 ODN2 ONJ2 OXF2 PHB2 PQX2 QAT2 QKP2 QUL2 REH2 ROD2 RXZ2 SHV2 SRR2 TBN2 TLJ2 TVF2 UFB2 UOX2 UYT2 VIP2 VSL2 WCH2 WMD2 WVZ2 R65440:R65538 JN65440:JN65538 TJ65440:TJ65538 ADF65440:ADF65538 ANB65440:ANB65538 AWX65440:AWX65538 BGT65440:BGT65538 BQP65440:BQP65538 CAL65440:CAL65538 CKH65440:CKH65538 CUD65440:CUD65538 DDZ65440:DDZ65538 DNV65440:DNV65538 DXR65440:DXR65538 EHN65440:EHN65538 ERJ65440:ERJ65538 FBF65440:FBF65538 FLB65440:FLB65538 FUX65440:FUX65538 GET65440:GET65538 GOP65440:GOP65538 GYL65440:GYL65538 HIH65440:HIH65538 HSD65440:HSD65538 IBZ65440:IBZ65538 ILV65440:ILV65538 IVR65440:IVR65538 JFN65440:JFN65538 JPJ65440:JPJ65538 JZF65440:JZF65538 KJB65440:KJB65538 KSX65440:KSX65538 LCT65440:LCT65538 LMP65440:LMP65538 LWL65440:LWL65538 MGH65440:MGH65538 MQD65440:MQD65538 MZZ65440:MZZ65538 NJV65440:NJV65538 NTR65440:NTR65538 ODN65440:ODN65538 ONJ65440:ONJ65538 OXF65440:OXF65538 PHB65440:PHB65538 PQX65440:PQX65538 QAT65440:QAT65538 QKP65440:QKP65538 QUL65440:QUL65538 REH65440:REH65538 ROD65440:ROD65538 RXZ65440:RXZ65538 SHV65440:SHV65538 SRR65440:SRR65538 TBN65440:TBN65538 TLJ65440:TLJ65538 TVF65440:TVF65538 UFB65440:UFB65538 UOX65440:UOX65538 UYT65440:UYT65538 VIP65440:VIP65538 VSL65440:VSL65538 WCH65440:WCH65538 WMD65440:WMD65538 WVZ65440:WVZ65538 R130976:R131074 JN130976:JN131074 TJ130976:TJ131074 ADF130976:ADF131074 ANB130976:ANB131074 AWX130976:AWX131074 BGT130976:BGT131074 BQP130976:BQP131074 CAL130976:CAL131074 CKH130976:CKH131074 CUD130976:CUD131074 DDZ130976:DDZ131074 DNV130976:DNV131074 DXR130976:DXR131074 EHN130976:EHN131074 ERJ130976:ERJ131074 FBF130976:FBF131074 FLB130976:FLB131074 FUX130976:FUX131074 GET130976:GET131074 GOP130976:GOP131074 GYL130976:GYL131074 HIH130976:HIH131074 HSD130976:HSD131074 IBZ130976:IBZ131074 ILV130976:ILV131074 IVR130976:IVR131074 JFN130976:JFN131074 JPJ130976:JPJ131074 JZF130976:JZF131074 KJB130976:KJB131074 KSX130976:KSX131074 LCT130976:LCT131074 LMP130976:LMP131074 LWL130976:LWL131074 MGH130976:MGH131074 MQD130976:MQD131074 MZZ130976:MZZ131074 NJV130976:NJV131074 NTR130976:NTR131074 ODN130976:ODN131074 ONJ130976:ONJ131074 OXF130976:OXF131074 PHB130976:PHB131074 PQX130976:PQX131074 QAT130976:QAT131074 QKP130976:QKP131074 QUL130976:QUL131074 REH130976:REH131074 ROD130976:ROD131074 RXZ130976:RXZ131074 SHV130976:SHV131074 SRR130976:SRR131074 TBN130976:TBN131074 TLJ130976:TLJ131074 TVF130976:TVF131074 UFB130976:UFB131074 UOX130976:UOX131074 UYT130976:UYT131074 VIP130976:VIP131074 VSL130976:VSL131074 WCH130976:WCH131074 WMD130976:WMD131074 WVZ130976:WVZ131074 R196512:R196610 JN196512:JN196610 TJ196512:TJ196610 ADF196512:ADF196610 ANB196512:ANB196610 AWX196512:AWX196610 BGT196512:BGT196610 BQP196512:BQP196610 CAL196512:CAL196610 CKH196512:CKH196610 CUD196512:CUD196610 DDZ196512:DDZ196610 DNV196512:DNV196610 DXR196512:DXR196610 EHN196512:EHN196610 ERJ196512:ERJ196610 FBF196512:FBF196610 FLB196512:FLB196610 FUX196512:FUX196610 GET196512:GET196610 GOP196512:GOP196610 GYL196512:GYL196610 HIH196512:HIH196610 HSD196512:HSD196610 IBZ196512:IBZ196610 ILV196512:ILV196610 IVR196512:IVR196610 JFN196512:JFN196610 JPJ196512:JPJ196610 JZF196512:JZF196610 KJB196512:KJB196610 KSX196512:KSX196610 LCT196512:LCT196610 LMP196512:LMP196610 LWL196512:LWL196610 MGH196512:MGH196610 MQD196512:MQD196610 MZZ196512:MZZ196610 NJV196512:NJV196610 NTR196512:NTR196610 ODN196512:ODN196610 ONJ196512:ONJ196610 OXF196512:OXF196610 PHB196512:PHB196610 PQX196512:PQX196610 QAT196512:QAT196610 QKP196512:QKP196610 QUL196512:QUL196610 REH196512:REH196610 ROD196512:ROD196610 RXZ196512:RXZ196610 SHV196512:SHV196610 SRR196512:SRR196610 TBN196512:TBN196610 TLJ196512:TLJ196610 TVF196512:TVF196610 UFB196512:UFB196610 UOX196512:UOX196610 UYT196512:UYT196610 VIP196512:VIP196610 VSL196512:VSL196610 WCH196512:WCH196610 WMD196512:WMD196610 WVZ196512:WVZ196610 R262048:R262146 JN262048:JN262146 TJ262048:TJ262146 ADF262048:ADF262146 ANB262048:ANB262146 AWX262048:AWX262146 BGT262048:BGT262146 BQP262048:BQP262146 CAL262048:CAL262146 CKH262048:CKH262146 CUD262048:CUD262146 DDZ262048:DDZ262146 DNV262048:DNV262146 DXR262048:DXR262146 EHN262048:EHN262146 ERJ262048:ERJ262146 FBF262048:FBF262146 FLB262048:FLB262146 FUX262048:FUX262146 GET262048:GET262146 GOP262048:GOP262146 GYL262048:GYL262146 HIH262048:HIH262146 HSD262048:HSD262146 IBZ262048:IBZ262146 ILV262048:ILV262146 IVR262048:IVR262146 JFN262048:JFN262146 JPJ262048:JPJ262146 JZF262048:JZF262146 KJB262048:KJB262146 KSX262048:KSX262146 LCT262048:LCT262146 LMP262048:LMP262146 LWL262048:LWL262146 MGH262048:MGH262146 MQD262048:MQD262146 MZZ262048:MZZ262146 NJV262048:NJV262146 NTR262048:NTR262146 ODN262048:ODN262146 ONJ262048:ONJ262146 OXF262048:OXF262146 PHB262048:PHB262146 PQX262048:PQX262146 QAT262048:QAT262146 QKP262048:QKP262146 QUL262048:QUL262146 REH262048:REH262146 ROD262048:ROD262146 RXZ262048:RXZ262146 SHV262048:SHV262146 SRR262048:SRR262146 TBN262048:TBN262146 TLJ262048:TLJ262146 TVF262048:TVF262146 UFB262048:UFB262146 UOX262048:UOX262146 UYT262048:UYT262146 VIP262048:VIP262146 VSL262048:VSL262146 WCH262048:WCH262146 WMD262048:WMD262146 WVZ262048:WVZ262146 R327584:R327682 JN327584:JN327682 TJ327584:TJ327682 ADF327584:ADF327682 ANB327584:ANB327682 AWX327584:AWX327682 BGT327584:BGT327682 BQP327584:BQP327682 CAL327584:CAL327682 CKH327584:CKH327682 CUD327584:CUD327682 DDZ327584:DDZ327682 DNV327584:DNV327682 DXR327584:DXR327682 EHN327584:EHN327682 ERJ327584:ERJ327682 FBF327584:FBF327682 FLB327584:FLB327682 FUX327584:FUX327682 GET327584:GET327682 GOP327584:GOP327682 GYL327584:GYL327682 HIH327584:HIH327682 HSD327584:HSD327682 IBZ327584:IBZ327682 ILV327584:ILV327682 IVR327584:IVR327682 JFN327584:JFN327682 JPJ327584:JPJ327682 JZF327584:JZF327682 KJB327584:KJB327682 KSX327584:KSX327682 LCT327584:LCT327682 LMP327584:LMP327682 LWL327584:LWL327682 MGH327584:MGH327682 MQD327584:MQD327682 MZZ327584:MZZ327682 NJV327584:NJV327682 NTR327584:NTR327682 ODN327584:ODN327682 ONJ327584:ONJ327682 OXF327584:OXF327682 PHB327584:PHB327682 PQX327584:PQX327682 QAT327584:QAT327682 QKP327584:QKP327682 QUL327584:QUL327682 REH327584:REH327682 ROD327584:ROD327682 RXZ327584:RXZ327682 SHV327584:SHV327682 SRR327584:SRR327682 TBN327584:TBN327682 TLJ327584:TLJ327682 TVF327584:TVF327682 UFB327584:UFB327682 UOX327584:UOX327682 UYT327584:UYT327682 VIP327584:VIP327682 VSL327584:VSL327682 WCH327584:WCH327682 WMD327584:WMD327682 WVZ327584:WVZ327682 R393120:R393218 JN393120:JN393218 TJ393120:TJ393218 ADF393120:ADF393218 ANB393120:ANB393218 AWX393120:AWX393218 BGT393120:BGT393218 BQP393120:BQP393218 CAL393120:CAL393218 CKH393120:CKH393218 CUD393120:CUD393218 DDZ393120:DDZ393218 DNV393120:DNV393218 DXR393120:DXR393218 EHN393120:EHN393218 ERJ393120:ERJ393218 FBF393120:FBF393218 FLB393120:FLB393218 FUX393120:FUX393218 GET393120:GET393218 GOP393120:GOP393218 GYL393120:GYL393218 HIH393120:HIH393218 HSD393120:HSD393218 IBZ393120:IBZ393218 ILV393120:ILV393218 IVR393120:IVR393218 JFN393120:JFN393218 JPJ393120:JPJ393218 JZF393120:JZF393218 KJB393120:KJB393218 KSX393120:KSX393218 LCT393120:LCT393218 LMP393120:LMP393218 LWL393120:LWL393218 MGH393120:MGH393218 MQD393120:MQD393218 MZZ393120:MZZ393218 NJV393120:NJV393218 NTR393120:NTR393218 ODN393120:ODN393218 ONJ393120:ONJ393218 OXF393120:OXF393218 PHB393120:PHB393218 PQX393120:PQX393218 QAT393120:QAT393218 QKP393120:QKP393218 QUL393120:QUL393218 REH393120:REH393218 ROD393120:ROD393218 RXZ393120:RXZ393218 SHV393120:SHV393218 SRR393120:SRR393218 TBN393120:TBN393218 TLJ393120:TLJ393218 TVF393120:TVF393218 UFB393120:UFB393218 UOX393120:UOX393218 UYT393120:UYT393218 VIP393120:VIP393218 VSL393120:VSL393218 WCH393120:WCH393218 WMD393120:WMD393218 WVZ393120:WVZ393218 R458656:R458754 JN458656:JN458754 TJ458656:TJ458754 ADF458656:ADF458754 ANB458656:ANB458754 AWX458656:AWX458754 BGT458656:BGT458754 BQP458656:BQP458754 CAL458656:CAL458754 CKH458656:CKH458754 CUD458656:CUD458754 DDZ458656:DDZ458754 DNV458656:DNV458754 DXR458656:DXR458754 EHN458656:EHN458754 ERJ458656:ERJ458754 FBF458656:FBF458754 FLB458656:FLB458754 FUX458656:FUX458754 GET458656:GET458754 GOP458656:GOP458754 GYL458656:GYL458754 HIH458656:HIH458754 HSD458656:HSD458754 IBZ458656:IBZ458754 ILV458656:ILV458754 IVR458656:IVR458754 JFN458656:JFN458754 JPJ458656:JPJ458754 JZF458656:JZF458754 KJB458656:KJB458754 KSX458656:KSX458754 LCT458656:LCT458754 LMP458656:LMP458754 LWL458656:LWL458754 MGH458656:MGH458754 MQD458656:MQD458754 MZZ458656:MZZ458754 NJV458656:NJV458754 NTR458656:NTR458754 ODN458656:ODN458754 ONJ458656:ONJ458754 OXF458656:OXF458754 PHB458656:PHB458754 PQX458656:PQX458754 QAT458656:QAT458754 QKP458656:QKP458754 QUL458656:QUL458754 REH458656:REH458754 ROD458656:ROD458754 RXZ458656:RXZ458754 SHV458656:SHV458754 SRR458656:SRR458754 TBN458656:TBN458754 TLJ458656:TLJ458754 TVF458656:TVF458754 UFB458656:UFB458754 UOX458656:UOX458754 UYT458656:UYT458754 VIP458656:VIP458754 VSL458656:VSL458754 WCH458656:WCH458754 WMD458656:WMD458754 WVZ458656:WVZ458754 R524192:R524290 JN524192:JN524290 TJ524192:TJ524290 ADF524192:ADF524290 ANB524192:ANB524290 AWX524192:AWX524290 BGT524192:BGT524290 BQP524192:BQP524290 CAL524192:CAL524290 CKH524192:CKH524290 CUD524192:CUD524290 DDZ524192:DDZ524290 DNV524192:DNV524290 DXR524192:DXR524290 EHN524192:EHN524290 ERJ524192:ERJ524290 FBF524192:FBF524290 FLB524192:FLB524290 FUX524192:FUX524290 GET524192:GET524290 GOP524192:GOP524290 GYL524192:GYL524290 HIH524192:HIH524290 HSD524192:HSD524290 IBZ524192:IBZ524290 ILV524192:ILV524290 IVR524192:IVR524290 JFN524192:JFN524290 JPJ524192:JPJ524290 JZF524192:JZF524290 KJB524192:KJB524290 KSX524192:KSX524290 LCT524192:LCT524290 LMP524192:LMP524290 LWL524192:LWL524290 MGH524192:MGH524290 MQD524192:MQD524290 MZZ524192:MZZ524290 NJV524192:NJV524290 NTR524192:NTR524290 ODN524192:ODN524290 ONJ524192:ONJ524290 OXF524192:OXF524290 PHB524192:PHB524290 PQX524192:PQX524290 QAT524192:QAT524290 QKP524192:QKP524290 QUL524192:QUL524290 REH524192:REH524290 ROD524192:ROD524290 RXZ524192:RXZ524290 SHV524192:SHV524290 SRR524192:SRR524290 TBN524192:TBN524290 TLJ524192:TLJ524290 TVF524192:TVF524290 UFB524192:UFB524290 UOX524192:UOX524290 UYT524192:UYT524290 VIP524192:VIP524290 VSL524192:VSL524290 WCH524192:WCH524290 WMD524192:WMD524290 WVZ524192:WVZ524290 R589728:R589826 JN589728:JN589826 TJ589728:TJ589826 ADF589728:ADF589826 ANB589728:ANB589826 AWX589728:AWX589826 BGT589728:BGT589826 BQP589728:BQP589826 CAL589728:CAL589826 CKH589728:CKH589826 CUD589728:CUD589826 DDZ589728:DDZ589826 DNV589728:DNV589826 DXR589728:DXR589826 EHN589728:EHN589826 ERJ589728:ERJ589826 FBF589728:FBF589826 FLB589728:FLB589826 FUX589728:FUX589826 GET589728:GET589826 GOP589728:GOP589826 GYL589728:GYL589826 HIH589728:HIH589826 HSD589728:HSD589826 IBZ589728:IBZ589826 ILV589728:ILV589826 IVR589728:IVR589826 JFN589728:JFN589826 JPJ589728:JPJ589826 JZF589728:JZF589826 KJB589728:KJB589826 KSX589728:KSX589826 LCT589728:LCT589826 LMP589728:LMP589826 LWL589728:LWL589826 MGH589728:MGH589826 MQD589728:MQD589826 MZZ589728:MZZ589826 NJV589728:NJV589826 NTR589728:NTR589826 ODN589728:ODN589826 ONJ589728:ONJ589826 OXF589728:OXF589826 PHB589728:PHB589826 PQX589728:PQX589826 QAT589728:QAT589826 QKP589728:QKP589826 QUL589728:QUL589826 REH589728:REH589826 ROD589728:ROD589826 RXZ589728:RXZ589826 SHV589728:SHV589826 SRR589728:SRR589826 TBN589728:TBN589826 TLJ589728:TLJ589826 TVF589728:TVF589826 UFB589728:UFB589826 UOX589728:UOX589826 UYT589728:UYT589826 VIP589728:VIP589826 VSL589728:VSL589826 WCH589728:WCH589826 WMD589728:WMD589826 WVZ589728:WVZ589826 R655264:R655362 JN655264:JN655362 TJ655264:TJ655362 ADF655264:ADF655362 ANB655264:ANB655362 AWX655264:AWX655362 BGT655264:BGT655362 BQP655264:BQP655362 CAL655264:CAL655362 CKH655264:CKH655362 CUD655264:CUD655362 DDZ655264:DDZ655362 DNV655264:DNV655362 DXR655264:DXR655362 EHN655264:EHN655362 ERJ655264:ERJ655362 FBF655264:FBF655362 FLB655264:FLB655362 FUX655264:FUX655362 GET655264:GET655362 GOP655264:GOP655362 GYL655264:GYL655362 HIH655264:HIH655362 HSD655264:HSD655362 IBZ655264:IBZ655362 ILV655264:ILV655362 IVR655264:IVR655362 JFN655264:JFN655362 JPJ655264:JPJ655362 JZF655264:JZF655362 KJB655264:KJB655362 KSX655264:KSX655362 LCT655264:LCT655362 LMP655264:LMP655362 LWL655264:LWL655362 MGH655264:MGH655362 MQD655264:MQD655362 MZZ655264:MZZ655362 NJV655264:NJV655362 NTR655264:NTR655362 ODN655264:ODN655362 ONJ655264:ONJ655362 OXF655264:OXF655362 PHB655264:PHB655362 PQX655264:PQX655362 QAT655264:QAT655362 QKP655264:QKP655362 QUL655264:QUL655362 REH655264:REH655362 ROD655264:ROD655362 RXZ655264:RXZ655362 SHV655264:SHV655362 SRR655264:SRR655362 TBN655264:TBN655362 TLJ655264:TLJ655362 TVF655264:TVF655362 UFB655264:UFB655362 UOX655264:UOX655362 UYT655264:UYT655362 VIP655264:VIP655362 VSL655264:VSL655362 WCH655264:WCH655362 WMD655264:WMD655362 WVZ655264:WVZ655362 R720800:R720898 JN720800:JN720898 TJ720800:TJ720898 ADF720800:ADF720898 ANB720800:ANB720898 AWX720800:AWX720898 BGT720800:BGT720898 BQP720800:BQP720898 CAL720800:CAL720898 CKH720800:CKH720898 CUD720800:CUD720898 DDZ720800:DDZ720898 DNV720800:DNV720898 DXR720800:DXR720898 EHN720800:EHN720898 ERJ720800:ERJ720898 FBF720800:FBF720898 FLB720800:FLB720898 FUX720800:FUX720898 GET720800:GET720898 GOP720800:GOP720898 GYL720800:GYL720898 HIH720800:HIH720898 HSD720800:HSD720898 IBZ720800:IBZ720898 ILV720800:ILV720898 IVR720800:IVR720898 JFN720800:JFN720898 JPJ720800:JPJ720898 JZF720800:JZF720898 KJB720800:KJB720898 KSX720800:KSX720898 LCT720800:LCT720898 LMP720800:LMP720898 LWL720800:LWL720898 MGH720800:MGH720898 MQD720800:MQD720898 MZZ720800:MZZ720898 NJV720800:NJV720898 NTR720800:NTR720898 ODN720800:ODN720898 ONJ720800:ONJ720898 OXF720800:OXF720898 PHB720800:PHB720898 PQX720800:PQX720898 QAT720800:QAT720898 QKP720800:QKP720898 QUL720800:QUL720898 REH720800:REH720898 ROD720800:ROD720898 RXZ720800:RXZ720898 SHV720800:SHV720898 SRR720800:SRR720898 TBN720800:TBN720898 TLJ720800:TLJ720898 TVF720800:TVF720898 UFB720800:UFB720898 UOX720800:UOX720898 UYT720800:UYT720898 VIP720800:VIP720898 VSL720800:VSL720898 WCH720800:WCH720898 WMD720800:WMD720898 WVZ720800:WVZ720898 R786336:R786434 JN786336:JN786434 TJ786336:TJ786434 ADF786336:ADF786434 ANB786336:ANB786434 AWX786336:AWX786434 BGT786336:BGT786434 BQP786336:BQP786434 CAL786336:CAL786434 CKH786336:CKH786434 CUD786336:CUD786434 DDZ786336:DDZ786434 DNV786336:DNV786434 DXR786336:DXR786434 EHN786336:EHN786434 ERJ786336:ERJ786434 FBF786336:FBF786434 FLB786336:FLB786434 FUX786336:FUX786434 GET786336:GET786434 GOP786336:GOP786434 GYL786336:GYL786434 HIH786336:HIH786434 HSD786336:HSD786434 IBZ786336:IBZ786434 ILV786336:ILV786434 IVR786336:IVR786434 JFN786336:JFN786434 JPJ786336:JPJ786434 JZF786336:JZF786434 KJB786336:KJB786434 KSX786336:KSX786434 LCT786336:LCT786434 LMP786336:LMP786434 LWL786336:LWL786434 MGH786336:MGH786434 MQD786336:MQD786434 MZZ786336:MZZ786434 NJV786336:NJV786434 NTR786336:NTR786434 ODN786336:ODN786434 ONJ786336:ONJ786434 OXF786336:OXF786434 PHB786336:PHB786434 PQX786336:PQX786434 QAT786336:QAT786434 QKP786336:QKP786434 QUL786336:QUL786434 REH786336:REH786434 ROD786336:ROD786434 RXZ786336:RXZ786434 SHV786336:SHV786434 SRR786336:SRR786434 TBN786336:TBN786434 TLJ786336:TLJ786434 TVF786336:TVF786434 UFB786336:UFB786434 UOX786336:UOX786434 UYT786336:UYT786434 VIP786336:VIP786434 VSL786336:VSL786434 WCH786336:WCH786434 WMD786336:WMD786434 WVZ786336:WVZ786434 R851872:R851970 JN851872:JN851970 TJ851872:TJ851970 ADF851872:ADF851970 ANB851872:ANB851970 AWX851872:AWX851970 BGT851872:BGT851970 BQP851872:BQP851970 CAL851872:CAL851970 CKH851872:CKH851970 CUD851872:CUD851970 DDZ851872:DDZ851970 DNV851872:DNV851970 DXR851872:DXR851970 EHN851872:EHN851970 ERJ851872:ERJ851970 FBF851872:FBF851970 FLB851872:FLB851970 FUX851872:FUX851970 GET851872:GET851970 GOP851872:GOP851970 GYL851872:GYL851970 HIH851872:HIH851970 HSD851872:HSD851970 IBZ851872:IBZ851970 ILV851872:ILV851970 IVR851872:IVR851970 JFN851872:JFN851970 JPJ851872:JPJ851970 JZF851872:JZF851970 KJB851872:KJB851970 KSX851872:KSX851970 LCT851872:LCT851970 LMP851872:LMP851970 LWL851872:LWL851970 MGH851872:MGH851970 MQD851872:MQD851970 MZZ851872:MZZ851970 NJV851872:NJV851970 NTR851872:NTR851970 ODN851872:ODN851970 ONJ851872:ONJ851970 OXF851872:OXF851970 PHB851872:PHB851970 PQX851872:PQX851970 QAT851872:QAT851970 QKP851872:QKP851970 QUL851872:QUL851970 REH851872:REH851970 ROD851872:ROD851970 RXZ851872:RXZ851970 SHV851872:SHV851970 SRR851872:SRR851970 TBN851872:TBN851970 TLJ851872:TLJ851970 TVF851872:TVF851970 UFB851872:UFB851970 UOX851872:UOX851970 UYT851872:UYT851970 VIP851872:VIP851970 VSL851872:VSL851970 WCH851872:WCH851970 WMD851872:WMD851970 WVZ851872:WVZ851970 R917408:R917506 JN917408:JN917506 TJ917408:TJ917506 ADF917408:ADF917506 ANB917408:ANB917506 AWX917408:AWX917506 BGT917408:BGT917506 BQP917408:BQP917506 CAL917408:CAL917506 CKH917408:CKH917506 CUD917408:CUD917506 DDZ917408:DDZ917506 DNV917408:DNV917506 DXR917408:DXR917506 EHN917408:EHN917506 ERJ917408:ERJ917506 FBF917408:FBF917506 FLB917408:FLB917506 FUX917408:FUX917506 GET917408:GET917506 GOP917408:GOP917506 GYL917408:GYL917506 HIH917408:HIH917506 HSD917408:HSD917506 IBZ917408:IBZ917506 ILV917408:ILV917506 IVR917408:IVR917506 JFN917408:JFN917506 JPJ917408:JPJ917506 JZF917408:JZF917506 KJB917408:KJB917506 KSX917408:KSX917506 LCT917408:LCT917506 LMP917408:LMP917506 LWL917408:LWL917506 MGH917408:MGH917506 MQD917408:MQD917506 MZZ917408:MZZ917506 NJV917408:NJV917506 NTR917408:NTR917506 ODN917408:ODN917506 ONJ917408:ONJ917506 OXF917408:OXF917506 PHB917408:PHB917506 PQX917408:PQX917506 QAT917408:QAT917506 QKP917408:QKP917506 QUL917408:QUL917506 REH917408:REH917506 ROD917408:ROD917506 RXZ917408:RXZ917506 SHV917408:SHV917506 SRR917408:SRR917506 TBN917408:TBN917506 TLJ917408:TLJ917506 TVF917408:TVF917506 UFB917408:UFB917506 UOX917408:UOX917506 UYT917408:UYT917506 VIP917408:VIP917506 VSL917408:VSL917506 WCH917408:WCH917506 WMD917408:WMD917506 WVZ917408:WVZ917506 R982944:R983042 JN982944:JN983042 TJ982944:TJ983042 ADF982944:ADF983042 ANB982944:ANB983042 AWX982944:AWX983042 BGT982944:BGT983042 BQP982944:BQP983042 CAL982944:CAL983042 CKH982944:CKH983042 CUD982944:CUD983042 DDZ982944:DDZ983042 DNV982944:DNV983042 DXR982944:DXR983042 EHN982944:EHN983042 ERJ982944:ERJ983042 FBF982944:FBF983042 FLB982944:FLB983042 FUX982944:FUX983042 GET982944:GET983042 GOP982944:GOP983042 GYL982944:GYL983042 HIH982944:HIH983042 HSD982944:HSD983042 IBZ982944:IBZ983042 ILV982944:ILV983042 IVR982944:IVR983042 JFN982944:JFN983042 JPJ982944:JPJ983042 JZF982944:JZF983042 KJB982944:KJB983042 KSX982944:KSX983042 LCT982944:LCT983042 LMP982944:LMP983042 LWL982944:LWL983042 MGH982944:MGH983042 MQD982944:MQD983042 MZZ982944:MZZ983042 NJV982944:NJV983042 NTR982944:NTR983042 ODN982944:ODN983042 ONJ982944:ONJ983042 OXF982944:OXF983042 PHB982944:PHB983042 PQX982944:PQX983042 QAT982944:QAT983042 QKP982944:QKP983042 QUL982944:QUL983042 REH982944:REH983042 ROD982944:ROD983042 RXZ982944:RXZ983042 SHV982944:SHV983042 SRR982944:SRR983042 TBN982944:TBN983042 TLJ982944:TLJ983042 TVF982944:TVF983042 UFB982944:UFB983042 UOX982944:UOX983042 UYT982944:UYT983042 VIP982944:VIP983042 VSL982944:VSL983042 WCH982944:WCH983042 WMD982944:WMD983042 WVZ982944:WVZ983042" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 JP2 TL2 ADH2 AND2 AWZ2 BGV2 BQR2 CAN2 CKJ2 CUF2 DEB2 DNX2 DXT2 EHP2 ERL2 FBH2 FLD2 FUZ2 GEV2 GOR2 GYN2 HIJ2 HSF2 ICB2 ILX2 IVT2 JFP2 JPL2 JZH2 KJD2 KSZ2 LCV2 LMR2 LWN2 MGJ2 MQF2 NAB2 NJX2 NTT2 ODP2 ONL2 OXH2 PHD2 PQZ2 QAV2 QKR2 QUN2 REJ2 ROF2 RYB2 SHX2 SRT2 TBP2 TLL2 TVH2 UFD2 UOZ2 UYV2 VIR2 VSN2 WCJ2 WMF2 WWB2 T65440:T65538 JP65440:JP65538 TL65440:TL65538 ADH65440:ADH65538 AND65440:AND65538 AWZ65440:AWZ65538 BGV65440:BGV65538 BQR65440:BQR65538 CAN65440:CAN65538 CKJ65440:CKJ65538 CUF65440:CUF65538 DEB65440:DEB65538 DNX65440:DNX65538 DXT65440:DXT65538 EHP65440:EHP65538 ERL65440:ERL65538 FBH65440:FBH65538 FLD65440:FLD65538 FUZ65440:FUZ65538 GEV65440:GEV65538 GOR65440:GOR65538 GYN65440:GYN65538 HIJ65440:HIJ65538 HSF65440:HSF65538 ICB65440:ICB65538 ILX65440:ILX65538 IVT65440:IVT65538 JFP65440:JFP65538 JPL65440:JPL65538 JZH65440:JZH65538 KJD65440:KJD65538 KSZ65440:KSZ65538 LCV65440:LCV65538 LMR65440:LMR65538 LWN65440:LWN65538 MGJ65440:MGJ65538 MQF65440:MQF65538 NAB65440:NAB65538 NJX65440:NJX65538 NTT65440:NTT65538 ODP65440:ODP65538 ONL65440:ONL65538 OXH65440:OXH65538 PHD65440:PHD65538 PQZ65440:PQZ65538 QAV65440:QAV65538 QKR65440:QKR65538 QUN65440:QUN65538 REJ65440:REJ65538 ROF65440:ROF65538 RYB65440:RYB65538 SHX65440:SHX65538 SRT65440:SRT65538 TBP65440:TBP65538 TLL65440:TLL65538 TVH65440:TVH65538 UFD65440:UFD65538 UOZ65440:UOZ65538 UYV65440:UYV65538 VIR65440:VIR65538 VSN65440:VSN65538 WCJ65440:WCJ65538 WMF65440:WMF65538 WWB65440:WWB65538 T130976:T131074 JP130976:JP131074 TL130976:TL131074 ADH130976:ADH131074 AND130976:AND131074 AWZ130976:AWZ131074 BGV130976:BGV131074 BQR130976:BQR131074 CAN130976:CAN131074 CKJ130976:CKJ131074 CUF130976:CUF131074 DEB130976:DEB131074 DNX130976:DNX131074 DXT130976:DXT131074 EHP130976:EHP131074 ERL130976:ERL131074 FBH130976:FBH131074 FLD130976:FLD131074 FUZ130976:FUZ131074 GEV130976:GEV131074 GOR130976:GOR131074 GYN130976:GYN131074 HIJ130976:HIJ131074 HSF130976:HSF131074 ICB130976:ICB131074 ILX130976:ILX131074 IVT130976:IVT131074 JFP130976:JFP131074 JPL130976:JPL131074 JZH130976:JZH131074 KJD130976:KJD131074 KSZ130976:KSZ131074 LCV130976:LCV131074 LMR130976:LMR131074 LWN130976:LWN131074 MGJ130976:MGJ131074 MQF130976:MQF131074 NAB130976:NAB131074 NJX130976:NJX131074 NTT130976:NTT131074 ODP130976:ODP131074 ONL130976:ONL131074 OXH130976:OXH131074 PHD130976:PHD131074 PQZ130976:PQZ131074 QAV130976:QAV131074 QKR130976:QKR131074 QUN130976:QUN131074 REJ130976:REJ131074 ROF130976:ROF131074 RYB130976:RYB131074 SHX130976:SHX131074 SRT130976:SRT131074 TBP130976:TBP131074 TLL130976:TLL131074 TVH130976:TVH131074 UFD130976:UFD131074 UOZ130976:UOZ131074 UYV130976:UYV131074 VIR130976:VIR131074 VSN130976:VSN131074 WCJ130976:WCJ131074 WMF130976:WMF131074 WWB130976:WWB131074 T196512:T196610 JP196512:JP196610 TL196512:TL196610 ADH196512:ADH196610 AND196512:AND196610 AWZ196512:AWZ196610 BGV196512:BGV196610 BQR196512:BQR196610 CAN196512:CAN196610 CKJ196512:CKJ196610 CUF196512:CUF196610 DEB196512:DEB196610 DNX196512:DNX196610 DXT196512:DXT196610 EHP196512:EHP196610 ERL196512:ERL196610 FBH196512:FBH196610 FLD196512:FLD196610 FUZ196512:FUZ196610 GEV196512:GEV196610 GOR196512:GOR196610 GYN196512:GYN196610 HIJ196512:HIJ196610 HSF196512:HSF196610 ICB196512:ICB196610 ILX196512:ILX196610 IVT196512:IVT196610 JFP196512:JFP196610 JPL196512:JPL196610 JZH196512:JZH196610 KJD196512:KJD196610 KSZ196512:KSZ196610 LCV196512:LCV196610 LMR196512:LMR196610 LWN196512:LWN196610 MGJ196512:MGJ196610 MQF196512:MQF196610 NAB196512:NAB196610 NJX196512:NJX196610 NTT196512:NTT196610 ODP196512:ODP196610 ONL196512:ONL196610 OXH196512:OXH196610 PHD196512:PHD196610 PQZ196512:PQZ196610 QAV196512:QAV196610 QKR196512:QKR196610 QUN196512:QUN196610 REJ196512:REJ196610 ROF196512:ROF196610 RYB196512:RYB196610 SHX196512:SHX196610 SRT196512:SRT196610 TBP196512:TBP196610 TLL196512:TLL196610 TVH196512:TVH196610 UFD196512:UFD196610 UOZ196512:UOZ196610 UYV196512:UYV196610 VIR196512:VIR196610 VSN196512:VSN196610 WCJ196512:WCJ196610 WMF196512:WMF196610 WWB196512:WWB196610 T262048:T262146 JP262048:JP262146 TL262048:TL262146 ADH262048:ADH262146 AND262048:AND262146 AWZ262048:AWZ262146 BGV262048:BGV262146 BQR262048:BQR262146 CAN262048:CAN262146 CKJ262048:CKJ262146 CUF262048:CUF262146 DEB262048:DEB262146 DNX262048:DNX262146 DXT262048:DXT262146 EHP262048:EHP262146 ERL262048:ERL262146 FBH262048:FBH262146 FLD262048:FLD262146 FUZ262048:FUZ262146 GEV262048:GEV262146 GOR262048:GOR262146 GYN262048:GYN262146 HIJ262048:HIJ262146 HSF262048:HSF262146 ICB262048:ICB262146 ILX262048:ILX262146 IVT262048:IVT262146 JFP262048:JFP262146 JPL262048:JPL262146 JZH262048:JZH262146 KJD262048:KJD262146 KSZ262048:KSZ262146 LCV262048:LCV262146 LMR262048:LMR262146 LWN262048:LWN262146 MGJ262048:MGJ262146 MQF262048:MQF262146 NAB262048:NAB262146 NJX262048:NJX262146 NTT262048:NTT262146 ODP262048:ODP262146 ONL262048:ONL262146 OXH262048:OXH262146 PHD262048:PHD262146 PQZ262048:PQZ262146 QAV262048:QAV262146 QKR262048:QKR262146 QUN262048:QUN262146 REJ262048:REJ262146 ROF262048:ROF262146 RYB262048:RYB262146 SHX262048:SHX262146 SRT262048:SRT262146 TBP262048:TBP262146 TLL262048:TLL262146 TVH262048:TVH262146 UFD262048:UFD262146 UOZ262048:UOZ262146 UYV262048:UYV262146 VIR262048:VIR262146 VSN262048:VSN262146 WCJ262048:WCJ262146 WMF262048:WMF262146 WWB262048:WWB262146 T327584:T327682 JP327584:JP327682 TL327584:TL327682 ADH327584:ADH327682 AND327584:AND327682 AWZ327584:AWZ327682 BGV327584:BGV327682 BQR327584:BQR327682 CAN327584:CAN327682 CKJ327584:CKJ327682 CUF327584:CUF327682 DEB327584:DEB327682 DNX327584:DNX327682 DXT327584:DXT327682 EHP327584:EHP327682 ERL327584:ERL327682 FBH327584:FBH327682 FLD327584:FLD327682 FUZ327584:FUZ327682 GEV327584:GEV327682 GOR327584:GOR327682 GYN327584:GYN327682 HIJ327584:HIJ327682 HSF327584:HSF327682 ICB327584:ICB327682 ILX327584:ILX327682 IVT327584:IVT327682 JFP327584:JFP327682 JPL327584:JPL327682 JZH327584:JZH327682 KJD327584:KJD327682 KSZ327584:KSZ327682 LCV327584:LCV327682 LMR327584:LMR327682 LWN327584:LWN327682 MGJ327584:MGJ327682 MQF327584:MQF327682 NAB327584:NAB327682 NJX327584:NJX327682 NTT327584:NTT327682 ODP327584:ODP327682 ONL327584:ONL327682 OXH327584:OXH327682 PHD327584:PHD327682 PQZ327584:PQZ327682 QAV327584:QAV327682 QKR327584:QKR327682 QUN327584:QUN327682 REJ327584:REJ327682 ROF327584:ROF327682 RYB327584:RYB327682 SHX327584:SHX327682 SRT327584:SRT327682 TBP327584:TBP327682 TLL327584:TLL327682 TVH327584:TVH327682 UFD327584:UFD327682 UOZ327584:UOZ327682 UYV327584:UYV327682 VIR327584:VIR327682 VSN327584:VSN327682 WCJ327584:WCJ327682 WMF327584:WMF327682 WWB327584:WWB327682 T393120:T393218 JP393120:JP393218 TL393120:TL393218 ADH393120:ADH393218 AND393120:AND393218 AWZ393120:AWZ393218 BGV393120:BGV393218 BQR393120:BQR393218 CAN393120:CAN393218 CKJ393120:CKJ393218 CUF393120:CUF393218 DEB393120:DEB393218 DNX393120:DNX393218 DXT393120:DXT393218 EHP393120:EHP393218 ERL393120:ERL393218 FBH393120:FBH393218 FLD393120:FLD393218 FUZ393120:FUZ393218 GEV393120:GEV393218 GOR393120:GOR393218 GYN393120:GYN393218 HIJ393120:HIJ393218 HSF393120:HSF393218 ICB393120:ICB393218 ILX393120:ILX393218 IVT393120:IVT393218 JFP393120:JFP393218 JPL393120:JPL393218 JZH393120:JZH393218 KJD393120:KJD393218 KSZ393120:KSZ393218 LCV393120:LCV393218 LMR393120:LMR393218 LWN393120:LWN393218 MGJ393120:MGJ393218 MQF393120:MQF393218 NAB393120:NAB393218 NJX393120:NJX393218 NTT393120:NTT393218 ODP393120:ODP393218 ONL393120:ONL393218 OXH393120:OXH393218 PHD393120:PHD393218 PQZ393120:PQZ393218 QAV393120:QAV393218 QKR393120:QKR393218 QUN393120:QUN393218 REJ393120:REJ393218 ROF393120:ROF393218 RYB393120:RYB393218 SHX393120:SHX393218 SRT393120:SRT393218 TBP393120:TBP393218 TLL393120:TLL393218 TVH393120:TVH393218 UFD393120:UFD393218 UOZ393120:UOZ393218 UYV393120:UYV393218 VIR393120:VIR393218 VSN393120:VSN393218 WCJ393120:WCJ393218 WMF393120:WMF393218 WWB393120:WWB393218 T458656:T458754 JP458656:JP458754 TL458656:TL458754 ADH458656:ADH458754 AND458656:AND458754 AWZ458656:AWZ458754 BGV458656:BGV458754 BQR458656:BQR458754 CAN458656:CAN458754 CKJ458656:CKJ458754 CUF458656:CUF458754 DEB458656:DEB458754 DNX458656:DNX458754 DXT458656:DXT458754 EHP458656:EHP458754 ERL458656:ERL458754 FBH458656:FBH458754 FLD458656:FLD458754 FUZ458656:FUZ458754 GEV458656:GEV458754 GOR458656:GOR458754 GYN458656:GYN458754 HIJ458656:HIJ458754 HSF458656:HSF458754 ICB458656:ICB458754 ILX458656:ILX458754 IVT458656:IVT458754 JFP458656:JFP458754 JPL458656:JPL458754 JZH458656:JZH458754 KJD458656:KJD458754 KSZ458656:KSZ458754 LCV458656:LCV458754 LMR458656:LMR458754 LWN458656:LWN458754 MGJ458656:MGJ458754 MQF458656:MQF458754 NAB458656:NAB458754 NJX458656:NJX458754 NTT458656:NTT458754 ODP458656:ODP458754 ONL458656:ONL458754 OXH458656:OXH458754 PHD458656:PHD458754 PQZ458656:PQZ458754 QAV458656:QAV458754 QKR458656:QKR458754 QUN458656:QUN458754 REJ458656:REJ458754 ROF458656:ROF458754 RYB458656:RYB458754 SHX458656:SHX458754 SRT458656:SRT458754 TBP458656:TBP458754 TLL458656:TLL458754 TVH458656:TVH458754 UFD458656:UFD458754 UOZ458656:UOZ458754 UYV458656:UYV458754 VIR458656:VIR458754 VSN458656:VSN458754 WCJ458656:WCJ458754 WMF458656:WMF458754 WWB458656:WWB458754 T524192:T524290 JP524192:JP524290 TL524192:TL524290 ADH524192:ADH524290 AND524192:AND524290 AWZ524192:AWZ524290 BGV524192:BGV524290 BQR524192:BQR524290 CAN524192:CAN524290 CKJ524192:CKJ524290 CUF524192:CUF524290 DEB524192:DEB524290 DNX524192:DNX524290 DXT524192:DXT524290 EHP524192:EHP524290 ERL524192:ERL524290 FBH524192:FBH524290 FLD524192:FLD524290 FUZ524192:FUZ524290 GEV524192:GEV524290 GOR524192:GOR524290 GYN524192:GYN524290 HIJ524192:HIJ524290 HSF524192:HSF524290 ICB524192:ICB524290 ILX524192:ILX524290 IVT524192:IVT524290 JFP524192:JFP524290 JPL524192:JPL524290 JZH524192:JZH524290 KJD524192:KJD524290 KSZ524192:KSZ524290 LCV524192:LCV524290 LMR524192:LMR524290 LWN524192:LWN524290 MGJ524192:MGJ524290 MQF524192:MQF524290 NAB524192:NAB524290 NJX524192:NJX524290 NTT524192:NTT524290 ODP524192:ODP524290 ONL524192:ONL524290 OXH524192:OXH524290 PHD524192:PHD524290 PQZ524192:PQZ524290 QAV524192:QAV524290 QKR524192:QKR524290 QUN524192:QUN524290 REJ524192:REJ524290 ROF524192:ROF524290 RYB524192:RYB524290 SHX524192:SHX524290 SRT524192:SRT524290 TBP524192:TBP524290 TLL524192:TLL524290 TVH524192:TVH524290 UFD524192:UFD524290 UOZ524192:UOZ524290 UYV524192:UYV524290 VIR524192:VIR524290 VSN524192:VSN524290 WCJ524192:WCJ524290 WMF524192:WMF524290 WWB524192:WWB524290 T589728:T589826 JP589728:JP589826 TL589728:TL589826 ADH589728:ADH589826 AND589728:AND589826 AWZ589728:AWZ589826 BGV589728:BGV589826 BQR589728:BQR589826 CAN589728:CAN589826 CKJ589728:CKJ589826 CUF589728:CUF589826 DEB589728:DEB589826 DNX589728:DNX589826 DXT589728:DXT589826 EHP589728:EHP589826 ERL589728:ERL589826 FBH589728:FBH589826 FLD589728:FLD589826 FUZ589728:FUZ589826 GEV589728:GEV589826 GOR589728:GOR589826 GYN589728:GYN589826 HIJ589728:HIJ589826 HSF589728:HSF589826 ICB589728:ICB589826 ILX589728:ILX589826 IVT589728:IVT589826 JFP589728:JFP589826 JPL589728:JPL589826 JZH589728:JZH589826 KJD589728:KJD589826 KSZ589728:KSZ589826 LCV589728:LCV589826 LMR589728:LMR589826 LWN589728:LWN589826 MGJ589728:MGJ589826 MQF589728:MQF589826 NAB589728:NAB589826 NJX589728:NJX589826 NTT589728:NTT589826 ODP589728:ODP589826 ONL589728:ONL589826 OXH589728:OXH589826 PHD589728:PHD589826 PQZ589728:PQZ589826 QAV589728:QAV589826 QKR589728:QKR589826 QUN589728:QUN589826 REJ589728:REJ589826 ROF589728:ROF589826 RYB589728:RYB589826 SHX589728:SHX589826 SRT589728:SRT589826 TBP589728:TBP589826 TLL589728:TLL589826 TVH589728:TVH589826 UFD589728:UFD589826 UOZ589728:UOZ589826 UYV589728:UYV589826 VIR589728:VIR589826 VSN589728:VSN589826 WCJ589728:WCJ589826 WMF589728:WMF589826 WWB589728:WWB589826 T655264:T655362 JP655264:JP655362 TL655264:TL655362 ADH655264:ADH655362 AND655264:AND655362 AWZ655264:AWZ655362 BGV655264:BGV655362 BQR655264:BQR655362 CAN655264:CAN655362 CKJ655264:CKJ655362 CUF655264:CUF655362 DEB655264:DEB655362 DNX655264:DNX655362 DXT655264:DXT655362 EHP655264:EHP655362 ERL655264:ERL655362 FBH655264:FBH655362 FLD655264:FLD655362 FUZ655264:FUZ655362 GEV655264:GEV655362 GOR655264:GOR655362 GYN655264:GYN655362 HIJ655264:HIJ655362 HSF655264:HSF655362 ICB655264:ICB655362 ILX655264:ILX655362 IVT655264:IVT655362 JFP655264:JFP655362 JPL655264:JPL655362 JZH655264:JZH655362 KJD655264:KJD655362 KSZ655264:KSZ655362 LCV655264:LCV655362 LMR655264:LMR655362 LWN655264:LWN655362 MGJ655264:MGJ655362 MQF655264:MQF655362 NAB655264:NAB655362 NJX655264:NJX655362 NTT655264:NTT655362 ODP655264:ODP655362 ONL655264:ONL655362 OXH655264:OXH655362 PHD655264:PHD655362 PQZ655264:PQZ655362 QAV655264:QAV655362 QKR655264:QKR655362 QUN655264:QUN655362 REJ655264:REJ655362 ROF655264:ROF655362 RYB655264:RYB655362 SHX655264:SHX655362 SRT655264:SRT655362 TBP655264:TBP655362 TLL655264:TLL655362 TVH655264:TVH655362 UFD655264:UFD655362 UOZ655264:UOZ655362 UYV655264:UYV655362 VIR655264:VIR655362 VSN655264:VSN655362 WCJ655264:WCJ655362 WMF655264:WMF655362 WWB655264:WWB655362 T720800:T720898 JP720800:JP720898 TL720800:TL720898 ADH720800:ADH720898 AND720800:AND720898 AWZ720800:AWZ720898 BGV720800:BGV720898 BQR720800:BQR720898 CAN720800:CAN720898 CKJ720800:CKJ720898 CUF720800:CUF720898 DEB720800:DEB720898 DNX720800:DNX720898 DXT720800:DXT720898 EHP720800:EHP720898 ERL720800:ERL720898 FBH720800:FBH720898 FLD720800:FLD720898 FUZ720800:FUZ720898 GEV720800:GEV720898 GOR720800:GOR720898 GYN720800:GYN720898 HIJ720800:HIJ720898 HSF720800:HSF720898 ICB720800:ICB720898 ILX720800:ILX720898 IVT720800:IVT720898 JFP720800:JFP720898 JPL720800:JPL720898 JZH720800:JZH720898 KJD720800:KJD720898 KSZ720800:KSZ720898 LCV720800:LCV720898 LMR720800:LMR720898 LWN720800:LWN720898 MGJ720800:MGJ720898 MQF720800:MQF720898 NAB720800:NAB720898 NJX720800:NJX720898 NTT720800:NTT720898 ODP720800:ODP720898 ONL720800:ONL720898 OXH720800:OXH720898 PHD720800:PHD720898 PQZ720800:PQZ720898 QAV720800:QAV720898 QKR720800:QKR720898 QUN720800:QUN720898 REJ720800:REJ720898 ROF720800:ROF720898 RYB720800:RYB720898 SHX720800:SHX720898 SRT720800:SRT720898 TBP720800:TBP720898 TLL720800:TLL720898 TVH720800:TVH720898 UFD720800:UFD720898 UOZ720800:UOZ720898 UYV720800:UYV720898 VIR720800:VIR720898 VSN720800:VSN720898 WCJ720800:WCJ720898 WMF720800:WMF720898 WWB720800:WWB720898 T786336:T786434 JP786336:JP786434 TL786336:TL786434 ADH786336:ADH786434 AND786336:AND786434 AWZ786336:AWZ786434 BGV786336:BGV786434 BQR786336:BQR786434 CAN786336:CAN786434 CKJ786336:CKJ786434 CUF786336:CUF786434 DEB786336:DEB786434 DNX786336:DNX786434 DXT786336:DXT786434 EHP786336:EHP786434 ERL786336:ERL786434 FBH786336:FBH786434 FLD786336:FLD786434 FUZ786336:FUZ786434 GEV786336:GEV786434 GOR786336:GOR786434 GYN786336:GYN786434 HIJ786336:HIJ786434 HSF786336:HSF786434 ICB786336:ICB786434 ILX786336:ILX786434 IVT786336:IVT786434 JFP786336:JFP786434 JPL786336:JPL786434 JZH786336:JZH786434 KJD786336:KJD786434 KSZ786336:KSZ786434 LCV786336:LCV786434 LMR786336:LMR786434 LWN786336:LWN786434 MGJ786336:MGJ786434 MQF786336:MQF786434 NAB786336:NAB786434 NJX786336:NJX786434 NTT786336:NTT786434 ODP786336:ODP786434 ONL786336:ONL786434 OXH786336:OXH786434 PHD786336:PHD786434 PQZ786336:PQZ786434 QAV786336:QAV786434 QKR786336:QKR786434 QUN786336:QUN786434 REJ786336:REJ786434 ROF786336:ROF786434 RYB786336:RYB786434 SHX786336:SHX786434 SRT786336:SRT786434 TBP786336:TBP786434 TLL786336:TLL786434 TVH786336:TVH786434 UFD786336:UFD786434 UOZ786336:UOZ786434 UYV786336:UYV786434 VIR786336:VIR786434 VSN786336:VSN786434 WCJ786336:WCJ786434 WMF786336:WMF786434 WWB786336:WWB786434 T851872:T851970 JP851872:JP851970 TL851872:TL851970 ADH851872:ADH851970 AND851872:AND851970 AWZ851872:AWZ851970 BGV851872:BGV851970 BQR851872:BQR851970 CAN851872:CAN851970 CKJ851872:CKJ851970 CUF851872:CUF851970 DEB851872:DEB851970 DNX851872:DNX851970 DXT851872:DXT851970 EHP851872:EHP851970 ERL851872:ERL851970 FBH851872:FBH851970 FLD851872:FLD851970 FUZ851872:FUZ851970 GEV851872:GEV851970 GOR851872:GOR851970 GYN851872:GYN851970 HIJ851872:HIJ851970 HSF851872:HSF851970 ICB851872:ICB851970 ILX851872:ILX851970 IVT851872:IVT851970 JFP851872:JFP851970 JPL851872:JPL851970 JZH851872:JZH851970 KJD851872:KJD851970 KSZ851872:KSZ851970 LCV851872:LCV851970 LMR851872:LMR851970 LWN851872:LWN851970 MGJ851872:MGJ851970 MQF851872:MQF851970 NAB851872:NAB851970 NJX851872:NJX851970 NTT851872:NTT851970 ODP851872:ODP851970 ONL851872:ONL851970 OXH851872:OXH851970 PHD851872:PHD851970 PQZ851872:PQZ851970 QAV851872:QAV851970 QKR851872:QKR851970 QUN851872:QUN851970 REJ851872:REJ851970 ROF851872:ROF851970 RYB851872:RYB851970 SHX851872:SHX851970 SRT851872:SRT851970 TBP851872:TBP851970 TLL851872:TLL851970 TVH851872:TVH851970 UFD851872:UFD851970 UOZ851872:UOZ851970 UYV851872:UYV851970 VIR851872:VIR851970 VSN851872:VSN851970 WCJ851872:WCJ851970 WMF851872:WMF851970 WWB851872:WWB851970 T917408:T917506 JP917408:JP917506 TL917408:TL917506 ADH917408:ADH917506 AND917408:AND917506 AWZ917408:AWZ917506 BGV917408:BGV917506 BQR917408:BQR917506 CAN917408:CAN917506 CKJ917408:CKJ917506 CUF917408:CUF917506 DEB917408:DEB917506 DNX917408:DNX917506 DXT917408:DXT917506 EHP917408:EHP917506 ERL917408:ERL917506 FBH917408:FBH917506 FLD917408:FLD917506 FUZ917408:FUZ917506 GEV917408:GEV917506 GOR917408:GOR917506 GYN917408:GYN917506 HIJ917408:HIJ917506 HSF917408:HSF917506 ICB917408:ICB917506 ILX917408:ILX917506 IVT917408:IVT917506 JFP917408:JFP917506 JPL917408:JPL917506 JZH917408:JZH917506 KJD917408:KJD917506 KSZ917408:KSZ917506 LCV917408:LCV917506 LMR917408:LMR917506 LWN917408:LWN917506 MGJ917408:MGJ917506 MQF917408:MQF917506 NAB917408:NAB917506 NJX917408:NJX917506 NTT917408:NTT917506 ODP917408:ODP917506 ONL917408:ONL917506 OXH917408:OXH917506 PHD917408:PHD917506 PQZ917408:PQZ917506 QAV917408:QAV917506 QKR917408:QKR917506 QUN917408:QUN917506 REJ917408:REJ917506 ROF917408:ROF917506 RYB917408:RYB917506 SHX917408:SHX917506 SRT917408:SRT917506 TBP917408:TBP917506 TLL917408:TLL917506 TVH917408:TVH917506 UFD917408:UFD917506 UOZ917408:UOZ917506 UYV917408:UYV917506 VIR917408:VIR917506 VSN917408:VSN917506 WCJ917408:WCJ917506 WMF917408:WMF917506 WWB917408:WWB917506 T982944:T983042 JP982944:JP983042 TL982944:TL983042 ADH982944:ADH983042 AND982944:AND983042 AWZ982944:AWZ983042 BGV982944:BGV983042 BQR982944:BQR983042 CAN982944:CAN983042 CKJ982944:CKJ983042 CUF982944:CUF983042 DEB982944:DEB983042 DNX982944:DNX983042 DXT982944:DXT983042 EHP982944:EHP983042 ERL982944:ERL983042 FBH982944:FBH983042 FLD982944:FLD983042 FUZ982944:FUZ983042 GEV982944:GEV983042 GOR982944:GOR983042 GYN982944:GYN983042 HIJ982944:HIJ983042 HSF982944:HSF983042 ICB982944:ICB983042 ILX982944:ILX983042 IVT982944:IVT983042 JFP982944:JFP983042 JPL982944:JPL983042 JZH982944:JZH983042 KJD982944:KJD983042 KSZ982944:KSZ983042 LCV982944:LCV983042 LMR982944:LMR983042 LWN982944:LWN983042 MGJ982944:MGJ983042 MQF982944:MQF983042 NAB982944:NAB983042 NJX982944:NJX983042 NTT982944:NTT983042 ODP982944:ODP983042 ONL982944:ONL983042 OXH982944:OXH983042 PHD982944:PHD983042 PQZ982944:PQZ983042 QAV982944:QAV983042 QKR982944:QKR983042 QUN982944:QUN983042 REJ982944:REJ983042 ROF982944:ROF983042 RYB982944:RYB983042 SHX982944:SHX983042 SRT982944:SRT983042 TBP982944:TBP983042 TLL982944:TLL983042 TVH982944:TVH983042 UFD982944:UFD983042 UOZ982944:UOZ983042 UYV982944:UYV983042 VIR982944:VIR983042 VSN982944:VSN983042 WCJ982944:WCJ983042 WMF982944:WMF983042 WWB982944:WWB983042" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 JE2 TA2 ACW2 AMS2 AWO2 BGK2 BQG2 CAC2 CJY2 CTU2 DDQ2 DNM2 DXI2 EHE2 ERA2 FAW2 FKS2 FUO2 GEK2 GOG2 GYC2 HHY2 HRU2 IBQ2 ILM2 IVI2 JFE2 JPA2 JYW2 KIS2 KSO2 LCK2 LMG2 LWC2 MFY2 MPU2 MZQ2 NJM2 NTI2 ODE2 ONA2 OWW2 PGS2 PQO2 QAK2 QKG2 QUC2 RDY2 RNU2 RXQ2 SHM2 SRI2 TBE2 TLA2 TUW2 UES2 UOO2 UYK2 VIG2 VSC2 WBY2 WLU2 WVQ2 I65440:I65538 JE65440:JE65538 TA65440:TA65538 ACW65440:ACW65538 AMS65440:AMS65538 AWO65440:AWO65538 BGK65440:BGK65538 BQG65440:BQG65538 CAC65440:CAC65538 CJY65440:CJY65538 CTU65440:CTU65538 DDQ65440:DDQ65538 DNM65440:DNM65538 DXI65440:DXI65538 EHE65440:EHE65538 ERA65440:ERA65538 FAW65440:FAW65538 FKS65440:FKS65538 FUO65440:FUO65538 GEK65440:GEK65538 GOG65440:GOG65538 GYC65440:GYC65538 HHY65440:HHY65538 HRU65440:HRU65538 IBQ65440:IBQ65538 ILM65440:ILM65538 IVI65440:IVI65538 JFE65440:JFE65538 JPA65440:JPA65538 JYW65440:JYW65538 KIS65440:KIS65538 KSO65440:KSO65538 LCK65440:LCK65538 LMG65440:LMG65538 LWC65440:LWC65538 MFY65440:MFY65538 MPU65440:MPU65538 MZQ65440:MZQ65538 NJM65440:NJM65538 NTI65440:NTI65538 ODE65440:ODE65538 ONA65440:ONA65538 OWW65440:OWW65538 PGS65440:PGS65538 PQO65440:PQO65538 QAK65440:QAK65538 QKG65440:QKG65538 QUC65440:QUC65538 RDY65440:RDY65538 RNU65440:RNU65538 RXQ65440:RXQ65538 SHM65440:SHM65538 SRI65440:SRI65538 TBE65440:TBE65538 TLA65440:TLA65538 TUW65440:TUW65538 UES65440:UES65538 UOO65440:UOO65538 UYK65440:UYK65538 VIG65440:VIG65538 VSC65440:VSC65538 WBY65440:WBY65538 WLU65440:WLU65538 WVQ65440:WVQ65538 I130976:I131074 JE130976:JE131074 TA130976:TA131074 ACW130976:ACW131074 AMS130976:AMS131074 AWO130976:AWO131074 BGK130976:BGK131074 BQG130976:BQG131074 CAC130976:CAC131074 CJY130976:CJY131074 CTU130976:CTU131074 DDQ130976:DDQ131074 DNM130976:DNM131074 DXI130976:DXI131074 EHE130976:EHE131074 ERA130976:ERA131074 FAW130976:FAW131074 FKS130976:FKS131074 FUO130976:FUO131074 GEK130976:GEK131074 GOG130976:GOG131074 GYC130976:GYC131074 HHY130976:HHY131074 HRU130976:HRU131074 IBQ130976:IBQ131074 ILM130976:ILM131074 IVI130976:IVI131074 JFE130976:JFE131074 JPA130976:JPA131074 JYW130976:JYW131074 KIS130976:KIS131074 KSO130976:KSO131074 LCK130976:LCK131074 LMG130976:LMG131074 LWC130976:LWC131074 MFY130976:MFY131074 MPU130976:MPU131074 MZQ130976:MZQ131074 NJM130976:NJM131074 NTI130976:NTI131074 ODE130976:ODE131074 ONA130976:ONA131074 OWW130976:OWW131074 PGS130976:PGS131074 PQO130976:PQO131074 QAK130976:QAK131074 QKG130976:QKG131074 QUC130976:QUC131074 RDY130976:RDY131074 RNU130976:RNU131074 RXQ130976:RXQ131074 SHM130976:SHM131074 SRI130976:SRI131074 TBE130976:TBE131074 TLA130976:TLA131074 TUW130976:TUW131074 UES130976:UES131074 UOO130976:UOO131074 UYK130976:UYK131074 VIG130976:VIG131074 VSC130976:VSC131074 WBY130976:WBY131074 WLU130976:WLU131074 WVQ130976:WVQ131074 I196512:I196610 JE196512:JE196610 TA196512:TA196610 ACW196512:ACW196610 AMS196512:AMS196610 AWO196512:AWO196610 BGK196512:BGK196610 BQG196512:BQG196610 CAC196512:CAC196610 CJY196512:CJY196610 CTU196512:CTU196610 DDQ196512:DDQ196610 DNM196512:DNM196610 DXI196512:DXI196610 EHE196512:EHE196610 ERA196512:ERA196610 FAW196512:FAW196610 FKS196512:FKS196610 FUO196512:FUO196610 GEK196512:GEK196610 GOG196512:GOG196610 GYC196512:GYC196610 HHY196512:HHY196610 HRU196512:HRU196610 IBQ196512:IBQ196610 ILM196512:ILM196610 IVI196512:IVI196610 JFE196512:JFE196610 JPA196512:JPA196610 JYW196512:JYW196610 KIS196512:KIS196610 KSO196512:KSO196610 LCK196512:LCK196610 LMG196512:LMG196610 LWC196512:LWC196610 MFY196512:MFY196610 MPU196512:MPU196610 MZQ196512:MZQ196610 NJM196512:NJM196610 NTI196512:NTI196610 ODE196512:ODE196610 ONA196512:ONA196610 OWW196512:OWW196610 PGS196512:PGS196610 PQO196512:PQO196610 QAK196512:QAK196610 QKG196512:QKG196610 QUC196512:QUC196610 RDY196512:RDY196610 RNU196512:RNU196610 RXQ196512:RXQ196610 SHM196512:SHM196610 SRI196512:SRI196610 TBE196512:TBE196610 TLA196512:TLA196610 TUW196512:TUW196610 UES196512:UES196610 UOO196512:UOO196610 UYK196512:UYK196610 VIG196512:VIG196610 VSC196512:VSC196610 WBY196512:WBY196610 WLU196512:WLU196610 WVQ196512:WVQ196610 I262048:I262146 JE262048:JE262146 TA262048:TA262146 ACW262048:ACW262146 AMS262048:AMS262146 AWO262048:AWO262146 BGK262048:BGK262146 BQG262048:BQG262146 CAC262048:CAC262146 CJY262048:CJY262146 CTU262048:CTU262146 DDQ262048:DDQ262146 DNM262048:DNM262146 DXI262048:DXI262146 EHE262048:EHE262146 ERA262048:ERA262146 FAW262048:FAW262146 FKS262048:FKS262146 FUO262048:FUO262146 GEK262048:GEK262146 GOG262048:GOG262146 GYC262048:GYC262146 HHY262048:HHY262146 HRU262048:HRU262146 IBQ262048:IBQ262146 ILM262048:ILM262146 IVI262048:IVI262146 JFE262048:JFE262146 JPA262048:JPA262146 JYW262048:JYW262146 KIS262048:KIS262146 KSO262048:KSO262146 LCK262048:LCK262146 LMG262048:LMG262146 LWC262048:LWC262146 MFY262048:MFY262146 MPU262048:MPU262146 MZQ262048:MZQ262146 NJM262048:NJM262146 NTI262048:NTI262146 ODE262048:ODE262146 ONA262048:ONA262146 OWW262048:OWW262146 PGS262048:PGS262146 PQO262048:PQO262146 QAK262048:QAK262146 QKG262048:QKG262146 QUC262048:QUC262146 RDY262048:RDY262146 RNU262048:RNU262146 RXQ262048:RXQ262146 SHM262048:SHM262146 SRI262048:SRI262146 TBE262048:TBE262146 TLA262048:TLA262146 TUW262048:TUW262146 UES262048:UES262146 UOO262048:UOO262146 UYK262048:UYK262146 VIG262048:VIG262146 VSC262048:VSC262146 WBY262048:WBY262146 WLU262048:WLU262146 WVQ262048:WVQ262146 I327584:I327682 JE327584:JE327682 TA327584:TA327682 ACW327584:ACW327682 AMS327584:AMS327682 AWO327584:AWO327682 BGK327584:BGK327682 BQG327584:BQG327682 CAC327584:CAC327682 CJY327584:CJY327682 CTU327584:CTU327682 DDQ327584:DDQ327682 DNM327584:DNM327682 DXI327584:DXI327682 EHE327584:EHE327682 ERA327584:ERA327682 FAW327584:FAW327682 FKS327584:FKS327682 FUO327584:FUO327682 GEK327584:GEK327682 GOG327584:GOG327682 GYC327584:GYC327682 HHY327584:HHY327682 HRU327584:HRU327682 IBQ327584:IBQ327682 ILM327584:ILM327682 IVI327584:IVI327682 JFE327584:JFE327682 JPA327584:JPA327682 JYW327584:JYW327682 KIS327584:KIS327682 KSO327584:KSO327682 LCK327584:LCK327682 LMG327584:LMG327682 LWC327584:LWC327682 MFY327584:MFY327682 MPU327584:MPU327682 MZQ327584:MZQ327682 NJM327584:NJM327682 NTI327584:NTI327682 ODE327584:ODE327682 ONA327584:ONA327682 OWW327584:OWW327682 PGS327584:PGS327682 PQO327584:PQO327682 QAK327584:QAK327682 QKG327584:QKG327682 QUC327584:QUC327682 RDY327584:RDY327682 RNU327584:RNU327682 RXQ327584:RXQ327682 SHM327584:SHM327682 SRI327584:SRI327682 TBE327584:TBE327682 TLA327584:TLA327682 TUW327584:TUW327682 UES327584:UES327682 UOO327584:UOO327682 UYK327584:UYK327682 VIG327584:VIG327682 VSC327584:VSC327682 WBY327584:WBY327682 WLU327584:WLU327682 WVQ327584:WVQ327682 I393120:I393218 JE393120:JE393218 TA393120:TA393218 ACW393120:ACW393218 AMS393120:AMS393218 AWO393120:AWO393218 BGK393120:BGK393218 BQG393120:BQG393218 CAC393120:CAC393218 CJY393120:CJY393218 CTU393120:CTU393218 DDQ393120:DDQ393218 DNM393120:DNM393218 DXI393120:DXI393218 EHE393120:EHE393218 ERA393120:ERA393218 FAW393120:FAW393218 FKS393120:FKS393218 FUO393120:FUO393218 GEK393120:GEK393218 GOG393120:GOG393218 GYC393120:GYC393218 HHY393120:HHY393218 HRU393120:HRU393218 IBQ393120:IBQ393218 ILM393120:ILM393218 IVI393120:IVI393218 JFE393120:JFE393218 JPA393120:JPA393218 JYW393120:JYW393218 KIS393120:KIS393218 KSO393120:KSO393218 LCK393120:LCK393218 LMG393120:LMG393218 LWC393120:LWC393218 MFY393120:MFY393218 MPU393120:MPU393218 MZQ393120:MZQ393218 NJM393120:NJM393218 NTI393120:NTI393218 ODE393120:ODE393218 ONA393120:ONA393218 OWW393120:OWW393218 PGS393120:PGS393218 PQO393120:PQO393218 QAK393120:QAK393218 QKG393120:QKG393218 QUC393120:QUC393218 RDY393120:RDY393218 RNU393120:RNU393218 RXQ393120:RXQ393218 SHM393120:SHM393218 SRI393120:SRI393218 TBE393120:TBE393218 TLA393120:TLA393218 TUW393120:TUW393218 UES393120:UES393218 UOO393120:UOO393218 UYK393120:UYK393218 VIG393120:VIG393218 VSC393120:VSC393218 WBY393120:WBY393218 WLU393120:WLU393218 WVQ393120:WVQ393218 I458656:I458754 JE458656:JE458754 TA458656:TA458754 ACW458656:ACW458754 AMS458656:AMS458754 AWO458656:AWO458754 BGK458656:BGK458754 BQG458656:BQG458754 CAC458656:CAC458754 CJY458656:CJY458754 CTU458656:CTU458754 DDQ458656:DDQ458754 DNM458656:DNM458754 DXI458656:DXI458754 EHE458656:EHE458754 ERA458656:ERA458754 FAW458656:FAW458754 FKS458656:FKS458754 FUO458656:FUO458754 GEK458656:GEK458754 GOG458656:GOG458754 GYC458656:GYC458754 HHY458656:HHY458754 HRU458656:HRU458754 IBQ458656:IBQ458754 ILM458656:ILM458754 IVI458656:IVI458754 JFE458656:JFE458754 JPA458656:JPA458754 JYW458656:JYW458754 KIS458656:KIS458754 KSO458656:KSO458754 LCK458656:LCK458754 LMG458656:LMG458754 LWC458656:LWC458754 MFY458656:MFY458754 MPU458656:MPU458754 MZQ458656:MZQ458754 NJM458656:NJM458754 NTI458656:NTI458754 ODE458656:ODE458754 ONA458656:ONA458754 OWW458656:OWW458754 PGS458656:PGS458754 PQO458656:PQO458754 QAK458656:QAK458754 QKG458656:QKG458754 QUC458656:QUC458754 RDY458656:RDY458754 RNU458656:RNU458754 RXQ458656:RXQ458754 SHM458656:SHM458754 SRI458656:SRI458754 TBE458656:TBE458754 TLA458656:TLA458754 TUW458656:TUW458754 UES458656:UES458754 UOO458656:UOO458754 UYK458656:UYK458754 VIG458656:VIG458754 VSC458656:VSC458754 WBY458656:WBY458754 WLU458656:WLU458754 WVQ458656:WVQ458754 I524192:I524290 JE524192:JE524290 TA524192:TA524290 ACW524192:ACW524290 AMS524192:AMS524290 AWO524192:AWO524290 BGK524192:BGK524290 BQG524192:BQG524290 CAC524192:CAC524290 CJY524192:CJY524290 CTU524192:CTU524290 DDQ524192:DDQ524290 DNM524192:DNM524290 DXI524192:DXI524290 EHE524192:EHE524290 ERA524192:ERA524290 FAW524192:FAW524290 FKS524192:FKS524290 FUO524192:FUO524290 GEK524192:GEK524290 GOG524192:GOG524290 GYC524192:GYC524290 HHY524192:HHY524290 HRU524192:HRU524290 IBQ524192:IBQ524290 ILM524192:ILM524290 IVI524192:IVI524290 JFE524192:JFE524290 JPA524192:JPA524290 JYW524192:JYW524290 KIS524192:KIS524290 KSO524192:KSO524290 LCK524192:LCK524290 LMG524192:LMG524290 LWC524192:LWC524290 MFY524192:MFY524290 MPU524192:MPU524290 MZQ524192:MZQ524290 NJM524192:NJM524290 NTI524192:NTI524290 ODE524192:ODE524290 ONA524192:ONA524290 OWW524192:OWW524290 PGS524192:PGS524290 PQO524192:PQO524290 QAK524192:QAK524290 QKG524192:QKG524290 QUC524192:QUC524290 RDY524192:RDY524290 RNU524192:RNU524290 RXQ524192:RXQ524290 SHM524192:SHM524290 SRI524192:SRI524290 TBE524192:TBE524290 TLA524192:TLA524290 TUW524192:TUW524290 UES524192:UES524290 UOO524192:UOO524290 UYK524192:UYK524290 VIG524192:VIG524290 VSC524192:VSC524290 WBY524192:WBY524290 WLU524192:WLU524290 WVQ524192:WVQ524290 I589728:I589826 JE589728:JE589826 TA589728:TA589826 ACW589728:ACW589826 AMS589728:AMS589826 AWO589728:AWO589826 BGK589728:BGK589826 BQG589728:BQG589826 CAC589728:CAC589826 CJY589728:CJY589826 CTU589728:CTU589826 DDQ589728:DDQ589826 DNM589728:DNM589826 DXI589728:DXI589826 EHE589728:EHE589826 ERA589728:ERA589826 FAW589728:FAW589826 FKS589728:FKS589826 FUO589728:FUO589826 GEK589728:GEK589826 GOG589728:GOG589826 GYC589728:GYC589826 HHY589728:HHY589826 HRU589728:HRU589826 IBQ589728:IBQ589826 ILM589728:ILM589826 IVI589728:IVI589826 JFE589728:JFE589826 JPA589728:JPA589826 JYW589728:JYW589826 KIS589728:KIS589826 KSO589728:KSO589826 LCK589728:LCK589826 LMG589728:LMG589826 LWC589728:LWC589826 MFY589728:MFY589826 MPU589728:MPU589826 MZQ589728:MZQ589826 NJM589728:NJM589826 NTI589728:NTI589826 ODE589728:ODE589826 ONA589728:ONA589826 OWW589728:OWW589826 PGS589728:PGS589826 PQO589728:PQO589826 QAK589728:QAK589826 QKG589728:QKG589826 QUC589728:QUC589826 RDY589728:RDY589826 RNU589728:RNU589826 RXQ589728:RXQ589826 SHM589728:SHM589826 SRI589728:SRI589826 TBE589728:TBE589826 TLA589728:TLA589826 TUW589728:TUW589826 UES589728:UES589826 UOO589728:UOO589826 UYK589728:UYK589826 VIG589728:VIG589826 VSC589728:VSC589826 WBY589728:WBY589826 WLU589728:WLU589826 WVQ589728:WVQ589826 I655264:I655362 JE655264:JE655362 TA655264:TA655362 ACW655264:ACW655362 AMS655264:AMS655362 AWO655264:AWO655362 BGK655264:BGK655362 BQG655264:BQG655362 CAC655264:CAC655362 CJY655264:CJY655362 CTU655264:CTU655362 DDQ655264:DDQ655362 DNM655264:DNM655362 DXI655264:DXI655362 EHE655264:EHE655362 ERA655264:ERA655362 FAW655264:FAW655362 FKS655264:FKS655362 FUO655264:FUO655362 GEK655264:GEK655362 GOG655264:GOG655362 GYC655264:GYC655362 HHY655264:HHY655362 HRU655264:HRU655362 IBQ655264:IBQ655362 ILM655264:ILM655362 IVI655264:IVI655362 JFE655264:JFE655362 JPA655264:JPA655362 JYW655264:JYW655362 KIS655264:KIS655362 KSO655264:KSO655362 LCK655264:LCK655362 LMG655264:LMG655362 LWC655264:LWC655362 MFY655264:MFY655362 MPU655264:MPU655362 MZQ655264:MZQ655362 NJM655264:NJM655362 NTI655264:NTI655362 ODE655264:ODE655362 ONA655264:ONA655362 OWW655264:OWW655362 PGS655264:PGS655362 PQO655264:PQO655362 QAK655264:QAK655362 QKG655264:QKG655362 QUC655264:QUC655362 RDY655264:RDY655362 RNU655264:RNU655362 RXQ655264:RXQ655362 SHM655264:SHM655362 SRI655264:SRI655362 TBE655264:TBE655362 TLA655264:TLA655362 TUW655264:TUW655362 UES655264:UES655362 UOO655264:UOO655362 UYK655264:UYK655362 VIG655264:VIG655362 VSC655264:VSC655362 WBY655264:WBY655362 WLU655264:WLU655362 WVQ655264:WVQ655362 I720800:I720898 JE720800:JE720898 TA720800:TA720898 ACW720800:ACW720898 AMS720800:AMS720898 AWO720800:AWO720898 BGK720800:BGK720898 BQG720800:BQG720898 CAC720800:CAC720898 CJY720800:CJY720898 CTU720800:CTU720898 DDQ720800:DDQ720898 DNM720800:DNM720898 DXI720800:DXI720898 EHE720800:EHE720898 ERA720800:ERA720898 FAW720800:FAW720898 FKS720800:FKS720898 FUO720800:FUO720898 GEK720800:GEK720898 GOG720800:GOG720898 GYC720800:GYC720898 HHY720800:HHY720898 HRU720800:HRU720898 IBQ720800:IBQ720898 ILM720800:ILM720898 IVI720800:IVI720898 JFE720800:JFE720898 JPA720800:JPA720898 JYW720800:JYW720898 KIS720800:KIS720898 KSO720800:KSO720898 LCK720800:LCK720898 LMG720800:LMG720898 LWC720800:LWC720898 MFY720800:MFY720898 MPU720800:MPU720898 MZQ720800:MZQ720898 NJM720800:NJM720898 NTI720800:NTI720898 ODE720800:ODE720898 ONA720800:ONA720898 OWW720800:OWW720898 PGS720800:PGS720898 PQO720800:PQO720898 QAK720800:QAK720898 QKG720800:QKG720898 QUC720800:QUC720898 RDY720800:RDY720898 RNU720800:RNU720898 RXQ720800:RXQ720898 SHM720800:SHM720898 SRI720800:SRI720898 TBE720800:TBE720898 TLA720800:TLA720898 TUW720800:TUW720898 UES720800:UES720898 UOO720800:UOO720898 UYK720800:UYK720898 VIG720800:VIG720898 VSC720800:VSC720898 WBY720800:WBY720898 WLU720800:WLU720898 WVQ720800:WVQ720898 I786336:I786434 JE786336:JE786434 TA786336:TA786434 ACW786336:ACW786434 AMS786336:AMS786434 AWO786336:AWO786434 BGK786336:BGK786434 BQG786336:BQG786434 CAC786336:CAC786434 CJY786336:CJY786434 CTU786336:CTU786434 DDQ786336:DDQ786434 DNM786336:DNM786434 DXI786336:DXI786434 EHE786336:EHE786434 ERA786336:ERA786434 FAW786336:FAW786434 FKS786336:FKS786434 FUO786336:FUO786434 GEK786336:GEK786434 GOG786336:GOG786434 GYC786336:GYC786434 HHY786336:HHY786434 HRU786336:HRU786434 IBQ786336:IBQ786434 ILM786336:ILM786434 IVI786336:IVI786434 JFE786336:JFE786434 JPA786336:JPA786434 JYW786336:JYW786434 KIS786336:KIS786434 KSO786336:KSO786434 LCK786336:LCK786434 LMG786336:LMG786434 LWC786336:LWC786434 MFY786336:MFY786434 MPU786336:MPU786434 MZQ786336:MZQ786434 NJM786336:NJM786434 NTI786336:NTI786434 ODE786336:ODE786434 ONA786336:ONA786434 OWW786336:OWW786434 PGS786336:PGS786434 PQO786336:PQO786434 QAK786336:QAK786434 QKG786336:QKG786434 QUC786336:QUC786434 RDY786336:RDY786434 RNU786336:RNU786434 RXQ786336:RXQ786434 SHM786336:SHM786434 SRI786336:SRI786434 TBE786336:TBE786434 TLA786336:TLA786434 TUW786336:TUW786434 UES786336:UES786434 UOO786336:UOO786434 UYK786336:UYK786434 VIG786336:VIG786434 VSC786336:VSC786434 WBY786336:WBY786434 WLU786336:WLU786434 WVQ786336:WVQ786434 I851872:I851970 JE851872:JE851970 TA851872:TA851970 ACW851872:ACW851970 AMS851872:AMS851970 AWO851872:AWO851970 BGK851872:BGK851970 BQG851872:BQG851970 CAC851872:CAC851970 CJY851872:CJY851970 CTU851872:CTU851970 DDQ851872:DDQ851970 DNM851872:DNM851970 DXI851872:DXI851970 EHE851872:EHE851970 ERA851872:ERA851970 FAW851872:FAW851970 FKS851872:FKS851970 FUO851872:FUO851970 GEK851872:GEK851970 GOG851872:GOG851970 GYC851872:GYC851970 HHY851872:HHY851970 HRU851872:HRU851970 IBQ851872:IBQ851970 ILM851872:ILM851970 IVI851872:IVI851970 JFE851872:JFE851970 JPA851872:JPA851970 JYW851872:JYW851970 KIS851872:KIS851970 KSO851872:KSO851970 LCK851872:LCK851970 LMG851872:LMG851970 LWC851872:LWC851970 MFY851872:MFY851970 MPU851872:MPU851970 MZQ851872:MZQ851970 NJM851872:NJM851970 NTI851872:NTI851970 ODE851872:ODE851970 ONA851872:ONA851970 OWW851872:OWW851970 PGS851872:PGS851970 PQO851872:PQO851970 QAK851872:QAK851970 QKG851872:QKG851970 QUC851872:QUC851970 RDY851872:RDY851970 RNU851872:RNU851970 RXQ851872:RXQ851970 SHM851872:SHM851970 SRI851872:SRI851970 TBE851872:TBE851970 TLA851872:TLA851970 TUW851872:TUW851970 UES851872:UES851970 UOO851872:UOO851970 UYK851872:UYK851970 VIG851872:VIG851970 VSC851872:VSC851970 WBY851872:WBY851970 WLU851872:WLU851970 WVQ851872:WVQ851970 I917408:I917506 JE917408:JE917506 TA917408:TA917506 ACW917408:ACW917506 AMS917408:AMS917506 AWO917408:AWO917506 BGK917408:BGK917506 BQG917408:BQG917506 CAC917408:CAC917506 CJY917408:CJY917506 CTU917408:CTU917506 DDQ917408:DDQ917506 DNM917408:DNM917506 DXI917408:DXI917506 EHE917408:EHE917506 ERA917408:ERA917506 FAW917408:FAW917506 FKS917408:FKS917506 FUO917408:FUO917506 GEK917408:GEK917506 GOG917408:GOG917506 GYC917408:GYC917506 HHY917408:HHY917506 HRU917408:HRU917506 IBQ917408:IBQ917506 ILM917408:ILM917506 IVI917408:IVI917506 JFE917408:JFE917506 JPA917408:JPA917506 JYW917408:JYW917506 KIS917408:KIS917506 KSO917408:KSO917506 LCK917408:LCK917506 LMG917408:LMG917506 LWC917408:LWC917506 MFY917408:MFY917506 MPU917408:MPU917506 MZQ917408:MZQ917506 NJM917408:NJM917506 NTI917408:NTI917506 ODE917408:ODE917506 ONA917408:ONA917506 OWW917408:OWW917506 PGS917408:PGS917506 PQO917408:PQO917506 QAK917408:QAK917506 QKG917408:QKG917506 QUC917408:QUC917506 RDY917408:RDY917506 RNU917408:RNU917506 RXQ917408:RXQ917506 SHM917408:SHM917506 SRI917408:SRI917506 TBE917408:TBE917506 TLA917408:TLA917506 TUW917408:TUW917506 UES917408:UES917506 UOO917408:UOO917506 UYK917408:UYK917506 VIG917408:VIG917506 VSC917408:VSC917506 WBY917408:WBY917506 WLU917408:WLU917506 WVQ917408:WVQ917506 I982944:I983042 JE982944:JE983042 TA982944:TA983042 ACW982944:ACW983042 AMS982944:AMS983042 AWO982944:AWO983042 BGK982944:BGK983042 BQG982944:BQG983042 CAC982944:CAC983042 CJY982944:CJY983042 CTU982944:CTU983042 DDQ982944:DDQ983042 DNM982944:DNM983042 DXI982944:DXI983042 EHE982944:EHE983042 ERA982944:ERA983042 FAW982944:FAW983042 FKS982944:FKS983042 FUO982944:FUO983042 GEK982944:GEK983042 GOG982944:GOG983042 GYC982944:GYC983042 HHY982944:HHY983042 HRU982944:HRU983042 IBQ982944:IBQ983042 ILM982944:ILM983042 IVI982944:IVI983042 JFE982944:JFE983042 JPA982944:JPA983042 JYW982944:JYW983042 KIS982944:KIS983042 KSO982944:KSO983042 LCK982944:LCK983042 LMG982944:LMG983042 LWC982944:LWC983042 MFY982944:MFY983042 MPU982944:MPU983042 MZQ982944:MZQ983042 NJM982944:NJM983042 NTI982944:NTI983042 ODE982944:ODE983042 ONA982944:ONA983042 OWW982944:OWW983042 PGS982944:PGS983042 PQO982944:PQO983042 QAK982944:QAK983042 QKG982944:QKG983042 QUC982944:QUC983042 RDY982944:RDY983042 RNU982944:RNU983042 RXQ982944:RXQ983042 SHM982944:SHM983042 SRI982944:SRI983042 TBE982944:TBE983042 TLA982944:TLA983042 TUW982944:TUW983042 UES982944:UES983042 UOO982944:UOO983042 UYK982944:UYK983042 VIG982944:VIG983042 VSC982944:VSC983042 WBY982944:WBY983042 WLU982944:WLU983042 WVQ982944:WVQ983042 P2:Q2 JL2:JM2 TH2:TI2 ADD2:ADE2 AMZ2:ANA2 AWV2:AWW2 BGR2:BGS2 BQN2:BQO2 CAJ2:CAK2 CKF2:CKG2 CUB2:CUC2 DDX2:DDY2 DNT2:DNU2 DXP2:DXQ2 EHL2:EHM2 ERH2:ERI2 FBD2:FBE2 FKZ2:FLA2 FUV2:FUW2 GER2:GES2 GON2:GOO2 GYJ2:GYK2 HIF2:HIG2 HSB2:HSC2 IBX2:IBY2 ILT2:ILU2 IVP2:IVQ2 JFL2:JFM2 JPH2:JPI2 JZD2:JZE2 KIZ2:KJA2 KSV2:KSW2 LCR2:LCS2 LMN2:LMO2 LWJ2:LWK2 MGF2:MGG2 MQB2:MQC2 MZX2:MZY2 NJT2:NJU2 NTP2:NTQ2 ODL2:ODM2 ONH2:ONI2 OXD2:OXE2 PGZ2:PHA2 PQV2:PQW2 QAR2:QAS2 QKN2:QKO2 QUJ2:QUK2 REF2:REG2 ROB2:ROC2 RXX2:RXY2 SHT2:SHU2 SRP2:SRQ2 TBL2:TBM2 TLH2:TLI2 TVD2:TVE2 UEZ2:UFA2 UOV2:UOW2 UYR2:UYS2 VIN2:VIO2 VSJ2:VSK2 WCF2:WCG2 WMB2:WMC2 WVX2:WVY2 P65440:Q65538 JL65440:JM65538 TH65440:TI65538 ADD65440:ADE65538 AMZ65440:ANA65538 AWV65440:AWW65538 BGR65440:BGS65538 BQN65440:BQO65538 CAJ65440:CAK65538 CKF65440:CKG65538 CUB65440:CUC65538 DDX65440:DDY65538 DNT65440:DNU65538 DXP65440:DXQ65538 EHL65440:EHM65538 ERH65440:ERI65538 FBD65440:FBE65538 FKZ65440:FLA65538 FUV65440:FUW65538 GER65440:GES65538 GON65440:GOO65538 GYJ65440:GYK65538 HIF65440:HIG65538 HSB65440:HSC65538 IBX65440:IBY65538 ILT65440:ILU65538 IVP65440:IVQ65538 JFL65440:JFM65538 JPH65440:JPI65538 JZD65440:JZE65538 KIZ65440:KJA65538 KSV65440:KSW65538 LCR65440:LCS65538 LMN65440:LMO65538 LWJ65440:LWK65538 MGF65440:MGG65538 MQB65440:MQC65538 MZX65440:MZY65538 NJT65440:NJU65538 NTP65440:NTQ65538 ODL65440:ODM65538 ONH65440:ONI65538 OXD65440:OXE65538 PGZ65440:PHA65538 PQV65440:PQW65538 QAR65440:QAS65538 QKN65440:QKO65538 QUJ65440:QUK65538 REF65440:REG65538 ROB65440:ROC65538 RXX65440:RXY65538 SHT65440:SHU65538 SRP65440:SRQ65538 TBL65440:TBM65538 TLH65440:TLI65538 TVD65440:TVE65538 UEZ65440:UFA65538 UOV65440:UOW65538 UYR65440:UYS65538 VIN65440:VIO65538 VSJ65440:VSK65538 WCF65440:WCG65538 WMB65440:WMC65538 WVX65440:WVY65538 P130976:Q131074 JL130976:JM131074 TH130976:TI131074 ADD130976:ADE131074 AMZ130976:ANA131074 AWV130976:AWW131074 BGR130976:BGS131074 BQN130976:BQO131074 CAJ130976:CAK131074 CKF130976:CKG131074 CUB130976:CUC131074 DDX130976:DDY131074 DNT130976:DNU131074 DXP130976:DXQ131074 EHL130976:EHM131074 ERH130976:ERI131074 FBD130976:FBE131074 FKZ130976:FLA131074 FUV130976:FUW131074 GER130976:GES131074 GON130976:GOO131074 GYJ130976:GYK131074 HIF130976:HIG131074 HSB130976:HSC131074 IBX130976:IBY131074 ILT130976:ILU131074 IVP130976:IVQ131074 JFL130976:JFM131074 JPH130976:JPI131074 JZD130976:JZE131074 KIZ130976:KJA131074 KSV130976:KSW131074 LCR130976:LCS131074 LMN130976:LMO131074 LWJ130976:LWK131074 MGF130976:MGG131074 MQB130976:MQC131074 MZX130976:MZY131074 NJT130976:NJU131074 NTP130976:NTQ131074 ODL130976:ODM131074 ONH130976:ONI131074 OXD130976:OXE131074 PGZ130976:PHA131074 PQV130976:PQW131074 QAR130976:QAS131074 QKN130976:QKO131074 QUJ130976:QUK131074 REF130976:REG131074 ROB130976:ROC131074 RXX130976:RXY131074 SHT130976:SHU131074 SRP130976:SRQ131074 TBL130976:TBM131074 TLH130976:TLI131074 TVD130976:TVE131074 UEZ130976:UFA131074 UOV130976:UOW131074 UYR130976:UYS131074 VIN130976:VIO131074 VSJ130976:VSK131074 WCF130976:WCG131074 WMB130976:WMC131074 WVX130976:WVY131074 P196512:Q196610 JL196512:JM196610 TH196512:TI196610 ADD196512:ADE196610 AMZ196512:ANA196610 AWV196512:AWW196610 BGR196512:BGS196610 BQN196512:BQO196610 CAJ196512:CAK196610 CKF196512:CKG196610 CUB196512:CUC196610 DDX196512:DDY196610 DNT196512:DNU196610 DXP196512:DXQ196610 EHL196512:EHM196610 ERH196512:ERI196610 FBD196512:FBE196610 FKZ196512:FLA196610 FUV196512:FUW196610 GER196512:GES196610 GON196512:GOO196610 GYJ196512:GYK196610 HIF196512:HIG196610 HSB196512:HSC196610 IBX196512:IBY196610 ILT196512:ILU196610 IVP196512:IVQ196610 JFL196512:JFM196610 JPH196512:JPI196610 JZD196512:JZE196610 KIZ196512:KJA196610 KSV196512:KSW196610 LCR196512:LCS196610 LMN196512:LMO196610 LWJ196512:LWK196610 MGF196512:MGG196610 MQB196512:MQC196610 MZX196512:MZY196610 NJT196512:NJU196610 NTP196512:NTQ196610 ODL196512:ODM196610 ONH196512:ONI196610 OXD196512:OXE196610 PGZ196512:PHA196610 PQV196512:PQW196610 QAR196512:QAS196610 QKN196512:QKO196610 QUJ196512:QUK196610 REF196512:REG196610 ROB196512:ROC196610 RXX196512:RXY196610 SHT196512:SHU196610 SRP196512:SRQ196610 TBL196512:TBM196610 TLH196512:TLI196610 TVD196512:TVE196610 UEZ196512:UFA196610 UOV196512:UOW196610 UYR196512:UYS196610 VIN196512:VIO196610 VSJ196512:VSK196610 WCF196512:WCG196610 WMB196512:WMC196610 WVX196512:WVY196610 P262048:Q262146 JL262048:JM262146 TH262048:TI262146 ADD262048:ADE262146 AMZ262048:ANA262146 AWV262048:AWW262146 BGR262048:BGS262146 BQN262048:BQO262146 CAJ262048:CAK262146 CKF262048:CKG262146 CUB262048:CUC262146 DDX262048:DDY262146 DNT262048:DNU262146 DXP262048:DXQ262146 EHL262048:EHM262146 ERH262048:ERI262146 FBD262048:FBE262146 FKZ262048:FLA262146 FUV262048:FUW262146 GER262048:GES262146 GON262048:GOO262146 GYJ262048:GYK262146 HIF262048:HIG262146 HSB262048:HSC262146 IBX262048:IBY262146 ILT262048:ILU262146 IVP262048:IVQ262146 JFL262048:JFM262146 JPH262048:JPI262146 JZD262048:JZE262146 KIZ262048:KJA262146 KSV262048:KSW262146 LCR262048:LCS262146 LMN262048:LMO262146 LWJ262048:LWK262146 MGF262048:MGG262146 MQB262048:MQC262146 MZX262048:MZY262146 NJT262048:NJU262146 NTP262048:NTQ262146 ODL262048:ODM262146 ONH262048:ONI262146 OXD262048:OXE262146 PGZ262048:PHA262146 PQV262048:PQW262146 QAR262048:QAS262146 QKN262048:QKO262146 QUJ262048:QUK262146 REF262048:REG262146 ROB262048:ROC262146 RXX262048:RXY262146 SHT262048:SHU262146 SRP262048:SRQ262146 TBL262048:TBM262146 TLH262048:TLI262146 TVD262048:TVE262146 UEZ262048:UFA262146 UOV262048:UOW262146 UYR262048:UYS262146 VIN262048:VIO262146 VSJ262048:VSK262146 WCF262048:WCG262146 WMB262048:WMC262146 WVX262048:WVY262146 P327584:Q327682 JL327584:JM327682 TH327584:TI327682 ADD327584:ADE327682 AMZ327584:ANA327682 AWV327584:AWW327682 BGR327584:BGS327682 BQN327584:BQO327682 CAJ327584:CAK327682 CKF327584:CKG327682 CUB327584:CUC327682 DDX327584:DDY327682 DNT327584:DNU327682 DXP327584:DXQ327682 EHL327584:EHM327682 ERH327584:ERI327682 FBD327584:FBE327682 FKZ327584:FLA327682 FUV327584:FUW327682 GER327584:GES327682 GON327584:GOO327682 GYJ327584:GYK327682 HIF327584:HIG327682 HSB327584:HSC327682 IBX327584:IBY327682 ILT327584:ILU327682 IVP327584:IVQ327682 JFL327584:JFM327682 JPH327584:JPI327682 JZD327584:JZE327682 KIZ327584:KJA327682 KSV327584:KSW327682 LCR327584:LCS327682 LMN327584:LMO327682 LWJ327584:LWK327682 MGF327584:MGG327682 MQB327584:MQC327682 MZX327584:MZY327682 NJT327584:NJU327682 NTP327584:NTQ327682 ODL327584:ODM327682 ONH327584:ONI327682 OXD327584:OXE327682 PGZ327584:PHA327682 PQV327584:PQW327682 QAR327584:QAS327682 QKN327584:QKO327682 QUJ327584:QUK327682 REF327584:REG327682 ROB327584:ROC327682 RXX327584:RXY327682 SHT327584:SHU327682 SRP327584:SRQ327682 TBL327584:TBM327682 TLH327584:TLI327682 TVD327584:TVE327682 UEZ327584:UFA327682 UOV327584:UOW327682 UYR327584:UYS327682 VIN327584:VIO327682 VSJ327584:VSK327682 WCF327584:WCG327682 WMB327584:WMC327682 WVX327584:WVY327682 P393120:Q393218 JL393120:JM393218 TH393120:TI393218 ADD393120:ADE393218 AMZ393120:ANA393218 AWV393120:AWW393218 BGR393120:BGS393218 BQN393120:BQO393218 CAJ393120:CAK393218 CKF393120:CKG393218 CUB393120:CUC393218 DDX393120:DDY393218 DNT393120:DNU393218 DXP393120:DXQ393218 EHL393120:EHM393218 ERH393120:ERI393218 FBD393120:FBE393218 FKZ393120:FLA393218 FUV393120:FUW393218 GER393120:GES393218 GON393120:GOO393218 GYJ393120:GYK393218 HIF393120:HIG393218 HSB393120:HSC393218 IBX393120:IBY393218 ILT393120:ILU393218 IVP393120:IVQ393218 JFL393120:JFM393218 JPH393120:JPI393218 JZD393120:JZE393218 KIZ393120:KJA393218 KSV393120:KSW393218 LCR393120:LCS393218 LMN393120:LMO393218 LWJ393120:LWK393218 MGF393120:MGG393218 MQB393120:MQC393218 MZX393120:MZY393218 NJT393120:NJU393218 NTP393120:NTQ393218 ODL393120:ODM393218 ONH393120:ONI393218 OXD393120:OXE393218 PGZ393120:PHA393218 PQV393120:PQW393218 QAR393120:QAS393218 QKN393120:QKO393218 QUJ393120:QUK393218 REF393120:REG393218 ROB393120:ROC393218 RXX393120:RXY393218 SHT393120:SHU393218 SRP393120:SRQ393218 TBL393120:TBM393218 TLH393120:TLI393218 TVD393120:TVE393218 UEZ393120:UFA393218 UOV393120:UOW393218 UYR393120:UYS393218 VIN393120:VIO393218 VSJ393120:VSK393218 WCF393120:WCG393218 WMB393120:WMC393218 WVX393120:WVY393218 P458656:Q458754 JL458656:JM458754 TH458656:TI458754 ADD458656:ADE458754 AMZ458656:ANA458754 AWV458656:AWW458754 BGR458656:BGS458754 BQN458656:BQO458754 CAJ458656:CAK458754 CKF458656:CKG458754 CUB458656:CUC458754 DDX458656:DDY458754 DNT458656:DNU458754 DXP458656:DXQ458754 EHL458656:EHM458754 ERH458656:ERI458754 FBD458656:FBE458754 FKZ458656:FLA458754 FUV458656:FUW458754 GER458656:GES458754 GON458656:GOO458754 GYJ458656:GYK458754 HIF458656:HIG458754 HSB458656:HSC458754 IBX458656:IBY458754 ILT458656:ILU458754 IVP458656:IVQ458754 JFL458656:JFM458754 JPH458656:JPI458754 JZD458656:JZE458754 KIZ458656:KJA458754 KSV458656:KSW458754 LCR458656:LCS458754 LMN458656:LMO458754 LWJ458656:LWK458754 MGF458656:MGG458754 MQB458656:MQC458754 MZX458656:MZY458754 NJT458656:NJU458754 NTP458656:NTQ458754 ODL458656:ODM458754 ONH458656:ONI458754 OXD458656:OXE458754 PGZ458656:PHA458754 PQV458656:PQW458754 QAR458656:QAS458754 QKN458656:QKO458754 QUJ458656:QUK458754 REF458656:REG458754 ROB458656:ROC458754 RXX458656:RXY458754 SHT458656:SHU458754 SRP458656:SRQ458754 TBL458656:TBM458754 TLH458656:TLI458754 TVD458656:TVE458754 UEZ458656:UFA458754 UOV458656:UOW458754 UYR458656:UYS458754 VIN458656:VIO458754 VSJ458656:VSK458754 WCF458656:WCG458754 WMB458656:WMC458754 WVX458656:WVY458754 P524192:Q524290 JL524192:JM524290 TH524192:TI524290 ADD524192:ADE524290 AMZ524192:ANA524290 AWV524192:AWW524290 BGR524192:BGS524290 BQN524192:BQO524290 CAJ524192:CAK524290 CKF524192:CKG524290 CUB524192:CUC524290 DDX524192:DDY524290 DNT524192:DNU524290 DXP524192:DXQ524290 EHL524192:EHM524290 ERH524192:ERI524290 FBD524192:FBE524290 FKZ524192:FLA524290 FUV524192:FUW524290 GER524192:GES524290 GON524192:GOO524290 GYJ524192:GYK524290 HIF524192:HIG524290 HSB524192:HSC524290 IBX524192:IBY524290 ILT524192:ILU524290 IVP524192:IVQ524290 JFL524192:JFM524290 JPH524192:JPI524290 JZD524192:JZE524290 KIZ524192:KJA524290 KSV524192:KSW524290 LCR524192:LCS524290 LMN524192:LMO524290 LWJ524192:LWK524290 MGF524192:MGG524290 MQB524192:MQC524290 MZX524192:MZY524290 NJT524192:NJU524290 NTP524192:NTQ524290 ODL524192:ODM524290 ONH524192:ONI524290 OXD524192:OXE524290 PGZ524192:PHA524290 PQV524192:PQW524290 QAR524192:QAS524290 QKN524192:QKO524290 QUJ524192:QUK524290 REF524192:REG524290 ROB524192:ROC524290 RXX524192:RXY524290 SHT524192:SHU524290 SRP524192:SRQ524290 TBL524192:TBM524290 TLH524192:TLI524290 TVD524192:TVE524290 UEZ524192:UFA524290 UOV524192:UOW524290 UYR524192:UYS524290 VIN524192:VIO524290 VSJ524192:VSK524290 WCF524192:WCG524290 WMB524192:WMC524290 WVX524192:WVY524290 P589728:Q589826 JL589728:JM589826 TH589728:TI589826 ADD589728:ADE589826 AMZ589728:ANA589826 AWV589728:AWW589826 BGR589728:BGS589826 BQN589728:BQO589826 CAJ589728:CAK589826 CKF589728:CKG589826 CUB589728:CUC589826 DDX589728:DDY589826 DNT589728:DNU589826 DXP589728:DXQ589826 EHL589728:EHM589826 ERH589728:ERI589826 FBD589728:FBE589826 FKZ589728:FLA589826 FUV589728:FUW589826 GER589728:GES589826 GON589728:GOO589826 GYJ589728:GYK589826 HIF589728:HIG589826 HSB589728:HSC589826 IBX589728:IBY589826 ILT589728:ILU589826 IVP589728:IVQ589826 JFL589728:JFM589826 JPH589728:JPI589826 JZD589728:JZE589826 KIZ589728:KJA589826 KSV589728:KSW589826 LCR589728:LCS589826 LMN589728:LMO589826 LWJ589728:LWK589826 MGF589728:MGG589826 MQB589728:MQC589826 MZX589728:MZY589826 NJT589728:NJU589826 NTP589728:NTQ589826 ODL589728:ODM589826 ONH589728:ONI589826 OXD589728:OXE589826 PGZ589728:PHA589826 PQV589728:PQW589826 QAR589728:QAS589826 QKN589728:QKO589826 QUJ589728:QUK589826 REF589728:REG589826 ROB589728:ROC589826 RXX589728:RXY589826 SHT589728:SHU589826 SRP589728:SRQ589826 TBL589728:TBM589826 TLH589728:TLI589826 TVD589728:TVE589826 UEZ589728:UFA589826 UOV589728:UOW589826 UYR589728:UYS589826 VIN589728:VIO589826 VSJ589728:VSK589826 WCF589728:WCG589826 WMB589728:WMC589826 WVX589728:WVY589826 P655264:Q655362 JL655264:JM655362 TH655264:TI655362 ADD655264:ADE655362 AMZ655264:ANA655362 AWV655264:AWW655362 BGR655264:BGS655362 BQN655264:BQO655362 CAJ655264:CAK655362 CKF655264:CKG655362 CUB655264:CUC655362 DDX655264:DDY655362 DNT655264:DNU655362 DXP655264:DXQ655362 EHL655264:EHM655362 ERH655264:ERI655362 FBD655264:FBE655362 FKZ655264:FLA655362 FUV655264:FUW655362 GER655264:GES655362 GON655264:GOO655362 GYJ655264:GYK655362 HIF655264:HIG655362 HSB655264:HSC655362 IBX655264:IBY655362 ILT655264:ILU655362 IVP655264:IVQ655362 JFL655264:JFM655362 JPH655264:JPI655362 JZD655264:JZE655362 KIZ655264:KJA655362 KSV655264:KSW655362 LCR655264:LCS655362 LMN655264:LMO655362 LWJ655264:LWK655362 MGF655264:MGG655362 MQB655264:MQC655362 MZX655264:MZY655362 NJT655264:NJU655362 NTP655264:NTQ655362 ODL655264:ODM655362 ONH655264:ONI655362 OXD655264:OXE655362 PGZ655264:PHA655362 PQV655264:PQW655362 QAR655264:QAS655362 QKN655264:QKO655362 QUJ655264:QUK655362 REF655264:REG655362 ROB655264:ROC655362 RXX655264:RXY655362 SHT655264:SHU655362 SRP655264:SRQ655362 TBL655264:TBM655362 TLH655264:TLI655362 TVD655264:TVE655362 UEZ655264:UFA655362 UOV655264:UOW655362 UYR655264:UYS655362 VIN655264:VIO655362 VSJ655264:VSK655362 WCF655264:WCG655362 WMB655264:WMC655362 WVX655264:WVY655362 P720800:Q720898 JL720800:JM720898 TH720800:TI720898 ADD720800:ADE720898 AMZ720800:ANA720898 AWV720800:AWW720898 BGR720800:BGS720898 BQN720800:BQO720898 CAJ720800:CAK720898 CKF720800:CKG720898 CUB720800:CUC720898 DDX720800:DDY720898 DNT720800:DNU720898 DXP720800:DXQ720898 EHL720800:EHM720898 ERH720800:ERI720898 FBD720800:FBE720898 FKZ720800:FLA720898 FUV720800:FUW720898 GER720800:GES720898 GON720800:GOO720898 GYJ720800:GYK720898 HIF720800:HIG720898 HSB720800:HSC720898 IBX720800:IBY720898 ILT720800:ILU720898 IVP720800:IVQ720898 JFL720800:JFM720898 JPH720800:JPI720898 JZD720800:JZE720898 KIZ720800:KJA720898 KSV720800:KSW720898 LCR720800:LCS720898 LMN720800:LMO720898 LWJ720800:LWK720898 MGF720800:MGG720898 MQB720800:MQC720898 MZX720800:MZY720898 NJT720800:NJU720898 NTP720800:NTQ720898 ODL720800:ODM720898 ONH720800:ONI720898 OXD720800:OXE720898 PGZ720800:PHA720898 PQV720800:PQW720898 QAR720800:QAS720898 QKN720800:QKO720898 QUJ720800:QUK720898 REF720800:REG720898 ROB720800:ROC720898 RXX720800:RXY720898 SHT720800:SHU720898 SRP720800:SRQ720898 TBL720800:TBM720898 TLH720800:TLI720898 TVD720800:TVE720898 UEZ720800:UFA720898 UOV720800:UOW720898 UYR720800:UYS720898 VIN720800:VIO720898 VSJ720800:VSK720898 WCF720800:WCG720898 WMB720800:WMC720898 WVX720800:WVY720898 P786336:Q786434 JL786336:JM786434 TH786336:TI786434 ADD786336:ADE786434 AMZ786336:ANA786434 AWV786336:AWW786434 BGR786336:BGS786434 BQN786336:BQO786434 CAJ786336:CAK786434 CKF786336:CKG786434 CUB786336:CUC786434 DDX786336:DDY786434 DNT786336:DNU786434 DXP786336:DXQ786434 EHL786336:EHM786434 ERH786336:ERI786434 FBD786336:FBE786434 FKZ786336:FLA786434 FUV786336:FUW786434 GER786336:GES786434 GON786336:GOO786434 GYJ786336:GYK786434 HIF786336:HIG786434 HSB786336:HSC786434 IBX786336:IBY786434 ILT786336:ILU786434 IVP786336:IVQ786434 JFL786336:JFM786434 JPH786336:JPI786434 JZD786336:JZE786434 KIZ786336:KJA786434 KSV786336:KSW786434 LCR786336:LCS786434 LMN786336:LMO786434 LWJ786336:LWK786434 MGF786336:MGG786434 MQB786336:MQC786434 MZX786336:MZY786434 NJT786336:NJU786434 NTP786336:NTQ786434 ODL786336:ODM786434 ONH786336:ONI786434 OXD786336:OXE786434 PGZ786336:PHA786434 PQV786336:PQW786434 QAR786336:QAS786434 QKN786336:QKO786434 QUJ786336:QUK786434 REF786336:REG786434 ROB786336:ROC786434 RXX786336:RXY786434 SHT786336:SHU786434 SRP786336:SRQ786434 TBL786336:TBM786434 TLH786336:TLI786434 TVD786336:TVE786434 UEZ786336:UFA786434 UOV786336:UOW786434 UYR786336:UYS786434 VIN786336:VIO786434 VSJ786336:VSK786434 WCF786336:WCG786434 WMB786336:WMC786434 WVX786336:WVY786434 P851872:Q851970 JL851872:JM851970 TH851872:TI851970 ADD851872:ADE851970 AMZ851872:ANA851970 AWV851872:AWW851970 BGR851872:BGS851970 BQN851872:BQO851970 CAJ851872:CAK851970 CKF851872:CKG851970 CUB851872:CUC851970 DDX851872:DDY851970 DNT851872:DNU851970 DXP851872:DXQ851970 EHL851872:EHM851970 ERH851872:ERI851970 FBD851872:FBE851970 FKZ851872:FLA851970 FUV851872:FUW851970 GER851872:GES851970 GON851872:GOO851970 GYJ851872:GYK851970 HIF851872:HIG851970 HSB851872:HSC851970 IBX851872:IBY851970 ILT851872:ILU851970 IVP851872:IVQ851970 JFL851872:JFM851970 JPH851872:JPI851970 JZD851872:JZE851970 KIZ851872:KJA851970 KSV851872:KSW851970 LCR851872:LCS851970 LMN851872:LMO851970 LWJ851872:LWK851970 MGF851872:MGG851970 MQB851872:MQC851970 MZX851872:MZY851970 NJT851872:NJU851970 NTP851872:NTQ851970 ODL851872:ODM851970 ONH851872:ONI851970 OXD851872:OXE851970 PGZ851872:PHA851970 PQV851872:PQW851970 QAR851872:QAS851970 QKN851872:QKO851970 QUJ851872:QUK851970 REF851872:REG851970 ROB851872:ROC851970 RXX851872:RXY851970 SHT851872:SHU851970 SRP851872:SRQ851970 TBL851872:TBM851970 TLH851872:TLI851970 TVD851872:TVE851970 UEZ851872:UFA851970 UOV851872:UOW851970 UYR851872:UYS851970 VIN851872:VIO851970 VSJ851872:VSK851970 WCF851872:WCG851970 WMB851872:WMC851970 WVX851872:WVY851970 P917408:Q917506 JL917408:JM917506 TH917408:TI917506 ADD917408:ADE917506 AMZ917408:ANA917506 AWV917408:AWW917506 BGR917408:BGS917506 BQN917408:BQO917506 CAJ917408:CAK917506 CKF917408:CKG917506 CUB917408:CUC917506 DDX917408:DDY917506 DNT917408:DNU917506 DXP917408:DXQ917506 EHL917408:EHM917506 ERH917408:ERI917506 FBD917408:FBE917506 FKZ917408:FLA917506 FUV917408:FUW917506 GER917408:GES917506 GON917408:GOO917506 GYJ917408:GYK917506 HIF917408:HIG917506 HSB917408:HSC917506 IBX917408:IBY917506 ILT917408:ILU917506 IVP917408:IVQ917506 JFL917408:JFM917506 JPH917408:JPI917506 JZD917408:JZE917506 KIZ917408:KJA917506 KSV917408:KSW917506 LCR917408:LCS917506 LMN917408:LMO917506 LWJ917408:LWK917506 MGF917408:MGG917506 MQB917408:MQC917506 MZX917408:MZY917506 NJT917408:NJU917506 NTP917408:NTQ917506 ODL917408:ODM917506 ONH917408:ONI917506 OXD917408:OXE917506 PGZ917408:PHA917506 PQV917408:PQW917506 QAR917408:QAS917506 QKN917408:QKO917506 QUJ917408:QUK917506 REF917408:REG917506 ROB917408:ROC917506 RXX917408:RXY917506 SHT917408:SHU917506 SRP917408:SRQ917506 TBL917408:TBM917506 TLH917408:TLI917506 TVD917408:TVE917506 UEZ917408:UFA917506 UOV917408:UOW917506 UYR917408:UYS917506 VIN917408:VIO917506 VSJ917408:VSK917506 WCF917408:WCG917506 WMB917408:WMC917506 WVX917408:WVY917506 P982944:Q983042 JL982944:JM983042 TH982944:TI983042 ADD982944:ADE983042 AMZ982944:ANA983042 AWV982944:AWW983042 BGR982944:BGS983042 BQN982944:BQO983042 CAJ982944:CAK983042 CKF982944:CKG983042 CUB982944:CUC983042 DDX982944:DDY983042 DNT982944:DNU983042 DXP982944:DXQ983042 EHL982944:EHM983042 ERH982944:ERI983042 FBD982944:FBE983042 FKZ982944:FLA983042 FUV982944:FUW983042 GER982944:GES983042 GON982944:GOO983042 GYJ982944:GYK983042 HIF982944:HIG983042 HSB982944:HSC983042 IBX982944:IBY983042 ILT982944:ILU983042 IVP982944:IVQ983042 JFL982944:JFM983042 JPH982944:JPI983042 JZD982944:JZE983042 KIZ982944:KJA983042 KSV982944:KSW983042 LCR982944:LCS983042 LMN982944:LMO983042 LWJ982944:LWK983042 MGF982944:MGG983042 MQB982944:MQC983042 MZX982944:MZY983042 NJT982944:NJU983042 NTP982944:NTQ983042 ODL982944:ODM983042 ONH982944:ONI983042 OXD982944:OXE983042 PGZ982944:PHA983042 PQV982944:PQW983042 QAR982944:QAS983042 QKN982944:QKO983042 QUJ982944:QUK983042 REF982944:REG983042 ROB982944:ROC983042 RXX982944:RXY983042 SHT982944:SHU983042 SRP982944:SRQ983042 TBL982944:TBM983042 TLH982944:TLI983042 TVD982944:TVE983042 UEZ982944:UFA983042 UOV982944:UOW983042 UYR982944:UYS983042 VIN982944:VIO983042 VSJ982944:VSK983042 WCF982944:WCG983042 WMB982944:WMC983042 WVX982944:WVY983042" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 JG2 TC2 ACY2 AMU2 AWQ2 BGM2 BQI2 CAE2 CKA2 CTW2 DDS2 DNO2 DXK2 EHG2 ERC2 FAY2 FKU2 FUQ2 GEM2 GOI2 GYE2 HIA2 HRW2 IBS2 ILO2 IVK2 JFG2 JPC2 JYY2 KIU2 KSQ2 LCM2 LMI2 LWE2 MGA2 MPW2 MZS2 NJO2 NTK2 ODG2 ONC2 OWY2 PGU2 PQQ2 QAM2 QKI2 QUE2 REA2 RNW2 RXS2 SHO2 SRK2 TBG2 TLC2 TUY2 UEU2 UOQ2 UYM2 VII2 VSE2 WCA2 WLW2 WVS2 K65440:K65538 JG65440:JG65538 TC65440:TC65538 ACY65440:ACY65538 AMU65440:AMU65538 AWQ65440:AWQ65538 BGM65440:BGM65538 BQI65440:BQI65538 CAE65440:CAE65538 CKA65440:CKA65538 CTW65440:CTW65538 DDS65440:DDS65538 DNO65440:DNO65538 DXK65440:DXK65538 EHG65440:EHG65538 ERC65440:ERC65538 FAY65440:FAY65538 FKU65440:FKU65538 FUQ65440:FUQ65538 GEM65440:GEM65538 GOI65440:GOI65538 GYE65440:GYE65538 HIA65440:HIA65538 HRW65440:HRW65538 IBS65440:IBS65538 ILO65440:ILO65538 IVK65440:IVK65538 JFG65440:JFG65538 JPC65440:JPC65538 JYY65440:JYY65538 KIU65440:KIU65538 KSQ65440:KSQ65538 LCM65440:LCM65538 LMI65440:LMI65538 LWE65440:LWE65538 MGA65440:MGA65538 MPW65440:MPW65538 MZS65440:MZS65538 NJO65440:NJO65538 NTK65440:NTK65538 ODG65440:ODG65538 ONC65440:ONC65538 OWY65440:OWY65538 PGU65440:PGU65538 PQQ65440:PQQ65538 QAM65440:QAM65538 QKI65440:QKI65538 QUE65440:QUE65538 REA65440:REA65538 RNW65440:RNW65538 RXS65440:RXS65538 SHO65440:SHO65538 SRK65440:SRK65538 TBG65440:TBG65538 TLC65440:TLC65538 TUY65440:TUY65538 UEU65440:UEU65538 UOQ65440:UOQ65538 UYM65440:UYM65538 VII65440:VII65538 VSE65440:VSE65538 WCA65440:WCA65538 WLW65440:WLW65538 WVS65440:WVS65538 K130976:K131074 JG130976:JG131074 TC130976:TC131074 ACY130976:ACY131074 AMU130976:AMU131074 AWQ130976:AWQ131074 BGM130976:BGM131074 BQI130976:BQI131074 CAE130976:CAE131074 CKA130976:CKA131074 CTW130976:CTW131074 DDS130976:DDS131074 DNO130976:DNO131074 DXK130976:DXK131074 EHG130976:EHG131074 ERC130976:ERC131074 FAY130976:FAY131074 FKU130976:FKU131074 FUQ130976:FUQ131074 GEM130976:GEM131074 GOI130976:GOI131074 GYE130976:GYE131074 HIA130976:HIA131074 HRW130976:HRW131074 IBS130976:IBS131074 ILO130976:ILO131074 IVK130976:IVK131074 JFG130976:JFG131074 JPC130976:JPC131074 JYY130976:JYY131074 KIU130976:KIU131074 KSQ130976:KSQ131074 LCM130976:LCM131074 LMI130976:LMI131074 LWE130976:LWE131074 MGA130976:MGA131074 MPW130976:MPW131074 MZS130976:MZS131074 NJO130976:NJO131074 NTK130976:NTK131074 ODG130976:ODG131074 ONC130976:ONC131074 OWY130976:OWY131074 PGU130976:PGU131074 PQQ130976:PQQ131074 QAM130976:QAM131074 QKI130976:QKI131074 QUE130976:QUE131074 REA130976:REA131074 RNW130976:RNW131074 RXS130976:RXS131074 SHO130976:SHO131074 SRK130976:SRK131074 TBG130976:TBG131074 TLC130976:TLC131074 TUY130976:TUY131074 UEU130976:UEU131074 UOQ130976:UOQ131074 UYM130976:UYM131074 VII130976:VII131074 VSE130976:VSE131074 WCA130976:WCA131074 WLW130976:WLW131074 WVS130976:WVS131074 K196512:K196610 JG196512:JG196610 TC196512:TC196610 ACY196512:ACY196610 AMU196512:AMU196610 AWQ196512:AWQ196610 BGM196512:BGM196610 BQI196512:BQI196610 CAE196512:CAE196610 CKA196512:CKA196610 CTW196512:CTW196610 DDS196512:DDS196610 DNO196512:DNO196610 DXK196512:DXK196610 EHG196512:EHG196610 ERC196512:ERC196610 FAY196512:FAY196610 FKU196512:FKU196610 FUQ196512:FUQ196610 GEM196512:GEM196610 GOI196512:GOI196610 GYE196512:GYE196610 HIA196512:HIA196610 HRW196512:HRW196610 IBS196512:IBS196610 ILO196512:ILO196610 IVK196512:IVK196610 JFG196512:JFG196610 JPC196512:JPC196610 JYY196512:JYY196610 KIU196512:KIU196610 KSQ196512:KSQ196610 LCM196512:LCM196610 LMI196512:LMI196610 LWE196512:LWE196610 MGA196512:MGA196610 MPW196512:MPW196610 MZS196512:MZS196610 NJO196512:NJO196610 NTK196512:NTK196610 ODG196512:ODG196610 ONC196512:ONC196610 OWY196512:OWY196610 PGU196512:PGU196610 PQQ196512:PQQ196610 QAM196512:QAM196610 QKI196512:QKI196610 QUE196512:QUE196610 REA196512:REA196610 RNW196512:RNW196610 RXS196512:RXS196610 SHO196512:SHO196610 SRK196512:SRK196610 TBG196512:TBG196610 TLC196512:TLC196610 TUY196512:TUY196610 UEU196512:UEU196610 UOQ196512:UOQ196610 UYM196512:UYM196610 VII196512:VII196610 VSE196512:VSE196610 WCA196512:WCA196610 WLW196512:WLW196610 WVS196512:WVS196610 K262048:K262146 JG262048:JG262146 TC262048:TC262146 ACY262048:ACY262146 AMU262048:AMU262146 AWQ262048:AWQ262146 BGM262048:BGM262146 BQI262048:BQI262146 CAE262048:CAE262146 CKA262048:CKA262146 CTW262048:CTW262146 DDS262048:DDS262146 DNO262048:DNO262146 DXK262048:DXK262146 EHG262048:EHG262146 ERC262048:ERC262146 FAY262048:FAY262146 FKU262048:FKU262146 FUQ262048:FUQ262146 GEM262048:GEM262146 GOI262048:GOI262146 GYE262048:GYE262146 HIA262048:HIA262146 HRW262048:HRW262146 IBS262048:IBS262146 ILO262048:ILO262146 IVK262048:IVK262146 JFG262048:JFG262146 JPC262048:JPC262146 JYY262048:JYY262146 KIU262048:KIU262146 KSQ262048:KSQ262146 LCM262048:LCM262146 LMI262048:LMI262146 LWE262048:LWE262146 MGA262048:MGA262146 MPW262048:MPW262146 MZS262048:MZS262146 NJO262048:NJO262146 NTK262048:NTK262146 ODG262048:ODG262146 ONC262048:ONC262146 OWY262048:OWY262146 PGU262048:PGU262146 PQQ262048:PQQ262146 QAM262048:QAM262146 QKI262048:QKI262146 QUE262048:QUE262146 REA262048:REA262146 RNW262048:RNW262146 RXS262048:RXS262146 SHO262048:SHO262146 SRK262048:SRK262146 TBG262048:TBG262146 TLC262048:TLC262146 TUY262048:TUY262146 UEU262048:UEU262146 UOQ262048:UOQ262146 UYM262048:UYM262146 VII262048:VII262146 VSE262048:VSE262146 WCA262048:WCA262146 WLW262048:WLW262146 WVS262048:WVS262146 K327584:K327682 JG327584:JG327682 TC327584:TC327682 ACY327584:ACY327682 AMU327584:AMU327682 AWQ327584:AWQ327682 BGM327584:BGM327682 BQI327584:BQI327682 CAE327584:CAE327682 CKA327584:CKA327682 CTW327584:CTW327682 DDS327584:DDS327682 DNO327584:DNO327682 DXK327584:DXK327682 EHG327584:EHG327682 ERC327584:ERC327682 FAY327584:FAY327682 FKU327584:FKU327682 FUQ327584:FUQ327682 GEM327584:GEM327682 GOI327584:GOI327682 GYE327584:GYE327682 HIA327584:HIA327682 HRW327584:HRW327682 IBS327584:IBS327682 ILO327584:ILO327682 IVK327584:IVK327682 JFG327584:JFG327682 JPC327584:JPC327682 JYY327584:JYY327682 KIU327584:KIU327682 KSQ327584:KSQ327682 LCM327584:LCM327682 LMI327584:LMI327682 LWE327584:LWE327682 MGA327584:MGA327682 MPW327584:MPW327682 MZS327584:MZS327682 NJO327584:NJO327682 NTK327584:NTK327682 ODG327584:ODG327682 ONC327584:ONC327682 OWY327584:OWY327682 PGU327584:PGU327682 PQQ327584:PQQ327682 QAM327584:QAM327682 QKI327584:QKI327682 QUE327584:QUE327682 REA327584:REA327682 RNW327584:RNW327682 RXS327584:RXS327682 SHO327584:SHO327682 SRK327584:SRK327682 TBG327584:TBG327682 TLC327584:TLC327682 TUY327584:TUY327682 UEU327584:UEU327682 UOQ327584:UOQ327682 UYM327584:UYM327682 VII327584:VII327682 VSE327584:VSE327682 WCA327584:WCA327682 WLW327584:WLW327682 WVS327584:WVS327682 K393120:K393218 JG393120:JG393218 TC393120:TC393218 ACY393120:ACY393218 AMU393120:AMU393218 AWQ393120:AWQ393218 BGM393120:BGM393218 BQI393120:BQI393218 CAE393120:CAE393218 CKA393120:CKA393218 CTW393120:CTW393218 DDS393120:DDS393218 DNO393120:DNO393218 DXK393120:DXK393218 EHG393120:EHG393218 ERC393120:ERC393218 FAY393120:FAY393218 FKU393120:FKU393218 FUQ393120:FUQ393218 GEM393120:GEM393218 GOI393120:GOI393218 GYE393120:GYE393218 HIA393120:HIA393218 HRW393120:HRW393218 IBS393120:IBS393218 ILO393120:ILO393218 IVK393120:IVK393218 JFG393120:JFG393218 JPC393120:JPC393218 JYY393120:JYY393218 KIU393120:KIU393218 KSQ393120:KSQ393218 LCM393120:LCM393218 LMI393120:LMI393218 LWE393120:LWE393218 MGA393120:MGA393218 MPW393120:MPW393218 MZS393120:MZS393218 NJO393120:NJO393218 NTK393120:NTK393218 ODG393120:ODG393218 ONC393120:ONC393218 OWY393120:OWY393218 PGU393120:PGU393218 PQQ393120:PQQ393218 QAM393120:QAM393218 QKI393120:QKI393218 QUE393120:QUE393218 REA393120:REA393218 RNW393120:RNW393218 RXS393120:RXS393218 SHO393120:SHO393218 SRK393120:SRK393218 TBG393120:TBG393218 TLC393120:TLC393218 TUY393120:TUY393218 UEU393120:UEU393218 UOQ393120:UOQ393218 UYM393120:UYM393218 VII393120:VII393218 VSE393120:VSE393218 WCA393120:WCA393218 WLW393120:WLW393218 WVS393120:WVS393218 K458656:K458754 JG458656:JG458754 TC458656:TC458754 ACY458656:ACY458754 AMU458656:AMU458754 AWQ458656:AWQ458754 BGM458656:BGM458754 BQI458656:BQI458754 CAE458656:CAE458754 CKA458656:CKA458754 CTW458656:CTW458754 DDS458656:DDS458754 DNO458656:DNO458754 DXK458656:DXK458754 EHG458656:EHG458754 ERC458656:ERC458754 FAY458656:FAY458754 FKU458656:FKU458754 FUQ458656:FUQ458754 GEM458656:GEM458754 GOI458656:GOI458754 GYE458656:GYE458754 HIA458656:HIA458754 HRW458656:HRW458754 IBS458656:IBS458754 ILO458656:ILO458754 IVK458656:IVK458754 JFG458656:JFG458754 JPC458656:JPC458754 JYY458656:JYY458754 KIU458656:KIU458754 KSQ458656:KSQ458754 LCM458656:LCM458754 LMI458656:LMI458754 LWE458656:LWE458754 MGA458656:MGA458754 MPW458656:MPW458754 MZS458656:MZS458754 NJO458656:NJO458754 NTK458656:NTK458754 ODG458656:ODG458754 ONC458656:ONC458754 OWY458656:OWY458754 PGU458656:PGU458754 PQQ458656:PQQ458754 QAM458656:QAM458754 QKI458656:QKI458754 QUE458656:QUE458754 REA458656:REA458754 RNW458656:RNW458754 RXS458656:RXS458754 SHO458656:SHO458754 SRK458656:SRK458754 TBG458656:TBG458754 TLC458656:TLC458754 TUY458656:TUY458754 UEU458656:UEU458754 UOQ458656:UOQ458754 UYM458656:UYM458754 VII458656:VII458754 VSE458656:VSE458754 WCA458656:WCA458754 WLW458656:WLW458754 WVS458656:WVS458754 K524192:K524290 JG524192:JG524290 TC524192:TC524290 ACY524192:ACY524290 AMU524192:AMU524290 AWQ524192:AWQ524290 BGM524192:BGM524290 BQI524192:BQI524290 CAE524192:CAE524290 CKA524192:CKA524290 CTW524192:CTW524290 DDS524192:DDS524290 DNO524192:DNO524290 DXK524192:DXK524290 EHG524192:EHG524290 ERC524192:ERC524290 FAY524192:FAY524290 FKU524192:FKU524290 FUQ524192:FUQ524290 GEM524192:GEM524290 GOI524192:GOI524290 GYE524192:GYE524290 HIA524192:HIA524290 HRW524192:HRW524290 IBS524192:IBS524290 ILO524192:ILO524290 IVK524192:IVK524290 JFG524192:JFG524290 JPC524192:JPC524290 JYY524192:JYY524290 KIU524192:KIU524290 KSQ524192:KSQ524290 LCM524192:LCM524290 LMI524192:LMI524290 LWE524192:LWE524290 MGA524192:MGA524290 MPW524192:MPW524290 MZS524192:MZS524290 NJO524192:NJO524290 NTK524192:NTK524290 ODG524192:ODG524290 ONC524192:ONC524290 OWY524192:OWY524290 PGU524192:PGU524290 PQQ524192:PQQ524290 QAM524192:QAM524290 QKI524192:QKI524290 QUE524192:QUE524290 REA524192:REA524290 RNW524192:RNW524290 RXS524192:RXS524290 SHO524192:SHO524290 SRK524192:SRK524290 TBG524192:TBG524290 TLC524192:TLC524290 TUY524192:TUY524290 UEU524192:UEU524290 UOQ524192:UOQ524290 UYM524192:UYM524290 VII524192:VII524290 VSE524192:VSE524290 WCA524192:WCA524290 WLW524192:WLW524290 WVS524192:WVS524290 K589728:K589826 JG589728:JG589826 TC589728:TC589826 ACY589728:ACY589826 AMU589728:AMU589826 AWQ589728:AWQ589826 BGM589728:BGM589826 BQI589728:BQI589826 CAE589728:CAE589826 CKA589728:CKA589826 CTW589728:CTW589826 DDS589728:DDS589826 DNO589728:DNO589826 DXK589728:DXK589826 EHG589728:EHG589826 ERC589728:ERC589826 FAY589728:FAY589826 FKU589728:FKU589826 FUQ589728:FUQ589826 GEM589728:GEM589826 GOI589728:GOI589826 GYE589728:GYE589826 HIA589728:HIA589826 HRW589728:HRW589826 IBS589728:IBS589826 ILO589728:ILO589826 IVK589728:IVK589826 JFG589728:JFG589826 JPC589728:JPC589826 JYY589728:JYY589826 KIU589728:KIU589826 KSQ589728:KSQ589826 LCM589728:LCM589826 LMI589728:LMI589826 LWE589728:LWE589826 MGA589728:MGA589826 MPW589728:MPW589826 MZS589728:MZS589826 NJO589728:NJO589826 NTK589728:NTK589826 ODG589728:ODG589826 ONC589728:ONC589826 OWY589728:OWY589826 PGU589728:PGU589826 PQQ589728:PQQ589826 QAM589728:QAM589826 QKI589728:QKI589826 QUE589728:QUE589826 REA589728:REA589826 RNW589728:RNW589826 RXS589728:RXS589826 SHO589728:SHO589826 SRK589728:SRK589826 TBG589728:TBG589826 TLC589728:TLC589826 TUY589728:TUY589826 UEU589728:UEU589826 UOQ589728:UOQ589826 UYM589728:UYM589826 VII589728:VII589826 VSE589728:VSE589826 WCA589728:WCA589826 WLW589728:WLW589826 WVS589728:WVS589826 K655264:K655362 JG655264:JG655362 TC655264:TC655362 ACY655264:ACY655362 AMU655264:AMU655362 AWQ655264:AWQ655362 BGM655264:BGM655362 BQI655264:BQI655362 CAE655264:CAE655362 CKA655264:CKA655362 CTW655264:CTW655362 DDS655264:DDS655362 DNO655264:DNO655362 DXK655264:DXK655362 EHG655264:EHG655362 ERC655264:ERC655362 FAY655264:FAY655362 FKU655264:FKU655362 FUQ655264:FUQ655362 GEM655264:GEM655362 GOI655264:GOI655362 GYE655264:GYE655362 HIA655264:HIA655362 HRW655264:HRW655362 IBS655264:IBS655362 ILO655264:ILO655362 IVK655264:IVK655362 JFG655264:JFG655362 JPC655264:JPC655362 JYY655264:JYY655362 KIU655264:KIU655362 KSQ655264:KSQ655362 LCM655264:LCM655362 LMI655264:LMI655362 LWE655264:LWE655362 MGA655264:MGA655362 MPW655264:MPW655362 MZS655264:MZS655362 NJO655264:NJO655362 NTK655264:NTK655362 ODG655264:ODG655362 ONC655264:ONC655362 OWY655264:OWY655362 PGU655264:PGU655362 PQQ655264:PQQ655362 QAM655264:QAM655362 QKI655264:QKI655362 QUE655264:QUE655362 REA655264:REA655362 RNW655264:RNW655362 RXS655264:RXS655362 SHO655264:SHO655362 SRK655264:SRK655362 TBG655264:TBG655362 TLC655264:TLC655362 TUY655264:TUY655362 UEU655264:UEU655362 UOQ655264:UOQ655362 UYM655264:UYM655362 VII655264:VII655362 VSE655264:VSE655362 WCA655264:WCA655362 WLW655264:WLW655362 WVS655264:WVS655362 K720800:K720898 JG720800:JG720898 TC720800:TC720898 ACY720800:ACY720898 AMU720800:AMU720898 AWQ720800:AWQ720898 BGM720800:BGM720898 BQI720800:BQI720898 CAE720800:CAE720898 CKA720800:CKA720898 CTW720800:CTW720898 DDS720800:DDS720898 DNO720800:DNO720898 DXK720800:DXK720898 EHG720800:EHG720898 ERC720800:ERC720898 FAY720800:FAY720898 FKU720800:FKU720898 FUQ720800:FUQ720898 GEM720800:GEM720898 GOI720800:GOI720898 GYE720800:GYE720898 HIA720800:HIA720898 HRW720800:HRW720898 IBS720800:IBS720898 ILO720800:ILO720898 IVK720800:IVK720898 JFG720800:JFG720898 JPC720800:JPC720898 JYY720800:JYY720898 KIU720800:KIU720898 KSQ720800:KSQ720898 LCM720800:LCM720898 LMI720800:LMI720898 LWE720800:LWE720898 MGA720800:MGA720898 MPW720800:MPW720898 MZS720800:MZS720898 NJO720800:NJO720898 NTK720800:NTK720898 ODG720800:ODG720898 ONC720800:ONC720898 OWY720800:OWY720898 PGU720800:PGU720898 PQQ720800:PQQ720898 QAM720800:QAM720898 QKI720800:QKI720898 QUE720800:QUE720898 REA720800:REA720898 RNW720800:RNW720898 RXS720800:RXS720898 SHO720800:SHO720898 SRK720800:SRK720898 TBG720800:TBG720898 TLC720800:TLC720898 TUY720800:TUY720898 UEU720800:UEU720898 UOQ720800:UOQ720898 UYM720800:UYM720898 VII720800:VII720898 VSE720800:VSE720898 WCA720800:WCA720898 WLW720800:WLW720898 WVS720800:WVS720898 K786336:K786434 JG786336:JG786434 TC786336:TC786434 ACY786336:ACY786434 AMU786336:AMU786434 AWQ786336:AWQ786434 BGM786336:BGM786434 BQI786336:BQI786434 CAE786336:CAE786434 CKA786336:CKA786434 CTW786336:CTW786434 DDS786336:DDS786434 DNO786336:DNO786434 DXK786336:DXK786434 EHG786336:EHG786434 ERC786336:ERC786434 FAY786336:FAY786434 FKU786336:FKU786434 FUQ786336:FUQ786434 GEM786336:GEM786434 GOI786336:GOI786434 GYE786336:GYE786434 HIA786336:HIA786434 HRW786336:HRW786434 IBS786336:IBS786434 ILO786336:ILO786434 IVK786336:IVK786434 JFG786336:JFG786434 JPC786336:JPC786434 JYY786336:JYY786434 KIU786336:KIU786434 KSQ786336:KSQ786434 LCM786336:LCM786434 LMI786336:LMI786434 LWE786336:LWE786434 MGA786336:MGA786434 MPW786336:MPW786434 MZS786336:MZS786434 NJO786336:NJO786434 NTK786336:NTK786434 ODG786336:ODG786434 ONC786336:ONC786434 OWY786336:OWY786434 PGU786336:PGU786434 PQQ786336:PQQ786434 QAM786336:QAM786434 QKI786336:QKI786434 QUE786336:QUE786434 REA786336:REA786434 RNW786336:RNW786434 RXS786336:RXS786434 SHO786336:SHO786434 SRK786336:SRK786434 TBG786336:TBG786434 TLC786336:TLC786434 TUY786336:TUY786434 UEU786336:UEU786434 UOQ786336:UOQ786434 UYM786336:UYM786434 VII786336:VII786434 VSE786336:VSE786434 WCA786336:WCA786434 WLW786336:WLW786434 WVS786336:WVS786434 K851872:K851970 JG851872:JG851970 TC851872:TC851970 ACY851872:ACY851970 AMU851872:AMU851970 AWQ851872:AWQ851970 BGM851872:BGM851970 BQI851872:BQI851970 CAE851872:CAE851970 CKA851872:CKA851970 CTW851872:CTW851970 DDS851872:DDS851970 DNO851872:DNO851970 DXK851872:DXK851970 EHG851872:EHG851970 ERC851872:ERC851970 FAY851872:FAY851970 FKU851872:FKU851970 FUQ851872:FUQ851970 GEM851872:GEM851970 GOI851872:GOI851970 GYE851872:GYE851970 HIA851872:HIA851970 HRW851872:HRW851970 IBS851872:IBS851970 ILO851872:ILO851970 IVK851872:IVK851970 JFG851872:JFG851970 JPC851872:JPC851970 JYY851872:JYY851970 KIU851872:KIU851970 KSQ851872:KSQ851970 LCM851872:LCM851970 LMI851872:LMI851970 LWE851872:LWE851970 MGA851872:MGA851970 MPW851872:MPW851970 MZS851872:MZS851970 NJO851872:NJO851970 NTK851872:NTK851970 ODG851872:ODG851970 ONC851872:ONC851970 OWY851872:OWY851970 PGU851872:PGU851970 PQQ851872:PQQ851970 QAM851872:QAM851970 QKI851872:QKI851970 QUE851872:QUE851970 REA851872:REA851970 RNW851872:RNW851970 RXS851872:RXS851970 SHO851872:SHO851970 SRK851872:SRK851970 TBG851872:TBG851970 TLC851872:TLC851970 TUY851872:TUY851970 UEU851872:UEU851970 UOQ851872:UOQ851970 UYM851872:UYM851970 VII851872:VII851970 VSE851872:VSE851970 WCA851872:WCA851970 WLW851872:WLW851970 WVS851872:WVS851970 K917408:K917506 JG917408:JG917506 TC917408:TC917506 ACY917408:ACY917506 AMU917408:AMU917506 AWQ917408:AWQ917506 BGM917408:BGM917506 BQI917408:BQI917506 CAE917408:CAE917506 CKA917408:CKA917506 CTW917408:CTW917506 DDS917408:DDS917506 DNO917408:DNO917506 DXK917408:DXK917506 EHG917408:EHG917506 ERC917408:ERC917506 FAY917408:FAY917506 FKU917408:FKU917506 FUQ917408:FUQ917506 GEM917408:GEM917506 GOI917408:GOI917506 GYE917408:GYE917506 HIA917408:HIA917506 HRW917408:HRW917506 IBS917408:IBS917506 ILO917408:ILO917506 IVK917408:IVK917506 JFG917408:JFG917506 JPC917408:JPC917506 JYY917408:JYY917506 KIU917408:KIU917506 KSQ917408:KSQ917506 LCM917408:LCM917506 LMI917408:LMI917506 LWE917408:LWE917506 MGA917408:MGA917506 MPW917408:MPW917506 MZS917408:MZS917506 NJO917408:NJO917506 NTK917408:NTK917506 ODG917408:ODG917506 ONC917408:ONC917506 OWY917408:OWY917506 PGU917408:PGU917506 PQQ917408:PQQ917506 QAM917408:QAM917506 QKI917408:QKI917506 QUE917408:QUE917506 REA917408:REA917506 RNW917408:RNW917506 RXS917408:RXS917506 SHO917408:SHO917506 SRK917408:SRK917506 TBG917408:TBG917506 TLC917408:TLC917506 TUY917408:TUY917506 UEU917408:UEU917506 UOQ917408:UOQ917506 UYM917408:UYM917506 VII917408:VII917506 VSE917408:VSE917506 WCA917408:WCA917506 WLW917408:WLW917506 WVS917408:WVS917506 K982944:K983042 JG982944:JG983042 TC982944:TC983042 ACY982944:ACY983042 AMU982944:AMU983042 AWQ982944:AWQ983042 BGM982944:BGM983042 BQI982944:BQI983042 CAE982944:CAE983042 CKA982944:CKA983042 CTW982944:CTW983042 DDS982944:DDS983042 DNO982944:DNO983042 DXK982944:DXK983042 EHG982944:EHG983042 ERC982944:ERC983042 FAY982944:FAY983042 FKU982944:FKU983042 FUQ982944:FUQ983042 GEM982944:GEM983042 GOI982944:GOI983042 GYE982944:GYE983042 HIA982944:HIA983042 HRW982944:HRW983042 IBS982944:IBS983042 ILO982944:ILO983042 IVK982944:IVK983042 JFG982944:JFG983042 JPC982944:JPC983042 JYY982944:JYY983042 KIU982944:KIU983042 KSQ982944:KSQ983042 LCM982944:LCM983042 LMI982944:LMI983042 LWE982944:LWE983042 MGA982944:MGA983042 MPW982944:MPW983042 MZS982944:MZS983042 NJO982944:NJO983042 NTK982944:NTK983042 ODG982944:ODG983042 ONC982944:ONC983042 OWY982944:OWY983042 PGU982944:PGU983042 PQQ982944:PQQ983042 QAM982944:QAM983042 QKI982944:QKI983042 QUE982944:QUE983042 REA982944:REA983042 RNW982944:RNW983042 RXS982944:RXS983042 SHO982944:SHO983042 SRK982944:SRK983042 TBG982944:TBG983042 TLC982944:TLC983042 TUY982944:TUY983042 UEU982944:UEU983042 UOQ982944:UOQ983042 UYM982944:UYM983042 VII982944:VII983042 VSE982944:VSE983042 WCA982944:WCA983042 WLW982944:WLW983042 WVS982944:WVS983042 R2:S2 JN2:JO2 TJ2:TK2 ADF2:ADG2 ANB2:ANC2 AWX2:AWY2 BGT2:BGU2 BQP2:BQQ2 CAL2:CAM2 CKH2:CKI2 CUD2:CUE2 DDZ2:DEA2 DNV2:DNW2 DXR2:DXS2 EHN2:EHO2 ERJ2:ERK2 FBF2:FBG2 FLB2:FLC2 FUX2:FUY2 GET2:GEU2 GOP2:GOQ2 GYL2:GYM2 HIH2:HII2 HSD2:HSE2 IBZ2:ICA2 ILV2:ILW2 IVR2:IVS2 JFN2:JFO2 JPJ2:JPK2 JZF2:JZG2 KJB2:KJC2 KSX2:KSY2 LCT2:LCU2 LMP2:LMQ2 LWL2:LWM2 MGH2:MGI2 MQD2:MQE2 MZZ2:NAA2 NJV2:NJW2 NTR2:NTS2 ODN2:ODO2 ONJ2:ONK2 OXF2:OXG2 PHB2:PHC2 PQX2:PQY2 QAT2:QAU2 QKP2:QKQ2 QUL2:QUM2 REH2:REI2 ROD2:ROE2 RXZ2:RYA2 SHV2:SHW2 SRR2:SRS2 TBN2:TBO2 TLJ2:TLK2 TVF2:TVG2 UFB2:UFC2 UOX2:UOY2 UYT2:UYU2 VIP2:VIQ2 VSL2:VSM2 WCH2:WCI2 WMD2:WME2 WVZ2:WWA2 R65440:S65538 JN65440:JO65538 TJ65440:TK65538 ADF65440:ADG65538 ANB65440:ANC65538 AWX65440:AWY65538 BGT65440:BGU65538 BQP65440:BQQ65538 CAL65440:CAM65538 CKH65440:CKI65538 CUD65440:CUE65538 DDZ65440:DEA65538 DNV65440:DNW65538 DXR65440:DXS65538 EHN65440:EHO65538 ERJ65440:ERK65538 FBF65440:FBG65538 FLB65440:FLC65538 FUX65440:FUY65538 GET65440:GEU65538 GOP65440:GOQ65538 GYL65440:GYM65538 HIH65440:HII65538 HSD65440:HSE65538 IBZ65440:ICA65538 ILV65440:ILW65538 IVR65440:IVS65538 JFN65440:JFO65538 JPJ65440:JPK65538 JZF65440:JZG65538 KJB65440:KJC65538 KSX65440:KSY65538 LCT65440:LCU65538 LMP65440:LMQ65538 LWL65440:LWM65538 MGH65440:MGI65538 MQD65440:MQE65538 MZZ65440:NAA65538 NJV65440:NJW65538 NTR65440:NTS65538 ODN65440:ODO65538 ONJ65440:ONK65538 OXF65440:OXG65538 PHB65440:PHC65538 PQX65440:PQY65538 QAT65440:QAU65538 QKP65440:QKQ65538 QUL65440:QUM65538 REH65440:REI65538 ROD65440:ROE65538 RXZ65440:RYA65538 SHV65440:SHW65538 SRR65440:SRS65538 TBN65440:TBO65538 TLJ65440:TLK65538 TVF65440:TVG65538 UFB65440:UFC65538 UOX65440:UOY65538 UYT65440:UYU65538 VIP65440:VIQ65538 VSL65440:VSM65538 WCH65440:WCI65538 WMD65440:WME65538 WVZ65440:WWA65538 R130976:S131074 JN130976:JO131074 TJ130976:TK131074 ADF130976:ADG131074 ANB130976:ANC131074 AWX130976:AWY131074 BGT130976:BGU131074 BQP130976:BQQ131074 CAL130976:CAM131074 CKH130976:CKI131074 CUD130976:CUE131074 DDZ130976:DEA131074 DNV130976:DNW131074 DXR130976:DXS131074 EHN130976:EHO131074 ERJ130976:ERK131074 FBF130976:FBG131074 FLB130976:FLC131074 FUX130976:FUY131074 GET130976:GEU131074 GOP130976:GOQ131074 GYL130976:GYM131074 HIH130976:HII131074 HSD130976:HSE131074 IBZ130976:ICA131074 ILV130976:ILW131074 IVR130976:IVS131074 JFN130976:JFO131074 JPJ130976:JPK131074 JZF130976:JZG131074 KJB130976:KJC131074 KSX130976:KSY131074 LCT130976:LCU131074 LMP130976:LMQ131074 LWL130976:LWM131074 MGH130976:MGI131074 MQD130976:MQE131074 MZZ130976:NAA131074 NJV130976:NJW131074 NTR130976:NTS131074 ODN130976:ODO131074 ONJ130976:ONK131074 OXF130976:OXG131074 PHB130976:PHC131074 PQX130976:PQY131074 QAT130976:QAU131074 QKP130976:QKQ131074 QUL130976:QUM131074 REH130976:REI131074 ROD130976:ROE131074 RXZ130976:RYA131074 SHV130976:SHW131074 SRR130976:SRS131074 TBN130976:TBO131074 TLJ130976:TLK131074 TVF130976:TVG131074 UFB130976:UFC131074 UOX130976:UOY131074 UYT130976:UYU131074 VIP130976:VIQ131074 VSL130976:VSM131074 WCH130976:WCI131074 WMD130976:WME131074 WVZ130976:WWA131074 R196512:S196610 JN196512:JO196610 TJ196512:TK196610 ADF196512:ADG196610 ANB196512:ANC196610 AWX196512:AWY196610 BGT196512:BGU196610 BQP196512:BQQ196610 CAL196512:CAM196610 CKH196512:CKI196610 CUD196512:CUE196610 DDZ196512:DEA196610 DNV196512:DNW196610 DXR196512:DXS196610 EHN196512:EHO196610 ERJ196512:ERK196610 FBF196512:FBG196610 FLB196512:FLC196610 FUX196512:FUY196610 GET196512:GEU196610 GOP196512:GOQ196610 GYL196512:GYM196610 HIH196512:HII196610 HSD196512:HSE196610 IBZ196512:ICA196610 ILV196512:ILW196610 IVR196512:IVS196610 JFN196512:JFO196610 JPJ196512:JPK196610 JZF196512:JZG196610 KJB196512:KJC196610 KSX196512:KSY196610 LCT196512:LCU196610 LMP196512:LMQ196610 LWL196512:LWM196610 MGH196512:MGI196610 MQD196512:MQE196610 MZZ196512:NAA196610 NJV196512:NJW196610 NTR196512:NTS196610 ODN196512:ODO196610 ONJ196512:ONK196610 OXF196512:OXG196610 PHB196512:PHC196610 PQX196512:PQY196610 QAT196512:QAU196610 QKP196512:QKQ196610 QUL196512:QUM196610 REH196512:REI196610 ROD196512:ROE196610 RXZ196512:RYA196610 SHV196512:SHW196610 SRR196512:SRS196610 TBN196512:TBO196610 TLJ196512:TLK196610 TVF196512:TVG196610 UFB196512:UFC196610 UOX196512:UOY196610 UYT196512:UYU196610 VIP196512:VIQ196610 VSL196512:VSM196610 WCH196512:WCI196610 WMD196512:WME196610 WVZ196512:WWA196610 R262048:S262146 JN262048:JO262146 TJ262048:TK262146 ADF262048:ADG262146 ANB262048:ANC262146 AWX262048:AWY262146 BGT262048:BGU262146 BQP262048:BQQ262146 CAL262048:CAM262146 CKH262048:CKI262146 CUD262048:CUE262146 DDZ262048:DEA262146 DNV262048:DNW262146 DXR262048:DXS262146 EHN262048:EHO262146 ERJ262048:ERK262146 FBF262048:FBG262146 FLB262048:FLC262146 FUX262048:FUY262146 GET262048:GEU262146 GOP262048:GOQ262146 GYL262048:GYM262146 HIH262048:HII262146 HSD262048:HSE262146 IBZ262048:ICA262146 ILV262048:ILW262146 IVR262048:IVS262146 JFN262048:JFO262146 JPJ262048:JPK262146 JZF262048:JZG262146 KJB262048:KJC262146 KSX262048:KSY262146 LCT262048:LCU262146 LMP262048:LMQ262146 LWL262048:LWM262146 MGH262048:MGI262146 MQD262048:MQE262146 MZZ262048:NAA262146 NJV262048:NJW262146 NTR262048:NTS262146 ODN262048:ODO262146 ONJ262048:ONK262146 OXF262048:OXG262146 PHB262048:PHC262146 PQX262048:PQY262146 QAT262048:QAU262146 QKP262048:QKQ262146 QUL262048:QUM262146 REH262048:REI262146 ROD262048:ROE262146 RXZ262048:RYA262146 SHV262048:SHW262146 SRR262048:SRS262146 TBN262048:TBO262146 TLJ262048:TLK262146 TVF262048:TVG262146 UFB262048:UFC262146 UOX262048:UOY262146 UYT262048:UYU262146 VIP262048:VIQ262146 VSL262048:VSM262146 WCH262048:WCI262146 WMD262048:WME262146 WVZ262048:WWA262146 R327584:S327682 JN327584:JO327682 TJ327584:TK327682 ADF327584:ADG327682 ANB327584:ANC327682 AWX327584:AWY327682 BGT327584:BGU327682 BQP327584:BQQ327682 CAL327584:CAM327682 CKH327584:CKI327682 CUD327584:CUE327682 DDZ327584:DEA327682 DNV327584:DNW327682 DXR327584:DXS327682 EHN327584:EHO327682 ERJ327584:ERK327682 FBF327584:FBG327682 FLB327584:FLC327682 FUX327584:FUY327682 GET327584:GEU327682 GOP327584:GOQ327682 GYL327584:GYM327682 HIH327584:HII327682 HSD327584:HSE327682 IBZ327584:ICA327682 ILV327584:ILW327682 IVR327584:IVS327682 JFN327584:JFO327682 JPJ327584:JPK327682 JZF327584:JZG327682 KJB327584:KJC327682 KSX327584:KSY327682 LCT327584:LCU327682 LMP327584:LMQ327682 LWL327584:LWM327682 MGH327584:MGI327682 MQD327584:MQE327682 MZZ327584:NAA327682 NJV327584:NJW327682 NTR327584:NTS327682 ODN327584:ODO327682 ONJ327584:ONK327682 OXF327584:OXG327682 PHB327584:PHC327682 PQX327584:PQY327682 QAT327584:QAU327682 QKP327584:QKQ327682 QUL327584:QUM327682 REH327584:REI327682 ROD327584:ROE327682 RXZ327584:RYA327682 SHV327584:SHW327682 SRR327584:SRS327682 TBN327584:TBO327682 TLJ327584:TLK327682 TVF327584:TVG327682 UFB327584:UFC327682 UOX327584:UOY327682 UYT327584:UYU327682 VIP327584:VIQ327682 VSL327584:VSM327682 WCH327584:WCI327682 WMD327584:WME327682 WVZ327584:WWA327682 R393120:S393218 JN393120:JO393218 TJ393120:TK393218 ADF393120:ADG393218 ANB393120:ANC393218 AWX393120:AWY393218 BGT393120:BGU393218 BQP393120:BQQ393218 CAL393120:CAM393218 CKH393120:CKI393218 CUD393120:CUE393218 DDZ393120:DEA393218 DNV393120:DNW393218 DXR393120:DXS393218 EHN393120:EHO393218 ERJ393120:ERK393218 FBF393120:FBG393218 FLB393120:FLC393218 FUX393120:FUY393218 GET393120:GEU393218 GOP393120:GOQ393218 GYL393120:GYM393218 HIH393120:HII393218 HSD393120:HSE393218 IBZ393120:ICA393218 ILV393120:ILW393218 IVR393120:IVS393218 JFN393120:JFO393218 JPJ393120:JPK393218 JZF393120:JZG393218 KJB393120:KJC393218 KSX393120:KSY393218 LCT393120:LCU393218 LMP393120:LMQ393218 LWL393120:LWM393218 MGH393120:MGI393218 MQD393120:MQE393218 MZZ393120:NAA393218 NJV393120:NJW393218 NTR393120:NTS393218 ODN393120:ODO393218 ONJ393120:ONK393218 OXF393120:OXG393218 PHB393120:PHC393218 PQX393120:PQY393218 QAT393120:QAU393218 QKP393120:QKQ393218 QUL393120:QUM393218 REH393120:REI393218 ROD393120:ROE393218 RXZ393120:RYA393218 SHV393120:SHW393218 SRR393120:SRS393218 TBN393120:TBO393218 TLJ393120:TLK393218 TVF393120:TVG393218 UFB393120:UFC393218 UOX393120:UOY393218 UYT393120:UYU393218 VIP393120:VIQ393218 VSL393120:VSM393218 WCH393120:WCI393218 WMD393120:WME393218 WVZ393120:WWA393218 R458656:S458754 JN458656:JO458754 TJ458656:TK458754 ADF458656:ADG458754 ANB458656:ANC458754 AWX458656:AWY458754 BGT458656:BGU458754 BQP458656:BQQ458754 CAL458656:CAM458754 CKH458656:CKI458754 CUD458656:CUE458754 DDZ458656:DEA458754 DNV458656:DNW458754 DXR458656:DXS458754 EHN458656:EHO458754 ERJ458656:ERK458754 FBF458656:FBG458754 FLB458656:FLC458754 FUX458656:FUY458754 GET458656:GEU458754 GOP458656:GOQ458754 GYL458656:GYM458754 HIH458656:HII458754 HSD458656:HSE458754 IBZ458656:ICA458754 ILV458656:ILW458754 IVR458656:IVS458754 JFN458656:JFO458754 JPJ458656:JPK458754 JZF458656:JZG458754 KJB458656:KJC458754 KSX458656:KSY458754 LCT458656:LCU458754 LMP458656:LMQ458754 LWL458656:LWM458754 MGH458656:MGI458754 MQD458656:MQE458754 MZZ458656:NAA458754 NJV458656:NJW458754 NTR458656:NTS458754 ODN458656:ODO458754 ONJ458656:ONK458754 OXF458656:OXG458754 PHB458656:PHC458754 PQX458656:PQY458754 QAT458656:QAU458754 QKP458656:QKQ458754 QUL458656:QUM458754 REH458656:REI458754 ROD458656:ROE458754 RXZ458656:RYA458754 SHV458656:SHW458754 SRR458656:SRS458754 TBN458656:TBO458754 TLJ458656:TLK458754 TVF458656:TVG458754 UFB458656:UFC458754 UOX458656:UOY458754 UYT458656:UYU458754 VIP458656:VIQ458754 VSL458656:VSM458754 WCH458656:WCI458754 WMD458656:WME458754 WVZ458656:WWA458754 R524192:S524290 JN524192:JO524290 TJ524192:TK524290 ADF524192:ADG524290 ANB524192:ANC524290 AWX524192:AWY524290 BGT524192:BGU524290 BQP524192:BQQ524290 CAL524192:CAM524290 CKH524192:CKI524290 CUD524192:CUE524290 DDZ524192:DEA524290 DNV524192:DNW524290 DXR524192:DXS524290 EHN524192:EHO524290 ERJ524192:ERK524290 FBF524192:FBG524290 FLB524192:FLC524290 FUX524192:FUY524290 GET524192:GEU524290 GOP524192:GOQ524290 GYL524192:GYM524290 HIH524192:HII524290 HSD524192:HSE524290 IBZ524192:ICA524290 ILV524192:ILW524290 IVR524192:IVS524290 JFN524192:JFO524290 JPJ524192:JPK524290 JZF524192:JZG524290 KJB524192:KJC524290 KSX524192:KSY524290 LCT524192:LCU524290 LMP524192:LMQ524290 LWL524192:LWM524290 MGH524192:MGI524290 MQD524192:MQE524290 MZZ524192:NAA524290 NJV524192:NJW524290 NTR524192:NTS524290 ODN524192:ODO524290 ONJ524192:ONK524290 OXF524192:OXG524290 PHB524192:PHC524290 PQX524192:PQY524290 QAT524192:QAU524290 QKP524192:QKQ524290 QUL524192:QUM524290 REH524192:REI524290 ROD524192:ROE524290 RXZ524192:RYA524290 SHV524192:SHW524290 SRR524192:SRS524290 TBN524192:TBO524290 TLJ524192:TLK524290 TVF524192:TVG524290 UFB524192:UFC524290 UOX524192:UOY524290 UYT524192:UYU524290 VIP524192:VIQ524290 VSL524192:VSM524290 WCH524192:WCI524290 WMD524192:WME524290 WVZ524192:WWA524290 R589728:S589826 JN589728:JO589826 TJ589728:TK589826 ADF589728:ADG589826 ANB589728:ANC589826 AWX589728:AWY589826 BGT589728:BGU589826 BQP589728:BQQ589826 CAL589728:CAM589826 CKH589728:CKI589826 CUD589728:CUE589826 DDZ589728:DEA589826 DNV589728:DNW589826 DXR589728:DXS589826 EHN589728:EHO589826 ERJ589728:ERK589826 FBF589728:FBG589826 FLB589728:FLC589826 FUX589728:FUY589826 GET589728:GEU589826 GOP589728:GOQ589826 GYL589728:GYM589826 HIH589728:HII589826 HSD589728:HSE589826 IBZ589728:ICA589826 ILV589728:ILW589826 IVR589728:IVS589826 JFN589728:JFO589826 JPJ589728:JPK589826 JZF589728:JZG589826 KJB589728:KJC589826 KSX589728:KSY589826 LCT589728:LCU589826 LMP589728:LMQ589826 LWL589728:LWM589826 MGH589728:MGI589826 MQD589728:MQE589826 MZZ589728:NAA589826 NJV589728:NJW589826 NTR589728:NTS589826 ODN589728:ODO589826 ONJ589728:ONK589826 OXF589728:OXG589826 PHB589728:PHC589826 PQX589728:PQY589826 QAT589728:QAU589826 QKP589728:QKQ589826 QUL589728:QUM589826 REH589728:REI589826 ROD589728:ROE589826 RXZ589728:RYA589826 SHV589728:SHW589826 SRR589728:SRS589826 TBN589728:TBO589826 TLJ589728:TLK589826 TVF589728:TVG589826 UFB589728:UFC589826 UOX589728:UOY589826 UYT589728:UYU589826 VIP589728:VIQ589826 VSL589728:VSM589826 WCH589728:WCI589826 WMD589728:WME589826 WVZ589728:WWA589826 R655264:S655362 JN655264:JO655362 TJ655264:TK655362 ADF655264:ADG655362 ANB655264:ANC655362 AWX655264:AWY655362 BGT655264:BGU655362 BQP655264:BQQ655362 CAL655264:CAM655362 CKH655264:CKI655362 CUD655264:CUE655362 DDZ655264:DEA655362 DNV655264:DNW655362 DXR655264:DXS655362 EHN655264:EHO655362 ERJ655264:ERK655362 FBF655264:FBG655362 FLB655264:FLC655362 FUX655264:FUY655362 GET655264:GEU655362 GOP655264:GOQ655362 GYL655264:GYM655362 HIH655264:HII655362 HSD655264:HSE655362 IBZ655264:ICA655362 ILV655264:ILW655362 IVR655264:IVS655362 JFN655264:JFO655362 JPJ655264:JPK655362 JZF655264:JZG655362 KJB655264:KJC655362 KSX655264:KSY655362 LCT655264:LCU655362 LMP655264:LMQ655362 LWL655264:LWM655362 MGH655264:MGI655362 MQD655264:MQE655362 MZZ655264:NAA655362 NJV655264:NJW655362 NTR655264:NTS655362 ODN655264:ODO655362 ONJ655264:ONK655362 OXF655264:OXG655362 PHB655264:PHC655362 PQX655264:PQY655362 QAT655264:QAU655362 QKP655264:QKQ655362 QUL655264:QUM655362 REH655264:REI655362 ROD655264:ROE655362 RXZ655264:RYA655362 SHV655264:SHW655362 SRR655264:SRS655362 TBN655264:TBO655362 TLJ655264:TLK655362 TVF655264:TVG655362 UFB655264:UFC655362 UOX655264:UOY655362 UYT655264:UYU655362 VIP655264:VIQ655362 VSL655264:VSM655362 WCH655264:WCI655362 WMD655264:WME655362 WVZ655264:WWA655362 R720800:S720898 JN720800:JO720898 TJ720800:TK720898 ADF720800:ADG720898 ANB720800:ANC720898 AWX720800:AWY720898 BGT720800:BGU720898 BQP720800:BQQ720898 CAL720800:CAM720898 CKH720800:CKI720898 CUD720800:CUE720898 DDZ720800:DEA720898 DNV720800:DNW720898 DXR720800:DXS720898 EHN720800:EHO720898 ERJ720800:ERK720898 FBF720800:FBG720898 FLB720800:FLC720898 FUX720800:FUY720898 GET720800:GEU720898 GOP720800:GOQ720898 GYL720800:GYM720898 HIH720800:HII720898 HSD720800:HSE720898 IBZ720800:ICA720898 ILV720800:ILW720898 IVR720800:IVS720898 JFN720800:JFO720898 JPJ720800:JPK720898 JZF720800:JZG720898 KJB720800:KJC720898 KSX720800:KSY720898 LCT720800:LCU720898 LMP720800:LMQ720898 LWL720800:LWM720898 MGH720800:MGI720898 MQD720800:MQE720898 MZZ720800:NAA720898 NJV720800:NJW720898 NTR720800:NTS720898 ODN720800:ODO720898 ONJ720800:ONK720898 OXF720800:OXG720898 PHB720800:PHC720898 PQX720800:PQY720898 QAT720800:QAU720898 QKP720800:QKQ720898 QUL720800:QUM720898 REH720800:REI720898 ROD720800:ROE720898 RXZ720800:RYA720898 SHV720800:SHW720898 SRR720800:SRS720898 TBN720800:TBO720898 TLJ720800:TLK720898 TVF720800:TVG720898 UFB720800:UFC720898 UOX720800:UOY720898 UYT720800:UYU720898 VIP720800:VIQ720898 VSL720800:VSM720898 WCH720800:WCI720898 WMD720800:WME720898 WVZ720800:WWA720898 R786336:S786434 JN786336:JO786434 TJ786336:TK786434 ADF786336:ADG786434 ANB786336:ANC786434 AWX786336:AWY786434 BGT786336:BGU786434 BQP786336:BQQ786434 CAL786336:CAM786434 CKH786336:CKI786434 CUD786336:CUE786434 DDZ786336:DEA786434 DNV786336:DNW786434 DXR786336:DXS786434 EHN786336:EHO786434 ERJ786336:ERK786434 FBF786336:FBG786434 FLB786336:FLC786434 FUX786336:FUY786434 GET786336:GEU786434 GOP786336:GOQ786434 GYL786336:GYM786434 HIH786336:HII786434 HSD786336:HSE786434 IBZ786336:ICA786434 ILV786336:ILW786434 IVR786336:IVS786434 JFN786336:JFO786434 JPJ786336:JPK786434 JZF786336:JZG786434 KJB786336:KJC786434 KSX786336:KSY786434 LCT786336:LCU786434 LMP786336:LMQ786434 LWL786336:LWM786434 MGH786336:MGI786434 MQD786336:MQE786434 MZZ786336:NAA786434 NJV786336:NJW786434 NTR786336:NTS786434 ODN786336:ODO786434 ONJ786336:ONK786434 OXF786336:OXG786434 PHB786336:PHC786434 PQX786336:PQY786434 QAT786336:QAU786434 QKP786336:QKQ786434 QUL786336:QUM786434 REH786336:REI786434 ROD786336:ROE786434 RXZ786336:RYA786434 SHV786336:SHW786434 SRR786336:SRS786434 TBN786336:TBO786434 TLJ786336:TLK786434 TVF786336:TVG786434 UFB786336:UFC786434 UOX786336:UOY786434 UYT786336:UYU786434 VIP786336:VIQ786434 VSL786336:VSM786434 WCH786336:WCI786434 WMD786336:WME786434 WVZ786336:WWA786434 R851872:S851970 JN851872:JO851970 TJ851872:TK851970 ADF851872:ADG851970 ANB851872:ANC851970 AWX851872:AWY851970 BGT851872:BGU851970 BQP851872:BQQ851970 CAL851872:CAM851970 CKH851872:CKI851970 CUD851872:CUE851970 DDZ851872:DEA851970 DNV851872:DNW851970 DXR851872:DXS851970 EHN851872:EHO851970 ERJ851872:ERK851970 FBF851872:FBG851970 FLB851872:FLC851970 FUX851872:FUY851970 GET851872:GEU851970 GOP851872:GOQ851970 GYL851872:GYM851970 HIH851872:HII851970 HSD851872:HSE851970 IBZ851872:ICA851970 ILV851872:ILW851970 IVR851872:IVS851970 JFN851872:JFO851970 JPJ851872:JPK851970 JZF851872:JZG851970 KJB851872:KJC851970 KSX851872:KSY851970 LCT851872:LCU851970 LMP851872:LMQ851970 LWL851872:LWM851970 MGH851872:MGI851970 MQD851872:MQE851970 MZZ851872:NAA851970 NJV851872:NJW851970 NTR851872:NTS851970 ODN851872:ODO851970 ONJ851872:ONK851970 OXF851872:OXG851970 PHB851872:PHC851970 PQX851872:PQY851970 QAT851872:QAU851970 QKP851872:QKQ851970 QUL851872:QUM851970 REH851872:REI851970 ROD851872:ROE851970 RXZ851872:RYA851970 SHV851872:SHW851970 SRR851872:SRS851970 TBN851872:TBO851970 TLJ851872:TLK851970 TVF851872:TVG851970 UFB851872:UFC851970 UOX851872:UOY851970 UYT851872:UYU851970 VIP851872:VIQ851970 VSL851872:VSM851970 WCH851872:WCI851970 WMD851872:WME851970 WVZ851872:WWA851970 R917408:S917506 JN917408:JO917506 TJ917408:TK917506 ADF917408:ADG917506 ANB917408:ANC917506 AWX917408:AWY917506 BGT917408:BGU917506 BQP917408:BQQ917506 CAL917408:CAM917506 CKH917408:CKI917506 CUD917408:CUE917506 DDZ917408:DEA917506 DNV917408:DNW917506 DXR917408:DXS917506 EHN917408:EHO917506 ERJ917408:ERK917506 FBF917408:FBG917506 FLB917408:FLC917506 FUX917408:FUY917506 GET917408:GEU917506 GOP917408:GOQ917506 GYL917408:GYM917506 HIH917408:HII917506 HSD917408:HSE917506 IBZ917408:ICA917506 ILV917408:ILW917506 IVR917408:IVS917506 JFN917408:JFO917506 JPJ917408:JPK917506 JZF917408:JZG917506 KJB917408:KJC917506 KSX917408:KSY917506 LCT917408:LCU917506 LMP917408:LMQ917506 LWL917408:LWM917506 MGH917408:MGI917506 MQD917408:MQE917506 MZZ917408:NAA917506 NJV917408:NJW917506 NTR917408:NTS917506 ODN917408:ODO917506 ONJ917408:ONK917506 OXF917408:OXG917506 PHB917408:PHC917506 PQX917408:PQY917506 QAT917408:QAU917506 QKP917408:QKQ917506 QUL917408:QUM917506 REH917408:REI917506 ROD917408:ROE917506 RXZ917408:RYA917506 SHV917408:SHW917506 SRR917408:SRS917506 TBN917408:TBO917506 TLJ917408:TLK917506 TVF917408:TVG917506 UFB917408:UFC917506 UOX917408:UOY917506 UYT917408:UYU917506 VIP917408:VIQ917506 VSL917408:VSM917506 WCH917408:WCI917506 WMD917408:WME917506 WVZ917408:WWA917506 R982944:S983042 JN982944:JO983042 TJ982944:TK983042 ADF982944:ADG983042 ANB982944:ANC983042 AWX982944:AWY983042 BGT982944:BGU983042 BQP982944:BQQ983042 CAL982944:CAM983042 CKH982944:CKI983042 CUD982944:CUE983042 DDZ982944:DEA983042 DNV982944:DNW983042 DXR982944:DXS983042 EHN982944:EHO983042 ERJ982944:ERK983042 FBF982944:FBG983042 FLB982944:FLC983042 FUX982944:FUY983042 GET982944:GEU983042 GOP982944:GOQ983042 GYL982944:GYM983042 HIH982944:HII983042 HSD982944:HSE983042 IBZ982944:ICA983042 ILV982944:ILW983042 IVR982944:IVS983042 JFN982944:JFO983042 JPJ982944:JPK983042 JZF982944:JZG983042 KJB982944:KJC983042 KSX982944:KSY983042 LCT982944:LCU983042 LMP982944:LMQ983042 LWL982944:LWM983042 MGH982944:MGI983042 MQD982944:MQE983042 MZZ982944:NAA983042 NJV982944:NJW983042 NTR982944:NTS983042 ODN982944:ODO983042 ONJ982944:ONK983042 OXF982944:OXG983042 PHB982944:PHC983042 PQX982944:PQY983042 QAT982944:QAU983042 QKP982944:QKQ983042 QUL982944:QUM983042 REH982944:REI983042 ROD982944:ROE983042 RXZ982944:RYA983042 SHV982944:SHW983042 SRR982944:SRS983042 TBN982944:TBO983042 TLJ982944:TLK983042 TVF982944:TVG983042 UFB982944:UFC983042 UOX982944:UOY983042 UYT982944:UYU983042 VIP982944:VIQ983042 VSL982944:VSM983042 WCH982944:WCI983042 WMD982944:WME983042 WVZ982944:WWA983042" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 IY2:IZ2 SU2:SV2 ACQ2:ACR2 AMM2:AMN2 AWI2:AWJ2 BGE2:BGF2 BQA2:BQB2 BZW2:BZX2 CJS2:CJT2 CTO2:CTP2 DDK2:DDL2 DNG2:DNH2 DXC2:DXD2 EGY2:EGZ2 EQU2:EQV2 FAQ2:FAR2 FKM2:FKN2 FUI2:FUJ2 GEE2:GEF2 GOA2:GOB2 GXW2:GXX2 HHS2:HHT2 HRO2:HRP2 IBK2:IBL2 ILG2:ILH2 IVC2:IVD2 JEY2:JEZ2 JOU2:JOV2 JYQ2:JYR2 KIM2:KIN2 KSI2:KSJ2 LCE2:LCF2 LMA2:LMB2 LVW2:LVX2 MFS2:MFT2 MPO2:MPP2 MZK2:MZL2 NJG2:NJH2 NTC2:NTD2 OCY2:OCZ2 OMU2:OMV2 OWQ2:OWR2 PGM2:PGN2 PQI2:PQJ2 QAE2:QAF2 QKA2:QKB2 QTW2:QTX2 RDS2:RDT2 RNO2:RNP2 RXK2:RXL2 SHG2:SHH2 SRC2:SRD2 TAY2:TAZ2 TKU2:TKV2 TUQ2:TUR2 UEM2:UEN2 UOI2:UOJ2 UYE2:UYF2 VIA2:VIB2 VRW2:VRX2 WBS2:WBT2 WLO2:WLP2 WVK2:WVL2 B65440:C65538 IY65440:IZ65538 SU65440:SV65538 ACQ65440:ACR65538 AMM65440:AMN65538 AWI65440:AWJ65538 BGE65440:BGF65538 BQA65440:BQB65538 BZW65440:BZX65538 CJS65440:CJT65538 CTO65440:CTP65538 DDK65440:DDL65538 DNG65440:DNH65538 DXC65440:DXD65538 EGY65440:EGZ65538 EQU65440:EQV65538 FAQ65440:FAR65538 FKM65440:FKN65538 FUI65440:FUJ65538 GEE65440:GEF65538 GOA65440:GOB65538 GXW65440:GXX65538 HHS65440:HHT65538 HRO65440:HRP65538 IBK65440:IBL65538 ILG65440:ILH65538 IVC65440:IVD65538 JEY65440:JEZ65538 JOU65440:JOV65538 JYQ65440:JYR65538 KIM65440:KIN65538 KSI65440:KSJ65538 LCE65440:LCF65538 LMA65440:LMB65538 LVW65440:LVX65538 MFS65440:MFT65538 MPO65440:MPP65538 MZK65440:MZL65538 NJG65440:NJH65538 NTC65440:NTD65538 OCY65440:OCZ65538 OMU65440:OMV65538 OWQ65440:OWR65538 PGM65440:PGN65538 PQI65440:PQJ65538 QAE65440:QAF65538 QKA65440:QKB65538 QTW65440:QTX65538 RDS65440:RDT65538 RNO65440:RNP65538 RXK65440:RXL65538 SHG65440:SHH65538 SRC65440:SRD65538 TAY65440:TAZ65538 TKU65440:TKV65538 TUQ65440:TUR65538 UEM65440:UEN65538 UOI65440:UOJ65538 UYE65440:UYF65538 VIA65440:VIB65538 VRW65440:VRX65538 WBS65440:WBT65538 WLO65440:WLP65538 WVK65440:WVL65538 B130976:C131074 IY130976:IZ131074 SU130976:SV131074 ACQ130976:ACR131074 AMM130976:AMN131074 AWI130976:AWJ131074 BGE130976:BGF131074 BQA130976:BQB131074 BZW130976:BZX131074 CJS130976:CJT131074 CTO130976:CTP131074 DDK130976:DDL131074 DNG130976:DNH131074 DXC130976:DXD131074 EGY130976:EGZ131074 EQU130976:EQV131074 FAQ130976:FAR131074 FKM130976:FKN131074 FUI130976:FUJ131074 GEE130976:GEF131074 GOA130976:GOB131074 GXW130976:GXX131074 HHS130976:HHT131074 HRO130976:HRP131074 IBK130976:IBL131074 ILG130976:ILH131074 IVC130976:IVD131074 JEY130976:JEZ131074 JOU130976:JOV131074 JYQ130976:JYR131074 KIM130976:KIN131074 KSI130976:KSJ131074 LCE130976:LCF131074 LMA130976:LMB131074 LVW130976:LVX131074 MFS130976:MFT131074 MPO130976:MPP131074 MZK130976:MZL131074 NJG130976:NJH131074 NTC130976:NTD131074 OCY130976:OCZ131074 OMU130976:OMV131074 OWQ130976:OWR131074 PGM130976:PGN131074 PQI130976:PQJ131074 QAE130976:QAF131074 QKA130976:QKB131074 QTW130976:QTX131074 RDS130976:RDT131074 RNO130976:RNP131074 RXK130976:RXL131074 SHG130976:SHH131074 SRC130976:SRD131074 TAY130976:TAZ131074 TKU130976:TKV131074 TUQ130976:TUR131074 UEM130976:UEN131074 UOI130976:UOJ131074 UYE130976:UYF131074 VIA130976:VIB131074 VRW130976:VRX131074 WBS130976:WBT131074 WLO130976:WLP131074 WVK130976:WVL131074 B196512:C196610 IY196512:IZ196610 SU196512:SV196610 ACQ196512:ACR196610 AMM196512:AMN196610 AWI196512:AWJ196610 BGE196512:BGF196610 BQA196512:BQB196610 BZW196512:BZX196610 CJS196512:CJT196610 CTO196512:CTP196610 DDK196512:DDL196610 DNG196512:DNH196610 DXC196512:DXD196610 EGY196512:EGZ196610 EQU196512:EQV196610 FAQ196512:FAR196610 FKM196512:FKN196610 FUI196512:FUJ196610 GEE196512:GEF196610 GOA196512:GOB196610 GXW196512:GXX196610 HHS196512:HHT196610 HRO196512:HRP196610 IBK196512:IBL196610 ILG196512:ILH196610 IVC196512:IVD196610 JEY196512:JEZ196610 JOU196512:JOV196610 JYQ196512:JYR196610 KIM196512:KIN196610 KSI196512:KSJ196610 LCE196512:LCF196610 LMA196512:LMB196610 LVW196512:LVX196610 MFS196512:MFT196610 MPO196512:MPP196610 MZK196512:MZL196610 NJG196512:NJH196610 NTC196512:NTD196610 OCY196512:OCZ196610 OMU196512:OMV196610 OWQ196512:OWR196610 PGM196512:PGN196610 PQI196512:PQJ196610 QAE196512:QAF196610 QKA196512:QKB196610 QTW196512:QTX196610 RDS196512:RDT196610 RNO196512:RNP196610 RXK196512:RXL196610 SHG196512:SHH196610 SRC196512:SRD196610 TAY196512:TAZ196610 TKU196512:TKV196610 TUQ196512:TUR196610 UEM196512:UEN196610 UOI196512:UOJ196610 UYE196512:UYF196610 VIA196512:VIB196610 VRW196512:VRX196610 WBS196512:WBT196610 WLO196512:WLP196610 WVK196512:WVL196610 B262048:C262146 IY262048:IZ262146 SU262048:SV262146 ACQ262048:ACR262146 AMM262048:AMN262146 AWI262048:AWJ262146 BGE262048:BGF262146 BQA262048:BQB262146 BZW262048:BZX262146 CJS262048:CJT262146 CTO262048:CTP262146 DDK262048:DDL262146 DNG262048:DNH262146 DXC262048:DXD262146 EGY262048:EGZ262146 EQU262048:EQV262146 FAQ262048:FAR262146 FKM262048:FKN262146 FUI262048:FUJ262146 GEE262048:GEF262146 GOA262048:GOB262146 GXW262048:GXX262146 HHS262048:HHT262146 HRO262048:HRP262146 IBK262048:IBL262146 ILG262048:ILH262146 IVC262048:IVD262146 JEY262048:JEZ262146 JOU262048:JOV262146 JYQ262048:JYR262146 KIM262048:KIN262146 KSI262048:KSJ262146 LCE262048:LCF262146 LMA262048:LMB262146 LVW262048:LVX262146 MFS262048:MFT262146 MPO262048:MPP262146 MZK262048:MZL262146 NJG262048:NJH262146 NTC262048:NTD262146 OCY262048:OCZ262146 OMU262048:OMV262146 OWQ262048:OWR262146 PGM262048:PGN262146 PQI262048:PQJ262146 QAE262048:QAF262146 QKA262048:QKB262146 QTW262048:QTX262146 RDS262048:RDT262146 RNO262048:RNP262146 RXK262048:RXL262146 SHG262048:SHH262146 SRC262048:SRD262146 TAY262048:TAZ262146 TKU262048:TKV262146 TUQ262048:TUR262146 UEM262048:UEN262146 UOI262048:UOJ262146 UYE262048:UYF262146 VIA262048:VIB262146 VRW262048:VRX262146 WBS262048:WBT262146 WLO262048:WLP262146 WVK262048:WVL262146 B327584:C327682 IY327584:IZ327682 SU327584:SV327682 ACQ327584:ACR327682 AMM327584:AMN327682 AWI327584:AWJ327682 BGE327584:BGF327682 BQA327584:BQB327682 BZW327584:BZX327682 CJS327584:CJT327682 CTO327584:CTP327682 DDK327584:DDL327682 DNG327584:DNH327682 DXC327584:DXD327682 EGY327584:EGZ327682 EQU327584:EQV327682 FAQ327584:FAR327682 FKM327584:FKN327682 FUI327584:FUJ327682 GEE327584:GEF327682 GOA327584:GOB327682 GXW327584:GXX327682 HHS327584:HHT327682 HRO327584:HRP327682 IBK327584:IBL327682 ILG327584:ILH327682 IVC327584:IVD327682 JEY327584:JEZ327682 JOU327584:JOV327682 JYQ327584:JYR327682 KIM327584:KIN327682 KSI327584:KSJ327682 LCE327584:LCF327682 LMA327584:LMB327682 LVW327584:LVX327682 MFS327584:MFT327682 MPO327584:MPP327682 MZK327584:MZL327682 NJG327584:NJH327682 NTC327584:NTD327682 OCY327584:OCZ327682 OMU327584:OMV327682 OWQ327584:OWR327682 PGM327584:PGN327682 PQI327584:PQJ327682 QAE327584:QAF327682 QKA327584:QKB327682 QTW327584:QTX327682 RDS327584:RDT327682 RNO327584:RNP327682 RXK327584:RXL327682 SHG327584:SHH327682 SRC327584:SRD327682 TAY327584:TAZ327682 TKU327584:TKV327682 TUQ327584:TUR327682 UEM327584:UEN327682 UOI327584:UOJ327682 UYE327584:UYF327682 VIA327584:VIB327682 VRW327584:VRX327682 WBS327584:WBT327682 WLO327584:WLP327682 WVK327584:WVL327682 B393120:C393218 IY393120:IZ393218 SU393120:SV393218 ACQ393120:ACR393218 AMM393120:AMN393218 AWI393120:AWJ393218 BGE393120:BGF393218 BQA393120:BQB393218 BZW393120:BZX393218 CJS393120:CJT393218 CTO393120:CTP393218 DDK393120:DDL393218 DNG393120:DNH393218 DXC393120:DXD393218 EGY393120:EGZ393218 EQU393120:EQV393218 FAQ393120:FAR393218 FKM393120:FKN393218 FUI393120:FUJ393218 GEE393120:GEF393218 GOA393120:GOB393218 GXW393120:GXX393218 HHS393120:HHT393218 HRO393120:HRP393218 IBK393120:IBL393218 ILG393120:ILH393218 IVC393120:IVD393218 JEY393120:JEZ393218 JOU393120:JOV393218 JYQ393120:JYR393218 KIM393120:KIN393218 KSI393120:KSJ393218 LCE393120:LCF393218 LMA393120:LMB393218 LVW393120:LVX393218 MFS393120:MFT393218 MPO393120:MPP393218 MZK393120:MZL393218 NJG393120:NJH393218 NTC393120:NTD393218 OCY393120:OCZ393218 OMU393120:OMV393218 OWQ393120:OWR393218 PGM393120:PGN393218 PQI393120:PQJ393218 QAE393120:QAF393218 QKA393120:QKB393218 QTW393120:QTX393218 RDS393120:RDT393218 RNO393120:RNP393218 RXK393120:RXL393218 SHG393120:SHH393218 SRC393120:SRD393218 TAY393120:TAZ393218 TKU393120:TKV393218 TUQ393120:TUR393218 UEM393120:UEN393218 UOI393120:UOJ393218 UYE393120:UYF393218 VIA393120:VIB393218 VRW393120:VRX393218 WBS393120:WBT393218 WLO393120:WLP393218 WVK393120:WVL393218 B458656:C458754 IY458656:IZ458754 SU458656:SV458754 ACQ458656:ACR458754 AMM458656:AMN458754 AWI458656:AWJ458754 BGE458656:BGF458754 BQA458656:BQB458754 BZW458656:BZX458754 CJS458656:CJT458754 CTO458656:CTP458754 DDK458656:DDL458754 DNG458656:DNH458754 DXC458656:DXD458754 EGY458656:EGZ458754 EQU458656:EQV458754 FAQ458656:FAR458754 FKM458656:FKN458754 FUI458656:FUJ458754 GEE458656:GEF458754 GOA458656:GOB458754 GXW458656:GXX458754 HHS458656:HHT458754 HRO458656:HRP458754 IBK458656:IBL458754 ILG458656:ILH458754 IVC458656:IVD458754 JEY458656:JEZ458754 JOU458656:JOV458754 JYQ458656:JYR458754 KIM458656:KIN458754 KSI458656:KSJ458754 LCE458656:LCF458754 LMA458656:LMB458754 LVW458656:LVX458754 MFS458656:MFT458754 MPO458656:MPP458754 MZK458656:MZL458754 NJG458656:NJH458754 NTC458656:NTD458754 OCY458656:OCZ458754 OMU458656:OMV458754 OWQ458656:OWR458754 PGM458656:PGN458754 PQI458656:PQJ458754 QAE458656:QAF458754 QKA458656:QKB458754 QTW458656:QTX458754 RDS458656:RDT458754 RNO458656:RNP458754 RXK458656:RXL458754 SHG458656:SHH458754 SRC458656:SRD458754 TAY458656:TAZ458754 TKU458656:TKV458754 TUQ458656:TUR458754 UEM458656:UEN458754 UOI458656:UOJ458754 UYE458656:UYF458754 VIA458656:VIB458754 VRW458656:VRX458754 WBS458656:WBT458754 WLO458656:WLP458754 WVK458656:WVL458754 B524192:C524290 IY524192:IZ524290 SU524192:SV524290 ACQ524192:ACR524290 AMM524192:AMN524290 AWI524192:AWJ524290 BGE524192:BGF524290 BQA524192:BQB524290 BZW524192:BZX524290 CJS524192:CJT524290 CTO524192:CTP524290 DDK524192:DDL524290 DNG524192:DNH524290 DXC524192:DXD524290 EGY524192:EGZ524290 EQU524192:EQV524290 FAQ524192:FAR524290 FKM524192:FKN524290 FUI524192:FUJ524290 GEE524192:GEF524290 GOA524192:GOB524290 GXW524192:GXX524290 HHS524192:HHT524290 HRO524192:HRP524290 IBK524192:IBL524290 ILG524192:ILH524290 IVC524192:IVD524290 JEY524192:JEZ524290 JOU524192:JOV524290 JYQ524192:JYR524290 KIM524192:KIN524290 KSI524192:KSJ524290 LCE524192:LCF524290 LMA524192:LMB524290 LVW524192:LVX524290 MFS524192:MFT524290 MPO524192:MPP524290 MZK524192:MZL524290 NJG524192:NJH524290 NTC524192:NTD524290 OCY524192:OCZ524290 OMU524192:OMV524290 OWQ524192:OWR524290 PGM524192:PGN524290 PQI524192:PQJ524290 QAE524192:QAF524290 QKA524192:QKB524290 QTW524192:QTX524290 RDS524192:RDT524290 RNO524192:RNP524290 RXK524192:RXL524290 SHG524192:SHH524290 SRC524192:SRD524290 TAY524192:TAZ524290 TKU524192:TKV524290 TUQ524192:TUR524290 UEM524192:UEN524290 UOI524192:UOJ524290 UYE524192:UYF524290 VIA524192:VIB524290 VRW524192:VRX524290 WBS524192:WBT524290 WLO524192:WLP524290 WVK524192:WVL524290 B589728:C589826 IY589728:IZ589826 SU589728:SV589826 ACQ589728:ACR589826 AMM589728:AMN589826 AWI589728:AWJ589826 BGE589728:BGF589826 BQA589728:BQB589826 BZW589728:BZX589826 CJS589728:CJT589826 CTO589728:CTP589826 DDK589728:DDL589826 DNG589728:DNH589826 DXC589728:DXD589826 EGY589728:EGZ589826 EQU589728:EQV589826 FAQ589728:FAR589826 FKM589728:FKN589826 FUI589728:FUJ589826 GEE589728:GEF589826 GOA589728:GOB589826 GXW589728:GXX589826 HHS589728:HHT589826 HRO589728:HRP589826 IBK589728:IBL589826 ILG589728:ILH589826 IVC589728:IVD589826 JEY589728:JEZ589826 JOU589728:JOV589826 JYQ589728:JYR589826 KIM589728:KIN589826 KSI589728:KSJ589826 LCE589728:LCF589826 LMA589728:LMB589826 LVW589728:LVX589826 MFS589728:MFT589826 MPO589728:MPP589826 MZK589728:MZL589826 NJG589728:NJH589826 NTC589728:NTD589826 OCY589728:OCZ589826 OMU589728:OMV589826 OWQ589728:OWR589826 PGM589728:PGN589826 PQI589728:PQJ589826 QAE589728:QAF589826 QKA589728:QKB589826 QTW589728:QTX589826 RDS589728:RDT589826 RNO589728:RNP589826 RXK589728:RXL589826 SHG589728:SHH589826 SRC589728:SRD589826 TAY589728:TAZ589826 TKU589728:TKV589826 TUQ589728:TUR589826 UEM589728:UEN589826 UOI589728:UOJ589826 UYE589728:UYF589826 VIA589728:VIB589826 VRW589728:VRX589826 WBS589728:WBT589826 WLO589728:WLP589826 WVK589728:WVL589826 B655264:C655362 IY655264:IZ655362 SU655264:SV655362 ACQ655264:ACR655362 AMM655264:AMN655362 AWI655264:AWJ655362 BGE655264:BGF655362 BQA655264:BQB655362 BZW655264:BZX655362 CJS655264:CJT655362 CTO655264:CTP655362 DDK655264:DDL655362 DNG655264:DNH655362 DXC655264:DXD655362 EGY655264:EGZ655362 EQU655264:EQV655362 FAQ655264:FAR655362 FKM655264:FKN655362 FUI655264:FUJ655362 GEE655264:GEF655362 GOA655264:GOB655362 GXW655264:GXX655362 HHS655264:HHT655362 HRO655264:HRP655362 IBK655264:IBL655362 ILG655264:ILH655362 IVC655264:IVD655362 JEY655264:JEZ655362 JOU655264:JOV655362 JYQ655264:JYR655362 KIM655264:KIN655362 KSI655264:KSJ655362 LCE655264:LCF655362 LMA655264:LMB655362 LVW655264:LVX655362 MFS655264:MFT655362 MPO655264:MPP655362 MZK655264:MZL655362 NJG655264:NJH655362 NTC655264:NTD655362 OCY655264:OCZ655362 OMU655264:OMV655362 OWQ655264:OWR655362 PGM655264:PGN655362 PQI655264:PQJ655362 QAE655264:QAF655362 QKA655264:QKB655362 QTW655264:QTX655362 RDS655264:RDT655362 RNO655264:RNP655362 RXK655264:RXL655362 SHG655264:SHH655362 SRC655264:SRD655362 TAY655264:TAZ655362 TKU655264:TKV655362 TUQ655264:TUR655362 UEM655264:UEN655362 UOI655264:UOJ655362 UYE655264:UYF655362 VIA655264:VIB655362 VRW655264:VRX655362 WBS655264:WBT655362 WLO655264:WLP655362 WVK655264:WVL655362 B720800:C720898 IY720800:IZ720898 SU720800:SV720898 ACQ720800:ACR720898 AMM720800:AMN720898 AWI720800:AWJ720898 BGE720800:BGF720898 BQA720800:BQB720898 BZW720800:BZX720898 CJS720800:CJT720898 CTO720800:CTP720898 DDK720800:DDL720898 DNG720800:DNH720898 DXC720800:DXD720898 EGY720800:EGZ720898 EQU720800:EQV720898 FAQ720800:FAR720898 FKM720800:FKN720898 FUI720800:FUJ720898 GEE720800:GEF720898 GOA720800:GOB720898 GXW720800:GXX720898 HHS720800:HHT720898 HRO720800:HRP720898 IBK720800:IBL720898 ILG720800:ILH720898 IVC720800:IVD720898 JEY720800:JEZ720898 JOU720800:JOV720898 JYQ720800:JYR720898 KIM720800:KIN720898 KSI720800:KSJ720898 LCE720800:LCF720898 LMA720800:LMB720898 LVW720800:LVX720898 MFS720800:MFT720898 MPO720800:MPP720898 MZK720800:MZL720898 NJG720800:NJH720898 NTC720800:NTD720898 OCY720800:OCZ720898 OMU720800:OMV720898 OWQ720800:OWR720898 PGM720800:PGN720898 PQI720800:PQJ720898 QAE720800:QAF720898 QKA720800:QKB720898 QTW720800:QTX720898 RDS720800:RDT720898 RNO720800:RNP720898 RXK720800:RXL720898 SHG720800:SHH720898 SRC720800:SRD720898 TAY720800:TAZ720898 TKU720800:TKV720898 TUQ720800:TUR720898 UEM720800:UEN720898 UOI720800:UOJ720898 UYE720800:UYF720898 VIA720800:VIB720898 VRW720800:VRX720898 WBS720800:WBT720898 WLO720800:WLP720898 WVK720800:WVL720898 B786336:C786434 IY786336:IZ786434 SU786336:SV786434 ACQ786336:ACR786434 AMM786336:AMN786434 AWI786336:AWJ786434 BGE786336:BGF786434 BQA786336:BQB786434 BZW786336:BZX786434 CJS786336:CJT786434 CTO786336:CTP786434 DDK786336:DDL786434 DNG786336:DNH786434 DXC786336:DXD786434 EGY786336:EGZ786434 EQU786336:EQV786434 FAQ786336:FAR786434 FKM786336:FKN786434 FUI786336:FUJ786434 GEE786336:GEF786434 GOA786336:GOB786434 GXW786336:GXX786434 HHS786336:HHT786434 HRO786336:HRP786434 IBK786336:IBL786434 ILG786336:ILH786434 IVC786336:IVD786434 JEY786336:JEZ786434 JOU786336:JOV786434 JYQ786336:JYR786434 KIM786336:KIN786434 KSI786336:KSJ786434 LCE786336:LCF786434 LMA786336:LMB786434 LVW786336:LVX786434 MFS786336:MFT786434 MPO786336:MPP786434 MZK786336:MZL786434 NJG786336:NJH786434 NTC786336:NTD786434 OCY786336:OCZ786434 OMU786336:OMV786434 OWQ786336:OWR786434 PGM786336:PGN786434 PQI786336:PQJ786434 QAE786336:QAF786434 QKA786336:QKB786434 QTW786336:QTX786434 RDS786336:RDT786434 RNO786336:RNP786434 RXK786336:RXL786434 SHG786336:SHH786434 SRC786336:SRD786434 TAY786336:TAZ786434 TKU786336:TKV786434 TUQ786336:TUR786434 UEM786336:UEN786434 UOI786336:UOJ786434 UYE786336:UYF786434 VIA786336:VIB786434 VRW786336:VRX786434 WBS786336:WBT786434 WLO786336:WLP786434 WVK786336:WVL786434 B851872:C851970 IY851872:IZ851970 SU851872:SV851970 ACQ851872:ACR851970 AMM851872:AMN851970 AWI851872:AWJ851970 BGE851872:BGF851970 BQA851872:BQB851970 BZW851872:BZX851970 CJS851872:CJT851970 CTO851872:CTP851970 DDK851872:DDL851970 DNG851872:DNH851970 DXC851872:DXD851970 EGY851872:EGZ851970 EQU851872:EQV851970 FAQ851872:FAR851970 FKM851872:FKN851970 FUI851872:FUJ851970 GEE851872:GEF851970 GOA851872:GOB851970 GXW851872:GXX851970 HHS851872:HHT851970 HRO851872:HRP851970 IBK851872:IBL851970 ILG851872:ILH851970 IVC851872:IVD851970 JEY851872:JEZ851970 JOU851872:JOV851970 JYQ851872:JYR851970 KIM851872:KIN851970 KSI851872:KSJ851970 LCE851872:LCF851970 LMA851872:LMB851970 LVW851872:LVX851970 MFS851872:MFT851970 MPO851872:MPP851970 MZK851872:MZL851970 NJG851872:NJH851970 NTC851872:NTD851970 OCY851872:OCZ851970 OMU851872:OMV851970 OWQ851872:OWR851970 PGM851872:PGN851970 PQI851872:PQJ851970 QAE851872:QAF851970 QKA851872:QKB851970 QTW851872:QTX851970 RDS851872:RDT851970 RNO851872:RNP851970 RXK851872:RXL851970 SHG851872:SHH851970 SRC851872:SRD851970 TAY851872:TAZ851970 TKU851872:TKV851970 TUQ851872:TUR851970 UEM851872:UEN851970 UOI851872:UOJ851970 UYE851872:UYF851970 VIA851872:VIB851970 VRW851872:VRX851970 WBS851872:WBT851970 WLO851872:WLP851970 WVK851872:WVL851970 B917408:C917506 IY917408:IZ917506 SU917408:SV917506 ACQ917408:ACR917506 AMM917408:AMN917506 AWI917408:AWJ917506 BGE917408:BGF917506 BQA917408:BQB917506 BZW917408:BZX917506 CJS917408:CJT917506 CTO917408:CTP917506 DDK917408:DDL917506 DNG917408:DNH917506 DXC917408:DXD917506 EGY917408:EGZ917506 EQU917408:EQV917506 FAQ917408:FAR917506 FKM917408:FKN917506 FUI917408:FUJ917506 GEE917408:GEF917506 GOA917408:GOB917506 GXW917408:GXX917506 HHS917408:HHT917506 HRO917408:HRP917506 IBK917408:IBL917506 ILG917408:ILH917506 IVC917408:IVD917506 JEY917408:JEZ917506 JOU917408:JOV917506 JYQ917408:JYR917506 KIM917408:KIN917506 KSI917408:KSJ917506 LCE917408:LCF917506 LMA917408:LMB917506 LVW917408:LVX917506 MFS917408:MFT917506 MPO917408:MPP917506 MZK917408:MZL917506 NJG917408:NJH917506 NTC917408:NTD917506 OCY917408:OCZ917506 OMU917408:OMV917506 OWQ917408:OWR917506 PGM917408:PGN917506 PQI917408:PQJ917506 QAE917408:QAF917506 QKA917408:QKB917506 QTW917408:QTX917506 RDS917408:RDT917506 RNO917408:RNP917506 RXK917408:RXL917506 SHG917408:SHH917506 SRC917408:SRD917506 TAY917408:TAZ917506 TKU917408:TKV917506 TUQ917408:TUR917506 UEM917408:UEN917506 UOI917408:UOJ917506 UYE917408:UYF917506 VIA917408:VIB917506 VRW917408:VRX917506 WBS917408:WBT917506 WLO917408:WLP917506 WVK917408:WVL917506 B982944:C983042 IY982944:IZ983042 SU982944:SV983042 ACQ982944:ACR983042 AMM982944:AMN983042 AWI982944:AWJ983042 BGE982944:BGF983042 BQA982944:BQB983042 BZW982944:BZX983042 CJS982944:CJT983042 CTO982944:CTP983042 DDK982944:DDL983042 DNG982944:DNH983042 DXC982944:DXD983042 EGY982944:EGZ983042 EQU982944:EQV983042 FAQ982944:FAR983042 FKM982944:FKN983042 FUI982944:FUJ983042 GEE982944:GEF983042 GOA982944:GOB983042 GXW982944:GXX983042 HHS982944:HHT983042 HRO982944:HRP983042 IBK982944:IBL983042 ILG982944:ILH983042 IVC982944:IVD983042 JEY982944:JEZ983042 JOU982944:JOV983042 JYQ982944:JYR983042 KIM982944:KIN983042 KSI982944:KSJ983042 LCE982944:LCF983042 LMA982944:LMB983042 LVW982944:LVX983042 MFS982944:MFT983042 MPO982944:MPP983042 MZK982944:MZL983042 NJG982944:NJH983042 NTC982944:NTD983042 OCY982944:OCZ983042 OMU982944:OMV983042 OWQ982944:OWR983042 PGM982944:PGN983042 PQI982944:PQJ983042 QAE982944:QAF983042 QKA982944:QKB983042 QTW982944:QTX983042 RDS982944:RDT983042 RNO982944:RNP983042 RXK982944:RXL983042 SHG982944:SHH983042 SRC982944:SRD983042 TAY982944:TAZ983042 TKU982944:TKV983042 TUQ982944:TUR983042 UEM982944:UEN983042 UOI982944:UOJ983042 UYE982944:UYF983042 VIA982944:VIB983042 VRW982944:VRX983042 WBS982944:WBT983042 WLO982944:WLP983042 WVK982944:WVL983042" xr:uid="{F700882C-73D7-4454-9A54-D8122D5EF7BC}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 JA2:JB2 SW2:SX2 ACS2:ACT2 AMO2:AMP2 AWK2:AWL2 BGG2:BGH2 BQC2:BQD2 BZY2:BZZ2 CJU2:CJV2 CTQ2:CTR2 DDM2:DDN2 DNI2:DNJ2 DXE2:DXF2 EHA2:EHB2 EQW2:EQX2 FAS2:FAT2 FKO2:FKP2 FUK2:FUL2 GEG2:GEH2 GOC2:GOD2 GXY2:GXZ2 HHU2:HHV2 HRQ2:HRR2 IBM2:IBN2 ILI2:ILJ2 IVE2:IVF2 JFA2:JFB2 JOW2:JOX2 JYS2:JYT2 KIO2:KIP2 KSK2:KSL2 LCG2:LCH2 LMC2:LMD2 LVY2:LVZ2 MFU2:MFV2 MPQ2:MPR2 MZM2:MZN2 NJI2:NJJ2 NTE2:NTF2 ODA2:ODB2 OMW2:OMX2 OWS2:OWT2 PGO2:PGP2 PQK2:PQL2 QAG2:QAH2 QKC2:QKD2 QTY2:QTZ2 RDU2:RDV2 RNQ2:RNR2 RXM2:RXN2 SHI2:SHJ2 SRE2:SRF2 TBA2:TBB2 TKW2:TKX2 TUS2:TUT2 UEO2:UEP2 UOK2:UOL2 UYG2:UYH2 VIC2:VID2 VRY2:VRZ2 WBU2:WBV2 WLQ2:WLR2 WVM2:WVN2 B65440:C65538 JA65440:JB65538 SW65440:SX65538 ACS65440:ACT65538 AMO65440:AMP65538 AWK65440:AWL65538 BGG65440:BGH65538 BQC65440:BQD65538 BZY65440:BZZ65538 CJU65440:CJV65538 CTQ65440:CTR65538 DDM65440:DDN65538 DNI65440:DNJ65538 DXE65440:DXF65538 EHA65440:EHB65538 EQW65440:EQX65538 FAS65440:FAT65538 FKO65440:FKP65538 FUK65440:FUL65538 GEG65440:GEH65538 GOC65440:GOD65538 GXY65440:GXZ65538 HHU65440:HHV65538 HRQ65440:HRR65538 IBM65440:IBN65538 ILI65440:ILJ65538 IVE65440:IVF65538 JFA65440:JFB65538 JOW65440:JOX65538 JYS65440:JYT65538 KIO65440:KIP65538 KSK65440:KSL65538 LCG65440:LCH65538 LMC65440:LMD65538 LVY65440:LVZ65538 MFU65440:MFV65538 MPQ65440:MPR65538 MZM65440:MZN65538 NJI65440:NJJ65538 NTE65440:NTF65538 ODA65440:ODB65538 OMW65440:OMX65538 OWS65440:OWT65538 PGO65440:PGP65538 PQK65440:PQL65538 QAG65440:QAH65538 QKC65440:QKD65538 QTY65440:QTZ65538 RDU65440:RDV65538 RNQ65440:RNR65538 RXM65440:RXN65538 SHI65440:SHJ65538 SRE65440:SRF65538 TBA65440:TBB65538 TKW65440:TKX65538 TUS65440:TUT65538 UEO65440:UEP65538 UOK65440:UOL65538 UYG65440:UYH65538 VIC65440:VID65538 VRY65440:VRZ65538 WBU65440:WBV65538 WLQ65440:WLR65538 WVM65440:WVN65538 B130976:C131074 JA130976:JB131074 SW130976:SX131074 ACS130976:ACT131074 AMO130976:AMP131074 AWK130976:AWL131074 BGG130976:BGH131074 BQC130976:BQD131074 BZY130976:BZZ131074 CJU130976:CJV131074 CTQ130976:CTR131074 DDM130976:DDN131074 DNI130976:DNJ131074 DXE130976:DXF131074 EHA130976:EHB131074 EQW130976:EQX131074 FAS130976:FAT131074 FKO130976:FKP131074 FUK130976:FUL131074 GEG130976:GEH131074 GOC130976:GOD131074 GXY130976:GXZ131074 HHU130976:HHV131074 HRQ130976:HRR131074 IBM130976:IBN131074 ILI130976:ILJ131074 IVE130976:IVF131074 JFA130976:JFB131074 JOW130976:JOX131074 JYS130976:JYT131074 KIO130976:KIP131074 KSK130976:KSL131074 LCG130976:LCH131074 LMC130976:LMD131074 LVY130976:LVZ131074 MFU130976:MFV131074 MPQ130976:MPR131074 MZM130976:MZN131074 NJI130976:NJJ131074 NTE130976:NTF131074 ODA130976:ODB131074 OMW130976:OMX131074 OWS130976:OWT131074 PGO130976:PGP131074 PQK130976:PQL131074 QAG130976:QAH131074 QKC130976:QKD131074 QTY130976:QTZ131074 RDU130976:RDV131074 RNQ130976:RNR131074 RXM130976:RXN131074 SHI130976:SHJ131074 SRE130976:SRF131074 TBA130976:TBB131074 TKW130976:TKX131074 TUS130976:TUT131074 UEO130976:UEP131074 UOK130976:UOL131074 UYG130976:UYH131074 VIC130976:VID131074 VRY130976:VRZ131074 WBU130976:WBV131074 WLQ130976:WLR131074 WVM130976:WVN131074 B196512:C196610 JA196512:JB196610 SW196512:SX196610 ACS196512:ACT196610 AMO196512:AMP196610 AWK196512:AWL196610 BGG196512:BGH196610 BQC196512:BQD196610 BZY196512:BZZ196610 CJU196512:CJV196610 CTQ196512:CTR196610 DDM196512:DDN196610 DNI196512:DNJ196610 DXE196512:DXF196610 EHA196512:EHB196610 EQW196512:EQX196610 FAS196512:FAT196610 FKO196512:FKP196610 FUK196512:FUL196610 GEG196512:GEH196610 GOC196512:GOD196610 GXY196512:GXZ196610 HHU196512:HHV196610 HRQ196512:HRR196610 IBM196512:IBN196610 ILI196512:ILJ196610 IVE196512:IVF196610 JFA196512:JFB196610 JOW196512:JOX196610 JYS196512:JYT196610 KIO196512:KIP196610 KSK196512:KSL196610 LCG196512:LCH196610 LMC196512:LMD196610 LVY196512:LVZ196610 MFU196512:MFV196610 MPQ196512:MPR196610 MZM196512:MZN196610 NJI196512:NJJ196610 NTE196512:NTF196610 ODA196512:ODB196610 OMW196512:OMX196610 OWS196512:OWT196610 PGO196512:PGP196610 PQK196512:PQL196610 QAG196512:QAH196610 QKC196512:QKD196610 QTY196512:QTZ196610 RDU196512:RDV196610 RNQ196512:RNR196610 RXM196512:RXN196610 SHI196512:SHJ196610 SRE196512:SRF196610 TBA196512:TBB196610 TKW196512:TKX196610 TUS196512:TUT196610 UEO196512:UEP196610 UOK196512:UOL196610 UYG196512:UYH196610 VIC196512:VID196610 VRY196512:VRZ196610 WBU196512:WBV196610 WLQ196512:WLR196610 WVM196512:WVN196610 B262048:C262146 JA262048:JB262146 SW262048:SX262146 ACS262048:ACT262146 AMO262048:AMP262146 AWK262048:AWL262146 BGG262048:BGH262146 BQC262048:BQD262146 BZY262048:BZZ262146 CJU262048:CJV262146 CTQ262048:CTR262146 DDM262048:DDN262146 DNI262048:DNJ262146 DXE262048:DXF262146 EHA262048:EHB262146 EQW262048:EQX262146 FAS262048:FAT262146 FKO262048:FKP262146 FUK262048:FUL262146 GEG262048:GEH262146 GOC262048:GOD262146 GXY262048:GXZ262146 HHU262048:HHV262146 HRQ262048:HRR262146 IBM262048:IBN262146 ILI262048:ILJ262146 IVE262048:IVF262146 JFA262048:JFB262146 JOW262048:JOX262146 JYS262048:JYT262146 KIO262048:KIP262146 KSK262048:KSL262146 LCG262048:LCH262146 LMC262048:LMD262146 LVY262048:LVZ262146 MFU262048:MFV262146 MPQ262048:MPR262146 MZM262048:MZN262146 NJI262048:NJJ262146 NTE262048:NTF262146 ODA262048:ODB262146 OMW262048:OMX262146 OWS262048:OWT262146 PGO262048:PGP262146 PQK262048:PQL262146 QAG262048:QAH262146 QKC262048:QKD262146 QTY262048:QTZ262146 RDU262048:RDV262146 RNQ262048:RNR262146 RXM262048:RXN262146 SHI262048:SHJ262146 SRE262048:SRF262146 TBA262048:TBB262146 TKW262048:TKX262146 TUS262048:TUT262146 UEO262048:UEP262146 UOK262048:UOL262146 UYG262048:UYH262146 VIC262048:VID262146 VRY262048:VRZ262146 WBU262048:WBV262146 WLQ262048:WLR262146 WVM262048:WVN262146 B327584:C327682 JA327584:JB327682 SW327584:SX327682 ACS327584:ACT327682 AMO327584:AMP327682 AWK327584:AWL327682 BGG327584:BGH327682 BQC327584:BQD327682 BZY327584:BZZ327682 CJU327584:CJV327682 CTQ327584:CTR327682 DDM327584:DDN327682 DNI327584:DNJ327682 DXE327584:DXF327682 EHA327584:EHB327682 EQW327584:EQX327682 FAS327584:FAT327682 FKO327584:FKP327682 FUK327584:FUL327682 GEG327584:GEH327682 GOC327584:GOD327682 GXY327584:GXZ327682 HHU327584:HHV327682 HRQ327584:HRR327682 IBM327584:IBN327682 ILI327584:ILJ327682 IVE327584:IVF327682 JFA327584:JFB327682 JOW327584:JOX327682 JYS327584:JYT327682 KIO327584:KIP327682 KSK327584:KSL327682 LCG327584:LCH327682 LMC327584:LMD327682 LVY327584:LVZ327682 MFU327584:MFV327682 MPQ327584:MPR327682 MZM327584:MZN327682 NJI327584:NJJ327682 NTE327584:NTF327682 ODA327584:ODB327682 OMW327584:OMX327682 OWS327584:OWT327682 PGO327584:PGP327682 PQK327584:PQL327682 QAG327584:QAH327682 QKC327584:QKD327682 QTY327584:QTZ327682 RDU327584:RDV327682 RNQ327584:RNR327682 RXM327584:RXN327682 SHI327584:SHJ327682 SRE327584:SRF327682 TBA327584:TBB327682 TKW327584:TKX327682 TUS327584:TUT327682 UEO327584:UEP327682 UOK327584:UOL327682 UYG327584:UYH327682 VIC327584:VID327682 VRY327584:VRZ327682 WBU327584:WBV327682 WLQ327584:WLR327682 WVM327584:WVN327682 B393120:C393218 JA393120:JB393218 SW393120:SX393218 ACS393120:ACT393218 AMO393120:AMP393218 AWK393120:AWL393218 BGG393120:BGH393218 BQC393120:BQD393218 BZY393120:BZZ393218 CJU393120:CJV393218 CTQ393120:CTR393218 DDM393120:DDN393218 DNI393120:DNJ393218 DXE393120:DXF393218 EHA393120:EHB393218 EQW393120:EQX393218 FAS393120:FAT393218 FKO393120:FKP393218 FUK393120:FUL393218 GEG393120:GEH393218 GOC393120:GOD393218 GXY393120:GXZ393218 HHU393120:HHV393218 HRQ393120:HRR393218 IBM393120:IBN393218 ILI393120:ILJ393218 IVE393120:IVF393218 JFA393120:JFB393218 JOW393120:JOX393218 JYS393120:JYT393218 KIO393120:KIP393218 KSK393120:KSL393218 LCG393120:LCH393218 LMC393120:LMD393218 LVY393120:LVZ393218 MFU393120:MFV393218 MPQ393120:MPR393218 MZM393120:MZN393218 NJI393120:NJJ393218 NTE393120:NTF393218 ODA393120:ODB393218 OMW393120:OMX393218 OWS393120:OWT393218 PGO393120:PGP393218 PQK393120:PQL393218 QAG393120:QAH393218 QKC393120:QKD393218 QTY393120:QTZ393218 RDU393120:RDV393218 RNQ393120:RNR393218 RXM393120:RXN393218 SHI393120:SHJ393218 SRE393120:SRF393218 TBA393120:TBB393218 TKW393120:TKX393218 TUS393120:TUT393218 UEO393120:UEP393218 UOK393120:UOL393218 UYG393120:UYH393218 VIC393120:VID393218 VRY393120:VRZ393218 WBU393120:WBV393218 WLQ393120:WLR393218 WVM393120:WVN393218 B458656:C458754 JA458656:JB458754 SW458656:SX458754 ACS458656:ACT458754 AMO458656:AMP458754 AWK458656:AWL458754 BGG458656:BGH458754 BQC458656:BQD458754 BZY458656:BZZ458754 CJU458656:CJV458754 CTQ458656:CTR458754 DDM458656:DDN458754 DNI458656:DNJ458754 DXE458656:DXF458754 EHA458656:EHB458754 EQW458656:EQX458754 FAS458656:FAT458754 FKO458656:FKP458754 FUK458656:FUL458754 GEG458656:GEH458754 GOC458656:GOD458754 GXY458656:GXZ458754 HHU458656:HHV458754 HRQ458656:HRR458754 IBM458656:IBN458754 ILI458656:ILJ458754 IVE458656:IVF458754 JFA458656:JFB458754 JOW458656:JOX458754 JYS458656:JYT458754 KIO458656:KIP458754 KSK458656:KSL458754 LCG458656:LCH458754 LMC458656:LMD458754 LVY458656:LVZ458754 MFU458656:MFV458754 MPQ458656:MPR458754 MZM458656:MZN458754 NJI458656:NJJ458754 NTE458656:NTF458754 ODA458656:ODB458754 OMW458656:OMX458754 OWS458656:OWT458754 PGO458656:PGP458754 PQK458656:PQL458754 QAG458656:QAH458754 QKC458656:QKD458754 QTY458656:QTZ458754 RDU458656:RDV458754 RNQ458656:RNR458754 RXM458656:RXN458754 SHI458656:SHJ458754 SRE458656:SRF458754 TBA458656:TBB458754 TKW458656:TKX458754 TUS458656:TUT458754 UEO458656:UEP458754 UOK458656:UOL458754 UYG458656:UYH458754 VIC458656:VID458754 VRY458656:VRZ458754 WBU458656:WBV458754 WLQ458656:WLR458754 WVM458656:WVN458754 B524192:C524290 JA524192:JB524290 SW524192:SX524290 ACS524192:ACT524290 AMO524192:AMP524290 AWK524192:AWL524290 BGG524192:BGH524290 BQC524192:BQD524290 BZY524192:BZZ524290 CJU524192:CJV524290 CTQ524192:CTR524290 DDM524192:DDN524290 DNI524192:DNJ524290 DXE524192:DXF524290 EHA524192:EHB524290 EQW524192:EQX524290 FAS524192:FAT524290 FKO524192:FKP524290 FUK524192:FUL524290 GEG524192:GEH524290 GOC524192:GOD524290 GXY524192:GXZ524290 HHU524192:HHV524290 HRQ524192:HRR524290 IBM524192:IBN524290 ILI524192:ILJ524290 IVE524192:IVF524290 JFA524192:JFB524290 JOW524192:JOX524290 JYS524192:JYT524290 KIO524192:KIP524290 KSK524192:KSL524290 LCG524192:LCH524290 LMC524192:LMD524290 LVY524192:LVZ524290 MFU524192:MFV524290 MPQ524192:MPR524290 MZM524192:MZN524290 NJI524192:NJJ524290 NTE524192:NTF524290 ODA524192:ODB524290 OMW524192:OMX524290 OWS524192:OWT524290 PGO524192:PGP524290 PQK524192:PQL524290 QAG524192:QAH524290 QKC524192:QKD524290 QTY524192:QTZ524290 RDU524192:RDV524290 RNQ524192:RNR524290 RXM524192:RXN524290 SHI524192:SHJ524290 SRE524192:SRF524290 TBA524192:TBB524290 TKW524192:TKX524290 TUS524192:TUT524290 UEO524192:UEP524290 UOK524192:UOL524290 UYG524192:UYH524290 VIC524192:VID524290 VRY524192:VRZ524290 WBU524192:WBV524290 WLQ524192:WLR524290 WVM524192:WVN524290 B589728:C589826 JA589728:JB589826 SW589728:SX589826 ACS589728:ACT589826 AMO589728:AMP589826 AWK589728:AWL589826 BGG589728:BGH589826 BQC589728:BQD589826 BZY589728:BZZ589826 CJU589728:CJV589826 CTQ589728:CTR589826 DDM589728:DDN589826 DNI589728:DNJ589826 DXE589728:DXF589826 EHA589728:EHB589826 EQW589728:EQX589826 FAS589728:FAT589826 FKO589728:FKP589826 FUK589728:FUL589826 GEG589728:GEH589826 GOC589728:GOD589826 GXY589728:GXZ589826 HHU589728:HHV589826 HRQ589728:HRR589826 IBM589728:IBN589826 ILI589728:ILJ589826 IVE589728:IVF589826 JFA589728:JFB589826 JOW589728:JOX589826 JYS589728:JYT589826 KIO589728:KIP589826 KSK589728:KSL589826 LCG589728:LCH589826 LMC589728:LMD589826 LVY589728:LVZ589826 MFU589728:MFV589826 MPQ589728:MPR589826 MZM589728:MZN589826 NJI589728:NJJ589826 NTE589728:NTF589826 ODA589728:ODB589826 OMW589728:OMX589826 OWS589728:OWT589826 PGO589728:PGP589826 PQK589728:PQL589826 QAG589728:QAH589826 QKC589728:QKD589826 QTY589728:QTZ589826 RDU589728:RDV589826 RNQ589728:RNR589826 RXM589728:RXN589826 SHI589728:SHJ589826 SRE589728:SRF589826 TBA589728:TBB589826 TKW589728:TKX589826 TUS589728:TUT589826 UEO589728:UEP589826 UOK589728:UOL589826 UYG589728:UYH589826 VIC589728:VID589826 VRY589728:VRZ589826 WBU589728:WBV589826 WLQ589728:WLR589826 WVM589728:WVN589826 B655264:C655362 JA655264:JB655362 SW655264:SX655362 ACS655264:ACT655362 AMO655264:AMP655362 AWK655264:AWL655362 BGG655264:BGH655362 BQC655264:BQD655362 BZY655264:BZZ655362 CJU655264:CJV655362 CTQ655264:CTR655362 DDM655264:DDN655362 DNI655264:DNJ655362 DXE655264:DXF655362 EHA655264:EHB655362 EQW655264:EQX655362 FAS655264:FAT655362 FKO655264:FKP655362 FUK655264:FUL655362 GEG655264:GEH655362 GOC655264:GOD655362 GXY655264:GXZ655362 HHU655264:HHV655362 HRQ655264:HRR655362 IBM655264:IBN655362 ILI655264:ILJ655362 IVE655264:IVF655362 JFA655264:JFB655362 JOW655264:JOX655362 JYS655264:JYT655362 KIO655264:KIP655362 KSK655264:KSL655362 LCG655264:LCH655362 LMC655264:LMD655362 LVY655264:LVZ655362 MFU655264:MFV655362 MPQ655264:MPR655362 MZM655264:MZN655362 NJI655264:NJJ655362 NTE655264:NTF655362 ODA655264:ODB655362 OMW655264:OMX655362 OWS655264:OWT655362 PGO655264:PGP655362 PQK655264:PQL655362 QAG655264:QAH655362 QKC655264:QKD655362 QTY655264:QTZ655362 RDU655264:RDV655362 RNQ655264:RNR655362 RXM655264:RXN655362 SHI655264:SHJ655362 SRE655264:SRF655362 TBA655264:TBB655362 TKW655264:TKX655362 TUS655264:TUT655362 UEO655264:UEP655362 UOK655264:UOL655362 UYG655264:UYH655362 VIC655264:VID655362 VRY655264:VRZ655362 WBU655264:WBV655362 WLQ655264:WLR655362 WVM655264:WVN655362 B720800:C720898 JA720800:JB720898 SW720800:SX720898 ACS720800:ACT720898 AMO720800:AMP720898 AWK720800:AWL720898 BGG720800:BGH720898 BQC720800:BQD720898 BZY720800:BZZ720898 CJU720800:CJV720898 CTQ720800:CTR720898 DDM720800:DDN720898 DNI720800:DNJ720898 DXE720800:DXF720898 EHA720800:EHB720898 EQW720800:EQX720898 FAS720800:FAT720898 FKO720800:FKP720898 FUK720800:FUL720898 GEG720800:GEH720898 GOC720800:GOD720898 GXY720800:GXZ720898 HHU720800:HHV720898 HRQ720800:HRR720898 IBM720800:IBN720898 ILI720800:ILJ720898 IVE720800:IVF720898 JFA720800:JFB720898 JOW720800:JOX720898 JYS720800:JYT720898 KIO720800:KIP720898 KSK720800:KSL720898 LCG720800:LCH720898 LMC720800:LMD720898 LVY720800:LVZ720898 MFU720800:MFV720898 MPQ720800:MPR720898 MZM720800:MZN720898 NJI720800:NJJ720898 NTE720800:NTF720898 ODA720800:ODB720898 OMW720800:OMX720898 OWS720800:OWT720898 PGO720800:PGP720898 PQK720800:PQL720898 QAG720800:QAH720898 QKC720800:QKD720898 QTY720800:QTZ720898 RDU720800:RDV720898 RNQ720800:RNR720898 RXM720800:RXN720898 SHI720800:SHJ720898 SRE720800:SRF720898 TBA720800:TBB720898 TKW720800:TKX720898 TUS720800:TUT720898 UEO720800:UEP720898 UOK720800:UOL720898 UYG720800:UYH720898 VIC720800:VID720898 VRY720800:VRZ720898 WBU720800:WBV720898 WLQ720800:WLR720898 WVM720800:WVN720898 B786336:C786434 JA786336:JB786434 SW786336:SX786434 ACS786336:ACT786434 AMO786336:AMP786434 AWK786336:AWL786434 BGG786336:BGH786434 BQC786336:BQD786434 BZY786336:BZZ786434 CJU786336:CJV786434 CTQ786336:CTR786434 DDM786336:DDN786434 DNI786336:DNJ786434 DXE786336:DXF786434 EHA786336:EHB786434 EQW786336:EQX786434 FAS786336:FAT786434 FKO786336:FKP786434 FUK786336:FUL786434 GEG786336:GEH786434 GOC786336:GOD786434 GXY786336:GXZ786434 HHU786336:HHV786434 HRQ786336:HRR786434 IBM786336:IBN786434 ILI786336:ILJ786434 IVE786336:IVF786434 JFA786336:JFB786434 JOW786336:JOX786434 JYS786336:JYT786434 KIO786336:KIP786434 KSK786336:KSL786434 LCG786336:LCH786434 LMC786336:LMD786434 LVY786336:LVZ786434 MFU786336:MFV786434 MPQ786336:MPR786434 MZM786336:MZN786434 NJI786336:NJJ786434 NTE786336:NTF786434 ODA786336:ODB786434 OMW786336:OMX786434 OWS786336:OWT786434 PGO786336:PGP786434 PQK786336:PQL786434 QAG786336:QAH786434 QKC786336:QKD786434 QTY786336:QTZ786434 RDU786336:RDV786434 RNQ786336:RNR786434 RXM786336:RXN786434 SHI786336:SHJ786434 SRE786336:SRF786434 TBA786336:TBB786434 TKW786336:TKX786434 TUS786336:TUT786434 UEO786336:UEP786434 UOK786336:UOL786434 UYG786336:UYH786434 VIC786336:VID786434 VRY786336:VRZ786434 WBU786336:WBV786434 WLQ786336:WLR786434 WVM786336:WVN786434 B851872:C851970 JA851872:JB851970 SW851872:SX851970 ACS851872:ACT851970 AMO851872:AMP851970 AWK851872:AWL851970 BGG851872:BGH851970 BQC851872:BQD851970 BZY851872:BZZ851970 CJU851872:CJV851970 CTQ851872:CTR851970 DDM851872:DDN851970 DNI851872:DNJ851970 DXE851872:DXF851970 EHA851872:EHB851970 EQW851872:EQX851970 FAS851872:FAT851970 FKO851872:FKP851970 FUK851872:FUL851970 GEG851872:GEH851970 GOC851872:GOD851970 GXY851872:GXZ851970 HHU851872:HHV851970 HRQ851872:HRR851970 IBM851872:IBN851970 ILI851872:ILJ851970 IVE851872:IVF851970 JFA851872:JFB851970 JOW851872:JOX851970 JYS851872:JYT851970 KIO851872:KIP851970 KSK851872:KSL851970 LCG851872:LCH851970 LMC851872:LMD851970 LVY851872:LVZ851970 MFU851872:MFV851970 MPQ851872:MPR851970 MZM851872:MZN851970 NJI851872:NJJ851970 NTE851872:NTF851970 ODA851872:ODB851970 OMW851872:OMX851970 OWS851872:OWT851970 PGO851872:PGP851970 PQK851872:PQL851970 QAG851872:QAH851970 QKC851872:QKD851970 QTY851872:QTZ851970 RDU851872:RDV851970 RNQ851872:RNR851970 RXM851872:RXN851970 SHI851872:SHJ851970 SRE851872:SRF851970 TBA851872:TBB851970 TKW851872:TKX851970 TUS851872:TUT851970 UEO851872:UEP851970 UOK851872:UOL851970 UYG851872:UYH851970 VIC851872:VID851970 VRY851872:VRZ851970 WBU851872:WBV851970 WLQ851872:WLR851970 WVM851872:WVN851970 B917408:C917506 JA917408:JB917506 SW917408:SX917506 ACS917408:ACT917506 AMO917408:AMP917506 AWK917408:AWL917506 BGG917408:BGH917506 BQC917408:BQD917506 BZY917408:BZZ917506 CJU917408:CJV917506 CTQ917408:CTR917506 DDM917408:DDN917506 DNI917408:DNJ917506 DXE917408:DXF917506 EHA917408:EHB917506 EQW917408:EQX917506 FAS917408:FAT917506 FKO917408:FKP917506 FUK917408:FUL917506 GEG917408:GEH917506 GOC917408:GOD917506 GXY917408:GXZ917506 HHU917408:HHV917506 HRQ917408:HRR917506 IBM917408:IBN917506 ILI917408:ILJ917506 IVE917408:IVF917506 JFA917408:JFB917506 JOW917408:JOX917506 JYS917408:JYT917506 KIO917408:KIP917506 KSK917408:KSL917506 LCG917408:LCH917506 LMC917408:LMD917506 LVY917408:LVZ917506 MFU917408:MFV917506 MPQ917408:MPR917506 MZM917408:MZN917506 NJI917408:NJJ917506 NTE917408:NTF917506 ODA917408:ODB917506 OMW917408:OMX917506 OWS917408:OWT917506 PGO917408:PGP917506 PQK917408:PQL917506 QAG917408:QAH917506 QKC917408:QKD917506 QTY917408:QTZ917506 RDU917408:RDV917506 RNQ917408:RNR917506 RXM917408:RXN917506 SHI917408:SHJ917506 SRE917408:SRF917506 TBA917408:TBB917506 TKW917408:TKX917506 TUS917408:TUT917506 UEO917408:UEP917506 UOK917408:UOL917506 UYG917408:UYH917506 VIC917408:VID917506 VRY917408:VRZ917506 WBU917408:WBV917506 WLQ917408:WLR917506 WVM917408:WVN917506 B982944:C983042 JA982944:JB983042 SW982944:SX983042 ACS982944:ACT983042 AMO982944:AMP983042 AWK982944:AWL983042 BGG982944:BGH983042 BQC982944:BQD983042 BZY982944:BZZ983042 CJU982944:CJV983042 CTQ982944:CTR983042 DDM982944:DDN983042 DNI982944:DNJ983042 DXE982944:DXF983042 EHA982944:EHB983042 EQW982944:EQX983042 FAS982944:FAT983042 FKO982944:FKP983042 FUK982944:FUL983042 GEG982944:GEH983042 GOC982944:GOD983042 GXY982944:GXZ983042 HHU982944:HHV983042 HRQ982944:HRR983042 IBM982944:IBN983042 ILI982944:ILJ983042 IVE982944:IVF983042 JFA982944:JFB983042 JOW982944:JOX983042 JYS982944:JYT983042 KIO982944:KIP983042 KSK982944:KSL983042 LCG982944:LCH983042 LMC982944:LMD983042 LVY982944:LVZ983042 MFU982944:MFV983042 MPQ982944:MPR983042 MZM982944:MZN983042 NJI982944:NJJ983042 NTE982944:NTF983042 ODA982944:ODB983042 OMW982944:OMX983042 OWS982944:OWT983042 PGO982944:PGP983042 PQK982944:PQL983042 QAG982944:QAH983042 QKC982944:QKD983042 QTY982944:QTZ983042 RDU982944:RDV983042 RNQ982944:RNR983042 RXM982944:RXN983042 SHI982944:SHJ983042 SRE982944:SRF983042 TBA982944:TBB983042 TKW982944:TKX983042 TUS982944:TUT983042 UEO982944:UEP983042 UOK982944:UOL983042 UYG982944:UYH983042 VIC982944:VID983042 VRY982944:VRZ983042 WBU982944:WBV983042 WLQ982944:WLR983042 WVM982944:WVN983042" xr:uid="{F700882C-73D7-4454-9A54-D8122D5EF7BC}">
       <formula1>0</formula1>
       <formula2>33</formula2>
     </dataValidation>
@@ -5557,17 +5565,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833B96B-2C0E-4E43-AF85-5C4893152894}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5575,27 +5583,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C385ED58-3B5D-410B-AFE3-AF123F50F16C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{0A73FDB6-9BF3-4762-9F9B-D45C715BA7EA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{873E7EF2-40C7-4FF6-8550-C5DA32B3E4F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5610,1103 +5618,1103 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="22.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="12" customWidth="1"/>
-    <col min="9" max="10" width="26.5703125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="15" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="13.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="12"/>
-    <col min="22" max="22" width="15.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="12"/>
+    <col min="6" max="6" width="22.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="12" customWidth="1"/>
+    <col min="9" max="10" width="26.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" style="15" customWidth="1"/>
+    <col min="15" max="16" width="12.7265625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="13.7265625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" style="12"/>
+    <col min="22" max="22" width="15.7265625" style="12" customWidth="1"/>
     <col min="23" max="23" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="22.7109375" style="12" customWidth="1"/>
-    <col min="257" max="257" width="25.7109375" customWidth="1"/>
-    <col min="258" max="259" width="20.7109375" customWidth="1"/>
-    <col min="260" max="260" width="20.28515625" customWidth="1"/>
-    <col min="262" max="262" width="22.7109375" customWidth="1"/>
-    <col min="263" max="263" width="15.7109375" customWidth="1"/>
-    <col min="264" max="264" width="18.7109375" customWidth="1"/>
-    <col min="265" max="266" width="26.5703125" customWidth="1"/>
-    <col min="267" max="267" width="15.7109375" customWidth="1"/>
-    <col min="268" max="268" width="20.140625" customWidth="1"/>
-    <col min="269" max="270" width="15.7109375" customWidth="1"/>
-    <col min="271" max="272" width="12.7109375" customWidth="1"/>
-    <col min="273" max="274" width="13.7109375" customWidth="1"/>
-    <col min="275" max="275" width="14.7109375" customWidth="1"/>
-    <col min="276" max="276" width="11.28515625" customWidth="1"/>
-    <col min="278" max="278" width="15.7109375" customWidth="1"/>
+    <col min="24" max="25" width="22.7265625" style="12" customWidth="1"/>
+    <col min="257" max="257" width="25.7265625" customWidth="1"/>
+    <col min="258" max="259" width="20.7265625" customWidth="1"/>
+    <col min="260" max="260" width="20.26953125" customWidth="1"/>
+    <col min="262" max="262" width="22.7265625" customWidth="1"/>
+    <col min="263" max="263" width="15.7265625" customWidth="1"/>
+    <col min="264" max="264" width="18.7265625" customWidth="1"/>
+    <col min="265" max="266" width="26.54296875" customWidth="1"/>
+    <col min="267" max="267" width="15.7265625" customWidth="1"/>
+    <col min="268" max="268" width="20.1796875" customWidth="1"/>
+    <col min="269" max="270" width="15.7265625" customWidth="1"/>
+    <col min="271" max="272" width="12.7265625" customWidth="1"/>
+    <col min="273" max="274" width="13.7265625" customWidth="1"/>
+    <col min="275" max="275" width="14.7265625" customWidth="1"/>
+    <col min="276" max="276" width="11.26953125" customWidth="1"/>
+    <col min="278" max="278" width="15.7265625" customWidth="1"/>
     <col min="279" max="279" width="40" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="22.7109375" customWidth="1"/>
-    <col min="513" max="513" width="25.7109375" customWidth="1"/>
-    <col min="514" max="515" width="20.7109375" customWidth="1"/>
-    <col min="516" max="516" width="20.28515625" customWidth="1"/>
-    <col min="518" max="518" width="22.7109375" customWidth="1"/>
-    <col min="519" max="519" width="15.7109375" customWidth="1"/>
-    <col min="520" max="520" width="18.7109375" customWidth="1"/>
-    <col min="521" max="522" width="26.5703125" customWidth="1"/>
-    <col min="523" max="523" width="15.7109375" customWidth="1"/>
-    <col min="524" max="524" width="20.140625" customWidth="1"/>
-    <col min="525" max="526" width="15.7109375" customWidth="1"/>
-    <col min="527" max="528" width="12.7109375" customWidth="1"/>
-    <col min="529" max="530" width="13.7109375" customWidth="1"/>
-    <col min="531" max="531" width="14.7109375" customWidth="1"/>
-    <col min="532" max="532" width="11.28515625" customWidth="1"/>
-    <col min="534" max="534" width="15.7109375" customWidth="1"/>
+    <col min="280" max="281" width="22.7265625" customWidth="1"/>
+    <col min="513" max="513" width="25.7265625" customWidth="1"/>
+    <col min="514" max="515" width="20.7265625" customWidth="1"/>
+    <col min="516" max="516" width="20.26953125" customWidth="1"/>
+    <col min="518" max="518" width="22.7265625" customWidth="1"/>
+    <col min="519" max="519" width="15.7265625" customWidth="1"/>
+    <col min="520" max="520" width="18.7265625" customWidth="1"/>
+    <col min="521" max="522" width="26.54296875" customWidth="1"/>
+    <col min="523" max="523" width="15.7265625" customWidth="1"/>
+    <col min="524" max="524" width="20.1796875" customWidth="1"/>
+    <col min="525" max="526" width="15.7265625" customWidth="1"/>
+    <col min="527" max="528" width="12.7265625" customWidth="1"/>
+    <col min="529" max="530" width="13.7265625" customWidth="1"/>
+    <col min="531" max="531" width="14.7265625" customWidth="1"/>
+    <col min="532" max="532" width="11.26953125" customWidth="1"/>
+    <col min="534" max="534" width="15.7265625" customWidth="1"/>
     <col min="535" max="535" width="40" bestFit="1" customWidth="1"/>
-    <col min="536" max="537" width="22.7109375" customWidth="1"/>
-    <col min="769" max="769" width="25.7109375" customWidth="1"/>
-    <col min="770" max="771" width="20.7109375" customWidth="1"/>
-    <col min="772" max="772" width="20.28515625" customWidth="1"/>
-    <col min="774" max="774" width="22.7109375" customWidth="1"/>
-    <col min="775" max="775" width="15.7109375" customWidth="1"/>
-    <col min="776" max="776" width="18.7109375" customWidth="1"/>
-    <col min="777" max="778" width="26.5703125" customWidth="1"/>
-    <col min="779" max="779" width="15.7109375" customWidth="1"/>
-    <col min="780" max="780" width="20.140625" customWidth="1"/>
-    <col min="781" max="782" width="15.7109375" customWidth="1"/>
-    <col min="783" max="784" width="12.7109375" customWidth="1"/>
-    <col min="785" max="786" width="13.7109375" customWidth="1"/>
-    <col min="787" max="787" width="14.7109375" customWidth="1"/>
-    <col min="788" max="788" width="11.28515625" customWidth="1"/>
-    <col min="790" max="790" width="15.7109375" customWidth="1"/>
+    <col min="536" max="537" width="22.7265625" customWidth="1"/>
+    <col min="769" max="769" width="25.7265625" customWidth="1"/>
+    <col min="770" max="771" width="20.7265625" customWidth="1"/>
+    <col min="772" max="772" width="20.26953125" customWidth="1"/>
+    <col min="774" max="774" width="22.7265625" customWidth="1"/>
+    <col min="775" max="775" width="15.7265625" customWidth="1"/>
+    <col min="776" max="776" width="18.7265625" customWidth="1"/>
+    <col min="777" max="778" width="26.54296875" customWidth="1"/>
+    <col min="779" max="779" width="15.7265625" customWidth="1"/>
+    <col min="780" max="780" width="20.1796875" customWidth="1"/>
+    <col min="781" max="782" width="15.7265625" customWidth="1"/>
+    <col min="783" max="784" width="12.7265625" customWidth="1"/>
+    <col min="785" max="786" width="13.7265625" customWidth="1"/>
+    <col min="787" max="787" width="14.7265625" customWidth="1"/>
+    <col min="788" max="788" width="11.26953125" customWidth="1"/>
+    <col min="790" max="790" width="15.7265625" customWidth="1"/>
     <col min="791" max="791" width="40" bestFit="1" customWidth="1"/>
-    <col min="792" max="793" width="22.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="25.7109375" customWidth="1"/>
-    <col min="1026" max="1027" width="20.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="20.28515625" customWidth="1"/>
-    <col min="1030" max="1030" width="22.7109375" customWidth="1"/>
-    <col min="1031" max="1031" width="15.7109375" customWidth="1"/>
-    <col min="1032" max="1032" width="18.7109375" customWidth="1"/>
-    <col min="1033" max="1034" width="26.5703125" customWidth="1"/>
-    <col min="1035" max="1035" width="15.7109375" customWidth="1"/>
-    <col min="1036" max="1036" width="20.140625" customWidth="1"/>
-    <col min="1037" max="1038" width="15.7109375" customWidth="1"/>
-    <col min="1039" max="1040" width="12.7109375" customWidth="1"/>
-    <col min="1041" max="1042" width="13.7109375" customWidth="1"/>
-    <col min="1043" max="1043" width="14.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="11.28515625" customWidth="1"/>
-    <col min="1046" max="1046" width="15.7109375" customWidth="1"/>
+    <col min="792" max="793" width="22.7265625" customWidth="1"/>
+    <col min="1025" max="1025" width="25.7265625" customWidth="1"/>
+    <col min="1026" max="1027" width="20.7265625" customWidth="1"/>
+    <col min="1028" max="1028" width="20.26953125" customWidth="1"/>
+    <col min="1030" max="1030" width="22.7265625" customWidth="1"/>
+    <col min="1031" max="1031" width="15.7265625" customWidth="1"/>
+    <col min="1032" max="1032" width="18.7265625" customWidth="1"/>
+    <col min="1033" max="1034" width="26.54296875" customWidth="1"/>
+    <col min="1035" max="1035" width="15.7265625" customWidth="1"/>
+    <col min="1036" max="1036" width="20.1796875" customWidth="1"/>
+    <col min="1037" max="1038" width="15.7265625" customWidth="1"/>
+    <col min="1039" max="1040" width="12.7265625" customWidth="1"/>
+    <col min="1041" max="1042" width="13.7265625" customWidth="1"/>
+    <col min="1043" max="1043" width="14.7265625" customWidth="1"/>
+    <col min="1044" max="1044" width="11.26953125" customWidth="1"/>
+    <col min="1046" max="1046" width="15.7265625" customWidth="1"/>
     <col min="1047" max="1047" width="40" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1049" width="22.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="25.7109375" customWidth="1"/>
-    <col min="1282" max="1283" width="20.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="20.28515625" customWidth="1"/>
-    <col min="1286" max="1286" width="22.7109375" customWidth="1"/>
-    <col min="1287" max="1287" width="15.7109375" customWidth="1"/>
-    <col min="1288" max="1288" width="18.7109375" customWidth="1"/>
-    <col min="1289" max="1290" width="26.5703125" customWidth="1"/>
-    <col min="1291" max="1291" width="15.7109375" customWidth="1"/>
-    <col min="1292" max="1292" width="20.140625" customWidth="1"/>
-    <col min="1293" max="1294" width="15.7109375" customWidth="1"/>
-    <col min="1295" max="1296" width="12.7109375" customWidth="1"/>
-    <col min="1297" max="1298" width="13.7109375" customWidth="1"/>
-    <col min="1299" max="1299" width="14.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="11.28515625" customWidth="1"/>
-    <col min="1302" max="1302" width="15.7109375" customWidth="1"/>
+    <col min="1048" max="1049" width="22.7265625" customWidth="1"/>
+    <col min="1281" max="1281" width="25.7265625" customWidth="1"/>
+    <col min="1282" max="1283" width="20.7265625" customWidth="1"/>
+    <col min="1284" max="1284" width="20.26953125" customWidth="1"/>
+    <col min="1286" max="1286" width="22.7265625" customWidth="1"/>
+    <col min="1287" max="1287" width="15.7265625" customWidth="1"/>
+    <col min="1288" max="1288" width="18.7265625" customWidth="1"/>
+    <col min="1289" max="1290" width="26.54296875" customWidth="1"/>
+    <col min="1291" max="1291" width="15.7265625" customWidth="1"/>
+    <col min="1292" max="1292" width="20.1796875" customWidth="1"/>
+    <col min="1293" max="1294" width="15.7265625" customWidth="1"/>
+    <col min="1295" max="1296" width="12.7265625" customWidth="1"/>
+    <col min="1297" max="1298" width="13.7265625" customWidth="1"/>
+    <col min="1299" max="1299" width="14.7265625" customWidth="1"/>
+    <col min="1300" max="1300" width="11.26953125" customWidth="1"/>
+    <col min="1302" max="1302" width="15.7265625" customWidth="1"/>
     <col min="1303" max="1303" width="40" bestFit="1" customWidth="1"/>
-    <col min="1304" max="1305" width="22.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="25.7109375" customWidth="1"/>
-    <col min="1538" max="1539" width="20.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="20.28515625" customWidth="1"/>
-    <col min="1542" max="1542" width="22.7109375" customWidth="1"/>
-    <col min="1543" max="1543" width="15.7109375" customWidth="1"/>
-    <col min="1544" max="1544" width="18.7109375" customWidth="1"/>
-    <col min="1545" max="1546" width="26.5703125" customWidth="1"/>
-    <col min="1547" max="1547" width="15.7109375" customWidth="1"/>
-    <col min="1548" max="1548" width="20.140625" customWidth="1"/>
-    <col min="1549" max="1550" width="15.7109375" customWidth="1"/>
-    <col min="1551" max="1552" width="12.7109375" customWidth="1"/>
-    <col min="1553" max="1554" width="13.7109375" customWidth="1"/>
-    <col min="1555" max="1555" width="14.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="11.28515625" customWidth="1"/>
-    <col min="1558" max="1558" width="15.7109375" customWidth="1"/>
+    <col min="1304" max="1305" width="22.7265625" customWidth="1"/>
+    <col min="1537" max="1537" width="25.7265625" customWidth="1"/>
+    <col min="1538" max="1539" width="20.7265625" customWidth="1"/>
+    <col min="1540" max="1540" width="20.26953125" customWidth="1"/>
+    <col min="1542" max="1542" width="22.7265625" customWidth="1"/>
+    <col min="1543" max="1543" width="15.7265625" customWidth="1"/>
+    <col min="1544" max="1544" width="18.7265625" customWidth="1"/>
+    <col min="1545" max="1546" width="26.54296875" customWidth="1"/>
+    <col min="1547" max="1547" width="15.7265625" customWidth="1"/>
+    <col min="1548" max="1548" width="20.1796875" customWidth="1"/>
+    <col min="1549" max="1550" width="15.7265625" customWidth="1"/>
+    <col min="1551" max="1552" width="12.7265625" customWidth="1"/>
+    <col min="1553" max="1554" width="13.7265625" customWidth="1"/>
+    <col min="1555" max="1555" width="14.7265625" customWidth="1"/>
+    <col min="1556" max="1556" width="11.26953125" customWidth="1"/>
+    <col min="1558" max="1558" width="15.7265625" customWidth="1"/>
     <col min="1559" max="1559" width="40" bestFit="1" customWidth="1"/>
-    <col min="1560" max="1561" width="22.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="25.7109375" customWidth="1"/>
-    <col min="1794" max="1795" width="20.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="20.28515625" customWidth="1"/>
-    <col min="1798" max="1798" width="22.7109375" customWidth="1"/>
-    <col min="1799" max="1799" width="15.7109375" customWidth="1"/>
-    <col min="1800" max="1800" width="18.7109375" customWidth="1"/>
-    <col min="1801" max="1802" width="26.5703125" customWidth="1"/>
-    <col min="1803" max="1803" width="15.7109375" customWidth="1"/>
-    <col min="1804" max="1804" width="20.140625" customWidth="1"/>
-    <col min="1805" max="1806" width="15.7109375" customWidth="1"/>
-    <col min="1807" max="1808" width="12.7109375" customWidth="1"/>
-    <col min="1809" max="1810" width="13.7109375" customWidth="1"/>
-    <col min="1811" max="1811" width="14.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="11.28515625" customWidth="1"/>
-    <col min="1814" max="1814" width="15.7109375" customWidth="1"/>
+    <col min="1560" max="1561" width="22.7265625" customWidth="1"/>
+    <col min="1793" max="1793" width="25.7265625" customWidth="1"/>
+    <col min="1794" max="1795" width="20.7265625" customWidth="1"/>
+    <col min="1796" max="1796" width="20.26953125" customWidth="1"/>
+    <col min="1798" max="1798" width="22.7265625" customWidth="1"/>
+    <col min="1799" max="1799" width="15.7265625" customWidth="1"/>
+    <col min="1800" max="1800" width="18.7265625" customWidth="1"/>
+    <col min="1801" max="1802" width="26.54296875" customWidth="1"/>
+    <col min="1803" max="1803" width="15.7265625" customWidth="1"/>
+    <col min="1804" max="1804" width="20.1796875" customWidth="1"/>
+    <col min="1805" max="1806" width="15.7265625" customWidth="1"/>
+    <col min="1807" max="1808" width="12.7265625" customWidth="1"/>
+    <col min="1809" max="1810" width="13.7265625" customWidth="1"/>
+    <col min="1811" max="1811" width="14.7265625" customWidth="1"/>
+    <col min="1812" max="1812" width="11.26953125" customWidth="1"/>
+    <col min="1814" max="1814" width="15.7265625" customWidth="1"/>
     <col min="1815" max="1815" width="40" bestFit="1" customWidth="1"/>
-    <col min="1816" max="1817" width="22.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="25.7109375" customWidth="1"/>
-    <col min="2050" max="2051" width="20.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="20.28515625" customWidth="1"/>
-    <col min="2054" max="2054" width="22.7109375" customWidth="1"/>
-    <col min="2055" max="2055" width="15.7109375" customWidth="1"/>
-    <col min="2056" max="2056" width="18.7109375" customWidth="1"/>
-    <col min="2057" max="2058" width="26.5703125" customWidth="1"/>
-    <col min="2059" max="2059" width="15.7109375" customWidth="1"/>
-    <col min="2060" max="2060" width="20.140625" customWidth="1"/>
-    <col min="2061" max="2062" width="15.7109375" customWidth="1"/>
-    <col min="2063" max="2064" width="12.7109375" customWidth="1"/>
-    <col min="2065" max="2066" width="13.7109375" customWidth="1"/>
-    <col min="2067" max="2067" width="14.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="11.28515625" customWidth="1"/>
-    <col min="2070" max="2070" width="15.7109375" customWidth="1"/>
+    <col min="1816" max="1817" width="22.7265625" customWidth="1"/>
+    <col min="2049" max="2049" width="25.7265625" customWidth="1"/>
+    <col min="2050" max="2051" width="20.7265625" customWidth="1"/>
+    <col min="2052" max="2052" width="20.26953125" customWidth="1"/>
+    <col min="2054" max="2054" width="22.7265625" customWidth="1"/>
+    <col min="2055" max="2055" width="15.7265625" customWidth="1"/>
+    <col min="2056" max="2056" width="18.7265625" customWidth="1"/>
+    <col min="2057" max="2058" width="26.54296875" customWidth="1"/>
+    <col min="2059" max="2059" width="15.7265625" customWidth="1"/>
+    <col min="2060" max="2060" width="20.1796875" customWidth="1"/>
+    <col min="2061" max="2062" width="15.7265625" customWidth="1"/>
+    <col min="2063" max="2064" width="12.7265625" customWidth="1"/>
+    <col min="2065" max="2066" width="13.7265625" customWidth="1"/>
+    <col min="2067" max="2067" width="14.7265625" customWidth="1"/>
+    <col min="2068" max="2068" width="11.26953125" customWidth="1"/>
+    <col min="2070" max="2070" width="15.7265625" customWidth="1"/>
     <col min="2071" max="2071" width="40" bestFit="1" customWidth="1"/>
-    <col min="2072" max="2073" width="22.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="25.7109375" customWidth="1"/>
-    <col min="2306" max="2307" width="20.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="20.28515625" customWidth="1"/>
-    <col min="2310" max="2310" width="22.7109375" customWidth="1"/>
-    <col min="2311" max="2311" width="15.7109375" customWidth="1"/>
-    <col min="2312" max="2312" width="18.7109375" customWidth="1"/>
-    <col min="2313" max="2314" width="26.5703125" customWidth="1"/>
-    <col min="2315" max="2315" width="15.7109375" customWidth="1"/>
-    <col min="2316" max="2316" width="20.140625" customWidth="1"/>
-    <col min="2317" max="2318" width="15.7109375" customWidth="1"/>
-    <col min="2319" max="2320" width="12.7109375" customWidth="1"/>
-    <col min="2321" max="2322" width="13.7109375" customWidth="1"/>
-    <col min="2323" max="2323" width="14.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="11.28515625" customWidth="1"/>
-    <col min="2326" max="2326" width="15.7109375" customWidth="1"/>
+    <col min="2072" max="2073" width="22.7265625" customWidth="1"/>
+    <col min="2305" max="2305" width="25.7265625" customWidth="1"/>
+    <col min="2306" max="2307" width="20.7265625" customWidth="1"/>
+    <col min="2308" max="2308" width="20.26953125" customWidth="1"/>
+    <col min="2310" max="2310" width="22.7265625" customWidth="1"/>
+    <col min="2311" max="2311" width="15.7265625" customWidth="1"/>
+    <col min="2312" max="2312" width="18.7265625" customWidth="1"/>
+    <col min="2313" max="2314" width="26.54296875" customWidth="1"/>
+    <col min="2315" max="2315" width="15.7265625" customWidth="1"/>
+    <col min="2316" max="2316" width="20.1796875" customWidth="1"/>
+    <col min="2317" max="2318" width="15.7265625" customWidth="1"/>
+    <col min="2319" max="2320" width="12.7265625" customWidth="1"/>
+    <col min="2321" max="2322" width="13.7265625" customWidth="1"/>
+    <col min="2323" max="2323" width="14.7265625" customWidth="1"/>
+    <col min="2324" max="2324" width="11.26953125" customWidth="1"/>
+    <col min="2326" max="2326" width="15.7265625" customWidth="1"/>
     <col min="2327" max="2327" width="40" bestFit="1" customWidth="1"/>
-    <col min="2328" max="2329" width="22.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="25.7109375" customWidth="1"/>
-    <col min="2562" max="2563" width="20.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="20.28515625" customWidth="1"/>
-    <col min="2566" max="2566" width="22.7109375" customWidth="1"/>
-    <col min="2567" max="2567" width="15.7109375" customWidth="1"/>
-    <col min="2568" max="2568" width="18.7109375" customWidth="1"/>
-    <col min="2569" max="2570" width="26.5703125" customWidth="1"/>
-    <col min="2571" max="2571" width="15.7109375" customWidth="1"/>
-    <col min="2572" max="2572" width="20.140625" customWidth="1"/>
-    <col min="2573" max="2574" width="15.7109375" customWidth="1"/>
-    <col min="2575" max="2576" width="12.7109375" customWidth="1"/>
-    <col min="2577" max="2578" width="13.7109375" customWidth="1"/>
-    <col min="2579" max="2579" width="14.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="11.28515625" customWidth="1"/>
-    <col min="2582" max="2582" width="15.7109375" customWidth="1"/>
+    <col min="2328" max="2329" width="22.7265625" customWidth="1"/>
+    <col min="2561" max="2561" width="25.7265625" customWidth="1"/>
+    <col min="2562" max="2563" width="20.7265625" customWidth="1"/>
+    <col min="2564" max="2564" width="20.26953125" customWidth="1"/>
+    <col min="2566" max="2566" width="22.7265625" customWidth="1"/>
+    <col min="2567" max="2567" width="15.7265625" customWidth="1"/>
+    <col min="2568" max="2568" width="18.7265625" customWidth="1"/>
+    <col min="2569" max="2570" width="26.54296875" customWidth="1"/>
+    <col min="2571" max="2571" width="15.7265625" customWidth="1"/>
+    <col min="2572" max="2572" width="20.1796875" customWidth="1"/>
+    <col min="2573" max="2574" width="15.7265625" customWidth="1"/>
+    <col min="2575" max="2576" width="12.7265625" customWidth="1"/>
+    <col min="2577" max="2578" width="13.7265625" customWidth="1"/>
+    <col min="2579" max="2579" width="14.7265625" customWidth="1"/>
+    <col min="2580" max="2580" width="11.26953125" customWidth="1"/>
+    <col min="2582" max="2582" width="15.7265625" customWidth="1"/>
     <col min="2583" max="2583" width="40" bestFit="1" customWidth="1"/>
-    <col min="2584" max="2585" width="22.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="25.7109375" customWidth="1"/>
-    <col min="2818" max="2819" width="20.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="20.28515625" customWidth="1"/>
-    <col min="2822" max="2822" width="22.7109375" customWidth="1"/>
-    <col min="2823" max="2823" width="15.7109375" customWidth="1"/>
-    <col min="2824" max="2824" width="18.7109375" customWidth="1"/>
-    <col min="2825" max="2826" width="26.5703125" customWidth="1"/>
-    <col min="2827" max="2827" width="15.7109375" customWidth="1"/>
-    <col min="2828" max="2828" width="20.140625" customWidth="1"/>
-    <col min="2829" max="2830" width="15.7109375" customWidth="1"/>
-    <col min="2831" max="2832" width="12.7109375" customWidth="1"/>
-    <col min="2833" max="2834" width="13.7109375" customWidth="1"/>
-    <col min="2835" max="2835" width="14.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="11.28515625" customWidth="1"/>
-    <col min="2838" max="2838" width="15.7109375" customWidth="1"/>
+    <col min="2584" max="2585" width="22.7265625" customWidth="1"/>
+    <col min="2817" max="2817" width="25.7265625" customWidth="1"/>
+    <col min="2818" max="2819" width="20.7265625" customWidth="1"/>
+    <col min="2820" max="2820" width="20.26953125" customWidth="1"/>
+    <col min="2822" max="2822" width="22.7265625" customWidth="1"/>
+    <col min="2823" max="2823" width="15.7265625" customWidth="1"/>
+    <col min="2824" max="2824" width="18.7265625" customWidth="1"/>
+    <col min="2825" max="2826" width="26.54296875" customWidth="1"/>
+    <col min="2827" max="2827" width="15.7265625" customWidth="1"/>
+    <col min="2828" max="2828" width="20.1796875" customWidth="1"/>
+    <col min="2829" max="2830" width="15.7265625" customWidth="1"/>
+    <col min="2831" max="2832" width="12.7265625" customWidth="1"/>
+    <col min="2833" max="2834" width="13.7265625" customWidth="1"/>
+    <col min="2835" max="2835" width="14.7265625" customWidth="1"/>
+    <col min="2836" max="2836" width="11.26953125" customWidth="1"/>
+    <col min="2838" max="2838" width="15.7265625" customWidth="1"/>
     <col min="2839" max="2839" width="40" bestFit="1" customWidth="1"/>
-    <col min="2840" max="2841" width="22.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="25.7109375" customWidth="1"/>
-    <col min="3074" max="3075" width="20.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="20.28515625" customWidth="1"/>
-    <col min="3078" max="3078" width="22.7109375" customWidth="1"/>
-    <col min="3079" max="3079" width="15.7109375" customWidth="1"/>
-    <col min="3080" max="3080" width="18.7109375" customWidth="1"/>
-    <col min="3081" max="3082" width="26.5703125" customWidth="1"/>
-    <col min="3083" max="3083" width="15.7109375" customWidth="1"/>
-    <col min="3084" max="3084" width="20.140625" customWidth="1"/>
-    <col min="3085" max="3086" width="15.7109375" customWidth="1"/>
-    <col min="3087" max="3088" width="12.7109375" customWidth="1"/>
-    <col min="3089" max="3090" width="13.7109375" customWidth="1"/>
-    <col min="3091" max="3091" width="14.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="11.28515625" customWidth="1"/>
-    <col min="3094" max="3094" width="15.7109375" customWidth="1"/>
+    <col min="2840" max="2841" width="22.7265625" customWidth="1"/>
+    <col min="3073" max="3073" width="25.7265625" customWidth="1"/>
+    <col min="3074" max="3075" width="20.7265625" customWidth="1"/>
+    <col min="3076" max="3076" width="20.26953125" customWidth="1"/>
+    <col min="3078" max="3078" width="22.7265625" customWidth="1"/>
+    <col min="3079" max="3079" width="15.7265625" customWidth="1"/>
+    <col min="3080" max="3080" width="18.7265625" customWidth="1"/>
+    <col min="3081" max="3082" width="26.54296875" customWidth="1"/>
+    <col min="3083" max="3083" width="15.7265625" customWidth="1"/>
+    <col min="3084" max="3084" width="20.1796875" customWidth="1"/>
+    <col min="3085" max="3086" width="15.7265625" customWidth="1"/>
+    <col min="3087" max="3088" width="12.7265625" customWidth="1"/>
+    <col min="3089" max="3090" width="13.7265625" customWidth="1"/>
+    <col min="3091" max="3091" width="14.7265625" customWidth="1"/>
+    <col min="3092" max="3092" width="11.26953125" customWidth="1"/>
+    <col min="3094" max="3094" width="15.7265625" customWidth="1"/>
     <col min="3095" max="3095" width="40" bestFit="1" customWidth="1"/>
-    <col min="3096" max="3097" width="22.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="25.7109375" customWidth="1"/>
-    <col min="3330" max="3331" width="20.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="20.28515625" customWidth="1"/>
-    <col min="3334" max="3334" width="22.7109375" customWidth="1"/>
-    <col min="3335" max="3335" width="15.7109375" customWidth="1"/>
-    <col min="3336" max="3336" width="18.7109375" customWidth="1"/>
-    <col min="3337" max="3338" width="26.5703125" customWidth="1"/>
-    <col min="3339" max="3339" width="15.7109375" customWidth="1"/>
-    <col min="3340" max="3340" width="20.140625" customWidth="1"/>
-    <col min="3341" max="3342" width="15.7109375" customWidth="1"/>
-    <col min="3343" max="3344" width="12.7109375" customWidth="1"/>
-    <col min="3345" max="3346" width="13.7109375" customWidth="1"/>
-    <col min="3347" max="3347" width="14.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="11.28515625" customWidth="1"/>
-    <col min="3350" max="3350" width="15.7109375" customWidth="1"/>
+    <col min="3096" max="3097" width="22.7265625" customWidth="1"/>
+    <col min="3329" max="3329" width="25.7265625" customWidth="1"/>
+    <col min="3330" max="3331" width="20.7265625" customWidth="1"/>
+    <col min="3332" max="3332" width="20.26953125" customWidth="1"/>
+    <col min="3334" max="3334" width="22.7265625" customWidth="1"/>
+    <col min="3335" max="3335" width="15.7265625" customWidth="1"/>
+    <col min="3336" max="3336" width="18.7265625" customWidth="1"/>
+    <col min="3337" max="3338" width="26.54296875" customWidth="1"/>
+    <col min="3339" max="3339" width="15.7265625" customWidth="1"/>
+    <col min="3340" max="3340" width="20.1796875" customWidth="1"/>
+    <col min="3341" max="3342" width="15.7265625" customWidth="1"/>
+    <col min="3343" max="3344" width="12.7265625" customWidth="1"/>
+    <col min="3345" max="3346" width="13.7265625" customWidth="1"/>
+    <col min="3347" max="3347" width="14.7265625" customWidth="1"/>
+    <col min="3348" max="3348" width="11.26953125" customWidth="1"/>
+    <col min="3350" max="3350" width="15.7265625" customWidth="1"/>
     <col min="3351" max="3351" width="40" bestFit="1" customWidth="1"/>
-    <col min="3352" max="3353" width="22.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="25.7109375" customWidth="1"/>
-    <col min="3586" max="3587" width="20.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="20.28515625" customWidth="1"/>
-    <col min="3590" max="3590" width="22.7109375" customWidth="1"/>
-    <col min="3591" max="3591" width="15.7109375" customWidth="1"/>
-    <col min="3592" max="3592" width="18.7109375" customWidth="1"/>
-    <col min="3593" max="3594" width="26.5703125" customWidth="1"/>
-    <col min="3595" max="3595" width="15.7109375" customWidth="1"/>
-    <col min="3596" max="3596" width="20.140625" customWidth="1"/>
-    <col min="3597" max="3598" width="15.7109375" customWidth="1"/>
-    <col min="3599" max="3600" width="12.7109375" customWidth="1"/>
-    <col min="3601" max="3602" width="13.7109375" customWidth="1"/>
-    <col min="3603" max="3603" width="14.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="11.28515625" customWidth="1"/>
-    <col min="3606" max="3606" width="15.7109375" customWidth="1"/>
+    <col min="3352" max="3353" width="22.7265625" customWidth="1"/>
+    <col min="3585" max="3585" width="25.7265625" customWidth="1"/>
+    <col min="3586" max="3587" width="20.7265625" customWidth="1"/>
+    <col min="3588" max="3588" width="20.26953125" customWidth="1"/>
+    <col min="3590" max="3590" width="22.7265625" customWidth="1"/>
+    <col min="3591" max="3591" width="15.7265625" customWidth="1"/>
+    <col min="3592" max="3592" width="18.7265625" customWidth="1"/>
+    <col min="3593" max="3594" width="26.54296875" customWidth="1"/>
+    <col min="3595" max="3595" width="15.7265625" customWidth="1"/>
+    <col min="3596" max="3596" width="20.1796875" customWidth="1"/>
+    <col min="3597" max="3598" width="15.7265625" customWidth="1"/>
+    <col min="3599" max="3600" width="12.7265625" customWidth="1"/>
+    <col min="3601" max="3602" width="13.7265625" customWidth="1"/>
+    <col min="3603" max="3603" width="14.7265625" customWidth="1"/>
+    <col min="3604" max="3604" width="11.26953125" customWidth="1"/>
+    <col min="3606" max="3606" width="15.7265625" customWidth="1"/>
     <col min="3607" max="3607" width="40" bestFit="1" customWidth="1"/>
-    <col min="3608" max="3609" width="22.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="25.7109375" customWidth="1"/>
-    <col min="3842" max="3843" width="20.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="20.28515625" customWidth="1"/>
-    <col min="3846" max="3846" width="22.7109375" customWidth="1"/>
-    <col min="3847" max="3847" width="15.7109375" customWidth="1"/>
-    <col min="3848" max="3848" width="18.7109375" customWidth="1"/>
-    <col min="3849" max="3850" width="26.5703125" customWidth="1"/>
-    <col min="3851" max="3851" width="15.7109375" customWidth="1"/>
-    <col min="3852" max="3852" width="20.140625" customWidth="1"/>
-    <col min="3853" max="3854" width="15.7109375" customWidth="1"/>
-    <col min="3855" max="3856" width="12.7109375" customWidth="1"/>
-    <col min="3857" max="3858" width="13.7109375" customWidth="1"/>
-    <col min="3859" max="3859" width="14.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="11.28515625" customWidth="1"/>
-    <col min="3862" max="3862" width="15.7109375" customWidth="1"/>
+    <col min="3608" max="3609" width="22.7265625" customWidth="1"/>
+    <col min="3841" max="3841" width="25.7265625" customWidth="1"/>
+    <col min="3842" max="3843" width="20.7265625" customWidth="1"/>
+    <col min="3844" max="3844" width="20.26953125" customWidth="1"/>
+    <col min="3846" max="3846" width="22.7265625" customWidth="1"/>
+    <col min="3847" max="3847" width="15.7265625" customWidth="1"/>
+    <col min="3848" max="3848" width="18.7265625" customWidth="1"/>
+    <col min="3849" max="3850" width="26.54296875" customWidth="1"/>
+    <col min="3851" max="3851" width="15.7265625" customWidth="1"/>
+    <col min="3852" max="3852" width="20.1796875" customWidth="1"/>
+    <col min="3853" max="3854" width="15.7265625" customWidth="1"/>
+    <col min="3855" max="3856" width="12.7265625" customWidth="1"/>
+    <col min="3857" max="3858" width="13.7265625" customWidth="1"/>
+    <col min="3859" max="3859" width="14.7265625" customWidth="1"/>
+    <col min="3860" max="3860" width="11.26953125" customWidth="1"/>
+    <col min="3862" max="3862" width="15.7265625" customWidth="1"/>
     <col min="3863" max="3863" width="40" bestFit="1" customWidth="1"/>
-    <col min="3864" max="3865" width="22.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="25.7109375" customWidth="1"/>
-    <col min="4098" max="4099" width="20.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="20.28515625" customWidth="1"/>
-    <col min="4102" max="4102" width="22.7109375" customWidth="1"/>
-    <col min="4103" max="4103" width="15.7109375" customWidth="1"/>
-    <col min="4104" max="4104" width="18.7109375" customWidth="1"/>
-    <col min="4105" max="4106" width="26.5703125" customWidth="1"/>
-    <col min="4107" max="4107" width="15.7109375" customWidth="1"/>
-    <col min="4108" max="4108" width="20.140625" customWidth="1"/>
-    <col min="4109" max="4110" width="15.7109375" customWidth="1"/>
-    <col min="4111" max="4112" width="12.7109375" customWidth="1"/>
-    <col min="4113" max="4114" width="13.7109375" customWidth="1"/>
-    <col min="4115" max="4115" width="14.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="11.28515625" customWidth="1"/>
-    <col min="4118" max="4118" width="15.7109375" customWidth="1"/>
+    <col min="3864" max="3865" width="22.7265625" customWidth="1"/>
+    <col min="4097" max="4097" width="25.7265625" customWidth="1"/>
+    <col min="4098" max="4099" width="20.7265625" customWidth="1"/>
+    <col min="4100" max="4100" width="20.26953125" customWidth="1"/>
+    <col min="4102" max="4102" width="22.7265625" customWidth="1"/>
+    <col min="4103" max="4103" width="15.7265625" customWidth="1"/>
+    <col min="4104" max="4104" width="18.7265625" customWidth="1"/>
+    <col min="4105" max="4106" width="26.54296875" customWidth="1"/>
+    <col min="4107" max="4107" width="15.7265625" customWidth="1"/>
+    <col min="4108" max="4108" width="20.1796875" customWidth="1"/>
+    <col min="4109" max="4110" width="15.7265625" customWidth="1"/>
+    <col min="4111" max="4112" width="12.7265625" customWidth="1"/>
+    <col min="4113" max="4114" width="13.7265625" customWidth="1"/>
+    <col min="4115" max="4115" width="14.7265625" customWidth="1"/>
+    <col min="4116" max="4116" width="11.26953125" customWidth="1"/>
+    <col min="4118" max="4118" width="15.7265625" customWidth="1"/>
     <col min="4119" max="4119" width="40" bestFit="1" customWidth="1"/>
-    <col min="4120" max="4121" width="22.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="25.7109375" customWidth="1"/>
-    <col min="4354" max="4355" width="20.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="20.28515625" customWidth="1"/>
-    <col min="4358" max="4358" width="22.7109375" customWidth="1"/>
-    <col min="4359" max="4359" width="15.7109375" customWidth="1"/>
-    <col min="4360" max="4360" width="18.7109375" customWidth="1"/>
-    <col min="4361" max="4362" width="26.5703125" customWidth="1"/>
-    <col min="4363" max="4363" width="15.7109375" customWidth="1"/>
-    <col min="4364" max="4364" width="20.140625" customWidth="1"/>
-    <col min="4365" max="4366" width="15.7109375" customWidth="1"/>
-    <col min="4367" max="4368" width="12.7109375" customWidth="1"/>
-    <col min="4369" max="4370" width="13.7109375" customWidth="1"/>
-    <col min="4371" max="4371" width="14.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="11.28515625" customWidth="1"/>
-    <col min="4374" max="4374" width="15.7109375" customWidth="1"/>
+    <col min="4120" max="4121" width="22.7265625" customWidth="1"/>
+    <col min="4353" max="4353" width="25.7265625" customWidth="1"/>
+    <col min="4354" max="4355" width="20.7265625" customWidth="1"/>
+    <col min="4356" max="4356" width="20.26953125" customWidth="1"/>
+    <col min="4358" max="4358" width="22.7265625" customWidth="1"/>
+    <col min="4359" max="4359" width="15.7265625" customWidth="1"/>
+    <col min="4360" max="4360" width="18.7265625" customWidth="1"/>
+    <col min="4361" max="4362" width="26.54296875" customWidth="1"/>
+    <col min="4363" max="4363" width="15.7265625" customWidth="1"/>
+    <col min="4364" max="4364" width="20.1796875" customWidth="1"/>
+    <col min="4365" max="4366" width="15.7265625" customWidth="1"/>
+    <col min="4367" max="4368" width="12.7265625" customWidth="1"/>
+    <col min="4369" max="4370" width="13.7265625" customWidth="1"/>
+    <col min="4371" max="4371" width="14.7265625" customWidth="1"/>
+    <col min="4372" max="4372" width="11.26953125" customWidth="1"/>
+    <col min="4374" max="4374" width="15.7265625" customWidth="1"/>
     <col min="4375" max="4375" width="40" bestFit="1" customWidth="1"/>
-    <col min="4376" max="4377" width="22.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="25.7109375" customWidth="1"/>
-    <col min="4610" max="4611" width="20.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="20.28515625" customWidth="1"/>
-    <col min="4614" max="4614" width="22.7109375" customWidth="1"/>
-    <col min="4615" max="4615" width="15.7109375" customWidth="1"/>
-    <col min="4616" max="4616" width="18.7109375" customWidth="1"/>
-    <col min="4617" max="4618" width="26.5703125" customWidth="1"/>
-    <col min="4619" max="4619" width="15.7109375" customWidth="1"/>
-    <col min="4620" max="4620" width="20.140625" customWidth="1"/>
-    <col min="4621" max="4622" width="15.7109375" customWidth="1"/>
-    <col min="4623" max="4624" width="12.7109375" customWidth="1"/>
-    <col min="4625" max="4626" width="13.7109375" customWidth="1"/>
-    <col min="4627" max="4627" width="14.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="11.28515625" customWidth="1"/>
-    <col min="4630" max="4630" width="15.7109375" customWidth="1"/>
+    <col min="4376" max="4377" width="22.7265625" customWidth="1"/>
+    <col min="4609" max="4609" width="25.7265625" customWidth="1"/>
+    <col min="4610" max="4611" width="20.7265625" customWidth="1"/>
+    <col min="4612" max="4612" width="20.26953125" customWidth="1"/>
+    <col min="4614" max="4614" width="22.7265625" customWidth="1"/>
+    <col min="4615" max="4615" width="15.7265625" customWidth="1"/>
+    <col min="4616" max="4616" width="18.7265625" customWidth="1"/>
+    <col min="4617" max="4618" width="26.54296875" customWidth="1"/>
+    <col min="4619" max="4619" width="15.7265625" customWidth="1"/>
+    <col min="4620" max="4620" width="20.1796875" customWidth="1"/>
+    <col min="4621" max="4622" width="15.7265625" customWidth="1"/>
+    <col min="4623" max="4624" width="12.7265625" customWidth="1"/>
+    <col min="4625" max="4626" width="13.7265625" customWidth="1"/>
+    <col min="4627" max="4627" width="14.7265625" customWidth="1"/>
+    <col min="4628" max="4628" width="11.26953125" customWidth="1"/>
+    <col min="4630" max="4630" width="15.7265625" customWidth="1"/>
     <col min="4631" max="4631" width="40" bestFit="1" customWidth="1"/>
-    <col min="4632" max="4633" width="22.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="25.7109375" customWidth="1"/>
-    <col min="4866" max="4867" width="20.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="20.28515625" customWidth="1"/>
-    <col min="4870" max="4870" width="22.7109375" customWidth="1"/>
-    <col min="4871" max="4871" width="15.7109375" customWidth="1"/>
-    <col min="4872" max="4872" width="18.7109375" customWidth="1"/>
-    <col min="4873" max="4874" width="26.5703125" customWidth="1"/>
-    <col min="4875" max="4875" width="15.7109375" customWidth="1"/>
-    <col min="4876" max="4876" width="20.140625" customWidth="1"/>
-    <col min="4877" max="4878" width="15.7109375" customWidth="1"/>
-    <col min="4879" max="4880" width="12.7109375" customWidth="1"/>
-    <col min="4881" max="4882" width="13.7109375" customWidth="1"/>
-    <col min="4883" max="4883" width="14.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="11.28515625" customWidth="1"/>
-    <col min="4886" max="4886" width="15.7109375" customWidth="1"/>
+    <col min="4632" max="4633" width="22.7265625" customWidth="1"/>
+    <col min="4865" max="4865" width="25.7265625" customWidth="1"/>
+    <col min="4866" max="4867" width="20.7265625" customWidth="1"/>
+    <col min="4868" max="4868" width="20.26953125" customWidth="1"/>
+    <col min="4870" max="4870" width="22.7265625" customWidth="1"/>
+    <col min="4871" max="4871" width="15.7265625" customWidth="1"/>
+    <col min="4872" max="4872" width="18.7265625" customWidth="1"/>
+    <col min="4873" max="4874" width="26.54296875" customWidth="1"/>
+    <col min="4875" max="4875" width="15.7265625" customWidth="1"/>
+    <col min="4876" max="4876" width="20.1796875" customWidth="1"/>
+    <col min="4877" max="4878" width="15.7265625" customWidth="1"/>
+    <col min="4879" max="4880" width="12.7265625" customWidth="1"/>
+    <col min="4881" max="4882" width="13.7265625" customWidth="1"/>
+    <col min="4883" max="4883" width="14.7265625" customWidth="1"/>
+    <col min="4884" max="4884" width="11.26953125" customWidth="1"/>
+    <col min="4886" max="4886" width="15.7265625" customWidth="1"/>
     <col min="4887" max="4887" width="40" bestFit="1" customWidth="1"/>
-    <col min="4888" max="4889" width="22.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="25.7109375" customWidth="1"/>
-    <col min="5122" max="5123" width="20.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="20.28515625" customWidth="1"/>
-    <col min="5126" max="5126" width="22.7109375" customWidth="1"/>
-    <col min="5127" max="5127" width="15.7109375" customWidth="1"/>
-    <col min="5128" max="5128" width="18.7109375" customWidth="1"/>
-    <col min="5129" max="5130" width="26.5703125" customWidth="1"/>
-    <col min="5131" max="5131" width="15.7109375" customWidth="1"/>
-    <col min="5132" max="5132" width="20.140625" customWidth="1"/>
-    <col min="5133" max="5134" width="15.7109375" customWidth="1"/>
-    <col min="5135" max="5136" width="12.7109375" customWidth="1"/>
-    <col min="5137" max="5138" width="13.7109375" customWidth="1"/>
-    <col min="5139" max="5139" width="14.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="11.28515625" customWidth="1"/>
-    <col min="5142" max="5142" width="15.7109375" customWidth="1"/>
+    <col min="4888" max="4889" width="22.7265625" customWidth="1"/>
+    <col min="5121" max="5121" width="25.7265625" customWidth="1"/>
+    <col min="5122" max="5123" width="20.7265625" customWidth="1"/>
+    <col min="5124" max="5124" width="20.26953125" customWidth="1"/>
+    <col min="5126" max="5126" width="22.7265625" customWidth="1"/>
+    <col min="5127" max="5127" width="15.7265625" customWidth="1"/>
+    <col min="5128" max="5128" width="18.7265625" customWidth="1"/>
+    <col min="5129" max="5130" width="26.54296875" customWidth="1"/>
+    <col min="5131" max="5131" width="15.7265625" customWidth="1"/>
+    <col min="5132" max="5132" width="20.1796875" customWidth="1"/>
+    <col min="5133" max="5134" width="15.7265625" customWidth="1"/>
+    <col min="5135" max="5136" width="12.7265625" customWidth="1"/>
+    <col min="5137" max="5138" width="13.7265625" customWidth="1"/>
+    <col min="5139" max="5139" width="14.7265625" customWidth="1"/>
+    <col min="5140" max="5140" width="11.26953125" customWidth="1"/>
+    <col min="5142" max="5142" width="15.7265625" customWidth="1"/>
     <col min="5143" max="5143" width="40" bestFit="1" customWidth="1"/>
-    <col min="5144" max="5145" width="22.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="25.7109375" customWidth="1"/>
-    <col min="5378" max="5379" width="20.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="20.28515625" customWidth="1"/>
-    <col min="5382" max="5382" width="22.7109375" customWidth="1"/>
-    <col min="5383" max="5383" width="15.7109375" customWidth="1"/>
-    <col min="5384" max="5384" width="18.7109375" customWidth="1"/>
-    <col min="5385" max="5386" width="26.5703125" customWidth="1"/>
-    <col min="5387" max="5387" width="15.7109375" customWidth="1"/>
-    <col min="5388" max="5388" width="20.140625" customWidth="1"/>
-    <col min="5389" max="5390" width="15.7109375" customWidth="1"/>
-    <col min="5391" max="5392" width="12.7109375" customWidth="1"/>
-    <col min="5393" max="5394" width="13.7109375" customWidth="1"/>
-    <col min="5395" max="5395" width="14.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="11.28515625" customWidth="1"/>
-    <col min="5398" max="5398" width="15.7109375" customWidth="1"/>
+    <col min="5144" max="5145" width="22.7265625" customWidth="1"/>
+    <col min="5377" max="5377" width="25.7265625" customWidth="1"/>
+    <col min="5378" max="5379" width="20.7265625" customWidth="1"/>
+    <col min="5380" max="5380" width="20.26953125" customWidth="1"/>
+    <col min="5382" max="5382" width="22.7265625" customWidth="1"/>
+    <col min="5383" max="5383" width="15.7265625" customWidth="1"/>
+    <col min="5384" max="5384" width="18.7265625" customWidth="1"/>
+    <col min="5385" max="5386" width="26.54296875" customWidth="1"/>
+    <col min="5387" max="5387" width="15.7265625" customWidth="1"/>
+    <col min="5388" max="5388" width="20.1796875" customWidth="1"/>
+    <col min="5389" max="5390" width="15.7265625" customWidth="1"/>
+    <col min="5391" max="5392" width="12.7265625" customWidth="1"/>
+    <col min="5393" max="5394" width="13.7265625" customWidth="1"/>
+    <col min="5395" max="5395" width="14.7265625" customWidth="1"/>
+    <col min="5396" max="5396" width="11.26953125" customWidth="1"/>
+    <col min="5398" max="5398" width="15.7265625" customWidth="1"/>
     <col min="5399" max="5399" width="40" bestFit="1" customWidth="1"/>
-    <col min="5400" max="5401" width="22.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="25.7109375" customWidth="1"/>
-    <col min="5634" max="5635" width="20.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="20.28515625" customWidth="1"/>
-    <col min="5638" max="5638" width="22.7109375" customWidth="1"/>
-    <col min="5639" max="5639" width="15.7109375" customWidth="1"/>
-    <col min="5640" max="5640" width="18.7109375" customWidth="1"/>
-    <col min="5641" max="5642" width="26.5703125" customWidth="1"/>
-    <col min="5643" max="5643" width="15.7109375" customWidth="1"/>
-    <col min="5644" max="5644" width="20.140625" customWidth="1"/>
-    <col min="5645" max="5646" width="15.7109375" customWidth="1"/>
-    <col min="5647" max="5648" width="12.7109375" customWidth="1"/>
-    <col min="5649" max="5650" width="13.7109375" customWidth="1"/>
-    <col min="5651" max="5651" width="14.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="11.28515625" customWidth="1"/>
-    <col min="5654" max="5654" width="15.7109375" customWidth="1"/>
+    <col min="5400" max="5401" width="22.7265625" customWidth="1"/>
+    <col min="5633" max="5633" width="25.7265625" customWidth="1"/>
+    <col min="5634" max="5635" width="20.7265625" customWidth="1"/>
+    <col min="5636" max="5636" width="20.26953125" customWidth="1"/>
+    <col min="5638" max="5638" width="22.7265625" customWidth="1"/>
+    <col min="5639" max="5639" width="15.7265625" customWidth="1"/>
+    <col min="5640" max="5640" width="18.7265625" customWidth="1"/>
+    <col min="5641" max="5642" width="26.54296875" customWidth="1"/>
+    <col min="5643" max="5643" width="15.7265625" customWidth="1"/>
+    <col min="5644" max="5644" width="20.1796875" customWidth="1"/>
+    <col min="5645" max="5646" width="15.7265625" customWidth="1"/>
+    <col min="5647" max="5648" width="12.7265625" customWidth="1"/>
+    <col min="5649" max="5650" width="13.7265625" customWidth="1"/>
+    <col min="5651" max="5651" width="14.7265625" customWidth="1"/>
+    <col min="5652" max="5652" width="11.26953125" customWidth="1"/>
+    <col min="5654" max="5654" width="15.7265625" customWidth="1"/>
     <col min="5655" max="5655" width="40" bestFit="1" customWidth="1"/>
-    <col min="5656" max="5657" width="22.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="25.7109375" customWidth="1"/>
-    <col min="5890" max="5891" width="20.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="20.28515625" customWidth="1"/>
-    <col min="5894" max="5894" width="22.7109375" customWidth="1"/>
-    <col min="5895" max="5895" width="15.7109375" customWidth="1"/>
-    <col min="5896" max="5896" width="18.7109375" customWidth="1"/>
-    <col min="5897" max="5898" width="26.5703125" customWidth="1"/>
-    <col min="5899" max="5899" width="15.7109375" customWidth="1"/>
-    <col min="5900" max="5900" width="20.140625" customWidth="1"/>
-    <col min="5901" max="5902" width="15.7109375" customWidth="1"/>
-    <col min="5903" max="5904" width="12.7109375" customWidth="1"/>
-    <col min="5905" max="5906" width="13.7109375" customWidth="1"/>
-    <col min="5907" max="5907" width="14.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="11.28515625" customWidth="1"/>
-    <col min="5910" max="5910" width="15.7109375" customWidth="1"/>
+    <col min="5656" max="5657" width="22.7265625" customWidth="1"/>
+    <col min="5889" max="5889" width="25.7265625" customWidth="1"/>
+    <col min="5890" max="5891" width="20.7265625" customWidth="1"/>
+    <col min="5892" max="5892" width="20.26953125" customWidth="1"/>
+    <col min="5894" max="5894" width="22.7265625" customWidth="1"/>
+    <col min="5895" max="5895" width="15.7265625" customWidth="1"/>
+    <col min="5896" max="5896" width="18.7265625" customWidth="1"/>
+    <col min="5897" max="5898" width="26.54296875" customWidth="1"/>
+    <col min="5899" max="5899" width="15.7265625" customWidth="1"/>
+    <col min="5900" max="5900" width="20.1796875" customWidth="1"/>
+    <col min="5901" max="5902" width="15.7265625" customWidth="1"/>
+    <col min="5903" max="5904" width="12.7265625" customWidth="1"/>
+    <col min="5905" max="5906" width="13.7265625" customWidth="1"/>
+    <col min="5907" max="5907" width="14.7265625" customWidth="1"/>
+    <col min="5908" max="5908" width="11.26953125" customWidth="1"/>
+    <col min="5910" max="5910" width="15.7265625" customWidth="1"/>
     <col min="5911" max="5911" width="40" bestFit="1" customWidth="1"/>
-    <col min="5912" max="5913" width="22.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="25.7109375" customWidth="1"/>
-    <col min="6146" max="6147" width="20.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="20.28515625" customWidth="1"/>
-    <col min="6150" max="6150" width="22.7109375" customWidth="1"/>
-    <col min="6151" max="6151" width="15.7109375" customWidth="1"/>
-    <col min="6152" max="6152" width="18.7109375" customWidth="1"/>
-    <col min="6153" max="6154" width="26.5703125" customWidth="1"/>
-    <col min="6155" max="6155" width="15.7109375" customWidth="1"/>
-    <col min="6156" max="6156" width="20.140625" customWidth="1"/>
-    <col min="6157" max="6158" width="15.7109375" customWidth="1"/>
-    <col min="6159" max="6160" width="12.7109375" customWidth="1"/>
-    <col min="6161" max="6162" width="13.7109375" customWidth="1"/>
-    <col min="6163" max="6163" width="14.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="11.28515625" customWidth="1"/>
-    <col min="6166" max="6166" width="15.7109375" customWidth="1"/>
+    <col min="5912" max="5913" width="22.7265625" customWidth="1"/>
+    <col min="6145" max="6145" width="25.7265625" customWidth="1"/>
+    <col min="6146" max="6147" width="20.7265625" customWidth="1"/>
+    <col min="6148" max="6148" width="20.26953125" customWidth="1"/>
+    <col min="6150" max="6150" width="22.7265625" customWidth="1"/>
+    <col min="6151" max="6151" width="15.7265625" customWidth="1"/>
+    <col min="6152" max="6152" width="18.7265625" customWidth="1"/>
+    <col min="6153" max="6154" width="26.54296875" customWidth="1"/>
+    <col min="6155" max="6155" width="15.7265625" customWidth="1"/>
+    <col min="6156" max="6156" width="20.1796875" customWidth="1"/>
+    <col min="6157" max="6158" width="15.7265625" customWidth="1"/>
+    <col min="6159" max="6160" width="12.7265625" customWidth="1"/>
+    <col min="6161" max="6162" width="13.7265625" customWidth="1"/>
+    <col min="6163" max="6163" width="14.7265625" customWidth="1"/>
+    <col min="6164" max="6164" width="11.26953125" customWidth="1"/>
+    <col min="6166" max="6166" width="15.7265625" customWidth="1"/>
     <col min="6167" max="6167" width="40" bestFit="1" customWidth="1"/>
-    <col min="6168" max="6169" width="22.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="25.7109375" customWidth="1"/>
-    <col min="6402" max="6403" width="20.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="20.28515625" customWidth="1"/>
-    <col min="6406" max="6406" width="22.7109375" customWidth="1"/>
-    <col min="6407" max="6407" width="15.7109375" customWidth="1"/>
-    <col min="6408" max="6408" width="18.7109375" customWidth="1"/>
-    <col min="6409" max="6410" width="26.5703125" customWidth="1"/>
-    <col min="6411" max="6411" width="15.7109375" customWidth="1"/>
-    <col min="6412" max="6412" width="20.140625" customWidth="1"/>
-    <col min="6413" max="6414" width="15.7109375" customWidth="1"/>
-    <col min="6415" max="6416" width="12.7109375" customWidth="1"/>
-    <col min="6417" max="6418" width="13.7109375" customWidth="1"/>
-    <col min="6419" max="6419" width="14.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="11.28515625" customWidth="1"/>
-    <col min="6422" max="6422" width="15.7109375" customWidth="1"/>
+    <col min="6168" max="6169" width="22.7265625" customWidth="1"/>
+    <col min="6401" max="6401" width="25.7265625" customWidth="1"/>
+    <col min="6402" max="6403" width="20.7265625" customWidth="1"/>
+    <col min="6404" max="6404" width="20.26953125" customWidth="1"/>
+    <col min="6406" max="6406" width="22.7265625" customWidth="1"/>
+    <col min="6407" max="6407" width="15.7265625" customWidth="1"/>
+    <col min="6408" max="6408" width="18.7265625" customWidth="1"/>
+    <col min="6409" max="6410" width="26.54296875" customWidth="1"/>
+    <col min="6411" max="6411" width="15.7265625" customWidth="1"/>
+    <col min="6412" max="6412" width="20.1796875" customWidth="1"/>
+    <col min="6413" max="6414" width="15.7265625" customWidth="1"/>
+    <col min="6415" max="6416" width="12.7265625" customWidth="1"/>
+    <col min="6417" max="6418" width="13.7265625" customWidth="1"/>
+    <col min="6419" max="6419" width="14.7265625" customWidth="1"/>
+    <col min="6420" max="6420" width="11.26953125" customWidth="1"/>
+    <col min="6422" max="6422" width="15.7265625" customWidth="1"/>
     <col min="6423" max="6423" width="40" bestFit="1" customWidth="1"/>
-    <col min="6424" max="6425" width="22.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="25.7109375" customWidth="1"/>
-    <col min="6658" max="6659" width="20.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="20.28515625" customWidth="1"/>
-    <col min="6662" max="6662" width="22.7109375" customWidth="1"/>
-    <col min="6663" max="6663" width="15.7109375" customWidth="1"/>
-    <col min="6664" max="6664" width="18.7109375" customWidth="1"/>
-    <col min="6665" max="6666" width="26.5703125" customWidth="1"/>
-    <col min="6667" max="6667" width="15.7109375" customWidth="1"/>
-    <col min="6668" max="6668" width="20.140625" customWidth="1"/>
-    <col min="6669" max="6670" width="15.7109375" customWidth="1"/>
-    <col min="6671" max="6672" width="12.7109375" customWidth="1"/>
-    <col min="6673" max="6674" width="13.7109375" customWidth="1"/>
-    <col min="6675" max="6675" width="14.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="11.28515625" customWidth="1"/>
-    <col min="6678" max="6678" width="15.7109375" customWidth="1"/>
+    <col min="6424" max="6425" width="22.7265625" customWidth="1"/>
+    <col min="6657" max="6657" width="25.7265625" customWidth="1"/>
+    <col min="6658" max="6659" width="20.7265625" customWidth="1"/>
+    <col min="6660" max="6660" width="20.26953125" customWidth="1"/>
+    <col min="6662" max="6662" width="22.7265625" customWidth="1"/>
+    <col min="6663" max="6663" width="15.7265625" customWidth="1"/>
+    <col min="6664" max="6664" width="18.7265625" customWidth="1"/>
+    <col min="6665" max="6666" width="26.54296875" customWidth="1"/>
+    <col min="6667" max="6667" width="15.7265625" customWidth="1"/>
+    <col min="6668" max="6668" width="20.1796875" customWidth="1"/>
+    <col min="6669" max="6670" width="15.7265625" customWidth="1"/>
+    <col min="6671" max="6672" width="12.7265625" customWidth="1"/>
+    <col min="6673" max="6674" width="13.7265625" customWidth="1"/>
+    <col min="6675" max="6675" width="14.7265625" customWidth="1"/>
+    <col min="6676" max="6676" width="11.26953125" customWidth="1"/>
+    <col min="6678" max="6678" width="15.7265625" customWidth="1"/>
     <col min="6679" max="6679" width="40" bestFit="1" customWidth="1"/>
-    <col min="6680" max="6681" width="22.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="25.7109375" customWidth="1"/>
-    <col min="6914" max="6915" width="20.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="20.28515625" customWidth="1"/>
-    <col min="6918" max="6918" width="22.7109375" customWidth="1"/>
-    <col min="6919" max="6919" width="15.7109375" customWidth="1"/>
-    <col min="6920" max="6920" width="18.7109375" customWidth="1"/>
-    <col min="6921" max="6922" width="26.5703125" customWidth="1"/>
-    <col min="6923" max="6923" width="15.7109375" customWidth="1"/>
-    <col min="6924" max="6924" width="20.140625" customWidth="1"/>
-    <col min="6925" max="6926" width="15.7109375" customWidth="1"/>
-    <col min="6927" max="6928" width="12.7109375" customWidth="1"/>
-    <col min="6929" max="6930" width="13.7109375" customWidth="1"/>
-    <col min="6931" max="6931" width="14.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="11.28515625" customWidth="1"/>
-    <col min="6934" max="6934" width="15.7109375" customWidth="1"/>
+    <col min="6680" max="6681" width="22.7265625" customWidth="1"/>
+    <col min="6913" max="6913" width="25.7265625" customWidth="1"/>
+    <col min="6914" max="6915" width="20.7265625" customWidth="1"/>
+    <col min="6916" max="6916" width="20.26953125" customWidth="1"/>
+    <col min="6918" max="6918" width="22.7265625" customWidth="1"/>
+    <col min="6919" max="6919" width="15.7265625" customWidth="1"/>
+    <col min="6920" max="6920" width="18.7265625" customWidth="1"/>
+    <col min="6921" max="6922" width="26.54296875" customWidth="1"/>
+    <col min="6923" max="6923" width="15.7265625" customWidth="1"/>
+    <col min="6924" max="6924" width="20.1796875" customWidth="1"/>
+    <col min="6925" max="6926" width="15.7265625" customWidth="1"/>
+    <col min="6927" max="6928" width="12.7265625" customWidth="1"/>
+    <col min="6929" max="6930" width="13.7265625" customWidth="1"/>
+    <col min="6931" max="6931" width="14.7265625" customWidth="1"/>
+    <col min="6932" max="6932" width="11.26953125" customWidth="1"/>
+    <col min="6934" max="6934" width="15.7265625" customWidth="1"/>
     <col min="6935" max="6935" width="40" bestFit="1" customWidth="1"/>
-    <col min="6936" max="6937" width="22.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="25.7109375" customWidth="1"/>
-    <col min="7170" max="7171" width="20.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="20.28515625" customWidth="1"/>
-    <col min="7174" max="7174" width="22.7109375" customWidth="1"/>
-    <col min="7175" max="7175" width="15.7109375" customWidth="1"/>
-    <col min="7176" max="7176" width="18.7109375" customWidth="1"/>
-    <col min="7177" max="7178" width="26.5703125" customWidth="1"/>
-    <col min="7179" max="7179" width="15.7109375" customWidth="1"/>
-    <col min="7180" max="7180" width="20.140625" customWidth="1"/>
-    <col min="7181" max="7182" width="15.7109375" customWidth="1"/>
-    <col min="7183" max="7184" width="12.7109375" customWidth="1"/>
-    <col min="7185" max="7186" width="13.7109375" customWidth="1"/>
-    <col min="7187" max="7187" width="14.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="11.28515625" customWidth="1"/>
-    <col min="7190" max="7190" width="15.7109375" customWidth="1"/>
+    <col min="6936" max="6937" width="22.7265625" customWidth="1"/>
+    <col min="7169" max="7169" width="25.7265625" customWidth="1"/>
+    <col min="7170" max="7171" width="20.7265625" customWidth="1"/>
+    <col min="7172" max="7172" width="20.26953125" customWidth="1"/>
+    <col min="7174" max="7174" width="22.7265625" customWidth="1"/>
+    <col min="7175" max="7175" width="15.7265625" customWidth="1"/>
+    <col min="7176" max="7176" width="18.7265625" customWidth="1"/>
+    <col min="7177" max="7178" width="26.54296875" customWidth="1"/>
+    <col min="7179" max="7179" width="15.7265625" customWidth="1"/>
+    <col min="7180" max="7180" width="20.1796875" customWidth="1"/>
+    <col min="7181" max="7182" width="15.7265625" customWidth="1"/>
+    <col min="7183" max="7184" width="12.7265625" customWidth="1"/>
+    <col min="7185" max="7186" width="13.7265625" customWidth="1"/>
+    <col min="7187" max="7187" width="14.7265625" customWidth="1"/>
+    <col min="7188" max="7188" width="11.26953125" customWidth="1"/>
+    <col min="7190" max="7190" width="15.7265625" customWidth="1"/>
     <col min="7191" max="7191" width="40" bestFit="1" customWidth="1"/>
-    <col min="7192" max="7193" width="22.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="25.7109375" customWidth="1"/>
-    <col min="7426" max="7427" width="20.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="20.28515625" customWidth="1"/>
-    <col min="7430" max="7430" width="22.7109375" customWidth="1"/>
-    <col min="7431" max="7431" width="15.7109375" customWidth="1"/>
-    <col min="7432" max="7432" width="18.7109375" customWidth="1"/>
-    <col min="7433" max="7434" width="26.5703125" customWidth="1"/>
-    <col min="7435" max="7435" width="15.7109375" customWidth="1"/>
-    <col min="7436" max="7436" width="20.140625" customWidth="1"/>
-    <col min="7437" max="7438" width="15.7109375" customWidth="1"/>
-    <col min="7439" max="7440" width="12.7109375" customWidth="1"/>
-    <col min="7441" max="7442" width="13.7109375" customWidth="1"/>
-    <col min="7443" max="7443" width="14.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="11.28515625" customWidth="1"/>
-    <col min="7446" max="7446" width="15.7109375" customWidth="1"/>
+    <col min="7192" max="7193" width="22.7265625" customWidth="1"/>
+    <col min="7425" max="7425" width="25.7265625" customWidth="1"/>
+    <col min="7426" max="7427" width="20.7265625" customWidth="1"/>
+    <col min="7428" max="7428" width="20.26953125" customWidth="1"/>
+    <col min="7430" max="7430" width="22.7265625" customWidth="1"/>
+    <col min="7431" max="7431" width="15.7265625" customWidth="1"/>
+    <col min="7432" max="7432" width="18.7265625" customWidth="1"/>
+    <col min="7433" max="7434" width="26.54296875" customWidth="1"/>
+    <col min="7435" max="7435" width="15.7265625" customWidth="1"/>
+    <col min="7436" max="7436" width="20.1796875" customWidth="1"/>
+    <col min="7437" max="7438" width="15.7265625" customWidth="1"/>
+    <col min="7439" max="7440" width="12.7265625" customWidth="1"/>
+    <col min="7441" max="7442" width="13.7265625" customWidth="1"/>
+    <col min="7443" max="7443" width="14.7265625" customWidth="1"/>
+    <col min="7444" max="7444" width="11.26953125" customWidth="1"/>
+    <col min="7446" max="7446" width="15.7265625" customWidth="1"/>
     <col min="7447" max="7447" width="40" bestFit="1" customWidth="1"/>
-    <col min="7448" max="7449" width="22.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="25.7109375" customWidth="1"/>
-    <col min="7682" max="7683" width="20.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="20.28515625" customWidth="1"/>
-    <col min="7686" max="7686" width="22.7109375" customWidth="1"/>
-    <col min="7687" max="7687" width="15.7109375" customWidth="1"/>
-    <col min="7688" max="7688" width="18.7109375" customWidth="1"/>
-    <col min="7689" max="7690" width="26.5703125" customWidth="1"/>
-    <col min="7691" max="7691" width="15.7109375" customWidth="1"/>
-    <col min="7692" max="7692" width="20.140625" customWidth="1"/>
-    <col min="7693" max="7694" width="15.7109375" customWidth="1"/>
-    <col min="7695" max="7696" width="12.7109375" customWidth="1"/>
-    <col min="7697" max="7698" width="13.7109375" customWidth="1"/>
-    <col min="7699" max="7699" width="14.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="11.28515625" customWidth="1"/>
-    <col min="7702" max="7702" width="15.7109375" customWidth="1"/>
+    <col min="7448" max="7449" width="22.7265625" customWidth="1"/>
+    <col min="7681" max="7681" width="25.7265625" customWidth="1"/>
+    <col min="7682" max="7683" width="20.7265625" customWidth="1"/>
+    <col min="7684" max="7684" width="20.26953125" customWidth="1"/>
+    <col min="7686" max="7686" width="22.7265625" customWidth="1"/>
+    <col min="7687" max="7687" width="15.7265625" customWidth="1"/>
+    <col min="7688" max="7688" width="18.7265625" customWidth="1"/>
+    <col min="7689" max="7690" width="26.54296875" customWidth="1"/>
+    <col min="7691" max="7691" width="15.7265625" customWidth="1"/>
+    <col min="7692" max="7692" width="20.1796875" customWidth="1"/>
+    <col min="7693" max="7694" width="15.7265625" customWidth="1"/>
+    <col min="7695" max="7696" width="12.7265625" customWidth="1"/>
+    <col min="7697" max="7698" width="13.7265625" customWidth="1"/>
+    <col min="7699" max="7699" width="14.7265625" customWidth="1"/>
+    <col min="7700" max="7700" width="11.26953125" customWidth="1"/>
+    <col min="7702" max="7702" width="15.7265625" customWidth="1"/>
     <col min="7703" max="7703" width="40" bestFit="1" customWidth="1"/>
-    <col min="7704" max="7705" width="22.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="25.7109375" customWidth="1"/>
-    <col min="7938" max="7939" width="20.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="20.28515625" customWidth="1"/>
-    <col min="7942" max="7942" width="22.7109375" customWidth="1"/>
-    <col min="7943" max="7943" width="15.7109375" customWidth="1"/>
-    <col min="7944" max="7944" width="18.7109375" customWidth="1"/>
-    <col min="7945" max="7946" width="26.5703125" customWidth="1"/>
-    <col min="7947" max="7947" width="15.7109375" customWidth="1"/>
-    <col min="7948" max="7948" width="20.140625" customWidth="1"/>
-    <col min="7949" max="7950" width="15.7109375" customWidth="1"/>
-    <col min="7951" max="7952" width="12.7109375" customWidth="1"/>
-    <col min="7953" max="7954" width="13.7109375" customWidth="1"/>
-    <col min="7955" max="7955" width="14.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="11.28515625" customWidth="1"/>
-    <col min="7958" max="7958" width="15.7109375" customWidth="1"/>
+    <col min="7704" max="7705" width="22.7265625" customWidth="1"/>
+    <col min="7937" max="7937" width="25.7265625" customWidth="1"/>
+    <col min="7938" max="7939" width="20.7265625" customWidth="1"/>
+    <col min="7940" max="7940" width="20.26953125" customWidth="1"/>
+    <col min="7942" max="7942" width="22.7265625" customWidth="1"/>
+    <col min="7943" max="7943" width="15.7265625" customWidth="1"/>
+    <col min="7944" max="7944" width="18.7265625" customWidth="1"/>
+    <col min="7945" max="7946" width="26.54296875" customWidth="1"/>
+    <col min="7947" max="7947" width="15.7265625" customWidth="1"/>
+    <col min="7948" max="7948" width="20.1796875" customWidth="1"/>
+    <col min="7949" max="7950" width="15.7265625" customWidth="1"/>
+    <col min="7951" max="7952" width="12.7265625" customWidth="1"/>
+    <col min="7953" max="7954" width="13.7265625" customWidth="1"/>
+    <col min="7955" max="7955" width="14.7265625" customWidth="1"/>
+    <col min="7956" max="7956" width="11.26953125" customWidth="1"/>
+    <col min="7958" max="7958" width="15.7265625" customWidth="1"/>
     <col min="7959" max="7959" width="40" bestFit="1" customWidth="1"/>
-    <col min="7960" max="7961" width="22.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="25.7109375" customWidth="1"/>
-    <col min="8194" max="8195" width="20.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="20.28515625" customWidth="1"/>
-    <col min="8198" max="8198" width="22.7109375" customWidth="1"/>
-    <col min="8199" max="8199" width="15.7109375" customWidth="1"/>
-    <col min="8200" max="8200" width="18.7109375" customWidth="1"/>
-    <col min="8201" max="8202" width="26.5703125" customWidth="1"/>
-    <col min="8203" max="8203" width="15.7109375" customWidth="1"/>
-    <col min="8204" max="8204" width="20.140625" customWidth="1"/>
-    <col min="8205" max="8206" width="15.7109375" customWidth="1"/>
-    <col min="8207" max="8208" width="12.7109375" customWidth="1"/>
-    <col min="8209" max="8210" width="13.7109375" customWidth="1"/>
-    <col min="8211" max="8211" width="14.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="11.28515625" customWidth="1"/>
-    <col min="8214" max="8214" width="15.7109375" customWidth="1"/>
+    <col min="7960" max="7961" width="22.7265625" customWidth="1"/>
+    <col min="8193" max="8193" width="25.7265625" customWidth="1"/>
+    <col min="8194" max="8195" width="20.7265625" customWidth="1"/>
+    <col min="8196" max="8196" width="20.26953125" customWidth="1"/>
+    <col min="8198" max="8198" width="22.7265625" customWidth="1"/>
+    <col min="8199" max="8199" width="15.7265625" customWidth="1"/>
+    <col min="8200" max="8200" width="18.7265625" customWidth="1"/>
+    <col min="8201" max="8202" width="26.54296875" customWidth="1"/>
+    <col min="8203" max="8203" width="15.7265625" customWidth="1"/>
+    <col min="8204" max="8204" width="20.1796875" customWidth="1"/>
+    <col min="8205" max="8206" width="15.7265625" customWidth="1"/>
+    <col min="8207" max="8208" width="12.7265625" customWidth="1"/>
+    <col min="8209" max="8210" width="13.7265625" customWidth="1"/>
+    <col min="8211" max="8211" width="14.7265625" customWidth="1"/>
+    <col min="8212" max="8212" width="11.26953125" customWidth="1"/>
+    <col min="8214" max="8214" width="15.7265625" customWidth="1"/>
     <col min="8215" max="8215" width="40" bestFit="1" customWidth="1"/>
-    <col min="8216" max="8217" width="22.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="25.7109375" customWidth="1"/>
-    <col min="8450" max="8451" width="20.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="20.28515625" customWidth="1"/>
-    <col min="8454" max="8454" width="22.7109375" customWidth="1"/>
-    <col min="8455" max="8455" width="15.7109375" customWidth="1"/>
-    <col min="8456" max="8456" width="18.7109375" customWidth="1"/>
-    <col min="8457" max="8458" width="26.5703125" customWidth="1"/>
-    <col min="8459" max="8459" width="15.7109375" customWidth="1"/>
-    <col min="8460" max="8460" width="20.140625" customWidth="1"/>
-    <col min="8461" max="8462" width="15.7109375" customWidth="1"/>
-    <col min="8463" max="8464" width="12.7109375" customWidth="1"/>
-    <col min="8465" max="8466" width="13.7109375" customWidth="1"/>
-    <col min="8467" max="8467" width="14.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="11.28515625" customWidth="1"/>
-    <col min="8470" max="8470" width="15.7109375" customWidth="1"/>
+    <col min="8216" max="8217" width="22.7265625" customWidth="1"/>
+    <col min="8449" max="8449" width="25.7265625" customWidth="1"/>
+    <col min="8450" max="8451" width="20.7265625" customWidth="1"/>
+    <col min="8452" max="8452" width="20.26953125" customWidth="1"/>
+    <col min="8454" max="8454" width="22.7265625" customWidth="1"/>
+    <col min="8455" max="8455" width="15.7265625" customWidth="1"/>
+    <col min="8456" max="8456" width="18.7265625" customWidth="1"/>
+    <col min="8457" max="8458" width="26.54296875" customWidth="1"/>
+    <col min="8459" max="8459" width="15.7265625" customWidth="1"/>
+    <col min="8460" max="8460" width="20.1796875" customWidth="1"/>
+    <col min="8461" max="8462" width="15.7265625" customWidth="1"/>
+    <col min="8463" max="8464" width="12.7265625" customWidth="1"/>
+    <col min="8465" max="8466" width="13.7265625" customWidth="1"/>
+    <col min="8467" max="8467" width="14.7265625" customWidth="1"/>
+    <col min="8468" max="8468" width="11.26953125" customWidth="1"/>
+    <col min="8470" max="8470" width="15.7265625" customWidth="1"/>
     <col min="8471" max="8471" width="40" bestFit="1" customWidth="1"/>
-    <col min="8472" max="8473" width="22.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="25.7109375" customWidth="1"/>
-    <col min="8706" max="8707" width="20.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="20.28515625" customWidth="1"/>
-    <col min="8710" max="8710" width="22.7109375" customWidth="1"/>
-    <col min="8711" max="8711" width="15.7109375" customWidth="1"/>
-    <col min="8712" max="8712" width="18.7109375" customWidth="1"/>
-    <col min="8713" max="8714" width="26.5703125" customWidth="1"/>
-    <col min="8715" max="8715" width="15.7109375" customWidth="1"/>
-    <col min="8716" max="8716" width="20.140625" customWidth="1"/>
-    <col min="8717" max="8718" width="15.7109375" customWidth="1"/>
-    <col min="8719" max="8720" width="12.7109375" customWidth="1"/>
-    <col min="8721" max="8722" width="13.7109375" customWidth="1"/>
-    <col min="8723" max="8723" width="14.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="11.28515625" customWidth="1"/>
-    <col min="8726" max="8726" width="15.7109375" customWidth="1"/>
+    <col min="8472" max="8473" width="22.7265625" customWidth="1"/>
+    <col min="8705" max="8705" width="25.7265625" customWidth="1"/>
+    <col min="8706" max="8707" width="20.7265625" customWidth="1"/>
+    <col min="8708" max="8708" width="20.26953125" customWidth="1"/>
+    <col min="8710" max="8710" width="22.7265625" customWidth="1"/>
+    <col min="8711" max="8711" width="15.7265625" customWidth="1"/>
+    <col min="8712" max="8712" width="18.7265625" customWidth="1"/>
+    <col min="8713" max="8714" width="26.54296875" customWidth="1"/>
+    <col min="8715" max="8715" width="15.7265625" customWidth="1"/>
+    <col min="8716" max="8716" width="20.1796875" customWidth="1"/>
+    <col min="8717" max="8718" width="15.7265625" customWidth="1"/>
+    <col min="8719" max="8720" width="12.7265625" customWidth="1"/>
+    <col min="8721" max="8722" width="13.7265625" customWidth="1"/>
+    <col min="8723" max="8723" width="14.7265625" customWidth="1"/>
+    <col min="8724" max="8724" width="11.26953125" customWidth="1"/>
+    <col min="8726" max="8726" width="15.7265625" customWidth="1"/>
     <col min="8727" max="8727" width="40" bestFit="1" customWidth="1"/>
-    <col min="8728" max="8729" width="22.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="25.7109375" customWidth="1"/>
-    <col min="8962" max="8963" width="20.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="20.28515625" customWidth="1"/>
-    <col min="8966" max="8966" width="22.7109375" customWidth="1"/>
-    <col min="8967" max="8967" width="15.7109375" customWidth="1"/>
-    <col min="8968" max="8968" width="18.7109375" customWidth="1"/>
-    <col min="8969" max="8970" width="26.5703125" customWidth="1"/>
-    <col min="8971" max="8971" width="15.7109375" customWidth="1"/>
-    <col min="8972" max="8972" width="20.140625" customWidth="1"/>
-    <col min="8973" max="8974" width="15.7109375" customWidth="1"/>
-    <col min="8975" max="8976" width="12.7109375" customWidth="1"/>
-    <col min="8977" max="8978" width="13.7109375" customWidth="1"/>
-    <col min="8979" max="8979" width="14.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="11.28515625" customWidth="1"/>
-    <col min="8982" max="8982" width="15.7109375" customWidth="1"/>
+    <col min="8728" max="8729" width="22.7265625" customWidth="1"/>
+    <col min="8961" max="8961" width="25.7265625" customWidth="1"/>
+    <col min="8962" max="8963" width="20.7265625" customWidth="1"/>
+    <col min="8964" max="8964" width="20.26953125" customWidth="1"/>
+    <col min="8966" max="8966" width="22.7265625" customWidth="1"/>
+    <col min="8967" max="8967" width="15.7265625" customWidth="1"/>
+    <col min="8968" max="8968" width="18.7265625" customWidth="1"/>
+    <col min="8969" max="8970" width="26.54296875" customWidth="1"/>
+    <col min="8971" max="8971" width="15.7265625" customWidth="1"/>
+    <col min="8972" max="8972" width="20.1796875" customWidth="1"/>
+    <col min="8973" max="8974" width="15.7265625" customWidth="1"/>
+    <col min="8975" max="8976" width="12.7265625" customWidth="1"/>
+    <col min="8977" max="8978" width="13.7265625" customWidth="1"/>
+    <col min="8979" max="8979" width="14.7265625" customWidth="1"/>
+    <col min="8980" max="8980" width="11.26953125" customWidth="1"/>
+    <col min="8982" max="8982" width="15.7265625" customWidth="1"/>
     <col min="8983" max="8983" width="40" bestFit="1" customWidth="1"/>
-    <col min="8984" max="8985" width="22.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="25.7109375" customWidth="1"/>
-    <col min="9218" max="9219" width="20.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="20.28515625" customWidth="1"/>
-    <col min="9222" max="9222" width="22.7109375" customWidth="1"/>
-    <col min="9223" max="9223" width="15.7109375" customWidth="1"/>
-    <col min="9224" max="9224" width="18.7109375" customWidth="1"/>
-    <col min="9225" max="9226" width="26.5703125" customWidth="1"/>
-    <col min="9227" max="9227" width="15.7109375" customWidth="1"/>
-    <col min="9228" max="9228" width="20.140625" customWidth="1"/>
-    <col min="9229" max="9230" width="15.7109375" customWidth="1"/>
-    <col min="9231" max="9232" width="12.7109375" customWidth="1"/>
-    <col min="9233" max="9234" width="13.7109375" customWidth="1"/>
-    <col min="9235" max="9235" width="14.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="11.28515625" customWidth="1"/>
-    <col min="9238" max="9238" width="15.7109375" customWidth="1"/>
+    <col min="8984" max="8985" width="22.7265625" customWidth="1"/>
+    <col min="9217" max="9217" width="25.7265625" customWidth="1"/>
+    <col min="9218" max="9219" width="20.7265625" customWidth="1"/>
+    <col min="9220" max="9220" width="20.26953125" customWidth="1"/>
+    <col min="9222" max="9222" width="22.7265625" customWidth="1"/>
+    <col min="9223" max="9223" width="15.7265625" customWidth="1"/>
+    <col min="9224" max="9224" width="18.7265625" customWidth="1"/>
+    <col min="9225" max="9226" width="26.54296875" customWidth="1"/>
+    <col min="9227" max="9227" width="15.7265625" customWidth="1"/>
+    <col min="9228" max="9228" width="20.1796875" customWidth="1"/>
+    <col min="9229" max="9230" width="15.7265625" customWidth="1"/>
+    <col min="9231" max="9232" width="12.7265625" customWidth="1"/>
+    <col min="9233" max="9234" width="13.7265625" customWidth="1"/>
+    <col min="9235" max="9235" width="14.7265625" customWidth="1"/>
+    <col min="9236" max="9236" width="11.26953125" customWidth="1"/>
+    <col min="9238" max="9238" width="15.7265625" customWidth="1"/>
     <col min="9239" max="9239" width="40" bestFit="1" customWidth="1"/>
-    <col min="9240" max="9241" width="22.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="25.7109375" customWidth="1"/>
-    <col min="9474" max="9475" width="20.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="20.28515625" customWidth="1"/>
-    <col min="9478" max="9478" width="22.7109375" customWidth="1"/>
-    <col min="9479" max="9479" width="15.7109375" customWidth="1"/>
-    <col min="9480" max="9480" width="18.7109375" customWidth="1"/>
-    <col min="9481" max="9482" width="26.5703125" customWidth="1"/>
-    <col min="9483" max="9483" width="15.7109375" customWidth="1"/>
-    <col min="9484" max="9484" width="20.140625" customWidth="1"/>
-    <col min="9485" max="9486" width="15.7109375" customWidth="1"/>
-    <col min="9487" max="9488" width="12.7109375" customWidth="1"/>
-    <col min="9489" max="9490" width="13.7109375" customWidth="1"/>
-    <col min="9491" max="9491" width="14.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="11.28515625" customWidth="1"/>
-    <col min="9494" max="9494" width="15.7109375" customWidth="1"/>
+    <col min="9240" max="9241" width="22.7265625" customWidth="1"/>
+    <col min="9473" max="9473" width="25.7265625" customWidth="1"/>
+    <col min="9474" max="9475" width="20.7265625" customWidth="1"/>
+    <col min="9476" max="9476" width="20.26953125" customWidth="1"/>
+    <col min="9478" max="9478" width="22.7265625" customWidth="1"/>
+    <col min="9479" max="9479" width="15.7265625" customWidth="1"/>
+    <col min="9480" max="9480" width="18.7265625" customWidth="1"/>
+    <col min="9481" max="9482" width="26.54296875" customWidth="1"/>
+    <col min="9483" max="9483" width="15.7265625" customWidth="1"/>
+    <col min="9484" max="9484" width="20.1796875" customWidth="1"/>
+    <col min="9485" max="9486" width="15.7265625" customWidth="1"/>
+    <col min="9487" max="9488" width="12.7265625" customWidth="1"/>
+    <col min="9489" max="9490" width="13.7265625" customWidth="1"/>
+    <col min="9491" max="9491" width="14.7265625" customWidth="1"/>
+    <col min="9492" max="9492" width="11.26953125" customWidth="1"/>
+    <col min="9494" max="9494" width="15.7265625" customWidth="1"/>
     <col min="9495" max="9495" width="40" bestFit="1" customWidth="1"/>
-    <col min="9496" max="9497" width="22.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="25.7109375" customWidth="1"/>
-    <col min="9730" max="9731" width="20.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="20.28515625" customWidth="1"/>
-    <col min="9734" max="9734" width="22.7109375" customWidth="1"/>
-    <col min="9735" max="9735" width="15.7109375" customWidth="1"/>
-    <col min="9736" max="9736" width="18.7109375" customWidth="1"/>
-    <col min="9737" max="9738" width="26.5703125" customWidth="1"/>
-    <col min="9739" max="9739" width="15.7109375" customWidth="1"/>
-    <col min="9740" max="9740" width="20.140625" customWidth="1"/>
-    <col min="9741" max="9742" width="15.7109375" customWidth="1"/>
-    <col min="9743" max="9744" width="12.7109375" customWidth="1"/>
-    <col min="9745" max="9746" width="13.7109375" customWidth="1"/>
-    <col min="9747" max="9747" width="14.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="11.28515625" customWidth="1"/>
-    <col min="9750" max="9750" width="15.7109375" customWidth="1"/>
+    <col min="9496" max="9497" width="22.7265625" customWidth="1"/>
+    <col min="9729" max="9729" width="25.7265625" customWidth="1"/>
+    <col min="9730" max="9731" width="20.7265625" customWidth="1"/>
+    <col min="9732" max="9732" width="20.26953125" customWidth="1"/>
+    <col min="9734" max="9734" width="22.7265625" customWidth="1"/>
+    <col min="9735" max="9735" width="15.7265625" customWidth="1"/>
+    <col min="9736" max="9736" width="18.7265625" customWidth="1"/>
+    <col min="9737" max="9738" width="26.54296875" customWidth="1"/>
+    <col min="9739" max="9739" width="15.7265625" customWidth="1"/>
+    <col min="9740" max="9740" width="20.1796875" customWidth="1"/>
+    <col min="9741" max="9742" width="15.7265625" customWidth="1"/>
+    <col min="9743" max="9744" width="12.7265625" customWidth="1"/>
+    <col min="9745" max="9746" width="13.7265625" customWidth="1"/>
+    <col min="9747" max="9747" width="14.7265625" customWidth="1"/>
+    <col min="9748" max="9748" width="11.26953125" customWidth="1"/>
+    <col min="9750" max="9750" width="15.7265625" customWidth="1"/>
     <col min="9751" max="9751" width="40" bestFit="1" customWidth="1"/>
-    <col min="9752" max="9753" width="22.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="25.7109375" customWidth="1"/>
-    <col min="9986" max="9987" width="20.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="20.28515625" customWidth="1"/>
-    <col min="9990" max="9990" width="22.7109375" customWidth="1"/>
-    <col min="9991" max="9991" width="15.7109375" customWidth="1"/>
-    <col min="9992" max="9992" width="18.7109375" customWidth="1"/>
-    <col min="9993" max="9994" width="26.5703125" customWidth="1"/>
-    <col min="9995" max="9995" width="15.7109375" customWidth="1"/>
-    <col min="9996" max="9996" width="20.140625" customWidth="1"/>
-    <col min="9997" max="9998" width="15.7109375" customWidth="1"/>
-    <col min="9999" max="10000" width="12.7109375" customWidth="1"/>
-    <col min="10001" max="10002" width="13.7109375" customWidth="1"/>
-    <col min="10003" max="10003" width="14.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="11.28515625" customWidth="1"/>
-    <col min="10006" max="10006" width="15.7109375" customWidth="1"/>
+    <col min="9752" max="9753" width="22.7265625" customWidth="1"/>
+    <col min="9985" max="9985" width="25.7265625" customWidth="1"/>
+    <col min="9986" max="9987" width="20.7265625" customWidth="1"/>
+    <col min="9988" max="9988" width="20.26953125" customWidth="1"/>
+    <col min="9990" max="9990" width="22.7265625" customWidth="1"/>
+    <col min="9991" max="9991" width="15.7265625" customWidth="1"/>
+    <col min="9992" max="9992" width="18.7265625" customWidth="1"/>
+    <col min="9993" max="9994" width="26.54296875" customWidth="1"/>
+    <col min="9995" max="9995" width="15.7265625" customWidth="1"/>
+    <col min="9996" max="9996" width="20.1796875" customWidth="1"/>
+    <col min="9997" max="9998" width="15.7265625" customWidth="1"/>
+    <col min="9999" max="10000" width="12.7265625" customWidth="1"/>
+    <col min="10001" max="10002" width="13.7265625" customWidth="1"/>
+    <col min="10003" max="10003" width="14.7265625" customWidth="1"/>
+    <col min="10004" max="10004" width="11.26953125" customWidth="1"/>
+    <col min="10006" max="10006" width="15.7265625" customWidth="1"/>
     <col min="10007" max="10007" width="40" bestFit="1" customWidth="1"/>
-    <col min="10008" max="10009" width="22.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="25.7109375" customWidth="1"/>
-    <col min="10242" max="10243" width="20.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="20.28515625" customWidth="1"/>
-    <col min="10246" max="10246" width="22.7109375" customWidth="1"/>
-    <col min="10247" max="10247" width="15.7109375" customWidth="1"/>
-    <col min="10248" max="10248" width="18.7109375" customWidth="1"/>
-    <col min="10249" max="10250" width="26.5703125" customWidth="1"/>
-    <col min="10251" max="10251" width="15.7109375" customWidth="1"/>
-    <col min="10252" max="10252" width="20.140625" customWidth="1"/>
-    <col min="10253" max="10254" width="15.7109375" customWidth="1"/>
-    <col min="10255" max="10256" width="12.7109375" customWidth="1"/>
-    <col min="10257" max="10258" width="13.7109375" customWidth="1"/>
-    <col min="10259" max="10259" width="14.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="11.28515625" customWidth="1"/>
-    <col min="10262" max="10262" width="15.7109375" customWidth="1"/>
+    <col min="10008" max="10009" width="22.7265625" customWidth="1"/>
+    <col min="10241" max="10241" width="25.7265625" customWidth="1"/>
+    <col min="10242" max="10243" width="20.7265625" customWidth="1"/>
+    <col min="10244" max="10244" width="20.26953125" customWidth="1"/>
+    <col min="10246" max="10246" width="22.7265625" customWidth="1"/>
+    <col min="10247" max="10247" width="15.7265625" customWidth="1"/>
+    <col min="10248" max="10248" width="18.7265625" customWidth="1"/>
+    <col min="10249" max="10250" width="26.54296875" customWidth="1"/>
+    <col min="10251" max="10251" width="15.7265625" customWidth="1"/>
+    <col min="10252" max="10252" width="20.1796875" customWidth="1"/>
+    <col min="10253" max="10254" width="15.7265625" customWidth="1"/>
+    <col min="10255" max="10256" width="12.7265625" customWidth="1"/>
+    <col min="10257" max="10258" width="13.7265625" customWidth="1"/>
+    <col min="10259" max="10259" width="14.7265625" customWidth="1"/>
+    <col min="10260" max="10260" width="11.26953125" customWidth="1"/>
+    <col min="10262" max="10262" width="15.7265625" customWidth="1"/>
     <col min="10263" max="10263" width="40" bestFit="1" customWidth="1"/>
-    <col min="10264" max="10265" width="22.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="25.7109375" customWidth="1"/>
-    <col min="10498" max="10499" width="20.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="20.28515625" customWidth="1"/>
-    <col min="10502" max="10502" width="22.7109375" customWidth="1"/>
-    <col min="10503" max="10503" width="15.7109375" customWidth="1"/>
-    <col min="10504" max="10504" width="18.7109375" customWidth="1"/>
-    <col min="10505" max="10506" width="26.5703125" customWidth="1"/>
-    <col min="10507" max="10507" width="15.7109375" customWidth="1"/>
-    <col min="10508" max="10508" width="20.140625" customWidth="1"/>
-    <col min="10509" max="10510" width="15.7109375" customWidth="1"/>
-    <col min="10511" max="10512" width="12.7109375" customWidth="1"/>
-    <col min="10513" max="10514" width="13.7109375" customWidth="1"/>
-    <col min="10515" max="10515" width="14.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="11.28515625" customWidth="1"/>
-    <col min="10518" max="10518" width="15.7109375" customWidth="1"/>
+    <col min="10264" max="10265" width="22.7265625" customWidth="1"/>
+    <col min="10497" max="10497" width="25.7265625" customWidth="1"/>
+    <col min="10498" max="10499" width="20.7265625" customWidth="1"/>
+    <col min="10500" max="10500" width="20.26953125" customWidth="1"/>
+    <col min="10502" max="10502" width="22.7265625" customWidth="1"/>
+    <col min="10503" max="10503" width="15.7265625" customWidth="1"/>
+    <col min="10504" max="10504" width="18.7265625" customWidth="1"/>
+    <col min="10505" max="10506" width="26.54296875" customWidth="1"/>
+    <col min="10507" max="10507" width="15.7265625" customWidth="1"/>
+    <col min="10508" max="10508" width="20.1796875" customWidth="1"/>
+    <col min="10509" max="10510" width="15.7265625" customWidth="1"/>
+    <col min="10511" max="10512" width="12.7265625" customWidth="1"/>
+    <col min="10513" max="10514" width="13.7265625" customWidth="1"/>
+    <col min="10515" max="10515" width="14.7265625" customWidth="1"/>
+    <col min="10516" max="10516" width="11.26953125" customWidth="1"/>
+    <col min="10518" max="10518" width="15.7265625" customWidth="1"/>
     <col min="10519" max="10519" width="40" bestFit="1" customWidth="1"/>
-    <col min="10520" max="10521" width="22.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="25.7109375" customWidth="1"/>
-    <col min="10754" max="10755" width="20.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="20.28515625" customWidth="1"/>
-    <col min="10758" max="10758" width="22.7109375" customWidth="1"/>
-    <col min="10759" max="10759" width="15.7109375" customWidth="1"/>
-    <col min="10760" max="10760" width="18.7109375" customWidth="1"/>
-    <col min="10761" max="10762" width="26.5703125" customWidth="1"/>
-    <col min="10763" max="10763" width="15.7109375" customWidth="1"/>
-    <col min="10764" max="10764" width="20.140625" customWidth="1"/>
-    <col min="10765" max="10766" width="15.7109375" customWidth="1"/>
-    <col min="10767" max="10768" width="12.7109375" customWidth="1"/>
-    <col min="10769" max="10770" width="13.7109375" customWidth="1"/>
-    <col min="10771" max="10771" width="14.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="11.28515625" customWidth="1"/>
-    <col min="10774" max="10774" width="15.7109375" customWidth="1"/>
+    <col min="10520" max="10521" width="22.7265625" customWidth="1"/>
+    <col min="10753" max="10753" width="25.7265625" customWidth="1"/>
+    <col min="10754" max="10755" width="20.7265625" customWidth="1"/>
+    <col min="10756" max="10756" width="20.26953125" customWidth="1"/>
+    <col min="10758" max="10758" width="22.7265625" customWidth="1"/>
+    <col min="10759" max="10759" width="15.7265625" customWidth="1"/>
+    <col min="10760" max="10760" width="18.7265625" customWidth="1"/>
+    <col min="10761" max="10762" width="26.54296875" customWidth="1"/>
+    <col min="10763" max="10763" width="15.7265625" customWidth="1"/>
+    <col min="10764" max="10764" width="20.1796875" customWidth="1"/>
+    <col min="10765" max="10766" width="15.7265625" customWidth="1"/>
+    <col min="10767" max="10768" width="12.7265625" customWidth="1"/>
+    <col min="10769" max="10770" width="13.7265625" customWidth="1"/>
+    <col min="10771" max="10771" width="14.7265625" customWidth="1"/>
+    <col min="10772" max="10772" width="11.26953125" customWidth="1"/>
+    <col min="10774" max="10774" width="15.7265625" customWidth="1"/>
     <col min="10775" max="10775" width="40" bestFit="1" customWidth="1"/>
-    <col min="10776" max="10777" width="22.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="25.7109375" customWidth="1"/>
-    <col min="11010" max="11011" width="20.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="20.28515625" customWidth="1"/>
-    <col min="11014" max="11014" width="22.7109375" customWidth="1"/>
-    <col min="11015" max="11015" width="15.7109375" customWidth="1"/>
-    <col min="11016" max="11016" width="18.7109375" customWidth="1"/>
-    <col min="11017" max="11018" width="26.5703125" customWidth="1"/>
-    <col min="11019" max="11019" width="15.7109375" customWidth="1"/>
-    <col min="11020" max="11020" width="20.140625" customWidth="1"/>
-    <col min="11021" max="11022" width="15.7109375" customWidth="1"/>
-    <col min="11023" max="11024" width="12.7109375" customWidth="1"/>
-    <col min="11025" max="11026" width="13.7109375" customWidth="1"/>
-    <col min="11027" max="11027" width="14.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="11.28515625" customWidth="1"/>
-    <col min="11030" max="11030" width="15.7109375" customWidth="1"/>
+    <col min="10776" max="10777" width="22.7265625" customWidth="1"/>
+    <col min="11009" max="11009" width="25.7265625" customWidth="1"/>
+    <col min="11010" max="11011" width="20.7265625" customWidth="1"/>
+    <col min="11012" max="11012" width="20.26953125" customWidth="1"/>
+    <col min="11014" max="11014" width="22.7265625" customWidth="1"/>
+    <col min="11015" max="11015" width="15.7265625" customWidth="1"/>
+    <col min="11016" max="11016" width="18.7265625" customWidth="1"/>
+    <col min="11017" max="11018" width="26.54296875" customWidth="1"/>
+    <col min="11019" max="11019" width="15.7265625" customWidth="1"/>
+    <col min="11020" max="11020" width="20.1796875" customWidth="1"/>
+    <col min="11021" max="11022" width="15.7265625" customWidth="1"/>
+    <col min="11023" max="11024" width="12.7265625" customWidth="1"/>
+    <col min="11025" max="11026" width="13.7265625" customWidth="1"/>
+    <col min="11027" max="11027" width="14.7265625" customWidth="1"/>
+    <col min="11028" max="11028" width="11.26953125" customWidth="1"/>
+    <col min="11030" max="11030" width="15.7265625" customWidth="1"/>
     <col min="11031" max="11031" width="40" bestFit="1" customWidth="1"/>
-    <col min="11032" max="11033" width="22.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="25.7109375" customWidth="1"/>
-    <col min="11266" max="11267" width="20.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="20.28515625" customWidth="1"/>
-    <col min="11270" max="11270" width="22.7109375" customWidth="1"/>
-    <col min="11271" max="11271" width="15.7109375" customWidth="1"/>
-    <col min="11272" max="11272" width="18.7109375" customWidth="1"/>
-    <col min="11273" max="11274" width="26.5703125" customWidth="1"/>
-    <col min="11275" max="11275" width="15.7109375" customWidth="1"/>
-    <col min="11276" max="11276" width="20.140625" customWidth="1"/>
-    <col min="11277" max="11278" width="15.7109375" customWidth="1"/>
-    <col min="11279" max="11280" width="12.7109375" customWidth="1"/>
-    <col min="11281" max="11282" width="13.7109375" customWidth="1"/>
-    <col min="11283" max="11283" width="14.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="11.28515625" customWidth="1"/>
-    <col min="11286" max="11286" width="15.7109375" customWidth="1"/>
+    <col min="11032" max="11033" width="22.7265625" customWidth="1"/>
+    <col min="11265" max="11265" width="25.7265625" customWidth="1"/>
+    <col min="11266" max="11267" width="20.7265625" customWidth="1"/>
+    <col min="11268" max="11268" width="20.26953125" customWidth="1"/>
+    <col min="11270" max="11270" width="22.7265625" customWidth="1"/>
+    <col min="11271" max="11271" width="15.7265625" customWidth="1"/>
+    <col min="11272" max="11272" width="18.7265625" customWidth="1"/>
+    <col min="11273" max="11274" width="26.54296875" customWidth="1"/>
+    <col min="11275" max="11275" width="15.7265625" customWidth="1"/>
+    <col min="11276" max="11276" width="20.1796875" customWidth="1"/>
+    <col min="11277" max="11278" width="15.7265625" customWidth="1"/>
+    <col min="11279" max="11280" width="12.7265625" customWidth="1"/>
+    <col min="11281" max="11282" width="13.7265625" customWidth="1"/>
+    <col min="11283" max="11283" width="14.7265625" customWidth="1"/>
+    <col min="11284" max="11284" width="11.26953125" customWidth="1"/>
+    <col min="11286" max="11286" width="15.7265625" customWidth="1"/>
     <col min="11287" max="11287" width="40" bestFit="1" customWidth="1"/>
-    <col min="11288" max="11289" width="22.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="25.7109375" customWidth="1"/>
-    <col min="11522" max="11523" width="20.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="20.28515625" customWidth="1"/>
-    <col min="11526" max="11526" width="22.7109375" customWidth="1"/>
-    <col min="11527" max="11527" width="15.7109375" customWidth="1"/>
-    <col min="11528" max="11528" width="18.7109375" customWidth="1"/>
-    <col min="11529" max="11530" width="26.5703125" customWidth="1"/>
-    <col min="11531" max="11531" width="15.7109375" customWidth="1"/>
-    <col min="11532" max="11532" width="20.140625" customWidth="1"/>
-    <col min="11533" max="11534" width="15.7109375" customWidth="1"/>
-    <col min="11535" max="11536" width="12.7109375" customWidth="1"/>
-    <col min="11537" max="11538" width="13.7109375" customWidth="1"/>
-    <col min="11539" max="11539" width="14.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="11.28515625" customWidth="1"/>
-    <col min="11542" max="11542" width="15.7109375" customWidth="1"/>
+    <col min="11288" max="11289" width="22.7265625" customWidth="1"/>
+    <col min="11521" max="11521" width="25.7265625" customWidth="1"/>
+    <col min="11522" max="11523" width="20.7265625" customWidth="1"/>
+    <col min="11524" max="11524" width="20.26953125" customWidth="1"/>
+    <col min="11526" max="11526" width="22.7265625" customWidth="1"/>
+    <col min="11527" max="11527" width="15.7265625" customWidth="1"/>
+    <col min="11528" max="11528" width="18.7265625" customWidth="1"/>
+    <col min="11529" max="11530" width="26.54296875" customWidth="1"/>
+    <col min="11531" max="11531" width="15.7265625" customWidth="1"/>
+    <col min="11532" max="11532" width="20.1796875" customWidth="1"/>
+    <col min="11533" max="11534" width="15.7265625" customWidth="1"/>
+    <col min="11535" max="11536" width="12.7265625" customWidth="1"/>
+    <col min="11537" max="11538" width="13.7265625" customWidth="1"/>
+    <col min="11539" max="11539" width="14.7265625" customWidth="1"/>
+    <col min="11540" max="11540" width="11.26953125" customWidth="1"/>
+    <col min="11542" max="11542" width="15.7265625" customWidth="1"/>
     <col min="11543" max="11543" width="40" bestFit="1" customWidth="1"/>
-    <col min="11544" max="11545" width="22.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="25.7109375" customWidth="1"/>
-    <col min="11778" max="11779" width="20.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="20.28515625" customWidth="1"/>
-    <col min="11782" max="11782" width="22.7109375" customWidth="1"/>
-    <col min="11783" max="11783" width="15.7109375" customWidth="1"/>
-    <col min="11784" max="11784" width="18.7109375" customWidth="1"/>
-    <col min="11785" max="11786" width="26.5703125" customWidth="1"/>
-    <col min="11787" max="11787" width="15.7109375" customWidth="1"/>
-    <col min="11788" max="11788" width="20.140625" customWidth="1"/>
-    <col min="11789" max="11790" width="15.7109375" customWidth="1"/>
-    <col min="11791" max="11792" width="12.7109375" customWidth="1"/>
-    <col min="11793" max="11794" width="13.7109375" customWidth="1"/>
-    <col min="11795" max="11795" width="14.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="11.28515625" customWidth="1"/>
-    <col min="11798" max="11798" width="15.7109375" customWidth="1"/>
+    <col min="11544" max="11545" width="22.7265625" customWidth="1"/>
+    <col min="11777" max="11777" width="25.7265625" customWidth="1"/>
+    <col min="11778" max="11779" width="20.7265625" customWidth="1"/>
+    <col min="11780" max="11780" width="20.26953125" customWidth="1"/>
+    <col min="11782" max="11782" width="22.7265625" customWidth="1"/>
+    <col min="11783" max="11783" width="15.7265625" customWidth="1"/>
+    <col min="11784" max="11784" width="18.7265625" customWidth="1"/>
+    <col min="11785" max="11786" width="26.54296875" customWidth="1"/>
+    <col min="11787" max="11787" width="15.7265625" customWidth="1"/>
+    <col min="11788" max="11788" width="20.1796875" customWidth="1"/>
+    <col min="11789" max="11790" width="15.7265625" customWidth="1"/>
+    <col min="11791" max="11792" width="12.7265625" customWidth="1"/>
+    <col min="11793" max="11794" width="13.7265625" customWidth="1"/>
+    <col min="11795" max="11795" width="14.7265625" customWidth="1"/>
+    <col min="11796" max="11796" width="11.26953125" customWidth="1"/>
+    <col min="11798" max="11798" width="15.7265625" customWidth="1"/>
     <col min="11799" max="11799" width="40" bestFit="1" customWidth="1"/>
-    <col min="11800" max="11801" width="22.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="25.7109375" customWidth="1"/>
-    <col min="12034" max="12035" width="20.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="20.28515625" customWidth="1"/>
-    <col min="12038" max="12038" width="22.7109375" customWidth="1"/>
-    <col min="12039" max="12039" width="15.7109375" customWidth="1"/>
-    <col min="12040" max="12040" width="18.7109375" customWidth="1"/>
-    <col min="12041" max="12042" width="26.5703125" customWidth="1"/>
-    <col min="12043" max="12043" width="15.7109375" customWidth="1"/>
-    <col min="12044" max="12044" width="20.140625" customWidth="1"/>
-    <col min="12045" max="12046" width="15.7109375" customWidth="1"/>
-    <col min="12047" max="12048" width="12.7109375" customWidth="1"/>
-    <col min="12049" max="12050" width="13.7109375" customWidth="1"/>
-    <col min="12051" max="12051" width="14.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="11.28515625" customWidth="1"/>
-    <col min="12054" max="12054" width="15.7109375" customWidth="1"/>
+    <col min="11800" max="11801" width="22.7265625" customWidth="1"/>
+    <col min="12033" max="12033" width="25.7265625" customWidth="1"/>
+    <col min="12034" max="12035" width="20.7265625" customWidth="1"/>
+    <col min="12036" max="12036" width="20.26953125" customWidth="1"/>
+    <col min="12038" max="12038" width="22.7265625" customWidth="1"/>
+    <col min="12039" max="12039" width="15.7265625" customWidth="1"/>
+    <col min="12040" max="12040" width="18.7265625" customWidth="1"/>
+    <col min="12041" max="12042" width="26.54296875" customWidth="1"/>
+    <col min="12043" max="12043" width="15.7265625" customWidth="1"/>
+    <col min="12044" max="12044" width="20.1796875" customWidth="1"/>
+    <col min="12045" max="12046" width="15.7265625" customWidth="1"/>
+    <col min="12047" max="12048" width="12.7265625" customWidth="1"/>
+    <col min="12049" max="12050" width="13.7265625" customWidth="1"/>
+    <col min="12051" max="12051" width="14.7265625" customWidth="1"/>
+    <col min="12052" max="12052" width="11.26953125" customWidth="1"/>
+    <col min="12054" max="12054" width="15.7265625" customWidth="1"/>
     <col min="12055" max="12055" width="40" bestFit="1" customWidth="1"/>
-    <col min="12056" max="12057" width="22.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="25.7109375" customWidth="1"/>
-    <col min="12290" max="12291" width="20.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="20.28515625" customWidth="1"/>
-    <col min="12294" max="12294" width="22.7109375" customWidth="1"/>
-    <col min="12295" max="12295" width="15.7109375" customWidth="1"/>
-    <col min="12296" max="12296" width="18.7109375" customWidth="1"/>
-    <col min="12297" max="12298" width="26.5703125" customWidth="1"/>
-    <col min="12299" max="12299" width="15.7109375" customWidth="1"/>
-    <col min="12300" max="12300" width="20.140625" customWidth="1"/>
-    <col min="12301" max="12302" width="15.7109375" customWidth="1"/>
-    <col min="12303" max="12304" width="12.7109375" customWidth="1"/>
-    <col min="12305" max="12306" width="13.7109375" customWidth="1"/>
-    <col min="12307" max="12307" width="14.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="11.28515625" customWidth="1"/>
-    <col min="12310" max="12310" width="15.7109375" customWidth="1"/>
+    <col min="12056" max="12057" width="22.7265625" customWidth="1"/>
+    <col min="12289" max="12289" width="25.7265625" customWidth="1"/>
+    <col min="12290" max="12291" width="20.7265625" customWidth="1"/>
+    <col min="12292" max="12292" width="20.26953125" customWidth="1"/>
+    <col min="12294" max="12294" width="22.7265625" customWidth="1"/>
+    <col min="12295" max="12295" width="15.7265625" customWidth="1"/>
+    <col min="12296" max="12296" width="18.7265625" customWidth="1"/>
+    <col min="12297" max="12298" width="26.54296875" customWidth="1"/>
+    <col min="12299" max="12299" width="15.7265625" customWidth="1"/>
+    <col min="12300" max="12300" width="20.1796875" customWidth="1"/>
+    <col min="12301" max="12302" width="15.7265625" customWidth="1"/>
+    <col min="12303" max="12304" width="12.7265625" customWidth="1"/>
+    <col min="12305" max="12306" width="13.7265625" customWidth="1"/>
+    <col min="12307" max="12307" width="14.7265625" customWidth="1"/>
+    <col min="12308" max="12308" width="11.26953125" customWidth="1"/>
+    <col min="12310" max="12310" width="15.7265625" customWidth="1"/>
     <col min="12311" max="12311" width="40" bestFit="1" customWidth="1"/>
-    <col min="12312" max="12313" width="22.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="25.7109375" customWidth="1"/>
-    <col min="12546" max="12547" width="20.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="20.28515625" customWidth="1"/>
-    <col min="12550" max="12550" width="22.7109375" customWidth="1"/>
-    <col min="12551" max="12551" width="15.7109375" customWidth="1"/>
-    <col min="12552" max="12552" width="18.7109375" customWidth="1"/>
-    <col min="12553" max="12554" width="26.5703125" customWidth="1"/>
-    <col min="12555" max="12555" width="15.7109375" customWidth="1"/>
-    <col min="12556" max="12556" width="20.140625" customWidth="1"/>
-    <col min="12557" max="12558" width="15.7109375" customWidth="1"/>
-    <col min="12559" max="12560" width="12.7109375" customWidth="1"/>
-    <col min="12561" max="12562" width="13.7109375" customWidth="1"/>
-    <col min="12563" max="12563" width="14.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="11.28515625" customWidth="1"/>
-    <col min="12566" max="12566" width="15.7109375" customWidth="1"/>
+    <col min="12312" max="12313" width="22.7265625" customWidth="1"/>
+    <col min="12545" max="12545" width="25.7265625" customWidth="1"/>
+    <col min="12546" max="12547" width="20.7265625" customWidth="1"/>
+    <col min="12548" max="12548" width="20.26953125" customWidth="1"/>
+    <col min="12550" max="12550" width="22.7265625" customWidth="1"/>
+    <col min="12551" max="12551" width="15.7265625" customWidth="1"/>
+    <col min="12552" max="12552" width="18.7265625" customWidth="1"/>
+    <col min="12553" max="12554" width="26.54296875" customWidth="1"/>
+    <col min="12555" max="12555" width="15.7265625" customWidth="1"/>
+    <col min="12556" max="12556" width="20.1796875" customWidth="1"/>
+    <col min="12557" max="12558" width="15.7265625" customWidth="1"/>
+    <col min="12559" max="12560" width="12.7265625" customWidth="1"/>
+    <col min="12561" max="12562" width="13.7265625" customWidth="1"/>
+    <col min="12563" max="12563" width="14.7265625" customWidth="1"/>
+    <col min="12564" max="12564" width="11.26953125" customWidth="1"/>
+    <col min="12566" max="12566" width="15.7265625" customWidth="1"/>
     <col min="12567" max="12567" width="40" bestFit="1" customWidth="1"/>
-    <col min="12568" max="12569" width="22.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="25.7109375" customWidth="1"/>
-    <col min="12802" max="12803" width="20.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="20.28515625" customWidth="1"/>
-    <col min="12806" max="12806" width="22.7109375" customWidth="1"/>
-    <col min="12807" max="12807" width="15.7109375" customWidth="1"/>
-    <col min="12808" max="12808" width="18.7109375" customWidth="1"/>
-    <col min="12809" max="12810" width="26.5703125" customWidth="1"/>
-    <col min="12811" max="12811" width="15.7109375" customWidth="1"/>
-    <col min="12812" max="12812" width="20.140625" customWidth="1"/>
-    <col min="12813" max="12814" width="15.7109375" customWidth="1"/>
-    <col min="12815" max="12816" width="12.7109375" customWidth="1"/>
-    <col min="12817" max="12818" width="13.7109375" customWidth="1"/>
-    <col min="12819" max="12819" width="14.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="11.28515625" customWidth="1"/>
-    <col min="12822" max="12822" width="15.7109375" customWidth="1"/>
+    <col min="12568" max="12569" width="22.7265625" customWidth="1"/>
+    <col min="12801" max="12801" width="25.7265625" customWidth="1"/>
+    <col min="12802" max="12803" width="20.7265625" customWidth="1"/>
+    <col min="12804" max="12804" width="20.26953125" customWidth="1"/>
+    <col min="12806" max="12806" width="22.7265625" customWidth="1"/>
+    <col min="12807" max="12807" width="15.7265625" customWidth="1"/>
+    <col min="12808" max="12808" width="18.7265625" customWidth="1"/>
+    <col min="12809" max="12810" width="26.54296875" customWidth="1"/>
+    <col min="12811" max="12811" width="15.7265625" customWidth="1"/>
+    <col min="12812" max="12812" width="20.1796875" customWidth="1"/>
+    <col min="12813" max="12814" width="15.7265625" customWidth="1"/>
+    <col min="12815" max="12816" width="12.7265625" customWidth="1"/>
+    <col min="12817" max="12818" width="13.7265625" customWidth="1"/>
+    <col min="12819" max="12819" width="14.7265625" customWidth="1"/>
+    <col min="12820" max="12820" width="11.26953125" customWidth="1"/>
+    <col min="12822" max="12822" width="15.7265625" customWidth="1"/>
     <col min="12823" max="12823" width="40" bestFit="1" customWidth="1"/>
-    <col min="12824" max="12825" width="22.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="25.7109375" customWidth="1"/>
-    <col min="13058" max="13059" width="20.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="20.28515625" customWidth="1"/>
-    <col min="13062" max="13062" width="22.7109375" customWidth="1"/>
-    <col min="13063" max="13063" width="15.7109375" customWidth="1"/>
-    <col min="13064" max="13064" width="18.7109375" customWidth="1"/>
-    <col min="13065" max="13066" width="26.5703125" customWidth="1"/>
-    <col min="13067" max="13067" width="15.7109375" customWidth="1"/>
-    <col min="13068" max="13068" width="20.140625" customWidth="1"/>
-    <col min="13069" max="13070" width="15.7109375" customWidth="1"/>
-    <col min="13071" max="13072" width="12.7109375" customWidth="1"/>
-    <col min="13073" max="13074" width="13.7109375" customWidth="1"/>
-    <col min="13075" max="13075" width="14.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="11.28515625" customWidth="1"/>
-    <col min="13078" max="13078" width="15.7109375" customWidth="1"/>
+    <col min="12824" max="12825" width="22.7265625" customWidth="1"/>
+    <col min="13057" max="13057" width="25.7265625" customWidth="1"/>
+    <col min="13058" max="13059" width="20.7265625" customWidth="1"/>
+    <col min="13060" max="13060" width="20.26953125" customWidth="1"/>
+    <col min="13062" max="13062" width="22.7265625" customWidth="1"/>
+    <col min="13063" max="13063" width="15.7265625" customWidth="1"/>
+    <col min="13064" max="13064" width="18.7265625" customWidth="1"/>
+    <col min="13065" max="13066" width="26.54296875" customWidth="1"/>
+    <col min="13067" max="13067" width="15.7265625" customWidth="1"/>
+    <col min="13068" max="13068" width="20.1796875" customWidth="1"/>
+    <col min="13069" max="13070" width="15.7265625" customWidth="1"/>
+    <col min="13071" max="13072" width="12.7265625" customWidth="1"/>
+    <col min="13073" max="13074" width="13.7265625" customWidth="1"/>
+    <col min="13075" max="13075" width="14.7265625" customWidth="1"/>
+    <col min="13076" max="13076" width="11.26953125" customWidth="1"/>
+    <col min="13078" max="13078" width="15.7265625" customWidth="1"/>
     <col min="13079" max="13079" width="40" bestFit="1" customWidth="1"/>
-    <col min="13080" max="13081" width="22.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="25.7109375" customWidth="1"/>
-    <col min="13314" max="13315" width="20.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="20.28515625" customWidth="1"/>
-    <col min="13318" max="13318" width="22.7109375" customWidth="1"/>
-    <col min="13319" max="13319" width="15.7109375" customWidth="1"/>
-    <col min="13320" max="13320" width="18.7109375" customWidth="1"/>
-    <col min="13321" max="13322" width="26.5703125" customWidth="1"/>
-    <col min="13323" max="13323" width="15.7109375" customWidth="1"/>
-    <col min="13324" max="13324" width="20.140625" customWidth="1"/>
-    <col min="13325" max="13326" width="15.7109375" customWidth="1"/>
-    <col min="13327" max="13328" width="12.7109375" customWidth="1"/>
-    <col min="13329" max="13330" width="13.7109375" customWidth="1"/>
-    <col min="13331" max="13331" width="14.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="11.28515625" customWidth="1"/>
-    <col min="13334" max="13334" width="15.7109375" customWidth="1"/>
+    <col min="13080" max="13081" width="22.7265625" customWidth="1"/>
+    <col min="13313" max="13313" width="25.7265625" customWidth="1"/>
+    <col min="13314" max="13315" width="20.7265625" customWidth="1"/>
+    <col min="13316" max="13316" width="20.26953125" customWidth="1"/>
+    <col min="13318" max="13318" width="22.7265625" customWidth="1"/>
+    <col min="13319" max="13319" width="15.7265625" customWidth="1"/>
+    <col min="13320" max="13320" width="18.7265625" customWidth="1"/>
+    <col min="13321" max="13322" width="26.54296875" customWidth="1"/>
+    <col min="13323" max="13323" width="15.7265625" customWidth="1"/>
+    <col min="13324" max="13324" width="20.1796875" customWidth="1"/>
+    <col min="13325" max="13326" width="15.7265625" customWidth="1"/>
+    <col min="13327" max="13328" width="12.7265625" customWidth="1"/>
+    <col min="13329" max="13330" width="13.7265625" customWidth="1"/>
+    <col min="13331" max="13331" width="14.7265625" customWidth="1"/>
+    <col min="13332" max="13332" width="11.26953125" customWidth="1"/>
+    <col min="13334" max="13334" width="15.7265625" customWidth="1"/>
     <col min="13335" max="13335" width="40" bestFit="1" customWidth="1"/>
-    <col min="13336" max="13337" width="22.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="25.7109375" customWidth="1"/>
-    <col min="13570" max="13571" width="20.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="20.28515625" customWidth="1"/>
-    <col min="13574" max="13574" width="22.7109375" customWidth="1"/>
-    <col min="13575" max="13575" width="15.7109375" customWidth="1"/>
-    <col min="13576" max="13576" width="18.7109375" customWidth="1"/>
-    <col min="13577" max="13578" width="26.5703125" customWidth="1"/>
-    <col min="13579" max="13579" width="15.7109375" customWidth="1"/>
-    <col min="13580" max="13580" width="20.140625" customWidth="1"/>
-    <col min="13581" max="13582" width="15.7109375" customWidth="1"/>
-    <col min="13583" max="13584" width="12.7109375" customWidth="1"/>
-    <col min="13585" max="13586" width="13.7109375" customWidth="1"/>
-    <col min="13587" max="13587" width="14.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="11.28515625" customWidth="1"/>
-    <col min="13590" max="13590" width="15.7109375" customWidth="1"/>
+    <col min="13336" max="13337" width="22.7265625" customWidth="1"/>
+    <col min="13569" max="13569" width="25.7265625" customWidth="1"/>
+    <col min="13570" max="13571" width="20.7265625" customWidth="1"/>
+    <col min="13572" max="13572" width="20.26953125" customWidth="1"/>
+    <col min="13574" max="13574" width="22.7265625" customWidth="1"/>
+    <col min="13575" max="13575" width="15.7265625" customWidth="1"/>
+    <col min="13576" max="13576" width="18.7265625" customWidth="1"/>
+    <col min="13577" max="13578" width="26.54296875" customWidth="1"/>
+    <col min="13579" max="13579" width="15.7265625" customWidth="1"/>
+    <col min="13580" max="13580" width="20.1796875" customWidth="1"/>
+    <col min="13581" max="13582" width="15.7265625" customWidth="1"/>
+    <col min="13583" max="13584" width="12.7265625" customWidth="1"/>
+    <col min="13585" max="13586" width="13.7265625" customWidth="1"/>
+    <col min="13587" max="13587" width="14.7265625" customWidth="1"/>
+    <col min="13588" max="13588" width="11.26953125" customWidth="1"/>
+    <col min="13590" max="13590" width="15.7265625" customWidth="1"/>
     <col min="13591" max="13591" width="40" bestFit="1" customWidth="1"/>
-    <col min="13592" max="13593" width="22.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="25.7109375" customWidth="1"/>
-    <col min="13826" max="13827" width="20.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="20.28515625" customWidth="1"/>
-    <col min="13830" max="13830" width="22.7109375" customWidth="1"/>
-    <col min="13831" max="13831" width="15.7109375" customWidth="1"/>
-    <col min="13832" max="13832" width="18.7109375" customWidth="1"/>
-    <col min="13833" max="13834" width="26.5703125" customWidth="1"/>
-    <col min="13835" max="13835" width="15.7109375" customWidth="1"/>
-    <col min="13836" max="13836" width="20.140625" customWidth="1"/>
-    <col min="13837" max="13838" width="15.7109375" customWidth="1"/>
-    <col min="13839" max="13840" width="12.7109375" customWidth="1"/>
-    <col min="13841" max="13842" width="13.7109375" customWidth="1"/>
-    <col min="13843" max="13843" width="14.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="11.28515625" customWidth="1"/>
-    <col min="13846" max="13846" width="15.7109375" customWidth="1"/>
+    <col min="13592" max="13593" width="22.7265625" customWidth="1"/>
+    <col min="13825" max="13825" width="25.7265625" customWidth="1"/>
+    <col min="13826" max="13827" width="20.7265625" customWidth="1"/>
+    <col min="13828" max="13828" width="20.26953125" customWidth="1"/>
+    <col min="13830" max="13830" width="22.7265625" customWidth="1"/>
+    <col min="13831" max="13831" width="15.7265625" customWidth="1"/>
+    <col min="13832" max="13832" width="18.7265625" customWidth="1"/>
+    <col min="13833" max="13834" width="26.54296875" customWidth="1"/>
+    <col min="13835" max="13835" width="15.7265625" customWidth="1"/>
+    <col min="13836" max="13836" width="20.1796875" customWidth="1"/>
+    <col min="13837" max="13838" width="15.7265625" customWidth="1"/>
+    <col min="13839" max="13840" width="12.7265625" customWidth="1"/>
+    <col min="13841" max="13842" width="13.7265625" customWidth="1"/>
+    <col min="13843" max="13843" width="14.7265625" customWidth="1"/>
+    <col min="13844" max="13844" width="11.26953125" customWidth="1"/>
+    <col min="13846" max="13846" width="15.7265625" customWidth="1"/>
     <col min="13847" max="13847" width="40" bestFit="1" customWidth="1"/>
-    <col min="13848" max="13849" width="22.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="25.7109375" customWidth="1"/>
-    <col min="14082" max="14083" width="20.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="20.28515625" customWidth="1"/>
-    <col min="14086" max="14086" width="22.7109375" customWidth="1"/>
-    <col min="14087" max="14087" width="15.7109375" customWidth="1"/>
-    <col min="14088" max="14088" width="18.7109375" customWidth="1"/>
-    <col min="14089" max="14090" width="26.5703125" customWidth="1"/>
-    <col min="14091" max="14091" width="15.7109375" customWidth="1"/>
-    <col min="14092" max="14092" width="20.140625" customWidth="1"/>
-    <col min="14093" max="14094" width="15.7109375" customWidth="1"/>
-    <col min="14095" max="14096" width="12.7109375" customWidth="1"/>
-    <col min="14097" max="14098" width="13.7109375" customWidth="1"/>
-    <col min="14099" max="14099" width="14.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="11.28515625" customWidth="1"/>
-    <col min="14102" max="14102" width="15.7109375" customWidth="1"/>
+    <col min="13848" max="13849" width="22.7265625" customWidth="1"/>
+    <col min="14081" max="14081" width="25.7265625" customWidth="1"/>
+    <col min="14082" max="14083" width="20.7265625" customWidth="1"/>
+    <col min="14084" max="14084" width="20.26953125" customWidth="1"/>
+    <col min="14086" max="14086" width="22.7265625" customWidth="1"/>
+    <col min="14087" max="14087" width="15.7265625" customWidth="1"/>
+    <col min="14088" max="14088" width="18.7265625" customWidth="1"/>
+    <col min="14089" max="14090" width="26.54296875" customWidth="1"/>
+    <col min="14091" max="14091" width="15.7265625" customWidth="1"/>
+    <col min="14092" max="14092" width="20.1796875" customWidth="1"/>
+    <col min="14093" max="14094" width="15.7265625" customWidth="1"/>
+    <col min="14095" max="14096" width="12.7265625" customWidth="1"/>
+    <col min="14097" max="14098" width="13.7265625" customWidth="1"/>
+    <col min="14099" max="14099" width="14.7265625" customWidth="1"/>
+    <col min="14100" max="14100" width="11.26953125" customWidth="1"/>
+    <col min="14102" max="14102" width="15.7265625" customWidth="1"/>
     <col min="14103" max="14103" width="40" bestFit="1" customWidth="1"/>
-    <col min="14104" max="14105" width="22.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="25.7109375" customWidth="1"/>
-    <col min="14338" max="14339" width="20.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="20.28515625" customWidth="1"/>
-    <col min="14342" max="14342" width="22.7109375" customWidth="1"/>
-    <col min="14343" max="14343" width="15.7109375" customWidth="1"/>
-    <col min="14344" max="14344" width="18.7109375" customWidth="1"/>
-    <col min="14345" max="14346" width="26.5703125" customWidth="1"/>
-    <col min="14347" max="14347" width="15.7109375" customWidth="1"/>
-    <col min="14348" max="14348" width="20.140625" customWidth="1"/>
-    <col min="14349" max="14350" width="15.7109375" customWidth="1"/>
-    <col min="14351" max="14352" width="12.7109375" customWidth="1"/>
-    <col min="14353" max="14354" width="13.7109375" customWidth="1"/>
-    <col min="14355" max="14355" width="14.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="11.28515625" customWidth="1"/>
-    <col min="14358" max="14358" width="15.7109375" customWidth="1"/>
+    <col min="14104" max="14105" width="22.7265625" customWidth="1"/>
+    <col min="14337" max="14337" width="25.7265625" customWidth="1"/>
+    <col min="14338" max="14339" width="20.7265625" customWidth="1"/>
+    <col min="14340" max="14340" width="20.26953125" customWidth="1"/>
+    <col min="14342" max="14342" width="22.7265625" customWidth="1"/>
+    <col min="14343" max="14343" width="15.7265625" customWidth="1"/>
+    <col min="14344" max="14344" width="18.7265625" customWidth="1"/>
+    <col min="14345" max="14346" width="26.54296875" customWidth="1"/>
+    <col min="14347" max="14347" width="15.7265625" customWidth="1"/>
+    <col min="14348" max="14348" width="20.1796875" customWidth="1"/>
+    <col min="14349" max="14350" width="15.7265625" customWidth="1"/>
+    <col min="14351" max="14352" width="12.7265625" customWidth="1"/>
+    <col min="14353" max="14354" width="13.7265625" customWidth="1"/>
+    <col min="14355" max="14355" width="14.7265625" customWidth="1"/>
+    <col min="14356" max="14356" width="11.26953125" customWidth="1"/>
+    <col min="14358" max="14358" width="15.7265625" customWidth="1"/>
     <col min="14359" max="14359" width="40" bestFit="1" customWidth="1"/>
-    <col min="14360" max="14361" width="22.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="25.7109375" customWidth="1"/>
-    <col min="14594" max="14595" width="20.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="20.28515625" customWidth="1"/>
-    <col min="14598" max="14598" width="22.7109375" customWidth="1"/>
-    <col min="14599" max="14599" width="15.7109375" customWidth="1"/>
-    <col min="14600" max="14600" width="18.7109375" customWidth="1"/>
-    <col min="14601" max="14602" width="26.5703125" customWidth="1"/>
-    <col min="14603" max="14603" width="15.7109375" customWidth="1"/>
-    <col min="14604" max="14604" width="20.140625" customWidth="1"/>
-    <col min="14605" max="14606" width="15.7109375" customWidth="1"/>
-    <col min="14607" max="14608" width="12.7109375" customWidth="1"/>
-    <col min="14609" max="14610" width="13.7109375" customWidth="1"/>
-    <col min="14611" max="14611" width="14.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="11.28515625" customWidth="1"/>
-    <col min="14614" max="14614" width="15.7109375" customWidth="1"/>
+    <col min="14360" max="14361" width="22.7265625" customWidth="1"/>
+    <col min="14593" max="14593" width="25.7265625" customWidth="1"/>
+    <col min="14594" max="14595" width="20.7265625" customWidth="1"/>
+    <col min="14596" max="14596" width="20.26953125" customWidth="1"/>
+    <col min="14598" max="14598" width="22.7265625" customWidth="1"/>
+    <col min="14599" max="14599" width="15.7265625" customWidth="1"/>
+    <col min="14600" max="14600" width="18.7265625" customWidth="1"/>
+    <col min="14601" max="14602" width="26.54296875" customWidth="1"/>
+    <col min="14603" max="14603" width="15.7265625" customWidth="1"/>
+    <col min="14604" max="14604" width="20.1796875" customWidth="1"/>
+    <col min="14605" max="14606" width="15.7265625" customWidth="1"/>
+    <col min="14607" max="14608" width="12.7265625" customWidth="1"/>
+    <col min="14609" max="14610" width="13.7265625" customWidth="1"/>
+    <col min="14611" max="14611" width="14.7265625" customWidth="1"/>
+    <col min="14612" max="14612" width="11.26953125" customWidth="1"/>
+    <col min="14614" max="14614" width="15.7265625" customWidth="1"/>
     <col min="14615" max="14615" width="40" bestFit="1" customWidth="1"/>
-    <col min="14616" max="14617" width="22.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="25.7109375" customWidth="1"/>
-    <col min="14850" max="14851" width="20.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="20.28515625" customWidth="1"/>
-    <col min="14854" max="14854" width="22.7109375" customWidth="1"/>
-    <col min="14855" max="14855" width="15.7109375" customWidth="1"/>
-    <col min="14856" max="14856" width="18.7109375" customWidth="1"/>
-    <col min="14857" max="14858" width="26.5703125" customWidth="1"/>
-    <col min="14859" max="14859" width="15.7109375" customWidth="1"/>
-    <col min="14860" max="14860" width="20.140625" customWidth="1"/>
-    <col min="14861" max="14862" width="15.7109375" customWidth="1"/>
-    <col min="14863" max="14864" width="12.7109375" customWidth="1"/>
-    <col min="14865" max="14866" width="13.7109375" customWidth="1"/>
-    <col min="14867" max="14867" width="14.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="11.28515625" customWidth="1"/>
-    <col min="14870" max="14870" width="15.7109375" customWidth="1"/>
+    <col min="14616" max="14617" width="22.7265625" customWidth="1"/>
+    <col min="14849" max="14849" width="25.7265625" customWidth="1"/>
+    <col min="14850" max="14851" width="20.7265625" customWidth="1"/>
+    <col min="14852" max="14852" width="20.26953125" customWidth="1"/>
+    <col min="14854" max="14854" width="22.7265625" customWidth="1"/>
+    <col min="14855" max="14855" width="15.7265625" customWidth="1"/>
+    <col min="14856" max="14856" width="18.7265625" customWidth="1"/>
+    <col min="14857" max="14858" width="26.54296875" customWidth="1"/>
+    <col min="14859" max="14859" width="15.7265625" customWidth="1"/>
+    <col min="14860" max="14860" width="20.1796875" customWidth="1"/>
+    <col min="14861" max="14862" width="15.7265625" customWidth="1"/>
+    <col min="14863" max="14864" width="12.7265625" customWidth="1"/>
+    <col min="14865" max="14866" width="13.7265625" customWidth="1"/>
+    <col min="14867" max="14867" width="14.7265625" customWidth="1"/>
+    <col min="14868" max="14868" width="11.26953125" customWidth="1"/>
+    <col min="14870" max="14870" width="15.7265625" customWidth="1"/>
     <col min="14871" max="14871" width="40" bestFit="1" customWidth="1"/>
-    <col min="14872" max="14873" width="22.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="25.7109375" customWidth="1"/>
-    <col min="15106" max="15107" width="20.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="20.28515625" customWidth="1"/>
-    <col min="15110" max="15110" width="22.7109375" customWidth="1"/>
-    <col min="15111" max="15111" width="15.7109375" customWidth="1"/>
-    <col min="15112" max="15112" width="18.7109375" customWidth="1"/>
-    <col min="15113" max="15114" width="26.5703125" customWidth="1"/>
-    <col min="15115" max="15115" width="15.7109375" customWidth="1"/>
-    <col min="15116" max="15116" width="20.140625" customWidth="1"/>
-    <col min="15117" max="15118" width="15.7109375" customWidth="1"/>
-    <col min="15119" max="15120" width="12.7109375" customWidth="1"/>
-    <col min="15121" max="15122" width="13.7109375" customWidth="1"/>
-    <col min="15123" max="15123" width="14.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="11.28515625" customWidth="1"/>
-    <col min="15126" max="15126" width="15.7109375" customWidth="1"/>
+    <col min="14872" max="14873" width="22.7265625" customWidth="1"/>
+    <col min="15105" max="15105" width="25.7265625" customWidth="1"/>
+    <col min="15106" max="15107" width="20.7265625" customWidth="1"/>
+    <col min="15108" max="15108" width="20.26953125" customWidth="1"/>
+    <col min="15110" max="15110" width="22.7265625" customWidth="1"/>
+    <col min="15111" max="15111" width="15.7265625" customWidth="1"/>
+    <col min="15112" max="15112" width="18.7265625" customWidth="1"/>
+    <col min="15113" max="15114" width="26.54296875" customWidth="1"/>
+    <col min="15115" max="15115" width="15.7265625" customWidth="1"/>
+    <col min="15116" max="15116" width="20.1796875" customWidth="1"/>
+    <col min="15117" max="15118" width="15.7265625" customWidth="1"/>
+    <col min="15119" max="15120" width="12.7265625" customWidth="1"/>
+    <col min="15121" max="15122" width="13.7265625" customWidth="1"/>
+    <col min="15123" max="15123" width="14.7265625" customWidth="1"/>
+    <col min="15124" max="15124" width="11.26953125" customWidth="1"/>
+    <col min="15126" max="15126" width="15.7265625" customWidth="1"/>
     <col min="15127" max="15127" width="40" bestFit="1" customWidth="1"/>
-    <col min="15128" max="15129" width="22.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="25.7109375" customWidth="1"/>
-    <col min="15362" max="15363" width="20.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="20.28515625" customWidth="1"/>
-    <col min="15366" max="15366" width="22.7109375" customWidth="1"/>
-    <col min="15367" max="15367" width="15.7109375" customWidth="1"/>
-    <col min="15368" max="15368" width="18.7109375" customWidth="1"/>
-    <col min="15369" max="15370" width="26.5703125" customWidth="1"/>
-    <col min="15371" max="15371" width="15.7109375" customWidth="1"/>
-    <col min="15372" max="15372" width="20.140625" customWidth="1"/>
-    <col min="15373" max="15374" width="15.7109375" customWidth="1"/>
-    <col min="15375" max="15376" width="12.7109375" customWidth="1"/>
-    <col min="15377" max="15378" width="13.7109375" customWidth="1"/>
-    <col min="15379" max="15379" width="14.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="11.28515625" customWidth="1"/>
-    <col min="15382" max="15382" width="15.7109375" customWidth="1"/>
+    <col min="15128" max="15129" width="22.7265625" customWidth="1"/>
+    <col min="15361" max="15361" width="25.7265625" customWidth="1"/>
+    <col min="15362" max="15363" width="20.7265625" customWidth="1"/>
+    <col min="15364" max="15364" width="20.26953125" customWidth="1"/>
+    <col min="15366" max="15366" width="22.7265625" customWidth="1"/>
+    <col min="15367" max="15367" width="15.7265625" customWidth="1"/>
+    <col min="15368" max="15368" width="18.7265625" customWidth="1"/>
+    <col min="15369" max="15370" width="26.54296875" customWidth="1"/>
+    <col min="15371" max="15371" width="15.7265625" customWidth="1"/>
+    <col min="15372" max="15372" width="20.1796875" customWidth="1"/>
+    <col min="15373" max="15374" width="15.7265625" customWidth="1"/>
+    <col min="15375" max="15376" width="12.7265625" customWidth="1"/>
+    <col min="15377" max="15378" width="13.7265625" customWidth="1"/>
+    <col min="15379" max="15379" width="14.7265625" customWidth="1"/>
+    <col min="15380" max="15380" width="11.26953125" customWidth="1"/>
+    <col min="15382" max="15382" width="15.7265625" customWidth="1"/>
     <col min="15383" max="15383" width="40" bestFit="1" customWidth="1"/>
-    <col min="15384" max="15385" width="22.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="25.7109375" customWidth="1"/>
-    <col min="15618" max="15619" width="20.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="20.28515625" customWidth="1"/>
-    <col min="15622" max="15622" width="22.7109375" customWidth="1"/>
-    <col min="15623" max="15623" width="15.7109375" customWidth="1"/>
-    <col min="15624" max="15624" width="18.7109375" customWidth="1"/>
-    <col min="15625" max="15626" width="26.5703125" customWidth="1"/>
-    <col min="15627" max="15627" width="15.7109375" customWidth="1"/>
-    <col min="15628" max="15628" width="20.140625" customWidth="1"/>
-    <col min="15629" max="15630" width="15.7109375" customWidth="1"/>
-    <col min="15631" max="15632" width="12.7109375" customWidth="1"/>
-    <col min="15633" max="15634" width="13.7109375" customWidth="1"/>
-    <col min="15635" max="15635" width="14.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="11.28515625" customWidth="1"/>
-    <col min="15638" max="15638" width="15.7109375" customWidth="1"/>
+    <col min="15384" max="15385" width="22.7265625" customWidth="1"/>
+    <col min="15617" max="15617" width="25.7265625" customWidth="1"/>
+    <col min="15618" max="15619" width="20.7265625" customWidth="1"/>
+    <col min="15620" max="15620" width="20.26953125" customWidth="1"/>
+    <col min="15622" max="15622" width="22.7265625" customWidth="1"/>
+    <col min="15623" max="15623" width="15.7265625" customWidth="1"/>
+    <col min="15624" max="15624" width="18.7265625" customWidth="1"/>
+    <col min="15625" max="15626" width="26.54296875" customWidth="1"/>
+    <col min="15627" max="15627" width="15.7265625" customWidth="1"/>
+    <col min="15628" max="15628" width="20.1796875" customWidth="1"/>
+    <col min="15629" max="15630" width="15.7265625" customWidth="1"/>
+    <col min="15631" max="15632" width="12.7265625" customWidth="1"/>
+    <col min="15633" max="15634" width="13.7265625" customWidth="1"/>
+    <col min="15635" max="15635" width="14.7265625" customWidth="1"/>
+    <col min="15636" max="15636" width="11.26953125" customWidth="1"/>
+    <col min="15638" max="15638" width="15.7265625" customWidth="1"/>
     <col min="15639" max="15639" width="40" bestFit="1" customWidth="1"/>
-    <col min="15640" max="15641" width="22.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="25.7109375" customWidth="1"/>
-    <col min="15874" max="15875" width="20.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="20.28515625" customWidth="1"/>
-    <col min="15878" max="15878" width="22.7109375" customWidth="1"/>
-    <col min="15879" max="15879" width="15.7109375" customWidth="1"/>
-    <col min="15880" max="15880" width="18.7109375" customWidth="1"/>
-    <col min="15881" max="15882" width="26.5703125" customWidth="1"/>
-    <col min="15883" max="15883" width="15.7109375" customWidth="1"/>
-    <col min="15884" max="15884" width="20.140625" customWidth="1"/>
-    <col min="15885" max="15886" width="15.7109375" customWidth="1"/>
-    <col min="15887" max="15888" width="12.7109375" customWidth="1"/>
-    <col min="15889" max="15890" width="13.7109375" customWidth="1"/>
-    <col min="15891" max="15891" width="14.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="11.28515625" customWidth="1"/>
-    <col min="15894" max="15894" width="15.7109375" customWidth="1"/>
+    <col min="15640" max="15641" width="22.7265625" customWidth="1"/>
+    <col min="15873" max="15873" width="25.7265625" customWidth="1"/>
+    <col min="15874" max="15875" width="20.7265625" customWidth="1"/>
+    <col min="15876" max="15876" width="20.26953125" customWidth="1"/>
+    <col min="15878" max="15878" width="22.7265625" customWidth="1"/>
+    <col min="15879" max="15879" width="15.7265625" customWidth="1"/>
+    <col min="15880" max="15880" width="18.7265625" customWidth="1"/>
+    <col min="15881" max="15882" width="26.54296875" customWidth="1"/>
+    <col min="15883" max="15883" width="15.7265625" customWidth="1"/>
+    <col min="15884" max="15884" width="20.1796875" customWidth="1"/>
+    <col min="15885" max="15886" width="15.7265625" customWidth="1"/>
+    <col min="15887" max="15888" width="12.7265625" customWidth="1"/>
+    <col min="15889" max="15890" width="13.7265625" customWidth="1"/>
+    <col min="15891" max="15891" width="14.7265625" customWidth="1"/>
+    <col min="15892" max="15892" width="11.26953125" customWidth="1"/>
+    <col min="15894" max="15894" width="15.7265625" customWidth="1"/>
     <col min="15895" max="15895" width="40" bestFit="1" customWidth="1"/>
-    <col min="15896" max="15897" width="22.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="25.7109375" customWidth="1"/>
-    <col min="16130" max="16131" width="20.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="20.28515625" customWidth="1"/>
-    <col min="16134" max="16134" width="22.7109375" customWidth="1"/>
-    <col min="16135" max="16135" width="15.7109375" customWidth="1"/>
-    <col min="16136" max="16136" width="18.7109375" customWidth="1"/>
-    <col min="16137" max="16138" width="26.5703125" customWidth="1"/>
-    <col min="16139" max="16139" width="15.7109375" customWidth="1"/>
-    <col min="16140" max="16140" width="20.140625" customWidth="1"/>
-    <col min="16141" max="16142" width="15.7109375" customWidth="1"/>
-    <col min="16143" max="16144" width="12.7109375" customWidth="1"/>
-    <col min="16145" max="16146" width="13.7109375" customWidth="1"/>
-    <col min="16147" max="16147" width="14.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="11.28515625" customWidth="1"/>
-    <col min="16150" max="16150" width="15.7109375" customWidth="1"/>
+    <col min="15896" max="15897" width="22.7265625" customWidth="1"/>
+    <col min="16129" max="16129" width="25.7265625" customWidth="1"/>
+    <col min="16130" max="16131" width="20.7265625" customWidth="1"/>
+    <col min="16132" max="16132" width="20.26953125" customWidth="1"/>
+    <col min="16134" max="16134" width="22.7265625" customWidth="1"/>
+    <col min="16135" max="16135" width="15.7265625" customWidth="1"/>
+    <col min="16136" max="16136" width="18.7265625" customWidth="1"/>
+    <col min="16137" max="16138" width="26.54296875" customWidth="1"/>
+    <col min="16139" max="16139" width="15.7265625" customWidth="1"/>
+    <col min="16140" max="16140" width="20.1796875" customWidth="1"/>
+    <col min="16141" max="16142" width="15.7265625" customWidth="1"/>
+    <col min="16143" max="16144" width="12.7265625" customWidth="1"/>
+    <col min="16145" max="16146" width="13.7265625" customWidth="1"/>
+    <col min="16147" max="16147" width="14.7265625" customWidth="1"/>
+    <col min="16148" max="16148" width="11.26953125" customWidth="1"/>
+    <col min="16150" max="16150" width="15.7265625" customWidth="1"/>
     <col min="16151" max="16151" width="40" bestFit="1" customWidth="1"/>
-    <col min="16152" max="16153" width="22.7109375" customWidth="1"/>
+    <col min="16152" max="16153" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>

--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2814C1C8-5DBD-48CE-AD7C-BAAAE4A25225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B5BA6-368C-452F-8E11-39D81084B26B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11175" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
@@ -9203,41 +9203,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9275,6 +9275,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9289,42 +9325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9992,7 +9992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19472,82 +19472,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="86" t="s">
         <v>1267</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="83" t="s">
         <v>1266</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
       <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="92" t="s">
         <v>1265</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="92" t="s">
         <v>1264</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="123"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="92" t="s">
         <v>1263</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="89" t="s">
         <v>1262</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" spans="2:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="92" t="s">
         <v>1261</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="92" t="s">
         <v>1260</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
     </row>
     <row r="10" spans="2:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="89" t="s">
         <v>1259</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
     </row>
     <row r="11" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="95"/>
@@ -19641,23 +19641,23 @@
       <c r="E24" s="56"/>
     </row>
     <row r="25" spans="2:11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="110" t="s">
         <v>1257</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
     </row>
     <row r="26" spans="2:11" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="55" t="s">
         <v>1256</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="113" t="s">
         <v>1255</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
       <c r="I26" s="54"/>
       <c r="J26" s="54"/>
       <c r="K26" s="54"/>
@@ -19713,9 +19713,9 @@
       <c r="C31" s="104" t="s">
         <v>1245</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
     </row>
     <row r="32" spans="2:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="55" t="s">
@@ -19735,9 +19735,9 @@
       <c r="C33" s="104" t="s">
         <v>1241</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
     </row>
     <row r="34" spans="2:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="55" t="s">
@@ -19746,9 +19746,9 @@
       <c r="C34" s="104" t="s">
         <v>1239</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="53"/>
@@ -19759,34 +19759,34 @@
       <c r="H35" s="54"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="116" t="s">
         <v>1238</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="52" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="117" t="s">
         <v>1236</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="52" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="121" t="s">
         <v>1234</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="123"/>
       <c r="F38" s="52" t="s">
         <v>1233</v>
       </c>
@@ -19794,20 +19794,20 @@
       <c r="H38" s="53"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="108" t="s">
         <v>1232</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="52" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E41" s="50"/>
@@ -19840,21 +19840,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C25:F25"/>
@@ -19867,6 +19852,21 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilo Libuit\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243421EA-97E0-461C-9392-4AD5ADBB9CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3B3CA-1B2D-4DA7-B355-9BB1FAFF6450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
@@ -3587,7 +3587,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1305">
   <si>
     <t xml:space="preserve">Notes </t>
   </si>
@@ -8303,6 +8303,9 @@
   <si>
     <t xml:space="preserve">Birth Date
 </t>
+  </si>
+  <si>
+    <t>Passport Issue Date</t>
   </si>
 </sst>
 </file>
@@ -9194,78 +9197,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9302,6 +9233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9316,6 +9250,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9983,7 +9986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" activeCellId="2" sqref="E1:E1048576 F1:F1048576 G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11109,7 +11112,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>1304</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1291</v>
@@ -19445,105 +19448,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="114" t="s">
         <v>1263</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="111" t="s">
         <v>1262</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="H3" s="58"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="120" t="s">
         <v>1261</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
       <c r="H4" s="58"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="120" t="s">
         <v>1260</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="120" t="s">
         <v>1259</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="117" t="s">
         <v>1258</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="2:8" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="120" t="s">
         <v>1257</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="120" t="s">
         <v>1256</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="2:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10"/>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="117" t="s">
         <v>1255</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
     </row>
     <row r="11" spans="2:8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="2:8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="104" t="s">
         <v>1254</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="49"/>
       <c r="H12" s="58"/>
     </row>
     <row r="13" spans="2:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="49"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
@@ -19614,23 +19617,23 @@
       <c r="E24" s="55"/>
     </row>
     <row r="25" spans="2:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="85" t="s">
         <v>1253</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="2:11" ht="75.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="54" t="s">
         <v>1252</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="88" t="s">
         <v>1251</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
@@ -19639,89 +19642,89 @@
       <c r="B27" s="54" t="s">
         <v>1250</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="105" t="s">
         <v>1249</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="2:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="54" t="s">
         <v>1248</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="94" t="s">
         <v>1247</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
     </row>
     <row r="29" spans="2:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="54" t="s">
         <v>1246</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="108" t="s">
         <v>1245</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
     </row>
     <row r="30" spans="2:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="54" t="s">
         <v>1244</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="94" t="s">
         <v>1243</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
     </row>
     <row r="31" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="54" t="s">
         <v>1242</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="94" t="s">
         <v>1241</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
     </row>
     <row r="32" spans="2:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="54" t="s">
         <v>1240</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="94" t="s">
         <v>1239</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
     </row>
     <row r="33" spans="2:8" ht="72.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="54" t="s">
         <v>1238</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="94" t="s">
         <v>1237</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
     </row>
     <row r="34" spans="2:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="54" t="s">
         <v>1236</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="94" t="s">
         <v>1235</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="52"/>
@@ -19732,34 +19735,34 @@
       <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="91" t="s">
         <v>1234</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="51" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="92" t="s">
         <v>1232</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="51" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="97" t="s">
         <v>1230</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="122"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
       <c r="F38" s="51" t="s">
         <v>1229</v>
       </c>
@@ -19767,20 +19770,20 @@
       <c r="H38" s="52"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="83" t="s">
         <v>1228</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="51" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E41" s="49"/>
@@ -19813,6 +19816,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C25:F25"/>
@@ -19825,21 +19843,6 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
+++ b/SeleniumHybridFrameWorkExcel/TestData/I94-File-Upload-Template_v0311.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilo Libuit\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3B3CA-1B2D-4DA7-B355-9BB1FAFF6450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF27CA9-2938-4639-804A-9905B1614F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Applications!$A$1:$Y$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$AI$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applicationstest!$A$1:$AC$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Codes &amp; Abbreviations'!$B$3:$I$54</definedName>
     <definedName name="OLE_LINK1" localSheetId="2">'Additional Instructions'!#REF!</definedName>
   </definedNames>
@@ -742,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{068EA5A2-FAE6-4F8A-B37D-3FFD63095B7B}">
       <text>
         <r>
           <rPr>
@@ -828,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9B2CF678-7FAC-458A-B8E4-BE75B132DFDC}">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{19E47029-186B-4F62-9767-550A6986968B}">
       <text>
         <r>
           <rPr>
@@ -999,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{864C8CE7-E7A5-4BFF-AD09-D45ACCF1B316}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{1485A1C9-8967-4513-8729-9D55C6CAE066}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{4D2A5197-5D0C-4756-8C9E-DF398E85CF81}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C1628DED-2B79-45CB-8E97-8B6466EE71CC}">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{5C1BEF91-F5C2-4F4E-90FC-9F4D185B1B12}">
       <text>
         <r>
           <rPr>
@@ -1414,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{A974056D-9E79-4A69-9DFA-9788CC6D8FB9}">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{1D083B59-4442-4489-AEC2-EC4409EC6454}">
       <text>
         <r>
           <rPr>
@@ -1521,7 +1521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{C6627A56-CD6F-4AEE-A8BD-E8C034A059E0}">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{80751CBD-DCDD-4330-9027-5FB40BF9C201}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{C53F7C2F-55FC-45BA-AEA9-2D47AFFE9487}">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{27310D13-9EBE-4137-BDC5-F3381C8C2604}">
       <text>
         <r>
           <rPr>
@@ -1717,7 +1717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{84CE4BD5-49FC-41AC-9352-A02D17798586}">
       <text>
         <r>
           <rPr>
@@ -1762,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{F3C81FA8-D4DC-4DEB-B20E-D0B70C6222A7}">
       <text>
         <r>
           <rPr>
@@ -3587,7 +3587,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1300">
   <si>
     <t xml:space="preserve">Notes </t>
   </si>
@@ -8265,25 +8265,7 @@
     <t>Sample Visa:</t>
   </si>
   <si>
-    <t>Passport Issue Day</t>
-  </si>
-  <si>
-    <t>Passport Issue Month</t>
-  </si>
-  <si>
-    <t>Passport Issue Year</t>
-  </si>
-  <si>
     <t>March</t>
-  </si>
-  <si>
-    <t>Passport Expiration Day</t>
-  </si>
-  <si>
-    <t>Passport Expiration Month</t>
-  </si>
-  <si>
-    <t>Passport Expiration Year</t>
   </si>
   <si>
     <t>Visa Country of Issuance</t>
@@ -8306,6 +8288,9 @@
   </si>
   <si>
     <t>Passport Issue Date</t>
+  </si>
+  <si>
+    <t>Passport Expiration Date</t>
   </si>
 </sst>
 </file>
@@ -9197,6 +9182,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9233,9 +9290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9250,75 +9304,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9982,11 +9967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A335A-DF47-4048-BD00-1A46210CB849}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9999,1094 +9984,1094 @@
     <col min="6" max="6" width="22.7265625" style="11" customWidth="1"/>
     <col min="7" max="7" width="15.7265625" style="11" customWidth="1"/>
     <col min="8" max="8" width="18.7265625" style="11" customWidth="1"/>
-    <col min="9" max="17" width="26.54296875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.7265625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="20.1796875" style="13" customWidth="1"/>
-    <col min="20" max="22" width="26.54296875" style="13" customWidth="1"/>
-    <col min="23" max="23" width="15.7265625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="14" customWidth="1"/>
-    <col min="25" max="26" width="12.7265625" style="11" customWidth="1"/>
-    <col min="27" max="28" width="13.7265625" style="11" customWidth="1"/>
-    <col min="29" max="29" width="14.7265625" style="11" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" style="11" customWidth="1"/>
-    <col min="31" max="31" width="9.1796875" style="11"/>
-    <col min="32" max="32" width="15.7265625" style="11" customWidth="1"/>
-    <col min="33" max="33" width="40" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="22.7265625" style="11" customWidth="1"/>
-    <col min="267" max="267" width="25.7265625" customWidth="1"/>
-    <col min="268" max="269" width="20.7265625" customWidth="1"/>
-    <col min="270" max="270" width="20.26953125" customWidth="1"/>
-    <col min="272" max="272" width="22.7265625" customWidth="1"/>
-    <col min="273" max="273" width="15.7265625" customWidth="1"/>
-    <col min="274" max="274" width="18.7265625" customWidth="1"/>
-    <col min="275" max="276" width="26.54296875" customWidth="1"/>
-    <col min="277" max="277" width="15.7265625" customWidth="1"/>
-    <col min="278" max="278" width="20.1796875" customWidth="1"/>
-    <col min="279" max="280" width="15.7265625" customWidth="1"/>
-    <col min="281" max="282" width="12.7265625" customWidth="1"/>
-    <col min="283" max="284" width="13.7265625" customWidth="1"/>
-    <col min="285" max="285" width="14.7265625" customWidth="1"/>
-    <col min="286" max="286" width="11.26953125" customWidth="1"/>
-    <col min="288" max="288" width="15.7265625" customWidth="1"/>
-    <col min="289" max="289" width="40" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="22.7265625" customWidth="1"/>
-    <col min="523" max="523" width="25.7265625" customWidth="1"/>
-    <col min="524" max="525" width="20.7265625" customWidth="1"/>
-    <col min="526" max="526" width="20.26953125" customWidth="1"/>
-    <col min="528" max="528" width="22.7265625" customWidth="1"/>
-    <col min="529" max="529" width="15.7265625" customWidth="1"/>
-    <col min="530" max="530" width="18.7265625" customWidth="1"/>
-    <col min="531" max="532" width="26.54296875" customWidth="1"/>
-    <col min="533" max="533" width="15.7265625" customWidth="1"/>
-    <col min="534" max="534" width="20.1796875" customWidth="1"/>
-    <col min="535" max="536" width="15.7265625" customWidth="1"/>
-    <col min="537" max="538" width="12.7265625" customWidth="1"/>
-    <col min="539" max="540" width="13.7265625" customWidth="1"/>
-    <col min="541" max="541" width="14.7265625" customWidth="1"/>
-    <col min="542" max="542" width="11.26953125" customWidth="1"/>
-    <col min="544" max="544" width="15.7265625" customWidth="1"/>
-    <col min="545" max="545" width="40" bestFit="1" customWidth="1"/>
-    <col min="546" max="547" width="22.7265625" customWidth="1"/>
-    <col min="779" max="779" width="25.7265625" customWidth="1"/>
-    <col min="780" max="781" width="20.7265625" customWidth="1"/>
-    <col min="782" max="782" width="20.26953125" customWidth="1"/>
-    <col min="784" max="784" width="22.7265625" customWidth="1"/>
-    <col min="785" max="785" width="15.7265625" customWidth="1"/>
-    <col min="786" max="786" width="18.7265625" customWidth="1"/>
-    <col min="787" max="788" width="26.54296875" customWidth="1"/>
-    <col min="789" max="789" width="15.7265625" customWidth="1"/>
-    <col min="790" max="790" width="20.1796875" customWidth="1"/>
-    <col min="791" max="792" width="15.7265625" customWidth="1"/>
-    <col min="793" max="794" width="12.7265625" customWidth="1"/>
-    <col min="795" max="796" width="13.7265625" customWidth="1"/>
-    <col min="797" max="797" width="14.7265625" customWidth="1"/>
-    <col min="798" max="798" width="11.26953125" customWidth="1"/>
-    <col min="800" max="800" width="15.7265625" customWidth="1"/>
-    <col min="801" max="801" width="40" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="22.7265625" customWidth="1"/>
-    <col min="1035" max="1035" width="25.7265625" customWidth="1"/>
-    <col min="1036" max="1037" width="20.7265625" customWidth="1"/>
-    <col min="1038" max="1038" width="20.26953125" customWidth="1"/>
-    <col min="1040" max="1040" width="22.7265625" customWidth="1"/>
-    <col min="1041" max="1041" width="15.7265625" customWidth="1"/>
-    <col min="1042" max="1042" width="18.7265625" customWidth="1"/>
-    <col min="1043" max="1044" width="26.54296875" customWidth="1"/>
-    <col min="1045" max="1045" width="15.7265625" customWidth="1"/>
-    <col min="1046" max="1046" width="20.1796875" customWidth="1"/>
-    <col min="1047" max="1048" width="15.7265625" customWidth="1"/>
-    <col min="1049" max="1050" width="12.7265625" customWidth="1"/>
-    <col min="1051" max="1052" width="13.7265625" customWidth="1"/>
-    <col min="1053" max="1053" width="14.7265625" customWidth="1"/>
-    <col min="1054" max="1054" width="11.26953125" customWidth="1"/>
-    <col min="1056" max="1056" width="15.7265625" customWidth="1"/>
-    <col min="1057" max="1057" width="40" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1059" width="22.7265625" customWidth="1"/>
-    <col min="1291" max="1291" width="25.7265625" customWidth="1"/>
-    <col min="1292" max="1293" width="20.7265625" customWidth="1"/>
-    <col min="1294" max="1294" width="20.26953125" customWidth="1"/>
-    <col min="1296" max="1296" width="22.7265625" customWidth="1"/>
-    <col min="1297" max="1297" width="15.7265625" customWidth="1"/>
-    <col min="1298" max="1298" width="18.7265625" customWidth="1"/>
-    <col min="1299" max="1300" width="26.54296875" customWidth="1"/>
-    <col min="1301" max="1301" width="15.7265625" customWidth="1"/>
-    <col min="1302" max="1302" width="20.1796875" customWidth="1"/>
-    <col min="1303" max="1304" width="15.7265625" customWidth="1"/>
-    <col min="1305" max="1306" width="12.7265625" customWidth="1"/>
-    <col min="1307" max="1308" width="13.7265625" customWidth="1"/>
-    <col min="1309" max="1309" width="14.7265625" customWidth="1"/>
-    <col min="1310" max="1310" width="11.26953125" customWidth="1"/>
-    <col min="1312" max="1312" width="15.7265625" customWidth="1"/>
-    <col min="1313" max="1313" width="40" bestFit="1" customWidth="1"/>
-    <col min="1314" max="1315" width="22.7265625" customWidth="1"/>
-    <col min="1547" max="1547" width="25.7265625" customWidth="1"/>
-    <col min="1548" max="1549" width="20.7265625" customWidth="1"/>
-    <col min="1550" max="1550" width="20.26953125" customWidth="1"/>
-    <col min="1552" max="1552" width="22.7265625" customWidth="1"/>
-    <col min="1553" max="1553" width="15.7265625" customWidth="1"/>
-    <col min="1554" max="1554" width="18.7265625" customWidth="1"/>
-    <col min="1555" max="1556" width="26.54296875" customWidth="1"/>
-    <col min="1557" max="1557" width="15.7265625" customWidth="1"/>
-    <col min="1558" max="1558" width="20.1796875" customWidth="1"/>
-    <col min="1559" max="1560" width="15.7265625" customWidth="1"/>
-    <col min="1561" max="1562" width="12.7265625" customWidth="1"/>
-    <col min="1563" max="1564" width="13.7265625" customWidth="1"/>
-    <col min="1565" max="1565" width="14.7265625" customWidth="1"/>
-    <col min="1566" max="1566" width="11.26953125" customWidth="1"/>
-    <col min="1568" max="1568" width="15.7265625" customWidth="1"/>
-    <col min="1569" max="1569" width="40" bestFit="1" customWidth="1"/>
-    <col min="1570" max="1571" width="22.7265625" customWidth="1"/>
-    <col min="1803" max="1803" width="25.7265625" customWidth="1"/>
-    <col min="1804" max="1805" width="20.7265625" customWidth="1"/>
-    <col min="1806" max="1806" width="20.26953125" customWidth="1"/>
-    <col min="1808" max="1808" width="22.7265625" customWidth="1"/>
-    <col min="1809" max="1809" width="15.7265625" customWidth="1"/>
-    <col min="1810" max="1810" width="18.7265625" customWidth="1"/>
-    <col min="1811" max="1812" width="26.54296875" customWidth="1"/>
-    <col min="1813" max="1813" width="15.7265625" customWidth="1"/>
-    <col min="1814" max="1814" width="20.1796875" customWidth="1"/>
-    <col min="1815" max="1816" width="15.7265625" customWidth="1"/>
-    <col min="1817" max="1818" width="12.7265625" customWidth="1"/>
-    <col min="1819" max="1820" width="13.7265625" customWidth="1"/>
-    <col min="1821" max="1821" width="14.7265625" customWidth="1"/>
-    <col min="1822" max="1822" width="11.26953125" customWidth="1"/>
-    <col min="1824" max="1824" width="15.7265625" customWidth="1"/>
-    <col min="1825" max="1825" width="40" bestFit="1" customWidth="1"/>
-    <col min="1826" max="1827" width="22.7265625" customWidth="1"/>
-    <col min="2059" max="2059" width="25.7265625" customWidth="1"/>
-    <col min="2060" max="2061" width="20.7265625" customWidth="1"/>
-    <col min="2062" max="2062" width="20.26953125" customWidth="1"/>
-    <col min="2064" max="2064" width="22.7265625" customWidth="1"/>
-    <col min="2065" max="2065" width="15.7265625" customWidth="1"/>
-    <col min="2066" max="2066" width="18.7265625" customWidth="1"/>
-    <col min="2067" max="2068" width="26.54296875" customWidth="1"/>
-    <col min="2069" max="2069" width="15.7265625" customWidth="1"/>
-    <col min="2070" max="2070" width="20.1796875" customWidth="1"/>
-    <col min="2071" max="2072" width="15.7265625" customWidth="1"/>
-    <col min="2073" max="2074" width="12.7265625" customWidth="1"/>
-    <col min="2075" max="2076" width="13.7265625" customWidth="1"/>
-    <col min="2077" max="2077" width="14.7265625" customWidth="1"/>
-    <col min="2078" max="2078" width="11.26953125" customWidth="1"/>
-    <col min="2080" max="2080" width="15.7265625" customWidth="1"/>
-    <col min="2081" max="2081" width="40" bestFit="1" customWidth="1"/>
-    <col min="2082" max="2083" width="22.7265625" customWidth="1"/>
-    <col min="2315" max="2315" width="25.7265625" customWidth="1"/>
-    <col min="2316" max="2317" width="20.7265625" customWidth="1"/>
-    <col min="2318" max="2318" width="20.26953125" customWidth="1"/>
-    <col min="2320" max="2320" width="22.7265625" customWidth="1"/>
-    <col min="2321" max="2321" width="15.7265625" customWidth="1"/>
-    <col min="2322" max="2322" width="18.7265625" customWidth="1"/>
-    <col min="2323" max="2324" width="26.54296875" customWidth="1"/>
-    <col min="2325" max="2325" width="15.7265625" customWidth="1"/>
-    <col min="2326" max="2326" width="20.1796875" customWidth="1"/>
-    <col min="2327" max="2328" width="15.7265625" customWidth="1"/>
-    <col min="2329" max="2330" width="12.7265625" customWidth="1"/>
-    <col min="2331" max="2332" width="13.7265625" customWidth="1"/>
-    <col min="2333" max="2333" width="14.7265625" customWidth="1"/>
-    <col min="2334" max="2334" width="11.26953125" customWidth="1"/>
-    <col min="2336" max="2336" width="15.7265625" customWidth="1"/>
-    <col min="2337" max="2337" width="40" bestFit="1" customWidth="1"/>
-    <col min="2338" max="2339" width="22.7265625" customWidth="1"/>
-    <col min="2571" max="2571" width="25.7265625" customWidth="1"/>
-    <col min="2572" max="2573" width="20.7265625" customWidth="1"/>
-    <col min="2574" max="2574" width="20.26953125" customWidth="1"/>
-    <col min="2576" max="2576" width="22.7265625" customWidth="1"/>
-    <col min="2577" max="2577" width="15.7265625" customWidth="1"/>
-    <col min="2578" max="2578" width="18.7265625" customWidth="1"/>
-    <col min="2579" max="2580" width="26.54296875" customWidth="1"/>
-    <col min="2581" max="2581" width="15.7265625" customWidth="1"/>
-    <col min="2582" max="2582" width="20.1796875" customWidth="1"/>
-    <col min="2583" max="2584" width="15.7265625" customWidth="1"/>
-    <col min="2585" max="2586" width="12.7265625" customWidth="1"/>
-    <col min="2587" max="2588" width="13.7265625" customWidth="1"/>
-    <col min="2589" max="2589" width="14.7265625" customWidth="1"/>
-    <col min="2590" max="2590" width="11.26953125" customWidth="1"/>
-    <col min="2592" max="2592" width="15.7265625" customWidth="1"/>
-    <col min="2593" max="2593" width="40" bestFit="1" customWidth="1"/>
-    <col min="2594" max="2595" width="22.7265625" customWidth="1"/>
-    <col min="2827" max="2827" width="25.7265625" customWidth="1"/>
-    <col min="2828" max="2829" width="20.7265625" customWidth="1"/>
-    <col min="2830" max="2830" width="20.26953125" customWidth="1"/>
-    <col min="2832" max="2832" width="22.7265625" customWidth="1"/>
-    <col min="2833" max="2833" width="15.7265625" customWidth="1"/>
-    <col min="2834" max="2834" width="18.7265625" customWidth="1"/>
-    <col min="2835" max="2836" width="26.54296875" customWidth="1"/>
-    <col min="2837" max="2837" width="15.7265625" customWidth="1"/>
-    <col min="2838" max="2838" width="20.1796875" customWidth="1"/>
-    <col min="2839" max="2840" width="15.7265625" customWidth="1"/>
-    <col min="2841" max="2842" width="12.7265625" customWidth="1"/>
-    <col min="2843" max="2844" width="13.7265625" customWidth="1"/>
-    <col min="2845" max="2845" width="14.7265625" customWidth="1"/>
-    <col min="2846" max="2846" width="11.26953125" customWidth="1"/>
-    <col min="2848" max="2848" width="15.7265625" customWidth="1"/>
-    <col min="2849" max="2849" width="40" bestFit="1" customWidth="1"/>
-    <col min="2850" max="2851" width="22.7265625" customWidth="1"/>
-    <col min="3083" max="3083" width="25.7265625" customWidth="1"/>
-    <col min="3084" max="3085" width="20.7265625" customWidth="1"/>
-    <col min="3086" max="3086" width="20.26953125" customWidth="1"/>
-    <col min="3088" max="3088" width="22.7265625" customWidth="1"/>
-    <col min="3089" max="3089" width="15.7265625" customWidth="1"/>
-    <col min="3090" max="3090" width="18.7265625" customWidth="1"/>
-    <col min="3091" max="3092" width="26.54296875" customWidth="1"/>
-    <col min="3093" max="3093" width="15.7265625" customWidth="1"/>
-    <col min="3094" max="3094" width="20.1796875" customWidth="1"/>
-    <col min="3095" max="3096" width="15.7265625" customWidth="1"/>
-    <col min="3097" max="3098" width="12.7265625" customWidth="1"/>
-    <col min="3099" max="3100" width="13.7265625" customWidth="1"/>
-    <col min="3101" max="3101" width="14.7265625" customWidth="1"/>
-    <col min="3102" max="3102" width="11.26953125" customWidth="1"/>
-    <col min="3104" max="3104" width="15.7265625" customWidth="1"/>
-    <col min="3105" max="3105" width="40" bestFit="1" customWidth="1"/>
-    <col min="3106" max="3107" width="22.7265625" customWidth="1"/>
-    <col min="3339" max="3339" width="25.7265625" customWidth="1"/>
-    <col min="3340" max="3341" width="20.7265625" customWidth="1"/>
-    <col min="3342" max="3342" width="20.26953125" customWidth="1"/>
-    <col min="3344" max="3344" width="22.7265625" customWidth="1"/>
-    <col min="3345" max="3345" width="15.7265625" customWidth="1"/>
-    <col min="3346" max="3346" width="18.7265625" customWidth="1"/>
-    <col min="3347" max="3348" width="26.54296875" customWidth="1"/>
-    <col min="3349" max="3349" width="15.7265625" customWidth="1"/>
-    <col min="3350" max="3350" width="20.1796875" customWidth="1"/>
-    <col min="3351" max="3352" width="15.7265625" customWidth="1"/>
-    <col min="3353" max="3354" width="12.7265625" customWidth="1"/>
-    <col min="3355" max="3356" width="13.7265625" customWidth="1"/>
-    <col min="3357" max="3357" width="14.7265625" customWidth="1"/>
-    <col min="3358" max="3358" width="11.26953125" customWidth="1"/>
-    <col min="3360" max="3360" width="15.7265625" customWidth="1"/>
-    <col min="3361" max="3361" width="40" bestFit="1" customWidth="1"/>
-    <col min="3362" max="3363" width="22.7265625" customWidth="1"/>
-    <col min="3595" max="3595" width="25.7265625" customWidth="1"/>
-    <col min="3596" max="3597" width="20.7265625" customWidth="1"/>
-    <col min="3598" max="3598" width="20.26953125" customWidth="1"/>
-    <col min="3600" max="3600" width="22.7265625" customWidth="1"/>
-    <col min="3601" max="3601" width="15.7265625" customWidth="1"/>
-    <col min="3602" max="3602" width="18.7265625" customWidth="1"/>
-    <col min="3603" max="3604" width="26.54296875" customWidth="1"/>
-    <col min="3605" max="3605" width="15.7265625" customWidth="1"/>
-    <col min="3606" max="3606" width="20.1796875" customWidth="1"/>
-    <col min="3607" max="3608" width="15.7265625" customWidth="1"/>
-    <col min="3609" max="3610" width="12.7265625" customWidth="1"/>
-    <col min="3611" max="3612" width="13.7265625" customWidth="1"/>
-    <col min="3613" max="3613" width="14.7265625" customWidth="1"/>
-    <col min="3614" max="3614" width="11.26953125" customWidth="1"/>
-    <col min="3616" max="3616" width="15.7265625" customWidth="1"/>
-    <col min="3617" max="3617" width="40" bestFit="1" customWidth="1"/>
-    <col min="3618" max="3619" width="22.7265625" customWidth="1"/>
-    <col min="3851" max="3851" width="25.7265625" customWidth="1"/>
-    <col min="3852" max="3853" width="20.7265625" customWidth="1"/>
-    <col min="3854" max="3854" width="20.26953125" customWidth="1"/>
-    <col min="3856" max="3856" width="22.7265625" customWidth="1"/>
-    <col min="3857" max="3857" width="15.7265625" customWidth="1"/>
-    <col min="3858" max="3858" width="18.7265625" customWidth="1"/>
-    <col min="3859" max="3860" width="26.54296875" customWidth="1"/>
-    <col min="3861" max="3861" width="15.7265625" customWidth="1"/>
-    <col min="3862" max="3862" width="20.1796875" customWidth="1"/>
-    <col min="3863" max="3864" width="15.7265625" customWidth="1"/>
-    <col min="3865" max="3866" width="12.7265625" customWidth="1"/>
-    <col min="3867" max="3868" width="13.7265625" customWidth="1"/>
-    <col min="3869" max="3869" width="14.7265625" customWidth="1"/>
-    <col min="3870" max="3870" width="11.26953125" customWidth="1"/>
-    <col min="3872" max="3872" width="15.7265625" customWidth="1"/>
-    <col min="3873" max="3873" width="40" bestFit="1" customWidth="1"/>
-    <col min="3874" max="3875" width="22.7265625" customWidth="1"/>
-    <col min="4107" max="4107" width="25.7265625" customWidth="1"/>
-    <col min="4108" max="4109" width="20.7265625" customWidth="1"/>
-    <col min="4110" max="4110" width="20.26953125" customWidth="1"/>
-    <col min="4112" max="4112" width="22.7265625" customWidth="1"/>
-    <col min="4113" max="4113" width="15.7265625" customWidth="1"/>
-    <col min="4114" max="4114" width="18.7265625" customWidth="1"/>
-    <col min="4115" max="4116" width="26.54296875" customWidth="1"/>
-    <col min="4117" max="4117" width="15.7265625" customWidth="1"/>
-    <col min="4118" max="4118" width="20.1796875" customWidth="1"/>
-    <col min="4119" max="4120" width="15.7265625" customWidth="1"/>
-    <col min="4121" max="4122" width="12.7265625" customWidth="1"/>
-    <col min="4123" max="4124" width="13.7265625" customWidth="1"/>
-    <col min="4125" max="4125" width="14.7265625" customWidth="1"/>
-    <col min="4126" max="4126" width="11.26953125" customWidth="1"/>
-    <col min="4128" max="4128" width="15.7265625" customWidth="1"/>
-    <col min="4129" max="4129" width="40" bestFit="1" customWidth="1"/>
-    <col min="4130" max="4131" width="22.7265625" customWidth="1"/>
-    <col min="4363" max="4363" width="25.7265625" customWidth="1"/>
-    <col min="4364" max="4365" width="20.7265625" customWidth="1"/>
-    <col min="4366" max="4366" width="20.26953125" customWidth="1"/>
-    <col min="4368" max="4368" width="22.7265625" customWidth="1"/>
-    <col min="4369" max="4369" width="15.7265625" customWidth="1"/>
-    <col min="4370" max="4370" width="18.7265625" customWidth="1"/>
-    <col min="4371" max="4372" width="26.54296875" customWidth="1"/>
-    <col min="4373" max="4373" width="15.7265625" customWidth="1"/>
-    <col min="4374" max="4374" width="20.1796875" customWidth="1"/>
-    <col min="4375" max="4376" width="15.7265625" customWidth="1"/>
-    <col min="4377" max="4378" width="12.7265625" customWidth="1"/>
-    <col min="4379" max="4380" width="13.7265625" customWidth="1"/>
-    <col min="4381" max="4381" width="14.7265625" customWidth="1"/>
-    <col min="4382" max="4382" width="11.26953125" customWidth="1"/>
-    <col min="4384" max="4384" width="15.7265625" customWidth="1"/>
-    <col min="4385" max="4385" width="40" bestFit="1" customWidth="1"/>
-    <col min="4386" max="4387" width="22.7265625" customWidth="1"/>
-    <col min="4619" max="4619" width="25.7265625" customWidth="1"/>
-    <col min="4620" max="4621" width="20.7265625" customWidth="1"/>
-    <col min="4622" max="4622" width="20.26953125" customWidth="1"/>
-    <col min="4624" max="4624" width="22.7265625" customWidth="1"/>
-    <col min="4625" max="4625" width="15.7265625" customWidth="1"/>
-    <col min="4626" max="4626" width="18.7265625" customWidth="1"/>
-    <col min="4627" max="4628" width="26.54296875" customWidth="1"/>
-    <col min="4629" max="4629" width="15.7265625" customWidth="1"/>
-    <col min="4630" max="4630" width="20.1796875" customWidth="1"/>
-    <col min="4631" max="4632" width="15.7265625" customWidth="1"/>
-    <col min="4633" max="4634" width="12.7265625" customWidth="1"/>
-    <col min="4635" max="4636" width="13.7265625" customWidth="1"/>
-    <col min="4637" max="4637" width="14.7265625" customWidth="1"/>
-    <col min="4638" max="4638" width="11.26953125" customWidth="1"/>
-    <col min="4640" max="4640" width="15.7265625" customWidth="1"/>
-    <col min="4641" max="4641" width="40" bestFit="1" customWidth="1"/>
-    <col min="4642" max="4643" width="22.7265625" customWidth="1"/>
-    <col min="4875" max="4875" width="25.7265625" customWidth="1"/>
-    <col min="4876" max="4877" width="20.7265625" customWidth="1"/>
-    <col min="4878" max="4878" width="20.26953125" customWidth="1"/>
-    <col min="4880" max="4880" width="22.7265625" customWidth="1"/>
-    <col min="4881" max="4881" width="15.7265625" customWidth="1"/>
-    <col min="4882" max="4882" width="18.7265625" customWidth="1"/>
-    <col min="4883" max="4884" width="26.54296875" customWidth="1"/>
-    <col min="4885" max="4885" width="15.7265625" customWidth="1"/>
-    <col min="4886" max="4886" width="20.1796875" customWidth="1"/>
-    <col min="4887" max="4888" width="15.7265625" customWidth="1"/>
-    <col min="4889" max="4890" width="12.7265625" customWidth="1"/>
-    <col min="4891" max="4892" width="13.7265625" customWidth="1"/>
-    <col min="4893" max="4893" width="14.7265625" customWidth="1"/>
-    <col min="4894" max="4894" width="11.26953125" customWidth="1"/>
-    <col min="4896" max="4896" width="15.7265625" customWidth="1"/>
-    <col min="4897" max="4897" width="40" bestFit="1" customWidth="1"/>
-    <col min="4898" max="4899" width="22.7265625" customWidth="1"/>
-    <col min="5131" max="5131" width="25.7265625" customWidth="1"/>
-    <col min="5132" max="5133" width="20.7265625" customWidth="1"/>
-    <col min="5134" max="5134" width="20.26953125" customWidth="1"/>
-    <col min="5136" max="5136" width="22.7265625" customWidth="1"/>
-    <col min="5137" max="5137" width="15.7265625" customWidth="1"/>
-    <col min="5138" max="5138" width="18.7265625" customWidth="1"/>
-    <col min="5139" max="5140" width="26.54296875" customWidth="1"/>
-    <col min="5141" max="5141" width="15.7265625" customWidth="1"/>
-    <col min="5142" max="5142" width="20.1796875" customWidth="1"/>
-    <col min="5143" max="5144" width="15.7265625" customWidth="1"/>
-    <col min="5145" max="5146" width="12.7265625" customWidth="1"/>
-    <col min="5147" max="5148" width="13.7265625" customWidth="1"/>
-    <col min="5149" max="5149" width="14.7265625" customWidth="1"/>
-    <col min="5150" max="5150" width="11.26953125" customWidth="1"/>
-    <col min="5152" max="5152" width="15.7265625" customWidth="1"/>
-    <col min="5153" max="5153" width="40" bestFit="1" customWidth="1"/>
-    <col min="5154" max="5155" width="22.7265625" customWidth="1"/>
-    <col min="5387" max="5387" width="25.7265625" customWidth="1"/>
-    <col min="5388" max="5389" width="20.7265625" customWidth="1"/>
-    <col min="5390" max="5390" width="20.26953125" customWidth="1"/>
-    <col min="5392" max="5392" width="22.7265625" customWidth="1"/>
-    <col min="5393" max="5393" width="15.7265625" customWidth="1"/>
-    <col min="5394" max="5394" width="18.7265625" customWidth="1"/>
-    <col min="5395" max="5396" width="26.54296875" customWidth="1"/>
-    <col min="5397" max="5397" width="15.7265625" customWidth="1"/>
-    <col min="5398" max="5398" width="20.1796875" customWidth="1"/>
-    <col min="5399" max="5400" width="15.7265625" customWidth="1"/>
-    <col min="5401" max="5402" width="12.7265625" customWidth="1"/>
-    <col min="5403" max="5404" width="13.7265625" customWidth="1"/>
-    <col min="5405" max="5405" width="14.7265625" customWidth="1"/>
-    <col min="5406" max="5406" width="11.26953125" customWidth="1"/>
-    <col min="5408" max="5408" width="15.7265625" customWidth="1"/>
-    <col min="5409" max="5409" width="40" bestFit="1" customWidth="1"/>
-    <col min="5410" max="5411" width="22.7265625" customWidth="1"/>
-    <col min="5643" max="5643" width="25.7265625" customWidth="1"/>
-    <col min="5644" max="5645" width="20.7265625" customWidth="1"/>
-    <col min="5646" max="5646" width="20.26953125" customWidth="1"/>
-    <col min="5648" max="5648" width="22.7265625" customWidth="1"/>
-    <col min="5649" max="5649" width="15.7265625" customWidth="1"/>
-    <col min="5650" max="5650" width="18.7265625" customWidth="1"/>
-    <col min="5651" max="5652" width="26.54296875" customWidth="1"/>
-    <col min="5653" max="5653" width="15.7265625" customWidth="1"/>
-    <col min="5654" max="5654" width="20.1796875" customWidth="1"/>
-    <col min="5655" max="5656" width="15.7265625" customWidth="1"/>
-    <col min="5657" max="5658" width="12.7265625" customWidth="1"/>
-    <col min="5659" max="5660" width="13.7265625" customWidth="1"/>
-    <col min="5661" max="5661" width="14.7265625" customWidth="1"/>
-    <col min="5662" max="5662" width="11.26953125" customWidth="1"/>
-    <col min="5664" max="5664" width="15.7265625" customWidth="1"/>
-    <col min="5665" max="5665" width="40" bestFit="1" customWidth="1"/>
-    <col min="5666" max="5667" width="22.7265625" customWidth="1"/>
-    <col min="5899" max="5899" width="25.7265625" customWidth="1"/>
-    <col min="5900" max="5901" width="20.7265625" customWidth="1"/>
-    <col min="5902" max="5902" width="20.26953125" customWidth="1"/>
-    <col min="5904" max="5904" width="22.7265625" customWidth="1"/>
-    <col min="5905" max="5905" width="15.7265625" customWidth="1"/>
-    <col min="5906" max="5906" width="18.7265625" customWidth="1"/>
-    <col min="5907" max="5908" width="26.54296875" customWidth="1"/>
-    <col min="5909" max="5909" width="15.7265625" customWidth="1"/>
-    <col min="5910" max="5910" width="20.1796875" customWidth="1"/>
-    <col min="5911" max="5912" width="15.7265625" customWidth="1"/>
-    <col min="5913" max="5914" width="12.7265625" customWidth="1"/>
-    <col min="5915" max="5916" width="13.7265625" customWidth="1"/>
-    <col min="5917" max="5917" width="14.7265625" customWidth="1"/>
-    <col min="5918" max="5918" width="11.26953125" customWidth="1"/>
-    <col min="5920" max="5920" width="15.7265625" customWidth="1"/>
-    <col min="5921" max="5921" width="40" bestFit="1" customWidth="1"/>
-    <col min="5922" max="5923" width="22.7265625" customWidth="1"/>
-    <col min="6155" max="6155" width="25.7265625" customWidth="1"/>
-    <col min="6156" max="6157" width="20.7265625" customWidth="1"/>
-    <col min="6158" max="6158" width="20.26953125" customWidth="1"/>
-    <col min="6160" max="6160" width="22.7265625" customWidth="1"/>
-    <col min="6161" max="6161" width="15.7265625" customWidth="1"/>
-    <col min="6162" max="6162" width="18.7265625" customWidth="1"/>
-    <col min="6163" max="6164" width="26.54296875" customWidth="1"/>
-    <col min="6165" max="6165" width="15.7265625" customWidth="1"/>
-    <col min="6166" max="6166" width="20.1796875" customWidth="1"/>
-    <col min="6167" max="6168" width="15.7265625" customWidth="1"/>
-    <col min="6169" max="6170" width="12.7265625" customWidth="1"/>
-    <col min="6171" max="6172" width="13.7265625" customWidth="1"/>
-    <col min="6173" max="6173" width="14.7265625" customWidth="1"/>
-    <col min="6174" max="6174" width="11.26953125" customWidth="1"/>
-    <col min="6176" max="6176" width="15.7265625" customWidth="1"/>
-    <col min="6177" max="6177" width="40" bestFit="1" customWidth="1"/>
-    <col min="6178" max="6179" width="22.7265625" customWidth="1"/>
-    <col min="6411" max="6411" width="25.7265625" customWidth="1"/>
-    <col min="6412" max="6413" width="20.7265625" customWidth="1"/>
-    <col min="6414" max="6414" width="20.26953125" customWidth="1"/>
-    <col min="6416" max="6416" width="22.7265625" customWidth="1"/>
-    <col min="6417" max="6417" width="15.7265625" customWidth="1"/>
-    <col min="6418" max="6418" width="18.7265625" customWidth="1"/>
-    <col min="6419" max="6420" width="26.54296875" customWidth="1"/>
-    <col min="6421" max="6421" width="15.7265625" customWidth="1"/>
-    <col min="6422" max="6422" width="20.1796875" customWidth="1"/>
-    <col min="6423" max="6424" width="15.7265625" customWidth="1"/>
-    <col min="6425" max="6426" width="12.7265625" customWidth="1"/>
-    <col min="6427" max="6428" width="13.7265625" customWidth="1"/>
-    <col min="6429" max="6429" width="14.7265625" customWidth="1"/>
-    <col min="6430" max="6430" width="11.26953125" customWidth="1"/>
-    <col min="6432" max="6432" width="15.7265625" customWidth="1"/>
-    <col min="6433" max="6433" width="40" bestFit="1" customWidth="1"/>
-    <col min="6434" max="6435" width="22.7265625" customWidth="1"/>
-    <col min="6667" max="6667" width="25.7265625" customWidth="1"/>
-    <col min="6668" max="6669" width="20.7265625" customWidth="1"/>
-    <col min="6670" max="6670" width="20.26953125" customWidth="1"/>
-    <col min="6672" max="6672" width="22.7265625" customWidth="1"/>
-    <col min="6673" max="6673" width="15.7265625" customWidth="1"/>
-    <col min="6674" max="6674" width="18.7265625" customWidth="1"/>
-    <col min="6675" max="6676" width="26.54296875" customWidth="1"/>
-    <col min="6677" max="6677" width="15.7265625" customWidth="1"/>
-    <col min="6678" max="6678" width="20.1796875" customWidth="1"/>
-    <col min="6679" max="6680" width="15.7265625" customWidth="1"/>
-    <col min="6681" max="6682" width="12.7265625" customWidth="1"/>
-    <col min="6683" max="6684" width="13.7265625" customWidth="1"/>
-    <col min="6685" max="6685" width="14.7265625" customWidth="1"/>
-    <col min="6686" max="6686" width="11.26953125" customWidth="1"/>
-    <col min="6688" max="6688" width="15.7265625" customWidth="1"/>
-    <col min="6689" max="6689" width="40" bestFit="1" customWidth="1"/>
-    <col min="6690" max="6691" width="22.7265625" customWidth="1"/>
-    <col min="6923" max="6923" width="25.7265625" customWidth="1"/>
-    <col min="6924" max="6925" width="20.7265625" customWidth="1"/>
-    <col min="6926" max="6926" width="20.26953125" customWidth="1"/>
-    <col min="6928" max="6928" width="22.7265625" customWidth="1"/>
-    <col min="6929" max="6929" width="15.7265625" customWidth="1"/>
-    <col min="6930" max="6930" width="18.7265625" customWidth="1"/>
-    <col min="6931" max="6932" width="26.54296875" customWidth="1"/>
-    <col min="6933" max="6933" width="15.7265625" customWidth="1"/>
-    <col min="6934" max="6934" width="20.1796875" customWidth="1"/>
-    <col min="6935" max="6936" width="15.7265625" customWidth="1"/>
-    <col min="6937" max="6938" width="12.7265625" customWidth="1"/>
-    <col min="6939" max="6940" width="13.7265625" customWidth="1"/>
-    <col min="6941" max="6941" width="14.7265625" customWidth="1"/>
-    <col min="6942" max="6942" width="11.26953125" customWidth="1"/>
-    <col min="6944" max="6944" width="15.7265625" customWidth="1"/>
-    <col min="6945" max="6945" width="40" bestFit="1" customWidth="1"/>
-    <col min="6946" max="6947" width="22.7265625" customWidth="1"/>
-    <col min="7179" max="7179" width="25.7265625" customWidth="1"/>
-    <col min="7180" max="7181" width="20.7265625" customWidth="1"/>
-    <col min="7182" max="7182" width="20.26953125" customWidth="1"/>
-    <col min="7184" max="7184" width="22.7265625" customWidth="1"/>
-    <col min="7185" max="7185" width="15.7265625" customWidth="1"/>
-    <col min="7186" max="7186" width="18.7265625" customWidth="1"/>
-    <col min="7187" max="7188" width="26.54296875" customWidth="1"/>
-    <col min="7189" max="7189" width="15.7265625" customWidth="1"/>
-    <col min="7190" max="7190" width="20.1796875" customWidth="1"/>
-    <col min="7191" max="7192" width="15.7265625" customWidth="1"/>
-    <col min="7193" max="7194" width="12.7265625" customWidth="1"/>
-    <col min="7195" max="7196" width="13.7265625" customWidth="1"/>
-    <col min="7197" max="7197" width="14.7265625" customWidth="1"/>
-    <col min="7198" max="7198" width="11.26953125" customWidth="1"/>
-    <col min="7200" max="7200" width="15.7265625" customWidth="1"/>
-    <col min="7201" max="7201" width="40" bestFit="1" customWidth="1"/>
-    <col min="7202" max="7203" width="22.7265625" customWidth="1"/>
-    <col min="7435" max="7435" width="25.7265625" customWidth="1"/>
-    <col min="7436" max="7437" width="20.7265625" customWidth="1"/>
-    <col min="7438" max="7438" width="20.26953125" customWidth="1"/>
-    <col min="7440" max="7440" width="22.7265625" customWidth="1"/>
-    <col min="7441" max="7441" width="15.7265625" customWidth="1"/>
-    <col min="7442" max="7442" width="18.7265625" customWidth="1"/>
-    <col min="7443" max="7444" width="26.54296875" customWidth="1"/>
-    <col min="7445" max="7445" width="15.7265625" customWidth="1"/>
-    <col min="7446" max="7446" width="20.1796875" customWidth="1"/>
-    <col min="7447" max="7448" width="15.7265625" customWidth="1"/>
-    <col min="7449" max="7450" width="12.7265625" customWidth="1"/>
-    <col min="7451" max="7452" width="13.7265625" customWidth="1"/>
-    <col min="7453" max="7453" width="14.7265625" customWidth="1"/>
-    <col min="7454" max="7454" width="11.26953125" customWidth="1"/>
-    <col min="7456" max="7456" width="15.7265625" customWidth="1"/>
-    <col min="7457" max="7457" width="40" bestFit="1" customWidth="1"/>
-    <col min="7458" max="7459" width="22.7265625" customWidth="1"/>
-    <col min="7691" max="7691" width="25.7265625" customWidth="1"/>
-    <col min="7692" max="7693" width="20.7265625" customWidth="1"/>
-    <col min="7694" max="7694" width="20.26953125" customWidth="1"/>
-    <col min="7696" max="7696" width="22.7265625" customWidth="1"/>
-    <col min="7697" max="7697" width="15.7265625" customWidth="1"/>
-    <col min="7698" max="7698" width="18.7265625" customWidth="1"/>
-    <col min="7699" max="7700" width="26.54296875" customWidth="1"/>
-    <col min="7701" max="7701" width="15.7265625" customWidth="1"/>
-    <col min="7702" max="7702" width="20.1796875" customWidth="1"/>
-    <col min="7703" max="7704" width="15.7265625" customWidth="1"/>
-    <col min="7705" max="7706" width="12.7265625" customWidth="1"/>
-    <col min="7707" max="7708" width="13.7265625" customWidth="1"/>
-    <col min="7709" max="7709" width="14.7265625" customWidth="1"/>
-    <col min="7710" max="7710" width="11.26953125" customWidth="1"/>
-    <col min="7712" max="7712" width="15.7265625" customWidth="1"/>
-    <col min="7713" max="7713" width="40" bestFit="1" customWidth="1"/>
-    <col min="7714" max="7715" width="22.7265625" customWidth="1"/>
-    <col min="7947" max="7947" width="25.7265625" customWidth="1"/>
-    <col min="7948" max="7949" width="20.7265625" customWidth="1"/>
-    <col min="7950" max="7950" width="20.26953125" customWidth="1"/>
-    <col min="7952" max="7952" width="22.7265625" customWidth="1"/>
-    <col min="7953" max="7953" width="15.7265625" customWidth="1"/>
-    <col min="7954" max="7954" width="18.7265625" customWidth="1"/>
-    <col min="7955" max="7956" width="26.54296875" customWidth="1"/>
-    <col min="7957" max="7957" width="15.7265625" customWidth="1"/>
-    <col min="7958" max="7958" width="20.1796875" customWidth="1"/>
-    <col min="7959" max="7960" width="15.7265625" customWidth="1"/>
-    <col min="7961" max="7962" width="12.7265625" customWidth="1"/>
-    <col min="7963" max="7964" width="13.7265625" customWidth="1"/>
-    <col min="7965" max="7965" width="14.7265625" customWidth="1"/>
-    <col min="7966" max="7966" width="11.26953125" customWidth="1"/>
-    <col min="7968" max="7968" width="15.7265625" customWidth="1"/>
-    <col min="7969" max="7969" width="40" bestFit="1" customWidth="1"/>
-    <col min="7970" max="7971" width="22.7265625" customWidth="1"/>
-    <col min="8203" max="8203" width="25.7265625" customWidth="1"/>
-    <col min="8204" max="8205" width="20.7265625" customWidth="1"/>
-    <col min="8206" max="8206" width="20.26953125" customWidth="1"/>
-    <col min="8208" max="8208" width="22.7265625" customWidth="1"/>
-    <col min="8209" max="8209" width="15.7265625" customWidth="1"/>
-    <col min="8210" max="8210" width="18.7265625" customWidth="1"/>
-    <col min="8211" max="8212" width="26.54296875" customWidth="1"/>
-    <col min="8213" max="8213" width="15.7265625" customWidth="1"/>
-    <col min="8214" max="8214" width="20.1796875" customWidth="1"/>
-    <col min="8215" max="8216" width="15.7265625" customWidth="1"/>
-    <col min="8217" max="8218" width="12.7265625" customWidth="1"/>
-    <col min="8219" max="8220" width="13.7265625" customWidth="1"/>
-    <col min="8221" max="8221" width="14.7265625" customWidth="1"/>
-    <col min="8222" max="8222" width="11.26953125" customWidth="1"/>
-    <col min="8224" max="8224" width="15.7265625" customWidth="1"/>
-    <col min="8225" max="8225" width="40" bestFit="1" customWidth="1"/>
-    <col min="8226" max="8227" width="22.7265625" customWidth="1"/>
-    <col min="8459" max="8459" width="25.7265625" customWidth="1"/>
-    <col min="8460" max="8461" width="20.7265625" customWidth="1"/>
-    <col min="8462" max="8462" width="20.26953125" customWidth="1"/>
-    <col min="8464" max="8464" width="22.7265625" customWidth="1"/>
-    <col min="8465" max="8465" width="15.7265625" customWidth="1"/>
-    <col min="8466" max="8466" width="18.7265625" customWidth="1"/>
-    <col min="8467" max="8468" width="26.54296875" customWidth="1"/>
-    <col min="8469" max="8469" width="15.7265625" customWidth="1"/>
-    <col min="8470" max="8470" width="20.1796875" customWidth="1"/>
-    <col min="8471" max="8472" width="15.7265625" customWidth="1"/>
-    <col min="8473" max="8474" width="12.7265625" customWidth="1"/>
-    <col min="8475" max="8476" width="13.7265625" customWidth="1"/>
-    <col min="8477" max="8477" width="14.7265625" customWidth="1"/>
-    <col min="8478" max="8478" width="11.26953125" customWidth="1"/>
-    <col min="8480" max="8480" width="15.7265625" customWidth="1"/>
-    <col min="8481" max="8481" width="40" bestFit="1" customWidth="1"/>
-    <col min="8482" max="8483" width="22.7265625" customWidth="1"/>
-    <col min="8715" max="8715" width="25.7265625" customWidth="1"/>
-    <col min="8716" max="8717" width="20.7265625" customWidth="1"/>
-    <col min="8718" max="8718" width="20.26953125" customWidth="1"/>
-    <col min="8720" max="8720" width="22.7265625" customWidth="1"/>
-    <col min="8721" max="8721" width="15.7265625" customWidth="1"/>
-    <col min="8722" max="8722" width="18.7265625" customWidth="1"/>
-    <col min="8723" max="8724" width="26.54296875" customWidth="1"/>
-    <col min="8725" max="8725" width="15.7265625" customWidth="1"/>
-    <col min="8726" max="8726" width="20.1796875" customWidth="1"/>
-    <col min="8727" max="8728" width="15.7265625" customWidth="1"/>
-    <col min="8729" max="8730" width="12.7265625" customWidth="1"/>
-    <col min="8731" max="8732" width="13.7265625" customWidth="1"/>
-    <col min="8733" max="8733" width="14.7265625" customWidth="1"/>
-    <col min="8734" max="8734" width="11.26953125" customWidth="1"/>
-    <col min="8736" max="8736" width="15.7265625" customWidth="1"/>
-    <col min="8737" max="8737" width="40" bestFit="1" customWidth="1"/>
-    <col min="8738" max="8739" width="22.7265625" customWidth="1"/>
-    <col min="8971" max="8971" width="25.7265625" customWidth="1"/>
-    <col min="8972" max="8973" width="20.7265625" customWidth="1"/>
-    <col min="8974" max="8974" width="20.26953125" customWidth="1"/>
-    <col min="8976" max="8976" width="22.7265625" customWidth="1"/>
-    <col min="8977" max="8977" width="15.7265625" customWidth="1"/>
-    <col min="8978" max="8978" width="18.7265625" customWidth="1"/>
-    <col min="8979" max="8980" width="26.54296875" customWidth="1"/>
-    <col min="8981" max="8981" width="15.7265625" customWidth="1"/>
-    <col min="8982" max="8982" width="20.1796875" customWidth="1"/>
-    <col min="8983" max="8984" width="15.7265625" customWidth="1"/>
-    <col min="8985" max="8986" width="12.7265625" customWidth="1"/>
-    <col min="8987" max="8988" width="13.7265625" customWidth="1"/>
-    <col min="8989" max="8989" width="14.7265625" customWidth="1"/>
-    <col min="8990" max="8990" width="11.26953125" customWidth="1"/>
-    <col min="8992" max="8992" width="15.7265625" customWidth="1"/>
-    <col min="8993" max="8993" width="40" bestFit="1" customWidth="1"/>
-    <col min="8994" max="8995" width="22.7265625" customWidth="1"/>
-    <col min="9227" max="9227" width="25.7265625" customWidth="1"/>
-    <col min="9228" max="9229" width="20.7265625" customWidth="1"/>
-    <col min="9230" max="9230" width="20.26953125" customWidth="1"/>
-    <col min="9232" max="9232" width="22.7265625" customWidth="1"/>
-    <col min="9233" max="9233" width="15.7265625" customWidth="1"/>
-    <col min="9234" max="9234" width="18.7265625" customWidth="1"/>
-    <col min="9235" max="9236" width="26.54296875" customWidth="1"/>
-    <col min="9237" max="9237" width="15.7265625" customWidth="1"/>
-    <col min="9238" max="9238" width="20.1796875" customWidth="1"/>
-    <col min="9239" max="9240" width="15.7265625" customWidth="1"/>
-    <col min="9241" max="9242" width="12.7265625" customWidth="1"/>
-    <col min="9243" max="9244" width="13.7265625" customWidth="1"/>
-    <col min="9245" max="9245" width="14.7265625" customWidth="1"/>
-    <col min="9246" max="9246" width="11.26953125" customWidth="1"/>
-    <col min="9248" max="9248" width="15.7265625" customWidth="1"/>
-    <col min="9249" max="9249" width="40" bestFit="1" customWidth="1"/>
-    <col min="9250" max="9251" width="22.7265625" customWidth="1"/>
-    <col min="9483" max="9483" width="25.7265625" customWidth="1"/>
-    <col min="9484" max="9485" width="20.7265625" customWidth="1"/>
-    <col min="9486" max="9486" width="20.26953125" customWidth="1"/>
-    <col min="9488" max="9488" width="22.7265625" customWidth="1"/>
-    <col min="9489" max="9489" width="15.7265625" customWidth="1"/>
-    <col min="9490" max="9490" width="18.7265625" customWidth="1"/>
-    <col min="9491" max="9492" width="26.54296875" customWidth="1"/>
-    <col min="9493" max="9493" width="15.7265625" customWidth="1"/>
-    <col min="9494" max="9494" width="20.1796875" customWidth="1"/>
-    <col min="9495" max="9496" width="15.7265625" customWidth="1"/>
-    <col min="9497" max="9498" width="12.7265625" customWidth="1"/>
-    <col min="9499" max="9500" width="13.7265625" customWidth="1"/>
-    <col min="9501" max="9501" width="14.7265625" customWidth="1"/>
-    <col min="9502" max="9502" width="11.26953125" customWidth="1"/>
-    <col min="9504" max="9504" width="15.7265625" customWidth="1"/>
-    <col min="9505" max="9505" width="40" bestFit="1" customWidth="1"/>
-    <col min="9506" max="9507" width="22.7265625" customWidth="1"/>
-    <col min="9739" max="9739" width="25.7265625" customWidth="1"/>
-    <col min="9740" max="9741" width="20.7265625" customWidth="1"/>
-    <col min="9742" max="9742" width="20.26953125" customWidth="1"/>
-    <col min="9744" max="9744" width="22.7265625" customWidth="1"/>
-    <col min="9745" max="9745" width="15.7265625" customWidth="1"/>
-    <col min="9746" max="9746" width="18.7265625" customWidth="1"/>
-    <col min="9747" max="9748" width="26.54296875" customWidth="1"/>
-    <col min="9749" max="9749" width="15.7265625" customWidth="1"/>
-    <col min="9750" max="9750" width="20.1796875" customWidth="1"/>
-    <col min="9751" max="9752" width="15.7265625" customWidth="1"/>
-    <col min="9753" max="9754" width="12.7265625" customWidth="1"/>
-    <col min="9755" max="9756" width="13.7265625" customWidth="1"/>
-    <col min="9757" max="9757" width="14.7265625" customWidth="1"/>
-    <col min="9758" max="9758" width="11.26953125" customWidth="1"/>
-    <col min="9760" max="9760" width="15.7265625" customWidth="1"/>
-    <col min="9761" max="9761" width="40" bestFit="1" customWidth="1"/>
-    <col min="9762" max="9763" width="22.7265625" customWidth="1"/>
-    <col min="9995" max="9995" width="25.7265625" customWidth="1"/>
-    <col min="9996" max="9997" width="20.7265625" customWidth="1"/>
-    <col min="9998" max="9998" width="20.26953125" customWidth="1"/>
-    <col min="10000" max="10000" width="22.7265625" customWidth="1"/>
-    <col min="10001" max="10001" width="15.7265625" customWidth="1"/>
-    <col min="10002" max="10002" width="18.7265625" customWidth="1"/>
-    <col min="10003" max="10004" width="26.54296875" customWidth="1"/>
-    <col min="10005" max="10005" width="15.7265625" customWidth="1"/>
-    <col min="10006" max="10006" width="20.1796875" customWidth="1"/>
-    <col min="10007" max="10008" width="15.7265625" customWidth="1"/>
-    <col min="10009" max="10010" width="12.7265625" customWidth="1"/>
-    <col min="10011" max="10012" width="13.7265625" customWidth="1"/>
-    <col min="10013" max="10013" width="14.7265625" customWidth="1"/>
-    <col min="10014" max="10014" width="11.26953125" customWidth="1"/>
-    <col min="10016" max="10016" width="15.7265625" customWidth="1"/>
-    <col min="10017" max="10017" width="40" bestFit="1" customWidth="1"/>
-    <col min="10018" max="10019" width="22.7265625" customWidth="1"/>
-    <col min="10251" max="10251" width="25.7265625" customWidth="1"/>
-    <col min="10252" max="10253" width="20.7265625" customWidth="1"/>
-    <col min="10254" max="10254" width="20.26953125" customWidth="1"/>
-    <col min="10256" max="10256" width="22.7265625" customWidth="1"/>
-    <col min="10257" max="10257" width="15.7265625" customWidth="1"/>
-    <col min="10258" max="10258" width="18.7265625" customWidth="1"/>
-    <col min="10259" max="10260" width="26.54296875" customWidth="1"/>
-    <col min="10261" max="10261" width="15.7265625" customWidth="1"/>
-    <col min="10262" max="10262" width="20.1796875" customWidth="1"/>
-    <col min="10263" max="10264" width="15.7265625" customWidth="1"/>
-    <col min="10265" max="10266" width="12.7265625" customWidth="1"/>
-    <col min="10267" max="10268" width="13.7265625" customWidth="1"/>
-    <col min="10269" max="10269" width="14.7265625" customWidth="1"/>
-    <col min="10270" max="10270" width="11.26953125" customWidth="1"/>
-    <col min="10272" max="10272" width="15.7265625" customWidth="1"/>
-    <col min="10273" max="10273" width="40" bestFit="1" customWidth="1"/>
-    <col min="10274" max="10275" width="22.7265625" customWidth="1"/>
-    <col min="10507" max="10507" width="25.7265625" customWidth="1"/>
-    <col min="10508" max="10509" width="20.7265625" customWidth="1"/>
-    <col min="10510" max="10510" width="20.26953125" customWidth="1"/>
-    <col min="10512" max="10512" width="22.7265625" customWidth="1"/>
-    <col min="10513" max="10513" width="15.7265625" customWidth="1"/>
-    <col min="10514" max="10514" width="18.7265625" customWidth="1"/>
-    <col min="10515" max="10516" width="26.54296875" customWidth="1"/>
-    <col min="10517" max="10517" width="15.7265625" customWidth="1"/>
-    <col min="10518" max="10518" width="20.1796875" customWidth="1"/>
-    <col min="10519" max="10520" width="15.7265625" customWidth="1"/>
-    <col min="10521" max="10522" width="12.7265625" customWidth="1"/>
-    <col min="10523" max="10524" width="13.7265625" customWidth="1"/>
-    <col min="10525" max="10525" width="14.7265625" customWidth="1"/>
-    <col min="10526" max="10526" width="11.26953125" customWidth="1"/>
-    <col min="10528" max="10528" width="15.7265625" customWidth="1"/>
-    <col min="10529" max="10529" width="40" bestFit="1" customWidth="1"/>
-    <col min="10530" max="10531" width="22.7265625" customWidth="1"/>
-    <col min="10763" max="10763" width="25.7265625" customWidth="1"/>
-    <col min="10764" max="10765" width="20.7265625" customWidth="1"/>
-    <col min="10766" max="10766" width="20.26953125" customWidth="1"/>
-    <col min="10768" max="10768" width="22.7265625" customWidth="1"/>
-    <col min="10769" max="10769" width="15.7265625" customWidth="1"/>
-    <col min="10770" max="10770" width="18.7265625" customWidth="1"/>
-    <col min="10771" max="10772" width="26.54296875" customWidth="1"/>
-    <col min="10773" max="10773" width="15.7265625" customWidth="1"/>
-    <col min="10774" max="10774" width="20.1796875" customWidth="1"/>
-    <col min="10775" max="10776" width="15.7265625" customWidth="1"/>
-    <col min="10777" max="10778" width="12.7265625" customWidth="1"/>
-    <col min="10779" max="10780" width="13.7265625" customWidth="1"/>
-    <col min="10781" max="10781" width="14.7265625" customWidth="1"/>
-    <col min="10782" max="10782" width="11.26953125" customWidth="1"/>
-    <col min="10784" max="10784" width="15.7265625" customWidth="1"/>
-    <col min="10785" max="10785" width="40" bestFit="1" customWidth="1"/>
-    <col min="10786" max="10787" width="22.7265625" customWidth="1"/>
-    <col min="11019" max="11019" width="25.7265625" customWidth="1"/>
-    <col min="11020" max="11021" width="20.7265625" customWidth="1"/>
-    <col min="11022" max="11022" width="20.26953125" customWidth="1"/>
-    <col min="11024" max="11024" width="22.7265625" customWidth="1"/>
-    <col min="11025" max="11025" width="15.7265625" customWidth="1"/>
-    <col min="11026" max="11026" width="18.7265625" customWidth="1"/>
-    <col min="11027" max="11028" width="26.54296875" customWidth="1"/>
-    <col min="11029" max="11029" width="15.7265625" customWidth="1"/>
-    <col min="11030" max="11030" width="20.1796875" customWidth="1"/>
-    <col min="11031" max="11032" width="15.7265625" customWidth="1"/>
-    <col min="11033" max="11034" width="12.7265625" customWidth="1"/>
-    <col min="11035" max="11036" width="13.7265625" customWidth="1"/>
-    <col min="11037" max="11037" width="14.7265625" customWidth="1"/>
-    <col min="11038" max="11038" width="11.26953125" customWidth="1"/>
-    <col min="11040" max="11040" width="15.7265625" customWidth="1"/>
-    <col min="11041" max="11041" width="40" bestFit="1" customWidth="1"/>
-    <col min="11042" max="11043" width="22.7265625" customWidth="1"/>
-    <col min="11275" max="11275" width="25.7265625" customWidth="1"/>
-    <col min="11276" max="11277" width="20.7265625" customWidth="1"/>
-    <col min="11278" max="11278" width="20.26953125" customWidth="1"/>
-    <col min="11280" max="11280" width="22.7265625" customWidth="1"/>
-    <col min="11281" max="11281" width="15.7265625" customWidth="1"/>
-    <col min="11282" max="11282" width="18.7265625" customWidth="1"/>
-    <col min="11283" max="11284" width="26.54296875" customWidth="1"/>
-    <col min="11285" max="11285" width="15.7265625" customWidth="1"/>
-    <col min="11286" max="11286" width="20.1796875" customWidth="1"/>
-    <col min="11287" max="11288" width="15.7265625" customWidth="1"/>
-    <col min="11289" max="11290" width="12.7265625" customWidth="1"/>
-    <col min="11291" max="11292" width="13.7265625" customWidth="1"/>
-    <col min="11293" max="11293" width="14.7265625" customWidth="1"/>
-    <col min="11294" max="11294" width="11.26953125" customWidth="1"/>
-    <col min="11296" max="11296" width="15.7265625" customWidth="1"/>
-    <col min="11297" max="11297" width="40" bestFit="1" customWidth="1"/>
-    <col min="11298" max="11299" width="22.7265625" customWidth="1"/>
-    <col min="11531" max="11531" width="25.7265625" customWidth="1"/>
-    <col min="11532" max="11533" width="20.7265625" customWidth="1"/>
-    <col min="11534" max="11534" width="20.26953125" customWidth="1"/>
-    <col min="11536" max="11536" width="22.7265625" customWidth="1"/>
-    <col min="11537" max="11537" width="15.7265625" customWidth="1"/>
-    <col min="11538" max="11538" width="18.7265625" customWidth="1"/>
-    <col min="11539" max="11540" width="26.54296875" customWidth="1"/>
-    <col min="11541" max="11541" width="15.7265625" customWidth="1"/>
-    <col min="11542" max="11542" width="20.1796875" customWidth="1"/>
-    <col min="11543" max="11544" width="15.7265625" customWidth="1"/>
-    <col min="11545" max="11546" width="12.7265625" customWidth="1"/>
-    <col min="11547" max="11548" width="13.7265625" customWidth="1"/>
-    <col min="11549" max="11549" width="14.7265625" customWidth="1"/>
-    <col min="11550" max="11550" width="11.26953125" customWidth="1"/>
-    <col min="11552" max="11552" width="15.7265625" customWidth="1"/>
-    <col min="11553" max="11553" width="40" bestFit="1" customWidth="1"/>
-    <col min="11554" max="11555" width="22.7265625" customWidth="1"/>
-    <col min="11787" max="11787" width="25.7265625" customWidth="1"/>
-    <col min="11788" max="11789" width="20.7265625" customWidth="1"/>
-    <col min="11790" max="11790" width="20.26953125" customWidth="1"/>
-    <col min="11792" max="11792" width="22.7265625" customWidth="1"/>
-    <col min="11793" max="11793" width="15.7265625" customWidth="1"/>
-    <col min="11794" max="11794" width="18.7265625" customWidth="1"/>
-    <col min="11795" max="11796" width="26.54296875" customWidth="1"/>
-    <col min="11797" max="11797" width="15.7265625" customWidth="1"/>
-    <col min="11798" max="11798" width="20.1796875" customWidth="1"/>
-    <col min="11799" max="11800" width="15.7265625" customWidth="1"/>
-    <col min="11801" max="11802" width="12.7265625" customWidth="1"/>
-    <col min="11803" max="11804" width="13.7265625" customWidth="1"/>
-    <col min="11805" max="11805" width="14.7265625" customWidth="1"/>
-    <col min="11806" max="11806" width="11.26953125" customWidth="1"/>
-    <col min="11808" max="11808" width="15.7265625" customWidth="1"/>
-    <col min="11809" max="11809" width="40" bestFit="1" customWidth="1"/>
-    <col min="11810" max="11811" width="22.7265625" customWidth="1"/>
-    <col min="12043" max="12043" width="25.7265625" customWidth="1"/>
-    <col min="12044" max="12045" width="20.7265625" customWidth="1"/>
-    <col min="12046" max="12046" width="20.26953125" customWidth="1"/>
-    <col min="12048" max="12048" width="22.7265625" customWidth="1"/>
-    <col min="12049" max="12049" width="15.7265625" customWidth="1"/>
-    <col min="12050" max="12050" width="18.7265625" customWidth="1"/>
-    <col min="12051" max="12052" width="26.54296875" customWidth="1"/>
-    <col min="12053" max="12053" width="15.7265625" customWidth="1"/>
-    <col min="12054" max="12054" width="20.1796875" customWidth="1"/>
-    <col min="12055" max="12056" width="15.7265625" customWidth="1"/>
-    <col min="12057" max="12058" width="12.7265625" customWidth="1"/>
-    <col min="12059" max="12060" width="13.7265625" customWidth="1"/>
-    <col min="12061" max="12061" width="14.7265625" customWidth="1"/>
-    <col min="12062" max="12062" width="11.26953125" customWidth="1"/>
-    <col min="12064" max="12064" width="15.7265625" customWidth="1"/>
-    <col min="12065" max="12065" width="40" bestFit="1" customWidth="1"/>
-    <col min="12066" max="12067" width="22.7265625" customWidth="1"/>
-    <col min="12299" max="12299" width="25.7265625" customWidth="1"/>
-    <col min="12300" max="12301" width="20.7265625" customWidth="1"/>
-    <col min="12302" max="12302" width="20.26953125" customWidth="1"/>
-    <col min="12304" max="12304" width="22.7265625" customWidth="1"/>
-    <col min="12305" max="12305" width="15.7265625" customWidth="1"/>
-    <col min="12306" max="12306" width="18.7265625" customWidth="1"/>
-    <col min="12307" max="12308" width="26.54296875" customWidth="1"/>
-    <col min="12309" max="12309" width="15.7265625" customWidth="1"/>
-    <col min="12310" max="12310" width="20.1796875" customWidth="1"/>
-    <col min="12311" max="12312" width="15.7265625" customWidth="1"/>
-    <col min="12313" max="12314" width="12.7265625" customWidth="1"/>
-    <col min="12315" max="12316" width="13.7265625" customWidth="1"/>
-    <col min="12317" max="12317" width="14.7265625" customWidth="1"/>
-    <col min="12318" max="12318" width="11.26953125" customWidth="1"/>
-    <col min="12320" max="12320" width="15.7265625" customWidth="1"/>
-    <col min="12321" max="12321" width="40" bestFit="1" customWidth="1"/>
-    <col min="12322" max="12323" width="22.7265625" customWidth="1"/>
-    <col min="12555" max="12555" width="25.7265625" customWidth="1"/>
-    <col min="12556" max="12557" width="20.7265625" customWidth="1"/>
-    <col min="12558" max="12558" width="20.26953125" customWidth="1"/>
-    <col min="12560" max="12560" width="22.7265625" customWidth="1"/>
-    <col min="12561" max="12561" width="15.7265625" customWidth="1"/>
-    <col min="12562" max="12562" width="18.7265625" customWidth="1"/>
-    <col min="12563" max="12564" width="26.54296875" customWidth="1"/>
-    <col min="12565" max="12565" width="15.7265625" customWidth="1"/>
-    <col min="12566" max="12566" width="20.1796875" customWidth="1"/>
-    <col min="12567" max="12568" width="15.7265625" customWidth="1"/>
-    <col min="12569" max="12570" width="12.7265625" customWidth="1"/>
-    <col min="12571" max="12572" width="13.7265625" customWidth="1"/>
-    <col min="12573" max="12573" width="14.7265625" customWidth="1"/>
-    <col min="12574" max="12574" width="11.26953125" customWidth="1"/>
-    <col min="12576" max="12576" width="15.7265625" customWidth="1"/>
-    <col min="12577" max="12577" width="40" bestFit="1" customWidth="1"/>
-    <col min="12578" max="12579" width="22.7265625" customWidth="1"/>
-    <col min="12811" max="12811" width="25.7265625" customWidth="1"/>
-    <col min="12812" max="12813" width="20.7265625" customWidth="1"/>
-    <col min="12814" max="12814" width="20.26953125" customWidth="1"/>
-    <col min="12816" max="12816" width="22.7265625" customWidth="1"/>
-    <col min="12817" max="12817" width="15.7265625" customWidth="1"/>
-    <col min="12818" max="12818" width="18.7265625" customWidth="1"/>
-    <col min="12819" max="12820" width="26.54296875" customWidth="1"/>
-    <col min="12821" max="12821" width="15.7265625" customWidth="1"/>
-    <col min="12822" max="12822" width="20.1796875" customWidth="1"/>
-    <col min="12823" max="12824" width="15.7265625" customWidth="1"/>
-    <col min="12825" max="12826" width="12.7265625" customWidth="1"/>
-    <col min="12827" max="12828" width="13.7265625" customWidth="1"/>
-    <col min="12829" max="12829" width="14.7265625" customWidth="1"/>
-    <col min="12830" max="12830" width="11.26953125" customWidth="1"/>
-    <col min="12832" max="12832" width="15.7265625" customWidth="1"/>
-    <col min="12833" max="12833" width="40" bestFit="1" customWidth="1"/>
-    <col min="12834" max="12835" width="22.7265625" customWidth="1"/>
-    <col min="13067" max="13067" width="25.7265625" customWidth="1"/>
-    <col min="13068" max="13069" width="20.7265625" customWidth="1"/>
-    <col min="13070" max="13070" width="20.26953125" customWidth="1"/>
-    <col min="13072" max="13072" width="22.7265625" customWidth="1"/>
-    <col min="13073" max="13073" width="15.7265625" customWidth="1"/>
-    <col min="13074" max="13074" width="18.7265625" customWidth="1"/>
-    <col min="13075" max="13076" width="26.54296875" customWidth="1"/>
-    <col min="13077" max="13077" width="15.7265625" customWidth="1"/>
-    <col min="13078" max="13078" width="20.1796875" customWidth="1"/>
-    <col min="13079" max="13080" width="15.7265625" customWidth="1"/>
-    <col min="13081" max="13082" width="12.7265625" customWidth="1"/>
-    <col min="13083" max="13084" width="13.7265625" customWidth="1"/>
-    <col min="13085" max="13085" width="14.7265625" customWidth="1"/>
-    <col min="13086" max="13086" width="11.26953125" customWidth="1"/>
-    <col min="13088" max="13088" width="15.7265625" customWidth="1"/>
-    <col min="13089" max="13089" width="40" bestFit="1" customWidth="1"/>
-    <col min="13090" max="13091" width="22.7265625" customWidth="1"/>
-    <col min="13323" max="13323" width="25.7265625" customWidth="1"/>
-    <col min="13324" max="13325" width="20.7265625" customWidth="1"/>
-    <col min="13326" max="13326" width="20.26953125" customWidth="1"/>
-    <col min="13328" max="13328" width="22.7265625" customWidth="1"/>
-    <col min="13329" max="13329" width="15.7265625" customWidth="1"/>
-    <col min="13330" max="13330" width="18.7265625" customWidth="1"/>
-    <col min="13331" max="13332" width="26.54296875" customWidth="1"/>
-    <col min="13333" max="13333" width="15.7265625" customWidth="1"/>
-    <col min="13334" max="13334" width="20.1796875" customWidth="1"/>
-    <col min="13335" max="13336" width="15.7265625" customWidth="1"/>
-    <col min="13337" max="13338" width="12.7265625" customWidth="1"/>
-    <col min="13339" max="13340" width="13.7265625" customWidth="1"/>
-    <col min="13341" max="13341" width="14.7265625" customWidth="1"/>
-    <col min="13342" max="13342" width="11.26953125" customWidth="1"/>
-    <col min="13344" max="13344" width="15.7265625" customWidth="1"/>
-    <col min="13345" max="13345" width="40" bestFit="1" customWidth="1"/>
-    <col min="13346" max="13347" width="22.7265625" customWidth="1"/>
-    <col min="13579" max="13579" width="25.7265625" customWidth="1"/>
-    <col min="13580" max="13581" width="20.7265625" customWidth="1"/>
-    <col min="13582" max="13582" width="20.26953125" customWidth="1"/>
-    <col min="13584" max="13584" width="22.7265625" customWidth="1"/>
-    <col min="13585" max="13585" width="15.7265625" customWidth="1"/>
-    <col min="13586" max="13586" width="18.7265625" customWidth="1"/>
-    <col min="13587" max="13588" width="26.54296875" customWidth="1"/>
-    <col min="13589" max="13589" width="15.7265625" customWidth="1"/>
-    <col min="13590" max="13590" width="20.1796875" customWidth="1"/>
-    <col min="13591" max="13592" width="15.7265625" customWidth="1"/>
-    <col min="13593" max="13594" width="12.7265625" customWidth="1"/>
-    <col min="13595" max="13596" width="13.7265625" customWidth="1"/>
-    <col min="13597" max="13597" width="14.7265625" customWidth="1"/>
-    <col min="13598" max="13598" width="11.26953125" customWidth="1"/>
-    <col min="13600" max="13600" width="15.7265625" customWidth="1"/>
-    <col min="13601" max="13601" width="40" bestFit="1" customWidth="1"/>
-    <col min="13602" max="13603" width="22.7265625" customWidth="1"/>
-    <col min="13835" max="13835" width="25.7265625" customWidth="1"/>
-    <col min="13836" max="13837" width="20.7265625" customWidth="1"/>
-    <col min="13838" max="13838" width="20.26953125" customWidth="1"/>
-    <col min="13840" max="13840" width="22.7265625" customWidth="1"/>
-    <col min="13841" max="13841" width="15.7265625" customWidth="1"/>
-    <col min="13842" max="13842" width="18.7265625" customWidth="1"/>
-    <col min="13843" max="13844" width="26.54296875" customWidth="1"/>
-    <col min="13845" max="13845" width="15.7265625" customWidth="1"/>
-    <col min="13846" max="13846" width="20.1796875" customWidth="1"/>
-    <col min="13847" max="13848" width="15.7265625" customWidth="1"/>
-    <col min="13849" max="13850" width="12.7265625" customWidth="1"/>
-    <col min="13851" max="13852" width="13.7265625" customWidth="1"/>
-    <col min="13853" max="13853" width="14.7265625" customWidth="1"/>
-    <col min="13854" max="13854" width="11.26953125" customWidth="1"/>
-    <col min="13856" max="13856" width="15.7265625" customWidth="1"/>
-    <col min="13857" max="13857" width="40" bestFit="1" customWidth="1"/>
-    <col min="13858" max="13859" width="22.7265625" customWidth="1"/>
-    <col min="14091" max="14091" width="25.7265625" customWidth="1"/>
-    <col min="14092" max="14093" width="20.7265625" customWidth="1"/>
-    <col min="14094" max="14094" width="20.26953125" customWidth="1"/>
-    <col min="14096" max="14096" width="22.7265625" customWidth="1"/>
-    <col min="14097" max="14097" width="15.7265625" customWidth="1"/>
-    <col min="14098" max="14098" width="18.7265625" customWidth="1"/>
-    <col min="14099" max="14100" width="26.54296875" customWidth="1"/>
-    <col min="14101" max="14101" width="15.7265625" customWidth="1"/>
-    <col min="14102" max="14102" width="20.1796875" customWidth="1"/>
-    <col min="14103" max="14104" width="15.7265625" customWidth="1"/>
-    <col min="14105" max="14106" width="12.7265625" customWidth="1"/>
-    <col min="14107" max="14108" width="13.7265625" customWidth="1"/>
-    <col min="14109" max="14109" width="14.7265625" customWidth="1"/>
-    <col min="14110" max="14110" width="11.26953125" customWidth="1"/>
-    <col min="14112" max="14112" width="15.7265625" customWidth="1"/>
-    <col min="14113" max="14113" width="40" bestFit="1" customWidth="1"/>
-    <col min="14114" max="14115" width="22.7265625" customWidth="1"/>
-    <col min="14347" max="14347" width="25.7265625" customWidth="1"/>
-    <col min="14348" max="14349" width="20.7265625" customWidth="1"/>
-    <col min="14350" max="14350" width="20.26953125" customWidth="1"/>
-    <col min="14352" max="14352" width="22.7265625" customWidth="1"/>
-    <col min="14353" max="14353" width="15.7265625" customWidth="1"/>
-    <col min="14354" max="14354" width="18.7265625" customWidth="1"/>
-    <col min="14355" max="14356" width="26.54296875" customWidth="1"/>
-    <col min="14357" max="14357" width="15.7265625" customWidth="1"/>
-    <col min="14358" max="14358" width="20.1796875" customWidth="1"/>
-    <col min="14359" max="14360" width="15.7265625" customWidth="1"/>
-    <col min="14361" max="14362" width="12.7265625" customWidth="1"/>
-    <col min="14363" max="14364" width="13.7265625" customWidth="1"/>
-    <col min="14365" max="14365" width="14.7265625" customWidth="1"/>
-    <col min="14366" max="14366" width="11.26953125" customWidth="1"/>
-    <col min="14368" max="14368" width="15.7265625" customWidth="1"/>
-    <col min="14369" max="14369" width="40" bestFit="1" customWidth="1"/>
-    <col min="14370" max="14371" width="22.7265625" customWidth="1"/>
-    <col min="14603" max="14603" width="25.7265625" customWidth="1"/>
-    <col min="14604" max="14605" width="20.7265625" customWidth="1"/>
-    <col min="14606" max="14606" width="20.26953125" customWidth="1"/>
-    <col min="14608" max="14608" width="22.7265625" customWidth="1"/>
-    <col min="14609" max="14609" width="15.7265625" customWidth="1"/>
-    <col min="14610" max="14610" width="18.7265625" customWidth="1"/>
-    <col min="14611" max="14612" width="26.54296875" customWidth="1"/>
-    <col min="14613" max="14613" width="15.7265625" customWidth="1"/>
-    <col min="14614" max="14614" width="20.1796875" customWidth="1"/>
-    <col min="14615" max="14616" width="15.7265625" customWidth="1"/>
-    <col min="14617" max="14618" width="12.7265625" customWidth="1"/>
-    <col min="14619" max="14620" width="13.7265625" customWidth="1"/>
-    <col min="14621" max="14621" width="14.7265625" customWidth="1"/>
-    <col min="14622" max="14622" width="11.26953125" customWidth="1"/>
-    <col min="14624" max="14624" width="15.7265625" customWidth="1"/>
-    <col min="14625" max="14625" width="40" bestFit="1" customWidth="1"/>
-    <col min="14626" max="14627" width="22.7265625" customWidth="1"/>
-    <col min="14859" max="14859" width="25.7265625" customWidth="1"/>
-    <col min="14860" max="14861" width="20.7265625" customWidth="1"/>
-    <col min="14862" max="14862" width="20.26953125" customWidth="1"/>
-    <col min="14864" max="14864" width="22.7265625" customWidth="1"/>
-    <col min="14865" max="14865" width="15.7265625" customWidth="1"/>
-    <col min="14866" max="14866" width="18.7265625" customWidth="1"/>
-    <col min="14867" max="14868" width="26.54296875" customWidth="1"/>
-    <col min="14869" max="14869" width="15.7265625" customWidth="1"/>
-    <col min="14870" max="14870" width="20.1796875" customWidth="1"/>
-    <col min="14871" max="14872" width="15.7265625" customWidth="1"/>
-    <col min="14873" max="14874" width="12.7265625" customWidth="1"/>
-    <col min="14875" max="14876" width="13.7265625" customWidth="1"/>
-    <col min="14877" max="14877" width="14.7265625" customWidth="1"/>
-    <col min="14878" max="14878" width="11.26953125" customWidth="1"/>
-    <col min="14880" max="14880" width="15.7265625" customWidth="1"/>
-    <col min="14881" max="14881" width="40" bestFit="1" customWidth="1"/>
-    <col min="14882" max="14883" width="22.7265625" customWidth="1"/>
-    <col min="15115" max="15115" width="25.7265625" customWidth="1"/>
-    <col min="15116" max="15117" width="20.7265625" customWidth="1"/>
-    <col min="15118" max="15118" width="20.26953125" customWidth="1"/>
-    <col min="15120" max="15120" width="22.7265625" customWidth="1"/>
-    <col min="15121" max="15121" width="15.7265625" customWidth="1"/>
-    <col min="15122" max="15122" width="18.7265625" customWidth="1"/>
-    <col min="15123" max="15124" width="26.54296875" customWidth="1"/>
-    <col min="15125" max="15125" width="15.7265625" customWidth="1"/>
-    <col min="15126" max="15126" width="20.1796875" customWidth="1"/>
-    <col min="15127" max="15128" width="15.7265625" customWidth="1"/>
-    <col min="15129" max="15130" width="12.7265625" customWidth="1"/>
-    <col min="15131" max="15132" width="13.7265625" customWidth="1"/>
-    <col min="15133" max="15133" width="14.7265625" customWidth="1"/>
-    <col min="15134" max="15134" width="11.26953125" customWidth="1"/>
-    <col min="15136" max="15136" width="15.7265625" customWidth="1"/>
-    <col min="15137" max="15137" width="40" bestFit="1" customWidth="1"/>
-    <col min="15138" max="15139" width="22.7265625" customWidth="1"/>
-    <col min="15371" max="15371" width="25.7265625" customWidth="1"/>
-    <col min="15372" max="15373" width="20.7265625" customWidth="1"/>
-    <col min="15374" max="15374" width="20.26953125" customWidth="1"/>
-    <col min="15376" max="15376" width="22.7265625" customWidth="1"/>
-    <col min="15377" max="15377" width="15.7265625" customWidth="1"/>
-    <col min="15378" max="15378" width="18.7265625" customWidth="1"/>
-    <col min="15379" max="15380" width="26.54296875" customWidth="1"/>
-    <col min="15381" max="15381" width="15.7265625" customWidth="1"/>
-    <col min="15382" max="15382" width="20.1796875" customWidth="1"/>
-    <col min="15383" max="15384" width="15.7265625" customWidth="1"/>
-    <col min="15385" max="15386" width="12.7265625" customWidth="1"/>
-    <col min="15387" max="15388" width="13.7265625" customWidth="1"/>
-    <col min="15389" max="15389" width="14.7265625" customWidth="1"/>
-    <col min="15390" max="15390" width="11.26953125" customWidth="1"/>
-    <col min="15392" max="15392" width="15.7265625" customWidth="1"/>
-    <col min="15393" max="15393" width="40" bestFit="1" customWidth="1"/>
-    <col min="15394" max="15395" width="22.7265625" customWidth="1"/>
-    <col min="15627" max="15627" width="25.7265625" customWidth="1"/>
-    <col min="15628" max="15629" width="20.7265625" customWidth="1"/>
-    <col min="15630" max="15630" width="20.26953125" customWidth="1"/>
-    <col min="15632" max="15632" width="22.7265625" customWidth="1"/>
-    <col min="15633" max="15633" width="15.7265625" customWidth="1"/>
-    <col min="15634" max="15634" width="18.7265625" customWidth="1"/>
-    <col min="15635" max="15636" width="26.54296875" customWidth="1"/>
-    <col min="15637" max="15637" width="15.7265625" customWidth="1"/>
-    <col min="15638" max="15638" width="20.1796875" customWidth="1"/>
-    <col min="15639" max="15640" width="15.7265625" customWidth="1"/>
-    <col min="15641" max="15642" width="12.7265625" customWidth="1"/>
-    <col min="15643" max="15644" width="13.7265625" customWidth="1"/>
-    <col min="15645" max="15645" width="14.7265625" customWidth="1"/>
-    <col min="15646" max="15646" width="11.26953125" customWidth="1"/>
-    <col min="15648" max="15648" width="15.7265625" customWidth="1"/>
-    <col min="15649" max="15649" width="40" bestFit="1" customWidth="1"/>
-    <col min="15650" max="15651" width="22.7265625" customWidth="1"/>
-    <col min="15883" max="15883" width="25.7265625" customWidth="1"/>
-    <col min="15884" max="15885" width="20.7265625" customWidth="1"/>
-    <col min="15886" max="15886" width="20.26953125" customWidth="1"/>
-    <col min="15888" max="15888" width="22.7265625" customWidth="1"/>
-    <col min="15889" max="15889" width="15.7265625" customWidth="1"/>
-    <col min="15890" max="15890" width="18.7265625" customWidth="1"/>
-    <col min="15891" max="15892" width="26.54296875" customWidth="1"/>
-    <col min="15893" max="15893" width="15.7265625" customWidth="1"/>
-    <col min="15894" max="15894" width="20.1796875" customWidth="1"/>
-    <col min="15895" max="15896" width="15.7265625" customWidth="1"/>
-    <col min="15897" max="15898" width="12.7265625" customWidth="1"/>
-    <col min="15899" max="15900" width="13.7265625" customWidth="1"/>
-    <col min="15901" max="15901" width="14.7265625" customWidth="1"/>
-    <col min="15902" max="15902" width="11.26953125" customWidth="1"/>
-    <col min="15904" max="15904" width="15.7265625" customWidth="1"/>
-    <col min="15905" max="15905" width="40" bestFit="1" customWidth="1"/>
-    <col min="15906" max="15907" width="22.7265625" customWidth="1"/>
-    <col min="16139" max="16139" width="25.7265625" customWidth="1"/>
-    <col min="16140" max="16141" width="20.7265625" customWidth="1"/>
-    <col min="16142" max="16142" width="20.26953125" customWidth="1"/>
-    <col min="16144" max="16144" width="22.7265625" customWidth="1"/>
-    <col min="16145" max="16145" width="15.7265625" customWidth="1"/>
-    <col min="16146" max="16146" width="18.7265625" customWidth="1"/>
-    <col min="16147" max="16148" width="26.54296875" customWidth="1"/>
-    <col min="16149" max="16149" width="15.7265625" customWidth="1"/>
-    <col min="16150" max="16150" width="20.1796875" customWidth="1"/>
-    <col min="16151" max="16152" width="15.7265625" customWidth="1"/>
-    <col min="16153" max="16154" width="12.7265625" customWidth="1"/>
-    <col min="16155" max="16156" width="13.7265625" customWidth="1"/>
-    <col min="16157" max="16157" width="14.7265625" customWidth="1"/>
-    <col min="16158" max="16158" width="11.26953125" customWidth="1"/>
-    <col min="16160" max="16160" width="15.7265625" customWidth="1"/>
-    <col min="16161" max="16161" width="40" bestFit="1" customWidth="1"/>
-    <col min="16162" max="16163" width="22.7265625" customWidth="1"/>
+    <col min="9" max="11" width="26.54296875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" style="13" customWidth="1"/>
+    <col min="14" max="16" width="26.54296875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" style="14" customWidth="1"/>
+    <col min="19" max="20" width="12.7265625" style="11" customWidth="1"/>
+    <col min="21" max="22" width="13.7265625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="14.7265625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="11"/>
+    <col min="26" max="26" width="15.7265625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="40" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="22.7265625" style="11" customWidth="1"/>
+    <col min="261" max="261" width="25.7265625" customWidth="1"/>
+    <col min="262" max="263" width="20.7265625" customWidth="1"/>
+    <col min="264" max="264" width="20.26953125" customWidth="1"/>
+    <col min="266" max="266" width="22.7265625" customWidth="1"/>
+    <col min="267" max="267" width="15.7265625" customWidth="1"/>
+    <col min="268" max="268" width="18.7265625" customWidth="1"/>
+    <col min="269" max="270" width="26.54296875" customWidth="1"/>
+    <col min="271" max="271" width="15.7265625" customWidth="1"/>
+    <col min="272" max="272" width="20.1796875" customWidth="1"/>
+    <col min="273" max="274" width="15.7265625" customWidth="1"/>
+    <col min="275" max="276" width="12.7265625" customWidth="1"/>
+    <col min="277" max="278" width="13.7265625" customWidth="1"/>
+    <col min="279" max="279" width="14.7265625" customWidth="1"/>
+    <col min="280" max="280" width="11.26953125" customWidth="1"/>
+    <col min="282" max="282" width="15.7265625" customWidth="1"/>
+    <col min="283" max="283" width="40" bestFit="1" customWidth="1"/>
+    <col min="284" max="285" width="22.7265625" customWidth="1"/>
+    <col min="517" max="517" width="25.7265625" customWidth="1"/>
+    <col min="518" max="519" width="20.7265625" customWidth="1"/>
+    <col min="520" max="520" width="20.26953125" customWidth="1"/>
+    <col min="522" max="522" width="22.7265625" customWidth="1"/>
+    <col min="523" max="523" width="15.7265625" customWidth="1"/>
+    <col min="524" max="524" width="18.7265625" customWidth="1"/>
+    <col min="525" max="526" width="26.54296875" customWidth="1"/>
+    <col min="527" max="527" width="15.7265625" customWidth="1"/>
+    <col min="528" max="528" width="20.1796875" customWidth="1"/>
+    <col min="529" max="530" width="15.7265625" customWidth="1"/>
+    <col min="531" max="532" width="12.7265625" customWidth="1"/>
+    <col min="533" max="534" width="13.7265625" customWidth="1"/>
+    <col min="535" max="535" width="14.7265625" customWidth="1"/>
+    <col min="536" max="536" width="11.26953125" customWidth="1"/>
+    <col min="538" max="538" width="15.7265625" customWidth="1"/>
+    <col min="539" max="539" width="40" bestFit="1" customWidth="1"/>
+    <col min="540" max="541" width="22.7265625" customWidth="1"/>
+    <col min="773" max="773" width="25.7265625" customWidth="1"/>
+    <col min="774" max="775" width="20.7265625" customWidth="1"/>
+    <col min="776" max="776" width="20.26953125" customWidth="1"/>
+    <col min="778" max="778" width="22.7265625" customWidth="1"/>
+    <col min="779" max="779" width="15.7265625" customWidth="1"/>
+    <col min="780" max="780" width="18.7265625" customWidth="1"/>
+    <col min="781" max="782" width="26.54296875" customWidth="1"/>
+    <col min="783" max="783" width="15.7265625" customWidth="1"/>
+    <col min="784" max="784" width="20.1796875" customWidth="1"/>
+    <col min="785" max="786" width="15.7265625" customWidth="1"/>
+    <col min="787" max="788" width="12.7265625" customWidth="1"/>
+    <col min="789" max="790" width="13.7265625" customWidth="1"/>
+    <col min="791" max="791" width="14.7265625" customWidth="1"/>
+    <col min="792" max="792" width="11.26953125" customWidth="1"/>
+    <col min="794" max="794" width="15.7265625" customWidth="1"/>
+    <col min="795" max="795" width="40" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="22.7265625" customWidth="1"/>
+    <col min="1029" max="1029" width="25.7265625" customWidth="1"/>
+    <col min="1030" max="1031" width="20.7265625" customWidth="1"/>
+    <col min="1032" max="1032" width="20.26953125" customWidth="1"/>
+    <col min="1034" max="1034" width="22.7265625" customWidth="1"/>
+    <col min="1035" max="1035" width="15.7265625" customWidth="1"/>
+    <col min="1036" max="1036" width="18.7265625" customWidth="1"/>
+    <col min="1037" max="1038" width="26.54296875" customWidth="1"/>
+    <col min="1039" max="1039" width="15.7265625" customWidth="1"/>
+    <col min="1040" max="1040" width="20.1796875" customWidth="1"/>
+    <col min="1041" max="1042" width="15.7265625" customWidth="1"/>
+    <col min="1043" max="1044" width="12.7265625" customWidth="1"/>
+    <col min="1045" max="1046" width="13.7265625" customWidth="1"/>
+    <col min="1047" max="1047" width="14.7265625" customWidth="1"/>
+    <col min="1048" max="1048" width="11.26953125" customWidth="1"/>
+    <col min="1050" max="1050" width="15.7265625" customWidth="1"/>
+    <col min="1051" max="1051" width="40" bestFit="1" customWidth="1"/>
+    <col min="1052" max="1053" width="22.7265625" customWidth="1"/>
+    <col min="1285" max="1285" width="25.7265625" customWidth="1"/>
+    <col min="1286" max="1287" width="20.7265625" customWidth="1"/>
+    <col min="1288" max="1288" width="20.26953125" customWidth="1"/>
+    <col min="1290" max="1290" width="22.7265625" customWidth="1"/>
+    <col min="1291" max="1291" width="15.7265625" customWidth="1"/>
+    <col min="1292" max="1292" width="18.7265625" customWidth="1"/>
+    <col min="1293" max="1294" width="26.54296875" customWidth="1"/>
+    <col min="1295" max="1295" width="15.7265625" customWidth="1"/>
+    <col min="1296" max="1296" width="20.1796875" customWidth="1"/>
+    <col min="1297" max="1298" width="15.7265625" customWidth="1"/>
+    <col min="1299" max="1300" width="12.7265625" customWidth="1"/>
+    <col min="1301" max="1302" width="13.7265625" customWidth="1"/>
+    <col min="1303" max="1303" width="14.7265625" customWidth="1"/>
+    <col min="1304" max="1304" width="11.26953125" customWidth="1"/>
+    <col min="1306" max="1306" width="15.7265625" customWidth="1"/>
+    <col min="1307" max="1307" width="40" bestFit="1" customWidth="1"/>
+    <col min="1308" max="1309" width="22.7265625" customWidth="1"/>
+    <col min="1541" max="1541" width="25.7265625" customWidth="1"/>
+    <col min="1542" max="1543" width="20.7265625" customWidth="1"/>
+    <col min="1544" max="1544" width="20.26953125" customWidth="1"/>
+    <col min="1546" max="1546" width="22.7265625" customWidth="1"/>
+    <col min="1547" max="1547" width="15.7265625" customWidth="1"/>
+    <col min="1548" max="1548" width="18.7265625" customWidth="1"/>
+    <col min="1549" max="1550" width="26.54296875" customWidth="1"/>
+    <col min="1551" max="1551" width="15.7265625" customWidth="1"/>
+    <col min="1552" max="1552" width="20.1796875" customWidth="1"/>
+    <col min="1553" max="1554" width="15.7265625" customWidth="1"/>
+    <col min="1555" max="1556" width="12.7265625" customWidth="1"/>
+    <col min="1557" max="1558" width="13.7265625" customWidth="1"/>
+    <col min="1559" max="1559" width="14.7265625" customWidth="1"/>
+    <col min="1560" max="1560" width="11.26953125" customWidth="1"/>
+    <col min="1562" max="1562" width="15.7265625" customWidth="1"/>
+    <col min="1563" max="1563" width="40" bestFit="1" customWidth="1"/>
+    <col min="1564" max="1565" width="22.7265625" customWidth="1"/>
+    <col min="1797" max="1797" width="25.7265625" customWidth="1"/>
+    <col min="1798" max="1799" width="20.7265625" customWidth="1"/>
+    <col min="1800" max="1800" width="20.26953125" customWidth="1"/>
+    <col min="1802" max="1802" width="22.7265625" customWidth="1"/>
+    <col min="1803" max="1803" width="15.7265625" customWidth="1"/>
+    <col min="1804" max="1804" width="18.7265625" customWidth="1"/>
+    <col min="1805" max="1806" width="26.54296875" customWidth="1"/>
+    <col min="1807" max="1807" width="15.7265625" customWidth="1"/>
+    <col min="1808" max="1808" width="20.1796875" customWidth="1"/>
+    <col min="1809" max="1810" width="15.7265625" customWidth="1"/>
+    <col min="1811" max="1812" width="12.7265625" customWidth="1"/>
+    <col min="1813" max="1814" width="13.7265625" customWidth="1"/>
+    <col min="1815" max="1815" width="14.7265625" customWidth="1"/>
+    <col min="1816" max="1816" width="11.26953125" customWidth="1"/>
+    <col min="1818" max="1818" width="15.7265625" customWidth="1"/>
+    <col min="1819" max="1819" width="40" bestFit="1" customWidth="1"/>
+    <col min="1820" max="1821" width="22.7265625" customWidth="1"/>
+    <col min="2053" max="2053" width="25.7265625" customWidth="1"/>
+    <col min="2054" max="2055" width="20.7265625" customWidth="1"/>
+    <col min="2056" max="2056" width="20.26953125" customWidth="1"/>
+    <col min="2058" max="2058" width="22.7265625" customWidth="1"/>
+    <col min="2059" max="2059" width="15.7265625" customWidth="1"/>
+    <col min="2060" max="2060" width="18.7265625" customWidth="1"/>
+    <col min="2061" max="2062" width="26.54296875" customWidth="1"/>
+    <col min="2063" max="2063" width="15.7265625" customWidth="1"/>
+    <col min="2064" max="2064" width="20.1796875" customWidth="1"/>
+    <col min="2065" max="2066" width="15.7265625" customWidth="1"/>
+    <col min="2067" max="2068" width="12.7265625" customWidth="1"/>
+    <col min="2069" max="2070" width="13.7265625" customWidth="1"/>
+    <col min="2071" max="2071" width="14.7265625" customWidth="1"/>
+    <col min="2072" max="2072" width="11.26953125" customWidth="1"/>
+    <col min="2074" max="2074" width="15.7265625" customWidth="1"/>
+    <col min="2075" max="2075" width="40" bestFit="1" customWidth="1"/>
+    <col min="2076" max="2077" width="22.7265625" customWidth="1"/>
+    <col min="2309" max="2309" width="25.7265625" customWidth="1"/>
+    <col min="2310" max="2311" width="20.7265625" customWidth="1"/>
+    <col min="2312" max="2312" width="20.26953125" customWidth="1"/>
+    <col min="2314" max="2314" width="22.7265625" customWidth="1"/>
+    <col min="2315" max="2315" width="15.7265625" customWidth="1"/>
+    <col min="2316" max="2316" width="18.7265625" customWidth="1"/>
+    <col min="2317" max="2318" width="26.54296875" customWidth="1"/>
+    <col min="2319" max="2319" width="15.7265625" customWidth="1"/>
+    <col min="2320" max="2320" width="20.1796875" customWidth="1"/>
+    <col min="2321" max="2322" width="15.7265625" customWidth="1"/>
+    <col min="2323" max="2324" width="12.7265625" customWidth="1"/>
+    <col min="2325" max="2326" width="13.7265625" customWidth="1"/>
+    <col min="2327" max="2327" width="14.7265625" customWidth="1"/>
+    <col min="2328" max="2328" width="11.26953125" customWidth="1"/>
+    <col min="2330" max="2330" width="15.7265625" customWidth="1"/>
+    <col min="2331" max="2331" width="40" bestFit="1" customWidth="1"/>
+    <col min="2332" max="2333" width="22.7265625" customWidth="1"/>
+    <col min="2565" max="2565" width="25.7265625" customWidth="1"/>
+    <col min="2566" max="2567" width="20.7265625" customWidth="1"/>
+    <col min="2568" max="2568" width="20.26953125" customWidth="1"/>
+    <col min="2570" max="2570" width="22.7265625" customWidth="1"/>
+    <col min="2571" max="2571" width="15.7265625" customWidth="1"/>
+    <col min="2572" max="2572" width="18.7265625" customWidth="1"/>
+    <col min="2573" max="2574" width="26.54296875" customWidth="1"/>
+    <col min="2575" max="2575" width="15.7265625" customWidth="1"/>
+    <col min="2576" max="2576" width="20.1796875" customWidth="1"/>
+    <col min="2577" max="2578" width="15.7265625" customWidth="1"/>
+    <col min="2579" max="2580" width="12.7265625" customWidth="1"/>
+    <col min="2581" max="2582" width="13.7265625" customWidth="1"/>
+    <col min="2583" max="2583" width="14.7265625" customWidth="1"/>
+    <col min="2584" max="2584" width="11.26953125" customWidth="1"/>
+    <col min="2586" max="2586" width="15.7265625" customWidth="1"/>
+    <col min="2587" max="2587" width="40" bestFit="1" customWidth="1"/>
+    <col min="2588" max="2589" width="22.7265625" customWidth="1"/>
+    <col min="2821" max="2821" width="25.7265625" customWidth="1"/>
+    <col min="2822" max="2823" width="20.7265625" customWidth="1"/>
+    <col min="2824" max="2824" width="20.26953125" customWidth="1"/>
+    <col min="2826" max="2826" width="22.7265625" customWidth="1"/>
+    <col min="2827" max="2827" width="15.7265625" customWidth="1"/>
+    <col min="2828" max="2828" width="18.7265625" customWidth="1"/>
+    <col min="2829" max="2830" width="26.54296875" customWidth="1"/>
+    <col min="2831" max="2831" width="15.7265625" customWidth="1"/>
+    <col min="2832" max="2832" width="20.1796875" customWidth="1"/>
+    <col min="2833" max="2834" width="15.7265625" customWidth="1"/>
+    <col min="2835" max="2836" width="12.7265625" customWidth="1"/>
+    <col min="2837" max="2838" width="13.7265625" customWidth="1"/>
+    <col min="2839" max="2839" width="14.7265625" customWidth="1"/>
+    <col min="2840" max="2840" width="11.26953125" customWidth="1"/>
+    <col min="2842" max="2842" width="15.7265625" customWidth="1"/>
+    <col min="2843" max="2843" width="40" bestFit="1" customWidth="1"/>
+    <col min="2844" max="2845" width="22.7265625" customWidth="1"/>
+    <col min="3077" max="3077" width="25.7265625" customWidth="1"/>
+    <col min="3078" max="3079" width="20.7265625" customWidth="1"/>
+    <col min="3080" max="3080" width="20.26953125" customWidth="1"/>
+    <col min="3082" max="3082" width="22.7265625" customWidth="1"/>
+    <col min="3083" max="3083" width="15.7265625" customWidth="1"/>
+    <col min="3084" max="3084" width="18.7265625" customWidth="1"/>
+    <col min="3085" max="3086" width="26.54296875" customWidth="1"/>
+    <col min="3087" max="3087" width="15.7265625" customWidth="1"/>
+    <col min="3088" max="3088" width="20.1796875" customWidth="1"/>
+    <col min="3089" max="3090" width="15.7265625" customWidth="1"/>
+    <col min="3091" max="3092" width="12.7265625" customWidth="1"/>
+    <col min="3093" max="3094" width="13.7265625" customWidth="1"/>
+    <col min="3095" max="3095" width="14.7265625" customWidth="1"/>
+    <col min="3096" max="3096" width="11.26953125" customWidth="1"/>
+    <col min="3098" max="3098" width="15.7265625" customWidth="1"/>
+    <col min="3099" max="3099" width="40" bestFit="1" customWidth="1"/>
+    <col min="3100" max="3101" width="22.7265625" customWidth="1"/>
+    <col min="3333" max="3333" width="25.7265625" customWidth="1"/>
+    <col min="3334" max="3335" width="20.7265625" customWidth="1"/>
+    <col min="3336" max="3336" width="20.26953125" customWidth="1"/>
+    <col min="3338" max="3338" width="22.7265625" customWidth="1"/>
+    <col min="3339" max="3339" width="15.7265625" customWidth="1"/>
+    <col min="3340" max="3340" width="18.7265625" customWidth="1"/>
+    <col min="3341" max="3342" width="26.54296875" customWidth="1"/>
+    <col min="3343" max="3343" width="15.7265625" customWidth="1"/>
+    <col min="3344" max="3344" width="20.1796875" customWidth="1"/>
+    <col min="3345" max="3346" width="15.7265625" customWidth="1"/>
+    <col min="3347" max="3348" width="12.7265625" customWidth="1"/>
+    <col min="3349" max="3350" width="13.7265625" customWidth="1"/>
+    <col min="3351" max="3351" width="14.7265625" customWidth="1"/>
+    <col min="3352" max="3352" width="11.26953125" customWidth="1"/>
+    <col min="3354" max="3354" width="15.7265625" customWidth="1"/>
+    <col min="3355" max="3355" width="40" bestFit="1" customWidth="1"/>
+    <col min="3356" max="3357" width="22.7265625" customWidth="1"/>
+    <col min="3589" max="3589" width="25.7265625" customWidth="1"/>
+    <col min="3590" max="3591" width="20.7265625" customWidth="1"/>
+    <col min="3592" max="3592" width="20.26953125" customWidth="1"/>
+    <col min="3594" max="3594" width="22.7265625" customWidth="1"/>
+    <col min="3595" max="3595" width="15.7265625" customWidth="1"/>
+    <col min="3596" max="3596" width="18.7265625" customWidth="1"/>
+    <col min="3597" max="3598" width="26.54296875" customWidth="1"/>
+    <col min="3599" max="3599" width="15.7265625" customWidth="1"/>
+    <col min="3600" max="3600" width="20.1796875" customWidth="1"/>
+    <col min="3601" max="3602" width="15.7265625" customWidth="1"/>
+    <col min="3603" max="3604" width="12.7265625" customWidth="1"/>
+    <col min="3605" max="3606" width="13.7265625" customWidth="1"/>
+    <col min="3607" max="3607" width="14.7265625" customWidth="1"/>
+    <col min="3608" max="3608" width="11.26953125" customWidth="1"/>
+    <col min="3610" max="3610" width="15.7265625" customWidth="1"/>
+    <col min="3611" max="3611" width="40" bestFit="1" customWidth="1"/>
+    <col min="3612" max="3613" width="22.7265625" customWidth="1"/>
+    <col min="3845" max="3845" width="25.7265625" customWidth="1"/>
+    <col min="3846" max="3847" width="20.7265625" customWidth="1"/>
+    <col min="3848" max="3848" width="20.26953125" customWidth="1"/>
+    <col min="3850" max="3850" width="22.7265625" customWidth="1"/>
+    <col min="3851" max="3851" width="15.7265625" customWidth="1"/>
+    <col min="3852" max="3852" width="18.7265625" customWidth="1"/>
+    <col min="3853" max="3854" width="26.54296875" customWidth="1"/>
+    <col min="3855" max="3855" width="15.7265625" customWidth="1"/>
+    <col min="3856" max="3856" width="20.1796875" customWidth="1"/>
+    <col min="3857" max="3858" width="15.7265625" customWidth="1"/>
+    <col min="3859" max="3860" width="12.7265625" customWidth="1"/>
+    <col min="3861" max="3862" width="13.7265625" customWidth="1"/>
+    <col min="3863" max="3863" width="14.7265625" customWidth="1"/>
+    <col min="3864" max="3864" width="11.26953125" customWidth="1"/>
+    <col min="3866" max="3866" width="15.7265625" customWidth="1"/>
+    <col min="3867" max="3867" width="40" bestFit="1" customWidth="1"/>
+    <col min="3868" max="3869" width="22.7265625" customWidth="1"/>
+    <col min="4101" max="4101" width="25.7265625" customWidth="1"/>
+    <col min="4102" max="4103" width="20.7265625" customWidth="1"/>
+    <col min="4104" max="4104" width="20.26953125" customWidth="1"/>
+    <col min="4106" max="4106" width="22.7265625" customWidth="1"/>
+    <col min="4107" max="4107" width="15.7265625" customWidth="1"/>
+    <col min="4108" max="4108" width="18.7265625" customWidth="1"/>
+    <col min="4109" max="4110" width="26.54296875" customWidth="1"/>
+    <col min="4111" max="4111" width="15.7265625" customWidth="1"/>
+    <col min="4112" max="4112" width="20.1796875" customWidth="1"/>
+    <col min="4113" max="4114" width="15.7265625" customWidth="1"/>
+    <col min="4115" max="4116" width="12.7265625" customWidth="1"/>
+    <col min="4117" max="4118" width="13.7265625" customWidth="1"/>
+    <col min="4119" max="4119" width="14.7265625" customWidth="1"/>
+    <col min="4120" max="4120" width="11.26953125" customWidth="1"/>
+    <col min="4122" max="4122" width="15.7265625" customWidth="1"/>
+    <col min="4123" max="4123" width="40" bestFit="1" customWidth="1"/>
+    <col min="4124" max="4125" width="22.7265625" customWidth="1"/>
+    <col min="4357" max="4357" width="25.7265625" customWidth="1"/>
+    <col min="4358" max="4359" width="20.7265625" customWidth="1"/>
+    <col min="4360" max="4360" width="20.26953125" customWidth="1"/>
+    <col min="4362" max="4362" width="22.7265625" customWidth="1"/>
+    <col min="4363" max="4363" width="15.7265625" customWidth="1"/>
+    <col min="4364" max="4364" width="18.7265625" customWidth="1"/>
+    <col min="4365" max="4366" width="26.54296875" customWidth="1"/>
+    <col min="4367" max="4367" width="15.7265625" customWidth="1"/>
+    <col min="4368" max="4368" width="20.1796875" customWidth="1"/>
+    <col min="4369" max="4370" width="15.7265625" customWidth="1"/>
+    <col min="4371" max="4372" width="12.7265625" customWidth="1"/>
+    <col min="4373" max="4374" width="13.7265625" customWidth="1"/>
+    <col min="4375" max="4375" width="14.7265625" customWidth="1"/>
+    <col min="4376" max="4376" width="11.26953125" customWidth="1"/>
+    <col min="4378" max="4378" width="15.7265625" customWidth="1"/>
+    <col min="4379" max="4379" width="40" bestFit="1" customWidth="1"/>
+    <col min="4380" max="4381" width="22.7265625" customWidth="1"/>
+    <col min="4613" max="4613" width="25.7265625" customWidth="1"/>
+    <col min="4614" max="4615" width="20.7265625" customWidth="1"/>
+    <col min="4616" max="4616" width="20.26953125" customWidth="1"/>
+    <col min="4618" max="4618" width="22.7265625" customWidth="1"/>
+    <col min="4619" max="4619" width="15.7265625" customWidth="1"/>
+    <col min="4620" max="4620" width="18.7265625" customWidth="1"/>
+    <col min="4621" max="4622" width="26.54296875" customWidth="1"/>
+    <col min="4623" max="4623" width="15.7265625" customWidth="1"/>
+    <col min="4624" max="4624" width="20.1796875" customWidth="1"/>
+    <col min="4625" max="4626" width="15.7265625" customWidth="1"/>
+    <col min="4627" max="4628" width="12.7265625" customWidth="1"/>
+    <col min="4629" max="4630" width="13.7265625" customWidth="1"/>
+    <col min="4631" max="4631" width="14.7265625" customWidth="1"/>
+    <col min="4632" max="4632" width="11.26953125" customWidth="1"/>
+    <col min="4634" max="4634" width="15.7265625" customWidth="1"/>
+    <col min="4635" max="4635" width="40" bestFit="1" customWidth="1"/>
+    <col min="4636" max="4637" width="22.7265625" customWidth="1"/>
+    <col min="4869" max="4869" width="25.7265625" customWidth="1"/>
+    <col min="4870" max="4871" width="20.7265625" customWidth="1"/>
+    <col min="4872" max="4872" width="20.26953125" customWidth="1"/>
+    <col min="4874" max="4874" width="22.7265625" customWidth="1"/>
+    <col min="4875" max="4875" width="15.7265625" customWidth="1"/>
+    <col min="4876" max="4876" width="18.7265625" customWidth="1"/>
+    <col min="4877" max="4878" width="26.54296875" customWidth="1"/>
+    <col min="4879" max="4879" width="15.7265625" customWidth="1"/>
+    <col min="4880" max="4880" width="20.1796875" customWidth="1"/>
+    <col min="4881" max="4882" width="15.7265625" customWidth="1"/>
+    <col min="4883" max="4884" width="12.7265625" customWidth="1"/>
+    <col min="4885" max="4886" width="13.7265625" customWidth="1"/>
+    <col min="4887" max="4887" width="14.7265625" customWidth="1"/>
+    <col min="4888" max="4888" width="11.26953125" customWidth="1"/>
+    <col min="4890" max="4890" width="15.7265625" customWidth="1"/>
+    <col min="4891" max="4891" width="40" bestFit="1" customWidth="1"/>
+    <col min="4892" max="4893" width="22.7265625" customWidth="1"/>
+    <col min="5125" max="5125" width="25.7265625" customWidth="1"/>
+    <col min="5126" max="5127" width="20.7265625" customWidth="1"/>
+    <col min="5128" max="5128" width="20.26953125" customWidth="1"/>
+    <col min="5130" max="5130" width="22.7265625" customWidth="1"/>
+    <col min="5131" max="5131" width="15.7265625" customWidth="1"/>
+    <col min="5132" max="5132" width="18.7265625" customWidth="1"/>
+    <col min="5133" max="5134" width="26.54296875" customWidth="1"/>
+    <col min="5135" max="5135" width="15.7265625" customWidth="1"/>
+    <col min="5136" max="5136" width="20.1796875" customWidth="1"/>
+    <col min="5137" max="5138" width="15.7265625" customWidth="1"/>
+    <col min="5139" max="5140" width="12.7265625" customWidth="1"/>
+    <col min="5141" max="5142" width="13.7265625" customWidth="1"/>
+    <col min="5143" max="5143" width="14.7265625" customWidth="1"/>
+    <col min="5144" max="5144" width="11.26953125" customWidth="1"/>
+    <col min="5146" max="5146" width="15.7265625" customWidth="1"/>
+    <col min="5147" max="5147" width="40" bestFit="1" customWidth="1"/>
+    <col min="5148" max="5149" width="22.7265625" customWidth="1"/>
+    <col min="5381" max="5381" width="25.7265625" customWidth="1"/>
+    <col min="5382" max="5383" width="20.7265625" customWidth="1"/>
+    <col min="5384" max="5384" width="20.26953125" customWidth="1"/>
+    <col min="5386" max="5386" width="22.7265625" customWidth="1"/>
+    <col min="5387" max="5387" width="15.7265625" customWidth="1"/>
+    <col min="5388" max="5388" width="18.7265625" customWidth="1"/>
+    <col min="5389" max="5390" width="26.54296875" customWidth="1"/>
+    <col min="5391" max="5391" width="15.7265625" customWidth="1"/>
+    <col min="5392" max="5392" width="20.1796875" customWidth="1"/>
+    <col min="5393" max="5394" width="15.7265625" customWidth="1"/>
+    <col min="5395" max="5396" width="12.7265625" customWidth="1"/>
+    <col min="5397" max="5398" width="13.7265625" customWidth="1"/>
+    <col min="5399" max="5399" width="14.7265625" customWidth="1"/>
+    <col min="5400" max="5400" width="11.26953125" customWidth="1"/>
+    <col min="5402" max="5402" width="15.7265625" customWidth="1"/>
+    <col min="5403" max="5403" width="40" bestFit="1" customWidth="1"/>
+    <col min="5404" max="5405" width="22.7265625" customWidth="1"/>
+    <col min="5637" max="5637" width="25.7265625" customWidth="1"/>
+    <col min="5638" max="5639" width="20.7265625" customWidth="1"/>
+    <col min="5640" max="5640" width="20.26953125" customWidth="1"/>
+    <col min="5642" max="5642" width="22.7265625" customWidth="1"/>
+    <col min="5643" max="5643" width="15.7265625" customWidth="1"/>
+    <col min="5644" max="5644" width="18.7265625" customWidth="1"/>
+    <col min="5645" max="5646" width="26.54296875" customWidth="1"/>
+    <col min="5647" max="5647" width="15.7265625" customWidth="1"/>
+    <col min="5648" max="5648" width="20.1796875" customWidth="1"/>
+    <col min="5649" max="5650" width="15.7265625" customWidth="1"/>
+    <col min="5651" max="5652" width="12.7265625" customWidth="1"/>
+    <col min="5653" max="5654" width="13.7265625" customWidth="1"/>
+    <col min="5655" max="5655" width="14.7265625" customWidth="1"/>
+    <col min="5656" max="5656" width="11.26953125" customWidth="1"/>
+    <col min="5658" max="5658" width="15.7265625" customWidth="1"/>
+    <col min="5659" max="5659" width="40" bestFit="1" customWidth="1"/>
+    <col min="5660" max="5661" width="22.7265625" customWidth="1"/>
+    <col min="5893" max="5893" width="25.7265625" customWidth="1"/>
+    <col min="5894" max="5895" width="20.7265625" customWidth="1"/>
+    <col min="5896" max="5896" width="20.26953125" customWidth="1"/>
+    <col min="5898" max="5898" width="22.7265625" customWidth="1"/>
+    <col min="5899" max="5899" width="15.7265625" customWidth="1"/>
+    <col min="5900" max="5900" width="18.7265625" customWidth="1"/>
+    <col min="5901" max="5902" width="26.54296875" customWidth="1"/>
+    <col min="5903" max="5903" width="15.7265625" customWidth="1"/>
+    <col min="5904" max="5904" width="20.1796875" customWidth="1"/>
+    <col min="5905" max="5906" width="15.7265625" customWidth="1"/>
+    <col min="5907" max="5908" width="12.7265625" customWidth="1"/>
+    <col min="5909" max="5910" width="13.7265625" customWidth="1"/>
+    <col min="5911" max="5911" width="14.7265625" customWidth="1"/>
+    <col min="5912" max="5912" width="11.26953125" customWidth="1"/>
+    <col min="5914" max="5914" width="15.7265625" customWidth="1"/>
+    <col min="5915" max="5915" width="40" bestFit="1" customWidth="1"/>
+    <col min="5916" max="5917" width="22.7265625" customWidth="1"/>
+    <col min="6149" max="6149" width="25.7265625" customWidth="1"/>
+    <col min="6150" max="6151" width="20.7265625" customWidth="1"/>
+    <col min="6152" max="6152" width="20.26953125" customWidth="1"/>
+    <col min="6154" max="6154" width="22.7265625" customWidth="1"/>
+    <col min="6155" max="6155" width="15.7265625" customWidth="1"/>
+    <col min="6156" max="6156" width="18.7265625" customWidth="1"/>
+    <col min="6157" max="6158" width="26.54296875" customWidth="1"/>
+    <col min="6159" max="6159" width="15.7265625" customWidth="1"/>
+    <col min="6160" max="6160" width="20.1796875" customWidth="1"/>
+    <col min="6161" max="6162" width="15.7265625" customWidth="1"/>
+    <col min="6163" max="6164" width="12.7265625" customWidth="1"/>
+    <col min="6165" max="6166" width="13.7265625" customWidth="1"/>
+    <col min="6167" max="6167" width="14.7265625" customWidth="1"/>
+    <col min="6168" max="6168" width="11.26953125" customWidth="1"/>
+    <col min="6170" max="6170" width="15.7265625" customWidth="1"/>
+    <col min="6171" max="6171" width="40" bestFit="1" customWidth="1"/>
+    <col min="6172" max="6173" width="22.7265625" customWidth="1"/>
+    <col min="6405" max="6405" width="25.7265625" customWidth="1"/>
+    <col min="6406" max="6407" width="20.7265625" customWidth="1"/>
+    <col min="6408" max="6408" width="20.26953125" customWidth="1"/>
+    <col min="6410" max="6410" width="22.7265625" customWidth="1"/>
+    <col min="6411" max="6411" width="15.7265625" customWidth="1"/>
+    <col min="6412" max="6412" width="18.7265625" customWidth="1"/>
+    <col min="6413" max="6414" width="26.54296875" customWidth="1"/>
+    <col min="6415" max="6415" width="15.7265625" customWidth="1"/>
+    <col min="6416" max="6416" width="20.1796875" customWidth="1"/>
+    <col min="6417" max="6418" width="15.7265625" customWidth="1"/>
+    <col min="6419" max="6420" width="12.7265625" customWidth="1"/>
+    <col min="6421" max="6422" width="13.7265625" customWidth="1"/>
+    <col min="6423" max="6423" width="14.7265625" customWidth="1"/>
+    <col min="6424" max="6424" width="11.26953125" customWidth="1"/>
+    <col min="6426" max="6426" width="15.7265625" customWidth="1"/>
+    <col min="6427" max="6427" width="40" bestFit="1" customWidth="1"/>
+    <col min="6428" max="6429" width="22.7265625" customWidth="1"/>
+    <col min="6661" max="6661" width="25.7265625" customWidth="1"/>
+    <col min="6662" max="6663" width="20.7265625" customWidth="1"/>
+    <col min="6664" max="6664" width="20.26953125" customWidth="1"/>
+    <col min="6666" max="6666" width="22.7265625" customWidth="1"/>
+    <col min="6667" max="6667" width="15.7265625" customWidth="1"/>
+    <col min="6668" max="6668" width="18.7265625" customWidth="1"/>
+    <col min="6669" max="6670" width="26.54296875" customWidth="1"/>
+    <col min="6671" max="6671" width="15.7265625" customWidth="1"/>
+    <col min="6672" max="6672" width="20.1796875" customWidth="1"/>
+    <col min="6673" max="6674" width="15.7265625" customWidth="1"/>
+    <col min="6675" max="6676" width="12.7265625" customWidth="1"/>
+    <col min="6677" max="6678" width="13.7265625" customWidth="1"/>
+    <col min="6679" max="6679" width="14.7265625" customWidth="1"/>
+    <col min="6680" max="6680" width="11.26953125" customWidth="1"/>
+    <col min="6682" max="6682" width="15.7265625" customWidth="1"/>
+    <col min="6683" max="6683" width="40" bestFit="1" customWidth="1"/>
+    <col min="6684" max="6685" width="22.7265625" customWidth="1"/>
+    <col min="6917" max="6917" width="25.7265625" customWidth="1"/>
+    <col min="6918" max="6919" width="20.7265625" customWidth="1"/>
+    <col min="6920" max="6920" width="20.26953125" customWidth="1"/>
+    <col min="6922" max="6922" width="22.7265625" customWidth="1"/>
+    <col min="6923" max="6923" width="15.7265625" customWidth="1"/>
+    <col min="6924" max="6924" width="18.7265625" customWidth="1"/>
+    <col min="6925" max="6926" width="26.54296875" customWidth="1"/>
+    <col min="6927" max="6927" width="15.7265625" customWidth="1"/>
+    <col min="6928" max="6928" width="20.1796875" customWidth="1"/>
+    <col min="6929" max="6930" width="15.7265625" customWidth="1"/>
+    <col min="6931" max="6932" width="12.7265625" customWidth="1"/>
+    <col min="6933" max="6934" width="13.7265625" customWidth="1"/>
+    <col min="6935" max="6935" width="14.7265625" customWidth="1"/>
+    <col min="6936" max="6936" width="11.26953125" customWidth="1"/>
+    <col min="6938" max="6938" width="15.7265625" customWidth="1"/>
+    <col min="6939" max="6939" width="40" bestFit="1" customWidth="1"/>
+    <col min="6940" max="6941" width="22.7265625" customWidth="1"/>
+    <col min="7173" max="7173" width="25.7265625" customWidth="1"/>
+    <col min="7174" max="7175" width="20.7265625" customWidth="1"/>
+    <col min="7176" max="7176" width="20.26953125" customWidth="1"/>
+    <col min="7178" max="7178" width="22.7265625" customWidth="1"/>
+    <col min="7179" max="7179" width="15.7265625" customWidth="1"/>
+    <col min="7180" max="7180" width="18.7265625" customWidth="1"/>
+    <col min="7181" max="7182" width="26.54296875" customWidth="1"/>
+    <col min="7183" max="7183" width="15.7265625" customWidth="1"/>
+    <col min="7184" max="7184" width="20.1796875" customWidth="1"/>
+    <col min="7185" max="7186" width="15.7265625" customWidth="1"/>
+    <col min="7187" max="7188" width="12.7265625" customWidth="1"/>
+    <col min="7189" max="7190" width="13.7265625" customWidth="1"/>
+    <col min="7191" max="7191" width="14.7265625" customWidth="1"/>
+    <col min="7192" max="7192" width="11.26953125" customWidth="1"/>
+    <col min="7194" max="7194" width="15.7265625" customWidth="1"/>
+    <col min="7195" max="7195" width="40" bestFit="1" customWidth="1"/>
+    <col min="7196" max="7197" width="22.7265625" customWidth="1"/>
+    <col min="7429" max="7429" width="25.7265625" customWidth="1"/>
+    <col min="7430" max="7431" width="20.7265625" customWidth="1"/>
+    <col min="7432" max="7432" width="20.26953125" customWidth="1"/>
+    <col min="7434" max="7434" width="22.7265625" customWidth="1"/>
+    <col min="7435" max="7435" width="15.7265625" customWidth="1"/>
+    <col min="7436" max="7436" width="18.7265625" customWidth="1"/>
+    <col min="7437" max="7438" width="26.54296875" customWidth="1"/>
+    <col min="7439" max="7439" width="15.7265625" customWidth="1"/>
+    <col min="7440" max="7440" width="20.1796875" customWidth="1"/>
+    <col min="7441" max="7442" width="15.7265625" customWidth="1"/>
+    <col min="7443" max="7444" width="12.7265625" customWidth="1"/>
+    <col min="7445" max="7446" width="13.7265625" customWidth="1"/>
+    <col min="7447" max="7447" width="14.7265625" customWidth="1"/>
+    <col min="7448" max="7448" width="11.26953125" customWidth="1"/>
+    <col min="7450" max="7450" width="15.7265625" customWidth="1"/>
+    <col min="7451" max="7451" width="40" bestFit="1" customWidth="1"/>
+    <col min="7452" max="7453" width="22.7265625" customWidth="1"/>
+    <col min="7685" max="7685" width="25.7265625" customWidth="1"/>
+    <col min="7686" max="7687" width="20.7265625" customWidth="1"/>
+    <col min="7688" max="7688" width="20.26953125" customWidth="1"/>
+    <col min="7690" max="7690" width="22.7265625" customWidth="1"/>
+    <col min="7691" max="7691" width="15.7265625" customWidth="1"/>
+    <col min="7692" max="7692" width="18.7265625" customWidth="1"/>
+    <col min="7693" max="7694" width="26.54296875" customWidth="1"/>
+    <col min="7695" max="7695" width="15.7265625" customWidth="1"/>
+    <col min="7696" max="7696" width="20.1796875" customWidth="1"/>
+    <col min="7697" max="7698" width="15.7265625" customWidth="1"/>
+    <col min="7699" max="7700" width="12.7265625" customWidth="1"/>
+    <col min="7701" max="7702" width="13.7265625" customWidth="1"/>
+    <col min="7703" max="7703" width="14.7265625" customWidth="1"/>
+    <col min="7704" max="7704" width="11.26953125" customWidth="1"/>
+    <col min="7706" max="7706" width="15.7265625" customWidth="1"/>
+    <col min="7707" max="7707" width="40" bestFit="1" customWidth="1"/>
+    <col min="7708" max="7709" width="22.7265625" customWidth="1"/>
+    <col min="7941" max="7941" width="25.7265625" customWidth="1"/>
+    <col min="7942" max="7943" width="20.7265625" customWidth="1"/>
+    <col min="7944" max="7944" width="20.26953125" customWidth="1"/>
+    <col min="7946" max="7946" width="22.7265625" customWidth="1"/>
+    <col min="7947" max="7947" width="15.7265625" customWidth="1"/>
+    <col min="7948" max="7948" width="18.7265625" customWidth="1"/>
+    <col min="7949" max="7950" width="26.54296875" customWidth="1"/>
+    <col min="7951" max="7951" width="15.7265625" customWidth="1"/>
+    <col min="7952" max="7952" width="20.1796875" customWidth="1"/>
+    <col min="7953" max="7954" width="15.7265625" customWidth="1"/>
+    <col min="7955" max="7956" width="12.7265625" customWidth="1"/>
+    <col min="7957" max="7958" width="13.7265625" customWidth="1"/>
+    <col min="7959" max="7959" width="14.7265625" customWidth="1"/>
+    <col min="7960" max="7960" width="11.26953125" customWidth="1"/>
+    <col min="7962" max="7962" width="15.7265625" customWidth="1"/>
+    <col min="7963" max="7963" width="40" bestFit="1" customWidth="1"/>
+    <col min="7964" max="7965" width="22.7265625" customWidth="1"/>
+    <col min="8197" max="8197" width="25.7265625" customWidth="1"/>
+    <col min="8198" max="8199" width="20.7265625" customWidth="1"/>
+    <col min="8200" max="8200" width="20.26953125" customWidth="1"/>
+    <col min="8202" max="8202" width="22.7265625" customWidth="1"/>
+    <col min="8203" max="8203" width="15.7265625" customWidth="1"/>
+    <col min="8204" max="8204" width="18.7265625" customWidth="1"/>
+    <col min="8205" max="8206" width="26.54296875" customWidth="1"/>
+    <col min="8207" max="8207" width="15.7265625" customWidth="1"/>
+    <col min="8208" max="8208" width="20.1796875" customWidth="1"/>
+    <col min="8209" max="8210" width="15.7265625" customWidth="1"/>
+    <col min="8211" max="8212" width="12.7265625" customWidth="1"/>
+    <col min="8213" max="8214" width="13.7265625" customWidth="1"/>
+    <col min="8215" max="8215" width="14.7265625" customWidth="1"/>
+    <col min="8216" max="8216" width="11.26953125" customWidth="1"/>
+    <col min="8218" max="8218" width="15.7265625" customWidth="1"/>
+    <col min="8219" max="8219" width="40" bestFit="1" customWidth="1"/>
+    <col min="8220" max="8221" width="22.7265625" customWidth="1"/>
+    <col min="8453" max="8453" width="25.7265625" customWidth="1"/>
+    <col min="8454" max="8455" width="20.7265625" customWidth="1"/>
+    <col min="8456" max="8456" width="20.26953125" customWidth="1"/>
+    <col min="8458" max="8458" width="22.7265625" customWidth="1"/>
+    <col min="8459" max="8459" width="15.7265625" customWidth="1"/>
+    <col min="8460" max="8460" width="18.7265625" customWidth="1"/>
+    <col min="8461" max="8462" width="26.54296875" customWidth="1"/>
+    <col min="8463" max="8463" width="15.7265625" customWidth="1"/>
+    <col min="8464" max="8464" width="20.1796875" customWidth="1"/>
+    <col min="8465" max="8466" width="15.7265625" customWidth="1"/>
+    <col min="8467" max="8468" width="12.7265625" customWidth="1"/>
+    <col min="8469" max="8470" width="13.7265625" customWidth="1"/>
+    <col min="8471" max="8471" width="14.7265625" customWidth="1"/>
+    <col min="8472" max="8472" width="11.26953125" customWidth="1"/>
+    <col min="8474" max="8474" width="15.7265625" customWidth="1"/>
+    <col min="8475" max="8475" width="40" bestFit="1" customWidth="1"/>
+    <col min="8476" max="8477" width="22.7265625" customWidth="1"/>
+    <col min="8709" max="8709" width="25.7265625" customWidth="1"/>
+    <col min="8710" max="8711" width="20.7265625" customWidth="1"/>
+    <col min="8712" max="8712" width="20.26953125" customWidth="1"/>
+    <col min="8714" max="8714" width="22.7265625" customWidth="1"/>
+    <col min="8715" max="8715" width="15.7265625" customWidth="1"/>
+    <col min="8716" max="8716" width="18.7265625" customWidth="1"/>
+    <col min="8717" max="8718" width="26.54296875" customWidth="1"/>
+    <col min="8719" max="8719" width="15.7265625" customWidth="1"/>
+    <col min="8720" max="8720" width="20.1796875" customWidth="1"/>
+    <col min="8721" max="8722" width="15.7265625" customWidth="1"/>
+    <col min="8723" max="8724" width="12.7265625" customWidth="1"/>
+    <col min="8725" max="8726" width="13.7265625" customWidth="1"/>
+    <col min="8727" max="8727" width="14.7265625" customWidth="1"/>
+    <col min="8728" max="8728" width="11.26953125" customWidth="1"/>
+    <col min="8730" max="8730" width="15.7265625" customWidth="1"/>
+    <col min="8731" max="8731" width="40" bestFit="1" customWidth="1"/>
+    <col min="8732" max="8733" width="22.7265625" customWidth="1"/>
+    <col min="8965" max="8965" width="25.7265625" customWidth="1"/>
+    <col min="8966" max="8967" width="20.7265625" customWidth="1"/>
+    <col min="8968" max="8968" width="20.26953125" customWidth="1"/>
+    <col min="8970" max="8970" width="22.7265625" customWidth="1"/>
+    <col min="8971" max="8971" width="15.7265625" customWidth="1"/>
+    <col min="8972" max="8972" width="18.7265625" customWidth="1"/>
+    <col min="8973" max="8974" width="26.54296875" customWidth="1"/>
+    <col min="8975" max="8975" width="15.7265625" customWidth="1"/>
+    <col min="8976" max="8976" width="20.1796875" customWidth="1"/>
+    <col min="8977" max="8978" width="15.7265625" customWidth="1"/>
+    <col min="8979" max="8980" width="12.7265625" customWidth="1"/>
+    <col min="8981" max="8982" width="13.7265625" customWidth="1"/>
+    <col min="8983" max="8983" width="14.7265625" customWidth="1"/>
+    <col min="8984" max="8984" width="11.26953125" customWidth="1"/>
+    <col min="8986" max="8986" width="15.7265625" customWidth="1"/>
+    <col min="8987" max="8987" width="40" bestFit="1" customWidth="1"/>
+    <col min="8988" max="8989" width="22.7265625" customWidth="1"/>
+    <col min="9221" max="9221" width="25.7265625" customWidth="1"/>
+    <col min="9222" max="9223" width="20.7265625" customWidth="1"/>
+    <col min="9224" max="9224" width="20.26953125" customWidth="1"/>
+    <col min="9226" max="9226" width="22.7265625" customWidth="1"/>
+    <col min="9227" max="9227" width="15.7265625" customWidth="1"/>
+    <col min="9228" max="9228" width="18.7265625" customWidth="1"/>
+    <col min="9229" max="9230" width="26.54296875" customWidth="1"/>
+    <col min="9231" max="9231" width="15.7265625" customWidth="1"/>
+    <col min="9232" max="9232" width="20.1796875" customWidth="1"/>
+    <col min="9233" max="9234" width="15.7265625" customWidth="1"/>
+    <col min="9235" max="9236" width="12.7265625" customWidth="1"/>
+    <col min="9237" max="9238" width="13.7265625" customWidth="1"/>
+    <col min="9239" max="9239" width="14.7265625" customWidth="1"/>
+    <col min="9240" max="9240" width="11.26953125" customWidth="1"/>
+    <col min="9242" max="9242" width="15.7265625" customWidth="1"/>
+    <col min="9243" max="9243" width="40" bestFit="1" customWidth="1"/>
+    <col min="9244" max="9245" width="22.7265625" customWidth="1"/>
+    <col min="9477" max="9477" width="25.7265625" customWidth="1"/>
+    <col min="9478" max="9479" width="20.7265625" customWidth="1"/>
+    <col min="9480" max="9480" width="20.26953125" customWidth="1"/>
+    <col min="9482" max="9482" width="22.7265625" customWidth="1"/>
+    <col min="9483" max="9483" width="15.7265625" customWidth="1"/>
+    <col min="9484" max="9484" width="18.7265625" customWidth="1"/>
+    <col min="9485" max="9486" width="26.54296875" customWidth="1"/>
+    <col min="9487" max="9487" width="15.7265625" customWidth="1"/>
+    <col min="9488" max="9488" width="20.1796875" customWidth="1"/>
+    <col min="9489" max="9490" width="15.7265625" customWidth="1"/>
+    <col min="9491" max="9492" width="12.7265625" customWidth="1"/>
+    <col min="9493" max="9494" width="13.7265625" customWidth="1"/>
+    <col min="9495" max="9495" width="14.7265625" customWidth="1"/>
+    <col min="9496" max="9496" width="11.26953125" customWidth="1"/>
+    <col min="9498" max="9498" width="15.7265625" customWidth="1"/>
+    <col min="9499" max="9499" width="40" bestFit="1" customWidth="1"/>
+    <col min="9500" max="9501" width="22.7265625" customWidth="1"/>
+    <col min="9733" max="9733" width="25.7265625" customWidth="1"/>
+    <col min="9734" max="9735" width="20.7265625" customWidth="1"/>
+    <col min="9736" max="9736" width="20.26953125" customWidth="1"/>
+    <col min="9738" max="9738" width="22.7265625" customWidth="1"/>
+    <col min="9739" max="9739" width="15.7265625" customWidth="1"/>
+    <col min="9740" max="9740" width="18.7265625" customWidth="1"/>
+    <col min="9741" max="9742" width="26.54296875" customWidth="1"/>
+    <col min="9743" max="9743" width="15.7265625" customWidth="1"/>
+    <col min="9744" max="9744" width="20.1796875" customWidth="1"/>
+    <col min="9745" max="9746" width="15.7265625" customWidth="1"/>
+    <col min="9747" max="9748" width="12.7265625" customWidth="1"/>
+    <col min="9749" max="9750" width="13.7265625" customWidth="1"/>
+    <col min="9751" max="9751" width="14.7265625" customWidth="1"/>
+    <col min="9752" max="9752" width="11.26953125" customWidth="1"/>
+    <col min="9754" max="9754" width="15.7265625" customWidth="1"/>
+    <col min="9755" max="9755" width="40" bestFit="1" customWidth="1"/>
+    <col min="9756" max="9757" width="22.7265625" customWidth="1"/>
+    <col min="9989" max="9989" width="25.7265625" customWidth="1"/>
+    <col min="9990" max="9991" width="20.7265625" customWidth="1"/>
+    <col min="9992" max="9992" width="20.26953125" customWidth="1"/>
+    <col min="9994" max="9994" width="22.7265625" customWidth="1"/>
+    <col min="9995" max="9995" width="15.7265625" customWidth="1"/>
+    <col min="9996" max="9996" width="18.7265625" customWidth="1"/>
+    <col min="9997" max="9998" width="26.54296875" customWidth="1"/>
+    <col min="9999" max="9999" width="15.7265625" customWidth="1"/>
+    <col min="10000" max="10000" width="20.1796875" customWidth="1"/>
+    <col min="10001" max="10002" width="15.7265625" customWidth="1"/>
+    <col min="10003" max="10004" width="12.7265625" customWidth="1"/>
+    <col min="10005" max="10006" width="13.7265625" customWidth="1"/>
+    <col min="10007" max="10007" width="14.7265625" customWidth="1"/>
+    <col min="10008" max="10008" width="11.26953125" customWidth="1"/>
+    <col min="10010" max="10010" width="15.7265625" customWidth="1"/>
+    <col min="10011" max="10011" width="40" bestFit="1" customWidth="1"/>
+    <col min="10012" max="10013" width="22.7265625" customWidth="1"/>
+    <col min="10245" max="10245" width="25.7265625" customWidth="1"/>
+    <col min="10246" max="10247" width="20.7265625" customWidth="1"/>
+    <col min="10248" max="10248" width="20.26953125" customWidth="1"/>
+    <col min="10250" max="10250" width="22.7265625" customWidth="1"/>
+    <col min="10251" max="10251" width="15.7265625" customWidth="1"/>
+    <col min="10252" max="10252" width="18.7265625" customWidth="1"/>
+    <col min="10253" max="10254" width="26.54296875" customWidth="1"/>
+    <col min="10255" max="10255" width="15.7265625" customWidth="1"/>
+    <col min="10256" max="10256" width="20.1796875" customWidth="1"/>
+    <col min="10257" max="10258" width="15.7265625" customWidth="1"/>
+    <col min="10259" max="10260" width="12.7265625" customWidth="1"/>
+    <col min="10261" max="10262" width="13.7265625" customWidth="1"/>
+    <col min="10263" max="10263" width="14.7265625" customWidth="1"/>
+    <col min="10264" max="10264" width="11.26953125" customWidth="1"/>
+    <col min="10266" max="10266" width="15.7265625" customWidth="1"/>
+    <col min="10267" max="10267" width="40" bestFit="1" customWidth="1"/>
+    <col min="10268" max="10269" width="22.7265625" customWidth="1"/>
+    <col min="10501" max="10501" width="25.7265625" customWidth="1"/>
+    <col min="10502" max="10503" width="20.7265625" customWidth="1"/>
+    <col min="10504" max="10504" width="20.26953125" customWidth="1"/>
+    <col min="10506" max="10506" width="22.7265625" customWidth="1"/>
+    <col min="10507" max="10507" width="15.7265625" customWidth="1"/>
+    <col min="10508" max="10508" width="18.7265625" customWidth="1"/>
+    <col min="10509" max="10510" width="26.54296875" customWidth="1"/>
+    <col min="10511" max="10511" width="15.7265625" customWidth="1"/>
+    <col min="10512" max="10512" width="20.1796875" customWidth="1"/>
+    <col min="10513" max="10514" width="15.7265625" customWidth="1"/>
+    <col min="10515" max="10516" width="12.7265625" customWidth="1"/>
+    <col min="10517" max="10518" width="13.7265625" customWidth="1"/>
+    <col min="10519" max="10519" width="14.7265625" customWidth="1"/>
+    <col min="10520" max="10520" width="11.26953125" customWidth="1"/>
+    <col min="10522" max="10522" width="15.7265625" customWidth="1"/>
+    <col min="10523" max="10523" width="40" bestFit="1" customWidth="1"/>
+    <col min="10524" max="10525" width="22.7265625" customWidth="1"/>
+    <col min="10757" max="10757" width="25.7265625" customWidth="1"/>
+    <col min="10758" max="10759" width="20.7265625" customWidth="1"/>
+    <col min="10760" max="10760" width="20.26953125" customWidth="1"/>
+    <col min="10762" max="10762" width="22.7265625" customWidth="1"/>
+    <col min="10763" max="10763" width="15.7265625" customWidth="1"/>
+    <col min="10764" max="10764" width="18.7265625" customWidth="1"/>
+    <col min="10765" max="10766" width="26.54296875" customWidth="1"/>
+    <col min="10767" max="10767" width="15.7265625" customWidth="1"/>
+    <col min="10768" max="10768" width="20.1796875" customWidth="1"/>
+    <col min="10769" max="10770" width="15.7265625" customWidth="1"/>
+    <col min="10771" max="10772" width="12.7265625" customWidth="1"/>
+    <col min="10773" max="10774" width="13.7265625" customWidth="1"/>
+    <col min="10775" max="10775" width="14.7265625" customWidth="1"/>
+    <col min="10776" max="10776" width="11.26953125" customWidth="1"/>
+    <col min="10778" max="10778" width="15.7265625" customWidth="1"/>
+    <col min="10779" max="10779" width="40" bestFit="1" customWidth="1"/>
+    <col min="10780" max="10781" width="22.7265625" customWidth="1"/>
+    <col min="11013" max="11013" width="25.7265625" customWidth="1"/>
+    <col min="11014" max="11015" width="20.7265625" customWidth="1"/>
+    <col min="11016" max="11016" width="20.26953125" customWidth="1"/>
+    <col min="11018" max="11018" width="22.7265625" customWidth="1"/>
+    <col min="11019" max="11019" width="15.7265625" customWidth="1"/>
+    <col min="11020" max="11020" width="18.7265625" customWidth="1"/>
+    <col min="11021" max="11022" width="26.54296875" customWidth="1"/>
+    <col min="11023" max="11023" width="15.7265625" customWidth="1"/>
+    <col min="11024" max="11024" width="20.1796875" customWidth="1"/>
+    <col min="11025" max="11026" width="15.7265625" customWidth="1"/>
+    <col min="11027" max="11028" width="12.7265625" customWidth="1"/>
+    <col min="11029" max="11030" width="13.7265625" customWidth="1"/>
+    <col min="11031" max="11031" width="14.7265625" customWidth="1"/>
+    <col min="11032" max="11032" width="11.26953125" customWidth="1"/>
+    <col min="11034" max="11034" width="15.7265625" customWidth="1"/>
+    <col min="11035" max="11035" width="40" bestFit="1" customWidth="1"/>
+    <col min="11036" max="11037" width="22.7265625" customWidth="1"/>
+    <col min="11269" max="11269" width="25.7265625" customWidth="1"/>
+    <col min="11270" max="11271" width="20.7265625" customWidth="1"/>
+    <col min="11272" max="11272" width="20.26953125" customWidth="1"/>
+    <col min="11274" max="11274" width="22.7265625" customWidth="1"/>
+    <col min="11275" max="11275" width="15.7265625" customWidth="1"/>
+    <col min="11276" max="11276" width="18.7265625" customWidth="1"/>
+    <col min="11277" max="11278" width="26.54296875" customWidth="1"/>
+    <col min="11279" max="11279" width="15.7265625" customWidth="1"/>
+    <col min="11280" max="11280" width="20.1796875" customWidth="1"/>
+    <col min="11281" max="11282" width="15.7265625" customWidth="1"/>
+    <col min="11283" max="11284" width="12.7265625" customWidth="1"/>
+    <col min="11285" max="11286" width="13.7265625" customWidth="1"/>
+    <col min="11287" max="11287" width="14.7265625" customWidth="1"/>
+    <col min="11288" max="11288" width="11.26953125" customWidth="1"/>
+    <col min="11290" max="11290" width="15.7265625" customWidth="1"/>
+    <col min="11291" max="11291" width="40" bestFit="1" customWidth="1"/>
+    <col min="11292" max="11293" width="22.7265625" customWidth="1"/>
+    <col min="11525" max="11525" width="25.7265625" customWidth="1"/>
+    <col min="11526" max="11527" width="20.7265625" customWidth="1"/>
+    <col min="11528" max="11528" width="20.26953125" customWidth="1"/>
+    <col min="11530" max="11530" width="22.7265625" customWidth="1"/>
+    <col min="11531" max="11531" width="15.7265625" customWidth="1"/>
+    <col min="11532" max="11532" width="18.7265625" customWidth="1"/>
+    <col min="11533" max="11534" width="26.54296875" customWidth="1"/>
+    <col min="11535" max="11535" width="15.7265625" customWidth="1"/>
+    <col min="11536" max="11536" width="20.1796875" customWidth="1"/>
+    <col min="11537" max="11538" width="15.7265625" customWidth="1"/>
+    <col min="11539" max="11540" width="12.7265625" customWidth="1"/>
+    <col min="11541" max="11542" width="13.7265625" customWidth="1"/>
+    <col min="11543" max="11543" width="14.7265625" customWidth="1"/>
+    <col min="11544" max="11544" width="11.26953125" customWidth="1"/>
+    <col min="11546" max="11546" width="15.7265625" customWidth="1"/>
+    <col min="11547" max="11547" width="40" bestFit="1" customWidth="1"/>
+    <col min="11548" max="11549" width="22.7265625" customWidth="1"/>
+    <col min="11781" max="11781" width="25.7265625" customWidth="1"/>
+    <col min="11782" max="11783" width="20.7265625" customWidth="1"/>
+    <col min="11784" max="11784" width="20.26953125" customWidth="1"/>
+    <col min="11786" max="11786" width="22.7265625" customWidth="1"/>
+    <col min="11787" max="11787" width="15.7265625" customWidth="1"/>
+    <col min="11788" max="11788" width="18.7265625" customWidth="1"/>
+    <col min="11789" max="11790" width="26.54296875" customWidth="1"/>
+    <col min="11791" max="11791" width="15.7265625" customWidth="1"/>
+    <col min="11792" max="11792" width="20.1796875" customWidth="1"/>
+    <col min="11793" max="11794" width="15.7265625" customWidth="1"/>
+    <col min="11795" max="11796" width="12.7265625" customWidth="1"/>
+    <col min="11797" max="11798" width="13.7265625" customWidth="1"/>
+    <col min="11799" max="11799" width="14.7265625" customWidth="1"/>
+    <col min="11800" max="11800" width="11.26953125" customWidth="1"/>
+    <col min="11802" max="11802" width="15.7265625" customWidth="1"/>
+    <col min="11803" max="11803" width="40" bestFit="1" customWidth="1"/>
+    <col min="11804" max="11805" width="22.7265625" customWidth="1"/>
+    <col min="12037" max="12037" width="25.7265625" customWidth="1"/>
+    <col min="12038" max="12039" width="20.7265625" customWidth="1"/>
+    <col min="12040" max="12040" width="20.26953125" customWidth="1"/>
+    <col min="12042" max="12042" width="22.7265625" customWidth="1"/>
+    <col min="12043" max="12043" width="15.7265625" customWidth="1"/>
+    <col min="12044" max="12044" width="18.7265625" customWidth="1"/>
+    <col min="12045" max="12046" width="26.54296875" customWidth="1"/>
+    <col min="12047" max="12047" width="15.7265625" customWidth="1"/>
+    <col min="12048" max="12048" width="20.1796875" customWidth="1"/>
+    <col min="12049" max="12050" width="15.7265625" customWidth="1"/>
+    <col min="12051" max="12052" width="12.7265625" customWidth="1"/>
+    <col min="12053" max="12054" width="13.7265625" customWidth="1"/>
+    <col min="12055" max="12055" width="14.7265625" customWidth="1"/>
+    <col min="12056" max="12056" width="11.26953125" customWidth="1"/>
+    <col min="12058" max="12058" width="15.7265625" customWidth="1"/>
+    <col min="12059" max="12059" width="40" bestFit="1" customWidth="1"/>
+    <col min="12060" max="12061" width="22.7265625" customWidth="1"/>
+    <col min="12293" max="12293" width="25.7265625" customWidth="1"/>
+    <col min="12294" max="12295" width="20.7265625" customWidth="1"/>
+    <col min="12296" max="12296" width="20.26953125" customWidth="1"/>
+    <col min="12298" max="12298" width="22.7265625" customWidth="1"/>
+    <col min="12299" max="12299" width="15.7265625" customWidth="1"/>
+    <col min="12300" max="12300" width="18.7265625" customWidth="1"/>
+    <col min="12301" max="12302" width="26.54296875" customWidth="1"/>
+    <col min="12303" max="12303" width="15.7265625" customWidth="1"/>
+    <col min="12304" max="12304" width="20.1796875" customWidth="1"/>
+    <col min="12305" max="12306" width="15.7265625" customWidth="1"/>
+    <col min="12307" max="12308" width="12.7265625" customWidth="1"/>
+    <col min="12309" max="12310" width="13.7265625" customWidth="1"/>
+    <col min="12311" max="12311" width="14.7265625" customWidth="1"/>
+    <col min="12312" max="12312" width="11.26953125" customWidth="1"/>
+    <col min="12314" max="12314" width="15.7265625" customWidth="1"/>
+    <col min="12315" max="12315" width="40" bestFit="1" customWidth="1"/>
+    <col min="12316" max="12317" width="22.7265625" customWidth="1"/>
+    <col min="12549" max="12549" width="25.7265625" customWidth="1"/>
+    <col min="12550" max="12551" width="20.7265625" customWidth="1"/>
+    <col min="12552" max="12552" width="20.26953125" customWidth="1"/>
+    <col min="12554" max="12554" width="22.7265625" customWidth="1"/>
+    <col min="12555" max="12555" width="15.7265625" customWidth="1"/>
+    <col min="12556" max="12556" width="18.7265625" customWidth="1"/>
+    <col min="12557" max="12558" width="26.54296875" customWidth="1"/>
+    <col min="12559" max="12559" width="15.7265625" customWidth="1"/>
+    <col min="12560" max="12560" width="20.1796875" customWidth="1"/>
+    <col min="12561" max="12562" width="15.7265625" customWidth="1"/>
+    <col min="12563" max="12564" width="12.7265625" customWidth="1"/>
+    <col min="12565" max="12566" width="13.7265625" customWidth="1"/>
+    <col min="12567" max="12567" width="14.7265625" customWidth="1"/>
+    <col min="12568" max="12568" width="11.26953125" customWidth="1"/>
+    <col min="12570" max="12570" width="15.7265625" customWidth="1"/>
+    <col min="12571" max="12571" width="40" bestFit="1" customWidth="1"/>
+    <col min="12572" max="12573" width="22.7265625" customWidth="1"/>
+    <col min="12805" max="12805" width="25.7265625" customWidth="1"/>
+    <col min="12806" max="12807" width="20.7265625" customWidth="1"/>
+    <col min="12808" max="12808" width="20.26953125" customWidth="1"/>
+    <col min="12810" max="12810" width="22.7265625" customWidth="1"/>
+    <col min="12811" max="12811" width="15.7265625" customWidth="1"/>
+    <col min="12812" max="12812" width="18.7265625" customWidth="1"/>
+    <col min="12813" max="12814" width="26.54296875" customWidth="1"/>
+    <col min="12815" max="12815" width="15.7265625" customWidth="1"/>
+    <col min="12816" max="12816" width="20.1796875" customWidth="1"/>
+    <col min="12817" max="12818" width="15.7265625" customWidth="1"/>
+    <col min="12819" max="12820" width="12.7265625" customWidth="1"/>
+    <col min="12821" max="12822" width="13.7265625" customWidth="1"/>
+    <col min="12823" max="12823" width="14.7265625" customWidth="1"/>
+    <col min="12824" max="12824" width="11.26953125" customWidth="1"/>
+    <col min="12826" max="12826" width="15.7265625" customWidth="1"/>
+    <col min="12827" max="12827" width="40" bestFit="1" customWidth="1"/>
+    <col min="12828" max="12829" width="22.7265625" customWidth="1"/>
+    <col min="13061" max="13061" width="25.7265625" customWidth="1"/>
+    <col min="13062" max="13063" width="20.7265625" customWidth="1"/>
+    <col min="13064" max="13064" width="20.26953125" customWidth="1"/>
+    <col min="13066" max="13066" width="22.7265625" customWidth="1"/>
+    <col min="13067" max="13067" width="15.7265625" customWidth="1"/>
+    <col min="13068" max="13068" width="18.7265625" customWidth="1"/>
+    <col min="13069" max="13070" width="26.54296875" customWidth="1"/>
+    <col min="13071" max="13071" width="15.7265625" customWidth="1"/>
+    <col min="13072" max="13072" width="20.1796875" customWidth="1"/>
+    <col min="13073" max="13074" width="15.7265625" customWidth="1"/>
+    <col min="13075" max="13076" width="12.7265625" customWidth="1"/>
+    <col min="13077" max="13078" width="13.7265625" customWidth="1"/>
+    <col min="13079" max="13079" width="14.7265625" customWidth="1"/>
+    <col min="13080" max="13080" width="11.26953125" customWidth="1"/>
+    <col min="13082" max="13082" width="15.7265625" customWidth="1"/>
+    <col min="13083" max="13083" width="40" bestFit="1" customWidth="1"/>
+    <col min="13084" max="13085" width="22.7265625" customWidth="1"/>
+    <col min="13317" max="13317" width="25.7265625" customWidth="1"/>
+    <col min="13318" max="13319" width="20.7265625" customWidth="1"/>
+    <col min="13320" max="13320" width="20.26953125" customWidth="1"/>
+    <col min="13322" max="13322" width="22.7265625" customWidth="1"/>
+    <col min="13323" max="13323" width="15.7265625" customWidth="1"/>
+    <col min="13324" max="13324" width="18.7265625" customWidth="1"/>
+    <col min="13325" max="13326" width="26.54296875" customWidth="1"/>
+    <col min="13327" max="13327" width="15.7265625" customWidth="1"/>
+    <col min="13328" max="13328" width="20.1796875" customWidth="1"/>
+    <col min="13329" max="13330" width="15.7265625" customWidth="1"/>
+    <col min="13331" max="13332" width="12.7265625" customWidth="1"/>
+    <col min="13333" max="13334" width="13.7265625" customWidth="1"/>
+    <col min="13335" max="13335" width="14.7265625" customWidth="1"/>
+    <col min="13336" max="13336" width="11.26953125" customWidth="1"/>
+    <col min="13338" max="13338" width="15.7265625" customWidth="1"/>
+    <col min="13339" max="13339" width="40" bestFit="1" customWidth="1"/>
+    <col min="13340" max="13341" width="22.7265625" customWidth="1"/>
+    <col min="13573" max="13573" width="25.7265625" customWidth="1"/>
+    <col min="13574" max="13575" width="20.7265625" customWidth="1"/>
+    <col min="13576" max="13576" width="20.26953125" customWidth="1"/>
+    <col min="13578" max="13578" width="22.7265625" customWidth="1"/>
+    <col min="13579" max="13579" width="15.7265625" customWidth="1"/>
+    <col min="13580" max="13580" width="18.7265625" customWidth="1"/>
+    <col min="13581" max="13582" width="26.54296875" customWidth="1"/>
+    <col min="13583" max="13583" width="15.7265625" customWidth="1"/>
+    <col min="13584" max="13584" width="20.1796875" customWidth="1"/>
+    <col min="13585" max="13586" width="15.7265625" customWidth="1"/>
+    <col min="13587" max="13588" width="12.7265625" customWidth="1"/>
+    <col min="13589" max="13590" width="13.7265625" customWidth="1"/>
+    <col min="13591" max="13591" width="14.7265625" customWidth="1"/>
+    <col min="13592" max="13592" width="11.26953125" customWidth="1"/>
+    <col min="13594" max="13594" width="15.7265625" customWidth="1"/>
+    <col min="13595" max="13595" width="40" bestFit="1" customWidth="1"/>
+    <col min="13596" max="13597" width="22.7265625" customWidth="1"/>
+    <col min="13829" max="13829" width="25.7265625" customWidth="1"/>
+    <col min="13830" max="13831" width="20.7265625" customWidth="1"/>
+    <col min="13832" max="13832" width="20.26953125" customWidth="1"/>
+    <col min="13834" max="13834" width="22.7265625" customWidth="1"/>
+    <col min="13835" max="13835" width="15.7265625" customWidth="1"/>
+    <col min="13836" max="13836" width="18.7265625" customWidth="1"/>
+    <col min="13837" max="13838" width="26.54296875" customWidth="1"/>
+    <col min="13839" max="13839" width="15.7265625" customWidth="1"/>
+    <col min="13840" max="13840" width="20.1796875" customWidth="1"/>
+    <col min="13841" max="13842" width="15.7265625" customWidth="1"/>
+    <col min="13843" max="13844" width="12.7265625" customWidth="1"/>
+    <col min="13845" max="13846" width="13.7265625" customWidth="1"/>
+    <col min="13847" max="13847" width="14.7265625" customWidth="1"/>
+    <col min="13848" max="13848" width="11.26953125" customWidth="1"/>
+    <col min="13850" max="13850" width="15.7265625" customWidth="1"/>
+    <col min="13851" max="13851" width="40" bestFit="1" customWidth="1"/>
+    <col min="13852" max="13853" width="22.7265625" customWidth="1"/>
+    <col min="14085" max="14085" width="25.7265625" customWidth="1"/>
+    <col min="14086" max="14087" width="20.7265625" customWidth="1"/>
+    <col min="14088" max="14088" width="20.26953125" customWidth="1"/>
+    <col min="14090" max="14090" width="22.7265625" customWidth="1"/>
+    <col min="14091" max="14091" width="15.7265625" customWidth="1"/>
+    <col min="14092" max="14092" width="18.7265625" customWidth="1"/>
+    <col min="14093" max="14094" width="26.54296875" customWidth="1"/>
+    <col min="14095" max="14095" width="15.7265625" customWidth="1"/>
+    <col min="14096" max="14096" width="20.1796875" customWidth="1"/>
+    <col min="14097" max="14098" width="15.7265625" customWidth="1"/>
+    <col min="14099" max="14100" width="12.7265625" customWidth="1"/>
+    <col min="14101" max="14102" width="13.7265625" customWidth="1"/>
+    <col min="14103" max="14103" width="14.7265625" customWidth="1"/>
+    <col min="14104" max="14104" width="11.26953125" customWidth="1"/>
+    <col min="14106" max="14106" width="15.7265625" customWidth="1"/>
+    <col min="14107" max="14107" width="40" bestFit="1" customWidth="1"/>
+    <col min="14108" max="14109" width="22.7265625" customWidth="1"/>
+    <col min="14341" max="14341" width="25.7265625" customWidth="1"/>
+    <col min="14342" max="14343" width="20.7265625" customWidth="1"/>
+    <col min="14344" max="14344" width="20.26953125" customWidth="1"/>
+    <col min="14346" max="14346" width="22.7265625" customWidth="1"/>
+    <col min="14347" max="14347" width="15.7265625" customWidth="1"/>
+    <col min="14348" max="14348" width="18.7265625" customWidth="1"/>
+    <col min="14349" max="14350" width="26.54296875" customWidth="1"/>
+    <col min="14351" max="14351" width="15.7265625" customWidth="1"/>
+    <col min="14352" max="14352" width="20.1796875" customWidth="1"/>
+    <col min="14353" max="14354" width="15.7265625" customWidth="1"/>
+    <col min="14355" max="14356" width="12.7265625" customWidth="1"/>
+    <col min="14357" max="14358" width="13.7265625" customWidth="1"/>
+    <col min="14359" max="14359" width="14.7265625" customWidth="1"/>
+    <col min="14360" max="14360" width="11.26953125" customWidth="1"/>
+    <col min="14362" max="14362" width="15.7265625" customWidth="1"/>
+    <col min="14363" max="14363" width="40" bestFit="1" customWidth="1"/>
+    <col min="14364" max="14365" width="22.7265625" customWidth="1"/>
+    <col min="14597" max="14597" width="25.7265625" customWidth="1"/>
+    <col min="14598" max="14599" width="20.7265625" customWidth="1"/>
+    <col min="14600" max="14600" width="20.26953125" customWidth="1"/>
+    <col min="14602" max="14602" width="22.7265625" customWidth="1"/>
+    <col min="14603" max="14603" width="15.7265625" customWidth="1"/>
+    <col min="14604" max="14604" width="18.7265625" customWidth="1"/>
+    <col min="14605" max="14606" width="26.54296875" customWidth="1"/>
+    <col min="14607" max="14607" width="15.7265625" customWidth="1"/>
+    <col min="14608" max="14608" width="20.1796875" customWidth="1"/>
+    <col min="14609" max="14610" width="15.7265625" customWidth="1"/>
+    <col min="14611" max="14612" width="12.7265625" customWidth="1"/>
+    <col min="14613" max="14614" width="13.7265625" customWidth="1"/>
+    <col min="14615" max="14615" width="14.7265625" customWidth="1"/>
+    <col min="14616" max="14616" width="11.26953125" customWidth="1"/>
+    <col min="14618" max="14618" width="15.7265625" customWidth="1"/>
+    <col min="14619" max="14619" width="40" bestFit="1" customWidth="1"/>
+    <col min="14620" max="14621" width="22.7265625" customWidth="1"/>
+    <col min="14853" max="14853" width="25.7265625" customWidth="1"/>
+    <col min="14854" max="14855" width="20.7265625" customWidth="1"/>
+    <col min="14856" max="14856" width="20.26953125" customWidth="1"/>
+    <col min="14858" max="14858" width="22.7265625" customWidth="1"/>
+    <col min="14859" max="14859" width="15.7265625" customWidth="1"/>
+    <col min="14860" max="14860" width="18.7265625" customWidth="1"/>
+    <col min="14861" max="14862" width="26.54296875" customWidth="1"/>
+    <col min="14863" max="14863" width="15.7265625" customWidth="1"/>
+    <col min="14864" max="14864" width="20.1796875" customWidth="1"/>
+    <col min="14865" max="14866" width="15.7265625" customWidth="1"/>
+    <col min="14867" max="14868" width="12.7265625" customWidth="1"/>
+    <col min="14869" max="14870" width="13.7265625" customWidth="1"/>
+    <col min="14871" max="14871" width="14.7265625" customWidth="1"/>
+    <col min="14872" max="14872" width="11.26953125" customWidth="1"/>
+    <col min="14874" max="14874" width="15.7265625" customWidth="1"/>
+    <col min="14875" max="14875" width="40" bestFit="1" customWidth="1"/>
+    <col min="14876" max="14877" width="22.7265625" customWidth="1"/>
+    <col min="15109" max="15109" width="25.7265625" customWidth="1"/>
+    <col min="15110" max="15111" width="20.7265625" customWidth="1"/>
+    <col min="15112" max="15112" width="20.26953125" customWidth="1"/>
+    <col min="15114" max="15114" width="22.7265625" customWidth="1"/>
+    <col min="15115" max="15115" width="15.7265625" customWidth="1"/>
+    <col min="15116" max="15116" width="18.7265625" customWidth="1"/>
+    <col min="15117" max="15118" width="26.54296875" customWidth="1"/>
+    <col min="15119" max="15119" width="15.7265625" customWidth="1"/>
+    <col min="15120" max="15120" width="20.1796875" customWidth="1"/>
+    <col min="15121" max="15122" width="15.7265625" customWidth="1"/>
+    <col min="15123" max="15124" width="12.7265625" customWidth="1"/>
+    <col min="15125" max="15126" width="13.7265625" customWidth="1"/>
+    <col min="15127" max="15127" width="14.7265625" customWidth="1"/>
+    <col min="15128" max="15128" width="11.26953125" customWidth="1"/>
+    <col min="15130" max="15130" width="15.7265625" customWidth="1"/>
+    <col min="15131" max="15131" width="40" bestFit="1" customWidth="1"/>
+    <col min="15132" max="15133" width="22.7265625" customWidth="1"/>
+    <col min="15365" max="15365" width="25.7265625" customWidth="1"/>
+    <col min="15366" max="15367" width="20.7265625" customWidth="1"/>
+    <col min="15368" max="15368" width="20.26953125" customWidth="1"/>
+    <col min="15370" max="15370" width="22.7265625" customWidth="1"/>
+    <col min="15371" max="15371" width="15.7265625" customWidth="1"/>
+    <col min="15372" max="15372" width="18.7265625" customWidth="1"/>
+    <col min="15373" max="15374" width="26.54296875" customWidth="1"/>
+    <col min="15375" max="15375" width="15.7265625" customWidth="1"/>
+    <col min="15376" max="15376" width="20.1796875" customWidth="1"/>
+    <col min="15377" max="15378" width="15.7265625" customWidth="1"/>
+    <col min="15379" max="15380" width="12.7265625" customWidth="1"/>
+    <col min="15381" max="15382" width="13.7265625" customWidth="1"/>
+    <col min="15383" max="15383" width="14.7265625" customWidth="1"/>
+    <col min="15384" max="15384" width="11.26953125" customWidth="1"/>
+    <col min="15386" max="15386" width="15.7265625" customWidth="1"/>
+    <col min="15387" max="15387" width="40" bestFit="1" customWidth="1"/>
+    <col min="15388" max="15389" width="22.7265625" customWidth="1"/>
+    <col min="15621" max="15621" width="25.7265625" customWidth="1"/>
+    <col min="15622" max="15623" width="20.7265625" customWidth="1"/>
+    <col min="15624" max="15624" width="20.26953125" customWidth="1"/>
+    <col min="15626" max="15626" width="22.7265625" customWidth="1"/>
+    <col min="15627" max="15627" width="15.7265625" customWidth="1"/>
+    <col min="15628" max="15628" width="18.7265625" customWidth="1"/>
+    <col min="15629" max="15630" width="26.54296875" customWidth="1"/>
+    <col min="15631" max="15631" width="15.7265625" customWidth="1"/>
+    <col min="15632" max="15632" width="20.1796875" customWidth="1"/>
+    <col min="15633" max="15634" width="15.7265625" customWidth="1"/>
+    <col min="15635" max="15636" width="12.7265625" customWidth="1"/>
+    <col min="15637" max="15638" width="13.7265625" customWidth="1"/>
+    <col min="15639" max="15639" width="14.7265625" customWidth="1"/>
+    <col min="15640" max="15640" width="11.26953125" customWidth="1"/>
+    <col min="15642" max="15642" width="15.7265625" customWidth="1"/>
+    <col min="15643" max="15643" width="40" bestFit="1" customWidth="1"/>
+    <col min="15644" max="15645" width="22.7265625" customWidth="1"/>
+    <col min="15877" max="15877" width="25.7265625" customWidth="1"/>
+    <col min="15878" max="15879" width="20.7265625" customWidth="1"/>
+    <col min="15880" max="15880" width="20.26953125" customWidth="1"/>
+    <col min="15882" max="15882" width="22.7265625" customWidth="1"/>
+    <col min="15883" max="15883" width="15.7265625" customWidth="1"/>
+    <col min="15884" max="15884" width="18.7265625" customWidth="1"/>
+    <col min="15885" max="15886" width="26.54296875" customWidth="1"/>
+    <col min="15887" max="15887" width="15.7265625" customWidth="1"/>
+    <col min="15888" max="15888" width="20.1796875" customWidth="1"/>
+    <col min="15889" max="15890" width="15.7265625" customWidth="1"/>
+    <col min="15891" max="15892" width="12.7265625" customWidth="1"/>
+    <col min="15893" max="15894" width="13.7265625" customWidth="1"/>
+    <col min="15895" max="15895" width="14.7265625" customWidth="1"/>
+    <col min="15896" max="15896" width="11.26953125" customWidth="1"/>
+    <col min="15898" max="15898" width="15.7265625" customWidth="1"/>
+    <col min="15899" max="15899" width="40" bestFit="1" customWidth="1"/>
+    <col min="15900" max="15901" width="22.7265625" customWidth="1"/>
+    <col min="16133" max="16133" width="25.7265625" customWidth="1"/>
+    <col min="16134" max="16135" width="20.7265625" customWidth="1"/>
+    <col min="16136" max="16136" width="20.26953125" customWidth="1"/>
+    <col min="16138" max="16138" width="22.7265625" customWidth="1"/>
+    <col min="16139" max="16139" width="15.7265625" customWidth="1"/>
+    <col min="16140" max="16140" width="18.7265625" customWidth="1"/>
+    <col min="16141" max="16142" width="26.54296875" customWidth="1"/>
+    <col min="16143" max="16143" width="15.7265625" customWidth="1"/>
+    <col min="16144" max="16144" width="20.1796875" customWidth="1"/>
+    <col min="16145" max="16146" width="15.7265625" customWidth="1"/>
+    <col min="16147" max="16148" width="12.7265625" customWidth="1"/>
+    <col min="16149" max="16150" width="13.7265625" customWidth="1"/>
+    <col min="16151" max="16151" width="14.7265625" customWidth="1"/>
+    <col min="16152" max="16152" width="11.26953125" customWidth="1"/>
+    <col min="16154" max="16154" width="15.7265625" customWidth="1"/>
+    <col min="16155" max="16155" width="40" bestFit="1" customWidth="1"/>
+    <col min="16156" max="16157" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11097,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -11112,88 +11097,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>1293</v>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1302</v>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -11221,113 +11188,95 @@
       <c r="I2" s="13">
         <v>43901</v>
       </c>
-      <c r="J2" s="81">
-        <v>11</v>
+      <c r="J2" s="10">
+        <v>47553</v>
       </c>
       <c r="K2" s="81" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L2" s="81">
-        <v>2020</v>
+        <v>1293</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="10">
-        <v>47553</v>
+        <v>43901</v>
       </c>
       <c r="N2" s="81">
         <v>11</v>
       </c>
       <c r="O2" s="81" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="P2" s="81">
-        <v>2030</v>
-      </c>
-      <c r="Q2" s="81" t="s">
-        <v>1299</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="10">
-        <v>43901</v>
-      </c>
-      <c r="T2" s="81">
-        <v>11</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>1294</v>
-      </c>
-      <c r="V2" s="81">
         <v>2020</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="12" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="U2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>22031</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>7035805862</v>
+      </c>
       <c r="AA2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>22031</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>7035805862</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
+  <autoFilter ref="A1:AC2" xr:uid="{41A9394E-06AA-4C19-82F4-D9DC6EC9D9CC}"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 JT2 TP2 ADL2 ANH2 AXD2 BGZ2 BQV2 CAR2 CKN2 CUJ2 DEF2 DOB2 DXX2 EHT2 ERP2 FBL2 FLH2 FVD2 GEZ2 GOV2 GYR2 HIN2 HSJ2 ICF2 IMB2 IVX2 JFT2 JPP2 JZL2 KJH2 KTD2 LCZ2 LMV2 LWR2 MGN2 MQJ2 NAF2 NKB2 NTX2 ODT2 ONP2 OXL2 PHH2 PRD2 QAZ2 QKV2 QUR2 REN2 ROJ2 RYF2 SIB2 SRX2 TBT2 TLP2 TVL2 UFH2 UPD2 UYZ2 VIV2 VSR2 WCN2 WMJ2 WWF2 X65439:X65537 JT65439:JT65537 TP65439:TP65537 ADL65439:ADL65537 ANH65439:ANH65537 AXD65439:AXD65537 BGZ65439:BGZ65537 BQV65439:BQV65537 CAR65439:CAR65537 CKN65439:CKN65537 CUJ65439:CUJ65537 DEF65439:DEF65537 DOB65439:DOB65537 DXX65439:DXX65537 EHT65439:EHT65537 ERP65439:ERP65537 FBL65439:FBL65537 FLH65439:FLH65537 FVD65439:FVD65537 GEZ65439:GEZ65537 GOV65439:GOV65537 GYR65439:GYR65537 HIN65439:HIN65537 HSJ65439:HSJ65537 ICF65439:ICF65537 IMB65439:IMB65537 IVX65439:IVX65537 JFT65439:JFT65537 JPP65439:JPP65537 JZL65439:JZL65537 KJH65439:KJH65537 KTD65439:KTD65537 LCZ65439:LCZ65537 LMV65439:LMV65537 LWR65439:LWR65537 MGN65439:MGN65537 MQJ65439:MQJ65537 NAF65439:NAF65537 NKB65439:NKB65537 NTX65439:NTX65537 ODT65439:ODT65537 ONP65439:ONP65537 OXL65439:OXL65537 PHH65439:PHH65537 PRD65439:PRD65537 QAZ65439:QAZ65537 QKV65439:QKV65537 QUR65439:QUR65537 REN65439:REN65537 ROJ65439:ROJ65537 RYF65439:RYF65537 SIB65439:SIB65537 SRX65439:SRX65537 TBT65439:TBT65537 TLP65439:TLP65537 TVL65439:TVL65537 UFH65439:UFH65537 UPD65439:UPD65537 UYZ65439:UYZ65537 VIV65439:VIV65537 VSR65439:VSR65537 WCN65439:WCN65537 WMJ65439:WMJ65537 WWF65439:WWF65537 X130975:X131073 JT130975:JT131073 TP130975:TP131073 ADL130975:ADL131073 ANH130975:ANH131073 AXD130975:AXD131073 BGZ130975:BGZ131073 BQV130975:BQV131073 CAR130975:CAR131073 CKN130975:CKN131073 CUJ130975:CUJ131073 DEF130975:DEF131073 DOB130975:DOB131073 DXX130975:DXX131073 EHT130975:EHT131073 ERP130975:ERP131073 FBL130975:FBL131073 FLH130975:FLH131073 FVD130975:FVD131073 GEZ130975:GEZ131073 GOV130975:GOV131073 GYR130975:GYR131073 HIN130975:HIN131073 HSJ130975:HSJ131073 ICF130975:ICF131073 IMB130975:IMB131073 IVX130975:IVX131073 JFT130975:JFT131073 JPP130975:JPP131073 JZL130975:JZL131073 KJH130975:KJH131073 KTD130975:KTD131073 LCZ130975:LCZ131073 LMV130975:LMV131073 LWR130975:LWR131073 MGN130975:MGN131073 MQJ130975:MQJ131073 NAF130975:NAF131073 NKB130975:NKB131073 NTX130975:NTX131073 ODT130975:ODT131073 ONP130975:ONP131073 OXL130975:OXL131073 PHH130975:PHH131073 PRD130975:PRD131073 QAZ130975:QAZ131073 QKV130975:QKV131073 QUR130975:QUR131073 REN130975:REN131073 ROJ130975:ROJ131073 RYF130975:RYF131073 SIB130975:SIB131073 SRX130975:SRX131073 TBT130975:TBT131073 TLP130975:TLP131073 TVL130975:TVL131073 UFH130975:UFH131073 UPD130975:UPD131073 UYZ130975:UYZ131073 VIV130975:VIV131073 VSR130975:VSR131073 WCN130975:WCN131073 WMJ130975:WMJ131073 WWF130975:WWF131073 X196511:X196609 JT196511:JT196609 TP196511:TP196609 ADL196511:ADL196609 ANH196511:ANH196609 AXD196511:AXD196609 BGZ196511:BGZ196609 BQV196511:BQV196609 CAR196511:CAR196609 CKN196511:CKN196609 CUJ196511:CUJ196609 DEF196511:DEF196609 DOB196511:DOB196609 DXX196511:DXX196609 EHT196511:EHT196609 ERP196511:ERP196609 FBL196511:FBL196609 FLH196511:FLH196609 FVD196511:FVD196609 GEZ196511:GEZ196609 GOV196511:GOV196609 GYR196511:GYR196609 HIN196511:HIN196609 HSJ196511:HSJ196609 ICF196511:ICF196609 IMB196511:IMB196609 IVX196511:IVX196609 JFT196511:JFT196609 JPP196511:JPP196609 JZL196511:JZL196609 KJH196511:KJH196609 KTD196511:KTD196609 LCZ196511:LCZ196609 LMV196511:LMV196609 LWR196511:LWR196609 MGN196511:MGN196609 MQJ196511:MQJ196609 NAF196511:NAF196609 NKB196511:NKB196609 NTX196511:NTX196609 ODT196511:ODT196609 ONP196511:ONP196609 OXL196511:OXL196609 PHH196511:PHH196609 PRD196511:PRD196609 QAZ196511:QAZ196609 QKV196511:QKV196609 QUR196511:QUR196609 REN196511:REN196609 ROJ196511:ROJ196609 RYF196511:RYF196609 SIB196511:SIB196609 SRX196511:SRX196609 TBT196511:TBT196609 TLP196511:TLP196609 TVL196511:TVL196609 UFH196511:UFH196609 UPD196511:UPD196609 UYZ196511:UYZ196609 VIV196511:VIV196609 VSR196511:VSR196609 WCN196511:WCN196609 WMJ196511:WMJ196609 WWF196511:WWF196609 X262047:X262145 JT262047:JT262145 TP262047:TP262145 ADL262047:ADL262145 ANH262047:ANH262145 AXD262047:AXD262145 BGZ262047:BGZ262145 BQV262047:BQV262145 CAR262047:CAR262145 CKN262047:CKN262145 CUJ262047:CUJ262145 DEF262047:DEF262145 DOB262047:DOB262145 DXX262047:DXX262145 EHT262047:EHT262145 ERP262047:ERP262145 FBL262047:FBL262145 FLH262047:FLH262145 FVD262047:FVD262145 GEZ262047:GEZ262145 GOV262047:GOV262145 GYR262047:GYR262145 HIN262047:HIN262145 HSJ262047:HSJ262145 ICF262047:ICF262145 IMB262047:IMB262145 IVX262047:IVX262145 JFT262047:JFT262145 JPP262047:JPP262145 JZL262047:JZL262145 KJH262047:KJH262145 KTD262047:KTD262145 LCZ262047:LCZ262145 LMV262047:LMV262145 LWR262047:LWR262145 MGN262047:MGN262145 MQJ262047:MQJ262145 NAF262047:NAF262145 NKB262047:NKB262145 NTX262047:NTX262145 ODT262047:ODT262145 ONP262047:ONP262145 OXL262047:OXL262145 PHH262047:PHH262145 PRD262047:PRD262145 QAZ262047:QAZ262145 QKV262047:QKV262145 QUR262047:QUR262145 REN262047:REN262145 ROJ262047:ROJ262145 RYF262047:RYF262145 SIB262047:SIB262145 SRX262047:SRX262145 TBT262047:TBT262145 TLP262047:TLP262145 TVL262047:TVL262145 UFH262047:UFH262145 UPD262047:UPD262145 UYZ262047:UYZ262145 VIV262047:VIV262145 VSR262047:VSR262145 WCN262047:WCN262145 WMJ262047:WMJ262145 WWF262047:WWF262145 X327583:X327681 JT327583:JT327681 TP327583:TP327681 ADL327583:ADL327681 ANH327583:ANH327681 AXD327583:AXD327681 BGZ327583:BGZ327681 BQV327583:BQV327681 CAR327583:CAR327681 CKN327583:CKN327681 CUJ327583:CUJ327681 DEF327583:DEF327681 DOB327583:DOB327681 DXX327583:DXX327681 EHT327583:EHT327681 ERP327583:ERP327681 FBL327583:FBL327681 FLH327583:FLH327681 FVD327583:FVD327681 GEZ327583:GEZ327681 GOV327583:GOV327681 GYR327583:GYR327681 HIN327583:HIN327681 HSJ327583:HSJ327681 ICF327583:ICF327681 IMB327583:IMB327681 IVX327583:IVX327681 JFT327583:JFT327681 JPP327583:JPP327681 JZL327583:JZL327681 KJH327583:KJH327681 KTD327583:KTD327681 LCZ327583:LCZ327681 LMV327583:LMV327681 LWR327583:LWR327681 MGN327583:MGN327681 MQJ327583:MQJ327681 NAF327583:NAF327681 NKB327583:NKB327681 NTX327583:NTX327681 ODT327583:ODT327681 ONP327583:ONP327681 OXL327583:OXL327681 PHH327583:PHH327681 PRD327583:PRD327681 QAZ327583:QAZ327681 QKV327583:QKV327681 QUR327583:QUR327681 REN327583:REN327681 ROJ327583:ROJ327681 RYF327583:RYF327681 SIB327583:SIB327681 SRX327583:SRX327681 TBT327583:TBT327681 TLP327583:TLP327681 TVL327583:TVL327681 UFH327583:UFH327681 UPD327583:UPD327681 UYZ327583:UYZ327681 VIV327583:VIV327681 VSR327583:VSR327681 WCN327583:WCN327681 WMJ327583:WMJ327681 WWF327583:WWF327681 X393119:X393217 JT393119:JT393217 TP393119:TP393217 ADL393119:ADL393217 ANH393119:ANH393217 AXD393119:AXD393217 BGZ393119:BGZ393217 BQV393119:BQV393217 CAR393119:CAR393217 CKN393119:CKN393217 CUJ393119:CUJ393217 DEF393119:DEF393217 DOB393119:DOB393217 DXX393119:DXX393217 EHT393119:EHT393217 ERP393119:ERP393217 FBL393119:FBL393217 FLH393119:FLH393217 FVD393119:FVD393217 GEZ393119:GEZ393217 GOV393119:GOV393217 GYR393119:GYR393217 HIN393119:HIN393217 HSJ393119:HSJ393217 ICF393119:ICF393217 IMB393119:IMB393217 IVX393119:IVX393217 JFT393119:JFT393217 JPP393119:JPP393217 JZL393119:JZL393217 KJH393119:KJH393217 KTD393119:KTD393217 LCZ393119:LCZ393217 LMV393119:LMV393217 LWR393119:LWR393217 MGN393119:MGN393217 MQJ393119:MQJ393217 NAF393119:NAF393217 NKB393119:NKB393217 NTX393119:NTX393217 ODT393119:ODT393217 ONP393119:ONP393217 OXL393119:OXL393217 PHH393119:PHH393217 PRD393119:PRD393217 QAZ393119:QAZ393217 QKV393119:QKV393217 QUR393119:QUR393217 REN393119:REN393217 ROJ393119:ROJ393217 RYF393119:RYF393217 SIB393119:SIB393217 SRX393119:SRX393217 TBT393119:TBT393217 TLP393119:TLP393217 TVL393119:TVL393217 UFH393119:UFH393217 UPD393119:UPD393217 UYZ393119:UYZ393217 VIV393119:VIV393217 VSR393119:VSR393217 WCN393119:WCN393217 WMJ393119:WMJ393217 WWF393119:WWF393217 X458655:X458753 JT458655:JT458753 TP458655:TP458753 ADL458655:ADL458753 ANH458655:ANH458753 AXD458655:AXD458753 BGZ458655:BGZ458753 BQV458655:BQV458753 CAR458655:CAR458753 CKN458655:CKN458753 CUJ458655:CUJ458753 DEF458655:DEF458753 DOB458655:DOB458753 DXX458655:DXX458753 EHT458655:EHT458753 ERP458655:ERP458753 FBL458655:FBL458753 FLH458655:FLH458753 FVD458655:FVD458753 GEZ458655:GEZ458753 GOV458655:GOV458753 GYR458655:GYR458753 HIN458655:HIN458753 HSJ458655:HSJ458753 ICF458655:ICF458753 IMB458655:IMB458753 IVX458655:IVX458753 JFT458655:JFT458753 JPP458655:JPP458753 JZL458655:JZL458753 KJH458655:KJH458753 KTD458655:KTD458753 LCZ458655:LCZ458753 LMV458655:LMV458753 LWR458655:LWR458753 MGN458655:MGN458753 MQJ458655:MQJ458753 NAF458655:NAF458753 NKB458655:NKB458753 NTX458655:NTX458753 ODT458655:ODT458753 ONP458655:ONP458753 OXL458655:OXL458753 PHH458655:PHH458753 PRD458655:PRD458753 QAZ458655:QAZ458753 QKV458655:QKV458753 QUR458655:QUR458753 REN458655:REN458753 ROJ458655:ROJ458753 RYF458655:RYF458753 SIB458655:SIB458753 SRX458655:SRX458753 TBT458655:TBT458753 TLP458655:TLP458753 TVL458655:TVL458753 UFH458655:UFH458753 UPD458655:UPD458753 UYZ458655:UYZ458753 VIV458655:VIV458753 VSR458655:VSR458753 WCN458655:WCN458753 WMJ458655:WMJ458753 WWF458655:WWF458753 X524191:X524289 JT524191:JT524289 TP524191:TP524289 ADL524191:ADL524289 ANH524191:ANH524289 AXD524191:AXD524289 BGZ524191:BGZ524289 BQV524191:BQV524289 CAR524191:CAR524289 CKN524191:CKN524289 CUJ524191:CUJ524289 DEF524191:DEF524289 DOB524191:DOB524289 DXX524191:DXX524289 EHT524191:EHT524289 ERP524191:ERP524289 FBL524191:FBL524289 FLH524191:FLH524289 FVD524191:FVD524289 GEZ524191:GEZ524289 GOV524191:GOV524289 GYR524191:GYR524289 HIN524191:HIN524289 HSJ524191:HSJ524289 ICF524191:ICF524289 IMB524191:IMB524289 IVX524191:IVX524289 JFT524191:JFT524289 JPP524191:JPP524289 JZL524191:JZL524289 KJH524191:KJH524289 KTD524191:KTD524289 LCZ524191:LCZ524289 LMV524191:LMV524289 LWR524191:LWR524289 MGN524191:MGN524289 MQJ524191:MQJ524289 NAF524191:NAF524289 NKB524191:NKB524289 NTX524191:NTX524289 ODT524191:ODT524289 ONP524191:ONP524289 OXL524191:OXL524289 PHH524191:PHH524289 PRD524191:PRD524289 QAZ524191:QAZ524289 QKV524191:QKV524289 QUR524191:QUR524289 REN524191:REN524289 ROJ524191:ROJ524289 RYF524191:RYF524289 SIB524191:SIB524289 SRX524191:SRX524289 TBT524191:TBT524289 TLP524191:TLP524289 TVL524191:TVL524289 UFH524191:UFH524289 UPD524191:UPD524289 UYZ524191:UYZ524289 VIV524191:VIV524289 VSR524191:VSR524289 WCN524191:WCN524289 WMJ524191:WMJ524289 WWF524191:WWF524289 X589727:X589825 JT589727:JT589825 TP589727:TP589825 ADL589727:ADL589825 ANH589727:ANH589825 AXD589727:AXD589825 BGZ589727:BGZ589825 BQV589727:BQV589825 CAR589727:CAR589825 CKN589727:CKN589825 CUJ589727:CUJ589825 DEF589727:DEF589825 DOB589727:DOB589825 DXX589727:DXX589825 EHT589727:EHT589825 ERP589727:ERP589825 FBL589727:FBL589825 FLH589727:FLH589825 FVD589727:FVD589825 GEZ589727:GEZ589825 GOV589727:GOV589825 GYR589727:GYR589825 HIN589727:HIN589825 HSJ589727:HSJ589825 ICF589727:ICF589825 IMB589727:IMB589825 IVX589727:IVX589825 JFT589727:JFT589825 JPP589727:JPP589825 JZL589727:JZL589825 KJH589727:KJH589825 KTD589727:KTD589825 LCZ589727:LCZ589825 LMV589727:LMV589825 LWR589727:LWR589825 MGN589727:MGN589825 MQJ589727:MQJ589825 NAF589727:NAF589825 NKB589727:NKB589825 NTX589727:NTX589825 ODT589727:ODT589825 ONP589727:ONP589825 OXL589727:OXL589825 PHH589727:PHH589825 PRD589727:PRD589825 QAZ589727:QAZ589825 QKV589727:QKV589825 QUR589727:QUR589825 REN589727:REN589825 ROJ589727:ROJ589825 RYF589727:RYF589825 SIB589727:SIB589825 SRX589727:SRX589825 TBT589727:TBT589825 TLP589727:TLP589825 TVL589727:TVL589825 UFH589727:UFH589825 UPD589727:UPD589825 UYZ589727:UYZ589825 VIV589727:VIV589825 VSR589727:VSR589825 WCN589727:WCN589825 WMJ589727:WMJ589825 WWF589727:WWF589825 X655263:X655361 JT655263:JT655361 TP655263:TP655361 ADL655263:ADL655361 ANH655263:ANH655361 AXD655263:AXD655361 BGZ655263:BGZ655361 BQV655263:BQV655361 CAR655263:CAR655361 CKN655263:CKN655361 CUJ655263:CUJ655361 DEF655263:DEF655361 DOB655263:DOB655361 DXX655263:DXX655361 EHT655263:EHT655361 ERP655263:ERP655361 FBL655263:FBL655361 FLH655263:FLH655361 FVD655263:FVD655361 GEZ655263:GEZ655361 GOV655263:GOV655361 GYR655263:GYR655361 HIN655263:HIN655361 HSJ655263:HSJ655361 ICF655263:ICF655361 IMB655263:IMB655361 IVX655263:IVX655361 JFT655263:JFT655361 JPP655263:JPP655361 JZL655263:JZL655361 KJH655263:KJH655361 KTD655263:KTD655361 LCZ655263:LCZ655361 LMV655263:LMV655361 LWR655263:LWR655361 MGN655263:MGN655361 MQJ655263:MQJ655361 NAF655263:NAF655361 NKB655263:NKB655361 NTX655263:NTX655361 ODT655263:ODT655361 ONP655263:ONP655361 OXL655263:OXL655361 PHH655263:PHH655361 PRD655263:PRD655361 QAZ655263:QAZ655361 QKV655263:QKV655361 QUR655263:QUR655361 REN655263:REN655361 ROJ655263:ROJ655361 RYF655263:RYF655361 SIB655263:SIB655361 SRX655263:SRX655361 TBT655263:TBT655361 TLP655263:TLP655361 TVL655263:TVL655361 UFH655263:UFH655361 UPD655263:UPD655361 UYZ655263:UYZ655361 VIV655263:VIV655361 VSR655263:VSR655361 WCN655263:WCN655361 WMJ655263:WMJ655361 WWF655263:WWF655361 X720799:X720897 JT720799:JT720897 TP720799:TP720897 ADL720799:ADL720897 ANH720799:ANH720897 AXD720799:AXD720897 BGZ720799:BGZ720897 BQV720799:BQV720897 CAR720799:CAR720897 CKN720799:CKN720897 CUJ720799:CUJ720897 DEF720799:DEF720897 DOB720799:DOB720897 DXX720799:DXX720897 EHT720799:EHT720897 ERP720799:ERP720897 FBL720799:FBL720897 FLH720799:FLH720897 FVD720799:FVD720897 GEZ720799:GEZ720897 GOV720799:GOV720897 GYR720799:GYR720897 HIN720799:HIN720897 HSJ720799:HSJ720897 ICF720799:ICF720897 IMB720799:IMB720897 IVX720799:IVX720897 JFT720799:JFT720897 JPP720799:JPP720897 JZL720799:JZL720897 KJH720799:KJH720897 KTD720799:KTD720897 LCZ720799:LCZ720897 LMV720799:LMV720897 LWR720799:LWR720897 MGN720799:MGN720897 MQJ720799:MQJ720897 NAF720799:NAF720897 NKB720799:NKB720897 NTX720799:NTX720897 ODT720799:ODT720897 ONP720799:ONP720897 OXL720799:OXL720897 PHH720799:PHH720897 PRD720799:PRD720897 QAZ720799:QAZ720897 QKV720799:QKV720897 QUR720799:QUR720897 REN720799:REN720897 ROJ720799:ROJ720897 RYF720799:RYF720897 SIB720799:SIB720897 SRX720799:SRX720897 TBT720799:TBT720897 TLP720799:TLP720897 TVL720799:TVL720897 UFH720799:UFH720897 UPD720799:UPD720897 UYZ720799:UYZ720897 VIV720799:VIV720897 VSR720799:VSR720897 WCN720799:WCN720897 WMJ720799:WMJ720897 WWF720799:WWF720897 X786335:X786433 JT786335:JT786433 TP786335:TP786433 ADL786335:ADL786433 ANH786335:ANH786433 AXD786335:AXD786433 BGZ786335:BGZ786433 BQV786335:BQV786433 CAR786335:CAR786433 CKN786335:CKN786433 CUJ786335:CUJ786433 DEF786335:DEF786433 DOB786335:DOB786433 DXX786335:DXX786433 EHT786335:EHT786433 ERP786335:ERP786433 FBL786335:FBL786433 FLH786335:FLH786433 FVD786335:FVD786433 GEZ786335:GEZ786433 GOV786335:GOV786433 GYR786335:GYR786433 HIN786335:HIN786433 HSJ786335:HSJ786433 ICF786335:ICF786433 IMB786335:IMB786433 IVX786335:IVX786433 JFT786335:JFT786433 JPP786335:JPP786433 JZL786335:JZL786433 KJH786335:KJH786433 KTD786335:KTD786433 LCZ786335:LCZ786433 LMV786335:LMV786433 LWR786335:LWR786433 MGN786335:MGN786433 MQJ786335:MQJ786433 NAF786335:NAF786433 NKB786335:NKB786433 NTX786335:NTX786433 ODT786335:ODT786433 ONP786335:ONP786433 OXL786335:OXL786433 PHH786335:PHH786433 PRD786335:PRD786433 QAZ786335:QAZ786433 QKV786335:QKV786433 QUR786335:QUR786433 REN786335:REN786433 ROJ786335:ROJ786433 RYF786335:RYF786433 SIB786335:SIB786433 SRX786335:SRX786433 TBT786335:TBT786433 TLP786335:TLP786433 TVL786335:TVL786433 UFH786335:UFH786433 UPD786335:UPD786433 UYZ786335:UYZ786433 VIV786335:VIV786433 VSR786335:VSR786433 WCN786335:WCN786433 WMJ786335:WMJ786433 WWF786335:WWF786433 X851871:X851969 JT851871:JT851969 TP851871:TP851969 ADL851871:ADL851969 ANH851871:ANH851969 AXD851871:AXD851969 BGZ851871:BGZ851969 BQV851871:BQV851969 CAR851871:CAR851969 CKN851871:CKN851969 CUJ851871:CUJ851969 DEF851871:DEF851969 DOB851871:DOB851969 DXX851871:DXX851969 EHT851871:EHT851969 ERP851871:ERP851969 FBL851871:FBL851969 FLH851871:FLH851969 FVD851871:FVD851969 GEZ851871:GEZ851969 GOV851871:GOV851969 GYR851871:GYR851969 HIN851871:HIN851969 HSJ851871:HSJ851969 ICF851871:ICF851969 IMB851871:IMB851969 IVX851871:IVX851969 JFT851871:JFT851969 JPP851871:JPP851969 JZL851871:JZL851969 KJH851871:KJH851969 KTD851871:KTD851969 LCZ851871:LCZ851969 LMV851871:LMV851969 LWR851871:LWR851969 MGN851871:MGN851969 MQJ851871:MQJ851969 NAF851871:NAF851969 NKB851871:NKB851969 NTX851871:NTX851969 ODT851871:ODT851969 ONP851871:ONP851969 OXL851871:OXL851969 PHH851871:PHH851969 PRD851871:PRD851969 QAZ851871:QAZ851969 QKV851871:QKV851969 QUR851871:QUR851969 REN851871:REN851969 ROJ851871:ROJ851969 RYF851871:RYF851969 SIB851871:SIB851969 SRX851871:SRX851969 TBT851871:TBT851969 TLP851871:TLP851969 TVL851871:TVL851969 UFH851871:UFH851969 UPD851871:UPD851969 UYZ851871:UYZ851969 VIV851871:VIV851969 VSR851871:VSR851969 WCN851871:WCN851969 WMJ851871:WMJ851969 WWF851871:WWF851969 X917407:X917505 JT917407:JT917505 TP917407:TP917505 ADL917407:ADL917505 ANH917407:ANH917505 AXD917407:AXD917505 BGZ917407:BGZ917505 BQV917407:BQV917505 CAR917407:CAR917505 CKN917407:CKN917505 CUJ917407:CUJ917505 DEF917407:DEF917505 DOB917407:DOB917505 DXX917407:DXX917505 EHT917407:EHT917505 ERP917407:ERP917505 FBL917407:FBL917505 FLH917407:FLH917505 FVD917407:FVD917505 GEZ917407:GEZ917505 GOV917407:GOV917505 GYR917407:GYR917505 HIN917407:HIN917505 HSJ917407:HSJ917505 ICF917407:ICF917505 IMB917407:IMB917505 IVX917407:IVX917505 JFT917407:JFT917505 JPP917407:JPP917505 JZL917407:JZL917505 KJH917407:KJH917505 KTD917407:KTD917505 LCZ917407:LCZ917505 LMV917407:LMV917505 LWR917407:LWR917505 MGN917407:MGN917505 MQJ917407:MQJ917505 NAF917407:NAF917505 NKB917407:NKB917505 NTX917407:NTX917505 ODT917407:ODT917505 ONP917407:ONP917505 OXL917407:OXL917505 PHH917407:PHH917505 PRD917407:PRD917505 QAZ917407:QAZ917505 QKV917407:QKV917505 QUR917407:QUR917505 REN917407:REN917505 ROJ917407:ROJ917505 RYF917407:RYF917505 SIB917407:SIB917505 SRX917407:SRX917505 TBT917407:TBT917505 TLP917407:TLP917505 TVL917407:TVL917505 UFH917407:UFH917505 UPD917407:UPD917505 UYZ917407:UYZ917505 VIV917407:VIV917505 VSR917407:VSR917505 WCN917407:WCN917505 WMJ917407:WMJ917505 WWF917407:WWF917505 X982943:X983041 JT982943:JT983041 TP982943:TP983041 ADL982943:ADL983041 ANH982943:ANH983041 AXD982943:AXD983041 BGZ982943:BGZ983041 BQV982943:BQV983041 CAR982943:CAR983041 CKN982943:CKN983041 CUJ982943:CUJ983041 DEF982943:DEF983041 DOB982943:DOB983041 DXX982943:DXX983041 EHT982943:EHT983041 ERP982943:ERP983041 FBL982943:FBL983041 FLH982943:FLH983041 FVD982943:FVD983041 GEZ982943:GEZ983041 GOV982943:GOV983041 GYR982943:GYR983041 HIN982943:HIN983041 HSJ982943:HSJ983041 ICF982943:ICF983041 IMB982943:IMB983041 IVX982943:IVX983041 JFT982943:JFT983041 JPP982943:JPP983041 JZL982943:JZL983041 KJH982943:KJH983041 KTD982943:KTD983041 LCZ982943:LCZ983041 LMV982943:LMV983041 LWR982943:LWR983041 MGN982943:MGN983041 MQJ982943:MQJ983041 NAF982943:NAF983041 NKB982943:NKB983041 NTX982943:NTX983041 ODT982943:ODT983041 ONP982943:ONP983041 OXL982943:OXL983041 PHH982943:PHH983041 PRD982943:PRD983041 QAZ982943:QAZ983041 QKV982943:QKV983041 QUR982943:QUR983041 REN982943:REN983041 ROJ982943:ROJ983041 RYF982943:RYF983041 SIB982943:SIB983041 SRX982943:SRX983041 TBT982943:TBT983041 TLP982943:TLP983041 TVL982943:TVL983041 UFH982943:UFH983041 UPD982943:UPD983041 UYZ982943:UYZ983041 VIV982943:VIV983041 VSR982943:VSR983041 WCN982943:WCN983041 WMJ982943:WMJ983041 WWF982943:WWF983041" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 JN2 TJ2 ADF2 ANB2 AWX2 BGT2 BQP2 CAL2 CKH2 CUD2 DDZ2 DNV2 DXR2 EHN2 ERJ2 FBF2 FLB2 FUX2 GET2 GOP2 GYL2 HIH2 HSD2 IBZ2 ILV2 IVR2 JFN2 JPJ2 JZF2 KJB2 KSX2 LCT2 LMP2 LWL2 MGH2 MQD2 MZZ2 NJV2 NTR2 ODN2 ONJ2 OXF2 PHB2 PQX2 QAT2 QKP2 QUL2 REH2 ROD2 RXZ2 SHV2 SRR2 TBN2 TLJ2 TVF2 UFB2 UOX2 UYT2 VIP2 VSL2 WCH2 WMD2 WVZ2 R65439:R65537 JN65439:JN65537 TJ65439:TJ65537 ADF65439:ADF65537 ANB65439:ANB65537 AWX65439:AWX65537 BGT65439:BGT65537 BQP65439:BQP65537 CAL65439:CAL65537 CKH65439:CKH65537 CUD65439:CUD65537 DDZ65439:DDZ65537 DNV65439:DNV65537 DXR65439:DXR65537 EHN65439:EHN65537 ERJ65439:ERJ65537 FBF65439:FBF65537 FLB65439:FLB65537 FUX65439:FUX65537 GET65439:GET65537 GOP65439:GOP65537 GYL65439:GYL65537 HIH65439:HIH65537 HSD65439:HSD65537 IBZ65439:IBZ65537 ILV65439:ILV65537 IVR65439:IVR65537 JFN65439:JFN65537 JPJ65439:JPJ65537 JZF65439:JZF65537 KJB65439:KJB65537 KSX65439:KSX65537 LCT65439:LCT65537 LMP65439:LMP65537 LWL65439:LWL65537 MGH65439:MGH65537 MQD65439:MQD65537 MZZ65439:MZZ65537 NJV65439:NJV65537 NTR65439:NTR65537 ODN65439:ODN65537 ONJ65439:ONJ65537 OXF65439:OXF65537 PHB65439:PHB65537 PQX65439:PQX65537 QAT65439:QAT65537 QKP65439:QKP65537 QUL65439:QUL65537 REH65439:REH65537 ROD65439:ROD65537 RXZ65439:RXZ65537 SHV65439:SHV65537 SRR65439:SRR65537 TBN65439:TBN65537 TLJ65439:TLJ65537 TVF65439:TVF65537 UFB65439:UFB65537 UOX65439:UOX65537 UYT65439:UYT65537 VIP65439:VIP65537 VSL65439:VSL65537 WCH65439:WCH65537 WMD65439:WMD65537 WVZ65439:WVZ65537 R130975:R131073 JN130975:JN131073 TJ130975:TJ131073 ADF130975:ADF131073 ANB130975:ANB131073 AWX130975:AWX131073 BGT130975:BGT131073 BQP130975:BQP131073 CAL130975:CAL131073 CKH130975:CKH131073 CUD130975:CUD131073 DDZ130975:DDZ131073 DNV130975:DNV131073 DXR130975:DXR131073 EHN130975:EHN131073 ERJ130975:ERJ131073 FBF130975:FBF131073 FLB130975:FLB131073 FUX130975:FUX131073 GET130975:GET131073 GOP130975:GOP131073 GYL130975:GYL131073 HIH130975:HIH131073 HSD130975:HSD131073 IBZ130975:IBZ131073 ILV130975:ILV131073 IVR130975:IVR131073 JFN130975:JFN131073 JPJ130975:JPJ131073 JZF130975:JZF131073 KJB130975:KJB131073 KSX130975:KSX131073 LCT130975:LCT131073 LMP130975:LMP131073 LWL130975:LWL131073 MGH130975:MGH131073 MQD130975:MQD131073 MZZ130975:MZZ131073 NJV130975:NJV131073 NTR130975:NTR131073 ODN130975:ODN131073 ONJ130975:ONJ131073 OXF130975:OXF131073 PHB130975:PHB131073 PQX130975:PQX131073 QAT130975:QAT131073 QKP130975:QKP131073 QUL130975:QUL131073 REH130975:REH131073 ROD130975:ROD131073 RXZ130975:RXZ131073 SHV130975:SHV131073 SRR130975:SRR131073 TBN130975:TBN131073 TLJ130975:TLJ131073 TVF130975:TVF131073 UFB130975:UFB131073 UOX130975:UOX131073 UYT130975:UYT131073 VIP130975:VIP131073 VSL130975:VSL131073 WCH130975:WCH131073 WMD130975:WMD131073 WVZ130975:WVZ131073 R196511:R196609 JN196511:JN196609 TJ196511:TJ196609 ADF196511:ADF196609 ANB196511:ANB196609 AWX196511:AWX196609 BGT196511:BGT196609 BQP196511:BQP196609 CAL196511:CAL196609 CKH196511:CKH196609 CUD196511:CUD196609 DDZ196511:DDZ196609 DNV196511:DNV196609 DXR196511:DXR196609 EHN196511:EHN196609 ERJ196511:ERJ196609 FBF196511:FBF196609 FLB196511:FLB196609 FUX196511:FUX196609 GET196511:GET196609 GOP196511:GOP196609 GYL196511:GYL196609 HIH196511:HIH196609 HSD196511:HSD196609 IBZ196511:IBZ196609 ILV196511:ILV196609 IVR196511:IVR196609 JFN196511:JFN196609 JPJ196511:JPJ196609 JZF196511:JZF196609 KJB196511:KJB196609 KSX196511:KSX196609 LCT196511:LCT196609 LMP196511:LMP196609 LWL196511:LWL196609 MGH196511:MGH196609 MQD196511:MQD196609 MZZ196511:MZZ196609 NJV196511:NJV196609 NTR196511:NTR196609 ODN196511:ODN196609 ONJ196511:ONJ196609 OXF196511:OXF196609 PHB196511:PHB196609 PQX196511:PQX196609 QAT196511:QAT196609 QKP196511:QKP196609 QUL196511:QUL196609 REH196511:REH196609 ROD196511:ROD196609 RXZ196511:RXZ196609 SHV196511:SHV196609 SRR196511:SRR196609 TBN196511:TBN196609 TLJ196511:TLJ196609 TVF196511:TVF196609 UFB196511:UFB196609 UOX196511:UOX196609 UYT196511:UYT196609 VIP196511:VIP196609 VSL196511:VSL196609 WCH196511:WCH196609 WMD196511:WMD196609 WVZ196511:WVZ196609 R262047:R262145 JN262047:JN262145 TJ262047:TJ262145 ADF262047:ADF262145 ANB262047:ANB262145 AWX262047:AWX262145 BGT262047:BGT262145 BQP262047:BQP262145 CAL262047:CAL262145 CKH262047:CKH262145 CUD262047:CUD262145 DDZ262047:DDZ262145 DNV262047:DNV262145 DXR262047:DXR262145 EHN262047:EHN262145 ERJ262047:ERJ262145 FBF262047:FBF262145 FLB262047:FLB262145 FUX262047:FUX262145 GET262047:GET262145 GOP262047:GOP262145 GYL262047:GYL262145 HIH262047:HIH262145 HSD262047:HSD262145 IBZ262047:IBZ262145 ILV262047:ILV262145 IVR262047:IVR262145 JFN262047:JFN262145 JPJ262047:JPJ262145 JZF262047:JZF262145 KJB262047:KJB262145 KSX262047:KSX262145 LCT262047:LCT262145 LMP262047:LMP262145 LWL262047:LWL262145 MGH262047:MGH262145 MQD262047:MQD262145 MZZ262047:MZZ262145 NJV262047:NJV262145 NTR262047:NTR262145 ODN262047:ODN262145 ONJ262047:ONJ262145 OXF262047:OXF262145 PHB262047:PHB262145 PQX262047:PQX262145 QAT262047:QAT262145 QKP262047:QKP262145 QUL262047:QUL262145 REH262047:REH262145 ROD262047:ROD262145 RXZ262047:RXZ262145 SHV262047:SHV262145 SRR262047:SRR262145 TBN262047:TBN262145 TLJ262047:TLJ262145 TVF262047:TVF262145 UFB262047:UFB262145 UOX262047:UOX262145 UYT262047:UYT262145 VIP262047:VIP262145 VSL262047:VSL262145 WCH262047:WCH262145 WMD262047:WMD262145 WVZ262047:WVZ262145 R327583:R327681 JN327583:JN327681 TJ327583:TJ327681 ADF327583:ADF327681 ANB327583:ANB327681 AWX327583:AWX327681 BGT327583:BGT327681 BQP327583:BQP327681 CAL327583:CAL327681 CKH327583:CKH327681 CUD327583:CUD327681 DDZ327583:DDZ327681 DNV327583:DNV327681 DXR327583:DXR327681 EHN327583:EHN327681 ERJ327583:ERJ327681 FBF327583:FBF327681 FLB327583:FLB327681 FUX327583:FUX327681 GET327583:GET327681 GOP327583:GOP327681 GYL327583:GYL327681 HIH327583:HIH327681 HSD327583:HSD327681 IBZ327583:IBZ327681 ILV327583:ILV327681 IVR327583:IVR327681 JFN327583:JFN327681 JPJ327583:JPJ327681 JZF327583:JZF327681 KJB327583:KJB327681 KSX327583:KSX327681 LCT327583:LCT327681 LMP327583:LMP327681 LWL327583:LWL327681 MGH327583:MGH327681 MQD327583:MQD327681 MZZ327583:MZZ327681 NJV327583:NJV327681 NTR327583:NTR327681 ODN327583:ODN327681 ONJ327583:ONJ327681 OXF327583:OXF327681 PHB327583:PHB327681 PQX327583:PQX327681 QAT327583:QAT327681 QKP327583:QKP327681 QUL327583:QUL327681 REH327583:REH327681 ROD327583:ROD327681 RXZ327583:RXZ327681 SHV327583:SHV327681 SRR327583:SRR327681 TBN327583:TBN327681 TLJ327583:TLJ327681 TVF327583:TVF327681 UFB327583:UFB327681 UOX327583:UOX327681 UYT327583:UYT327681 VIP327583:VIP327681 VSL327583:VSL327681 WCH327583:WCH327681 WMD327583:WMD327681 WVZ327583:WVZ327681 R393119:R393217 JN393119:JN393217 TJ393119:TJ393217 ADF393119:ADF393217 ANB393119:ANB393217 AWX393119:AWX393217 BGT393119:BGT393217 BQP393119:BQP393217 CAL393119:CAL393217 CKH393119:CKH393217 CUD393119:CUD393217 DDZ393119:DDZ393217 DNV393119:DNV393217 DXR393119:DXR393217 EHN393119:EHN393217 ERJ393119:ERJ393217 FBF393119:FBF393217 FLB393119:FLB393217 FUX393119:FUX393217 GET393119:GET393217 GOP393119:GOP393217 GYL393119:GYL393217 HIH393119:HIH393217 HSD393119:HSD393217 IBZ393119:IBZ393217 ILV393119:ILV393217 IVR393119:IVR393217 JFN393119:JFN393217 JPJ393119:JPJ393217 JZF393119:JZF393217 KJB393119:KJB393217 KSX393119:KSX393217 LCT393119:LCT393217 LMP393119:LMP393217 LWL393119:LWL393217 MGH393119:MGH393217 MQD393119:MQD393217 MZZ393119:MZZ393217 NJV393119:NJV393217 NTR393119:NTR393217 ODN393119:ODN393217 ONJ393119:ONJ393217 OXF393119:OXF393217 PHB393119:PHB393217 PQX393119:PQX393217 QAT393119:QAT393217 QKP393119:QKP393217 QUL393119:QUL393217 REH393119:REH393217 ROD393119:ROD393217 RXZ393119:RXZ393217 SHV393119:SHV393217 SRR393119:SRR393217 TBN393119:TBN393217 TLJ393119:TLJ393217 TVF393119:TVF393217 UFB393119:UFB393217 UOX393119:UOX393217 UYT393119:UYT393217 VIP393119:VIP393217 VSL393119:VSL393217 WCH393119:WCH393217 WMD393119:WMD393217 WVZ393119:WVZ393217 R458655:R458753 JN458655:JN458753 TJ458655:TJ458753 ADF458655:ADF458753 ANB458655:ANB458753 AWX458655:AWX458753 BGT458655:BGT458753 BQP458655:BQP458753 CAL458655:CAL458753 CKH458655:CKH458753 CUD458655:CUD458753 DDZ458655:DDZ458753 DNV458655:DNV458753 DXR458655:DXR458753 EHN458655:EHN458753 ERJ458655:ERJ458753 FBF458655:FBF458753 FLB458655:FLB458753 FUX458655:FUX458753 GET458655:GET458753 GOP458655:GOP458753 GYL458655:GYL458753 HIH458655:HIH458753 HSD458655:HSD458753 IBZ458655:IBZ458753 ILV458655:ILV458753 IVR458655:IVR458753 JFN458655:JFN458753 JPJ458655:JPJ458753 JZF458655:JZF458753 KJB458655:KJB458753 KSX458655:KSX458753 LCT458655:LCT458753 LMP458655:LMP458753 LWL458655:LWL458753 MGH458655:MGH458753 MQD458655:MQD458753 MZZ458655:MZZ458753 NJV458655:NJV458753 NTR458655:NTR458753 ODN458655:ODN458753 ONJ458655:ONJ458753 OXF458655:OXF458753 PHB458655:PHB458753 PQX458655:PQX458753 QAT458655:QAT458753 QKP458655:QKP458753 QUL458655:QUL458753 REH458655:REH458753 ROD458655:ROD458753 RXZ458655:RXZ458753 SHV458655:SHV458753 SRR458655:SRR458753 TBN458655:TBN458753 TLJ458655:TLJ458753 TVF458655:TVF458753 UFB458655:UFB458753 UOX458655:UOX458753 UYT458655:UYT458753 VIP458655:VIP458753 VSL458655:VSL458753 WCH458655:WCH458753 WMD458655:WMD458753 WVZ458655:WVZ458753 R524191:R524289 JN524191:JN524289 TJ524191:TJ524289 ADF524191:ADF524289 ANB524191:ANB524289 AWX524191:AWX524289 BGT524191:BGT524289 BQP524191:BQP524289 CAL524191:CAL524289 CKH524191:CKH524289 CUD524191:CUD524289 DDZ524191:DDZ524289 DNV524191:DNV524289 DXR524191:DXR524289 EHN524191:EHN524289 ERJ524191:ERJ524289 FBF524191:FBF524289 FLB524191:FLB524289 FUX524191:FUX524289 GET524191:GET524289 GOP524191:GOP524289 GYL524191:GYL524289 HIH524191:HIH524289 HSD524191:HSD524289 IBZ524191:IBZ524289 ILV524191:ILV524289 IVR524191:IVR524289 JFN524191:JFN524289 JPJ524191:JPJ524289 JZF524191:JZF524289 KJB524191:KJB524289 KSX524191:KSX524289 LCT524191:LCT524289 LMP524191:LMP524289 LWL524191:LWL524289 MGH524191:MGH524289 MQD524191:MQD524289 MZZ524191:MZZ524289 NJV524191:NJV524289 NTR524191:NTR524289 ODN524191:ODN524289 ONJ524191:ONJ524289 OXF524191:OXF524289 PHB524191:PHB524289 PQX524191:PQX524289 QAT524191:QAT524289 QKP524191:QKP524289 QUL524191:QUL524289 REH524191:REH524289 ROD524191:ROD524289 RXZ524191:RXZ524289 SHV524191:SHV524289 SRR524191:SRR524289 TBN524191:TBN524289 TLJ524191:TLJ524289 TVF524191:TVF524289 UFB524191:UFB524289 UOX524191:UOX524289 UYT524191:UYT524289 VIP524191:VIP524289 VSL524191:VSL524289 WCH524191:WCH524289 WMD524191:WMD524289 WVZ524191:WVZ524289 R589727:R589825 JN589727:JN589825 TJ589727:TJ589825 ADF589727:ADF589825 ANB589727:ANB589825 AWX589727:AWX589825 BGT589727:BGT589825 BQP589727:BQP589825 CAL589727:CAL589825 CKH589727:CKH589825 CUD589727:CUD589825 DDZ589727:DDZ589825 DNV589727:DNV589825 DXR589727:DXR589825 EHN589727:EHN589825 ERJ589727:ERJ589825 FBF589727:FBF589825 FLB589727:FLB589825 FUX589727:FUX589825 GET589727:GET589825 GOP589727:GOP589825 GYL589727:GYL589825 HIH589727:HIH589825 HSD589727:HSD589825 IBZ589727:IBZ589825 ILV589727:ILV589825 IVR589727:IVR589825 JFN589727:JFN589825 JPJ589727:JPJ589825 JZF589727:JZF589825 KJB589727:KJB589825 KSX589727:KSX589825 LCT589727:LCT589825 LMP589727:LMP589825 LWL589727:LWL589825 MGH589727:MGH589825 MQD589727:MQD589825 MZZ589727:MZZ589825 NJV589727:NJV589825 NTR589727:NTR589825 ODN589727:ODN589825 ONJ589727:ONJ589825 OXF589727:OXF589825 PHB589727:PHB589825 PQX589727:PQX589825 QAT589727:QAT589825 QKP589727:QKP589825 QUL589727:QUL589825 REH589727:REH589825 ROD589727:ROD589825 RXZ589727:RXZ589825 SHV589727:SHV589825 SRR589727:SRR589825 TBN589727:TBN589825 TLJ589727:TLJ589825 TVF589727:TVF589825 UFB589727:UFB589825 UOX589727:UOX589825 UYT589727:UYT589825 VIP589727:VIP589825 VSL589727:VSL589825 WCH589727:WCH589825 WMD589727:WMD589825 WVZ589727:WVZ589825 R655263:R655361 JN655263:JN655361 TJ655263:TJ655361 ADF655263:ADF655361 ANB655263:ANB655361 AWX655263:AWX655361 BGT655263:BGT655361 BQP655263:BQP655361 CAL655263:CAL655361 CKH655263:CKH655361 CUD655263:CUD655361 DDZ655263:DDZ655361 DNV655263:DNV655361 DXR655263:DXR655361 EHN655263:EHN655361 ERJ655263:ERJ655361 FBF655263:FBF655361 FLB655263:FLB655361 FUX655263:FUX655361 GET655263:GET655361 GOP655263:GOP655361 GYL655263:GYL655361 HIH655263:HIH655361 HSD655263:HSD655361 IBZ655263:IBZ655361 ILV655263:ILV655361 IVR655263:IVR655361 JFN655263:JFN655361 JPJ655263:JPJ655361 JZF655263:JZF655361 KJB655263:KJB655361 KSX655263:KSX655361 LCT655263:LCT655361 LMP655263:LMP655361 LWL655263:LWL655361 MGH655263:MGH655361 MQD655263:MQD655361 MZZ655263:MZZ655361 NJV655263:NJV655361 NTR655263:NTR655361 ODN655263:ODN655361 ONJ655263:ONJ655361 OXF655263:OXF655361 PHB655263:PHB655361 PQX655263:PQX655361 QAT655263:QAT655361 QKP655263:QKP655361 QUL655263:QUL655361 REH655263:REH655361 ROD655263:ROD655361 RXZ655263:RXZ655361 SHV655263:SHV655361 SRR655263:SRR655361 TBN655263:TBN655361 TLJ655263:TLJ655361 TVF655263:TVF655361 UFB655263:UFB655361 UOX655263:UOX655361 UYT655263:UYT655361 VIP655263:VIP655361 VSL655263:VSL655361 WCH655263:WCH655361 WMD655263:WMD655361 WVZ655263:WVZ655361 R720799:R720897 JN720799:JN720897 TJ720799:TJ720897 ADF720799:ADF720897 ANB720799:ANB720897 AWX720799:AWX720897 BGT720799:BGT720897 BQP720799:BQP720897 CAL720799:CAL720897 CKH720799:CKH720897 CUD720799:CUD720897 DDZ720799:DDZ720897 DNV720799:DNV720897 DXR720799:DXR720897 EHN720799:EHN720897 ERJ720799:ERJ720897 FBF720799:FBF720897 FLB720799:FLB720897 FUX720799:FUX720897 GET720799:GET720897 GOP720799:GOP720897 GYL720799:GYL720897 HIH720799:HIH720897 HSD720799:HSD720897 IBZ720799:IBZ720897 ILV720799:ILV720897 IVR720799:IVR720897 JFN720799:JFN720897 JPJ720799:JPJ720897 JZF720799:JZF720897 KJB720799:KJB720897 KSX720799:KSX720897 LCT720799:LCT720897 LMP720799:LMP720897 LWL720799:LWL720897 MGH720799:MGH720897 MQD720799:MQD720897 MZZ720799:MZZ720897 NJV720799:NJV720897 NTR720799:NTR720897 ODN720799:ODN720897 ONJ720799:ONJ720897 OXF720799:OXF720897 PHB720799:PHB720897 PQX720799:PQX720897 QAT720799:QAT720897 QKP720799:QKP720897 QUL720799:QUL720897 REH720799:REH720897 ROD720799:ROD720897 RXZ720799:RXZ720897 SHV720799:SHV720897 SRR720799:SRR720897 TBN720799:TBN720897 TLJ720799:TLJ720897 TVF720799:TVF720897 UFB720799:UFB720897 UOX720799:UOX720897 UYT720799:UYT720897 VIP720799:VIP720897 VSL720799:VSL720897 WCH720799:WCH720897 WMD720799:WMD720897 WVZ720799:WVZ720897 R786335:R786433 JN786335:JN786433 TJ786335:TJ786433 ADF786335:ADF786433 ANB786335:ANB786433 AWX786335:AWX786433 BGT786335:BGT786433 BQP786335:BQP786433 CAL786335:CAL786433 CKH786335:CKH786433 CUD786335:CUD786433 DDZ786335:DDZ786433 DNV786335:DNV786433 DXR786335:DXR786433 EHN786335:EHN786433 ERJ786335:ERJ786433 FBF786335:FBF786433 FLB786335:FLB786433 FUX786335:FUX786433 GET786335:GET786433 GOP786335:GOP786433 GYL786335:GYL786433 HIH786335:HIH786433 HSD786335:HSD786433 IBZ786335:IBZ786433 ILV786335:ILV786433 IVR786335:IVR786433 JFN786335:JFN786433 JPJ786335:JPJ786433 JZF786335:JZF786433 KJB786335:KJB786433 KSX786335:KSX786433 LCT786335:LCT786433 LMP786335:LMP786433 LWL786335:LWL786433 MGH786335:MGH786433 MQD786335:MQD786433 MZZ786335:MZZ786433 NJV786335:NJV786433 NTR786335:NTR786433 ODN786335:ODN786433 ONJ786335:ONJ786433 OXF786335:OXF786433 PHB786335:PHB786433 PQX786335:PQX786433 QAT786335:QAT786433 QKP786335:QKP786433 QUL786335:QUL786433 REH786335:REH786433 ROD786335:ROD786433 RXZ786335:RXZ786433 SHV786335:SHV786433 SRR786335:SRR786433 TBN786335:TBN786433 TLJ786335:TLJ786433 TVF786335:TVF786433 UFB786335:UFB786433 UOX786335:UOX786433 UYT786335:UYT786433 VIP786335:VIP786433 VSL786335:VSL786433 WCH786335:WCH786433 WMD786335:WMD786433 WVZ786335:WVZ786433 R851871:R851969 JN851871:JN851969 TJ851871:TJ851969 ADF851871:ADF851969 ANB851871:ANB851969 AWX851871:AWX851969 BGT851871:BGT851969 BQP851871:BQP851969 CAL851871:CAL851969 CKH851871:CKH851969 CUD851871:CUD851969 DDZ851871:DDZ851969 DNV851871:DNV851969 DXR851871:DXR851969 EHN851871:EHN851969 ERJ851871:ERJ851969 FBF851871:FBF851969 FLB851871:FLB851969 FUX851871:FUX851969 GET851871:GET851969 GOP851871:GOP851969 GYL851871:GYL851969 HIH851871:HIH851969 HSD851871:HSD851969 IBZ851871:IBZ851969 ILV851871:ILV851969 IVR851871:IVR851969 JFN851871:JFN851969 JPJ851871:JPJ851969 JZF851871:JZF851969 KJB851871:KJB851969 KSX851871:KSX851969 LCT851871:LCT851969 LMP851871:LMP851969 LWL851871:LWL851969 MGH851871:MGH851969 MQD851871:MQD851969 MZZ851871:MZZ851969 NJV851871:NJV851969 NTR851871:NTR851969 ODN851871:ODN851969 ONJ851871:ONJ851969 OXF851871:OXF851969 PHB851871:PHB851969 PQX851871:PQX851969 QAT851871:QAT851969 QKP851871:QKP851969 QUL851871:QUL851969 REH851871:REH851969 ROD851871:ROD851969 RXZ851871:RXZ851969 SHV851871:SHV851969 SRR851871:SRR851969 TBN851871:TBN851969 TLJ851871:TLJ851969 TVF851871:TVF851969 UFB851871:UFB851969 UOX851871:UOX851969 UYT851871:UYT851969 VIP851871:VIP851969 VSL851871:VSL851969 WCH851871:WCH851969 WMD851871:WMD851969 WVZ851871:WVZ851969 R917407:R917505 JN917407:JN917505 TJ917407:TJ917505 ADF917407:ADF917505 ANB917407:ANB917505 AWX917407:AWX917505 BGT917407:BGT917505 BQP917407:BQP917505 CAL917407:CAL917505 CKH917407:CKH917505 CUD917407:CUD917505 DDZ917407:DDZ917505 DNV917407:DNV917505 DXR917407:DXR917505 EHN917407:EHN917505 ERJ917407:ERJ917505 FBF917407:FBF917505 FLB917407:FLB917505 FUX917407:FUX917505 GET917407:GET917505 GOP917407:GOP917505 GYL917407:GYL917505 HIH917407:HIH917505 HSD917407:HSD917505 IBZ917407:IBZ917505 ILV917407:ILV917505 IVR917407:IVR917505 JFN917407:JFN917505 JPJ917407:JPJ917505 JZF917407:JZF917505 KJB917407:KJB917505 KSX917407:KSX917505 LCT917407:LCT917505 LMP917407:LMP917505 LWL917407:LWL917505 MGH917407:MGH917505 MQD917407:MQD917505 MZZ917407:MZZ917505 NJV917407:NJV917505 NTR917407:NTR917505 ODN917407:ODN917505 ONJ917407:ONJ917505 OXF917407:OXF917505 PHB917407:PHB917505 PQX917407:PQX917505 QAT917407:QAT917505 QKP917407:QKP917505 QUL917407:QUL917505 REH917407:REH917505 ROD917407:ROD917505 RXZ917407:RXZ917505 SHV917407:SHV917505 SRR917407:SRR917505 TBN917407:TBN917505 TLJ917407:TLJ917505 TVF917407:TVF917505 UFB917407:UFB917505 UOX917407:UOX917505 UYT917407:UYT917505 VIP917407:VIP917505 VSL917407:VSL917505 WCH917407:WCH917505 WMD917407:WMD917505 WVZ917407:WVZ917505 R982943:R983041 JN982943:JN983041 TJ982943:TJ983041 ADF982943:ADF983041 ANB982943:ANB983041 AWX982943:AWX983041 BGT982943:BGT983041 BQP982943:BQP983041 CAL982943:CAL983041 CKH982943:CKH983041 CUD982943:CUD983041 DDZ982943:DDZ983041 DNV982943:DNV983041 DXR982943:DXR983041 EHN982943:EHN983041 ERJ982943:ERJ983041 FBF982943:FBF983041 FLB982943:FLB983041 FUX982943:FUX983041 GET982943:GET983041 GOP982943:GOP983041 GYL982943:GYL983041 HIH982943:HIH983041 HSD982943:HSD983041 IBZ982943:IBZ983041 ILV982943:ILV983041 IVR982943:IVR983041 JFN982943:JFN983041 JPJ982943:JPJ983041 JZF982943:JZF983041 KJB982943:KJB983041 KSX982943:KSX983041 LCT982943:LCT983041 LMP982943:LMP983041 LWL982943:LWL983041 MGH982943:MGH983041 MQD982943:MQD983041 MZZ982943:MZZ983041 NJV982943:NJV983041 NTR982943:NTR983041 ODN982943:ODN983041 ONJ982943:ONJ983041 OXF982943:OXF983041 PHB982943:PHB983041 PQX982943:PQX983041 QAT982943:QAT983041 QKP982943:QKP983041 QUL982943:QUL983041 REH982943:REH983041 ROD982943:ROD983041 RXZ982943:RXZ983041 SHV982943:SHV983041 SRR982943:SRR983041 TBN982943:TBN983041 TLJ982943:TLJ983041 TVF982943:TVF983041 UFB982943:UFB983041 UOX982943:UOX983041 UYT982943:UYT983041 VIP982943:VIP983041 VSL982943:VSL983041 WCH982943:WCH983041 WMD982943:WMD983041 WVZ982943:WVZ983041" xr:uid="{307F2DF2-AF81-4388-954A-4A5F3D2F16E3}">
       <formula1>0</formula1>
       <formula2>11</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 JQ2 TM2 ADI2 ANE2 AXA2 BGW2 BQS2 CAO2 CKK2 CUG2 DEC2 DNY2 DXU2 EHQ2 ERM2 FBI2 FLE2 FVA2 GEW2 GOS2 GYO2 HIK2 HSG2 ICC2 ILY2 IVU2 JFQ2 JPM2 JZI2 KJE2 KTA2 LCW2 LMS2 LWO2 MGK2 MQG2 NAC2 NJY2 NTU2 ODQ2 ONM2 OXI2 PHE2 PRA2 QAW2 QKS2 QUO2 REK2 ROG2 RYC2 SHY2 SRU2 TBQ2 TLM2 TVI2 UFE2 UPA2 UYW2 VIS2 VSO2 WCK2 WMG2 WWC2 R65439:R65537 JQ65439:JQ65537 TM65439:TM65537 ADI65439:ADI65537 ANE65439:ANE65537 AXA65439:AXA65537 BGW65439:BGW65537 BQS65439:BQS65537 CAO65439:CAO65537 CKK65439:CKK65537 CUG65439:CUG65537 DEC65439:DEC65537 DNY65439:DNY65537 DXU65439:DXU65537 EHQ65439:EHQ65537 ERM65439:ERM65537 FBI65439:FBI65537 FLE65439:FLE65537 FVA65439:FVA65537 GEW65439:GEW65537 GOS65439:GOS65537 GYO65439:GYO65537 HIK65439:HIK65537 HSG65439:HSG65537 ICC65439:ICC65537 ILY65439:ILY65537 IVU65439:IVU65537 JFQ65439:JFQ65537 JPM65439:JPM65537 JZI65439:JZI65537 KJE65439:KJE65537 KTA65439:KTA65537 LCW65439:LCW65537 LMS65439:LMS65537 LWO65439:LWO65537 MGK65439:MGK65537 MQG65439:MQG65537 NAC65439:NAC65537 NJY65439:NJY65537 NTU65439:NTU65537 ODQ65439:ODQ65537 ONM65439:ONM65537 OXI65439:OXI65537 PHE65439:PHE65537 PRA65439:PRA65537 QAW65439:QAW65537 QKS65439:QKS65537 QUO65439:QUO65537 REK65439:REK65537 ROG65439:ROG65537 RYC65439:RYC65537 SHY65439:SHY65537 SRU65439:SRU65537 TBQ65439:TBQ65537 TLM65439:TLM65537 TVI65439:TVI65537 UFE65439:UFE65537 UPA65439:UPA65537 UYW65439:UYW65537 VIS65439:VIS65537 VSO65439:VSO65537 WCK65439:WCK65537 WMG65439:WMG65537 WWC65439:WWC65537 R130975:R131073 JQ130975:JQ131073 TM130975:TM131073 ADI130975:ADI131073 ANE130975:ANE131073 AXA130975:AXA131073 BGW130975:BGW131073 BQS130975:BQS131073 CAO130975:CAO131073 CKK130975:CKK131073 CUG130975:CUG131073 DEC130975:DEC131073 DNY130975:DNY131073 DXU130975:DXU131073 EHQ130975:EHQ131073 ERM130975:ERM131073 FBI130975:FBI131073 FLE130975:FLE131073 FVA130975:FVA131073 GEW130975:GEW131073 GOS130975:GOS131073 GYO130975:GYO131073 HIK130975:HIK131073 HSG130975:HSG131073 ICC130975:ICC131073 ILY130975:ILY131073 IVU130975:IVU131073 JFQ130975:JFQ131073 JPM130975:JPM131073 JZI130975:JZI131073 KJE130975:KJE131073 KTA130975:KTA131073 LCW130975:LCW131073 LMS130975:LMS131073 LWO130975:LWO131073 MGK130975:MGK131073 MQG130975:MQG131073 NAC130975:NAC131073 NJY130975:NJY131073 NTU130975:NTU131073 ODQ130975:ODQ131073 ONM130975:ONM131073 OXI130975:OXI131073 PHE130975:PHE131073 PRA130975:PRA131073 QAW130975:QAW131073 QKS130975:QKS131073 QUO130975:QUO131073 REK130975:REK131073 ROG130975:ROG131073 RYC130975:RYC131073 SHY130975:SHY131073 SRU130975:SRU131073 TBQ130975:TBQ131073 TLM130975:TLM131073 TVI130975:TVI131073 UFE130975:UFE131073 UPA130975:UPA131073 UYW130975:UYW131073 VIS130975:VIS131073 VSO130975:VSO131073 WCK130975:WCK131073 WMG130975:WMG131073 WWC130975:WWC131073 R196511:R196609 JQ196511:JQ196609 TM196511:TM196609 ADI196511:ADI196609 ANE196511:ANE196609 AXA196511:AXA196609 BGW196511:BGW196609 BQS196511:BQS196609 CAO196511:CAO196609 CKK196511:CKK196609 CUG196511:CUG196609 DEC196511:DEC196609 DNY196511:DNY196609 DXU196511:DXU196609 EHQ196511:EHQ196609 ERM196511:ERM196609 FBI196511:FBI196609 FLE196511:FLE196609 FVA196511:FVA196609 GEW196511:GEW196609 GOS196511:GOS196609 GYO196511:GYO196609 HIK196511:HIK196609 HSG196511:HSG196609 ICC196511:ICC196609 ILY196511:ILY196609 IVU196511:IVU196609 JFQ196511:JFQ196609 JPM196511:JPM196609 JZI196511:JZI196609 KJE196511:KJE196609 KTA196511:KTA196609 LCW196511:LCW196609 LMS196511:LMS196609 LWO196511:LWO196609 MGK196511:MGK196609 MQG196511:MQG196609 NAC196511:NAC196609 NJY196511:NJY196609 NTU196511:NTU196609 ODQ196511:ODQ196609 ONM196511:ONM196609 OXI196511:OXI196609 PHE196511:PHE196609 PRA196511:PRA196609 QAW196511:QAW196609 QKS196511:QKS196609 QUO196511:QUO196609 REK196511:REK196609 ROG196511:ROG196609 RYC196511:RYC196609 SHY196511:SHY196609 SRU196511:SRU196609 TBQ196511:TBQ196609 TLM196511:TLM196609 TVI196511:TVI196609 UFE196511:UFE196609 UPA196511:UPA196609 UYW196511:UYW196609 VIS196511:VIS196609 VSO196511:VSO196609 WCK196511:WCK196609 WMG196511:WMG196609 WWC196511:WWC196609 R262047:R262145 JQ262047:JQ262145 TM262047:TM262145 ADI262047:ADI262145 ANE262047:ANE262145 AXA262047:AXA262145 BGW262047:BGW262145 BQS262047:BQS262145 CAO262047:CAO262145 CKK262047:CKK262145 CUG262047:CUG262145 DEC262047:DEC262145 DNY262047:DNY262145 DXU262047:DXU262145 EHQ262047:EHQ262145 ERM262047:ERM262145 FBI262047:FBI262145 FLE262047:FLE262145 FVA262047:FVA262145 GEW262047:GEW262145 GOS262047:GOS262145 GYO262047:GYO262145 HIK262047:HIK262145 HSG262047:HSG262145 ICC262047:ICC262145 ILY262047:ILY262145 IVU262047:IVU262145 JFQ262047:JFQ262145 JPM262047:JPM262145 JZI262047:JZI262145 KJE262047:KJE262145 KTA262047:KTA262145 LCW262047:LCW262145 LMS262047:LMS262145 LWO262047:LWO262145 MGK262047:MGK262145 MQG262047:MQG262145 NAC262047:NAC262145 NJY262047:NJY262145 NTU262047:NTU262145 ODQ262047:ODQ262145 ONM262047:ONM262145 OXI262047:OXI262145 PHE262047:PHE262145 PRA262047:PRA262145 QAW262047:QAW262145 QKS262047:QKS262145 QUO262047:QUO262145 REK262047:REK262145 ROG262047:ROG262145 RYC262047:RYC262145 SHY262047:SHY262145 SRU262047:SRU262145 TBQ262047:TBQ262145 TLM262047:TLM262145 TVI262047:TVI262145 UFE262047:UFE262145 UPA262047:UPA262145 UYW262047:UYW262145 VIS262047:VIS262145 VSO262047:VSO262145 WCK262047:WCK262145 WMG262047:WMG262145 WWC262047:WWC262145 R327583:R327681 JQ327583:JQ327681 TM327583:TM327681 ADI327583:ADI327681 ANE327583:ANE327681 AXA327583:AXA327681 BGW327583:BGW327681 BQS327583:BQS327681 CAO327583:CAO327681 CKK327583:CKK327681 CUG327583:CUG327681 DEC327583:DEC327681 DNY327583:DNY327681 DXU327583:DXU327681 EHQ327583:EHQ327681 ERM327583:ERM327681 FBI327583:FBI327681 FLE327583:FLE327681 FVA327583:FVA327681 GEW327583:GEW327681 GOS327583:GOS327681 GYO327583:GYO327681 HIK327583:HIK327681 HSG327583:HSG327681 ICC327583:ICC327681 ILY327583:ILY327681 IVU327583:IVU327681 JFQ327583:JFQ327681 JPM327583:JPM327681 JZI327583:JZI327681 KJE327583:KJE327681 KTA327583:KTA327681 LCW327583:LCW327681 LMS327583:LMS327681 LWO327583:LWO327681 MGK327583:MGK327681 MQG327583:MQG327681 NAC327583:NAC327681 NJY327583:NJY327681 NTU327583:NTU327681 ODQ327583:ODQ327681 ONM327583:ONM327681 OXI327583:OXI327681 PHE327583:PHE327681 PRA327583:PRA327681 QAW327583:QAW327681 QKS327583:QKS327681 QUO327583:QUO327681 REK327583:REK327681 ROG327583:ROG327681 RYC327583:RYC327681 SHY327583:SHY327681 SRU327583:SRU327681 TBQ327583:TBQ327681 TLM327583:TLM327681 TVI327583:TVI327681 UFE327583:UFE327681 UPA327583:UPA327681 UYW327583:UYW327681 VIS327583:VIS327681 VSO327583:VSO327681 WCK327583:WCK327681 WMG327583:WMG327681 WWC327583:WWC327681 R393119:R393217 JQ393119:JQ393217 TM393119:TM393217 ADI393119:ADI393217 ANE393119:ANE393217 AXA393119:AXA393217 BGW393119:BGW393217 BQS393119:BQS393217 CAO393119:CAO393217 CKK393119:CKK393217 CUG393119:CUG393217 DEC393119:DEC393217 DNY393119:DNY393217 DXU393119:DXU393217 EHQ393119:EHQ393217 ERM393119:ERM393217 FBI393119:FBI393217 FLE393119:FLE393217 FVA393119:FVA393217 GEW393119:GEW393217 GOS393119:GOS393217 GYO393119:GYO393217 HIK393119:HIK393217 HSG393119:HSG393217 ICC393119:ICC393217 ILY393119:ILY393217 IVU393119:IVU393217 JFQ393119:JFQ393217 JPM393119:JPM393217 JZI393119:JZI393217 KJE393119:KJE393217 KTA393119:KTA393217 LCW393119:LCW393217 LMS393119:LMS393217 LWO393119:LWO393217 MGK393119:MGK393217 MQG393119:MQG393217 NAC393119:NAC393217 NJY393119:NJY393217 NTU393119:NTU393217 ODQ393119:ODQ393217 ONM393119:ONM393217 OXI393119:OXI393217 PHE393119:PHE393217 PRA393119:PRA393217 QAW393119:QAW393217 QKS393119:QKS393217 QUO393119:QUO393217 REK393119:REK393217 ROG393119:ROG393217 RYC393119:RYC393217 SHY393119:SHY393217 SRU393119:SRU393217 TBQ393119:TBQ393217 TLM393119:TLM393217 TVI393119:TVI393217 UFE393119:UFE393217 UPA393119:UPA393217 UYW393119:UYW393217 VIS393119:VIS393217 VSO393119:VSO393217 WCK393119:WCK393217 WMG393119:WMG393217 WWC393119:WWC393217 R458655:R458753 JQ458655:JQ458753 TM458655:TM458753 ADI458655:ADI458753 ANE458655:ANE458753 AXA458655:AXA458753 BGW458655:BGW458753 BQS458655:BQS458753 CAO458655:CAO458753 CKK458655:CKK458753 CUG458655:CUG458753 DEC458655:DEC458753 DNY458655:DNY458753 DXU458655:DXU458753 EHQ458655:EHQ458753 ERM458655:ERM458753 FBI458655:FBI458753 FLE458655:FLE458753 FVA458655:FVA458753 GEW458655:GEW458753 GOS458655:GOS458753 GYO458655:GYO458753 HIK458655:HIK458753 HSG458655:HSG458753 ICC458655:ICC458753 ILY458655:ILY458753 IVU458655:IVU458753 JFQ458655:JFQ458753 JPM458655:JPM458753 JZI458655:JZI458753 KJE458655:KJE458753 KTA458655:KTA458753 LCW458655:LCW458753 LMS458655:LMS458753 LWO458655:LWO458753 MGK458655:MGK458753 MQG458655:MQG458753 NAC458655:NAC458753 NJY458655:NJY458753 NTU458655:NTU458753 ODQ458655:ODQ458753 ONM458655:ONM458753 OXI458655:OXI458753 PHE458655:PHE458753 PRA458655:PRA458753 QAW458655:QAW458753 QKS458655:QKS458753 QUO458655:QUO458753 REK458655:REK458753 ROG458655:ROG458753 RYC458655:RYC458753 SHY458655:SHY458753 SRU458655:SRU458753 TBQ458655:TBQ458753 TLM458655:TLM458753 TVI458655:TVI458753 UFE458655:UFE458753 UPA458655:UPA458753 UYW458655:UYW458753 VIS458655:VIS458753 VSO458655:VSO458753 WCK458655:WCK458753 WMG458655:WMG458753 WWC458655:WWC458753 R524191:R524289 JQ524191:JQ524289 TM524191:TM524289 ADI524191:ADI524289 ANE524191:ANE524289 AXA524191:AXA524289 BGW524191:BGW524289 BQS524191:BQS524289 CAO524191:CAO524289 CKK524191:CKK524289 CUG524191:CUG524289 DEC524191:DEC524289 DNY524191:DNY524289 DXU524191:DXU524289 EHQ524191:EHQ524289 ERM524191:ERM524289 FBI524191:FBI524289 FLE524191:FLE524289 FVA524191:FVA524289 GEW524191:GEW524289 GOS524191:GOS524289 GYO524191:GYO524289 HIK524191:HIK524289 HSG524191:HSG524289 ICC524191:ICC524289 ILY524191:ILY524289 IVU524191:IVU524289 JFQ524191:JFQ524289 JPM524191:JPM524289 JZI524191:JZI524289 KJE524191:KJE524289 KTA524191:KTA524289 LCW524191:LCW524289 LMS524191:LMS524289 LWO524191:LWO524289 MGK524191:MGK524289 MQG524191:MQG524289 NAC524191:NAC524289 NJY524191:NJY524289 NTU524191:NTU524289 ODQ524191:ODQ524289 ONM524191:ONM524289 OXI524191:OXI524289 PHE524191:PHE524289 PRA524191:PRA524289 QAW524191:QAW524289 QKS524191:QKS524289 QUO524191:QUO524289 REK524191:REK524289 ROG524191:ROG524289 RYC524191:RYC524289 SHY524191:SHY524289 SRU524191:SRU524289 TBQ524191:TBQ524289 TLM524191:TLM524289 TVI524191:TVI524289 UFE524191:UFE524289 UPA524191:UPA524289 UYW524191:UYW524289 VIS524191:VIS524289 VSO524191:VSO524289 WCK524191:WCK524289 WMG524191:WMG524289 WWC524191:WWC524289 R589727:R589825 JQ589727:JQ589825 TM589727:TM589825 ADI589727:ADI589825 ANE589727:ANE589825 AXA589727:AXA589825 BGW589727:BGW589825 BQS589727:BQS589825 CAO589727:CAO589825 CKK589727:CKK589825 CUG589727:CUG589825 DEC589727:DEC589825 DNY589727:DNY589825 DXU589727:DXU589825 EHQ589727:EHQ589825 ERM589727:ERM589825 FBI589727:FBI589825 FLE589727:FLE589825 FVA589727:FVA589825 GEW589727:GEW589825 GOS589727:GOS589825 GYO589727:GYO589825 HIK589727:HIK589825 HSG589727:HSG589825 ICC589727:ICC589825 ILY589727:ILY589825 IVU589727:IVU589825 JFQ589727:JFQ589825 JPM589727:JPM589825 JZI589727:JZI589825 KJE589727:KJE589825 KTA589727:KTA589825 LCW589727:LCW589825 LMS589727:LMS589825 LWO589727:LWO589825 MGK589727:MGK589825 MQG589727:MQG589825 NAC589727:NAC589825 NJY589727:NJY589825 NTU589727:NTU589825 ODQ589727:ODQ589825 ONM589727:ONM589825 OXI589727:OXI589825 PHE589727:PHE589825 PRA589727:PRA589825 QAW589727:QAW589825 QKS589727:QKS589825 QUO589727:QUO589825 REK589727:REK589825 ROG589727:ROG589825 RYC589727:RYC589825 SHY589727:SHY589825 SRU589727:SRU589825 TBQ589727:TBQ589825 TLM589727:TLM589825 TVI589727:TVI589825 UFE589727:UFE589825 UPA589727:UPA589825 UYW589727:UYW589825 VIS589727:VIS589825 VSO589727:VSO589825 WCK589727:WCK589825 WMG589727:WMG589825 WWC589727:WWC589825 R655263:R655361 JQ655263:JQ655361 TM655263:TM655361 ADI655263:ADI655361 ANE655263:ANE655361 AXA655263:AXA655361 BGW655263:BGW655361 BQS655263:BQS655361 CAO655263:CAO655361 CKK655263:CKK655361 CUG655263:CUG655361 DEC655263:DEC655361 DNY655263:DNY655361 DXU655263:DXU655361 EHQ655263:EHQ655361 ERM655263:ERM655361 FBI655263:FBI655361 FLE655263:FLE655361 FVA655263:FVA655361 GEW655263:GEW655361 GOS655263:GOS655361 GYO655263:GYO655361 HIK655263:HIK655361 HSG655263:HSG655361 ICC655263:ICC655361 ILY655263:ILY655361 IVU655263:IVU655361 JFQ655263:JFQ655361 JPM655263:JPM655361 JZI655263:JZI655361 KJE655263:KJE655361 KTA655263:KTA655361 LCW655263:LCW655361 LMS655263:LMS655361 LWO655263:LWO655361 MGK655263:MGK655361 MQG655263:MQG655361 NAC655263:NAC655361 NJY655263:NJY655361 NTU655263:NTU655361 ODQ655263:ODQ655361 ONM655263:ONM655361 OXI655263:OXI655361 PHE655263:PHE655361 PRA655263:PRA655361 QAW655263:QAW655361 QKS655263:QKS655361 QUO655263:QUO655361 REK655263:REK655361 ROG655263:ROG655361 RYC655263:RYC655361 SHY655263:SHY655361 SRU655263:SRU655361 TBQ655263:TBQ655361 TLM655263:TLM655361 TVI655263:TVI655361 UFE655263:UFE655361 UPA655263:UPA655361 UYW655263:UYW655361 VIS655263:VIS655361 VSO655263:VSO655361 WCK655263:WCK655361 WMG655263:WMG655361 WWC655263:WWC655361 R720799:R720897 JQ720799:JQ720897 TM720799:TM720897 ADI720799:ADI720897 ANE720799:ANE720897 AXA720799:AXA720897 BGW720799:BGW720897 BQS720799:BQS720897 CAO720799:CAO720897 CKK720799:CKK720897 CUG720799:CUG720897 DEC720799:DEC720897 DNY720799:DNY720897 DXU720799:DXU720897 EHQ720799:EHQ720897 ERM720799:ERM720897 FBI720799:FBI720897 FLE720799:FLE720897 FVA720799:FVA720897 GEW720799:GEW720897 GOS720799:GOS720897 GYO720799:GYO720897 HIK720799:HIK720897 HSG720799:HSG720897 ICC720799:ICC720897 ILY720799:ILY720897 IVU720799:IVU720897 JFQ720799:JFQ720897 JPM720799:JPM720897 JZI720799:JZI720897 KJE720799:KJE720897 KTA720799:KTA720897 LCW720799:LCW720897 LMS720799:LMS720897 LWO720799:LWO720897 MGK720799:MGK720897 MQG720799:MQG720897 NAC720799:NAC720897 NJY720799:NJY720897 NTU720799:NTU720897 ODQ720799:ODQ720897 ONM720799:ONM720897 OXI720799:OXI720897 PHE720799:PHE720897 PRA720799:PRA720897 QAW720799:QAW720897 QKS720799:QKS720897 QUO720799:QUO720897 REK720799:REK720897 ROG720799:ROG720897 RYC720799:RYC720897 SHY720799:SHY720897 SRU720799:SRU720897 TBQ720799:TBQ720897 TLM720799:TLM720897 TVI720799:TVI720897 UFE720799:UFE720897 UPA720799:UPA720897 UYW720799:UYW720897 VIS720799:VIS720897 VSO720799:VSO720897 WCK720799:WCK720897 WMG720799:WMG720897 WWC720799:WWC720897 R786335:R786433 JQ786335:JQ786433 TM786335:TM786433 ADI786335:ADI786433 ANE786335:ANE786433 AXA786335:AXA786433 BGW786335:BGW786433 BQS786335:BQS786433 CAO786335:CAO786433 CKK786335:CKK786433 CUG786335:CUG786433 DEC786335:DEC786433 DNY786335:DNY786433 DXU786335:DXU786433 EHQ786335:EHQ786433 ERM786335:ERM786433 FBI786335:FBI786433 FLE786335:FLE786433 FVA786335:FVA786433 GEW786335:GEW786433 GOS786335:GOS786433 GYO786335:GYO786433 HIK786335:HIK786433 HSG786335:HSG786433 ICC786335:ICC786433 ILY786335:ILY786433 IVU786335:IVU786433 JFQ786335:JFQ786433 JPM786335:JPM786433 JZI786335:JZI786433 KJE786335:KJE786433 KTA786335:KTA786433 LCW786335:LCW786433 LMS786335:LMS786433 LWO786335:LWO786433 MGK786335:MGK786433 MQG786335:MQG786433 NAC786335:NAC786433 NJY786335:NJY786433 NTU786335:NTU786433 ODQ786335:ODQ786433 ONM786335:ONM786433 OXI786335:OXI786433 PHE786335:PHE786433 PRA786335:PRA786433 QAW786335:QAW786433 QKS786335:QKS786433 QUO786335:QUO786433 REK786335:REK786433 ROG786335:ROG786433 RYC786335:RYC786433 SHY786335:SHY786433 SRU786335:SRU786433 TBQ786335:TBQ786433 TLM786335:TLM786433 TVI786335:TVI786433 UFE786335:UFE786433 UPA786335:UPA786433 UYW786335:UYW786433 VIS786335:VIS786433 VSO786335:VSO786433 WCK786335:WCK786433 WMG786335:WMG786433 WWC786335:WWC786433 R851871:R851969 JQ851871:JQ851969 TM851871:TM851969 ADI851871:ADI851969 ANE851871:ANE851969 AXA851871:AXA851969 BGW851871:BGW851969 BQS851871:BQS851969 CAO851871:CAO851969 CKK851871:CKK851969 CUG851871:CUG851969 DEC851871:DEC851969 DNY851871:DNY851969 DXU851871:DXU851969 EHQ851871:EHQ851969 ERM851871:ERM851969 FBI851871:FBI851969 FLE851871:FLE851969 FVA851871:FVA851969 GEW851871:GEW851969 GOS851871:GOS851969 GYO851871:GYO851969 HIK851871:HIK851969 HSG851871:HSG851969 ICC851871:ICC851969 ILY851871:ILY851969 IVU851871:IVU851969 JFQ851871:JFQ851969 JPM851871:JPM851969 JZI851871:JZI851969 KJE851871:KJE851969 KTA851871:KTA851969 LCW851871:LCW851969 LMS851871:LMS851969 LWO851871:LWO851969 MGK851871:MGK851969 MQG851871:MQG851969 NAC851871:NAC851969 NJY851871:NJY851969 NTU851871:NTU851969 ODQ851871:ODQ851969 ONM851871:ONM851969 OXI851871:OXI851969 PHE851871:PHE851969 PRA851871:PRA851969 QAW851871:QAW851969 QKS851871:QKS851969 QUO851871:QUO851969 REK851871:REK851969 ROG851871:ROG851969 RYC851871:RYC851969 SHY851871:SHY851969 SRU851871:SRU851969 TBQ851871:TBQ851969 TLM851871:TLM851969 TVI851871:TVI851969 UFE851871:UFE851969 UPA851871:UPA851969 UYW851871:UYW851969 VIS851871:VIS851969 VSO851871:VSO851969 WCK851871:WCK851969 WMG851871:WMG851969 WWC851871:WWC851969 R917407:R917505 JQ917407:JQ917505 TM917407:TM917505 ADI917407:ADI917505 ANE917407:ANE917505 AXA917407:AXA917505 BGW917407:BGW917505 BQS917407:BQS917505 CAO917407:CAO917505 CKK917407:CKK917505 CUG917407:CUG917505 DEC917407:DEC917505 DNY917407:DNY917505 DXU917407:DXU917505 EHQ917407:EHQ917505 ERM917407:ERM917505 FBI917407:FBI917505 FLE917407:FLE917505 FVA917407:FVA917505 GEW917407:GEW917505 GOS917407:GOS917505 GYO917407:GYO917505 HIK917407:HIK917505 HSG917407:HSG917505 ICC917407:ICC917505 ILY917407:ILY917505 IVU917407:IVU917505 JFQ917407:JFQ917505 JPM917407:JPM917505 JZI917407:JZI917505 KJE917407:KJE917505 KTA917407:KTA917505 LCW917407:LCW917505 LMS917407:LMS917505 LWO917407:LWO917505 MGK917407:MGK917505 MQG917407:MQG917505 NAC917407:NAC917505 NJY917407:NJY917505 NTU917407:NTU917505 ODQ917407:ODQ917505 ONM917407:ONM917505 OXI917407:OXI917505 PHE917407:PHE917505 PRA917407:PRA917505 QAW917407:QAW917505 QKS917407:QKS917505 QUO917407:QUO917505 REK917407:REK917505 ROG917407:ROG917505 RYC917407:RYC917505 SHY917407:SHY917505 SRU917407:SRU917505 TBQ917407:TBQ917505 TLM917407:TLM917505 TVI917407:TVI917505 UFE917407:UFE917505 UPA917407:UPA917505 UYW917407:UYW917505 VIS917407:VIS917505 VSO917407:VSO917505 WCK917407:WCK917505 WMG917407:WMG917505 WWC917407:WWC917505 R982943:R983041 JQ982943:JQ983041 TM982943:TM983041 ADI982943:ADI983041 ANE982943:ANE983041 AXA982943:AXA983041 BGW982943:BGW983041 BQS982943:BQS983041 CAO982943:CAO983041 CKK982943:CKK983041 CUG982943:CUG983041 DEC982943:DEC983041 DNY982943:DNY983041 DXU982943:DXU983041 EHQ982943:EHQ983041 ERM982943:ERM983041 FBI982943:FBI983041 FLE982943:FLE983041 FVA982943:FVA983041 GEW982943:GEW983041 GOS982943:GOS983041 GYO982943:GYO983041 HIK982943:HIK983041 HSG982943:HSG983041 ICC982943:ICC983041 ILY982943:ILY983041 IVU982943:IVU983041 JFQ982943:JFQ983041 JPM982943:JPM983041 JZI982943:JZI983041 KJE982943:KJE983041 KTA982943:KTA983041 LCW982943:LCW983041 LMS982943:LMS983041 LWO982943:LWO983041 MGK982943:MGK983041 MQG982943:MQG983041 NAC982943:NAC983041 NJY982943:NJY983041 NTU982943:NTU983041 ODQ982943:ODQ983041 ONM982943:ONM983041 OXI982943:OXI983041 PHE982943:PHE983041 PRA982943:PRA983041 QAW982943:QAW983041 QKS982943:QKS983041 QUO982943:QUO983041 REK982943:REK983041 ROG982943:ROG983041 RYC982943:RYC983041 SHY982943:SHY983041 SRU982943:SRU983041 TBQ982943:TBQ983041 TLM982943:TLM983041 TVI982943:TVI983041 UFE982943:UFE983041 UPA982943:UPA983041 UYW982943:UYW983041 VIS982943:VIS983041 VSO982943:VSO983041 WCK982943:WCK983041 WMG982943:WMG983041 WWC982943:WWC983041" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 JK2 TG2 ADC2 AMY2 AWU2 BGQ2 BQM2 CAI2 CKE2 CUA2 DDW2 DNS2 DXO2 EHK2 ERG2 FBC2 FKY2 FUU2 GEQ2 GOM2 GYI2 HIE2 HSA2 IBW2 ILS2 IVO2 JFK2 JPG2 JZC2 KIY2 KSU2 LCQ2 LMM2 LWI2 MGE2 MQA2 MZW2 NJS2 NTO2 ODK2 ONG2 OXC2 PGY2 PQU2 QAQ2 QKM2 QUI2 REE2 ROA2 RXW2 SHS2 SRO2 TBK2 TLG2 TVC2 UEY2 UOU2 UYQ2 VIM2 VSI2 WCE2 WMA2 WVW2 L65439:L65537 JK65439:JK65537 TG65439:TG65537 ADC65439:ADC65537 AMY65439:AMY65537 AWU65439:AWU65537 BGQ65439:BGQ65537 BQM65439:BQM65537 CAI65439:CAI65537 CKE65439:CKE65537 CUA65439:CUA65537 DDW65439:DDW65537 DNS65439:DNS65537 DXO65439:DXO65537 EHK65439:EHK65537 ERG65439:ERG65537 FBC65439:FBC65537 FKY65439:FKY65537 FUU65439:FUU65537 GEQ65439:GEQ65537 GOM65439:GOM65537 GYI65439:GYI65537 HIE65439:HIE65537 HSA65439:HSA65537 IBW65439:IBW65537 ILS65439:ILS65537 IVO65439:IVO65537 JFK65439:JFK65537 JPG65439:JPG65537 JZC65439:JZC65537 KIY65439:KIY65537 KSU65439:KSU65537 LCQ65439:LCQ65537 LMM65439:LMM65537 LWI65439:LWI65537 MGE65439:MGE65537 MQA65439:MQA65537 MZW65439:MZW65537 NJS65439:NJS65537 NTO65439:NTO65537 ODK65439:ODK65537 ONG65439:ONG65537 OXC65439:OXC65537 PGY65439:PGY65537 PQU65439:PQU65537 QAQ65439:QAQ65537 QKM65439:QKM65537 QUI65439:QUI65537 REE65439:REE65537 ROA65439:ROA65537 RXW65439:RXW65537 SHS65439:SHS65537 SRO65439:SRO65537 TBK65439:TBK65537 TLG65439:TLG65537 TVC65439:TVC65537 UEY65439:UEY65537 UOU65439:UOU65537 UYQ65439:UYQ65537 VIM65439:VIM65537 VSI65439:VSI65537 WCE65439:WCE65537 WMA65439:WMA65537 WVW65439:WVW65537 L130975:L131073 JK130975:JK131073 TG130975:TG131073 ADC130975:ADC131073 AMY130975:AMY131073 AWU130975:AWU131073 BGQ130975:BGQ131073 BQM130975:BQM131073 CAI130975:CAI131073 CKE130975:CKE131073 CUA130975:CUA131073 DDW130975:DDW131073 DNS130975:DNS131073 DXO130975:DXO131073 EHK130975:EHK131073 ERG130975:ERG131073 FBC130975:FBC131073 FKY130975:FKY131073 FUU130975:FUU131073 GEQ130975:GEQ131073 GOM130975:GOM131073 GYI130975:GYI131073 HIE130975:HIE131073 HSA130975:HSA131073 IBW130975:IBW131073 ILS130975:ILS131073 IVO130975:IVO131073 JFK130975:JFK131073 JPG130975:JPG131073 JZC130975:JZC131073 KIY130975:KIY131073 KSU130975:KSU131073 LCQ130975:LCQ131073 LMM130975:LMM131073 LWI130975:LWI131073 MGE130975:MGE131073 MQA130975:MQA131073 MZW130975:MZW131073 NJS130975:NJS131073 NTO130975:NTO131073 ODK130975:ODK131073 ONG130975:ONG131073 OXC130975:OXC131073 PGY130975:PGY131073 PQU130975:PQU131073 QAQ130975:QAQ131073 QKM130975:QKM131073 QUI130975:QUI131073 REE130975:REE131073 ROA130975:ROA131073 RXW130975:RXW131073 SHS130975:SHS131073 SRO130975:SRO131073 TBK130975:TBK131073 TLG130975:TLG131073 TVC130975:TVC131073 UEY130975:UEY131073 UOU130975:UOU131073 UYQ130975:UYQ131073 VIM130975:VIM131073 VSI130975:VSI131073 WCE130975:WCE131073 WMA130975:WMA131073 WVW130975:WVW131073 L196511:L196609 JK196511:JK196609 TG196511:TG196609 ADC196511:ADC196609 AMY196511:AMY196609 AWU196511:AWU196609 BGQ196511:BGQ196609 BQM196511:BQM196609 CAI196511:CAI196609 CKE196511:CKE196609 CUA196511:CUA196609 DDW196511:DDW196609 DNS196511:DNS196609 DXO196511:DXO196609 EHK196511:EHK196609 ERG196511:ERG196609 FBC196511:FBC196609 FKY196511:FKY196609 FUU196511:FUU196609 GEQ196511:GEQ196609 GOM196511:GOM196609 GYI196511:GYI196609 HIE196511:HIE196609 HSA196511:HSA196609 IBW196511:IBW196609 ILS196511:ILS196609 IVO196511:IVO196609 JFK196511:JFK196609 JPG196511:JPG196609 JZC196511:JZC196609 KIY196511:KIY196609 KSU196511:KSU196609 LCQ196511:LCQ196609 LMM196511:LMM196609 LWI196511:LWI196609 MGE196511:MGE196609 MQA196511:MQA196609 MZW196511:MZW196609 NJS196511:NJS196609 NTO196511:NTO196609 ODK196511:ODK196609 ONG196511:ONG196609 OXC196511:OXC196609 PGY196511:PGY196609 PQU196511:PQU196609 QAQ196511:QAQ196609 QKM196511:QKM196609 QUI196511:QUI196609 REE196511:REE196609 ROA196511:ROA196609 RXW196511:RXW196609 SHS196511:SHS196609 SRO196511:SRO196609 TBK196511:TBK196609 TLG196511:TLG196609 TVC196511:TVC196609 UEY196511:UEY196609 UOU196511:UOU196609 UYQ196511:UYQ196609 VIM196511:VIM196609 VSI196511:VSI196609 WCE196511:WCE196609 WMA196511:WMA196609 WVW196511:WVW196609 L262047:L262145 JK262047:JK262145 TG262047:TG262145 ADC262047:ADC262145 AMY262047:AMY262145 AWU262047:AWU262145 BGQ262047:BGQ262145 BQM262047:BQM262145 CAI262047:CAI262145 CKE262047:CKE262145 CUA262047:CUA262145 DDW262047:DDW262145 DNS262047:DNS262145 DXO262047:DXO262145 EHK262047:EHK262145 ERG262047:ERG262145 FBC262047:FBC262145 FKY262047:FKY262145 FUU262047:FUU262145 GEQ262047:GEQ262145 GOM262047:GOM262145 GYI262047:GYI262145 HIE262047:HIE262145 HSA262047:HSA262145 IBW262047:IBW262145 ILS262047:ILS262145 IVO262047:IVO262145 JFK262047:JFK262145 JPG262047:JPG262145 JZC262047:JZC262145 KIY262047:KIY262145 KSU262047:KSU262145 LCQ262047:LCQ262145 LMM262047:LMM262145 LWI262047:LWI262145 MGE262047:MGE262145 MQA262047:MQA262145 MZW262047:MZW262145 NJS262047:NJS262145 NTO262047:NTO262145 ODK262047:ODK262145 ONG262047:ONG262145 OXC262047:OXC262145 PGY262047:PGY262145 PQU262047:PQU262145 QAQ262047:QAQ262145 QKM262047:QKM262145 QUI262047:QUI262145 REE262047:REE262145 ROA262047:ROA262145 RXW262047:RXW262145 SHS262047:SHS262145 SRO262047:SRO262145 TBK262047:TBK262145 TLG262047:TLG262145 TVC262047:TVC262145 UEY262047:UEY262145 UOU262047:UOU262145 UYQ262047:UYQ262145 VIM262047:VIM262145 VSI262047:VSI262145 WCE262047:WCE262145 WMA262047:WMA262145 WVW262047:WVW262145 L327583:L327681 JK327583:JK327681 TG327583:TG327681 ADC327583:ADC327681 AMY327583:AMY327681 AWU327583:AWU327681 BGQ327583:BGQ327681 BQM327583:BQM327681 CAI327583:CAI327681 CKE327583:CKE327681 CUA327583:CUA327681 DDW327583:DDW327681 DNS327583:DNS327681 DXO327583:DXO327681 EHK327583:EHK327681 ERG327583:ERG327681 FBC327583:FBC327681 FKY327583:FKY327681 FUU327583:FUU327681 GEQ327583:GEQ327681 GOM327583:GOM327681 GYI327583:GYI327681 HIE327583:HIE327681 HSA327583:HSA327681 IBW327583:IBW327681 ILS327583:ILS327681 IVO327583:IVO327681 JFK327583:JFK327681 JPG327583:JPG327681 JZC327583:JZC327681 KIY327583:KIY327681 KSU327583:KSU327681 LCQ327583:LCQ327681 LMM327583:LMM327681 LWI327583:LWI327681 MGE327583:MGE327681 MQA327583:MQA327681 MZW327583:MZW327681 NJS327583:NJS327681 NTO327583:NTO327681 ODK327583:ODK327681 ONG327583:ONG327681 OXC327583:OXC327681 PGY327583:PGY327681 PQU327583:PQU327681 QAQ327583:QAQ327681 QKM327583:QKM327681 QUI327583:QUI327681 REE327583:REE327681 ROA327583:ROA327681 RXW327583:RXW327681 SHS327583:SHS327681 SRO327583:SRO327681 TBK327583:TBK327681 TLG327583:TLG327681 TVC327583:TVC327681 UEY327583:UEY327681 UOU327583:UOU327681 UYQ327583:UYQ327681 VIM327583:VIM327681 VSI327583:VSI327681 WCE327583:WCE327681 WMA327583:WMA327681 WVW327583:WVW327681 L393119:L393217 JK393119:JK393217 TG393119:TG393217 ADC393119:ADC393217 AMY393119:AMY393217 AWU393119:AWU393217 BGQ393119:BGQ393217 BQM393119:BQM393217 CAI393119:CAI393217 CKE393119:CKE393217 CUA393119:CUA393217 DDW393119:DDW393217 DNS393119:DNS393217 DXO393119:DXO393217 EHK393119:EHK393217 ERG393119:ERG393217 FBC393119:FBC393217 FKY393119:FKY393217 FUU393119:FUU393217 GEQ393119:GEQ393217 GOM393119:GOM393217 GYI393119:GYI393217 HIE393119:HIE393217 HSA393119:HSA393217 IBW393119:IBW393217 ILS393119:ILS393217 IVO393119:IVO393217 JFK393119:JFK393217 JPG393119:JPG393217 JZC393119:JZC393217 KIY393119:KIY393217 KSU393119:KSU393217 LCQ393119:LCQ393217 LMM393119:LMM393217 LWI393119:LWI393217 MGE393119:MGE393217 MQA393119:MQA393217 MZW393119:MZW393217 NJS393119:NJS393217 NTO393119:NTO393217 ODK393119:ODK393217 ONG393119:ONG393217 OXC393119:OXC393217 PGY393119:PGY393217 PQU393119:PQU393217 QAQ393119:QAQ393217 QKM393119:QKM393217 QUI393119:QUI393217 REE393119:REE393217 ROA393119:ROA393217 RXW393119:RXW393217 SHS393119:SHS393217 SRO393119:SRO393217 TBK393119:TBK393217 TLG393119:TLG393217 TVC393119:TVC393217 UEY393119:UEY393217 UOU393119:UOU393217 UYQ393119:UYQ393217 VIM393119:VIM393217 VSI393119:VSI393217 WCE393119:WCE393217 WMA393119:WMA393217 WVW393119:WVW393217 L458655:L458753 JK458655:JK458753 TG458655:TG458753 ADC458655:ADC458753 AMY458655:AMY458753 AWU458655:AWU458753 BGQ458655:BGQ458753 BQM458655:BQM458753 CAI458655:CAI458753 CKE458655:CKE458753 CUA458655:CUA458753 DDW458655:DDW458753 DNS458655:DNS458753 DXO458655:DXO458753 EHK458655:EHK458753 ERG458655:ERG458753 FBC458655:FBC458753 FKY458655:FKY458753 FUU458655:FUU458753 GEQ458655:GEQ458753 GOM458655:GOM458753 GYI458655:GYI458753 HIE458655:HIE458753 HSA458655:HSA458753 IBW458655:IBW458753 ILS458655:ILS458753 IVO458655:IVO458753 JFK458655:JFK458753 JPG458655:JPG458753 JZC458655:JZC458753 KIY458655:KIY458753 KSU458655:KSU458753 LCQ458655:LCQ458753 LMM458655:LMM458753 LWI458655:LWI458753 MGE458655:MGE458753 MQA458655:MQA458753 MZW458655:MZW458753 NJS458655:NJS458753 NTO458655:NTO458753 ODK458655:ODK458753 ONG458655:ONG458753 OXC458655:OXC458753 PGY458655:PGY458753 PQU458655:PQU458753 QAQ458655:QAQ458753 QKM458655:QKM458753 QUI458655:QUI458753 REE458655:REE458753 ROA458655:ROA458753 RXW458655:RXW458753 SHS458655:SHS458753 SRO458655:SRO458753 TBK458655:TBK458753 TLG458655:TLG458753 TVC458655:TVC458753 UEY458655:UEY458753 UOU458655:UOU458753 UYQ458655:UYQ458753 VIM458655:VIM458753 VSI458655:VSI458753 WCE458655:WCE458753 WMA458655:WMA458753 WVW458655:WVW458753 L524191:L524289 JK524191:JK524289 TG524191:TG524289 ADC524191:ADC524289 AMY524191:AMY524289 AWU524191:AWU524289 BGQ524191:BGQ524289 BQM524191:BQM524289 CAI524191:CAI524289 CKE524191:CKE524289 CUA524191:CUA524289 DDW524191:DDW524289 DNS524191:DNS524289 DXO524191:DXO524289 EHK524191:EHK524289 ERG524191:ERG524289 FBC524191:FBC524289 FKY524191:FKY524289 FUU524191:FUU524289 GEQ524191:GEQ524289 GOM524191:GOM524289 GYI524191:GYI524289 HIE524191:HIE524289 HSA524191:HSA524289 IBW524191:IBW524289 ILS524191:ILS524289 IVO524191:IVO524289 JFK524191:JFK524289 JPG524191:JPG524289 JZC524191:JZC524289 KIY524191:KIY524289 KSU524191:KSU524289 LCQ524191:LCQ524289 LMM524191:LMM524289 LWI524191:LWI524289 MGE524191:MGE524289 MQA524191:MQA524289 MZW524191:MZW524289 NJS524191:NJS524289 NTO524191:NTO524289 ODK524191:ODK524289 ONG524191:ONG524289 OXC524191:OXC524289 PGY524191:PGY524289 PQU524191:PQU524289 QAQ524191:QAQ524289 QKM524191:QKM524289 QUI524191:QUI524289 REE524191:REE524289 ROA524191:ROA524289 RXW524191:RXW524289 SHS524191:SHS524289 SRO524191:SRO524289 TBK524191:TBK524289 TLG524191:TLG524289 TVC524191:TVC524289 UEY524191:UEY524289 UOU524191:UOU524289 UYQ524191:UYQ524289 VIM524191:VIM524289 VSI524191:VSI524289 WCE524191:WCE524289 WMA524191:WMA524289 WVW524191:WVW524289 L589727:L589825 JK589727:JK589825 TG589727:TG589825 ADC589727:ADC589825 AMY589727:AMY589825 AWU589727:AWU589825 BGQ589727:BGQ589825 BQM589727:BQM589825 CAI589727:CAI589825 CKE589727:CKE589825 CUA589727:CUA589825 DDW589727:DDW589825 DNS589727:DNS589825 DXO589727:DXO589825 EHK589727:EHK589825 ERG589727:ERG589825 FBC589727:FBC589825 FKY589727:FKY589825 FUU589727:FUU589825 GEQ589727:GEQ589825 GOM589727:GOM589825 GYI589727:GYI589825 HIE589727:HIE589825 HSA589727:HSA589825 IBW589727:IBW589825 ILS589727:ILS589825 IVO589727:IVO589825 JFK589727:JFK589825 JPG589727:JPG589825 JZC589727:JZC589825 KIY589727:KIY589825 KSU589727:KSU589825 LCQ589727:LCQ589825 LMM589727:LMM589825 LWI589727:LWI589825 MGE589727:MGE589825 MQA589727:MQA589825 MZW589727:MZW589825 NJS589727:NJS589825 NTO589727:NTO589825 ODK589727:ODK589825 ONG589727:ONG589825 OXC589727:OXC589825 PGY589727:PGY589825 PQU589727:PQU589825 QAQ589727:QAQ589825 QKM589727:QKM589825 QUI589727:QUI589825 REE589727:REE589825 ROA589727:ROA589825 RXW589727:RXW589825 SHS589727:SHS589825 SRO589727:SRO589825 TBK589727:TBK589825 TLG589727:TLG589825 TVC589727:TVC589825 UEY589727:UEY589825 UOU589727:UOU589825 UYQ589727:UYQ589825 VIM589727:VIM589825 VSI589727:VSI589825 WCE589727:WCE589825 WMA589727:WMA589825 WVW589727:WVW589825 L655263:L655361 JK655263:JK655361 TG655263:TG655361 ADC655263:ADC655361 AMY655263:AMY655361 AWU655263:AWU655361 BGQ655263:BGQ655361 BQM655263:BQM655361 CAI655263:CAI655361 CKE655263:CKE655361 CUA655263:CUA655361 DDW655263:DDW655361 DNS655263:DNS655361 DXO655263:DXO655361 EHK655263:EHK655361 ERG655263:ERG655361 FBC655263:FBC655361 FKY655263:FKY655361 FUU655263:FUU655361 GEQ655263:GEQ655361 GOM655263:GOM655361 GYI655263:GYI655361 HIE655263:HIE655361 HSA655263:HSA655361 IBW655263:IBW655361 ILS655263:ILS655361 IVO655263:IVO655361 JFK655263:JFK655361 JPG655263:JPG655361 JZC655263:JZC655361 KIY655263:KIY655361 KSU655263:KSU655361 LCQ655263:LCQ655361 LMM655263:LMM655361 LWI655263:LWI655361 MGE655263:MGE655361 MQA655263:MQA655361 MZW655263:MZW655361 NJS655263:NJS655361 NTO655263:NTO655361 ODK655263:ODK655361 ONG655263:ONG655361 OXC655263:OXC655361 PGY655263:PGY655361 PQU655263:PQU655361 QAQ655263:QAQ655361 QKM655263:QKM655361 QUI655263:QUI655361 REE655263:REE655361 ROA655263:ROA655361 RXW655263:RXW655361 SHS655263:SHS655361 SRO655263:SRO655361 TBK655263:TBK655361 TLG655263:TLG655361 TVC655263:TVC655361 UEY655263:UEY655361 UOU655263:UOU655361 UYQ655263:UYQ655361 VIM655263:VIM655361 VSI655263:VSI655361 WCE655263:WCE655361 WMA655263:WMA655361 WVW655263:WVW655361 L720799:L720897 JK720799:JK720897 TG720799:TG720897 ADC720799:ADC720897 AMY720799:AMY720897 AWU720799:AWU720897 BGQ720799:BGQ720897 BQM720799:BQM720897 CAI720799:CAI720897 CKE720799:CKE720897 CUA720799:CUA720897 DDW720799:DDW720897 DNS720799:DNS720897 DXO720799:DXO720897 EHK720799:EHK720897 ERG720799:ERG720897 FBC720799:FBC720897 FKY720799:FKY720897 FUU720799:FUU720897 GEQ720799:GEQ720897 GOM720799:GOM720897 GYI720799:GYI720897 HIE720799:HIE720897 HSA720799:HSA720897 IBW720799:IBW720897 ILS720799:ILS720897 IVO720799:IVO720897 JFK720799:JFK720897 JPG720799:JPG720897 JZC720799:JZC720897 KIY720799:KIY720897 KSU720799:KSU720897 LCQ720799:LCQ720897 LMM720799:LMM720897 LWI720799:LWI720897 MGE720799:MGE720897 MQA720799:MQA720897 MZW720799:MZW720897 NJS720799:NJS720897 NTO720799:NTO720897 ODK720799:ODK720897 ONG720799:ONG720897 OXC720799:OXC720897 PGY720799:PGY720897 PQU720799:PQU720897 QAQ720799:QAQ720897 QKM720799:QKM720897 QUI720799:QUI720897 REE720799:REE720897 ROA720799:ROA720897 RXW720799:RXW720897 SHS720799:SHS720897 SRO720799:SRO720897 TBK720799:TBK720897 TLG720799:TLG720897 TVC720799:TVC720897 UEY720799:UEY720897 UOU720799:UOU720897 UYQ720799:UYQ720897 VIM720799:VIM720897 VSI720799:VSI720897 WCE720799:WCE720897 WMA720799:WMA720897 WVW720799:WVW720897 L786335:L786433 JK786335:JK786433 TG786335:TG786433 ADC786335:ADC786433 AMY786335:AMY786433 AWU786335:AWU786433 BGQ786335:BGQ786433 BQM786335:BQM786433 CAI786335:CAI786433 CKE786335:CKE786433 CUA786335:CUA786433 DDW786335:DDW786433 DNS786335:DNS786433 DXO786335:DXO786433 EHK786335:EHK786433 ERG786335:ERG786433 FBC786335:FBC786433 FKY786335:FKY786433 FUU786335:FUU786433 GEQ786335:GEQ786433 GOM786335:GOM786433 GYI786335:GYI786433 HIE786335:HIE786433 HSA786335:HSA786433 IBW786335:IBW786433 ILS786335:ILS786433 IVO786335:IVO786433 JFK786335:JFK786433 JPG786335:JPG786433 JZC786335:JZC786433 KIY786335:KIY786433 KSU786335:KSU786433 LCQ786335:LCQ786433 LMM786335:LMM786433 LWI786335:LWI786433 MGE786335:MGE786433 MQA786335:MQA786433 MZW786335:MZW786433 NJS786335:NJS786433 NTO786335:NTO786433 ODK786335:ODK786433 ONG786335:ONG786433 OXC786335:OXC786433 PGY786335:PGY786433 PQU786335:PQU786433 QAQ786335:QAQ786433 QKM786335:QKM786433 QUI786335:QUI786433 REE786335:REE786433 ROA786335:ROA786433 RXW786335:RXW786433 SHS786335:SHS786433 SRO786335:SRO786433 TBK786335:TBK786433 TLG786335:TLG786433 TVC786335:TVC786433 UEY786335:UEY786433 UOU786335:UOU786433 UYQ786335:UYQ786433 VIM786335:VIM786433 VSI786335:VSI786433 WCE786335:WCE786433 WMA786335:WMA786433 WVW786335:WVW786433 L851871:L851969 JK851871:JK851969 TG851871:TG851969 ADC851871:ADC851969 AMY851871:AMY851969 AWU851871:AWU851969 BGQ851871:BGQ851969 BQM851871:BQM851969 CAI851871:CAI851969 CKE851871:CKE851969 CUA851871:CUA851969 DDW851871:DDW851969 DNS851871:DNS851969 DXO851871:DXO851969 EHK851871:EHK851969 ERG851871:ERG851969 FBC851871:FBC851969 FKY851871:FKY851969 FUU851871:FUU851969 GEQ851871:GEQ851969 GOM851871:GOM851969 GYI851871:GYI851969 HIE851871:HIE851969 HSA851871:HSA851969 IBW851871:IBW851969 ILS851871:ILS851969 IVO851871:IVO851969 JFK851871:JFK851969 JPG851871:JPG851969 JZC851871:JZC851969 KIY851871:KIY851969 KSU851871:KSU851969 LCQ851871:LCQ851969 LMM851871:LMM851969 LWI851871:LWI851969 MGE851871:MGE851969 MQA851871:MQA851969 MZW851871:MZW851969 NJS851871:NJS851969 NTO851871:NTO851969 ODK851871:ODK851969 ONG851871:ONG851969 OXC851871:OXC851969 PGY851871:PGY851969 PQU851871:PQU851969 QAQ851871:QAQ851969 QKM851871:QKM851969 QUI851871:QUI851969 REE851871:REE851969 ROA851871:ROA851969 RXW851871:RXW851969 SHS851871:SHS851969 SRO851871:SRO851969 TBK851871:TBK851969 TLG851871:TLG851969 TVC851871:TVC851969 UEY851871:UEY851969 UOU851871:UOU851969 UYQ851871:UYQ851969 VIM851871:VIM851969 VSI851871:VSI851969 WCE851871:WCE851969 WMA851871:WMA851969 WVW851871:WVW851969 L917407:L917505 JK917407:JK917505 TG917407:TG917505 ADC917407:ADC917505 AMY917407:AMY917505 AWU917407:AWU917505 BGQ917407:BGQ917505 BQM917407:BQM917505 CAI917407:CAI917505 CKE917407:CKE917505 CUA917407:CUA917505 DDW917407:DDW917505 DNS917407:DNS917505 DXO917407:DXO917505 EHK917407:EHK917505 ERG917407:ERG917505 FBC917407:FBC917505 FKY917407:FKY917505 FUU917407:FUU917505 GEQ917407:GEQ917505 GOM917407:GOM917505 GYI917407:GYI917505 HIE917407:HIE917505 HSA917407:HSA917505 IBW917407:IBW917505 ILS917407:ILS917505 IVO917407:IVO917505 JFK917407:JFK917505 JPG917407:JPG917505 JZC917407:JZC917505 KIY917407:KIY917505 KSU917407:KSU917505 LCQ917407:LCQ917505 LMM917407:LMM917505 LWI917407:LWI917505 MGE917407:MGE917505 MQA917407:MQA917505 MZW917407:MZW917505 NJS917407:NJS917505 NTO917407:NTO917505 ODK917407:ODK917505 ONG917407:ONG917505 OXC917407:OXC917505 PGY917407:PGY917505 PQU917407:PQU917505 QAQ917407:QAQ917505 QKM917407:QKM917505 QUI917407:QUI917505 REE917407:REE917505 ROA917407:ROA917505 RXW917407:RXW917505 SHS917407:SHS917505 SRO917407:SRO917505 TBK917407:TBK917505 TLG917407:TLG917505 TVC917407:TVC917505 UEY917407:UEY917505 UOU917407:UOU917505 UYQ917407:UYQ917505 VIM917407:VIM917505 VSI917407:VSI917505 WCE917407:WCE917505 WMA917407:WMA917505 WVW917407:WVW917505 L982943:L983041 JK982943:JK983041 TG982943:TG983041 ADC982943:ADC983041 AMY982943:AMY983041 AWU982943:AWU983041 BGQ982943:BGQ983041 BQM982943:BQM983041 CAI982943:CAI983041 CKE982943:CKE983041 CUA982943:CUA983041 DDW982943:DDW983041 DNS982943:DNS983041 DXO982943:DXO983041 EHK982943:EHK983041 ERG982943:ERG983041 FBC982943:FBC983041 FKY982943:FKY983041 FUU982943:FUU983041 GEQ982943:GEQ983041 GOM982943:GOM983041 GYI982943:GYI983041 HIE982943:HIE983041 HSA982943:HSA983041 IBW982943:IBW983041 ILS982943:ILS983041 IVO982943:IVO983041 JFK982943:JFK983041 JPG982943:JPG983041 JZC982943:JZC983041 KIY982943:KIY983041 KSU982943:KSU983041 LCQ982943:LCQ983041 LMM982943:LMM983041 LWI982943:LWI983041 MGE982943:MGE983041 MQA982943:MQA983041 MZW982943:MZW983041 NJS982943:NJS983041 NTO982943:NTO983041 ODK982943:ODK983041 ONG982943:ONG983041 OXC982943:OXC983041 PGY982943:PGY983041 PQU982943:PQU983041 QAQ982943:QAQ983041 QKM982943:QKM983041 QUI982943:QUI983041 REE982943:REE983041 ROA982943:ROA983041 RXW982943:RXW983041 SHS982943:SHS983041 SRO982943:SRO983041 TBK982943:TBK983041 TLG982943:TLG983041 TVC982943:TVC983041 UEY982943:UEY983041 UOU982943:UOU983041 UYQ982943:UYQ983041 VIM982943:VIM983041 VSI982943:VSI983041 WCE982943:WCE983041 WMA982943:WMA983041 WVW982943:WVW983041" xr:uid="{EED41744-CBED-4715-B05C-465358EB0F50}">
       <formula1>0</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 JG2 TC2 ACY2 AMU2 AWQ2 BGM2 BQI2 CAE2 CKA2 CTW2 DDS2 DNO2 DXK2 EHG2 ERC2 FAY2 FKU2 FUQ2 GEM2 GOI2 GYE2 HIA2 HRW2 IBS2 ILO2 IVK2 JFG2 JPC2 JYY2 KIU2 KSQ2 LCM2 LMI2 LWE2 MGA2 MPW2 MZS2 NJO2 NTK2 ODG2 ONC2 OWY2 PGU2 PQQ2 QAM2 QKI2 QUE2 REA2 RNW2 RXS2 SHO2 SRK2 TBG2 TLC2 TUY2 UEU2 UOQ2 UYM2 VII2 VSE2 WCA2 WLW2 WVS2 A65439:A65537 JG65439:JG65537 TC65439:TC65537 ACY65439:ACY65537 AMU65439:AMU65537 AWQ65439:AWQ65537 BGM65439:BGM65537 BQI65439:BQI65537 CAE65439:CAE65537 CKA65439:CKA65537 CTW65439:CTW65537 DDS65439:DDS65537 DNO65439:DNO65537 DXK65439:DXK65537 EHG65439:EHG65537 ERC65439:ERC65537 FAY65439:FAY65537 FKU65439:FKU65537 FUQ65439:FUQ65537 GEM65439:GEM65537 GOI65439:GOI65537 GYE65439:GYE65537 HIA65439:HIA65537 HRW65439:HRW65537 IBS65439:IBS65537 ILO65439:ILO65537 IVK65439:IVK65537 JFG65439:JFG65537 JPC65439:JPC65537 JYY65439:JYY65537 KIU65439:KIU65537 KSQ65439:KSQ65537 LCM65439:LCM65537 LMI65439:LMI65537 LWE65439:LWE65537 MGA65439:MGA65537 MPW65439:MPW65537 MZS65439:MZS65537 NJO65439:NJO65537 NTK65439:NTK65537 ODG65439:ODG65537 ONC65439:ONC65537 OWY65439:OWY65537 PGU65439:PGU65537 PQQ65439:PQQ65537 QAM65439:QAM65537 QKI65439:QKI65537 QUE65439:QUE65537 REA65439:REA65537 RNW65439:RNW65537 RXS65439:RXS65537 SHO65439:SHO65537 SRK65439:SRK65537 TBG65439:TBG65537 TLC65439:TLC65537 TUY65439:TUY65537 UEU65439:UEU65537 UOQ65439:UOQ65537 UYM65439:UYM65537 VII65439:VII65537 VSE65439:VSE65537 WCA65439:WCA65537 WLW65439:WLW65537 WVS65439:WVS65537 A130975:A131073 JG130975:JG131073 TC130975:TC131073 ACY130975:ACY131073 AMU130975:AMU131073 AWQ130975:AWQ131073 BGM130975:BGM131073 BQI130975:BQI131073 CAE130975:CAE131073 CKA130975:CKA131073 CTW130975:CTW131073 DDS130975:DDS131073 DNO130975:DNO131073 DXK130975:DXK131073 EHG130975:EHG131073 ERC130975:ERC131073 FAY130975:FAY131073 FKU130975:FKU131073 FUQ130975:FUQ131073 GEM130975:GEM131073 GOI130975:GOI131073 GYE130975:GYE131073 HIA130975:HIA131073 HRW130975:HRW131073 IBS130975:IBS131073 ILO130975:ILO131073 IVK130975:IVK131073 JFG130975:JFG131073 JPC130975:JPC131073 JYY130975:JYY131073 KIU130975:KIU131073 KSQ130975:KSQ131073 LCM130975:LCM131073 LMI130975:LMI131073 LWE130975:LWE131073 MGA130975:MGA131073 MPW130975:MPW131073 MZS130975:MZS131073 NJO130975:NJO131073 NTK130975:NTK131073 ODG130975:ODG131073 ONC130975:ONC131073 OWY130975:OWY131073 PGU130975:PGU131073 PQQ130975:PQQ131073 QAM130975:QAM131073 QKI130975:QKI131073 QUE130975:QUE131073 REA130975:REA131073 RNW130975:RNW131073 RXS130975:RXS131073 SHO130975:SHO131073 SRK130975:SRK131073 TBG130975:TBG131073 TLC130975:TLC131073 TUY130975:TUY131073 UEU130975:UEU131073 UOQ130975:UOQ131073 UYM130975:UYM131073 VII130975:VII131073 VSE130975:VSE131073 WCA130975:WCA131073 WLW130975:WLW131073 WVS130975:WVS131073 A196511:A196609 JG196511:JG196609 TC196511:TC196609 ACY196511:ACY196609 AMU196511:AMU196609 AWQ196511:AWQ196609 BGM196511:BGM196609 BQI196511:BQI196609 CAE196511:CAE196609 CKA196511:CKA196609 CTW196511:CTW196609 DDS196511:DDS196609 DNO196511:DNO196609 DXK196511:DXK196609 EHG196511:EHG196609 ERC196511:ERC196609 FAY196511:FAY196609 FKU196511:FKU196609 FUQ196511:FUQ196609 GEM196511:GEM196609 GOI196511:GOI196609 GYE196511:GYE196609 HIA196511:HIA196609 HRW196511:HRW196609 IBS196511:IBS196609 ILO196511:ILO196609 IVK196511:IVK196609 JFG196511:JFG196609 JPC196511:JPC196609 JYY196511:JYY196609 KIU196511:KIU196609 KSQ196511:KSQ196609 LCM196511:LCM196609 LMI196511:LMI196609 LWE196511:LWE196609 MGA196511:MGA196609 MPW196511:MPW196609 MZS196511:MZS196609 NJO196511:NJO196609 NTK196511:NTK196609 ODG196511:ODG196609 ONC196511:ONC196609 OWY196511:OWY196609 PGU196511:PGU196609 PQQ196511:PQQ196609 QAM196511:QAM196609 QKI196511:QKI196609 QUE196511:QUE196609 REA196511:REA196609 RNW196511:RNW196609 RXS196511:RXS196609 SHO196511:SHO196609 SRK196511:SRK196609 TBG196511:TBG196609 TLC196511:TLC196609 TUY196511:TUY196609 UEU196511:UEU196609 UOQ196511:UOQ196609 UYM196511:UYM196609 VII196511:VII196609 VSE196511:VSE196609 WCA196511:WCA196609 WLW196511:WLW196609 WVS196511:WVS196609 A262047:A262145 JG262047:JG262145 TC262047:TC262145 ACY262047:ACY262145 AMU262047:AMU262145 AWQ262047:AWQ262145 BGM262047:BGM262145 BQI262047:BQI262145 CAE262047:CAE262145 CKA262047:CKA262145 CTW262047:CTW262145 DDS262047:DDS262145 DNO262047:DNO262145 DXK262047:DXK262145 EHG262047:EHG262145 ERC262047:ERC262145 FAY262047:FAY262145 FKU262047:FKU262145 FUQ262047:FUQ262145 GEM262047:GEM262145 GOI262047:GOI262145 GYE262047:GYE262145 HIA262047:HIA262145 HRW262047:HRW262145 IBS262047:IBS262145 ILO262047:ILO262145 IVK262047:IVK262145 JFG262047:JFG262145 JPC262047:JPC262145 JYY262047:JYY262145 KIU262047:KIU262145 KSQ262047:KSQ262145 LCM262047:LCM262145 LMI262047:LMI262145 LWE262047:LWE262145 MGA262047:MGA262145 MPW262047:MPW262145 MZS262047:MZS262145 NJO262047:NJO262145 NTK262047:NTK262145 ODG262047:ODG262145 ONC262047:ONC262145 OWY262047:OWY262145 PGU262047:PGU262145 PQQ262047:PQQ262145 QAM262047:QAM262145 QKI262047:QKI262145 QUE262047:QUE262145 REA262047:REA262145 RNW262047:RNW262145 RXS262047:RXS262145 SHO262047:SHO262145 SRK262047:SRK262145 TBG262047:TBG262145 TLC262047:TLC262145 TUY262047:TUY262145 UEU262047:UEU262145 UOQ262047:UOQ262145 UYM262047:UYM262145 VII262047:VII262145 VSE262047:VSE262145 WCA262047:WCA262145 WLW262047:WLW262145 WVS262047:WVS262145 A327583:A327681 JG327583:JG327681 TC327583:TC327681 ACY327583:ACY327681 AMU327583:AMU327681 AWQ327583:AWQ327681 BGM327583:BGM327681 BQI327583:BQI327681 CAE327583:CAE327681 CKA327583:CKA327681 CTW327583:CTW327681 DDS327583:DDS327681 DNO327583:DNO327681 DXK327583:DXK327681 EHG327583:EHG327681 ERC327583:ERC327681 FAY327583:FAY327681 FKU327583:FKU327681 FUQ327583:FUQ327681 GEM327583:GEM327681 GOI327583:GOI327681 GYE327583:GYE327681 HIA327583:HIA327681 HRW327583:HRW327681 IBS327583:IBS327681 ILO327583:ILO327681 IVK327583:IVK327681 JFG327583:JFG327681 JPC327583:JPC327681 JYY327583:JYY327681 KIU327583:KIU327681 KSQ327583:KSQ327681 LCM327583:LCM327681 LMI327583:LMI327681 LWE327583:LWE327681 MGA327583:MGA327681 MPW327583:MPW327681 MZS327583:MZS327681 NJO327583:NJO327681 NTK327583:NTK327681 ODG327583:ODG327681 ONC327583:ONC327681 OWY327583:OWY327681 PGU327583:PGU327681 PQQ327583:PQQ327681 QAM327583:QAM327681 QKI327583:QKI327681 QUE327583:QUE327681 REA327583:REA327681 RNW327583:RNW327681 RXS327583:RXS327681 SHO327583:SHO327681 SRK327583:SRK327681 TBG327583:TBG327681 TLC327583:TLC327681 TUY327583:TUY327681 UEU327583:UEU327681 UOQ327583:UOQ327681 UYM327583:UYM327681 VII327583:VII327681 VSE327583:VSE327681 WCA327583:WCA327681 WLW327583:WLW327681 WVS327583:WVS327681 A393119:A393217 JG393119:JG393217 TC393119:TC393217 ACY393119:ACY393217 AMU393119:AMU393217 AWQ393119:AWQ393217 BGM393119:BGM393217 BQI393119:BQI393217 CAE393119:CAE393217 CKA393119:CKA393217 CTW393119:CTW393217 DDS393119:DDS393217 DNO393119:DNO393217 DXK393119:DXK393217 EHG393119:EHG393217 ERC393119:ERC393217 FAY393119:FAY393217 FKU393119:FKU393217 FUQ393119:FUQ393217 GEM393119:GEM393217 GOI393119:GOI393217 GYE393119:GYE393217 HIA393119:HIA393217 HRW393119:HRW393217 IBS393119:IBS393217 ILO393119:ILO393217 IVK393119:IVK393217 JFG393119:JFG393217 JPC393119:JPC393217 JYY393119:JYY393217 KIU393119:KIU393217 KSQ393119:KSQ393217 LCM393119:LCM393217 LMI393119:LMI393217 LWE393119:LWE393217 MGA393119:MGA393217 MPW393119:MPW393217 MZS393119:MZS393217 NJO393119:NJO393217 NTK393119:NTK393217 ODG393119:ODG393217 ONC393119:ONC393217 OWY393119:OWY393217 PGU393119:PGU393217 PQQ393119:PQQ393217 QAM393119:QAM393217 QKI393119:QKI393217 QUE393119:QUE393217 REA393119:REA393217 RNW393119:RNW393217 RXS393119:RXS393217 SHO393119:SHO393217 SRK393119:SRK393217 TBG393119:TBG393217 TLC393119:TLC393217 TUY393119:TUY393217 UEU393119:UEU393217 UOQ393119:UOQ393217 UYM393119:UYM393217 VII393119:VII393217 VSE393119:VSE393217 WCA393119:WCA393217 WLW393119:WLW393217 WVS393119:WVS393217 A458655:A458753 JG458655:JG458753 TC458655:TC458753 ACY458655:ACY458753 AMU458655:AMU458753 AWQ458655:AWQ458753 BGM458655:BGM458753 BQI458655:BQI458753 CAE458655:CAE458753 CKA458655:CKA458753 CTW458655:CTW458753 DDS458655:DDS458753 DNO458655:DNO458753 DXK458655:DXK458753 EHG458655:EHG458753 ERC458655:ERC458753 FAY458655:FAY458753 FKU458655:FKU458753 FUQ458655:FUQ458753 GEM458655:GEM458753 GOI458655:GOI458753 GYE458655:GYE458753 HIA458655:HIA458753 HRW458655:HRW458753 IBS458655:IBS458753 ILO458655:ILO458753 IVK458655:IVK458753 JFG458655:JFG458753 JPC458655:JPC458753 JYY458655:JYY458753 KIU458655:KIU458753 KSQ458655:KSQ458753 LCM458655:LCM458753 LMI458655:LMI458753 LWE458655:LWE458753 MGA458655:MGA458753 MPW458655:MPW458753 MZS458655:MZS458753 NJO458655:NJO458753 NTK458655:NTK458753 ODG458655:ODG458753 ONC458655:ONC458753 OWY458655:OWY458753 PGU458655:PGU458753 PQQ458655:PQQ458753 QAM458655:QAM458753 QKI458655:QKI458753 QUE458655:QUE458753 REA458655:REA458753 RNW458655:RNW458753 RXS458655:RXS458753 SHO458655:SHO458753 SRK458655:SRK458753 TBG458655:TBG458753 TLC458655:TLC458753 TUY458655:TUY458753 UEU458655:UEU458753 UOQ458655:UOQ458753 UYM458655:UYM458753 VII458655:VII458753 VSE458655:VSE458753 WCA458655:WCA458753 WLW458655:WLW458753 WVS458655:WVS458753 A524191:A524289 JG524191:JG524289 TC524191:TC524289 ACY524191:ACY524289 AMU524191:AMU524289 AWQ524191:AWQ524289 BGM524191:BGM524289 BQI524191:BQI524289 CAE524191:CAE524289 CKA524191:CKA524289 CTW524191:CTW524289 DDS524191:DDS524289 DNO524191:DNO524289 DXK524191:DXK524289 EHG524191:EHG524289 ERC524191:ERC524289 FAY524191:FAY524289 FKU524191:FKU524289 FUQ524191:FUQ524289 GEM524191:GEM524289 GOI524191:GOI524289 GYE524191:GYE524289 HIA524191:HIA524289 HRW524191:HRW524289 IBS524191:IBS524289 ILO524191:ILO524289 IVK524191:IVK524289 JFG524191:JFG524289 JPC524191:JPC524289 JYY524191:JYY524289 KIU524191:KIU524289 KSQ524191:KSQ524289 LCM524191:LCM524289 LMI524191:LMI524289 LWE524191:LWE524289 MGA524191:MGA524289 MPW524191:MPW524289 MZS524191:MZS524289 NJO524191:NJO524289 NTK524191:NTK524289 ODG524191:ODG524289 ONC524191:ONC524289 OWY524191:OWY524289 PGU524191:PGU524289 PQQ524191:PQQ524289 QAM524191:QAM524289 QKI524191:QKI524289 QUE524191:QUE524289 REA524191:REA524289 RNW524191:RNW524289 RXS524191:RXS524289 SHO524191:SHO524289 SRK524191:SRK524289 TBG524191:TBG524289 TLC524191:TLC524289 TUY524191:TUY524289 UEU524191:UEU524289 UOQ524191:UOQ524289 UYM524191:UYM524289 VII524191:VII524289 VSE524191:VSE524289 WCA524191:WCA524289 WLW524191:WLW524289 WVS524191:WVS524289 A589727:A589825 JG589727:JG589825 TC589727:TC589825 ACY589727:ACY589825 AMU589727:AMU589825 AWQ589727:AWQ589825 BGM589727:BGM589825 BQI589727:BQI589825 CAE589727:CAE589825 CKA589727:CKA589825 CTW589727:CTW589825 DDS589727:DDS589825 DNO589727:DNO589825 DXK589727:DXK589825 EHG589727:EHG589825 ERC589727:ERC589825 FAY589727:FAY589825 FKU589727:FKU589825 FUQ589727:FUQ589825 GEM589727:GEM589825 GOI589727:GOI589825 GYE589727:GYE589825 HIA589727:HIA589825 HRW589727:HRW589825 IBS589727:IBS589825 ILO589727:ILO589825 IVK589727:IVK589825 JFG589727:JFG589825 JPC589727:JPC589825 JYY589727:JYY589825 KIU589727:KIU589825 KSQ589727:KSQ589825 LCM589727:LCM589825 LMI589727:LMI589825 LWE589727:LWE589825 MGA589727:MGA589825 MPW589727:MPW589825 MZS589727:MZS589825 NJO589727:NJO589825 NTK589727:NTK589825 ODG589727:ODG589825 ONC589727:ONC589825 OWY589727:OWY589825 PGU589727:PGU589825 PQQ589727:PQQ589825 QAM589727:QAM589825 QKI589727:QKI589825 QUE589727:QUE589825 REA589727:REA589825 RNW589727:RNW589825 RXS589727:RXS589825 SHO589727:SHO589825 SRK589727:SRK589825 TBG589727:TBG589825 TLC589727:TLC589825 TUY589727:TUY589825 UEU589727:UEU589825 UOQ589727:UOQ589825 UYM589727:UYM589825 VII589727:VII589825 VSE589727:VSE589825 WCA589727:WCA589825 WLW589727:WLW589825 WVS589727:WVS589825 A655263:A655361 JG655263:JG655361 TC655263:TC655361 ACY655263:ACY655361 AMU655263:AMU655361 AWQ655263:AWQ655361 BGM655263:BGM655361 BQI655263:BQI655361 CAE655263:CAE655361 CKA655263:CKA655361 CTW655263:CTW655361 DDS655263:DDS655361 DNO655263:DNO655361 DXK655263:DXK655361 EHG655263:EHG655361 ERC655263:ERC655361 FAY655263:FAY655361 FKU655263:FKU655361 FUQ655263:FUQ655361 GEM655263:GEM655361 GOI655263:GOI655361 GYE655263:GYE655361 HIA655263:HIA655361 HRW655263:HRW655361 IBS655263:IBS655361 ILO655263:ILO655361 IVK655263:IVK655361 JFG655263:JFG655361 JPC655263:JPC655361 JYY655263:JYY655361 KIU655263:KIU655361 KSQ655263:KSQ655361 LCM655263:LCM655361 LMI655263:LMI655361 LWE655263:LWE655361 MGA655263:MGA655361 MPW655263:MPW655361 MZS655263:MZS655361 NJO655263:NJO655361 NTK655263:NTK655361 ODG655263:ODG655361 ONC655263:ONC655361 OWY655263:OWY655361 PGU655263:PGU655361 PQQ655263:PQQ655361 QAM655263:QAM655361 QKI655263:QKI655361 QUE655263:QUE655361 REA655263:REA655361 RNW655263:RNW655361 RXS655263:RXS655361 SHO655263:SHO655361 SRK655263:SRK655361 TBG655263:TBG655361 TLC655263:TLC655361 TUY655263:TUY655361 UEU655263:UEU655361 UOQ655263:UOQ655361 UYM655263:UYM655361 VII655263:VII655361 VSE655263:VSE655361 WCA655263:WCA655361 WLW655263:WLW655361 WVS655263:WVS655361 A720799:A720897 JG720799:JG720897 TC720799:TC720897 ACY720799:ACY720897 AMU720799:AMU720897 AWQ720799:AWQ720897 BGM720799:BGM720897 BQI720799:BQI720897 CAE720799:CAE720897 CKA720799:CKA720897 CTW720799:CTW720897 DDS720799:DDS720897 DNO720799:DNO720897 DXK720799:DXK720897 EHG720799:EHG720897 ERC720799:ERC720897 FAY720799:FAY720897 FKU720799:FKU720897 FUQ720799:FUQ720897 GEM720799:GEM720897 GOI720799:GOI720897 GYE720799:GYE720897 HIA720799:HIA720897 HRW720799:HRW720897 IBS720799:IBS720897 ILO720799:ILO720897 IVK720799:IVK720897 JFG720799:JFG720897 JPC720799:JPC720897 JYY720799:JYY720897 KIU720799:KIU720897 KSQ720799:KSQ720897 LCM720799:LCM720897 LMI720799:LMI720897 LWE720799:LWE720897 MGA720799:MGA720897 MPW720799:MPW720897 MZS720799:MZS720897 NJO720799:NJO720897 NTK720799:NTK720897 ODG720799:ODG720897 ONC720799:ONC720897 OWY720799:OWY720897 PGU720799:PGU720897 PQQ720799:PQQ720897 QAM720799:QAM720897 QKI720799:QKI720897 QUE720799:QUE720897 REA720799:REA720897 RNW720799:RNW720897 RXS720799:RXS720897 SHO720799:SHO720897 SRK720799:SRK720897 TBG720799:TBG720897 TLC720799:TLC720897 TUY720799:TUY720897 UEU720799:UEU720897 UOQ720799:UOQ720897 UYM720799:UYM720897 VII720799:VII720897 VSE720799:VSE720897 WCA720799:WCA720897 WLW720799:WLW720897 WVS720799:WVS720897 A786335:A786433 JG786335:JG786433 TC786335:TC786433 ACY786335:ACY786433 AMU786335:AMU786433 AWQ786335:AWQ786433 BGM786335:BGM786433 BQI786335:BQI786433 CAE786335:CAE786433 CKA786335:CKA786433 CTW786335:CTW786433 DDS786335:DDS786433 DNO786335:DNO786433 DXK786335:DXK786433 EHG786335:EHG786433 ERC786335:ERC786433 FAY786335:FAY786433 FKU786335:FKU786433 FUQ786335:FUQ786433 GEM786335:GEM786433 GOI786335:GOI786433 GYE786335:GYE786433 HIA786335:HIA786433 HRW786335:HRW786433 IBS786335:IBS786433 ILO786335:ILO786433 IVK786335:IVK786433 JFG786335:JFG786433 JPC786335:JPC786433 JYY786335:JYY786433 KIU786335:KIU786433 KSQ786335:KSQ786433 LCM786335:LCM786433 LMI786335:LMI786433 LWE786335:LWE786433 MGA786335:MGA786433 MPW786335:MPW786433 MZS786335:MZS786433 NJO786335:NJO786433 NTK786335:NTK786433 ODG786335:ODG786433 ONC786335:ONC786433 OWY786335:OWY786433 PGU786335:PGU786433 PQQ786335:PQQ786433 QAM786335:QAM786433 QKI786335:QKI786433 QUE786335:QUE786433 REA786335:REA786433 RNW786335:RNW786433 RXS786335:RXS786433 SHO786335:SHO786433 SRK786335:SRK786433 TBG786335:TBG786433 TLC786335:TLC786433 TUY786335:TUY786433 UEU786335:UEU786433 UOQ786335:UOQ786433 UYM786335:UYM786433 VII786335:VII786433 VSE786335:VSE786433 WCA786335:WCA786433 WLW786335:WLW786433 WVS786335:WVS786433 A851871:A851969 JG851871:JG851969 TC851871:TC851969 ACY851871:ACY851969 AMU851871:AMU851969 AWQ851871:AWQ851969 BGM851871:BGM851969 BQI851871:BQI851969 CAE851871:CAE851969 CKA851871:CKA851969 CTW851871:CTW851969 DDS851871:DDS851969 DNO851871:DNO851969 DXK851871:DXK851969 EHG851871:EHG851969 ERC851871:ERC851969 FAY851871:FAY851969 FKU851871:FKU851969 FUQ851871:FUQ851969 GEM851871:GEM851969 GOI851871:GOI851969 GYE851871:GYE851969 HIA851871:HIA851969 HRW851871:HRW851969 IBS851871:IBS851969 ILO851871:ILO851969 IVK851871:IVK851969 JFG851871:JFG851969 JPC851871:JPC851969 JYY851871:JYY851969 KIU851871:KIU851969 KSQ851871:KSQ851969 LCM851871:LCM851969 LMI851871:LMI851969 LWE851871:LWE851969 MGA851871:MGA851969 MPW851871:MPW851969 MZS851871:MZS851969 NJO851871:NJO851969 NTK851871:NTK851969 ODG851871:ODG851969 ONC851871:ONC851969 OWY851871:OWY851969 PGU851871:PGU851969 PQQ851871:PQQ851969 QAM851871:QAM851969 QKI851871:QKI851969 QUE851871:QUE851969 REA851871:REA851969 RNW851871:RNW851969 RXS851871:RXS851969 SHO851871:SHO851969 SRK851871:SRK851969 TBG851871:TBG851969 TLC851871:TLC851969 TUY851871:TUY851969 UEU851871:UEU851969 UOQ851871:UOQ851969 UYM851871:UYM851969 VII851871:VII851969 VSE851871:VSE851969 WCA851871:WCA851969 WLW851871:WLW851969 WVS851871:WVS851969 A917407:A917505 JG917407:JG917505 TC917407:TC917505 ACY917407:ACY917505 AMU917407:AMU917505 AWQ917407:AWQ917505 BGM917407:BGM917505 BQI917407:BQI917505 CAE917407:CAE917505 CKA917407:CKA917505 CTW917407:CTW917505 DDS917407:DDS917505 DNO917407:DNO917505 DXK917407:DXK917505 EHG917407:EHG917505 ERC917407:ERC917505 FAY917407:FAY917505 FKU917407:FKU917505 FUQ917407:FUQ917505 GEM917407:GEM917505 GOI917407:GOI917505 GYE917407:GYE917505 HIA917407:HIA917505 HRW917407:HRW917505 IBS917407:IBS917505 ILO917407:ILO917505 IVK917407:IVK917505 JFG917407:JFG917505 JPC917407:JPC917505 JYY917407:JYY917505 KIU917407:KIU917505 KSQ917407:KSQ917505 LCM917407:LCM917505 LMI917407:LMI917505 LWE917407:LWE917505 MGA917407:MGA917505 MPW917407:MPW917505 MZS917407:MZS917505 NJO917407:NJO917505 NTK917407:NTK917505 ODG917407:ODG917505 ONC917407:ONC917505 OWY917407:OWY917505 PGU917407:PGU917505 PQQ917407:PQQ917505 QAM917407:QAM917505 QKI917407:QKI917505 QUE917407:QUE917505 REA917407:REA917505 RNW917407:RNW917505 RXS917407:RXS917505 SHO917407:SHO917505 SRK917407:SRK917505 TBG917407:TBG917505 TLC917407:TLC917505 TUY917407:TUY917505 UEU917407:UEU917505 UOQ917407:UOQ917505 UYM917407:UYM917505 VII917407:VII917505 VSE917407:VSE917505 WCA917407:WCA917505 WLW917407:WLW917505 WVS917407:WVS917505 A982943:A983041 JG982943:JG983041 TC982943:TC983041 ACY982943:ACY983041 AMU982943:AMU983041 AWQ982943:AWQ983041 BGM982943:BGM983041 BQI982943:BQI983041 CAE982943:CAE983041 CKA982943:CKA983041 CTW982943:CTW983041 DDS982943:DDS983041 DNO982943:DNO983041 DXK982943:DXK983041 EHG982943:EHG983041 ERC982943:ERC983041 FAY982943:FAY983041 FKU982943:FKU983041 FUQ982943:FUQ983041 GEM982943:GEM983041 GOI982943:GOI983041 GYE982943:GYE983041 HIA982943:HIA983041 HRW982943:HRW983041 IBS982943:IBS983041 ILO982943:ILO983041 IVK982943:IVK983041 JFG982943:JFG983041 JPC982943:JPC983041 JYY982943:JYY983041 KIU982943:KIU983041 KSQ982943:KSQ983041 LCM982943:LCM983041 LMI982943:LMI983041 LWE982943:LWE983041 MGA982943:MGA983041 MPW982943:MPW983041 MZS982943:MZS983041 NJO982943:NJO983041 NTK982943:NTK983041 ODG982943:ODG983041 ONC982943:ONC983041 OWY982943:OWY983041 PGU982943:PGU983041 PQQ982943:PQQ983041 QAM982943:QAM983041 QKI982943:QKI983041 QUE982943:QUE983041 REA982943:REA983041 RNW982943:RNW983041 RXS982943:RXS983041 SHO982943:SHO983041 SRK982943:SRK983041 TBG982943:TBG983041 TLC982943:TLC983041 TUY982943:TUY983041 UEU982943:UEU983041 UOQ982943:UOQ983041 UYM982943:UYM983041 VII982943:VII983041 VSE982943:VSE983041 WCA982943:WCA983041 WLW982943:WLW983041 WVS982943:WVS983041" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 JA2 SW2 ACS2 AMO2 AWK2 BGG2 BQC2 BZY2 CJU2 CTQ2 DDM2 DNI2 DXE2 EHA2 EQW2 FAS2 FKO2 FUK2 GEG2 GOC2 GXY2 HHU2 HRQ2 IBM2 ILI2 IVE2 JFA2 JOW2 JYS2 KIO2 KSK2 LCG2 LMC2 LVY2 MFU2 MPQ2 MZM2 NJI2 NTE2 ODA2 OMW2 OWS2 PGO2 PQK2 QAG2 QKC2 QTY2 RDU2 RNQ2 RXM2 SHI2 SRE2 TBA2 TKW2 TUS2 UEO2 UOK2 UYG2 VIC2 VRY2 WBU2 WLQ2 WVM2 A65439:A65537 JA65439:JA65537 SW65439:SW65537 ACS65439:ACS65537 AMO65439:AMO65537 AWK65439:AWK65537 BGG65439:BGG65537 BQC65439:BQC65537 BZY65439:BZY65537 CJU65439:CJU65537 CTQ65439:CTQ65537 DDM65439:DDM65537 DNI65439:DNI65537 DXE65439:DXE65537 EHA65439:EHA65537 EQW65439:EQW65537 FAS65439:FAS65537 FKO65439:FKO65537 FUK65439:FUK65537 GEG65439:GEG65537 GOC65439:GOC65537 GXY65439:GXY65537 HHU65439:HHU65537 HRQ65439:HRQ65537 IBM65439:IBM65537 ILI65439:ILI65537 IVE65439:IVE65537 JFA65439:JFA65537 JOW65439:JOW65537 JYS65439:JYS65537 KIO65439:KIO65537 KSK65439:KSK65537 LCG65439:LCG65537 LMC65439:LMC65537 LVY65439:LVY65537 MFU65439:MFU65537 MPQ65439:MPQ65537 MZM65439:MZM65537 NJI65439:NJI65537 NTE65439:NTE65537 ODA65439:ODA65537 OMW65439:OMW65537 OWS65439:OWS65537 PGO65439:PGO65537 PQK65439:PQK65537 QAG65439:QAG65537 QKC65439:QKC65537 QTY65439:QTY65537 RDU65439:RDU65537 RNQ65439:RNQ65537 RXM65439:RXM65537 SHI65439:SHI65537 SRE65439:SRE65537 TBA65439:TBA65537 TKW65439:TKW65537 TUS65439:TUS65537 UEO65439:UEO65537 UOK65439:UOK65537 UYG65439:UYG65537 VIC65439:VIC65537 VRY65439:VRY65537 WBU65439:WBU65537 WLQ65439:WLQ65537 WVM65439:WVM65537 A130975:A131073 JA130975:JA131073 SW130975:SW131073 ACS130975:ACS131073 AMO130975:AMO131073 AWK130975:AWK131073 BGG130975:BGG131073 BQC130975:BQC131073 BZY130975:BZY131073 CJU130975:CJU131073 CTQ130975:CTQ131073 DDM130975:DDM131073 DNI130975:DNI131073 DXE130975:DXE131073 EHA130975:EHA131073 EQW130975:EQW131073 FAS130975:FAS131073 FKO130975:FKO131073 FUK130975:FUK131073 GEG130975:GEG131073 GOC130975:GOC131073 GXY130975:GXY131073 HHU130975:HHU131073 HRQ130975:HRQ131073 IBM130975:IBM131073 ILI130975:ILI131073 IVE130975:IVE131073 JFA130975:JFA131073 JOW130975:JOW131073 JYS130975:JYS131073 KIO130975:KIO131073 KSK130975:KSK131073 LCG130975:LCG131073 LMC130975:LMC131073 LVY130975:LVY131073 MFU130975:MFU131073 MPQ130975:MPQ131073 MZM130975:MZM131073 NJI130975:NJI131073 NTE130975:NTE131073 ODA130975:ODA131073 OMW130975:OMW131073 OWS130975:OWS131073 PGO130975:PGO131073 PQK130975:PQK131073 QAG130975:QAG131073 QKC130975:QKC131073 QTY130975:QTY131073 RDU130975:RDU131073 RNQ130975:RNQ131073 RXM130975:RXM131073 SHI130975:SHI131073 SRE130975:SRE131073 TBA130975:TBA131073 TKW130975:TKW131073 TUS130975:TUS131073 UEO130975:UEO131073 UOK130975:UOK131073 UYG130975:UYG131073 VIC130975:VIC131073 VRY130975:VRY131073 WBU130975:WBU131073 WLQ130975:WLQ131073 WVM130975:WVM131073 A196511:A196609 JA196511:JA196609 SW196511:SW196609 ACS196511:ACS196609 AMO196511:AMO196609 AWK196511:AWK196609 BGG196511:BGG196609 BQC196511:BQC196609 BZY196511:BZY196609 CJU196511:CJU196609 CTQ196511:CTQ196609 DDM196511:DDM196609 DNI196511:DNI196609 DXE196511:DXE196609 EHA196511:EHA196609 EQW196511:EQW196609 FAS196511:FAS196609 FKO196511:FKO196609 FUK196511:FUK196609 GEG196511:GEG196609 GOC196511:GOC196609 GXY196511:GXY196609 HHU196511:HHU196609 HRQ196511:HRQ196609 IBM196511:IBM196609 ILI196511:ILI196609 IVE196511:IVE196609 JFA196511:JFA196609 JOW196511:JOW196609 JYS196511:JYS196609 KIO196511:KIO196609 KSK196511:KSK196609 LCG196511:LCG196609 LMC196511:LMC196609 LVY196511:LVY196609 MFU196511:MFU196609 MPQ196511:MPQ196609 MZM196511:MZM196609 NJI196511:NJI196609 NTE196511:NTE196609 ODA196511:ODA196609 OMW196511:OMW196609 OWS196511:OWS196609 PGO196511:PGO196609 PQK196511:PQK196609 QAG196511:QAG196609 QKC196511:QKC196609 QTY196511:QTY196609 RDU196511:RDU196609 RNQ196511:RNQ196609 RXM196511:RXM196609 SHI196511:SHI196609 SRE196511:SRE196609 TBA196511:TBA196609 TKW196511:TKW196609 TUS196511:TUS196609 UEO196511:UEO196609 UOK196511:UOK196609 UYG196511:UYG196609 VIC196511:VIC196609 VRY196511:VRY196609 WBU196511:WBU196609 WLQ196511:WLQ196609 WVM196511:WVM196609 A262047:A262145 JA262047:JA262145 SW262047:SW262145 ACS262047:ACS262145 AMO262047:AMO262145 AWK262047:AWK262145 BGG262047:BGG262145 BQC262047:BQC262145 BZY262047:BZY262145 CJU262047:CJU262145 CTQ262047:CTQ262145 DDM262047:DDM262145 DNI262047:DNI262145 DXE262047:DXE262145 EHA262047:EHA262145 EQW262047:EQW262145 FAS262047:FAS262145 FKO262047:FKO262145 FUK262047:FUK262145 GEG262047:GEG262145 GOC262047:GOC262145 GXY262047:GXY262145 HHU262047:HHU262145 HRQ262047:HRQ262145 IBM262047:IBM262145 ILI262047:ILI262145 IVE262047:IVE262145 JFA262047:JFA262145 JOW262047:JOW262145 JYS262047:JYS262145 KIO262047:KIO262145 KSK262047:KSK262145 LCG262047:LCG262145 LMC262047:LMC262145 LVY262047:LVY262145 MFU262047:MFU262145 MPQ262047:MPQ262145 MZM262047:MZM262145 NJI262047:NJI262145 NTE262047:NTE262145 ODA262047:ODA262145 OMW262047:OMW262145 OWS262047:OWS262145 PGO262047:PGO262145 PQK262047:PQK262145 QAG262047:QAG262145 QKC262047:QKC262145 QTY262047:QTY262145 RDU262047:RDU262145 RNQ262047:RNQ262145 RXM262047:RXM262145 SHI262047:SHI262145 SRE262047:SRE262145 TBA262047:TBA262145 TKW262047:TKW262145 TUS262047:TUS262145 UEO262047:UEO262145 UOK262047:UOK262145 UYG262047:UYG262145 VIC262047:VIC262145 VRY262047:VRY262145 WBU262047:WBU262145 WLQ262047:WLQ262145 WVM262047:WVM262145 A327583:A327681 JA327583:JA327681 SW327583:SW327681 ACS327583:ACS327681 AMO327583:AMO327681 AWK327583:AWK327681 BGG327583:BGG327681 BQC327583:BQC327681 BZY327583:BZY327681 CJU327583:CJU327681 CTQ327583:CTQ327681 DDM327583:DDM327681 DNI327583:DNI327681 DXE327583:DXE327681 EHA327583:EHA327681 EQW327583:EQW327681 FAS327583:FAS327681 FKO327583:FKO327681 FUK327583:FUK327681 GEG327583:GEG327681 GOC327583:GOC327681 GXY327583:GXY327681 HHU327583:HHU327681 HRQ327583:HRQ327681 IBM327583:IBM327681 ILI327583:ILI327681 IVE327583:IVE327681 JFA327583:JFA327681 JOW327583:JOW327681 JYS327583:JYS327681 KIO327583:KIO327681 KSK327583:KSK327681 LCG327583:LCG327681 LMC327583:LMC327681 LVY327583:LVY327681 MFU327583:MFU327681 MPQ327583:MPQ327681 MZM327583:MZM327681 NJI327583:NJI327681 NTE327583:NTE327681 ODA327583:ODA327681 OMW327583:OMW327681 OWS327583:OWS327681 PGO327583:PGO327681 PQK327583:PQK327681 QAG327583:QAG327681 QKC327583:QKC327681 QTY327583:QTY327681 RDU327583:RDU327681 RNQ327583:RNQ327681 RXM327583:RXM327681 SHI327583:SHI327681 SRE327583:SRE327681 TBA327583:TBA327681 TKW327583:TKW327681 TUS327583:TUS327681 UEO327583:UEO327681 UOK327583:UOK327681 UYG327583:UYG327681 VIC327583:VIC327681 VRY327583:VRY327681 WBU327583:WBU327681 WLQ327583:WLQ327681 WVM327583:WVM327681 A393119:A393217 JA393119:JA393217 SW393119:SW393217 ACS393119:ACS393217 AMO393119:AMO393217 AWK393119:AWK393217 BGG393119:BGG393217 BQC393119:BQC393217 BZY393119:BZY393217 CJU393119:CJU393217 CTQ393119:CTQ393217 DDM393119:DDM393217 DNI393119:DNI393217 DXE393119:DXE393217 EHA393119:EHA393217 EQW393119:EQW393217 FAS393119:FAS393217 FKO393119:FKO393217 FUK393119:FUK393217 GEG393119:GEG393217 GOC393119:GOC393217 GXY393119:GXY393217 HHU393119:HHU393217 HRQ393119:HRQ393217 IBM393119:IBM393217 ILI393119:ILI393217 IVE393119:IVE393217 JFA393119:JFA393217 JOW393119:JOW393217 JYS393119:JYS393217 KIO393119:KIO393217 KSK393119:KSK393217 LCG393119:LCG393217 LMC393119:LMC393217 LVY393119:LVY393217 MFU393119:MFU393217 MPQ393119:MPQ393217 MZM393119:MZM393217 NJI393119:NJI393217 NTE393119:NTE393217 ODA393119:ODA393217 OMW393119:OMW393217 OWS393119:OWS393217 PGO393119:PGO393217 PQK393119:PQK393217 QAG393119:QAG393217 QKC393119:QKC393217 QTY393119:QTY393217 RDU393119:RDU393217 RNQ393119:RNQ393217 RXM393119:RXM393217 SHI393119:SHI393217 SRE393119:SRE393217 TBA393119:TBA393217 TKW393119:TKW393217 TUS393119:TUS393217 UEO393119:UEO393217 UOK393119:UOK393217 UYG393119:UYG393217 VIC393119:VIC393217 VRY393119:VRY393217 WBU393119:WBU393217 WLQ393119:WLQ393217 WVM393119:WVM393217 A458655:A458753 JA458655:JA458753 SW458655:SW458753 ACS458655:ACS458753 AMO458655:AMO458753 AWK458655:AWK458753 BGG458655:BGG458753 BQC458655:BQC458753 BZY458655:BZY458753 CJU458655:CJU458753 CTQ458655:CTQ458753 DDM458655:DDM458753 DNI458655:DNI458753 DXE458655:DXE458753 EHA458655:EHA458753 EQW458655:EQW458753 FAS458655:FAS458753 FKO458655:FKO458753 FUK458655:FUK458753 GEG458655:GEG458753 GOC458655:GOC458753 GXY458655:GXY458753 HHU458655:HHU458753 HRQ458655:HRQ458753 IBM458655:IBM458753 ILI458655:ILI458753 IVE458655:IVE458753 JFA458655:JFA458753 JOW458655:JOW458753 JYS458655:JYS458753 KIO458655:KIO458753 KSK458655:KSK458753 LCG458655:LCG458753 LMC458655:LMC458753 LVY458655:LVY458753 MFU458655:MFU458753 MPQ458655:MPQ458753 MZM458655:MZM458753 NJI458655:NJI458753 NTE458655:NTE458753 ODA458655:ODA458753 OMW458655:OMW458753 OWS458655:OWS458753 PGO458655:PGO458753 PQK458655:PQK458753 QAG458655:QAG458753 QKC458655:QKC458753 QTY458655:QTY458753 RDU458655:RDU458753 RNQ458655:RNQ458753 RXM458655:RXM458753 SHI458655:SHI458753 SRE458655:SRE458753 TBA458655:TBA458753 TKW458655:TKW458753 TUS458655:TUS458753 UEO458655:UEO458753 UOK458655:UOK458753 UYG458655:UYG458753 VIC458655:VIC458753 VRY458655:VRY458753 WBU458655:WBU458753 WLQ458655:WLQ458753 WVM458655:WVM458753 A524191:A524289 JA524191:JA524289 SW524191:SW524289 ACS524191:ACS524289 AMO524191:AMO524289 AWK524191:AWK524289 BGG524191:BGG524289 BQC524191:BQC524289 BZY524191:BZY524289 CJU524191:CJU524289 CTQ524191:CTQ524289 DDM524191:DDM524289 DNI524191:DNI524289 DXE524191:DXE524289 EHA524191:EHA524289 EQW524191:EQW524289 FAS524191:FAS524289 FKO524191:FKO524289 FUK524191:FUK524289 GEG524191:GEG524289 GOC524191:GOC524289 GXY524191:GXY524289 HHU524191:HHU524289 HRQ524191:HRQ524289 IBM524191:IBM524289 ILI524191:ILI524289 IVE524191:IVE524289 JFA524191:JFA524289 JOW524191:JOW524289 JYS524191:JYS524289 KIO524191:KIO524289 KSK524191:KSK524289 LCG524191:LCG524289 LMC524191:LMC524289 LVY524191:LVY524289 MFU524191:MFU524289 MPQ524191:MPQ524289 MZM524191:MZM524289 NJI524191:NJI524289 NTE524191:NTE524289 ODA524191:ODA524289 OMW524191:OMW524289 OWS524191:OWS524289 PGO524191:PGO524289 PQK524191:PQK524289 QAG524191:QAG524289 QKC524191:QKC524289 QTY524191:QTY524289 RDU524191:RDU524289 RNQ524191:RNQ524289 RXM524191:RXM524289 SHI524191:SHI524289 SRE524191:SRE524289 TBA524191:TBA524289 TKW524191:TKW524289 TUS524191:TUS524289 UEO524191:UEO524289 UOK524191:UOK524289 UYG524191:UYG524289 VIC524191:VIC524289 VRY524191:VRY524289 WBU524191:WBU524289 WLQ524191:WLQ524289 WVM524191:WVM524289 A589727:A589825 JA589727:JA589825 SW589727:SW589825 ACS589727:ACS589825 AMO589727:AMO589825 AWK589727:AWK589825 BGG589727:BGG589825 BQC589727:BQC589825 BZY589727:BZY589825 CJU589727:CJU589825 CTQ589727:CTQ589825 DDM589727:DDM589825 DNI589727:DNI589825 DXE589727:DXE589825 EHA589727:EHA589825 EQW589727:EQW589825 FAS589727:FAS589825 FKO589727:FKO589825 FUK589727:FUK589825 GEG589727:GEG589825 GOC589727:GOC589825 GXY589727:GXY589825 HHU589727:HHU589825 HRQ589727:HRQ589825 IBM589727:IBM589825 ILI589727:ILI589825 IVE589727:IVE589825 JFA589727:JFA589825 JOW589727:JOW589825 JYS589727:JYS589825 KIO589727:KIO589825 KSK589727:KSK589825 LCG589727:LCG589825 LMC589727:LMC589825 LVY589727:LVY589825 MFU589727:MFU589825 MPQ589727:MPQ589825 MZM589727:MZM589825 NJI589727:NJI589825 NTE589727:NTE589825 ODA589727:ODA589825 OMW589727:OMW589825 OWS589727:OWS589825 PGO589727:PGO589825 PQK589727:PQK589825 QAG589727:QAG589825 QKC589727:QKC589825 QTY589727:QTY589825 RDU589727:RDU589825 RNQ589727:RNQ589825 RXM589727:RXM589825 SHI589727:SHI589825 SRE589727:SRE589825 TBA589727:TBA589825 TKW589727:TKW589825 TUS589727:TUS589825 UEO589727:UEO589825 UOK589727:UOK589825 UYG589727:UYG589825 VIC589727:VIC589825 VRY589727:VRY589825 WBU589727:WBU589825 WLQ589727:WLQ589825 WVM589727:WVM589825 A655263:A655361 JA655263:JA655361 SW655263:SW655361 ACS655263:ACS655361 AMO655263:AMO655361 AWK655263:AWK655361 BGG655263:BGG655361 BQC655263:BQC655361 BZY655263:BZY655361 CJU655263:CJU655361 CTQ655263:CTQ655361 DDM655263:DDM655361 DNI655263:DNI655361 DXE655263:DXE655361 EHA655263:EHA655361 EQW655263:EQW655361 FAS655263:FAS655361 FKO655263:FKO655361 FUK655263:FUK655361 GEG655263:GEG655361 GOC655263:GOC655361 GXY655263:GXY655361 HHU655263:HHU655361 HRQ655263:HRQ655361 IBM655263:IBM655361 ILI655263:ILI655361 IVE655263:IVE655361 JFA655263:JFA655361 JOW655263:JOW655361 JYS655263:JYS655361 KIO655263:KIO655361 KSK655263:KSK655361 LCG655263:LCG655361 LMC655263:LMC655361 LVY655263:LVY655361 MFU655263:MFU655361 MPQ655263:MPQ655361 MZM655263:MZM655361 NJI655263:NJI655361 NTE655263:NTE655361 ODA655263:ODA655361 OMW655263:OMW655361 OWS655263:OWS655361 PGO655263:PGO655361 PQK655263:PQK655361 QAG655263:QAG655361 QKC655263:QKC655361 QTY655263:QTY655361 RDU655263:RDU655361 RNQ655263:RNQ655361 RXM655263:RXM655361 SHI655263:SHI655361 SRE655263:SRE655361 TBA655263:TBA655361 TKW655263:TKW655361 TUS655263:TUS655361 UEO655263:UEO655361 UOK655263:UOK655361 UYG655263:UYG655361 VIC655263:VIC655361 VRY655263:VRY655361 WBU655263:WBU655361 WLQ655263:WLQ655361 WVM655263:WVM655361 A720799:A720897 JA720799:JA720897 SW720799:SW720897 ACS720799:ACS720897 AMO720799:AMO720897 AWK720799:AWK720897 BGG720799:BGG720897 BQC720799:BQC720897 BZY720799:BZY720897 CJU720799:CJU720897 CTQ720799:CTQ720897 DDM720799:DDM720897 DNI720799:DNI720897 DXE720799:DXE720897 EHA720799:EHA720897 EQW720799:EQW720897 FAS720799:FAS720897 FKO720799:FKO720897 FUK720799:FUK720897 GEG720799:GEG720897 GOC720799:GOC720897 GXY720799:GXY720897 HHU720799:HHU720897 HRQ720799:HRQ720897 IBM720799:IBM720897 ILI720799:ILI720897 IVE720799:IVE720897 JFA720799:JFA720897 JOW720799:JOW720897 JYS720799:JYS720897 KIO720799:KIO720897 KSK720799:KSK720897 LCG720799:LCG720897 LMC720799:LMC720897 LVY720799:LVY720897 MFU720799:MFU720897 MPQ720799:MPQ720897 MZM720799:MZM720897 NJI720799:NJI720897 NTE720799:NTE720897 ODA720799:ODA720897 OMW720799:OMW720897 OWS720799:OWS720897 PGO720799:PGO720897 PQK720799:PQK720897 QAG720799:QAG720897 QKC720799:QKC720897 QTY720799:QTY720897 RDU720799:RDU720897 RNQ720799:RNQ720897 RXM720799:RXM720897 SHI720799:SHI720897 SRE720799:SRE720897 TBA720799:TBA720897 TKW720799:TKW720897 TUS720799:TUS720897 UEO720799:UEO720897 UOK720799:UOK720897 UYG720799:UYG720897 VIC720799:VIC720897 VRY720799:VRY720897 WBU720799:WBU720897 WLQ720799:WLQ720897 WVM720799:WVM720897 A786335:A786433 JA786335:JA786433 SW786335:SW786433 ACS786335:ACS786433 AMO786335:AMO786433 AWK786335:AWK786433 BGG786335:BGG786433 BQC786335:BQC786433 BZY786335:BZY786433 CJU786335:CJU786433 CTQ786335:CTQ786433 DDM786335:DDM786433 DNI786335:DNI786433 DXE786335:DXE786433 EHA786335:EHA786433 EQW786335:EQW786433 FAS786335:FAS786433 FKO786335:FKO786433 FUK786335:FUK786433 GEG786335:GEG786433 GOC786335:GOC786433 GXY786335:GXY786433 HHU786335:HHU786433 HRQ786335:HRQ786433 IBM786335:IBM786433 ILI786335:ILI786433 IVE786335:IVE786433 JFA786335:JFA786433 JOW786335:JOW786433 JYS786335:JYS786433 KIO786335:KIO786433 KSK786335:KSK786433 LCG786335:LCG786433 LMC786335:LMC786433 LVY786335:LVY786433 MFU786335:MFU786433 MPQ786335:MPQ786433 MZM786335:MZM786433 NJI786335:NJI786433 NTE786335:NTE786433 ODA786335:ODA786433 OMW786335:OMW786433 OWS786335:OWS786433 PGO786335:PGO786433 PQK786335:PQK786433 QAG786335:QAG786433 QKC786335:QKC786433 QTY786335:QTY786433 RDU786335:RDU786433 RNQ786335:RNQ786433 RXM786335:RXM786433 SHI786335:SHI786433 SRE786335:SRE786433 TBA786335:TBA786433 TKW786335:TKW786433 TUS786335:TUS786433 UEO786335:UEO786433 UOK786335:UOK786433 UYG786335:UYG786433 VIC786335:VIC786433 VRY786335:VRY786433 WBU786335:WBU786433 WLQ786335:WLQ786433 WVM786335:WVM786433 A851871:A851969 JA851871:JA851969 SW851871:SW851969 ACS851871:ACS851969 AMO851871:AMO851969 AWK851871:AWK851969 BGG851871:BGG851969 BQC851871:BQC851969 BZY851871:BZY851969 CJU851871:CJU851969 CTQ851871:CTQ851969 DDM851871:DDM851969 DNI851871:DNI851969 DXE851871:DXE851969 EHA851871:EHA851969 EQW851871:EQW851969 FAS851871:FAS851969 FKO851871:FKO851969 FUK851871:FUK851969 GEG851871:GEG851969 GOC851871:GOC851969 GXY851871:GXY851969 HHU851871:HHU851969 HRQ851871:HRQ851969 IBM851871:IBM851969 ILI851871:ILI851969 IVE851871:IVE851969 JFA851871:JFA851969 JOW851871:JOW851969 JYS851871:JYS851969 KIO851871:KIO851969 KSK851871:KSK851969 LCG851871:LCG851969 LMC851871:LMC851969 LVY851871:LVY851969 MFU851871:MFU851969 MPQ851871:MPQ851969 MZM851871:MZM851969 NJI851871:NJI851969 NTE851871:NTE851969 ODA851871:ODA851969 OMW851871:OMW851969 OWS851871:OWS851969 PGO851871:PGO851969 PQK851871:PQK851969 QAG851871:QAG851969 QKC851871:QKC851969 QTY851871:QTY851969 RDU851871:RDU851969 RNQ851871:RNQ851969 RXM851871:RXM851969 SHI851871:SHI851969 SRE851871:SRE851969 TBA851871:TBA851969 TKW851871:TKW851969 TUS851871:TUS851969 UEO851871:UEO851969 UOK851871:UOK851969 UYG851871:UYG851969 VIC851871:VIC851969 VRY851871:VRY851969 WBU851871:WBU851969 WLQ851871:WLQ851969 WVM851871:WVM851969 A917407:A917505 JA917407:JA917505 SW917407:SW917505 ACS917407:ACS917505 AMO917407:AMO917505 AWK917407:AWK917505 BGG917407:BGG917505 BQC917407:BQC917505 BZY917407:BZY917505 CJU917407:CJU917505 CTQ917407:CTQ917505 DDM917407:DDM917505 DNI917407:DNI917505 DXE917407:DXE917505 EHA917407:EHA917505 EQW917407:EQW917505 FAS917407:FAS917505 FKO917407:FKO917505 FUK917407:FUK917505 GEG917407:GEG917505 GOC917407:GOC917505 GXY917407:GXY917505 HHU917407:HHU917505 HRQ917407:HRQ917505 IBM917407:IBM917505 ILI917407:ILI917505 IVE917407:IVE917505 JFA917407:JFA917505 JOW917407:JOW917505 JYS917407:JYS917505 KIO917407:KIO917505 KSK917407:KSK917505 LCG917407:LCG917505 LMC917407:LMC917505 LVY917407:LVY917505 MFU917407:MFU917505 MPQ917407:MPQ917505 MZM917407:MZM917505 NJI917407:NJI917505 NTE917407:NTE917505 ODA917407:ODA917505 OMW917407:OMW917505 OWS917407:OWS917505 PGO917407:PGO917505 PQK917407:PQK917505 QAG917407:QAG917505 QKC917407:QKC917505 QTY917407:QTY917505 RDU917407:RDU917505 RNQ917407:RNQ917505 RXM917407:RXM917505 SHI917407:SHI917505 SRE917407:SRE917505 TBA917407:TBA917505 TKW917407:TKW917505 TUS917407:TUS917505 UEO917407:UEO917505 UOK917407:UOK917505 UYG917407:UYG917505 VIC917407:VIC917505 VRY917407:VRY917505 WBU917407:WBU917505 WLQ917407:WLQ917505 WVM917407:WVM917505 A982943:A983041 JA982943:JA983041 SW982943:SW983041 ACS982943:ACS983041 AMO982943:AMO983041 AWK982943:AWK983041 BGG982943:BGG983041 BQC982943:BQC983041 BZY982943:BZY983041 CJU982943:CJU983041 CTQ982943:CTQ983041 DDM982943:DDM983041 DNI982943:DNI983041 DXE982943:DXE983041 EHA982943:EHA983041 EQW982943:EQW983041 FAS982943:FAS983041 FKO982943:FKO983041 FUK982943:FUK983041 GEG982943:GEG983041 GOC982943:GOC983041 GXY982943:GXY983041 HHU982943:HHU983041 HRQ982943:HRQ983041 IBM982943:IBM983041 ILI982943:ILI983041 IVE982943:IVE983041 JFA982943:JFA983041 JOW982943:JOW983041 JYS982943:JYS983041 KIO982943:KIO983041 KSK982943:KSK983041 LCG982943:LCG983041 LMC982943:LMC983041 LVY982943:LVY983041 MFU982943:MFU983041 MPQ982943:MPQ983041 MZM982943:MZM983041 NJI982943:NJI983041 NTE982943:NTE983041 ODA982943:ODA983041 OMW982943:OMW983041 OWS982943:OWS983041 PGO982943:PGO983041 PQK982943:PQK983041 QAG982943:QAG983041 QKC982943:QKC983041 QTY982943:QTY983041 RDU982943:RDU983041 RNQ982943:RNQ983041 RXM982943:RXM983041 SHI982943:SHI983041 SRE982943:SRE983041 TBA982943:TBA983041 TKW982943:TKW983041 TUS982943:TUS983041 UEO982943:UEO983041 UOK982943:UOK983041 UYG982943:UYG983041 VIC982943:VIC983041 VRY982943:VRY983041 WBU982943:WBU983041 WLQ982943:WLQ983041 WVM982943:WVM983041" xr:uid="{5381C5C1-F045-4CA9-B9B7-963E235085F7}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 KB2 TX2 ADT2 ANP2 AXL2 BHH2 BRD2 CAZ2 CKV2 CUR2 DEN2 DOJ2 DYF2 EIB2 ERX2 FBT2 FLP2 FVL2 GFH2 GPD2 GYZ2 HIV2 HSR2 ICN2 IMJ2 IWF2 JGB2 JPX2 JZT2 KJP2 KTL2 LDH2 LND2 LWZ2 MGV2 MQR2 NAN2 NKJ2 NUF2 OEB2 ONX2 OXT2 PHP2 PRL2 QBH2 QLD2 QUZ2 REV2 ROR2 RYN2 SIJ2 SSF2 TCB2 TLX2 TVT2 UFP2 UPL2 UZH2 VJD2 VSZ2 WCV2 WMR2 WWN2 AF65439:AF65537 KB65439:KB65537 TX65439:TX65537 ADT65439:ADT65537 ANP65439:ANP65537 AXL65439:AXL65537 BHH65439:BHH65537 BRD65439:BRD65537 CAZ65439:CAZ65537 CKV65439:CKV65537 CUR65439:CUR65537 DEN65439:DEN65537 DOJ65439:DOJ65537 DYF65439:DYF65537 EIB65439:EIB65537 ERX65439:ERX65537 FBT65439:FBT65537 FLP65439:FLP65537 FVL65439:FVL65537 GFH65439:GFH65537 GPD65439:GPD65537 GYZ65439:GYZ65537 HIV65439:HIV65537 HSR65439:HSR65537 ICN65439:ICN65537 IMJ65439:IMJ65537 IWF65439:IWF65537 JGB65439:JGB65537 JPX65439:JPX65537 JZT65439:JZT65537 KJP65439:KJP65537 KTL65439:KTL65537 LDH65439:LDH65537 LND65439:LND65537 LWZ65439:LWZ65537 MGV65439:MGV65537 MQR65439:MQR65537 NAN65439:NAN65537 NKJ65439:NKJ65537 NUF65439:NUF65537 OEB65439:OEB65537 ONX65439:ONX65537 OXT65439:OXT65537 PHP65439:PHP65537 PRL65439:PRL65537 QBH65439:QBH65537 QLD65439:QLD65537 QUZ65439:QUZ65537 REV65439:REV65537 ROR65439:ROR65537 RYN65439:RYN65537 SIJ65439:SIJ65537 SSF65439:SSF65537 TCB65439:TCB65537 TLX65439:TLX65537 TVT65439:TVT65537 UFP65439:UFP65537 UPL65439:UPL65537 UZH65439:UZH65537 VJD65439:VJD65537 VSZ65439:VSZ65537 WCV65439:WCV65537 WMR65439:WMR65537 WWN65439:WWN65537 AF130975:AF131073 KB130975:KB131073 TX130975:TX131073 ADT130975:ADT131073 ANP130975:ANP131073 AXL130975:AXL131073 BHH130975:BHH131073 BRD130975:BRD131073 CAZ130975:CAZ131073 CKV130975:CKV131073 CUR130975:CUR131073 DEN130975:DEN131073 DOJ130975:DOJ131073 DYF130975:DYF131073 EIB130975:EIB131073 ERX130975:ERX131073 FBT130975:FBT131073 FLP130975:FLP131073 FVL130975:FVL131073 GFH130975:GFH131073 GPD130975:GPD131073 GYZ130975:GYZ131073 HIV130975:HIV131073 HSR130975:HSR131073 ICN130975:ICN131073 IMJ130975:IMJ131073 IWF130975:IWF131073 JGB130975:JGB131073 JPX130975:JPX131073 JZT130975:JZT131073 KJP130975:KJP131073 KTL130975:KTL131073 LDH130975:LDH131073 LND130975:LND131073 LWZ130975:LWZ131073 MGV130975:MGV131073 MQR130975:MQR131073 NAN130975:NAN131073 NKJ130975:NKJ131073 NUF130975:NUF131073 OEB130975:OEB131073 ONX130975:ONX131073 OXT130975:OXT131073 PHP130975:PHP131073 PRL130975:PRL131073 QBH130975:QBH131073 QLD130975:QLD131073 QUZ130975:QUZ131073 REV130975:REV131073 ROR130975:ROR131073 RYN130975:RYN131073 SIJ130975:SIJ131073 SSF130975:SSF131073 TCB130975:TCB131073 TLX130975:TLX131073 TVT130975:TVT131073 UFP130975:UFP131073 UPL130975:UPL131073 UZH130975:UZH131073 VJD130975:VJD131073 VSZ130975:VSZ131073 WCV130975:WCV131073 WMR130975:WMR131073 WWN130975:WWN131073 AF196511:AF196609 KB196511:KB196609 TX196511:TX196609 ADT196511:ADT196609 ANP196511:ANP196609 AXL196511:AXL196609 BHH196511:BHH196609 BRD196511:BRD196609 CAZ196511:CAZ196609 CKV196511:CKV196609 CUR196511:CUR196609 DEN196511:DEN196609 DOJ196511:DOJ196609 DYF196511:DYF196609 EIB196511:EIB196609 ERX196511:ERX196609 FBT196511:FBT196609 FLP196511:FLP196609 FVL196511:FVL196609 GFH196511:GFH196609 GPD196511:GPD196609 GYZ196511:GYZ196609 HIV196511:HIV196609 HSR196511:HSR196609 ICN196511:ICN196609 IMJ196511:IMJ196609 IWF196511:IWF196609 JGB196511:JGB196609 JPX196511:JPX196609 JZT196511:JZT196609 KJP196511:KJP196609 KTL196511:KTL196609 LDH196511:LDH196609 LND196511:LND196609 LWZ196511:LWZ196609 MGV196511:MGV196609 MQR196511:MQR196609 NAN196511:NAN196609 NKJ196511:NKJ196609 NUF196511:NUF196609 OEB196511:OEB196609 ONX196511:ONX196609 OXT196511:OXT196609 PHP196511:PHP196609 PRL196511:PRL196609 QBH196511:QBH196609 QLD196511:QLD196609 QUZ196511:QUZ196609 REV196511:REV196609 ROR196511:ROR196609 RYN196511:RYN196609 SIJ196511:SIJ196609 SSF196511:SSF196609 TCB196511:TCB196609 TLX196511:TLX196609 TVT196511:TVT196609 UFP196511:UFP196609 UPL196511:UPL196609 UZH196511:UZH196609 VJD196511:VJD196609 VSZ196511:VSZ196609 WCV196511:WCV196609 WMR196511:WMR196609 WWN196511:WWN196609 AF262047:AF262145 KB262047:KB262145 TX262047:TX262145 ADT262047:ADT262145 ANP262047:ANP262145 AXL262047:AXL262145 BHH262047:BHH262145 BRD262047:BRD262145 CAZ262047:CAZ262145 CKV262047:CKV262145 CUR262047:CUR262145 DEN262047:DEN262145 DOJ262047:DOJ262145 DYF262047:DYF262145 EIB262047:EIB262145 ERX262047:ERX262145 FBT262047:FBT262145 FLP262047:FLP262145 FVL262047:FVL262145 GFH262047:GFH262145 GPD262047:GPD262145 GYZ262047:GYZ262145 HIV262047:HIV262145 HSR262047:HSR262145 ICN262047:ICN262145 IMJ262047:IMJ262145 IWF262047:IWF262145 JGB262047:JGB262145 JPX262047:JPX262145 JZT262047:JZT262145 KJP262047:KJP262145 KTL262047:KTL262145 LDH262047:LDH262145 LND262047:LND262145 LWZ262047:LWZ262145 MGV262047:MGV262145 MQR262047:MQR262145 NAN262047:NAN262145 NKJ262047:NKJ262145 NUF262047:NUF262145 OEB262047:OEB262145 ONX262047:ONX262145 OXT262047:OXT262145 PHP262047:PHP262145 PRL262047:PRL262145 QBH262047:QBH262145 QLD262047:QLD262145 QUZ262047:QUZ262145 REV262047:REV262145 ROR262047:ROR262145 RYN262047:RYN262145 SIJ262047:SIJ262145 SSF262047:SSF262145 TCB262047:TCB262145 TLX262047:TLX262145 TVT262047:TVT262145 UFP262047:UFP262145 UPL262047:UPL262145 UZH262047:UZH262145 VJD262047:VJD262145 VSZ262047:VSZ262145 WCV262047:WCV262145 WMR262047:WMR262145 WWN262047:WWN262145 AF327583:AF327681 KB327583:KB327681 TX327583:TX327681 ADT327583:ADT327681 ANP327583:ANP327681 AXL327583:AXL327681 BHH327583:BHH327681 BRD327583:BRD327681 CAZ327583:CAZ327681 CKV327583:CKV327681 CUR327583:CUR327681 DEN327583:DEN327681 DOJ327583:DOJ327681 DYF327583:DYF327681 EIB327583:EIB327681 ERX327583:ERX327681 FBT327583:FBT327681 FLP327583:FLP327681 FVL327583:FVL327681 GFH327583:GFH327681 GPD327583:GPD327681 GYZ327583:GYZ327681 HIV327583:HIV327681 HSR327583:HSR327681 ICN327583:ICN327681 IMJ327583:IMJ327681 IWF327583:IWF327681 JGB327583:JGB327681 JPX327583:JPX327681 JZT327583:JZT327681 KJP327583:KJP327681 KTL327583:KTL327681 LDH327583:LDH327681 LND327583:LND327681 LWZ327583:LWZ327681 MGV327583:MGV327681 MQR327583:MQR327681 NAN327583:NAN327681 NKJ327583:NKJ327681 NUF327583:NUF327681 OEB327583:OEB327681 ONX327583:ONX327681 OXT327583:OXT327681 PHP327583:PHP327681 PRL327583:PRL327681 QBH327583:QBH327681 QLD327583:QLD327681 QUZ327583:QUZ327681 REV327583:REV327681 ROR327583:ROR327681 RYN327583:RYN327681 SIJ327583:SIJ327681 SSF327583:SSF327681 TCB327583:TCB327681 TLX327583:TLX327681 TVT327583:TVT327681 UFP327583:UFP327681 UPL327583:UPL327681 UZH327583:UZH327681 VJD327583:VJD327681 VSZ327583:VSZ327681 WCV327583:WCV327681 WMR327583:WMR327681 WWN327583:WWN327681 AF393119:AF393217 KB393119:KB393217 TX393119:TX393217 ADT393119:ADT393217 ANP393119:ANP393217 AXL393119:AXL393217 BHH393119:BHH393217 BRD393119:BRD393217 CAZ393119:CAZ393217 CKV393119:CKV393217 CUR393119:CUR393217 DEN393119:DEN393217 DOJ393119:DOJ393217 DYF393119:DYF393217 EIB393119:EIB393217 ERX393119:ERX393217 FBT393119:FBT393217 FLP393119:FLP393217 FVL393119:FVL393217 GFH393119:GFH393217 GPD393119:GPD393217 GYZ393119:GYZ393217 HIV393119:HIV393217 HSR393119:HSR393217 ICN393119:ICN393217 IMJ393119:IMJ393217 IWF393119:IWF393217 JGB393119:JGB393217 JPX393119:JPX393217 JZT393119:JZT393217 KJP393119:KJP393217 KTL393119:KTL393217 LDH393119:LDH393217 LND393119:LND393217 LWZ393119:LWZ393217 MGV393119:MGV393217 MQR393119:MQR393217 NAN393119:NAN393217 NKJ393119:NKJ393217 NUF393119:NUF393217 OEB393119:OEB393217 ONX393119:ONX393217 OXT393119:OXT393217 PHP393119:PHP393217 PRL393119:PRL393217 QBH393119:QBH393217 QLD393119:QLD393217 QUZ393119:QUZ393217 REV393119:REV393217 ROR393119:ROR393217 RYN393119:RYN393217 SIJ393119:SIJ393217 SSF393119:SSF393217 TCB393119:TCB393217 TLX393119:TLX393217 TVT393119:TVT393217 UFP393119:UFP393217 UPL393119:UPL393217 UZH393119:UZH393217 VJD393119:VJD393217 VSZ393119:VSZ393217 WCV393119:WCV393217 WMR393119:WMR393217 WWN393119:WWN393217 AF458655:AF458753 KB458655:KB458753 TX458655:TX458753 ADT458655:ADT458753 ANP458655:ANP458753 AXL458655:AXL458753 BHH458655:BHH458753 BRD458655:BRD458753 CAZ458655:CAZ458753 CKV458655:CKV458753 CUR458655:CUR458753 DEN458655:DEN458753 DOJ458655:DOJ458753 DYF458655:DYF458753 EIB458655:EIB458753 ERX458655:ERX458753 FBT458655:FBT458753 FLP458655:FLP458753 FVL458655:FVL458753 GFH458655:GFH458753 GPD458655:GPD458753 GYZ458655:GYZ458753 HIV458655:HIV458753 HSR458655:HSR458753 ICN458655:ICN458753 IMJ458655:IMJ458753 IWF458655:IWF458753 JGB458655:JGB458753 JPX458655:JPX458753 JZT458655:JZT458753 KJP458655:KJP458753 KTL458655:KTL458753 LDH458655:LDH458753 LND458655:LND458753 LWZ458655:LWZ458753 MGV458655:MGV458753 MQR458655:MQR458753 NAN458655:NAN458753 NKJ458655:NKJ458753 NUF458655:NUF458753 OEB458655:OEB458753 ONX458655:ONX458753 OXT458655:OXT458753 PHP458655:PHP458753 PRL458655:PRL458753 QBH458655:QBH458753 QLD458655:QLD458753 QUZ458655:QUZ458753 REV458655:REV458753 ROR458655:ROR458753 RYN458655:RYN458753 SIJ458655:SIJ458753 SSF458655:SSF458753 TCB458655:TCB458753 TLX458655:TLX458753 TVT458655:TVT458753 UFP458655:UFP458753 UPL458655:UPL458753 UZH458655:UZH458753 VJD458655:VJD458753 VSZ458655:VSZ458753 WCV458655:WCV458753 WMR458655:WMR458753 WWN458655:WWN458753 AF524191:AF524289 KB524191:KB524289 TX524191:TX524289 ADT524191:ADT524289 ANP524191:ANP524289 AXL524191:AXL524289 BHH524191:BHH524289 BRD524191:BRD524289 CAZ524191:CAZ524289 CKV524191:CKV524289 CUR524191:CUR524289 DEN524191:DEN524289 DOJ524191:DOJ524289 DYF524191:DYF524289 EIB524191:EIB524289 ERX524191:ERX524289 FBT524191:FBT524289 FLP524191:FLP524289 FVL524191:FVL524289 GFH524191:GFH524289 GPD524191:GPD524289 GYZ524191:GYZ524289 HIV524191:HIV524289 HSR524191:HSR524289 ICN524191:ICN524289 IMJ524191:IMJ524289 IWF524191:IWF524289 JGB524191:JGB524289 JPX524191:JPX524289 JZT524191:JZT524289 KJP524191:KJP524289 KTL524191:KTL524289 LDH524191:LDH524289 LND524191:LND524289 LWZ524191:LWZ524289 MGV524191:MGV524289 MQR524191:MQR524289 NAN524191:NAN524289 NKJ524191:NKJ524289 NUF524191:NUF524289 OEB524191:OEB524289 ONX524191:ONX524289 OXT524191:OXT524289 PHP524191:PHP524289 PRL524191:PRL524289 QBH524191:QBH524289 QLD524191:QLD524289 QUZ524191:QUZ524289 REV524191:REV524289 ROR524191:ROR524289 RYN524191:RYN524289 SIJ524191:SIJ524289 SSF524191:SSF524289 TCB524191:TCB524289 TLX524191:TLX524289 TVT524191:TVT524289 UFP524191:UFP524289 UPL524191:UPL524289 UZH524191:UZH524289 VJD524191:VJD524289 VSZ524191:VSZ524289 WCV524191:WCV524289 WMR524191:WMR524289 WWN524191:WWN524289 AF589727:AF589825 KB589727:KB589825 TX589727:TX589825 ADT589727:ADT589825 ANP589727:ANP589825 AXL589727:AXL589825 BHH589727:BHH589825 BRD589727:BRD589825 CAZ589727:CAZ589825 CKV589727:CKV589825 CUR589727:CUR589825 DEN589727:DEN589825 DOJ589727:DOJ589825 DYF589727:DYF589825 EIB589727:EIB589825 ERX589727:ERX589825 FBT589727:FBT589825 FLP589727:FLP589825 FVL589727:FVL589825 GFH589727:GFH589825 GPD589727:GPD589825 GYZ589727:GYZ589825 HIV589727:HIV589825 HSR589727:HSR589825 ICN589727:ICN589825 IMJ589727:IMJ589825 IWF589727:IWF589825 JGB589727:JGB589825 JPX589727:JPX589825 JZT589727:JZT589825 KJP589727:KJP589825 KTL589727:KTL589825 LDH589727:LDH589825 LND589727:LND589825 LWZ589727:LWZ589825 MGV589727:MGV589825 MQR589727:MQR589825 NAN589727:NAN589825 NKJ589727:NKJ589825 NUF589727:NUF589825 OEB589727:OEB589825 ONX589727:ONX589825 OXT589727:OXT589825 PHP589727:PHP589825 PRL589727:PRL589825 QBH589727:QBH589825 QLD589727:QLD589825 QUZ589727:QUZ589825 REV589727:REV589825 ROR589727:ROR589825 RYN589727:RYN589825 SIJ589727:SIJ589825 SSF589727:SSF589825 TCB589727:TCB589825 TLX589727:TLX589825 TVT589727:TVT589825 UFP589727:UFP589825 UPL589727:UPL589825 UZH589727:UZH589825 VJD589727:VJD589825 VSZ589727:VSZ589825 WCV589727:WCV589825 WMR589727:WMR589825 WWN589727:WWN589825 AF655263:AF655361 KB655263:KB655361 TX655263:TX655361 ADT655263:ADT655361 ANP655263:ANP655361 AXL655263:AXL655361 BHH655263:BHH655361 BRD655263:BRD655361 CAZ655263:CAZ655361 CKV655263:CKV655361 CUR655263:CUR655361 DEN655263:DEN655361 DOJ655263:DOJ655361 DYF655263:DYF655361 EIB655263:EIB655361 ERX655263:ERX655361 FBT655263:FBT655361 FLP655263:FLP655361 FVL655263:FVL655361 GFH655263:GFH655361 GPD655263:GPD655361 GYZ655263:GYZ655361 HIV655263:HIV655361 HSR655263:HSR655361 ICN655263:ICN655361 IMJ655263:IMJ655361 IWF655263:IWF655361 JGB655263:JGB655361 JPX655263:JPX655361 JZT655263:JZT655361 KJP655263:KJP655361 KTL655263:KTL655361 LDH655263:LDH655361 LND655263:LND655361 LWZ655263:LWZ655361 MGV655263:MGV655361 MQR655263:MQR655361 NAN655263:NAN655361 NKJ655263:NKJ655361 NUF655263:NUF655361 OEB655263:OEB655361 ONX655263:ONX655361 OXT655263:OXT655361 PHP655263:PHP655361 PRL655263:PRL655361 QBH655263:QBH655361 QLD655263:QLD655361 QUZ655263:QUZ655361 REV655263:REV655361 ROR655263:ROR655361 RYN655263:RYN655361 SIJ655263:SIJ655361 SSF655263:SSF655361 TCB655263:TCB655361 TLX655263:TLX655361 TVT655263:TVT655361 UFP655263:UFP655361 UPL655263:UPL655361 UZH655263:UZH655361 VJD655263:VJD655361 VSZ655263:VSZ655361 WCV655263:WCV655361 WMR655263:WMR655361 WWN655263:WWN655361 AF720799:AF720897 KB720799:KB720897 TX720799:TX720897 ADT720799:ADT720897 ANP720799:ANP720897 AXL720799:AXL720897 BHH720799:BHH720897 BRD720799:BRD720897 CAZ720799:CAZ720897 CKV720799:CKV720897 CUR720799:CUR720897 DEN720799:DEN720897 DOJ720799:DOJ720897 DYF720799:DYF720897 EIB720799:EIB720897 ERX720799:ERX720897 FBT720799:FBT720897 FLP720799:FLP720897 FVL720799:FVL720897 GFH720799:GFH720897 GPD720799:GPD720897 GYZ720799:GYZ720897 HIV720799:HIV720897 HSR720799:HSR720897 ICN720799:ICN720897 IMJ720799:IMJ720897 IWF720799:IWF720897 JGB720799:JGB720897 JPX720799:JPX720897 JZT720799:JZT720897 KJP720799:KJP720897 KTL720799:KTL720897 LDH720799:LDH720897 LND720799:LND720897 LWZ720799:LWZ720897 MGV720799:MGV720897 MQR720799:MQR720897 NAN720799:NAN720897 NKJ720799:NKJ720897 NUF720799:NUF720897 OEB720799:OEB720897 ONX720799:ONX720897 OXT720799:OXT720897 PHP720799:PHP720897 PRL720799:PRL720897 QBH720799:QBH720897 QLD720799:QLD720897 QUZ720799:QUZ720897 REV720799:REV720897 ROR720799:ROR720897 RYN720799:RYN720897 SIJ720799:SIJ720897 SSF720799:SSF720897 TCB720799:TCB720897 TLX720799:TLX720897 TVT720799:TVT720897 UFP720799:UFP720897 UPL720799:UPL720897 UZH720799:UZH720897 VJD720799:VJD720897 VSZ720799:VSZ720897 WCV720799:WCV720897 WMR720799:WMR720897 WWN720799:WWN720897 AF786335:AF786433 KB786335:KB786433 TX786335:TX786433 ADT786335:ADT786433 ANP786335:ANP786433 AXL786335:AXL786433 BHH786335:BHH786433 BRD786335:BRD786433 CAZ786335:CAZ786433 CKV786335:CKV786433 CUR786335:CUR786433 DEN786335:DEN786433 DOJ786335:DOJ786433 DYF786335:DYF786433 EIB786335:EIB786433 ERX786335:ERX786433 FBT786335:FBT786433 FLP786335:FLP786433 FVL786335:FVL786433 GFH786335:GFH786433 GPD786335:GPD786433 GYZ786335:GYZ786433 HIV786335:HIV786433 HSR786335:HSR786433 ICN786335:ICN786433 IMJ786335:IMJ786433 IWF786335:IWF786433 JGB786335:JGB786433 JPX786335:JPX786433 JZT786335:JZT786433 KJP786335:KJP786433 KTL786335:KTL786433 LDH786335:LDH786433 LND786335:LND786433 LWZ786335:LWZ786433 MGV786335:MGV786433 MQR786335:MQR786433 NAN786335:NAN786433 NKJ786335:NKJ786433 NUF786335:NUF786433 OEB786335:OEB786433 ONX786335:ONX786433 OXT786335:OXT786433 PHP786335:PHP786433 PRL786335:PRL786433 QBH786335:QBH786433 QLD786335:QLD786433 QUZ786335:QUZ786433 REV786335:REV786433 ROR786335:ROR786433 RYN786335:RYN786433 SIJ786335:SIJ786433 SSF786335:SSF786433 TCB786335:TCB786433 TLX786335:TLX786433 TVT786335:TVT786433 UFP786335:UFP786433 UPL786335:UPL786433 UZH786335:UZH786433 VJD786335:VJD786433 VSZ786335:VSZ786433 WCV786335:WCV786433 WMR786335:WMR786433 WWN786335:WWN786433 AF851871:AF851969 KB851871:KB851969 TX851871:TX851969 ADT851871:ADT851969 ANP851871:ANP851969 AXL851871:AXL851969 BHH851871:BHH851969 BRD851871:BRD851969 CAZ851871:CAZ851969 CKV851871:CKV851969 CUR851871:CUR851969 DEN851871:DEN851969 DOJ851871:DOJ851969 DYF851871:DYF851969 EIB851871:EIB851969 ERX851871:ERX851969 FBT851871:FBT851969 FLP851871:FLP851969 FVL851871:FVL851969 GFH851871:GFH851969 GPD851871:GPD851969 GYZ851871:GYZ851969 HIV851871:HIV851969 HSR851871:HSR851969 ICN851871:ICN851969 IMJ851871:IMJ851969 IWF851871:IWF851969 JGB851871:JGB851969 JPX851871:JPX851969 JZT851871:JZT851969 KJP851871:KJP851969 KTL851871:KTL851969 LDH851871:LDH851969 LND851871:LND851969 LWZ851871:LWZ851969 MGV851871:MGV851969 MQR851871:MQR851969 NAN851871:NAN851969 NKJ851871:NKJ851969 NUF851871:NUF851969 OEB851871:OEB851969 ONX851871:ONX851969 OXT851871:OXT851969 PHP851871:PHP851969 PRL851871:PRL851969 QBH851871:QBH851969 QLD851871:QLD851969 QUZ851871:QUZ851969 REV851871:REV851969 ROR851871:ROR851969 RYN851871:RYN851969 SIJ851871:SIJ851969 SSF851871:SSF851969 TCB851871:TCB851969 TLX851871:TLX851969 TVT851871:TVT851969 UFP851871:UFP851969 UPL851871:UPL851969 UZH851871:UZH851969 VJD851871:VJD851969 VSZ851871:VSZ851969 WCV851871:WCV851969 WMR851871:WMR851969 WWN851871:WWN851969 AF917407:AF917505 KB917407:KB917505 TX917407:TX917505 ADT917407:ADT917505 ANP917407:ANP917505 AXL917407:AXL917505 BHH917407:BHH917505 BRD917407:BRD917505 CAZ917407:CAZ917505 CKV917407:CKV917505 CUR917407:CUR917505 DEN917407:DEN917505 DOJ917407:DOJ917505 DYF917407:DYF917505 EIB917407:EIB917505 ERX917407:ERX917505 FBT917407:FBT917505 FLP917407:FLP917505 FVL917407:FVL917505 GFH917407:GFH917505 GPD917407:GPD917505 GYZ917407:GYZ917505 HIV917407:HIV917505 HSR917407:HSR917505 ICN917407:ICN917505 IMJ917407:IMJ917505 IWF917407:IWF917505 JGB917407:JGB917505 JPX917407:JPX917505 JZT917407:JZT917505 KJP917407:KJP917505 KTL917407:KTL917505 LDH917407:LDH917505 LND917407:LND917505 LWZ917407:LWZ917505 MGV917407:MGV917505 MQR917407:MQR917505 NAN917407:NAN917505 NKJ917407:NKJ917505 NUF917407:NUF917505 OEB917407:OEB917505 ONX917407:ONX917505 OXT917407:OXT917505 PHP917407:PHP917505 PRL917407:PRL917505 QBH917407:QBH917505 QLD917407:QLD917505 QUZ917407:QUZ917505 REV917407:REV917505 ROR917407:ROR917505 RYN917407:RYN917505 SIJ917407:SIJ917505 SSF917407:SSF917505 TCB917407:TCB917505 TLX917407:TLX917505 TVT917407:TVT917505 UFP917407:UFP917505 UPL917407:UPL917505 UZH917407:UZH917505 VJD917407:VJD917505 VSZ917407:VSZ917505 WCV917407:WCV917505 WMR917407:WMR917505 WWN917407:WWN917505 AF982943:AF983041 KB982943:KB983041 TX982943:TX983041 ADT982943:ADT983041 ANP982943:ANP983041 AXL982943:AXL983041 BHH982943:BHH983041 BRD982943:BRD983041 CAZ982943:CAZ983041 CKV982943:CKV983041 CUR982943:CUR983041 DEN982943:DEN983041 DOJ982943:DOJ983041 DYF982943:DYF983041 EIB982943:EIB983041 ERX982943:ERX983041 FBT982943:FBT983041 FLP982943:FLP983041 FVL982943:FVL983041 GFH982943:GFH983041 GPD982943:GPD983041 GYZ982943:GYZ983041 HIV982943:HIV983041 HSR982943:HSR983041 ICN982943:ICN983041 IMJ982943:IMJ983041 IWF982943:IWF983041 JGB982943:JGB983041 JPX982943:JPX983041 JZT982943:JZT983041 KJP982943:KJP983041 KTL982943:KTL983041 LDH982943:LDH983041 LND982943:LND983041 LWZ982943:LWZ983041 MGV982943:MGV983041 MQR982943:MQR983041 NAN982943:NAN983041 NKJ982943:NKJ983041 NUF982943:NUF983041 OEB982943:OEB983041 ONX982943:ONX983041 OXT982943:OXT983041 PHP982943:PHP983041 PRL982943:PRL983041 QBH982943:QBH983041 QLD982943:QLD983041 QUZ982943:QUZ983041 REV982943:REV983041 ROR982943:ROR983041 RYN982943:RYN983041 SIJ982943:SIJ983041 SSF982943:SSF983041 TCB982943:TCB983041 TLX982943:TLX983041 TVT982943:TVT983041 UFP982943:UFP983041 UPL982943:UPL983041 UZH982943:UZH983041 VJD982943:VJD983041 VSZ982943:VSZ983041 WCV982943:WCV983041 WMR982943:WMR983041 WWN982943:WWN983041 JM2 TI2 ADE2 ANA2 AWW2 BGS2 BQO2 CAK2 CKG2 CUC2 DDY2 DNU2 DXQ2 EHM2 ERI2 FBE2 FLA2 FUW2 GES2 GOO2 GYK2 HIG2 HSC2 IBY2 ILU2 IVQ2 JFM2 JPI2 JZE2 KJA2 KSW2 LCS2 LMO2 LWK2 MGG2 MQC2 MZY2 NJU2 NTQ2 ODM2 ONI2 OXE2 PHA2 PQW2 QAS2 QKO2 QUK2 REG2 ROC2 RXY2 SHU2 SRQ2 TBM2 TLI2 TVE2 UFA2 UOW2 UYS2 VIO2 VSK2 WCG2 WMC2 WVY2 JM65439:JM65537 TI65439:TI65537 ADE65439:ADE65537 ANA65439:ANA65537 AWW65439:AWW65537 BGS65439:BGS65537 BQO65439:BQO65537 CAK65439:CAK65537 CKG65439:CKG65537 CUC65439:CUC65537 DDY65439:DDY65537 DNU65439:DNU65537 DXQ65439:DXQ65537 EHM65439:EHM65537 ERI65439:ERI65537 FBE65439:FBE65537 FLA65439:FLA65537 FUW65439:FUW65537 GES65439:GES65537 GOO65439:GOO65537 GYK65439:GYK65537 HIG65439:HIG65537 HSC65439:HSC65537 IBY65439:IBY65537 ILU65439:ILU65537 IVQ65439:IVQ65537 JFM65439:JFM65537 JPI65439:JPI65537 JZE65439:JZE65537 KJA65439:KJA65537 KSW65439:KSW65537 LCS65439:LCS65537 LMO65439:LMO65537 LWK65439:LWK65537 MGG65439:MGG65537 MQC65439:MQC65537 MZY65439:MZY65537 NJU65439:NJU65537 NTQ65439:NTQ65537 ODM65439:ODM65537 ONI65439:ONI65537 OXE65439:OXE65537 PHA65439:PHA65537 PQW65439:PQW65537 QAS65439:QAS65537 QKO65439:QKO65537 QUK65439:QUK65537 REG65439:REG65537 ROC65439:ROC65537 RXY65439:RXY65537 SHU65439:SHU65537 SRQ65439:SRQ65537 TBM65439:TBM65537 TLI65439:TLI65537 TVE65439:TVE65537 UFA65439:UFA65537 UOW65439:UOW65537 UYS65439:UYS65537 VIO65439:VIO65537 VSK65439:VSK65537 WCG65439:WCG65537 WMC65439:WMC65537 WVY65439:WVY65537 JM130975:JM131073 TI130975:TI131073 ADE130975:ADE131073 ANA130975:ANA131073 AWW130975:AWW131073 BGS130975:BGS131073 BQO130975:BQO131073 CAK130975:CAK131073 CKG130975:CKG131073 CUC130975:CUC131073 DDY130975:DDY131073 DNU130975:DNU131073 DXQ130975:DXQ131073 EHM130975:EHM131073 ERI130975:ERI131073 FBE130975:FBE131073 FLA130975:FLA131073 FUW130975:FUW131073 GES130975:GES131073 GOO130975:GOO131073 GYK130975:GYK131073 HIG130975:HIG131073 HSC130975:HSC131073 IBY130975:IBY131073 ILU130975:ILU131073 IVQ130975:IVQ131073 JFM130975:JFM131073 JPI130975:JPI131073 JZE130975:JZE131073 KJA130975:KJA131073 KSW130975:KSW131073 LCS130975:LCS131073 LMO130975:LMO131073 LWK130975:LWK131073 MGG130975:MGG131073 MQC130975:MQC131073 MZY130975:MZY131073 NJU130975:NJU131073 NTQ130975:NTQ131073 ODM130975:ODM131073 ONI130975:ONI131073 OXE130975:OXE131073 PHA130975:PHA131073 PQW130975:PQW131073 QAS130975:QAS131073 QKO130975:QKO131073 QUK130975:QUK131073 REG130975:REG131073 ROC130975:ROC131073 RXY130975:RXY131073 SHU130975:SHU131073 SRQ130975:SRQ131073 TBM130975:TBM131073 TLI130975:TLI131073 TVE130975:TVE131073 UFA130975:UFA131073 UOW130975:UOW131073 UYS130975:UYS131073 VIO130975:VIO131073 VSK130975:VSK131073 WCG130975:WCG131073 WMC130975:WMC131073 WVY130975:WVY131073 JM196511:JM196609 TI196511:TI196609 ADE196511:ADE196609 ANA196511:ANA196609 AWW196511:AWW196609 BGS196511:BGS196609 BQO196511:BQO196609 CAK196511:CAK196609 CKG196511:CKG196609 CUC196511:CUC196609 DDY196511:DDY196609 DNU196511:DNU196609 DXQ196511:DXQ196609 EHM196511:EHM196609 ERI196511:ERI196609 FBE196511:FBE196609 FLA196511:FLA196609 FUW196511:FUW196609 GES196511:GES196609 GOO196511:GOO196609 GYK196511:GYK196609 HIG196511:HIG196609 HSC196511:HSC196609 IBY196511:IBY196609 ILU196511:ILU196609 IVQ196511:IVQ196609 JFM196511:JFM196609 JPI196511:JPI196609 JZE196511:JZE196609 KJA196511:KJA196609 KSW196511:KSW196609 LCS196511:LCS196609 LMO196511:LMO196609 LWK196511:LWK196609 MGG196511:MGG196609 MQC196511:MQC196609 MZY196511:MZY196609 NJU196511:NJU196609 NTQ196511:NTQ196609 ODM196511:ODM196609 ONI196511:ONI196609 OXE196511:OXE196609 PHA196511:PHA196609 PQW196511:PQW196609 QAS196511:QAS196609 QKO196511:QKO196609 QUK196511:QUK196609 REG196511:REG196609 ROC196511:ROC196609 RXY196511:RXY196609 SHU196511:SHU196609 SRQ196511:SRQ196609 TBM196511:TBM196609 TLI196511:TLI196609 TVE196511:TVE196609 UFA196511:UFA196609 UOW196511:UOW196609 UYS196511:UYS196609 VIO196511:VIO196609 VSK196511:VSK196609 WCG196511:WCG196609 WMC196511:WMC196609 WVY196511:WVY196609 JM262047:JM262145 TI262047:TI262145 ADE262047:ADE262145 ANA262047:ANA262145 AWW262047:AWW262145 BGS262047:BGS262145 BQO262047:BQO262145 CAK262047:CAK262145 CKG262047:CKG262145 CUC262047:CUC262145 DDY262047:DDY262145 DNU262047:DNU262145 DXQ262047:DXQ262145 EHM262047:EHM262145 ERI262047:ERI262145 FBE262047:FBE262145 FLA262047:FLA262145 FUW262047:FUW262145 GES262047:GES262145 GOO262047:GOO262145 GYK262047:GYK262145 HIG262047:HIG262145 HSC262047:HSC262145 IBY262047:IBY262145 ILU262047:ILU262145 IVQ262047:IVQ262145 JFM262047:JFM262145 JPI262047:JPI262145 JZE262047:JZE262145 KJA262047:KJA262145 KSW262047:KSW262145 LCS262047:LCS262145 LMO262047:LMO262145 LWK262047:LWK262145 MGG262047:MGG262145 MQC262047:MQC262145 MZY262047:MZY262145 NJU262047:NJU262145 NTQ262047:NTQ262145 ODM262047:ODM262145 ONI262047:ONI262145 OXE262047:OXE262145 PHA262047:PHA262145 PQW262047:PQW262145 QAS262047:QAS262145 QKO262047:QKO262145 QUK262047:QUK262145 REG262047:REG262145 ROC262047:ROC262145 RXY262047:RXY262145 SHU262047:SHU262145 SRQ262047:SRQ262145 TBM262047:TBM262145 TLI262047:TLI262145 TVE262047:TVE262145 UFA262047:UFA262145 UOW262047:UOW262145 UYS262047:UYS262145 VIO262047:VIO262145 VSK262047:VSK262145 WCG262047:WCG262145 WMC262047:WMC262145 WVY262047:WVY262145 JM327583:JM327681 TI327583:TI327681 ADE327583:ADE327681 ANA327583:ANA327681 AWW327583:AWW327681 BGS327583:BGS327681 BQO327583:BQO327681 CAK327583:CAK327681 CKG327583:CKG327681 CUC327583:CUC327681 DDY327583:DDY327681 DNU327583:DNU327681 DXQ327583:DXQ327681 EHM327583:EHM327681 ERI327583:ERI327681 FBE327583:FBE327681 FLA327583:FLA327681 FUW327583:FUW327681 GES327583:GES327681 GOO327583:GOO327681 GYK327583:GYK327681 HIG327583:HIG327681 HSC327583:HSC327681 IBY327583:IBY327681 ILU327583:ILU327681 IVQ327583:IVQ327681 JFM327583:JFM327681 JPI327583:JPI327681 JZE327583:JZE327681 KJA327583:KJA327681 KSW327583:KSW327681 LCS327583:LCS327681 LMO327583:LMO327681 LWK327583:LWK327681 MGG327583:MGG327681 MQC327583:MQC327681 MZY327583:MZY327681 NJU327583:NJU327681 NTQ327583:NTQ327681 ODM327583:ODM327681 ONI327583:ONI327681 OXE327583:OXE327681 PHA327583:PHA327681 PQW327583:PQW327681 QAS327583:QAS327681 QKO327583:QKO327681 QUK327583:QUK327681 REG327583:REG327681 ROC327583:ROC327681 RXY327583:RXY327681 SHU327583:SHU327681 SRQ327583:SRQ327681 TBM327583:TBM327681 TLI327583:TLI327681 TVE327583:TVE327681 UFA327583:UFA327681 UOW327583:UOW327681 UYS327583:UYS327681 VIO327583:VIO327681 VSK327583:VSK327681 WCG327583:WCG327681 WMC327583:WMC327681 WVY327583:WVY327681 JM393119:JM393217 TI393119:TI393217 ADE393119:ADE393217 ANA393119:ANA393217 AWW393119:AWW393217 BGS393119:BGS393217 BQO393119:BQO393217 CAK393119:CAK393217 CKG393119:CKG393217 CUC393119:CUC393217 DDY393119:DDY393217 DNU393119:DNU393217 DXQ393119:DXQ393217 EHM393119:EHM393217 ERI393119:ERI393217 FBE393119:FBE393217 FLA393119:FLA393217 FUW393119:FUW393217 GES393119:GES393217 GOO393119:GOO393217 GYK393119:GYK393217 HIG393119:HIG393217 HSC393119:HSC393217 IBY393119:IBY393217 ILU393119:ILU393217 IVQ393119:IVQ393217 JFM393119:JFM393217 JPI393119:JPI393217 JZE393119:JZE393217 KJA393119:KJA393217 KSW393119:KSW393217 LCS393119:LCS393217 LMO393119:LMO393217 LWK393119:LWK393217 MGG393119:MGG393217 MQC393119:MQC393217 MZY393119:MZY393217 NJU393119:NJU393217 NTQ393119:NTQ393217 ODM393119:ODM393217 ONI393119:ONI393217 OXE393119:OXE393217 PHA393119:PHA393217 PQW393119:PQW393217 QAS393119:QAS393217 QKO393119:QKO393217 QUK393119:QUK393217 REG393119:REG393217 ROC393119:ROC393217 RXY393119:RXY393217 SHU393119:SHU393217 SRQ393119:SRQ393217 TBM393119:TBM393217 TLI393119:TLI393217 TVE393119:TVE393217 UFA393119:UFA393217 UOW393119:UOW393217 UYS393119:UYS393217 VIO393119:VIO393217 VSK393119:VSK393217 WCG393119:WCG393217 WMC393119:WMC393217 WVY393119:WVY393217 JM458655:JM458753 TI458655:TI458753 ADE458655:ADE458753 ANA458655:ANA458753 AWW458655:AWW458753 BGS458655:BGS458753 BQO458655:BQO458753 CAK458655:CAK458753 CKG458655:CKG458753 CUC458655:CUC458753 DDY458655:DDY458753 DNU458655:DNU458753 DXQ458655:DXQ458753 EHM458655:EHM458753 ERI458655:ERI458753 FBE458655:FBE458753 FLA458655:FLA458753 FUW458655:FUW458753 GES458655:GES458753 GOO458655:GOO458753 GYK458655:GYK458753 HIG458655:HIG458753 HSC458655:HSC458753 IBY458655:IBY458753 ILU458655:ILU458753 IVQ458655:IVQ458753 JFM458655:JFM458753 JPI458655:JPI458753 JZE458655:JZE458753 KJA458655:KJA458753 KSW458655:KSW458753 LCS458655:LCS458753 LMO458655:LMO458753 LWK458655:LWK458753 MGG458655:MGG458753 MQC458655:MQC458753 MZY458655:MZY458753 NJU458655:NJU458753 NTQ458655:NTQ458753 ODM458655:ODM458753 ONI458655:ONI458753 OXE458655:OXE458753 PHA458655:PHA458753 PQW458655:PQW458753 QAS458655:QAS458753 QKO458655:QKO458753 QUK458655:QUK458753 REG458655:REG458753 ROC458655:ROC458753 RXY458655:RXY458753 SHU458655:SHU458753 SRQ458655:SRQ458753 TBM458655:TBM458753 TLI458655:TLI458753 TVE458655:TVE458753 UFA458655:UFA458753 UOW458655:UOW458753 UYS458655:UYS458753 VIO458655:VIO458753 VSK458655:VSK458753 WCG458655:WCG458753 WMC458655:WMC458753 WVY458655:WVY458753 JM524191:JM524289 TI524191:TI524289 ADE524191:ADE524289 ANA524191:ANA524289 AWW524191:AWW524289 BGS524191:BGS524289 BQO524191:BQO524289 CAK524191:CAK524289 CKG524191:CKG524289 CUC524191:CUC524289 DDY524191:DDY524289 DNU524191:DNU524289 DXQ524191:DXQ524289 EHM524191:EHM524289 ERI524191:ERI524289 FBE524191:FBE524289 FLA524191:FLA524289 FUW524191:FUW524289 GES524191:GES524289 GOO524191:GOO524289 GYK524191:GYK524289 HIG524191:HIG524289 HSC524191:HSC524289 IBY524191:IBY524289 ILU524191:ILU524289 IVQ524191:IVQ524289 JFM524191:JFM524289 JPI524191:JPI524289 JZE524191:JZE524289 KJA524191:KJA524289 KSW524191:KSW524289 LCS524191:LCS524289 LMO524191:LMO524289 LWK524191:LWK524289 MGG524191:MGG524289 MQC524191:MQC524289 MZY524191:MZY524289 NJU524191:NJU524289 NTQ524191:NTQ524289 ODM524191:ODM524289 ONI524191:ONI524289 OXE524191:OXE524289 PHA524191:PHA524289 PQW524191:PQW524289 QAS524191:QAS524289 QKO524191:QKO524289 QUK524191:QUK524289 REG524191:REG524289 ROC524191:ROC524289 RXY524191:RXY524289 SHU524191:SHU524289 SRQ524191:SRQ524289 TBM524191:TBM524289 TLI524191:TLI524289 TVE524191:TVE524289 UFA524191:UFA524289 UOW524191:UOW524289 UYS524191:UYS524289 VIO524191:VIO524289 VSK524191:VSK524289 WCG524191:WCG524289 WMC524191:WMC524289 WVY524191:WVY524289 JM589727:JM589825 TI589727:TI589825 ADE589727:ADE589825 ANA589727:ANA589825 AWW589727:AWW589825 BGS589727:BGS589825 BQO589727:BQO589825 CAK589727:CAK589825 CKG589727:CKG589825 CUC589727:CUC589825 DDY589727:DDY589825 DNU589727:DNU589825 DXQ589727:DXQ589825 EHM589727:EHM589825 ERI589727:ERI589825 FBE589727:FBE589825 FLA589727:FLA589825 FUW589727:FUW589825 GES589727:GES589825 GOO589727:GOO589825 GYK589727:GYK589825 HIG589727:HIG589825 HSC589727:HSC589825 IBY589727:IBY589825 ILU589727:ILU589825 IVQ589727:IVQ589825 JFM589727:JFM589825 JPI589727:JPI589825 JZE589727:JZE589825 KJA589727:KJA589825 KSW589727:KSW589825 LCS589727:LCS589825 LMO589727:LMO589825 LWK589727:LWK589825 MGG589727:MGG589825 MQC589727:MQC589825 MZY589727:MZY589825 NJU589727:NJU589825 NTQ589727:NTQ589825 ODM589727:ODM589825 ONI589727:ONI589825 OXE589727:OXE589825 PHA589727:PHA589825 PQW589727:PQW589825 QAS589727:QAS589825 QKO589727:QKO589825 QUK589727:QUK589825 REG589727:REG589825 ROC589727:ROC589825 RXY589727:RXY589825 SHU589727:SHU589825 SRQ589727:SRQ589825 TBM589727:TBM589825 TLI589727:TLI589825 TVE589727:TVE589825 UFA589727:UFA589825 UOW589727:UOW589825 UYS589727:UYS589825 VIO589727:VIO589825 VSK589727:VSK589825 WCG589727:WCG589825 WMC589727:WMC589825 WVY589727:WVY589825 JM655263:JM655361 TI655263:TI655361 ADE655263:ADE655361 ANA655263:ANA655361 AWW655263:AWW655361 BGS655263:BGS655361 BQO655263:BQO655361 CAK655263:CAK655361 CKG655263:CKG655361 CUC655263:CUC655361 DDY655263:DDY655361 DNU655263:DNU655361 DXQ655263:DXQ655361 EHM655263:EHM655361 ERI655263:ERI655361 FBE655263:FBE655361 FLA655263:FLA655361 FUW655263:FUW655361 GES655263:GES655361 GOO655263:GOO655361 GYK655263:GYK655361 HIG655263:HIG655361 HSC655263:HSC655361 IBY655263:IBY655361 ILU655263:ILU655361 IVQ655263:IVQ655361 JFM655263:JFM655361 JPI655263:JPI655361 JZE655263:JZE655361 KJA655263:KJA655361 KSW655263:KSW655361 LCS655263:LCS655361 LMO655263:LMO655361 LWK655263:LWK655361 MGG655263:MGG655361 MQC655263:MQC655361 MZY655263:MZY655361 NJU655263:NJU655361 NTQ655263:NTQ655361 ODM655263:ODM655361 ONI655263:ONI655361 OXE655263:OXE655361 PHA655263:PHA655361 PQW655263:PQW655361 QAS655263:QAS655361 QKO655263:QKO655361 QUK655263:QUK655361 REG655263:REG655361 ROC655263:ROC655361 RXY655263:RXY655361 SHU655263:SHU655361 SRQ655263:SRQ655361 TBM655263:TBM655361 TLI655263:TLI655361 TVE655263:TVE655361 UFA655263:UFA655361 UOW655263:UOW655361 UYS655263:UYS655361 VIO655263:VIO655361 VSK655263:VSK655361 WCG655263:WCG655361 WMC655263:WMC655361 WVY655263:WVY655361 JM720799:JM720897 TI720799:TI720897 ADE720799:ADE720897 ANA720799:ANA720897 AWW720799:AWW720897 BGS720799:BGS720897 BQO720799:BQO720897 CAK720799:CAK720897 CKG720799:CKG720897 CUC720799:CUC720897 DDY720799:DDY720897 DNU720799:DNU720897 DXQ720799:DXQ720897 EHM720799:EHM720897 ERI720799:ERI720897 FBE720799:FBE720897 FLA720799:FLA720897 FUW720799:FUW720897 GES720799:GES720897 GOO720799:GOO720897 GYK720799:GYK720897 HIG720799:HIG720897 HSC720799:HSC720897 IBY720799:IBY720897 ILU720799:ILU720897 IVQ720799:IVQ720897 JFM720799:JFM720897 JPI720799:JPI720897 JZE720799:JZE720897 KJA720799:KJA720897 KSW720799:KSW720897 LCS720799:LCS720897 LMO720799:LMO720897 LWK720799:LWK720897 MGG720799:MGG720897 MQC720799:MQC720897 MZY720799:MZY720897 NJU720799:NJU720897 NTQ720799:NTQ720897 ODM720799:ODM720897 ONI720799:ONI720897 OXE720799:OXE720897 PHA720799:PHA720897 PQW720799:PQW720897 QAS720799:QAS720897 QKO720799:QKO720897 QUK720799:QUK720897 REG720799:REG720897 ROC720799:ROC720897 RXY720799:RXY720897 SHU720799:SHU720897 SRQ720799:SRQ720897 TBM720799:TBM720897 TLI720799:TLI720897 TVE720799:TVE720897 UFA720799:UFA720897 UOW720799:UOW720897 UYS720799:UYS720897 VIO720799:VIO720897 VSK720799:VSK720897 WCG720799:WCG720897 WMC720799:WMC720897 WVY720799:WVY720897 JM786335:JM786433 TI786335:TI786433 ADE786335:ADE786433 ANA786335:ANA786433 AWW786335:AWW786433 BGS786335:BGS786433 BQO786335:BQO786433 CAK786335:CAK786433 CKG786335:CKG786433 CUC786335:CUC786433 DDY786335:DDY786433 DNU786335:DNU786433 DXQ786335:DXQ786433 EHM786335:EHM786433 ERI786335:ERI786433 FBE786335:FBE786433 FLA786335:FLA786433 FUW786335:FUW786433 GES786335:GES786433 GOO786335:GOO786433 GYK786335:GYK786433 HIG786335:HIG786433 HSC786335:HSC786433 IBY786335:IBY786433 ILU786335:ILU786433 IVQ786335:IVQ786433 JFM786335:JFM786433 JPI786335:JPI786433 JZE786335:JZE786433 KJA786335:KJA786433 KSW786335:KSW786433 LCS786335:LCS786433 LMO786335:LMO786433 LWK786335:LWK786433 MGG786335:MGG786433 MQC786335:MQC786433 MZY786335:MZY786433 NJU786335:NJU786433 NTQ786335:NTQ786433 ODM786335:ODM786433 ONI786335:ONI786433 OXE786335:OXE786433 PHA786335:PHA786433 PQW786335:PQW786433 QAS786335:QAS786433 QKO786335:QKO786433 QUK786335:QUK786433 REG786335:REG786433 ROC786335:ROC786433 RXY786335:RXY786433 SHU786335:SHU786433 SRQ786335:SRQ786433 TBM786335:TBM786433 TLI786335:TLI786433 TVE786335:TVE786433 UFA786335:UFA786433 UOW786335:UOW786433 UYS786335:UYS786433 VIO786335:VIO786433 VSK786335:VSK786433 WCG786335:WCG786433 WMC786335:WMC786433 WVY786335:WVY786433 JM851871:JM851969 TI851871:TI851969 ADE851871:ADE851969 ANA851871:ANA851969 AWW851871:AWW851969 BGS851871:BGS851969 BQO851871:BQO851969 CAK851871:CAK851969 CKG851871:CKG851969 CUC851871:CUC851969 DDY851871:DDY851969 DNU851871:DNU851969 DXQ851871:DXQ851969 EHM851871:EHM851969 ERI851871:ERI851969 FBE851871:FBE851969 FLA851871:FLA851969 FUW851871:FUW851969 GES851871:GES851969 GOO851871:GOO851969 GYK851871:GYK851969 HIG851871:HIG851969 HSC851871:HSC851969 IBY851871:IBY851969 ILU851871:ILU851969 IVQ851871:IVQ851969 JFM851871:JFM851969 JPI851871:JPI851969 JZE851871:JZE851969 KJA851871:KJA851969 KSW851871:KSW851969 LCS851871:LCS851969 LMO851871:LMO851969 LWK851871:LWK851969 MGG851871:MGG851969 MQC851871:MQC851969 MZY851871:MZY851969 NJU851871:NJU851969 NTQ851871:NTQ851969 ODM851871:ODM851969 ONI851871:ONI851969 OXE851871:OXE851969 PHA851871:PHA851969 PQW851871:PQW851969 QAS851871:QAS851969 QKO851871:QKO851969 QUK851871:QUK851969 REG851871:REG851969 ROC851871:ROC851969 RXY851871:RXY851969 SHU851871:SHU851969 SRQ851871:SRQ851969 TBM851871:TBM851969 TLI851871:TLI851969 TVE851871:TVE851969 UFA851871:UFA851969 UOW851871:UOW851969 UYS851871:UYS851969 VIO851871:VIO851969 VSK851871:VSK851969 WCG851871:WCG851969 WMC851871:WMC851969 WVY851871:WVY851969 JM917407:JM917505 TI917407:TI917505 ADE917407:ADE917505 ANA917407:ANA917505 AWW917407:AWW917505 BGS917407:BGS917505 BQO917407:BQO917505 CAK917407:CAK917505 CKG917407:CKG917505 CUC917407:CUC917505 DDY917407:DDY917505 DNU917407:DNU917505 DXQ917407:DXQ917505 EHM917407:EHM917505 ERI917407:ERI917505 FBE917407:FBE917505 FLA917407:FLA917505 FUW917407:FUW917505 GES917407:GES917505 GOO917407:GOO917505 GYK917407:GYK917505 HIG917407:HIG917505 HSC917407:HSC917505 IBY917407:IBY917505 ILU917407:ILU917505 IVQ917407:IVQ917505 JFM917407:JFM917505 JPI917407:JPI917505 JZE917407:JZE917505 KJA917407:KJA917505 KSW917407:KSW917505 LCS917407:LCS917505 LMO917407:LMO917505 LWK917407:LWK917505 MGG917407:MGG917505 MQC917407:MQC917505 MZY917407:MZY917505 NJU917407:NJU917505 NTQ917407:NTQ917505 ODM917407:ODM917505 ONI917407:ONI917505 OXE917407:OXE917505 PHA917407:PHA917505 PQW917407:PQW917505 QAS917407:QAS917505 QKO917407:QKO917505 QUK917407:QUK917505 REG917407:REG917505 ROC917407:ROC917505 RXY917407:RXY917505 SHU917407:SHU917505 SRQ917407:SRQ917505 TBM917407:TBM917505 TLI917407:TLI917505 TVE917407:TVE917505 UFA917407:UFA917505 UOW917407:UOW917505 UYS917407:UYS917505 VIO917407:VIO917505 VSK917407:VSK917505 WCG917407:WCG917505 WMC917407:WMC917505 WVY917407:WVY917505 JM982943:JM983041 TI982943:TI983041 ADE982943:ADE983041 ANA982943:ANA983041 AWW982943:AWW983041 BGS982943:BGS983041 BQO982943:BQO983041 CAK982943:CAK983041 CKG982943:CKG983041 CUC982943:CUC983041 DDY982943:DDY983041 DNU982943:DNU983041 DXQ982943:DXQ983041 EHM982943:EHM983041 ERI982943:ERI983041 FBE982943:FBE983041 FLA982943:FLA983041 FUW982943:FUW983041 GES982943:GES983041 GOO982943:GOO983041 GYK982943:GYK983041 HIG982943:HIG983041 HSC982943:HSC983041 IBY982943:IBY983041 ILU982943:ILU983041 IVQ982943:IVQ983041 JFM982943:JFM983041 JPI982943:JPI983041 JZE982943:JZE983041 KJA982943:KJA983041 KSW982943:KSW983041 LCS982943:LCS983041 LMO982943:LMO983041 LWK982943:LWK983041 MGG982943:MGG983041 MQC982943:MQC983041 MZY982943:MZY983041 NJU982943:NJU983041 NTQ982943:NTQ983041 ODM982943:ODM983041 ONI982943:ONI983041 OXE982943:OXE983041 PHA982943:PHA983041 PQW982943:PQW983041 QAS982943:QAS983041 QKO982943:QKO983041 QUK982943:QUK983041 REG982943:REG983041 ROC982943:ROC983041 RXY982943:RXY983041 SHU982943:SHU983041 SRQ982943:SRQ983041 TBM982943:TBM983041 TLI982943:TLI983041 TVE982943:TVE983041 UFA982943:UFA983041 UOW982943:UOW983041 UYS982943:UYS983041 VIO982943:VIO983041 VSK982943:VSK983041 WCG982943:WCG983041 WMC982943:WMC983041 WVY982943:WVY983041 G982943:G983041 G917407:G917505 G851871:G851969 G786335:G786433 G720799:G720897 G655263:G655361 G589727:G589825 G524191:G524289 G458655:G458753 G393119:G393217 G327583:G327681 G262047:G262145 G196511:G196609 G130975:G131073 G65439:G65537 G2" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 JV2 TR2 ADN2 ANJ2 AXF2 BHB2 BQX2 CAT2 CKP2 CUL2 DEH2 DOD2 DXZ2 EHV2 ERR2 FBN2 FLJ2 FVF2 GFB2 GOX2 GYT2 HIP2 HSL2 ICH2 IMD2 IVZ2 JFV2 JPR2 JZN2 KJJ2 KTF2 LDB2 LMX2 LWT2 MGP2 MQL2 NAH2 NKD2 NTZ2 ODV2 ONR2 OXN2 PHJ2 PRF2 QBB2 QKX2 QUT2 REP2 ROL2 RYH2 SID2 SRZ2 TBV2 TLR2 TVN2 UFJ2 UPF2 UZB2 VIX2 VST2 WCP2 WML2 WWH2 Z65439:Z65537 JV65439:JV65537 TR65439:TR65537 ADN65439:ADN65537 ANJ65439:ANJ65537 AXF65439:AXF65537 BHB65439:BHB65537 BQX65439:BQX65537 CAT65439:CAT65537 CKP65439:CKP65537 CUL65439:CUL65537 DEH65439:DEH65537 DOD65439:DOD65537 DXZ65439:DXZ65537 EHV65439:EHV65537 ERR65439:ERR65537 FBN65439:FBN65537 FLJ65439:FLJ65537 FVF65439:FVF65537 GFB65439:GFB65537 GOX65439:GOX65537 GYT65439:GYT65537 HIP65439:HIP65537 HSL65439:HSL65537 ICH65439:ICH65537 IMD65439:IMD65537 IVZ65439:IVZ65537 JFV65439:JFV65537 JPR65439:JPR65537 JZN65439:JZN65537 KJJ65439:KJJ65537 KTF65439:KTF65537 LDB65439:LDB65537 LMX65439:LMX65537 LWT65439:LWT65537 MGP65439:MGP65537 MQL65439:MQL65537 NAH65439:NAH65537 NKD65439:NKD65537 NTZ65439:NTZ65537 ODV65439:ODV65537 ONR65439:ONR65537 OXN65439:OXN65537 PHJ65439:PHJ65537 PRF65439:PRF65537 QBB65439:QBB65537 QKX65439:QKX65537 QUT65439:QUT65537 REP65439:REP65537 ROL65439:ROL65537 RYH65439:RYH65537 SID65439:SID65537 SRZ65439:SRZ65537 TBV65439:TBV65537 TLR65439:TLR65537 TVN65439:TVN65537 UFJ65439:UFJ65537 UPF65439:UPF65537 UZB65439:UZB65537 VIX65439:VIX65537 VST65439:VST65537 WCP65439:WCP65537 WML65439:WML65537 WWH65439:WWH65537 Z130975:Z131073 JV130975:JV131073 TR130975:TR131073 ADN130975:ADN131073 ANJ130975:ANJ131073 AXF130975:AXF131073 BHB130975:BHB131073 BQX130975:BQX131073 CAT130975:CAT131073 CKP130975:CKP131073 CUL130975:CUL131073 DEH130975:DEH131073 DOD130975:DOD131073 DXZ130975:DXZ131073 EHV130975:EHV131073 ERR130975:ERR131073 FBN130975:FBN131073 FLJ130975:FLJ131073 FVF130975:FVF131073 GFB130975:GFB131073 GOX130975:GOX131073 GYT130975:GYT131073 HIP130975:HIP131073 HSL130975:HSL131073 ICH130975:ICH131073 IMD130975:IMD131073 IVZ130975:IVZ131073 JFV130975:JFV131073 JPR130975:JPR131073 JZN130975:JZN131073 KJJ130975:KJJ131073 KTF130975:KTF131073 LDB130975:LDB131073 LMX130975:LMX131073 LWT130975:LWT131073 MGP130975:MGP131073 MQL130975:MQL131073 NAH130975:NAH131073 NKD130975:NKD131073 NTZ130975:NTZ131073 ODV130975:ODV131073 ONR130975:ONR131073 OXN130975:OXN131073 PHJ130975:PHJ131073 PRF130975:PRF131073 QBB130975:QBB131073 QKX130975:QKX131073 QUT130975:QUT131073 REP130975:REP131073 ROL130975:ROL131073 RYH130975:RYH131073 SID130975:SID131073 SRZ130975:SRZ131073 TBV130975:TBV131073 TLR130975:TLR131073 TVN130975:TVN131073 UFJ130975:UFJ131073 UPF130975:UPF131073 UZB130975:UZB131073 VIX130975:VIX131073 VST130975:VST131073 WCP130975:WCP131073 WML130975:WML131073 WWH130975:WWH131073 Z196511:Z196609 JV196511:JV196609 TR196511:TR196609 ADN196511:ADN196609 ANJ196511:ANJ196609 AXF196511:AXF196609 BHB196511:BHB196609 BQX196511:BQX196609 CAT196511:CAT196609 CKP196511:CKP196609 CUL196511:CUL196609 DEH196511:DEH196609 DOD196511:DOD196609 DXZ196511:DXZ196609 EHV196511:EHV196609 ERR196511:ERR196609 FBN196511:FBN196609 FLJ196511:FLJ196609 FVF196511:FVF196609 GFB196511:GFB196609 GOX196511:GOX196609 GYT196511:GYT196609 HIP196511:HIP196609 HSL196511:HSL196609 ICH196511:ICH196609 IMD196511:IMD196609 IVZ196511:IVZ196609 JFV196511:JFV196609 JPR196511:JPR196609 JZN196511:JZN196609 KJJ196511:KJJ196609 KTF196511:KTF196609 LDB196511:LDB196609 LMX196511:LMX196609 LWT196511:LWT196609 MGP196511:MGP196609 MQL196511:MQL196609 NAH196511:NAH196609 NKD196511:NKD196609 NTZ196511:NTZ196609 ODV196511:ODV196609 ONR196511:ONR196609 OXN196511:OXN196609 PHJ196511:PHJ196609 PRF196511:PRF196609 QBB196511:QBB196609 QKX196511:QKX196609 QUT196511:QUT196609 REP196511:REP196609 ROL196511:ROL196609 RYH196511:RYH196609 SID196511:SID196609 SRZ196511:SRZ196609 TBV196511:TBV196609 TLR196511:TLR196609 TVN196511:TVN196609 UFJ196511:UFJ196609 UPF196511:UPF196609 UZB196511:UZB196609 VIX196511:VIX196609 VST196511:VST196609 WCP196511:WCP196609 WML196511:WML196609 WWH196511:WWH196609 Z262047:Z262145 JV262047:JV262145 TR262047:TR262145 ADN262047:ADN262145 ANJ262047:ANJ262145 AXF262047:AXF262145 BHB262047:BHB262145 BQX262047:BQX262145 CAT262047:CAT262145 CKP262047:CKP262145 CUL262047:CUL262145 DEH262047:DEH262145 DOD262047:DOD262145 DXZ262047:DXZ262145 EHV262047:EHV262145 ERR262047:ERR262145 FBN262047:FBN262145 FLJ262047:FLJ262145 FVF262047:FVF262145 GFB262047:GFB262145 GOX262047:GOX262145 GYT262047:GYT262145 HIP262047:HIP262145 HSL262047:HSL262145 ICH262047:ICH262145 IMD262047:IMD262145 IVZ262047:IVZ262145 JFV262047:JFV262145 JPR262047:JPR262145 JZN262047:JZN262145 KJJ262047:KJJ262145 KTF262047:KTF262145 LDB262047:LDB262145 LMX262047:LMX262145 LWT262047:LWT262145 MGP262047:MGP262145 MQL262047:MQL262145 NAH262047:NAH262145 NKD262047:NKD262145 NTZ262047:NTZ262145 ODV262047:ODV262145 ONR262047:ONR262145 OXN262047:OXN262145 PHJ262047:PHJ262145 PRF262047:PRF262145 QBB262047:QBB262145 QKX262047:QKX262145 QUT262047:QUT262145 REP262047:REP262145 ROL262047:ROL262145 RYH262047:RYH262145 SID262047:SID262145 SRZ262047:SRZ262145 TBV262047:TBV262145 TLR262047:TLR262145 TVN262047:TVN262145 UFJ262047:UFJ262145 UPF262047:UPF262145 UZB262047:UZB262145 VIX262047:VIX262145 VST262047:VST262145 WCP262047:WCP262145 WML262047:WML262145 WWH262047:WWH262145 Z327583:Z327681 JV327583:JV327681 TR327583:TR327681 ADN327583:ADN327681 ANJ327583:ANJ327681 AXF327583:AXF327681 BHB327583:BHB327681 BQX327583:BQX327681 CAT327583:CAT327681 CKP327583:CKP327681 CUL327583:CUL327681 DEH327583:DEH327681 DOD327583:DOD327681 DXZ327583:DXZ327681 EHV327583:EHV327681 ERR327583:ERR327681 FBN327583:FBN327681 FLJ327583:FLJ327681 FVF327583:FVF327681 GFB327583:GFB327681 GOX327583:GOX327681 GYT327583:GYT327681 HIP327583:HIP327681 HSL327583:HSL327681 ICH327583:ICH327681 IMD327583:IMD327681 IVZ327583:IVZ327681 JFV327583:JFV327681 JPR327583:JPR327681 JZN327583:JZN327681 KJJ327583:KJJ327681 KTF327583:KTF327681 LDB327583:LDB327681 LMX327583:LMX327681 LWT327583:LWT327681 MGP327583:MGP327681 MQL327583:MQL327681 NAH327583:NAH327681 NKD327583:NKD327681 NTZ327583:NTZ327681 ODV327583:ODV327681 ONR327583:ONR327681 OXN327583:OXN327681 PHJ327583:PHJ327681 PRF327583:PRF327681 QBB327583:QBB327681 QKX327583:QKX327681 QUT327583:QUT327681 REP327583:REP327681 ROL327583:ROL327681 RYH327583:RYH327681 SID327583:SID327681 SRZ327583:SRZ327681 TBV327583:TBV327681 TLR327583:TLR327681 TVN327583:TVN327681 UFJ327583:UFJ327681 UPF327583:UPF327681 UZB327583:UZB327681 VIX327583:VIX327681 VST327583:VST327681 WCP327583:WCP327681 WML327583:WML327681 WWH327583:WWH327681 Z393119:Z393217 JV393119:JV393217 TR393119:TR393217 ADN393119:ADN393217 ANJ393119:ANJ393217 AXF393119:AXF393217 BHB393119:BHB393217 BQX393119:BQX393217 CAT393119:CAT393217 CKP393119:CKP393217 CUL393119:CUL393217 DEH393119:DEH393217 DOD393119:DOD393217 DXZ393119:DXZ393217 EHV393119:EHV393217 ERR393119:ERR393217 FBN393119:FBN393217 FLJ393119:FLJ393217 FVF393119:FVF393217 GFB393119:GFB393217 GOX393119:GOX393217 GYT393119:GYT393217 HIP393119:HIP393217 HSL393119:HSL393217 ICH393119:ICH393217 IMD393119:IMD393217 IVZ393119:IVZ393217 JFV393119:JFV393217 JPR393119:JPR393217 JZN393119:JZN393217 KJJ393119:KJJ393217 KTF393119:KTF393217 LDB393119:LDB393217 LMX393119:LMX393217 LWT393119:LWT393217 MGP393119:MGP393217 MQL393119:MQL393217 NAH393119:NAH393217 NKD393119:NKD393217 NTZ393119:NTZ393217 ODV393119:ODV393217 ONR393119:ONR393217 OXN393119:OXN393217 PHJ393119:PHJ393217 PRF393119:PRF393217 QBB393119:QBB393217 QKX393119:QKX393217 QUT393119:QUT393217 REP393119:REP393217 ROL393119:ROL393217 RYH393119:RYH393217 SID393119:SID393217 SRZ393119:SRZ393217 TBV393119:TBV393217 TLR393119:TLR393217 TVN393119:TVN393217 UFJ393119:UFJ393217 UPF393119:UPF393217 UZB393119:UZB393217 VIX393119:VIX393217 VST393119:VST393217 WCP393119:WCP393217 WML393119:WML393217 WWH393119:WWH393217 Z458655:Z458753 JV458655:JV458753 TR458655:TR458753 ADN458655:ADN458753 ANJ458655:ANJ458753 AXF458655:AXF458753 BHB458655:BHB458753 BQX458655:BQX458753 CAT458655:CAT458753 CKP458655:CKP458753 CUL458655:CUL458753 DEH458655:DEH458753 DOD458655:DOD458753 DXZ458655:DXZ458753 EHV458655:EHV458753 ERR458655:ERR458753 FBN458655:FBN458753 FLJ458655:FLJ458753 FVF458655:FVF458753 GFB458655:GFB458753 GOX458655:GOX458753 GYT458655:GYT458753 HIP458655:HIP458753 HSL458655:HSL458753 ICH458655:ICH458753 IMD458655:IMD458753 IVZ458655:IVZ458753 JFV458655:JFV458753 JPR458655:JPR458753 JZN458655:JZN458753 KJJ458655:KJJ458753 KTF458655:KTF458753 LDB458655:LDB458753 LMX458655:LMX458753 LWT458655:LWT458753 MGP458655:MGP458753 MQL458655:MQL458753 NAH458655:NAH458753 NKD458655:NKD458753 NTZ458655:NTZ458753 ODV458655:ODV458753 ONR458655:ONR458753 OXN458655:OXN458753 PHJ458655:PHJ458753 PRF458655:PRF458753 QBB458655:QBB458753 QKX458655:QKX458753 QUT458655:QUT458753 REP458655:REP458753 ROL458655:ROL458753 RYH458655:RYH458753 SID458655:SID458753 SRZ458655:SRZ458753 TBV458655:TBV458753 TLR458655:TLR458753 TVN458655:TVN458753 UFJ458655:UFJ458753 UPF458655:UPF458753 UZB458655:UZB458753 VIX458655:VIX458753 VST458655:VST458753 WCP458655:WCP458753 WML458655:WML458753 WWH458655:WWH458753 Z524191:Z524289 JV524191:JV524289 TR524191:TR524289 ADN524191:ADN524289 ANJ524191:ANJ524289 AXF524191:AXF524289 BHB524191:BHB524289 BQX524191:BQX524289 CAT524191:CAT524289 CKP524191:CKP524289 CUL524191:CUL524289 DEH524191:DEH524289 DOD524191:DOD524289 DXZ524191:DXZ524289 EHV524191:EHV524289 ERR524191:ERR524289 FBN524191:FBN524289 FLJ524191:FLJ524289 FVF524191:FVF524289 GFB524191:GFB524289 GOX524191:GOX524289 GYT524191:GYT524289 HIP524191:HIP524289 HSL524191:HSL524289 ICH524191:ICH524289 IMD524191:IMD524289 IVZ524191:IVZ524289 JFV524191:JFV524289 JPR524191:JPR524289 JZN524191:JZN524289 KJJ524191:KJJ524289 KTF524191:KTF524289 LDB524191:LDB524289 LMX524191:LMX524289 LWT524191:LWT524289 MGP524191:MGP524289 MQL524191:MQL524289 NAH524191:NAH524289 NKD524191:NKD524289 NTZ524191:NTZ524289 ODV524191:ODV524289 ONR524191:ONR524289 OXN524191:OXN524289 PHJ524191:PHJ524289 PRF524191:PRF524289 QBB524191:QBB524289 QKX524191:QKX524289 QUT524191:QUT524289 REP524191:REP524289 ROL524191:ROL524289 RYH524191:RYH524289 SID524191:SID524289 SRZ524191:SRZ524289 TBV524191:TBV524289 TLR524191:TLR524289 TVN524191:TVN524289 UFJ524191:UFJ524289 UPF524191:UPF524289 UZB524191:UZB524289 VIX524191:VIX524289 VST524191:VST524289 WCP524191:WCP524289 WML524191:WML524289 WWH524191:WWH524289 Z589727:Z589825 JV589727:JV589825 TR589727:TR589825 ADN589727:ADN589825 ANJ589727:ANJ589825 AXF589727:AXF589825 BHB589727:BHB589825 BQX589727:BQX589825 CAT589727:CAT589825 CKP589727:CKP589825 CUL589727:CUL589825 DEH589727:DEH589825 DOD589727:DOD589825 DXZ589727:DXZ589825 EHV589727:EHV589825 ERR589727:ERR589825 FBN589727:FBN589825 FLJ589727:FLJ589825 FVF589727:FVF589825 GFB589727:GFB589825 GOX589727:GOX589825 GYT589727:GYT589825 HIP589727:HIP589825 HSL589727:HSL589825 ICH589727:ICH589825 IMD589727:IMD589825 IVZ589727:IVZ589825 JFV589727:JFV589825 JPR589727:JPR589825 JZN589727:JZN589825 KJJ589727:KJJ589825 KTF589727:KTF589825 LDB589727:LDB589825 LMX589727:LMX589825 LWT589727:LWT589825 MGP589727:MGP589825 MQL589727:MQL589825 NAH589727:NAH589825 NKD589727:NKD589825 NTZ589727:NTZ589825 ODV589727:ODV589825 ONR589727:ONR589825 OXN589727:OXN589825 PHJ589727:PHJ589825 PRF589727:PRF589825 QBB589727:QBB589825 QKX589727:QKX589825 QUT589727:QUT589825 REP589727:REP589825 ROL589727:ROL589825 RYH589727:RYH589825 SID589727:SID589825 SRZ589727:SRZ589825 TBV589727:TBV589825 TLR589727:TLR589825 TVN589727:TVN589825 UFJ589727:UFJ589825 UPF589727:UPF589825 UZB589727:UZB589825 VIX589727:VIX589825 VST589727:VST589825 WCP589727:WCP589825 WML589727:WML589825 WWH589727:WWH589825 Z655263:Z655361 JV655263:JV655361 TR655263:TR655361 ADN655263:ADN655361 ANJ655263:ANJ655361 AXF655263:AXF655361 BHB655263:BHB655361 BQX655263:BQX655361 CAT655263:CAT655361 CKP655263:CKP655361 CUL655263:CUL655361 DEH655263:DEH655361 DOD655263:DOD655361 DXZ655263:DXZ655361 EHV655263:EHV655361 ERR655263:ERR655361 FBN655263:FBN655361 FLJ655263:FLJ655361 FVF655263:FVF655361 GFB655263:GFB655361 GOX655263:GOX655361 GYT655263:GYT655361 HIP655263:HIP655361 HSL655263:HSL655361 ICH655263:ICH655361 IMD655263:IMD655361 IVZ655263:IVZ655361 JFV655263:JFV655361 JPR655263:JPR655361 JZN655263:JZN655361 KJJ655263:KJJ655361 KTF655263:KTF655361 LDB655263:LDB655361 LMX655263:LMX655361 LWT655263:LWT655361 MGP655263:MGP655361 MQL655263:MQL655361 NAH655263:NAH655361 NKD655263:NKD655361 NTZ655263:NTZ655361 ODV655263:ODV655361 ONR655263:ONR655361 OXN655263:OXN655361 PHJ655263:PHJ655361 PRF655263:PRF655361 QBB655263:QBB655361 QKX655263:QKX655361 QUT655263:QUT655361 REP655263:REP655361 ROL655263:ROL655361 RYH655263:RYH655361 SID655263:SID655361 SRZ655263:SRZ655361 TBV655263:TBV655361 TLR655263:TLR655361 TVN655263:TVN655361 UFJ655263:UFJ655361 UPF655263:UPF655361 UZB655263:UZB655361 VIX655263:VIX655361 VST655263:VST655361 WCP655263:WCP655361 WML655263:WML655361 WWH655263:WWH655361 Z720799:Z720897 JV720799:JV720897 TR720799:TR720897 ADN720799:ADN720897 ANJ720799:ANJ720897 AXF720799:AXF720897 BHB720799:BHB720897 BQX720799:BQX720897 CAT720799:CAT720897 CKP720799:CKP720897 CUL720799:CUL720897 DEH720799:DEH720897 DOD720799:DOD720897 DXZ720799:DXZ720897 EHV720799:EHV720897 ERR720799:ERR720897 FBN720799:FBN720897 FLJ720799:FLJ720897 FVF720799:FVF720897 GFB720799:GFB720897 GOX720799:GOX720897 GYT720799:GYT720897 HIP720799:HIP720897 HSL720799:HSL720897 ICH720799:ICH720897 IMD720799:IMD720897 IVZ720799:IVZ720897 JFV720799:JFV720897 JPR720799:JPR720897 JZN720799:JZN720897 KJJ720799:KJJ720897 KTF720799:KTF720897 LDB720799:LDB720897 LMX720799:LMX720897 LWT720799:LWT720897 MGP720799:MGP720897 MQL720799:MQL720897 NAH720799:NAH720897 NKD720799:NKD720897 NTZ720799:NTZ720897 ODV720799:ODV720897 ONR720799:ONR720897 OXN720799:OXN720897 PHJ720799:PHJ720897 PRF720799:PRF720897 QBB720799:QBB720897 QKX720799:QKX720897 QUT720799:QUT720897 REP720799:REP720897 ROL720799:ROL720897 RYH720799:RYH720897 SID720799:SID720897 SRZ720799:SRZ720897 TBV720799:TBV720897 TLR720799:TLR720897 TVN720799:TVN720897 UFJ720799:UFJ720897 UPF720799:UPF720897 UZB720799:UZB720897 VIX720799:VIX720897 VST720799:VST720897 WCP720799:WCP720897 WML720799:WML720897 WWH720799:WWH720897 Z786335:Z786433 JV786335:JV786433 TR786335:TR786433 ADN786335:ADN786433 ANJ786335:ANJ786433 AXF786335:AXF786433 BHB786335:BHB786433 BQX786335:BQX786433 CAT786335:CAT786433 CKP786335:CKP786433 CUL786335:CUL786433 DEH786335:DEH786433 DOD786335:DOD786433 DXZ786335:DXZ786433 EHV786335:EHV786433 ERR786335:ERR786433 FBN786335:FBN786433 FLJ786335:FLJ786433 FVF786335:FVF786433 GFB786335:GFB786433 GOX786335:GOX786433 GYT786335:GYT786433 HIP786335:HIP786433 HSL786335:HSL786433 ICH786335:ICH786433 IMD786335:IMD786433 IVZ786335:IVZ786433 JFV786335:JFV786433 JPR786335:JPR786433 JZN786335:JZN786433 KJJ786335:KJJ786433 KTF786335:KTF786433 LDB786335:LDB786433 LMX786335:LMX786433 LWT786335:LWT786433 MGP786335:MGP786433 MQL786335:MQL786433 NAH786335:NAH786433 NKD786335:NKD786433 NTZ786335:NTZ786433 ODV786335:ODV786433 ONR786335:ONR786433 OXN786335:OXN786433 PHJ786335:PHJ786433 PRF786335:PRF786433 QBB786335:QBB786433 QKX786335:QKX786433 QUT786335:QUT786433 REP786335:REP786433 ROL786335:ROL786433 RYH786335:RYH786433 SID786335:SID786433 SRZ786335:SRZ786433 TBV786335:TBV786433 TLR786335:TLR786433 TVN786335:TVN786433 UFJ786335:UFJ786433 UPF786335:UPF786433 UZB786335:UZB786433 VIX786335:VIX786433 VST786335:VST786433 WCP786335:WCP786433 WML786335:WML786433 WWH786335:WWH786433 Z851871:Z851969 JV851871:JV851969 TR851871:TR851969 ADN851871:ADN851969 ANJ851871:ANJ851969 AXF851871:AXF851969 BHB851871:BHB851969 BQX851871:BQX851969 CAT851871:CAT851969 CKP851871:CKP851969 CUL851871:CUL851969 DEH851871:DEH851969 DOD851871:DOD851969 DXZ851871:DXZ851969 EHV851871:EHV851969 ERR851871:ERR851969 FBN851871:FBN851969 FLJ851871:FLJ851969 FVF851871:FVF851969 GFB851871:GFB851969 GOX851871:GOX851969 GYT851871:GYT851969 HIP851871:HIP851969 HSL851871:HSL851969 ICH851871:ICH851969 IMD851871:IMD851969 IVZ851871:IVZ851969 JFV851871:JFV851969 JPR851871:JPR851969 JZN851871:JZN851969 KJJ851871:KJJ851969 KTF851871:KTF851969 LDB851871:LDB851969 LMX851871:LMX851969 LWT851871:LWT851969 MGP851871:MGP851969 MQL851871:MQL851969 NAH851871:NAH851969 NKD851871:NKD851969 NTZ851871:NTZ851969 ODV851871:ODV851969 ONR851871:ONR851969 OXN851871:OXN851969 PHJ851871:PHJ851969 PRF851871:PRF851969 QBB851871:QBB851969 QKX851871:QKX851969 QUT851871:QUT851969 REP851871:REP851969 ROL851871:ROL851969 RYH851871:RYH851969 SID851871:SID851969 SRZ851871:SRZ851969 TBV851871:TBV851969 TLR851871:TLR851969 TVN851871:TVN851969 UFJ851871:UFJ851969 UPF851871:UPF851969 UZB851871:UZB851969 VIX851871:VIX851969 VST851871:VST851969 WCP851871:WCP851969 WML851871:WML851969 WWH851871:WWH851969 Z917407:Z917505 JV917407:JV917505 TR917407:TR917505 ADN917407:ADN917505 ANJ917407:ANJ917505 AXF917407:AXF917505 BHB917407:BHB917505 BQX917407:BQX917505 CAT917407:CAT917505 CKP917407:CKP917505 CUL917407:CUL917505 DEH917407:DEH917505 DOD917407:DOD917505 DXZ917407:DXZ917505 EHV917407:EHV917505 ERR917407:ERR917505 FBN917407:FBN917505 FLJ917407:FLJ917505 FVF917407:FVF917505 GFB917407:GFB917505 GOX917407:GOX917505 GYT917407:GYT917505 HIP917407:HIP917505 HSL917407:HSL917505 ICH917407:ICH917505 IMD917407:IMD917505 IVZ917407:IVZ917505 JFV917407:JFV917505 JPR917407:JPR917505 JZN917407:JZN917505 KJJ917407:KJJ917505 KTF917407:KTF917505 LDB917407:LDB917505 LMX917407:LMX917505 LWT917407:LWT917505 MGP917407:MGP917505 MQL917407:MQL917505 NAH917407:NAH917505 NKD917407:NKD917505 NTZ917407:NTZ917505 ODV917407:ODV917505 ONR917407:ONR917505 OXN917407:OXN917505 PHJ917407:PHJ917505 PRF917407:PRF917505 QBB917407:QBB917505 QKX917407:QKX917505 QUT917407:QUT917505 REP917407:REP917505 ROL917407:ROL917505 RYH917407:RYH917505 SID917407:SID917505 SRZ917407:SRZ917505 TBV917407:TBV917505 TLR917407:TLR917505 TVN917407:TVN917505 UFJ917407:UFJ917505 UPF917407:UPF917505 UZB917407:UZB917505 VIX917407:VIX917505 VST917407:VST917505 WCP917407:WCP917505 WML917407:WML917505 WWH917407:WWH917505 Z982943:Z983041 JV982943:JV983041 TR982943:TR983041 ADN982943:ADN983041 ANJ982943:ANJ983041 AXF982943:AXF983041 BHB982943:BHB983041 BQX982943:BQX983041 CAT982943:CAT983041 CKP982943:CKP983041 CUL982943:CUL983041 DEH982943:DEH983041 DOD982943:DOD983041 DXZ982943:DXZ983041 EHV982943:EHV983041 ERR982943:ERR983041 FBN982943:FBN983041 FLJ982943:FLJ983041 FVF982943:FVF983041 GFB982943:GFB983041 GOX982943:GOX983041 GYT982943:GYT983041 HIP982943:HIP983041 HSL982943:HSL983041 ICH982943:ICH983041 IMD982943:IMD983041 IVZ982943:IVZ983041 JFV982943:JFV983041 JPR982943:JPR983041 JZN982943:JZN983041 KJJ982943:KJJ983041 KTF982943:KTF983041 LDB982943:LDB983041 LMX982943:LMX983041 LWT982943:LWT983041 MGP982943:MGP983041 MQL982943:MQL983041 NAH982943:NAH983041 NKD982943:NKD983041 NTZ982943:NTZ983041 ODV982943:ODV983041 ONR982943:ONR983041 OXN982943:OXN983041 PHJ982943:PHJ983041 PRF982943:PRF983041 QBB982943:QBB983041 QKX982943:QKX983041 QUT982943:QUT983041 REP982943:REP983041 ROL982943:ROL983041 RYH982943:RYH983041 SID982943:SID983041 SRZ982943:SRZ983041 TBV982943:TBV983041 TLR982943:TLR983041 TVN982943:TVN983041 UFJ982943:UFJ983041 UPF982943:UPF983041 UZB982943:UZB983041 VIX982943:VIX983041 VST982943:VST983041 WCP982943:WCP983041 WML982943:WML983041 WWH982943:WWH983041 JG2 TC2 ACY2 AMU2 AWQ2 BGM2 BQI2 CAE2 CKA2 CTW2 DDS2 DNO2 DXK2 EHG2 ERC2 FAY2 FKU2 FUQ2 GEM2 GOI2 GYE2 HIA2 HRW2 IBS2 ILO2 IVK2 JFG2 JPC2 JYY2 KIU2 KSQ2 LCM2 LMI2 LWE2 MGA2 MPW2 MZS2 NJO2 NTK2 ODG2 ONC2 OWY2 PGU2 PQQ2 QAM2 QKI2 QUE2 REA2 RNW2 RXS2 SHO2 SRK2 TBG2 TLC2 TUY2 UEU2 UOQ2 UYM2 VII2 VSE2 WCA2 WLW2 WVS2 JG65439:JG65537 TC65439:TC65537 ACY65439:ACY65537 AMU65439:AMU65537 AWQ65439:AWQ65537 BGM65439:BGM65537 BQI65439:BQI65537 CAE65439:CAE65537 CKA65439:CKA65537 CTW65439:CTW65537 DDS65439:DDS65537 DNO65439:DNO65537 DXK65439:DXK65537 EHG65439:EHG65537 ERC65439:ERC65537 FAY65439:FAY65537 FKU65439:FKU65537 FUQ65439:FUQ65537 GEM65439:GEM65537 GOI65439:GOI65537 GYE65439:GYE65537 HIA65439:HIA65537 HRW65439:HRW65537 IBS65439:IBS65537 ILO65439:ILO65537 IVK65439:IVK65537 JFG65439:JFG65537 JPC65439:JPC65537 JYY65439:JYY65537 KIU65439:KIU65537 KSQ65439:KSQ65537 LCM65439:LCM65537 LMI65439:LMI65537 LWE65439:LWE65537 MGA65439:MGA65537 MPW65439:MPW65537 MZS65439:MZS65537 NJO65439:NJO65537 NTK65439:NTK65537 ODG65439:ODG65537 ONC65439:ONC65537 OWY65439:OWY65537 PGU65439:PGU65537 PQQ65439:PQQ65537 QAM65439:QAM65537 QKI65439:QKI65537 QUE65439:QUE65537 REA65439:REA65537 RNW65439:RNW65537 RXS65439:RXS65537 SHO65439:SHO65537 SRK65439:SRK65537 TBG65439:TBG65537 TLC65439:TLC65537 TUY65439:TUY65537 UEU65439:UEU65537 UOQ65439:UOQ65537 UYM65439:UYM65537 VII65439:VII65537 VSE65439:VSE65537 WCA65439:WCA65537 WLW65439:WLW65537 WVS65439:WVS65537 JG130975:JG131073 TC130975:TC131073 ACY130975:ACY131073 AMU130975:AMU131073 AWQ130975:AWQ131073 BGM130975:BGM131073 BQI130975:BQI131073 CAE130975:CAE131073 CKA130975:CKA131073 CTW130975:CTW131073 DDS130975:DDS131073 DNO130975:DNO131073 DXK130975:DXK131073 EHG130975:EHG131073 ERC130975:ERC131073 FAY130975:FAY131073 FKU130975:FKU131073 FUQ130975:FUQ131073 GEM130975:GEM131073 GOI130975:GOI131073 GYE130975:GYE131073 HIA130975:HIA131073 HRW130975:HRW131073 IBS130975:IBS131073 ILO130975:ILO131073 IVK130975:IVK131073 JFG130975:JFG131073 JPC130975:JPC131073 JYY130975:JYY131073 KIU130975:KIU131073 KSQ130975:KSQ131073 LCM130975:LCM131073 LMI130975:LMI131073 LWE130975:LWE131073 MGA130975:MGA131073 MPW130975:MPW131073 MZS130975:MZS131073 NJO130975:NJO131073 NTK130975:NTK131073 ODG130975:ODG131073 ONC130975:ONC131073 OWY130975:OWY131073 PGU130975:PGU131073 PQQ130975:PQQ131073 QAM130975:QAM131073 QKI130975:QKI131073 QUE130975:QUE131073 REA130975:REA131073 RNW130975:RNW131073 RXS130975:RXS131073 SHO130975:SHO131073 SRK130975:SRK131073 TBG130975:TBG131073 TLC130975:TLC131073 TUY130975:TUY131073 UEU130975:UEU131073 UOQ130975:UOQ131073 UYM130975:UYM131073 VII130975:VII131073 VSE130975:VSE131073 WCA130975:WCA131073 WLW130975:WLW131073 WVS130975:WVS131073 JG196511:JG196609 TC196511:TC196609 ACY196511:ACY196609 AMU196511:AMU196609 AWQ196511:AWQ196609 BGM196511:BGM196609 BQI196511:BQI196609 CAE196511:CAE196609 CKA196511:CKA196609 CTW196511:CTW196609 DDS196511:DDS196609 DNO196511:DNO196609 DXK196511:DXK196609 EHG196511:EHG196609 ERC196511:ERC196609 FAY196511:FAY196609 FKU196511:FKU196609 FUQ196511:FUQ196609 GEM196511:GEM196609 GOI196511:GOI196609 GYE196511:GYE196609 HIA196511:HIA196609 HRW196511:HRW196609 IBS196511:IBS196609 ILO196511:ILO196609 IVK196511:IVK196609 JFG196511:JFG196609 JPC196511:JPC196609 JYY196511:JYY196609 KIU196511:KIU196609 KSQ196511:KSQ196609 LCM196511:LCM196609 LMI196511:LMI196609 LWE196511:LWE196609 MGA196511:MGA196609 MPW196511:MPW196609 MZS196511:MZS196609 NJO196511:NJO196609 NTK196511:NTK196609 ODG196511:ODG196609 ONC196511:ONC196609 OWY196511:OWY196609 PGU196511:PGU196609 PQQ196511:PQQ196609 QAM196511:QAM196609 QKI196511:QKI196609 QUE196511:QUE196609 REA196511:REA196609 RNW196511:RNW196609 RXS196511:RXS196609 SHO196511:SHO196609 SRK196511:SRK196609 TBG196511:TBG196609 TLC196511:TLC196609 TUY196511:TUY196609 UEU196511:UEU196609 UOQ196511:UOQ196609 UYM196511:UYM196609 VII196511:VII196609 VSE196511:VSE196609 WCA196511:WCA196609 WLW196511:WLW196609 WVS196511:WVS196609 JG262047:JG262145 TC262047:TC262145 ACY262047:ACY262145 AMU262047:AMU262145 AWQ262047:AWQ262145 BGM262047:BGM262145 BQI262047:BQI262145 CAE262047:CAE262145 CKA262047:CKA262145 CTW262047:CTW262145 DDS262047:DDS262145 DNO262047:DNO262145 DXK262047:DXK262145 EHG262047:EHG262145 ERC262047:ERC262145 FAY262047:FAY262145 FKU262047:FKU262145 FUQ262047:FUQ262145 GEM262047:GEM262145 GOI262047:GOI262145 GYE262047:GYE262145 HIA262047:HIA262145 HRW262047:HRW262145 IBS262047:IBS262145 ILO262047:ILO262145 IVK262047:IVK262145 JFG262047:JFG262145 JPC262047:JPC262145 JYY262047:JYY262145 KIU262047:KIU262145 KSQ262047:KSQ262145 LCM262047:LCM262145 LMI262047:LMI262145 LWE262047:LWE262145 MGA262047:MGA262145 MPW262047:MPW262145 MZS262047:MZS262145 NJO262047:NJO262145 NTK262047:NTK262145 ODG262047:ODG262145 ONC262047:ONC262145 OWY262047:OWY262145 PGU262047:PGU262145 PQQ262047:PQQ262145 QAM262047:QAM262145 QKI262047:QKI262145 QUE262047:QUE262145 REA262047:REA262145 RNW262047:RNW262145 RXS262047:RXS262145 SHO262047:SHO262145 SRK262047:SRK262145 TBG262047:TBG262145 TLC262047:TLC262145 TUY262047:TUY262145 UEU262047:UEU262145 UOQ262047:UOQ262145 UYM262047:UYM262145 VII262047:VII262145 VSE262047:VSE262145 WCA262047:WCA262145 WLW262047:WLW262145 WVS262047:WVS262145 JG327583:JG327681 TC327583:TC327681 ACY327583:ACY327681 AMU327583:AMU327681 AWQ327583:AWQ327681 BGM327583:BGM327681 BQI327583:BQI327681 CAE327583:CAE327681 CKA327583:CKA327681 CTW327583:CTW327681 DDS327583:DDS327681 DNO327583:DNO327681 DXK327583:DXK327681 EHG327583:EHG327681 ERC327583:ERC327681 FAY327583:FAY327681 FKU327583:FKU327681 FUQ327583:FUQ327681 GEM327583:GEM327681 GOI327583:GOI327681 GYE327583:GYE327681 HIA327583:HIA327681 HRW327583:HRW327681 IBS327583:IBS327681 ILO327583:ILO327681 IVK327583:IVK327681 JFG327583:JFG327681 JPC327583:JPC327681 JYY327583:JYY327681 KIU327583:KIU327681 KSQ327583:KSQ327681 LCM327583:LCM327681 LMI327583:LMI327681 LWE327583:LWE327681 MGA327583:MGA327681 MPW327583:MPW327681 MZS327583:MZS327681 NJO327583:NJO327681 NTK327583:NTK327681 ODG327583:ODG327681 ONC327583:ONC327681 OWY327583:OWY327681 PGU327583:PGU327681 PQQ327583:PQQ327681 QAM327583:QAM327681 QKI327583:QKI327681 QUE327583:QUE327681 REA327583:REA327681 RNW327583:RNW327681 RXS327583:RXS327681 SHO327583:SHO327681 SRK327583:SRK327681 TBG327583:TBG327681 TLC327583:TLC327681 TUY327583:TUY327681 UEU327583:UEU327681 UOQ327583:UOQ327681 UYM327583:UYM327681 VII327583:VII327681 VSE327583:VSE327681 WCA327583:WCA327681 WLW327583:WLW327681 WVS327583:WVS327681 JG393119:JG393217 TC393119:TC393217 ACY393119:ACY393217 AMU393119:AMU393217 AWQ393119:AWQ393217 BGM393119:BGM393217 BQI393119:BQI393217 CAE393119:CAE393217 CKA393119:CKA393217 CTW393119:CTW393217 DDS393119:DDS393217 DNO393119:DNO393217 DXK393119:DXK393217 EHG393119:EHG393217 ERC393119:ERC393217 FAY393119:FAY393217 FKU393119:FKU393217 FUQ393119:FUQ393217 GEM393119:GEM393217 GOI393119:GOI393217 GYE393119:GYE393217 HIA393119:HIA393217 HRW393119:HRW393217 IBS393119:IBS393217 ILO393119:ILO393217 IVK393119:IVK393217 JFG393119:JFG393217 JPC393119:JPC393217 JYY393119:JYY393217 KIU393119:KIU393217 KSQ393119:KSQ393217 LCM393119:LCM393217 LMI393119:LMI393217 LWE393119:LWE393217 MGA393119:MGA393217 MPW393119:MPW393217 MZS393119:MZS393217 NJO393119:NJO393217 NTK393119:NTK393217 ODG393119:ODG393217 ONC393119:ONC393217 OWY393119:OWY393217 PGU393119:PGU393217 PQQ393119:PQQ393217 QAM393119:QAM393217 QKI393119:QKI393217 QUE393119:QUE393217 REA393119:REA393217 RNW393119:RNW393217 RXS393119:RXS393217 SHO393119:SHO393217 SRK393119:SRK393217 TBG393119:TBG393217 TLC393119:TLC393217 TUY393119:TUY393217 UEU393119:UEU393217 UOQ393119:UOQ393217 UYM393119:UYM393217 VII393119:VII393217 VSE393119:VSE393217 WCA393119:WCA393217 WLW393119:WLW393217 WVS393119:WVS393217 JG458655:JG458753 TC458655:TC458753 ACY458655:ACY458753 AMU458655:AMU458753 AWQ458655:AWQ458753 BGM458655:BGM458753 BQI458655:BQI458753 CAE458655:CAE458753 CKA458655:CKA458753 CTW458655:CTW458753 DDS458655:DDS458753 DNO458655:DNO458753 DXK458655:DXK458753 EHG458655:EHG458753 ERC458655:ERC458753 FAY458655:FAY458753 FKU458655:FKU458753 FUQ458655:FUQ458753 GEM458655:GEM458753 GOI458655:GOI458753 GYE458655:GYE458753 HIA458655:HIA458753 HRW458655:HRW458753 IBS458655:IBS458753 ILO458655:ILO458753 IVK458655:IVK458753 JFG458655:JFG458753 JPC458655:JPC458753 JYY458655:JYY458753 KIU458655:KIU458753 KSQ458655:KSQ458753 LCM458655:LCM458753 LMI458655:LMI458753 LWE458655:LWE458753 MGA458655:MGA458753 MPW458655:MPW458753 MZS458655:MZS458753 NJO458655:NJO458753 NTK458655:NTK458753 ODG458655:ODG458753 ONC458655:ONC458753 OWY458655:OWY458753 PGU458655:PGU458753 PQQ458655:PQQ458753 QAM458655:QAM458753 QKI458655:QKI458753 QUE458655:QUE458753 REA458655:REA458753 RNW458655:RNW458753 RXS458655:RXS458753 SHO458655:SHO458753 SRK458655:SRK458753 TBG458655:TBG458753 TLC458655:TLC458753 TUY458655:TUY458753 UEU458655:UEU458753 UOQ458655:UOQ458753 UYM458655:UYM458753 VII458655:VII458753 VSE458655:VSE458753 WCA458655:WCA458753 WLW458655:WLW458753 WVS458655:WVS458753 JG524191:JG524289 TC524191:TC524289 ACY524191:ACY524289 AMU524191:AMU524289 AWQ524191:AWQ524289 BGM524191:BGM524289 BQI524191:BQI524289 CAE524191:CAE524289 CKA524191:CKA524289 CTW524191:CTW524289 DDS524191:DDS524289 DNO524191:DNO524289 DXK524191:DXK524289 EHG524191:EHG524289 ERC524191:ERC524289 FAY524191:FAY524289 FKU524191:FKU524289 FUQ524191:FUQ524289 GEM524191:GEM524289 GOI524191:GOI524289 GYE524191:GYE524289 HIA524191:HIA524289 HRW524191:HRW524289 IBS524191:IBS524289 ILO524191:ILO524289 IVK524191:IVK524289 JFG524191:JFG524289 JPC524191:JPC524289 JYY524191:JYY524289 KIU524191:KIU524289 KSQ524191:KSQ524289 LCM524191:LCM524289 LMI524191:LMI524289 LWE524191:LWE524289 MGA524191:MGA524289 MPW524191:MPW524289 MZS524191:MZS524289 NJO524191:NJO524289 NTK524191:NTK524289 ODG524191:ODG524289 ONC524191:ONC524289 OWY524191:OWY524289 PGU524191:PGU524289 PQQ524191:PQQ524289 QAM524191:QAM524289 QKI524191:QKI524289 QUE524191:QUE524289 REA524191:REA524289 RNW524191:RNW524289 RXS524191:RXS524289 SHO524191:SHO524289 SRK524191:SRK524289 TBG524191:TBG524289 TLC524191:TLC524289 TUY524191:TUY524289 UEU524191:UEU524289 UOQ524191:UOQ524289 UYM524191:UYM524289 VII524191:VII524289 VSE524191:VSE524289 WCA524191:WCA524289 WLW524191:WLW524289 WVS524191:WVS524289 JG589727:JG589825 TC589727:TC589825 ACY589727:ACY589825 AMU589727:AMU589825 AWQ589727:AWQ589825 BGM589727:BGM589825 BQI589727:BQI589825 CAE589727:CAE589825 CKA589727:CKA589825 CTW589727:CTW589825 DDS589727:DDS589825 DNO589727:DNO589825 DXK589727:DXK589825 EHG589727:EHG589825 ERC589727:ERC589825 FAY589727:FAY589825 FKU589727:FKU589825 FUQ589727:FUQ589825 GEM589727:GEM589825 GOI589727:GOI589825 GYE589727:GYE589825 HIA589727:HIA589825 HRW589727:HRW589825 IBS589727:IBS589825 ILO589727:ILO589825 IVK589727:IVK589825 JFG589727:JFG589825 JPC589727:JPC589825 JYY589727:JYY589825 KIU589727:KIU589825 KSQ589727:KSQ589825 LCM589727:LCM589825 LMI589727:LMI589825 LWE589727:LWE589825 MGA589727:MGA589825 MPW589727:MPW589825 MZS589727:MZS589825 NJO589727:NJO589825 NTK589727:NTK589825 ODG589727:ODG589825 ONC589727:ONC589825 OWY589727:OWY589825 PGU589727:PGU589825 PQQ589727:PQQ589825 QAM589727:QAM589825 QKI589727:QKI589825 QUE589727:QUE589825 REA589727:REA589825 RNW589727:RNW589825 RXS589727:RXS589825 SHO589727:SHO589825 SRK589727:SRK589825 TBG589727:TBG589825 TLC589727:TLC589825 TUY589727:TUY589825 UEU589727:UEU589825 UOQ589727:UOQ589825 UYM589727:UYM589825 VII589727:VII589825 VSE589727:VSE589825 WCA589727:WCA589825 WLW589727:WLW589825 WVS589727:WVS589825 JG655263:JG655361 TC655263:TC655361 ACY655263:ACY655361 AMU655263:AMU655361 AWQ655263:AWQ655361 BGM655263:BGM655361 BQI655263:BQI655361 CAE655263:CAE655361 CKA655263:CKA655361 CTW655263:CTW655361 DDS655263:DDS655361 DNO655263:DNO655361 DXK655263:DXK655361 EHG655263:EHG655361 ERC655263:ERC655361 FAY655263:FAY655361 FKU655263:FKU655361 FUQ655263:FUQ655361 GEM655263:GEM655361 GOI655263:GOI655361 GYE655263:GYE655361 HIA655263:HIA655361 HRW655263:HRW655361 IBS655263:IBS655361 ILO655263:ILO655361 IVK655263:IVK655361 JFG655263:JFG655361 JPC655263:JPC655361 JYY655263:JYY655361 KIU655263:KIU655361 KSQ655263:KSQ655361 LCM655263:LCM655361 LMI655263:LMI655361 LWE655263:LWE655361 MGA655263:MGA655361 MPW655263:MPW655361 MZS655263:MZS655361 NJO655263:NJO655361 NTK655263:NTK655361 ODG655263:ODG655361 ONC655263:ONC655361 OWY655263:OWY655361 PGU655263:PGU655361 PQQ655263:PQQ655361 QAM655263:QAM655361 QKI655263:QKI655361 QUE655263:QUE655361 REA655263:REA655361 RNW655263:RNW655361 RXS655263:RXS655361 SHO655263:SHO655361 SRK655263:SRK655361 TBG655263:TBG655361 TLC655263:TLC655361 TUY655263:TUY655361 UEU655263:UEU655361 UOQ655263:UOQ655361 UYM655263:UYM655361 VII655263:VII655361 VSE655263:VSE655361 WCA655263:WCA655361 WLW655263:WLW655361 WVS655263:WVS655361 JG720799:JG720897 TC720799:TC720897 ACY720799:ACY720897 AMU720799:AMU720897 AWQ720799:AWQ720897 BGM720799:BGM720897 BQI720799:BQI720897 CAE720799:CAE720897 CKA720799:CKA720897 CTW720799:CTW720897 DDS720799:DDS720897 DNO720799:DNO720897 DXK720799:DXK720897 EHG720799:EHG720897 ERC720799:ERC720897 FAY720799:FAY720897 FKU720799:FKU720897 FUQ720799:FUQ720897 GEM720799:GEM720897 GOI720799:GOI720897 GYE720799:GYE720897 HIA720799:HIA720897 HRW720799:HRW720897 IBS720799:IBS720897 ILO720799:ILO720897 IVK720799:IVK720897 JFG720799:JFG720897 JPC720799:JPC720897 JYY720799:JYY720897 KIU720799:KIU720897 KSQ720799:KSQ720897 LCM720799:LCM720897 LMI720799:LMI720897 LWE720799:LWE720897 MGA720799:MGA720897 MPW720799:MPW720897 MZS720799:MZS720897 NJO720799:NJO720897 NTK720799:NTK720897 ODG720799:ODG720897 ONC720799:ONC720897 OWY720799:OWY720897 PGU720799:PGU720897 PQQ720799:PQQ720897 QAM720799:QAM720897 QKI720799:QKI720897 QUE720799:QUE720897 REA720799:REA720897 RNW720799:RNW720897 RXS720799:RXS720897 SHO720799:SHO720897 SRK720799:SRK720897 TBG720799:TBG720897 TLC720799:TLC720897 TUY720799:TUY720897 UEU720799:UEU720897 UOQ720799:UOQ720897 UYM720799:UYM720897 VII720799:VII720897 VSE720799:VSE720897 WCA720799:WCA720897 WLW720799:WLW720897 WVS720799:WVS720897 JG786335:JG786433 TC786335:TC786433 ACY786335:ACY786433 AMU786335:AMU786433 AWQ786335:AWQ786433 BGM786335:BGM786433 BQI786335:BQI786433 CAE786335:CAE786433 CKA786335:CKA786433 CTW786335:CTW786433 DDS786335:DDS786433 DNO786335:DNO786433 DXK786335:DXK786433 EHG786335:EHG786433 ERC786335:ERC786433 FAY786335:FAY786433 FKU786335:FKU786433 FUQ786335:FUQ786433 GEM786335:GEM786433 GOI786335:GOI786433 GYE786335:GYE786433 HIA786335:HIA786433 HRW786335:HRW786433 IBS786335:IBS786433 ILO786335:ILO786433 IVK786335:IVK786433 JFG786335:JFG786433 JPC786335:JPC786433 JYY786335:JYY786433 KIU786335:KIU786433 KSQ786335:KSQ786433 LCM786335:LCM786433 LMI786335:LMI786433 LWE786335:LWE786433 MGA786335:MGA786433 MPW786335:MPW786433 MZS786335:MZS786433 NJO786335:NJO786433 NTK786335:NTK786433 ODG786335:ODG786433 ONC786335:ONC786433 OWY786335:OWY786433 PGU786335:PGU786433 PQQ786335:PQQ786433 QAM786335:QAM786433 QKI786335:QKI786433 QUE786335:QUE786433 REA786335:REA786433 RNW786335:RNW786433 RXS786335:RXS786433 SHO786335:SHO786433 SRK786335:SRK786433 TBG786335:TBG786433 TLC786335:TLC786433 TUY786335:TUY786433 UEU786335:UEU786433 UOQ786335:UOQ786433 UYM786335:UYM786433 VII786335:VII786433 VSE786335:VSE786433 WCA786335:WCA786433 WLW786335:WLW786433 WVS786335:WVS786433 JG851871:JG851969 TC851871:TC851969 ACY851871:ACY851969 AMU851871:AMU851969 AWQ851871:AWQ851969 BGM851871:BGM851969 BQI851871:BQI851969 CAE851871:CAE851969 CKA851871:CKA851969 CTW851871:CTW851969 DDS851871:DDS851969 DNO851871:DNO851969 DXK851871:DXK851969 EHG851871:EHG851969 ERC851871:ERC851969 FAY851871:FAY851969 FKU851871:FKU851969 FUQ851871:FUQ851969 GEM851871:GEM851969 GOI851871:GOI851969 GYE851871:GYE851969 HIA851871:HIA851969 HRW851871:HRW851969 IBS851871:IBS851969 ILO851871:ILO851969 IVK851871:IVK851969 JFG851871:JFG851969 JPC851871:JPC851969 JYY851871:JYY851969 KIU851871:KIU851969 KSQ851871:KSQ851969 LCM851871:LCM851969 LMI851871:LMI851969 LWE851871:LWE851969 MGA851871:MGA851969 MPW851871:MPW851969 MZS851871:MZS851969 NJO851871:NJO851969 NTK851871:NTK851969 ODG851871:ODG851969 ONC851871:ONC851969 OWY851871:OWY851969 PGU851871:PGU851969 PQQ851871:PQQ851969 QAM851871:QAM851969 QKI851871:QKI851969 QUE851871:QUE851969 REA851871:REA851969 RNW851871:RNW851969 RXS851871:RXS851969 SHO851871:SHO851969 SRK851871:SRK851969 TBG851871:TBG851969 TLC851871:TLC851969 TUY851871:TUY851969 UEU851871:UEU851969 UOQ851871:UOQ851969 UYM851871:UYM851969 VII851871:VII851969 VSE851871:VSE851969 WCA851871:WCA851969 WLW851871:WLW851969 WVS851871:WVS851969 JG917407:JG917505 TC917407:TC917505 ACY917407:ACY917505 AMU917407:AMU917505 AWQ917407:AWQ917505 BGM917407:BGM917505 BQI917407:BQI917505 CAE917407:CAE917505 CKA917407:CKA917505 CTW917407:CTW917505 DDS917407:DDS917505 DNO917407:DNO917505 DXK917407:DXK917505 EHG917407:EHG917505 ERC917407:ERC917505 FAY917407:FAY917505 FKU917407:FKU917505 FUQ917407:FUQ917505 GEM917407:GEM917505 GOI917407:GOI917505 GYE917407:GYE917505 HIA917407:HIA917505 HRW917407:HRW917505 IBS917407:IBS917505 ILO917407:ILO917505 IVK917407:IVK917505 JFG917407:JFG917505 JPC917407:JPC917505 JYY917407:JYY917505 KIU917407:KIU917505 KSQ917407:KSQ917505 LCM917407:LCM917505 LMI917407:LMI917505 LWE917407:LWE917505 MGA917407:MGA917505 MPW917407:MPW917505 MZS917407:MZS917505 NJO917407:NJO917505 NTK917407:NTK917505 ODG917407:ODG917505 ONC917407:ONC917505 OWY917407:OWY917505 PGU917407:PGU917505 PQQ917407:PQQ917505 QAM917407:QAM917505 QKI917407:QKI917505 QUE917407:QUE917505 REA917407:REA917505 RNW917407:RNW917505 RXS917407:RXS917505 SHO917407:SHO917505 SRK917407:SRK917505 TBG917407:TBG917505 TLC917407:TLC917505 TUY917407:TUY917505 UEU917407:UEU917505 UOQ917407:UOQ917505 UYM917407:UYM917505 VII917407:VII917505 VSE917407:VSE917505 WCA917407:WCA917505 WLW917407:WLW917505 WVS917407:WVS917505 JG982943:JG983041 TC982943:TC983041 ACY982943:ACY983041 AMU982943:AMU983041 AWQ982943:AWQ983041 BGM982943:BGM983041 BQI982943:BQI983041 CAE982943:CAE983041 CKA982943:CKA983041 CTW982943:CTW983041 DDS982943:DDS983041 DNO982943:DNO983041 DXK982943:DXK983041 EHG982943:EHG983041 ERC982943:ERC983041 FAY982943:FAY983041 FKU982943:FKU983041 FUQ982943:FUQ983041 GEM982943:GEM983041 GOI982943:GOI983041 GYE982943:GYE983041 HIA982943:HIA983041 HRW982943:HRW983041 IBS982943:IBS983041 ILO982943:ILO983041 IVK982943:IVK983041 JFG982943:JFG983041 JPC982943:JPC983041 JYY982943:JYY983041 KIU982943:KIU983041 KSQ982943:KSQ983041 LCM982943:LCM983041 LMI982943:LMI983041 LWE982943:LWE983041 MGA982943:MGA983041 MPW982943:MPW983041 MZS982943:MZS983041 NJO982943:NJO983041 NTK982943:NTK983041 ODG982943:ODG983041 ONC982943:ONC983041 OWY982943:OWY983041 PGU982943:PGU983041 PQQ982943:PQQ983041 QAM982943:QAM983041 QKI982943:QKI983041 QUE982943:QUE983041 REA982943:REA983041 RNW982943:RNW983041 RXS982943:RXS983041 SHO982943:SHO983041 SRK982943:SRK983041 TBG982943:TBG983041 TLC982943:TLC983041 TUY982943:TUY983041 UEU982943:UEU983041 UOQ982943:UOQ983041 UYM982943:UYM983041 VII982943:VII983041 VSE982943:VSE983041 WCA982943:WCA983041 WLW982943:WLW983041 WVS982943:WVS983041 G982943:G983041 G917407:G917505 G851871:G851969 G786335:G786433 G720799:G720897 G655263:G655361 G589727:G589825 G524191:G524289 G458655:G458753 G393119:G393217 G327583:G327681 G262047:G262145 G196511:G196609 G130975:G131073 G65439:G65537 G2" xr:uid="{B41F42D1-BD4D-43CC-A9DD-2DEB51F6E65B}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 KC2 TY2 ADU2 ANQ2 AXM2 BHI2 BRE2 CBA2 CKW2 CUS2 DEO2 DOK2 DYG2 EIC2 ERY2 FBU2 FLQ2 FVM2 GFI2 GPE2 GZA2 HIW2 HSS2 ICO2 IMK2 IWG2 JGC2 JPY2 JZU2 KJQ2 KTM2 LDI2 LNE2 LXA2 MGW2 MQS2 NAO2 NKK2 NUG2 OEC2 ONY2 OXU2 PHQ2 PRM2 QBI2 QLE2 QVA2 REW2 ROS2 RYO2 SIK2 SSG2 TCC2 TLY2 TVU2 UFQ2 UPM2 UZI2 VJE2 VTA2 WCW2 WMS2 WWO2 AG65439:AG65537 KC65439:KC65537 TY65439:TY65537 ADU65439:ADU65537 ANQ65439:ANQ65537 AXM65439:AXM65537 BHI65439:BHI65537 BRE65439:BRE65537 CBA65439:CBA65537 CKW65439:CKW65537 CUS65439:CUS65537 DEO65439:DEO65537 DOK65439:DOK65537 DYG65439:DYG65537 EIC65439:EIC65537 ERY65439:ERY65537 FBU65439:FBU65537 FLQ65439:FLQ65537 FVM65439:FVM65537 GFI65439:GFI65537 GPE65439:GPE65537 GZA65439:GZA65537 HIW65439:HIW65537 HSS65439:HSS65537 ICO65439:ICO65537 IMK65439:IMK65537 IWG65439:IWG65537 JGC65439:JGC65537 JPY65439:JPY65537 JZU65439:JZU65537 KJQ65439:KJQ65537 KTM65439:KTM65537 LDI65439:LDI65537 LNE65439:LNE65537 LXA65439:LXA65537 MGW65439:MGW65537 MQS65439:MQS65537 NAO65439:NAO65537 NKK65439:NKK65537 NUG65439:NUG65537 OEC65439:OEC65537 ONY65439:ONY65537 OXU65439:OXU65537 PHQ65439:PHQ65537 PRM65439:PRM65537 QBI65439:QBI65537 QLE65439:QLE65537 QVA65439:QVA65537 REW65439:REW65537 ROS65439:ROS65537 RYO65439:RYO65537 SIK65439:SIK65537 SSG65439:SSG65537 TCC65439:TCC65537 TLY65439:TLY65537 TVU65439:TVU65537 UFQ65439:UFQ65537 UPM65439:UPM65537 UZI65439:UZI65537 VJE65439:VJE65537 VTA65439:VTA65537 WCW65439:WCW65537 WMS65439:WMS65537 WWO65439:WWO65537 AG130975:AG131073 KC130975:KC131073 TY130975:TY131073 ADU130975:ADU131073 ANQ130975:ANQ131073 AXM130975:AXM131073 BHI130975:BHI131073 BRE130975:BRE131073 CBA130975:CBA131073 CKW130975:CKW131073 CUS130975:CUS131073 DEO130975:DEO131073 DOK130975:DOK131073 DYG130975:DYG131073 EIC130975:EIC131073 ERY130975:ERY131073 FBU130975:FBU131073 FLQ130975:FLQ131073 FVM130975:FVM131073 GFI130975:GFI131073 GPE130975:GPE131073 GZA130975:GZA131073 HIW130975:HIW131073 HSS130975:HSS131073 ICO130975:ICO131073 IMK130975:IMK131073 IWG130975:IWG131073 JGC130975:JGC131073 JPY130975:JPY131073 JZU130975:JZU131073 KJQ130975:KJQ131073 KTM130975:KTM131073 LDI130975:LDI131073 LNE130975:LNE131073 LXA130975:LXA131073 MGW130975:MGW131073 MQS130975:MQS131073 NAO130975:NAO131073 NKK130975:NKK131073 NUG130975:NUG131073 OEC130975:OEC131073 ONY130975:ONY131073 OXU130975:OXU131073 PHQ130975:PHQ131073 PRM130975:PRM131073 QBI130975:QBI131073 QLE130975:QLE131073 QVA130975:QVA131073 REW130975:REW131073 ROS130975:ROS131073 RYO130975:RYO131073 SIK130975:SIK131073 SSG130975:SSG131073 TCC130975:TCC131073 TLY130975:TLY131073 TVU130975:TVU131073 UFQ130975:UFQ131073 UPM130975:UPM131073 UZI130975:UZI131073 VJE130975:VJE131073 VTA130975:VTA131073 WCW130975:WCW131073 WMS130975:WMS131073 WWO130975:WWO131073 AG196511:AG196609 KC196511:KC196609 TY196511:TY196609 ADU196511:ADU196609 ANQ196511:ANQ196609 AXM196511:AXM196609 BHI196511:BHI196609 BRE196511:BRE196609 CBA196511:CBA196609 CKW196511:CKW196609 CUS196511:CUS196609 DEO196511:DEO196609 DOK196511:DOK196609 DYG196511:DYG196609 EIC196511:EIC196609 ERY196511:ERY196609 FBU196511:FBU196609 FLQ196511:FLQ196609 FVM196511:FVM196609 GFI196511:GFI196609 GPE196511:GPE196609 GZA196511:GZA196609 HIW196511:HIW196609 HSS196511:HSS196609 ICO196511:ICO196609 IMK196511:IMK196609 IWG196511:IWG196609 JGC196511:JGC196609 JPY196511:JPY196609 JZU196511:JZU196609 KJQ196511:KJQ196609 KTM196511:KTM196609 LDI196511:LDI196609 LNE196511:LNE196609 LXA196511:LXA196609 MGW196511:MGW196609 MQS196511:MQS196609 NAO196511:NAO196609 NKK196511:NKK196609 NUG196511:NUG196609 OEC196511:OEC196609 ONY196511:ONY196609 OXU196511:OXU196609 PHQ196511:PHQ196609 PRM196511:PRM196609 QBI196511:QBI196609 QLE196511:QLE196609 QVA196511:QVA196609 REW196511:REW196609 ROS196511:ROS196609 RYO196511:RYO196609 SIK196511:SIK196609 SSG196511:SSG196609 TCC196511:TCC196609 TLY196511:TLY196609 TVU196511:TVU196609 UFQ196511:UFQ196609 UPM196511:UPM196609 UZI196511:UZI196609 VJE196511:VJE196609 VTA196511:VTA196609 WCW196511:WCW196609 WMS196511:WMS196609 WWO196511:WWO196609 AG262047:AG262145 KC262047:KC262145 TY262047:TY262145 ADU262047:ADU262145 ANQ262047:ANQ262145 AXM262047:AXM262145 BHI262047:BHI262145 BRE262047:BRE262145 CBA262047:CBA262145 CKW262047:CKW262145 CUS262047:CUS262145 DEO262047:DEO262145 DOK262047:DOK262145 DYG262047:DYG262145 EIC262047:EIC262145 ERY262047:ERY262145 FBU262047:FBU262145 FLQ262047:FLQ262145 FVM262047:FVM262145 GFI262047:GFI262145 GPE262047:GPE262145 GZA262047:GZA262145 HIW262047:HIW262145 HSS262047:HSS262145 ICO262047:ICO262145 IMK262047:IMK262145 IWG262047:IWG262145 JGC262047:JGC262145 JPY262047:JPY262145 JZU262047:JZU262145 KJQ262047:KJQ262145 KTM262047:KTM262145 LDI262047:LDI262145 LNE262047:LNE262145 LXA262047:LXA262145 MGW262047:MGW262145 MQS262047:MQS262145 NAO262047:NAO262145 NKK262047:NKK262145 NUG262047:NUG262145 OEC262047:OEC262145 ONY262047:ONY262145 OXU262047:OXU262145 PHQ262047:PHQ262145 PRM262047:PRM262145 QBI262047:QBI262145 QLE262047:QLE262145 QVA262047:QVA262145 REW262047:REW262145 ROS262047:ROS262145 RYO262047:RYO262145 SIK262047:SIK262145 SSG262047:SSG262145 TCC262047:TCC262145 TLY262047:TLY262145 TVU262047:TVU262145 UFQ262047:UFQ262145 UPM262047:UPM262145 UZI262047:UZI262145 VJE262047:VJE262145 VTA262047:VTA262145 WCW262047:WCW262145 WMS262047:WMS262145 WWO262047:WWO262145 AG327583:AG327681 KC327583:KC327681 TY327583:TY327681 ADU327583:ADU327681 ANQ327583:ANQ327681 AXM327583:AXM327681 BHI327583:BHI327681 BRE327583:BRE327681 CBA327583:CBA327681 CKW327583:CKW327681 CUS327583:CUS327681 DEO327583:DEO327681 DOK327583:DOK327681 DYG327583:DYG327681 EIC327583:EIC327681 ERY327583:ERY327681 FBU327583:FBU327681 FLQ327583:FLQ327681 FVM327583:FVM327681 GFI327583:GFI327681 GPE327583:GPE327681 GZA327583:GZA327681 HIW327583:HIW327681 HSS327583:HSS327681 ICO327583:ICO327681 IMK327583:IMK327681 IWG327583:IWG327681 JGC327583:JGC327681 JPY327583:JPY327681 JZU327583:JZU327681 KJQ327583:KJQ327681 KTM327583:KTM327681 LDI327583:LDI327681 LNE327583:LNE327681 LXA327583:LXA327681 MGW327583:MGW327681 MQS327583:MQS327681 NAO327583:NAO327681 NKK327583:NKK327681 NUG327583:NUG327681 OEC327583:OEC327681 ONY327583:ONY327681 OXU327583:OXU327681 PHQ327583:PHQ327681 PRM327583:PRM327681 QBI327583:QBI327681 QLE327583:QLE327681 QVA327583:QVA327681 REW327583:REW327681 ROS327583:ROS327681 RYO327583:RYO327681 SIK327583:SIK327681 SSG327583:SSG327681 TCC327583:TCC327681 TLY327583:TLY327681 TVU327583:TVU327681 UFQ327583:UFQ327681 UPM327583:UPM327681 UZI327583:UZI327681 VJE327583:VJE327681 VTA327583:VTA327681 WCW327583:WCW327681 WMS327583:WMS327681 WWO327583:WWO327681 AG393119:AG393217 KC393119:KC393217 TY393119:TY393217 ADU393119:ADU393217 ANQ393119:ANQ393217 AXM393119:AXM393217 BHI393119:BHI393217 BRE393119:BRE393217 CBA393119:CBA393217 CKW393119:CKW393217 CUS393119:CUS393217 DEO393119:DEO393217 DOK393119:DOK393217 DYG393119:DYG393217 EIC393119:EIC393217 ERY393119:ERY393217 FBU393119:FBU393217 FLQ393119:FLQ393217 FVM393119:FVM393217 GFI393119:GFI393217 GPE393119:GPE393217 GZA393119:GZA393217 HIW393119:HIW393217 HSS393119:HSS393217 ICO393119:ICO393217 IMK393119:IMK393217 IWG393119:IWG393217 JGC393119:JGC393217 JPY393119:JPY393217 JZU393119:JZU393217 KJQ393119:KJQ393217 KTM393119:KTM393217 LDI393119:LDI393217 LNE393119:LNE393217 LXA393119:LXA393217 MGW393119:MGW393217 MQS393119:MQS393217 NAO393119:NAO393217 NKK393119:NKK393217 NUG393119:NUG393217 OEC393119:OEC393217 ONY393119:ONY393217 OXU393119:OXU393217 PHQ393119:PHQ393217 PRM393119:PRM393217 QBI393119:QBI393217 QLE393119:QLE393217 QVA393119:QVA393217 REW393119:REW393217 ROS393119:ROS393217 RYO393119:RYO393217 SIK393119:SIK393217 SSG393119:SSG393217 TCC393119:TCC393217 TLY393119:TLY393217 TVU393119:TVU393217 UFQ393119:UFQ393217 UPM393119:UPM393217 UZI393119:UZI393217 VJE393119:VJE393217 VTA393119:VTA393217 WCW393119:WCW393217 WMS393119:WMS393217 WWO393119:WWO393217 AG458655:AG458753 KC458655:KC458753 TY458655:TY458753 ADU458655:ADU458753 ANQ458655:ANQ458753 AXM458655:AXM458753 BHI458655:BHI458753 BRE458655:BRE458753 CBA458655:CBA458753 CKW458655:CKW458753 CUS458655:CUS458753 DEO458655:DEO458753 DOK458655:DOK458753 DYG458655:DYG458753 EIC458655:EIC458753 ERY458655:ERY458753 FBU458655:FBU458753 FLQ458655:FLQ458753 FVM458655:FVM458753 GFI458655:GFI458753 GPE458655:GPE458753 GZA458655:GZA458753 HIW458655:HIW458753 HSS458655:HSS458753 ICO458655:ICO458753 IMK458655:IMK458753 IWG458655:IWG458753 JGC458655:JGC458753 JPY458655:JPY458753 JZU458655:JZU458753 KJQ458655:KJQ458753 KTM458655:KTM458753 LDI458655:LDI458753 LNE458655:LNE458753 LXA458655:LXA458753 MGW458655:MGW458753 MQS458655:MQS458753 NAO458655:NAO458753 NKK458655:NKK458753 NUG458655:NUG458753 OEC458655:OEC458753 ONY458655:ONY458753 OXU458655:OXU458753 PHQ458655:PHQ458753 PRM458655:PRM458753 QBI458655:QBI458753 QLE458655:QLE458753 QVA458655:QVA458753 REW458655:REW458753 ROS458655:ROS458753 RYO458655:RYO458753 SIK458655:SIK458753 SSG458655:SSG458753 TCC458655:TCC458753 TLY458655:TLY458753 TVU458655:TVU458753 UFQ458655:UFQ458753 UPM458655:UPM458753 UZI458655:UZI458753 VJE458655:VJE458753 VTA458655:VTA458753 WCW458655:WCW458753 WMS458655:WMS458753 WWO458655:WWO458753 AG524191:AG524289 KC524191:KC524289 TY524191:TY524289 ADU524191:ADU524289 ANQ524191:ANQ524289 AXM524191:AXM524289 BHI524191:BHI524289 BRE524191:BRE524289 CBA524191:CBA524289 CKW524191:CKW524289 CUS524191:CUS524289 DEO524191:DEO524289 DOK524191:DOK524289 DYG524191:DYG524289 EIC524191:EIC524289 ERY524191:ERY524289 FBU524191:FBU524289 FLQ524191:FLQ524289 FVM524191:FVM524289 GFI524191:GFI524289 GPE524191:GPE524289 GZA524191:GZA524289 HIW524191:HIW524289 HSS524191:HSS524289 ICO524191:ICO524289 IMK524191:IMK524289 IWG524191:IWG524289 JGC524191:JGC524289 JPY524191:JPY524289 JZU524191:JZU524289 KJQ524191:KJQ524289 KTM524191:KTM524289 LDI524191:LDI524289 LNE524191:LNE524289 LXA524191:LXA524289 MGW524191:MGW524289 MQS524191:MQS524289 NAO524191:NAO524289 NKK524191:NKK524289 NUG524191:NUG524289 OEC524191:OEC524289 ONY524191:ONY524289 OXU524191:OXU524289 PHQ524191:PHQ524289 PRM524191:PRM524289 QBI524191:QBI524289 QLE524191:QLE524289 QVA524191:QVA524289 REW524191:REW524289 ROS524191:ROS524289 RYO524191:RYO524289 SIK524191:SIK524289 SSG524191:SSG524289 TCC524191:TCC524289 TLY524191:TLY524289 TVU524191:TVU524289 UFQ524191:UFQ524289 UPM524191:UPM524289 UZI524191:UZI524289 VJE524191:VJE524289 VTA524191:VTA524289 WCW524191:WCW524289 WMS524191:WMS524289 WWO524191:WWO524289 AG589727:AG589825 KC589727:KC589825 TY589727:TY589825 ADU589727:ADU589825 ANQ589727:ANQ589825 AXM589727:AXM589825 BHI589727:BHI589825 BRE589727:BRE589825 CBA589727:CBA589825 CKW589727:CKW589825 CUS589727:CUS589825 DEO589727:DEO589825 DOK589727:DOK589825 DYG589727:DYG589825 EIC589727:EIC589825 ERY589727:ERY589825 FBU589727:FBU589825 FLQ589727:FLQ589825 FVM589727:FVM589825 GFI589727:GFI589825 GPE589727:GPE589825 GZA589727:GZA589825 HIW589727:HIW589825 HSS589727:HSS589825 ICO589727:ICO589825 IMK589727:IMK589825 IWG589727:IWG589825 JGC589727:JGC589825 JPY589727:JPY589825 JZU589727:JZU589825 KJQ589727:KJQ589825 KTM589727:KTM589825 LDI589727:LDI589825 LNE589727:LNE589825 LXA589727:LXA589825 MGW589727:MGW589825 MQS589727:MQS589825 NAO589727:NAO589825 NKK589727:NKK589825 NUG589727:NUG589825 OEC589727:OEC589825 ONY589727:ONY589825 OXU589727:OXU589825 PHQ589727:PHQ589825 PRM589727:PRM589825 QBI589727:QBI589825 QLE589727:QLE589825 QVA589727:QVA589825 REW589727:REW589825 ROS589727:ROS589825 RYO589727:RYO589825 SIK589727:SIK589825 SSG589727:SSG589825 TCC589727:TCC589825 TLY589727:TLY589825 TVU589727:TVU589825 UFQ589727:UFQ589825 UPM589727:UPM589825 UZI589727:UZI589825 VJE589727:VJE589825 VTA589727:VTA589825 WCW589727:WCW589825 WMS589727:WMS589825 WWO589727:WWO589825 AG655263:AG655361 KC655263:KC655361 TY655263:TY655361 ADU655263:ADU655361 ANQ655263:ANQ655361 AXM655263:AXM655361 BHI655263:BHI655361 BRE655263:BRE655361 CBA655263:CBA655361 CKW655263:CKW655361 CUS655263:CUS655361 DEO655263:DEO655361 DOK655263:DOK655361 DYG655263:DYG655361 EIC655263:EIC655361 ERY655263:ERY655361 FBU655263:FBU655361 FLQ655263:FLQ655361 FVM655263:FVM655361 GFI655263:GFI655361 GPE655263:GPE655361 GZA655263:GZA655361 HIW655263:HIW655361 HSS655263:HSS655361 ICO655263:ICO655361 IMK655263:IMK655361 IWG655263:IWG655361 JGC655263:JGC655361 JPY655263:JPY655361 JZU655263:JZU655361 KJQ655263:KJQ655361 KTM655263:KTM655361 LDI655263:LDI655361 LNE655263:LNE655361 LXA655263:LXA655361 MGW655263:MGW655361 MQS655263:MQS655361 NAO655263:NAO655361 NKK655263:NKK655361 NUG655263:NUG655361 OEC655263:OEC655361 ONY655263:ONY655361 OXU655263:OXU655361 PHQ655263:PHQ655361 PRM655263:PRM655361 QBI655263:QBI655361 QLE655263:QLE655361 QVA655263:QVA655361 REW655263:REW655361 ROS655263:ROS655361 RYO655263:RYO655361 SIK655263:SIK655361 SSG655263:SSG655361 TCC655263:TCC655361 TLY655263:TLY655361 TVU655263:TVU655361 UFQ655263:UFQ655361 UPM655263:UPM655361 UZI655263:UZI655361 VJE655263:VJE655361 VTA655263:VTA655361 WCW655263:WCW655361 WMS655263:WMS655361 WWO655263:WWO655361 AG720799:AG720897 KC720799:KC720897 TY720799:TY720897 ADU720799:ADU720897 ANQ720799:ANQ720897 AXM720799:AXM720897 BHI720799:BHI720897 BRE720799:BRE720897 CBA720799:CBA720897 CKW720799:CKW720897 CUS720799:CUS720897 DEO720799:DEO720897 DOK720799:DOK720897 DYG720799:DYG720897 EIC720799:EIC720897 ERY720799:ERY720897 FBU720799:FBU720897 FLQ720799:FLQ720897 FVM720799:FVM720897 GFI720799:GFI720897 GPE720799:GPE720897 GZA720799:GZA720897 HIW720799:HIW720897 HSS720799:HSS720897 ICO720799:ICO720897 IMK720799:IMK720897 IWG720799:IWG720897 JGC720799:JGC720897 JPY720799:JPY720897 JZU720799:JZU720897 KJQ720799:KJQ720897 KTM720799:KTM720897 LDI720799:LDI720897 LNE720799:LNE720897 LXA720799:LXA720897 MGW720799:MGW720897 MQS720799:MQS720897 NAO720799:NAO720897 NKK720799:NKK720897 NUG720799:NUG720897 OEC720799:OEC720897 ONY720799:ONY720897 OXU720799:OXU720897 PHQ720799:PHQ720897 PRM720799:PRM720897 QBI720799:QBI720897 QLE720799:QLE720897 QVA720799:QVA720897 REW720799:REW720897 ROS720799:ROS720897 RYO720799:RYO720897 SIK720799:SIK720897 SSG720799:SSG720897 TCC720799:TCC720897 TLY720799:TLY720897 TVU720799:TVU720897 UFQ720799:UFQ720897 UPM720799:UPM720897 UZI720799:UZI720897 VJE720799:VJE720897 VTA720799:VTA720897 WCW720799:WCW720897 WMS720799:WMS720897 WWO720799:WWO720897 AG786335:AG786433 KC786335:KC786433 TY786335:TY786433 ADU786335:ADU786433 ANQ786335:ANQ786433 AXM786335:AXM786433 BHI786335:BHI786433 BRE786335:BRE786433 CBA786335:CBA786433 CKW786335:CKW786433 CUS786335:CUS786433 DEO786335:DEO786433 DOK786335:DOK786433 DYG786335:DYG786433 EIC786335:EIC786433 ERY786335:ERY786433 FBU786335:FBU786433 FLQ786335:FLQ786433 FVM786335:FVM786433 GFI786335:GFI786433 GPE786335:GPE786433 GZA786335:GZA786433 HIW786335:HIW786433 HSS786335:HSS786433 ICO786335:ICO786433 IMK786335:IMK786433 IWG786335:IWG786433 JGC786335:JGC786433 JPY786335:JPY786433 JZU786335:JZU786433 KJQ786335:KJQ786433 KTM786335:KTM786433 LDI786335:LDI786433 LNE786335:LNE786433 LXA786335:LXA786433 MGW786335:MGW786433 MQS786335:MQS786433 NAO786335:NAO786433 NKK786335:NKK786433 NUG786335:NUG786433 OEC786335:OEC786433 ONY786335:ONY786433 OXU786335:OXU786433 PHQ786335:PHQ786433 PRM786335:PRM786433 QBI786335:QBI786433 QLE786335:QLE786433 QVA786335:QVA786433 REW786335:REW786433 ROS786335:ROS786433 RYO786335:RYO786433 SIK786335:SIK786433 SSG786335:SSG786433 TCC786335:TCC786433 TLY786335:TLY786433 TVU786335:TVU786433 UFQ786335:UFQ786433 UPM786335:UPM786433 UZI786335:UZI786433 VJE786335:VJE786433 VTA786335:VTA786433 WCW786335:WCW786433 WMS786335:WMS786433 WWO786335:WWO786433 AG851871:AG851969 KC851871:KC851969 TY851871:TY851969 ADU851871:ADU851969 ANQ851871:ANQ851969 AXM851871:AXM851969 BHI851871:BHI851969 BRE851871:BRE851969 CBA851871:CBA851969 CKW851871:CKW851969 CUS851871:CUS851969 DEO851871:DEO851969 DOK851871:DOK851969 DYG851871:DYG851969 EIC851871:EIC851969 ERY851871:ERY851969 FBU851871:FBU851969 FLQ851871:FLQ851969 FVM851871:FVM851969 GFI851871:GFI851969 GPE851871:GPE851969 GZA851871:GZA851969 HIW851871:HIW851969 HSS851871:HSS851969 ICO851871:ICO851969 IMK851871:IMK851969 IWG851871:IWG851969 JGC851871:JGC851969 JPY851871:JPY851969 JZU851871:JZU851969 KJQ851871:KJQ851969 KTM851871:KTM851969 LDI851871:LDI851969 LNE851871:LNE851969 LXA851871:LXA851969 MGW851871:MGW851969 MQS851871:MQS851969 NAO851871:NAO851969 NKK851871:NKK851969 NUG851871:NUG851969 OEC851871:OEC851969 ONY851871:ONY851969 OXU851871:OXU851969 PHQ851871:PHQ851969 PRM851871:PRM851969 QBI851871:QBI851969 QLE851871:QLE851969 QVA851871:QVA851969 REW851871:REW851969 ROS851871:ROS851969 RYO851871:RYO851969 SIK851871:SIK851969 SSG851871:SSG851969 TCC851871:TCC851969 TLY851871:TLY851969 TVU851871:TVU851969 UFQ851871:UFQ851969 UPM851871:UPM851969 UZI851871:UZI851969 VJE851871:VJE851969 VTA851871:VTA851969 WCW851871:WCW851969 WMS851871:WMS851969 WWO851871:WWO851969 AG917407:AG917505 KC917407:KC917505 TY917407:TY917505 ADU917407:ADU917505 ANQ917407:ANQ917505 AXM917407:AXM917505 BHI917407:BHI917505 BRE917407:BRE917505 CBA917407:CBA917505 CKW917407:CKW917505 CUS917407:CUS917505 DEO917407:DEO917505 DOK917407:DOK917505 DYG917407:DYG917505 EIC917407:EIC917505 ERY917407:ERY917505 FBU917407:FBU917505 FLQ917407:FLQ917505 FVM917407:FVM917505 GFI917407:GFI917505 GPE917407:GPE917505 GZA917407:GZA917505 HIW917407:HIW917505 HSS917407:HSS917505 ICO917407:ICO917505 IMK917407:IMK917505 IWG917407:IWG917505 JGC917407:JGC917505 JPY917407:JPY917505 JZU917407:JZU917505 KJQ917407:KJQ917505 KTM917407:KTM917505 LDI917407:LDI917505 LNE917407:LNE917505 LXA917407:LXA917505 MGW917407:MGW917505 MQS917407:MQS917505 NAO917407:NAO917505 NKK917407:NKK917505 NUG917407:NUG917505 OEC917407:OEC917505 ONY917407:ONY917505 OXU917407:OXU917505 PHQ917407:PHQ917505 PRM917407:PRM917505 QBI917407:QBI917505 QLE917407:QLE917505 QVA917407:QVA917505 REW917407:REW917505 ROS917407:ROS917505 RYO917407:RYO917505 SIK917407:SIK917505 SSG917407:SSG917505 TCC917407:TCC917505 TLY917407:TLY917505 TVU917407:TVU917505 UFQ917407:UFQ917505 UPM917407:UPM917505 UZI917407:UZI917505 VJE917407:VJE917505 VTA917407:VTA917505 WCW917407:WCW917505 WMS917407:WMS917505 WWO917407:WWO917505 AG982943:AG983041 KC982943:KC983041 TY982943:TY983041 ADU982943:ADU983041 ANQ982943:ANQ983041 AXM982943:AXM983041 BHI982943:BHI983041 BRE982943:BRE983041 CBA982943:CBA983041 CKW982943:CKW983041 CUS982943:CUS983041 DEO982943:DEO983041 DOK982943:DOK983041 DYG982943:DYG983041 EIC982943:EIC983041 ERY982943:ERY983041 FBU982943:FBU983041 FLQ982943:FLQ983041 FVM982943:FVM983041 GFI982943:GFI983041 GPE982943:GPE983041 GZA982943:GZA983041 HIW982943:HIW983041 HSS982943:HSS983041 ICO982943:ICO983041 IMK982943:IMK983041 IWG982943:IWG983041 JGC982943:JGC983041 JPY982943:JPY983041 JZU982943:JZU983041 KJQ982943:KJQ983041 KTM982943:KTM983041 LDI982943:LDI983041 LNE982943:LNE983041 LXA982943:LXA983041 MGW982943:MGW983041 MQS982943:MQS983041 NAO982943:NAO983041 NKK982943:NKK983041 NUG982943:NUG983041 OEC982943:OEC983041 ONY982943:ONY983041 OXU982943:OXU983041 PHQ982943:PHQ983041 PRM982943:PRM983041 QBI982943:QBI983041 QLE982943:QLE983041 QVA982943:QVA983041 REW982943:REW983041 ROS982943:ROS983041 RYO982943:RYO983041 SIK982943:SIK983041 SSG982943:SSG983041 TCC982943:TCC983041 TLY982943:TLY983041 TVU982943:TVU983041 UFQ982943:UFQ983041 UPM982943:UPM983041 UZI982943:UZI983041 VJE982943:VJE983041 VTA982943:VTA983041 WCW982943:WCW983041 WMS982943:WMS983041 WWO982943:WWO983041" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 JW2 TS2 ADO2 ANK2 AXG2 BHC2 BQY2 CAU2 CKQ2 CUM2 DEI2 DOE2 DYA2 EHW2 ERS2 FBO2 FLK2 FVG2 GFC2 GOY2 GYU2 HIQ2 HSM2 ICI2 IME2 IWA2 JFW2 JPS2 JZO2 KJK2 KTG2 LDC2 LMY2 LWU2 MGQ2 MQM2 NAI2 NKE2 NUA2 ODW2 ONS2 OXO2 PHK2 PRG2 QBC2 QKY2 QUU2 REQ2 ROM2 RYI2 SIE2 SSA2 TBW2 TLS2 TVO2 UFK2 UPG2 UZC2 VIY2 VSU2 WCQ2 WMM2 WWI2 AA65439:AA65537 JW65439:JW65537 TS65439:TS65537 ADO65439:ADO65537 ANK65439:ANK65537 AXG65439:AXG65537 BHC65439:BHC65537 BQY65439:BQY65537 CAU65439:CAU65537 CKQ65439:CKQ65537 CUM65439:CUM65537 DEI65439:DEI65537 DOE65439:DOE65537 DYA65439:DYA65537 EHW65439:EHW65537 ERS65439:ERS65537 FBO65439:FBO65537 FLK65439:FLK65537 FVG65439:FVG65537 GFC65439:GFC65537 GOY65439:GOY65537 GYU65439:GYU65537 HIQ65439:HIQ65537 HSM65439:HSM65537 ICI65439:ICI65537 IME65439:IME65537 IWA65439:IWA65537 JFW65439:JFW65537 JPS65439:JPS65537 JZO65439:JZO65537 KJK65439:KJK65537 KTG65439:KTG65537 LDC65439:LDC65537 LMY65439:LMY65537 LWU65439:LWU65537 MGQ65439:MGQ65537 MQM65439:MQM65537 NAI65439:NAI65537 NKE65439:NKE65537 NUA65439:NUA65537 ODW65439:ODW65537 ONS65439:ONS65537 OXO65439:OXO65537 PHK65439:PHK65537 PRG65439:PRG65537 QBC65439:QBC65537 QKY65439:QKY65537 QUU65439:QUU65537 REQ65439:REQ65537 ROM65439:ROM65537 RYI65439:RYI65537 SIE65439:SIE65537 SSA65439:SSA65537 TBW65439:TBW65537 TLS65439:TLS65537 TVO65439:TVO65537 UFK65439:UFK65537 UPG65439:UPG65537 UZC65439:UZC65537 VIY65439:VIY65537 VSU65439:VSU65537 WCQ65439:WCQ65537 WMM65439:WMM65537 WWI65439:WWI65537 AA130975:AA131073 JW130975:JW131073 TS130975:TS131073 ADO130975:ADO131073 ANK130975:ANK131073 AXG130975:AXG131073 BHC130975:BHC131073 BQY130975:BQY131073 CAU130975:CAU131073 CKQ130975:CKQ131073 CUM130975:CUM131073 DEI130975:DEI131073 DOE130975:DOE131073 DYA130975:DYA131073 EHW130975:EHW131073 ERS130975:ERS131073 FBO130975:FBO131073 FLK130975:FLK131073 FVG130975:FVG131073 GFC130975:GFC131073 GOY130975:GOY131073 GYU130975:GYU131073 HIQ130975:HIQ131073 HSM130975:HSM131073 ICI130975:ICI131073 IME130975:IME131073 IWA130975:IWA131073 JFW130975:JFW131073 JPS130975:JPS131073 JZO130975:JZO131073 KJK130975:KJK131073 KTG130975:KTG131073 LDC130975:LDC131073 LMY130975:LMY131073 LWU130975:LWU131073 MGQ130975:MGQ131073 MQM130975:MQM131073 NAI130975:NAI131073 NKE130975:NKE131073 NUA130975:NUA131073 ODW130975:ODW131073 ONS130975:ONS131073 OXO130975:OXO131073 PHK130975:PHK131073 PRG130975:PRG131073 QBC130975:QBC131073 QKY130975:QKY131073 QUU130975:QUU131073 REQ130975:REQ131073 ROM130975:ROM131073 RYI130975:RYI131073 SIE130975:SIE131073 SSA130975:SSA131073 TBW130975:TBW131073 TLS130975:TLS131073 TVO130975:TVO131073 UFK130975:UFK131073 UPG130975:UPG131073 UZC130975:UZC131073 VIY130975:VIY131073 VSU130975:VSU131073 WCQ130975:WCQ131073 WMM130975:WMM131073 WWI130975:WWI131073 AA196511:AA196609 JW196511:JW196609 TS196511:TS196609 ADO196511:ADO196609 ANK196511:ANK196609 AXG196511:AXG196609 BHC196511:BHC196609 BQY196511:BQY196609 CAU196511:CAU196609 CKQ196511:CKQ196609 CUM196511:CUM196609 DEI196511:DEI196609 DOE196511:DOE196609 DYA196511:DYA196609 EHW196511:EHW196609 ERS196511:ERS196609 FBO196511:FBO196609 FLK196511:FLK196609 FVG196511:FVG196609 GFC196511:GFC196609 GOY196511:GOY196609 GYU196511:GYU196609 HIQ196511:HIQ196609 HSM196511:HSM196609 ICI196511:ICI196609 IME196511:IME196609 IWA196511:IWA196609 JFW196511:JFW196609 JPS196511:JPS196609 JZO196511:JZO196609 KJK196511:KJK196609 KTG196511:KTG196609 LDC196511:LDC196609 LMY196511:LMY196609 LWU196511:LWU196609 MGQ196511:MGQ196609 MQM196511:MQM196609 NAI196511:NAI196609 NKE196511:NKE196609 NUA196511:NUA196609 ODW196511:ODW196609 ONS196511:ONS196609 OXO196511:OXO196609 PHK196511:PHK196609 PRG196511:PRG196609 QBC196511:QBC196609 QKY196511:QKY196609 QUU196511:QUU196609 REQ196511:REQ196609 ROM196511:ROM196609 RYI196511:RYI196609 SIE196511:SIE196609 SSA196511:SSA196609 TBW196511:TBW196609 TLS196511:TLS196609 TVO196511:TVO196609 UFK196511:UFK196609 UPG196511:UPG196609 UZC196511:UZC196609 VIY196511:VIY196609 VSU196511:VSU196609 WCQ196511:WCQ196609 WMM196511:WMM196609 WWI196511:WWI196609 AA262047:AA262145 JW262047:JW262145 TS262047:TS262145 ADO262047:ADO262145 ANK262047:ANK262145 AXG262047:AXG262145 BHC262047:BHC262145 BQY262047:BQY262145 CAU262047:CAU262145 CKQ262047:CKQ262145 CUM262047:CUM262145 DEI262047:DEI262145 DOE262047:DOE262145 DYA262047:DYA262145 EHW262047:EHW262145 ERS262047:ERS262145 FBO262047:FBO262145 FLK262047:FLK262145 FVG262047:FVG262145 GFC262047:GFC262145 GOY262047:GOY262145 GYU262047:GYU262145 HIQ262047:HIQ262145 HSM262047:HSM262145 ICI262047:ICI262145 IME262047:IME262145 IWA262047:IWA262145 JFW262047:JFW262145 JPS262047:JPS262145 JZO262047:JZO262145 KJK262047:KJK262145 KTG262047:KTG262145 LDC262047:LDC262145 LMY262047:LMY262145 LWU262047:LWU262145 MGQ262047:MGQ262145 MQM262047:MQM262145 NAI262047:NAI262145 NKE262047:NKE262145 NUA262047:NUA262145 ODW262047:ODW262145 ONS262047:ONS262145 OXO262047:OXO262145 PHK262047:PHK262145 PRG262047:PRG262145 QBC262047:QBC262145 QKY262047:QKY262145 QUU262047:QUU262145 REQ262047:REQ262145 ROM262047:ROM262145 RYI262047:RYI262145 SIE262047:SIE262145 SSA262047:SSA262145 TBW262047:TBW262145 TLS262047:TLS262145 TVO262047:TVO262145 UFK262047:UFK262145 UPG262047:UPG262145 UZC262047:UZC262145 VIY262047:VIY262145 VSU262047:VSU262145 WCQ262047:WCQ262145 WMM262047:WMM262145 WWI262047:WWI262145 AA327583:AA327681 JW327583:JW327681 TS327583:TS327681 ADO327583:ADO327681 ANK327583:ANK327681 AXG327583:AXG327681 BHC327583:BHC327681 BQY327583:BQY327681 CAU327583:CAU327681 CKQ327583:CKQ327681 CUM327583:CUM327681 DEI327583:DEI327681 DOE327583:DOE327681 DYA327583:DYA327681 EHW327583:EHW327681 ERS327583:ERS327681 FBO327583:FBO327681 FLK327583:FLK327681 FVG327583:FVG327681 GFC327583:GFC327681 GOY327583:GOY327681 GYU327583:GYU327681 HIQ327583:HIQ327681 HSM327583:HSM327681 ICI327583:ICI327681 IME327583:IME327681 IWA327583:IWA327681 JFW327583:JFW327681 JPS327583:JPS327681 JZO327583:JZO327681 KJK327583:KJK327681 KTG327583:KTG327681 LDC327583:LDC327681 LMY327583:LMY327681 LWU327583:LWU327681 MGQ327583:MGQ327681 MQM327583:MQM327681 NAI327583:NAI327681 NKE327583:NKE327681 NUA327583:NUA327681 ODW327583:ODW327681 ONS327583:ONS327681 OXO327583:OXO327681 PHK327583:PHK327681 PRG327583:PRG327681 QBC327583:QBC327681 QKY327583:QKY327681 QUU327583:QUU327681 REQ327583:REQ327681 ROM327583:ROM327681 RYI327583:RYI327681 SIE327583:SIE327681 SSA327583:SSA327681 TBW327583:TBW327681 TLS327583:TLS327681 TVO327583:TVO327681 UFK327583:UFK327681 UPG327583:UPG327681 UZC327583:UZC327681 VIY327583:VIY327681 VSU327583:VSU327681 WCQ327583:WCQ327681 WMM327583:WMM327681 WWI327583:WWI327681 AA393119:AA393217 JW393119:JW393217 TS393119:TS393217 ADO393119:ADO393217 ANK393119:ANK393217 AXG393119:AXG393217 BHC393119:BHC393217 BQY393119:BQY393217 CAU393119:CAU393217 CKQ393119:CKQ393217 CUM393119:CUM393217 DEI393119:DEI393217 DOE393119:DOE393217 DYA393119:DYA393217 EHW393119:EHW393217 ERS393119:ERS393217 FBO393119:FBO393217 FLK393119:FLK393217 FVG393119:FVG393217 GFC393119:GFC393217 GOY393119:GOY393217 GYU393119:GYU393217 HIQ393119:HIQ393217 HSM393119:HSM393217 ICI393119:ICI393217 IME393119:IME393217 IWA393119:IWA393217 JFW393119:JFW393217 JPS393119:JPS393217 JZO393119:JZO393217 KJK393119:KJK393217 KTG393119:KTG393217 LDC393119:LDC393217 LMY393119:LMY393217 LWU393119:LWU393217 MGQ393119:MGQ393217 MQM393119:MQM393217 NAI393119:NAI393217 NKE393119:NKE393217 NUA393119:NUA393217 ODW393119:ODW393217 ONS393119:ONS393217 OXO393119:OXO393217 PHK393119:PHK393217 PRG393119:PRG393217 QBC393119:QBC393217 QKY393119:QKY393217 QUU393119:QUU393217 REQ393119:REQ393217 ROM393119:ROM393217 RYI393119:RYI393217 SIE393119:SIE393217 SSA393119:SSA393217 TBW393119:TBW393217 TLS393119:TLS393217 TVO393119:TVO393217 UFK393119:UFK393217 UPG393119:UPG393217 UZC393119:UZC393217 VIY393119:VIY393217 VSU393119:VSU393217 WCQ393119:WCQ393217 WMM393119:WMM393217 WWI393119:WWI393217 AA458655:AA458753 JW458655:JW458753 TS458655:TS458753 ADO458655:ADO458753 ANK458655:ANK458753 AXG458655:AXG458753 BHC458655:BHC458753 BQY458655:BQY458753 CAU458655:CAU458753 CKQ458655:CKQ458753 CUM458655:CUM458753 DEI458655:DEI458753 DOE458655:DOE458753 DYA458655:DYA458753 EHW458655:EHW458753 ERS458655:ERS458753 FBO458655:FBO458753 FLK458655:FLK458753 FVG458655:FVG458753 GFC458655:GFC458753 GOY458655:GOY458753 GYU458655:GYU458753 HIQ458655:HIQ458753 HSM458655:HSM458753 ICI458655:ICI458753 IME458655:IME458753 IWA458655:IWA458753 JFW458655:JFW458753 JPS458655:JPS458753 JZO458655:JZO458753 KJK458655:KJK458753 KTG458655:KTG458753 LDC458655:LDC458753 LMY458655:LMY458753 LWU458655:LWU458753 MGQ458655:MGQ458753 MQM458655:MQM458753 NAI458655:NAI458753 NKE458655:NKE458753 NUA458655:NUA458753 ODW458655:ODW458753 ONS458655:ONS458753 OXO458655:OXO458753 PHK458655:PHK458753 PRG458655:PRG458753 QBC458655:QBC458753 QKY458655:QKY458753 QUU458655:QUU458753 REQ458655:REQ458753 ROM458655:ROM458753 RYI458655:RYI458753 SIE458655:SIE458753 SSA458655:SSA458753 TBW458655:TBW458753 TLS458655:TLS458753 TVO458655:TVO458753 UFK458655:UFK458753 UPG458655:UPG458753 UZC458655:UZC458753 VIY458655:VIY458753 VSU458655:VSU458753 WCQ458655:WCQ458753 WMM458655:WMM458753 WWI458655:WWI458753 AA524191:AA524289 JW524191:JW524289 TS524191:TS524289 ADO524191:ADO524289 ANK524191:ANK524289 AXG524191:AXG524289 BHC524191:BHC524289 BQY524191:BQY524289 CAU524191:CAU524289 CKQ524191:CKQ524289 CUM524191:CUM524289 DEI524191:DEI524289 DOE524191:DOE524289 DYA524191:DYA524289 EHW524191:EHW524289 ERS524191:ERS524289 FBO524191:FBO524289 FLK524191:FLK524289 FVG524191:FVG524289 GFC524191:GFC524289 GOY524191:GOY524289 GYU524191:GYU524289 HIQ524191:HIQ524289 HSM524191:HSM524289 ICI524191:ICI524289 IME524191:IME524289 IWA524191:IWA524289 JFW524191:JFW524289 JPS524191:JPS524289 JZO524191:JZO524289 KJK524191:KJK524289 KTG524191:KTG524289 LDC524191:LDC524289 LMY524191:LMY524289 LWU524191:LWU524289 MGQ524191:MGQ524289 MQM524191:MQM524289 NAI524191:NAI524289 NKE524191:NKE524289 NUA524191:NUA524289 ODW524191:ODW524289 ONS524191:ONS524289 OXO524191:OXO524289 PHK524191:PHK524289 PRG524191:PRG524289 QBC524191:QBC524289 QKY524191:QKY524289 QUU524191:QUU524289 REQ524191:REQ524289 ROM524191:ROM524289 RYI524191:RYI524289 SIE524191:SIE524289 SSA524191:SSA524289 TBW524191:TBW524289 TLS524191:TLS524289 TVO524191:TVO524289 UFK524191:UFK524289 UPG524191:UPG524289 UZC524191:UZC524289 VIY524191:VIY524289 VSU524191:VSU524289 WCQ524191:WCQ524289 WMM524191:WMM524289 WWI524191:WWI524289 AA589727:AA589825 JW589727:JW589825 TS589727:TS589825 ADO589727:ADO589825 ANK589727:ANK589825 AXG589727:AXG589825 BHC589727:BHC589825 BQY589727:BQY589825 CAU589727:CAU589825 CKQ589727:CKQ589825 CUM589727:CUM589825 DEI589727:DEI589825 DOE589727:DOE589825 DYA589727:DYA589825 EHW589727:EHW589825 ERS589727:ERS589825 FBO589727:FBO589825 FLK589727:FLK589825 FVG589727:FVG589825 GFC589727:GFC589825 GOY589727:GOY589825 GYU589727:GYU589825 HIQ589727:HIQ589825 HSM589727:HSM589825 ICI589727:ICI589825 IME589727:IME589825 IWA589727:IWA589825 JFW589727:JFW589825 JPS589727:JPS589825 JZO589727:JZO589825 KJK589727:KJK589825 KTG589727:KTG589825 LDC589727:LDC589825 LMY589727:LMY589825 LWU589727:LWU589825 MGQ589727:MGQ589825 MQM589727:MQM589825 NAI589727:NAI589825 NKE589727:NKE589825 NUA589727:NUA589825 ODW589727:ODW589825 ONS589727:ONS589825 OXO589727:OXO589825 PHK589727:PHK589825 PRG589727:PRG589825 QBC589727:QBC589825 QKY589727:QKY589825 QUU589727:QUU589825 REQ589727:REQ589825 ROM589727:ROM589825 RYI589727:RYI589825 SIE589727:SIE589825 SSA589727:SSA589825 TBW589727:TBW589825 TLS589727:TLS589825 TVO589727:TVO589825 UFK589727:UFK589825 UPG589727:UPG589825 UZC589727:UZC589825 VIY589727:VIY589825 VSU589727:VSU589825 WCQ589727:WCQ589825 WMM589727:WMM589825 WWI589727:WWI589825 AA655263:AA655361 JW655263:JW655361 TS655263:TS655361 ADO655263:ADO655361 ANK655263:ANK655361 AXG655263:AXG655361 BHC655263:BHC655361 BQY655263:BQY655361 CAU655263:CAU655361 CKQ655263:CKQ655361 CUM655263:CUM655361 DEI655263:DEI655361 DOE655263:DOE655361 DYA655263:DYA655361 EHW655263:EHW655361 ERS655263:ERS655361 FBO655263:FBO655361 FLK655263:FLK655361 FVG655263:FVG655361 GFC655263:GFC655361 GOY655263:GOY655361 GYU655263:GYU655361 HIQ655263:HIQ655361 HSM655263:HSM655361 ICI655263:ICI655361 IME655263:IME655361 IWA655263:IWA655361 JFW655263:JFW655361 JPS655263:JPS655361 JZO655263:JZO655361 KJK655263:KJK655361 KTG655263:KTG655361 LDC655263:LDC655361 LMY655263:LMY655361 LWU655263:LWU655361 MGQ655263:MGQ655361 MQM655263:MQM655361 NAI655263:NAI655361 NKE655263:NKE655361 NUA655263:NUA655361 ODW655263:ODW655361 ONS655263:ONS655361 OXO655263:OXO655361 PHK655263:PHK655361 PRG655263:PRG655361 QBC655263:QBC655361 QKY655263:QKY655361 QUU655263:QUU655361 REQ655263:REQ655361 ROM655263:ROM655361 RYI655263:RYI655361 SIE655263:SIE655361 SSA655263:SSA655361 TBW655263:TBW655361 TLS655263:TLS655361 TVO655263:TVO655361 UFK655263:UFK655361 UPG655263:UPG655361 UZC655263:UZC655361 VIY655263:VIY655361 VSU655263:VSU655361 WCQ655263:WCQ655361 WMM655263:WMM655361 WWI655263:WWI655361 AA720799:AA720897 JW720799:JW720897 TS720799:TS720897 ADO720799:ADO720897 ANK720799:ANK720897 AXG720799:AXG720897 BHC720799:BHC720897 BQY720799:BQY720897 CAU720799:CAU720897 CKQ720799:CKQ720897 CUM720799:CUM720897 DEI720799:DEI720897 DOE720799:DOE720897 DYA720799:DYA720897 EHW720799:EHW720897 ERS720799:ERS720897 FBO720799:FBO720897 FLK720799:FLK720897 FVG720799:FVG720897 GFC720799:GFC720897 GOY720799:GOY720897 GYU720799:GYU720897 HIQ720799:HIQ720897 HSM720799:HSM720897 ICI720799:ICI720897 IME720799:IME720897 IWA720799:IWA720897 JFW720799:JFW720897 JPS720799:JPS720897 JZO720799:JZO720897 KJK720799:KJK720897 KTG720799:KTG720897 LDC720799:LDC720897 LMY720799:LMY720897 LWU720799:LWU720897 MGQ720799:MGQ720897 MQM720799:MQM720897 NAI720799:NAI720897 NKE720799:NKE720897 NUA720799:NUA720897 ODW720799:ODW720897 ONS720799:ONS720897 OXO720799:OXO720897 PHK720799:PHK720897 PRG720799:PRG720897 QBC720799:QBC720897 QKY720799:QKY720897 QUU720799:QUU720897 REQ720799:REQ720897 ROM720799:ROM720897 RYI720799:RYI720897 SIE720799:SIE720897 SSA720799:SSA720897 TBW720799:TBW720897 TLS720799:TLS720897 TVO720799:TVO720897 UFK720799:UFK720897 UPG720799:UPG720897 UZC720799:UZC720897 VIY720799:VIY720897 VSU720799:VSU720897 WCQ720799:WCQ720897 WMM720799:WMM720897 WWI720799:WWI720897 AA786335:AA786433 JW786335:JW786433 TS786335:TS786433 ADO786335:ADO786433 ANK786335:ANK786433 AXG786335:AXG786433 BHC786335:BHC786433 BQY786335:BQY786433 CAU786335:CAU786433 CKQ786335:CKQ786433 CUM786335:CUM786433 DEI786335:DEI786433 DOE786335:DOE786433 DYA786335:DYA786433 EHW786335:EHW786433 ERS786335:ERS786433 FBO786335:FBO786433 FLK786335:FLK786433 FVG786335:FVG786433 GFC786335:GFC786433 GOY786335:GOY786433 GYU786335:GYU786433 HIQ786335:HIQ786433 HSM786335:HSM786433 ICI786335:ICI786433 IME786335:IME786433 IWA786335:IWA786433 JFW786335:JFW786433 JPS786335:JPS786433 JZO786335:JZO786433 KJK786335:KJK786433 KTG786335:KTG786433 LDC786335:LDC786433 LMY786335:LMY786433 LWU786335:LWU786433 MGQ786335:MGQ786433 MQM786335:MQM786433 NAI786335:NAI786433 NKE786335:NKE786433 NUA786335:NUA786433 ODW786335:ODW786433 ONS786335:ONS786433 OXO786335:OXO786433 PHK786335:PHK786433 PRG786335:PRG786433 QBC786335:QBC786433 QKY786335:QKY786433 QUU786335:QUU786433 REQ786335:REQ786433 ROM786335:ROM786433 RYI786335:RYI786433 SIE786335:SIE786433 SSA786335:SSA786433 TBW786335:TBW786433 TLS786335:TLS786433 TVO786335:TVO786433 UFK786335:UFK786433 UPG786335:UPG786433 UZC786335:UZC786433 VIY786335:VIY786433 VSU786335:VSU786433 WCQ786335:WCQ786433 WMM786335:WMM786433 WWI786335:WWI786433 AA851871:AA851969 JW851871:JW851969 TS851871:TS851969 ADO851871:ADO851969 ANK851871:ANK851969 AXG851871:AXG851969 BHC851871:BHC851969 BQY851871:BQY851969 CAU851871:CAU851969 CKQ851871:CKQ851969 CUM851871:CUM851969 DEI851871:DEI851969 DOE851871:DOE851969 DYA851871:DYA851969 EHW851871:EHW851969 ERS851871:ERS851969 FBO851871:FBO851969 FLK851871:FLK851969 FVG851871:FVG851969 GFC851871:GFC851969 GOY851871:GOY851969 GYU851871:GYU851969 HIQ851871:HIQ851969 HSM851871:HSM851969 ICI851871:ICI851969 IME851871:IME851969 IWA851871:IWA851969 JFW851871:JFW851969 JPS851871:JPS851969 JZO851871:JZO851969 KJK851871:KJK851969 KTG851871:KTG851969 LDC851871:LDC851969 LMY851871:LMY851969 LWU851871:LWU851969 MGQ851871:MGQ851969 MQM851871:MQM851969 NAI851871:NAI851969 NKE851871:NKE851969 NUA851871:NUA851969 ODW851871:ODW851969 ONS851871:ONS851969 OXO851871:OXO851969 PHK851871:PHK851969 PRG851871:PRG851969 QBC851871:QBC851969 QKY851871:QKY851969 QUU851871:QUU851969 REQ851871:REQ851969 ROM851871:ROM851969 RYI851871:RYI851969 SIE851871:SIE851969 SSA851871:SSA851969 TBW851871:TBW851969 TLS851871:TLS851969 TVO851871:TVO851969 UFK851871:UFK851969 UPG851871:UPG851969 UZC851871:UZC851969 VIY851871:VIY851969 VSU851871:VSU851969 WCQ851871:WCQ851969 WMM851871:WMM851969 WWI851871:WWI851969 AA917407:AA917505 JW917407:JW917505 TS917407:TS917505 ADO917407:ADO917505 ANK917407:ANK917505 AXG917407:AXG917505 BHC917407:BHC917505 BQY917407:BQY917505 CAU917407:CAU917505 CKQ917407:CKQ917505 CUM917407:CUM917505 DEI917407:DEI917505 DOE917407:DOE917505 DYA917407:DYA917505 EHW917407:EHW917505 ERS917407:ERS917505 FBO917407:FBO917505 FLK917407:FLK917505 FVG917407:FVG917505 GFC917407:GFC917505 GOY917407:GOY917505 GYU917407:GYU917505 HIQ917407:HIQ917505 HSM917407:HSM917505 ICI917407:ICI917505 IME917407:IME917505 IWA917407:IWA917505 JFW917407:JFW917505 JPS917407:JPS917505 JZO917407:JZO917505 KJK917407:KJK917505 KTG917407:KTG917505 LDC917407:LDC917505 LMY917407:LMY917505 LWU917407:LWU917505 MGQ917407:MGQ917505 MQM917407:MQM917505 NAI917407:NAI917505 NKE917407:NKE917505 NUA917407:NUA917505 ODW917407:ODW917505 ONS917407:ONS917505 OXO917407:OXO917505 PHK917407:PHK917505 PRG917407:PRG917505 QBC917407:QBC917505 QKY917407:QKY917505 QUU917407:QUU917505 REQ917407:REQ917505 ROM917407:ROM917505 RYI917407:RYI917505 SIE917407:SIE917505 SSA917407:SSA917505 TBW917407:TBW917505 TLS917407:TLS917505 TVO917407:TVO917505 UFK917407:UFK917505 UPG917407:UPG917505 UZC917407:UZC917505 VIY917407:VIY917505 VSU917407:VSU917505 WCQ917407:WCQ917505 WMM917407:WMM917505 WWI917407:WWI917505 AA982943:AA983041 JW982943:JW983041 TS982943:TS983041 ADO982943:ADO983041 ANK982943:ANK983041 AXG982943:AXG983041 BHC982943:BHC983041 BQY982943:BQY983041 CAU982943:CAU983041 CKQ982943:CKQ983041 CUM982943:CUM983041 DEI982943:DEI983041 DOE982943:DOE983041 DYA982943:DYA983041 EHW982943:EHW983041 ERS982943:ERS983041 FBO982943:FBO983041 FLK982943:FLK983041 FVG982943:FVG983041 GFC982943:GFC983041 GOY982943:GOY983041 GYU982943:GYU983041 HIQ982943:HIQ983041 HSM982943:HSM983041 ICI982943:ICI983041 IME982943:IME983041 IWA982943:IWA983041 JFW982943:JFW983041 JPS982943:JPS983041 JZO982943:JZO983041 KJK982943:KJK983041 KTG982943:KTG983041 LDC982943:LDC983041 LMY982943:LMY983041 LWU982943:LWU983041 MGQ982943:MGQ983041 MQM982943:MQM983041 NAI982943:NAI983041 NKE982943:NKE983041 NUA982943:NUA983041 ODW982943:ODW983041 ONS982943:ONS983041 OXO982943:OXO983041 PHK982943:PHK983041 PRG982943:PRG983041 QBC982943:QBC983041 QKY982943:QKY983041 QUU982943:QUU983041 REQ982943:REQ983041 ROM982943:ROM983041 RYI982943:RYI983041 SIE982943:SIE983041 SSA982943:SSA983041 TBW982943:TBW983041 TLS982943:TLS983041 TVO982943:TVO983041 UFK982943:UFK983041 UPG982943:UPG983041 UZC982943:UZC983041 VIY982943:VIY983041 VSU982943:VSU983041 WCQ982943:WCQ983041 WMM982943:WMM983041 WWI982943:WWI983041" xr:uid="{B292C0B8-E1C2-40CB-803A-147EE13005F0}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 KA2 TW2 ADS2 ANO2 AXK2 BHG2 BRC2 CAY2 CKU2 CUQ2 DEM2 DOI2 DYE2 EIA2 ERW2 FBS2 FLO2 FVK2 GFG2 GPC2 GYY2 HIU2 HSQ2 ICM2 IMI2 IWE2 JGA2 JPW2 JZS2 KJO2 KTK2 LDG2 LNC2 LWY2 MGU2 MQQ2 NAM2 NKI2 NUE2 OEA2 ONW2 OXS2 PHO2 PRK2 QBG2 QLC2 QUY2 REU2 ROQ2 RYM2 SII2 SSE2 TCA2 TLW2 TVS2 UFO2 UPK2 UZG2 VJC2 VSY2 WCU2 WMQ2 WWM2 AE65439:AE65537 KA65439:KA65537 TW65439:TW65537 ADS65439:ADS65537 ANO65439:ANO65537 AXK65439:AXK65537 BHG65439:BHG65537 BRC65439:BRC65537 CAY65439:CAY65537 CKU65439:CKU65537 CUQ65439:CUQ65537 DEM65439:DEM65537 DOI65439:DOI65537 DYE65439:DYE65537 EIA65439:EIA65537 ERW65439:ERW65537 FBS65439:FBS65537 FLO65439:FLO65537 FVK65439:FVK65537 GFG65439:GFG65537 GPC65439:GPC65537 GYY65439:GYY65537 HIU65439:HIU65537 HSQ65439:HSQ65537 ICM65439:ICM65537 IMI65439:IMI65537 IWE65439:IWE65537 JGA65439:JGA65537 JPW65439:JPW65537 JZS65439:JZS65537 KJO65439:KJO65537 KTK65439:KTK65537 LDG65439:LDG65537 LNC65439:LNC65537 LWY65439:LWY65537 MGU65439:MGU65537 MQQ65439:MQQ65537 NAM65439:NAM65537 NKI65439:NKI65537 NUE65439:NUE65537 OEA65439:OEA65537 ONW65439:ONW65537 OXS65439:OXS65537 PHO65439:PHO65537 PRK65439:PRK65537 QBG65439:QBG65537 QLC65439:QLC65537 QUY65439:QUY65537 REU65439:REU65537 ROQ65439:ROQ65537 RYM65439:RYM65537 SII65439:SII65537 SSE65439:SSE65537 TCA65439:TCA65537 TLW65439:TLW65537 TVS65439:TVS65537 UFO65439:UFO65537 UPK65439:UPK65537 UZG65439:UZG65537 VJC65439:VJC65537 VSY65439:VSY65537 WCU65439:WCU65537 WMQ65439:WMQ65537 WWM65439:WWM65537 AE130975:AE131073 KA130975:KA131073 TW130975:TW131073 ADS130975:ADS131073 ANO130975:ANO131073 AXK130975:AXK131073 BHG130975:BHG131073 BRC130975:BRC131073 CAY130975:CAY131073 CKU130975:CKU131073 CUQ130975:CUQ131073 DEM130975:DEM131073 DOI130975:DOI131073 DYE130975:DYE131073 EIA130975:EIA131073 ERW130975:ERW131073 FBS130975:FBS131073 FLO130975:FLO131073 FVK130975:FVK131073 GFG130975:GFG131073 GPC130975:GPC131073 GYY130975:GYY131073 HIU130975:HIU131073 HSQ130975:HSQ131073 ICM130975:ICM131073 IMI130975:IMI131073 IWE130975:IWE131073 JGA130975:JGA131073 JPW130975:JPW131073 JZS130975:JZS131073 KJO130975:KJO131073 KTK130975:KTK131073 LDG130975:LDG131073 LNC130975:LNC131073 LWY130975:LWY131073 MGU130975:MGU131073 MQQ130975:MQQ131073 NAM130975:NAM131073 NKI130975:NKI131073 NUE130975:NUE131073 OEA130975:OEA131073 ONW130975:ONW131073 OXS130975:OXS131073 PHO130975:PHO131073 PRK130975:PRK131073 QBG130975:QBG131073 QLC130975:QLC131073 QUY130975:QUY131073 REU130975:REU131073 ROQ130975:ROQ131073 RYM130975:RYM131073 SII130975:SII131073 SSE130975:SSE131073 TCA130975:TCA131073 TLW130975:TLW131073 TVS130975:TVS131073 UFO130975:UFO131073 UPK130975:UPK131073 UZG130975:UZG131073 VJC130975:VJC131073 VSY130975:VSY131073 WCU130975:WCU131073 WMQ130975:WMQ131073 WWM130975:WWM131073 AE196511:AE196609 KA196511:KA196609 TW196511:TW196609 ADS196511:ADS196609 ANO196511:ANO196609 AXK196511:AXK196609 BHG196511:BHG196609 BRC196511:BRC196609 CAY196511:CAY196609 CKU196511:CKU196609 CUQ196511:CUQ196609 DEM196511:DEM196609 DOI196511:DOI196609 DYE196511:DYE196609 EIA196511:EIA196609 ERW196511:ERW196609 FBS196511:FBS196609 FLO196511:FLO196609 FVK196511:FVK196609 GFG196511:GFG196609 GPC196511:GPC196609 GYY196511:GYY196609 HIU196511:HIU196609 HSQ196511:HSQ196609 ICM196511:ICM196609 IMI196511:IMI196609 IWE196511:IWE196609 JGA196511:JGA196609 JPW196511:JPW196609 JZS196511:JZS196609 KJO196511:KJO196609 KTK196511:KTK196609 LDG196511:LDG196609 LNC196511:LNC196609 LWY196511:LWY196609 MGU196511:MGU196609 MQQ196511:MQQ196609 NAM196511:NAM196609 NKI196511:NKI196609 NUE196511:NUE196609 OEA196511:OEA196609 ONW196511:ONW196609 OXS196511:OXS196609 PHO196511:PHO196609 PRK196511:PRK196609 QBG196511:QBG196609 QLC196511:QLC196609 QUY196511:QUY196609 REU196511:REU196609 ROQ196511:ROQ196609 RYM196511:RYM196609 SII196511:SII196609 SSE196511:SSE196609 TCA196511:TCA196609 TLW196511:TLW196609 TVS196511:TVS196609 UFO196511:UFO196609 UPK196511:UPK196609 UZG196511:UZG196609 VJC196511:VJC196609 VSY196511:VSY196609 WCU196511:WCU196609 WMQ196511:WMQ196609 WWM196511:WWM196609 AE262047:AE262145 KA262047:KA262145 TW262047:TW262145 ADS262047:ADS262145 ANO262047:ANO262145 AXK262047:AXK262145 BHG262047:BHG262145 BRC262047:BRC262145 CAY262047:CAY262145 CKU262047:CKU262145 CUQ262047:CUQ262145 DEM262047:DEM262145 DOI262047:DOI262145 DYE262047:DYE262145 EIA262047:EIA262145 ERW262047:ERW262145 FBS262047:FBS262145 FLO262047:FLO262145 FVK262047:FVK262145 GFG262047:GFG262145 GPC262047:GPC262145 GYY262047:GYY262145 HIU262047:HIU262145 HSQ262047:HSQ262145 ICM262047:ICM262145 IMI262047:IMI262145 IWE262047:IWE262145 JGA262047:JGA262145 JPW262047:JPW262145 JZS262047:JZS262145 KJO262047:KJO262145 KTK262047:KTK262145 LDG262047:LDG262145 LNC262047:LNC262145 LWY262047:LWY262145 MGU262047:MGU262145 MQQ262047:MQQ262145 NAM262047:NAM262145 NKI262047:NKI262145 NUE262047:NUE262145 OEA262047:OEA262145 ONW262047:ONW262145 OXS262047:OXS262145 PHO262047:PHO262145 PRK262047:PRK262145 QBG262047:QBG262145 QLC262047:QLC262145 QUY262047:QUY262145 REU262047:REU262145 ROQ262047:ROQ262145 RYM262047:RYM262145 SII262047:SII262145 SSE262047:SSE262145 TCA262047:TCA262145 TLW262047:TLW262145 TVS262047:TVS262145 UFO262047:UFO262145 UPK262047:UPK262145 UZG262047:UZG262145 VJC262047:VJC262145 VSY262047:VSY262145 WCU262047:WCU262145 WMQ262047:WMQ262145 WWM262047:WWM262145 AE327583:AE327681 KA327583:KA327681 TW327583:TW327681 ADS327583:ADS327681 ANO327583:ANO327681 AXK327583:AXK327681 BHG327583:BHG327681 BRC327583:BRC327681 CAY327583:CAY327681 CKU327583:CKU327681 CUQ327583:CUQ327681 DEM327583:DEM327681 DOI327583:DOI327681 DYE327583:DYE327681 EIA327583:EIA327681 ERW327583:ERW327681 FBS327583:FBS327681 FLO327583:FLO327681 FVK327583:FVK327681 GFG327583:GFG327681 GPC327583:GPC327681 GYY327583:GYY327681 HIU327583:HIU327681 HSQ327583:HSQ327681 ICM327583:ICM327681 IMI327583:IMI327681 IWE327583:IWE327681 JGA327583:JGA327681 JPW327583:JPW327681 JZS327583:JZS327681 KJO327583:KJO327681 KTK327583:KTK327681 LDG327583:LDG327681 LNC327583:LNC327681 LWY327583:LWY327681 MGU327583:MGU327681 MQQ327583:MQQ327681 NAM327583:NAM327681 NKI327583:NKI327681 NUE327583:NUE327681 OEA327583:OEA327681 ONW327583:ONW327681 OXS327583:OXS327681 PHO327583:PHO327681 PRK327583:PRK327681 QBG327583:QBG327681 QLC327583:QLC327681 QUY327583:QUY327681 REU327583:REU327681 ROQ327583:ROQ327681 RYM327583:RYM327681 SII327583:SII327681 SSE327583:SSE327681 TCA327583:TCA327681 TLW327583:TLW327681 TVS327583:TVS327681 UFO327583:UFO327681 UPK327583:UPK327681 UZG327583:UZG327681 VJC327583:VJC327681 VSY327583:VSY327681 WCU327583:WCU327681 WMQ327583:WMQ327681 WWM327583:WWM327681 AE393119:AE393217 KA393119:KA393217 TW393119:TW393217 ADS393119:ADS393217 ANO393119:ANO393217 AXK393119:AXK393217 BHG393119:BHG393217 BRC393119:BRC393217 CAY393119:CAY393217 CKU393119:CKU393217 CUQ393119:CUQ393217 DEM393119:DEM393217 DOI393119:DOI393217 DYE393119:DYE393217 EIA393119:EIA393217 ERW393119:ERW393217 FBS393119:FBS393217 FLO393119:FLO393217 FVK393119:FVK393217 GFG393119:GFG393217 GPC393119:GPC393217 GYY393119:GYY393217 HIU393119:HIU393217 HSQ393119:HSQ393217 ICM393119:ICM393217 IMI393119:IMI393217 IWE393119:IWE393217 JGA393119:JGA393217 JPW393119:JPW393217 JZS393119:JZS393217 KJO393119:KJO393217 KTK393119:KTK393217 LDG393119:LDG393217 LNC393119:LNC393217 LWY393119:LWY393217 MGU393119:MGU393217 MQQ393119:MQQ393217 NAM393119:NAM393217 NKI393119:NKI393217 NUE393119:NUE393217 OEA393119:OEA393217 ONW393119:ONW393217 OXS393119:OXS393217 PHO393119:PHO393217 PRK393119:PRK393217 QBG393119:QBG393217 QLC393119:QLC393217 QUY393119:QUY393217 REU393119:REU393217 ROQ393119:ROQ393217 RYM393119:RYM393217 SII393119:SII393217 SSE393119:SSE393217 TCA393119:TCA393217 TLW393119:TLW393217 TVS393119:TVS393217 UFO393119:UFO393217 UPK393119:UPK393217 UZG393119:UZG393217 VJC393119:VJC393217 VSY393119:VSY393217 WCU393119:WCU393217 WMQ393119:WMQ393217 WWM393119:WWM393217 AE458655:AE458753 KA458655:KA458753 TW458655:TW458753 ADS458655:ADS458753 ANO458655:ANO458753 AXK458655:AXK458753 BHG458655:BHG458753 BRC458655:BRC458753 CAY458655:CAY458753 CKU458655:CKU458753 CUQ458655:CUQ458753 DEM458655:DEM458753 DOI458655:DOI458753 DYE458655:DYE458753 EIA458655:EIA458753 ERW458655:ERW458753 FBS458655:FBS458753 FLO458655:FLO458753 FVK458655:FVK458753 GFG458655:GFG458753 GPC458655:GPC458753 GYY458655:GYY458753 HIU458655:HIU458753 HSQ458655:HSQ458753 ICM458655:ICM458753 IMI458655:IMI458753 IWE458655:IWE458753 JGA458655:JGA458753 JPW458655:JPW458753 JZS458655:JZS458753 KJO458655:KJO458753 KTK458655:KTK458753 LDG458655:LDG458753 LNC458655:LNC458753 LWY458655:LWY458753 MGU458655:MGU458753 MQQ458655:MQQ458753 NAM458655:NAM458753 NKI458655:NKI458753 NUE458655:NUE458753 OEA458655:OEA458753 ONW458655:ONW458753 OXS458655:OXS458753 PHO458655:PHO458753 PRK458655:PRK458753 QBG458655:QBG458753 QLC458655:QLC458753 QUY458655:QUY458753 REU458655:REU458753 ROQ458655:ROQ458753 RYM458655:RYM458753 SII458655:SII458753 SSE458655:SSE458753 TCA458655:TCA458753 TLW458655:TLW458753 TVS458655:TVS458753 UFO458655:UFO458753 UPK458655:UPK458753 UZG458655:UZG458753 VJC458655:VJC458753 VSY458655:VSY458753 WCU458655:WCU458753 WMQ458655:WMQ458753 WWM458655:WWM458753 AE524191:AE524289 KA524191:KA524289 TW524191:TW524289 ADS524191:ADS524289 ANO524191:ANO524289 AXK524191:AXK524289 BHG524191:BHG524289 BRC524191:BRC524289 CAY524191:CAY524289 CKU524191:CKU524289 CUQ524191:CUQ524289 DEM524191:DEM524289 DOI524191:DOI524289 DYE524191:DYE524289 EIA524191:EIA524289 ERW524191:ERW524289 FBS524191:FBS524289 FLO524191:FLO524289 FVK524191:FVK524289 GFG524191:GFG524289 GPC524191:GPC524289 GYY524191:GYY524289 HIU524191:HIU524289 HSQ524191:HSQ524289 ICM524191:ICM524289 IMI524191:IMI524289 IWE524191:IWE524289 JGA524191:JGA524289 JPW524191:JPW524289 JZS524191:JZS524289 KJO524191:KJO524289 KTK524191:KTK524289 LDG524191:LDG524289 LNC524191:LNC524289 LWY524191:LWY524289 MGU524191:MGU524289 MQQ524191:MQQ524289 NAM524191:NAM524289 NKI524191:NKI524289 NUE524191:NUE524289 OEA524191:OEA524289 ONW524191:ONW524289 OXS524191:OXS524289 PHO524191:PHO524289 PRK524191:PRK524289 QBG524191:QBG524289 QLC524191:QLC524289 QUY524191:QUY524289 REU524191:REU524289 ROQ524191:ROQ524289 RYM524191:RYM524289 SII524191:SII524289 SSE524191:SSE524289 TCA524191:TCA524289 TLW524191:TLW524289 TVS524191:TVS524289 UFO524191:UFO524289 UPK524191:UPK524289 UZG524191:UZG524289 VJC524191:VJC524289 VSY524191:VSY524289 WCU524191:WCU524289 WMQ524191:WMQ524289 WWM524191:WWM524289 AE589727:AE589825 KA589727:KA589825 TW589727:TW589825 ADS589727:ADS589825 ANO589727:ANO589825 AXK589727:AXK589825 BHG589727:BHG589825 BRC589727:BRC589825 CAY589727:CAY589825 CKU589727:CKU589825 CUQ589727:CUQ589825 DEM589727:DEM589825 DOI589727:DOI589825 DYE589727:DYE589825 EIA589727:EIA589825 ERW589727:ERW589825 FBS589727:FBS589825 FLO589727:FLO589825 FVK589727:FVK589825 GFG589727:GFG589825 GPC589727:GPC589825 GYY589727:GYY589825 HIU589727:HIU589825 HSQ589727:HSQ589825 ICM589727:ICM589825 IMI589727:IMI589825 IWE589727:IWE589825 JGA589727:JGA589825 JPW589727:JPW589825 JZS589727:JZS589825 KJO589727:KJO589825 KTK589727:KTK589825 LDG589727:LDG589825 LNC589727:LNC589825 LWY589727:LWY589825 MGU589727:MGU589825 MQQ589727:MQQ589825 NAM589727:NAM589825 NKI589727:NKI589825 NUE589727:NUE589825 OEA589727:OEA589825 ONW589727:ONW589825 OXS589727:OXS589825 PHO589727:PHO589825 PRK589727:PRK589825 QBG589727:QBG589825 QLC589727:QLC589825 QUY589727:QUY589825 REU589727:REU589825 ROQ589727:ROQ589825 RYM589727:RYM589825 SII589727:SII589825 SSE589727:SSE589825 TCA589727:TCA589825 TLW589727:TLW589825 TVS589727:TVS589825 UFO589727:UFO589825 UPK589727:UPK589825 UZG589727:UZG589825 VJC589727:VJC589825 VSY589727:VSY589825 WCU589727:WCU589825 WMQ589727:WMQ589825 WWM589727:WWM589825 AE655263:AE655361 KA655263:KA655361 TW655263:TW655361 ADS655263:ADS655361 ANO655263:ANO655361 AXK655263:AXK655361 BHG655263:BHG655361 BRC655263:BRC655361 CAY655263:CAY655361 CKU655263:CKU655361 CUQ655263:CUQ655361 DEM655263:DEM655361 DOI655263:DOI655361 DYE655263:DYE655361 EIA655263:EIA655361 ERW655263:ERW655361 FBS655263:FBS655361 FLO655263:FLO655361 FVK655263:FVK655361 GFG655263:GFG655361 GPC655263:GPC655361 GYY655263:GYY655361 HIU655263:HIU655361 HSQ655263:HSQ655361 ICM655263:ICM655361 IMI655263:IMI655361 IWE655263:IWE655361 JGA655263:JGA655361 JPW655263:JPW655361 JZS655263:JZS655361 KJO655263:KJO655361 KTK655263:KTK655361 LDG655263:LDG655361 LNC655263:LNC655361 LWY655263:LWY655361 MGU655263:MGU655361 MQQ655263:MQQ655361 NAM655263:NAM655361 NKI655263:NKI655361 NUE655263:NUE655361 OEA655263:OEA655361 ONW655263:ONW655361 OXS655263:OXS655361 PHO655263:PHO655361 PRK655263:PRK655361 QBG655263:QBG655361 QLC655263:QLC655361 QUY655263:QUY655361 REU655263:REU655361 ROQ655263:ROQ655361 RYM655263:RYM655361 SII655263:SII655361 SSE655263:SSE655361 TCA655263:TCA655361 TLW655263:TLW655361 TVS655263:TVS655361 UFO655263:UFO655361 UPK655263:UPK655361 UZG655263:UZG655361 VJC655263:VJC655361 VSY655263:VSY655361 WCU655263:WCU655361 WMQ655263:WMQ655361 WWM655263:WWM655361 AE720799:AE720897 KA720799:KA720897 TW720799:TW720897 ADS720799:ADS720897 ANO720799:ANO720897 AXK720799:AXK720897 BHG720799:BHG720897 BRC720799:BRC720897 CAY720799:CAY720897 CKU720799:CKU720897 CUQ720799:CUQ720897 DEM720799:DEM720897 DOI720799:DOI720897 DYE720799:DYE720897 EIA720799:EIA720897 ERW720799:ERW720897 FBS720799:FBS720897 FLO720799:FLO720897 FVK720799:FVK720897 GFG720799:GFG720897 GPC720799:GPC720897 GYY720799:GYY720897 HIU720799:HIU720897 HSQ720799:HSQ720897 ICM720799:ICM720897 IMI720799:IMI720897 IWE720799:IWE720897 JGA720799:JGA720897 JPW720799:JPW720897 JZS720799:JZS720897 KJO720799:KJO720897 KTK720799:KTK720897 LDG720799:LDG720897 LNC720799:LNC720897 LWY720799:LWY720897 MGU720799:MGU720897 MQQ720799:MQQ720897 NAM720799:NAM720897 NKI720799:NKI720897 NUE720799:NUE720897 OEA720799:OEA720897 ONW720799:ONW720897 OXS720799:OXS720897 PHO720799:PHO720897 PRK720799:PRK720897 QBG720799:QBG720897 QLC720799:QLC720897 QUY720799:QUY720897 REU720799:REU720897 ROQ720799:ROQ720897 RYM720799:RYM720897 SII720799:SII720897 SSE720799:SSE720897 TCA720799:TCA720897 TLW720799:TLW720897 TVS720799:TVS720897 UFO720799:UFO720897 UPK720799:UPK720897 UZG720799:UZG720897 VJC720799:VJC720897 VSY720799:VSY720897 WCU720799:WCU720897 WMQ720799:WMQ720897 WWM720799:WWM720897 AE786335:AE786433 KA786335:KA786433 TW786335:TW786433 ADS786335:ADS786433 ANO786335:ANO786433 AXK786335:AXK786433 BHG786335:BHG786433 BRC786335:BRC786433 CAY786335:CAY786433 CKU786335:CKU786433 CUQ786335:CUQ786433 DEM786335:DEM786433 DOI786335:DOI786433 DYE786335:DYE786433 EIA786335:EIA786433 ERW786335:ERW786433 FBS786335:FBS786433 FLO786335:FLO786433 FVK786335:FVK786433 GFG786335:GFG786433 GPC786335:GPC786433 GYY786335:GYY786433 HIU786335:HIU786433 HSQ786335:HSQ786433 ICM786335:ICM786433 IMI786335:IMI786433 IWE786335:IWE786433 JGA786335:JGA786433 JPW786335:JPW786433 JZS786335:JZS786433 KJO786335:KJO786433 KTK786335:KTK786433 LDG786335:LDG786433 LNC786335:LNC786433 LWY786335:LWY786433 MGU786335:MGU786433 MQQ786335:MQQ786433 NAM786335:NAM786433 NKI786335:NKI786433 NUE786335:NUE786433 OEA786335:OEA786433 ONW786335:ONW786433 OXS786335:OXS786433 PHO786335:PHO786433 PRK786335:PRK786433 QBG786335:QBG786433 QLC786335:QLC786433 QUY786335:QUY786433 REU786335:REU786433 ROQ786335:ROQ786433 RYM786335:RYM786433 SII786335:SII786433 SSE786335:SSE786433 TCA786335:TCA786433 TLW786335:TLW786433 TVS786335:TVS786433 UFO786335:UFO786433 UPK786335:UPK786433 UZG786335:UZG786433 VJC786335:VJC786433 VSY786335:VSY786433 WCU786335:WCU786433 WMQ786335:WMQ786433 WWM786335:WWM786433 AE851871:AE851969 KA851871:KA851969 TW851871:TW851969 ADS851871:ADS851969 ANO851871:ANO851969 AXK851871:AXK851969 BHG851871:BHG851969 BRC851871:BRC851969 CAY851871:CAY851969 CKU851871:CKU851969 CUQ851871:CUQ851969 DEM851871:DEM851969 DOI851871:DOI851969 DYE851871:DYE851969 EIA851871:EIA851969 ERW851871:ERW851969 FBS851871:FBS851969 FLO851871:FLO851969 FVK851871:FVK851969 GFG851871:GFG851969 GPC851871:GPC851969 GYY851871:GYY851969 HIU851871:HIU851969 HSQ851871:HSQ851969 ICM851871:ICM851969 IMI851871:IMI851969 IWE851871:IWE851969 JGA851871:JGA851969 JPW851871:JPW851969 JZS851871:JZS851969 KJO851871:KJO851969 KTK851871:KTK851969 LDG851871:LDG851969 LNC851871:LNC851969 LWY851871:LWY851969 MGU851871:MGU851969 MQQ851871:MQQ851969 NAM851871:NAM851969 NKI851871:NKI851969 NUE851871:NUE851969 OEA851871:OEA851969 ONW851871:ONW851969 OXS851871:OXS851969 PHO851871:PHO851969 PRK851871:PRK851969 QBG851871:QBG851969 QLC851871:QLC851969 QUY851871:QUY851969 REU851871:REU851969 ROQ851871:ROQ851969 RYM851871:RYM851969 SII851871:SII851969 SSE851871:SSE851969 TCA851871:TCA851969 TLW851871:TLW851969 TVS851871:TVS851969 UFO851871:UFO851969 UPK851871:UPK851969 UZG851871:UZG851969 VJC851871:VJC851969 VSY851871:VSY851969 WCU851871:WCU851969 WMQ851871:WMQ851969 WWM851871:WWM851969 AE917407:AE917505 KA917407:KA917505 TW917407:TW917505 ADS917407:ADS917505 ANO917407:ANO917505 AXK917407:AXK917505 BHG917407:BHG917505 BRC917407:BRC917505 CAY917407:CAY917505 CKU917407:CKU917505 CUQ917407:CUQ917505 DEM917407:DEM917505 DOI917407:DOI917505 DYE917407:DYE917505 EIA917407:EIA917505 ERW917407:ERW917505 FBS917407:FBS917505 FLO917407:FLO917505 FVK917407:FVK917505 GFG917407:GFG917505 GPC917407:GPC917505 GYY917407:GYY917505 HIU917407:HIU917505 HSQ917407:HSQ917505 ICM917407:ICM917505 IMI917407:IMI917505 IWE917407:IWE917505 JGA917407:JGA917505 JPW917407:JPW917505 JZS917407:JZS917505 KJO917407:KJO917505 KTK917407:KTK917505 LDG917407:LDG917505 LNC917407:LNC917505 LWY917407:LWY917505 MGU917407:MGU917505 MQQ917407:MQQ917505 NAM917407:NAM917505 NKI917407:NKI917505 NUE917407:NUE917505 OEA917407:OEA917505 ONW917407:ONW917505 OXS917407:OXS917505 PHO917407:PHO917505 PRK917407:PRK917505 QBG917407:QBG917505 QLC917407:QLC917505 QUY917407:QUY917505 REU917407:REU917505 ROQ917407:ROQ917505 RYM917407:RYM917505 SII917407:SII917505 SSE917407:SSE917505 TCA917407:TCA917505 TLW917407:TLW917505 TVS917407:TVS917505 UFO917407:UFO917505 UPK917407:UPK917505 UZG917407:UZG917505 VJC917407:VJC917505 VSY917407:VSY917505 WCU917407:WCU917505 WMQ917407:WMQ917505 WWM917407:WWM917505 AE982943:AE983041 KA982943:KA983041 TW982943:TW983041 ADS982943:ADS983041 ANO982943:ANO983041 AXK982943:AXK983041 BHG982943:BHG983041 BRC982943:BRC983041 CAY982943:CAY983041 CKU982943:CKU983041 CUQ982943:CUQ983041 DEM982943:DEM983041 DOI982943:DOI983041 DYE982943:DYE983041 EIA982943:EIA983041 ERW982943:ERW983041 FBS982943:FBS983041 FLO982943:FLO983041 FVK982943:FVK983041 GFG982943:GFG983041 GPC982943:GPC983041 GYY982943:GYY983041 HIU982943:HIU983041 HSQ982943:HSQ983041 ICM982943:ICM983041 IMI982943:IMI983041 IWE982943:IWE983041 JGA982943:JGA983041 JPW982943:JPW983041 JZS982943:JZS983041 KJO982943:KJO983041 KTK982943:KTK983041 LDG982943:LDG983041 LNC982943:LNC983041 LWY982943:LWY983041 MGU982943:MGU983041 MQQ982943:MQQ983041 NAM982943:NAM983041 NKI982943:NKI983041 NUE982943:NUE983041 OEA982943:OEA983041 ONW982943:ONW983041 OXS982943:OXS983041 PHO982943:PHO983041 PRK982943:PRK983041 QBG982943:QBG983041 QLC982943:QLC983041 QUY982943:QUY983041 REU982943:REU983041 ROQ982943:ROQ983041 RYM982943:RYM983041 SII982943:SII983041 SSE982943:SSE983041 TCA982943:TCA983041 TLW982943:TLW983041 TVS982943:TVS983041 UFO982943:UFO983041 UPK982943:UPK983041 UZG982943:UZG983041 VJC982943:VJC983041 VSY982943:VSY983041 WCU982943:WCU983041 WMQ982943:WMQ983041 WWM982943:WWM983041" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 JU2 TQ2 ADM2 ANI2 AXE2 BHA2 BQW2 CAS2 CKO2 CUK2 DEG2 DOC2 DXY2 EHU2 ERQ2 FBM2 FLI2 FVE2 GFA2 GOW2 GYS2 HIO2 HSK2 ICG2 IMC2 IVY2 JFU2 JPQ2 JZM2 KJI2 KTE2 LDA2 LMW2 LWS2 MGO2 MQK2 NAG2 NKC2 NTY2 ODU2 ONQ2 OXM2 PHI2 PRE2 QBA2 QKW2 QUS2 REO2 ROK2 RYG2 SIC2 SRY2 TBU2 TLQ2 TVM2 UFI2 UPE2 UZA2 VIW2 VSS2 WCO2 WMK2 WWG2 Y65439:Y65537 JU65439:JU65537 TQ65439:TQ65537 ADM65439:ADM65537 ANI65439:ANI65537 AXE65439:AXE65537 BHA65439:BHA65537 BQW65439:BQW65537 CAS65439:CAS65537 CKO65439:CKO65537 CUK65439:CUK65537 DEG65439:DEG65537 DOC65439:DOC65537 DXY65439:DXY65537 EHU65439:EHU65537 ERQ65439:ERQ65537 FBM65439:FBM65537 FLI65439:FLI65537 FVE65439:FVE65537 GFA65439:GFA65537 GOW65439:GOW65537 GYS65439:GYS65537 HIO65439:HIO65537 HSK65439:HSK65537 ICG65439:ICG65537 IMC65439:IMC65537 IVY65439:IVY65537 JFU65439:JFU65537 JPQ65439:JPQ65537 JZM65439:JZM65537 KJI65439:KJI65537 KTE65439:KTE65537 LDA65439:LDA65537 LMW65439:LMW65537 LWS65439:LWS65537 MGO65439:MGO65537 MQK65439:MQK65537 NAG65439:NAG65537 NKC65439:NKC65537 NTY65439:NTY65537 ODU65439:ODU65537 ONQ65439:ONQ65537 OXM65439:OXM65537 PHI65439:PHI65537 PRE65439:PRE65537 QBA65439:QBA65537 QKW65439:QKW65537 QUS65439:QUS65537 REO65439:REO65537 ROK65439:ROK65537 RYG65439:RYG65537 SIC65439:SIC65537 SRY65439:SRY65537 TBU65439:TBU65537 TLQ65439:TLQ65537 TVM65439:TVM65537 UFI65439:UFI65537 UPE65439:UPE65537 UZA65439:UZA65537 VIW65439:VIW65537 VSS65439:VSS65537 WCO65439:WCO65537 WMK65439:WMK65537 WWG65439:WWG65537 Y130975:Y131073 JU130975:JU131073 TQ130975:TQ131073 ADM130975:ADM131073 ANI130975:ANI131073 AXE130975:AXE131073 BHA130975:BHA131073 BQW130975:BQW131073 CAS130975:CAS131073 CKO130975:CKO131073 CUK130975:CUK131073 DEG130975:DEG131073 DOC130975:DOC131073 DXY130975:DXY131073 EHU130975:EHU131073 ERQ130975:ERQ131073 FBM130975:FBM131073 FLI130975:FLI131073 FVE130975:FVE131073 GFA130975:GFA131073 GOW130975:GOW131073 GYS130975:GYS131073 HIO130975:HIO131073 HSK130975:HSK131073 ICG130975:ICG131073 IMC130975:IMC131073 IVY130975:IVY131073 JFU130975:JFU131073 JPQ130975:JPQ131073 JZM130975:JZM131073 KJI130975:KJI131073 KTE130975:KTE131073 LDA130975:LDA131073 LMW130975:LMW131073 LWS130975:LWS131073 MGO130975:MGO131073 MQK130975:MQK131073 NAG130975:NAG131073 NKC130975:NKC131073 NTY130975:NTY131073 ODU130975:ODU131073 ONQ130975:ONQ131073 OXM130975:OXM131073 PHI130975:PHI131073 PRE130975:PRE131073 QBA130975:QBA131073 QKW130975:QKW131073 QUS130975:QUS131073 REO130975:REO131073 ROK130975:ROK131073 RYG130975:RYG131073 SIC130975:SIC131073 SRY130975:SRY131073 TBU130975:TBU131073 TLQ130975:TLQ131073 TVM130975:TVM131073 UFI130975:UFI131073 UPE130975:UPE131073 UZA130975:UZA131073 VIW130975:VIW131073 VSS130975:VSS131073 WCO130975:WCO131073 WMK130975:WMK131073 WWG130975:WWG131073 Y196511:Y196609 JU196511:JU196609 TQ196511:TQ196609 ADM196511:ADM196609 ANI196511:ANI196609 AXE196511:AXE196609 BHA196511:BHA196609 BQW196511:BQW196609 CAS196511:CAS196609 CKO196511:CKO196609 CUK196511:CUK196609 DEG196511:DEG196609 DOC196511:DOC196609 DXY196511:DXY196609 EHU196511:EHU196609 ERQ196511:ERQ196609 FBM196511:FBM196609 FLI196511:FLI196609 FVE196511:FVE196609 GFA196511:GFA196609 GOW196511:GOW196609 GYS196511:GYS196609 HIO196511:HIO196609 HSK196511:HSK196609 ICG196511:ICG196609 IMC196511:IMC196609 IVY196511:IVY196609 JFU196511:JFU196609 JPQ196511:JPQ196609 JZM196511:JZM196609 KJI196511:KJI196609 KTE196511:KTE196609 LDA196511:LDA196609 LMW196511:LMW196609 LWS196511:LWS196609 MGO196511:MGO196609 MQK196511:MQK196609 NAG196511:NAG196609 NKC196511:NKC196609 NTY196511:NTY196609 ODU196511:ODU196609 ONQ196511:ONQ196609 OXM196511:OXM196609 PHI196511:PHI196609 PRE196511:PRE196609 QBA196511:QBA196609 QKW196511:QKW196609 QUS196511:QUS196609 REO196511:REO196609 ROK196511:ROK196609 RYG196511:RYG196609 SIC196511:SIC196609 SRY196511:SRY196609 TBU196511:TBU196609 TLQ196511:TLQ196609 TVM196511:TVM196609 UFI196511:UFI196609 UPE196511:UPE196609 UZA196511:UZA196609 VIW196511:VIW196609 VSS196511:VSS196609 WCO196511:WCO196609 WMK196511:WMK196609 WWG196511:WWG196609 Y262047:Y262145 JU262047:JU262145 TQ262047:TQ262145 ADM262047:ADM262145 ANI262047:ANI262145 AXE262047:AXE262145 BHA262047:BHA262145 BQW262047:BQW262145 CAS262047:CAS262145 CKO262047:CKO262145 CUK262047:CUK262145 DEG262047:DEG262145 DOC262047:DOC262145 DXY262047:DXY262145 EHU262047:EHU262145 ERQ262047:ERQ262145 FBM262047:FBM262145 FLI262047:FLI262145 FVE262047:FVE262145 GFA262047:GFA262145 GOW262047:GOW262145 GYS262047:GYS262145 HIO262047:HIO262145 HSK262047:HSK262145 ICG262047:ICG262145 IMC262047:IMC262145 IVY262047:IVY262145 JFU262047:JFU262145 JPQ262047:JPQ262145 JZM262047:JZM262145 KJI262047:KJI262145 KTE262047:KTE262145 LDA262047:LDA262145 LMW262047:LMW262145 LWS262047:LWS262145 MGO262047:MGO262145 MQK262047:MQK262145 NAG262047:NAG262145 NKC262047:NKC262145 NTY262047:NTY262145 ODU262047:ODU262145 ONQ262047:ONQ262145 OXM262047:OXM262145 PHI262047:PHI262145 PRE262047:PRE262145 QBA262047:QBA262145 QKW262047:QKW262145 QUS262047:QUS262145 REO262047:REO262145 ROK262047:ROK262145 RYG262047:RYG262145 SIC262047:SIC262145 SRY262047:SRY262145 TBU262047:TBU262145 TLQ262047:TLQ262145 TVM262047:TVM262145 UFI262047:UFI262145 UPE262047:UPE262145 UZA262047:UZA262145 VIW262047:VIW262145 VSS262047:VSS262145 WCO262047:WCO262145 WMK262047:WMK262145 WWG262047:WWG262145 Y327583:Y327681 JU327583:JU327681 TQ327583:TQ327681 ADM327583:ADM327681 ANI327583:ANI327681 AXE327583:AXE327681 BHA327583:BHA327681 BQW327583:BQW327681 CAS327583:CAS327681 CKO327583:CKO327681 CUK327583:CUK327681 DEG327583:DEG327681 DOC327583:DOC327681 DXY327583:DXY327681 EHU327583:EHU327681 ERQ327583:ERQ327681 FBM327583:FBM327681 FLI327583:FLI327681 FVE327583:FVE327681 GFA327583:GFA327681 GOW327583:GOW327681 GYS327583:GYS327681 HIO327583:HIO327681 HSK327583:HSK327681 ICG327583:ICG327681 IMC327583:IMC327681 IVY327583:IVY327681 JFU327583:JFU327681 JPQ327583:JPQ327681 JZM327583:JZM327681 KJI327583:KJI327681 KTE327583:KTE327681 LDA327583:LDA327681 LMW327583:LMW327681 LWS327583:LWS327681 MGO327583:MGO327681 MQK327583:MQK327681 NAG327583:NAG327681 NKC327583:NKC327681 NTY327583:NTY327681 ODU327583:ODU327681 ONQ327583:ONQ327681 OXM327583:OXM327681 PHI327583:PHI327681 PRE327583:PRE327681 QBA327583:QBA327681 QKW327583:QKW327681 QUS327583:QUS327681 REO327583:REO327681 ROK327583:ROK327681 RYG327583:RYG327681 SIC327583:SIC327681 SRY327583:SRY327681 TBU327583:TBU327681 TLQ327583:TLQ327681 TVM327583:TVM327681 UFI327583:UFI327681 UPE327583:UPE327681 UZA327583:UZA327681 VIW327583:VIW327681 VSS327583:VSS327681 WCO327583:WCO327681 WMK327583:WMK327681 WWG327583:WWG327681 Y393119:Y393217 JU393119:JU393217 TQ393119:TQ393217 ADM393119:ADM393217 ANI393119:ANI393217 AXE393119:AXE393217 BHA393119:BHA393217 BQW393119:BQW393217 CAS393119:CAS393217 CKO393119:CKO393217 CUK393119:CUK393217 DEG393119:DEG393217 DOC393119:DOC393217 DXY393119:DXY393217 EHU393119:EHU393217 ERQ393119:ERQ393217 FBM393119:FBM393217 FLI393119:FLI393217 FVE393119:FVE393217 GFA393119:GFA393217 GOW393119:GOW393217 GYS393119:GYS393217 HIO393119:HIO393217 HSK393119:HSK393217 ICG393119:ICG393217 IMC393119:IMC393217 IVY393119:IVY393217 JFU393119:JFU393217 JPQ393119:JPQ393217 JZM393119:JZM393217 KJI393119:KJI393217 KTE393119:KTE393217 LDA393119:LDA393217 LMW393119:LMW393217 LWS393119:LWS393217 MGO393119:MGO393217 MQK393119:MQK393217 NAG393119:NAG393217 NKC393119:NKC393217 NTY393119:NTY393217 ODU393119:ODU393217 ONQ393119:ONQ393217 OXM393119:OXM393217 PHI393119:PHI393217 PRE393119:PRE393217 QBA393119:QBA393217 QKW393119:QKW393217 QUS393119:QUS393217 REO393119:REO393217 ROK393119:ROK393217 RYG393119:RYG393217 SIC393119:SIC393217 SRY393119:SRY393217 TBU393119:TBU393217 TLQ393119:TLQ393217 TVM393119:TVM393217 UFI393119:UFI393217 UPE393119:UPE393217 UZA393119:UZA393217 VIW393119:VIW393217 VSS393119:VSS393217 WCO393119:WCO393217 WMK393119:WMK393217 WWG393119:WWG393217 Y458655:Y458753 JU458655:JU458753 TQ458655:TQ458753 ADM458655:ADM458753 ANI458655:ANI458753 AXE458655:AXE458753 BHA458655:BHA458753 BQW458655:BQW458753 CAS458655:CAS458753 CKO458655:CKO458753 CUK458655:CUK458753 DEG458655:DEG458753 DOC458655:DOC458753 DXY458655:DXY458753 EHU458655:EHU458753 ERQ458655:ERQ458753 FBM458655:FBM458753 FLI458655:FLI458753 FVE458655:FVE458753 GFA458655:GFA458753 GOW458655:GOW458753 GYS458655:GYS458753 HIO458655:HIO458753 HSK458655:HSK458753 ICG458655:ICG458753 IMC458655:IMC458753 IVY458655:IVY458753 JFU458655:JFU458753 JPQ458655:JPQ458753 JZM458655:JZM458753 KJI458655:KJI458753 KTE458655:KTE458753 LDA458655:LDA458753 LMW458655:LMW458753 LWS458655:LWS458753 MGO458655:MGO458753 MQK458655:MQK458753 NAG458655:NAG458753 NKC458655:NKC458753 NTY458655:NTY458753 ODU458655:ODU458753 ONQ458655:ONQ458753 OXM458655:OXM458753 PHI458655:PHI458753 PRE458655:PRE458753 QBA458655:QBA458753 QKW458655:QKW458753 QUS458655:QUS458753 REO458655:REO458753 ROK458655:ROK458753 RYG458655:RYG458753 SIC458655:SIC458753 SRY458655:SRY458753 TBU458655:TBU458753 TLQ458655:TLQ458753 TVM458655:TVM458753 UFI458655:UFI458753 UPE458655:UPE458753 UZA458655:UZA458753 VIW458655:VIW458753 VSS458655:VSS458753 WCO458655:WCO458753 WMK458655:WMK458753 WWG458655:WWG458753 Y524191:Y524289 JU524191:JU524289 TQ524191:TQ524289 ADM524191:ADM524289 ANI524191:ANI524289 AXE524191:AXE524289 BHA524191:BHA524289 BQW524191:BQW524289 CAS524191:CAS524289 CKO524191:CKO524289 CUK524191:CUK524289 DEG524191:DEG524289 DOC524191:DOC524289 DXY524191:DXY524289 EHU524191:EHU524289 ERQ524191:ERQ524289 FBM524191:FBM524289 FLI524191:FLI524289 FVE524191:FVE524289 GFA524191:GFA524289 GOW524191:GOW524289 GYS524191:GYS524289 HIO524191:HIO524289 HSK524191:HSK524289 ICG524191:ICG524289 IMC524191:IMC524289 IVY524191:IVY524289 JFU524191:JFU524289 JPQ524191:JPQ524289 JZM524191:JZM524289 KJI524191:KJI524289 KTE524191:KTE524289 LDA524191:LDA524289 LMW524191:LMW524289 LWS524191:LWS524289 MGO524191:MGO524289 MQK524191:MQK524289 NAG524191:NAG524289 NKC524191:NKC524289 NTY524191:NTY524289 ODU524191:ODU524289 ONQ524191:ONQ524289 OXM524191:OXM524289 PHI524191:PHI524289 PRE524191:PRE524289 QBA524191:QBA524289 QKW524191:QKW524289 QUS524191:QUS524289 REO524191:REO524289 ROK524191:ROK524289 RYG524191:RYG524289 SIC524191:SIC524289 SRY524191:SRY524289 TBU524191:TBU524289 TLQ524191:TLQ524289 TVM524191:TVM524289 UFI524191:UFI524289 UPE524191:UPE524289 UZA524191:UZA524289 VIW524191:VIW524289 VSS524191:VSS524289 WCO524191:WCO524289 WMK524191:WMK524289 WWG524191:WWG524289 Y589727:Y589825 JU589727:JU589825 TQ589727:TQ589825 ADM589727:ADM589825 ANI589727:ANI589825 AXE589727:AXE589825 BHA589727:BHA589825 BQW589727:BQW589825 CAS589727:CAS589825 CKO589727:CKO589825 CUK589727:CUK589825 DEG589727:DEG589825 DOC589727:DOC589825 DXY589727:DXY589825 EHU589727:EHU589825 ERQ589727:ERQ589825 FBM589727:FBM589825 FLI589727:FLI589825 FVE589727:FVE589825 GFA589727:GFA589825 GOW589727:GOW589825 GYS589727:GYS589825 HIO589727:HIO589825 HSK589727:HSK589825 ICG589727:ICG589825 IMC589727:IMC589825 IVY589727:IVY589825 JFU589727:JFU589825 JPQ589727:JPQ589825 JZM589727:JZM589825 KJI589727:KJI589825 KTE589727:KTE589825 LDA589727:LDA589825 LMW589727:LMW589825 LWS589727:LWS589825 MGO589727:MGO589825 MQK589727:MQK589825 NAG589727:NAG589825 NKC589727:NKC589825 NTY589727:NTY589825 ODU589727:ODU589825 ONQ589727:ONQ589825 OXM589727:OXM589825 PHI589727:PHI589825 PRE589727:PRE589825 QBA589727:QBA589825 QKW589727:QKW589825 QUS589727:QUS589825 REO589727:REO589825 ROK589727:ROK589825 RYG589727:RYG589825 SIC589727:SIC589825 SRY589727:SRY589825 TBU589727:TBU589825 TLQ589727:TLQ589825 TVM589727:TVM589825 UFI589727:UFI589825 UPE589727:UPE589825 UZA589727:UZA589825 VIW589727:VIW589825 VSS589727:VSS589825 WCO589727:WCO589825 WMK589727:WMK589825 WWG589727:WWG589825 Y655263:Y655361 JU655263:JU655361 TQ655263:TQ655361 ADM655263:ADM655361 ANI655263:ANI655361 AXE655263:AXE655361 BHA655263:BHA655361 BQW655263:BQW655361 CAS655263:CAS655361 CKO655263:CKO655361 CUK655263:CUK655361 DEG655263:DEG655361 DOC655263:DOC655361 DXY655263:DXY655361 EHU655263:EHU655361 ERQ655263:ERQ655361 FBM655263:FBM655361 FLI655263:FLI655361 FVE655263:FVE655361 GFA655263:GFA655361 GOW655263:GOW655361 GYS655263:GYS655361 HIO655263:HIO655361 HSK655263:HSK655361 ICG655263:ICG655361 IMC655263:IMC655361 IVY655263:IVY655361 JFU655263:JFU655361 JPQ655263:JPQ655361 JZM655263:JZM655361 KJI655263:KJI655361 KTE655263:KTE655361 LDA655263:LDA655361 LMW655263:LMW655361 LWS655263:LWS655361 MGO655263:MGO655361 MQK655263:MQK655361 NAG655263:NAG655361 NKC655263:NKC655361 NTY655263:NTY655361 ODU655263:ODU655361 ONQ655263:ONQ655361 OXM655263:OXM655361 PHI655263:PHI655361 PRE655263:PRE655361 QBA655263:QBA655361 QKW655263:QKW655361 QUS655263:QUS655361 REO655263:REO655361 ROK655263:ROK655361 RYG655263:RYG655361 SIC655263:SIC655361 SRY655263:SRY655361 TBU655263:TBU655361 TLQ655263:TLQ655361 TVM655263:TVM655361 UFI655263:UFI655361 UPE655263:UPE655361 UZA655263:UZA655361 VIW655263:VIW655361 VSS655263:VSS655361 WCO655263:WCO655361 WMK655263:WMK655361 WWG655263:WWG655361 Y720799:Y720897 JU720799:JU720897 TQ720799:TQ720897 ADM720799:ADM720897 ANI720799:ANI720897 AXE720799:AXE720897 BHA720799:BHA720897 BQW720799:BQW720897 CAS720799:CAS720897 CKO720799:CKO720897 CUK720799:CUK720897 DEG720799:DEG720897 DOC720799:DOC720897 DXY720799:DXY720897 EHU720799:EHU720897 ERQ720799:ERQ720897 FBM720799:FBM720897 FLI720799:FLI720897 FVE720799:FVE720897 GFA720799:GFA720897 GOW720799:GOW720897 GYS720799:GYS720897 HIO720799:HIO720897 HSK720799:HSK720897 ICG720799:ICG720897 IMC720799:IMC720897 IVY720799:IVY720897 JFU720799:JFU720897 JPQ720799:JPQ720897 JZM720799:JZM720897 KJI720799:KJI720897 KTE720799:KTE720897 LDA720799:LDA720897 LMW720799:LMW720897 LWS720799:LWS720897 MGO720799:MGO720897 MQK720799:MQK720897 NAG720799:NAG720897 NKC720799:NKC720897 NTY720799:NTY720897 ODU720799:ODU720897 ONQ720799:ONQ720897 OXM720799:OXM720897 PHI720799:PHI720897 PRE720799:PRE720897 QBA720799:QBA720897 QKW720799:QKW720897 QUS720799:QUS720897 REO720799:REO720897 ROK720799:ROK720897 RYG720799:RYG720897 SIC720799:SIC720897 SRY720799:SRY720897 TBU720799:TBU720897 TLQ720799:TLQ720897 TVM720799:TVM720897 UFI720799:UFI720897 UPE720799:UPE720897 UZA720799:UZA720897 VIW720799:VIW720897 VSS720799:VSS720897 WCO720799:WCO720897 WMK720799:WMK720897 WWG720799:WWG720897 Y786335:Y786433 JU786335:JU786433 TQ786335:TQ786433 ADM786335:ADM786433 ANI786335:ANI786433 AXE786335:AXE786433 BHA786335:BHA786433 BQW786335:BQW786433 CAS786335:CAS786433 CKO786335:CKO786433 CUK786335:CUK786433 DEG786335:DEG786433 DOC786335:DOC786433 DXY786335:DXY786433 EHU786335:EHU786433 ERQ786335:ERQ786433 FBM786335:FBM786433 FLI786335:FLI786433 FVE786335:FVE786433 GFA786335:GFA786433 GOW786335:GOW786433 GYS786335:GYS786433 HIO786335:HIO786433 HSK786335:HSK786433 ICG786335:ICG786433 IMC786335:IMC786433 IVY786335:IVY786433 JFU786335:JFU786433 JPQ786335:JPQ786433 JZM786335:JZM786433 KJI786335:KJI786433 KTE786335:KTE786433 LDA786335:LDA786433 LMW786335:LMW786433 LWS786335:LWS786433 MGO786335:MGO786433 MQK786335:MQK786433 NAG786335:NAG786433 NKC786335:NKC786433 NTY786335:NTY786433 ODU786335:ODU786433 ONQ786335:ONQ786433 OXM786335:OXM786433 PHI786335:PHI786433 PRE786335:PRE786433 QBA786335:QBA786433 QKW786335:QKW786433 QUS786335:QUS786433 REO786335:REO786433 ROK786335:ROK786433 RYG786335:RYG786433 SIC786335:SIC786433 SRY786335:SRY786433 TBU786335:TBU786433 TLQ786335:TLQ786433 TVM786335:TVM786433 UFI786335:UFI786433 UPE786335:UPE786433 UZA786335:UZA786433 VIW786335:VIW786433 VSS786335:VSS786433 WCO786335:WCO786433 WMK786335:WMK786433 WWG786335:WWG786433 Y851871:Y851969 JU851871:JU851969 TQ851871:TQ851969 ADM851871:ADM851969 ANI851871:ANI851969 AXE851871:AXE851969 BHA851871:BHA851969 BQW851871:BQW851969 CAS851871:CAS851969 CKO851871:CKO851969 CUK851871:CUK851969 DEG851871:DEG851969 DOC851871:DOC851969 DXY851871:DXY851969 EHU851871:EHU851969 ERQ851871:ERQ851969 FBM851871:FBM851969 FLI851871:FLI851969 FVE851871:FVE851969 GFA851871:GFA851969 GOW851871:GOW851969 GYS851871:GYS851969 HIO851871:HIO851969 HSK851871:HSK851969 ICG851871:ICG851969 IMC851871:IMC851969 IVY851871:IVY851969 JFU851871:JFU851969 JPQ851871:JPQ851969 JZM851871:JZM851969 KJI851871:KJI851969 KTE851871:KTE851969 LDA851871:LDA851969 LMW851871:LMW851969 LWS851871:LWS851969 MGO851871:MGO851969 MQK851871:MQK851969 NAG851871:NAG851969 NKC851871:NKC851969 NTY851871:NTY851969 ODU851871:ODU851969 ONQ851871:ONQ851969 OXM851871:OXM851969 PHI851871:PHI851969 PRE851871:PRE851969 QBA851871:QBA851969 QKW851871:QKW851969 QUS851871:QUS851969 REO851871:REO851969 ROK851871:ROK851969 RYG851871:RYG851969 SIC851871:SIC851969 SRY851871:SRY851969 TBU851871:TBU851969 TLQ851871:TLQ851969 TVM851871:TVM851969 UFI851871:UFI851969 UPE851871:UPE851969 UZA851871:UZA851969 VIW851871:VIW851969 VSS851871:VSS851969 WCO851871:WCO851969 WMK851871:WMK851969 WWG851871:WWG851969 Y917407:Y917505 JU917407:JU917505 TQ917407:TQ917505 ADM917407:ADM917505 ANI917407:ANI917505 AXE917407:AXE917505 BHA917407:BHA917505 BQW917407:BQW917505 CAS917407:CAS917505 CKO917407:CKO917505 CUK917407:CUK917505 DEG917407:DEG917505 DOC917407:DOC917505 DXY917407:DXY917505 EHU917407:EHU917505 ERQ917407:ERQ917505 FBM917407:FBM917505 FLI917407:FLI917505 FVE917407:FVE917505 GFA917407:GFA917505 GOW917407:GOW917505 GYS917407:GYS917505 HIO917407:HIO917505 HSK917407:HSK917505 ICG917407:ICG917505 IMC917407:IMC917505 IVY917407:IVY917505 JFU917407:JFU917505 JPQ917407:JPQ917505 JZM917407:JZM917505 KJI917407:KJI917505 KTE917407:KTE917505 LDA917407:LDA917505 LMW917407:LMW917505 LWS917407:LWS917505 MGO917407:MGO917505 MQK917407:MQK917505 NAG917407:NAG917505 NKC917407:NKC917505 NTY917407:NTY917505 ODU917407:ODU917505 ONQ917407:ONQ917505 OXM917407:OXM917505 PHI917407:PHI917505 PRE917407:PRE917505 QBA917407:QBA917505 QKW917407:QKW917505 QUS917407:QUS917505 REO917407:REO917505 ROK917407:ROK917505 RYG917407:RYG917505 SIC917407:SIC917505 SRY917407:SRY917505 TBU917407:TBU917505 TLQ917407:TLQ917505 TVM917407:TVM917505 UFI917407:UFI917505 UPE917407:UPE917505 UZA917407:UZA917505 VIW917407:VIW917505 VSS917407:VSS917505 WCO917407:WCO917505 WMK917407:WMK917505 WWG917407:WWG917505 Y982943:Y983041 JU982943:JU983041 TQ982943:TQ983041 ADM982943:ADM983041 ANI982943:ANI983041 AXE982943:AXE983041 BHA982943:BHA983041 BQW982943:BQW983041 CAS982943:CAS983041 CKO982943:CKO983041 CUK982943:CUK983041 DEG982943:DEG983041 DOC982943:DOC983041 DXY982943:DXY983041 EHU982943:EHU983041 ERQ982943:ERQ983041 FBM982943:FBM983041 FLI982943:FLI983041 FVE982943:FVE983041 GFA982943:GFA983041 GOW982943:GOW983041 GYS982943:GYS983041 HIO982943:HIO983041 HSK982943:HSK983041 ICG982943:ICG983041 IMC982943:IMC983041 IVY982943:IVY983041 JFU982943:JFU983041 JPQ982943:JPQ983041 JZM982943:JZM983041 KJI982943:KJI983041 KTE982943:KTE983041 LDA982943:LDA983041 LMW982943:LMW983041 LWS982943:LWS983041 MGO982943:MGO983041 MQK982943:MQK983041 NAG982943:NAG983041 NKC982943:NKC983041 NTY982943:NTY983041 ODU982943:ODU983041 ONQ982943:ONQ983041 OXM982943:OXM983041 PHI982943:PHI983041 PRE982943:PRE983041 QBA982943:QBA983041 QKW982943:QKW983041 QUS982943:QUS983041 REO982943:REO983041 ROK982943:ROK983041 RYG982943:RYG983041 SIC982943:SIC983041 SRY982943:SRY983041 TBU982943:TBU983041 TLQ982943:TLQ983041 TVM982943:TVM983041 UFI982943:UFI983041 UPE982943:UPE983041 UZA982943:UZA983041 VIW982943:VIW983041 VSS982943:VSS983041 WCO982943:WCO983041 WMK982943:WMK983041 WWG982943:WWG983041" xr:uid="{D7E4EDCC-39D1-4B10-9088-A8CCE03A44BA}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 JW2 TS2 ADO2 ANK2 AXG2 BHC2 BQY2 CAU2 CKQ2 CUM2 DEI2 DOE2 DYA2 EHW2 ERS2 FBO2 FLK2 FVG2 GFC2 GOY2 GYU2 HIQ2 HSM2 ICI2 IME2 IWA2 JFW2 JPS2 JZO2 KJK2 KTG2 LDC2 LMY2 LWU2 MGQ2 MQM2 NAI2 NKE2 NUA2 ODW2 ONS2 OXO2 PHK2 PRG2 QBC2 QKY2 QUU2 REQ2 ROM2 RYI2 SIE2 SSA2 TBW2 TLS2 TVO2 UFK2 UPG2 UZC2 VIY2 VSU2 WCQ2 WMM2 WWI2 AA65439:AA65537 JW65439:JW65537 TS65439:TS65537 ADO65439:ADO65537 ANK65439:ANK65537 AXG65439:AXG65537 BHC65439:BHC65537 BQY65439:BQY65537 CAU65439:CAU65537 CKQ65439:CKQ65537 CUM65439:CUM65537 DEI65439:DEI65537 DOE65439:DOE65537 DYA65439:DYA65537 EHW65439:EHW65537 ERS65439:ERS65537 FBO65439:FBO65537 FLK65439:FLK65537 FVG65439:FVG65537 GFC65439:GFC65537 GOY65439:GOY65537 GYU65439:GYU65537 HIQ65439:HIQ65537 HSM65439:HSM65537 ICI65439:ICI65537 IME65439:IME65537 IWA65439:IWA65537 JFW65439:JFW65537 JPS65439:JPS65537 JZO65439:JZO65537 KJK65439:KJK65537 KTG65439:KTG65537 LDC65439:LDC65537 LMY65439:LMY65537 LWU65439:LWU65537 MGQ65439:MGQ65537 MQM65439:MQM65537 NAI65439:NAI65537 NKE65439:NKE65537 NUA65439:NUA65537 ODW65439:ODW65537 ONS65439:ONS65537 OXO65439:OXO65537 PHK65439:PHK65537 PRG65439:PRG65537 QBC65439:QBC65537 QKY65439:QKY65537 QUU65439:QUU65537 REQ65439:REQ65537 ROM65439:ROM65537 RYI65439:RYI65537 SIE65439:SIE65537 SSA65439:SSA65537 TBW65439:TBW65537 TLS65439:TLS65537 TVO65439:TVO65537 UFK65439:UFK65537 UPG65439:UPG65537 UZC65439:UZC65537 VIY65439:VIY65537 VSU65439:VSU65537 WCQ65439:WCQ65537 WMM65439:WMM65537 WWI65439:WWI65537 AA130975:AA131073 JW130975:JW131073 TS130975:TS131073 ADO130975:ADO131073 ANK130975:ANK131073 AXG130975:AXG131073 BHC130975:BHC131073 BQY130975:BQY131073 CAU130975:CAU131073 CKQ130975:CKQ131073 CUM130975:CUM131073 DEI130975:DEI131073 DOE130975:DOE131073 DYA130975:DYA131073 EHW130975:EHW131073 ERS130975:ERS131073 FBO130975:FBO131073 FLK130975:FLK131073 FVG130975:FVG131073 GFC130975:GFC131073 GOY130975:GOY131073 GYU130975:GYU131073 HIQ130975:HIQ131073 HSM130975:HSM131073 ICI130975:ICI131073 IME130975:IME131073 IWA130975:IWA131073 JFW130975:JFW131073 JPS130975:JPS131073 JZO130975:JZO131073 KJK130975:KJK131073 KTG130975:KTG131073 LDC130975:LDC131073 LMY130975:LMY131073 LWU130975:LWU131073 MGQ130975:MGQ131073 MQM130975:MQM131073 NAI130975:NAI131073 NKE130975:NKE131073 NUA130975:NUA131073 ODW130975:ODW131073 ONS130975:ONS131073 OXO130975:OXO131073 PHK130975:PHK131073 PRG130975:PRG131073 QBC130975:QBC131073 QKY130975:QKY131073 QUU130975:QUU131073 REQ130975:REQ131073 ROM130975:ROM131073 RYI130975:RYI131073 SIE130975:SIE131073 SSA130975:SSA131073 TBW130975:TBW131073 TLS130975:TLS131073 TVO130975:TVO131073 UFK130975:UFK131073 UPG130975:UPG131073 UZC130975:UZC131073 VIY130975:VIY131073 VSU130975:VSU131073 WCQ130975:WCQ131073 WMM130975:WMM131073 WWI130975:WWI131073 AA196511:AA196609 JW196511:JW196609 TS196511:TS196609 ADO196511:ADO196609 ANK196511:ANK196609 AXG196511:AXG196609 BHC196511:BHC196609 BQY196511:BQY196609 CAU196511:CAU196609 CKQ196511:CKQ196609 CUM196511:CUM196609 DEI196511:DEI196609 DOE196511:DOE196609 DYA196511:DYA196609 EHW196511:EHW196609 ERS196511:ERS196609 FBO196511:FBO196609 FLK196511:FLK196609 FVG196511:FVG196609 GFC196511:GFC196609 GOY196511:GOY196609 GYU196511:GYU196609 HIQ196511:HIQ196609 HSM196511:HSM196609 ICI196511:ICI196609 IME196511:IME196609 IWA196511:IWA196609 JFW196511:JFW196609 JPS196511:JPS196609 JZO196511:JZO196609 KJK196511:KJK196609 KTG196511:KTG196609 LDC196511:LDC196609 LMY196511:LMY196609 LWU196511:LWU196609 MGQ196511:MGQ196609 MQM196511:MQM196609 NAI196511:NAI196609 NKE196511:NKE196609 NUA196511:NUA196609 ODW196511:ODW196609 ONS196511:ONS196609 OXO196511:OXO196609 PHK196511:PHK196609 PRG196511:PRG196609 QBC196511:QBC196609 QKY196511:QKY196609 QUU196511:QUU196609 REQ196511:REQ196609 ROM196511:ROM196609 RYI196511:RYI196609 SIE196511:SIE196609 SSA196511:SSA196609 TBW196511:TBW196609 TLS196511:TLS196609 TVO196511:TVO196609 UFK196511:UFK196609 UPG196511:UPG196609 UZC196511:UZC196609 VIY196511:VIY196609 VSU196511:VSU196609 WCQ196511:WCQ196609 WMM196511:WMM196609 WWI196511:WWI196609 AA262047:AA262145 JW262047:JW262145 TS262047:TS262145 ADO262047:ADO262145 ANK262047:ANK262145 AXG262047:AXG262145 BHC262047:BHC262145 BQY262047:BQY262145 CAU262047:CAU262145 CKQ262047:CKQ262145 CUM262047:CUM262145 DEI262047:DEI262145 DOE262047:DOE262145 DYA262047:DYA262145 EHW262047:EHW262145 ERS262047:ERS262145 FBO262047:FBO262145 FLK262047:FLK262145 FVG262047:FVG262145 GFC262047:GFC262145 GOY262047:GOY262145 GYU262047:GYU262145 HIQ262047:HIQ262145 HSM262047:HSM262145 ICI262047:ICI262145 IME262047:IME262145 IWA262047:IWA262145 JFW262047:JFW262145 JPS262047:JPS262145 JZO262047:JZO262145 KJK262047:KJK262145 KTG262047:KTG262145 LDC262047:LDC262145 LMY262047:LMY262145 LWU262047:LWU262145 MGQ262047:MGQ262145 MQM262047:MQM262145 NAI262047:NAI262145 NKE262047:NKE262145 NUA262047:NUA262145 ODW262047:ODW262145 ONS262047:ONS262145 OXO262047:OXO262145 PHK262047:PHK262145 PRG262047:PRG262145 QBC262047:QBC262145 QKY262047:QKY262145 QUU262047:QUU262145 REQ262047:REQ262145 ROM262047:ROM262145 RYI262047:RYI262145 SIE262047:SIE262145 SSA262047:SSA262145 TBW262047:TBW262145 TLS262047:TLS262145 TVO262047:TVO262145 UFK262047:UFK262145 UPG262047:UPG262145 UZC262047:UZC262145 VIY262047:VIY262145 VSU262047:VSU262145 WCQ262047:WCQ262145 WMM262047:WMM262145 WWI262047:WWI262145 AA327583:AA327681 JW327583:JW327681 TS327583:TS327681 ADO327583:ADO327681 ANK327583:ANK327681 AXG327583:AXG327681 BHC327583:BHC327681 BQY327583:BQY327681 CAU327583:CAU327681 CKQ327583:CKQ327681 CUM327583:CUM327681 DEI327583:DEI327681 DOE327583:DOE327681 DYA327583:DYA327681 EHW327583:EHW327681 ERS327583:ERS327681 FBO327583:FBO327681 FLK327583:FLK327681 FVG327583:FVG327681 GFC327583:GFC327681 GOY327583:GOY327681 GYU327583:GYU327681 HIQ327583:HIQ327681 HSM327583:HSM327681 ICI327583:ICI327681 IME327583:IME327681 IWA327583:IWA327681 JFW327583:JFW327681 JPS327583:JPS327681 JZO327583:JZO327681 KJK327583:KJK327681 KTG327583:KTG327681 LDC327583:LDC327681 LMY327583:LMY327681 LWU327583:LWU327681 MGQ327583:MGQ327681 MQM327583:MQM327681 NAI327583:NAI327681 NKE327583:NKE327681 NUA327583:NUA327681 ODW327583:ODW327681 ONS327583:ONS327681 OXO327583:OXO327681 PHK327583:PHK327681 PRG327583:PRG327681 QBC327583:QBC327681 QKY327583:QKY327681 QUU327583:QUU327681 REQ327583:REQ327681 ROM327583:ROM327681 RYI327583:RYI327681 SIE327583:SIE327681 SSA327583:SSA327681 TBW327583:TBW327681 TLS327583:TLS327681 TVO327583:TVO327681 UFK327583:UFK327681 UPG327583:UPG327681 UZC327583:UZC327681 VIY327583:VIY327681 VSU327583:VSU327681 WCQ327583:WCQ327681 WMM327583:WMM327681 WWI327583:WWI327681 AA393119:AA393217 JW393119:JW393217 TS393119:TS393217 ADO393119:ADO393217 ANK393119:ANK393217 AXG393119:AXG393217 BHC393119:BHC393217 BQY393119:BQY393217 CAU393119:CAU393217 CKQ393119:CKQ393217 CUM393119:CUM393217 DEI393119:DEI393217 DOE393119:DOE393217 DYA393119:DYA393217 EHW393119:EHW393217 ERS393119:ERS393217 FBO393119:FBO393217 FLK393119:FLK393217 FVG393119:FVG393217 GFC393119:GFC393217 GOY393119:GOY393217 GYU393119:GYU393217 HIQ393119:HIQ393217 HSM393119:HSM393217 ICI393119:ICI393217 IME393119:IME393217 IWA393119:IWA393217 JFW393119:JFW393217 JPS393119:JPS393217 JZO393119:JZO393217 KJK393119:KJK393217 KTG393119:KTG393217 LDC393119:LDC393217 LMY393119:LMY393217 LWU393119:LWU393217 MGQ393119:MGQ393217 MQM393119:MQM393217 NAI393119:NAI393217 NKE393119:NKE393217 NUA393119:NUA393217 ODW393119:ODW393217 ONS393119:ONS393217 OXO393119:OXO393217 PHK393119:PHK393217 PRG393119:PRG393217 QBC393119:QBC393217 QKY393119:QKY393217 QUU393119:QUU393217 REQ393119:REQ393217 ROM393119:ROM393217 RYI393119:RYI393217 SIE393119:SIE393217 SSA393119:SSA393217 TBW393119:TBW393217 TLS393119:TLS393217 TVO393119:TVO393217 UFK393119:UFK393217 UPG393119:UPG393217 UZC393119:UZC393217 VIY393119:VIY393217 VSU393119:VSU393217 WCQ393119:WCQ393217 WMM393119:WMM393217 WWI393119:WWI393217 AA458655:AA458753 JW458655:JW458753 TS458655:TS458753 ADO458655:ADO458753 ANK458655:ANK458753 AXG458655:AXG458753 BHC458655:BHC458753 BQY458655:BQY458753 CAU458655:CAU458753 CKQ458655:CKQ458753 CUM458655:CUM458753 DEI458655:DEI458753 DOE458655:DOE458753 DYA458655:DYA458753 EHW458655:EHW458753 ERS458655:ERS458753 FBO458655:FBO458753 FLK458655:FLK458753 FVG458655:FVG458753 GFC458655:GFC458753 GOY458655:GOY458753 GYU458655:GYU458753 HIQ458655:HIQ458753 HSM458655:HSM458753 ICI458655:ICI458753 IME458655:IME458753 IWA458655:IWA458753 JFW458655:JFW458753 JPS458655:JPS458753 JZO458655:JZO458753 KJK458655:KJK458753 KTG458655:KTG458753 LDC458655:LDC458753 LMY458655:LMY458753 LWU458655:LWU458753 MGQ458655:MGQ458753 MQM458655:MQM458753 NAI458655:NAI458753 NKE458655:NKE458753 NUA458655:NUA458753 ODW458655:ODW458753 ONS458655:ONS458753 OXO458655:OXO458753 PHK458655:PHK458753 PRG458655:PRG458753 QBC458655:QBC458753 QKY458655:QKY458753 QUU458655:QUU458753 REQ458655:REQ458753 ROM458655:ROM458753 RYI458655:RYI458753 SIE458655:SIE458753 SSA458655:SSA458753 TBW458655:TBW458753 TLS458655:TLS458753 TVO458655:TVO458753 UFK458655:UFK458753 UPG458655:UPG458753 UZC458655:UZC458753 VIY458655:VIY458753 VSU458655:VSU458753 WCQ458655:WCQ458753 WMM458655:WMM458753 WWI458655:WWI458753 AA524191:AA524289 JW524191:JW524289 TS524191:TS524289 ADO524191:ADO524289 ANK524191:ANK524289 AXG524191:AXG524289 BHC524191:BHC524289 BQY524191:BQY524289 CAU524191:CAU524289 CKQ524191:CKQ524289 CUM524191:CUM524289 DEI524191:DEI524289 DOE524191:DOE524289 DYA524191:DYA524289 EHW524191:EHW524289 ERS524191:ERS524289 FBO524191:FBO524289 FLK524191:FLK524289 FVG524191:FVG524289 GFC524191:GFC524289 GOY524191:GOY524289 GYU524191:GYU524289 HIQ524191:HIQ524289 HSM524191:HSM524289 ICI524191:ICI524289 IME524191:IME524289 IWA524191:IWA524289 JFW524191:JFW524289 JPS524191:JPS524289 JZO524191:JZO524289 KJK524191:KJK524289 KTG524191:KTG524289 LDC524191:LDC524289 LMY524191:LMY524289 LWU524191:LWU524289 MGQ524191:MGQ524289 MQM524191:MQM524289 NAI524191:NAI524289 NKE524191:NKE524289 NUA524191:NUA524289 ODW524191:ODW524289 ONS524191:ONS524289 OXO524191:OXO524289 PHK524191:PHK524289 PRG524191:PRG524289 QBC524191:QBC524289 QKY524191:QKY524289 QUU524191:QUU524289 REQ524191:REQ524289 ROM524191:ROM524289 RYI524191:RYI524289 SIE524191:SIE524289 SSA524191:SSA524289 TBW524191:TBW524289 TLS524191:TLS524289 TVO524191:TVO524289 UFK524191:UFK524289 UPG524191:UPG524289 UZC524191:UZC524289 VIY524191:VIY524289 VSU524191:VSU524289 WCQ524191:WCQ524289 WMM524191:WMM524289 WWI524191:WWI524289 AA589727:AA589825 JW589727:JW589825 TS589727:TS589825 ADO589727:ADO589825 ANK589727:ANK589825 AXG589727:AXG589825 BHC589727:BHC589825 BQY589727:BQY589825 CAU589727:CAU589825 CKQ589727:CKQ589825 CUM589727:CUM589825 DEI589727:DEI589825 DOE589727:DOE589825 DYA589727:DYA589825 EHW589727:EHW589825 ERS589727:ERS589825 FBO589727:FBO589825 FLK589727:FLK589825 FVG589727:FVG589825 GFC589727:GFC589825 GOY589727:GOY589825 GYU589727:GYU589825 HIQ589727:HIQ589825 HSM589727:HSM589825 ICI589727:ICI589825 IME589727:IME589825 IWA589727:IWA589825 JFW589727:JFW589825 JPS589727:JPS589825 JZO589727:JZO589825 KJK589727:KJK589825 KTG589727:KTG589825 LDC589727:LDC589825 LMY589727:LMY589825 LWU589727:LWU589825 MGQ589727:MGQ589825 MQM589727:MQM589825 NAI589727:NAI589825 NKE589727:NKE589825 NUA589727:NUA589825 ODW589727:ODW589825 ONS589727:ONS589825 OXO589727:OXO589825 PHK589727:PHK589825 PRG589727:PRG589825 QBC589727:QBC589825 QKY589727:QKY589825 QUU589727:QUU589825 REQ589727:REQ589825 ROM589727:ROM589825 RYI589727:RYI589825 SIE589727:SIE589825 SSA589727:SSA589825 TBW589727:TBW589825 TLS589727:TLS589825 TVO589727:TVO589825 UFK589727:UFK589825 UPG589727:UPG589825 UZC589727:UZC589825 VIY589727:VIY589825 VSU589727:VSU589825 WCQ589727:WCQ589825 WMM589727:WMM589825 WWI589727:WWI589825 AA655263:AA655361 JW655263:JW655361 TS655263:TS655361 ADO655263:ADO655361 ANK655263:ANK655361 AXG655263:AXG655361 BHC655263:BHC655361 BQY655263:BQY655361 CAU655263:CAU655361 CKQ655263:CKQ655361 CUM655263:CUM655361 DEI655263:DEI655361 DOE655263:DOE655361 DYA655263:DYA655361 EHW655263:EHW655361 ERS655263:ERS655361 FBO655263:FBO655361 FLK655263:FLK655361 FVG655263:FVG655361 GFC655263:GFC655361 GOY655263:GOY655361 GYU655263:GYU655361 HIQ655263:HIQ655361 HSM655263:HSM655361 ICI655263:ICI655361 IME655263:IME655361 IWA655263:IWA655361 JFW655263:JFW655361 JPS655263:JPS655361 JZO655263:JZO655361 KJK655263:KJK655361 KTG655263:KTG655361 LDC655263:LDC655361 LMY655263:LMY655361 LWU655263:LWU655361 MGQ655263:MGQ655361 MQM655263:MQM655361 NAI655263:NAI655361 NKE655263:NKE655361 NUA655263:NUA655361 ODW655263:ODW655361 ONS655263:ONS655361 OXO655263:OXO655361 PHK655263:PHK655361 PRG655263:PRG655361 QBC655263:QBC655361 QKY655263:QKY655361 QUU655263:QUU655361 REQ655263:REQ655361 ROM655263:ROM655361 RYI655263:RYI655361 SIE655263:SIE655361 SSA655263:SSA655361 TBW655263:TBW655361 TLS655263:TLS655361 TVO655263:TVO655361 UFK655263:UFK655361 UPG655263:UPG655361 UZC655263:UZC655361 VIY655263:VIY655361 VSU655263:VSU655361 WCQ655263:WCQ655361 WMM655263:WMM655361 WWI655263:WWI655361 AA720799:AA720897 JW720799:JW720897 TS720799:TS720897 ADO720799:ADO720897 ANK720799:ANK720897 AXG720799:AXG720897 BHC720799:BHC720897 BQY720799:BQY720897 CAU720799:CAU720897 CKQ720799:CKQ720897 CUM720799:CUM720897 DEI720799:DEI720897 DOE720799:DOE720897 DYA720799:DYA720897 EHW720799:EHW720897 ERS720799:ERS720897 FBO720799:FBO720897 FLK720799:FLK720897 FVG720799:FVG720897 GFC720799:GFC720897 GOY720799:GOY720897 GYU720799:GYU720897 HIQ720799:HIQ720897 HSM720799:HSM720897 ICI720799:ICI720897 IME720799:IME720897 IWA720799:IWA720897 JFW720799:JFW720897 JPS720799:JPS720897 JZO720799:JZO720897 KJK720799:KJK720897 KTG720799:KTG720897 LDC720799:LDC720897 LMY720799:LMY720897 LWU720799:LWU720897 MGQ720799:MGQ720897 MQM720799:MQM720897 NAI720799:NAI720897 NKE720799:NKE720897 NUA720799:NUA720897 ODW720799:ODW720897 ONS720799:ONS720897 OXO720799:OXO720897 PHK720799:PHK720897 PRG720799:PRG720897 QBC720799:QBC720897 QKY720799:QKY720897 QUU720799:QUU720897 REQ720799:REQ720897 ROM720799:ROM720897 RYI720799:RYI720897 SIE720799:SIE720897 SSA720799:SSA720897 TBW720799:TBW720897 TLS720799:TLS720897 TVO720799:TVO720897 UFK720799:UFK720897 UPG720799:UPG720897 UZC720799:UZC720897 VIY720799:VIY720897 VSU720799:VSU720897 WCQ720799:WCQ720897 WMM720799:WMM720897 WWI720799:WWI720897 AA786335:AA786433 JW786335:JW786433 TS786335:TS786433 ADO786335:ADO786433 ANK786335:ANK786433 AXG786335:AXG786433 BHC786335:BHC786433 BQY786335:BQY786433 CAU786335:CAU786433 CKQ786335:CKQ786433 CUM786335:CUM786433 DEI786335:DEI786433 DOE786335:DOE786433 DYA786335:DYA786433 EHW786335:EHW786433 ERS786335:ERS786433 FBO786335:FBO786433 FLK786335:FLK786433 FVG786335:FVG786433 GFC786335:GFC786433 GOY786335:GOY786433 GYU786335:GYU786433 HIQ786335:HIQ786433 HSM786335:HSM786433 ICI786335:ICI786433 IME786335:IME786433 IWA786335:IWA786433 JFW786335:JFW786433 JPS786335:JPS786433 JZO786335:JZO786433 KJK786335:KJK786433 KTG786335:KTG786433 LDC786335:LDC786433 LMY786335:LMY786433 LWU786335:LWU786433 MGQ786335:MGQ786433 MQM786335:MQM786433 NAI786335:NAI786433 NKE786335:NKE786433 NUA786335:NUA786433 ODW786335:ODW786433 ONS786335:ONS786433 OXO786335:OXO786433 PHK786335:PHK786433 PRG786335:PRG786433 QBC786335:QBC786433 QKY786335:QKY786433 QUU786335:QUU786433 REQ786335:REQ786433 ROM786335:ROM786433 RYI786335:RYI786433 SIE786335:SIE786433 SSA786335:SSA786433 TBW786335:TBW786433 TLS786335:TLS786433 TVO786335:TVO786433 UFK786335:UFK786433 UPG786335:UPG786433 UZC786335:UZC786433 VIY786335:VIY786433 VSU786335:VSU786433 WCQ786335:WCQ786433 WMM786335:WMM786433 WWI786335:WWI786433 AA851871:AA851969 JW851871:JW851969 TS851871:TS851969 ADO851871:ADO851969 ANK851871:ANK851969 AXG851871:AXG851969 BHC851871:BHC851969 BQY851871:BQY851969 CAU851871:CAU851969 CKQ851871:CKQ851969 CUM851871:CUM851969 DEI851871:DEI851969 DOE851871:DOE851969 DYA851871:DYA851969 EHW851871:EHW851969 ERS851871:ERS851969 FBO851871:FBO851969 FLK851871:FLK851969 FVG851871:FVG851969 GFC851871:GFC851969 GOY851871:GOY851969 GYU851871:GYU851969 HIQ851871:HIQ851969 HSM851871:HSM851969 ICI851871:ICI851969 IME851871:IME851969 IWA851871:IWA851969 JFW851871:JFW851969 JPS851871:JPS851969 JZO851871:JZO851969 KJK851871:KJK851969 KTG851871:KTG851969 LDC851871:LDC851969 LMY851871:LMY851969 LWU851871:LWU851969 MGQ851871:MGQ851969 MQM851871:MQM851969 NAI851871:NAI851969 NKE851871:NKE851969 NUA851871:NUA851969 ODW851871:ODW851969 ONS851871:ONS851969 OXO851871:OXO851969 PHK851871:PHK851969 PRG851871:PRG851969 QBC851871:QBC851969 QKY851871:QKY851969 QUU851871:QUU851969 REQ851871:REQ851969 ROM851871:ROM851969 RYI851871:RYI851969 SIE851871:SIE851969 SSA851871:SSA851969 TBW851871:TBW851969 TLS851871:TLS851969 TVO851871:TVO851969 UFK851871:UFK851969 UPG851871:UPG851969 UZC851871:UZC851969 VIY851871:VIY851969 VSU851871:VSU851969 WCQ851871:WCQ851969 WMM851871:WMM851969 WWI851871:WWI851969 AA917407:AA917505 JW917407:JW917505 TS917407:TS917505 ADO917407:ADO917505 ANK917407:ANK917505 AXG917407:AXG917505 BHC917407:BHC917505 BQY917407:BQY917505 CAU917407:CAU917505 CKQ917407:CKQ917505 CUM917407:CUM917505 DEI917407:DEI917505 DOE917407:DOE917505 DYA917407:DYA917505 EHW917407:EHW917505 ERS917407:ERS917505 FBO917407:FBO917505 FLK917407:FLK917505 FVG917407:FVG917505 GFC917407:GFC917505 GOY917407:GOY917505 GYU917407:GYU917505 HIQ917407:HIQ917505 HSM917407:HSM917505 ICI917407:ICI917505 IME917407:IME917505 IWA917407:IWA917505 JFW917407:JFW917505 JPS917407:JPS917505 JZO917407:JZO917505 KJK917407:KJK917505 KTG917407:KTG917505 LDC917407:LDC917505 LMY917407:LMY917505 LWU917407:LWU917505 MGQ917407:MGQ917505 MQM917407:MQM917505 NAI917407:NAI917505 NKE917407:NKE917505 NUA917407:NUA917505 ODW917407:ODW917505 ONS917407:ONS917505 OXO917407:OXO917505 PHK917407:PHK917505 PRG917407:PRG917505 QBC917407:QBC917505 QKY917407:QKY917505 QUU917407:QUU917505 REQ917407:REQ917505 ROM917407:ROM917505 RYI917407:RYI917505 SIE917407:SIE917505 SSA917407:SSA917505 TBW917407:TBW917505 TLS917407:TLS917505 TVO917407:TVO917505 UFK917407:UFK917505 UPG917407:UPG917505 UZC917407:UZC917505 VIY917407:VIY917505 VSU917407:VSU917505 WCQ917407:WCQ917505 WMM917407:WMM917505 WWI917407:WWI917505 AA982943:AA983041 JW982943:JW983041 TS982943:TS983041 ADO982943:ADO983041 ANK982943:ANK983041 AXG982943:AXG983041 BHC982943:BHC983041 BQY982943:BQY983041 CAU982943:CAU983041 CKQ982943:CKQ983041 CUM982943:CUM983041 DEI982943:DEI983041 DOE982943:DOE983041 DYA982943:DYA983041 EHW982943:EHW983041 ERS982943:ERS983041 FBO982943:FBO983041 FLK982943:FLK983041 FVG982943:FVG983041 GFC982943:GFC983041 GOY982943:GOY983041 GYU982943:GYU983041 HIQ982943:HIQ983041 HSM982943:HSM983041 ICI982943:ICI983041 IME982943:IME983041 IWA982943:IWA983041 JFW982943:JFW983041 JPS982943:JPS983041 JZO982943:JZO983041 KJK982943:KJK983041 KTG982943:KTG983041 LDC982943:LDC983041 LMY982943:LMY983041 LWU982943:LWU983041 MGQ982943:MGQ983041 MQM982943:MQM983041 NAI982943:NAI983041 NKE982943:NKE983041 NUA982943:NUA983041 ODW982943:ODW983041 ONS982943:ONS983041 OXO982943:OXO983041 PHK982943:PHK983041 PRG982943:PRG983041 QBC982943:QBC983041 QKY982943:QKY983041 QUU982943:QUU983041 REQ982943:REQ983041 ROM982943:ROM983041 RYI982943:RYI983041 SIE982943:SIE983041 SSA982943:SSA983041 TBW982943:TBW983041 TLS982943:TLS983041 TVO982943:TVO983041 UFK982943:UFK983041 UPG982943:UPG983041 UZC982943:UZC983041 VIY982943:VIY983041 VSU982943:VSU983041 WCQ982943:WCQ983041 WMM982943:WMM983041 WWI982943:WWI983041" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2 JQ2 TM2 ADI2 ANE2 AXA2 BGW2 BQS2 CAO2 CKK2 CUG2 DEC2 DNY2 DXU2 EHQ2 ERM2 FBI2 FLE2 FVA2 GEW2 GOS2 GYO2 HIK2 HSG2 ICC2 ILY2 IVU2 JFQ2 JPM2 JZI2 KJE2 KTA2 LCW2 LMS2 LWO2 MGK2 MQG2 NAC2 NJY2 NTU2 ODQ2 ONM2 OXI2 PHE2 PRA2 QAW2 QKS2 QUO2 REK2 ROG2 RYC2 SHY2 SRU2 TBQ2 TLM2 TVI2 UFE2 UPA2 UYW2 VIS2 VSO2 WCK2 WMG2 WWC2 U65439:U65537 JQ65439:JQ65537 TM65439:TM65537 ADI65439:ADI65537 ANE65439:ANE65537 AXA65439:AXA65537 BGW65439:BGW65537 BQS65439:BQS65537 CAO65439:CAO65537 CKK65439:CKK65537 CUG65439:CUG65537 DEC65439:DEC65537 DNY65439:DNY65537 DXU65439:DXU65537 EHQ65439:EHQ65537 ERM65439:ERM65537 FBI65439:FBI65537 FLE65439:FLE65537 FVA65439:FVA65537 GEW65439:GEW65537 GOS65439:GOS65537 GYO65439:GYO65537 HIK65439:HIK65537 HSG65439:HSG65537 ICC65439:ICC65537 ILY65439:ILY65537 IVU65439:IVU65537 JFQ65439:JFQ65537 JPM65439:JPM65537 JZI65439:JZI65537 KJE65439:KJE65537 KTA65439:KTA65537 LCW65439:LCW65537 LMS65439:LMS65537 LWO65439:LWO65537 MGK65439:MGK65537 MQG65439:MQG65537 NAC65439:NAC65537 NJY65439:NJY65537 NTU65439:NTU65537 ODQ65439:ODQ65537 ONM65439:ONM65537 OXI65439:OXI65537 PHE65439:PHE65537 PRA65439:PRA65537 QAW65439:QAW65537 QKS65439:QKS65537 QUO65439:QUO65537 REK65439:REK65537 ROG65439:ROG65537 RYC65439:RYC65537 SHY65439:SHY65537 SRU65439:SRU65537 TBQ65439:TBQ65537 TLM65439:TLM65537 TVI65439:TVI65537 UFE65439:UFE65537 UPA65439:UPA65537 UYW65439:UYW65537 VIS65439:VIS65537 VSO65439:VSO65537 WCK65439:WCK65537 WMG65439:WMG65537 WWC65439:WWC65537 U130975:U131073 JQ130975:JQ131073 TM130975:TM131073 ADI130975:ADI131073 ANE130975:ANE131073 AXA130975:AXA131073 BGW130975:BGW131073 BQS130975:BQS131073 CAO130975:CAO131073 CKK130975:CKK131073 CUG130975:CUG131073 DEC130975:DEC131073 DNY130975:DNY131073 DXU130975:DXU131073 EHQ130975:EHQ131073 ERM130975:ERM131073 FBI130975:FBI131073 FLE130975:FLE131073 FVA130975:FVA131073 GEW130975:GEW131073 GOS130975:GOS131073 GYO130975:GYO131073 HIK130975:HIK131073 HSG130975:HSG131073 ICC130975:ICC131073 ILY130975:ILY131073 IVU130975:IVU131073 JFQ130975:JFQ131073 JPM130975:JPM131073 JZI130975:JZI131073 KJE130975:KJE131073 KTA130975:KTA131073 LCW130975:LCW131073 LMS130975:LMS131073 LWO130975:LWO131073 MGK130975:MGK131073 MQG130975:MQG131073 NAC130975:NAC131073 NJY130975:NJY131073 NTU130975:NTU131073 ODQ130975:ODQ131073 ONM130975:ONM131073 OXI130975:OXI131073 PHE130975:PHE131073 PRA130975:PRA131073 QAW130975:QAW131073 QKS130975:QKS131073 QUO130975:QUO131073 REK130975:REK131073 ROG130975:ROG131073 RYC130975:RYC131073 SHY130975:SHY131073 SRU130975:SRU131073 TBQ130975:TBQ131073 TLM130975:TLM131073 TVI130975:TVI131073 UFE130975:UFE131073 UPA130975:UPA131073 UYW130975:UYW131073 VIS130975:VIS131073 VSO130975:VSO131073 WCK130975:WCK131073 WMG130975:WMG131073 WWC130975:WWC131073 U196511:U196609 JQ196511:JQ196609 TM196511:TM196609 ADI196511:ADI196609 ANE196511:ANE196609 AXA196511:AXA196609 BGW196511:BGW196609 BQS196511:BQS196609 CAO196511:CAO196609 CKK196511:CKK196609 CUG196511:CUG196609 DEC196511:DEC196609 DNY196511:DNY196609 DXU196511:DXU196609 EHQ196511:EHQ196609 ERM196511:ERM196609 FBI196511:FBI196609 FLE196511:FLE196609 FVA196511:FVA196609 GEW196511:GEW196609 GOS196511:GOS196609 GYO196511:GYO196609 HIK196511:HIK196609 HSG196511:HSG196609 ICC196511:ICC196609 ILY196511:ILY196609 IVU196511:IVU196609 JFQ196511:JFQ196609 JPM196511:JPM196609 JZI196511:JZI196609 KJE196511:KJE196609 KTA196511:KTA196609 LCW196511:LCW196609 LMS196511:LMS196609 LWO196511:LWO196609 MGK196511:MGK196609 MQG196511:MQG196609 NAC196511:NAC196609 NJY196511:NJY196609 NTU196511:NTU196609 ODQ196511:ODQ196609 ONM196511:ONM196609 OXI196511:OXI196609 PHE196511:PHE196609 PRA196511:PRA196609 QAW196511:QAW196609 QKS196511:QKS196609 QUO196511:QUO196609 REK196511:REK196609 ROG196511:ROG196609 RYC196511:RYC196609 SHY196511:SHY196609 SRU196511:SRU196609 TBQ196511:TBQ196609 TLM196511:TLM196609 TVI196511:TVI196609 UFE196511:UFE196609 UPA196511:UPA196609 UYW196511:UYW196609 VIS196511:VIS196609 VSO196511:VSO196609 WCK196511:WCK196609 WMG196511:WMG196609 WWC196511:WWC196609 U262047:U262145 JQ262047:JQ262145 TM262047:TM262145 ADI262047:ADI262145 ANE262047:ANE262145 AXA262047:AXA262145 BGW262047:BGW262145 BQS262047:BQS262145 CAO262047:CAO262145 CKK262047:CKK262145 CUG262047:CUG262145 DEC262047:DEC262145 DNY262047:DNY262145 DXU262047:DXU262145 EHQ262047:EHQ262145 ERM262047:ERM262145 FBI262047:FBI262145 FLE262047:FLE262145 FVA262047:FVA262145 GEW262047:GEW262145 GOS262047:GOS262145 GYO262047:GYO262145 HIK262047:HIK262145 HSG262047:HSG262145 ICC262047:ICC262145 ILY262047:ILY262145 IVU262047:IVU262145 JFQ262047:JFQ262145 JPM262047:JPM262145 JZI262047:JZI262145 KJE262047:KJE262145 KTA262047:KTA262145 LCW262047:LCW262145 LMS262047:LMS262145 LWO262047:LWO262145 MGK262047:MGK262145 MQG262047:MQG262145 NAC262047:NAC262145 NJY262047:NJY262145 NTU262047:NTU262145 ODQ262047:ODQ262145 ONM262047:ONM262145 OXI262047:OXI262145 PHE262047:PHE262145 PRA262047:PRA262145 QAW262047:QAW262145 QKS262047:QKS262145 QUO262047:QUO262145 REK262047:REK262145 ROG262047:ROG262145 RYC262047:RYC262145 SHY262047:SHY262145 SRU262047:SRU262145 TBQ262047:TBQ262145 TLM262047:TLM262145 TVI262047:TVI262145 UFE262047:UFE262145 UPA262047:UPA262145 UYW262047:UYW262145 VIS262047:VIS262145 VSO262047:VSO262145 WCK262047:WCK262145 WMG262047:WMG262145 WWC262047:WWC262145 U327583:U327681 JQ327583:JQ327681 TM327583:TM327681 ADI327583:ADI327681 ANE327583:ANE327681 AXA327583:AXA327681 BGW327583:BGW327681 BQS327583:BQS327681 CAO327583:CAO327681 CKK327583:CKK327681 CUG327583:CUG327681 DEC327583:DEC327681 DNY327583:DNY327681 DXU327583:DXU327681 EHQ327583:EHQ327681 ERM327583:ERM327681 FBI327583:FBI327681 FLE327583:FLE327681 FVA327583:FVA327681 GEW327583:GEW327681 GOS327583:GOS327681 GYO327583:GYO327681 HIK327583:HIK327681 HSG327583:HSG327681 ICC327583:ICC327681 ILY327583:ILY327681 IVU327583:IVU327681 JFQ327583:JFQ327681 JPM327583:JPM327681 JZI327583:JZI327681 KJE327583:KJE327681 KTA327583:KTA327681 LCW327583:LCW327681 LMS327583:LMS327681 LWO327583:LWO327681 MGK327583:MGK327681 MQG327583:MQG327681 NAC327583:NAC327681 NJY327583:NJY327681 NTU327583:NTU327681 ODQ327583:ODQ327681 ONM327583:ONM327681 OXI327583:OXI327681 PHE327583:PHE327681 PRA327583:PRA327681 QAW327583:QAW327681 QKS327583:QKS327681 QUO327583:QUO327681 REK327583:REK327681 ROG327583:ROG327681 RYC327583:RYC327681 SHY327583:SHY327681 SRU327583:SRU327681 TBQ327583:TBQ327681 TLM327583:TLM327681 TVI327583:TVI327681 UFE327583:UFE327681 UPA327583:UPA327681 UYW327583:UYW327681 VIS327583:VIS327681 VSO327583:VSO327681 WCK327583:WCK327681 WMG327583:WMG327681 WWC327583:WWC327681 U393119:U393217 JQ393119:JQ393217 TM393119:TM393217 ADI393119:ADI393217 ANE393119:ANE393217 AXA393119:AXA393217 BGW393119:BGW393217 BQS393119:BQS393217 CAO393119:CAO393217 CKK393119:CKK393217 CUG393119:CUG393217 DEC393119:DEC393217 DNY393119:DNY393217 DXU393119:DXU393217 EHQ393119:EHQ393217 ERM393119:ERM393217 FBI393119:FBI393217 FLE393119:FLE393217 FVA393119:FVA393217 GEW393119:GEW393217 GOS393119:GOS393217 GYO393119:GYO393217 HIK393119:HIK393217 HSG393119:HSG393217 ICC393119:ICC393217 ILY393119:ILY393217 IVU393119:IVU393217 JFQ393119:JFQ393217 JPM393119:JPM393217 JZI393119:JZI393217 KJE393119:KJE393217 KTA393119:KTA393217 LCW393119:LCW393217 LMS393119:LMS393217 LWO393119:LWO393217 MGK393119:MGK393217 MQG393119:MQG393217 NAC393119:NAC393217 NJY393119:NJY393217 NTU393119:NTU393217 ODQ393119:ODQ393217 ONM393119:ONM393217 OXI393119:OXI393217 PHE393119:PHE393217 PRA393119:PRA393217 QAW393119:QAW393217 QKS393119:QKS393217 QUO393119:QUO393217 REK393119:REK393217 ROG393119:ROG393217 RYC393119:RYC393217 SHY393119:SHY393217 SRU393119:SRU393217 TBQ393119:TBQ393217 TLM393119:TLM393217 TVI393119:TVI393217 UFE393119:UFE393217 UPA393119:UPA393217 UYW393119:UYW393217 VIS393119:VIS393217 VSO393119:VSO393217 WCK393119:WCK393217 WMG393119:WMG393217 WWC393119:WWC393217 U458655:U458753 JQ458655:JQ458753 TM458655:TM458753 ADI458655:ADI458753 ANE458655:ANE458753 AXA458655:AXA458753 BGW458655:BGW458753 BQS458655:BQS458753 CAO458655:CAO458753 CKK458655:CKK458753 CUG458655:CUG458753 DEC458655:DEC458753 DNY458655:DNY458753 DXU458655:DXU458753 EHQ458655:EHQ458753 ERM458655:ERM458753 FBI458655:FBI458753 FLE458655:FLE458753 FVA458655:FVA458753 GEW458655:GEW458753 GOS458655:GOS458753 GYO458655:GYO458753 HIK458655:HIK458753 HSG458655:HSG458753 ICC458655:ICC458753 ILY458655:ILY458753 IVU458655:IVU458753 JFQ458655:JFQ458753 JPM458655:JPM458753 JZI458655:JZI458753 KJE458655:KJE458753 KTA458655:KTA458753 LCW458655:LCW458753 LMS458655:LMS458753 LWO458655:LWO458753 MGK458655:MGK458753 MQG458655:MQG458753 NAC458655:NAC458753 NJY458655:NJY458753 NTU458655:NTU458753 ODQ458655:ODQ458753 ONM458655:ONM458753 OXI458655:OXI458753 PHE458655:PHE458753 PRA458655:PRA458753 QAW458655:QAW458753 QKS458655:QKS458753 QUO458655:QUO458753 REK458655:REK458753 ROG458655:ROG458753 RYC458655:RYC458753 SHY458655:SHY458753 SRU458655:SRU458753 TBQ458655:TBQ458753 TLM458655:TLM458753 TVI458655:TVI458753 UFE458655:UFE458753 UPA458655:UPA458753 UYW458655:UYW458753 VIS458655:VIS458753 VSO458655:VSO458753 WCK458655:WCK458753 WMG458655:WMG458753 WWC458655:WWC458753 U524191:U524289 JQ524191:JQ524289 TM524191:TM524289 ADI524191:ADI524289 ANE524191:ANE524289 AXA524191:AXA524289 BGW524191:BGW524289 BQS524191:BQS524289 CAO524191:CAO524289 CKK524191:CKK524289 CUG524191:CUG524289 DEC524191:DEC524289 DNY524191:DNY524289 DXU524191:DXU524289 EHQ524191:EHQ524289 ERM524191:ERM524289 FBI524191:FBI524289 FLE524191:FLE524289 FVA524191:FVA524289 GEW524191:GEW524289 GOS524191:GOS524289 GYO524191:GYO524289 HIK524191:HIK524289 HSG524191:HSG524289 ICC524191:ICC524289 ILY524191:ILY524289 IVU524191:IVU524289 JFQ524191:JFQ524289 JPM524191:JPM524289 JZI524191:JZI524289 KJE524191:KJE524289 KTA524191:KTA524289 LCW524191:LCW524289 LMS524191:LMS524289 LWO524191:LWO524289 MGK524191:MGK524289 MQG524191:MQG524289 NAC524191:NAC524289 NJY524191:NJY524289 NTU524191:NTU524289 ODQ524191:ODQ524289 ONM524191:ONM524289 OXI524191:OXI524289 PHE524191:PHE524289 PRA524191:PRA524289 QAW524191:QAW524289 QKS524191:QKS524289 QUO524191:QUO524289 REK524191:REK524289 ROG524191:ROG524289 RYC524191:RYC524289 SHY524191:SHY524289 SRU524191:SRU524289 TBQ524191:TBQ524289 TLM524191:TLM524289 TVI524191:TVI524289 UFE524191:UFE524289 UPA524191:UPA524289 UYW524191:UYW524289 VIS524191:VIS524289 VSO524191:VSO524289 WCK524191:WCK524289 WMG524191:WMG524289 WWC524191:WWC524289 U589727:U589825 JQ589727:JQ589825 TM589727:TM589825 ADI589727:ADI589825 ANE589727:ANE589825 AXA589727:AXA589825 BGW589727:BGW589825 BQS589727:BQS589825 CAO589727:CAO589825 CKK589727:CKK589825 CUG589727:CUG589825 DEC589727:DEC589825 DNY589727:DNY589825 DXU589727:DXU589825 EHQ589727:EHQ589825 ERM589727:ERM589825 FBI589727:FBI589825 FLE589727:FLE589825 FVA589727:FVA589825 GEW589727:GEW589825 GOS589727:GOS589825 GYO589727:GYO589825 HIK589727:HIK589825 HSG589727:HSG589825 ICC589727:ICC589825 ILY589727:ILY589825 IVU589727:IVU589825 JFQ589727:JFQ589825 JPM589727:JPM589825 JZI589727:JZI589825 KJE589727:KJE589825 KTA589727:KTA589825 LCW589727:LCW589825 LMS589727:LMS589825 LWO589727:LWO589825 MGK589727:MGK589825 MQG589727:MQG589825 NAC589727:NAC589825 NJY589727:NJY589825 NTU589727:NTU589825 ODQ589727:ODQ589825 ONM589727:ONM589825 OXI589727:OXI589825 PHE589727:PHE589825 PRA589727:PRA589825 QAW589727:QAW589825 QKS589727:QKS589825 QUO589727:QUO589825 REK589727:REK589825 ROG589727:ROG589825 RYC589727:RYC589825 SHY589727:SHY589825 SRU589727:SRU589825 TBQ589727:TBQ589825 TLM589727:TLM589825 TVI589727:TVI589825 UFE589727:UFE589825 UPA589727:UPA589825 UYW589727:UYW589825 VIS589727:VIS589825 VSO589727:VSO589825 WCK589727:WCK589825 WMG589727:WMG589825 WWC589727:WWC589825 U655263:U655361 JQ655263:JQ655361 TM655263:TM655361 ADI655263:ADI655361 ANE655263:ANE655361 AXA655263:AXA655361 BGW655263:BGW655361 BQS655263:BQS655361 CAO655263:CAO655361 CKK655263:CKK655361 CUG655263:CUG655361 DEC655263:DEC655361 DNY655263:DNY655361 DXU655263:DXU655361 EHQ655263:EHQ655361 ERM655263:ERM655361 FBI655263:FBI655361 FLE655263:FLE655361 FVA655263:FVA655361 GEW655263:GEW655361 GOS655263:GOS655361 GYO655263:GYO655361 HIK655263:HIK655361 HSG655263:HSG655361 ICC655263:ICC655361 ILY655263:ILY655361 IVU655263:IVU655361 JFQ655263:JFQ655361 JPM655263:JPM655361 JZI655263:JZI655361 KJE655263:KJE655361 KTA655263:KTA655361 LCW655263:LCW655361 LMS655263:LMS655361 LWO655263:LWO655361 MGK655263:MGK655361 MQG655263:MQG655361 NAC655263:NAC655361 NJY655263:NJY655361 NTU655263:NTU655361 ODQ655263:ODQ655361 ONM655263:ONM655361 OXI655263:OXI655361 PHE655263:PHE655361 PRA655263:PRA655361 QAW655263:QAW655361 QKS655263:QKS655361 QUO655263:QUO655361 REK655263:REK655361 ROG655263:ROG655361 RYC655263:RYC655361 SHY655263:SHY655361 SRU655263:SRU655361 TBQ655263:TBQ655361 TLM655263:TLM655361 TVI655263:TVI655361 UFE655263:UFE655361 UPA655263:UPA655361 UYW655263:UYW655361 VIS655263:VIS655361 VSO655263:VSO655361 WCK655263:WCK655361 WMG655263:WMG655361 WWC655263:WWC655361 U720799:U720897 JQ720799:JQ720897 TM720799:TM720897 ADI720799:ADI720897 ANE720799:ANE720897 AXA720799:AXA720897 BGW720799:BGW720897 BQS720799:BQS720897 CAO720799:CAO720897 CKK720799:CKK720897 CUG720799:CUG720897 DEC720799:DEC720897 DNY720799:DNY720897 DXU720799:DXU720897 EHQ720799:EHQ720897 ERM720799:ERM720897 FBI720799:FBI720897 FLE720799:FLE720897 FVA720799:FVA720897 GEW720799:GEW720897 GOS720799:GOS720897 GYO720799:GYO720897 HIK720799:HIK720897 HSG720799:HSG720897 ICC720799:ICC720897 ILY720799:ILY720897 IVU720799:IVU720897 JFQ720799:JFQ720897 JPM720799:JPM720897 JZI720799:JZI720897 KJE720799:KJE720897 KTA720799:KTA720897 LCW720799:LCW720897 LMS720799:LMS720897 LWO720799:LWO720897 MGK720799:MGK720897 MQG720799:MQG720897 NAC720799:NAC720897 NJY720799:NJY720897 NTU720799:NTU720897 ODQ720799:ODQ720897 ONM720799:ONM720897 OXI720799:OXI720897 PHE720799:PHE720897 PRA720799:PRA720897 QAW720799:QAW720897 QKS720799:QKS720897 QUO720799:QUO720897 REK720799:REK720897 ROG720799:ROG720897 RYC720799:RYC720897 SHY720799:SHY720897 SRU720799:SRU720897 TBQ720799:TBQ720897 TLM720799:TLM720897 TVI720799:TVI720897 UFE720799:UFE720897 UPA720799:UPA720897 UYW720799:UYW720897 VIS720799:VIS720897 VSO720799:VSO720897 WCK720799:WCK720897 WMG720799:WMG720897 WWC720799:WWC720897 U786335:U786433 JQ786335:JQ786433 TM786335:TM786433 ADI786335:ADI786433 ANE786335:ANE786433 AXA786335:AXA786433 BGW786335:BGW786433 BQS786335:BQS786433 CAO786335:CAO786433 CKK786335:CKK786433 CUG786335:CUG786433 DEC786335:DEC786433 DNY786335:DNY786433 DXU786335:DXU786433 EHQ786335:EHQ786433 ERM786335:ERM786433 FBI786335:FBI786433 FLE786335:FLE786433 FVA786335:FVA786433 GEW786335:GEW786433 GOS786335:GOS786433 GYO786335:GYO786433 HIK786335:HIK786433 HSG786335:HSG786433 ICC786335:ICC786433 ILY786335:ILY786433 IVU786335:IVU786433 JFQ786335:JFQ786433 JPM786335:JPM786433 JZI786335:JZI786433 KJE786335:KJE786433 KTA786335:KTA786433 LCW786335:LCW786433 LMS786335:LMS786433 LWO786335:LWO786433 MGK786335:MGK786433 MQG786335:MQG786433 NAC786335:NAC786433 NJY786335:NJY786433 NTU786335:NTU786433 ODQ786335:ODQ786433 ONM786335:ONM786433 OXI786335:OXI786433 PHE786335:PHE786433 PRA786335:PRA786433 QAW786335:QAW786433 QKS786335:QKS786433 QUO786335:QUO786433 REK786335:REK786433 ROG786335:ROG786433 RYC786335:RYC786433 SHY786335:SHY786433 SRU786335:SRU786433 TBQ786335:TBQ786433 TLM786335:TLM786433 TVI786335:TVI786433 UFE786335:UFE786433 UPA786335:UPA786433 UYW786335:UYW786433 VIS786335:VIS786433 VSO786335:VSO786433 WCK786335:WCK786433 WMG786335:WMG786433 WWC786335:WWC786433 U851871:U851969 JQ851871:JQ851969 TM851871:TM851969 ADI851871:ADI851969 ANE851871:ANE851969 AXA851871:AXA851969 BGW851871:BGW851969 BQS851871:BQS851969 CAO851871:CAO851969 CKK851871:CKK851969 CUG851871:CUG851969 DEC851871:DEC851969 DNY851871:DNY851969 DXU851871:DXU851969 EHQ851871:EHQ851969 ERM851871:ERM851969 FBI851871:FBI851969 FLE851871:FLE851969 FVA851871:FVA851969 GEW851871:GEW851969 GOS851871:GOS851969 GYO851871:GYO851969 HIK851871:HIK851969 HSG851871:HSG851969 ICC851871:ICC851969 ILY851871:ILY851969 IVU851871:IVU851969 JFQ851871:JFQ851969 JPM851871:JPM851969 JZI851871:JZI851969 KJE851871:KJE851969 KTA851871:KTA851969 LCW851871:LCW851969 LMS851871:LMS851969 LWO851871:LWO851969 MGK851871:MGK851969 MQG851871:MQG851969 NAC851871:NAC851969 NJY851871:NJY851969 NTU851871:NTU851969 ODQ851871:ODQ851969 ONM851871:ONM851969 OXI851871:OXI851969 PHE851871:PHE851969 PRA851871:PRA851969 QAW851871:QAW851969 QKS851871:QKS851969 QUO851871:QUO851969 REK851871:REK851969 ROG851871:ROG851969 RYC851871:RYC851969 SHY851871:SHY851969 SRU851871:SRU851969 TBQ851871:TBQ851969 TLM851871:TLM851969 TVI851871:TVI851969 UFE851871:UFE851969 UPA851871:UPA851969 UYW851871:UYW851969 VIS851871:VIS851969 VSO851871:VSO851969 WCK851871:WCK851969 WMG851871:WMG851969 WWC851871:WWC851969 U917407:U917505 JQ917407:JQ917505 TM917407:TM917505 ADI917407:ADI917505 ANE917407:ANE917505 AXA917407:AXA917505 BGW917407:BGW917505 BQS917407:BQS917505 CAO917407:CAO917505 CKK917407:CKK917505 CUG917407:CUG917505 DEC917407:DEC917505 DNY917407:DNY917505 DXU917407:DXU917505 EHQ917407:EHQ917505 ERM917407:ERM917505 FBI917407:FBI917505 FLE917407:FLE917505 FVA917407:FVA917505 GEW917407:GEW917505 GOS917407:GOS917505 GYO917407:GYO917505 HIK917407:HIK917505 HSG917407:HSG917505 ICC917407:ICC917505 ILY917407:ILY917505 IVU917407:IVU917505 JFQ917407:JFQ917505 JPM917407:JPM917505 JZI917407:JZI917505 KJE917407:KJE917505 KTA917407:KTA917505 LCW917407:LCW917505 LMS917407:LMS917505 LWO917407:LWO917505 MGK917407:MGK917505 MQG917407:MQG917505 NAC917407:NAC917505 NJY917407:NJY917505 NTU917407:NTU917505 ODQ917407:ODQ917505 ONM917407:ONM917505 OXI917407:OXI917505 PHE917407:PHE917505 PRA917407:PRA917505 QAW917407:QAW917505 QKS917407:QKS917505 QUO917407:QUO917505 REK917407:REK917505 ROG917407:ROG917505 RYC917407:RYC917505 SHY917407:SHY917505 SRU917407:SRU917505 TBQ917407:TBQ917505 TLM917407:TLM917505 TVI917407:TVI917505 UFE917407:UFE917505 UPA917407:UPA917505 UYW917407:UYW917505 VIS917407:VIS917505 VSO917407:VSO917505 WCK917407:WCK917505 WMG917407:WMG917505 WWC917407:WWC917505 U982943:U983041 JQ982943:JQ983041 TM982943:TM983041 ADI982943:ADI983041 ANE982943:ANE983041 AXA982943:AXA983041 BGW982943:BGW983041 BQS982943:BQS983041 CAO982943:CAO983041 CKK982943:CKK983041 CUG982943:CUG983041 DEC982943:DEC983041 DNY982943:DNY983041 DXU982943:DXU983041 EHQ982943:EHQ983041 ERM982943:ERM983041 FBI982943:FBI983041 FLE982943:FLE983041 FVA982943:FVA983041 GEW982943:GEW983041 GOS982943:GOS983041 GYO982943:GYO983041 HIK982943:HIK983041 HSG982943:HSG983041 ICC982943:ICC983041 ILY982943:ILY983041 IVU982943:IVU983041 JFQ982943:JFQ983041 JPM982943:JPM983041 JZI982943:JZI983041 KJE982943:KJE983041 KTA982943:KTA983041 LCW982943:LCW983041 LMS982943:LMS983041 LWO982943:LWO983041 MGK982943:MGK983041 MQG982943:MQG983041 NAC982943:NAC983041 NJY982943:NJY983041 NTU982943:NTU983041 ODQ982943:ODQ983041 ONM982943:ONM983041 OXI982943:OXI983041 PHE982943:PHE983041 PRA982943:PRA983041 QAW982943:QAW983041 QKS982943:QKS983041 QUO982943:QUO983041 REK982943:REK983041 ROG982943:ROG983041 RYC982943:RYC983041 SHY982943:SHY983041 SRU982943:SRU983041 TBQ982943:TBQ983041 TLM982943:TLM983041 TVI982943:TVI983041 UFE982943:UFE983041 UPA982943:UPA983041 UYW982943:UYW983041 VIS982943:VIS983041 VSO982943:VSO983041 WCK982943:WCK983041 WMG982943:WMG983041 WWC982943:WWC983041" xr:uid="{6921D874-4F5B-4976-85C8-E21D84B93DD4}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 JN2 TJ2 ADF2 ANB2 AWX2 BGT2 BQP2 CAL2 CKH2 CUD2 DDZ2 DNV2 DXR2 EHN2 ERJ2 FBF2 FLB2 FUX2 GET2 GOP2 GYL2 HIH2 HSD2 IBZ2 ILV2 IVR2 JFN2 JPJ2 JZF2 KJB2 KSX2 LCT2 LMP2 LWL2 MGH2 MQD2 MZZ2 NJV2 NTR2 ODN2 ONJ2 OXF2 PHB2 PQX2 QAT2 QKP2 QUL2 REH2 ROD2 RXZ2 SHV2 SRR2 TBN2 TLJ2 TVF2 UFB2 UOX2 UYT2 VIP2 VSL2 WCH2 WMD2 WVZ2 H65439:H65537 JN65439:JN65537 TJ65439:TJ65537 ADF65439:ADF65537 ANB65439:ANB65537 AWX65439:AWX65537 BGT65439:BGT65537 BQP65439:BQP65537 CAL65439:CAL65537 CKH65439:CKH65537 CUD65439:CUD65537 DDZ65439:DDZ65537 DNV65439:DNV65537 DXR65439:DXR65537 EHN65439:EHN65537 ERJ65439:ERJ65537 FBF65439:FBF65537 FLB65439:FLB65537 FUX65439:FUX65537 GET65439:GET65537 GOP65439:GOP65537 GYL65439:GYL65537 HIH65439:HIH65537 HSD65439:HSD65537 IBZ65439:IBZ65537 ILV65439:ILV65537 IVR65439:IVR65537 JFN65439:JFN65537 JPJ65439:JPJ65537 JZF65439:JZF65537 KJB65439:KJB65537 KSX65439:KSX65537 LCT65439:LCT65537 LMP65439:LMP65537 LWL65439:LWL65537 MGH65439:MGH65537 MQD65439:MQD65537 MZZ65439:MZZ65537 NJV65439:NJV65537 NTR65439:NTR65537 ODN65439:ODN65537 ONJ65439:ONJ65537 OXF65439:OXF65537 PHB65439:PHB65537 PQX65439:PQX65537 QAT65439:QAT65537 QKP65439:QKP65537 QUL65439:QUL65537 REH65439:REH65537 ROD65439:ROD65537 RXZ65439:RXZ65537 SHV65439:SHV65537 SRR65439:SRR65537 TBN65439:TBN65537 TLJ65439:TLJ65537 TVF65439:TVF65537 UFB65439:UFB65537 UOX65439:UOX65537 UYT65439:UYT65537 VIP65439:VIP65537 VSL65439:VSL65537 WCH65439:WCH65537 WMD65439:WMD65537 WVZ65439:WVZ65537 H130975:H131073 JN130975:JN131073 TJ130975:TJ131073 ADF130975:ADF131073 ANB130975:ANB131073 AWX130975:AWX131073 BGT130975:BGT131073 BQP130975:BQP131073 CAL130975:CAL131073 CKH130975:CKH131073 CUD130975:CUD131073 DDZ130975:DDZ131073 DNV130975:DNV131073 DXR130975:DXR131073 EHN130975:EHN131073 ERJ130975:ERJ131073 FBF130975:FBF131073 FLB130975:FLB131073 FUX130975:FUX131073 GET130975:GET131073 GOP130975:GOP131073 GYL130975:GYL131073 HIH130975:HIH131073 HSD130975:HSD131073 IBZ130975:IBZ131073 ILV130975:ILV131073 IVR130975:IVR131073 JFN130975:JFN131073 JPJ130975:JPJ131073 JZF130975:JZF131073 KJB130975:KJB131073 KSX130975:KSX131073 LCT130975:LCT131073 LMP130975:LMP131073 LWL130975:LWL131073 MGH130975:MGH131073 MQD130975:MQD131073 MZZ130975:MZZ131073 NJV130975:NJV131073 NTR130975:NTR131073 ODN130975:ODN131073 ONJ130975:ONJ131073 OXF130975:OXF131073 PHB130975:PHB131073 PQX130975:PQX131073 QAT130975:QAT131073 QKP130975:QKP131073 QUL130975:QUL131073 REH130975:REH131073 ROD130975:ROD131073 RXZ130975:RXZ131073 SHV130975:SHV131073 SRR130975:SRR131073 TBN130975:TBN131073 TLJ130975:TLJ131073 TVF130975:TVF131073 UFB130975:UFB131073 UOX130975:UOX131073 UYT130975:UYT131073 VIP130975:VIP131073 VSL130975:VSL131073 WCH130975:WCH131073 WMD130975:WMD131073 WVZ130975:WVZ131073 H196511:H196609 JN196511:JN196609 TJ196511:TJ196609 ADF196511:ADF196609 ANB196511:ANB196609 AWX196511:AWX196609 BGT196511:BGT196609 BQP196511:BQP196609 CAL196511:CAL196609 CKH196511:CKH196609 CUD196511:CUD196609 DDZ196511:DDZ196609 DNV196511:DNV196609 DXR196511:DXR196609 EHN196511:EHN196609 ERJ196511:ERJ196609 FBF196511:FBF196609 FLB196511:FLB196609 FUX196511:FUX196609 GET196511:GET196609 GOP196511:GOP196609 GYL196511:GYL196609 HIH196511:HIH196609 HSD196511:HSD196609 IBZ196511:IBZ196609 ILV196511:ILV196609 IVR196511:IVR196609 JFN196511:JFN196609 JPJ196511:JPJ196609 JZF196511:JZF196609 KJB196511:KJB196609 KSX196511:KSX196609 LCT196511:LCT196609 LMP196511:LMP196609 LWL196511:LWL196609 MGH196511:MGH196609 MQD196511:MQD196609 MZZ196511:MZZ196609 NJV196511:NJV196609 NTR196511:NTR196609 ODN196511:ODN196609 ONJ196511:ONJ196609 OXF196511:OXF196609 PHB196511:PHB196609 PQX196511:PQX196609 QAT196511:QAT196609 QKP196511:QKP196609 QUL196511:QUL196609 REH196511:REH196609 ROD196511:ROD196609 RXZ196511:RXZ196609 SHV196511:SHV196609 SRR196511:SRR196609 TBN196511:TBN196609 TLJ196511:TLJ196609 TVF196511:TVF196609 UFB196511:UFB196609 UOX196511:UOX196609 UYT196511:UYT196609 VIP196511:VIP196609 VSL196511:VSL196609 WCH196511:WCH196609 WMD196511:WMD196609 WVZ196511:WVZ196609 H262047:H262145 JN262047:JN262145 TJ262047:TJ262145 ADF262047:ADF262145 ANB262047:ANB262145 AWX262047:AWX262145 BGT262047:BGT262145 BQP262047:BQP262145 CAL262047:CAL262145 CKH262047:CKH262145 CUD262047:CUD262145 DDZ262047:DDZ262145 DNV262047:DNV262145 DXR262047:DXR262145 EHN262047:EHN262145 ERJ262047:ERJ262145 FBF262047:FBF262145 FLB262047:FLB262145 FUX262047:FUX262145 GET262047:GET262145 GOP262047:GOP262145 GYL262047:GYL262145 HIH262047:HIH262145 HSD262047:HSD262145 IBZ262047:IBZ262145 ILV262047:ILV262145 IVR262047:IVR262145 JFN262047:JFN262145 JPJ262047:JPJ262145 JZF262047:JZF262145 KJB262047:KJB262145 KSX262047:KSX262145 LCT262047:LCT262145 LMP262047:LMP262145 LWL262047:LWL262145 MGH262047:MGH262145 MQD262047:MQD262145 MZZ262047:MZZ262145 NJV262047:NJV262145 NTR262047:NTR262145 ODN262047:ODN262145 ONJ262047:ONJ262145 OXF262047:OXF262145 PHB262047:PHB262145 PQX262047:PQX262145 QAT262047:QAT262145 QKP262047:QKP262145 QUL262047:QUL262145 REH262047:REH262145 ROD262047:ROD262145 RXZ262047:RXZ262145 SHV262047:SHV262145 SRR262047:SRR262145 TBN262047:TBN262145 TLJ262047:TLJ262145 TVF262047:TVF262145 UFB262047:UFB262145 UOX262047:UOX262145 UYT262047:UYT262145 VIP262047:VIP262145 VSL262047:VSL262145 WCH262047:WCH262145 WMD262047:WMD262145 WVZ262047:WVZ262145 H327583:H327681 JN327583:JN327681 TJ327583:TJ327681 ADF327583:ADF327681 ANB327583:ANB327681 AWX327583:AWX327681 BGT327583:BGT327681 BQP327583:BQP327681 CAL327583:CAL327681 CKH327583:CKH327681 CUD327583:CUD327681 DDZ327583:DDZ327681 DNV327583:DNV327681 DXR327583:DXR327681 EHN327583:EHN327681 ERJ327583:ERJ327681 FBF327583:FBF327681 FLB327583:FLB327681 FUX327583:FUX327681 GET327583:GET327681 GOP327583:GOP327681 GYL327583:GYL327681 HIH327583:HIH327681 HSD327583:HSD327681 IBZ327583:IBZ327681 ILV327583:ILV327681 IVR327583:IVR327681 JFN327583:JFN327681 JPJ327583:JPJ327681 JZF327583:JZF327681 KJB327583:KJB327681 KSX327583:KSX327681 LCT327583:LCT327681 LMP327583:LMP327681 LWL327583:LWL327681 MGH327583:MGH327681 MQD327583:MQD327681 MZZ327583:MZZ327681 NJV327583:NJV327681 NTR327583:NTR327681 ODN327583:ODN327681 ONJ327583:ONJ327681 OXF327583:OXF327681 PHB327583:PHB327681 PQX327583:PQX327681 QAT327583:QAT327681 QKP327583:QKP327681 QUL327583:QUL327681 REH327583:REH327681 ROD327583:ROD327681 RXZ327583:RXZ327681 SHV327583:SHV327681 SRR327583:SRR327681 TBN327583:TBN327681 TLJ327583:TLJ327681 TVF327583:TVF327681 UFB327583:UFB327681 UOX327583:UOX327681 UYT327583:UYT327681 VIP327583:VIP327681 VSL327583:VSL327681 WCH327583:WCH327681 WMD327583:WMD327681 WVZ327583:WVZ327681 H393119:H393217 JN393119:JN393217 TJ393119:TJ393217 ADF393119:ADF393217 ANB393119:ANB393217 AWX393119:AWX393217 BGT393119:BGT393217 BQP393119:BQP393217 CAL393119:CAL393217 CKH393119:CKH393217 CUD393119:CUD393217 DDZ393119:DDZ393217 DNV393119:DNV393217 DXR393119:DXR393217 EHN393119:EHN393217 ERJ393119:ERJ393217 FBF393119:FBF393217 FLB393119:FLB393217 FUX393119:FUX393217 GET393119:GET393217 GOP393119:GOP393217 GYL393119:GYL393217 HIH393119:HIH393217 HSD393119:HSD393217 IBZ393119:IBZ393217 ILV393119:ILV393217 IVR393119:IVR393217 JFN393119:JFN393217 JPJ393119:JPJ393217 JZF393119:JZF393217 KJB393119:KJB393217 KSX393119:KSX393217 LCT393119:LCT393217 LMP393119:LMP393217 LWL393119:LWL393217 MGH393119:MGH393217 MQD393119:MQD393217 MZZ393119:MZZ393217 NJV393119:NJV393217 NTR393119:NTR393217 ODN393119:ODN393217 ONJ393119:ONJ393217 OXF393119:OXF393217 PHB393119:PHB393217 PQX393119:PQX393217 QAT393119:QAT393217 QKP393119:QKP393217 QUL393119:QUL393217 REH393119:REH393217 ROD393119:ROD393217 RXZ393119:RXZ393217 SHV393119:SHV393217 SRR393119:SRR393217 TBN393119:TBN393217 TLJ393119:TLJ393217 TVF393119:TVF393217 UFB393119:UFB393217 UOX393119:UOX393217 UYT393119:UYT393217 VIP393119:VIP393217 VSL393119:VSL393217 WCH393119:WCH393217 WMD393119:WMD393217 WVZ393119:WVZ393217 H458655:H458753 JN458655:JN458753 TJ458655:TJ458753 ADF458655:ADF458753 ANB458655:ANB458753 AWX458655:AWX458753 BGT458655:BGT458753 BQP458655:BQP458753 CAL458655:CAL458753 CKH458655:CKH458753 CUD458655:CUD458753 DDZ458655:DDZ458753 DNV458655:DNV458753 DXR458655:DXR458753 EHN458655:EHN458753 ERJ458655:ERJ458753 FBF458655:FBF458753 FLB458655:FLB458753 FUX458655:FUX458753 GET458655:GET458753 GOP458655:GOP458753 GYL458655:GYL458753 HIH458655:HIH458753 HSD458655:HSD458753 IBZ458655:IBZ458753 ILV458655:ILV458753 IVR458655:IVR458753 JFN458655:JFN458753 JPJ458655:JPJ458753 JZF458655:JZF458753 KJB458655:KJB458753 KSX458655:KSX458753 LCT458655:LCT458753 LMP458655:LMP458753 LWL458655:LWL458753 MGH458655:MGH458753 MQD458655:MQD458753 MZZ458655:MZZ458753 NJV458655:NJV458753 NTR458655:NTR458753 ODN458655:ODN458753 ONJ458655:ONJ458753 OXF458655:OXF458753 PHB458655:PHB458753 PQX458655:PQX458753 QAT458655:QAT458753 QKP458655:QKP458753 QUL458655:QUL458753 REH458655:REH458753 ROD458655:ROD458753 RXZ458655:RXZ458753 SHV458655:SHV458753 SRR458655:SRR458753 TBN458655:TBN458753 TLJ458655:TLJ458753 TVF458655:TVF458753 UFB458655:UFB458753 UOX458655:UOX458753 UYT458655:UYT458753 VIP458655:VIP458753 VSL458655:VSL458753 WCH458655:WCH458753 WMD458655:WMD458753 WVZ458655:WVZ458753 H524191:H524289 JN524191:JN524289 TJ524191:TJ524289 ADF524191:ADF524289 ANB524191:ANB524289 AWX524191:AWX524289 BGT524191:BGT524289 BQP524191:BQP524289 CAL524191:CAL524289 CKH524191:CKH524289 CUD524191:CUD524289 DDZ524191:DDZ524289 DNV524191:DNV524289 DXR524191:DXR524289 EHN524191:EHN524289 ERJ524191:ERJ524289 FBF524191:FBF524289 FLB524191:FLB524289 FUX524191:FUX524289 GET524191:GET524289 GOP524191:GOP524289 GYL524191:GYL524289 HIH524191:HIH524289 HSD524191:HSD524289 IBZ524191:IBZ524289 ILV524191:ILV524289 IVR524191:IVR524289 JFN524191:JFN524289 JPJ524191:JPJ524289 JZF524191:JZF524289 KJB524191:KJB524289 KSX524191:KSX524289 LCT524191:LCT524289 LMP524191:LMP524289 LWL524191:LWL524289 MGH524191:MGH524289 MQD524191:MQD524289 MZZ524191:MZZ524289 NJV524191:NJV524289 NTR524191:NTR524289 ODN524191:ODN524289 ONJ524191:ONJ524289 OXF524191:OXF524289 PHB524191:PHB524289 PQX524191:PQX524289 QAT524191:QAT524289 QKP524191:QKP524289 QUL524191:QUL524289 REH524191:REH524289 ROD524191:ROD524289 RXZ524191:RXZ524289 SHV524191:SHV524289 SRR524191:SRR524289 TBN524191:TBN524289 TLJ524191:TLJ524289 TVF524191:TVF524289 UFB524191:UFB524289 UOX524191:UOX524289 UYT524191:UYT524289 VIP524191:VIP524289 VSL524191:VSL524289 WCH524191:WCH524289 WMD524191:WMD524289 WVZ524191:WVZ524289 H589727:H589825 JN589727:JN589825 TJ589727:TJ589825 ADF589727:ADF589825 ANB589727:ANB589825 AWX589727:AWX589825 BGT589727:BGT589825 BQP589727:BQP589825 CAL589727:CAL589825 CKH589727:CKH589825 CUD589727:CUD589825 DDZ589727:DDZ589825 DNV589727:DNV589825 DXR589727:DXR589825 EHN589727:EHN589825 ERJ589727:ERJ589825 FBF589727:FBF589825 FLB589727:FLB589825 FUX589727:FUX589825 GET589727:GET589825 GOP589727:GOP589825 GYL589727:GYL589825 HIH589727:HIH589825 HSD589727:HSD589825 IBZ589727:IBZ589825 ILV589727:ILV589825 IVR589727:IVR589825 JFN589727:JFN589825 JPJ589727:JPJ589825 JZF589727:JZF589825 KJB589727:KJB589825 KSX589727:KSX589825 LCT589727:LCT589825 LMP589727:LMP589825 LWL589727:LWL589825 MGH589727:MGH589825 MQD589727:MQD589825 MZZ589727:MZZ589825 NJV589727:NJV589825 NTR589727:NTR589825 ODN589727:ODN589825 ONJ589727:ONJ589825 OXF589727:OXF589825 PHB589727:PHB589825 PQX589727:PQX589825 QAT589727:QAT589825 QKP589727:QKP589825 QUL589727:QUL589825 REH589727:REH589825 ROD589727:ROD589825 RXZ589727:RXZ589825 SHV589727:SHV589825 SRR589727:SRR589825 TBN589727:TBN589825 TLJ589727:TLJ589825 TVF589727:TVF589825 UFB589727:UFB589825 UOX589727:UOX589825 UYT589727:UYT589825 VIP589727:VIP589825 VSL589727:VSL589825 WCH589727:WCH589825 WMD589727:WMD589825 WVZ589727:WVZ589825 H655263:H655361 JN655263:JN655361 TJ655263:TJ655361 ADF655263:ADF655361 ANB655263:ANB655361 AWX655263:AWX655361 BGT655263:BGT655361 BQP655263:BQP655361 CAL655263:CAL655361 CKH655263:CKH655361 CUD655263:CUD655361 DDZ655263:DDZ655361 DNV655263:DNV655361 DXR655263:DXR655361 EHN655263:EHN655361 ERJ655263:ERJ655361 FBF655263:FBF655361 FLB655263:FLB655361 FUX655263:FUX655361 GET655263:GET655361 GOP655263:GOP655361 GYL655263:GYL655361 HIH655263:HIH655361 HSD655263:HSD655361 IBZ655263:IBZ655361 ILV655263:ILV655361 IVR655263:IVR655361 JFN655263:JFN655361 JPJ655263:JPJ655361 JZF655263:JZF655361 KJB655263:KJB655361 KSX655263:KSX655361 LCT655263:LCT655361 LMP655263:LMP655361 LWL655263:LWL655361 MGH655263:MGH655361 MQD655263:MQD655361 MZZ655263:MZZ655361 NJV655263:NJV655361 NTR655263:NTR655361 ODN655263:ODN655361 ONJ655263:ONJ655361 OXF655263:OXF655361 PHB655263:PHB655361 PQX655263:PQX655361 QAT655263:QAT655361 QKP655263:QKP655361 QUL655263:QUL655361 REH655263:REH655361 ROD655263:ROD655361 RXZ655263:RXZ655361 SHV655263:SHV655361 SRR655263:SRR655361 TBN655263:TBN655361 TLJ655263:TLJ655361 TVF655263:TVF655361 UFB655263:UFB655361 UOX655263:UOX655361 UYT655263:UYT655361 VIP655263:VIP655361 VSL655263:VSL655361 WCH655263:WCH655361 WMD655263:WMD655361 WVZ655263:WVZ655361 H720799:H720897 JN720799:JN720897 TJ720799:TJ720897 ADF720799:ADF720897 ANB720799:ANB720897 AWX720799:AWX720897 BGT720799:BGT720897 BQP720799:BQP720897 CAL720799:CAL720897 CKH720799:CKH720897 CUD720799:CUD720897 DDZ720799:DDZ720897 DNV720799:DNV720897 DXR720799:DXR720897 EHN720799:EHN720897 ERJ720799:ERJ720897 FBF720799:FBF720897 FLB720799:FLB720897 FUX720799:FUX720897 GET720799:GET720897 GOP720799:GOP720897 GYL720799:GYL720897 HIH720799:HIH720897 HSD720799:HSD720897 IBZ720799:IBZ720897 ILV720799:ILV720897 IVR720799:IVR720897 JFN720799:JFN720897 JPJ720799:JPJ720897 JZF720799:JZF720897 KJB720799:KJB720897 KSX720799:KSX720897 LCT720799:LCT720897 LMP720799:LMP720897 LWL720799:LWL720897 MGH720799:MGH720897 MQD720799:MQD720897 MZZ720799:MZZ720897 NJV720799:NJV720897 NTR720799:NTR720897 ODN720799:ODN720897 ONJ720799:ONJ720897 OXF720799:OXF720897 PHB720799:PHB720897 PQX720799:PQX720897 QAT720799:QAT720897 QKP720799:QKP720897 QUL720799:QUL720897 REH720799:REH720897 ROD720799:ROD720897 RXZ720799:RXZ720897 SHV720799:SHV720897 SRR720799:SRR720897 TBN720799:TBN720897 TLJ720799:TLJ720897 TVF720799:TVF720897 UFB720799:UFB720897 UOX720799:UOX720897 UYT720799:UYT720897 VIP720799:VIP720897 VSL720799:VSL720897 WCH720799:WCH720897 WMD720799:WMD720897 WVZ720799:WVZ720897 H786335:H786433 JN786335:JN786433 TJ786335:TJ786433 ADF786335:ADF786433 ANB786335:ANB786433 AWX786335:AWX786433 BGT786335:BGT786433 BQP786335:BQP786433 CAL786335:CAL786433 CKH786335:CKH786433 CUD786335:CUD786433 DDZ786335:DDZ786433 DNV786335:DNV786433 DXR786335:DXR786433 EHN786335:EHN786433 ERJ786335:ERJ786433 FBF786335:FBF786433 FLB786335:FLB786433 FUX786335:FUX786433 GET786335:GET786433 GOP786335:GOP786433 GYL786335:GYL786433 HIH786335:HIH786433 HSD786335:HSD786433 IBZ786335:IBZ786433 ILV786335:ILV786433 IVR786335:IVR786433 JFN786335:JFN786433 JPJ786335:JPJ786433 JZF786335:JZF786433 KJB786335:KJB786433 KSX786335:KSX786433 LCT786335:LCT786433 LMP786335:LMP786433 LWL786335:LWL786433 MGH786335:MGH786433 MQD786335:MQD786433 MZZ786335:MZZ786433 NJV786335:NJV786433 NTR786335:NTR786433 ODN786335:ODN786433 ONJ786335:ONJ786433 OXF786335:OXF786433 PHB786335:PHB786433 PQX786335:PQX786433 QAT786335:QAT786433 QKP786335:QKP786433 QUL786335:QUL786433 REH786335:REH786433 ROD786335:ROD786433 RXZ786335:RXZ786433 SHV786335:SHV786433 SRR786335:SRR786433 TBN786335:TBN786433 TLJ786335:TLJ786433 TVF786335:TVF786433 UFB786335:UFB786433 UOX786335:UOX786433 UYT786335:UYT786433 VIP786335:VIP786433 VSL786335:VSL786433 WCH786335:WCH786433 WMD786335:WMD786433 WVZ786335:WVZ786433 H851871:H851969 JN851871:JN851969 TJ851871:TJ851969 ADF851871:ADF851969 ANB851871:ANB851969 AWX851871:AWX851969 BGT851871:BGT851969 BQP851871:BQP851969 CAL851871:CAL851969 CKH851871:CKH851969 CUD851871:CUD851969 DDZ851871:DDZ851969 DNV851871:DNV851969 DXR851871:DXR851969 EHN851871:EHN851969 ERJ851871:ERJ851969 FBF851871:FBF851969 FLB851871:FLB851969 FUX851871:FUX851969 GET851871:GET851969 GOP851871:GOP851969 GYL851871:GYL851969 HIH851871:HIH851969 HSD851871:HSD851969 IBZ851871:IBZ851969 ILV851871:ILV851969 IVR851871:IVR851969 JFN851871:JFN851969 JPJ851871:JPJ851969 JZF851871:JZF851969 KJB851871:KJB851969 KSX851871:KSX851969 LCT851871:LCT851969 LMP851871:LMP851969 LWL851871:LWL851969 MGH851871:MGH851969 MQD851871:MQD851969 MZZ851871:MZZ851969 NJV851871:NJV851969 NTR851871:NTR851969 ODN851871:ODN851969 ONJ851871:ONJ851969 OXF851871:OXF851969 PHB851871:PHB851969 PQX851871:PQX851969 QAT851871:QAT851969 QKP851871:QKP851969 QUL851871:QUL851969 REH851871:REH851969 ROD851871:ROD851969 RXZ851871:RXZ851969 SHV851871:SHV851969 SRR851871:SRR851969 TBN851871:TBN851969 TLJ851871:TLJ851969 TVF851871:TVF851969 UFB851871:UFB851969 UOX851871:UOX851969 UYT851871:UYT851969 VIP851871:VIP851969 VSL851871:VSL851969 WCH851871:WCH851969 WMD851871:WMD851969 WVZ851871:WVZ851969 H917407:H917505 JN917407:JN917505 TJ917407:TJ917505 ADF917407:ADF917505 ANB917407:ANB917505 AWX917407:AWX917505 BGT917407:BGT917505 BQP917407:BQP917505 CAL917407:CAL917505 CKH917407:CKH917505 CUD917407:CUD917505 DDZ917407:DDZ917505 DNV917407:DNV917505 DXR917407:DXR917505 EHN917407:EHN917505 ERJ917407:ERJ917505 FBF917407:FBF917505 FLB917407:FLB917505 FUX917407:FUX917505 GET917407:GET917505 GOP917407:GOP917505 GYL917407:GYL917505 HIH917407:HIH917505 HSD917407:HSD917505 IBZ917407:IBZ917505 ILV917407:ILV917505 IVR917407:IVR917505 JFN917407:JFN917505 JPJ917407:JPJ917505 JZF917407:JZF917505 KJB917407:KJB917505 KSX917407:KSX917505 LCT917407:LCT917505 LMP917407:LMP917505 LWL917407:LWL917505 MGH917407:MGH917505 MQD917407:MQD917505 MZZ917407:MZZ917505 NJV917407:NJV917505 NTR917407:NTR917505 ODN917407:ODN917505 ONJ917407:ONJ917505 OXF917407:OXF917505 PHB917407:PHB917505 PQX917407:PQX917505 QAT917407:QAT917505 QKP917407:QKP917505 QUL917407:QUL917505 REH917407:REH917505 ROD917407:ROD917505 RXZ917407:RXZ917505 SHV917407:SHV917505 SRR917407:SRR917505 TBN917407:TBN917505 TLJ917407:TLJ917505 TVF917407:TVF917505 UFB917407:UFB917505 UOX917407:UOX917505 UYT917407:UYT917505 VIP917407:VIP917505 VSL917407:VSL917505 WCH917407:WCH917505 WMD917407:WMD917505 WVZ917407:WVZ917505 H982943:H983041 JN982943:JN983041 TJ982943:TJ983041 ADF982943:ADF983041 ANB982943:ANB983041 AWX982943:AWX983041 BGT982943:BGT983041 BQP982943:BQP983041 CAL982943:CAL983041 CKH982943:CKH983041 CUD982943:CUD983041 DDZ982943:DDZ983041 DNV982943:DNV983041 DXR982943:DXR983041 EHN982943:EHN983041 ERJ982943:ERJ983041 FBF982943:FBF983041 FLB982943:FLB983041 FUX982943:FUX983041 GET982943:GET983041 GOP982943:GOP983041 GYL982943:GYL983041 HIH982943:HIH983041 HSD982943:HSD983041 IBZ982943:IBZ983041 ILV982943:ILV983041 IVR982943:IVR983041 JFN982943:JFN983041 JPJ982943:JPJ983041 JZF982943:JZF983041 KJB982943:KJB983041 KSX982943:KSX983041 LCT982943:LCT983041 LMP982943:LMP983041 LWL982943:LWL983041 MGH982943:MGH983041 MQD982943:MQD983041 MZZ982943:MZZ983041 NJV982943:NJV983041 NTR982943:NTR983041 ODN982943:ODN983041 ONJ982943:ONJ983041 OXF982943:OXF983041 PHB982943:PHB983041 PQX982943:PQX983041 QAT982943:QAT983041 QKP982943:QKP983041 QUL982943:QUL983041 REH982943:REH983041 ROD982943:ROD983041 RXZ982943:RXZ983041 SHV982943:SHV983041 SRR982943:SRR983041 TBN982943:TBN983041 TLJ982943:TLJ983041 TVF982943:TVF983041 UFB982943:UFB983041 UOX982943:UOX983041 UYT982943:UYT983041 VIP982943:VIP983041 VSL982943:VSL983041 WCH982943:WCH983041 WMD982943:WMD983041 WVZ982943:WVZ983041 Y2:Z2 JU2:JV2 TQ2:TR2 ADM2:ADN2 ANI2:ANJ2 AXE2:AXF2 BHA2:BHB2 BQW2:BQX2 CAS2:CAT2 CKO2:CKP2 CUK2:CUL2 DEG2:DEH2 DOC2:DOD2 DXY2:DXZ2 EHU2:EHV2 ERQ2:ERR2 FBM2:FBN2 FLI2:FLJ2 FVE2:FVF2 GFA2:GFB2 GOW2:GOX2 GYS2:GYT2 HIO2:HIP2 HSK2:HSL2 ICG2:ICH2 IMC2:IMD2 IVY2:IVZ2 JFU2:JFV2 JPQ2:JPR2 JZM2:JZN2 KJI2:KJJ2 KTE2:KTF2 LDA2:LDB2 LMW2:LMX2 LWS2:LWT2 MGO2:MGP2 MQK2:MQL2 NAG2:NAH2 NKC2:NKD2 NTY2:NTZ2 ODU2:ODV2 ONQ2:ONR2 OXM2:OXN2 PHI2:PHJ2 PRE2:PRF2 QBA2:QBB2 QKW2:QKX2 QUS2:QUT2 REO2:REP2 ROK2:ROL2 RYG2:RYH2 SIC2:SID2 SRY2:SRZ2 TBU2:TBV2 TLQ2:TLR2 TVM2:TVN2 UFI2:UFJ2 UPE2:UPF2 UZA2:UZB2 VIW2:VIX2 VSS2:VST2 WCO2:WCP2 WMK2:WML2 WWG2:WWH2 Y65439:Z65537 JU65439:JV65537 TQ65439:TR65537 ADM65439:ADN65537 ANI65439:ANJ65537 AXE65439:AXF65537 BHA65439:BHB65537 BQW65439:BQX65537 CAS65439:CAT65537 CKO65439:CKP65537 CUK65439:CUL65537 DEG65439:DEH65537 DOC65439:DOD65537 DXY65439:DXZ65537 EHU65439:EHV65537 ERQ65439:ERR65537 FBM65439:FBN65537 FLI65439:FLJ65537 FVE65439:FVF65537 GFA65439:GFB65537 GOW65439:GOX65537 GYS65439:GYT65537 HIO65439:HIP65537 HSK65439:HSL65537 ICG65439:ICH65537 IMC65439:IMD65537 IVY65439:IVZ65537 JFU65439:JFV65537 JPQ65439:JPR65537 JZM65439:JZN65537 KJI65439:KJJ65537 KTE65439:KTF65537 LDA65439:LDB65537 LMW65439:LMX65537 LWS65439:LWT65537 MGO65439:MGP65537 MQK65439:MQL65537 NAG65439:NAH65537 NKC65439:NKD65537 NTY65439:NTZ65537 ODU65439:ODV65537 ONQ65439:ONR65537 OXM65439:OXN65537 PHI65439:PHJ65537 PRE65439:PRF65537 QBA65439:QBB65537 QKW65439:QKX65537 QUS65439:QUT65537 REO65439:REP65537 ROK65439:ROL65537 RYG65439:RYH65537 SIC65439:SID65537 SRY65439:SRZ65537 TBU65439:TBV65537 TLQ65439:TLR65537 TVM65439:TVN65537 UFI65439:UFJ65537 UPE65439:UPF65537 UZA65439:UZB65537 VIW65439:VIX65537 VSS65439:VST65537 WCO65439:WCP65537 WMK65439:WML65537 WWG65439:WWH65537 Y130975:Z131073 JU130975:JV131073 TQ130975:TR131073 ADM130975:ADN131073 ANI130975:ANJ131073 AXE130975:AXF131073 BHA130975:BHB131073 BQW130975:BQX131073 CAS130975:CAT131073 CKO130975:CKP131073 CUK130975:CUL131073 DEG130975:DEH131073 DOC130975:DOD131073 DXY130975:DXZ131073 EHU130975:EHV131073 ERQ130975:ERR131073 FBM130975:FBN131073 FLI130975:FLJ131073 FVE130975:FVF131073 GFA130975:GFB131073 GOW130975:GOX131073 GYS130975:GYT131073 HIO130975:HIP131073 HSK130975:HSL131073 ICG130975:ICH131073 IMC130975:IMD131073 IVY130975:IVZ131073 JFU130975:JFV131073 JPQ130975:JPR131073 JZM130975:JZN131073 KJI130975:KJJ131073 KTE130975:KTF131073 LDA130975:LDB131073 LMW130975:LMX131073 LWS130975:LWT131073 MGO130975:MGP131073 MQK130975:MQL131073 NAG130975:NAH131073 NKC130975:NKD131073 NTY130975:NTZ131073 ODU130975:ODV131073 ONQ130975:ONR131073 OXM130975:OXN131073 PHI130975:PHJ131073 PRE130975:PRF131073 QBA130975:QBB131073 QKW130975:QKX131073 QUS130975:QUT131073 REO130975:REP131073 ROK130975:ROL131073 RYG130975:RYH131073 SIC130975:SID131073 SRY130975:SRZ131073 TBU130975:TBV131073 TLQ130975:TLR131073 TVM130975:TVN131073 UFI130975:UFJ131073 UPE130975:UPF131073 UZA130975:UZB131073 VIW130975:VIX131073 VSS130975:VST131073 WCO130975:WCP131073 WMK130975:WML131073 WWG130975:WWH131073 Y196511:Z196609 JU196511:JV196609 TQ196511:TR196609 ADM196511:ADN196609 ANI196511:ANJ196609 AXE196511:AXF196609 BHA196511:BHB196609 BQW196511:BQX196609 CAS196511:CAT196609 CKO196511:CKP196609 CUK196511:CUL196609 DEG196511:DEH196609 DOC196511:DOD196609 DXY196511:DXZ196609 EHU196511:EHV196609 ERQ196511:ERR196609 FBM196511:FBN196609 FLI196511:FLJ196609 FVE196511:FVF196609 GFA196511:GFB196609 GOW196511:GOX196609 GYS196511:GYT196609 HIO196511:HIP196609 HSK196511:HSL196609 ICG196511:ICH196609 IMC196511:IMD196609 IVY196511:IVZ196609 JFU196511:JFV196609 JPQ196511:JPR196609 JZM196511:JZN196609 KJI196511:KJJ196609 KTE196511:KTF196609 LDA196511:LDB196609 LMW196511:LMX196609 LWS196511:LWT196609 MGO196511:MGP196609 MQK196511:MQL196609 NAG196511:NAH196609 NKC196511:NKD196609 NTY196511:NTZ196609 ODU196511:ODV196609 ONQ196511:ONR196609 OXM196511:OXN196609 PHI196511:PHJ196609 PRE196511:PRF196609 QBA196511:QBB196609 QKW196511:QKX196609 QUS196511:QUT196609 REO196511:REP196609 ROK196511:ROL196609 RYG196511:RYH196609 SIC196511:SID196609 SRY196511:SRZ196609 TBU196511:TBV196609 TLQ196511:TLR196609 TVM196511:TVN196609 UFI196511:UFJ196609 UPE196511:UPF196609 UZA196511:UZB196609 VIW196511:VIX196609 VSS196511:VST196609 WCO196511:WCP196609 WMK196511:WML196609 WWG196511:WWH196609 Y262047:Z262145 JU262047:JV262145 TQ262047:TR262145 ADM262047:ADN262145 ANI262047:ANJ262145 AXE262047:AXF262145 BHA262047:BHB262145 BQW262047:BQX262145 CAS262047:CAT262145 CKO262047:CKP262145 CUK262047:CUL262145 DEG262047:DEH262145 DOC262047:DOD262145 DXY262047:DXZ262145 EHU262047:EHV262145 ERQ262047:ERR262145 FBM262047:FBN262145 FLI262047:FLJ262145 FVE262047:FVF262145 GFA262047:GFB262145 GOW262047:GOX262145 GYS262047:GYT262145 HIO262047:HIP262145 HSK262047:HSL262145 ICG262047:ICH262145 IMC262047:IMD262145 IVY262047:IVZ262145 JFU262047:JFV262145 JPQ262047:JPR262145 JZM262047:JZN262145 KJI262047:KJJ262145 KTE262047:KTF262145 LDA262047:LDB262145 LMW262047:LMX262145 LWS262047:LWT262145 MGO262047:MGP262145 MQK262047:MQL262145 NAG262047:NAH262145 NKC262047:NKD262145 NTY262047:NTZ262145 ODU262047:ODV262145 ONQ262047:ONR262145 OXM262047:OXN262145 PHI262047:PHJ262145 PRE262047:PRF262145 QBA262047:QBB262145 QKW262047:QKX262145 QUS262047:QUT262145 REO262047:REP262145 ROK262047:ROL262145 RYG262047:RYH262145 SIC262047:SID262145 SRY262047:SRZ262145 TBU262047:TBV262145 TLQ262047:TLR262145 TVM262047:TVN262145 UFI262047:UFJ262145 UPE262047:UPF262145 UZA262047:UZB262145 VIW262047:VIX262145 VSS262047:VST262145 WCO262047:WCP262145 WMK262047:WML262145 WWG262047:WWH262145 Y327583:Z327681 JU327583:JV327681 TQ327583:TR327681 ADM327583:ADN327681 ANI327583:ANJ327681 AXE327583:AXF327681 BHA327583:BHB327681 BQW327583:BQX327681 CAS327583:CAT327681 CKO327583:CKP327681 CUK327583:CUL327681 DEG327583:DEH327681 DOC327583:DOD327681 DXY327583:DXZ327681 EHU327583:EHV327681 ERQ327583:ERR327681 FBM327583:FBN327681 FLI327583:FLJ327681 FVE327583:FVF327681 GFA327583:GFB327681 GOW327583:GOX327681 GYS327583:GYT327681 HIO327583:HIP327681 HSK327583:HSL327681 ICG327583:ICH327681 IMC327583:IMD327681 IVY327583:IVZ327681 JFU327583:JFV327681 JPQ327583:JPR327681 JZM327583:JZN327681 KJI327583:KJJ327681 KTE327583:KTF327681 LDA327583:LDB327681 LMW327583:LMX327681 LWS327583:LWT327681 MGO327583:MGP327681 MQK327583:MQL327681 NAG327583:NAH327681 NKC327583:NKD327681 NTY327583:NTZ327681 ODU327583:ODV327681 ONQ327583:ONR327681 OXM327583:OXN327681 PHI327583:PHJ327681 PRE327583:PRF327681 QBA327583:QBB327681 QKW327583:QKX327681 QUS327583:QUT327681 REO327583:REP327681 ROK327583:ROL327681 RYG327583:RYH327681 SIC327583:SID327681 SRY327583:SRZ327681 TBU327583:TBV327681 TLQ327583:TLR327681 TVM327583:TVN327681 UFI327583:UFJ327681 UPE327583:UPF327681 UZA327583:UZB327681 VIW327583:VIX327681 VSS327583:VST327681 WCO327583:WCP327681 WMK327583:WML327681 WWG327583:WWH327681 Y393119:Z393217 JU393119:JV393217 TQ393119:TR393217 ADM393119:ADN393217 ANI393119:ANJ393217 AXE393119:AXF393217 BHA393119:BHB393217 BQW393119:BQX393217 CAS393119:CAT393217 CKO393119:CKP393217 CUK393119:CUL393217 DEG393119:DEH393217 DOC393119:DOD393217 DXY393119:DXZ393217 EHU393119:EHV393217 ERQ393119:ERR393217 FBM393119:FBN393217 FLI393119:FLJ393217 FVE393119:FVF393217 GFA393119:GFB393217 GOW393119:GOX393217 GYS393119:GYT393217 HIO393119:HIP393217 HSK393119:HSL393217 ICG393119:ICH393217 IMC393119:IMD393217 IVY393119:IVZ393217 JFU393119:JFV393217 JPQ393119:JPR393217 JZM393119:JZN393217 KJI393119:KJJ393217 KTE393119:KTF393217 LDA393119:LDB393217 LMW393119:LMX393217 LWS393119:LWT393217 MGO393119:MGP393217 MQK393119:MQL393217 NAG393119:NAH393217 NKC393119:NKD393217 NTY393119:NTZ393217 ODU393119:ODV393217 ONQ393119:ONR393217 OXM393119:OXN393217 PHI393119:PHJ393217 PRE393119:PRF393217 QBA393119:QBB393217 QKW393119:QKX393217 QUS393119:QUT393217 REO393119:REP393217 ROK393119:ROL393217 RYG393119:RYH393217 SIC393119:SID393217 SRY393119:SRZ393217 TBU393119:TBV393217 TLQ393119:TLR393217 TVM393119:TVN393217 UFI393119:UFJ393217 UPE393119:UPF393217 UZA393119:UZB393217 VIW393119:VIX393217 VSS393119:VST393217 WCO393119:WCP393217 WMK393119:WML393217 WWG393119:WWH393217 Y458655:Z458753 JU458655:JV458753 TQ458655:TR458753 ADM458655:ADN458753 ANI458655:ANJ458753 AXE458655:AXF458753 BHA458655:BHB458753 BQW458655:BQX458753 CAS458655:CAT458753 CKO458655:CKP458753 CUK458655:CUL458753 DEG458655:DEH458753 DOC458655:DOD458753 DXY458655:DXZ458753 EHU458655:EHV458753 ERQ458655:ERR458753 FBM458655:FBN458753 FLI458655:FLJ458753 FVE458655:FVF458753 GFA458655:GFB458753 GOW458655:GOX458753 GYS458655:GYT458753 HIO458655:HIP458753 HSK458655:HSL458753 ICG458655:ICH458753 IMC458655:IMD458753 IVY458655:IVZ458753 JFU458655:JFV458753 JPQ458655:JPR458753 JZM458655:JZN458753 KJI458655:KJJ458753 KTE458655:KTF458753 LDA458655:LDB458753 LMW458655:LMX458753 LWS458655:LWT458753 MGO458655:MGP458753 MQK458655:MQL458753 NAG458655:NAH458753 NKC458655:NKD458753 NTY458655:NTZ458753 ODU458655:ODV458753 ONQ458655:ONR458753 OXM458655:OXN458753 PHI458655:PHJ458753 PRE458655:PRF458753 QBA458655:QBB458753 QKW458655:QKX458753 QUS458655:QUT458753 REO458655:REP458753 ROK458655:ROL458753 RYG458655:RYH458753 SIC458655:SID458753 SRY458655:SRZ458753 TBU458655:TBV458753 TLQ458655:TLR458753 TVM458655:TVN458753 UFI458655:UFJ458753 UPE458655:UPF458753 UZA458655:UZB458753 VIW458655:VIX458753 VSS458655:VST458753 WCO458655:WCP458753 WMK458655:WML458753 WWG458655:WWH458753 Y524191:Z524289 JU524191:JV524289 TQ524191:TR524289 ADM524191:ADN524289 ANI524191:ANJ524289 AXE524191:AXF524289 BHA524191:BHB524289 BQW524191:BQX524289 CAS524191:CAT524289 CKO524191:CKP524289 CUK524191:CUL524289 DEG524191:DEH524289 DOC524191:DOD524289 DXY524191:DXZ524289 EHU524191:EHV524289 ERQ524191:ERR524289 FBM524191:FBN524289 FLI524191:FLJ524289 FVE524191:FVF524289 GFA524191:GFB524289 GOW524191:GOX524289 GYS524191:GYT524289 HIO524191:HIP524289 HSK524191:HSL524289 ICG524191:ICH524289 IMC524191:IMD524289 IVY524191:IVZ524289 JFU524191:JFV524289 JPQ524191:JPR524289 JZM524191:JZN524289 KJI524191:KJJ524289 KTE524191:KTF524289 LDA524191:LDB524289 LMW524191:LMX524289 LWS524191:LWT524289 MGO524191:MGP524289 MQK524191:MQL524289 NAG524191:NAH524289 NKC524191:NKD524289 NTY524191:NTZ524289 ODU524191:ODV524289 ONQ524191:ONR524289 OXM524191:OXN524289 PHI524191:PHJ524289 PRE524191:PRF524289 QBA524191:QBB524289 QKW524191:QKX524289 QUS524191:QUT524289 REO524191:REP524289 ROK524191:ROL524289 RYG524191:RYH524289 SIC524191:SID524289 SRY524191:SRZ524289 TBU524191:TBV524289 TLQ524191:TLR524289 TVM524191:TVN524289 UFI524191:UFJ524289 UPE524191:UPF524289 UZA524191:UZB524289 VIW524191:VIX524289 VSS524191:VST524289 WCO524191:WCP524289 WMK524191:WML524289 WWG524191:WWH524289 Y589727:Z589825 JU589727:JV589825 TQ589727:TR589825 ADM589727:ADN589825 ANI589727:ANJ589825 AXE589727:AXF589825 BHA589727:BHB589825 BQW589727:BQX589825 CAS589727:CAT589825 CKO589727:CKP589825 CUK589727:CUL589825 DEG589727:DEH589825 DOC589727:DOD589825 DXY589727:DXZ589825 EHU589727:EHV589825 ERQ589727:ERR589825 FBM589727:FBN589825 FLI589727:FLJ589825 FVE589727:FVF589825 GFA589727:GFB589825 GOW589727:GOX589825 GYS589727:GYT589825 HIO589727:HIP589825 HSK589727:HSL589825 ICG589727:ICH589825 IMC589727:IMD589825 IVY589727:IVZ589825 JFU589727:JFV589825 JPQ589727:JPR589825 JZM589727:JZN589825 KJI589727:KJJ589825 KTE589727:KTF589825 LDA589727:LDB589825 LMW589727:LMX589825 LWS589727:LWT589825 MGO589727:MGP589825 MQK589727:MQL589825 NAG589727:NAH589825 NKC589727:NKD589825 NTY589727:NTZ589825 ODU589727:ODV589825 ONQ589727:ONR589825 OXM589727:OXN589825 PHI589727:PHJ589825 PRE589727:PRF589825 QBA589727:QBB589825 QKW589727:QKX589825 QUS589727:QUT589825 REO589727:REP589825 ROK589727:ROL589825 RYG589727:RYH589825 SIC589727:SID589825 SRY589727:SRZ589825 TBU589727:TBV589825 TLQ589727:TLR589825 TVM589727:TVN589825 UFI589727:UFJ589825 UPE589727:UPF589825 UZA589727:UZB589825 VIW589727:VIX589825 VSS589727:VST589825 WCO589727:WCP589825 WMK589727:WML589825 WWG589727:WWH589825 Y655263:Z655361 JU655263:JV655361 TQ655263:TR655361 ADM655263:ADN655361 ANI655263:ANJ655361 AXE655263:AXF655361 BHA655263:BHB655361 BQW655263:BQX655361 CAS655263:CAT655361 CKO655263:CKP655361 CUK655263:CUL655361 DEG655263:DEH655361 DOC655263:DOD655361 DXY655263:DXZ655361 EHU655263:EHV655361 ERQ655263:ERR655361 FBM655263:FBN655361 FLI655263:FLJ655361 FVE655263:FVF655361 GFA655263:GFB655361 GOW655263:GOX655361 GYS655263:GYT655361 HIO655263:HIP655361 HSK655263:HSL655361 ICG655263:ICH655361 IMC655263:IMD655361 IVY655263:IVZ655361 JFU655263:JFV655361 JPQ655263:JPR655361 JZM655263:JZN655361 KJI655263:KJJ655361 KTE655263:KTF655361 LDA655263:LDB655361 LMW655263:LMX655361 LWS655263:LWT655361 MGO655263:MGP655361 MQK655263:MQL655361 NAG655263:NAH655361 NKC655263:NKD655361 NTY655263:NTZ655361 ODU655263:ODV655361 ONQ655263:ONR655361 OXM655263:OXN655361 PHI655263:PHJ655361 PRE655263:PRF655361 QBA655263:QBB655361 QKW655263:QKX655361 QUS655263:QUT655361 REO655263:REP655361 ROK655263:ROL655361 RYG655263:RYH655361 SIC655263:SID655361 SRY655263:SRZ655361 TBU655263:TBV655361 TLQ655263:TLR655361 TVM655263:TVN655361 UFI655263:UFJ655361 UPE655263:UPF655361 UZA655263:UZB655361 VIW655263:VIX655361 VSS655263:VST655361 WCO655263:WCP655361 WMK655263:WML655361 WWG655263:WWH655361 Y720799:Z720897 JU720799:JV720897 TQ720799:TR720897 ADM720799:ADN720897 ANI720799:ANJ720897 AXE720799:AXF720897 BHA720799:BHB720897 BQW720799:BQX720897 CAS720799:CAT720897 CKO720799:CKP720897 CUK720799:CUL720897 DEG720799:DEH720897 DOC720799:DOD720897 DXY720799:DXZ720897 EHU720799:EHV720897 ERQ720799:ERR720897 FBM720799:FBN720897 FLI720799:FLJ720897 FVE720799:FVF720897 GFA720799:GFB720897 GOW720799:GOX720897 GYS720799:GYT720897 HIO720799:HIP720897 HSK720799:HSL720897 ICG720799:ICH720897 IMC720799:IMD720897 IVY720799:IVZ720897 JFU720799:JFV720897 JPQ720799:JPR720897 JZM720799:JZN720897 KJI720799:KJJ720897 KTE720799:KTF720897 LDA720799:LDB720897 LMW720799:LMX720897 LWS720799:LWT720897 MGO720799:MGP720897 MQK720799:MQL720897 NAG720799:NAH720897 NKC720799:NKD720897 NTY720799:NTZ720897 ODU720799:ODV720897 ONQ720799:ONR720897 OXM720799:OXN720897 PHI720799:PHJ720897 PRE720799:PRF720897 QBA720799:QBB720897 QKW720799:QKX720897 QUS720799:QUT720897 REO720799:REP720897 ROK720799:ROL720897 RYG720799:RYH720897 SIC720799:SID720897 SRY720799:SRZ720897 TBU720799:TBV720897 TLQ720799:TLR720897 TVM720799:TVN720897 UFI720799:UFJ720897 UPE720799:UPF720897 UZA720799:UZB720897 VIW720799:VIX720897 VSS720799:VST720897 WCO720799:WCP720897 WMK720799:WML720897 WWG720799:WWH720897 Y786335:Z786433 JU786335:JV786433 TQ786335:TR786433 ADM786335:ADN786433 ANI786335:ANJ786433 AXE786335:AXF786433 BHA786335:BHB786433 BQW786335:BQX786433 CAS786335:CAT786433 CKO786335:CKP786433 CUK786335:CUL786433 DEG786335:DEH786433 DOC786335:DOD786433 DXY786335:DXZ786433 EHU786335:EHV786433 ERQ786335:ERR786433 FBM786335:FBN786433 FLI786335:FLJ786433 FVE786335:FVF786433 GFA786335:GFB786433 GOW786335:GOX786433 GYS786335:GYT786433 HIO786335:HIP786433 HSK786335:HSL786433 ICG786335:ICH786433 IMC786335:IMD786433 IVY786335:IVZ786433 JFU786335:JFV786433 JPQ786335:JPR786433 JZM786335:JZN786433 KJI786335:KJJ786433 KTE786335:KTF786433 LDA786335:LDB786433 LMW786335:LMX786433 LWS786335:LWT786433 MGO786335:MGP786433 MQK786335:MQL786433 NAG786335:NAH786433 NKC786335:NKD786433 NTY786335:NTZ786433 ODU786335:ODV786433 ONQ786335:ONR786433 OXM786335:OXN786433 PHI786335:PHJ786433 PRE786335:PRF786433 QBA786335:QBB786433 QKW786335:QKX786433 QUS786335:QUT786433 REO786335:REP786433 ROK786335:ROL786433 RYG786335:RYH786433 SIC786335:SID786433 SRY786335:SRZ786433 TBU786335:TBV786433 TLQ786335:TLR786433 TVM786335:TVN786433 UFI786335:UFJ786433 UPE786335:UPF786433 UZA786335:UZB786433 VIW786335:VIX786433 VSS786335:VST786433 WCO786335:WCP786433 WMK786335:WML786433 WWG786335:WWH786433 Y851871:Z851969 JU851871:JV851969 TQ851871:TR851969 ADM851871:ADN851969 ANI851871:ANJ851969 AXE851871:AXF851969 BHA851871:BHB851969 BQW851871:BQX851969 CAS851871:CAT851969 CKO851871:CKP851969 CUK851871:CUL851969 DEG851871:DEH851969 DOC851871:DOD851969 DXY851871:DXZ851969 EHU851871:EHV851969 ERQ851871:ERR851969 FBM851871:FBN851969 FLI851871:FLJ851969 FVE851871:FVF851969 GFA851871:GFB851969 GOW851871:GOX851969 GYS851871:GYT851969 HIO851871:HIP851969 HSK851871:HSL851969 ICG851871:ICH851969 IMC851871:IMD851969 IVY851871:IVZ851969 JFU851871:JFV851969 JPQ851871:JPR851969 JZM851871:JZN851969 KJI851871:KJJ851969 KTE851871:KTF851969 LDA851871:LDB851969 LMW851871:LMX851969 LWS851871:LWT851969 MGO851871:MGP851969 MQK851871:MQL851969 NAG851871:NAH851969 NKC851871:NKD851969 NTY851871:NTZ851969 ODU851871:ODV851969 ONQ851871:ONR851969 OXM851871:OXN851969 PHI851871:PHJ851969 PRE851871:PRF851969 QBA851871:QBB851969 QKW851871:QKX851969 QUS851871:QUT851969 REO851871:REP851969 ROK851871:ROL851969 RYG851871:RYH851969 SIC851871:SID851969 SRY851871:SRZ851969 TBU851871:TBV851969 TLQ851871:TLR851969 TVM851871:TVN851969 UFI851871:UFJ851969 UPE851871:UPF851969 UZA851871:UZB851969 VIW851871:VIX851969 VSS851871:VST851969 WCO851871:WCP851969 WMK851871:WML851969 WWG851871:WWH851969 Y917407:Z917505 JU917407:JV917505 TQ917407:TR917505 ADM917407:ADN917505 ANI917407:ANJ917505 AXE917407:AXF917505 BHA917407:BHB917505 BQW917407:BQX917505 CAS917407:CAT917505 CKO917407:CKP917505 CUK917407:CUL917505 DEG917407:DEH917505 DOC917407:DOD917505 DXY917407:DXZ917505 EHU917407:EHV917505 ERQ917407:ERR917505 FBM917407:FBN917505 FLI917407:FLJ917505 FVE917407:FVF917505 GFA917407:GFB917505 GOW917407:GOX917505 GYS917407:GYT917505 HIO917407:HIP917505 HSK917407:HSL917505 ICG917407:ICH917505 IMC917407:IMD917505 IVY917407:IVZ917505 JFU917407:JFV917505 JPQ917407:JPR917505 JZM917407:JZN917505 KJI917407:KJJ917505 KTE917407:KTF917505 LDA917407:LDB917505 LMW917407:LMX917505 LWS917407:LWT917505 MGO917407:MGP917505 MQK917407:MQL917505 NAG917407:NAH917505 NKC917407:NKD917505 NTY917407:NTZ917505 ODU917407:ODV917505 ONQ917407:ONR917505 OXM917407:OXN917505 PHI917407:PHJ917505 PRE917407:PRF917505 QBA917407:QBB917505 QKW917407:QKX917505 QUS917407:QUT917505 REO917407:REP917505 ROK917407:ROL917505 RYG917407:RYH917505 SIC917407:SID917505 SRY917407:SRZ917505 TBU917407:TBV917505 TLQ917407:TLR917505 TVM917407:TVN917505 UFI917407:UFJ917505 UPE917407:UPF917505 UZA917407:UZB917505 VIW917407:VIX917505 VSS917407:VST917505 WCO917407:WCP917505 WMK917407:WML917505 WWG917407:WWH917505 Y982943:Z983041 JU982943:JV983041 TQ982943:TR983041 ADM982943:ADN983041 ANI982943:ANJ983041 AXE982943:AXF983041 BHA982943:BHB983041 BQW982943:BQX983041 CAS982943:CAT983041 CKO982943:CKP983041 CUK982943:CUL983041 DEG982943:DEH983041 DOC982943:DOD983041 DXY982943:DXZ983041 EHU982943:EHV983041 ERQ982943:ERR983041 FBM982943:FBN983041 FLI982943:FLJ983041 FVE982943:FVF983041 GFA982943:GFB983041 GOW982943:GOX983041 GYS982943:GYT983041 HIO982943:HIP983041 HSK982943:HSL983041 ICG982943:ICH983041 IMC982943:IMD983041 IVY982943:IVZ983041 JFU982943:JFV983041 JPQ982943:JPR983041 JZM982943:JZN983041 KJI982943:KJJ983041 KTE982943:KTF983041 LDA982943:LDB983041 LMW982943:LMX983041 LWS982943:LWT983041 MGO982943:MGP983041 MQK982943:MQL983041 NAG982943:NAH983041 NKC982943:NKD983041 NTY982943:NTZ983041 ODU982943:ODV983041 ONQ982943:ONR983041 OXM982943:OXN983041 PHI982943:PHJ983041 PRE982943:PRF983041 QBA982943:QBB983041 QKW982943:QKX983041 QUS982943:QUT983041 REO982943:REP983041 ROK982943:ROL983041 RYG982943:RYH983041 SIC982943:SID983041 SRY982943:SRZ983041 TBU982943:TBV983041 TLQ982943:TLR983041 TVM982943:TVN983041 UFI982943:UFJ983041 UPE982943:UPF983041 UZA982943:UZB983041 VIW982943:VIX983041 VSS982943:VST983041 WCO982943:WCP983041 WMK982943:WML983041 WWG982943:WWH983041" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 JH2 TD2 ACZ2 AMV2 AWR2 BGN2 BQJ2 CAF2 CKB2 CTX2 DDT2 DNP2 DXL2 EHH2 ERD2 FAZ2 FKV2 FUR2 GEN2 GOJ2 GYF2 HIB2 HRX2 IBT2 ILP2 IVL2 JFH2 JPD2 JYZ2 KIV2 KSR2 LCN2 LMJ2 LWF2 MGB2 MPX2 MZT2 NJP2 NTL2 ODH2 OND2 OWZ2 PGV2 PQR2 QAN2 QKJ2 QUF2 REB2 RNX2 RXT2 SHP2 SRL2 TBH2 TLD2 TUZ2 UEV2 UOR2 UYN2 VIJ2 VSF2 WCB2 WLX2 WVT2 H65439:H65537 JH65439:JH65537 TD65439:TD65537 ACZ65439:ACZ65537 AMV65439:AMV65537 AWR65439:AWR65537 BGN65439:BGN65537 BQJ65439:BQJ65537 CAF65439:CAF65537 CKB65439:CKB65537 CTX65439:CTX65537 DDT65439:DDT65537 DNP65439:DNP65537 DXL65439:DXL65537 EHH65439:EHH65537 ERD65439:ERD65537 FAZ65439:FAZ65537 FKV65439:FKV65537 FUR65439:FUR65537 GEN65439:GEN65537 GOJ65439:GOJ65537 GYF65439:GYF65537 HIB65439:HIB65537 HRX65439:HRX65537 IBT65439:IBT65537 ILP65439:ILP65537 IVL65439:IVL65537 JFH65439:JFH65537 JPD65439:JPD65537 JYZ65439:JYZ65537 KIV65439:KIV65537 KSR65439:KSR65537 LCN65439:LCN65537 LMJ65439:LMJ65537 LWF65439:LWF65537 MGB65439:MGB65537 MPX65439:MPX65537 MZT65439:MZT65537 NJP65439:NJP65537 NTL65439:NTL65537 ODH65439:ODH65537 OND65439:OND65537 OWZ65439:OWZ65537 PGV65439:PGV65537 PQR65439:PQR65537 QAN65439:QAN65537 QKJ65439:QKJ65537 QUF65439:QUF65537 REB65439:REB65537 RNX65439:RNX65537 RXT65439:RXT65537 SHP65439:SHP65537 SRL65439:SRL65537 TBH65439:TBH65537 TLD65439:TLD65537 TUZ65439:TUZ65537 UEV65439:UEV65537 UOR65439:UOR65537 UYN65439:UYN65537 VIJ65439:VIJ65537 VSF65439:VSF65537 WCB65439:WCB65537 WLX65439:WLX65537 WVT65439:WVT65537 H130975:H131073 JH130975:JH131073 TD130975:TD131073 ACZ130975:ACZ131073 AMV130975:AMV131073 AWR130975:AWR131073 BGN130975:BGN131073 BQJ130975:BQJ131073 CAF130975:CAF131073 CKB130975:CKB131073 CTX130975:CTX131073 DDT130975:DDT131073 DNP130975:DNP131073 DXL130975:DXL131073 EHH130975:EHH131073 ERD130975:ERD131073 FAZ130975:FAZ131073 FKV130975:FKV131073 FUR130975:FUR131073 GEN130975:GEN131073 GOJ130975:GOJ131073 GYF130975:GYF131073 HIB130975:HIB131073 HRX130975:HRX131073 IBT130975:IBT131073 ILP130975:ILP131073 IVL130975:IVL131073 JFH130975:JFH131073 JPD130975:JPD131073 JYZ130975:JYZ131073 KIV130975:KIV131073 KSR130975:KSR131073 LCN130975:LCN131073 LMJ130975:LMJ131073 LWF130975:LWF131073 MGB130975:MGB131073 MPX130975:MPX131073 MZT130975:MZT131073 NJP130975:NJP131073 NTL130975:NTL131073 ODH130975:ODH131073 OND130975:OND131073 OWZ130975:OWZ131073 PGV130975:PGV131073 PQR130975:PQR131073 QAN130975:QAN131073 QKJ130975:QKJ131073 QUF130975:QUF131073 REB130975:REB131073 RNX130975:RNX131073 RXT130975:RXT131073 SHP130975:SHP131073 SRL130975:SRL131073 TBH130975:TBH131073 TLD130975:TLD131073 TUZ130975:TUZ131073 UEV130975:UEV131073 UOR130975:UOR131073 UYN130975:UYN131073 VIJ130975:VIJ131073 VSF130975:VSF131073 WCB130975:WCB131073 WLX130975:WLX131073 WVT130975:WVT131073 H196511:H196609 JH196511:JH196609 TD196511:TD196609 ACZ196511:ACZ196609 AMV196511:AMV196609 AWR196511:AWR196609 BGN196511:BGN196609 BQJ196511:BQJ196609 CAF196511:CAF196609 CKB196511:CKB196609 CTX196511:CTX196609 DDT196511:DDT196609 DNP196511:DNP196609 DXL196511:DXL196609 EHH196511:EHH196609 ERD196511:ERD196609 FAZ196511:FAZ196609 FKV196511:FKV196609 FUR196511:FUR196609 GEN196511:GEN196609 GOJ196511:GOJ196609 GYF196511:GYF196609 HIB196511:HIB196609 HRX196511:HRX196609 IBT196511:IBT196609 ILP196511:ILP196609 IVL196511:IVL196609 JFH196511:JFH196609 JPD196511:JPD196609 JYZ196511:JYZ196609 KIV196511:KIV196609 KSR196511:KSR196609 LCN196511:LCN196609 LMJ196511:LMJ196609 LWF196511:LWF196609 MGB196511:MGB196609 MPX196511:MPX196609 MZT196511:MZT196609 NJP196511:NJP196609 NTL196511:NTL196609 ODH196511:ODH196609 OND196511:OND196609 OWZ196511:OWZ196609 PGV196511:PGV196609 PQR196511:PQR196609 QAN196511:QAN196609 QKJ196511:QKJ196609 QUF196511:QUF196609 REB196511:REB196609 RNX196511:RNX196609 RXT196511:RXT196609 SHP196511:SHP196609 SRL196511:SRL196609 TBH196511:TBH196609 TLD196511:TLD196609 TUZ196511:TUZ196609 UEV196511:UEV196609 UOR196511:UOR196609 UYN196511:UYN196609 VIJ196511:VIJ196609 VSF196511:VSF196609 WCB196511:WCB196609 WLX196511:WLX196609 WVT196511:WVT196609 H262047:H262145 JH262047:JH262145 TD262047:TD262145 ACZ262047:ACZ262145 AMV262047:AMV262145 AWR262047:AWR262145 BGN262047:BGN262145 BQJ262047:BQJ262145 CAF262047:CAF262145 CKB262047:CKB262145 CTX262047:CTX262145 DDT262047:DDT262145 DNP262047:DNP262145 DXL262047:DXL262145 EHH262047:EHH262145 ERD262047:ERD262145 FAZ262047:FAZ262145 FKV262047:FKV262145 FUR262047:FUR262145 GEN262047:GEN262145 GOJ262047:GOJ262145 GYF262047:GYF262145 HIB262047:HIB262145 HRX262047:HRX262145 IBT262047:IBT262145 ILP262047:ILP262145 IVL262047:IVL262145 JFH262047:JFH262145 JPD262047:JPD262145 JYZ262047:JYZ262145 KIV262047:KIV262145 KSR262047:KSR262145 LCN262047:LCN262145 LMJ262047:LMJ262145 LWF262047:LWF262145 MGB262047:MGB262145 MPX262047:MPX262145 MZT262047:MZT262145 NJP262047:NJP262145 NTL262047:NTL262145 ODH262047:ODH262145 OND262047:OND262145 OWZ262047:OWZ262145 PGV262047:PGV262145 PQR262047:PQR262145 QAN262047:QAN262145 QKJ262047:QKJ262145 QUF262047:QUF262145 REB262047:REB262145 RNX262047:RNX262145 RXT262047:RXT262145 SHP262047:SHP262145 SRL262047:SRL262145 TBH262047:TBH262145 TLD262047:TLD262145 TUZ262047:TUZ262145 UEV262047:UEV262145 UOR262047:UOR262145 UYN262047:UYN262145 VIJ262047:VIJ262145 VSF262047:VSF262145 WCB262047:WCB262145 WLX262047:WLX262145 WVT262047:WVT262145 H327583:H327681 JH327583:JH327681 TD327583:TD327681 ACZ327583:ACZ327681 AMV327583:AMV327681 AWR327583:AWR327681 BGN327583:BGN327681 BQJ327583:BQJ327681 CAF327583:CAF327681 CKB327583:CKB327681 CTX327583:CTX327681 DDT327583:DDT327681 DNP327583:DNP327681 DXL327583:DXL327681 EHH327583:EHH327681 ERD327583:ERD327681 FAZ327583:FAZ327681 FKV327583:FKV327681 FUR327583:FUR327681 GEN327583:GEN327681 GOJ327583:GOJ327681 GYF327583:GYF327681 HIB327583:HIB327681 HRX327583:HRX327681 IBT327583:IBT327681 ILP327583:ILP327681 IVL327583:IVL327681 JFH327583:JFH327681 JPD327583:JPD327681 JYZ327583:JYZ327681 KIV327583:KIV327681 KSR327583:KSR327681 LCN327583:LCN327681 LMJ327583:LMJ327681 LWF327583:LWF327681 MGB327583:MGB327681 MPX327583:MPX327681 MZT327583:MZT327681 NJP327583:NJP327681 NTL327583:NTL327681 ODH327583:ODH327681 OND327583:OND327681 OWZ327583:OWZ327681 PGV327583:PGV327681 PQR327583:PQR327681 QAN327583:QAN327681 QKJ327583:QKJ327681 QUF327583:QUF327681 REB327583:REB327681 RNX327583:RNX327681 RXT327583:RXT327681 SHP327583:SHP327681 SRL327583:SRL327681 TBH327583:TBH327681 TLD327583:TLD327681 TUZ327583:TUZ327681 UEV327583:UEV327681 UOR327583:UOR327681 UYN327583:UYN327681 VIJ327583:VIJ327681 VSF327583:VSF327681 WCB327583:WCB327681 WLX327583:WLX327681 WVT327583:WVT327681 H393119:H393217 JH393119:JH393217 TD393119:TD393217 ACZ393119:ACZ393217 AMV393119:AMV393217 AWR393119:AWR393217 BGN393119:BGN393217 BQJ393119:BQJ393217 CAF393119:CAF393217 CKB393119:CKB393217 CTX393119:CTX393217 DDT393119:DDT393217 DNP393119:DNP393217 DXL393119:DXL393217 EHH393119:EHH393217 ERD393119:ERD393217 FAZ393119:FAZ393217 FKV393119:FKV393217 FUR393119:FUR393217 GEN393119:GEN393217 GOJ393119:GOJ393217 GYF393119:GYF393217 HIB393119:HIB393217 HRX393119:HRX393217 IBT393119:IBT393217 ILP393119:ILP393217 IVL393119:IVL393217 JFH393119:JFH393217 JPD393119:JPD393217 JYZ393119:JYZ393217 KIV393119:KIV393217 KSR393119:KSR393217 LCN393119:LCN393217 LMJ393119:LMJ393217 LWF393119:LWF393217 MGB393119:MGB393217 MPX393119:MPX393217 MZT393119:MZT393217 NJP393119:NJP393217 NTL393119:NTL393217 ODH393119:ODH393217 OND393119:OND393217 OWZ393119:OWZ393217 PGV393119:PGV393217 PQR393119:PQR393217 QAN393119:QAN393217 QKJ393119:QKJ393217 QUF393119:QUF393217 REB393119:REB393217 RNX393119:RNX393217 RXT393119:RXT393217 SHP393119:SHP393217 SRL393119:SRL393217 TBH393119:TBH393217 TLD393119:TLD393217 TUZ393119:TUZ393217 UEV393119:UEV393217 UOR393119:UOR393217 UYN393119:UYN393217 VIJ393119:VIJ393217 VSF393119:VSF393217 WCB393119:WCB393217 WLX393119:WLX393217 WVT393119:WVT393217 H458655:H458753 JH458655:JH458753 TD458655:TD458753 ACZ458655:ACZ458753 AMV458655:AMV458753 AWR458655:AWR458753 BGN458655:BGN458753 BQJ458655:BQJ458753 CAF458655:CAF458753 CKB458655:CKB458753 CTX458655:CTX458753 DDT458655:DDT458753 DNP458655:DNP458753 DXL458655:DXL458753 EHH458655:EHH458753 ERD458655:ERD458753 FAZ458655:FAZ458753 FKV458655:FKV458753 FUR458655:FUR458753 GEN458655:GEN458753 GOJ458655:GOJ458753 GYF458655:GYF458753 HIB458655:HIB458753 HRX458655:HRX458753 IBT458655:IBT458753 ILP458655:ILP458753 IVL458655:IVL458753 JFH458655:JFH458753 JPD458655:JPD458753 JYZ458655:JYZ458753 KIV458655:KIV458753 KSR458655:KSR458753 LCN458655:LCN458753 LMJ458655:LMJ458753 LWF458655:LWF458753 MGB458655:MGB458753 MPX458655:MPX458753 MZT458655:MZT458753 NJP458655:NJP458753 NTL458655:NTL458753 ODH458655:ODH458753 OND458655:OND458753 OWZ458655:OWZ458753 PGV458655:PGV458753 PQR458655:PQR458753 QAN458655:QAN458753 QKJ458655:QKJ458753 QUF458655:QUF458753 REB458655:REB458753 RNX458655:RNX458753 RXT458655:RXT458753 SHP458655:SHP458753 SRL458655:SRL458753 TBH458655:TBH458753 TLD458655:TLD458753 TUZ458655:TUZ458753 UEV458655:UEV458753 UOR458655:UOR458753 UYN458655:UYN458753 VIJ458655:VIJ458753 VSF458655:VSF458753 WCB458655:WCB458753 WLX458655:WLX458753 WVT458655:WVT458753 H524191:H524289 JH524191:JH524289 TD524191:TD524289 ACZ524191:ACZ524289 AMV524191:AMV524289 AWR524191:AWR524289 BGN524191:BGN524289 BQJ524191:BQJ524289 CAF524191:CAF524289 CKB524191:CKB524289 CTX524191:CTX524289 DDT524191:DDT524289 DNP524191:DNP524289 DXL524191:DXL524289 EHH524191:EHH524289 ERD524191:ERD524289 FAZ524191:FAZ524289 FKV524191:FKV524289 FUR524191:FUR524289 GEN524191:GEN524289 GOJ524191:GOJ524289 GYF524191:GYF524289 HIB524191:HIB524289 HRX524191:HRX524289 IBT524191:IBT524289 ILP524191:ILP524289 IVL524191:IVL524289 JFH524191:JFH524289 JPD524191:JPD524289 JYZ524191:JYZ524289 KIV524191:KIV524289 KSR524191:KSR524289 LCN524191:LCN524289 LMJ524191:LMJ524289 LWF524191:LWF524289 MGB524191:MGB524289 MPX524191:MPX524289 MZT524191:MZT524289 NJP524191:NJP524289 NTL524191:NTL524289 ODH524191:ODH524289 OND524191:OND524289 OWZ524191:OWZ524289 PGV524191:PGV524289 PQR524191:PQR524289 QAN524191:QAN524289 QKJ524191:QKJ524289 QUF524191:QUF524289 REB524191:REB524289 RNX524191:RNX524289 RXT524191:RXT524289 SHP524191:SHP524289 SRL524191:SRL524289 TBH524191:TBH524289 TLD524191:TLD524289 TUZ524191:TUZ524289 UEV524191:UEV524289 UOR524191:UOR524289 UYN524191:UYN524289 VIJ524191:VIJ524289 VSF524191:VSF524289 WCB524191:WCB524289 WLX524191:WLX524289 WVT524191:WVT524289 H589727:H589825 JH589727:JH589825 TD589727:TD589825 ACZ589727:ACZ589825 AMV589727:AMV589825 AWR589727:AWR589825 BGN589727:BGN589825 BQJ589727:BQJ589825 CAF589727:CAF589825 CKB589727:CKB589825 CTX589727:CTX589825 DDT589727:DDT589825 DNP589727:DNP589825 DXL589727:DXL589825 EHH589727:EHH589825 ERD589727:ERD589825 FAZ589727:FAZ589825 FKV589727:FKV589825 FUR589727:FUR589825 GEN589727:GEN589825 GOJ589727:GOJ589825 GYF589727:GYF589825 HIB589727:HIB589825 HRX589727:HRX589825 IBT589727:IBT589825 ILP589727:ILP589825 IVL589727:IVL589825 JFH589727:JFH589825 JPD589727:JPD589825 JYZ589727:JYZ589825 KIV589727:KIV589825 KSR589727:KSR589825 LCN589727:LCN589825 LMJ589727:LMJ589825 LWF589727:LWF589825 MGB589727:MGB589825 MPX589727:MPX589825 MZT589727:MZT589825 NJP589727:NJP589825 NTL589727:NTL589825 ODH589727:ODH589825 OND589727:OND589825 OWZ589727:OWZ589825 PGV589727:PGV589825 PQR589727:PQR589825 QAN589727:QAN589825 QKJ589727:QKJ589825 QUF589727:QUF589825 REB589727:REB589825 RNX589727:RNX589825 RXT589727:RXT589825 SHP589727:SHP589825 SRL589727:SRL589825 TBH589727:TBH589825 TLD589727:TLD589825 TUZ589727:TUZ589825 UEV589727:UEV589825 UOR589727:UOR589825 UYN589727:UYN589825 VIJ589727:VIJ589825 VSF589727:VSF589825 WCB589727:WCB589825 WLX589727:WLX589825 WVT589727:WVT589825 H655263:H655361 JH655263:JH655361 TD655263:TD655361 ACZ655263:ACZ655361 AMV655263:AMV655361 AWR655263:AWR655361 BGN655263:BGN655361 BQJ655263:BQJ655361 CAF655263:CAF655361 CKB655263:CKB655361 CTX655263:CTX655361 DDT655263:DDT655361 DNP655263:DNP655361 DXL655263:DXL655361 EHH655263:EHH655361 ERD655263:ERD655361 FAZ655263:FAZ655361 FKV655263:FKV655361 FUR655263:FUR655361 GEN655263:GEN655361 GOJ655263:GOJ655361 GYF655263:GYF655361 HIB655263:HIB655361 HRX655263:HRX655361 IBT655263:IBT655361 ILP655263:ILP655361 IVL655263:IVL655361 JFH655263:JFH655361 JPD655263:JPD655361 JYZ655263:JYZ655361 KIV655263:KIV655361 KSR655263:KSR655361 LCN655263:LCN655361 LMJ655263:LMJ655361 LWF655263:LWF655361 MGB655263:MGB655361 MPX655263:MPX655361 MZT655263:MZT655361 NJP655263:NJP655361 NTL655263:NTL655361 ODH655263:ODH655361 OND655263:OND655361 OWZ655263:OWZ655361 PGV655263:PGV655361 PQR655263:PQR655361 QAN655263:QAN655361 QKJ655263:QKJ655361 QUF655263:QUF655361 REB655263:REB655361 RNX655263:RNX655361 RXT655263:RXT655361 SHP655263:SHP655361 SRL655263:SRL655361 TBH655263:TBH655361 TLD655263:TLD655361 TUZ655263:TUZ655361 UEV655263:UEV655361 UOR655263:UOR655361 UYN655263:UYN655361 VIJ655263:VIJ655361 VSF655263:VSF655361 WCB655263:WCB655361 WLX655263:WLX655361 WVT655263:WVT655361 H720799:H720897 JH720799:JH720897 TD720799:TD720897 ACZ720799:ACZ720897 AMV720799:AMV720897 AWR720799:AWR720897 BGN720799:BGN720897 BQJ720799:BQJ720897 CAF720799:CAF720897 CKB720799:CKB720897 CTX720799:CTX720897 DDT720799:DDT720897 DNP720799:DNP720897 DXL720799:DXL720897 EHH720799:EHH720897 ERD720799:ERD720897 FAZ720799:FAZ720897 FKV720799:FKV720897 FUR720799:FUR720897 GEN720799:GEN720897 GOJ720799:GOJ720897 GYF720799:GYF720897 HIB720799:HIB720897 HRX720799:HRX720897 IBT720799:IBT720897 ILP720799:ILP720897 IVL720799:IVL720897 JFH720799:JFH720897 JPD720799:JPD720897 JYZ720799:JYZ720897 KIV720799:KIV720897 KSR720799:KSR720897 LCN720799:LCN720897 LMJ720799:LMJ720897 LWF720799:LWF720897 MGB720799:MGB720897 MPX720799:MPX720897 MZT720799:MZT720897 NJP720799:NJP720897 NTL720799:NTL720897 ODH720799:ODH720897 OND720799:OND720897 OWZ720799:OWZ720897 PGV720799:PGV720897 PQR720799:PQR720897 QAN720799:QAN720897 QKJ720799:QKJ720897 QUF720799:QUF720897 REB720799:REB720897 RNX720799:RNX720897 RXT720799:RXT720897 SHP720799:SHP720897 SRL720799:SRL720897 TBH720799:TBH720897 TLD720799:TLD720897 TUZ720799:TUZ720897 UEV720799:UEV720897 UOR720799:UOR720897 UYN720799:UYN720897 VIJ720799:VIJ720897 VSF720799:VSF720897 WCB720799:WCB720897 WLX720799:WLX720897 WVT720799:WVT720897 H786335:H786433 JH786335:JH786433 TD786335:TD786433 ACZ786335:ACZ786433 AMV786335:AMV786433 AWR786335:AWR786433 BGN786335:BGN786433 BQJ786335:BQJ786433 CAF786335:CAF786433 CKB786335:CKB786433 CTX786335:CTX786433 DDT786335:DDT786433 DNP786335:DNP786433 DXL786335:DXL786433 EHH786335:EHH786433 ERD786335:ERD786433 FAZ786335:FAZ786433 FKV786335:FKV786433 FUR786335:FUR786433 GEN786335:GEN786433 GOJ786335:GOJ786433 GYF786335:GYF786433 HIB786335:HIB786433 HRX786335:HRX786433 IBT786335:IBT786433 ILP786335:ILP786433 IVL786335:IVL786433 JFH786335:JFH786433 JPD786335:JPD786433 JYZ786335:JYZ786433 KIV786335:KIV786433 KSR786335:KSR786433 LCN786335:LCN786433 LMJ786335:LMJ786433 LWF786335:LWF786433 MGB786335:MGB786433 MPX786335:MPX786433 MZT786335:MZT786433 NJP786335:NJP786433 NTL786335:NTL786433 ODH786335:ODH786433 OND786335:OND786433 OWZ786335:OWZ786433 PGV786335:PGV786433 PQR786335:PQR786433 QAN786335:QAN786433 QKJ786335:QKJ786433 QUF786335:QUF786433 REB786335:REB786433 RNX786335:RNX786433 RXT786335:RXT786433 SHP786335:SHP786433 SRL786335:SRL786433 TBH786335:TBH786433 TLD786335:TLD786433 TUZ786335:TUZ786433 UEV786335:UEV786433 UOR786335:UOR786433 UYN786335:UYN786433 VIJ786335:VIJ786433 VSF786335:VSF786433 WCB786335:WCB786433 WLX786335:WLX786433 WVT786335:WVT786433 H851871:H851969 JH851871:JH851969 TD851871:TD851969 ACZ851871:ACZ851969 AMV851871:AMV851969 AWR851871:AWR851969 BGN851871:BGN851969 BQJ851871:BQJ851969 CAF851871:CAF851969 CKB851871:CKB851969 CTX851871:CTX851969 DDT851871:DDT851969 DNP851871:DNP851969 DXL851871:DXL851969 EHH851871:EHH851969 ERD851871:ERD851969 FAZ851871:FAZ851969 FKV851871:FKV851969 FUR851871:FUR851969 GEN851871:GEN851969 GOJ851871:GOJ851969 GYF851871:GYF851969 HIB851871:HIB851969 HRX851871:HRX851969 IBT851871:IBT851969 ILP851871:ILP851969 IVL851871:IVL851969 JFH851871:JFH851969 JPD851871:JPD851969 JYZ851871:JYZ851969 KIV851871:KIV851969 KSR851871:KSR851969 LCN851871:LCN851969 LMJ851871:LMJ851969 LWF851871:LWF851969 MGB851871:MGB851969 MPX851871:MPX851969 MZT851871:MZT851969 NJP851871:NJP851969 NTL851871:NTL851969 ODH851871:ODH851969 OND851871:OND851969 OWZ851871:OWZ851969 PGV851871:PGV851969 PQR851871:PQR851969 QAN851871:QAN851969 QKJ851871:QKJ851969 QUF851871:QUF851969 REB851871:REB851969 RNX851871:RNX851969 RXT851871:RXT851969 SHP851871:SHP851969 SRL851871:SRL851969 TBH851871:TBH851969 TLD851871:TLD851969 TUZ851871:TUZ851969 UEV851871:UEV851969 UOR851871:UOR851969 UYN851871:UYN851969 VIJ851871:VIJ851969 VSF851871:VSF851969 WCB851871:WCB851969 WLX851871:WLX851969 WVT851871:WVT851969 H917407:H917505 JH917407:JH917505 TD917407:TD917505 ACZ917407:ACZ917505 AMV917407:AMV917505 AWR917407:AWR917505 BGN917407:BGN917505 BQJ917407:BQJ917505 CAF917407:CAF917505 CKB917407:CKB917505 CTX917407:CTX917505 DDT917407:DDT917505 DNP917407:DNP917505 DXL917407:DXL917505 EHH917407:EHH917505 ERD917407:ERD917505 FAZ917407:FAZ917505 FKV917407:FKV917505 FUR917407:FUR917505 GEN917407:GEN917505 GOJ917407:GOJ917505 GYF917407:GYF917505 HIB917407:HIB917505 HRX917407:HRX917505 IBT917407:IBT917505 ILP917407:ILP917505 IVL917407:IVL917505 JFH917407:JFH917505 JPD917407:JPD917505 JYZ917407:JYZ917505 KIV917407:KIV917505 KSR917407:KSR917505 LCN917407:LCN917505 LMJ917407:LMJ917505 LWF917407:LWF917505 MGB917407:MGB917505 MPX917407:MPX917505 MZT917407:MZT917505 NJP917407:NJP917505 NTL917407:NTL917505 ODH917407:ODH917505 OND917407:OND917505 OWZ917407:OWZ917505 PGV917407:PGV917505 PQR917407:PQR917505 QAN917407:QAN917505 QKJ917407:QKJ917505 QUF917407:QUF917505 REB917407:REB917505 RNX917407:RNX917505 RXT917407:RXT917505 SHP917407:SHP917505 SRL917407:SRL917505 TBH917407:TBH917505 TLD917407:TLD917505 TUZ917407:TUZ917505 UEV917407:UEV917505 UOR917407:UOR917505 UYN917407:UYN917505 VIJ917407:VIJ917505 VSF917407:VSF917505 WCB917407:WCB917505 WLX917407:WLX917505 WVT917407:WVT917505 H982943:H983041 JH982943:JH983041 TD982943:TD983041 ACZ982943:ACZ983041 AMV982943:AMV983041 AWR982943:AWR983041 BGN982943:BGN983041 BQJ982943:BQJ983041 CAF982943:CAF983041 CKB982943:CKB983041 CTX982943:CTX983041 DDT982943:DDT983041 DNP982943:DNP983041 DXL982943:DXL983041 EHH982943:EHH983041 ERD982943:ERD983041 FAZ982943:FAZ983041 FKV982943:FKV983041 FUR982943:FUR983041 GEN982943:GEN983041 GOJ982943:GOJ983041 GYF982943:GYF983041 HIB982943:HIB983041 HRX982943:HRX983041 IBT982943:IBT983041 ILP982943:ILP983041 IVL982943:IVL983041 JFH982943:JFH983041 JPD982943:JPD983041 JYZ982943:JYZ983041 KIV982943:KIV983041 KSR982943:KSR983041 LCN982943:LCN983041 LMJ982943:LMJ983041 LWF982943:LWF983041 MGB982943:MGB983041 MPX982943:MPX983041 MZT982943:MZT983041 NJP982943:NJP983041 NTL982943:NTL983041 ODH982943:ODH983041 OND982943:OND983041 OWZ982943:OWZ983041 PGV982943:PGV983041 PQR982943:PQR983041 QAN982943:QAN983041 QKJ982943:QKJ983041 QUF982943:QUF983041 REB982943:REB983041 RNX982943:RNX983041 RXT982943:RXT983041 SHP982943:SHP983041 SRL982943:SRL983041 TBH982943:TBH983041 TLD982943:TLD983041 TUZ982943:TUZ983041 UEV982943:UEV983041 UOR982943:UOR983041 UYN982943:UYN983041 VIJ982943:VIJ983041 VSF982943:VSF983041 WCB982943:WCB983041 WLX982943:WLX983041 WVT982943:WVT983041 S2:T2 JO2:JP2 TK2:TL2 ADG2:ADH2 ANC2:AND2 AWY2:AWZ2 BGU2:BGV2 BQQ2:BQR2 CAM2:CAN2 CKI2:CKJ2 CUE2:CUF2 DEA2:DEB2 DNW2:DNX2 DXS2:DXT2 EHO2:EHP2 ERK2:ERL2 FBG2:FBH2 FLC2:FLD2 FUY2:FUZ2 GEU2:GEV2 GOQ2:GOR2 GYM2:GYN2 HII2:HIJ2 HSE2:HSF2 ICA2:ICB2 ILW2:ILX2 IVS2:IVT2 JFO2:JFP2 JPK2:JPL2 JZG2:JZH2 KJC2:KJD2 KSY2:KSZ2 LCU2:LCV2 LMQ2:LMR2 LWM2:LWN2 MGI2:MGJ2 MQE2:MQF2 NAA2:NAB2 NJW2:NJX2 NTS2:NTT2 ODO2:ODP2 ONK2:ONL2 OXG2:OXH2 PHC2:PHD2 PQY2:PQZ2 QAU2:QAV2 QKQ2:QKR2 QUM2:QUN2 REI2:REJ2 ROE2:ROF2 RYA2:RYB2 SHW2:SHX2 SRS2:SRT2 TBO2:TBP2 TLK2:TLL2 TVG2:TVH2 UFC2:UFD2 UOY2:UOZ2 UYU2:UYV2 VIQ2:VIR2 VSM2:VSN2 WCI2:WCJ2 WME2:WMF2 WWA2:WWB2 S65439:T65537 JO65439:JP65537 TK65439:TL65537 ADG65439:ADH65537 ANC65439:AND65537 AWY65439:AWZ65537 BGU65439:BGV65537 BQQ65439:BQR65537 CAM65439:CAN65537 CKI65439:CKJ65537 CUE65439:CUF65537 DEA65439:DEB65537 DNW65439:DNX65537 DXS65439:DXT65537 EHO65439:EHP65537 ERK65439:ERL65537 FBG65439:FBH65537 FLC65439:FLD65537 FUY65439:FUZ65537 GEU65439:GEV65537 GOQ65439:GOR65537 GYM65439:GYN65537 HII65439:HIJ65537 HSE65439:HSF65537 ICA65439:ICB65537 ILW65439:ILX65537 IVS65439:IVT65537 JFO65439:JFP65537 JPK65439:JPL65537 JZG65439:JZH65537 KJC65439:KJD65537 KSY65439:KSZ65537 LCU65439:LCV65537 LMQ65439:LMR65537 LWM65439:LWN65537 MGI65439:MGJ65537 MQE65439:MQF65537 NAA65439:NAB65537 NJW65439:NJX65537 NTS65439:NTT65537 ODO65439:ODP65537 ONK65439:ONL65537 OXG65439:OXH65537 PHC65439:PHD65537 PQY65439:PQZ65537 QAU65439:QAV65537 QKQ65439:QKR65537 QUM65439:QUN65537 REI65439:REJ65537 ROE65439:ROF65537 RYA65439:RYB65537 SHW65439:SHX65537 SRS65439:SRT65537 TBO65439:TBP65537 TLK65439:TLL65537 TVG65439:TVH65537 UFC65439:UFD65537 UOY65439:UOZ65537 UYU65439:UYV65537 VIQ65439:VIR65537 VSM65439:VSN65537 WCI65439:WCJ65537 WME65439:WMF65537 WWA65439:WWB65537 S130975:T131073 JO130975:JP131073 TK130975:TL131073 ADG130975:ADH131073 ANC130975:AND131073 AWY130975:AWZ131073 BGU130975:BGV131073 BQQ130975:BQR131073 CAM130975:CAN131073 CKI130975:CKJ131073 CUE130975:CUF131073 DEA130975:DEB131073 DNW130975:DNX131073 DXS130975:DXT131073 EHO130975:EHP131073 ERK130975:ERL131073 FBG130975:FBH131073 FLC130975:FLD131073 FUY130975:FUZ131073 GEU130975:GEV131073 GOQ130975:GOR131073 GYM130975:GYN131073 HII130975:HIJ131073 HSE130975:HSF131073 ICA130975:ICB131073 ILW130975:ILX131073 IVS130975:IVT131073 JFO130975:JFP131073 JPK130975:JPL131073 JZG130975:JZH131073 KJC130975:KJD131073 KSY130975:KSZ131073 LCU130975:LCV131073 LMQ130975:LMR131073 LWM130975:LWN131073 MGI130975:MGJ131073 MQE130975:MQF131073 NAA130975:NAB131073 NJW130975:NJX131073 NTS130975:NTT131073 ODO130975:ODP131073 ONK130975:ONL131073 OXG130975:OXH131073 PHC130975:PHD131073 PQY130975:PQZ131073 QAU130975:QAV131073 QKQ130975:QKR131073 QUM130975:QUN131073 REI130975:REJ131073 ROE130975:ROF131073 RYA130975:RYB131073 SHW130975:SHX131073 SRS130975:SRT131073 TBO130975:TBP131073 TLK130975:TLL131073 TVG130975:TVH131073 UFC130975:UFD131073 UOY130975:UOZ131073 UYU130975:UYV131073 VIQ130975:VIR131073 VSM130975:VSN131073 WCI130975:WCJ131073 WME130975:WMF131073 WWA130975:WWB131073 S196511:T196609 JO196511:JP196609 TK196511:TL196609 ADG196511:ADH196609 ANC196511:AND196609 AWY196511:AWZ196609 BGU196511:BGV196609 BQQ196511:BQR196609 CAM196511:CAN196609 CKI196511:CKJ196609 CUE196511:CUF196609 DEA196511:DEB196609 DNW196511:DNX196609 DXS196511:DXT196609 EHO196511:EHP196609 ERK196511:ERL196609 FBG196511:FBH196609 FLC196511:FLD196609 FUY196511:FUZ196609 GEU196511:GEV196609 GOQ196511:GOR196609 GYM196511:GYN196609 HII196511:HIJ196609 HSE196511:HSF196609 ICA196511:ICB196609 ILW196511:ILX196609 IVS196511:IVT196609 JFO196511:JFP196609 JPK196511:JPL196609 JZG196511:JZH196609 KJC196511:KJD196609 KSY196511:KSZ196609 LCU196511:LCV196609 LMQ196511:LMR196609 LWM196511:LWN196609 MGI196511:MGJ196609 MQE196511:MQF196609 NAA196511:NAB196609 NJW196511:NJX196609 NTS196511:NTT196609 ODO196511:ODP196609 ONK196511:ONL196609 OXG196511:OXH196609 PHC196511:PHD196609 PQY196511:PQZ196609 QAU196511:QAV196609 QKQ196511:QKR196609 QUM196511:QUN196609 REI196511:REJ196609 ROE196511:ROF196609 RYA196511:RYB196609 SHW196511:SHX196609 SRS196511:SRT196609 TBO196511:TBP196609 TLK196511:TLL196609 TVG196511:TVH196609 UFC196511:UFD196609 UOY196511:UOZ196609 UYU196511:UYV196609 VIQ196511:VIR196609 VSM196511:VSN196609 WCI196511:WCJ196609 WME196511:WMF196609 WWA196511:WWB196609 S262047:T262145 JO262047:JP262145 TK262047:TL262145 ADG262047:ADH262145 ANC262047:AND262145 AWY262047:AWZ262145 BGU262047:BGV262145 BQQ262047:BQR262145 CAM262047:CAN262145 CKI262047:CKJ262145 CUE262047:CUF262145 DEA262047:DEB262145 DNW262047:DNX262145 DXS262047:DXT262145 EHO262047:EHP262145 ERK262047:ERL262145 FBG262047:FBH262145 FLC262047:FLD262145 FUY262047:FUZ262145 GEU262047:GEV262145 GOQ262047:GOR262145 GYM262047:GYN262145 HII262047:HIJ262145 HSE262047:HSF262145 ICA262047:ICB262145 ILW262047:ILX262145 IVS262047:IVT262145 JFO262047:JFP262145 JPK262047:JPL262145 JZG262047:JZH262145 KJC262047:KJD262145 KSY262047:KSZ262145 LCU262047:LCV262145 LMQ262047:LMR262145 LWM262047:LWN262145 MGI262047:MGJ262145 MQE262047:MQF262145 NAA262047:NAB262145 NJW262047:NJX262145 NTS262047:NTT262145 ODO262047:ODP262145 ONK262047:ONL262145 OXG262047:OXH262145 PHC262047:PHD262145 PQY262047:PQZ262145 QAU262047:QAV262145 QKQ262047:QKR262145 QUM262047:QUN262145 REI262047:REJ262145 ROE262047:ROF262145 RYA262047:RYB262145 SHW262047:SHX262145 SRS262047:SRT262145 TBO262047:TBP262145 TLK262047:TLL262145 TVG262047:TVH262145 UFC262047:UFD262145 UOY262047:UOZ262145 UYU262047:UYV262145 VIQ262047:VIR262145 VSM262047:VSN262145 WCI262047:WCJ262145 WME262047:WMF262145 WWA262047:WWB262145 S327583:T327681 JO327583:JP327681 TK327583:TL327681 ADG327583:ADH327681 ANC327583:AND327681 AWY327583:AWZ327681 BGU327583:BGV327681 BQQ327583:BQR327681 CAM327583:CAN327681 CKI327583:CKJ327681 CUE327583:CUF327681 DEA327583:DEB327681 DNW327583:DNX327681 DXS327583:DXT327681 EHO327583:EHP327681 ERK327583:ERL327681 FBG327583:FBH327681 FLC327583:FLD327681 FUY327583:FUZ327681 GEU327583:GEV327681 GOQ327583:GOR327681 GYM327583:GYN327681 HII327583:HIJ327681 HSE327583:HSF327681 ICA327583:ICB327681 ILW327583:ILX327681 IVS327583:IVT327681 JFO327583:JFP327681 JPK327583:JPL327681 JZG327583:JZH327681 KJC327583:KJD327681 KSY327583:KSZ327681 LCU327583:LCV327681 LMQ327583:LMR327681 LWM327583:LWN327681 MGI327583:MGJ327681 MQE327583:MQF327681 NAA327583:NAB327681 NJW327583:NJX327681 NTS327583:NTT327681 ODO327583:ODP327681 ONK327583:ONL327681 OXG327583:OXH327681 PHC327583:PHD327681 PQY327583:PQZ327681 QAU327583:QAV327681 QKQ327583:QKR327681 QUM327583:QUN327681 REI327583:REJ327681 ROE327583:ROF327681 RYA327583:RYB327681 SHW327583:SHX327681 SRS327583:SRT327681 TBO327583:TBP327681 TLK327583:TLL327681 TVG327583:TVH327681 UFC327583:UFD327681 UOY327583:UOZ327681 UYU327583:UYV327681 VIQ327583:VIR327681 VSM327583:VSN327681 WCI327583:WCJ327681 WME327583:WMF327681 WWA327583:WWB327681 S393119:T393217 JO393119:JP393217 TK393119:TL393217 ADG393119:ADH393217 ANC393119:AND393217 AWY393119:AWZ393217 BGU393119:BGV393217 BQQ393119:BQR393217 CAM393119:CAN393217 CKI393119:CKJ393217 CUE393119:CUF393217 DEA393119:DEB393217 DNW393119:DNX393217 DXS393119:DXT393217 EHO393119:EHP393217 ERK393119:ERL393217 FBG393119:FBH393217 FLC393119:FLD393217 FUY393119:FUZ393217 GEU393119:GEV393217 GOQ393119:GOR393217 GYM393119:GYN393217 HII393119:HIJ393217 HSE393119:HSF393217 ICA393119:ICB393217 ILW393119:ILX393217 IVS393119:IVT393217 JFO393119:JFP393217 JPK393119:JPL393217 JZG393119:JZH393217 KJC393119:KJD393217 KSY393119:KSZ393217 LCU393119:LCV393217 LMQ393119:LMR393217 LWM393119:LWN393217 MGI393119:MGJ393217 MQE393119:MQF393217 NAA393119:NAB393217 NJW393119:NJX393217 NTS393119:NTT393217 ODO393119:ODP393217 ONK393119:ONL393217 OXG393119:OXH393217 PHC393119:PHD393217 PQY393119:PQZ393217 QAU393119:QAV393217 QKQ393119:QKR393217 QUM393119:QUN393217 REI393119:REJ393217 ROE393119:ROF393217 RYA393119:RYB393217 SHW393119:SHX393217 SRS393119:SRT393217 TBO393119:TBP393217 TLK393119:TLL393217 TVG393119:TVH393217 UFC393119:UFD393217 UOY393119:UOZ393217 UYU393119:UYV393217 VIQ393119:VIR393217 VSM393119:VSN393217 WCI393119:WCJ393217 WME393119:WMF393217 WWA393119:WWB393217 S458655:T458753 JO458655:JP458753 TK458655:TL458753 ADG458655:ADH458753 ANC458655:AND458753 AWY458655:AWZ458753 BGU458655:BGV458753 BQQ458655:BQR458753 CAM458655:CAN458753 CKI458655:CKJ458753 CUE458655:CUF458753 DEA458655:DEB458753 DNW458655:DNX458753 DXS458655:DXT458753 EHO458655:EHP458753 ERK458655:ERL458753 FBG458655:FBH458753 FLC458655:FLD458753 FUY458655:FUZ458753 GEU458655:GEV458753 GOQ458655:GOR458753 GYM458655:GYN458753 HII458655:HIJ458753 HSE458655:HSF458753 ICA458655:ICB458753 ILW458655:ILX458753 IVS458655:IVT458753 JFO458655:JFP458753 JPK458655:JPL458753 JZG458655:JZH458753 KJC458655:KJD458753 KSY458655:KSZ458753 LCU458655:LCV458753 LMQ458655:LMR458753 LWM458655:LWN458753 MGI458655:MGJ458753 MQE458655:MQF458753 NAA458655:NAB458753 NJW458655:NJX458753 NTS458655:NTT458753 ODO458655:ODP458753 ONK458655:ONL458753 OXG458655:OXH458753 PHC458655:PHD458753 PQY458655:PQZ458753 QAU458655:QAV458753 QKQ458655:QKR458753 QUM458655:QUN458753 REI458655:REJ458753 ROE458655:ROF458753 RYA458655:RYB458753 SHW458655:SHX458753 SRS458655:SRT458753 TBO458655:TBP458753 TLK458655:TLL458753 TVG458655:TVH458753 UFC458655:UFD458753 UOY458655:UOZ458753 UYU458655:UYV458753 VIQ458655:VIR458753 VSM458655:VSN458753 WCI458655:WCJ458753 WME458655:WMF458753 WWA458655:WWB458753 S524191:T524289 JO524191:JP524289 TK524191:TL524289 ADG524191:ADH524289 ANC524191:AND524289 AWY524191:AWZ524289 BGU524191:BGV524289 BQQ524191:BQR524289 CAM524191:CAN524289 CKI524191:CKJ524289 CUE524191:CUF524289 DEA524191:DEB524289 DNW524191:DNX524289 DXS524191:DXT524289 EHO524191:EHP524289 ERK524191:ERL524289 FBG524191:FBH524289 FLC524191:FLD524289 FUY524191:FUZ524289 GEU524191:GEV524289 GOQ524191:GOR524289 GYM524191:GYN524289 HII524191:HIJ524289 HSE524191:HSF524289 ICA524191:ICB524289 ILW524191:ILX524289 IVS524191:IVT524289 JFO524191:JFP524289 JPK524191:JPL524289 JZG524191:JZH524289 KJC524191:KJD524289 KSY524191:KSZ524289 LCU524191:LCV524289 LMQ524191:LMR524289 LWM524191:LWN524289 MGI524191:MGJ524289 MQE524191:MQF524289 NAA524191:NAB524289 NJW524191:NJX524289 NTS524191:NTT524289 ODO524191:ODP524289 ONK524191:ONL524289 OXG524191:OXH524289 PHC524191:PHD524289 PQY524191:PQZ524289 QAU524191:QAV524289 QKQ524191:QKR524289 QUM524191:QUN524289 REI524191:REJ524289 ROE524191:ROF524289 RYA524191:RYB524289 SHW524191:SHX524289 SRS524191:SRT524289 TBO524191:TBP524289 TLK524191:TLL524289 TVG524191:TVH524289 UFC524191:UFD524289 UOY524191:UOZ524289 UYU524191:UYV524289 VIQ524191:VIR524289 VSM524191:VSN524289 WCI524191:WCJ524289 WME524191:WMF524289 WWA524191:WWB524289 S589727:T589825 JO589727:JP589825 TK589727:TL589825 ADG589727:ADH589825 ANC589727:AND589825 AWY589727:AWZ589825 BGU589727:BGV589825 BQQ589727:BQR589825 CAM589727:CAN589825 CKI589727:CKJ589825 CUE589727:CUF589825 DEA589727:DEB589825 DNW589727:DNX589825 DXS589727:DXT589825 EHO589727:EHP589825 ERK589727:ERL589825 FBG589727:FBH589825 FLC589727:FLD589825 FUY589727:FUZ589825 GEU589727:GEV589825 GOQ589727:GOR589825 GYM589727:GYN589825 HII589727:HIJ589825 HSE589727:HSF589825 ICA589727:ICB589825 ILW589727:ILX589825 IVS589727:IVT589825 JFO589727:JFP589825 JPK589727:JPL589825 JZG589727:JZH589825 KJC589727:KJD589825 KSY589727:KSZ589825 LCU589727:LCV589825 LMQ589727:LMR589825 LWM589727:LWN589825 MGI589727:MGJ589825 MQE589727:MQF589825 NAA589727:NAB589825 NJW589727:NJX589825 NTS589727:NTT589825 ODO589727:ODP589825 ONK589727:ONL589825 OXG589727:OXH589825 PHC589727:PHD589825 PQY589727:PQZ589825 QAU589727:QAV589825 QKQ589727:QKR589825 QUM589727:QUN589825 REI589727:REJ589825 ROE589727:ROF589825 RYA589727:RYB589825 SHW589727:SHX589825 SRS589727:SRT589825 TBO589727:TBP589825 TLK589727:TLL589825 TVG589727:TVH589825 UFC589727:UFD589825 UOY589727:UOZ589825 UYU589727:UYV589825 VIQ589727:VIR589825 VSM589727:VSN589825 WCI589727:WCJ589825 WME589727:WMF589825 WWA589727:WWB589825 S655263:T655361 JO655263:JP655361 TK655263:TL655361 ADG655263:ADH655361 ANC655263:AND655361 AWY655263:AWZ655361 BGU655263:BGV655361 BQQ655263:BQR655361 CAM655263:CAN655361 CKI655263:CKJ655361 CUE655263:CUF655361 DEA655263:DEB655361 DNW655263:DNX655361 DXS655263:DXT655361 EHO655263:EHP655361 ERK655263:ERL655361 FBG655263:FBH655361 FLC655263:FLD655361 FUY655263:FUZ655361 GEU655263:GEV655361 GOQ655263:GOR655361 GYM655263:GYN655361 HII655263:HIJ655361 HSE655263:HSF655361 ICA655263:ICB655361 ILW655263:ILX655361 IVS655263:IVT655361 JFO655263:JFP655361 JPK655263:JPL655361 JZG655263:JZH655361 KJC655263:KJD655361 KSY655263:KSZ655361 LCU655263:LCV655361 LMQ655263:LMR655361 LWM655263:LWN655361 MGI655263:MGJ655361 MQE655263:MQF655361 NAA655263:NAB655361 NJW655263:NJX655361 NTS655263:NTT655361 ODO655263:ODP655361 ONK655263:ONL655361 OXG655263:OXH655361 PHC655263:PHD655361 PQY655263:PQZ655361 QAU655263:QAV655361 QKQ655263:QKR655361 QUM655263:QUN655361 REI655263:REJ655361 ROE655263:ROF655361 RYA655263:RYB655361 SHW655263:SHX655361 SRS655263:SRT655361 TBO655263:TBP655361 TLK655263:TLL655361 TVG655263:TVH655361 UFC655263:UFD655361 UOY655263:UOZ655361 UYU655263:UYV655361 VIQ655263:VIR655361 VSM655263:VSN655361 WCI655263:WCJ655361 WME655263:WMF655361 WWA655263:WWB655361 S720799:T720897 JO720799:JP720897 TK720799:TL720897 ADG720799:ADH720897 ANC720799:AND720897 AWY720799:AWZ720897 BGU720799:BGV720897 BQQ720799:BQR720897 CAM720799:CAN720897 CKI720799:CKJ720897 CUE720799:CUF720897 DEA720799:DEB720897 DNW720799:DNX720897 DXS720799:DXT720897 EHO720799:EHP720897 ERK720799:ERL720897 FBG720799:FBH720897 FLC720799:FLD720897 FUY720799:FUZ720897 GEU720799:GEV720897 GOQ720799:GOR720897 GYM720799:GYN720897 HII720799:HIJ720897 HSE720799:HSF720897 ICA720799:ICB720897 ILW720799:ILX720897 IVS720799:IVT720897 JFO720799:JFP720897 JPK720799:JPL720897 JZG720799:JZH720897 KJC720799:KJD720897 KSY720799:KSZ720897 LCU720799:LCV720897 LMQ720799:LMR720897 LWM720799:LWN720897 MGI720799:MGJ720897 MQE720799:MQF720897 NAA720799:NAB720897 NJW720799:NJX720897 NTS720799:NTT720897 ODO720799:ODP720897 ONK720799:ONL720897 OXG720799:OXH720897 PHC720799:PHD720897 PQY720799:PQZ720897 QAU720799:QAV720897 QKQ720799:QKR720897 QUM720799:QUN720897 REI720799:REJ720897 ROE720799:ROF720897 RYA720799:RYB720897 SHW720799:SHX720897 SRS720799:SRT720897 TBO720799:TBP720897 TLK720799:TLL720897 TVG720799:TVH720897 UFC720799:UFD720897 UOY720799:UOZ720897 UYU720799:UYV720897 VIQ720799:VIR720897 VSM720799:VSN720897 WCI720799:WCJ720897 WME720799:WMF720897 WWA720799:WWB720897 S786335:T786433 JO786335:JP786433 TK786335:TL786433 ADG786335:ADH786433 ANC786335:AND786433 AWY786335:AWZ786433 BGU786335:BGV786433 BQQ786335:BQR786433 CAM786335:CAN786433 CKI786335:CKJ786433 CUE786335:CUF786433 DEA786335:DEB786433 DNW786335:DNX786433 DXS786335:DXT786433 EHO786335:EHP786433 ERK786335:ERL786433 FBG786335:FBH786433 FLC786335:FLD786433 FUY786335:FUZ786433 GEU786335:GEV786433 GOQ786335:GOR786433 GYM786335:GYN786433 HII786335:HIJ786433 HSE786335:HSF786433 ICA786335:ICB786433 ILW786335:ILX786433 IVS786335:IVT786433 JFO786335:JFP786433 JPK786335:JPL786433 JZG786335:JZH786433 KJC786335:KJD786433 KSY786335:KSZ786433 LCU786335:LCV786433 LMQ786335:LMR786433 LWM786335:LWN786433 MGI786335:MGJ786433 MQE786335:MQF786433 NAA786335:NAB786433 NJW786335:NJX786433 NTS786335:NTT786433 ODO786335:ODP786433 ONK786335:ONL786433 OXG786335:OXH786433 PHC786335:PHD786433 PQY786335:PQZ786433 QAU786335:QAV786433 QKQ786335:QKR786433 QUM786335:QUN786433 REI786335:REJ786433 ROE786335:ROF786433 RYA786335:RYB786433 SHW786335:SHX786433 SRS786335:SRT786433 TBO786335:TBP786433 TLK786335:TLL786433 TVG786335:TVH786433 UFC786335:UFD786433 UOY786335:UOZ786433 UYU786335:UYV786433 VIQ786335:VIR786433 VSM786335:VSN786433 WCI786335:WCJ786433 WME786335:WMF786433 WWA786335:WWB786433 S851871:T851969 JO851871:JP851969 TK851871:TL851969 ADG851871:ADH851969 ANC851871:AND851969 AWY851871:AWZ851969 BGU851871:BGV851969 BQQ851871:BQR851969 CAM851871:CAN851969 CKI851871:CKJ851969 CUE851871:CUF851969 DEA851871:DEB851969 DNW851871:DNX851969 DXS851871:DXT851969 EHO851871:EHP851969 ERK851871:ERL851969 FBG851871:FBH851969 FLC851871:FLD851969 FUY851871:FUZ851969 GEU851871:GEV851969 GOQ851871:GOR851969 GYM851871:GYN851969 HII851871:HIJ851969 HSE851871:HSF851969 ICA851871:ICB851969 ILW851871:ILX851969 IVS851871:IVT851969 JFO851871:JFP851969 JPK851871:JPL851969 JZG851871:JZH851969 KJC851871:KJD851969 KSY851871:KSZ851969 LCU851871:LCV851969 LMQ851871:LMR851969 LWM851871:LWN851969 MGI851871:MGJ851969 MQE851871:MQF851969 NAA851871:NAB851969 NJW851871:NJX851969 NTS851871:NTT851969 ODO851871:ODP851969 ONK851871:ONL851969 OXG851871:OXH851969 PHC851871:PHD851969 PQY851871:PQZ851969 QAU851871:QAV851969 QKQ851871:QKR851969 QUM851871:QUN851969 REI851871:REJ851969 ROE851871:ROF851969 RYA851871:RYB851969 SHW851871:SHX851969 SRS851871:SRT851969 TBO851871:TBP851969 TLK851871:TLL851969 TVG851871:TVH851969 UFC851871:UFD851969 UOY851871:UOZ851969 UYU851871:UYV851969 VIQ851871:VIR851969 VSM851871:VSN851969 WCI851871:WCJ851969 WME851871:WMF851969 WWA851871:WWB851969 S917407:T917505 JO917407:JP917505 TK917407:TL917505 ADG917407:ADH917505 ANC917407:AND917505 AWY917407:AWZ917505 BGU917407:BGV917505 BQQ917407:BQR917505 CAM917407:CAN917505 CKI917407:CKJ917505 CUE917407:CUF917505 DEA917407:DEB917505 DNW917407:DNX917505 DXS917407:DXT917505 EHO917407:EHP917505 ERK917407:ERL917505 FBG917407:FBH917505 FLC917407:FLD917505 FUY917407:FUZ917505 GEU917407:GEV917505 GOQ917407:GOR917505 GYM917407:GYN917505 HII917407:HIJ917505 HSE917407:HSF917505 ICA917407:ICB917505 ILW917407:ILX917505 IVS917407:IVT917505 JFO917407:JFP917505 JPK917407:JPL917505 JZG917407:JZH917505 KJC917407:KJD917505 KSY917407:KSZ917505 LCU917407:LCV917505 LMQ917407:LMR917505 LWM917407:LWN917505 MGI917407:MGJ917505 MQE917407:MQF917505 NAA917407:NAB917505 NJW917407:NJX917505 NTS917407:NTT917505 ODO917407:ODP917505 ONK917407:ONL917505 OXG917407:OXH917505 PHC917407:PHD917505 PQY917407:PQZ917505 QAU917407:QAV917505 QKQ917407:QKR917505 QUM917407:QUN917505 REI917407:REJ917505 ROE917407:ROF917505 RYA917407:RYB917505 SHW917407:SHX917505 SRS917407:SRT917505 TBO917407:TBP917505 TLK917407:TLL917505 TVG917407:TVH917505 UFC917407:UFD917505 UOY917407:UOZ917505 UYU917407:UYV917505 VIQ917407:VIR917505 VSM917407:VSN917505 WCI917407:WCJ917505 WME917407:WMF917505 WWA917407:WWB917505 S982943:T983041 JO982943:JP983041 TK982943:TL983041 ADG982943:ADH983041 ANC982943:AND983041 AWY982943:AWZ983041 BGU982943:BGV983041 BQQ982943:BQR983041 CAM982943:CAN983041 CKI982943:CKJ983041 CUE982943:CUF983041 DEA982943:DEB983041 DNW982943:DNX983041 DXS982943:DXT983041 EHO982943:EHP983041 ERK982943:ERL983041 FBG982943:FBH983041 FLC982943:FLD983041 FUY982943:FUZ983041 GEU982943:GEV983041 GOQ982943:GOR983041 GYM982943:GYN983041 HII982943:HIJ983041 HSE982943:HSF983041 ICA982943:ICB983041 ILW982943:ILX983041 IVS982943:IVT983041 JFO982943:JFP983041 JPK982943:JPL983041 JZG982943:JZH983041 KJC982943:KJD983041 KSY982943:KSZ983041 LCU982943:LCV983041 LMQ982943:LMR983041 LWM982943:LWN983041 MGI982943:MGJ983041 MQE982943:MQF983041 NAA982943:NAB983041 NJW982943:NJX983041 NTS982943:NTT983041 ODO982943:ODP983041 ONK982943:ONL983041 OXG982943:OXH983041 PHC982943:PHD983041 PQY982943:PQZ983041 QAU982943:QAV983041 QKQ982943:QKR983041 QUM982943:QUN983041 REI982943:REJ983041 ROE982943:ROF983041 RYA982943:RYB983041 SHW982943:SHX983041 SRS982943:SRT983041 TBO982943:TBP983041 TLK982943:TLL983041 TVG982943:TVH983041 UFC982943:UFD983041 UOY982943:UOZ983041 UYU982943:UYV983041 VIQ982943:VIR983041 VSM982943:VSN983041 WCI982943:WCJ983041 WME982943:WMF983041 WWA982943:WWB983041" xr:uid="{B2CEB740-DE4B-4C74-923F-4FEC70D80D59}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 JH2:JI2 TD2:TE2 ACZ2:ADA2 AMV2:AMW2 AWR2:AWS2 BGN2:BGO2 BQJ2:BQK2 CAF2:CAG2 CKB2:CKC2 CTX2:CTY2 DDT2:DDU2 DNP2:DNQ2 DXL2:DXM2 EHH2:EHI2 ERD2:ERE2 FAZ2:FBA2 FKV2:FKW2 FUR2:FUS2 GEN2:GEO2 GOJ2:GOK2 GYF2:GYG2 HIB2:HIC2 HRX2:HRY2 IBT2:IBU2 ILP2:ILQ2 IVL2:IVM2 JFH2:JFI2 JPD2:JPE2 JYZ2:JZA2 KIV2:KIW2 KSR2:KSS2 LCN2:LCO2 LMJ2:LMK2 LWF2:LWG2 MGB2:MGC2 MPX2:MPY2 MZT2:MZU2 NJP2:NJQ2 NTL2:NTM2 ODH2:ODI2 OND2:ONE2 OWZ2:OXA2 PGV2:PGW2 PQR2:PQS2 QAN2:QAO2 QKJ2:QKK2 QUF2:QUG2 REB2:REC2 RNX2:RNY2 RXT2:RXU2 SHP2:SHQ2 SRL2:SRM2 TBH2:TBI2 TLD2:TLE2 TUZ2:TVA2 UEV2:UEW2 UOR2:UOS2 UYN2:UYO2 VIJ2:VIK2 VSF2:VSG2 WCB2:WCC2 WLX2:WLY2 WVT2:WVU2 B65439:C65537 JH65439:JI65537 TD65439:TE65537 ACZ65439:ADA65537 AMV65439:AMW65537 AWR65439:AWS65537 BGN65439:BGO65537 BQJ65439:BQK65537 CAF65439:CAG65537 CKB65439:CKC65537 CTX65439:CTY65537 DDT65439:DDU65537 DNP65439:DNQ65537 DXL65439:DXM65537 EHH65439:EHI65537 ERD65439:ERE65537 FAZ65439:FBA65537 FKV65439:FKW65537 FUR65439:FUS65537 GEN65439:GEO65537 GOJ65439:GOK65537 GYF65439:GYG65537 HIB65439:HIC65537 HRX65439:HRY65537 IBT65439:IBU65537 ILP65439:ILQ65537 IVL65439:IVM65537 JFH65439:JFI65537 JPD65439:JPE65537 JYZ65439:JZA65537 KIV65439:KIW65537 KSR65439:KSS65537 LCN65439:LCO65537 LMJ65439:LMK65537 LWF65439:LWG65537 MGB65439:MGC65537 MPX65439:MPY65537 MZT65439:MZU65537 NJP65439:NJQ65537 NTL65439:NTM65537 ODH65439:ODI65537 OND65439:ONE65537 OWZ65439:OXA65537 PGV65439:PGW65537 PQR65439:PQS65537 QAN65439:QAO65537 QKJ65439:QKK65537 QUF65439:QUG65537 REB65439:REC65537 RNX65439:RNY65537 RXT65439:RXU65537 SHP65439:SHQ65537 SRL65439:SRM65537 TBH65439:TBI65537 TLD65439:TLE65537 TUZ65439:TVA65537 UEV65439:UEW65537 UOR65439:UOS65537 UYN65439:UYO65537 VIJ65439:VIK65537 VSF65439:VSG65537 WCB65439:WCC65537 WLX65439:WLY65537 WVT65439:WVU65537 B130975:C131073 JH130975:JI131073 TD130975:TE131073 ACZ130975:ADA131073 AMV130975:AMW131073 AWR130975:AWS131073 BGN130975:BGO131073 BQJ130975:BQK131073 CAF130975:CAG131073 CKB130975:CKC131073 CTX130975:CTY131073 DDT130975:DDU131073 DNP130975:DNQ131073 DXL130975:DXM131073 EHH130975:EHI131073 ERD130975:ERE131073 FAZ130975:FBA131073 FKV130975:FKW131073 FUR130975:FUS131073 GEN130975:GEO131073 GOJ130975:GOK131073 GYF130975:GYG131073 HIB130975:HIC131073 HRX130975:HRY131073 IBT130975:IBU131073 ILP130975:ILQ131073 IVL130975:IVM131073 JFH130975:JFI131073 JPD130975:JPE131073 JYZ130975:JZA131073 KIV130975:KIW131073 KSR130975:KSS131073 LCN130975:LCO131073 LMJ130975:LMK131073 LWF130975:LWG131073 MGB130975:MGC131073 MPX130975:MPY131073 MZT130975:MZU131073 NJP130975:NJQ131073 NTL130975:NTM131073 ODH130975:ODI131073 OND130975:ONE131073 OWZ130975:OXA131073 PGV130975:PGW131073 PQR130975:PQS131073 QAN130975:QAO131073 QKJ130975:QKK131073 QUF130975:QUG131073 REB130975:REC131073 RNX130975:RNY131073 RXT130975:RXU131073 SHP130975:SHQ131073 SRL130975:SRM131073 TBH130975:TBI131073 TLD130975:TLE131073 TUZ130975:TVA131073 UEV130975:UEW131073 UOR130975:UOS131073 UYN130975:UYO131073 VIJ130975:VIK131073 VSF130975:VSG131073 WCB130975:WCC131073 WLX130975:WLY131073 WVT130975:WVU131073 B196511:C196609 JH196511:JI196609 TD196511:TE196609 ACZ196511:ADA196609 AMV196511:AMW196609 AWR196511:AWS196609 BGN196511:BGO196609 BQJ196511:BQK196609 CAF196511:CAG196609 CKB196511:CKC196609 CTX196511:CTY196609 DDT196511:DDU196609 DNP196511:DNQ196609 DXL196511:DXM196609 EHH196511:EHI196609 ERD196511:ERE196609 FAZ196511:FBA196609 FKV196511:FKW196609 FUR196511:FUS196609 GEN196511:GEO196609 GOJ196511:GOK196609 GYF196511:GYG196609 HIB196511:HIC196609 HRX196511:HRY196609 IBT196511:IBU196609 ILP196511:ILQ196609 IVL196511:IVM196609 JFH196511:JFI196609 JPD196511:JPE196609 JYZ196511:JZA196609 KIV196511:KIW196609 KSR196511:KSS196609 LCN196511:LCO196609 LMJ196511:LMK196609 LWF196511:LWG196609 MGB196511:MGC196609 MPX196511:MPY196609 MZT196511:MZU196609 NJP196511:NJQ196609 NTL196511:NTM196609 ODH196511:ODI196609 OND196511:ONE196609 OWZ196511:OXA196609 PGV196511:PGW196609 PQR196511:PQS196609 QAN196511:QAO196609 QKJ196511:QKK196609 QUF196511:QUG196609 REB196511:REC196609 RNX196511:RNY196609 RXT196511:RXU196609 SHP196511:SHQ196609 SRL196511:SRM196609 TBH196511:TBI196609 TLD196511:TLE196609 TUZ196511:TVA196609 UEV196511:UEW196609 UOR196511:UOS196609 UYN196511:UYO196609 VIJ196511:VIK196609 VSF196511:VSG196609 WCB196511:WCC196609 WLX196511:WLY196609 WVT196511:WVU196609 B262047:C262145 JH262047:JI262145 TD262047:TE262145 ACZ262047:ADA262145 AMV262047:AMW262145 AWR262047:AWS262145 BGN262047:BGO262145 BQJ262047:BQK262145 CAF262047:CAG262145 CKB262047:CKC262145 CTX262047:CTY262145 DDT262047:DDU262145 DNP262047:DNQ262145 DXL262047:DXM262145 EHH262047:EHI262145 ERD262047:ERE262145 FAZ262047:FBA262145 FKV262047:FKW262145 FUR262047:FUS262145 GEN262047:GEO262145 GOJ262047:GOK262145 GYF262047:GYG262145 HIB262047:HIC262145 HRX262047:HRY262145 IBT262047:IBU262145 ILP262047:ILQ262145 IVL262047:IVM262145 JFH262047:JFI262145 JPD262047:JPE262145 JYZ262047:JZA262145 KIV262047:KIW262145 KSR262047:KSS262145 LCN262047:LCO262145 LMJ262047:LMK262145 LWF262047:LWG262145 MGB262047:MGC262145 MPX262047:MPY262145 MZT262047:MZU262145 NJP262047:NJQ262145 NTL262047:NTM262145 ODH262047:ODI262145 OND262047:ONE262145 OWZ262047:OXA262145 PGV262047:PGW262145 PQR262047:PQS262145 QAN262047:QAO262145 QKJ262047:QKK262145 QUF262047:QUG262145 REB262047:REC262145 RNX262047:RNY262145 RXT262047:RXU262145 SHP262047:SHQ262145 SRL262047:SRM262145 TBH262047:TBI262145 TLD262047:TLE262145 TUZ262047:TVA262145 UEV262047:UEW262145 UOR262047:UOS262145 UYN262047:UYO262145 VIJ262047:VIK262145 VSF262047:VSG262145 WCB262047:WCC262145 WLX262047:WLY262145 WVT262047:WVU262145 B327583:C327681 JH327583:JI327681 TD327583:TE327681 ACZ327583:ADA327681 AMV327583:AMW327681 AWR327583:AWS327681 BGN327583:BGO327681 BQJ327583:BQK327681 CAF327583:CAG327681 CKB327583:CKC327681 CTX327583:CTY327681 DDT327583:DDU327681 DNP327583:DNQ327681 DXL327583:DXM327681 EHH327583:EHI327681 ERD327583:ERE327681 FAZ327583:FBA327681 FKV327583:FKW327681 FUR327583:FUS327681 GEN327583:GEO327681 GOJ327583:GOK327681 GYF327583:GYG327681 HIB327583:HIC327681 HRX327583:HRY327681 IBT327583:IBU327681 ILP327583:ILQ327681 IVL327583:IVM327681 JFH327583:JFI327681 JPD327583:JPE327681 JYZ327583:JZA327681 KIV327583:KIW327681 KSR327583:KSS327681 LCN327583:LCO327681 LMJ327583:LMK327681 LWF327583:LWG327681 MGB327583:MGC327681 MPX327583:MPY327681 MZT327583:MZU327681 NJP327583:NJQ327681 NTL327583:NTM327681 ODH327583:ODI327681 OND327583:ONE327681 OWZ327583:OXA327681 PGV327583:PGW327681 PQR327583:PQS327681 QAN327583:QAO327681 QKJ327583:QKK327681 QUF327583:QUG327681 REB327583:REC327681 RNX327583:RNY327681 RXT327583:RXU327681 SHP327583:SHQ327681 SRL327583:SRM327681 TBH327583:TBI327681 TLD327583:TLE327681 TUZ327583:TVA327681 UEV327583:UEW327681 UOR327583:UOS327681 UYN327583:UYO327681 VIJ327583:VIK327681 VSF327583:VSG327681 WCB327583:WCC327681 WLX327583:WLY327681 WVT327583:WVU327681 B393119:C393217 JH393119:JI393217 TD393119:TE393217 ACZ393119:ADA393217 AMV393119:AMW393217 AWR393119:AWS393217 BGN393119:BGO393217 BQJ393119:BQK393217 CAF393119:CAG393217 CKB393119:CKC393217 CTX393119:CTY393217 DDT393119:DDU393217 DNP393119:DNQ393217 DXL393119:DXM393217 EHH393119:EHI393217 ERD393119:ERE393217 FAZ393119:FBA393217 FKV393119:FKW393217 FUR393119:FUS393217 GEN393119:GEO393217 GOJ393119:GOK393217 GYF393119:GYG393217 HIB393119:HIC393217 HRX393119:HRY393217 IBT393119:IBU393217 ILP393119:ILQ393217 IVL393119:IVM393217 JFH393119:JFI393217 JPD393119:JPE393217 JYZ393119:JZA393217 KIV393119:KIW393217 KSR393119:KSS393217 LCN393119:LCO393217 LMJ393119:LMK393217 LWF393119:LWG393217 MGB393119:MGC393217 MPX393119:MPY393217 MZT393119:MZU393217 NJP393119:NJQ393217 NTL393119:NTM393217 ODH393119:ODI393217 OND393119:ONE393217 OWZ393119:OXA393217 PGV393119:PGW393217 PQR393119:PQS393217 QAN393119:QAO393217 QKJ393119:QKK393217 QUF393119:QUG393217 REB393119:REC393217 RNX393119:RNY393217 RXT393119:RXU393217 SHP393119:SHQ393217 SRL393119:SRM393217 TBH393119:TBI393217 TLD393119:TLE393217 TUZ393119:TVA393217 UEV393119:UEW393217 UOR393119:UOS393217 UYN393119:UYO393217 VIJ393119:VIK393217 VSF393119:VSG393217 WCB393119:WCC393217 WLX393119:WLY393217 WVT393119:WVU393217 B458655:C458753 JH458655:JI458753 TD458655:TE458753 ACZ458655:ADA458753 AMV458655:AMW458753 AWR458655:AWS458753 BGN458655:BGO458753 BQJ458655:BQK458753 CAF458655:CAG458753 CKB458655:CKC458753 CTX458655:CTY458753 DDT458655:DDU458753 DNP458655:DNQ458753 DXL458655:DXM458753 EHH458655:EHI458753 ERD458655:ERE458753 FAZ458655:FBA458753 FKV458655:FKW458753 FUR458655:FUS458753 GEN458655:GEO458753 GOJ458655:GOK458753 GYF458655:GYG458753 HIB458655:HIC458753 HRX458655:HRY458753 IBT458655:IBU458753 ILP458655:ILQ458753 IVL458655:IVM458753 JFH458655:JFI458753 JPD458655:JPE458753 JYZ458655:JZA458753 KIV458655:KIW458753 KSR458655:KSS458753 LCN458655:LCO458753 LMJ458655:LMK458753 LWF458655:LWG458753 MGB458655:MGC458753 MPX458655:MPY458753 MZT458655:MZU458753 NJP458655:NJQ458753 NTL458655:NTM458753 ODH458655:ODI458753 OND458655:ONE458753 OWZ458655:OXA458753 PGV458655:PGW458753 PQR458655:PQS458753 QAN458655:QAO458753 QKJ458655:QKK458753 QUF458655:QUG458753 REB458655:REC458753 RNX458655:RNY458753 RXT458655:RXU458753 SHP458655:SHQ458753 SRL458655:SRM458753 TBH458655:TBI458753 TLD458655:TLE458753 TUZ458655:TVA458753 UEV458655:UEW458753 UOR458655:UOS458753 UYN458655:UYO458753 VIJ458655:VIK458753 VSF458655:VSG458753 WCB458655:WCC458753 WLX458655:WLY458753 WVT458655:WVU458753 B524191:C524289 JH524191:JI524289 TD524191:TE524289 ACZ524191:ADA524289 AMV524191:AMW524289 AWR524191:AWS524289 BGN524191:BGO524289 BQJ524191:BQK524289 CAF524191:CAG524289 CKB524191:CKC524289 CTX524191:CTY524289 DDT524191:DDU524289 DNP524191:DNQ524289 DXL524191:DXM524289 EHH524191:EHI524289 ERD524191:ERE524289 FAZ524191:FBA524289 FKV524191:FKW524289 FUR524191:FUS524289 GEN524191:GEO524289 GOJ524191:GOK524289 GYF524191:GYG524289 HIB524191:HIC524289 HRX524191:HRY524289 IBT524191:IBU524289 ILP524191:ILQ524289 IVL524191:IVM524289 JFH524191:JFI524289 JPD524191:JPE524289 JYZ524191:JZA524289 KIV524191:KIW524289 KSR524191:KSS524289 LCN524191:LCO524289 LMJ524191:LMK524289 LWF524191:LWG524289 MGB524191:MGC524289 MPX524191:MPY524289 MZT524191:MZU524289 NJP524191:NJQ524289 NTL524191:NTM524289 ODH524191:ODI524289 OND524191:ONE524289 OWZ524191:OXA524289 PGV524191:PGW524289 PQR524191:PQS524289 QAN524191:QAO524289 QKJ524191:QKK524289 QUF524191:QUG524289 REB524191:REC524289 RNX524191:RNY524289 RXT524191:RXU524289 SHP524191:SHQ524289 SRL524191:SRM524289 TBH524191:TBI524289 TLD524191:TLE524289 TUZ524191:TVA524289 UEV524191:UEW524289 UOR524191:UOS524289 UYN524191:UYO524289 VIJ524191:VIK524289 VSF524191:VSG524289 WCB524191:WCC524289 WLX524191:WLY524289 WVT524191:WVU524289 B589727:C589825 JH589727:JI589825 TD589727:TE589825 ACZ589727:ADA589825 AMV589727:AMW589825 AWR589727:AWS589825 BGN589727:BGO589825 BQJ589727:BQK589825 CAF589727:CAG589825 CKB589727:CKC589825 CTX589727:CTY589825 DDT589727:DDU589825 DNP589727:DNQ589825 DXL589727:DXM589825 EHH589727:EHI589825 ERD589727:ERE589825 FAZ589727:FBA589825 FKV589727:FKW589825 FUR589727:FUS589825 GEN589727:GEO589825 GOJ589727:GOK589825 GYF589727:GYG589825 HIB589727:HIC589825 HRX589727:HRY589825 IBT589727:IBU589825 ILP589727:ILQ589825 IVL589727:IVM589825 JFH589727:JFI589825 JPD589727:JPE589825 JYZ589727:JZA589825 KIV589727:KIW589825 KSR589727:KSS589825 LCN589727:LCO589825 LMJ589727:LMK589825 LWF589727:LWG589825 MGB589727:MGC589825 MPX589727:MPY589825 MZT589727:MZU589825 NJP589727:NJQ589825 NTL589727:NTM589825 ODH589727:ODI589825 OND589727:ONE589825 OWZ589727:OXA589825 PGV589727:PGW589825 PQR589727:PQS589825 QAN589727:QAO589825 QKJ589727:QKK589825 QUF589727:QUG589825 REB589727:REC589825 RNX589727:RNY589825 RXT589727:RXU589825 SHP589727:SHQ589825 SRL589727:SRM589825 TBH589727:TBI589825 TLD589727:TLE589825 TUZ589727:TVA589825 UEV589727:UEW589825 UOR589727:UOS589825 UYN589727:UYO589825 VIJ589727:VIK589825 VSF589727:VSG589825 WCB589727:WCC589825 WLX589727:WLY589825 WVT589727:WVU589825 B655263:C655361 JH655263:JI655361 TD655263:TE655361 ACZ655263:ADA655361 AMV655263:AMW655361 AWR655263:AWS655361 BGN655263:BGO655361 BQJ655263:BQK655361 CAF655263:CAG655361 CKB655263:CKC655361 CTX655263:CTY655361 DDT655263:DDU655361 DNP655263:DNQ655361 DXL655263:DXM655361 EHH655263:EHI655361 ERD655263:ERE655361 FAZ655263:FBA655361 FKV655263:FKW655361 FUR655263:FUS655361 GEN655263:GEO655361 GOJ655263:GOK655361 GYF655263:GYG655361 HIB655263:HIC655361 HRX655263:HRY655361 IBT655263:IBU655361 ILP655263:ILQ655361 IVL655263:IVM655361 JFH655263:JFI655361 JPD655263:JPE655361 JYZ655263:JZA655361 KIV655263:KIW655361 KSR655263:KSS655361 LCN655263:LCO655361 LMJ655263:LMK655361 LWF655263:LWG655361 MGB655263:MGC655361 MPX655263:MPY655361 MZT655263:MZU655361 NJP655263:NJQ655361 NTL655263:NTM655361 ODH655263:ODI655361 OND655263:ONE655361 OWZ655263:OXA655361 PGV655263:PGW655361 PQR655263:PQS655361 QAN655263:QAO655361 QKJ655263:QKK655361 QUF655263:QUG655361 REB655263:REC655361 RNX655263:RNY655361 RXT655263:RXU655361 SHP655263:SHQ655361 SRL655263:SRM655361 TBH655263:TBI655361 TLD655263:TLE655361 TUZ655263:TVA655361 UEV655263:UEW655361 UOR655263:UOS655361 UYN655263:UYO655361 VIJ655263:VIK655361 VSF655263:VSG655361 WCB655263:WCC655361 WLX655263:WLY655361 WVT655263:WVU655361 B720799:C720897 JH720799:JI720897 TD720799:TE720897 ACZ720799:ADA720897 AMV720799:AMW720897 AWR720799:AWS720897 BGN720799:BGO720897 BQJ720799:BQK720897 CAF720799:CAG720897 CKB720799:CKC720897 CTX720799:CTY720897 DDT720799:DDU720897 DNP720799:DNQ720897 DXL720799:DXM720897 EHH720799:EHI720897 ERD720799:ERE720897 FAZ720799:FBA720897 FKV720799:FKW720897 FUR720799:FUS720897 GEN720799:GEO720897 GOJ720799:GOK720897 GYF720799:GYG720897 HIB720799:HIC720897 HRX720799:HRY720897 IBT720799:IBU720897 ILP720799:ILQ720897 IVL720799:IVM720897 JFH720799:JFI720897 JPD720799:JPE720897 JYZ720799:JZA720897 KIV720799:KIW720897 KSR720799:KSS720897 LCN720799:LCO720897 LMJ720799:LMK720897 LWF720799:LWG720897 MGB720799:MGC720897 MPX720799:MPY720897 MZT720799:MZU720897 NJP720799:NJQ720897 NTL720799:NTM720897 ODH720799:ODI720897 OND720799:ONE720897 OWZ720799:OXA720897 PGV720799:PGW720897 PQR720799:PQS720897 QAN720799:QAO720897 QKJ720799:QKK720897 QUF720799:QUG720897 REB720799:REC720897 RNX720799:RNY720897 RXT720799:RXU720897 SHP720799:SHQ720897 SRL720799:SRM720897 TBH720799:TBI720897 TLD720799:TLE720897 TUZ720799:TVA720897 UEV720799:UEW720897 UOR720799:UOS720897 UYN720799:UYO720897 VIJ720799:VIK720897 VSF720799:VSG720897 WCB720799:WCC720897 WLX720799:WLY720897 WVT720799:WVU720897 B786335:C786433 JH786335:JI786433 TD786335:TE786433 ACZ786335:ADA786433 AMV786335:AMW786433 AWR786335:AWS786433 BGN786335:BGO786433 BQJ786335:BQK786433 CAF786335:CAG786433 CKB786335:CKC786433 CTX786335:CTY786433 DDT786335:DDU786433 DNP786335:DNQ786433 DXL786335:DXM786433 EHH786335:EHI786433 ERD786335:ERE786433 FAZ786335:FBA786433 FKV786335:FKW786433 FUR786335:FUS786433 GEN786335:GEO786433 GOJ786335:GOK786433 GYF786335:GYG786433 HIB786335:HIC786433 HRX786335:HRY786433 IBT786335:IBU786433 ILP786335:ILQ786433 IVL786335:IVM786433 JFH786335:JFI786433 JPD786335:JPE786433 JYZ786335:JZA786433 KIV786335:KIW786433 KSR786335:KSS786433 LCN786335:LCO786433 LMJ786335:LMK786433 LWF786335:LWG786433 MGB786335:MGC786433 MPX786335:MPY786433 MZT786335:MZU786433 NJP786335:NJQ786433 NTL786335:NTM786433 ODH786335:ODI786433 OND786335:ONE786433 OWZ786335:OXA786433 PGV786335:PGW786433 PQR786335:PQS786433 QAN786335:QAO786433 QKJ786335:QKK786433 QUF786335:QUG786433 REB786335:REC786433 RNX786335:RNY786433 RXT786335:RXU786433 SHP786335:SHQ786433 SRL786335:SRM786433 TBH786335:TBI786433 TLD786335:TLE786433 TUZ786335:TVA786433 UEV786335:UEW786433 UOR786335:UOS786433 UYN786335:UYO786433 VIJ786335:VIK786433 VSF786335:VSG786433 WCB786335:WCC786433 WLX786335:WLY786433 WVT786335:WVU786433 B851871:C851969 JH851871:JI851969 TD851871:TE851969 ACZ851871:ADA851969 AMV851871:AMW851969 AWR851871:AWS851969 BGN851871:BGO851969 BQJ851871:BQK851969 CAF851871:CAG851969 CKB851871:CKC851969 CTX851871:CTY851969 DDT851871:DDU851969 DNP851871:DNQ851969 DXL851871:DXM851969 EHH851871:EHI851969 ERD851871:ERE851969 FAZ851871:FBA851969 FKV851871:FKW851969 FUR851871:FUS851969 GEN851871:GEO851969 GOJ851871:GOK851969 GYF851871:GYG851969 HIB851871:HIC851969 HRX851871:HRY851969 IBT851871:IBU851969 ILP851871:ILQ851969 IVL851871:IVM851969 JFH851871:JFI851969 JPD851871:JPE851969 JYZ851871:JZA851969 KIV851871:KIW851969 KSR851871:KSS851969 LCN851871:LCO851969 LMJ851871:LMK851969 LWF851871:LWG851969 MGB851871:MGC851969 MPX851871:MPY851969 MZT851871:MZU851969 NJP851871:NJQ851969 NTL851871:NTM851969 ODH851871:ODI851969 OND851871:ONE851969 OWZ851871:OXA851969 PGV851871:PGW851969 PQR851871:PQS851969 QAN851871:QAO851969 QKJ851871:QKK851969 QUF851871:QUG851969 REB851871:REC851969 RNX851871:RNY851969 RXT851871:RXU851969 SHP851871:SHQ851969 SRL851871:SRM851969 TBH851871:TBI851969 TLD851871:TLE851969 TUZ851871:TVA851969 UEV851871:UEW851969 UOR851871:UOS851969 UYN851871:UYO851969 VIJ851871:VIK851969 VSF851871:VSG851969 WCB851871:WCC851969 WLX851871:WLY851969 WVT851871:WVU851969 B917407:C917505 JH917407:JI917505 TD917407:TE917505 ACZ917407:ADA917505 AMV917407:AMW917505 AWR917407:AWS917505 BGN917407:BGO917505 BQJ917407:BQK917505 CAF917407:CAG917505 CKB917407:CKC917505 CTX917407:CTY917505 DDT917407:DDU917505 DNP917407:DNQ917505 DXL917407:DXM917505 EHH917407:EHI917505 ERD917407:ERE917505 FAZ917407:FBA917505 FKV917407:FKW917505 FUR917407:FUS917505 GEN917407:GEO917505 GOJ917407:GOK917505 GYF917407:GYG917505 HIB917407:HIC917505 HRX917407:HRY917505 IBT917407:IBU917505 ILP917407:ILQ917505 IVL917407:IVM917505 JFH917407:JFI917505 JPD917407:JPE917505 JYZ917407:JZA917505 KIV917407:KIW917505 KSR917407:KSS917505 LCN917407:LCO917505 LMJ917407:LMK917505 LWF917407:LWG917505 MGB917407:MGC917505 MPX917407:MPY917505 MZT917407:MZU917505 NJP917407:NJQ917505 NTL917407:NTM917505 ODH917407:ODI917505 OND917407:ONE917505 OWZ917407:OXA917505 PGV917407:PGW917505 PQR917407:PQS917505 QAN917407:QAO917505 QKJ917407:QKK917505 QUF917407:QUG917505 REB917407:REC917505 RNX917407:RNY917505 RXT917407:RXU917505 SHP917407:SHQ917505 SRL917407:SRM917505 TBH917407:TBI917505 TLD917407:TLE917505 TUZ917407:TVA917505 UEV917407:UEW917505 UOR917407:UOS917505 UYN917407:UYO917505 VIJ917407:VIK917505 VSF917407:VSG917505 WCB917407:WCC917505 WLX917407:WLY917505 WVT917407:WVU917505 B982943:C983041 JH982943:JI983041 TD982943:TE983041 ACZ982943:ADA983041 AMV982943:AMW983041 AWR982943:AWS983041 BGN982943:BGO983041 BQJ982943:BQK983041 CAF982943:CAG983041 CKB982943:CKC983041 CTX982943:CTY983041 DDT982943:DDU983041 DNP982943:DNQ983041 DXL982943:DXM983041 EHH982943:EHI983041 ERD982943:ERE983041 FAZ982943:FBA983041 FKV982943:FKW983041 FUR982943:FUS983041 GEN982943:GEO983041 GOJ982943:GOK983041 GYF982943:GYG983041 HIB982943:HIC983041 HRX982943:HRY983041 IBT982943:IBU983041 ILP982943:ILQ983041 IVL982943:IVM983041 JFH982943:JFI983041 JPD982943:JPE983041 JYZ982943:JZA983041 KIV982943:KIW983041 KSR982943:KSS983041 LCN982943:LCO983041 LMJ982943:LMK983041 LWF982943:LWG983041 MGB982943:MGC983041 MPX982943:MPY983041 MZT982943:MZU983041 NJP982943:NJQ983041 NTL982943:NTM983041 ODH982943:ODI983041 OND982943:ONE983041 OWZ982943:OXA983041 PGV982943:PGW983041 PQR982943:PQS983041 QAN982943:QAO983041 QKJ982943:QKK983041 QUF982943:QUG983041 REB982943:REC983041 RNX982943:RNY983041 RXT982943:RXU983041 SHP982943:SHQ983041 SRL982943:SRM983041 TBH982943:TBI983041 TLD982943:TLE983041 TUZ982943:TVA983041 UEV982943:UEW983041 UOR982943:UOS983041 UYN982943:UYO983041 VIJ982943:VIK983041 VSF982943:VSG983041 WCB982943:WCC983041 WLX982943:WLY983041 WVT982943:WVU983041" xr:uid="{F700882C-73D7-4454-9A54-D8122D5EF7BC}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 JB2:JC2 SX2:SY2 ACT2:ACU2 AMP2:AMQ2 AWL2:AWM2 BGH2:BGI2 BQD2:BQE2 BZZ2:CAA2 CJV2:CJW2 CTR2:CTS2 DDN2:DDO2 DNJ2:DNK2 DXF2:DXG2 EHB2:EHC2 EQX2:EQY2 FAT2:FAU2 FKP2:FKQ2 FUL2:FUM2 GEH2:GEI2 GOD2:GOE2 GXZ2:GYA2 HHV2:HHW2 HRR2:HRS2 IBN2:IBO2 ILJ2:ILK2 IVF2:IVG2 JFB2:JFC2 JOX2:JOY2 JYT2:JYU2 KIP2:KIQ2 KSL2:KSM2 LCH2:LCI2 LMD2:LME2 LVZ2:LWA2 MFV2:MFW2 MPR2:MPS2 MZN2:MZO2 NJJ2:NJK2 NTF2:NTG2 ODB2:ODC2 OMX2:OMY2 OWT2:OWU2 PGP2:PGQ2 PQL2:PQM2 QAH2:QAI2 QKD2:QKE2 QTZ2:QUA2 RDV2:RDW2 RNR2:RNS2 RXN2:RXO2 SHJ2:SHK2 SRF2:SRG2 TBB2:TBC2 TKX2:TKY2 TUT2:TUU2 UEP2:UEQ2 UOL2:UOM2 UYH2:UYI2 VID2:VIE2 VRZ2:VSA2 WBV2:WBW2 WLR2:WLS2 WVN2:WVO2 B65439:C65537 JB65439:JC65537 SX65439:SY65537 ACT65439:ACU65537 AMP65439:AMQ65537 AWL65439:AWM65537 BGH65439:BGI65537 BQD65439:BQE65537 BZZ65439:CAA65537 CJV65439:CJW65537 CTR65439:CTS65537 DDN65439:DDO65537 DNJ65439:DNK65537 DXF65439:DXG65537 EHB65439:EHC65537 EQX65439:EQY65537 FAT65439:FAU65537 FKP65439:FKQ65537 FUL65439:FUM65537 GEH65439:GEI65537 GOD65439:GOE65537 GXZ65439:GYA65537 HHV65439:HHW65537 HRR65439:HRS65537 IBN65439:IBO65537 ILJ65439:ILK65537 IVF65439:IVG65537 JFB65439:JFC65537 JOX65439:JOY65537 JYT65439:JYU65537 KIP65439:KIQ65537 KSL65439:KSM65537 LCH65439:LCI65537 LMD65439:LME65537 LVZ65439:LWA65537 MFV65439:MFW65537 MPR65439:MPS65537 MZN65439:MZO65537 NJJ65439:NJK65537 NTF65439:NTG65537 ODB65439:ODC65537 OMX65439:OMY65537 OWT65439:OWU65537 PGP65439:PGQ65537 PQL65439:PQM65537 QAH65439:QAI65537 QKD65439:QKE65537 QTZ65439:QUA65537 RDV65439:RDW65537 RNR65439:RNS65537 RXN65439:RXO65537 SHJ65439:SHK65537 SRF65439:SRG65537 TBB65439:TBC65537 TKX65439:TKY65537 TUT65439:TUU65537 UEP65439:UEQ65537 UOL65439:UOM65537 UYH65439:UYI65537 VID65439:VIE65537 VRZ65439:VSA65537 WBV65439:WBW65537 WLR65439:WLS65537 WVN65439:WVO65537 B130975:C131073 JB130975:JC131073 SX130975:SY131073 ACT130975:ACU131073 AMP130975:AMQ131073 AWL130975:AWM131073 BGH130975:BGI131073 BQD130975:BQE131073 BZZ130975:CAA131073 CJV130975:CJW131073 CTR130975:CTS131073 DDN130975:DDO131073 DNJ130975:DNK131073 DXF130975:DXG131073 EHB130975:EHC131073 EQX130975:EQY131073 FAT130975:FAU131073 FKP130975:FKQ131073 FUL130975:FUM131073 GEH130975:GEI131073 GOD130975:GOE131073 GXZ130975:GYA131073 HHV130975:HHW131073 HRR130975:HRS131073 IBN130975:IBO131073 ILJ130975:ILK131073 IVF130975:IVG131073 JFB130975:JFC131073 JOX130975:JOY131073 JYT130975:JYU131073 KIP130975:KIQ131073 KSL130975:KSM131073 LCH130975:LCI131073 LMD130975:LME131073 LVZ130975:LWA131073 MFV130975:MFW131073 MPR130975:MPS131073 MZN130975:MZO131073 NJJ130975:NJK131073 NTF130975:NTG131073 ODB130975:ODC131073 OMX130975:OMY131073 OWT130975:OWU131073 PGP130975:PGQ131073 PQL130975:PQM131073 QAH130975:QAI131073 QKD130975:QKE131073 QTZ130975:QUA131073 RDV130975:RDW131073 RNR130975:RNS131073 RXN130975:RXO131073 SHJ130975:SHK131073 SRF130975:SRG131073 TBB130975:TBC131073 TKX130975:TKY131073 TUT130975:TUU131073 UEP130975:UEQ131073 UOL130975:UOM131073 UYH130975:UYI131073 VID130975:VIE131073 VRZ130975:VSA131073 WBV130975:WBW131073 WLR130975:WLS131073 WVN130975:WVO131073 B196511:C196609 JB196511:JC196609 SX196511:SY196609 ACT196511:ACU196609 AMP196511:AMQ196609 AWL196511:AWM196609 BGH196511:BGI196609 BQD196511:BQE196609 BZZ196511:CAA196609 CJV196511:CJW196609 CTR196511:CTS196609 DDN196511:DDO196609 DNJ196511:DNK196609 DXF196511:DXG196609 EHB196511:EHC196609 EQX196511:EQY196609 FAT196511:FAU196609 FKP196511:FKQ196609 FUL196511:FUM196609 GEH196511:GEI196609 GOD196511:GOE196609 GXZ196511:GYA196609 HHV196511:HHW196609 HRR196511:HRS196609 IBN196511:IBO196609 ILJ196511:ILK196609 IVF196511:IVG196609 JFB196511:JFC196609 JOX196511:JOY196609 JYT196511:JYU196609 KIP196511:KIQ196609 KSL196511:KSM196609 LCH196511:LCI196609 LMD196511:LME196609 LVZ196511:LWA196609 MFV196511:MFW196609 MPR196511:MPS196609 MZN196511:MZO196609 NJJ196511:NJK196609 NTF196511:NTG196609 ODB196511:ODC196609 OMX196511:OMY196609 OWT196511:OWU196609 PGP196511:PGQ196609 PQL196511:PQM196609 QAH196511:QAI196609 QKD196511:QKE196609 QTZ196511:QUA196609 RDV196511:RDW196609 RNR196511:RNS196609 RXN196511:RXO196609 SHJ196511:SHK196609 SRF196511:SRG196609 TBB196511:TBC196609 TKX196511:TKY196609 TUT196511:TUU196609 UEP196511:UEQ196609 UOL196511:UOM196609 UYH196511:UYI196609 VID196511:VIE196609 VRZ196511:VSA196609 WBV196511:WBW196609 WLR196511:WLS196609 WVN196511:WVO196609 B262047:C262145 JB262047:JC262145 SX262047:SY262145 ACT262047:ACU262145 AMP262047:AMQ262145 AWL262047:AWM262145 BGH262047:BGI262145 BQD262047:BQE262145 BZZ262047:CAA262145 CJV262047:CJW262145 CTR262047:CTS262145 DDN262047:DDO262145 DNJ262047:DNK262145 DXF262047:DXG262145 EHB262047:EHC262145 EQX262047:EQY262145 FAT262047:FAU262145 FKP262047:FKQ262145 FUL262047:FUM262145 GEH262047:GEI262145 GOD262047:GOE262145 GXZ262047:GYA262145 HHV262047:HHW262145 HRR262047:HRS262145 IBN262047:IBO262145 ILJ262047:ILK262145 IVF262047:IVG262145 JFB262047:JFC262145 JOX262047:JOY262145 JYT262047:JYU262145 KIP262047:KIQ262145 KSL262047:KSM262145 LCH262047:LCI262145 LMD262047:LME262145 LVZ262047:LWA262145 MFV262047:MFW262145 MPR262047:MPS262145 MZN262047:MZO262145 NJJ262047:NJK262145 NTF262047:NTG262145 ODB262047:ODC262145 OMX262047:OMY262145 OWT262047:OWU262145 PGP262047:PGQ262145 PQL262047:PQM262145 QAH262047:QAI262145 QKD262047:QKE262145 QTZ262047:QUA262145 RDV262047:RDW262145 RNR262047:RNS262145 RXN262047:RXO262145 SHJ262047:SHK262145 SRF262047:SRG262145 TBB262047:TBC262145 TKX262047:TKY262145 TUT262047:TUU262145 UEP262047:UEQ262145 UOL262047:UOM262145 UYH262047:UYI262145 VID262047:VIE262145 VRZ262047:VSA262145 WBV262047:WBW262145 WLR262047:WLS262145 WVN262047:WVO262145 B327583:C327681 JB327583:JC327681 SX327583:SY327681 ACT327583:ACU327681 AMP327583:AMQ327681 AWL327583:AWM327681 BGH327583:BGI327681 BQD327583:BQE327681 BZZ327583:CAA327681 CJV327583:CJW327681 CTR327583:CTS327681 DDN327583:DDO327681 DNJ327583:DNK327681 DXF327583:DXG327681 EHB327583:EHC327681 EQX327583:EQY327681 FAT327583:FAU327681 FKP327583:FKQ327681 FUL327583:FUM327681 GEH327583:GEI327681 GOD327583:GOE327681 GXZ327583:GYA327681 HHV327583:HHW327681 HRR327583:HRS327681 IBN327583:IBO327681 ILJ327583:ILK327681 IVF327583:IVG327681 JFB327583:JFC327681 JOX327583:JOY327681 JYT327583:JYU327681 KIP327583:KIQ327681 KSL327583:KSM327681 LCH327583:LCI327681 LMD327583:LME327681 LVZ327583:LWA327681 MFV327583:MFW327681 MPR327583:MPS327681 MZN327583:MZO327681 NJJ327583:NJK327681 NTF327583:NTG327681 ODB327583:ODC327681 OMX327583:OMY327681 OWT327583:OWU327681 PGP327583:PGQ327681 PQL327583:PQM327681 QAH327583:QAI327681 QKD327583:QKE327681 QTZ327583:QUA327681 RDV327583:RDW327681 RNR327583:RNS327681 RXN327583:RXO327681 SHJ327583:SHK327681 SRF327583:SRG327681 TBB327583:TBC327681 TKX327583:TKY327681 TUT327583:TUU327681 UEP327583:UEQ327681 UOL327583:UOM327681 UYH327583:UYI327681 VID327583:VIE327681 VRZ327583:VSA327681 WBV327583:WBW327681 WLR327583:WLS327681 WVN327583:WVO327681 B393119:C393217 JB393119:JC393217 SX393119:SY393217 ACT393119:ACU393217 AMP393119:AMQ393217 AWL393119:AWM393217 BGH393119:BGI393217 BQD393119:BQE393217 BZZ393119:CAA393217 CJV393119:CJW393217 CTR393119:CTS393217 DDN393119:DDO393217 DNJ393119:DNK393217 DXF393119:DXG393217 EHB393119:EHC393217 EQX393119:EQY393217 FAT393119:FAU393217 FKP393119:FKQ393217 FUL393119:FUM393217 GEH393119:GEI393217 GOD393119:GOE393217 GXZ393119:GYA393217 HHV393119:HHW393217 HRR393119:HRS393217 IBN393119:IBO393217 ILJ393119:ILK393217 IVF393119:IVG393217 JFB393119:JFC393217 JOX393119:JOY393217 JYT393119:JYU393217 KIP393119:KIQ393217 KSL393119:KSM393217 LCH393119:LCI393217 LMD393119:LME393217 LVZ393119:LWA393217 MFV393119:MFW393217 MPR393119:MPS393217 MZN393119:MZO393217 NJJ393119:NJK393217 NTF393119:NTG393217 ODB393119:ODC393217 OMX393119:OMY393217 OWT393119:OWU393217 PGP393119:PGQ393217 PQL393119:PQM393217 QAH393119:QAI393217 QKD393119:QKE393217 QTZ393119:QUA393217 RDV393119:RDW393217 RNR393119:RNS393217 RXN393119:RXO393217 SHJ393119:SHK393217 SRF393119:SRG393217 TBB393119:TBC393217 TKX393119:TKY393217 TUT393119:TUU393217 UEP393119:UEQ393217 UOL393119:UOM393217 UYH393119:UYI393217 VID393119:VIE393217 VRZ393119:VSA393217 WBV393119:WBW393217 WLR393119:WLS393217 WVN393119:WVO393217 B458655:C458753 JB458655:JC458753 SX458655:SY458753 ACT458655:ACU458753 AMP458655:AMQ458753 AWL458655:AWM458753 BGH458655:BGI458753 BQD458655:BQE458753 BZZ458655:CAA458753 CJV458655:CJW458753 CTR458655:CTS458753 DDN458655:DDO458753 DNJ458655:DNK458753 DXF458655:DXG458753 EHB458655:EHC458753 EQX458655:EQY458753 FAT458655:FAU458753 FKP458655:FKQ458753 FUL458655:FUM458753 GEH458655:GEI458753 GOD458655:GOE458753 GXZ458655:GYA458753 HHV458655:HHW458753 HRR458655:HRS458753 IBN458655:IBO458753 ILJ458655:ILK458753 IVF458655:IVG458753 JFB458655:JFC458753 JOX458655:JOY458753 JYT458655:JYU458753 KIP458655:KIQ458753 KSL458655:KSM458753 LCH458655:LCI458753 LMD458655:LME458753 LVZ458655:LWA458753 MFV458655:MFW458753 MPR458655:MPS458753 MZN458655:MZO458753 NJJ458655:NJK458753 NTF458655:NTG458753 ODB458655:ODC458753 OMX458655:OMY458753 OWT458655:OWU458753 PGP458655:PGQ458753 PQL458655:PQM458753 QAH458655:QAI458753 QKD458655:QKE458753 QTZ458655:QUA458753 RDV458655:RDW458753 RNR458655:RNS458753 RXN458655:RXO458753 SHJ458655:SHK458753 SRF458655:SRG458753 TBB458655:TBC458753 TKX458655:TKY458753 TUT458655:TUU458753 UEP458655:UEQ458753 UOL458655:UOM458753 UYH458655:UYI458753 VID458655:VIE458753 VRZ458655:VSA458753 WBV458655:WBW458753 WLR458655:WLS458753 WVN458655:WVO458753 B524191:C524289 JB524191:JC524289 SX524191:SY524289 ACT524191:ACU524289 AMP524191:AMQ524289 AWL524191:AWM524289 BGH524191:BGI524289 BQD524191:BQE524289 BZZ524191:CAA524289 CJV524191:CJW524289 CTR524191:CTS524289 DDN524191:DDO524289 DNJ524191:DNK524289 DXF524191:DXG524289 EHB524191:EHC524289 EQX524191:EQY524289 FAT524191:FAU524289 FKP524191:FKQ524289 FUL524191:FUM524289 GEH524191:GEI524289 GOD524191:GOE524289 GXZ524191:GYA524289 HHV524191:HHW524289 HRR524191:HRS524289 IBN524191:IBO524289 ILJ524191:ILK524289 IVF524191:IVG524289 JFB524191:JFC524289 JOX524191:JOY524289 JYT524191:JYU524289 KIP524191:KIQ524289 KSL524191:KSM524289 LCH524191:LCI524289 LMD524191:LME524289 LVZ524191:LWA524289 MFV524191:MFW524289 MPR524191:MPS524289 MZN524191:MZO524289 NJJ524191:NJK524289 NTF524191:NTG524289 ODB524191:ODC524289 OMX524191:OMY524289 OWT524191:OWU524289 PGP524191:PGQ524289 PQL524191:PQM524289 QAH524191:QAI524289 QKD524191:QKE524289 QTZ524191:QUA524289 RDV524191:RDW524289 RNR524191:RNS524289 RXN524191:RXO524289 SHJ524191:SHK524289 SRF524191:SRG524289 TBB524191:TBC524289 TKX524191:TKY524289 TUT524191:TUU524289 UEP524191:UEQ524289 UOL524191:UOM524289 UYH524191:UYI524289 VID524191:VIE524289 VRZ524191:VSA524289 WBV524191:WBW524289 WLR524191:WLS524289 WVN524191:WVO524289 B589727:C589825 JB589727:JC589825 SX589727:SY589825 ACT589727:ACU589825 AMP589727:AMQ589825 AWL589727:AWM589825 BGH589727:BGI589825 BQD589727:BQE589825 BZZ589727:CAA589825 CJV589727:CJW589825 CTR589727:CTS589825 DDN589727:DDO589825 DNJ589727:DNK589825 DXF589727:DXG589825 EHB589727:EHC589825 EQX589727:EQY589825 FAT589727:FAU589825 FKP589727:FKQ589825 FUL589727:FUM589825 GEH589727:GEI589825 GOD589727:GOE589825 GXZ589727:GYA589825 HHV589727:HHW589825 HRR589727:HRS589825 IBN589727:IBO589825 ILJ589727:ILK589825 IVF589727:IVG589825 JFB589727:JFC589825 JOX589727:JOY589825 JYT589727:JYU589825 KIP589727:KIQ589825 KSL589727:KSM589825 LCH589727:LCI589825 LMD589727:LME589825 LVZ589727:LWA589825 MFV589727:MFW589825 MPR589727:MPS589825 MZN589727:MZO589825 NJJ589727:NJK589825 NTF589727:NTG589825 ODB589727:ODC589825 OMX589727:OMY589825 OWT589727:OWU589825 PGP589727:PGQ589825 PQL589727:PQM589825 QAH589727:QAI589825 QKD589727:QKE589825 QTZ589727:QUA589825 RDV589727:RDW589825 RNR589727:RNS589825 RXN589727:RXO589825 SHJ589727:SHK589825 SRF589727:SRG589825 TBB589727:TBC589825 TKX589727:TKY589825 TUT589727:TUU589825 UEP589727:UEQ589825 UOL589727:UOM589825 UYH589727:UYI589825 VID589727:VIE589825 VRZ589727:VSA589825 WBV589727:WBW589825 WLR589727:WLS589825 WVN589727:WVO589825 B655263:C655361 JB655263:JC655361 SX655263:SY655361 ACT655263:ACU655361 AMP655263:AMQ655361 AWL655263:AWM655361 BGH655263:BGI655361 BQD655263:BQE655361 BZZ655263:CAA655361 CJV655263:CJW655361 CTR655263:CTS655361 DDN655263:DDO655361 DNJ655263:DNK655361 DXF655263:DXG655361 EHB655263:EHC655361 EQX655263:EQY655361 FAT655263:FAU655361 FKP655263:FKQ655361 FUL655263:FUM655361 GEH655263:GEI655361 GOD655263:GOE655361 GXZ655263:GYA655361 HHV655263:HHW655361 HRR655263:HRS655361 IBN655263:IBO655361 ILJ655263:ILK655361 IVF655263:IVG655361 JFB655263:JFC655361 JOX655263:JOY655361 JYT655263:JYU655361 KIP655263:KIQ655361 KSL655263:KSM655361 LCH655263:LCI655361 LMD655263:LME655361 LVZ655263:LWA655361 MFV655263:MFW655361 MPR655263:MPS655361 MZN655263:MZO655361 NJJ655263:NJK655361 NTF655263:NTG655361 ODB655263:ODC655361 OMX655263:OMY655361 OWT655263:OWU655361 PGP655263:PGQ655361 PQL655263:PQM655361 QAH655263:QAI655361 QKD655263:QKE655361 QTZ655263:QUA655361 RDV655263:RDW655361 RNR655263:RNS655361 RXN655263:RXO655361 SHJ655263:SHK655361 SRF655263:SRG655361 TBB655263:TBC655361 TKX655263:TKY655361 TUT655263:TUU655361 UEP655263:UEQ655361 UOL655263:UOM655361 UYH655263:UYI655361 VID655263:VIE655361 VRZ655263:VSA655361 WBV655263:WBW655361 WLR655263:WLS655361 WVN655263:WVO655361 B720799:C720897 JB720799:JC720897 SX720799:SY720897 ACT720799:ACU720897 AMP720799:AMQ720897 AWL720799:AWM720897 BGH720799:BGI720897 BQD720799:BQE720897 BZZ720799:CAA720897 CJV720799:CJW720897 CTR720799:CTS720897 DDN720799:DDO720897 DNJ720799:DNK720897 DXF720799:DXG720897 EHB720799:EHC720897 EQX720799:EQY720897 FAT720799:FAU720897 FKP720799:FKQ720897 FUL720799:FUM720897 GEH720799:GEI720897 GOD720799:GOE720897 GXZ720799:GYA720897 HHV720799:HHW720897 HRR720799:HRS720897 IBN720799:IBO720897 ILJ720799:ILK720897 IVF720799:IVG720897 JFB720799:JFC720897 JOX720799:JOY720897 JYT720799:JYU720897 KIP720799:KIQ720897 KSL720799:KSM720897 LCH720799:LCI720897 LMD720799:LME720897 LVZ720799:LWA720897 MFV720799:MFW720897 MPR720799:MPS720897 MZN720799:MZO720897 NJJ720799:NJK720897 NTF720799:NTG720897 ODB720799:ODC720897 OMX720799:OMY720897 OWT720799:OWU720897 PGP720799:PGQ720897 PQL720799:PQM720897 QAH720799:QAI720897 QKD720799:QKE720897 QTZ720799:QUA720897 RDV720799:RDW720897 RNR720799:RNS720897 RXN720799:RXO720897 SHJ720799:SHK720897 SRF720799:SRG720897 TBB720799:TBC720897 TKX720799:TKY720897 TUT720799:TUU720897 UEP720799:UEQ720897 UOL720799:UOM720897 UYH720799:UYI720897 VID720799:VIE720897 VRZ720799:VSA720897 WBV720799:WBW720897 WLR720799:WLS720897 WVN720799:WVO720897 B786335:C786433 JB786335:JC786433 SX786335:SY786433 ACT786335:ACU786433 AMP786335:AMQ786433 AWL786335:AWM786433 BGH786335:BGI786433 BQD786335:BQE786433 BZZ786335:CAA786433 CJV786335:CJW786433 CTR786335:CTS786433 DDN786335:DDO786433 DNJ786335:DNK786433 DXF786335:DXG786433 EHB786335:EHC786433 EQX786335:EQY786433 FAT786335:FAU786433 FKP786335:FKQ786433 FUL786335:FUM786433 GEH786335:GEI786433 GOD786335:GOE786433 GXZ786335:GYA786433 HHV786335:HHW786433 HRR786335:HRS786433 IBN786335:IBO786433 ILJ786335:ILK786433 IVF786335:IVG786433 JFB786335:JFC786433 JOX786335:JOY786433 JYT786335:JYU786433 KIP786335:KIQ786433 KSL786335:KSM786433 LCH786335:LCI786433 LMD786335:LME786433 LVZ786335:LWA786433 MFV786335:MFW786433 MPR786335:MPS786433 MZN786335:MZO786433 NJJ786335:NJK786433 NTF786335:NTG786433 ODB786335:ODC786433 OMX786335:OMY786433 OWT786335:OWU786433 PGP786335:PGQ786433 PQL786335:PQM786433 QAH786335:QAI786433 QKD786335:QKE786433 QTZ786335:QUA786433 RDV786335:RDW786433 RNR786335:RNS786433 RXN786335:RXO786433 SHJ786335:SHK786433 SRF786335:SRG786433 TBB786335:TBC786433 TKX786335:TKY786433 TUT786335:TUU786433 UEP786335:UEQ786433 UOL786335:UOM786433 UYH786335:UYI786433 VID786335:VIE786433 VRZ786335:VSA786433 WBV786335:WBW786433 WLR786335:WLS786433 WVN786335:WVO786433 B851871:C851969 JB851871:JC851969 SX851871:SY851969 ACT851871:ACU851969 AMP851871:AMQ851969 AWL851871:AWM851969 BGH851871:BGI851969 BQD851871:BQE851969 BZZ851871:CAA851969 CJV851871:CJW851969 CTR851871:CTS851969 DDN851871:DDO851969 DNJ851871:DNK851969 DXF851871:DXG851969 EHB851871:EHC851969 EQX851871:EQY851969 FAT851871:FAU851969 FKP851871:FKQ851969 FUL851871:FUM851969 GEH851871:GEI851969 GOD851871:GOE851969 GXZ851871:GYA851969 HHV851871:HHW851969 HRR851871:HRS851969 IBN851871:IBO851969 ILJ851871:ILK851969 IVF851871:IVG851969 JFB851871:JFC851969 JOX851871:JOY851969 JYT851871:JYU851969 KIP851871:KIQ851969 KSL851871:KSM851969 LCH851871:LCI851969 LMD851871:LME851969 LVZ851871:LWA851969 MFV851871:MFW851969 MPR851871:MPS851969 MZN851871:MZO851969 NJJ851871:NJK851969 NTF851871:NTG851969 ODB851871:ODC851969 OMX851871:OMY851969 OWT851871:OWU851969 PGP851871:PGQ851969 PQL851871:PQM851969 QAH851871:QAI851969 QKD851871:QKE851969 QTZ851871:QUA851969 RDV851871:RDW851969 RNR851871:RNS851969 RXN851871:RXO851969 SHJ851871:SHK851969 SRF851871:SRG851969 TBB851871:TBC851969 TKX851871:TKY851969 TUT851871:TUU851969 UEP851871:UEQ851969 UOL851871:UOM851969 UYH851871:UYI851969 VID851871:VIE851969 VRZ851871:VSA851969 WBV851871:WBW851969 WLR851871:WLS851969 WVN851871:WVO851969 B917407:C917505 JB917407:JC917505 SX917407:SY917505 ACT917407:ACU917505 AMP917407:AMQ917505 AWL917407:AWM917505 BGH917407:BGI917505 BQD917407:BQE917505 BZZ917407:CAA917505 CJV917407:CJW917505 CTR917407:CTS917505 DDN917407:DDO917505 DNJ917407:DNK917505 DXF917407:DXG917505 EHB917407:EHC917505 EQX917407:EQY917505 FAT917407:FAU917505 FKP917407:FKQ917505 FUL917407:FUM917505 GEH917407:GEI917505 GOD917407:GOE917505 GXZ917407:GYA917505 HHV917407:HHW917505 HRR917407:HRS917505 IBN917407:IBO917505 ILJ917407:ILK917505 IVF917407:IVG917505 JFB917407:JFC917505 JOX917407:JOY917505 JYT917407:JYU917505 KIP917407:KIQ917505 KSL917407:KSM917505 LCH917407:LCI917505 LMD917407:LME917505 LVZ917407:LWA917505 MFV917407:MFW917505 MPR917407:MPS917505 MZN917407:MZO917505 NJJ917407:NJK917505 NTF917407:NTG917505 ODB917407:ODC917505 OMX917407:OMY917505 OWT917407:OWU917505 PGP917407:PGQ917505 PQL917407:PQM917505 QAH917407:QAI917505 QKD917407:QKE917505 QTZ917407:QUA917505 RDV917407:RDW917505 RNR917407:RNS917505 RXN917407:RXO917505 SHJ917407:SHK917505 SRF917407:SRG917505 TBB917407:TBC917505 TKX917407:TKY917505 TUT917407:TUU917505 UEP917407:UEQ917505 UOL917407:UOM917505 UYH917407:UYI917505 VID917407:VIE917505 VRZ917407:VSA917505 WBV917407:WBW917505 WLR917407:WLS917505 WVN917407:WVO917505 B982943:C983041 JB982943:JC983041 SX982943:SY983041 ACT982943:ACU983041 AMP982943:AMQ983041 AWL982943:AWM983041 BGH982943:BGI983041 BQD982943:BQE983041 BZZ982943:CAA983041 CJV982943:CJW983041 CTR982943:CTS983041 DDN982943:DDO983041 DNJ982943:DNK983041 DXF982943:DXG983041 EHB982943:EHC983041 EQX982943:EQY983041 FAT982943:FAU983041 FKP982943:FKQ983